--- a/repo/word_fragments.xlsx
+++ b/repo/word_fragments.xlsx
@@ -462,378 +462,378 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>嘉義 東石鄉 掌潭村 的 白水 湖壽島   當地 因長 期 地層下陷   每到 漲潮 時陸 地 就 會 被 海 水淹 沒   退潮 時 又 再度 浮出 水面   因此 也 被 稱 為 嘉義 版 的 「 摩西 分海 」   近年 來 更 因為 電影 消失 的 情人 節來 此 取景   讓 白水 湖壽島 成為 遊客 朝 聖 的 觀 光景 點               登入 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     訂閱 支持</t>
+          <t xml:space="preserve">地層 嚴重 下陷 的 問題 不是 只有 台灣會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 有 33 座 城市   以 每年 超過 一 公分 的 速度 下沉   是 海平面 上升 速度 的 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 的 是   連美國 南部 大城 休士頓 也 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 也 在 當地 設立 太空中心   但 你 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 在 地 平面   根據 「 世界 經濟 論壇 」 最近 發布 的 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 的 城市   也 是 西半球 唯一一 個 下沉 速度 排入 前十名 的 城市   美國氣 候專 家史 特勞斯 表示   「 雖然 土地 現在 有 大小 堤防 保護   但   地層下陷   仍 超乎想像   」 專家 表示   休士頓 下沉 速度 快   海平面 也 上升 迅速   再 加上 氣候 變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 的 惡化 強度 和 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 的 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 的 下沉 危機 也 一度 非常 嚴重   在 全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示   「 非常 重要 的   雅加 達 和 曼谷 從 東京 和 上海 汲取 成功 經驗   」 科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 的 模擬 畫面   在 在 都 提醒 人類 要 相信 科學   保護 自己 的 家園 避免 消失 刻 不容 緩  </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">地層 嚴重 下陷 的 問題 不是 只有 台灣會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 有 33 座 城市   以 每年 超過 一 公分 的 速度 下沉   是 海平面 上升 速度 的 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 的 是   連美國 南部 大城 休士頓 也 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 也 在 當地 設立 太空中心   但 你 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 在 地 平面   根據 「 世界 經濟 論壇 」 最近 發布 的 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 的 城市   也 是 西半球 唯一一 個 下沉 速度 排入 前十名 的 城市   美國氣 候專 家史 特勞斯 表示   「 雖然 土地 現在 有 大小 堤防 保護   但   地層下陷   仍 超乎想像   」 專家 表示   休士頓 下沉 速度 快   海平面 也 上升 迅速   再 加上 氣候 變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 的 惡化 強度 和 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 的 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 的 下沉 危機 也 一度 非常 嚴重   在 全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示   「 非常 重要 的   雅加 達 和 曼谷 從 東京 和 上海 汲取 成功 經驗   」 科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 的 模擬 畫面   在 在 都 提醒 人類 要 相信 科學   保護 自己 的 家園 避免 消失 刻 不容 緩  </t>
+          <t>水岸 第一排 住宅   開門   開窗 即 見 怡然 美景   住家 擁有 永久 棟 距   是 許多人 嚮 往 的 住居   正因 稀有性   房價 比 一般 房宅略 高   不過   想 坐 擁 水岸 宅   購 屋前 需有 風險 意識   魔鬼 藏 在 細節裡   思考 後 再 出手   能 避免 踩 雷               登入 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     訂閱 支持</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>水岸 第一排 住宅   開門   開窗 即 見 怡然 美景   住家 擁有 永久 棟 距   是 許多人 嚮 往 的 住居   正因 稀有性   房價 比 一般 房宅略 高   不過   想 坐 擁 水岸 宅   購 屋前 需有 風險 意識   魔鬼 藏 在 細節裡   思考 後 再 出手   能 避免 踩 雷               登入 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     訂閱 支持</t>
+          <t>農委會 主委 陳 吉   右 3   與 立委 蘇治芬   右 2   等 人會 勘 雲林 口湖   台西 等 地 耕作 困難 地     記者 黃 淑莉攝     〔 記者黃淑莉 ／ 雲林 報導 〕 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人   到 雲林 口湖   台西 實地 勘查 多處 嚴重 地層下陷 區   土地 數 10 年來 無法 耕作   養殖   陳 吉仲說   不 排除 以 專案   示範場域 方式   與 國家 綠能 政策 結合   附予 這類 土地 新價值   進而 創造 多贏     蘇治芬 指出   口湖   台西 等 沿海 地區 有 多 處位 處 嚴重 地層下陷 區 土地   卻 具有 困難 耕作 地   養殖 專區   地層下陷 區等 多重 身分   現況 是數 10 年來 因難 耕作   地上 荒涼   地主 怨嘆 又 無奈     蘇治芬 說   若 沒 有 新 的 土地 政策 進場 協助   數 10 年後還 是 與 現況 一樣   接到 許多 農民陳情   今天 邀請 農委會 主委 現勘   盼能 盤點 政策 協助   才能 附予 土地 新價值     陳 吉仲 表示   會 勘後會 與 相關 單位 討論 調整 相關 政策   在 不 影響 農漁業 生產 又 兼顧 農漁 民生 計   考慮 結合國家 綠電 發展   並以 專案 或示 範場域 方式 進行   進而 創造 農民   地方 發展   國家 重要 政策 也 能 發展 的 三贏     一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>農委會 主委 陳 吉   右 3   與 立委 蘇治芬   右 2   等 人會 勘 雲林 口湖   台西 等 地 耕作 困難 地     記者 黃 淑莉攝     〔 記者黃淑莉 ／ 雲林 報導 〕 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人   到 雲林 口湖   台西 實地 勘查 多處 嚴重 地層下陷 區   土地 數 10 年來 無法 耕作   養殖   陳 吉仲說   不 排除 以 專案   示範場域 方式   與 國家 綠能 政策 結合   附予 這類 土地 新價值   進而 創造 多贏     蘇治芬 指出   口湖   台西 等 沿海 地區 有 多 處位 處 嚴重 地層下陷 區 土地   卻 具有 困難 耕作 地   養殖 專區   地層下陷 區等 多重 身分   現況 是數 10 年來 因難 耕作   地上 荒涼   地主 怨嘆 又 無奈     蘇治芬 說   若 沒 有 新 的 土地 政策 進場 協助   數 10 年後還 是 與 現況 一樣   接到 許多 農民陳情   今天 邀請 農委會 主委 現勘   盼能 盤點 政策 協助   才能 附予 土地 新價值     陳 吉仲 表示   會 勘後會 與 相關 單位 討論 調整 相關 政策   在 不 影響 農漁業 生產 又 兼顧 農漁 民生 計   考慮 結合國家 綠電 發展   並以 專案 或示 範場域 方式 進行   進而 創造 農民   地方 發展   國家 重要 政策 也 能 發展 的 三贏     一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
+          <t xml:space="preserve">台北 捷運 萬大線 工程 被民眾 直擊 疑似 施工 不慎   日前 出現 自來 水管 破裂   還導致 柏油路 面 凹陷   讓 車輛 經過 像是 開在 彈簧 床上   不 只 如此   工人 甚至 被 目擊 在 滿 是 乙炔 鋼瓶 旁 抽 菸   遭質疑 這樣 難道 不會 對 工安 造成危害 嗎   被 指控 缺失   捷運局 表示   已經 找 自來 水 公司 協助止 漏   路面 下陷 也 加鋪 恢 復 正常   至於 工人 則是 在 休息 區抽 菸   並無 不妥   捷運 萬大線 施工 現場 滴滴答答   水流 個 不停   這 不是 天空 在 下雨   而是 水管 破裂   讓 工人 施工 像是 水 濂 洞 一樣   大量 自來 水不斷 流出   更 扯 的 是 有 附近 住戶 說   已經流 了 一個 禮拜 還沒 改善   更 疑似 導致 附近 路面 凹陷   車輛 經過 凹陷 路面 彈了 好 大 一下   駕駛 也 嚇到 急 踩 煞車   北市 的 捷運 萬大線 工程   有民眾 向 議員 投訴   說 恐怕 有 工安 問題   還有 工人 在 氧氣 跟 乙炔 鋼瓶 附近 大膽 抽 菸   讓民眾 看 了 好 擔心   對此 萬華區 全 德里 長 王平 三 表示   「 這個 地方 捷運 做到 現在   漏水   地方 下陷 的 地方 很多   所以 他們 也 很煩   但 不 至於 說 很 害怕   只是 我們 必須 要 小心 點 」   民眾 擔憂 破裂 的 水管 會導致 地層下陷   影響 住家 安全   也 質疑 是 捷運 施工 不慎   挖破 管線   但是 捷運局 趕緊 出面 澄清   表示 已經 找 自來 水 公司 協助止 漏   路面 凹陷 部分 也 重新 鋪 好   至於 工人 抽 菸 地點 是 在 休息 區內   符合 法規   但 未來 將劃 設明顯 休息 區   避免 民眾 質疑 有 工安疑慮  </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 捷運 萬大線 工程 被民眾 直擊 疑似 施工 不慎   日前 出現 自來 水管 破裂   還導致 柏油路 面 凹陷   讓 車輛 經過 像是 開在 彈簧 床上   不 只 如此   工人 甚至 被 目擊 在 滿 是 乙炔 鋼瓶 旁 抽 菸   遭質疑 這樣 難道 不會 對 工安 造成危害 嗎   被 指控 缺失   捷運局 表示   已經 找 自來 水 公司 協助止 漏   路面 下陷 也 加鋪 恢 復 正常   至於 工人 則是 在 休息 區抽 菸   並無 不妥   捷運 萬大線 施工 現場 滴滴答答   水流 個 不停   這 不是 天空 在 下雨   而是 水管 破裂   讓 工人 施工 像是 水 濂 洞 一樣   大量 自來 水不斷 流出   更 扯 的 是 有 附近 住戶 說   已經流 了 一個 禮拜 還沒 改善   更 疑似 導致 附近 路面 凹陷   車輛 經過 凹陷 路面 彈了 好 大 一下   駕駛 也 嚇到 急 踩 煞車   北市 的 捷運 萬大線 工程   有民眾 向 議員 投訴   說 恐怕 有 工安 問題   還有 工人 在 氧氣 跟 乙炔 鋼瓶 附近 大膽 抽 菸   讓民眾 看 了 好 擔心   對此 萬華區 全 德里 長 王平 三 表示   「 這個 地方 捷運 做到 現在   漏水   地方 下陷 的 地方 很多   所以 他們 也 很煩   但 不 至於 說 很 害怕   只是 我們 必須 要 小心 點 」   民眾 擔憂 破裂 的 水管 會導致 地層下陷   影響 住家 安全   也 質疑 是 捷運 施工 不慎   挖破 管線   但是 捷運局 趕緊 出面 澄清   表示 已經 找 自來 水 公司 協助止 漏   路面 凹陷 部分 也 重新 鋪 好   至於 工人 抽 菸 地點 是 在 休息 區內   符合 法規   但 未來 將劃 設明顯 休息 區   避免 民眾 質疑 有 工安疑慮  </t>
+          <t xml:space="preserve">為 檢測 雲林 地層下陷 數值   水利 署 去年 在 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   能線 上 即 時 取得 觀測 資料   對 於 下陷 數據 監測 與 分析 有 很大 助益   因應 雲林 地層下陷 影響   水利 署後續 規劃 將分別 在 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所 再 設置 地下水 觀測 站   監測 下陷 狀況 來 做 相關 防制   放下 感測器   測量 目前 所在地 的 地下水位   可以 再 透過 手機 即 時線 上 取得 觀測 資料   提供 針對 地層下陷 數據 做 分析 監     為 了 要 防範 地層下陷 持續 擴大   水利 署 去年 在 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   水利 署 副署 長 黃 宏 莆 說明   「 我們 在 這國小設 了 5 個 水位 觀測井   還有 一個 地層下陷 觀測井   可以 把 周邊 大 埤 主要 的 地下水 分層 水位   可以 即 時線 上 獲得 相關 資訊   」 立委 劉建國 指出   「 這對 雲林 來 說   不管 是 對 土地 面積   農地 使用 種種   還有 最 重要 的 是 說   我們 也 是 高鐵行經 主要 縣市   要 克服 的 很大 環境 挑戰 議題   」 雲林 是 全台 地層下陷 嚴 重地 區   下陷 面積 數據 時 好 時壞   對 居民 及 高鐵 乘客 安全 有 隱憂   除了 仁和 國小設 置   水利 署 也 將規劃 在 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所   再 設置 地下水 觀測 站 共 7 口井   大 埤 仁和 國小校 長 洪千惠 表示   「 水利 署 如果 什麼 政策 要 跟民眾 宣導   還有 一些 教育   還有 跟 小朋友 的 環境 教育 的 結合   都 可 把 它 連在 一起   變成 與 民眾 共有 這樣   」 校方 表示   校園 中設 地下水 觀測 站   也 能 讓 學童 透過 實際 觀測 做 環境 教育   對此 水利 署則 表示   會 配合 校方 再 做 相關 規劃   也 希望 設置 觀測井 所 得到 的 即 時 資訊   作為 地層下陷 相關 防制 參考  </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 檢測 雲林 地層下陷 數值   水利 署 去年 在 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   能線 上 即 時 取得 觀測 資料   對 於 下陷 數據 監測 與 分析 有 很大 助益   因應 雲林 地層下陷 影響   水利 署後續 規劃 將分別 在 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所 再 設置 地下水 觀測 站   監測 下陷 狀況 來 做 相關 防制   放下 感測器   測量 目前 所在地 的 地下水位   可以 再 透過 手機 即 時線 上 取得 觀測 資料   提供 針對 地層下陷 數據 做 分析 監     為 了 要 防範 地層下陷 持續 擴大   水利 署 去年 在 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   水利 署 副署 長 黃 宏 莆 說明   「 我們 在 這國小設 了 5 個 水位 觀測井   還有 一個 地層下陷 觀測井   可以 把 周邊 大 埤 主要 的 地下水 分層 水位   可以 即 時線 上 獲得 相關 資訊   」 立委 劉建國 指出   「 這對 雲林 來 說   不管 是 對 土地 面積   農地 使用 種種   還有 最 重要 的 是 說   我們 也 是 高鐵行經 主要 縣市   要 克服 的 很大 環境 挑戰 議題   」 雲林 是 全台 地層下陷 嚴 重地 區   下陷 面積 數據 時 好 時壞   對 居民 及 高鐵 乘客 安全 有 隱憂   除了 仁和 國小設 置   水利 署 也 將規劃 在 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所   再 設置 地下水 觀測 站 共 7 口井   大 埤 仁和 國小校 長 洪千惠 表示   「 水利 署 如果 什麼 政策 要 跟民眾 宣導   還有 一些 教育   還有 跟 小朋友 的 環境 教育 的 結合   都 可 把 它 連在 一起   變成 與 民眾 共有 這樣   」 校方 表示   校園 中設 地下水 觀測 站   也 能 讓 學童 透過 實際 觀測 做 環境 教育   對此 水利 署則 表示   會 配合 校方 再 做 相關 規劃   也 希望 設置 觀測井 所 得到 的 即 時 資訊   作為 地層下陷 相關 防制 參考  </t>
+          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 的 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 的 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 的 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 的 湖山 水庫   源源 不斷 的 滲水來 補充 雲林 的 地下水 源   對 減緩 地層下陷 有 很大 的 助益     林內 鄉 公所 今天 在 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 及 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 在 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林 縣及 鄰近 縣 市民 生   農業 及 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   在 林內 河段 是 河 寬 最窄 處   也 造就 了 林內 的 好 水質   就 可以 從事 很多 水環境 及 水資源 的 保護 措施   經調查 在 林內 三號 水門 附近 的 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 的 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 的 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 的 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 的 面積 已 達 20 公頃   源源 不絕 的 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 也 指出   去年 全國 百年 大旱   各地 都 沒 有 水 灌溉   別 的 縣市 就算 有 地下水 井   也 抽 不到 水   唯一 有水 的 就是 雲林   因為 有 地下水 補助   所以 農民 可以 抽 得到 地下水   他 也 強調   要 好好 保護林 內 的 水資源   因為 林內 的 水 如果 受到 污染   河川 局 也 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 的 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 的 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 的 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 的 湖山 水庫   源源 不斷 的 滲水來 補充 雲林 的 地下水 源   對 減緩 地層下陷 有 很大 的 助益     林內 鄉 公所 今天 在 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 及 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 在 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林 縣及 鄰近 縣 市民 生   農業 及 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   在 林內 河段 是 河 寬 最窄 處   也 造就 了 林內 的 好 水質   就 可以 從事 很多 水環境 及 水資源 的 保護 措施   經調查 在 林內 三號 水門 附近 的 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 的 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 的 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 的 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 的 面積 已 達 20 公頃   源源 不絕 的 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 也 指出   去年 全國 百年 大旱   各地 都 沒 有 水 灌溉   別 的 縣市 就算 有 地下水 井   也 抽 不到 水   唯一 有水 的 就是 雲林   因為 有 地下水 補助   所以 農民 可以 抽 得到 地下水   他 也 強調   要 好好 保護林 內 的 水資源   因為 林內 的 水 如果 受到 污染   河川 局 也 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  </t>
+          <t xml:space="preserve">為 抑制 濁水溪 揚塵   四河 局兩 年前 在 雲林 林內 段   多 設置 河槽 地下水 補注池   經過 兩年 地下水 補注經 監測   約 注入 1300 萬公噸 水源 入滲   今年 將再 增擴 20 公頃   有 當地 農民 就 說   去年 全國 百年 大旱   當地 農民持續 有 水源 灌溉   對此 第四 河川 局則 表示   地下水 補注池 效果 不錯   能 有效 舒緩 地層下陷 問題   雲林 林內 3 號水門 附近 濁水溪 河段   為 了 改善 揚塵   兩 年前 四河 局進行 疏濬 工程   並設 置 地下水 人工 補注池 蓄水   將 地面 河水 引進 補注 地下水   水源 最深 達到 地下 四百 公尺   希望 減緩 地層下陷   第四 河川 局 副 局長 張朝 恭 說   「 在 疏濬 的 部分   配合 把 引水 進來   來 做 一個 補注 地下水 的 功能   」 雲 科大 水土 中心 主任 溫志超 表示   「 這邊 8 公頃   上游 有個 28 公頃   兩個 合 併 約 35 公頃 去 操作   那 兩年 的 時間   基本上 總共 35 公頃 之下   有 1300 多萬公噸 的 水入滲 下去   」 雲 科大 水土 中心 表示   補注池 的 水源 由高處 流向 低處 補注   能 有效 減緩 地層下陷   也 能 使 地下水位 回升   像 去年 全國 百年 大 缺水   各地 都 沒水 可 灌溉   補注池 的 功效 就 明顯 可見   雲林 農民說   「 年尾時 沒 下雨 一定 都 會 缺水   那 缺水 時透過 這樣 的 補注   對 農民 一定 有所 幫助   」 雲林 農民 表示   「 要 用水 就 比 較 不用 擔心   就是 用排 的 也 排 得到   」 四河 局 表示   雲林 第一座 地下水 補注池   在 2020 年 完成 因為 效果 不錯   今年 將再 擴大將 蓄水池 面積 增加 20 公頃   希望 透過 地面水 補注 地下水   達到 減緩 地層下陷 情況   也 能 讓 農民有 足夠 水源 灌溉  </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 抑制 濁水溪 揚塵   四河 局兩 年前 在 雲林 林內 段   多 設置 河槽 地下水 補注池   經過 兩年 地下水 補注經 監測   約 注入 1300 萬公噸 水源 入滲   今年 將再 增擴 20 公頃   有 當地 農民 就 說   去年 全國 百年 大旱   當地 農民持續 有 水源 灌溉   對此 第四 河川 局則 表示   地下水 補注池 效果 不錯   能 有效 舒緩 地層下陷 問題   雲林 林內 3 號水門 附近 濁水溪 河段   為 了 改善 揚塵   兩 年前 四河 局進行 疏濬 工程   並設 置 地下水 人工 補注池 蓄水   將 地面 河水 引進 補注 地下水   水源 最深 達到 地下 四百 公尺   希望 減緩 地層下陷   第四 河川 局 副 局長 張朝 恭 說   「 在 疏濬 的 部分   配合 把 引水 進來   來 做 一個 補注 地下水 的 功能   」 雲 科大 水土 中心 主任 溫志超 表示   「 這邊 8 公頃   上游 有個 28 公頃   兩個 合 併 約 35 公頃 去 操作   那 兩年 的 時間   基本上 總共 35 公頃 之下   有 1300 多萬公噸 的 水入滲 下去   」 雲 科大 水土 中心 表示   補注池 的 水源 由高處 流向 低處 補注   能 有效 減緩 地層下陷   也 能 使 地下水位 回升   像 去年 全國 百年 大 缺水   各地 都 沒水 可 灌溉   補注池 的 功效 就 明顯 可見   雲林 農民說   「 年尾時 沒 下雨 一定 都 會 缺水   那 缺水 時透過 這樣 的 補注   對 農民 一定 有所 幫助   」 雲林 農民 表示   「 要 用水 就 比 較 不用 擔心   就是 用排 的 也 排 得到   」 四河 局 表示   雲林 第一座 地下水 補注池   在 2020 年 完成 因為 效果 不錯   今年 將再 擴大將 蓄水池 面積 增加 20 公頃   希望 透過 地面水 補注 地下水   達到 減緩 地層下陷 情況   也 能 讓 農民有 足夠 水源 灌溉  </t>
+          <t xml:space="preserve">雲林 縣高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 內 虎尾   土庫   元長 和 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 在 去年 暫停 辦理   雲林 農民 表示   「 只要 不是 種 水稻 類   其實 它 的 吸 水量 會 真的 會差 很多   這是 實在 話   在 雲林 這邊 就是 水稻 的 需求   地下水 的 需求量 是 最 多 的   」 為 了 鼓勵 高鐵 沿線 的 農民能 在 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林 縣農業 處 副 處長 蔡耿宇 指出   「 高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 的 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 在 一期 作去 推動 的 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元   」 雲林 農民 指出   「 成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過   」 當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 也 說   縣內 高鐵 沿線 四鄉 鎮農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 內 達 到 稻作 1700 公頃 轉出 的 目標  </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林 縣高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 內 虎尾   土庫   元長 和 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 在 去年 暫停 辦理   雲林 農民 表示   「 只要 不是 種 水稻 類   其實 它 的 吸 水量 會 真的 會差 很多   這是 實在 話   在 雲林 這邊 就是 水稻 的 需求   地下水 的 需求量 是 最 多 的   」 為 了 鼓勵 高鐵 沿線 的 農民能 在 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林 縣農業 處 副 處長 蔡耿宇 指出   「 高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 的 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 在 一期 作去 推動 的 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元   」 雲林 農民 指出   「 成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過   」 當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 也 說   縣內 高鐵 沿線 四鄉 鎮農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 內 達 到 稻作 1700 公頃 轉出 的 目標  </t>
+          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 內 農民種 植 低耗 水 作物 的 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林 縣府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 在 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 及 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 及 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 內農地   獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 的 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 內 農民種 植 低耗 水 作物 的 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林 縣府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 在 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 及 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 及 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 內農地   獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 的 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  </t>
+          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 內 農民種 植 低耗 水 作物 的 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林 縣府 近 幾年 積極 推動 地層下陷 防治 工作   在 農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 ○ 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 內 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 在 二 ○ 一 三年 至 二 ○ 二 ○ 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 及 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 的 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 內 農民種 植 低耗 水 作物 的 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林 縣府 近 幾年 積極 推動 地層下陷 防治 工作   在 農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 ○ 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 內 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 在 二 ○ 一 三年 至 二 ○ 二 ○ 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 及 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 的 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  </t>
+          <t>資訊視 覺化 地層下陷                   書名     書上 設計展 2021       作者   尼 普利 編輯室 企劃     出版社   尼 普利 出版     出版 時間   2022 年 1 月 15 日           臺 灣 地層下陷   人們 對 於 這塊 土地 的 不當 利用   可說 是 現今 臺 灣 地層下陷 的 主要 肇因   像是 水資源 缺乏 所導致 超 抽 地下水   抑或 是 高鐵興 建所 造成 地面 荷重 大量 增加 等   都 加速 了 地層下陷 問題 的 發生   〈 B1 － 臺 灣 地層下陷 〉 專書以 複 合式 裝幀 結構 來 設計   將其分 為 兩 部分   分別 以線 裝及 摺 頁 書 的 方式 呈現   內容 運用 資訊視 覺化 設計 為 主軸   介紹 臺 灣國土 下陷 四大 原因   九大 下陷 地區 說明   及 各個 地區 的 圖文細節   藉由 閱讀 理解 各 下陷 地區 之間 的 差異   引領民眾 快速 了解 現今 臺 灣 地層下陷 的 嚴重 程度       複 合式 裝幀 結構 設計     有別 於 過往 百科 全書 的 呆板 形式   本 專書 運用 複 合式 裝幀 結構 設計   利用 資訊視 覺化 手法   將 原本 龐雜 的 數據   輔以 凸顯 重點 的 視覺 編排   呈現 一幅 巨型 的 資訊 圖表   並 搭配 注目 性較 高 的 紅色   警惕 民眾 地層下陷 所 造成 的 危害   以及 對 居住 與 國土 安全 的 威脅                                           以 專書設 計為 主軸   書籍 以 複 合式 裝幀 設計   圖 ／ 尼 普利   提供                           在 封面 以 雷射 切割 紙材 方式 呈現 下陷 層次 造型   圖 ／ 尼 普利   提供                           重點 介紹 九大 下陷 地區 的 數據表現 與 相 關訊息   圖 ／ 尼 普利   提供           ● 編輯 觀點     地層下陷 的 問題   好像 溫水 煮 青蛙   水平 看似 一致   卻 可能 正在 下移 而 渾然 未覺   安全 此刻 在 懸崖邊   搖搖欲 墜   〈 B1 － 臺 灣 地層下陷 〉 透過 設計 手法   視覺化 呈現 臺 灣 地層下陷 的 現況   讓 人 意識 到 問題 的 存在   進而 思考 土地 的 規劃   臺 灣 四面 環海   地層下陷 的 問題 格外 隱憂   國土 一旦 保持 不佳   負載 過度   一不留神 就是 海水倒灌 等 不 可逆 的 嚴重後患   那些 存在 的 也 許無力 一次 解決   但 不放棄   盡己 所能   喚起 危機 意識   也 是 一種 改變 的 開始     設計 團隊     樹德 科技 大學   視覺 傳達 設計系     Designer ｜ 江蓉   楊皓鈞   黃 上溢   廖楷平   林靜芬   黃 麒 樺     Advisor ｜ 陳 月 英                             【 本 文摘 選自尼 普利 編輯室 出版   書上 設計展 2021   一書 內容   授權 刊登 於 聯合 新聞網 「 琅琅 悅讀 」 頻道   未經 同意   請 勿 轉載   】 加入   琅琅 悅讀   Google   News   按下 追 蹤   精選 好文 不 漏接       五月 藝文 專題 及 活動 一覽     🎁 　 抽獎 ｜ 海明威   金城武 都 來過   法國 巴黎 左岸 的 莎士 比亞書店   📰 　 師大美術館 「 一拍 即影 」 300 件 拍 立得   見證 攝 影大師 的 黃 金 年代   📰 　 漫步 青島 老城 區   探訪 上 世紀 的 文藝書店   民宿 及 咖啡 館   📰 　 不一樣 的 山水 畫   M ＋ 博物 館 「 山鳴 水應 」 用 新視角 看藝術   📰 　 南美 館 雙館 共展 「 沃克   海怪   炮火 與 他們 」 以藝術 視角 回望 歷史   📰 　 你 吃 的 是 什麼 烤 鴨   北京 與 廣式 烤 鴨 之間 的 3 種差異   📌 　 梁朝 偉   劉德華 都 演過   盤點 金庸 武俠 劇中 的 經典 選角</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>資訊視 覺化 地層下陷                   書名     書上 設計展 2021       作者   尼 普利 編輯室 企劃     出版社   尼 普利 出版     出版 時間   2022 年 1 月 15 日           臺 灣 地層下陷   人們 對 於 這塊 土地 的 不當 利用   可說 是 現今 臺 灣 地層下陷 的 主要 肇因   像是 水資源 缺乏 所導致 超 抽 地下水   抑或 是 高鐵興 建所 造成 地面 荷重 大量 增加 等   都 加速 了 地層下陷 問題 的 發生   〈 B1 － 臺 灣 地層下陷 〉 專書以 複 合式 裝幀 結構 來 設計   將其分 為 兩 部分   分別 以線 裝及 摺 頁 書 的 方式 呈現   內容 運用 資訊視 覺化 設計 為 主軸   介紹 臺 灣國土 下陷 四大 原因   九大 下陷 地區 說明   及 各個 地區 的 圖文細節   藉由 閱讀 理解 各 下陷 地區 之間 的 差異   引領民眾 快速 了解 現今 臺 灣 地層下陷 的 嚴重 程度       複 合式 裝幀 結構 設計     有別 於 過往 百科 全書 的 呆板 形式   本 專書 運用 複 合式 裝幀 結構 設計   利用 資訊視 覺化 手法   將 原本 龐雜 的 數據   輔以 凸顯 重點 的 視覺 編排   呈現 一幅 巨型 的 資訊 圖表   並 搭配 注目 性較 高 的 紅色   警惕 民眾 地層下陷 所 造成 的 危害   以及 對 居住 與 國土 安全 的 威脅                                           以 專書設 計為 主軸   書籍 以 複 合式 裝幀 設計   圖 ／ 尼 普利   提供                           在 封面 以 雷射 切割 紙材 方式 呈現 下陷 層次 造型   圖 ／ 尼 普利   提供                           重點 介紹 九大 下陷 地區 的 數據表現 與 相 關訊息   圖 ／ 尼 普利   提供           ● 編輯 觀點     地層下陷 的 問題   好像 溫水 煮 青蛙   水平 看似 一致   卻 可能 正在 下移 而 渾然 未覺   安全 此刻 在 懸崖邊   搖搖欲 墜   〈 B1 － 臺 灣 地層下陷 〉 透過 設計 手法   視覺化 呈現 臺 灣 地層下陷 的 現況   讓 人 意識 到 問題 的 存在   進而 思考 土地 的 規劃   臺 灣 四面 環海   地層下陷 的 問題 格外 隱憂   國土 一旦 保持 不佳   負載 過度   一不留神 就是 海水倒灌 等 不 可逆 的 嚴重後患   那些 存在 的 也 許無力 一次 解決   但 不放棄   盡己 所能   喚起 危機 意識   也 是 一種 改變 的 開始     設計 團隊     樹德 科技 大學   視覺 傳達 設計系     Designer ｜ 江蓉   楊皓鈞   黃 上溢   廖楷平   林靜芬   黃 麒 樺     Advisor ｜ 陳 月 英                             【 本 文摘 選自尼 普利 編輯室 出版   書上 設計展 2021   一書 內容   授權 刊登 於 聯合 新聞網 「 琅琅 悅讀 」 頻道   未經 同意   請 勿 轉載   】 加入   琅琅 悅讀   Google   News   按下 追 蹤   精選 好文 不 漏接       五月 藝文 專題 及 活動 一覽     🎁 　 抽獎 ｜ 海明威   金城武 都 來過   法國 巴黎 左岸 的 莎士 比亞書店   📰 　 師大美術館 「 一拍 即影 」 300 件 拍 立得   見證 攝 影大師 的 黃 金 年代   📰 　 漫步 青島 老城 區   探訪 上 世紀 的 文藝書店   民宿 及 咖啡 館   📰 　 不一樣 的 山水 畫   M ＋ 博物 館 「 山鳴 水應 」 用 新視角 看藝術   📰 　 南美 館 雙館 共展 「 沃克   海怪   炮火 與 他們 」 以藝術 視角 回望 歷史   📰 　 你 吃 的 是 什麼 烤 鴨   北京 與 廣式 烤 鴨 之間 的 3 種差異   📌 　 梁朝 偉   劉德華 都 演過   盤點 金庸 武俠 劇中 的 經典 選角</t>
+          <t xml:space="preserve">〔 中央社 〕 一項 新 的 研究 指出   南亞 和 東南亞 的 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 的 人 更 容易 受到 海平面 上升 的 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表 在 「 自然 永續 」   Nature   Sustainability   期刊 上 的 一項 研究   快速 的 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 的 需求     研究 指出   「 這 使得 經歷 當地 土地 快速 下沉 的 城市 所 面臨 沿海 災害 的 風險   比 那些 已 因氣候 導致 海平面 上升 的 城市 所 面臨 的 風險 更 大   」   越南 人口 最多 的 城市 和 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   在 這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 的 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 和 緬甸 商業 中心 仰光 在 高峰 年間 皆 下沉 20 多公 釐     研究 稱   「 這些 快速 下沉 的 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 的 建築 結構   導致 土地 下沉   」   下沉 的 城市 本身 並非 氣候 變遷 的 結果   但 研究 人員 說   他們 的 研究 能 更 深入 了解 下沉 現象 如何 「 加劇 氣候 所導致 平均 海平面 上升 的 影響 」     根據 聯合國 「 政府 間 氣候 變遷 問題 小組 」   Intergovernmental   Panel   on   Climate   Change     IPCC   的 資料   到 2050 年   將有 十多 億人 生活 在 沿海 城市   面臨 海平面 上升 的 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 中央社 〕 一項 新 的 研究 指出   南亞 和 東南亞 的 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 的 人 更 容易 受到 海平面 上升 的 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表 在 「 自然 永續 」   Nature   Sustainability   期刊 上 的 一項 研究   快速 的 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 的 需求     研究 指出   「 這 使得 經歷 當地 土地 快速 下沉 的 城市 所 面臨 沿海 災害 的 風險   比 那些 已 因氣候 導致 海平面 上升 的 城市 所 面臨 的 風險 更 大   」   越南 人口 最多 的 城市 和 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   在 這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 的 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 和 緬甸 商業 中心 仰光 在 高峰 年間 皆 下沉 20 多公 釐     研究 稱   「 這些 快速 下沉 的 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 的 建築 結構   導致 土地 下沉   」   下沉 的 城市 本身 並非 氣候 變遷 的 結果   但 研究 人員 說   他們 的 研究 能 更 深入 了解 下沉 現象 如何 「 加劇 氣候 所導致 平均 海平面 上升 的 影響 」     根據 聯合國 「 政府 間 氣候 變遷 問題 小組 」   Intergovernmental   Panel   on   Climate   Change     IPCC   的 資料   到 2050 年   將有 十多 億人 生活 在 沿海 城市   面臨 海平面 上升 的 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  </t>
+          <t xml:space="preserve">〔 記者 吳昇儒 ／ 新北 報導 〕 受 「 尼莎 」 颱 風共伴 效應 影響   新北 市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 也 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 的 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 的 改 道路 線 公告 在 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 的 管制 車流   柏油路 面上 出現 許多道 的 裂痕   除了 用 交通 錐 警示 阻擋   也 立起 告示牌   請行經 的 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 有 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 的 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 也 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 及 施工 單位   連夜 辛苦 的 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 也 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 有 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 吳昇儒 ／ 新北 報導 〕 受 「 尼莎 」 颱 風共伴 效應 影響   新北 市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 也 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 的 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 的 改 道路 線 公告 在 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 的 管制 車流   柏油路 面上 出現 許多道 的 裂痕   除了 用 交通 錐 警示 阻擋   也 立起 告示牌   請行經 的 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 有 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 的 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 也 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 及 施工 單位   連夜 辛苦 的 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 也 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 有 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  </t>
+          <t xml:space="preserve">汐止 工 建路 因連日 大雨 沖 刷   路面 下方 有 土石 流失   造成 路面 下陷   為維護 用路 安全   新北 市 水利局 表示   已連夜 成立 前進 指揮 所   調度 人員 機具 進行 路面 搶修   目前 先採 低壓 灌漿 穩定 地盤   期能 於 最 短 時間 內修 復 路面   水利局 表示   汐止 工 建路 下方 設有 污水 特四幹線   收集 汐止 地區 污水   於 103 年間 曾 遭建商 基樁 打破   因特 四幹線 管徑 1.8 公尺 且位 於 道路 下方 15 公尺   並持續 通水 使用 中   需設 置 替代 管線後方能 進行 修 復   因此 當時 由 台北市 衛工處 先行 於 管線 上方 灌漿 補強   並進行 新 設繞 流管 建置 工程   水利局 提到   目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程   計畫 新設 管徑 1.2 公尺 繞 流管 導水 後   再 辦理 原特四幹線 管線 修 復   此次 修繕 工程 繞 流管 尚約 剩 7 公尺 才能 接通   預計 11 月 14 日 工程 完成   水利局 透露   此次 工 建路 下陷 位置 臨近 特四幹線 遭 打破 點   初步 研判 可能 與 此 相關   為 避免 持續 下陷   水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作   等到 特四幹線 繞 流管 工程 完工 後   將進 行原 特四幹線 檢修 工程  </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">汐止 工 建路 因連日 大雨 沖 刷   路面 下方 有 土石 流失   造成 路面 下陷   為維護 用路 安全   新北 市 水利局 表示   已連夜 成立 前進 指揮 所   調度 人員 機具 進行 路面 搶修   目前 先採 低壓 灌漿 穩定 地盤   期能 於 最 短 時間 內修 復 路面   水利局 表示   汐止 工 建路 下方 設有 污水 特四幹線   收集 汐止 地區 污水   於 103 年間 曾 遭建商 基樁 打破   因特 四幹線 管徑 1.8 公尺 且位 於 道路 下方 15 公尺   並持續 通水 使用 中   需設 置 替代 管線後方能 進行 修 復   因此 當時 由 台北市 衛工處 先行 於 管線 上方 灌漿 補強   並進行 新 設繞 流管 建置 工程   水利局 提到   目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程   計畫 新設 管徑 1.2 公尺 繞 流管 導水 後   再 辦理 原特四幹線 管線 修 復   此次 修繕 工程 繞 流管 尚約 剩 7 公尺 才能 接通   預計 11 月 14 日 工程 完成   水利局 透露   此次 工 建路 下陷 位置 臨近 特四幹線 遭 打破 點   初步 研判 可能 與 此 相關   為 避免 持續 下陷   水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作   等到 特四幹線 繞 流管 工程 完工 後   將進 行原 特四幹線 檢修 工程  </t>
+          <t xml:space="preserve">汐止 驚見 地層下陷   新北 市 汐止 區工建 路上 不明 原因 出現 地層下陷   而 上個 禮拜 就 發生過   區 公所 趕緊 進行 挖 填   沒 想到 這幾天 又 再度 下陷   為 避免 發生 危險   昨   22   天晚 間 9 點開始 該 路段 全線 封閉   並在 今   23   天 早上 進行 大規模 檢測   以及 進行 搶修 工程   確保 附近 住戶 安全  </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">汐止 驚見 地層下陷   新北 市 汐止 區工建 路上 不明 原因 出現 地層下陷   而 上個 禮拜 就 發生過   區 公所 趕緊 進行 挖 填   沒 想到 這幾天 又 再度 下陷   為 避免 發生 危險   昨   22   天晚 間 9 點開始 該 路段 全線 封閉   並在 今   23   天 早上 進行 大規模 檢測   以及 進行 搶修 工程   確保 附近 住戶 安全  </t>
+          <t xml:space="preserve">台灣位 處菲律 賓海板 塊 及 歐亞板 塊 的 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出 「 台灣 真的 在 動 」   氣象局 在 全台 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 的 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 的 台灣斷 層 都 有 「 偷偷 」 地亂動   氣象局 表示   「 既然 手機 上 的 GPS 可以 監測 我們 每日 的 移動 路線 和 距離   那麼   同樣 的 概念 和 技術   是不是 也 能 監測 台灣 的 地表   看看 它 每天 移動 了 多少 呢   當然 可以   」 氣象局 已 在 全台灣 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站   結合 各 單位 的 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 的 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 的 地表 位移   像是 車籠埔斷 層 的 錯動   為 台灣 地表 帶來 一道 劇烈 的   長 達 105 公里 的 傷痕   斷層 上盤 的 水平 位移 為 1 至 9 公尺 不 等   而 在 大甲溪 更 出現 地殼 抬高   落差 5 公尺 的 瀑布 景觀   氣象局 表示   除了 地震 期間   在 短短 數 十秒 內 出現 的 「 同震 滑移 」 之外   地震 前   間震期     地震 後   震後期     斷層 也 都 有 「 偷偷 」 地亂動   氣象局 說明   地殼 不 只 在 地震 時會動   平時 地殼 在 「 累積 能量 」 的 過程 中   就 會 在 地表 出現 非常 微量 的 變形   或者 是 小小的   不起眼 的 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 的 一舉 一動   希望 可以 找出 大 地震 發 生前 的 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 的 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 的 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 的 樣態   或是 分析 出 地震 的 發生 週期   計算 地震 的 災害 潛勢   評估 台灣 各地 斷層 的 活動 和 地震 的 機制  </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">台灣位 處菲律 賓海板 塊 及 歐亞板 塊 的 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出 「 台灣 真的 在 動 」   氣象局 在 全台 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 的 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 的 台灣斷 層 都 有 「 偷偷 」 地亂動   氣象局 表示   「 既然 手機 上 的 GPS 可以 監測 我們 每日 的 移動 路線 和 距離   那麼   同樣 的 概念 和 技術   是不是 也 能 監測 台灣 的 地表   看看 它 每天 移動 了 多少 呢   當然 可以   」 氣象局 已 在 全台灣 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站   結合 各 單位 的 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 的 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 的 地表 位移   像是 車籠埔斷 層 的 錯動   為 台灣 地表 帶來 一道 劇烈 的   長 達 105 公里 的 傷痕   斷層 上盤 的 水平 位移 為 1 至 9 公尺 不 等   而 在 大甲溪 更 出現 地殼 抬高   落差 5 公尺 的 瀑布 景觀   氣象局 表示   除了 地震 期間   在 短短 數 十秒 內 出現 的 「 同震 滑移 」 之外   地震 前   間震期     地震 後   震後期     斷層 也 都 有 「 偷偷 」 地亂動   氣象局 說明   地殼 不 只 在 地震 時會動   平時 地殼 在 「 累積 能量 」 的 過程 中   就 會 在 地表 出現 非常 微量 的 變形   或者 是 小小的   不起眼 的 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 的 一舉 一動   希望 可以 找出 大 地震 發 生前 的 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 的 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 的 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 的 樣態   或是 分析 出 地震 的 發生 週期   計算 地震 的 災害 潛勢   評估 台灣 各地 斷層 的 活動 和 地震 的 機制  </t>
+          <t xml:space="preserve">〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹 縣竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 在 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 和 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 的 透天 厝 會 不會 有 一夕 傾倒 的 危險   希望 相關 單位 幫忙 出面 解決     被 指控 的 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 有 原因 不明 的 下陷   龜裂 問題   看起 來 災害 也 確實 持續 進行 中   但導致 持續 龜裂 擴大 的 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 在 天氣 放晴 後 協助 維修 處理     陳 先生 講   鍾 姓 住戶 主要 是 拿 自家 建物 和 背 後 另 1 間 民宅 做 比 對   鍾 先生 認為 2 宅 「 沒有 一直 線 」   所以 認定 有 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 的 安全 維護     縣府 工務 處長 江良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 有 毀損 的 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 也 可 要求 工地 的 原設 計建築師 或 技師 到場 做 有 無 立即 性 危險 的 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 的 建物 做 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 的 被 徵收 戶   3 樓半 的 住家 就是 蓋 在 約 3   40 坪 的 配回 地上   10 年前 要蓋 這樣 的 透天 厝 少 說 也 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 在 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 也 有 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 在 其中   如果 房子 真的 不安   影響 非常 大     鍾 先生 說   隔鄰 的 新建 工地 約 是 在 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 的 地面   竟 在 自己 的 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 的 牆面 也 有 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 和 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 的 已有 他 的 1 片 手指甲 寬   至於 牆角 和 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹 縣 竹北 市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 在 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 和 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 的 透天 厝 會 不會 有 一夕 傾倒 的 危險   希望 相關 單位 幫忙 出面 解決     被 指控 的 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 有 原因 不明 的 下陷   龜裂 問題   看起 來 災害 也 確實 持續 進行 中   但導致 持續 龜裂 擴大 的 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 在 天氣 放晴 後 協助 維修 處理     陳 先生 講   鍾 姓 住戶 主要 是 拿 自家 建物 和 背 後 另 1 間 民宅 做 比 對   鍾 先生 認為 2 宅 「 沒有 一直 線 」   所以 認定 有 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 的 安全 維護     縣府 工務 處長 江良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 有 毀損 的 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 也 可 要求 工地 的 原設 計建築師 或 技師 到場 做 有 無 立即 性 危險 的 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 的 建物 做 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 的 被 徵收 戶   3 樓半 的 住家 就是 蓋 在 約 3   40 坪 的 配回 地上   10 年前 要蓋 這樣 的 透天 厝 少 說 也 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 在 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 也 有 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 在 其中   如果 房子 真的 不安   影響 非常 大     鍾 先生 說   隔鄰 的 新建 工地 約 是 在 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 的 地面   竟 在 自己 的 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 的 牆面 也 有 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 和 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 的 已有 他 的 1 片 手指甲 寬   至於 牆角 和 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  </t>
+          <t xml:space="preserve">〔 編譯 管淑平 ／ 綜合 報導 〕 印度 的 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 的 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   的 斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 也 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 在 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 有 60 多戶 搬 到 政府 的 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 的 近因 「 似乎 是 有 問題 的 排水 系統 導致 房子 底下 滲水   造成 下陷   」   斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 和 觀光客 也 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 也 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 的 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   也 有 50 多間 房子 出現 不斷 擴大 的 裂縫   該鎮 人口 5 萬人  </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 編譯 管淑平 ／ 綜合 報導 〕 印度 的 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 的 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   的 斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 也 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 在 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 有 60 多戶 搬 到 政府 的 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 的 近因 「 似乎 是 有 問題 的 排水 系統 導致 房子 底下 滲水   造成 下陷   」   斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 和 觀光客 也 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 也 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 的 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   也 有 50 多間 房子 出現 不斷 擴大 的 裂縫   該鎮 人口 5 萬人  </t>
+          <t xml:space="preserve">印度 北部 喜馬 拉雅山 區   一個經 常有 朝聖者 和 觀光 客造訪 的 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 也 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 在 安全 的 避難 地點   印度 北部 的 山城 地層下陷   房屋   樓梯 及 道路 都 嚴重 龜裂   建築物 的 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示   「 有 5 戶 人家 已經 搬走   其他 好 幾戶 也 計劃 遷移   另 做 打算   」 官員 表示   最近 幾個 星期 當地 通報 有 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 的 地點   「 在 找到 解決 方法 之前   我們 先 把 居民 安置 在 安全 無虞 的 飯店 賓館 跟 民宿   」 喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 的 門戶   也 常有 想要 征服 喜馬 拉雅山 的 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候 變遷 對 喜馬 拉雅山 的 影響   但 如果 不 做好 水土保持   這座 「 沉 沒 的 城鎮 」 可能 很快 就 會 走向 毀滅  </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">印度 北部 喜馬 拉雅山 區   一個經 常有 朝聖者 和 觀光 客造訪 的 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 也 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 在 安全 的 避難 地點   印度 北部 的 山城 地層下陷   房屋   樓梯 及 道路 都 嚴重 龜裂   建築物 的 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示   「 有 5 戶 人家 已經 搬走   其他 好 幾戶 也 計劃 遷移   另 做 打算   」 官員 表示   最近 幾個 星期 當地 通報 有 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 的 地點   「 在 找到 解決 方法 之前   我們 先 把 居民 安置 在 安全 無虞 的 飯店 賓館 跟 民宿   」 喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 的 門戶   也 常有 想要 征服 喜馬 拉雅山 的 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候 變遷 對 喜馬 拉雅山 的 影響   但 如果 不 做好 水土保持   這座 「 沉 沒 的 城鎮 」 可能 很快 就 會 走向 毀滅  </t>
+          <t xml:space="preserve">插 在 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 在 田中 的 宮廟   事實 上 這座 宮廟 興建 在 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 的 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間 「 插 在 稻田 中 的 廟宇 」 出現 在 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 的 廟   仔細 一看   屋頂 上 的 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   有 大批 網友 直呼   「 真是 神跡 」   「 從田裡 冒 出廟 頂   是 獨特 的 裝置 藝術 」   更 有人 笑稱   「 這是 真正 的 土地公 廟   」 而前 來 朝 聖 的 遊客 蕭 先生 也 說   「 很 奇特 啊   田中 的 廟 」   其實   這間 廟 已有 將近 兩 百年 的 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 在 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說   「 大家 都 會 好奇   裡面 的 東西有 沒有 搬出 來   神明 有 沒 有 沉下去   都 會問 這些 問題   其實 神明 都 有 請 出來   」   百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">插 在 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 在 田中 的 宮廟   事實 上 這座 宮廟 興建 在 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 的 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間 「 插 在 稻田 中 的 廟宇 」 出現 在 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 的 廟   仔細 一看   屋頂 上 的 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   有 大批 網友 直呼   「 真是 神跡 」   「 從田裡 冒 出廟 頂   是 獨特 的 裝置 藝術 」   更 有人 笑稱   「 這是 真正 的 土地公 廟   」 而前 來 朝 聖 的 遊客 蕭 先生 也 說   「 很 奇特 啊   田中 的 廟 」   其實   這間 廟 已有 將近 兩 百年 的 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 在 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說   「 大家 都 會 好奇   裡面 的 東西有 沒有 搬出 來   神明 有 沒 有 沉下去   都 會問 這些 問題   其實 神明 都 有 請 出來   」   百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  </t>
+          <t xml:space="preserve">疑因 「 豐采 520 」 建案 導致 竹 北市 莊敬 六街 發生 道路 坍塌   一輛 特斯拉 還掉 進去   新竹 縣長 楊 文科 今天 表示   已 與 竹 北市 長 鄭 朝方 協議   市公所 將 全力 配合 相關 作業   並 要求 建商以 透地雷達 設備   預防性 檢測 建案 四周 道路 土質 情形   預防 再次 坍塌   工務處 表示   目前 初判 造成 此次 坍塌   原因 是 建商開 挖 地下室 抽取 地下水   導致 土砂 層 部分 帶 走 地層下陷   為 防止 附近 道路 再次 發生 坍塌   已 要求 建商以 透地雷達 設備 詳實 檢測 建案 四周 的 勝利 二路   勝利 一路   莊敬 六街 及 自強 北路   確認 是否 仍有 土質 流失 造成 坑洞   由 於 該 路段 路權 為 竹北 市公所 權責   縣長 楊 文科 與 竹 北市 長 鄭 朝方 達 成共識   市公所 將 全力 配合 周邊 道路 封鎖 及 透地雷達 監測 等   展開 全面 檢測   縣府 也 已 與 市公所 研議 相關 作業   確保 附近 住戶 安全 無虞   工務處 指出   縣府 也 已 要求 建商 於 維生 管線   及 自來 水   電力   瓦斯 等 檢測 維修 完成 後   會同 竹北 市公所 同意   以低 強度 混凝土 灌漿 補強   針對 承造 及 監造 人   縣府 也 希望 做 加重 懲罰 的 機制   將 蒐集 近幾次 的 相關 違 失事 證   移送 新竹 縣營 造業 審議 委員會 及 建築師 懲戒 委員會 審議   另外   縣府 也將 此次 工安 事件 提列 為 建築 爭議 的 損鄰 事件   立案 列管   通知 起造   承造 及 監造 人 改善 鄰房 損害 情況   並 於 完成 安全 改善 修 復 後   檢具 相關 證明 文件 與 同意 書 報府 核備   後 續 建商 也 必須 與 受 損戶 達成 和解   縣府 才 會 核發 使用 執照   工務處 也 說   縣府 將持續 配合 新竹 地檢署 調查   後 續 該 工地 建商 如 欲 復工   縣府將 與 竹檢 取得 共識   要求 工地 完善 工地 安全   確定 鑑定 報告 結果 無 虞   舉辦 施工 說 明會   繳清 所有 罰 鍰   以 嚴格 標準 檢視 改善 結果 後   再 評估 是否 辦理 復工  </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">疑因 「 豐采 520 」 建案 導致 竹北 市莊敬 六街 發生 道路 坍塌   一輛 特斯拉 還掉 進去   新竹 縣長 楊 文科 今天 表示   已 與 竹北 市長 鄭 朝方 協議   市公所 將 全力 配合 相關 作業   並 要求 建商以 透地雷達 設備   預防性 檢測 建案 四周 道路 土質 情形   預防 再次 坍塌   工務處 表示   目前 初判 造成 此次 坍塌   原因 是 建商開 挖 地下室 抽取 地下水   導致 土砂 層 部分 帶 走 地層下陷   為 防止 附近 道路 再次 發生 坍塌   已 要求 建商以 透地雷達 設備 詳實 檢測 建案 四周 的 勝利 二路   勝利 一路   莊敬 六街 及 自強 北路   確認 是否 仍有 土質 流失 造成 坑洞   由 於 該 路段 路權 為 竹北 市公所 權責   縣長 楊 文科 與 竹北 市長 鄭 朝方 達 成共識   市公所 將 全力 配合 周邊 道路 封鎖 及 透地雷達 監測 等   展開 全面 檢測   縣府 也 已 與 市公所 研議 相關 作業   確保 附近 住戶 安全 無虞   工務處 指出   縣府 也 已 要求 建商 於 維生 管線   及 自來 水   電力   瓦斯 等 檢測 維修 完成 後   會同 竹北 市公所 同意   以低 強度 混凝土 灌漿 補強   針對 承造 及 監造 人   縣府 也 希望 做 加重 懲罰 的 機制   將 蒐集 近幾次 的 相關 違 失事 證   移送 新竹 縣營 造業 審議 委員會 及 建築師 懲戒 委員會 審議   另外   縣府 也將 此次 工安 事件 提列 為 建築 爭議 的 損鄰 事件   立案 列管   通知 起造   承造 及 監造 人 改善 鄰房 損害 情況   並 於 完成 安全 改善 修 復 後   檢具 相關 證明 文件 與 同意 書 報府 核備   後 續 建商 也 必須 與 受 損戶 達成 和解   縣府 才 會 核發 使用 執照   工務處 也 說   縣府 將持續 配合 新竹 地檢署 調查   後 續 該 工地 建商 如 欲 復工   縣府將 與 竹檢 取得 共識   要求 工地 完善 工地 安全   確定 鑑定 報告 結果 無 虞   舉辦 施工 說 明會   繳清 所有 罰 鍰   以 嚴格 標準 檢視 改善 結果 後   再 評估 是否 辦理 復工  </t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 的 工地   做 全面 的 清查   是不是 有 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 的 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 的 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 的 事件   整起 事件 會 做 完整 的 調查   並且 就 工地 全面 檢視   以及 營造商 的 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 在 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街巷 弄 內 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 的 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 的 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 的 坑洞   道路 緊鄰 的 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 有 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 有 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 的 姊姊 大概 下午 2 時 50 分 的 時候 聽 到 「 砰 」 的 聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 在 這個 過程 中越 來 越 大   路上 的 腳踏車   摩托 車等 就 跟 著 掉下去   「 很 可怕   」   鄭 大哥 表示   他 住 在 這裡 3 年 多 了   旁邊 的 建案 大概 去年 開始 施工   剛開 挖 的 時候 路面 有 龜裂   建商 就 來 補好   之 後 雖然 在 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 也 沒 有 什麼 異狀     黃 先生 則說   他 住 這裡 20 多年 了   今天下午 在 外面 散步   走過 去 時 發現 有 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 有 聽 到 什麼 聲音     新竹 縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 的 特斯拉 轎車 直接 掉落  </t>
+          <t xml:space="preserve">台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北市 長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 在 第一 時間 做出 相關 的 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 也 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 的 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 的 真正 原因   並 儘 快 排除   避免 坍塌 的 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 的 事件   將針 對 工地 的 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 的 安全   避免 讓 地面 坍塌 的 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管 處資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 的 道路 「 地層下陷 」   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 的 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險 「 懸空 」   而 台北市 長 蔣萬安 稍早 也 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 也 做 了 緊急 疏散   也 強調   當這次 事件 的 緊急 處置 告一段落 之 後   會 做 台北市 相關 工地 的 全面 清查   了解 是否 有類 似 這次 地面 坍塌 的 原因   積極 做 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   也 聽 了 相關 單位 的 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 有 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   也 趕快 連絡 了 警察局   新工處   建管 處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   也 做 了 緊急 疏散   蔣萬安 指出   也 跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 的 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 的 損害 降到 最低   第二   就 旁邊 的 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 做 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 也 包括 工地 實施者   營造 商過 去 的 相關 紀錄   第四   當這次 事件 的 緊急 處置 告一段落 之 後   要 做 台北市 相關 工地 的 全面 清查   了解 是否 有類 似 這次 地面 坍塌 的 原因   要積 極來 做 相關 處置   蔣萬安 表示   「 我們 現在 已經 非常 努力 在 做 緊急 應變   處置   第一 時間 也 盡快 的 疏散 了 住戶   我 想 市民 朋友 的 安全 是 最 重要 的   目前 還在 緊急 處置   我 想 必要 的 話 我們 還是 希望 做 預防性 疏散 」   而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 的 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 的 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 的 部分 用 混 泥土 灌足外   也 在 開 挖面 做 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 在 可控 的 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 有 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 的 狀態   估計 應該 都 要 到 凌晨  </t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管 處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 也 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺 「 天坑 」   圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺 「 天坑 」   圖 ／ 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 的 道路 「 地層下陷 」   消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 的 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險 「 懸空 」   警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管 處   新工處   道管 中心   瓦斯 公司   北水處 也 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管 處 初步 了解   由 於 住 戶 旁 就是 工地 在 施工   疑似 因為 工地 連續 壁施作   且 有 出現 滲水 狀況   才 釀 成天 坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 先 基本 填補 坑洞   受影響 住戶 也 透露   剛剛 一度 有 5 名住 戶 受困 在 屋子 裡   所幸 消防 員協助 救援   而 有 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 在 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  </t>
+          <t>台北市 也 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 也 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 的 工地   做 全面 的 清查   是不是 有 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 的 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管 處   警察局   區 公所   水處   瓦斯 公司 等等   也 都 在 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 的 安全   避免 讓 地面 坍塌 的 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 的 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 的 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 的 事件   整起 事件 會 做 完整 的 調查   並且 就 工地 全面 檢視   以及 營造商 的 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 的 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 的 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 的 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 的 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 在 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 在 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 在 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 及 36 名 消防 員   消防局 長 莫懷祖 也 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 也 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 做 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 在 評估 要 不要 做 預防性 疏散   因為 市民 安全 最 重要   在 現場 關心 約 半小時 後   蔣萬安 在 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 的 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡   「 現在 先 搶 救   原因 之後再 來 探討 」     台北市 建管 處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   有 安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 內 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 也 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供</t>
+          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 的 大 天坑   台北市 建管 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 在 現場 協助 鄰 房民眾 疏散   台北市 建管 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>北市 信義區 今 下午 3 點 多出 現大 天坑   崇德 街 60 巷 民宅 前 路面 坍陷   傍晚 5 點多 坑洞 再 擴大   消防局 已緊 急 疏散 鄰近 住戶   信義區 公所 區長 陳 冠伶 表示   9 位有 安置 需求者   已協助 找 好 旅社 並 入住   每人 每日 可申 請 補助 1600 元   最多 7 天       區長 陳 冠伶 表示   人數 調查 一直 在 變動   目前 9 位有 安置 需求   依規定 發生 緊急 災害 可 申請 安置 補助   每人 一天 1600 元   最多 申請 7 天   已協助 找 好 旅社   住戶 均 已 入住 安置   該 坑 主要 範圍 為 18 號至 24 號   警戒 區 12 號至 24 號已 拉起 封鎖線   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝</t>
+          <t>台北市 也 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 也 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 及 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 有 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管 處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 的 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管 處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管 處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 在 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 在 坍塌 處 附近   約 10 人 安置 飯店   她 也 要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺 「 天坑 」   圖 ／ 北 市府 提供</t>
+          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管 處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 有 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 有 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管 處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 有 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管 處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 有 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 有 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管 處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 有 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t>北市 信義區 今 下午 3 點 多出 現大 天坑   崇德 街 60 巷 民宅 前 路面 坍陷   傍晚 5 點多 坑洞 再 擴大   消防局 已緊 急 疏散 鄰近 住戶   信義區 公所 區長 陳 冠伶 表示   9 位有 安置 需求者   已協助 找 好 旅社 並 入住   每人 每日 可申 請 補助 1600 元   最多 7 天       區長 陳 冠伶 表示   人數 調查 一直 在 變動   目前 9 位有 安置 需求   依規定 發生 緊急 災害 可 申請 安置 補助   每人 一天 1600 元   最多 申請 7 天   已協助 找 好 旅社   住戶 均 已 入住 安置   該 坑 主要 範圍 為 18 號至 24 號   警戒 區 12 號至 24 號已 拉起 封鎖線   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>台北市 也 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 也 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 及 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 有 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管 處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 的 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝</t>
+          <t>北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 也 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 在 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   也 請里長 逐戶 安撫   現場 分為 撤離區 和 監測區   除了 天坑 之外   轉角 一戶 有 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 先生 住 在 當地 20 多年   他 提到 走路 經過 時   有 看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 先生 表示   他 姊姊 騎車 來 時   突然 聽到 「 砰 」 一聲 被 嚇到   那時 就 有 一個 小洞   自己 也 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 的 大 天坑   台北市 建管 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 在 現場 協助 鄰 房民眾 疏散   台北市 建管 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供</t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 的 工地   做 全面 的 清查   是不是 有 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 的 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管 處   警察局   區 公所   水處   瓦斯 公司 等等   也 都 在 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 的 安全   避免 讓 地面 坍塌 的 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 的 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 的 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 的 事件   整起 事件 會 做 完整 的 調查   並且 就 工地 全面 檢視   以及 營造商 的 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 的 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 的 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 的 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 的 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 在 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 在 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 在 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 及 36 名 消防 員   消防局 長 莫懷祖 也 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 也 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 做 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 在 評估 要 不要 做 預防性 疏散   因為 市民 安全 最 重要   在 現場 關心 約 半小時 後   蔣萬安 在 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 的 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡   「 現在 先 搶 救   原因 之後再 來 探討 」     台北市 建管 處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   有 安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 內 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 也 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>台北市 也 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 也 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供</t>
+          <t xml:space="preserve">台北市 信義區 崇德 街巷 弄 內 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 的 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 的 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 的 坑洞   道路 緊鄰 的 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 有 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 有 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 的 姊姊 大概 下午 2 時 50 分 的 時候 聽 到 「 砰 」 的 聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 在 這個 過程 中越 來 越 大   路上 的 腳踏車   摩托 車等 就 跟 著 掉下去   「 很 可怕   」   鄭 大哥 表示   他 住 在 這裡 3 年 多 了   旁邊 的 建案 大概 去年 開始 施工   剛開 挖 的 時候 路面 有 龜裂   建商 就 來 補好   之 後 雖然 在 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 也 沒 有 什麼 異狀     黃 先生 則說   他 住 這裡 20 多年 了   今天下午 在 外面 散步   走過 去 時 發現 有 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 有 聽 到 什麼 聲音     新竹 縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 的 特斯拉 轎車 直接 掉落  </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 的 2 部機車 及 一部 腳踏車 瞬間 掉 進 天坑 內   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管 處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 也 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 在 現場 協助 鄰 房民眾 疏散  </t>
+          <t xml:space="preserve">【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 的 道路 「 地層下陷 」   消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 的 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險 「 懸空 」   警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管 處   新工處   道管 中心   瓦斯 公司   北水處 也 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管 處 初步 了解   由 於 住 戶 旁 就是 工地 在 施工   疑似 因為 工地 連續 壁施作   且 有 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 先 基本 填補 坑洞   受影響 住戶 也 透露   剛剛 一度 有 5 名住 戶 受困 在 屋子 裡   所幸 消防 員協助 救援   而 有 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 在 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   北 市府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管 處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 也 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺 「 天坑 」   圖 ／ 北 市府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺 「 天坑 」   圖 ／ 北 市府 提供</t>
+          <t xml:space="preserve">台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 的 道路 「 地層下陷 」   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 的 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險 「 懸空 」   而 台北市 長 蔣萬安 稍早 也 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 也 做 了 緊急 疏散   也 強調   當這次 事件 的 緊急 處置 告一段落 之 後   會 做 台北市 相關 工地 的 全面 清查   了解 是否 有類 似 這次 地面 坍塌 的 原因   積極 做 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   也 聽 了 相關 單位 的 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 有 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   也 趕快 連絡 了 警察局   新工處   建管 處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   也 做 了 緊急 疏散   蔣萬安 指出   也 跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 的 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 的 損害 降到 最低   第二   就 旁邊 的 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 做 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 也 包括 工地 實施者   營造 商過 去 的 相關 紀錄   第四   當這次 事件 的 緊急 處置 告一段落 之 後   要 做 台北市 相關 工地 的 全面 清查   了解 是否 有類 似 這次 地面 坍塌 的 原因   要積 極來 做 相關 處置   蔣萬安 表示   「 我們 現在 已經 非常 努力 在 做 緊急 應變   處置   第一 時間 也 盡快 的 疏散 了 住戶   我 想 市民 朋友 的 安全 是 最 重要 的   目前 還在 緊急 處置   我 想 必要 的 話 我們 還是 希望 做 預防性 疏散 」   而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 的 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 的 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 的 部分 用 混 泥土 灌足外   也 在 開 挖面 做 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 在 可控 的 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 有 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 的 狀態   估計 應該 都 要 到 凌晨  </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北市 長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 在 第一 時間 做出 相關 的 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 也 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 的 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 的 真正 原因   並 儘 快 排除   避免 坍塌 的 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 的 事件   將針 對 工地 的 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 的 安全   避免 讓 地面 坍塌 的 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管 處資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  </t>
+          <t xml:space="preserve">〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 的 2 部機車 及 一部 腳踏車 瞬間 掉 進 天坑 內   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管 處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 也 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 在 現場 協助 鄰 房民眾 疏散  </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 的 工地   做 全面 的 清查   是不是 有 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 的 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 的 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 的 事件   整起 事件 會 做 完整 的 調查   並且 就 工地 全面 檢視   以及 營造商 的 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 在 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影</t>
+          <t>北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管 處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管 處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 在 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 在 坍塌 處 附近   約 10 人 安置 飯店   她 也 要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺 「 天坑 」   圖 ／ 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 也 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 在 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   也 請里長 逐戶 安撫   現場 分為 撤離區 和 監測區   除了 天坑 之外   轉角 一戶 有 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 先生 住 在 當地 20 多年   他 提到 走路 經過 時   有 看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 先生 表示   他 姊姊 騎車 來 時   突然 聽到 「 砰 」 一聲 被 嚇到   那時 就 有 一個 小洞   自己 也 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t xml:space="preserve">台北市 信義區 崇德 街一處 新建 工地 旁 的 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 的 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 在 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 的 攤位   擔心會 再次 坍塌   周邊 住戶 說   「 昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   也 是 要 關心 一下 我 自己 的 攤位 啊   希望 說 沒 有 下 一次 啦   」 信義區 區長 陳 冠伶 表示   「 安置 了 5 戶   一共 是 10 位   那現 在 我們 把 他們 都 安置 在 我們 信義區 的 旅館裡   」 台北市 長 蔣萬安 上午 也 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及   「 接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 做 整體 評估   」 初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 也 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋   「 初步 判斷 是 工地 裡面 的 地下 連續 壁   大約 在 11 到 12 公尺 之間 有 破口   所以 它 的 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞   」 為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 有 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 有 安全 疑慮者將 下令 停工   改善  </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 的 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 的 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 在 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 內 的 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 在 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 的 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 有 無 孔洞 或 軟弱 土層   監測 建築物 有 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 有 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 內 水位 在 地下 5.5 公尺   大約 在 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但北 市府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 的 有七戶   需要 安置 的 住戶 一共 有 5 戶 10 人   目前 都 安置 在 信義區 的 旅館 內   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 的 部分   廠 商承諾 超出 的 部分 可 負擔  </t>
+          <t xml:space="preserve">北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 的 大樓 建案   因為 地下 連續 壁 有 破洞   都 發局 初步 調查 後   對 承造 人 和 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 的 旅館 內   相關 費用 將由建 商來 負責   巷弄 內 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 也 遭殃   鐵門 幾乎 懸空   這樣 的 情況 就 發生 在 台北市 信義區   短時間 內   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出   「 昨天 有 做 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 的 住戶 一共 有 5 戶 」   市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 的 有 5 戶   一共 10 人   暫時 住 在 信義區 的 旅館 內   依照 規定   每人每天 可以 請領 的 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 內 是 回 不了 家 了   超出 的 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 的 是 搶災 的 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 的 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 的 大樓   地下 4 層   地上 17 層   負責 營造 的 華熊 營造 公司   興建過 的 包括 台北 101   世貿 中心 和 陶朱 隱園   都 是 赫赫有名 的 建築   如今 卻 發生 工安 意外   也 讓 工程 暫時 喊 卡   首要 之務得 先 設法 解決 安全 問題   還給 當地 居民 一個 安全 的 家  </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 的 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 的 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   在 晚間 11 點 坑洞 初步 填平 完成   北 市府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管 處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管 處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 內 仍 監督持續 進行 填砂 灌漿     台北市 建管 處長 虞積學 表示   經 建管 處緊 急 聯 繫   台北市 土木 技師 公會莊 理事 長 及 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 及 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反 「 建築法 」 部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管 處將 持續 在 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 及 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  </t>
+          <t xml:space="preserve">〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 的 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 的 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 在 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 內 的 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 在 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 的 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 有 無 孔洞 或 軟弱 土層   監測 建築物 有 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 有 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 內 水位 在 地下 5.5 公尺   大約 在 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 的 有七戶   需要 安置 的 住戶 一共 有 5 戶 10 人   目前 都 安置 在 信義區 的 旅館 內   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 的 部分   廠 商承諾 超出 的 部分 可 負擔  </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街一處 新建 工地 旁 的 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 的 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 在 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 的 攤位   擔心會 再次 坍塌   周邊 住戶 說   「 昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   也 是 要 關心 一下 我 自己 的 攤位 啊   希望 說 沒 有 下 一次 啦   」 信義區 區長 陳 冠伶 表示   「 安置 了 5 戶   一共 是 10 位   那現 在 我們 把 他們 都 安置 在 我們 信義區 的 旅館裡   」 台北市 長 蔣萬安 上午 也 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及   「 接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 做 整體 評估   」 初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 也 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北 市府 都 發局 長 王玉芬 解釋   「 初步 判斷 是 工地 裡面 的 地下 連續 壁   大約 在 11 到 12 公尺 之間 有 破口   所以 它 的 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞   」 為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 有 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 有 安全 疑慮者將 下令 停工   改善  </t>
+          <t xml:space="preserve">首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 的 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 的 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   在 晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管 處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管 處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 內 仍 監督持續 進行 填砂 灌漿     台北市 建管 處長 虞積學 表示   經 建管 處緊 急 聯 繫   台北市 土木 技師 公會莊 理事 長 及 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 及 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反 「 建築法 」 部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管 處將 持續 在 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 及 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 的 大樓 建案   因為 地下 連續 壁 有 破洞   都 發局 初步 調查 後   對 承造 人 和 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 的 旅館 內   相關 費用 將由建 商來 負責   巷弄 內 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 也 遭殃   鐵門 幾乎 懸空   這樣 的 情況 就 發生 在 台北市 信義區   短時間 內   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出   「 昨天 有 做 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 的 住戶 一共 有 5 戶 」   市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 的 有 5 戶   一共 10 人   暫時 住 在 信義區 的 旅館 內   依照 規定   每人每天 可以 請領 的 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 內 是 回 不了 家 了   超出 的 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 的 是 搶災 的 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 的 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 的 大樓   地下 4 層   地上 17 層   負責 營造 的 華熊 營造 公司   興建過 的 包括 台北 101   世貿 中心 和 陶朱 隱園   都 是 赫赫有名 的 建築   如今 卻 發生 工安 意外   也 讓 工程 暫時 喊 卡   首要 之務得 先 設法 解決 安全 問題   還給 當地 居民 一個 安全 的 家  </t>
+          <t xml:space="preserve">〔 記者 俞肇福 ／ 基隆 報導 〕 基隆市 七堵 區 10 日 發生 百一街 一處 建案 工地 旁電桿 下陷 2 公尺   由 於 5 月 13 日 台北市 信義區 也 出現 道路 塌陷   民眾 憂心 忡忡 天坑 在 基隆 重現   民進 黨籍 的 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全   基隆 市府 15 日 下午 5 點發布 新聞稿   市府 強調 已 要求 建案 停工   市府 將 全面 清查 基隆市 相關 工地 安全     曾怡芳 指出   10 日 晚間 五堵 國小 附近 的 一處 建案   突然 發生 建案 旁 的 電桿 下陷 2 公尺 的 意外   並 造成 附近 住戶 停電 5 小時   日前 台北市 信義區 也 發生 工地 旁 道路 塌陷 意外   引起 當地 居民 不安   擔心 天坑 在 基隆 重現     百一街 工地 旁電桿 下陷 事件 發生 後   基隆 市政府 都市 發展 處 12 日 赴 工地 現場 勘查   當天 結論 是 暫 不 要求 業者 停工   待 完成 固化 後   才 會 檢視 發生 電桿 塌陷 及 道路 龜裂 的 部分   但業者 表示   10 日 之所以 會 發生 電桿 塌陷   是 因為 電桿 上 的 變電箱 太重   土質 太 鬆 軟   才 導致 下陷 停電     曾怡芳 指出   事發 的 建案 旁 就是 五堵 國小   學童 人 數眾 多   且 鄰近 新台 五路 高架 橋   再 加上 附近 居民 也 表示   自該 建案 動工 以來   已導致 多處 柱位   地面 破損 龜裂   地面 高低 差達 7 公分   這樣 的 房子 根本 無法 住 人     曾怡芳 要求 基隆 市政府 重視 工安   不要 讓 4 月 27 日 的 新竹 天坑   5 月 13 日 的 北市 信義區 天坑 在 基隆 重現   並 要求 市府 以 最高 標準   來 審查 檢視此 建案     基隆 市政府 都 發處長 謝孝坤 表示   市府 15 日 已 經先 要求 百一街 的 工地 停工   後 續會 邀請 第三方 相關 技師 公會 詳細 檢視   釐 清電桿 下陷 原因   確保 安全 無虞後才 會 准許 復工   另外   市府 也 會 優先 清查 和 巡檢 全市 正在 開挖 地基 和 施作 連續 壁 的 工地   確 保民 眾 安全  </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 基隆 報導 〕 基隆市 七堵 區 10 日 發生 百一街 一處 建案 工地 旁電桿 下陷 2 公尺   由 於 5 月 13 日 台北市 信義區 也 出現 道路 塌陷   民眾 憂心 忡忡 天坑 在 基 隆重 現   民進 黨籍 的 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全   基隆市 府 15 日 下午 5 點發布 新聞稿   市府 強調 已 要求 建案 停工   市府 將 全面 清查 基隆市 相關 工地 安全     曾怡芳 指出   10 日 晚間 五堵 國小 附近 的 一處 建案   突然 發生 建案 旁 的 電桿 下陷 2 公尺 的 意外   並 造成 附近 住戶 停電 5 小時   日前 台北市 信義區 也 發生 工地 旁 道路 塌陷 意外   引起 當地 居民 不安   擔心 天坑 在 基 隆重 現     百一街 工地 旁電桿 下陷 事件 發生 後   基隆市 政府 都市 發展 處 12 日 赴 工地 現場 勘查   當天 結論 是 暫 不 要求 業者 停工   待 完成 固化 後   才 會 檢視 發生 電桿 塌陷 及 道路 龜裂 的 部分   但業者 表示   10 日 之所以 會 發生 電桿 塌陷   是 因為 電桿 上 的 變電箱 太重   土質 太 鬆 軟   才 導致 下陷 停電     曾怡芳 指出   事發 的 建案 旁 就是 五堵 國小   學童 人 數眾 多   且 鄰近 新台 五路 高架 橋   再 加上 附近 居民 也 表示   自該 建案 動工 以來   已導致 多處 柱位   地面 破損 龜裂   地面 高低 差達 7 公分   這樣 的 房子 根本 無法 住 人     曾怡芳 要求 基隆市 政府 重視 工安   不要 讓 4 月 27 日 的 新竹 天坑   5 月 13 日 的 北市 信義區 天坑 在 基 隆重 現   並 要求 市府 以 最高 標準   來 審查 檢視此 建案     基隆市 政府 都 發處長 謝孝坤 表示   市府 15 日 已 經先 要求 百一街 的 工地 停工   後 續會 邀請 第三方 相關 技師 公會 詳細 檢視   釐 清電桿 下陷 原因   確保 安全 無虞後才 會 准許 復工   另外   市府 也 會 優先 清查 和 巡檢 全市 正在 開挖 地基 和 施作 連續 壁 的 工地   確 保民 眾 安全  </t>
+          <t>桃園 市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 和 草原 都 因 地層下陷   出現 大大小小 的 坑洞   遭議員 批評 宛如 成 了 「 地 雷公 園 」   市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 及 建置 自行 車道 會 勘過 程中   發現 有 綠地 及 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區 「 都 會 中 的 綠洲 」                             市議員 張桂綿 近期 發現   公園 中 的 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 和 兒童 奔跑 的 大 草原 也 出現 大小不一 的 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失       「 這裡 宛如 地雷 區   」 張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 她 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除 「 地雷 」   還給 鄉親 安全 的 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 的 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會 勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現 「 無底 洞 」   遭議員 批評 宛如 成 了 「 地 雷公 園 」   圖 ／ 張桂綿 提供</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>桃園 市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 和 草原 都 因 地層下陷   出現 大大小小 的 坑洞   遭議員 批評 宛如 成 了 「 地 雷公 園 」   市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 及 建置 自行 車道 會 勘過 程中   發現 有 綠地 及 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區 「 都 會 中 的 綠洲 」                             市議員 張桂綿 近期 發現   公園 中 的 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 和 兒童 奔跑 的 大 草原 也 出現 大小不一 的 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失       「 這裡 宛如 地雷 區   」 張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 她 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除 「 地雷 」   還給 鄉親 安全 的 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 的 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會 勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現 「 無底 洞 」   遭議員 批評 宛如 成 了 「 地 雷公 園 」   圖 ／ 張桂綿 提供</t>
+          <t xml:space="preserve">桃園 市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 和 草 原因 地層下陷   出現 大大小小 的 坑洞   議員 批評 宛如 成 了 「 地 雷公 園 」   市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會 勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   在 南 崁 住宅 密集 區營造 「 都 會 中 的 綠洲 」                             市議員 張桂綿 說   公園步 道 近期 嚴重 下陷   包括 法式 滾球區 和 兒童 奔跑 的 大 草原 也 出現 大小不一 的 坑洞   甚至 掏空 成 「 無底 洞 」   推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失       「 這裡 宛如 地雷 區   」 張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   她 已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除 「 地雷 」   還給 鄉親 安全 的 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 的 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">桃園 市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 和 草 原因 地層下陷   出現 大大小小 的 坑洞   議員 批評 宛如 成 了 「 地 雷公 園 」   市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會 勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   在 南 崁 住宅 密集 區營造 「 都 會 中 的 綠洲 」                             市議員 張桂綿 說   公園步 道 近期 嚴重 下陷   包括 法式 滾球區 和 兒童 奔跑 的 大 草原 也 出現 大小不一 的 坑洞   甚至 掏空 成 「 無底 洞 」   推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失       「 這裡 宛如 地雷 區   」 張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   她 已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除 「 地雷 」   還給 鄉親 安全 的 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 的 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  </t>
+          <t xml:space="preserve">根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 的 速度   持續 下沉 中   而 有 部分 地區   下沉 的 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 的 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 和 海平面 上升 的 雙重 夾擊   讓 紐約市 岌岌可危   「 紐約 市將 在 30 年後沈入 海底     」 這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 的 速度 持續 下沉 中   紐約市 有 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 的 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 的 重量   聯合國 秘書長 古特 瑞斯 說   「 海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數 」   原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 的 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 的 情況 是   21 世紀 結束 時   紐約 海平面 比現 在 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 的 速度   持續 下沉 中   而 有 部分 地區   下沉 的 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 的 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 和 海平面 上升 的 雙重 夾擊   讓 紐約市 岌岌可危   「 紐約 市將 在 30 年後沈入 海底     」 這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 的 速度 持續 下沉 中   紐約市 有 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 的 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 的 重量   聯合國 秘書長 古特 瑞斯 說   「 海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數 」   原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 的 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 的 情況 是   21 世紀 結束 時   紐約 海平面 比現 在 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  </t>
+          <t>紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 的 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 的 居民 生存 備受 威脅     紐約 每年 均 在 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 在 內 的 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 的 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 的 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 的 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 內 的 建築物 也 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 和 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成 的   因為 上 一次 冰河 時期 最 寒冷 的 時候   巨大 的 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 的 地區則 開始 下陷     之前 有 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 的 力量 之外   研究 人員 也 認為還 可能 包括 其他人 為 因素   且 科學家 也 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 的 重量 造成     本次 研究 結果 刊登 在 Earth   s   Future 期刊   【 更 多 精采 內容   詳見 】</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 的 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 的 居民 生存 備受 威脅     紐約 每年 均 在 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 在 內 的 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 的 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 的 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 的 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 內 的 建築物 也 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 和 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成 的   因為 上 一次 冰河 時期 最 寒冷 的 時候   巨大 的 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 的 地區則 開始 下陷     之前 有 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 的 力量 之外   研究 人員 也 認為還 可能 包括 其他人 為 因素   且 科學家 也 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 的 重量 造成     本次 研究 結果 刊登 在 Earth   s   Future 期刊   【 更 多 精采 內容   詳見 】</t>
+          <t>一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 的 是   科學家 預期 由 於 人 為 引發 的 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說   「 我們 離 海水倒灌 還有 一段 很長 的 路 … 但 我們 在 紐約 市經 歷過 數次 嚴重 的 颶風 事件   像 颶風珊迪   Sandy   及 艾達   Ida   帶來 的 暴雨 使得 城市 淹水 成災   都市化 帶來 的 部分 影響 也 使得 水災 發生   」   這篇論 文發表 在 期刊 「 地球 的 未來 」   Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 的 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 的 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 的 質量   計算出 這些 建築物 的 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 的 波音 747   400 客機     研究 團隊 接著 利用 模擬 的 方式   計算出 這些 重量 對 地面 的 影響   並和 顯示 實際 地表 地質 情況 的 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 的 地區 每年 下陷 約 4.5 毫米 」     然而   並非 所有 地層下陷 都 是 建築物 造成 的   帕森斯 說   「 我們 可想 見 在 非常 鬆 軟 的 土壤 和 人工 填土 的 地面 上 建造 建築 和 地層下陷 的 關聯 … 在 其他 地方   我們則 看到 難以 解釋 的 地層下陷   它 有 很多 不同 的 成因   例如 上個 冰河 時期 後 發生 的 後 冰期 回落   或是 抽取 地下水   」   研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 在 紐約市     帕森斯 說   「 這是 一個 全球性 的 問題   我來 自羅德島 大學   University   of   Rhode   Island   的 合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 也 有 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題   」</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 的 是   科學家 預期 由 於 人 為 引發 的 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說   「 我們 離 海水倒灌 還有 一段 很長 的 路 … 但 我們 在 紐約 市經 歷過 數次 嚴重 的 颶風 事件   像 颶風珊迪   Sandy   及 艾達   Ida   帶來 的 暴雨 使得 城市 淹水 成災   都市化 帶來 的 部分 影響 也 使得 水災 發生   」   這篇論 文發表 在 期刊 「 地球 的 未來 」   Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 的 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 的 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 的 質量   計算出 這些 建築物 的 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 的 波音 747   400 客機     研究 團隊 接著 利用 模擬 的 方式   計算出 這些 重量 對 地面 的 影響   並和 顯示 實際 地表 地質 情況 的 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 的 地區 每年 下陷 約 4.5 毫米 」     然而   並非 所有 地層下陷 都 是 建築物 造成 的   帕森斯 說   「 我們 可想 見 在 非常 鬆 軟 的 土壤 和 人工 填土 的 地面 上 建造 建築 和 地層下陷 的 關聯 … 在 其他 地方   我們則 看到 難以 解釋 的 地層下陷   它 有 很多 不同 的 成因   例如 上個 冰河 時期 後 發生 的 後 冰期 回落   或是 抽取 地下水   」   研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 在 紐約市     帕森斯 說   「 這是 一個 全球性 的 問題   我來 自羅德島 大學   University   of   Rhode   Island   的 合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 也 有 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題   」</t>
+          <t xml:space="preserve">經典 末日 電影   明天 過後     海水 源源 不絕 灌入 市區   整座 城市 轉眼 之間 沉 沒 大海   令人 難以 置信   這樣 的 災難 情節   未來 可能 在 紐約 真實 上演   人稱 「 大 蘋果 」 的 美國 紐約   高樓 林立   房子 一棟 比 一棟 蓋 得 更 高   更 奢華   光是 摩天 大樓 就 多 達 6000 棟   整座 城市 更 有 超過 100 萬棟 建築物   總 重量 高達 7700 億 公斤   約 1.4 億頭 大象   而 高樓 數量 還持續 在 增加 中   土地 承受 不了 建築物 重壓   加上 超 抽 地下水   使得 地層下陷   紐約 正 逐漸 下沉 中   雖然 從 數字來 看 沒什麼 大不了   換算 下來   每 10 年 才 下沉 2 公分   但 專家 警告   這對 沿海 地區 的 影響 不容 小覷   紐約 人口 最 密集 的 曼哈頓 跟 海岸 地區 首當 其衝   這個 世紀末   也 就是 西元 2100 年前   可能 陷入 汪洋 之中   成 了 名 副 其實 的 「 水 都 」   專家 擔心   在 地層下陷 跟 海平面 上升 雙重 夾擊 下   未來 如果 再 遇上 強烈 颶風   災情 可能 一年 比 一年 嚴重   氣候 變遷 加劇   海平面 快速 上升   原因 都 跟 高碳 排放 脫 不了 關 係   減碳 成為 各國 首要 目標   紐約 當局 祭出 了 減碳 法令   限制 大樓 的 排放量   希望 改善 暖化 問題   減緩 海平面 上升   紐約 一半 以上 的 建築都將 受到 規範   有效 控制 碳 排放   有些 建商 也 採用 新技術   在 地下室 打造 「 碳 捕捉 室 」   把 二氧化碳 收集 起來   做 更好 的 利用   透過 儀器   把 天然 氣燃 燒產生 的 二氧化碳 轉換成 液態   阻止 它 進入 大氣層   還能 賣給 建商   力行 減碳免 於 受罰   還能 賺 錢   是 一舉 多 得   大樓 是 紐約 最大 的 碳 排放 來源   佔 了 城市 碳排 的 三分之二   把 造成 暖化 的 二氧化碳 封存 在 水泥 內   從 根本 的 減碳 做起   未來 也將 全面 電氣化   停止使用 天然 氣和 化石 燃料   減緩 暖化 速度   紐約 當局 也 防患未然   在 沿海 地區 設立 防波堤   環繞 整個 紐約   強化 海岸 的 防洪 能力   避免 強烈 颶風來 襲時   海水 灌入 市區   對 市區 造成 損害   建造 海牆 能 有效 防洪   但 可能 破壞 市容   也 干擾 海邊 活動   影響 沿海居民   美國陸 軍 工程兵 團也 在 擬定 一項 名為 3B 的 新計畫   把 防洪 設施 分散 各地   降低 對 當地 的 影響   也 能 達 到 最好 的 效果   希望 對 民生   環境 能 面面俱到   不 只 紐約 面臨 下沉 危機   全球 多國 的 沿海 城市   也 飽 受 海平面 上升 之苦   氣候 變遷 的 威脅 越來 越大   各國 除了 要 加強 防洪 設施   也 要 在 經濟 開發 跟 環保 取得 平衡   加強 減碳 跟 發展 綠色 能源   才能 防止 大自然 反撲  </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">經典 末日 電影   明天 過後     海水 源源 不絕 灌入 市區   整座 城市 轉眼 之間 沉 沒 大海   令人 難以 置信   這樣 的 災難 情節   未來 可能 在 紐約 真實 上演   人稱 「 大 蘋果 」 的 美國 紐約   高樓 林立   房子 一棟 比 一棟 蓋 得 更 高   更 奢華   光是 摩天 大樓 就 多 達 6000 棟   整座 城市 更 有 超過 100 萬棟 建築物   總 重量 高達 7700 億 公斤   約 1.4 億頭 大象   而 高樓 數量 還持續 在 增加 中   土地 承受 不了 建築物 重壓   加上 超 抽 地下水   使得 地層下陷   紐約 正 逐漸 下沉 中   雖然 從 數字來 看 沒什麼 大不了   換算 下來   每 10 年 才 下沉 2 公分   但 專家 警告   這對 沿海 地區 的 影響 不容 小覷   紐約 人口 最 密集 的 曼哈頓 跟 海岸 地區 首當 其衝   這個 世紀末   也 就是 西元 2100 年前   可能 陷入 汪洋 之中   成 了 名 副 其實 的 「 水 都 」   專家 擔心   在 地層下陷 跟 海平面 上升 雙重 夾擊 下   未來 如果 再 遇上 強烈 颶風   災情 可能 一年 比 一年 嚴重   氣候 變遷 加劇   海平面 快速 上升   原因 都 跟 高碳 排放 脫 不了 關 係   減碳 成為 各國 首要 目標   紐約 當局 祭出 了 減碳 法令   限制 大樓 的 排放量   希望 改善 暖化 問題   減緩 海平面 上升   紐約 一半 以上 的 建築都將 受到 規範   有效 控制 碳 排放   有些 建商 也 採用 新技術   在 地下室 打造 「 碳 捕捉 室 」   把 二氧化碳 收集 起來   做 更好 的 利用   透過 儀器   把 天然 氣燃 燒產生 的 二氧化碳 轉換成 液態   阻止 它 進入 大氣層   還能 賣給 建商   力行 減碳免 於 受罰   還能 賺 錢   是 一舉 多 得   大樓 是 紐約 最大 的 碳 排放 來源   佔 了 城市 碳排 的 三分之二   把 造成 暖化 的 二氧化碳 封存 在 水泥 內   從 根本 的 減碳 做起   未來 也將 全面 電氣化   停止使用 天然 氣和 化石 燃料   減緩 暖化 速度   紐約 當局 也 防患未然   在 沿海 地區 設立 防波堤   環繞 整個 紐約   強化 海岸 的 防洪 能力   避免 強烈 颶風來 襲時   海水 灌入 市區   對 市區 造成 損害   建造 海牆 能 有效 防洪   但 可能 破壞 市容   也 干擾 海邊 活動   影響 沿海居民   美國陸 軍 工程兵 團也 在 擬定 一項 名為 3B 的 新計畫   把 防洪 設施 分散 各地   降低 對 當地 的 影響   也 能 達 到 最好 的 效果   希望 對 民生   環境 能 面面俱到   不 只 紐約 面臨 下沉 危機   全球 多國 的 沿海 城市   也 飽 受 海平面 上升 之苦   氣候 變遷 的 威脅 越來 越大   各國 除了 要 加強 防洪 設施   也 要 在 經濟 開發 跟 環保 取得 平衡   加強 減碳 跟 發展 綠色 能源   才能 防止 大自然 反撲  </t>
+          <t xml:space="preserve">美國 紐約 是 東部 最熱鬧 的 城市 之一   也 是 美國 人口 最多 的 城市   但 有 研究 顯示   這座 重要 的 城市 卻 每年 都 在 下沉 中   部分 地區 最 後 可能 還會 被淹 沒   電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   美國 紐約 摩天 大樓 林立   但 多 達 百萬棟 建築物實 在 太重 了   讓 整座 城市 地層 正在 下陷   再 加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   長 久 下來 恐發生 海水倒灌 等 洪水 災害   美國 地質 調查 所 專家 帕森斯 表示   「 無可 避免 的   地面 在 下降   水面 上升   在 某些 時候   這兩層 面會 同時 發生   但 我 沒辦 法給 你 確切 的 時間點   」 帕森斯 說   超過 百萬座 建築物 分布 在 五個 行政 區上   加起 來 約 有 1.7 兆 磅 的 混凝土   金屬 和 玻璃 等 建材   相當 於 4700 座帝 國大廈 的 重量 壓在 地球 上   其中   部分 大樓 建築 在 布魯克林   皇后 區和曼 哈頓 市中心 土 質 鬆 散 的 地 區 上   下沉 速度 更 快   美國 地質 調查 所 專家 帕森斯 表示   「 中部 大陸 上升   東 海岸 每年 下沉 約 1 至 2 公 釐   這是 我們 看到 的 主要 警訊   再 加上 紐約市 有 不同 土壤 質地   還有 人工 填土 來 增加 土地 面積   但 它們 的 土壤 固結度 很 差   還是 可以 讓 地層下陷   」 帕森斯 還說   雖然 下沉 的 速度 很 緩慢   但 紐約 部分 地區 最 終將 被淹 沒   猶如 電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   至於 紐約 是否 會 變成 美國版 的 威尼斯   帕森斯 表示   確切 的 時間點 目前 尚 不 清楚   可能 還 需要 數 百年 的 時間   但 他 的 研究 不是 危言 聳 聽   只是 希望 透過 科學 數據   在 問題 擴大前   先 採取 行動  </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">美國 紐約 是 東部 最熱鬧 的 城市 之一   也 是 美國 人口 最多 的 城市   但 有 研究 顯示   這座 重要 的 城市 卻 每年 都 在 下沉 中   部分 地區 最 後 可能 還會 被淹 沒   電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   美國 紐約 摩天 大樓 林立   但 多 達 百萬棟 建築物實 在 太重 了   讓 整座 城市 地層 正在 下陷   再 加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   長 久 下來 恐發生 海水倒灌 等 洪水 災害   美國 地質 調查 所 專家 帕森斯 表示   「 無可 避免 的   地面 在 下降   水面 上升   在 某些 時候   這兩層 面會 同時 發生   但 我 沒辦 法給 你 確切 的 時間點   」 帕森斯 說   超過 百萬座 建築物 分布 在 五個 行政 區上   加起 來 約 有 1.7 兆 磅 的 混凝土   金屬 和 玻璃 等 建材   相當 於 4700 座帝 國大廈 的 重量 壓在 地球 上   其中   部分 大樓 建築 在 布魯克林   皇后 區和曼 哈頓 市中心 土 質 鬆 散 的 地 區 上   下沉 速度 更 快   美國 地質 調查 所 專家 帕森斯 表示   「 中部 大陸 上升   東 海岸 每年 下沉 約 1 至 2 公 釐   這是 我們 看到 的 主要 警訊   再 加上 紐約市 有 不同 土壤 質地   還有 人工 填土 來 增加 土地 面積   但 它們 的 土壤 固結度 很 差   還是 可以 讓 地層下陷   」 帕森斯 還說   雖然 下沉 的 速度 很 緩慢   但 紐約 部分 地區 最 終將 被淹 沒   猶如 電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   至於 紐約 是否 會 變成 美國版 的 威尼斯   帕森斯 表示   確切 的 時間點 目前 尚 不 清楚   可能 還 需要 數 百年 的 時間   但 他 的 研究 不是 危言 聳 聽   只是 希望 透過 科學 數據   在 問題 擴大前   先 採取 行動  </t>
+          <t>台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 今天 塌陷   一輛 預拌 混凝土車 側翻   壓傷 一名 工人   被 送醫 急救   台中市 勞檢處 已 派 人 到場 調查   並 勒令停工   因 工地 沒 做 擋 土   地面 承載力 不足 等 缺失       台中市 消防局 今天 早上 9 點接 獲 報案   沙鹿 區錦華街 一處 工地 旁發生 緊急 創傷 救護   出動 沙鹿   龍井   梧棲   西屯 分隊 及 第四 大隊   各式 消防 車輛 10 輛   消防人 員 25 名   由大隊 長 蔡孟栩帶 隊 指揮 搶 救                             現場 是 路面 坍方   造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人   工地 營建廠 商已 協助 聯 繫 吊 車 到 場   地層下陷 造成 預拌 混 泥土 車車輛 翻覆   沙鹿 消防 分隊 到 場後先 以 消防 車絞盤   梧棲分隊 使用 車 吊臂 共同 固定 預拌 混 泥土 車   確保 傷者 安全 無虞   因 該車 重量 達 35 噸 以上   需 等待 業者 配合 大型 吊車 到 場方能 吊掛   先由救護 人員 接觸 患者 進行 緊 急救 護處 置       早上 9 點 34 分   業者 調派 吊車 至 現場 進行 車輛 吊掛   消防局 搶 救人 員協助 以油 壓破壞 器材   協助 傷者 脫困   10 點 4 分傷者 順利 脫困   送 梧棲童 綜合 醫院       傷者 到 醫院 時 意識 清楚   雙 下肢 和 背部 擦 挫傷   右 大腿 燙傷   應是 鋼版 高溫 造成   目前 仍 在 醫院 檢查 中   台中市 勞檢處 表示   工地 的 地面 承載力 不足   造成 地面 塌陷   車翻 傷心 意外   已 要求 停工   將開罰 3 到 30 萬元 不 等 罰 鍰   台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 今天 塌陷   一輛 預拌 混凝土車 側翻   壓傷 一名 工人   被 送醫 急救   台中市 勞檢處 已 派 人 到場 調查   並 勒令停工   因 工地 沒 做 擋 土   地面 承載力 不足 等 缺失       台中市 消防局 今天 早上 9 點接 獲 報案   沙鹿 區錦華街 一處 工地 旁發生 緊急 創傷 救護   出動 沙鹿   龍井   梧棲   西屯 分隊 及 第四 大隊   各式 消防 車輛 10 輛   消防人 員 25 名   由大隊 長 蔡孟栩帶 隊 指揮 搶 救                             現場 是 路面 坍方   造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人   工地 營建廠 商已 協助 聯 繫 吊 車 到 場   地層下陷 造成 預拌 混 泥土 車車輛 翻覆   沙鹿 消防 分隊 到 場後先 以 消防 車絞盤   梧棲分隊 使用 車 吊臂 共同 固定 預拌 混 泥土 車   確保 傷者 安全 無虞   因 該車 重量 達 35 噸 以上   需 等待 業者 配合 大型 吊車 到 場方能 吊掛   先由救護 人員 接觸 患者 進行 緊 急救 護處 置       早上 9 點 34 分   業者 調派 吊車 至 現場 進行 車輛 吊掛   消防局 搶 救人 員協助 以油 壓破壞 器材   協助 傷者 脫困   10 點 4 分傷者 順利 脫困   送 梧棲童 綜合 醫院       傷者 到 醫院 時 意識 清楚   雙 下肢 和 背部 擦 挫傷   右 大腿 燙傷   應是 鋼版 高溫 造成   目前 仍 在 醫院 檢查 中   台中市 勞檢處 表示   工地 的 地面 承載力 不足   造成 地面 塌陷   車翻 傷心 意外   已 要求 停工   將開罰 3 到 30 萬元 不 等 罰 鍰   台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供</t>
+          <t xml:space="preserve">印尼 海域 的 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 的 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 有 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 的 寧靜 自然   還能 在 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出   「 紅樹林 是 很 獨特 的 生態 系統   一種 植物   有趣 的 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要 的 嗎   」 印尼 首都 雅加 達長 期受 極端 氣候 引發 的 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷 都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 的 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 的 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 的 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 的 一小部分   過去 一年 就 有 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 的 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示   「 我們 需要 生存 下去   但 很 難 找到 像樣 的 工作   當時 唯一 知道 的 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁   」 這片 海域 位 在 東南亞 從菲律 賓到 印尼   澳洲 之間 的 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 在 當地 巴迪島   努力 復 育 周邊 3 公頃 的 珊瑚礁   耐心 說 服漁民 做 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 的 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 的 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 的 海底 回春   熱帶 魚群 穿梭 在 新生 的 珊瑚礁 之間   環境 科學家 尤素夫 提及   「 印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 的 世界 遺產   一個 小小的 努力 都 可能 影響 世界   」 印尼 海域 的 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 的 18%   在 珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 有 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 的 海域   一步 一步 把 失去 的 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">印尼 海域 的 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 的 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 有 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 的 寧靜 自然   還能 在 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出   「 紅樹林 是 很 獨特 的 生態 系統   一種 植物   有趣 的 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要 的 嗎   」 印尼 首都 雅加 達長 期受 極端 氣候 引發 的 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷 都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 的 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 的 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 的 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 的 一小部分   過去 一年 就 有 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 的 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示   「 我們 需要 生存 下去   但 很 難 找到 像樣 的 工作   當時 唯一 知道 的 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁   」 這片 海域 位 在 東南亞 從菲律 賓到 印尼   澳洲 之間 的 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 在 當地 巴迪島   努力 復 育 周邊 3 公頃 的 珊瑚礁   耐心 說 服漁民 做 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 的 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 的 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 的 海底 回春   熱帶 魚群 穿梭 在 新生 的 珊瑚礁 之間   環境 科學家 尤素夫 提及   「 印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 的 世界 遺產   一個 小小的 努力 都 可能 影響 世界   」 印尼 海域 的 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 的 18%   在 珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 有 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 的 海域   一步 一步 把 失去 的 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  </t>
+          <t xml:space="preserve">台南市 人權律師 湯德章 故居 2020 年 由 文化界 發起 募款 籌得 2 千萬元 買 下   稍微 整修   但 目前 房舍 破爛   蟲蛀   傾斜   有 危險 之 虞   湯德章 紀念 協會 自籌 經費 及 獲 文化部   台南市 文化局 補助   將斥資 1260 萬元修 復   昨舉 行動土   預計 1 年 後 完工   希望 恢 復 老屋 原來 面貌       湯德章 紀念 協會 理事 長 黃 建龍 說   湯德章 故居 透過 群眾 集資 的 力量 順利 搶 救 買 下   並將 嚴重 蛀蝕 部分 清理   拆除 危牆   重新 拉配 水電   布設 簡要 的 展覽   前年 開放 參觀   但 這棟 90 餘年 的 老屋   歷經 多次 地震   後 段 建物 明顯 地層下陷 傾斜   嚴重 漏水   梁柱 遭蟲 蛀   木件 門窗 不見 等   為 讓 故居 永續 經營   決定 修 復 再生                             協會 去年 與 崑 山 科技 大學 合作   由 郭一勤 老師 帶 領團 隊展 開建築物 的 損毀 檢查 與 重新 測繪   提出 湯德章 故居 保存 再生 計畫   獲 文化部 私有 老建築 保存 再生 計畫 通過 補助   修 復工 程由 文化部 及 台南市 文化局 補助 882 萬餘元   其餘 由 協會 自籌   初估 超過 600 萬元       市長 黃 偉哲 說   保存 再生 計畫將 進行 設施 的 再 優化   也 會 陳 列許 多 湯德章 律師 的 遺物 及 呈現 228 事件 的歷 史事 蹟   讓 後 世子 孫永遠 都 能 記得   「 希望 這段 歷史 被 原諒   但 不能 被 忘記   」     文化局 表示   市府 努力 協助 爭取 再生 計畫 的 過程 中   全案 因具 高 公益性   是 去年 文化部 私有 老建築 保存 再生 計畫 中 最 受矚 目的 申請案   湯德章 故居 修 復工 程啟 動   象徵推 廣人權 教育 之 路 向前 邁進 一大步  </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">台南市 人權律師 湯德章 故居 2020 年 由 文化界 發起 募款 籌得 2 千萬元 買 下   稍微 整修   但 目前 房舍 破爛   蟲蛀   傾斜   有 危險 之 虞   湯德章 紀念 協會 自籌 經費 及 獲 文化部   台南市 文化局 補助   將斥資 1260 萬元修 復   昨舉 行動土   預計 1 年 後 完工   希望 恢 復 老屋 原來 面貌       湯德章 紀念 協會 理事 長 黃 建龍 說   湯德章 故居 透過 群眾 集資 的 力量 順利 搶 救 買 下   並將 嚴重 蛀蝕 部分 清理   拆除 危牆   重新 拉配 水電   布設 簡要 的 展覽   前年 開放 參觀   但 這棟 90 餘年 的 老屋   歷經 多次 地震   後 段 建物 明顯 地層下陷 傾斜   嚴重 漏水   梁柱 遭蟲 蛀   木件 門窗 不見 等   為 讓 故居 永續 經營   決定 修 復 再生                             協會 去年 與 崑 山 科技 大學 合作   由 郭一勤 老師 帶 領團 隊展 開建築物 的 損毀 檢查 與 重新 測繪   提出 湯德章 故居 保存 再生 計畫   獲 文化部 私有 老建築 保存 再生 計畫 通過 補助   修 復 工程 由 文化部 及 台南市 文化局 補助 882 萬餘元   其餘 由 協會 自籌   初估 超過 600 萬元       市長 黃 偉哲 說   保存 再生 計畫將 進行 設施 的 再 優化   也 會 陳 列許 多 湯德章 律師 的 遺物 及 呈現 228 事件 的歷 史事 蹟   讓 後 世子 孫永遠 都 能 記得   「 希望 這段 歷史 被 原諒   但 不能 被 忘記   」     文化局 表示   市府 努力 協助 爭取 再生 計畫 的 過程 中   全案 因具 高 公益性   是 去年 文化部 私有 老建築 保存 再生 計畫 中 最 受矚 目的 申請案   湯德章 故居 修 復 工程 啟動   象徵推 廣人權 教育 之 路 向前 邁進 一大步  </t>
+          <t>近期 受滯 留鋒面 及 農 曆 大潮 影響   台灣 南部 午後出現 局部 強 降雨   嘉義 沿海 地層下陷 易 淹水   五河 局 預置 淹水 感測器 及 移動式 抽水機   監控積 淹水 情況   縣府 也 提前 協助 清除 河道 障礙物   確保 排水 通洪順暢   並呼籲 漁民 做好 防災 措施       縣府 漁業 處 指出   因 近期 可能 有 大量 降雨   先 整備 防汛 應變   督導 2 件 在建 中 的 大型 養殖區 排水工程   移除 河道 中機 具及 打通 阻礙物   雖會 影響 工期 及 增加 工程 不便   但 仍 以防 災為 最 優先 考量   避免 造成 附近 或 上游 淹水 災情                             漁業 處 也 呼籲   這 周天 氣極 不 穩定   低壓 帶 及 滯 留鋒面 影響   易有 短延 時強 降雨   海面 風浪 也 不佳   提醒 漁友 要 多加 留意 養殖 管理   並 做好 防災 工作   若有 災害 要 隨時 通報   以利 立即 搶救       第五 河川 局說   已 成立 應變 小組   全天候 線上 監控 水情   以便 及時 應 對   確保 各項 防洪措施 在 關鍵 時刻 發揮 作用   並積 極加強 防汛 整備   對 抽水站   破堤 施工   防汛 缺口 及 在建 工程 等 重點 項目 進行 檢查 和 監督       五河 局 提醒   民眾 應多關 注水 情資訊   清理 自家 陽台 的 洩 水管 和 附近 的 溝渠   並透過 防災 資訊 服務網   以及 行動 水情 APP 等 防災 工具   即時 掌握 相關訊息   有效 減少 災害 損失   近期 受鋒面 影響 恐有 瞬間強 降雨   嘉義 縣 沿海 地層下陷 恐 淹水   縣府 督導 在建 中 大型 養殖區 做好 排水工程   記者 黃 于 凡 ／ 翻攝 近期 受鋒面 影響 恐有 瞬間強 降雨   第五 河川 局出動 移動式 抽水機 待命   記者 黃 于 凡 ／ 翻攝 近期 受鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷 區 慎防 淹水   記者 黃 于 凡 ／ 翻攝 近期 受鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷 區 慎防 淹水   記者 黃 于 凡 ／ 翻攝</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>近期 受滯 留鋒面 及 農 曆 大潮 影響   台灣 南部 午後出現 局部 強 降雨   嘉義 沿海 地層下陷 易 淹水   五河 局 預置 淹水 感測器 及 移動式 抽水機   監控積 淹水 情況   縣府 也 提前 協助 清除 河道 障礙物   確保 排水 通洪順暢   並呼籲 漁民 做好 防災 措施       縣府 漁業 處 指出   因 近期 可能 有 大量 降雨   先 整備 防汛 應變   督導 2 件 在建 中 的 大型 養殖區 排水工程   移除 河道 中機 具及 打通 阻礙物   雖會 影響 工期 及 增加 工程 不便   但 仍 以防 災為 最 優先 考量   避免 造成 附近 或 上游 淹水 災情                             漁業 處 也 呼籲   這 周天 氣極 不 穩定   低壓 帶 及 滯 留鋒面 影響   易有 短延 時強 降雨   海面 風浪 也 不佳   提醒 漁友 要 多加 留意 養殖 管理   並 做好 防災 工作   若有 災害 要 隨時 通報   以利 立即 搶救       第五 河川 局說   已 成立 應變 小組   全天候 線上 監控 水情   以便 及時 應 對   確保 各項 防洪措施 在 關鍵 時刻 發揮 作用   並積 極加強 防汛 整備   對 抽水站   破堤 施工   防汛 缺口 及 在建 工程 等 重點 項目 進行 檢查 和 監督       五河 局 提醒   民眾 應多關 注水 情資訊   清理 自家 陽台 的 洩 水管 和 附近 的 溝渠   並透過 防災 資訊 服務網   以及 行動 水情 APP 等 防災 工具   即時 掌握 相關訊息   有效 減少 災害 損失   近期 受鋒面 影響 恐有 瞬間強 降雨   嘉義 縣 沿海 地層下陷 恐 淹水   縣府 督導 在建 中 大型 養殖區 做好 排水工程   記者 黃 于 凡 ／ 翻攝 近期 受鋒面 影響 恐有 瞬間強 降雨   第五 河川 局出動 移動式 抽水機 待命   記者 黃 于 凡 ／ 翻攝 近期 受鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷 區 慎防 淹水   記者 黃 于 凡 ／ 翻攝 近期 受鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷 區 慎防 淹水   記者 黃 于 凡 ／ 翻攝</t>
+          <t xml:space="preserve">一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 的 是   科學家 預期 由 於 人 為 引發 的 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說   「 我們 離 海水倒灌 還有 一段 很長 的 路 … 但 我們 在 紐約 市經 歷過 數次 嚴重 的 颶風 事件   像 颶風珊迪   Sandy   及 艾達   Ida   帶來 的 暴雨 使得 城市 淹水 成災   都市化 帶來 的 部分 影響 也 使得 水災 發生   」     這篇論 文發表 在 期刊 「 地球 的 未來 」   Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 的 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 的 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 的 質量   計算出 這些 建築物 的 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 的 波音 747   400 客機       研究 團隊 接著 利用 模擬 的 方式   計算出 這些 重量 對 地面 的 影響   並和 顯示 實際 地表 地質 情況 的 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 的 地區 每年 下陷 約 4.5 毫米 」       然而   並非 所有 地層下陷 都 是 建築物 造成 的   帕森斯 說   「 我們 可想 見 在 非常 鬆 軟 的 土壤 和 人工 填土 的 地面 上 建造 建築 和 地層下陷 的 關聯 … 在 其他 地方   我們則 看到 難以 解釋 的 地層下陷   它 有 很多 不同 的 成因   例如 上個 冰河 時期 後 發生 的 後 冰期 回落   或是 抽取 地下水   」     研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 在 紐約市       帕森斯 說   「 這是 一個 全球性 的 問題   我來 自羅德島 大學   University   of   Rhode   Island   的 合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 也 有 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題   」       Take   action   加入   倡議 +    </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 的 是   科學家 預期 由 於 人 為 引發 的 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說   「 我們 離 海水倒灌 還有 一段 很長 的 路 … 但 我們 在 紐約 市經 歷過 數次 嚴重 的 颶風 事件   像 颶風珊迪   Sandy   及 艾達   Ida   帶來 的 暴雨 使得 城市 淹水 成災   都市化 帶來 的 部分 影響 也 使得 水災 發生   」     這篇論 文發表 在 期刊 「 地球 的 未來 」   Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 的 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 的 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 的 質量   計算出 這些 建築物 的 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 的 波音 747   400 客機       研究 團隊 接著 利用 模擬 的 方式   計算出 這些 重量 對 地面 的 影響   並和 顯示 實際 地表 地質 情況 的 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 的 地區 每年 下陷 約 4.5 毫米 」       然而   並非 所有 地層下陷 都 是 建築物 造成 的   帕森斯 說   「 我們 可想 見 在 非常 鬆 軟 的 土壤 和 人工 填土 的 地面 上 建造 建築 和 地層下陷 的 關聯 … 在 其他 地方   我們則 看到 難以 解釋 的 地層下陷   它 有 很多 不同 的 成因   例如 上個 冰河 時期 後 發生 的 後 冰期 回落   或是 抽取 地下水   」     研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 在 紐約市       帕森斯 說   「 這是 一個 全球性 的 問題   我來 自羅德島 大學   University   of   Rhode   Island   的 合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 也 有 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題   」       Take   action   加入   倡議 +    </t>
+          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷 區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 的 高鐵橋 下 便 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 的 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   便 道 位 在 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 有 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 在 地層下陷 區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 也 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 的 行車 品質  </t>
         </is>
       </c>
     </row>
@@ -847,182 +847,182 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷 區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 的 高鐵橋 下 便 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 的 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   便 道 位 在 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 有 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 在 地層下陷 區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 也 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 的 行車 品質  </t>
+          <t xml:space="preserve">高鐵 地層下陷 區 雲林 土庫 段橋 下 便 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 有 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬 上 攔檢   位 在 高鐵 雲林 土庫 段橋 下 便 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 有 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示   「 大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞   」 土庫 鎮長 陳 特凱則 指出   「 柏油 鋪設 之 後   多年 來 它 的 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 的 情況   一而再 再而三 的 重 複   」 土庫鎮 公所 表示   高鐵橋 下 便 道 窄   本來 就 不 適合大車 通行   但 有 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林 縣府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林 縣府 工務 處長 汪令堯 說明   「 這 路段 經 地方 反映   主要 是 它 地質 也 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     那 加上 這邊 也 有 重車 行駛   造成 它 地面 下陷 蠻 嚴重 的   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC   」 工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   便 道 位 在 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   也 將請 警方 加強 取締   維護 好 的 行車 品質  </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">高鐵 地層下陷 區 雲林 土庫 段橋 下 便 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 有 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬 上 攔檢   位 在 高鐵 雲林 土庫 段橋 下 便 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 有 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示   「 大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞   」 土庫 鎮長 陳 特凱則 指出   「 柏油 鋪設 之 後   多年 來 它 的 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 的 情況   一而再 再而三 的 重 複   」 土庫鎮 公所 表示   高鐵橋 下 便 道 窄   本來 就 不 適合大車 通行   但 有 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林 縣府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林 縣府 工務 處長 汪令堯 說明   「 這 路段 經 地方 反映   主要 是 它 地質 也 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     那 加上 這邊 也 有 重車 行駛   造成 它 地面 下陷 蠻 嚴重 的   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC   」 工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   便 道 位 在 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   也 將請 警方 加強 取締   維護 好 的 行車 品質  </t>
+          <t xml:space="preserve">雲林 縣土庫 鎮高鐵 沿線 列屬 地層下陷 區   軌道 下方 雲 158 甲線 通往 雲 97 線 的 便 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 的 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會 勘 後 表示   近期 內 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 便 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   在 路口 設 有限 重 10 噸 以下 的 車輛 通行   但 地方 反映 長 期來 仍 有 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   也 將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 的 兩側 便 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   便 道 不能 任意 挖掘 施工   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 的 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林 縣土庫 鎮高鐵 沿線 列屬 地層下陷 區   軌道 下方 雲 158 甲線 通往 雲 97 線 的 便 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 的 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會 勘 後 表示   近期 內 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 便 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   在 路口 設 有限 重 10 噸 以下 的 車輛 通行   但 地方 反映 長 期來 仍 有 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   也 將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 的 兩側 便 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   便 道 不能 任意 挖掘 施工   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 的 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  </t>
+          <t>路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 的 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 的 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為 「 地獄 之門 」       影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 的 地形   這種 高低 起伏 的 地表 在 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示   「 當地 人稱 之 為 塌陷   在 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大 」       科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 的 苔原 也 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 的 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是 「 危險訊號 」   「 今 後   隨著 氣溫 升高 和 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 的 永凍土 都 消失 為止 」       永凍土 融化 已威脅 到 俄國 北部 與 東 北部 的 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 的 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 也 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說   「   兩 年前   巨坑 邊緣   距離 這條 小路 大約 有 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了   」     科學家 不 確定 巴塔 蓋卡 坑洞 擴大 的 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 的 土地   有些 地方 深約 100 公尺   含有 「 大量 」 有機 碳   隨著永凍 土 融化   這些 有 機碳 將釋 放到 大氣 中   加劇 全球 暖化   「 隨著 氣溫 的 升高   我們 可以 預計   巨坑   將以 更 快 的 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化   」         路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 的 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 的 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為 「 地獄 之門 」   路透</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 的 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 的 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為 「 地獄 之門 」       影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 的 地形   這種 高低 起伏 的 地表 在 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示   「 當地 人稱 之 為 塌陷   在 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大 」       科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 的 苔原 也 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 的 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是 「 危險訊號 」   「 今 後   隨著 氣溫 升高 和 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 的 永凍土 都 消失 為止 」       永凍土 融化 已威脅 到 俄國 北部 與 東 北部 的 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 的 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 也 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說   「   兩 年前   巨坑 邊緣   距離 這條 小路 大約 有 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了   」     科學家 不 確定 巴塔 蓋卡 坑洞 擴大 的 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 的 土地   有些 地方 深約 100 公尺   含有 「 大量 」 有機 碳   隨著永凍 土 融化   這些 有 機碳 將釋 放到 大氣 中   加劇 全球 暖化   「 隨著 氣溫 的 升高   我們 可以 預計   巨坑   將以 更 快 的 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化   」         路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 的 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 的 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為 「 地獄 之門 」   路透</t>
+          <t xml:space="preserve">俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 的 永凍土 塌陷 坑   當地 人 把 它 稱作 「 冥界 之門 」   隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 有 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境 內 的 「 巴塔 蓋卡大融 洞 」   是 全世界 最大 的 永凍土 塌陷 坑   當地 人 把 它 稱作 「 冥界 之門 」   當地 居民 斯特 魯奇 科夫 表示   「 這是 在 1970 年代 形成 的   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大   」 當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 的 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出   「 這是 個 危險 的 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成 的   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 的 永凍土 都 消失   」 更 糟糕 的 是   隨著永凍 土 消失   封存 在 裡頭 的 有 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示   「 永凍 土內 的 碳 存量 是 大氣 中 的 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 的 甲烷 跟 二氧化碳 排放   加速 溫室 效應   」 科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 的 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 在 俄國 北部 與 東 北部 的 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 的 永凍土 塌陷 坑   當地 人 把 它 稱作 「 冥界 之門 」   隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 有 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境 內 的 「 巴塔 蓋卡大融 洞 」   是 全世界 最大 的 永凍土 塌陷 坑   當地 人 把 它 稱作 「 冥界 之門 」   當地 居民 斯特 魯奇 科夫 表示   「 這是 在 1970 年代 形成 的   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大   」 當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 的 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出   「 這是 個 危險 的 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成 的   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 的 永凍土 都 消失   」 更 糟糕 的 是   隨著永凍 土 消失   封存 在 裡頭 的 有 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示   「 永凍 土內 的 碳 存量 是 大氣 中 的 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 的 甲烷 跟 二氧化碳 排放   加速 溫室 效應   」 科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 的 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 在 俄國 北部 與 東 北部 的 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  </t>
+          <t xml:space="preserve">基隆 一處 屋齡 超過 40 年 的 公寓 住宅   後 方 的 排水 溝壁 破損   導致 流水 長 期 沖 刷   部分 住宅 地基 被 掏空   周圍 路面 也 出現 地層下陷 的 狀況   杜蘇芮 颱 風來襲   居民 擔心 大雨 不斷   後 果 不堪 設想   地基 掏空 發生 在 基隆 西定 路   一棟 公寓 住宅 住家 門口   破 了 一個 大 洞口   有 居民 行經 踩 空   才 驚覺 原來 民宅 外側 的 地基 被 掏空 了   進 一步 了解 才 發現   是 排水 溝壁 破損   長 期 沖 刷 造成   而且 長 期 土石 流失   也 讓 周圍 路面 出現 地層下陷 的 狀況   從 畫面 中 可以 看到   地層下陷 的 深度 大概 有 3 到 5 公分   可以 把手 機 放置 進去   居民 擔憂   地層下陷 將會 影響 住宅 的 結構 安全   尤其 杜蘇芮 颱 風期間   帶來 雨勢   恐怕 會帶 來 嚴重 的 影響   基隆市 議員施 偉政 也 提醒   地基 被 沖 刷   上面 載重 又 大 的 話   恐怕 房子 會 有 很大 的 問題   工務處 表示   會先 就 壁體 破損 坍方 處   施作 水溝 溝牆 再 回填   避免 淘空 範圍 擴大  </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">基隆 一處 屋齡 超過 40 年 的 公寓 住宅   後 方 的 排水 溝壁 破損   導致 流水 長 期 沖 刷   部分 住宅 地基 被 掏空   周圍 路面 也 出現 地層下陷 的 狀況   杜蘇芮 颱 風來襲   居民 擔心 大雨 不斷   後 果 不堪 設想   地基 掏空 發生 在 基隆 西定 路   一棟 公寓 住宅 住家 門口   破 了 一個 大 洞口   有 居民 行經 踩 空   才 驚覺 原來 民宅 外側 的 地基 被 掏空 了   進 一步 了解 才 發現   是 排水 溝壁 破損   長 期 沖 刷 造成   而且 長 期 土石 流失   也 讓 周圍 路面 出現 地層下陷 的 狀況   從 畫面 中 可以 看到   地層下陷 的 深度 大概 有 3 到 5 公分   可以 把手 機 放置 進去   居民 擔憂   地層下陷 將會 影響 住宅 的 結構 安全   尤其 杜蘇芮 颱 風期間   帶來 雨勢   恐怕 會帶 來 嚴重 的 影響   基隆市 議員施 偉政 也 提醒   地基 被 沖 刷   上面 載重 又 大 的 話   恐怕 房子 會 有 很大 的 問題   工務處 表示   會先 就 壁體 破損 坍方 處   施作 水溝 溝牆 再 回填   避免 淘空 範圍 擴大  </t>
+          <t xml:space="preserve">嘉義 市 35 座公園 是 國內 密度 最高   其中 20 座公園 有 廁所   曾 有 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 的 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 的 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請 「 優質 公廁 及 美質 環境 推動 計畫 」 經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 及 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 的 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉義 市 35 座公園 是 國內 密度 最高   其中 20 座公園 有 廁所   曾 有 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 的 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 的 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請 「 優質 公廁 及 美質 環境 推動 計畫 」 經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 及 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 的 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  </t>
+          <t xml:space="preserve">〔 記者 羅 欣貞 ／ 屏東 報導 〕 屏東 縣 政府 2018 年 完工 並開始 操作 的 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫   近年 來 均 能 挹注 超過 5000 萬噸 的 水源 至 地下 含水 層   然而 由 於 南部 地區 近年 氣候 狀況 不如 預期   人工湖 於 今年 5 月僅 經過 1 個 月 餘 的 引水 操作   將大約 1000 萬噸 的 水 注入 含水 層   因應 颱 風 杜蘇芮 與後續 雨勢   從 7 月 27 日當晚 開始 啟動 今年 的 第二次 引水 作業   一直 持續 至今     屏縣 府 水利 處 表示   大 潮州 補注 湖不僅 是 目前 國內僅 有   也 是 東南亞 地區 最 大型 的 人工湖 補注 地下水 計畫   原理 為 於 洪水期 將林邊 溪 之 較 大 水源 導引 至 人工湖   而 此區 因 具備 入滲 效果 佳 的 地質 條件   即可 有效 補注 至 地下 含水 層   補注 之 效益 為 可 涵養 在 屏縣 使用率 較 高 的 地下水 資源   提高 部分 區域 的 地下水位   減緩 地層下陷 與 海水 入侵   防止 地下水 鹽化   此外   人工湖 也 具有 分洪   治洪 的 功能   而結 合水 銀行 抽補 概念   更是 能 提高 水資源 運用 效益     水利 處 指出   第 1 期 工程 經費 約 14.1 億元   無論 是 取輸水 效果   入滲 效率 與 補 注量 體均 極為 可觀   已具 顯著 成效   此項 目的 啟動 不僅 增加 屏南 地區 水資源 可運 用量   也 已 初步 達到 「 增源 減洪 」 的 重要 作用   後 續將 提出 第 2 期 人工湖 開闢 計畫   以達成 預估 完成 後 挹注 的 每年 1.5 億噸 的 地下水 補注量  </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 羅 欣貞 ／ 屏東 報導 〕 屏東 縣 政府 2018 年 完工 並開始 操作 的 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫   近年 來 均 能 挹注 超過 5000 萬噸 的 水源 至 地下 含水 層   然而 由 於 南部 地區 近年 氣候 狀況 不如 預期   人工湖 於 今年 5 月僅 經過 1 個 月 餘 的 引水 操作   將大約 1000 萬噸 的 水 注入 含水 層   因應 颱 風 杜蘇芮 與後續 雨勢   從 7 月 27 日當晚 開始 啟動 今年 的 第二次 引水 作業   一直 持續 至今     屏縣 府 水利 處 表示   大 潮州 補注 湖不僅 是 目前 國內僅 有   也 是 東南亞 地區 最 大型 的 人工湖 補注 地下水 計畫   原理 為 於 洪水期 將林邊 溪 之 較 大 水源 導引 至 人工湖   而 此區 因 具備 入滲 效果 佳 的 地質 條件   即可 有效 補注 至 地下 含水 層   補注 之 效益 為 可 涵養 在 屏縣 使用率 較 高 的 地下水 資源   提高 部分 區域 的 地下水位   減緩 地層下陷 與 海水 入侵   防止 地下水 鹽化   此外   人工湖 也 具有 分洪   治洪 的 功能   而結 合水 銀行 抽補 概念   更是 能 提高 水資源 運用 效益     水利 處 指出   第 1 期 工程 經費 約 14.1 億元   無論 是 取輸水 效果   入滲 效率 與 補 注量 體均 極為 可觀   已具 顯著 成效   此項 目的 啟動 不僅 增加 屏南 地區 水資源 可運 用量   也 已 初步 達到 「 增源 減洪 」 的 重要 作用   後 續將 提出 第 2 期 人工湖 開闢 計畫   以達成 預估 完成 後 挹注 的 每年 1.5 億噸 的 地下水 補注量  </t>
+          <t xml:space="preserve">宜蘭 縣蘇 澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 有 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 的 路段   長 年 發生 地層下陷 問題   住戶 房子 的 地基 也 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 的 側溝 還要 矮   根本 沒有 排水 功能   居民 指出   「 游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們   」 當地 地層下陷 的 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 在 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 的 情形   教育部 高級 中等教育 組 行政 及 資源 科長 黃 懷瑩 表示   「 我覺 得 地質 監測 這一塊   我們 可以 持續 做   讓 大家 安心 說   我們 是不是 持續 有 劇烈 的 沉降 或 傾斜 的 狀況   也 會 定期 跟 大家 報告 我們 監測 的 結果   」 校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 有 抽水   過去 抽 的 也 是 溢流 出 地面 的 水源   教育部 則說   過去 壓力 灌漿 是 有 延緩 地質 沉降 的 效果   立法 委員陳琬惠 表示   「 房子 跟 道路 就是 在 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已   」 水利 署 組長 簡昭群 說   「 技師 公會 去 依據 他 的 測量 結果   找出 造成 沉陷 的 具體 原因   」 陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 先 確定 當地 地層下陷 的 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">宜蘭 縣蘇 澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 有 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 的 路段   長 年 發生 地層下陷 問題   住戶 房子 的 地基 也 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 的 側溝 還要 矮   根本 沒有 排水 功能   居民 指出   「 游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們   」 當地 地層下陷 的 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 在 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 的 情形   教育部 高級 中等教育 組 行政 及 資源 科長 黃 懷瑩 表示   「 我覺 得 地質 監測 這一塊   我們 可以 持續 做   讓 大家 安心 說   我們 是不是 持續 有 劇烈 的 沉降 或 傾斜 的 狀況   也 會 定期 跟 大家 報告 我們 監測 的 結果   」 校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 有 抽水   過去 抽 的 也 是 溢流 出 地面 的 水源   教育部 則說   過去 壓力 灌漿 是 有 延緩 地質 沉降 的 效果   立法 委員陳琬惠 表示   「 房子 跟 道路 就是 在 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已   」 水利 署 組長 簡昭群 說   「 技師 公會 去 依據 他 的 測量 結果   找出 造成 沉陷 的 具體 原因   」 陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 先 確定 當地 地層下陷 的 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  </t>
+          <t xml:space="preserve">地層下陷   居住 環境 出現 疑慮   宜蘭 蘇澳鎮 民富 街   持續 嚴重 地層下陷   除了 騎樓 和 路面 出現 裂縫   家裡 牆壁 和 地磚 也 都 是 裂痕   讓民眾 膽戰心 驚   質疑 是 附近 蘇澳 海事 水產 職業 學校 游泳池   超 抽 地下水 造成   也 在 10 號會同 當地 立委   縣府 官員 進行 協商   希望 解決 問題   道路 傾斜 越來 越 嚴重   路面 也 持續 有 裂痕 產生   地層下陷 越陷越深   民眾 憂心 忡忡   因為 騎樓 和 道路 也 出 現明 顯裂 縫   家門口 緊鄰 的 水溝 都 脫離 了 3 公分   走 進家裡 更是 驚險   白色 地磚 出現 裂痕   銜接 處變 得 高低不平   整個 牆 壁上 也 是 超長 裂痕   怵 目驚心   這裡 是 宜蘭 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 水產 職業 學校 的 游泳池   當地 地層 持續 嚴重 下陷   遊 泳池 用 了 四年 就 塌陷   讓 居民 質疑   是 學校 不當 抽取 地下水 惹 得 禍   10 號這天會 同 立委   縣府 官員 共同 協商   不過 水利 署 官員 分析 指出   地層下陷 除了 跟 抽水 行為 有關   也 和 泳池 載重 有關 係   還要 再 進 一步 釐 清   居家 環境 不 安全   民眾 生活 都 膽戰心 驚   只 盼望 可以 盡快 改善 問題   還給 居民 安全 的 生活 環境  </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">地層下陷   居住 環境 出現 疑慮   宜蘭 蘇澳鎮 民富 街   持續 嚴重 地層下陷   除了 騎樓 和 路面 出現 裂縫   家裡 牆壁 和 地磚 也 都 是 裂痕   讓民眾 膽戰心 驚   質疑 是 附近 蘇澳 海事 水產 職業 學校 游泳池   超 抽 地下水 造成   也 在 10 號會同 當地 立委   縣府 官員 進行 協商   希望 解決 問題   道路 傾斜 越來 越 嚴重   路面 也 持續 有 裂痕 產生   地層下陷 越陷越深   民眾 憂心 忡忡   因為 騎樓 和 道路 也 出 現明 顯裂 縫   家門口 緊鄰 的 水溝 都 脫離 了 3 公分   走 進家裡 更是 驚險   白色 地磚 出現 裂痕   銜接 處變 得 高低不平   整個 牆 壁上 也 是 超長 裂痕   怵 目驚心   這裡 是 宜蘭 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 水產 職業 學校 的 游泳池   當地 地層 持續 嚴重 下陷   遊 泳池 用 了 四年 就 塌陷   讓 居民 質疑   是 學校 不當 抽取 地下水 惹 得 禍   10 號這天會 同 立委   縣府 官員 共同 協商   不過 水利 署 官員 分析 指出   地層下陷 除了 跟 抽水 行為 有關   也 和 泳池 載重 有關 係   還要 再 進 一步 釐 清   居家 環境 不 安全   民眾 生活 都 膽戰心 驚   只 盼望 可以 盡快 改善 問題   還給 居民 安全 的 生活 環境  </t>
+          <t>台北市 再現 「 天坑 」   南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌   長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   市府 指出   目前 無人 受傷   員警 已 畫設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因       市府 晚間 7 點 30 分開 設前 進 指揮 所   南港 區長 蔡明 儒到 達 現場   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業 中                             新建 工程 處開 挖 確認 塌陷 原因   是 水利 處 的 連接 涵管 有輕微 脫管 的 現象   目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮官   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 有 無 其他 路面 下 空洞       水利 處 評估 工程 進度   實施 交通 維護   南港路 3 段 47 巷雙 向 封閉   預計 今晚 9 時修 復 機具 進入 開工   8 月 19 日 凌晨 0 時 灌漿 回填 作業   後 續 等到 混凝土 達到 一定 強度 之 後   路面 將會 辦理 復 舊   預計 於 明天 晚上 10 時許 恢 復 通車         市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 有 無 其他 路面 下 空洞   圖 ／ 北市 府 提供   台北市 下午 4 點多 再現 「 天坑 」   市府 指出 目前 無人 受傷   員警 已 畫設 警戒 線   新工處 調派 重機 具開 挖   確認 坍塌 原因   圖 ／ 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>台北市 再現 「 天坑 」   南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌   長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   市府 指出   目前 無人 受傷   員警 已 畫設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因       市府 晚間 7 點 30 分開 設前 進 指揮 所   南港 區長 蔡明 儒到 達 現場   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業 中                             新建 工程 處開 挖 確認 塌陷 原因   是 水利 處 的 連接 涵管 有輕微 脫管 的 現象   目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮官   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 有 無 其他 路面 下 空洞       水利 處 評估 工程 進度   實施 交通 維護   南港路 3 段 47 巷雙 向 封閉   預計 今晚 9 時修 復 機具 進入 開工   8 月 19 日 凌晨 0 時 灌漿 回填 作業   後 續 等到 混凝土 達到 一定 強度 之 後   路面 將會 辦理 復 舊   預計 於 明天 晚上 10 時許 恢 復 通車         市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 有 無 其他 路面 下 空洞   圖 ／ 北 市府 提供   台北市 下午 4 點多 再現 「 天坑 」   市府 指出 目前 無人 受傷   員警 已 畫設 警戒 線   新工處 調派 重機 具開 挖   確認 坍塌 原因   圖 ／ 北 市府 提供</t>
+          <t xml:space="preserve">〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港 區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 及 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 在 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 有 無 其他 路面 下 空洞  </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 在 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   在 連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 先 開放 機車 及 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 / 北 市府 提供 北市 天坑 搶修 完成   圖 / 北 市府 提供</t>
+          <t>北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 在 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   在 連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 先 開放 機車 及 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 / 北市 府 提供 北市 天坑 搶修 完成   圖 / 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港 區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 及 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 在 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 有 無 其他 路面 下 空洞  </t>
+          <t xml:space="preserve">台北市 在 短短 3 個 月 內 出現 4 個 天坑   遭批 天龍國 變成 了 「 天坑 國 」   對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 先 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 的 側溝位 在 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 的 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 及 混凝土 澆置 後 也 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港 區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 的 東區 門戶 計畫 範圍   許多 建案 均 在 施工 中   南港路 47 巷 的 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 的 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 的 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 有 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 也 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>北市 「 天坑 」 事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 在 工地 範圍 內   未影響 到民眾 安全 與 通車                             她 表示   據 建管 處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 有 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 有 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 有 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北 市府 真應 該 好好 檢討 路面 品質       她 呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管 處   簡直罔顧 公共安全   「 一次 又 一次   只會 讓 人民 對 政府 失去 信心   」       北市 「 天坑 」 事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   此為 今日 在 萬華區 某處 工地   圖 ／ 居民 提供</t>
+          <t>北市 「 天坑 」 事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 在 工地 範圍 內   未影響 到民眾 安全 與 通車                             她 表示   據 建管 處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 有 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 有 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 有 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       她 呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管 處   簡直罔顧 公共安全   「 一次 又 一次   只會 讓 人民 對 政府 失去 信心   」       北市 「 天坑 」 事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   此為 今日 在 萬華區 某處 工地   圖 ／ 居民 提供</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 在 短短 3 個 月 內 出現 4 個 天坑   遭批 天龍國 變成 了 「 天坑 國 」   對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北 市民 生東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 先 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 的 側溝位 在 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 的 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 及 混凝土 澆置 後 也 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港 區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 的 東區 門戶 計畫 範圍   許多 建案 均 在 施工 中   南港路 47 巷 的 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 的 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 的 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北 市府 已擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 有 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 也 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  </t>
+          <t>繼 前天 南港 區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 有 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地 內   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 有 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 在 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 有 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港 區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 在 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地 內   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   此為 今日 在 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>繼 前天 南港 區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 有 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地 內   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 有 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北 市府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北 市府 已畫 設 警戒 線   消防局 已 在 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 有 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港 區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 在 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地 內   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   此為 今日 在 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供</t>
+          <t xml:space="preserve">4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 在 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 的 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是 「 甩鍋 」   認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 的 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非 「 甩鍋 」   氣候 變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 的 老舊 排水管 損裂 更 嚴重   民生 東路 的 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 的 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 的 塌陷 處   也 完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 有 許多 建案 施工   四 七巷 的 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 的 掏 涮 所致     李 四川 在 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 的 豪 大雨   高雄 的 積 淹水   北市 的 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 的 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 及 管線 老舊 對策   林延鳳 認為 李 四川 的 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質 的 「 人禍 」   不應 歸咎 於 天災   陳 怡君 也 說   極端 氣候 不能 成為 推卸 市政 的 理由 與 藉口   市府 應針 對 路面 做 總體檢   更換 或 整修 老舊 的 管線 箱涵   積極 研擬 因應 極端 氣候 及 公共 管線 老舊 的 對策  </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 在 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 的 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是 「 甩鍋 」   認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 的 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非 「 甩鍋 」   氣候 變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 的 老舊 排水管 損裂 更 嚴重   民生 東路 的 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 的 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 的 塌陷 處   也 完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 有 許多 建案 施工   四 七巷 的 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 的 掏 涮 所致     李 四川 在 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 的 豪 大雨   高雄 的 積 淹水   北市 的 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 的 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 及 管線 老舊 對策   林延鳳 認為 李 四川 的 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質 的 「 人禍 」   不應 歸咎 於 天災   陳 怡君 也 說   極端 氣候 不能 成為 推卸 市政 的 理由 與 藉口   市府 應針 對 路面 做 總體檢   更換 或 整修 老舊 的 管線 箱涵   積極 研擬 因應 極端 氣候 及 公共 管線 老舊 的 對策  </t>
+          <t>新竹 縣竹 北市 天坑 再現   縣政 7 街 昨天 發生 道路 坍塌 形成 大 坑洞   今天上午 建商   住戶 代表   里長 與 技師 等到 現場 查看   討論 施作 透地雷達 的 範圍   鄰近 社區 住戶 說   這條 道 路旁 邊 就是 車道   且 鄰近 學校   九月 即將 開學   很多 學生 從 此 經過   盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況   安全 為 優先       斗崙里 長 張 琬 媃 表示   今天上午 邀請 土木 結構 技師 拱祥生 到 現場 勘查   盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況   後 將召開 說 明會   讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況                             鄰近 社區 住戶 說   建商 雖然 一周 兩次 監測且 未 超過 標準   然而 一旦 超過 就 來 不及 了   社區 希望 能 了解 整體 趨勢   盼建 商能 固定 給予 監測 數據   此外   地下 六樓 開 挖 深   導致 震動 頻率 高   社區 內 有 龜裂 狀況   這 部分 建商 允諾會 負責   未來 社區 也 會 提鄰損 要求   目前 該條 道路 是 社區 車道   鄰近 學校   開學後有 很多 學生 從 此 經過   希望 能 盡快 檢測 周邊 道路   以 安全 為 優先       拱祥生 表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   至於 後 方 涉及 到 肯德基 店家 與 私人 路段 要 再 確認   被動式 電磁波 檢測 能 偵測 淺   深層   將檢測 道路 範圍 下方 30 公尺 來 了解 地質   有否 潛藏 孔洞 或 疏 鬆 狀 況   以及 昨日 因自來 水 沖 蝕 後   回填 後 初步 的 結果   預計 最快 7 到 10 日 可 完成 檢測       媒體 也 追問 拱祥生   此案 與 豐采 520 的 天坑 事件   是否 都 因為 地下水 或 地理 環境易 地層下陷   拱祥生 回應   會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣   涉及 到 開 挖 工法   若 是 用 非止 水性 壁體   例如 這次 事件 用板 樁 和 橫板條   此工法 適用 於 林口 台地   桃園 台地 與 部分 竹北 工地   由 於 林口 台地   桃園 台地 屬於紅 土礫 石層   此地 質狀況 相對 不透水   若 使用 透水性 壁體   就 比 較 不怕   然而 遇強 下雨   自來 水管 線 有 潛 在 水分   搭配 降雨 形成 路徑   非止 水性 壁體 可能 就 會 帶 入土 沙   一下子 沖 入 基地       拱祥生 指出   這兩個 工地 都 有 共同 現象   主要 是 在 開 挖 工地 周遭   主動 破壞區 發生   就 像 開刀 本來 就 會 流血   因此 工地 在 開 挖 過程 中   正常 就 會導致 地表 沉陷   重點 是 透過 觀測 法來 了解 實際開 挖行 為   與 原來 工程 分析 的 行為 是否 相同   若 是 相同 就是 在 安全 範圍 內   若 是 有 異常   就 得 要 補強   新竹 縣竹 北市 縣政七 街道 路 塌陷 現場   工地 建商 坦承 疏失   記者 郭政芬 ／ 攝影 技師 拱祥生   右   表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   記者 郭政芬 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>新竹 縣 竹北 市 天坑 再現   縣政 7 街 昨天 發生 道路 坍塌 形成 大 坑洞   今天上午 建商   住戶 代表   里長 與 技師 等到 現場 查看   討論 施作 透地雷達 的 範圍   鄰近 社區 住戶 說   這條 道 路旁 邊 就是 車道   且 鄰近 學校   九月 即將 開學   很多 學生 從 此 經過   盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況   安全 為 優先       斗崙里 長 張 琬 媃 表示   今天上午 邀請 土木 結構 技師 拱祥生 到 現場 勘查   盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況   後 將召開 說 明會   讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況                             鄰近 社區 住戶 說   建商 雖然 一周 兩次 監測且 未 超過 標準   然而 一旦 超過 就 來 不及 了   社區 希望 能 了解 整體 趨勢   盼建 商能 固定 給予 監測 數據   此外   地下 六樓 開 挖 深   導致 震動 頻率 高   社區 內 有 龜裂 狀況   這 部分 建商 允諾會 負責   未來 社區 也 會 提鄰損 要求   目前 該條 道路 是 社區 車道   鄰近 學校   開學後有 很多 學生 從 此 經過   希望 能 盡快 檢測 周邊 道路   以 安全 為 優先       拱祥生 表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   至於 後 方 涉及 到 肯德基 店家 與 私人 路段 要 再 確認   被動式 電磁波 檢測 能 偵測 淺   深層   將檢測 道路 範圍 下方 30 公尺 來 了解 地質   有否 潛藏 孔洞 或 疏 鬆 狀 況   以及 昨日 因自來 水 沖 蝕 後   回填 後 初步 的 結果   預計 最快 7 到 10 日 可 完成 檢測       媒體 也 追問 拱祥生   此案 與 豐采 520 的 天坑 事件   是否 都 因為 地下水 或 地理 環境易 地層下陷   拱祥生 回應   會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣   涉及 到 開 挖 工法   若 是 用 非止 水性 壁體   例如 這次 事件 用板 樁 和 橫板條   此工法 適用 於 林口 台地   桃園 台地 與 部分 竹北 工地   由 於 林口 台地   桃園 台地 屬於紅 土礫 石層   此地 質狀況 相對 不透水   若 使用 透水性 壁體   就 比 較 不怕   然而 遇強 下雨   自來 水管 線 有 潛 在 水分   搭配 降雨 形成 路徑   非止 水性 壁體 可能 就 會 帶 入土 沙   一下子 沖 入 基地       拱祥生 指出   這兩個 工地 都 有 共同 現象   主要 是 在 開 挖 工地 周遭   主動 破壞區 發生   就 像 開刀 本來 就 會 流血   因此 工地 在 開 挖 過程 中   正常 就 會導致 地表 沉陷   重點 是 透過 觀測 法來 了解 實際開 挖行 為   與 原來 工程 分析 的 行為 是否 相同   若 是 相同 就是 在 安全 範圍 內   若 是 有 異常   就 得 要 補強   新竹 縣 竹北 市縣 政七 街道 路 塌陷 現場   工地 建商 坦承 疏失   記者 郭政芬 ／ 攝影 技師 拱祥生   右   表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   記者 郭政芬 ／ 攝影</t>
+          <t xml:space="preserve">〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 也 質疑   建案 若 未 做 側溝   未來 仍 可能 有 天坑 事件   台北市 建管 處 表示   會 要求 將 排水 系統 做 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 在 前往 萬華 工地 會 勘   應曉薇 質疑 建案 是否 有 做 側溝   若側 溝都 沒有   未來 仍 可能 有 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   她 也 發現   坑洞 日前 雖已 填補   但現 在 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 的 人 為 疏失     蔡岳樺 也 說   福音 里 內 有 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 有 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 有 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 也 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 在 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管 處 表示   此 都 更案 採用 的 是 舊 有 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 的 排水 系統 做 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 也 沒 有 規範   但 建管 處會 要求 將 排水 系統 做 完   改善 區域 排水     建管 處 也 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 有 安全 疑慮 的 地方 阻隔  </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 也 質疑   建案 若 未 做 側溝   未來 仍 可能 有 天坑 事件   台北市 建管 處 表示   會 要求 將 排水 系統 做 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 在 前往 萬華 工地 會 勘   應曉薇 質疑 建案 是否 有 做 側溝   若側 溝都 沒有   未來 仍 可能 有 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   她 也 發現   坑洞 日前 雖已 填補   但現 在 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 的 人 為 疏失     蔡岳樺 也 說   福音 里 內 有 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 有 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 有 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 也 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 在 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管 處 表示   此 都 更案 採用 的 是 舊 有 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 的 排水 系統 做 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 也 沒 有 規範   但 建管 處會 要求 將 排水 系統 做 完   改善 區域 排水     建管 處 也 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 有 安全 疑慮 的 地方 阻隔  </t>
+          <t xml:space="preserve">針對 北市 連續 出現 天坑   台北市 長 蔣萬安 下午 在 公安 會報 中 指示   最近 幾次 地層下陷   會 進行 全面 檢視   請 工務局 邀集 相關 單位   包括 都 發   建管   針對 道路 塌陷 的後續 處理 做成 通案 性處 理機 制外   也 應 做 全面 檢視   會先 就 老舊 管線 做 一次 清查   下 一步 再針 對 其他 地方   避免 後 續 再 發生 地層下陷 情形       北市 建管 處 下午 在 公安 會報 中針 對 今年 5 月 13 日 信義區 崇德 街 60   巷道 路 塌陷 案 進行 專題 報告   加強 管理 作為   針對 北市 建築 工地 正在 開挖 階段   計有 102 件   排定 由 三 大公 會 從 5 月 15 日 開始 逐案 現場 勘查   目前 已 全數檢 查完 畢   針對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善                             為 了 強化 管理 措施   加強 建築 工地 開挖 階段 安全 管理   自 6 月 分起 已委 託 三 大公 會 不定期 進行 現場 勘查   另 就 建築 工地 因違 反建築法 公共安全   公共交通 遭受 裁罰 或 勒令停工 案件   同步 於 建管 處網 站 揭露 相關裁 處訊息       另外   也 函告 工地 應主動 通報   若 工地 發生 公安 意外事件   應 於 第一 時間將 原因 及 緊急 應變 處理 情形 主動 通知 建管 處   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處以 9 萬元 罰款   情節 嚴重 時並 勒令停工       副 市長 李 四川 也 提醒 建管 處   最近 下午 雷陣雨   開挖 工地 要 加強 宣導 防範   蔣萬安 也 表示   信義區 的 案例   主要 因為 旁邊 有 有 建案 開 挖 造成 地層下陷   最近 有 許多 下午 的 暴雨   可能 造成 地層下陷   請 建管 處加強 工地 管理 加強 查核       蔣萬安 也 指示   針對 有些 地方 老舊 管線   不管 是 汙水 管等   主管 機關加 強督導   另環 保局 在 進行 清疏 時   或是 新工處   地面 上 施工   如果 有 發現 相關 管線 有 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理  </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">針對 北市 連續 出現 天坑   台北市 長 蔣萬安 下午 在 公安 會報 中 指示   最近 幾次 地層下陷   會 進行 全面 檢視   請 工務局 邀集 相關 單位   包括 都 發   建管   針對 道路 塌陷 的後續 處理 做成 通案 性處 理機 制外   也 應 做 全面 檢視   會先 就 老舊 管線 做 一次 清查   下 一步 再針 對 其他 地方   避免 後 續 再 發生 地層下陷 情形       北市 建管 處 下午 在 公安 會報 中針 對 今年 5 月 13 日 信義區 崇德 街 60   巷道 路 塌陷 案 進行 專題 報告   加強 管理 作為   針對 北市 建築 工地 正在 開挖 階段   計有 102 件   排定 由 三 大公 會 從 5 月 15 日 開始 逐案 現場 勘查   目前 已 全數檢 查完 畢   針對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善                             為 了 強化 管理 措施   加強 建築 工地 開挖 階段 安全 管理   自 6 月 分起 已委 託 三 大公 會 不定期 進行 現場 勘查   另 就 建築 工地 因違 反建築法 公共安全   公共交通 遭受 裁罰 或 勒令停工 案件   同步 於 建管 處網 站 揭露 相關裁 處訊息       另外   也 函告 工地 應主動 通報   若 工地 發生 公安 意外事件   應 於 第一 時間將 原因 及 緊急 應變 處理 情形 主動 通知 建管 處   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處以 9 萬元 罰款   情節 嚴重 時並 勒令停工       副 市長 李 四川 也 提醒 建管 處   最近 下午 雷陣雨   開挖 工地 要 加強 宣導 防範   蔣萬安 也 表示   信義區 的 案例   主要 因為 旁邊 有 有 建案 開 挖 造成 地層下陷   最近 有 許多 下午 的 暴雨   可能 造成 地層下陷   請 建管 處加強 工地 管理 加強 查核       蔣萬安 也 指示   針對 有些 地方 老舊 管線   不管 是 汙水 管等   主管 機關加 強督導   另環 保局 在 進行 清疏 時   或是 新工處   地面 上 施工   如果 有 發現 相關 管線 有 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理  </t>
+          <t xml:space="preserve">北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 在 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   也 應 全面 檢視   先 清查 地下 的 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管 處 昨天下午 在 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 的 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 有 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 的 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管 處網 站 揭露 裁處訊息       建管 處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 及 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 和 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管 處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 有 許多 下午 的 暴雨   可能 造成 地層下陷   請 建管 處加強 工地 管理 及 查核       蔣萬安 指示   針對 有些 地方 的 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 在 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 有 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管 處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 的 隱憂  </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 在 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   也 應 全面 檢視   先 清查 地下 的 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管 處 昨天下午 在 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 的 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 有 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 的 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管 處網 站 揭露 裁處訊息       建管 處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 及 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 和 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管 處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 有 許多 下午 的 暴雨   可能 造成 地層下陷   請 建管 處加強 工地 管理 及 查核       蔣萬安 指示   針對 有些 地方 的 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 在 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 有 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管 處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 的 隱憂  </t>
+          <t xml:space="preserve">雲林 沿海 受 藍 月 大潮 加上 颱 風 大浪   近日 接連 發生 嚴重 海水倒灌   最大 的 萡 子 寮 港 到 昨天 仍 一片汪洋   淹水 及 膝   港口 被迫 封閉   行政院 長 陳 建仁 昨 前往 現場 勘災   地方 陳 情指   漁港 淹水 已嚴 重威脅 下崙 3 個村 的 安危   應急 工程 不能 再 拖   縣府 也 盼 中央 補能 加高 及 延伸 堤防   陳 建仁 允諾 相關 部會 與 縣府 合作   研議 解決 之道       縣府 水利 處長 許 宏博 簡報 指出   因地盤 下陷 嚴重   多年 來 幾次 加高 防波堤 及 年 年 抽沙 清淤   仍難 敵 天象 變化   港域 高程 約 1.9 公尺   但 這兩天 高達 2.56 公尺   加上 風浪助長 爆發 嚴重 海水倒灌   目前 除應 急 擋 水 措施   要 增高 延伸 防波堤   及 清理 港域 30 萬 立方米 淤沙   確保 港口 不受 漂沙 封堵   才能 因應 極端 氣候 的 海象 變化   整建 經費 預估 10 億元                             同為 養殖業者 的 口湖 鄉 代王 紫陽 說   在 這 生活 60 幾年 從 沒見 過淹 水淹 得 如此 嚴重   鄰近 300 多公頃 養殖區 朝不保夕   政府 不能 坐視 不管   李姓 養殖業 也 說   這次 海水倒灌 造成 部分 魚苗 流失       議員黃 文祥 也 指 說   萡 子 寮 港 已 無 法 因 應 現 有 海象 變化   尤其 漂沙帶 來 的 淤塞 及 海水倒灌   連 以前 航行 澎湖 的 輪 船 也 因 淤沙 停駛   口湖 代表 會 主席 王溪邊 指   更 扯 的 是 退潮 水位 變低 時   漁船 竟 要 用 推 的 進港   實在 可笑   治港刻 不容 緩       昨 陪同 會 勘 的 雲林 縣長 張麗善 當面 遞交 雲林 漁港 治理 及 海堤 安全 防護 計畫   盼 請 行政院 協助   立委 蘇治芬 也 建議將 雲林 海岸 治理 一 併 納 入院 會 正在 檢討 的 國土 沙洲 案   以 擴大 治理 量 能       陳 建仁 說   這次 海水倒灌 對 地方 造成 損失   針對 地方 希望 能 加高 及 延伸 堤防   此須 經過 水工 模型 試驗   才能 確保不會 加劇 地層下陷 問題   行政院 會 聽取 地方 建議   與 縣府 共同 研議 解方       漁業署 表示   曾 與 立委 蘇治芬 多次 召開 海岸 治理 檢討   為 保漁港 的 漁業 永續   除應 急 工程 應要 進行 水工 研究 與 探測 再行 治理   才能 一勞永逸   由 於 該 漁港屬 地方 管理   中央 會予 協助 建置 長 遠 治理 方案  </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林 沿海 受 藍 月 大潮 加上 颱 風 大浪   近日 接連 發生 嚴重 海水倒灌   最大 的 萡 子 寮 港 到 昨天 仍 一片汪洋   淹水 及 膝   港口 被迫 封閉   行政院 長 陳 建仁 昨 前往 現場 勘災   地方 陳 情指   漁港 淹水 已嚴 重威脅 下崙 3 個村 的 安危   應急 工程 不能 再 拖   縣府 也 盼 中央 補能 加高 及 延伸 堤防   陳 建仁 允諾 相關 部會 與 縣府 合作   研議 解決 之道       縣府 水利 處長 許 宏博 簡報 指出   因地盤 下陷 嚴重   多年 來 幾次 加高 防波堤 及 年 年 抽沙 清淤   仍難 敵 天象 變化   港域 高程 約 1.9 公尺   但 這兩天 高達 2.56 公尺   加上 風浪助長 爆發 嚴重 海水倒灌   目前 除應 急 擋 水 措施   要 增高 延伸 防波堤   及 清理 港域 30 萬 立方米 淤沙   確保 港口 不受 漂沙 封堵   才能 因應 極端 氣候 的 海象 變化   整建 經費 預估 10 億元                             同為 養殖業者 的 口湖 鄉 代王 紫陽 說   在 這 生活 60 幾年 從 沒見 過淹 水淹 得 如此 嚴重   鄰近 300 多公頃 養殖區 朝不保夕   政府 不能 坐視 不管   李姓 養殖業 也 說   這次 海水倒灌 造成 部分 魚苗 流失       議員黃 文祥 也 指 說   萡 子 寮 港 已 無 法 因 應 現 有 海象 變化   尤其 漂沙帶 來 的 淤塞 及 海水倒灌   連 以前 航行 澎湖 的 輪 船 也 因 淤沙 停駛   口湖 代表 會 主席 王溪邊 指   更 扯 的 是 退潮 水位 變低 時   漁船 竟 要 用 推 的 進港   實在 可笑   治港刻 不容 緩       昨 陪同 會 勘 的 雲林 縣長 張麗善 當面 遞交 雲林 漁港 治理 及 海堤 安全 防護 計畫   盼 請 行政院 協助   立委 蘇治芬 也 建議將 雲林 海岸 治理 一 併 納 入院 會 正在 檢討 的 國土 沙洲 案   以 擴大 治理 量 能       陳 建仁 說   這次 海水倒灌 對 地方 造成 損失   針對 地方 希望 能 加高 及 延伸 堤防   此須 經過 水工 模型 試驗   才能 確保不會 加劇 地層下陷 問題   行政院 會 聽取 地方 建議   與 縣府 共同 研議 解方       漁業署 表示   曾 與 立委 蘇治芬 多次 召開 海岸 治理 檢討   為 保漁港 的 漁業 永續   除應 急 工程 應要 進行 水工 研究 與 探測 再行 治理   才能 一勞永逸   由 於 該 漁港屬 地方 管理   中央 會予 協助 建置 長 遠 治理 方案  </t>
+          <t>嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 有 約 580 萬住 戶 沒 有 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣位 處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 的 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 有 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 的 房屋 倒塌 或 不堪 居住 之 「 全損 」 損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 的 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓 「 看房 要 排隊 」   一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房 「 房屋 稅 3 千變 3 萬 4 」   他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師 「 繳不出 頭期 」 全場 曝下場   穩死</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 有 約 580 萬住 戶 沒 有 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣位 處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 的 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 有 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 的 房屋 倒塌 或 不堪 居住 之 「 全損 」 損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 的 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓 「 看房 要 排隊 」   一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房 「 房屋 稅 3 千變 3 萬 4 」   他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師 「 繳不出 頭期 」 全場 曝下場   穩死</t>
+          <t>高雄 仁武 區 今晚 9 時 30 分許   有民眾 發現 出現 一個 大 天坑   地點 就 在 永新 五街 及 永仁 街 路口 旁電線桿 周邊   高雄市 議員黃 飛鳳 獲報 隨即 到場 關心   並 通知 相關 單位 到場 協處   目前 高 市府 水利局 已調 派 機具 在 場開 挖 釐 清 下陷 肇因       由 於   天坑 發生 位置 就 在 電線桿 周圍   為 避免 電線桿 倒塌 造成 停電 意外   台灣 電力 公司 鳳山 營業 處 派員 前往 現場   暫以 吊桿 支撐 固定 電線桿   至於   地層下陷 肇因   水利局 人員 正在 現場 以管 挖 機具 進行 開 挖 調查                             仁武 分局 表示   因 路面 出現 坍塌 情事   為 安全 著想 及 避免 影響 用路 人   警方 獲報 後 已 將該 路段 封閉   經 水利局 挖開 查看   發現 有 不明 水源 流入 導致 地基 塌陷   屬 水利局 權責   遂 先行 填補 搶修   目前 水利局 污水 二科科長 張進 二 正在 現場 監督   台灣 電力 公司 鳳山 營業 處 暫以 吊桿 支撐 電線桿   避免 意外 發生 造成 停電   記者 古和純 ／ 翻攝 高雄 仁武 區出現 地層下陷   圖 ／ 取自 高雄市 議員黃 飛鳳個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面   記者 古和純 ／ 翻攝</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>高雄 仁武 區 今晚 9 時 30 分許   有民眾 發現 出現 一個 大 天坑   地點 就 在 永新 五街 及 永仁 街 路口 旁電線桿 周邊   高雄市 議員黃 飛鳳 獲報 隨即 到場 關心   並 通知 相關 單位 到場 協處   目前 高 市府 水利局 已調 派 機具 在 場開 挖 釐 清 下陷 肇因       由 於   天坑 發生 位置 就 在 電線桿 周圍   為 避免 電線桿 倒塌 造成 停電 意外   台灣 電力 公司 鳳山 營業 處 派員 前往 現場   暫以 吊桿 支撐 固定 電線桿   至於   地層下陷 肇因   水利局 人員 正在 現場 以管 挖 機具 進行 開 挖 調查                             仁武 分局 表示   因 路面 出現 坍塌 情事   為 安全 著想 及 避免 影響 用路 人   警方 獲報 後 已 將該 路段 封閉   經 水利局 挖開 查看   發現 有 不明 水源 流入 導致 地基 塌陷   屬 水利局 權責   遂 先行 填補 搶修   目前 水利局 污水 二科科長 張進 二 正在 現場 監督   台灣 電力 公司 鳳山 營業 處 暫以 吊桿 支撐 電線桿   避免 意外 發生 造成 停電   記者 古和純 ／ 翻攝 高雄 仁武 區出現 地層下陷   圖 ／ 取自 高雄市 議員黃 飛鳳個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面   記者 古和純 ／ 翻攝</t>
+          <t xml:space="preserve">台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 在 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 內 有 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 的 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 先 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 的 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見 「 蹦 」 聲響   工地 先緊 急 疏散 工人   才 通知 住戶     她 說   附近 民眾 提到 此建案 動工 後   住家 就 有 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 也 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 在 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 內 有 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 的 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 先 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 的 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見 「 蹦 」 聲響   工地 先緊 急 疏散 工人   才 通知 住戶     她 說   附近 民眾 提到 此建案 動工 後   住家 就 有 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 也 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  </t>
+          <t xml:space="preserve">台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管 處處理 過程 是否 有 違失   「 絕不寬貸   護短 」   同時 也 會 檢視 基泰 建設 在 台北市 的 建案   不合 規定 就 會 勒令停工   北市 府 也 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 的 節目 專訪   坦言 建管 處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 的 開綠色 通道 至 台北市 聯合 醫院   後 續 也 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 也 有 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 的 申訴   及 建管 處判斷 過程 是否 有 違失 或 違法   才 導致 今天 的 狀況   「 絕不寬貸   也 絕不護 短 」   若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 的 危老 都 更 都 會 較 過往 開 挖 來 的 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管 處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 有 任何 違法 情事   或 發現 當時 處理 不當   表態 「 該換 就換   這沒有 疑問 」   強調 重新 檢視 後 「 有 需要 撤換 就 撤換 」   至於 基泰 建設 在 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 在 台北市 的 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   也 會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 的 一站式 聯合 服務 中心   也 成立 律師團 協助 住 戶後續 的 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 也 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 也 撂 狠話   「 建商 要負 全面 責任   否則 未來 在 台北市   很 抱歉   你 不 符合 相關 規定 或 標準 就 別 想 在 台北市 取得 任何 案子   」 而 下午 建管 處 也 已經 發文稱 基泰 在 北市 的 7 個 工地 全面 停工  </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管 處處理 過程 是否 有 違失   「 絕不寬貸   護短 」   同時 也 會 檢視 基泰 建設 在 台北市 的 建案   不合 規定 就 會 勒令停工   北 市府 也 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 的 節目 專訪   坦言 建管 處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 的 開綠色 通道 至 台北市 聯合 醫院   後 續 也 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 也 有 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 的 申訴   及 建管 處判斷 過程 是否 有 違失 或 違法   才 導致 今天 的 狀況   「 絕不寬貸   也 絕不護 短 」   若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 的 危老 都 更 都 會 較 過往 開 挖 來 的 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管 處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 有 任何 違法 情事   或 發現 當時 處理 不當   表態 「 該換 就換   這沒有 疑問 」   強調 重新 檢視 後 「 有 需要 撤換 就 撤換 」   至於 基泰 建設 在 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 在 台北市 的 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   也 會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北 市府 已 成立 跨局 處 的 一站式 聯合 服務 中心   也 成立 律師團 協助 住 戶後續 的 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而北 市府 也 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 也 撂 狠話   「 建商 要負 全面 責任   否則 未來 在 台北市   很 抱歉   你 不 符合 相關 規定 或 標準 就 別 想 在 台北市 取得 任何 案子   」 而 下午 建管 處 也 已經 發文稱 基泰 在 北市 的 7 個 工地 全面 停工  </t>
+          <t xml:space="preserve">大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   也 使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 在 去年 選舉 前 和 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   也 透露 來 自 基泰 的 政治 獻金 是 一位 從 媒體界 轉從商 的 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 的 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬 上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 也 有 收 基泰 的 政治 獻金   她 想 請問 一下   這 是否是 綠營 想 再次 示範 「 綠能 你 不能 」 及 雙標   王鴻薇 也 指出   上次 她 質疑 綠能 產業 就 被民進 黨 挖出 也 收過 綠能 公司 的 政治 獻金 是 雙標   但 她 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 在 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 的 直播 就 會 知道   她 是 跟 大家 報告 現場 和 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 的 一貫 手法   王鴻薇 也 表示 她 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 的 里 長 也 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   她 今 早 也 建議 市政府 「 代位 求償 」   此外 得知 居民 準備 組成 自救 會   她 也 承諾 一定 會 全力 協助   最 重要 的 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 的 董事 長   總經理 她 真的 都 不 認識   但是 她 回頭 去 查 了 一下   是 有 一位 媒體 前輩去 做生意   確實 在 議員 選舉 以及 立委 補選時 有 做 政治 捐獻   而 由 於 有 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 也 要 查詢 是否 有 虧損   有 虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 在 她 的 選區   也 鄰近 以前 蔣萬安 的 選區   為 何會 在 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   她 也 立刻 跟 團隊 確認   確實 她 是 沒 有 接獲 選民 或 議員陳情   這 方面 他們 要 努力 的 空間還 很多   她 會勤 走 基層   聽 更 多 聲音   她 也 稱 很 遺憾   選民 這幾個 月 有 這樣 的 困擾   對民代來講   該 努力 的 就 應該 繼續 去 努力  </t>
         </is>
       </c>
     </row>
@@ -1036,280 +1036,280 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   也 使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 在 去年 選舉 前 和 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   也 透露 來 自 基泰 的 政治 獻金 是 一位 從 媒體界 轉從商 的 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 的 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬 上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 也 有 收 基泰 的 政治 獻金   她 想 請問 一下   這 是否是 綠營 想 再次 示範 「 綠能 你 不能 」 及 雙標   王鴻薇 也 指出   上次 她 質疑 綠能 產業 就 被民進 黨 挖出 也 收過 綠能 公司 的 政治 獻金 是 雙標   但 她 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 在 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 的 直播 就 會 知道   她 是 跟 大家 報告 現場 和 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 的 一貫 手法   王鴻薇 也 表示 她 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 的 里 長 也 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   她 今 早 也 建議 市政府 「 代位 求償 」   此外 得知 居民 準備 組成 自救 會   她 也 承諾 一定 會 全力 協助   最 重要 的 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 的 董事 長   總經理 她 真的 都 不 認識   但是 她 回頭 去 查 了 一下   是 有 一位 媒體 前輩去 做生意   確實 在 議員 選舉 以及 立委 補選時 有 做 政治 捐獻   而 由 於 有 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 也 要 查詢 是否 有 虧損   有 虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 在 她 的 選區   也 鄰近 以前 蔣萬安 的 選區   為 何會 在 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   她 也 立刻 跟 團隊 確認   確實 她 是 沒 有 接獲 選民 或 議員陳情   這 方面 他們 要 努力 的 空間還 很多   她 會勤 走 基層   聽 更 多 聲音   她 也 稱 很 遺憾   選民 這幾個 月 有 這樣 的 困擾   對民代來講   該 努力 的 就 應該 繼續 去 努力  </t>
+          <t xml:space="preserve">台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 在 現場 且 站 在 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 的 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 在 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 在 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 在 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任 「 這麼 大 的 事情   你們 負責人 沒 有 在 現場   只有 你 一個 主任 在 這   」 而 工地 主任 才 回應 「 我們 總經理 站 在 旁邊 那邊   」 李聲 稱 當下 自己 不 認識 馮   且 之 後 也 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 的 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 也 找 不到 馮   他 才 會 在 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 先 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   在 會 同 法制局 後 達 成後續 的 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 在 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 的 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   也 聽 到 消防局 回報 工地 一直 傳出 有 「 啪啪 啪 」 聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 也 詢問 單號 住戶 對面 有 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 的 也 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   便 立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨 「 啪啪 啪 」 間 隔 時間 越來 越短   他 就 要求 全部 站 在 旁邊 的 人 全部 快 疏散   李 表示   他 在 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 也 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 的 是 極端 氣候 的 影響   市區 很多 側溝 的 設計 是 無法 承受 近來 的 豪 大雨   若 「 用 工程 的 技術 去 追 」 不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 的 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 的 考驗  </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   在 證交所 召開 重訊 記者 會   董事 長 陳 世銘 在 道歉 後 宣布 請辭 負責 便 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 在 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者 的 「 不 確定 故意 」 釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 的 會 勘紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 的 回報 是否 有 行政 怠惰   瀆職 或 疏 於 監督   「 建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人   」 王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 的 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  </t>
+          <t>基泰 建設 的 新建 案 「 基泰 大直 」 因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 的 25 戶長 期 安置 計畫   也 公開 基泰 大直 的 連續 壁廠 商為 「 齊崴 營造 」   至於 本刊 揭監測 報告 早就 顯示 「 已 超出 警戒 值 」   王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 的 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 的 監測 報告 顯示   在 坍塌 前 44 天 的 監測 報告 結論 及 說 明一欄 中 已 明確 指出   「 部分 監測 儀器 已 超出 警戒 值 」   然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 的 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 的 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 的 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕   「 我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇   」 王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 的 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 在 附近   會持續 提供 安置 的 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   有 地下室 開挖 的 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 的 規定 會 做 一個 整體 的 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   有 工地 涉及 公安 跟 鄰損 的   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 她 今日 也 公布 「 基泰 大直 」 的 下 包連續 壁廠 商為 「 齊崴 營造 」   「 一個 都 不要 跑掉   也 讓 大家 可以 避開 雷區   」</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>基泰 建設 的 新建 案 「 基泰 大直 」 因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 的 25 戶長 期 安置 計畫   也 公開 基泰 大直 的 連續 壁廠 商為 「 齊崴 營造 」   至於 本刊 揭監測 報告 早就 顯示 「 已 超出 警戒 值 」   王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 的 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 的 監測 報告 顯示   在 坍塌 前 44 天 的 監測 報告 結論 及 說 明一欄 中 已 明確 指出   「 部分 監測 儀器 已 超出 警戒 值 」   然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 的 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 的 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 的 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕   「 我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇   」 王玉芬 指出   北 市府 將於週 三   13 日   召說 明會   說 明長 期 安置 的 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 在 附近   會持續 提供 安置 的 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   有 地下室 開挖 的 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 的 規定 會 做 一個 整體 的 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   有 工地 涉及 公安 跟 鄰損 的   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 她 今日 也 公布 「 基泰 大直 」 的 下 包連續 壁廠 商為 「 齊崴 營造 」   「 一個 都 不要 跑掉   也 讓 大家 可以 避開 雷區   」</t>
+          <t xml:space="preserve">北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   在 證交所 召開 重訊 記者 會   董事 長 陳 世銘 在 道歉 後 宣布 請辭 負責 便 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 在 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者 的 「 不 確定 故意 」 釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 的 會 勘紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 的 回報 是否 有 行政 怠惰   瀆職 或 疏 於 監督   「 建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人   」 王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 的 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 在 現場 且 站 在 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 的 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 在 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 在 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 在 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任 「 這麼 大 的 事情   你們 負責人 沒 有 在 現場   只有 你 一個 主任 在 這   」 而 工地 主任 才 回應 「 我們 總經理 站 在 旁邊 那邊   」 李聲 稱 當下 自己 不 認識 馮   且 之 後 也 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 的 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 也 找 不到 馮   他 才 會 在 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 先 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   在 會 同 法制局 後 達 成後續 的 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 在 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 的 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   也 聽 到 消防局 回報 工地 一直 傳出 有 「 啪啪 啪 」 聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 也 詢問 單號 住戶 對面 有 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 的 也 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   便 立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨 「 啪啪 啪 」 間 隔 時間 越來 越短   他 就 要求 全部 站 在 旁邊 的 人 全部 快 疏散   李 表示   他 在 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 也 提及 退休 後 又 重新 回到 北 市府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 的 是 極端 氣候 的 影響   市區 很多 側溝 的 設計 是 無法 承受 近來 的 豪 大雨   若 「 用 工程 的 技術 去 追 」 不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 的 社區   市府 要 想 辦法 減災   這也 是 他 回到 北 市府 任職 最大 的 考驗  </t>
+          <t xml:space="preserve">先前 才 發生 竹北 天坑 事件   新竹市 和平路 20 巷今   21   天 下午 突然 出現 天坑   大約 有 一輛車 的 面積   根據 了解   在 天坑 旁有 一個 建案   目前 已經 挖 到 地下 三樓   新竹市 府 說明   今日 下午 13 時 35 分許   消防局 受理 和平路 出現 道路 地基 下陷 情形   消防局 派員到 場後發現 道路 有 明顯 傾斜   並伴 隨 瓦斯 異味   隨即 通報 都 發處   工務處   自來 水 公司   瓦斯 公司 等 單位 前來 搶 修及 勘查   市長 高虹安 隨後也親 自到 場關 心及 了解 狀況   聆 聽 周邊民眾 心聲   要求 廠商必 須 儘 速 完成 改善   並確 保 居民 居住 安全   市府 指出   現場 工地 依規 有施 打 預壘 樁 及 擋 水樁   工法 沒有 問題   疑似 是 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂   市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 有 無 傾斜 情形   如 有 民宅 開始 傾斜 情形   應 進行 預防性 撤離   另 已確 認自來 水破管 位置   並 完成 修 復 回填   將持續 觀察 是否 還有 造成 洩漏 情形   避免 地層 再次 下陷   市府 進 一步 指出   本案 因違 反建築法 第 63 條   都 發處 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各三萬元   並視後續 情況 再行 論處  </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">先前 才 發生 竹北 天坑 事件   新竹市 和平路 20 巷今   21   天 下午 突然 出現 天坑   大約 有 一輛車 的 面積   根據 了解   在 天坑 旁有 一個 建案   目前 已經 挖 到 地下 三樓   新竹市 府 說明   今日 下午 13 時 35 分許   消防局 受理 和平路 出現 道路 地基 下陷 情形   消防局 派員到 場後發現 道路 有 明顯 傾斜   並伴 隨 瓦斯 異味   隨即 通報 都 發處   工務處   自來 水 公司   瓦斯 公司 等 單位 前來 搶 修及 勘查   市長 高虹安 隨後也親 自到 場關 心及 了解 狀況   聆 聽 周邊民眾 心聲   要求 廠商必 須 儘 速 完成 改善   並確 保 居民 居住 安全   市府 指出   現場 工地 依規 有施 打 預壘 樁 及 擋 水樁   工法 沒有 問題   疑似 是 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂   市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 有 無 傾斜 情形   如 有 民宅 開始 傾斜 情形   應 進行 預防性 撤離   另 已確 認自來 水破管 位置   並 完成 修 復 回填   將持續 觀察 是否 還有 造成 洩漏 情形   避免 地層 再次 下陷   市府 進 一步 指出   本案 因違 反建築法 第 63 條   都 發處 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各三萬元   並視後續 情況 再行 論處  </t>
+          <t xml:space="preserve">新竹市 和平路 20 巷 昨 下午 驚見 「 天坑 」   市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 也 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   也 希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 也 認為   未來須 全面 將 瓦斯 及 自來 水管 線 更新   同時須 在 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 及 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 有 無 傾斜 情形   後 續 也 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">新竹市 和平路 20 巷 昨 下午 驚見 「 天坑 」   市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 也 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   也 希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 也 認為   未來須 全面 將 瓦斯 及 自來 水管 線 更新   同時須 在 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 及 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 有 無 傾斜 情形   後 續 也 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  </t>
+          <t>新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 內 有 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂 「 整夜 睡不著 」   民代質疑 工法 有 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 的 灌漿 作業   自來 水 公司 今天 也 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 也 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 的 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 有 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 的 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 的 住 戶 約 20 多戶   居民 無奈 「 不敢 休息 」   也 擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   也 希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 內 有 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂 「 整夜 睡不著 」   民代質疑 工法 有 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 的 灌漿 作業   自來 水 公司 今天 也 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 也 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 的 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 有 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 的 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 的 住 戶 約 20 多戶   居民 無奈 「 不敢 休息 」   也 擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   也 希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於 「 天坑 」 填平 後   今天 又 有 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 的 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 的 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 的 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到 場會 勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 也 會 同 土木 技師 等 四大 專業 技師 公會 及 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 在 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 的 自動 傾斜 偵測 設備 的 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 做 準備       明天 開始 的 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 的 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 也 說   在 確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 的 衝擊 降到 最低       高虹安說   今天 在 現場 也 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 的 靠山   不僅會 要求 廠商 負起 責任   在 完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 的 其他 工程   新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 在 搶 修處理   記者 張裕珍 ／ 攝影 新竹市 長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹市 長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 在 搶 修處理   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於 「 天坑 」 填平 後   今天 又 有 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 的 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 的 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 的 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到 場會 勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 也 會 同 土木 技師 等 四大 專業 技師 公會 及 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 在 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 的 自動 傾斜 偵測 設備 的 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 做 準備       明天 開始 的 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 的 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 也 說   在 確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 的 衝擊 降到 最低       高虹安說   今天 在 現場 也 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 的 靠山   不僅會 要求 廠商 負起 責任   在 完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 的 其他 工程   新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 在 搶 修處理   記者 張裕珍 ／ 攝影 新竹市 長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹市 長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 在 搶 修處理   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 有 他 處 下陷   建物 傾斜計 監測 數值 也 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 的 老舊 自來 水塑膠 管線   市長 高虹安 下午 也 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 的 巷弄 道路 下陷   由 於 一旁 的 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 也 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   在 前天 發生 和平路 20 巷 「 天坑 」 事件 後   建商 取得 住戶 同意 在 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 的 警戒 值   由 於 和平路 20 巷 仍 有 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 的 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 也 流入 基地       由 於 和平路 20 巷內 約 有 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   也 盼 建商 同步 處理 好 地基       「 各項 資訊要 更 透明   讓 住 戶們 安心   」 楊姓 住戶 說   他 在 巷 內 住 了 20 年   其他 老住 戶 有 的 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   也 希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 也 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 也 自行 組成 應變 中心   應變 中心 代表 也 允諾   已經 協調 明天 自來 水 公司 進場 換管   在 加派 人力 前   後 分頭 施工 的 情形 下   能 在 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會 勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 的 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 的 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 也 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會 勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 也 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會 勘   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 有 他 處 下陷   建物 傾斜計 監測 數值 也 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 的 老舊 自來 水塑膠 管線   市長 高虹安 下午 也 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 的 巷弄 道路 下陷   由 於 一旁 的 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 也 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   在 前天 發生 和平路 20 巷 「 天坑 」 事件 後   建商 取得 住戶 同意 在 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 的 警戒 值   由 於 和平路 20 巷 仍 有 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 的 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 也 流入 基地       由 於 和平路 20 巷內 約 有 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   也 盼 建商 同步 處理 好 地基       「 各項 資訊要 更 透明   讓 住 戶們 安心   」 楊姓 住戶 說   他 在 巷 內 住 了 20 年   其他 老住 戶 有 的 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   也 希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 也 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 也 自行 組成 應變 中心   應變 中心 代表 也 允諾   已經 協調 明天 自來 水 公司 進場 換管   在 加派 人力 前   後 分頭 施工 的 情形 下   能 在 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會 勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 的 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 的 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 也 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會 勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 也 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會 勘   記者 張裕珍 ／ 攝影</t>
+          <t xml:space="preserve">基泰 建設 新建 案 「 基泰 大直 」 日前 因 施工 不慎   導致 台北市 中山 區 大直 街鄰 近 民宅 傾斜 倒塌   甚至 發生 建物 下陷 情形   北市 府上 月 26 日 進行 拆除 下陷 建物 作業   本月 1 日 進行 單號 受災屋 拆除 工作   不過 民代今   17 日   在 臉書 爆料   週邊 雙號 受災戶 的 惡夢還 沒有 結束   15 日竟 出現 房子 撕裂   碎石 掉落 聲   且門外 溝壁 有 破裂 下陷 情形   經會 勘 確認 「 下陷 累積 7 公分 」   台北市 議員陳怡 君今 稍早 在 臉書上 透露   大直 街 5 民宅 危樓 已經 拆除   但 對面 的 雙號棟 卻 在 上 週日   15 日     某住 戶 聽聞 房子 撕裂   碎石 掉落 聲   且門外 溝壁 有 破裂 下陷 的 情形   經現 場會 勘後確 認 「 累積 下陷 約 7 公分 」   陳 怡君 表示   雖結構 技師 現場 判定 無 立即 性 危險   該 狀況 為 「 地面 下 無 地基   對面 單號 拆 危樓 」 所導致 地下 土壤 遭擾動   因此 下陷   她 強調   雖 判定 暫無 立即 性 危險   建管 處 也 多 設點 觀察   但 還是 讓 民眾 住 得 心驚膽 跳   陳 怡君 無奈   認為 基泰 建設 不 只是 造成 重災戶 無家 可 歸   也 讓 鄰房 住 得 不安 穩   雖然 市府 還在 統計 周遭 鄰房 是否 同意 公辦 都 更   但 不能 避免 的 是 在 公辦 都 更 前   民眾 仍 隨時 處 於 驚 恐狀態   下雨 地震 及 再次 施工 都 讓 鄰近 住戶 感到 恐慌   無法 安心 入住   陳 怡君 指出   因為 雙號 建物 有 下陷 狀況   溝壁 也 破損 不堪   而 基泰 旁邊 正在 施工 的 其他 建案 基地   也 令民眾 害怕 房子 不堪 一擊   再次 嚴重 損鄰   陳 怡君 提出 問題   在 損鄰 報告   房屋 安全 鑑定   以及 透地雷達 出來 前   鄰近 工地 施工   若 再次 造成 民房 受損   恐怕 更難 釐 清損 鄰責任  </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>屏東 縣林邊 鄉崎峰 村魚 塭 遍布   林邊 是 南部 知名 的 漁業 養殖區   50 歲 的 養殖業者 翁 金木頭 戴 斗笠   身穿 防水 青蛙 裝   在 村內 占地 2.8 公頃 的 魚池 中照 顧俗 稱 「 寶石魚 」 的 「 雪花 鯻 」     翁金木 是 全台 目前 養殖 雪花 鯻 面 積 最大 的 業者   在 2009 年 八八 風災 後   不忍 老父 獨自善後林 邊家 鄉 的 養殖業   他放棄 竹科 工作   返鄉 承接 家業   選擇 不 抽 地下水 的 益生菌 養殖法   減少魚 塭 換水達 到 友善 環境 目的   ...             登入 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     訂閱 支持</t>
+          <t>捷運 萬大線 第一期 工程 預計 2025 年 完工   施工 路線 為 中 和   土城 交通要道   讓 原 交通 更塞   而 LG06 土建工程 圍籬 原定 今年 12 月 31 日 拆除   卻 將延長 3 年 才 要 拆除   恐將 影響 拉長   另有 議員 發現   萬大線 施工 造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂 等 鄰損   要求 新北 捷運局 加速 處理   新北 捷運局 表示   已 邀北捷局   里長 及民眾 現場 說明   目前 並無 地層下陷 問題       市議員陳錦錠 表示   新北 中和區 連城路 因捷 運萬大線 施工   造成 尖峰 時刻 壅塞   且 第一期 LG06 土建工程 圍籬 原定 年底 拆除   卻 延長 三年 後 才 要 拆除   再 加上 萬大線 施工   造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂   磁磚 破損 等 鄰損   新北 捷運局 應 盡快 提出 改善 方案   避免 鄰損 擴大   確 保民 眾 居住 安全                             對此   新北 捷運局 表示   萬大中 和 線 目前 計畫 進度 達 7 成   為紓解 施工 交通 瓶頸   台北 捷局 已 於 今年 8 月底 開放 施工 時封閉 的 連城路 北向 右轉 中正路 專用 車道   預計 明年初 陸續 展開 道路 回填 復 舊 作業   逐步 縮 減圍 籬範圍   緩解 壅塞 情形       至於 鄰損 部分   新北 捷運局 表示   9 月 28 日 邀北捷局   里長 及民眾 現場 說明   關於 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   現場 立刻 要求 廠商 當天 下午 進場 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 的 部分   北捷 也 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   「 後 續若涉 鄰損 鑑定   北捷局 已承諾將 依相關 規定 辦理   目前 並沒有 地層下陷 的 問題 」       新北 捷運局 長 李政安 表示   會 要求 北捷 局縮 短 工程   不能 任意 延長   新北 捷運 局局 另 指出   LG06 中 和 站   連城路 75 巷   為 捷運 出入口 B 暨 聯合開 發基礎 共構 工程   屬契約後續 變 更 擴充 工作   因開 工時程 較 晚   且位 於 路側   並不影響 連城路 道路 回填 復 舊 期程   也 不會 造成 交通 壅塞 狀況   萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 新北 捷運局 9 月 28 日 邀北捷局   里長 及民眾 現場 說明   巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   已 要求 廠商 當天 下午 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 的 部分   北捷 也 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   圖 ／ 新北 捷運局 提供 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 住家 出現 地面 出現 高低 落差   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 約 60 戶 民宅 出現 地面 出現 高低 落差   牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設 新建 案 「 基泰 大直 」 日前 因 施工 不慎   導致 台北市 中山 區 大直 街鄰 近 民宅 傾斜 倒塌   甚至 發生 建物 下陷 情形   北市 府上 月 26 日 進行 拆除 下陷 建物 作業   本月 1 日 進行 單號 受災屋 拆除 工作   不過 民代今   17 日   在 臉書 爆料   週邊 雙號 受災戶 的 惡夢還 沒有 結束   15 日竟 出現 房子 撕裂   碎石 掉落 聲   且門外 溝壁 有 破裂 下陷 情形   經會 勘 確認 「 下陷 累積 7 公分 」   台北市 議員陳怡 君今 稍早 在 臉書上 透露   大直 街 5 民宅 危樓 已經 拆除   但 對面 的 雙號棟 卻 在 上 週日   15 日     某住 戶 聽聞 房子 撕裂   碎石 掉落 聲   且門外 溝壁 有 破裂 下陷 的 情形   經現 場會 勘後確 認 「 累積 下陷 約 7 公分 」   陳 怡君 表示   雖結構 技師 現場 判定 無 立即 性 危險   該 狀況 為 「 地面 下 無 地基   對面 單號 拆 危樓 」 所導致 地下 土壤 遭擾動   因此 下陷   她 強調   雖 判定 暫無 立即 性 危險   建管 處 也 多 設點 觀察   但 還是 讓 民眾 住 得 心驚膽 跳   陳 怡君 無奈   認為 基泰 建設 不 只是 造成 重災戶 無家 可 歸   也 讓 鄰房 住 得 不安 穩   雖然 市府 還在 統計 周遭 鄰房 是否 同意 公辦 都 更   但 不能 避免 的 是 在 公辦 都 更 前   民眾 仍 隨時 處 於 驚 恐狀態   下雨 地震 及 再次 施工 都 讓 鄰近 住戶 感到 恐慌   無法 安心 入住   陳 怡君 指出   因為 雙號 建物 有 下陷 狀況   溝壁 也 破損 不堪   而 基泰 旁邊 正在 施工 的 其他 建案 基地   也 令民眾 害怕 房子 不堪 一擊   再次 嚴重 損鄰   陳 怡君 提出 問題   在 損鄰 報告   房屋 安全 鑑定   以及 透地雷達 出來 前   鄰近 工地 施工   若 再次 造成 民房 受損   恐怕 更難 釐 清損 鄰責任  </t>
+          <t xml:space="preserve">捷運 萬大線 目前 整體 施工 進度 已近 七成   台北市 捷運局 表示   如火如荼 趲 趕中 的 中 和 站 地下 段 工程   均 依照 規定 施工 及 定期 監測   目前 沒有 地層下陷 的 問題   捷運局 也 將依 施工 情形 逐步 縮 減圍 籬範圍   以 緩解 交通 壅塞       負責 施工 的 台北市 捷運局 一工處 說明   日前 接獲 施工 路段 住戶 反映 有 牆面 龜裂   磁磚 破損 等 情形   已 於 今年 9 月 28 日 前往 會勘 並向 住戶 說明   一工處 說   已 了解 建物 的 狀況   將依會 勘共識 積極 與 住戶 協調 處理   並將 責成 施工 廠 商 儘 可能 以敦親 睦 鄰協助 修繕   後 續 若 涉及 需鄰 損鑑定   將 按照 規定 辦理後續                             一工 處進 一步 指出   近年 因受 疫情 及 整體 營造 環境 不佳 的 影響   致使 中 和 站 需 延至 2024 年 6 月 開始 進行 道路 中間 段 回填 及 管線 復 舊   但 一工 處將 滾動式 檢討 工序   儘 可能 提早 完成 道路 復 舊 還路 於 民   以 減少 對民眾 及 周邊 交通 的 影響  </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>捷運 萬大線 第一期 工程 預計 2025 年 完工   施工 路線 為 中 和   土城 交通要道   讓 原 交通 更塞   而 LG06 土建工程 圍籬 原定 今年 12 月 31 日 拆除   卻 將延長 3 年 才 要 拆除   恐將 影響 拉長   另有 議員 發現   萬大線 施工 造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂 等 鄰損   要求 新北 捷運局 加速 處理   新北 捷運局 表示   已 邀北捷局   里長 及民眾 現場 說明   目前 並無 地層下陷 問題       市議員陳錦錠 表示   新北 中和區 連城路 因捷 運萬大線 施工   造成 尖峰 時刻 壅塞   且 第一期 LG06 土建工程 圍籬 原定 年底 拆除   卻 延長 三年 後 才 要 拆除   再 加上 萬大線 施工   造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂   磁磚 破損 等 鄰損   新北 捷運局 應 盡快 提出 改善 方案   避免 鄰損 擴大   確 保民 眾 居住 安全                             對此   新北 捷運局 表示   萬大中 和 線 目前 計畫 進度 達 7 成   為紓解 施工 交通 瓶頸   台北 捷局 已 於 今年 8 月底 開放 施工 時封閉 的 連城路 北向 右轉 中正路 專用 車道   預計 明年初 陸續 展開 道路 回填 復 舊 作業   逐步 縮 減圍 籬範圍   緩解 壅塞 情形       至於 鄰損 部分   新北 捷運局 表示   9 月 28 日 邀北捷局   里長 及民眾 現場 說明   關於 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   現場 立刻 要求 廠商 當天 下午 進場 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 的 部分   北捷 也 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   「 後 續若涉 鄰損 鑑定   北捷局 已承諾將 依相關 規定 辦理   目前 並沒有 地層下陷 的 問題 」       新北 捷運局 長 李政安 表示   會 要求 北捷 局縮 短 工程   不能 任意 延長   新北 捷運 局局 另 指出   LG06 中 和 站   連城路 75 巷   為 捷運 出入口 B 暨 聯合開 發基礎 共構 工程   屬契約後續 變 更 擴充 工作   因開 工時程 較 晚   且位 於 路側   並不影響 連城路 道路 回填 復 舊 期程   也 不會 造成 交通 壅塞 狀況   萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 新北 捷運局 9 月 28 日 邀北捷局   里長 及民眾 現場 說明   巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   已 要求 廠商 當天 下午 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 的 部分   北捷 也 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   圖 ／ 新北 捷運局 提供 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 住家 出現 地面 出現 高低 落差   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 約 60 戶 民宅 出現 地面 出現 高低 落差   牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供</t>
+          <t>記者 楊 金城 ／ 專題 報導   金門 酒廠 去年 起 在 台 契作 國產 高粱 三年 計畫   緣起 「 喝 高粱 救高鐵 」 往事   其中 學甲區 農會 與 金酒 合作 在 一期 作 推廣契作 高粱   去年 首年 栽種 四四 ○ 公頃   今年 八 ○ 一公頃   明年 目標 一千 公頃   成為 全台 最大 國產 高粱 產區     金酒 ︰ 種 多少 收 多少   台南市 學甲區 農會 總幹事 李曉軍說   金酒 在 台 契作 國產 高粱 計畫   一開始 即 希望 在 高鐵 沿線 縣市 推廣   節省 水源   減緩 地層下陷 問題   金酒 總經理 丁丞康 說   契作 高粱 的 收 購價 高出 進口 高粱 甚 多   但 為 了 扶植 國產 高粱 也 為 了 減少 碳排   「 契作 高粱 只要 品質夠   種 多少   收 多少   」   依農業部 農糧署 資料   今年 第二年 在 台南 學甲   鹽水   新營   後 壁   雲林 土庫   斗南   嘉義 義竹   桃園 新屋 和 苗栗 縣 苑里   新竹 縣 等 地契 作種 植 高粱   一期 作 和 二期 作合計 栽種 二 一 二七 公頃     學甲區 去年 四月 栽種 高粱 的 祈福 典禮   與 會 的 前 金門 縣長 楊鎮 浯 說   抗旱 的 高粱 一公頃 可節 水 一萬公噸   換算 一瓶 高粱酒 可節 水 三 ． 五公噸   在 雲嘉 推廣種 植 高粱   可 減緩 抽取 地下水   「 喝 高粱 也 可以 救高鐵 」   妙寓 推廣 高粱 有助 紓 緩 地層下陷 問題     減少 進口   提高 國產 自足 率   李曉軍回憶   陳 吉仲在 農委會主 委任 內帶 著 幾家 農會 直接 到 金門 洽談   才 開啟 金酒 在 台 契作 三年 計畫   除了 提高 國產 高粱 自足 率   減少 金酒 從 中國   南美洲 進口 高粱 依賴   提高 農民 收入   並 配合 農業 政策 推廣節 水 的 高粱     金酒 首年 以 契作 高粱 生產 超過 三萬瓶 「 一 穀 作契 」 金高 銷售 一空   明年 第三年 在 台 至少 契作 三 ○ ○ ○ 公頃 高粱   李曉軍說   和 金酒 合作 的 基層 農會 計畫 組團 再 到 金門 提前 洽談後續 契作 計畫   並 希望 爭取 契作 價格 一 公斤 廿一 元 再 提高     在 台 契作 釀酒 用 高粱 新品 種為 「 台南 七號 」   「 台南 八號 」 純 糯 高粱   是 農業部 台南 區農業 改良 場在 二 ○ 一 九年 育成   後經 二年 試種 和 金酒 試釀   因風味佳   出酒率 高   同時 具有 耐旱   耐淹   抗病 蟲害 等 優點   成為 政府 鼓勵 稻田 區域 轉作 選項     農糧署 補貼   提高 契作 誘因   因農民種 稻 收益 高於種 高粱   為 提高 農民參 與 契作 高粱 誘因   農糧署 提供 補貼 轉作 獎勵 每公頃 四 ． 五萬元 綠色 環境 給付   參與 小地主 的 大 專業農 每公頃 額外 獎勵 一萬元   並補助 購置 機具 設備 及 低利 貸款   在 雜糧區 的 學甲   鹽水因 在 一期 作 推廣 高粱   二期 作再種 硬質 玉米   對 農民 划算     而 為 配合 雲林 縣 嚴重 地層下陷 區   虎尾 鎮   土庫鎮   元長 鄉 及 北港 鎮   高鐵 沿線 地層下陷 防治 作業   行政院 並 核定 今年 一期 作起 推動 「 雲林 高鐵 沿線 特區 推動 農田 轉旱 作物 專案 措施 」   活化 農地 多元 使用 又 能 節水     〈 飲酒 過量   有礙 健康 〉</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">捷運 萬大線 目前 整體 施工 進度 已近 七成   台北市 捷運局 表示   如火如荼 趲 趕中 的 中 和 站 地下 段 工程   均 依照 規定 施工 及 定期 監測   目前 沒有 地層下陷 的 問題   捷運局 也 將依 施工 情形 逐步 縮 減圍 籬範圍   以 緩解 交通 壅塞       負責 施工 的 台北市 捷運局 一工處 說明   日前 接獲 施工 路段 住戶 反映 有 牆面 龜裂   磁磚 破損 等 情形   已 於 今年 9 月 28 日 前往 會勘 並向 住戶 說明   一工處 說   已 了解 建物 的 狀況   將依會 勘共識 積極 與 住戶 協調 處理   並將 責成 施工 廠 商 儘 可能 以敦親 睦 鄰協助 修繕   後 續 若 涉及 需鄰 損鑑定   將 按照 規定 辦理後續                             一工 處進 一步 指出   近年 因受 疫情 及 整體 營造 環境 不佳 的 影響   致使 中 和 站 需 延至 2024 年 6 月 開始 進行 道路 中間 段 回填 及 管線 復 舊   但 一工 處將 滾動式 檢討 工序   儘 可能 提早 完成 道路 復 舊 還路 於 民   以 減少 對民眾 及 周邊 交通 的 影響  </t>
+          <t xml:space="preserve">旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   也 是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 在 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 在 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 在 有 地下水 的 時候   不會 有 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 也 非常 快   不會 有 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 也 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 的 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   也 成為 高雄 地區 對 抗旱 象 的 關鍵 利器  </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>記者 楊 金城 ／ 專題 報導   金門 酒廠 去年 起 在 台 契作 國產 高粱 三年 計畫   緣起 「 喝 高粱 救高鐵 」 往事   其中 學甲區 農會 與 金酒 合作 在 一期 作 推廣契作 高粱   去年 首年 栽種 四四 ○ 公頃   今年 八 ○ 一公頃   明年 目標 一千 公頃   成為 全台 最大 國產 高粱 產區     金酒 ︰ 種 多少 收 多少   台南市 學甲區 農會 總幹事 李曉軍說   金酒 在 台 契作 國產 高粱 計畫   一開始 即 希望 在 高鐵 沿線 縣市 推廣   節省 水源   減緩 地層下陷 問題   金酒 總經理 丁丞康 說   契作 高粱 的 收 購價 高出 進口 高粱 甚 多   但 為 了 扶植 國產 高粱 也 為 了 減少 碳排   「 契作 高粱 只要 品質夠   種 多少   收 多少   」   依農業部 農糧署 資料   今年 第二年 在 台南 學甲   鹽水   新營   後 壁   雲林 土庫   斗南   嘉義 義竹   桃園 新屋 和 苗栗 縣 苑里   新竹 縣 等 地契 作種 植 高粱   一期 作 和 二期 作合計 栽種 二 一 二七 公頃     學甲區 去年 四月 栽種 高粱 的 祈福 典禮   與 會 的 前 金門 縣長 楊鎮 浯 說   抗旱 的 高粱 一公頃 可節 水 一萬公噸   換算 一瓶 高粱酒 可節 水 三 ． 五公噸   在 雲嘉 推廣種 植 高粱   可 減緩 抽取 地下水   「 喝 高粱 也 可以 救高鐵 」   妙寓 推廣 高粱 有助 紓 緩 地層下陷 問題     減少 進口   提高 國產 自足 率   李曉軍回憶   陳 吉仲在 農委會主 委任 內帶 著 幾家 農會 直接 到 金門 洽談   才 開啟 金酒 在 台 契作 三年 計畫   除了 提高 國產 高粱 自足 率   減少 金酒 從 中國   南美洲 進口 高粱 依賴   提高 農民 收入   並 配合 農業 政策 推廣節 水 的 高粱     金酒 首年 以 契作 高粱 生產 超過 三萬瓶 「 一 穀 作契 」 金高 銷售 一空   明年 第三年 在 台 至少 契作 三 ○ ○ ○ 公頃 高粱   李曉軍說   和 金酒 合作 的 基層 農會 計畫 組團 再 到 金門 提前 洽談後續 契作 計畫   並 希望 爭取 契作 價格 一 公斤 廿一 元 再 提高     在 台 契作 釀酒 用 高粱 新品 種為 「 台南 七號 」   「 台南 八號 」 純 糯 高粱   是 農業部 台南 區農業 改良 場在 二 ○ 一 九年 育成   後經 二年 試種 和 金酒 試釀   因風味佳   出酒率 高   同時 具有 耐旱   耐淹   抗病 蟲害 等 優點   成為 政府 鼓勵 稻田 區域 轉作 選項     農糧署 補貼   提高 契作 誘因   因農民種 稻 收益 高於種 高粱   為 提高 農民參 與 契作 高粱 誘因   農糧署 提供 補貼 轉作 獎勵 每公頃 四 ． 五萬元 綠色 環境 給付   參與 小地主 的 大 專業農 每公頃 額外 獎勵 一萬元   並補助 購置 機具 設備 及 低利 貸款   在 雜糧區 的 學甲   鹽水因 在 一期 作 推廣 高粱   二期 作再種 硬質 玉米   對 農民 划算     而 為 配合 雲林 縣 嚴重 地層下陷 區   虎尾 鎮   土庫鎮   元長 鄉 及 北港 鎮   高鐵 沿線 地層下陷 防治 作業   行政院 並 核定 今年 一期 作起 推動 「 雲林 高鐵 沿線 特區 推動 農田 轉旱 作物 專案 措施 」   活化 農地 多元 使用 又 能 節水     〈 飲酒 過量   有礙 健康 〉</t>
+          <t xml:space="preserve">順著 高屏溪 右岸 來 到 高雄 大樹區 的 九曲堂 工作站   從 空中 俯瞰 一個 個 用圍 欄圍 起 的 方形 區塊   排列 整齊   錯落 其中   靠近 一看 才 發現 這是 一根 根 打入 地底下 的 水管   稱為 抗旱 水井   高雄 市政府 水利局 表示   所謂 的 抗旱 水井 是 抽取 深層 地下水   從 地表 往下 150 米 深   透過 抽水 設備   將深層 地下水 經由 抗旱 水井 取出   相較 於 海淡廠   再生 水 等等   取水 更為 快速   成本 更 低   供水量 也 更 大 的 地下水   成為 抗旱 期間 的 關鍵 水源   類 似的 抗旱 水井 已 在 高雄 陸續 開鑿 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井 卻 讓 當地 農民相 當憂心   是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 的 深層 地下水   與 一般 深 20 到 40 公尺 間 淺層 地下水 的 農業 灌溉 井   含水 層 不同   且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產生 影響   水利局 局長 蔡長 展 指出   抗旱 水井 是備 援用 水   使用 時間 大約 在 每年 3 月 至 5 月   藉由 雨水 對 地下水 進行 補注   對 農業 灌溉 用水 不受 影響   根據 地下水位 監測 資料 顯示   112 年 1 月份 地下水位 高點 落 在 14 公尺   接著 隨著 枯水期 到 來   地下水位 在 5 月份 降到 了 大約 6 公尺   隨後迅 期到 來 開始 降雨   加上 高雄 市政府 與 水利 署 合作   推動 高屏溪 流域 河道 疏濬 補注 地下水 計畫   增加 地下水 量   使得 9 月份 地下水位 上升 到 16 公尺   足足 比 枯水期 高出 了 10 公尺   甚至 高 於 1 月份 水位   在 枯水期 嚴密 監控   視情況 抽用   在 豐水期 加強 地下水 補注   便 能夠 達 到 水資源 永續 發展 的 目標   經濟部 水利 署 副署 長 林元鵬 說明   高雄 地區 總 共有 11 口 的 觀測 水井   所有 水井 都 會 進行 管控   只要 是 有效 地去 管控 數據   地下水 在 高雄 地區 是 可以 當作 一個 安全 的 用水   在 嚴密監 控確 保不會 造成 地層下陷 及 影響 水源 保育 的 情況 之下   短期 備援 的 抗旱 水井 不僅成 了 抗旱 功臣   也 賦予 地下水 資源 更 多元 運用 的 可能  </t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   也 是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 在 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 在 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 在 有 地下水 的 時候   不會 有 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 也 非常 快   不會 有 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 也 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 的 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   也 成為 高雄 地區 對 抗旱 象 的 關鍵 利器  </t>
+          <t xml:space="preserve">越南 正在 加強 監管 開採 砂石   雖然 這可 說 是 全世界 最常 被 使用 的 一項 資源   但 若 濫採   可能 導致 水土流失   地層下陷 和 房屋 倒塌 等 災難       日經 新聞 報導   越南政府 官網 12 日 公告   總理范 明政 已 指示 五個 部會 和 多個 地方 政府   仔細 審視營 建業 的 礦物 開採   尤其 是 砂石   這種 大宗 商品 已成 為 一項 全球性 生意   可和水 混合 後 製 成 水泥   或是 用來 填海造地   越南 已 限制 砂石 的 出口                             在 越南 的 湄公河 三角洲 等 地區   盜採 砂石 已成 為 一種 比氣候 變遷 還要 嚴重 的 威脅   據 非營利 環保 組織 世界 自然 基金 會   WWF   最近 的 指標性 報告   湄公河 三角洲 的 砂石 可能 會 在 2035 年前 被 開 採殆 盡       越南政府 日前 已特別點 出河 內市 的 三樁 砂石 開採 招標 「 大眾 意見 特別 令人 擔憂 」   並在 官網 公告 中 表示   該市 應該 「 立即 重新 審視 調查 和 評估 砂石 存量 的 整個 流程 」   「 絕對 不准 組織 和 個 人 利用 管理 漏洞 賺取 暴利 」       范 明政 也 指示 環境部 調查 該 行業 活動 的 「 罕見 跡象 」   並 指示 安全部 「 嚴加 處置 違法行 為 」  </t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">順著 高屏溪 右岸 來 到 高雄 大樹區 的 九曲堂 工作站   從 空中 俯瞰 一個 個 用圍 欄圍 起 的 方形 區塊   排列 整齊   錯落 其中   靠近 一看 才 發現 這是 一根 根 打入 地底下 的 水管   稱為 抗旱 水井   高雄市 政府 水利局 表示   所謂 的 抗旱 水井 是 抽取 深層 地下水   從 地表 往下 150 米 深   透過 抽水 設備   將深層 地下水 經由 抗旱 水井 取出   相較 於 海淡廠   再生 水 等等   取水 更為 快速   成本 更 低   供水量 也 更 大 的 地下水   成為 抗旱 期間 的 關鍵 水源   類 似的 抗旱 水井 已 在 高雄 陸續 開鑿 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井 卻 讓 當地 農民相 當憂心   是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 的 深層 地下水   與 一般 深 20 到 40 公尺 間 淺層 地下水 的 農業 灌溉 井   含水 層 不同   且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產生 影響   水利局 局長 蔡長 展 指出   抗旱 水井 是備 援用 水   使用 時間 大約 在 每年 3 月 至 5 月   藉由 雨水 對 地下水 進行 補注   對 農業 灌溉 用水 不受 影響   根據 地下水位 監測 資料 顯示   112 年 1 月份 地下水位 高點 落 在 14 公尺   接著 隨著 枯水期 到 來   地下水位 在 5 月份 降到 了 大約 6 公尺   隨後迅 期到 來 開始 降雨   加上 高雄市 政府 與 水利 署 合作   推動 高屏溪 流域 河道 疏濬 補注 地下水 計畫   增加 地下水 量   使得 9 月份 地下水位 上升 到 16 公尺   足足 比 枯水期 高出 了 10 公尺   甚至 高 於 1 月份 水位   在 枯水期 嚴密 監控   視情況 抽用   在 豐水期 加強 地下水 補注   便 能夠 達 到 水資源 永續 發展 的 目標   經濟部 水利 署 副署 長 林元鵬 說明   高雄 地區 總 共有 11 口 的 觀測 水井   所有 水井 都 會 進行 管控   只要 是 有效 地去 管控 數據   地下水 在 高雄 地區 是 可以 當作 一個 安全 的 用水   在 嚴密監 控確 保不會 造成 地層下陷 及 影響 水源 保育 的 情況 之下   短期 備援 的 抗旱 水井 不僅成 了 抗旱 功臣   也 賦予 地下水 資源 更 多元 運用 的 可能  </t>
+          <t xml:space="preserve">義 大利 除了 比薩 斜塔 外   在 義 大利 北部 的 波隆 那 也 有 個 知名 的 「 波隆 那 雙塔 」   這兩座 塔 的 歷史 將近 一千年   而 其中 一座 較 低矮 的 塔   最近 幾年 被 發現 結構 愈來 愈 不 穩定   傾斜 角度 也 逐漸 變大   當局 已經 封鎖 附近 區域   並在網 路上 發起 募捐 活動   希望 各界 共同 來 拯救 這座 重要 的 歷史 建築 和 文化 資產   義 大利 的 波隆納 雙塔   右側 的 阿西 內利 塔高 97 公尺   左側 的 加里森 達 塔高 48 公尺   雙塔 在 波隆納 矗立 超過 900 年   如今 張貼 禁止 進入 的 告示   基座 也 被 圍起   且 其中 比較 低 的 加里森 達塔   被 專家 認定   很 有 可能 在 近期 內 倒塌   情況 相當 危急   波隆 那 市民 寶拉 表示   「 這座 塔 是 波隆 那 的 象 徵   如果 它 倒塌 了 那 真的 是 個 恥辱   因為 我們將 失去 這座 城市 最 重要 的 古 蹟 之一   」 14 世紀 發生 一次 地層下陷 後   加里森 達塔持續 傾斜   目前 斜度 已 超越 比薩 斜塔 0.1 度達 到 4 度   當局 曾 於 2020 年 執行 抗傾倒 計畫   但 問題 不但 沒 改善 甚至 還惡化   今年夏天 面臨 極端 高溫 加上 洪水 等 極端 天氣   讓 高塔 難以 承受   當局 展開 搶 救 加里森 達塔 大作 戰   在網 路上 發起 募款 活動   目標 是 籌到 一 億台幣 的 資金   希望 各界 一起 來 拯救 義 大利 重要 的 歷史 建築 和 文化 資產  </t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">越南 正在 加強 監管 開採 砂石   雖然 這可 說 是 全世界 最常 被 使用 的 一項 資源   但 若 濫採   可能 導致 水土流失   地層下陷 和 房屋 倒塌 等 災難       日經 新聞 報導   越南政府 官網 12 日 公告   總理范 明政 已 指示 五個 部會 和 多個 地方 政府   仔細 審視營 建業 的 礦物 開採   尤其 是 砂石   這種 大宗 商品 已成 為 一項 全球性 生意   可和水 混合 後 製 成 水泥   或是 用來 填海造地   越南 已 限制 砂石 的 出口                             在 越南 的 湄公河 三角洲 等 地區   盜採 砂石 已成 為 一種 比氣候 變遷 還要 嚴重 的 威脅   據 非營利 環保 組織 世界 自然 基金 會   WWF   最近 的 指標性 報告   湄公河 三角洲 的 砂石 可能 會 在 2035 年前 被 開 採殆 盡       越南政府 日前 已特別點 出河 內市 的 三樁 砂石 開採 招標 「 大眾 意見 特別 令人 擔憂 」   並在 官網 公告 中 表示   該市 應該 「 立即 重新 審視 調查 和 評估 砂石 存量 的 整個 流程 」   「 絕對 不准 組織 和 個 人 利用 管理 漏洞 賺取 暴利 」       范 明政 也 指示 環境部 調查 該 行業 活動 的 「 罕見 跡象 」   並 指示 安全部 「 嚴加 處置 違法行 為 」  </t>
+          <t xml:space="preserve">台北 捷運 信義線 東延段 工程   疑似 造成 松山 家商 校舍 下陷 5 公分   引發 安全 疑慮   直擊 北市 福德街   有 住戶 反映   下陷 情況 相當 明顯   連房價 都 跌 了   對此 台北市 捷運局 表示   已 安排 台北市 結構 技師 公會 辦理 結構 安全 鑑定   同時 也 已針 對 周邊 建物 及 鄰房 損壞 的 部分   進行 立即 修繕 作業   台北 捷運 信義線 東延段 工程   2016 年 開工 至今   工程 目前 還在 進行 中   不過 近期 有 北市 議員接 獲民眾 陳 情   說 先前 的 開 挖 工程   釀成 鄰近 的 建物 塌陷   實際到 現場 一看   發現 原本 馬 路 是 平 的   但 塌陷 的 狀況 確實 越來 越 明顯   附近 住戶 說   「 對 啊   本來 都 是 平 的   這邊 全部 都 下陷   我 就 住 在 二樓   那個 球 很 明顯 從 這樣 滑下去 」   說 到 地層下陷   附近 住戶 超級 有感   北市 福德街 一旁 騎樓   明顯 受到 捷運開 挖 工程 影響   下陷 相當 嚴重   連住 戶 都 直呼 「 這裡 房價 都 跌 了 」   里長 更 指出   福德街 51 巷到 89 巷是 影響 最明顯 的 地方   附近 住戶 擔心 的 說   「 補 了 也 沒用   你 看 就 這樣   結構 已經 不行 了   除非 重建 」   對此 台北市 土木 技師 公會 理事 長 莊均緯 表示   「 通常 捷運 施工 比較 容易 下陷 的 部分   就 是非 結構體   像是 水溝   人行道   有 瓷磚 的 部分   要 做 安全 檢測   看 是否 有 造成 結構 上 的 問題 」   而 在 松山 家商 校舍 也 被 發現 有 下陷 狀況   議員 指出   經過 一年 的 監測   確認 已經 下陷 約 5 公分   安全 疑慮 浮上 檯 面   捷運 工程局 及 承包商   趕緊 進行 結構 補強   施作 地質 鑽 探作業   要 確認 校舍 的 承受能力   台北市 政府 捷運局 第二 工程 處 主任 陳 建仁則 表示   110 年 9 年 有 接到 學校 通報   有 監測 作業 進行 修繕   今年 暑假 陸續 修繕 完成   這個 月 也 做 安全 鑑定   兩個 月 後 就 有 安全 報告   而 台北 捷運局 表示   施工期 間 因為 極端 地質 及 水文 條件 不利   釀成 地下 土層 沉陷   目前 已經 安排 結構 安全 鑑定   並進行 立即 修繕   在 捷運 施工 的 周邊 建物   都 有安裝 建物 監測 儀器   按時 觀測 監控   研判 施工 是否 再 造成 影響  </t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">湄公河 三角洲 的 砂石 可能 會 在 2035 年前 被 開 採殆 盡   但 這會 對 生態 環境 造成 毀滅性 影響   並損害 人民 健康 與 經濟     圖 ／ 法新社     越南 正在 加強 監管 開採 砂石   雖然 這可 說 是 全世界 最常 被 使用 的 一項 資源   但 若 濫採   可能 導致 水土流失   地層下陷 和 房屋 倒塌 等 災難       日經 新聞 報導   越南政府 官網 12 日 公告   總理范 明政 已 指示 五個 部會 和 多個 地方 政府   仔細 審視營 建業 的 礦物 開採   尤其 是 砂石   這種 大宗 商品 已成 為 一項 全球性 生意   可和水 混合 後 製 成 水泥   或是 用來 填海造地   越南 已 限制 砂石 的 出口       在 越南 的 湄公河 三角洲 等 地區   盜採 砂石 已成 為 一種 比氣候 變遷 還要 嚴重 的 威脅   據 非營利 環保 組織 世界 自然 基金 會   WWF   最近 的 指標性 報告   湄公河 三角洲 的 砂石 可能 會 在 2035 年前 被 開 採殆 盡       越南政府 日前 已特別點 出河 內市 的 三樁 砂石 開採 招標 「 大眾 意見 特別 令人 擔憂 」   並在 官網 公告 中 表示   該市 應該 「 立即 重新 審視 調查 和 評估 砂石 存量 的 整個 流程 」   「 絕對 不准 組織 和 個 人 利用 管理 漏洞 賺取 暴利 」       范 明政 也 指示 環境部 調查 該 行業 活動 的 「 罕見 跡象 」   並 指示 安全部 「 嚴加 處置 違法行 為 」       越南政府 正加強 監管 開採 砂石   這對 該國 部分 地區 環境 造成 的 威脅   已 比氣候 變遷 還嚴重     圖 ／ 路透社             Take   action   加入   倡議 +    </t>
+          <t xml:space="preserve">2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候 變遷   南北 降雨 不均   不少 人憂心   南台 灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 的 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 的 集 水井 裡頭   有著 11 個 粗大 的 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 的 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 的 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 的 含水 層   以及 由細顆 粒 粘土 組成 的 阻水層   伏 流水 大約 落 在 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 在 的 救命 水   尤其 是 在 汛期 的 時候   它 非常 乾淨   外面 河川 裡面 的 濁度 甚至 於 飆到 10 萬個 NTU   那 根本 就 沒 有 辦法 做 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通 的   所以 伏 流水 就 可以 發揮 它 在 這段 時間 裡面 的 作用   所以 就 變成 所 說 的 救命 水   同樣 被 視為 救命 水源 的   還有 這 一根 根 打入 地底下 的 抗旱 水井   別 小看 這些 不起眼 的 水井   它們 可是 解決 高雄 缺水 危機 的 抗旱 英雄   類 似的 抗旱 水井   已經 在 3 年間 在 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 的 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 的 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 的 時間 大概 在 每年 的 3 月 到 5 月   到 了 下雨 的 時候   我們 就 沒 有 再 用   就是 藉由 下雨 的 時候   會 做 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 在 用 一些 農業 灌溉 用水   是 安全 的   神 祕 的 地下水 補注區   其實 就 隱身 在 高屏溪 的 河床 底下   從 空中 俯瞰   這些 不起眼 的 灰色 土石   全都 扮演 關鍵 角色   所謂 的 地下水 補注區   就是 利用 疏濬 的 砂石   在 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   也 使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   有 一些 礫石 跟 比 較 粗 的 沙子   所以 說 在 放釋 水 的 時候   它 比 較 不會產生 所謂 的 壓密 沉陷   因為 它 的 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 的 狀況   也 清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 的 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 也 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷 的   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 的 水 抽掉   它 抽走 得 很快   補充 也 非常 快   在 那個 地方 抽 地下水   是 不會 有 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 的 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">義 大利 除了 比薩 斜塔 外   在 義 大利 北部 的 波隆 那 也 有 個 知名 的 「 波隆 那 雙塔 」   這兩座 塔 的 歷史 將近 一千年   而 其中 一座 較 低矮 的 塔   最近 幾年 被 發現 結構 愈來 愈 不 穩定   傾斜 角度 也 逐漸 變大   當局 已經 封鎖 附近 區域   並在網 路上 發起 募捐 活動   希望 各界 共同 來 拯救 這座 重要 的 歷史 建築 和 文化 資產   義 大利 的 波隆納 雙塔   右側 的 阿西 內利 塔高 97 公尺   左側 的 加里森 達 塔高 48 公尺   雙塔 在 波隆納 矗立 超過 900 年   如今 張貼 禁止 進入 的 告示   基座 也 被 圍起   且 其中 比較 低 的 加里森 達塔   被 專家 認定   很 有 可能 在 近期 內 倒塌   情況 相當 危急   波隆 那 市民 寶拉 表示   「 這座 塔 是 波隆 那 的 象 徵   如果 它 倒塌 了 那 真的 是 個 恥辱   因為 我們將 失去 這座 城市 最 重要 的 古 蹟 之一   」 14 世紀 發生 一次 地層下陷 後   加里森 達塔持續 傾斜   目前 斜度 已 超越 比薩 斜塔 0.1 度達 到 4 度   當局 曾 於 2020 年 執行 抗傾倒 計畫   但 問題 不但 沒 改善 甚至 還惡化   今年夏天 面臨 極端 高溫 加上 洪水 等 極端 天氣   讓 高塔 難以 承受   當局 展開 搶 救 加里森 達塔 大作 戰   在網 路上 發起 募款 活動   目標 是 籌到 一 億台幣 的 資金   希望 各界 一起 來 拯救 義 大利 重要 的 歷史 建築 和 文化 資產  </t>
+          <t xml:space="preserve">長 江 三角洲 簡稱 「 長 三角 」   是 中國大陸 經濟 發展 的 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 的 三角洲   然而   「 人無遠慮   必有 近憂 」   當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 的 此刻   當 全球 減碳 前景 仍 不樂觀 的 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長 江 三角洲 未來 所 可能 受到 的 危害   將牽動 著 中國大陸 的 發展 前景 與 紅色供 應鏈 的 未來       廿世紀 前 五十年 全球 平均 海水面 升高 的 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   也 就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國 「 政府 間 氣候 變遷 小組 」 去年 的 報告 書 指出   隨著 不同 暖化 程度   在 本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 的 將是 各大 河流 出海口 的 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 在 舊 金山 參加 一個 研討 全球 變遷 的 學術 大會   在 十幾個 議題 組中 領略 到 密西西比河 三角洲 的 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 的 景象 在 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 的 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 的 中上游 建設 上 了 四萬座 大大小小 的 壩體   一九六五年 以降   河系 的 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 的 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   也 擾亂 了 原來 大自然 的 泥沙 輸送 布局   加上 近 五十年 下游 地區 及 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧   「 自然 解方 」   力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長 江 三角洲 似乎 也 正 走上 密西西比河 的 老路   長 江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 的 社會 變遷   僅 上海 一地   人口 從 八 ○ 年代 的 六百 萬 增加 到 目前 的 三千 三百 萬   長 江原 來 每年 輸送 五 億公噸 的 泥沙 到 河口   全球排名 第五   長 江三峽 大壩 二 ○ ○ 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長 江 三角洲 的 前緣 已 經開 始後退   以 上海 為 發展 中心 的 三角洲 雖 享受 著開發 的 豐美果實   也 承受 著 上游 帶來 一切 災害 危機 的 總 和   包括 三角洲 萎縮 以及 水質 汙染   大量 的 人口 增加 也 使 地下水 抽取 量大增   地層下陷   局部 地區 的 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 的 範圍 約 占 全區 的 百分之十四   而 在 長 江 三角洲 則占 全區 的 百分之四十   在 未來 海水面 上升 的 風險 下   長 三角 面臨 的 挑戰 顯然 更 為 嚴峻   也 更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  </t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 捷運 信義線 東延段 工程   疑似 造成 松山 家商 校舍 下陷 5 公分   引發 安全 疑慮   直擊 北市 福德街   有 住戶 反映   下陷 情況 相當 明顯   連房價 都 跌 了   對此 台北市 捷運局 表示   已 安排 台北市 結構 技師 公會 辦理 結構 安全 鑑定   同時 也 已針 對 周邊 建物 及 鄰房 損壞 的 部分   進行 立即 修繕 作業   台北 捷運 信義線 東延段 工程   2016 年 開工 至今   工程 目前 還在 進行 中   不過 近期 有 北市 議員接 獲民眾 陳 情   說 先前 的 開 挖 工程   釀成 鄰近 的 建物 塌陷   實際到 現場 一看   發現 原本 馬 路 是 平 的   但 塌陷 的 狀況 確實 越來 越 明顯   附近 住戶 說   「 對 啊   本來 都 是 平 的   這邊 全部 都 下陷   我 就 住 在 二樓   那個 球 很 明顯 從 這樣 滑下去 」   說 到 地層下陷   附近 住戶 超級 有感   北市 福德街 一旁 騎樓   明顯 受到 捷運開 挖 工程 影響   下陷 相當 嚴重   連住 戶 都 直呼 「 這裡 房價 都 跌 了 」   里長 更 指出   福德街 51 巷到 89 巷是 影響 最明顯 的 地方   附近 住戶 擔心 的 說   「 補 了 也 沒用   你 看 就 這樣   結構 已經 不行 了   除非 重建 」   對此 台北市 土木 技師 公會 理事 長 莊均緯 表示   「 通常 捷運 施工 比較 容易 下陷 的 部分   就 是非 結構體   像是 水溝   人行道   有 瓷磚 的 部分   要 做 安全 檢測   看 是否 有 造成 結構 上 的 問題 」   而 在 松山 家商 校舍 也 被 發現 有 下陷 狀況   議員 指出   經過 一年 的 監測   確認 已經 下陷 約 5 公分   安全 疑慮 浮上 檯 面   捷運 工程局 及 承包商   趕緊 進行 結構 補強   施作 地質 鑽 探作業   要 確認 校舍 的 承受能力   台北市 政府 捷運局 第二 工程 處 主任 陳 建仁則 表示   110 年 9 年 有 接到 學校 通報   有 監測 作業 進行 修繕   今年 暑假 陸續 修繕 完成   這個 月 也 做 安全 鑑定   兩個 月 後 就 有 安全 報告   而 台北 捷運局 表示   施工期 間 因為 極端 地質 及 水文 條件 不利   釀成 地下 土層 沉陷   目前 已經 安排 結構 安全 鑑定   並進行 立即 修繕   在 捷運 施工 的 周邊 建物   都 有安裝 建物 監測 儀器   按時 觀測 監控   研判 施工 是否 再 造成 影響  </t>
+          <t>屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 和 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 的 溢 淹 問題 及 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 和 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 在 地養 殖區 穩定 水質 及 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 的 機構 團體 來 「 取經 」   居民 卻長 期苦 於 地層下陷 帶來 的 排水 問題 及 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 和 生活 環境 品質                             她 說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東 縣 最大 的 養殖 漁業 生產區   塭 豐 二中 排旁 的 豐 海路 也 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 也 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 及 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖魚 塭 的 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 的 水環境       屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 和 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 的 溢 淹 問題 及 顛簸 起伏 路況 所苦   圖 ／ 屏東 縣 政府 提供 屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東 縣 政府 提供 屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東 縣 政府 提供</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候 變遷   南北 降雨 不均   不少 人憂心   南台 灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 的 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 的 集 水井 裡頭   有著 11 個 粗大 的 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 的 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 的 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 的 含水 層   以及 由細顆 粒 粘土 組成 的 阻水層   伏 流水 大約 落 在 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 在 的 救命 水   尤其 是 在 汛期 的 時候   它 非常 乾淨   外面 河川 裡面 的 濁度 甚至 於 飆到 10 萬個 NTU   那 根本 就 沒 有 辦法 做 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通 的   所以 伏 流水 就 可以 發揮 它 在 這段 時間 裡面 的 作用   所以 就 變成 所 說 的 救命 水   同樣 被 視為 救命 水源 的   還有 這 一根 根 打入 地底下 的 抗旱 水井   別 小看 這些 不起眼 的 水井   它們 可是 解決 高雄 缺水 危機 的 抗旱 英雄   類 似的 抗旱 水井   已經 在 3 年間 在 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 的 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 的 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 的 時間 大概 在 每年 的 3 月 到 5 月   到 了 下雨 的 時候   我們 就 沒 有 再 用   就是 藉由 下雨 的 時候   會 做 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 在 用 一些 農業 灌溉 用水   是 安全 的   神 祕 的 地下水 補注區   其實 就 隱身 在 高屏溪 的 河床 底下   從 空中 俯瞰   這些 不起眼 的 灰色 土石   全都 扮演 關鍵 角色   所謂 的 地下水 補注區   就是 利用 疏濬 的 砂石   在 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   也 使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   有 一些 礫石 跟 比 較 粗 的 沙子   所以 說 在 放釋 水 的 時候   它 比 較 不會產生 所謂 的 壓密 沉陷   因為 它 的 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 的 狀況   也 清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 的 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 也 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷 的   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 的 水 抽掉   它 抽走 得 很快   補充 也 非常 快   在 那個 地方 抽 地下水   是 不會 有 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 的 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  </t>
+          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 根據 水利 署 監測 資料   全國 最大 米 鄉 — 大 埤 鄉 近 5 年 地層下陷 面積 及 深度 有 惡化 情況   分析 原因 極端 氣候 水情 不穩   地下水 用量 增   對此   縣府 爭取 農業部 農田 水利 署將 大 埤納入 擴大溉 灌 服務範圍   可 從 北港溪 引水 在 高灘 地 建置 蓄水池   再 新建 管路 供農田 灌溉 用   經費 約 3.3 億元     縣府 水利 處 指出   水利 署 2023 雲林 地層下陷 監測 結果 顯示   雲林 顯著 下陷 面積 247.7 平方公里   比 前年 2022 年略增 一些   顯著 下陷 重點 地區 土庫   元長 的 地下水位 仍有 持續 下陷 形     水利 處長 許 宏博 表示   整體 監測 結果 可 看出   雲林 沿海 地層下陷 有 趨緩   顯著 下陷 主要 在 虎尾   土庫   元長   北港   四湖   褒忠   水林   崙 背 及 大 埤   值得注意 是 大 埤 鄉 下陷 面積   深度 近 5 年 有 惡化 現象     許 宏博 指出   大 埤 是 全國 水稻 種植 面積 最 多 的 鄉鎮   但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 及 怡然 等 村   若 要 一年 兩作   無水 可 灌溉 一定 要 抽 地下水 使用   在 水稻 面積 不變   用水量 都 固定 情況 下   地層下陷 應 不致 惡化   主要 變數 就是 水情   尤其 這幾年 極端 氣候   2021 遇 百年 大旱   2023 去年 又 遇 200 年 大旱   這 2 次 地下水 抽得 多   去年 枯水期 地下水位 洩降 大 埤 達 15 公尺 最 嚴重     許 宏博 說   目前 大 埤 農民 灌溉 情況 有 3 種   第一 種是 引 地面水 即區 排   第二 種是 抽 地下水   由 幾個 農民 共同 一個 公井   再分 擔電費   第三 種是 抽 北港溪 水   為 減緩 大 埤 地層下陷 持續 惡化   縣府 早先 已建議 列為 優先 防治 地   也 針對 大 埤 取水 灌溉 進行 初步 規劃 及構 想   考量 北港溪 尚有 水權 可 申請   即 從 北港溪 引 地面水 到 高灘 地 的 蓄水池   供給 農田 灌溉 使用  </t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">長 江 三角洲 簡稱 「 長 三角 」   是 中國大陸 經濟 發展 的 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 的 三角洲   然而   「 人無遠慮   必有 近憂 」   當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 的 此刻   當 全球 減碳 前景 仍 不樂觀 的 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長 江 三角洲 未來 所 可能 受到 的 危害   將牽動 著 中國大陸 的 發展 前景 與 紅色供 應鏈 的 未來       廿世紀 前 五十年 全球 平均 海水面 升高 的 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   也 就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國 「 政府 間 氣候 變遷 小組 」 去年 的 報告 書 指出   隨著 不同 暖化 程度   在 本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 的 將是 各大 河流 出海口 的 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 在 舊 金山 參加 一個 研討 全球 變遷 的 學術 大會   在 十幾個 議題 組中 領略 到 密西西比河 三角洲 的 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 的 景象 在 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 的 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 的 中上游 建設 上 了 四萬座 大大小小 的 壩體   一九六五年 以降   河系 的 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 的 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   也 擾亂 了 原來 大自然 的 泥沙 輸送 布局   加上 近 五十年 下游 地區 及 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧   「 自然 解方 」   力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長 江 三角洲 似乎 也 正 走上 密西西比河 的 老路   長 江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 的 社會 變遷   僅 上海 一地   人口 從 八 ○ 年代 的 六百 萬 增加 到 目前 的 三千 三百 萬   長 江原 來 每年 輸送 五 億公噸 的 泥沙 到 河口   全球排名 第五   長 江三峽 大壩 二 ○ ○ 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長 江 三角洲 的 前緣 已 經開 始後退   以 上海 為 發展 中心 的 三角洲 雖 享受 著開發 的 豐美果實   也 承受 著 上游 帶來 一切 災害 危機 的 總 和   包括 三角洲 萎縮 以及 水質 汙染   大量 的 人口 增加 也 使 地下水 抽取 量大增   地層下陷   局部 地區 的 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 的 範圍 約 占 全區 的 百分之十四   而 在 長 江 三角洲 則占 全區 的 百分之四十   在 未來 海水面 上升 的 風險 下   長 三角 面臨 的 挑戰 顯然 更 為 嚴峻   也 更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  </t>
+          <t>經濟部 水利 署 監測 雲林 縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林 縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林 縣 近年 地層下陷 顯著 的 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林 縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 及 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 有 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 及 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林 縣長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 及 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 的 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 及 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   在 自來 水可到 達 的 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林 縣大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 和 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 的 溢 淹 問題 及 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 和 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 在 地養 殖區 穩定 水質 及 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 的 機構 團體 來 「 取經 」   居民 卻長 期苦 於 地層下陷 帶來 的 排水 問題 及 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 和 生活 環境 品質                             她 說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東 縣 最大 的 養殖 漁業 生產區   塭 豐 二中 排旁 的 豐 海路 也 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 也 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 及 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖魚 塭 的 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 的 水環境       屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 和 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 的 溢 淹 問題 及 顛簸 起伏 路況 所苦   圖 ／ 屏東 縣 政府 提供 屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東 縣 政府 提供 屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東 縣 政府 提供</t>
+          <t xml:space="preserve">根據 水利 署 監測 資料   雲林 縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 有 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   有 當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示   「 就是 都 沒 有 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層 的   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋   」 雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 和 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 的 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 及 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示   「 非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 的 灌溉 水源   」 雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  </t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 根據 水利 署 監測 資料   全國 最大 米 鄉 — 大 埤 鄉 近 5 年 地層下陷 面積 及 深度 有 惡化 情況   分析 原因 極端 氣候 水情 不穩   地下水 用量 增   對此   縣府 爭取 農業部 農田 水利 署將 大 埤納入 擴大溉 灌 服務範圍   可 從 北港溪 引水 在 高灘 地 建置 蓄水池   再 新建 管路 供農田 灌溉 用   經費 約 3.3 億元     縣府 水利 處 指出   水利 署 2023 雲林 地層下陷 監測 結果 顯示   雲林 顯著 下陷 面積 247.7 平方公里   比 前年 2022 年略增 一些   顯著 下陷 重點 地區 土庫   元長 的 地下水位 仍有 持續 下陷 形     水利 處長 許 宏博 表示   整體 監測 結果 可 看出   雲林 沿海 地層下陷 有 趨緩   顯著 下陷 主要 在 虎尾   土庫   元長   北港   四湖   褒忠   水林   崙 背 及 大 埤   值得注意 是 大 埤 鄉 下陷 面積   深度 近 5 年 有 惡化 現象     許 宏博 指出   大 埤 是 全國 水稻 種植 面積 最 多 的 鄉鎮   但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 及 怡然 等 村   若 要 一年 兩作   無水 可 灌溉 一定 要 抽 地下水 使用   在 水稻 面積 不變   用水量 都 固定 情況 下   地層下陷 應 不致 惡化   主要 變數 就是 水情   尤其 這幾年 極端 氣候   2021 遇 百年 大旱   2023 去年 又 遇 200 年 大旱   這 2 次 地下水 抽得 多   去年 枯水期 地下水位 洩降 大 埤 達 15 公尺 最 嚴重     許 宏博 說   目前 大 埤 農民 灌溉 情況 有 3 種   第一 種是 引 地面水 即區 排   第二 種是 抽 地下水   由 幾個 農民 共同 一個 公井   再分 擔電費   第三 種是 抽 北港溪 水   為 減緩 大 埤 地層下陷 持續 惡化   縣府 早先 已建議 列為 優先 防治 地   也 針對 大 埤 取水 灌溉 進行 初步 規劃 及構 想   考量 北港溪 尚有 水權 可 申請   即 從 北港溪 引 地面水 到 高灘 地 的 蓄水池   供給 農田 灌溉 使用  </t>
+          <t xml:space="preserve">媒體 報導 雲林 縣大 埤 鄉 水情 不穩   地下水 用量 增加   地層下陷 惡化   農田 水利 署 今天 表示   雲林 縣府 有 提出 納入 擴大 灌溉 服務構 想   已 請 其 提擬 更具 體的 計畫   再 共同 推動 擴大 灌溉 服務     媒體 報導   水稻 產區 雲林 縣大 埤 鄉 近年 地層下陷 情況 惡化   可能 與 水情 不穩   抽取 地下水 用量 增加 有關   雲林 縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍                           農水署 副署 長 陳 衍源 告訴 中央社 記者   雲林 縣 政府 有 提出 構想   農水署 也 已 回覆   請 縣府 提出 更具 體的 計畫   收到 計畫後會 審查   然後跟 縣府 共同 推動 擴大 灌區 服務 的 計畫     針對 成立 3 年 3 個 月 來   已 擴大 5.6 萬公頃 農田 獲得 灌溉 用水   約 8 萬 多名 農民 受惠   農水署 並規劃 114 年 要 擴 增至 8.8 萬公頃   陳 衍源 說   要 等 縣府 提出 具體 計畫後會 先 做 審查   因此 能否 納入 114 年 的 8.8 萬公頃 目標 內   尚未 確定   但應 不 受此 影響   擴大 灌溉 服務計 畫會 持續 推動     另外   陳 衍源 也 說   如果 能 設計 引用 河川 水作 為 灌溉 使用   希望 能 替代 當地 抽用 地下水   對 減緩 地層下陷 有所 幫助  </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>經濟部 水利 署 監測 雲林 縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林 縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林 縣 近年 地層下陷 顯著 的 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林 縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 及 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 有 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 及 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林 縣長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 及 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 的 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 及 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   在 自來 水可到 達 的 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林 縣大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影</t>
+          <t xml:space="preserve">〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東 縣 政府 於 東港   林邊   佳冬 及 枋寮 4 個 沿海 鄉鎮   劃定 「 嚴重 地層下陷 區光 電計畫 」 專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 有 3000 公頃 以上 的 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷 區為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷 區   現 仍屬 第 1   2 級 地下水 管制 區   且 在 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 有 縣府 在 尊重 地主 利用 土地 意願 及 權益 前提 及 既有 電力 設施 併 網 上限 條件 下   有 限度 的 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   在 部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 的 光電板 發電 效率 已較 八八 風災 後 的 「 養水 種電 」 到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 的 在 單位 發電量 更大下   所 需面積 的 比例 一定 更 小   至少 會 有 3000 公頃 以上 的 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 有 土地 鹽化 等 不利因素 無法 耕作 的 年 邁老農   則 可以 有 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供人 種電   一定 要 進行 變 更 地目   但 這是 完全 基 於 地主 的 利用 土地 意願 及 權益   縣府 環保局 從 未 要求 廠商 提供 所謂 「 不利 耕作 同意 書 」 或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 及 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 有 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   在 未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 內 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東 縣綠能 推動 政策 以 「 專案 專區 計畫 」   「 土地 複 合式 利用 」 兩大 策略 為主   專案 為 有 限度 使用 相對 不 適合 耕種 的 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電 的 「 複 合 利用 」 方式     屏東 縣環 保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 有 處置 自家 土地 財產   以及 業者 依法 申請 案件 的 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 水利 署 監測 資料   雲林 縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 有 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   有 當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示   「 就是 都 沒 有 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層 的   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋   」 雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 和 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 的 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 及 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示   「 非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 的 灌溉 水源   」 雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  </t>
+          <t xml:space="preserve">聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電範圍 遍及 農地   山區 到 有 文資 價值 的 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為 「 惡鄰 」   產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 有 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 有 上限 規定   目前 在 既有 的 電力 設施 併 網 上限 下   有 限度 的 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 有 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             她 強調   從 未 要求 廠商 提供 「 不利 耕作 同意 書 」 或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   在 未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 的 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       她 指出   屏東 綠能 推動 政策 以 「 專案 專區 計畫 」   「 土地 複 合式 利用 」 等 2 大 策略 為 優先   有 限度 使用 相對 不 適合 耕種 的 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 有 土地 鹽化 等 不利因素 無法 耕作 的 年 邁老農   則 可以 有 穩定 收入 過 退休 生活   至於 非 專案 專區 的 鄉鎮   則優先 鼓勵 廠 商以 「 土地 複 合式 利用 」 方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 有 處置 自家 土地 財產   及業者 依法 申請 案件 的 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 內 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">媒體 報導 雲林 縣大 埤 鄉 水情 不穩   地下水 用量 增加   地層下陷 惡化   農田 水利 署 今天 表示   雲林 縣府 有 提出 納入 擴大 灌溉 服務構 想   已 請 其 提擬 更具 體的 計畫   再 共同 推動 擴大 灌溉 服務     媒體 報導   水稻 產區 雲林 縣大 埤 鄉 近年 地層下陷 情況 惡化   可能 與 水情 不穩   抽取 地下水 用量 增加 有關   雲林 縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍                           農水署 副署 長 陳 衍源 告訴 中央社 記者   雲林 縣 政府 有 提出 構想   農水署 也 已 回覆   請 縣府 提出 更具 體的 計畫   收到 計畫後會 審查   然後跟 縣府 共同 推動 擴大 灌區 服務 的 計畫     針對 成立 3 年 3 個 月 來   已 擴大 5.6 萬公頃 農田 獲得 灌溉 用水   約 8 萬 多名 農民 受惠   農水署 並規劃 114 年 要 擴 增至 8.8 萬公頃   陳 衍源 說   要 等 縣府 提出 具體 計畫後會 先 做 審查   因此 能否 納入 114 年 的 8.8 萬公頃 目標 內   尚未 確定   但應 不 受此 影響   擴大 灌溉 服務計 畫會 持續 推動     另外   陳 衍源 也 說   如果 能 設計 引用 河川 水作 為 灌溉 使用   希望 能 替代 當地 抽用 地下水   對 減緩 地層下陷 有所 幫助  </t>
+          <t xml:space="preserve">從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不 在   這是 屏東 沿海 地區 這幾年 興起 的 違 和 景致   也 是 全台種 電縮影   在 地 青農批 政府   業者 聯手種 電種 到 失心 瘋   從 農地   山區 到 有 文資 價值 的 二戰 遺跡 都 不放過   不僅家園 變貌   也 迫使 老農離 農   變相迫 遷青農       屏東 農地種 光電原 是 全台 濫觴 和 典範   二 ○ ○ 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   也 重創 屏東 南部 沿海 鄉鎮   不少 魚 塭   果園 被 沖 毀   時任 屏東 縣長 曹啟 鴻 提出 「 養水 種電 」 計畫   縣府 媒合 魚 塭   農 地租 給光 電業者   地主 負責 管理   地主 按 月 收 地租 及 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 ○ 一 三年 修法   允許 不適 耕作 農地 種電   大開種 電之門   但 農地 非 農用 的 罵 聲不斷   二 ○ 一 八年 十月 起   屏縣 府 公告 實施 「 嚴重 地層下陷 地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫 」   開放 下陷 區農地 可變 更 種電       二 ○ 二 ○ 年 七月   農委會 加嚴 農地變 更種 電門檻   二到卅公頃 農地變 更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變 更 種電   但 早 在 二 ○ 一 八年 屏東 縣長 潘孟安任 內   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷 區作 光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 的 光電   如今 變成 農民 的 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 的 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽 「 不利 耕作 聲明書 」   離農 坐收 光電場 租金   但 這些 農地 都 種著蓮霧   水稻   芭樂   何來 不利 耕作       「 沿海 四鄉 鎮美麗 的 鄉間 景致 丕 變   綠地 逐漸 蒸發   」 屏東 縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地將 失去 地 力   衝擊 農產業 服務鏈   受益 的 是 少數 地主   受影響 的 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東 縣府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能 「 五贏 」   前年 已達成 綠電供 應 全縣 民生 用電 的 階段 性 目標  </t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電範圍 遍及 農地   山區 到 有 文資 價值 的 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為 「 惡鄰 」   產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 有 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 有 上限 規定   目前 在 既有 的 電力 設施 併 網 上限 下   有 限度 的 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 有 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             她 強調   從 未 要求 廠商 提供 「 不利 耕作 同意 書 」 或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   在 未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 的 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       她 指出   屏東 綠能 推動 政策 以 「 專案 專區 計畫 」   「 土地 複 合式 利用 」 等 2 大 策略 為 優先   有 限度 使用 相對 不 適合 耕種 的 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 有 土地 鹽化 等 不利因素 無法 耕作 的 年 邁老農   則 可以 有 穩定 收入 過 退休 生活   至於 非 專案 專區 的 鄉鎮   則優先 鼓勵 廠 商以 「 土地 複 合式 利用 」 方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 有 處置 自家 土地 財產   及業者 依法 申請 案件 的 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 內 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  </t>
+          <t>屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 的 果農 只能 忍痛 看著 心血 被毀   也 斬斷 兒子 想 當青農 接班 的 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   也 不給 老 農一畝 田維生   青年 若當 「 漂鳥 」 回農村   肯定 變走 投無路 的 「 落翅仔 」       五十六 歲 鄭明偉 在 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   有 兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 的 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 有 不少 國有 財產 署名 下 的 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 在 枋寮 內 寮 段種 芭樂   她 無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 在 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 也 靠 這片 三分 地 的 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種   「 我 不但 要 吃 土   連農保 都 沒 有 了   」     面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 和 枋寮 有 「 蓮霧 之 鄉 」 美名   四十八 歲 陳 呈祥 在 八八 風災後回 鄉 接手 父親 的 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 做 的 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   有 的 果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 和 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   在 地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改種電   年 輕人 想 返 鄉務農   也 無 低 租金 的 農地 可種   「 蓮霧 故鄉 」 金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   她 忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到   「 這 不是 迫遷 青農去 都市 討 生活 嗎   漂鳥 回農村   恐怕 走 投無路 變 落翅仔 吧   」</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不 在   這是 屏東 沿海 地區 這幾年 興起 的 違 和 景致   也 是 全台種 電縮影   在 地 青農批 政府   業者 聯手種 電種 到 失心 瘋   從 農地   山區 到 有 文資 價值 的 二戰 遺跡 都 不放過   不僅家園 變貌   也 迫使 老農離 農   變相迫 遷青農       屏東 農地種 光電原 是 全台 濫觴 和 典範   二 ○ ○ 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   也 重創 屏東 南部 沿海 鄉鎮   不少 魚 塭   果園 被 沖 毀   時任 屏東 縣長 曹啟 鴻 提出 「 養水 種電 」 計畫   縣府 媒合 魚 塭   農 地租 給光 電業者   地主 負責 管理   地主 按 月 收 地租 及 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 ○ 一 三年 修法   允許 不適 耕作 農地 種電   大開種 電之門   但 農地 非 農用 的 罵 聲不斷   二 ○ 一 八年 十月 起   屏縣 府 公告 實施 「 嚴重 地層下陷 地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫 」   開放 下陷 區農地 可變 更 種電       二 ○ 二 ○ 年 七月   農委會 加嚴 農地變 更種 電門檻   二到卅公頃 農地變 更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變 更 種電   但 早 在 二 ○ 一 八年 屏東 縣長 潘孟安任 內   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷 區作 光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 的 光電   如今 變成 農民 的 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 的 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽 「 不利 耕作 聲明書 」   離農 坐收 光電場 租金   但 這些 農地 都 種著蓮霧   水稻   芭樂   何來 不利 耕作       「 沿海 四鄉 鎮美麗 的 鄉間 景致 丕 變   綠地 逐漸 蒸發   」 屏東 縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地將 失去 地 力   衝擊 農產業 服務鏈   受益 的 是 少數 地主   受影響 的 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東 縣府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能 「 五贏 」   前年 已達成 綠電供 應 全縣 民生 用電 的 階段 性 目標  </t>
+          <t xml:space="preserve">光電亂象 已久   從 之前 的 良田 種電   砍 樹種電   近來 變本 加厲   光電板 不僅 征服 山頭   占 領有 文資 價值 的 遺跡   更 一步步 裂解 農漁村 的 產業 鏈   恐阻斷 青農返 鄉 之路   地面 型 光電 的 社會 衝擊 比 預期 更大且 深   在 講求 氣候 正義和 「 企業 Ｅ Ｓ Ｇ   環境 保護   社會責任   公司 治理   」 的 國際 主流 下   政府 和 企業須 警覺   若綠電來 自迫 遷   危害 生態 與 在 地產業   恐埋 隱憂       屏東 縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷 區之名 畫為 光電 專區   本可 接軌 屏東 縣前 縣長 曹啟 鴻 的 「 養水 種電 」 政策   但 實際 推行 結果   鄉間 景觀 破碎   光電場 蛇 鼠 為 患   離農者 漸增 等 負面 效應 逐漸 浮現   加上 光電助 漲 農地 租金   無異將 返鄉 青年 拒 於 農漁村 之外   也 被 批評 與 「 養水 種電 」 初衷 漸行 漸遠                             屏東 只是 全台種 電爭議 的 縮影   有 更 多 生態   景觀 敏感 地   在 追 趕綠能 目標 下 可割 可棄   面對 爭議 與 衝擊   政策 把關 工具 遲未 發揮 效能   及早 阻止 種電 的 副作用   甚至 正向 引導 與 在 地 共生 共榮   實難辭 其咎   也 與 執政黨 的 「 愛鄉 土 」 理念 背道 而 馳       開發行 為 必須 堅守 環境 正義底 線   綠能 也 不 例外   猶記 得 台積 電在 被 徵收 用地 的 拆 遷戶 激烈 抗爭 下   突然 宣布 放棄 進 駐龍科 三期   不無環境 正義與 企業 Ｅ Ｓ Ｇ 的 考慮   民進 黨種 電國策 若 如 「 失速 列車 」   無情 地衝 撞 純樸 的 農漁村   把 青農   老農 都 當成 「 農村 最軟 的 一塊 」   這種 綠電 還是 國際 認可   符合 Ｅ Ｓ Ｇ 的 綠電 嗎  </t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 的 果農 只能 忍痛 看著 心血 被毀   也 斬斷 兒子 想 當青農 接班 的 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   也 不給 老 農一畝 田維生   青年 若當 「 漂鳥 」 回農村   肯定 變走 投無路 的 「 落翅仔 」       五十六 歲 鄭明偉 在 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   有 兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 的 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 有 不少 國有 財產 署名 下 的 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 在 枋寮 內 寮 段種 芭樂   她 無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 在 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 也 靠 這片 三分 地 的 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種   「 我 不但 要 吃 土   連農保 都 沒 有 了   」     面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 和 枋寮 有 「 蓮霧 之 鄉 」 美名   四十八 歲 陳 呈祥 在 八八 風災後回 鄉 接手 父親 的 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 做 的 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   有 的 果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 和 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   在 地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改種電   年 輕人 想 返 鄉務農   也 無 低 租金 的 農地 可種   「 蓮霧 故鄉 」 金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   她 忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到   「 這 不是 迫遷 青農去 都市 討 生活 嗎   漂鳥 回農村   恐怕 走 投無路 變 落翅仔 吧   」</t>
+          <t xml:space="preserve">〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 及 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 和 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 的 的 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 在 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 及 捕魚 的 重要 基地   更是 漁民 生命 財產 的 保障   也 是 海洋 漁業 發展 的 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助 的   縣府 就 必須 出手   架 高作業 平台   解決 高漲 的 潮水   既 保障 漁民 日常 工作 需求   也 能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 的 基礎 建設   除 加高 平台 也 協助 清淤   讓 漁民有 更好 的 作業 環境   黃 嫈 珺 也 說   東石 沿海 導航燈 有 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 也 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 的 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 內容 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  </t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東 縣 政府 於 東港   林邊   佳冬 及 枋寮 4 個 沿海 鄉鎮   劃定 「 嚴重 地層下陷 區光 電計畫 」 專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 有 3000 公頃 以上 的 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷 區為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷 區   現 仍屬 第 1   2 級 地下水 管制 區   且 在 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 有 縣府 在 尊重 地主 利用 土地 意願 及 權益 前提 及 既有 電力 設施 併 網 上限 條件 下   有 限度 的 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   在 部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 的 光電板 發電 效率 已較 八八 風災 後 的 「 養水 種電 」 到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 的 在 單位 發電量 更大下   所 需面積 的 比例 一定 更 小   至少 會 有 3000 公頃 以上 的 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 有 土地 鹽化 等 不利因素 無法 耕作 的 年 邁老農   則 可以 有 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供人 種電   一定 要 進行 變 更 地目   但 這是 完全 基 於 地主 的 利用 土地 意願 及 權益   縣府 環保局 從 未 要求 廠商 提供 所謂 「 不利 耕作 同意 書 」 或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 及 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 有 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   在 未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 內 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東 縣綠能 推動 政策 以 「 專案 專區 計畫 」   「 土地 複 合式 利用 」 兩大 策略 為主   專案 為 有 限度 使用 相對 不 適合 耕種 的 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電 的 「 複 合 利用 」 方式     屏東 縣環 保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 有 處置 自家 土地 財產   以及 業者 依法 申請 案件 的 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  </t>
+          <t>嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 的 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 在 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 有 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                             「 大潮 來   沒 看到 路 怎麼 走   」 鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 及 平台 改善 工程   目前 已 辦理 設計 工作   預計 在 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 也 指出   漁民向 她 反應 鰲 鼓   副 瀨   網寮 及 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 的 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 有 需求 做 盤點   將一 併 向 中央 爭取 第二期 的 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 也 反應 鰲 鼓   副 瀨   網寮 及 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 及 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">光電亂象 已久   從 之前 的 良田 種電   砍 樹種電   近來 變本 加厲   光電板 不僅 征服 山頭   占 領有 文資 價值 的 遺跡   更 一步步 裂解 農漁村 的 產業 鏈   恐阻斷 青農返 鄉 之路   地面 型 光電 的 社會 衝擊 比 預期 更大且 深   在 講求 氣候 正義和 「 企業 Ｅ Ｓ Ｇ   環境 保護   社會責任   公司 治理   」 的 國際 主流 下   政府 和 企業須 警覺   若綠電來 自迫 遷   危害 生態 與 在 地產業   恐埋 隱憂       屏東 縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷 區之名 畫為 光電 專區   本可 接軌 屏東 縣前 縣長 曹啟 鴻 的 「 養水 種電 」 政策   但 實際 推行 結果   鄉間 景觀 破碎   光電場 蛇 鼠 為 患   離農者 漸增 等 負面 效應 逐漸 浮現   加上 光電助 漲 農地 租金   無異將 返鄉 青年 拒 於 農漁村 之外   也 被 批評 與 「 養水 種電 」 初衷 漸行 漸遠                             屏東 只是 全台種 電爭議 的 縮影   有 更 多 生態   景觀 敏感 地   在 追 趕綠能 目標 下 可割 可棄   面對 爭議 與 衝擊   政策 把關 工具 遲未 發揮 效能   及早 阻止 種電 的 副作用   甚至 正向 引導 與 在 地 共生 共榮   實難辭 其咎   也 與 執政黨 的 「 愛鄉 土 」 理念 背道 而 馳       開發行 為 必須 堅守 環境 正義底 線   綠能 也 不 例外   猶記 得 台積 電在 被 徵收 用地 的 拆 遷戶 激烈 抗爭 下   突然 宣布 放棄 進 駐龍科 三期   不無環境 正義與 企業 Ｅ Ｓ Ｇ 的 考慮   民進 黨種 電國策 若 如 「 失速 列車 」   無情 地衝 撞 純樸 的 農漁村   把 青農   老農 都 當成 「 農村 最軟 的 一塊 」   這種 綠電 還是 國際 認可   符合 Ｅ Ｓ Ｇ 的 綠電 嗎  </t>
+          <t xml:space="preserve">台北市 今   23 日   又 工地 地層下陷   松山 區慶城 街 與 興安街 交叉路口 晚間 9 時 01 分許   驚傳 新建 工地 地基 塌陷   路旁 整排 停放 的 汽車 因故 側翻 超過 45 度   現場 已劃 設 警戒 線   據 了解 台北市 長 蔣萬安正 趕往 現場   今晚 9 時 01 分許   慶城街 和 興安街 交叉路口 一處   所屬 璞 真建設 的 新建 工地 「 地基 下陷 」   下陷 範圍 評估 中   目前 無人 受傷   目前 影響 路旁 4 台 停放 的 車輛   現場 已劃 設 警戒 線   事發 後   已有 消防 車到場 指揮   詳細 發生 原因 仍待 釐 清   蔣萬安則 透過 臉書 表示 正 趕往 現場   呼籲 周遭 居民 和 經過 的 民眾 注意安全   有 最新 資訊 市府 會 即刻 通知  </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 的 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 在 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 有 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                             「 大潮 來   沒 看到 路 怎麼 走   」 鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 及 平台 改善 工程   目前 已 辦理 設計 工作   預計 在 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 也 指出   漁民向 她 反應 鰲 鼓   副 瀨   網寮 及 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 的 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 有 需求 做 盤點   將一 併 向 中央 爭取 第二期 的 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 也 反應 鰲 鼓   副 瀨   網寮 及 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 及 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影</t>
+          <t>台北市 松山 區慶城 街 一處 工地 附近   今   23   晚傳出 有 地層下陷 的 狀況   停 在 路邊 停車格 的 車輛   車身 甚至 已經 傾斜   影響 4 台車輛 傾斜   現場 為 新建 工地 地基 下陷   下陷 範圍 評估 中   無人 受傷   已劃 設 警戒 線   台北市 長 蔣萬安 和 副 市長 李 四川 正 趕往 現場   台北市 長 蔣萬安 發文 表示   「 稍早 在 慶城街 和 興安街 交叉口 發生 工地 地基 下陷   我正 趕往 現場   請 周遭 居民 和 經過 的 民眾 注意安全   有 最新 資訊   市府 會 即刻 通知   」</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 及 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 和 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 的 的 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 在 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 及 捕魚 的 重要 基地   更是 漁民 生命 財產 的 保障   也 是 海洋 漁業 發展 的 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助 的   縣府 就 必須 出手   架 高作業 平台   解決 高漲 的 潮水   既 保障 漁民 日常 工作 需求   也 能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 的 基礎 建設   除 加高 平台 也 協助 清淤   讓 漁民有 更好 的 作業 環境   黃 嫈 珺 也 說   東石 沿海 導航燈 有 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 也 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 的 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 內容 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  </t>
+          <t>台北市 慶城街 與 興安街 交叉口 今   23   晚發生 工地 地基 下陷   台北市 長 蔣萬安 發出 通知   提醒 周遭 居民 和 經過 的 民眾 注意安全   蔣萬安及 台北市 副 市長 李 四川 目前 也 趕到 事故 現場   了解 事發 原因   蔣萬安受 訪時 指出   今晚 9 點 左右 接獲 通報   慶城街 與 興安街 交叉口 一處 新建 工地 發生 下陷   第一 時間 即 通知 相關 單位   現場 也 拉起 警戒 線   無人 傷亡   不過 造成 四輛 停放 車輛 傾斜   蔣萬安 指出   目前 新建 工地 還沒 進行 基礎 開 挖   即將 準備 施作 的 連續 壁 工程 也 還沒 開始   只是 在 做 導溝   初步 了解 是 因為 內部 支撐力 不夠   造成 導溝 外壁 下陷   目前 緊急 回填 導溝 中   台北市 結構 技師 公會 理事 長 徐茂卿 表示   「 因為 工地 局部 導溝 施作 不佳   造成 道路 坍陷   現在 最 重要 的 是   把 導溝 內 的 坑洞 補起 來   由 於 區域 不大   災害 擴大跡 象 不 至於 產生 很大 的 影響   」</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>台北市 松山 區慶城 街 一處 工地 附近   今   23   晚傳出 有 地層下陷 的 狀況   停 在 路邊 停車格 的 車輛   車身 甚至 已經 傾斜   影響 4 台車輛 傾斜   現場 為 新建 工地 地基 下陷   下陷 範圍 評估 中   無人 受傷   已劃 設 警戒 線   台北市 長 蔣萬安 和 副 市長 李 四川 正 趕往 現場   台北市 長 蔣萬安 發文 表示   「 稍早 在 慶城街 和 興安街 交叉口 發生 工地 地基 下陷   我正 趕往 現場   請 周遭 居民 和 經過 的 民眾 注意安全   有 最新 資訊   市府 會 即刻 通知   」</t>
+          <t xml:space="preserve">台北市 慶城街 一處 新建 工地 昨晚 發生 地層下陷 事故   對 於 台北市 接連 發生 地層下陷 事件   前 台北市 長   民眾 黨 主席 柯文 哲 今天 表示   台北市 本來 就是 地層下陷 潛勢區   台北市 政府 已經 把 地圖 做 得 很 完整   要 先 知道 高 危險區   並做 必要 的 措施       柯文 哲 表示   台北市 本來 就是 地層下陷 潛勢區   其實 只要 去 工務局 往 上查 一下   就 可以 看到 地層下陷 潛勢區 有 好 幾個   因為 這個 地方 本來 就是 盆地   所以 就 會 有 這個 問題   目前 台北市 做 的 地圖 已經 相當 完整   高 危險區 要 事先 知道   做出 必要 的 措施  </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 今   23 日   又 工地 地層下陷   松山 區慶城 街 與 興安街 交叉路口 晚間 9 時 01 分許   驚傳 新建 工地 地基 塌陷   路旁 整排 停放 的 汽車 因故 側翻 超過 45 度   現場 已劃 設 警戒 線   據 了解 台北市 長 蔣萬安正 趕往 現場   今晚 9 時 01 分許   慶城街 和 興安街 交叉路口 一處   所屬 璞 真建設 的 新建 工地 「 地基 下陷 」   下陷 範圍 評估 中   目前 無人 受傷   目前 影響 路旁 4 台 停放 的 車輛   現場 已劃 設 警戒 線   事發 後   已有 消防 車到場 指揮   詳細 發生 原因 仍待 釐 清   蔣萬安則 透過 臉書 表示 正 趕往 現場   呼籲 周遭 居民 和 經過 的 民眾 注意安全   有 最新 資訊 市府 會 即刻 通知  </t>
+          <t xml:space="preserve">台北市 松山 區慶城 街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 的 搶 救   工地 內 崩塌 範圍 已 完成 回填   今天下午 也 開始 灌漿 工地 外圍 的 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 的 地下 建築 結構 時   挖到 不連續 的 弱面   才 導致 導溝 崩塌   台北市 松山 區慶城 街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 的 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 也 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言   「 好 意外   真的 很 意外   文華飯 店 當初 蓋 的 時候 這麼 近   也 沒 有 發生過 問題   」 精華 地段 的 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 的 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 在 前置 的 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 的 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 的 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出   「 破除 既有 的 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 的 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 的 側壁壓 變形 之 後   就 產生 這樣 的 崩塌 現象   」 台北市 長 蔣萬安週 六 上午 也 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮   「 在 西側   南側   北側 目前 比 對 的 監測 數值 是 正常   而且 也 都 沒 有 地面 塌陷 以及 鄰房 傾斜 的 狀況   」 建管 處則 緊急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>台北市 慶城街 與 興安街 交叉口 今   23   晚發生 工地 地基 下陷   台北市 長 蔣萬安 發出 通知   提醒 周遭 居民 和 經過 的 民眾 注意安全   蔣萬安及 台北市 副 市長 李 四川 目前 也 趕到 事故 現場   了解 事發 原因   蔣萬安受 訪時 指出   今晚 9 點 左右 接獲 通報   慶城街 與 興安街 交叉口 一處 新建 工地 發生 下陷   第一 時間 即 通知 相關 單位   現場 也 拉起 警戒 線   無人 傷亡   不過 造成 四輛 停放 車輛 傾斜   蔣萬安 指出   目前 新建 工地 還沒 進行 基礎 開 挖   即將 準備 施作 的 連續 壁 工程 也 還沒 開始   只是 在 做 導溝   初步 了解 是 因為 內部 支撐力 不夠   造成 導溝 外壁 下陷   目前 緊急 回填 導溝 中   台北市 結構 技師 公會 理事 長 徐茂卿 表示   「 因為 工地 局部 導溝 施作 不佳   造成 道路 坍陷   現在 最 重要 的 是   把 導溝 內 的 坑洞 補起 來   由 於 區域 不大   災害 擴大跡 象 不 至於 產生 很大 的 影響   」</t>
+          <t xml:space="preserve">台北市 松山 區慶城 街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 在 路旁 的 4 台車 受到 波及   人行道 路面 也 凹陷   北市 府 也 緊急 成立 指揮 中心 處理   台北市 長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 有 無 因應   對此 他 表示 會 請 建管 處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 和 檢測   目前 僅有 塌陷 處東側 有 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   也 都 沒 有 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 也 一 併 檢查 處理   此次 台北市 政府 昨晚 在 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   也 開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 內 二度 有 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 做 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 也 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 有 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報 「 會 請 建管 處 全面 清查 」   另外 此次 第一 時間 也 有 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   也 謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 有 溝通 聯 繫  </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街 一處 新建 工地 昨晚 發生 地層下陷 事故   對 於 台北市 接連 發生 地層下陷 事件   前 台北市 長   民眾 黨 主席 柯文 哲 今天 表示   台北市 本來 就是 地層下陷 潛勢區   台北市 政府 已經 把 地圖 做 得 很 完整   要 先 知道 高 危險區   並做 必要 的 措施       柯文 哲 表示   台北市 本來 就是 地層下陷 潛勢區   其實 只要 去 工務局 往 上查 一下   就 可以 看到 地層下陷 潛勢區 有 好 幾個   因為 這個 地方 本來 就是 盆地   所以 就 會 有 這個 問題   目前 台北市 做 的 地圖 已經 相當 完整   高 危險區 要 事先 知道   做出 必要 的 措施  </t>
+          <t xml:space="preserve">〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山 區慶城 街 和 興安街 交叉路口 的 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 在 路邊 停車格 的 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前市 長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 有 的 問題     台北市 松山 區慶城 街 和 興安街 交叉路口 的 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 也 發生 好 幾起 地層下陷 事件   柯文 哲今 早 在 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 有 的 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 做 的 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  </t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 松山 區慶城 街 昨   23   天晚間 發生 地層下陷   身為 前 台北市 長   民眾 黨 主席 柯文 哲今 早 挑戰 一日 北高   被 問到 卸任 後 北市 兩度 發生 工地 地層下陷   他 表示 台北市 是 盆地   本來 就是 地層下陷 檢視區   認為 高 危險區 要 能夠 事先 知道   並做 必要措施   柯文 哲 今天 一大早 6 點多   從 台北 關渡 宮出 發挑戰 一日 北高   面對慶 城街 昨晚 發生 地層下陷   他 認為 台北市 本來 就是 地層下陷 檢視區   工務 局網 站上 可以 看到 有 好 幾個 區域   且 北市 本來 就是 盆地   所以 本來 就 有 這個 問題   至於 問題 出 在 誰 身上   柯文 哲認 為   本來 地質 就 應該 多 注意   北市 做 的 地路 已經 相當 完整   高 危險區 要 能夠 事先 知道   做 必要措施 防範  </t>
+          <t xml:space="preserve">台北市 慶城街   興安街 交叉口 昨   23   天晚間 突發生 工地 地基 塌陷 問題   連帶 週邊 停 在 路旁 的 汽車   人行道 也 傾斜 下陷   北市 府 緊急 下令 回填   經過 連夜 灌漿   截至 今   24   早 7 點 左右   已經 灌漿 250 方   初估 中午 12 點可 完成   另外 也 針對業者 開罰 18 萬並 勒令停工   據 了解   新建 工地 尚未 開挖   只是 在 做 導溝   疑似 因內部 支撐力 不夠   造成 導溝 外壁 下陷   所幸 無人 傷亡   而 除了 導溝 回填 外   北市 府 表示 外側 坍塌 處   為 預防樹木 傾倒   且 灌漿 回填 後 樹木無法 存活   故將 4 棵 黑板 樹鋸斷   此外   北市 府 開罰 業者 18 萬   並 勒令停工   而 雖然 目前 沒有 漏水 情況   但 接下 來 自來 水處 將持續 監測   早上 也 會 進場 做 透地雷達 檢測   並確 認管線 及 排水 溝 是否 破壞 及 處理 方式   待 基地 內側 灌漿 完成 及 初 凝 後   即 進行 道路 回填   北市 府 透露   今早 沒 有 再 塌陷 情況   監測 資料 今天 比 對 完成 後 公布  </t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街   興安街 交叉口 昨   23   天晚間 突發生 工地 地基 塌陷 問題   連帶 週邊 停 在 路旁 的 汽車   人行道 也 傾斜 下陷   北 市府 緊急 下令 回填   經過 連夜 灌漿   截至 今   24   早 7 點 左右   已經 灌漿 250 方   初估 中午 12 點可 完成   另外 也 針對業者 開罰 18 萬並 勒令停工   據 了解   新建 工地 尚未 開挖   只是 在 做 導溝   疑似 因內部 支撐力 不夠   造成 導溝 外壁 下陷   所幸 無人 傷亡   而 除了 導溝 回填 外   北 市府 表示 外側 坍塌 處   為 預防樹木 傾倒   且 灌漿 回填 後 樹木無法 存活   故將 4 棵 黑板 樹鋸斷   此外   北 市府 開罰 業者 18 萬   並 勒令停工   而 雖然 目前 沒有 漏水 情況   但 接下 來 自來 水處 將持續 監測   早上 也 會 進場 做 透地雷達 檢測   並確 認管線 及 排水 溝 是否 破壞 及 處理 方式   待 基地 內側 灌漿 完成 及 初 凝 後   即 進行 道路 回填   北 市府 透露   今早 沒 有 再 塌陷 情況   監測 資料 今天 比 對 完成 後 公布  </t>
+          <t xml:space="preserve">台北 松山 區慶城 街 昨   23   天晚間 發生 地層下陷   身為 前 台北市 長   民眾 黨 主席 柯文 哲今 早 挑戰 一日 北高   被 問到 卸任 後 北市 兩度 發生 工地 地層下陷   他 表示 台北市 是 盆地   本來 就是 地層下陷 檢視區   認為 高 危險區 要 能夠 事先 知道   並做 必要措施   柯文 哲 今天 一大早 6 點多   從 台北 關渡 宮出 發挑戰 一日 北高   面對慶 城街 昨晚 發生 地層下陷   他 認為 台北市 本來 就是 地層下陷 檢視區   工務 局網 站上 可以 看到 有 好 幾個 區域   且 北市 本來 就是 盆地   所以 本來 就 有 這個 問題   至於 問題 出 在 誰 身上   柯文 哲認 為   本來 地質 就 應該 多 注意   北市 做 的 地路 已經 相當 完整   高 危險區 要 能夠 事先 知道   做 必要措施 防範  </t>
         </is>
       </c>
     </row>
@@ -1323,336 +1323,336 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山 區慶城 街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 在 路旁 的 4 台車 受到 波及   人行道 路面 也 凹陷   北 市府 也 緊急 成立 指揮 中心 處理   台北市 長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 有 無 因應   對此 他 表示 會 請 建管 處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 和 檢測   目前 僅有 塌陷 處東側 有 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   也 都 沒 有 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 也 一 併 檢查 處理   此次 台北市 政府 昨晚 在 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   也 開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 內 二度 有 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 做 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 也 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 有 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報 「 會 請 建管 處 全面 清查 」   另外 此次 第一 時間 也 有 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   也 謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 有 溝通 聯 繫  </t>
+          <t xml:space="preserve">台北市 慶城街 工地 附近   週 五晚 間 坍塌 下陷   昨天 基地 內 回填 完成 後   今   25   天 上午 台北市 副 市長 李 四川 再度 到場 視察   評估 地基 沒有 再 下陷   宣布 慶城街 上午 十點 恢 復 通車   李 四川 表示   填平 的 地方 沒有 繼續 沉陷   路面 部分 希望 今晚 人少 的 時候   重新 把 瀝青 鋪 好   明天 週一 上班 就 能 恢 復 正常 了   由 於 這已 經是 蔣 市府 上任 以來   兩年 內 發生 的 第 7 起 塌陷 事件   李 四川 也 要求 持續 監測   建商 若想 復工   依法 必須 交出 復工 計畫   經過 政府 和 專業 技師 公會 審查   確認 安全 無虞 後 才能 繼續 動工  </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山 區慶城 街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 的 搶 救   工地 內 崩塌 範圍 已 完成 回填   今天下午 也 開始 灌漿 工地 外圍 的 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 的 地下 建築 結構 時   挖到 不連續 的 弱面   才 導致 導溝 崩塌   台北市 松山 區慶城 街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 的 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 也 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言   「 好 意外   真的 很 意外   文華飯 店 當初 蓋 的 時候 這麼 近   也 沒 有 發生過 問題   」 精華 地段 的 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 的 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 在 前置 的 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 的 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 的 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出   「 破除 既有 的 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 的 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 的 側壁壓 變形 之 後   就 產生 這樣 的 崩塌 現象   」 台北市 長 蔣萬安週 六 上午 也 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮   「 在 西側   南側   北側 目前 比 對 的 監測 數值 是 正常   而且 也 都 沒 有 地面 塌陷 以及 鄰房 傾斜 的 狀況   」 建管 處則 緊急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  </t>
+          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 在 烏日 焚化 廠旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師會 勘 釐 清 下陷 疑慮     「 泳道 南側 比北側 低 了 約 14 公分   」 台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 在 慶光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 及 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會 勘團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  </t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山 區慶城 街 和 興安街 交叉路口 的 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 在 路邊 停車格 的 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前市 長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 有 的 問題     台北市 松山 區慶城 街 和 興安街 交叉路口 的 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 也 發生 好 幾起 地層下陷 事件   柯文 哲今 早 在 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 有 的 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 做 的 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  </t>
+          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 在 烏日 焚化 廠旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師會 勘 釐 清 下陷 疑慮     「 泳道 南側 比北側 低 了 約 十四 公分 」   環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 在 慶光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 ○ 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 及 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會 勘團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街 工地 附近   週 五晚 間 坍塌 下陷   昨天 基地 內 回填 完成 後   今   25   天 上午 台北市 副 市長 李 四川 再度 到場 視察   評估 地基 沒有 再 下陷   宣布 慶城街 上午 十點 恢 復 通車   李 四川 表示   填平 的 地方 沒有 繼續 沉陷   路面 部分 希望 今晚 人少 的 時候   重新 把 瀝青 鋪 好   明天 週一 上班 就 能 恢 復 正常 了   由 於 這已 經是 蔣 市府 上任 以來   兩年 內 發生 的 第 7 起 塌陷 事件   李 四川 也 要求 持續 監測   建商 若想 復工   依法 必須 交出 復工 計畫   經過 政府 和 專業 技師 公會 審查   確認 安全 無虞 後 才能 繼續 動工  </t>
+          <t xml:space="preserve">〔 記者 李容萍 ／ 桃園 報導 〕 桃園 市石門 水庫 水情 吃緊   截至 今   21 日   中午   蓄水量 7131 萬噸   蓄水 率 34.75 ％   經濟部 水利 署自 19 日起 調整 桃竹苗 地區 水情 燈號 為 「 水情 提醒 」 的 綠燈   提醒 各界 節約 用水   國立 中央 大學 研究 團隊 今 發表 於 新屋 綠色 隧道 海岸 線 TaiCOAST 臨海 工作站   發現 地下水 出流 現象 非常 強勁   每年 出 流量 達 1 億公噸   相當 半座 石門 水庫 容量   這項 成果 刊載 於 新一期 「 水文 學雜誌 」 Journal   of   Hydrology     Regional   Studies 頂尖 期刊   未來 可進 一步 研究 探討 如何 適度 使用 不會 造成 環境 危害     中央 大學應 用地 質 研究所 教授 倪春發 表示   海岸 帶 地下水 出流   Submarine   Groundwater   Discharge     SGD   為 地下水 直接 流進 海洋 的 自然 現象   普遍存在 於 世界各地   中央 大學 TaiCOAST 臨海 工作站 自 2021 年 開始 進行 新屋 的 海岸 帶 地下水 出 流量 調查   發現 即使 在 2021 年 大旱 期間   遭遇 台灣 56 年 來 最 嚴重 的 缺水 危機   出 流量 仍 相當 豐沛     研究 團隊 透過 鑽井   深入 地下 100 公尺   發現 打出 的 仍 是 淡水   透過 數學 模型 計算 流速 和 面積 累加   發現 新屋 地區 的 海岸 帶 地下水 出 流量 每天 可達 30 萬噸   1 年 高達 1 億噸   相當 半座 石門 水庫 容量   近年 來 調查 結果 更 發現   新屋 區往 北 的 海岸 出 流量 有 更 高潛勢   顯示 桃園 海岸 帶 整體 地下水 出 流量 更為 可觀     研究 團隊 指出   台灣 年 降雨量 約 2500 毫米   約 為 全球 平均 的 3 倍   但 因台灣 地形 梯度 較大   60 ％ 流入 海洋   只有 5 ％ 在 含水 層   儘 管 台 灣 降水量 高   但 水資源 有限   雖然 發現 地下水 出 流量 資源 豐沛   但 如何 汲水 開發   不致 造成 海水 入侵 和 地層下陷   涉及 政策   科學 和 工程 等 多重 挑戰   還需 兼顧 出海口 生態 的 平衡   才能 造福 國家 社會     此 研究 團隊 涵蓋 中央 大學 地球 科學學院 各系所 老師   包括 應 用地 質 研究所 教授 倪春發   副教授 王士榮   水文 與 海洋 科學 研究所 教授 李明旭   錢樺   副教授 黃 志 誠   以及 地球 科學學系 教授 顏宏元   陳 建志 等 人   各自 發揮 所長   追求 科學 卓越   也 期許 對 人類 社會 有所 貢獻  </t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 在 烏日 焚化 廠旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師會 勘 釐 清 下陷 疑慮     「 泳道 南側 比北側 低 了 約 14 公分   」 台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 在 慶光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 及 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會 勘團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  </t>
+          <t xml:space="preserve">北市 中山 區 大直 街 「 基泰 大直 」 建案   去年 9 月 因開 挖 不慎   連續 壁斷 裂   導致 鄰房 下陷   25 戶無家 可虧   近百 戶 受損   建案 也 遭 勒令停工   基泰 建設 今 發布 聲明 表示   在 與 受 災戶 溝通下 建案 事故 賠償 已 達 市府 解除 列管 標準   但 因 都 更 程序 關 係   短期 內暫 不 復工   後 續 也 會 和 願 和解 受災 持續 調解       基泰 表示   由福益 營造 公司 承包 的 「 基泰 大直 」 建案 事故 發生 後   經與 市府 協調   建案 起造 人 基泰 公司 對外 宣示 負起 所有 責任   為 加速 後 續理 賠   基泰 公司 進 行人 事 改組   由 新任 高階 主管 與 團隊   全權 處理 中   目前 25 拆除 戶 重建 案 已 依 都 更 程序 進行   因 程序 關 係   短期 內暫 不 施工   無 外界 抹黑 基泰 急 於 大直 案 復工 情事                             基泰 說   包含 179 戶鄰 損受 災戶 與 道 明國際學 校理 賠   日前 已 與 多位 受災戶   學校 達成 和解   過程 中 雖 遭 部分 人士 抹黑   阻礙   但 在 公司 與 受 災戶 溝通   已達 到 巿 府 鄰損 賠償 解除 列管 標準   基 於 企業 責任   以公會 鑑定價 的 1.2 倍 做 賠償 基礎   爲 受 災戶 爭取 最大 幫助   且里長 舉辦 說 明會 到 賠償 金 的 發放   全程 透明       基泰 表示   市府 因該 案 事故 緊急 支出   在 各 單位 協助 下   已 完成 多項 給付   目前 只 剩少 數項 目待 細項 核 對 後   即可 全部 完成   對 於 不願 和解 受災戶   基泰 公司 予以 尊重   將以 提存 賠償 金 的 方式   與 部分 受災戶 進行 鄰損 調解 程序       基泰 也 感謝 市政府 和 大直 里里長   各級民代 在 救災 與 賠償 程序 中 的 協助   以 讓 受 災戶 盡快 恢 復 正常 生活   日後在 各方 督導下   基泰 公司 基 於 社會責任   必 致力 與 社會 各界 共創 美好 未來   另針 對少 數民代以 不 實言論 攻訐 企圖 阻撓 受災戶 和解 情事   基泰 公司 表示   將採 法律 途徑   以正視 聽  </t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 在 烏日 焚化 廠旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師會 勘 釐 清 下陷 疑慮     「 泳道 南側 比北側 低 了 約 十四 公分 」   環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 在 慶光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 ○ 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 及 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會 勘團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  </t>
+          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 的 新北 市萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 也 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 有 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北 市議員 周雅玲 表示   她 接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商到 場會 勘後發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   在 男女 湯室 地底下 有 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 在 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   她 建議 應該 邀請 土木 技師 一 併 會 勘   包含 溫泉 主管 機關 的 經濟 發展局   水利局 邀請 來   對 於 周邊 的 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 有 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 的 改善 方法   公所 將再 請 新北 市 土木 技師 公會 等 相關 專家 進行 專業 的 檢查 評估   期望 在 確保 安全 無虞 的 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   她 呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  </t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 李容萍 ／ 桃園 報導 〕 桃園 市石門 水庫 水情 吃緊   截至 今   21 日   中午   蓄水量 7131 萬噸   蓄水 率 34.75 ％   經濟部 水利 署自 19 日起 調整 桃竹苗 地區 水情 燈號 為 「 水情 提醒 」 的 綠燈   提醒 各界 節約 用水   國立 中央 大學 研究 團隊 今 發表 於 新屋 綠色 隧道 海岸 線 TaiCOAST 臨海 工作站   發現 地下水 出流 現象 非常 強勁   每年 出 流量 達 1 億公噸   相當 半座 石門 水庫 容量   這項 成果 刊載 於 新一期 「 水文 學雜誌 」 Journal   of   Hydrology     Regional   Studies 頂尖 期刊   未來 可進 一步 研究 探討 如何 適度 使用 不會 造成 環境 危害     中央 大學應 用地 質 研究所 教授 倪春發 表示   海岸 帶 地下水 出流   Submarine   Groundwater   Discharge     SGD   為 地下水 直接 流進 海洋 的 自然 現象   普遍存在 於 世界各地   中央 大學 TaiCOAST 臨海 工作站 自 2021 年 開始 進行 新屋 的 海岸 帶 地下水 出 流量 調查   發現 即使 在 2021 年 大旱 期間   遭遇 台灣 56 年 來 最 嚴重 的 缺水 危機   出 流量 仍 相當 豐沛     研究 團隊 透過 鑽井   深入 地下 100 公尺   發現 打出 的 仍 是 淡水   透過 數學 模型 計算 流速 和 面積 累加   發現 新屋 地區 的 海岸 帶 地下水 出 流量 每天 可達 30 萬噸   1 年 高達 1 億噸   相當 半座 石門 水庫 容量   近年 來 調查 結果 更 發現   新屋 區往 北 的 海岸 出 流量 有 更 高潛勢   顯示 桃園 海岸 帶 整體 地下水 出 流量 更為 可觀     研究 團隊 指出   台灣 年 降雨量 約 2500 毫米   約 為 全球 平均 的 3 倍   但 因台灣 地形 梯度 較大   60 ％ 流入 海洋   只有 5 ％ 在 含水 層   儘 管 台 灣 降水量 高   但 水資源 有限   雖然 發現 地下水 出 流量 資源 豐沛   但 如何 汲水 開發   不致 造成 海水 入侵 和 地層下陷   涉及 政策   科學 和 工程 等 多重 挑戰   還需 兼顧 出海口 生態 的 平衡   才能 造福 國家 社會     此 研究 團隊 涵蓋 中央 大學 地球 科學學院 各系所 老師   包括 應 用地 質 研究所 教授 倪春發   副教授 王士榮   水文 與 海洋 科學 研究所 教授 李明旭   錢樺   副教授 黃 志 誠   以及 地球 科學學系 教授 顏宏元   陳 建志 等 人   各自 發揮 所長   追求 科學 卓越   也 期許 對 人類 社會 有所 貢獻  </t>
+          <t>新北 市萬里 區加 投溫泉 公共 浴室 疑似 有 地層下陷 的 現象   為確 保泡湯 安全   目前 已 封閉 修繕 中     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 中山 區 大直 街 「 基泰 大直 」 建案   去年 9 月 因開 挖 不慎   連續 壁斷 裂   導致 鄰房 下陷   25 戶無家 可虧   近百 戶 受損   建案 也 遭 勒令停工   基泰 建設 今 發布 聲明 表示   在 與 受 災戶 溝通下 建案 事故 賠償 已 達 市府 解除 列管 標準   但 因 都 更 程序 關 係   短期 內暫 不 復工   後 續 也 會 和 願 和解 受災 持續 調解       基泰 表示   由福益 營造 公司 承包 的 「 基泰 大直 」 建案 事故 發生 後   經與 市府 協調   建案 起造 人 基泰 公司 對外 宣示 負起 所有 責任   為 加速 後 續理 賠   基泰 公司 進 行人 事 改組   由 新任 高階 主管 與 團隊   全權 處理 中   目前 25 拆除 戶 重建 案 已 依 都 更 程序 進行   因 程序 關 係   短期 內暫 不 施工   無 外界 抹黑 基泰 急 於 大直 案 復工 情事                             基泰 說   包含 179 戶鄰 損受 災戶 與 道 明國際學 校理 賠   日前 已 與 多位 受災戶   學校 達成 和解   過程 中 雖 遭 部分 人士 抹黑   阻礙   但 在 公司 與 受 災戶 溝通   已達 到 巿 府 鄰損 賠償 解除 列管 標準   基 於 企業 責任   以公會 鑑定價 的 1.2 倍 做 賠償 基礎   爲 受 災戶 爭取 最大 幫助   且里長 舉辦 說 明會 到 賠償 金 的 發放   全程 透明       基泰 表示   市府 因該 案 事故 緊急 支出   在 各 單位 協助 下   已 完成 多項 給付   目前 只 剩少 數項 目待 細項 核 對 後   即可 全部 完成   對 於 不願 和解 受災戶   基泰 公司 予以 尊重   將以 提存 賠償 金 的 方式   與 部分 受災戶 進行 鄰損 調解 程序       基泰 也 感謝 市政府 和 大直 里里長   各級民代 在 救災 與 賠償 程序 中 的 協助   以 讓 受 災戶 盡快 恢 復 正常 生活   日後在 各方 督導下   基泰 公司 基 於 社會責任   必 致力 與 社會 各界 共創 美好 未來   另針 對少 數民代以 不 實言論 攻訐 企圖 阻撓 受災戶 和解 情事   基泰 公司 表示   將採 法律 途徑   以正視 聽  </t>
+          <t>新北 市萬里 的 「 加投 溫泉 」 公共 浴室   算是 古 蹟 了   它 是 日據 時期 就 蓋 好 的   而且 到現 在 也 有 很多 人   喜歡 來 這裡 泡湯   不過 上個 月 開始   這裡 出現 大大小小 問題   浴池 磁磚 掉落   水泥柱 有 裂痕   地面 也 嚴重 傾斜   因此 現在 浴池 已經 暫時 封閉 了   等到 廠 商都 修繕 完畢   確認 安全 都 沒 問題   才 會 再度 開放       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   / / reurl . cc / kqyqML   鏡新聞 APP   Android 👉 https   / / reurl . cc / Ay2y63   有話 鏡來講 YT 👉 https   / / reurl . cc / A4DjQj   少年 新聞 週記 YT 👉 https   / / reurl . cc / K4DeN9</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>新北 市萬里 區加 投溫泉 公共 浴室 疑似 有 地層下陷 的 現象   為確 保泡湯 安全   目前 已 封閉 修繕 中     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>新北 市萬里 區加 投溫泉 公共 浴室 疑似 有 地層下陷 的 現象   造成 浴池 受損   壁磚 脫落   未來將 進行 修繕 改善   確認 無 危險 之 虞   才 會 再行 開放 供民眾 使用     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>新北 市萬里 的 「 加投 溫泉 」 公共 浴室   算是 古 蹟 了   它 是 日據 時期 就 蓋 好 的   而且 到現 在 也 有 很多 人   喜歡 來 這裡 泡湯   不過 上個 月 開始   這裡 出現 大大小小 問題   浴池 磁磚 掉落   水泥柱 有 裂痕   地面 也 嚴重 傾斜   因此 現在 浴池 已經 暫時 封閉 了   等到 廠 商都 修繕 完畢   確認 安全 都 沒 問題   才 會 再度 開放       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   / / reurl . cc / kqyqML   鏡新聞 APP   Android 👉 https   / / reurl . cc / Ay2y63   有話 鏡來講 YT 👉 https   / / reurl . cc / A4DjQj   少年 新聞 週記 YT 👉 https   / / reurl . cc / K4DeN9</t>
+          <t xml:space="preserve">新北 市萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 有 地層下陷 的 現象   地質 檢測 人員 檢查   原來 湯室 的 地底 有 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 也 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北 市萬 里加 投溫泉 公共 浴室 在 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 有 泡 湯遊客 反應   燈管   溫度 顯示器 和 溫泉 管線 設備 有 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 的 現象   公所 從 4 號開始 封閉 浴室   也 趕緊 找 專業 技師 到場 檢查   男女 湯室 內 的 地底 有 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 的 溫泉 露頭 有關 係     大鵬里長 李建才   「 露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 的 東西   在 地底下 也 看不到   以 目前 整個 狀況 來講 的 話   下陷 的 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 的 感覺   」   溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   在 流入 浴池 內   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉   「 技師 建議 我們 要 有 專業 的 技師 公會   針對 結構物 下陷 狀況 去 做 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 的 部分 做 改善   還是 可能 要大動 作去 做後續 的 改建   這個 部分 後 續 可能 會 需要 比較 多 的 費用   」   公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 的 泡 湯空間  </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 的 新北 市萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆人 也 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 有 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北 市議員 周雅玲 表示   她 接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商到 場會 勘後發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   在 男女 湯室 地底下 有 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 在 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   她 建議 應該 邀請 土木 技師 一 併 會 勘   包含 溫泉 主管 機關 的 經濟 發展局   水利局 邀請 來   對 於 周邊 的 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 有 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 的 改善 方法   公所 將再 請 新北 市 土木 技師 公會 等 相關 專家 進行 專業 的 檢查 評估   期望 在 確保 安全 無虞 的 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   她 呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  </t>
+          <t xml:space="preserve">新北 萬里 的 加頭 溫泉 2 月份 被 遊客 發現   不僅 燈管   溫度 顯示氣 等等 設備 有 問題   更 有 地層下陷   因此 趕緊 請 公所 找人 檢修   目前 已經 緊急 封閉   確認 沒有 安全 疑慮   才 會 再度 開放     浴池 內 整塊 磁磚 脫落   地磚 也 不平   甚至 還 有些 地層下陷   看起 來 相當 老舊   這裡 是 新北 萬里 的 加頭 溫泉   從 日據 時代起   就 受到 不少 民眾 喜愛   許多人 泡 完湯   都 覺得 放 鬆 筋骨     不過 2 月份 卻 被 發現   不僅 燈管   溫度 顯示器   和 一些 溫泉 管線 設備 有 問題 外   還有 地層下陷 的 跡象   鐵鋁罐 放在 地上   都 會 不 自主 的   滾向 一邊   加上 後 方 就是 溫泉 露頭   要是 坍方 相當 危險   萬里區 長 黃 雱 勉   「 技師 建議 我們   要 有 專業 的 技師 公會 去   針對 結構物 下陷 狀況   去 做 監測   評估後續 是不是 可以 用   液壓 灌漿 的 部分 做 改善   」   地質 人員 透過 地雷 達 偵測 結果 發現   確實 男女 湯內 地底   有 大量 孔隙   造成 土壤 流失   目前 公所 已經   緊急 封閉 浴室   以民眾 安全 為 第一 考量   盡快 修建       封面 圖 ／ 東森新聞  </t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>新北 市萬里 區加 投溫泉 公共 浴室 疑似 有 地層下陷 的 現象   造成 浴池 受損   壁磚 脫落   未來將 進行 修繕 改善   確認 無 危險 之 虞   才 會 再行 開放 供民眾 使用     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 內 的 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 有 地層下陷 的 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 的 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 在 安全 的 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 的 供給 及 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   在 男女 湯室 地下 發現 有 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">新北 市萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 有 地層下陷 的 現象   地質 檢測 人員 檢查   原來 湯室 的 地底 有 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 也 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北 市萬 里加 投溫泉 公共 浴室 在 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 有 泡 湯遊客 反應   燈管   溫度 顯示器 和 溫泉 管線 設備 有 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 的 現象   公所 從 4 號開始 封閉 浴室   也 趕緊 找 專業 技師 到場 檢查   男女 湯室 內 的 地底 有 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 的 溫泉 露頭 有關 係     大鵬里長 李建才   「 露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 的 東西   在 地底下 也 看不到   以 目前 整個 狀況 來講 的 話   下陷 的 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 的 感覺   」   溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   在 流入 浴池 內   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉   「 技師 建議 我們 要 有 專業 的 技師 公會   針對 結構物 下陷 狀況 去 做 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 的 部分 做 改善   還是 可能 要大動 作去 做後續 的 改建   這個 部分 後 續 可能 會 需要 比較 多 的 費用   」   公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 的 泡 湯空間  </t>
+          <t>新北 市萬里區 公所 表示   有民眾 日前 反應加 投溫泉 公共 浴室 內 的 燈管   溫度 顯示器 不亮 等 問題   委 託 廠商 勘查 後 發現   疑似 有 地層下陷 的 現象   圖為 建物 出現 裂縫     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">新北 萬里 的 加頭 溫泉 2 月份 被 遊客 發現   不僅 燈管   溫度 顯示氣 等等 設備 有 問題   更 有 地層下陷   因此 趕緊 請 公所 找人 檢修   目前 已經 緊急 封閉   確認 沒有 安全 疑慮   才 會 再度 開放     浴池 內 整塊 磁磚 脫落   地磚 也 不平   甚至 還 有些 地層下陷   看起 來 相當 老舊   這裡 是 新北 萬里 的 加頭 溫泉   從 日據 時代起   就 受到 不少 民眾 喜愛   許多人 泡 完湯   都 覺得 放 鬆 筋骨     不過 2 月份 卻 被 發現   不僅 燈管   溫度 顯示器   和 一些 溫泉 管線 設備 有 問題 外   還有 地層下陷 的 跡象   鐵鋁罐 放在 地上   都 會 不 自主 的   滾向 一邊   加上 後 方 就是 溫泉 露頭   要是 坍方 相當 危險   萬里區 長 黃 雱 勉   「 技師 建議 我們   要 有 專業 的 技師 公會 去   針對 結構物 下陷 狀況   去 做 監測   評估後續 是不是 可以 用   液壓 灌漿 的 部分 做 改善   」   地質 人員 透過 地雷 達 偵測 結果 發現   確實 男女 湯內 地底   有 大量 孔隙   造成 土壤 流失   目前 公所 已經   緊急 封閉 浴室   以民眾 安全 為 第一 考量   盡快 修建       封面 圖 ／ 東森新聞  </t>
+          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 的 新北 市萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 也 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北 市議員 周雅玲 表示   她 接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商會 勘後懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   在 男女 湯室 的 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 也 出動 透地雷達 探測   這次 發現 問題 較 嚴重   她 建議 邀請 土木 技師 參與會 勘   經濟 發展局 和 水利局 應針 對 附近 的 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 有 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 在 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  </t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 內 的 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 有 地層下陷 的 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 的 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 在 安全 的 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 的 供給 及 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   在 男女 湯室 地下 發現 有 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326</t>
+          <t xml:space="preserve">即時 中心 ／ 綜合 報導   新北 市 新店 區 安泰 路今   3 日   上午 8 時 21 分傳 有 7 棟 房屋 嚴重 下陷   多輛 汽車 傾斜   目前 已 疏散 12 人   區長 與 里 長 正在 現場 了解 情況         安泰 路由 於 路基 受損 變形   多輛 汽車 傾斜 相當 危急   目前 區長 與 里 長 正在 現場 了解 情況   指出 必須 先 把 房屋 下陷 狀況 穩 定下 來   車子 若 無 受損 的 話   就 會 立即 拖吊 離開 現場   找 專業 人員 評估 地層 掏空 狀況   並 等待 自來 水 公司 採樣 處理  </t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>新北 市萬里區 公所 表示   有民眾 日前 反應加 投溫泉 公共 浴室 內 的 燈管   溫度 顯示器 不亮 等 問題   委 託 廠商 勘查 後 發現   疑似 有 地層下陷 的 現象   圖為 建物 出現 裂縫     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t xml:space="preserve">水利局 表示   今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 寶貴 時間   請 於 預定 複 查 日期 前 清除 水井 周圍 草叢   以 加速 複 查作業 進行  </t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 的 新北 市萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆人 也 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北 市議員 周雅玲 表示   她 接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商會 勘後懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   在 男女 湯室 的 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 也 出動 透地雷達 探測   這次 發現 問題 較 嚴重   她 建議 邀請 土木 技師 參與會 勘   經濟 發展局 和 水利局 應針 對 附近 的 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 有 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 在 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  </t>
+          <t>花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮 市區 有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 的 原因   包含 地震 本身 震動 的 方向   建築物 結構 及 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮 縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮 縣 6 強   各地 陸續 傳出 災情   如 花蓮 市區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   在 地震 發生 的 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 的 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 的 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 在 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   在 結構 上僅 靠 少數 樑 柱 支撐   因此 有 可能 會 在 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 有 土壤 液化 的 問題   有些 建築物 若 座落在 比 較 鬆 軟 的 沉 積 層 上   如河邊 在 長 久 沖 積下   有 部分 地底 縫隙 會 被 沙石 填滿   但 在 地震 後 卻 又 鬆 動   或是 局部 液化 的 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 也 有 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 有 騎 樓式 設計 的 房屋   在 大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 在 已 經有 許多 耐震 的 建築 技術   或許 政府 部門 在 未來 考量 建築 補強 上 可以 採用   增加 老建築 的 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因   「 只是 剛開始 」   ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了 嗎   地科 教授 分析 餘震 分布   有 花蓮 特性</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">水利局 表示   今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 寶貴 時間   請 於 預定 複 查 日期 前 清除 水井 周圍 草叢   以 加速 複 查作業 進行  </t>
+          <t xml:space="preserve">今   3   日 強震 震撼 全 台   各地 災情 不斷   新北 市 新店 區 安泰 路 一處 民宅 更 發生 地基 下陷 慘況   此外 台北市 方面 先前 則傳出 3 傷   有 2 名 工人 因 乙炔 鋼瓶 傾倒 爆破 導致燒 燙傷   還有 一人 手臂 撕裂 傷   綜合 媒體 報導   新北 市 新店 區 安泰 路 60 巷 90 弄 頂 好 社區 的 民宅 今 在 地震 後 傳出 災情   從 現場 照片 來 看   不僅 民房 地基 下陷   花盆 傾倒   原先 停 在 路邊 的 車輛 更是 直接 下沉   場面 驚 悚   目前 粗估 坍塌 面積 約 1   000 平方公尺   所幸 住戶 12 人 已 全數 撤離   另外   稍早 台北市 長 蔣萬安 也 表示   北市 接獲 3 人 受傷 消息   其中 有 2 名 男性 工人 在 地震 期間 因 乙炔 鋼瓶 傾倒 爆破 導致 身上 68 ％ 燒燙傷   目前 已 被 送往 台大 醫院 治療   還有 一名 大同 區的民眾 在 地震 時因 玻璃 破裂 導致 左手 撕裂 傷   已 送往 馬 偕 醫院 治療   北市 教育局 則 透露 有 2 名學生 疏散 時腳踝 扭傷 與 遭 玻璃 輕微 割傷   截至 先前   北市 共接 獲 588 災情 案件   大多 為 停電   漏水   瓦斯 管線 破損   此外 還有 建築物 外牆 毀損   招牌 掉落 等   也 有 受困 電梯 人員 已 被 救出   後 續 北市 府 將落 實外 牆   招牌 懸掛 物防護 以及 高架   橋 樑 巡檢  </t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">即時 中心 ／ 綜合 報導   新北 市 新店 區 安泰 路今   3 日   上午 8 時 21 分傳 有 7 棟 房屋 嚴重 下陷   多輛 汽車 傾斜   目前 已 疏散 12 人   區長 與 里 長 正在 現場 了解 情況         安泰 路由 於 路基 受損 變形   多輛 汽車 傾斜 相當 危急   目前 區長 與 里 長 正在 現場 了解 情況   指出 必須 先 把 房屋 下陷 狀況 穩 定下 來   車子 若 無 受損 的 話   就 會 立即 拖吊 離開 現場   找 專業 人員 評估 地層 掏空 狀況   並 等待 自來 水 公司 採樣 處理  </t>
+          <t xml:space="preserve">〔 記者 王涵 平 ／ 新營 報導 〕 南市 已 受理 超過 二五 ○ ○ ○ 件 既有 未登記 水井 納管 申報 案件   但 仍 有 部分 民眾 未 申報   為 避免 地下水 過度 使用 造成 地層下陷   四月 起 受理 申報 同時 辦理 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     水利局 表示   今年 四月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量     申報 時間 即日起 至 八月 二日 止   可 就近 就近 至 各區 公所 或 至 市府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 水利局 網站 「 水井 納管 申報 」 Web 平台 申報   也 可以 手機 下載 「 水井 納管 申報 及 查詢 」 APP 申報  </t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">今   3   日 強震 震撼 全 台   各地 災情 不斷   新北 市 新店 區 安泰 路 一處 民宅 更 發生 地基 下陷 慘況   此外 台北市 方面 先前 則傳出 3 傷   有 2 名 工人 因 乙炔 鋼瓶 傾倒 爆破 導致燒 燙傷   還有 一人 手臂 撕裂 傷   綜合 媒體 報導   新北 市 新店 區 安泰 路 60 巷 90 弄 頂 好 社區 的 民宅 今 在 地震 後 傳出 災情   從 現場 照片 來 看   不僅 民房 地基 下陷   花盆 傾倒   原先 停 在 路邊 的 車輛 更是 直接 下沉   場面 驚 悚   目前 粗估 坍塌 面積 約 1   000 平方公尺   所幸 住戶 12 人 已 全數 撤離   另外   稍早 台北市 長 蔣萬安 也 表示   北市 接獲 3 人 受傷 消息   其中 有 2 名 男性 工人 在 地震 期間 因 乙炔 鋼瓶 傾倒 爆破 導致 身上 68 ％ 燒燙傷   目前 已 被 送往 台大 醫院 治療   還有 一名 大同 區的民眾 在 地震 時因 玻璃 破裂 導致 左手 撕裂 傷   已 送往 馬 偕 醫院 治療   北市 教育局 則 透露 有 2 名學生 疏散 時腳踝 扭傷 與 遭 玻璃 輕微 割傷   截至 先前   北市 共接 獲 588 災情 案件   大多 為 停電   漏水   瓦斯 管線 破損   此外 還有 建築物 外牆 毀損   招牌 掉落 等   也 有 受困 電梯 人員 已 被 救出   後 續北 市府 將落 實外 牆   招牌 懸掛 物防護 以及 高架   橋 樑 巡檢  </t>
+          <t xml:space="preserve">▲ 南市 水井 納管 申報 及 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 及 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 有 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 的 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 有 部分 民眾 未及 申報   為 保障 水井 用戶 權益 及 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 的 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 也 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 「 臺 南 市政府 水利局 」 網站 「 水井 納管 申報 」 Web 平台 申報   也 可手 機下載 「 水井 納管 申報 及 查詢 」 APP 申報   市府 也 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  </t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮 市區 有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 的 原因   包含 地震 本身 震動 的 方向   建築物 結構 及 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮 縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮 縣 6 強   各地 陸續 傳出 災情   如 花蓮 市區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   在 地震 發生 的 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 的 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 的 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 在 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   在 結構 上僅 靠 少數 樑 柱 支撐   因此 有 可能 會 在 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 有 土壤 液化 的 問題   有些 建築物 若 座落在 比 較 鬆 軟 的 沉 積 層 上   如河邊 在 長 久 沖 積下   有 部分 地底 縫隙 會 被 沙石 填滿   但 在 地震 後 卻 又 鬆 動   或是 局部 液化 的 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 也 有 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 有 騎 樓式 設計 的 房屋   在 大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 在 已 經有 許多 耐震 的 建築 技術   或許 政府 部門 在 未來 考量 建築 補強 上 可以 採用   增加 老建築 的 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因   「 只是 剛開始 」   ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了 嗎   地科 教授 分析 餘震 分布   有 花蓮 特性</t>
+          <t xml:space="preserve">〔 記者 盧賢秀 ／ 基隆 報導 〕 基隆 中正路 425 號至 447 號間   去年 發現 水溝 有 下陷 破洞 情形   市府 進場 改善   但 花蓮 地震 後   發現 騎樓 有裂 縫   地基 可能 掏空   房屋 也 疑似 傾斜   市議員 許睿慈 與 市府 相關 單位 勘查   要求 儘 速 鑑 定 地基 與 房屋 結構   讓 居民 可以 住 得 安心 且 安全     市府 表示   經技師 鑑定 房屋 結構 目前 安全 的   工務處 將加強 下水道 巡檢補強     市議員 許睿慈 指出   居民 去年 陳 情   舊漁會 大樓 附近 的 中正路 425 號前 道 路旁 水溝   有 發生 下陷   破洞 的 情形   經會 勘後工務處 已 進場 施作   但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況   令 附近 住戶 人心惶惶     許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會 勘   許睿慈 表示   花蓮 地震 後   427 號至 447 號沿線 都 發生 了 地層 陷落   其中 4 戶 騎樓 有裂 縫   居民 地下室 也 出現 滲水 現象   擔憂 地質 結構 是否 安全   要求 市府 儘 速 完成 房屋 與 地質 安全 檢測     市府 工務處 表示   該 民宅 鄰近 海岸   可能 因 地震 造成 地下室 牆面 裂痕 滲加   工務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡檢   確認 中正路 425 號至 447 號沿線 是否 有 地基 掏空 的 問題     都 發處 表示   有 請 土木 技師 公會 的 技師 前往 勘查   初步 認為 沒有 傾斜 狀況   騎樓 裂 縫區 公所 近期 就 會 整修  </t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 王涵 平 ／ 新營 報導 〕 南市 已 受理 超過 二五 ○ ○ ○ 件 既有 未登記 水井 納管 申報 案件   但 仍 有 部分 民眾 未 申報   為 避免 地下水 過度 使用 造成 地層下陷   四月 起 受理 申報 同時 辦理 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     水利局 表示   今年 四月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量     申報 時間 即日起 至 八月 二日 止   可 就近 就近 至 各區 公所 或 至 市府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 水利局 網站 「 水井 納管 申報 」 Web 平台 申報   也 可以 手機 下載 「 水井 納管 申報 及 查詢 」 APP 申報  </t>
+          <t xml:space="preserve">彰化 縣 大城 鄉現 有納 骨塔 接近 飽 和   鄉 公所 規畫 在 第六 公墓 新建 第二 納 骨塔   頂庄 村民 群起 反對   已有 140 人連署 陳 情   村民 抱怨 縣府 裁撤 頂庄國 小   鄉 公所 在 村 內蓋 第二座 納 骨塔   「 吃 虧 都 是 我們 」   讓 頂 庄村 發展 雪上加霜   要求 重新 研議 興建 地點   鄉長 陳 玉照 說   納 骨塔 近 飽 和   將持續 溝通       大城 鄉有 8 座 公墓   頂庄村 和 山腳 村設 有納 骨塔   山腳村 的 已 飽 和   頂庄村 的 只 剩 不到 700 個 空位   鄉 公所 認為   興 建新 塔有 迫切性   日前 向 頂庄 村民 說明 新建 計畫   村民 痛批 「 一村 二塔 」 違反公 平原 則   當場 反對                             許姓 村民 表示   縣府 認為 頂 庄村 出生率 低   已 是 大城 鄉 人口 倒數 第 2   前年 裁撤 頂庄國 小   可見 頂 庄村 沒 新建 納 骨塔 的 需求   周邊 地層下陷 易 淹水   無論 地理 和 風水   都 不 適合 安放 往生 親人   新建 第二 納 骨塔 離 村落 僅 200 公尺   違反 縣府 規定 500 公尺 的 審查 原則   嚴 重影 響 村民 的 身心健康       鄉長 陳 玉照 指出   頂庄 第一 納 骨塔 建在 高灘 地   第二 納 骨塔 也 一樣   不開 挖 地下室   還 建造 7 層台 階 升高 塔座   沒 淹水 疑慮   第二 納 骨塔 距離 村落 人口稠密 區約 500 公尺   像 他家 距離 墓地 很近   不會 有 問題       頂庄 村長 許仁寶說   如非建 不可   應 提出 有力 的 說明   並訂定 回饋 辦法  </t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲ 南市 水井 納管 申報 及 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 及 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 有 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 的 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 有 部分 民眾 未及 申報   為 保障 水井 用戶 權益 及 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 的 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 也 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 「 臺 南 市政府 水利局 」 網站 「 水井 納管 申報 」 Web 平台 申報   也 可手 機下載 「 水井 納管 申報 及 查詢 」 APP 申報   市府 也 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  </t>
+          <t xml:space="preserve">台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   在 大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 的 地梁 也 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 的 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 的 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  </t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 盧賢秀 ／ 基隆 報導 〕 基隆 中正路 425 號至 447 號間   去年 發現 水溝 有 下陷 破洞 情形   市府 進場 改善   但 花蓮 地震 後   發現 騎樓 有裂 縫   地基 可能 掏空   房屋 也 疑似 傾斜   市議員 許睿慈 與 市府 相關 單位 勘查   要求 儘 速 鑑 定 地基 與 房屋 結構   讓 居民 可以 住 得 安心 且 安全     市府 表示   經技師 鑑定 房屋 結構 目前 安全 的   工務處 將加強 下水道 巡檢補強     市議員 許睿慈 指出   居民 去年 陳 情   舊漁會 大樓 附近 的 中正路 425 號前 道 路旁 水溝   有 發生 下陷   破洞 的 情形   經會 勘後工務處 已 進場 施作   但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況   令 附近 住戶 人心惶惶     許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會 勘   許睿慈 表示   花蓮 地震 後   427 號至 447 號沿線 都 發生 了 地層 陷落   其中 4 戶 騎樓 有裂 縫   居民 地下室 也 出現 滲水 現象   擔憂 地質 結構 是否 安全   要求 市府 儘 速 完成 房屋 與 地質 安全 檢測     市府 工務處 表示   該 民宅 鄰近 海岸   可能 因 地震 造成 地下室 牆面 裂痕 滲加   工務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡檢   確認 中正路 425 號至 447 號沿線 是否 有 地基 掏空 的 問題     都 發處 表示   有 請 土木 技師 公會 的 技師 前往 勘查   初步 認為 沒有 傾斜 狀況   騎樓 裂 縫區 公所 近期 就 會 整修  </t>
+          <t xml:space="preserve">〔 記者 王捷 ／ 台南 報導 〕 台南市 北區 北華街 的 一處 工地 傳出 下陷   導致 工地 旁 的 住戶 外牆   地板 出現 龜裂   警方 在 今晚 六點 多 接獲 報案   並通報 相關 單位   由 於 台南 前陣子 也 有 工地 塌陷 意外   加上 這個 月 花蓮 強震 帶來 的 災害   警方 呼籲 目前 正在 交通管制   請民眾 不要 靠近     初步 調查 發現   該 工地 的 建設 公司 近期 在 開 挖 地下室 的 過程 中   地下水 湧出   北區 公所 與 工務局 在 北華里 活動 中心 成立 臨時 指揮 所   由 相關 人員到 場會 勘   認為 可能 是 地下水 湧出   地基 不 穩定   造成 附近 的 住家 出現 牆壁   地板 龜裂 的 主因     工務局 人員 除了 要求 建設 公司 立即 停止 工程施工   並要 建設 公司 調派 水泥 車   先將 湧出 的 地下水 源以 水泥 灌漿 封閉   防止 狀況 持續 惡化   目前 仍 在 進行 緊急 的 灌漿 作業 中     建設 公司 表示   一定 會 遵照 工務局 指示   並對 鄰近 住戶 的 損失 給予 妥善 的 賠償 與 補償   絕不會 卸責 推諉   工務局 也 將持續 監控 現場 狀況   待 地下水 源 控制 後   再視 實際 損害 情形     警方 為 了 維護 交通秩序   派員 到場 管制 交通   直到 灌漿 結束   並 希望 民眾 不要 擔心   如果 發生 類似 事件   施工 單位 應當 立即 停工   並 通知 主管 機關   否則將 嚴加 開罰 及 要求 賠償   受災戶 如有 任何 疑問   也 可多加 利用 1999 話務 專線 諮 詢  </t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">彰化 縣 大城 鄉現 有納 骨塔 接近 飽 和   鄉 公所 規畫 在 第六 公墓 新建 第二 納 骨塔   頂庄 村民 群起 反對   已有 140 人連署 陳 情   村民 抱怨 縣府 裁撤 頂庄國 小   鄉 公所 在 村 內蓋 第二座 納 骨塔   「 吃 虧 都 是 我們 」   讓 頂 庄村 發展 雪上加霜   要求 重新 研議 興建 地點   鄉長 陳 玉照 說   納 骨塔 近 飽 和   將持續 溝通       大城 鄉有 8 座 公墓   頂庄村 和 山腳 村設 有納 骨塔   山腳村 的 已 飽 和   頂庄村 的 只 剩 不到 700 個 空位   鄉 公所 認為   興 建新 塔有 迫切性   日前 向 頂庄 村民 說明 新建 計畫   村民 痛批 「 一村 二塔 」 違反公 平原 則   當場 反對                             許姓 村民 表示   縣府 認為 頂 庄村 出生率 低   已 是 大城 鄉 人口 倒數 第 2   前年 裁撤 頂庄國 小   可見 頂 庄村 沒 新建 納 骨塔 的 需求   周邊 地層下陷 易 淹水   無論 地理 和 風水   都 不 適合 安放 往生 親人   新建 第二 納 骨塔 離 村落 僅 200 公尺   違反 縣府 規定 500 公尺 的 審查 原則   嚴 重影 響 村民 的 身心健康       鄉長 陳 玉照 指出   頂庄 第一 納 骨塔 建在 高灘 地   第二 納 骨塔 也 一樣   不開 挖 地下室   還 建造 7 層台 階 升高 塔座   沒 淹水 疑慮   第二 納 骨塔 距離 村落 人口稠密 區約 500 公尺   像 他家 距離 墓地 很近   不會 有 問題       頂庄 村長 許仁寶說   如非建 不可   應 提出 有力 的 說明   並訂定 回饋 辦法  </t>
+          <t>水利 署 在 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 生 態 環 境   土方 培厚則 為 河道 治理   經監 測確 有 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 的 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 的 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 的 生態   環境 調查   施工期 間 的 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 也 發現 仍 有 石虎 出 沒 活動   甚至 有 定居 個體   巴氏 銀 鮈 棲地 也 沒 有 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 的 生態 工法 理念 相近   也 有 專業 技師 分析   經比 對 去年 培厚前   後 的 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 在 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   在 大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 的 地梁 也 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 的 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 的 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  </t>
+          <t xml:space="preserve">水利 署 在 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 生 態 環 境   土方 培厚 為 河道 治理   經監測 有 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 的 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 的 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 的 生態   環境 調查   施工期 間 的 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  </t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 王捷 ／ 台南 報導 〕 台南市 北區 北華街 的 一處 工地 傳出 下陷   導致 工地 旁 的 住戶 外牆   地板 出現 龜裂   警方 在 今晚 六點 多 接獲 報案   並通報 相關 單位   由 於 台南 前陣子 也 有 工地 塌陷 意外   加上 這個 月 花蓮 強震 帶來 的 災害   警方 呼籲 目前 正在 交通管制   請民眾 不要 靠近     初步 調查 發現   該 工地 的 建設 公司 近期 在 開 挖 地下室 的 過程 中   地下水 湧出   北區 公所 與 工務局 在 北華里 活動 中心 成立 臨時 指揮 所   由 相關 人員到 場會 勘   認為 可能 是 地下水 湧出   地基 不 穩定   造成 附近 的 住家 出現 牆壁   地板 龜裂 的 主因     工務局 人員 除了 要求 建設 公司 立即 停止 工程施工   並要 建設 公司 調派 水泥 車   先將 湧出 的 地下水 源以 水泥 灌漿 封閉   防止 狀況 持續 惡化   目前 仍 在 進行 緊急 的 灌漿 作業 中     建設 公司 表示   一定 會 遵照 工務局 指示   並對 鄰近 住戶 的 損失 給予 妥善 的 賠償 與 補償   絕不會 卸責 推諉   工務局 也 將持續 監控 現場 狀況   待 地下水 源 控制 後   再視 實際 損害 情形     警方 為 了 維護 交通秩序   派員 到場 管制 交通   直到 灌漿 結束   並 希望 民眾 不要 擔心   如果 發生 類似 事件   施工 單位 應當 立即 停工   並 通知 主管 機關   否則將 嚴加 開罰 及 要求 賠償   受災戶 如有 任何 疑問   也 可多加 利用 1999 話務 專線 諮 詢  </t>
+          <t>路透社 報導   根據 今天 ( 19 日 ) 發布 的 一份 全國衛星 資料 研究 顯示   中國將 近一半 的 主要 城市 正 遭受 「 中等 到 嚴重 」 程度 的 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 的 論文 作者 發現   中國 45% 的 都市 土地 正以 每年 超過 3 公 釐 的 速度 下陷   16% 的 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 的 原因 不僅 是 地下水位 下降   還有 建築 環境 的 龐大 重量     華南師 範大學 敖祖銳 領導 的 研究 團隊 表示   中國 的 都市人口 已經 超過 9 億   因此 「 即使 是 一小部分 的 土地 下陷   都 會 對 都市生活 構成 巨大 威脅 」     土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 在 下 一個 世紀   近 四分之一 的 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 的 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾氣候 變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 的 尼科 爾斯 ( Robert   Nicholls ) 表示   「 這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 的 問題   而 不僅僅 是 一 兩個 地方 的 問題   」 他 說   「 這也 是 世界 其他 地方 正在 發生 的 事情 的 縮影   」   人口 超過 1   500 萬 的 北部 城市 天津   被確 認為 受災 最 嚴重 的 城市 之一   去年 一場 「 突發性 地質 災害 」 導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 的 興建     中國 許多 老 煤 礦區 也 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 的 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 的 另 一份 研究 指出   全球 約 有 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 的 國家 之一   首都 雅加 達 大部分 地區現 在 已 低 於 海平面     尼科 爾斯說   易受 影響 的 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 在 1970 年代 禁止 抽取 地下水     他 補充 說   「 減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 你 不 可能 阻止 所有 下陷   因此 要 討論 適應力 和 建造 海堤   」   根據 新加坡 2022 年 的 一項 研究   44 個 飽 受 這個 問題 困擾 的 主要 沿海 城市 中   有 30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示   「 這是 一個 都市化 和 人口 增長 的 問題   人口密度 愈大   抽 的 水 就 愈 多   也 就 造成 更 多 下陷   」</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>水利 署 在 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 生 態 環 境   土方 培厚則 為 河道 治理   經監 測確 有 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 的 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 的 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 的 生態   環境 調查   施工期 間 的 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 也 發現 仍 有 石虎 出 沒 活動   甚至 有 定居 個體   巴氏 銀 鮈 棲地 也 沒 有 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 的 生態 工法 理念 相近   也 有 專業 技師 分析   經比 對 去年 培厚前   後 的 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 在 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片</t>
+          <t>中國 過度 抽取 地下水   導致 近 40% 主要 城市 的 土地 下陷     路透     陳 麗珠 ／ 核稿 編輯   〔 財經 頻道 ／ 綜合 報導 〕 中國 有 近一半 的 主要 城市 正 遭受 「 中度 至 重度 」 不 等 程度 的 沉降   在 海平面 上升 的 情況 下   恐有 數百萬人將 面臨 洪水 風險     路透   指出   中國 都市人口 約 9 億人   當中 約 有 2.7 億人 生活 在 每年 下陷 逾 3 公 釐 的 地區   相當 於 都市人口 的 29%     在 中國 82 個 城市 中   約 有 45% 每年 下沉 超過 3 公 釐   16% 土地 平均 每年 下沉 更是 超過 10 公 釐   約 有 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   也 可能 造成 重大 威脅     據 了解   而 造成 中國 土地 逐年 下沉   最 主要 是 地下水位 下降 所致     路透 表示   「 土地 下陷 」 對 中國 每年 造成 超過 75 億元 人民 幣   約 新 台幣 337 億元   的 損失   研究 人員 預計   在 下個 世紀 內   中國將 有 約 近 四分之一 的 沿海 土地   恐低 於 海平面   數億人將 面臨 大 洪水 風險     最 嚴重 的 受災 城市 是 北方 的 天津   這 城市 約 有 1500 萬 人口   2023 年 一場 「 突發 地質 災害 」   導致 3000 名 居民 被 疏散   調查 人員將 這場 災害 歸咎 於   水資源 枯竭 和 地 熱井 的 建設       一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">水利 署 在 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 生 態 環 境   土方 培厚 為 河道 治理   經監測 有 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 的 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 的 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 的 生態   環境 調查   施工期 間 的 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  </t>
+          <t xml:space="preserve">最新 一份 根據 衛星 雷達 觀測 的 研究 顯示   中國近 40% 主要 城市 的 土地 正發生 「 中度 至 重度 」 的 地層下陷   上 億 居民 面臨 洪水 的 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 / 19   發表 在 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 的 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 在 2015 至 2022 年 的 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 有 2.7 億 人口 生活 在 這些 每年 下陷 逾 3 公 釐 的 地區   相當 於 都市人口 的 29%     這 82 個 城市 中   更 有 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   也 可能 造成 重大 威脅     導致 中國 都市 地層下陷 的 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 的 重量 不斷 增加   在 時間 推移 下   沉積物 堆積   以及 不斷 增加 的 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 和 海平面 上升   最終 中國將 有 約 四分之一 的 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 的 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 的 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 的 堤防   「 即使 地層下陷 和 海平面 上升   這樣 龐大 的 沿海 堤防 也 能 在 很大 程度 上 降低 城市 被淹 沒 的 風險 」   就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 的 堤防     陶勝利稱   中國 政府 也 實施 嚴格 的 地下水 管制法 規   減緩 了 上海 周邊 的 地層下陷 速度     全球 多個 城市 都 在 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 的 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 有 海平面 上升 的 問題   大家 比較 關心 沿海 城市   「 但 大多 數 城市 下沉 的 速度   和 沿海 城市 其實 都 差不多   甚至 還更快 」     地層下陷 也 不僅 是 中國 才 有 的 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快 的   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 的 土地 有 下陷 風險   印尼 是 最 嚴重 的 國家 之一   首都 雅加 達 大部分 地區現 在 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 的 44 個 沿海 大城市 當中   有 30 個 在 亞洲  </t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>中國 過度 抽取 地下水   導致 近 40% 主要 城市 的 土地 下陷     路透     陳 麗珠 ／ 核稿 編輯   〔 財經 頻道 ／ 綜合 報導 〕 中國 有 近一半 的 主要 城市 正 遭受 「 中度 至 重度 」 不 等 程度 的 沉降   在 海平面 上升 的 情況 下   恐有 數百萬人將 面臨 洪水 風險     路透   指出   中國 都市人口 約 9 億人   當中 約 有 2.7 億人 生活 在 每年 下陷 逾 3 公 釐 的 地區   相當 於 都市人口 的 29%     在 中國 82 個 城市 中   約 有 45% 每年 下沉 超過 3 公 釐   16% 土地 平均 每年 下沉 更是 超過 10 公 釐   約 有 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   也 可能 造成 重大 威脅     據 了解   而 造成 中國 土地 逐年 下沉   最 主要 是 地下水位 下降 所致     路透 表示   「 土地 下陷 」 對 中國 每年 造成 超過 75 億元 人民 幣   約 新 台幣 337 億元   的 損失   研究 人員 預計   在 下個 世紀 內   中國將 有 約 近 四分之一 的 沿海 土地   恐低 於 海平面   數億人將 面臨 大 洪水 風險     最 嚴重 的 受災 城市 是 北方 的 天津   這 城市 約 有 1500 萬 人口   2023 年 一場 「 突發 地質 災害 」   導致 3000 名 居民 被 疏散   調查 人員將 這場 災害 歸咎 於   水資源 枯竭 和 地 熱井 的 建設       一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
+          <t xml:space="preserve">中國 有將 近一半 的 主要 城市 正 面臨 「 中度 至 重度 」 地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 有 9 億   其中 約 有 2.7 億人 生活 在 每年 下陷 逾 3 公分 的 的 地區   相當 於 都市人口 的 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 有 約 四分之一 的 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 的 報告 在 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 的 地層下陷 情形   發現 約 有 45% 的 地區 每年 下沉 超過 3 公 釐   更 有 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 有 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 的 重量 不斷 增加   不斷 增加 的 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 和 海平面 上升   最終 中國會 有 約 四分之一 的 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 的 天津市 被 認為 是 「 最 嚴重 受災 城市 」   2023 年 6 月間   一場 「 突發 地質 災害 」 讓 3 幢 大樓 出現 裂痕   地下室 滲水   有 3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 的 鑽井 施工 觸動 深層 「 地質 空腔 」 所致     不僅 是 中國 有 此 問題   世界各地 皆 面臨 地層下陷 危機   在 今年 2 月 發表 的 另項 研究 指出   全球 約 630 萬 平方公里 的 土地 有 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   內容 提及 全世界 有著 嚴重 地層下陷 的 44 個 沿海 主要 城市 中   就 有 30 個位 於 亞洲  </t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">最新 一份 根據 衛星 雷達 觀測 的 研究 顯示   中國近 40% 主要 城市 的 土地 正發生 「 中度 至 重度 」 的 地層下陷   上 億 居民 面臨 洪水 的 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 / 19   發表 在 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 的 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 在 2015 至 2022 年 的 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 有 2.7 億 人口 生活 在 這些 每年 下陷 逾 3 公 釐 的 地區   相當 於 都市人口 的 29%     這 82 個 城市 中   更 有 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   也 可能 造成 重大 威脅     導致 中國 都市 地層下陷 的 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 的 重量 不斷 增加   在 時間 推移 下   沉積物 堆積   以及 不斷 增加 的 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 和 海平面 上升   最終 中國將 有 約 四分之一 的 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 的 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 的 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 的 堤防   「 即使 地層下陷 和 海平面 上升   這樣 龐大 的 沿海 堤防 也 能 在 很大 程度 上 降低 城市 被淹 沒 的 風險 」   就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 的 堤防     陶勝利稱   中國 政府 也 實施 嚴格 的 地下水 管制法 規   減緩 了 上海 周邊 的 地層下陷 速度     全球 多個 城市 都 在 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 的 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 有 海平面 上升 的 問題   大家 比較 關心 沿海 城市   「 但 大多 數 城市 下沉 的 速度   和 沿海 城市 其實 都 差不多   甚至 還更快 」     地層下陷 也 不僅 是 中國 才 有 的 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快 的   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 的 土地 有 下陷 風險   印尼 是 最 嚴重 的 國家 之一   首都 雅加 達 大部分 地區現 在 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 的 44 個 沿海 大城市 當中   有 30 個 在 亞洲  </t>
+          <t xml:space="preserve">李欣潔 ／ 核稿 編輯   〔 即時 新聞 ／ 綜合 報導 〕 中國 各 大都市 面臨 地層下陷 的 環境 危機   北京 大學 城市 與 環境 學院 生態 研究 中心 研究 員 陶勝利 團隊   華南師 範大學 北斗 研究院 敖祖銳 團隊 等 人   共同 在 頂 尖 期刊   科學   發表論 文   指稱 2120 年 中國 沿海 城市 恐有 26 ％ 土地 會 低 於 海平面   北京 是 全中國 下沉 速度 最快 的 都市 之一     據   紐約 時報   報導   中國 16 ％ 的 大城市 每年 海拔高度 下降 超過 10 公 釐   近一半 城市 每年 海拔高度 下降 超過 3 公 釐   這些 數字 看 起來 不大   但 日積 月 累 之下 不能 忽視     這些 城市 的 地層下陷 有 一部分 是 由 於 建物 和 基礎 設施 的 重量 造成 的   超 抽 地下水   開採 石油 和 煤礦 也 是 原因 之一   上述 影響 到 環境 的 行為   可能 會 造成 土壤 和 岩石 的 擠 壓 和 坍塌     研究 人員 透過 雷達圖 像   測量 中國 82 個 主要 都市 2015 至 2022 年間 地表 升降 狀況   並和當 地 建物 重量   地下水位 進行 比 較   結果 發現 中國 沿海 城市 目前 約 有 6 ％ 土地 相對 海拔 低于 海平面   假如 2120 年 全球 平均 海平面 上升 0.87 公尺   則 可能 會 上升 到 26 ％     其中   北京 是 全中國 下陷 速度 最快 的 城市 之一   鄰近 的 天津 也 有 同樣 危機   天津 去年 數條 道路 突然 發 生地 裂狀況   導致 數千 居民 從 公寓 撤離   中國 都市 下陷 狀況 是 不均 勻 的   亦 即 不同 區域 以 不同 的 速度 下沉   使得 土地 上 的 建物 面臨 受損 風險     都市 土地 低 於 海平面 並不 代表 滅亡   荷蘭 大部分 地區 都 在 海平面 以下 並持續 下陷   但 荷蘭展 開 了 大量 的 蓄洪 工程 防止 洪災   中國 研究 人員 認為   降低 下陷 速度 的 關鍵 是 限制 地下水 抽取   上海 實施 地下水 管理 後 下沉 速度 比中國 其他 城市 更慢   日本 東京 和 大阪 多年 來 的 地下水 規劃 已 能夠 穩定 地表 沉降 狀況     不過   審查 該 篇 論文 的 英國東 英吉利 大學 氣候 科學家 和 土木工程 專家 尼科 爾斯   Robert   Nicholls   透露   地層下陷 是 中國 全國性 的 問題   很難 完全 阻止   中國 沿海 地區 必須 適應 海平面 上升   地表 下沉 的 狀況     同樣 參與 審查 論文 的 美國維吉尼亞 理工大 學 地球物理 學家 希爾扎 伊   Manoochehr   Shirzaei     曾 以類 似的 方法 研究 了 美國 沿海 都市 的 下沉   他 直指 地層下陷 幾乎 在 任何 地方 都 存在   卻 一直 遭到 忽視     希爾扎 伊說   目前 大多 數應 對 氣候 變化   指 海平面 上升   的 策略 都 是 不 準確 的   因為 這些 都 沒 有 考慮 到 地層下陷 狀況   這個 課題 從 未 像 海平面 上升 一樣 得到 廣泛 研究  </t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>路透社 報導   根據 今天 ( 19 日 ) 發布 的 一份 全國衛星 資料 研究 顯示   中國將 近一半 的 主要 城市 正 遭受 「 中等 到 嚴重 」 程度 的 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 的 論文 作者 發現   中國 45% 的 都市 土地 正以 每年 超過 3 公 釐 的 速度 下陷   16% 的 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 的 原因 不僅 是 地下水位 下降   還有 建築 環境 的 龐大 重量     華南師 範大學 敖祖銳 領導 的 研究 團隊 表示   中國 的 都市人口 已經 超過 9 億   因此 「 即使 是 一小部分 的 土地 下陷   都 會 對 都市生活 構成 巨大 威脅 」     土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 在 下 一個 世紀   近 四分之一 的 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 的 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾氣候 變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 的 尼科 爾斯 ( Robert   Nicholls ) 表示   「 這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 的 問題   而 不僅僅 是 一 兩個 地方 的 問題   」 他 說   「 這也 是 世界 其他 地方 正在 發生 的 事情 的 縮影   」   人口 超過 1   500 萬 的 北部 城市 天津   被確 認為 受災 最 嚴重 的 城市 之一   去年 一場 「 突發性 地質 災害 」 導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 的 興建     中國 許多 老 煤 礦區 也 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 的 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 的 另 一份 研究 指出   全球 約 有 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 的 國家 之一   首都 雅加 達 大部分 地區現 在 已 低 於 海平面     尼科 爾斯說   易受 影響 的 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 在 1970 年代 禁止 抽取 地下水     他 補充 說   「 減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 你 不 可能 阻止 所有 下陷   因此 要 討論 適應力 和 建造 海堤   」   根據 新加坡 2022 年 的 一項 研究   44 個 飽 受 這個 問題 困擾 的 主要 沿海 城市 中   有 30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示   「 這是 一個 都市化 和 人口 增長 的 問題   人口密度 愈大   抽 的 水 就 愈 多   也 就 造成 更 多 下陷   」</t>
+          <t xml:space="preserve">〔 記者 顏宏駿 ／ 彰化 報導 〕 彰化 縣 沒 有 水庫   多年 以來 不 缺水   民生 用水   的 原因 係 倚賴 全縣 200 多口 地下水 井   但 已 造成 地層下陷 問題   惟鳥 嘴潭 人工湖 淨水廠 完工 後 將可 改變 現今 抽 地下水 的 窘境   目前 台一線 南 彰化 段 正 進行 大型 管路 埋設 工程   2026 年 完工 後   這條 管路 成為 彰化 縣 的 給水大動脈   透過 管路 連結   達到 鳥 嘴潭 人工湖   湖山 水庫   鯉魚 潭 水庫 的 水源 靈活 調度 的 目的     台水 公司 指出   目前 鳥 嘴潭淨 水廠 工程 進行 中   埋管 工程 多線 展開   直徑 1.2 公尺 的 幹管 埋設 工程   為 避免 影響 交通   採 分段 施工   預計 2026 年 全部 完工   最後可達 到 北水南 送   南 水北 送   靈活 供水 目標     台水 公司 表示   目前 彰化 縣 每日 用水量 約 為 40 萬公噸   地面水 部分   彰化市 與 和 美   花壇 部分 地區 每日 用水量 約 為 8 萬公噸   主要 靠 台中 支援   鯉魚 潭 水庫     南 彰化 的 北斗   二林 與 溪湖 一帶   則由 雲林   湖山 水庫   每日 支援 約 5 萬公噸   烏嘴潭淨 水廠 完工 送水 後   彰化 縣 每年 可減 抽 6100 萬噸 的 地下水   解決 農民 枯水期 經常 抽 不到 地下水 窘境     台水 公司 說   未來 鳥 嘴潭淨 水廠 每天 可供 應 彰化 地區 21 萬噸 的 水量   加上 現有 每日 來 自 雲林 湖山 水庫 5 萬公噸   而 透過 台 一線 埋設 的 幹管   南   北 水路 相通   增加 水資源 調度 彈性   在 上游 採 一般 水庫 採高 水位 操作   依循 「 蓄豐濟 枯 」 邏輯   趁 豐水期 盡量 蓄滿   枯水期 才 有 水 可用   包含 中水 局轄區 內 鯉 魚潭   湖山 水庫   目前 處 於 枯水期 階段   卻 仍 持續 滿水 溢流   未來 也 能 應付 極端 氣候 或 突發 供水 危機     台水 公司 第十一 處長 曾 盛一說   水資源 運用 已 不 像 過去   單一 水庫 供水 區 固定   在 水利 署力 拚 打造 西部 廊道 供水管 網   強化 區域 調度 的 同時   鳥 嘴潭 雖 不是 直接 參與 管網   但 透過 減少 中部 水庫 支援 彰化 水量   「 其實 也 有 達 到 調度 功能 」  </t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">中國 有將 近一半 的 主要 城市 正 面臨 「 中度 至 重度 」 地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 有 9 億   其中 約 有 2.7 億人 生活 在 每年 下陷 逾 3 公分 的 的 地區   相當 於 都市人口 的 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 有 約 四分之一 的 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 的 報告 在 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 的 地層下陷 情形   發現 約 有 45% 的 地區 每年 下沉 超過 3 公 釐   更 有 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 有 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 的 重量 不斷 增加   不斷 增加 的 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 和 海平面 上升   最終 中國會 有 約 四分之一 的 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 的 天津市 被 認為 是 「 最 嚴重 受災 城市 」   2023 年 6 月間   一場 「 突發 地質 災害 」 讓 3 幢 大樓 出現 裂痕   地下室 滲水   有 3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 的 鑽井 施工 觸動 深層 「 地質 空腔 」 所致     不僅 是 中國 有 此 問題   世界各地 皆 面臨 地層下陷 危機   在 今年 2 月 發表 的 另項 研究 指出   全球 約 630 萬 平方公里 的 土地 有 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   內容 提及 全世界 有著 嚴重 地層下陷 的 44 個 沿海 主要 城市 中   就 有 30 個位 於 亞洲  </t>
+          <t xml:space="preserve">[ 周刊 王 CTWANT ]   根據 美國 科學促 進會   AAAS   出版 的 期刊   科學     Science   於 18 日 發表 的 論文 顯示   中國 近一半 主要 城市 面臨 「 中度 至 重度 」 的 地層下陷 問題   45% 的 城市 每年 下陷 超過 3 毫米   16% 的 城市 每年 快速 下陷 逾 10 毫米   並 造成 每年 75 億元 人民 幣   約合 新 台幣 337 億元   的 經濟 損失   預計 未來 1 世紀 內   中國 沿海 城市 可能 有 1 / 10 的 居民 將 生活 在 海平面 以下     下陷 主因 則 包括 地下水位 下降   以及 建築 環境 對 地下 土壤 帶來 的 沉重 壓力 等   尤其 都市化 進程 更是 加速 了 地下水 資源 過度 開採   以及 大量 建築物 的 重壓   受影響 的 城市 包括 北京   天津   合肥 和 西安 等   由 於 中國 城市 人口 已 超過 9 億人   因此 「 即使 只有 一小部分 的 土地 下陷   都 有 可能 對 城市 生活 構成 重大 威脅 」   涉及 居民 安全   基礎 建設   交通 運作 及 生態 環境 等 多個 層面     研究 估算   地層下陷 已使 中國年 經濟 損失 超過 75 億元 人民 幣   凸顯 了 問題 的 嚴峻 與 急迫   例如 擁有 1500 萬 人口 的 天津   近幾年 都 是 水患 受災 嚴重 的 地區 之一   未來   隨著 全球 暖化 造成 的 海平面 上升   以及 地層下陷 持續   預計 下個 世紀   中國將 有 近 1 / 4 的 沿海 土地 低 於 海平面   洪水 風險 劇增     除 沿海 城市   中國舊 煤區 亦 因 過度 開 採出 現類 似狀況   地下 礦產開 採導致 土地 結構 變化   引發 地層下陷   地方 政府 常採 取向 礦井 注漿 加固 等 臨時 措施   但 無法 從 根源 解決 問題     英國東 英吉利 大學   University   of   East   Anglia   氣候 變遷 研究 中心 主任 尼可斯 指出   地層下陷 不僅 是 中國 的 全國性 問題   也 是 全球 的 重大 危機   今年 2 月 的 研究 顯示   全世界 約 有 630 萬 平方公里 的 土地 有 下陷 風險   尤其 印尼 更是如此   其 首都 雅加 達   Jakarta   大部分 區域 目前 已低 於 海平面   加劇 洪水 風險 並嚴 重威脅 居民 生活 與 生態 環境  </t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">李欣潔 ／ 核稿 編輯   〔 即時 新聞 ／ 綜合 報導 〕 中國 各 大都市 面臨 地層下陷 的 環境 危機   北京 大學 城市 與 環境 學院 生態 研究 中心 研究 員 陶勝利 團隊   華南師 範大學 北斗 研究院 敖祖銳 團隊 等 人   共同 在 頂 尖 期刊   科學   發表論 文   指稱 2120 年 中國 沿海 城市 恐有 26 ％ 土地 會 低 於 海平面   北京 是 全中國 下沉 速度 最快 的 都市 之一     據   紐約 時報   報導   中國 16 ％ 的 大城市 每年 海拔高度 下降 超過 10 公 釐   近一半 城市 每年 海拔高度 下降 超過 3 公 釐   這些 數字 看 起來 不大   但 日積 月 累 之下 不能 忽視     這些 城市 的 地層下陷 有 一部分 是 由 於 建物 和 基礎 設施 的 重量 造成 的   超 抽 地下水   開採 石油 和 煤礦 也 是 原因 之一   上述 影響 到 環境 的 行為   可能 會 造成 土壤 和 岩石 的 擠 壓 和 坍塌     研究 人員 透過 雷達圖 像   測量 中國 82 個 主要 都市 2015 至 2022 年間 地表 升降 狀況   並和當 地 建物 重量   地下水位 進行 比 較   結果 發現 中國 沿海 城市 目前 約 有 6 ％ 土地 相對 海拔 低于 海平面   假如 2120 年 全球 平均 海平面 上升 0.87 公尺   則 可能 會 上升 到 26 ％     其中   北京 是 全中國 下陷 速度 最快 的 城市 之一   鄰近 的 天津 也 有 同樣 危機   天津 去年 數條 道路 突然 發 生地 裂狀況   導致 數千 居民 從 公寓 撤離   中國 都市 下陷 狀況 是 不均 勻 的   亦 即 不同 區域 以 不同 的 速度 下沉   使得 土地 上 的 建物 面臨 受損 風險     都市 土地 低 於 海平面 並不 代表 滅亡   荷蘭 大部分 地區 都 在 海平面 以下 並持續 下陷   但 荷蘭展 開 了 大量 的 蓄洪 工程 防止 洪災   中國 研究 人員 認為   降低 下陷 速度 的 關鍵 是 限制 地下水 抽取   上海 實施 地下水 管理 後 下沉 速度 比中國 其他 城市 更慢   日本 東京 和 大阪 多年 來 的 地下水 規劃 已 能夠 穩定 地表 沉降 狀況     不過   審查 該 篇 論文 的 英國東 英吉利 大學 氣候 科學家 和 土木工程 專家 尼科 爾斯   Robert   Nicholls   透露   地層下陷 是 中國 全國性 的 問題   很難 完全 阻止   中國 沿海 地區 必須 適應 海平面 上升   地表 下沉 的 狀況     同樣 參與 審查 論文 的 美國維吉尼亞 理工大 學 地球物理 學家 希爾扎 伊   Manoochehr   Shirzaei     曾 以類 似的 方法 研究 了 美國 沿海 都市 的 下沉   他 直指 地層下陷 幾乎 在 任何 地方 都 存在   卻 一直 遭到 忽視     希爾扎 伊說   目前 大多 數應 對 氣候 變化   指 海平面 上升   的 策略 都 是 不 準確 的   因為 這些 都 沒 有 考慮 到 地層下陷 狀況   這個 課題 從 未 像 海平面 上升 一樣 得到 廣泛 研究  </t>
+          <t xml:space="preserve">[ 周刊 王 CTWANT ]   屏東 縣 的 東港   林邊   佳冬   枋寮 等 4 鄉鎮   因 沿海 土地 嚴重 地層下陷   多數 土地 鹽化 又 易 淹水 不利 耕作   不利 耕作   造成 農業 欠收 或 土地 荒廢   力 暘 公司 優先 選擇 佳冬 鄉進 駐 種電   協助 地方 政府 推動 嚴重 地層下陷 區域 太陽光 電發 電業 的 政策   宣示 要 把 屏東 打造 為 綠能 王國     力 暘 以光 電技術 專業 著稱   整合 旗下 4 公司 建置 99MW   百萬瓦   太陽能 光電場   以 佳冬 鄉作 為 領先 模範 案例   從 2020 年 起   預計 3 年 內 累計 建置 完成 300MW 的 太陽能 光電場   將 打造 屏東 縣為 全台 第一 的 綠能 王國     時任 屏東 縣長 潘孟安 2020 年 6 月 出席 配合 廠商力 暘 太陽能 光電場 動土 典禮   盛 讚 力 暘 能 夠 以 民 間 企 業 力量   鍥而 不 捨 與 地主 溝通   取得 超過 1000 名 地主 認同   用心 令人 敬佩     雖然 得到 地方 政府 肯定   黃 志文 卻 坦言 「 挑戰 很大   」   因為 發展 太陽能 的 最大 挑戰   就是 取得 地主 信任   所以 力 暘 能源 積極 與 地主 溝通   以 每甲 土地 年租金 40 萬 承租   簽約 20 年   為 農民 地主 增加 經濟 收益   而 2 年 來 的 努力   有 超過 1000 位 的 地主   總計 250 多甲 的 土地 出租 給力 暘     他 說   此次 推動 99MW 太陽能 光電場   除攜手 策略 合作 夥伴 中租迪 和 投入 合作 地面 型 電場 外   也 獲 科技 大廠 士林 電機   友達 與 富士康 等 協力 廠商 共同 合作   預定 2021 年 6 月底 全數 完工   每年 將為 屏東 創造 約 1.35 億度 發電 總量   他 強調   力 暘 將以 佳冬 鄉作 為 領先 模範 案例   預計 3 年 內 累計 建置 完成 300MW 的 太陽能 光電場   將 打造 屏東 縣為 全台 第一 的 綠能 王國  </t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 顏宏駿 ／ 彰化 報導 〕 彰化 縣 沒 有 水庫   多年 以來 不 缺水   民生 用水   的 原因 係 倚賴 全縣 200 多口 地下水 井   但 已 造成 地層下陷 問題   惟鳥 嘴潭 人工湖 淨水廠 完工 後 將可 改變 現今 抽 地下水 的 窘境   目前 台一線 南 彰化 段 正 進行 大型 管路 埋設 工程   2026 年 完工 後   這條 管路 成為 彰化 縣 的 給水大動脈   透過 管路 連結   達到 鳥 嘴潭 人工湖   湖山 水庫   鯉魚 潭 水庫 的 水源 靈活 調度 的 目的     台水 公司 指出   目前 鳥 嘴潭淨 水廠 工程 進行 中   埋管 工程 多線 展開   直徑 1.2 公尺 的 幹管 埋設 工程   為 避免 影響 交通   採 分段 施工   預計 2026 年 全部 完工   最後可達 到 北水南 送   南 水北 送   靈活 供水 目標     台水 公司 表示   目前 彰化 縣 每日 用水量 約 為 40 萬公噸   地面水 部分   彰化市 與 和 美   花壇 部分 地區 每日 用水量 約 為 8 萬公噸   主要 靠 台中 支援   鯉魚 潭 水庫     南 彰化 的 北斗   二林 與 溪湖 一帶   則由 雲林   湖山 水庫   每日 支援 約 5 萬公噸   烏嘴潭淨 水廠 完工 送水 後   彰化 縣 每年 可減 抽 6100 萬噸 的 地下水   解決 農民 枯水期 經常 抽 不到 地下水 窘境     台水 公司 說   未來 鳥 嘴潭淨 水廠 每天 可供 應 彰化 地區 21 萬噸 的 水量   加上 現有 每日 來 自 雲林 湖山 水庫 5 萬公噸   而 透過 台 一線 埋設 的 幹管   南   北 水路 相通   增加 水資源 調度 彈性   在 上游 採 一般 水庫 採高 水位 操作   依循 「 蓄豐濟 枯 」 邏輯   趁 豐水期 盡量 蓄滿   枯水期 才 有 水 可用   包含 中水 局轄區 內 鯉 魚潭   湖山 水庫   目前 處 於 枯水期 階段   卻 仍 持續 滿水 溢流   未來 也 能 應付 極端 氣候 或 突發 供水 危機     台水 公司 第十一 處長 曾 盛一說   水資源 運用 已 不 像 過去   單一 水庫 供水 區 固定   在 水利 署力 拚 打造 西部 廊道 供水管 網   強化 區域 調度 的 同時   鳥 嘴潭 雖 不是 直接 參與 管網   但 透過 減少 中部 水庫 支援 彰化 水量   「 其實 也 有 達 到 調度 功能 」  </t>
+          <t xml:space="preserve">台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 內 的 墩 柱 差異 沉陷 量 呈 逐年 降低 的 趨勢     監測 報告 顯示   2023 年 的 高鐵 彰化   雲林 共 8 處 路段 的 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林 縣土 庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 的 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 的 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 在 容許 範圍 內   連續 梁為 1 / 1500   簡支梁 1 / 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 的 累積角 變量 有 逾容 許範圍 的 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 及 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 的 橋墩   反而 是 位 在 沉陷 改善 的 嘉義 路段   位 在 朴子溪 河 中   目前 簡支 梁累積 的 角 變量 達 1.96 / 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 / 1000   雖 仍 在 容 許值 範圍   但 已 從 2020 年 起 逐年 增加  </t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   根據 美國 科學促 進會   AAAS   出版 的 期刊   科學     Science   於 18 日 發表 的 論文 顯示   中國 近一半 主要 城市 面臨 「 中度 至 重度 」 的 地層下陷 問題   45% 的 城市 每年 下陷 超過 3 毫米   16% 的 城市 每年 快速 下陷 逾 10 毫米   並 造成 每年 75 億元 人民 幣   約合 新 台幣 337 億元   的 經濟 損失   預計 未來 1 世紀 內   中國 沿海 城市 可能 有 1 / 10 的 居民 將 生活 在 海平面 以下     下陷 主因 則 包括 地下水位 下降   以及 建築 環境 對 地下 土壤 帶來 的 沉重 壓力 等   尤其 都市化 進程 更是 加速 了 地下水 資源 過度 開採   以及 大量 建築物 的 重壓   受影響 的 城市 包括 北京   天津   合肥 和 西安 等   由 於 中國 城市 人口 已 超過 9 億人   因此 「 即使 只有 一小部分 的 土地 下陷   都 有 可能 對 城市 生活 構成 重大 威脅 」   涉及 居民 安全   基礎 建設   交通 運作 及 生態 環境 等 多個 層面     研究 估算   地層下陷 已使 中國年 經濟 損失 超過 75 億元 人民 幣   凸顯 了 問題 的 嚴峻 與 急迫   例如 擁有 1500 萬 人口 的 天津   近幾年 都 是 水患 受災 嚴重 的 地區 之一   未來   隨著 全球 暖化 造成 的 海平面 上升   以及 地層下陷 持續   預計 下個 世紀   中國將 有 近 1 / 4 的 沿海 土地 低 於 海平面   洪水 風險 劇增     除 沿海 城市   中國舊 煤區 亦 因 過度 開 採出 現類 似狀況   地下 礦產開 採導致 土地 結構 變化   引發 地層下陷   地方 政府 常採 取向 礦井 注漿 加固 等 臨時 措施   但 無法 從 根源 解決 問題     英國東 英吉利 大學   University   of   East   Anglia   氣候 變遷 研究 中心 主任 尼可斯 指出   地層下陷 不僅 是 中國 的 全國性 問題   也 是 全球 的 重大 危機   今年 2 月 的 研究 顯示   全世界 約 有 630 萬 平方公里 的 土地 有 下陷 風險   尤其 印尼 更是如此   其 首都 雅加 達   Jakarta   大部分 區域 目前 已低 於 海平面   加劇 洪水 風險 並嚴 重威脅 居民 生活 與 生態 環境  </t>
+          <t xml:space="preserve">基泰 建設位 在 台北市 大直 的 新建 案 在 去   2023   年 9 月 7 日 晚間 突然 發生 崩塌   導致 附近 5 樓 民宅 下陷 成 4 樓   台北 地檢署 偵查 終結   將 工地 邱姓 負責人   基泰 公司 工程部 人員 張姓 工地 主任   王姓 及 劉姓 建築師   姜姓 專案 人員 等 5 人   依涉 犯 違背 建築術 成規   偽造 文書 等 罪 起訴   檢方 查出   大直 基泰 建案 坍塌 後   所幸 住戶 及 時 撤離   無人 傷亡   檢方 發現 建案 商未 依圖 施工   應該 60 公分 厚 的 連續 壁   只施作 50 公分   此外   建商 為 了 趕工   改變 施工 順序   竟 調整 監測 異常數 據   導致 工安 意外   至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結  </t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   屏東 縣 的 東港   林邊   佳冬   枋寮 等 4 鄉鎮   因 沿海 土地 嚴重 地層下陷   多數 土地 鹽化 又 易 淹水 不利 耕作   不利 耕作   造成 農業 欠收 或 土地 荒廢   力 暘 公司 優先 選擇 佳冬 鄉進 駐 種電   協助 地方 政府 推動 嚴重 地層下陷 區域 太陽光 電發 電業 的 政策   宣示 要 把 屏東 打造 為 綠能 王國     力 暘 以光 電技術 專業 著稱   整合 旗下 4 公司 建置 99MW   百萬瓦   太陽能 光電場   以 佳冬 鄉作 為 領先 模範 案例   從 2020 年 起   預計 3 年 內 累計 建置 完成 300MW 的 太陽能 光電場   將 打造 屏東 縣為 全台 第一 的 綠能 王國     時任 屏東 縣長 潘孟安 2020 年 6 月 出席 配合 廠商力 暘 太陽能 光電場 動土 典禮   盛 讚 力 暘 能 夠 以 民 間 企 業 力量   鍥而 不 捨 與 地主 溝通   取得 超過 1000 名 地主 認同   用心 令人 敬佩     雖然 得到 地方 政府 肯定   黃 志文 卻 坦言 「 挑戰 很大   」   因為 發展 太陽能 的 最大 挑戰   就是 取得 地主 信任   所以 力 暘 能源 積極 與 地主 溝通   以 每甲 土地 年租金 40 萬 承租   簽約 20 年   為 農民 地主 增加 經濟 收益   而 2 年 來 的 努力   有 超過 1000 位 的 地主   總計 250 多甲 的 土地 出租 給力 暘     他 說   此次 推動 99MW 太陽能 光電場   除攜手 策略 合作 夥伴 中租迪 和 投入 合作 地面 型 電場 外   也 獲 科技 大廠 士林 電機   友達 與 富士康 等 協力 廠商 共同 合作   預定 2021 年 6 月底 全數 完工   每年 將為 屏東 創造 約 1.35 億度 發電 總量   他 強調   力 暘 將以 佳冬 鄉作 為 領先 模範 案例   預計 3 年 內 累計 建置 完成 300MW 的 太陽能 光電場   將 打造 屏東 縣為 全台 第一 的 綠能 王國  </t>
+          <t xml:space="preserve">  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 的 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 的 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 在 容許 範圍 內   結構 安全 無虞     高鐵路線 通過 彰化   雲林 及 嘉義 主要 地層下陷 區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 內 的 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 的 下陷 量 從 2.6 公分   彰化 縣 溪州 鄉   到 5.4 公分   雲林 縣土 庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 的 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 的 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 在 容許 範圍 內   連續 梁為 1 / 1500   簡支梁 1 / 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 有 逾容 許範圍 的 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 及 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 的 橋墩   反而 是 在 沉陷 改善 的 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 / 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 / 1000   雖 仍 在 容 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 的 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 的 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 在 容許 範圍 內   結構 安全 無虞     高鐵路線 通過 彰化   雲林 及 嘉義 主要 地層下陷 區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 內 的 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 的 下陷 量 從 2.6 公分   彰化 縣 溪州 鄉   到 5.4 公分   雲林 縣土 庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 的 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 的 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 在 容許 範圍 內   連續 梁為 1 / 1500   簡支梁 1 / 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 有 逾容 許範圍 的 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 及 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 的 橋墩   反而 是 在 沉陷 改善 的 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 / 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 / 1000   雖 仍 在 容 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429</t>
+          <t xml:space="preserve">〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 去年 高鐵 沿線 雲林 路段 不僅 持續 下陷 5.4 公分   且 累積 下陷 量 已 達 114.2 公分   全國 下陷 最 嚴重   雲林 縣 政府 表示   沿途 現有 的 12 萬 6 千口 的 灌溉 水井   政府 只能 加以 管制 不能 禁止 其繼續 抽水   地下水 入不敷出   自然 持續 下陷     高鐵 公司 從 2003 年 起委 託 學術 單位   每年 針對 高鐵 沿線 結構 墩 柱 地層下陷 進行 監測   去年 高鐵 沿線 持續 下陷 的 路段 包 彰化 及 雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   最大 累積 下陷 量 已 達 到 114.2 公分   地點 是 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   不過   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 在 容許 範圍 內   高鐵 結構 安全 無虞     雲林 縣 政府 水利 處處長 許 宏博 表示   雖然 相關 單位 持續 針對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 的 水井 擁有 合法 水權   數量 多 達 12 萬 6 千口   政府 不能 禁止 抽水   農民 灌溉 持續 抽水   地下水 補充 不及   當然會 持續 下陷     許 宏博 表示   縣府 也 積極 輔導 高鐵 沿線 種植 水稻 的 農民 轉作 大豆 及 玉米 等 作物   還是 遇到 一些 瓶頸   由 於 雲林 農村 人力 嚴重 老化   許多 水田 都 是 代耕   老農 根本 無力 自行 耕種   但 旱田 卻 沒 有 代耕 行業   即使 水田 的 利潤 低   農民 也 無力 轉作  </t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 內 的 墩 柱 差異 沉陷 量 呈 逐年 降低 的 趨勢     監測 報告 顯示   2023 年 的 高鐵 彰化   雲林 共 8 處 路段 的 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林 縣土 庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 的 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 的 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 在 容許 範圍 內   連續 梁為 1 / 1500   簡支梁 1 / 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 的 累積角 變量 有 逾容 許範圍 的 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 及 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 的 橋墩   反而 是 位 在 沉陷 改善 的 嘉義 路段   位 在 朴子溪 河 中   目前 簡支 梁累積 的 角 變量 達 1.96 / 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 / 1000   雖 仍 在 容 許值 範圍   但 已 從 2020 年 起 逐年 增加  </t>
+          <t xml:space="preserve">去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇瓶 頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林 縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 的 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 的 瓶 頸 仍 待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 及 嘉義 等 地層下陷 區   高鐵 公司 從 二 ○ ○ 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 的 路段 包 彰化 及 雲林 共八處   最 值得 關注 的 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 及 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 在 雲林 縣土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 在 容許 範圍 內   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 的 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 的 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 的 水田 轉作 旱田   一年 可望 省下 八千 噸 的 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 的 農民 轉作 大豆 及 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 的 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 有 代耕 業者   即使 水田 的 利潤 低   農民 也 無力 轉作   類 似的 瓶 頸 仍 有待 中央 統籌 解決  </t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設位 在 台北市 大直 的 新建 案 在 去   2023   年 9 月 7 日 晚間 突然 發生 崩塌   導致 附近 5 樓 民宅 下陷 成 4 樓   台北 地檢署 偵查 終結   將 工地 邱姓 負責人   基泰 公司 工程部 人員 張姓 工地 主任   王姓 及 劉姓 建築師   姜姓 專案 人員 等 5 人   依涉 犯 違背 建築術 成規   偽造 文書 等 罪 起訴   檢方 查出   大直 基泰 建案 坍塌 後   所幸 住戶 及 時 撤離   無人 傷亡   檢方 發現 建案 商未 依圖 施工   應該 60 公分 厚 的 連續 壁   只施作 50 公分   此外   建商 為 了 趕工   改變 施工 順序   竟 調整 監測 異常數 據   導致 工安 意外   至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結  </t>
+          <t xml:space="preserve">去年 高鐵 沿線 持續 下陷   路段 包括 彰化   雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   雲林 縣土庫 台 78 線 與 高鐵 交界 處   累積 下陷 量 達 到 114.2 公分   是 全國 下陷 最 嚴重 的 地方     鐵道局 土木 建築組 副 組長 謝炎廷 回應   「 這 路段 經由 高鐵 公司 施作 橋梁 預防性 的 改善 措施   以及 公路局 移除 台 78 號的 高 路堤 荷載   改以 鋼橋 行駛 型式 取代 之 後   經過 我們 長 期 追 蹤   沉陷 量 已 趨 於 穩定   」   雲縣 府 水利 處 表示   雖然 相關 單位 有針 對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 的 合法 水井 高達 12 萬 6 千口   政府 不能 禁止 抽水 只能 管理   加上 輔導 農民轉 旱作 也 出現 難題     雲縣 府 水利 處 技正 林昆賢 指出   「 水稻田 原則 上 來講   幾乎 百分之百 是 都 可以 機械 耕作   所以 它 在 人力 上 是 最 沒 有 問題 的   那 我們 要轉 旱作 的 時候   因為 各種 旱作 目前 來講   機械 跟 機械 耕作 的 比例   都 跟 水田 比起 來 都 有 很大 落差   」   水利 處 表示   要 輔導 高鐵 沿線 農民轉 旱作   除了 碰上 人力不足 問題   還 存在 產銷 失衡 情況   因農民若 旱作 只能 透過 契作   沒有 保價 機制   多少 降低 農民 轉作 意願   這些 問題還 有待 中央 統籌 解決  </t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 去年 高鐵 沿線 雲林 路段 不僅 持續 下陷 5.4 公分   且 累積 下陷 量 已 達 114.2 公分   全國 下陷 最 嚴重   雲林 縣 政府 表示   沿途 現有 的 12 萬 6 千口 的 灌溉 水井   政府 只能 加以 管制 不能 禁止 其繼續 抽水   地下水 入不敷出   自然 持續 下陷     高鐵 公司 從 2003 年 起委 託 學術 單位   每年 針對 高鐵 沿線 結構 墩 柱 地層下陷 進行 監測   去年 高鐵 沿線 持續 下陷 的 路段 包 彰化 及 雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   最大 累積 下陷 量 已 達 到 114.2 公分   地點 是 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   不過   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 在 容許 範圍 內   高鐵 結構 安全 無虞     雲林 縣 政府 水利 處處長 許 宏博 表示   雖然 相關 單位 持續 針對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 的 水井 擁有 合法 水權   數量 多 達 12 萬 6 千口   政府 不能 禁止 抽水   農民 灌溉 持續 抽水   地下水 補充 不及   當然會 持續 下陷     許 宏博 表示   縣府 也 積極 輔導 高鐵 沿線 種植 水稻 的 農民 轉作 大豆 及 玉米 等 作物   還是 遇到 一些 瓶頸   由 於 雲林 農村 人力 嚴重 老化   許多 水田 都 是 代耕   老農 根本 無力 自行 耕種   但 旱田 卻 沒 有 代耕 行業   即使 水田 的 利潤 低   農民 也 無力 轉作  </t>
+          <t>行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察 「 草屯 淨水場 新建 工程 」   陳 建仁 提到   為 減緩 地層下陷   水利 署 推動 「 烏溪 鳥 嘴潭 人工湖 工程 計畫 」   以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 及 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 的 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 在 今年 3 月 27 日達 到 最大 設計 的 出水 功能   通過 每日 5 萬噸 的 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能 體現 出台 灣 人民 不分 地區 互助 互惠 的 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 的 工作 量大增   也 承擔 很多 的 任務 與 責任   此外 台水 是 公司   接受 政府 的 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出   「 鳥 嘴潭 人工湖 工程 計畫 」 完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 及 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   及 85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 在 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇瓶 頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林 縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 的 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 的 瓶 頸 仍 待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 及 嘉義 等 地層下陷 區   高鐵 公司 從 二 ○ ○ 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 的 路段 包 彰化 及 雲林 共八處   最 值得 關注 的 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 及 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 在 雲林 縣土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 在 容許 範圍 內   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 的 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 的 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 的 水田 轉作 旱田   一年 可望 省下 八千 噸 的 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 的 農民 轉作 大豆 及 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 的 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 有 代耕 業者   即使 水田 的 利潤 低   農民 也 無力 轉作   類 似的 瓶 頸 仍 有待 中央 統籌 解決  </t>
+          <t xml:space="preserve">因應 極端 氣候   水利 署 投入 123.6 億元展 開 「 鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫 」   包括 6 座 人工 蓄水池 及 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 也 能 同享 量 好質 優 的 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 的 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定 「 雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫 」 中 的 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 的 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   的 能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 的 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投 縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投 縣 的 自來 水 普及率 及 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投 縣內 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投 縣 用水 問題  </t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">去年 高鐵 沿線 持續 下陷   路段 包括 彰化   雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   雲林 縣土庫 台 78 線 與 高鐵 交界 處   累積 下陷 量 達 到 114.2 公分   是 全國 下陷 最 嚴重 的 地方     鐵道局 土木 建築組 副 組長 謝炎廷 回應   「 這 路段 經由 高鐵 公司 施作 橋梁 預防性 的 改善 措施   以及 公路局 移除 台 78 號的 高 路堤 荷載   改以 鋼橋 行駛 型式 取代 之 後   經過 我們 長 期 追 蹤   沉陷 量 已 趨 於 穩定   」   雲縣 府 水利 處 表示   雖然 相關 單位 有針 對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 的 合法 水井 高達 12 萬 6 千口   政府 不能 禁止 抽水 只能 管理   加上 輔導 農民轉 旱作 也 出現 難題     雲縣 府 水利 處 技正 林昆賢 指出   「 水稻田 原則 上 來講   幾乎 百分之百 是 都 可以 機械 耕作   所以 它 在 人力 上 是 最 沒 有 問題 的   那 我們 要轉 旱作 的 時候   因為 各種 旱作 目前 來講   機械 跟 機械 耕作 的 比例   都 跟 水田 比起 來 都 有 很大 落差   」   水利 處 表示   要 輔導 高鐵 沿線 農民轉 旱作   除了 碰上 人力不足 問題   還 存在 產銷 失衡 情況   因農民若 旱作 只能 透過 契作   沒有 保價 機制   多少 降低 農民 轉作 意願   這些 問題還 有待 中央 統籌 解決  </t>
+          <t xml:space="preserve">烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 的 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 和 產業 發展區   整體 需水量 不斷 增加   也 造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 和 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投 縣有 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投 縣民 配合 政府 政策   但 南投 縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投 縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 也 能 喝 到 量 好質 優 的 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒 「 珍珠 串 」   讓 台灣 水資源 調度 更好   也 顯示 台灣 人民 的 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   也 會 持續 綠 美化   變成 南投 新 的 觀光 地標     立委 游顥 說   南投 縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 和 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 和 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 在 立法院 繼續 爭取   也 希望 行政院 重視 南投 用水 的 問題  </t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察 「 草屯 淨水場 新建 工程 」   陳 建仁 提到   為 減緩 地層下陷   水利 署 推動 「 烏溪 鳥 嘴潭 人工湖 工程 計畫 」   以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 及 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 的 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 在 今年 3 月 27 日達 到 最大 設計 的 出水 功能   通過 每日 5 萬噸 的 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能 體現 出台 灣 人民 不分 地區 互助 互惠 的 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 的 工作 量大增   也 承擔 很多 的 任務 與 責任   此外 台水 是 公司   接受 政府 的 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出   「 鳥 嘴潭 人工湖 工程 計畫 」 完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 及 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   及 85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 在 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
+          <t xml:space="preserve">高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 公寓   10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋   建商 本來 願意 賠償 2 百多 萬元 修繕   但給 了 錢 後   屋主 指控 建商 拿到 使用 執照 開始 反悔   還告 10 戶 屋主 不當 得利   其中 被告 的 還有 13 歲 的 少年   但 建商 說 大樓 地下室 開挖 已經 超過 三年   經過 土木 技師 公會 鑑定 沒有 損鄰   將訴諸 法律 拿 回不應 該給 的 賠償 金     寶特瓶 放在 地上   馬 上 滾 到 另 一邊   屋主 楊力 欽   「 這邊 是 整個 傾斜 的   因為 有 鑑定 報告 有 寫 說   它 的 高低 層 的 落差   」   屋主 指控   是 打 開後門 緊鄰 的 這棟 新蓋 大樓 害 的   屋主 楊力 欽   「 它 還是 有 漏水   止住 可是 好像 過幾個 月過 後   又 開始 有 水 跑 出來   」   新大樓 蓋 在 老舊 房子 中間   後 方 的 這一棟 舊型 的 公寓 總共 10 戶   施工 時 造成 鄰房 損壞   損壞 的 民宅 屋主 指控   建商 說 好 要給 總共 2 百多 萬 做 為 鄰 損修 復 費用   但是 建商 拿到 使用 執照後馬 上 反悔   還告 10 戶 住家 不當 得利     屋主 楊力 欽   「 既然 你 不承認 的 話   為 什麼 當初 你 不 直接 訴諸 法律   透過 法律 去 看 說   這個 合約 書無效   這個 鑑定 無效   而是 在 你 使用 執照 之 後   告 我們 12 位 所有 權人   最小 13 歲 年 長 者 71 歲   」   因為 有 地下水 修繕   和 地 下陷 問題 得 先 補救   2 百多 萬 的 修繕 費先 撥給 其中 一戶   現在 10 戶 屋主 全 被告 不當 得利   氣炸開 記者 會     不過 建商 說 大樓 地下室 開挖 至今   已經 超過 3 年   經過 土木 技師 公會 鑑定 沒有 損鄰   堅持 要求 拿 回 2 百多 萬修繕 賠償 金   因為 蓋大樓 建商 和 附近 住戶 互槓   雙方 都 指控 對方 不公   還有 得 吵  </t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">因應 極端 氣候   水利 署 投入 123.6 億元展 開 「 鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫 」   包括 6 座 人工 蓄水池 及 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 也 能 同享 量 好質 優 的 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 的 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定 「 雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫 」 中 的 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 的 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   的 能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 的 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投 縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投 縣 的 自來 水 普及率 及 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投 縣內 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投 縣 用水 問題  </t>
+          <t xml:space="preserve">住戶 拿 寶特瓶 平放   立即 滾去 較 低 的 地方   證明 地面 傾斜   牆上 也 有明 顯裂 縫   多次 修補 依然 出現     住戶 指控 自從 2019 年 11 月 開始   旁邊 大樓 興建 就 發現 他們 的 公寓 牆面 漏水   龜裂 還有 地層下陷   後 續 與 開遠 建設 協調   同意 透過 台中市 土木 技師 公會 鑑定     但 住戶 指控   公會 4 次 鑑定 確認 鄰損   建商 也 依法 賠償 修繕 費及 法定 的 4 成 加成 費用 224 萬   近日 卻 反 被 建商 提告 不當 得利     鄰損 住戶 代表 楊 先生 質疑   「 既然 你 不承認 的 話   為 什麼 當初 你 不 直接 訴諸 法律   由 法律 來 去 判說 這個 合意 書無效   這個 鑑定 無效   而是 在 你 取得 使用 執照 之 後   你 反告 我 這 12 位 房屋 所有 權人   」   住戶 代表 楊 先生 說   此案 因為 建商 被 市府 列管   建商 解除 列管 拿到 建照 後 就 不 認帳   反告 他們 不當 得利   使得 鄰近 10 戶   12 名 房屋 所有 權人 都 被告   也 不能 接受 當初 協調 找 公正 單位 鑑定   建商 卻 不認   還找 來 不是 雙方 都 同意 的 單位 檢驗     民進 黨 高雄市 議員 鄭光峰 說 道   「 創 下台 灣建 商史 上 第一 個   有 跟 人家 鄰損 之後又告 人家 的   」   對此 建商 不 受訪   只 透過 文字 聲明 表示   建案 地下室 開挖 3 年 多   不會 因地質 的 問題 損害 鄰房   而且 經過 台灣省 土木 技師 公會 鑑定 沒 鄰損 的 事情   鄰房 很多 是 屋齡 要 40 年 的 老 公寓   也 違法 增建 防火巷   卻 仍然 企圖 向 本 公司 要求 高額 賠償   本案 進入 司法   等待 判決   也 強調 有 損害 公司 名譽   會 依法 捍衛 權益  </t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 的 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 和 產業 發展區   整體 需水量 不斷 增加   也 造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 和 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投 縣有 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投 縣民 配合 政府 政策   但 南投 縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投 縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 也 能 喝 到 量 好質 優 的 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒 「 珍珠 串 」   讓 台灣 水資源 調度 更好   也 顯示 台灣 人民 的 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   也 會 持續 綠 美化   變成 南投 新 的 觀光 地標     立委 游顥 說   南投 縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 和 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 和 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 在 立法院 繼續 爭取   也 希望 行政院 重視 南投 用水 的 問題  </t>
+          <t xml:space="preserve">根據 環境部   國科會 發布 全球 暖化 若 未來 無法 有效 控制 增溫   台灣 夏天 可能 長 達 7 個 月   海平面 上升 會 造成 海岸 溢淹 面積 增加   其中 以 雲林 溢淹 面積 增加 最顯 著   對 此雲縣 府 水利 處 表示   除了 暖化 影響   地層下陷 也 是 影響 主因   目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫   雲林 縣 最大 箔子 寮 漁港   去   2023   年 8 月 發生 嚴重 海水倒灌   整座 漁港 幾乎 都 被淹 沒   甚至 危及 近鄰 村落   根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重   雲林 縣 水利 處長 許 宏博 提及   「 以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 的 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林 縣 必須 去 克服   」 雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林 縣面 對 最大 危機 是 地層下陷   1 年 在 內陸 地區 有 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 也 提出 因應   許 宏博 說明   「 較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 內 陸裡面   都 擋 在 防潮 牆 之外   」 水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會 勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 公寓   10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋   建商 本來 願意 賠償 2 百多 萬元 修繕   但給 了 錢 後   屋主 指控 建商 拿到 使用 執照 開始 反悔   還告 10 戶 屋主 不當 得利   其中 被告 的 還有 13 歲 的 少年   但 建商 說 大樓 地下室 開挖 已經 超過 三年   經過 土木 技師 公會 鑑定 沒有 損鄰   將訴諸 法律 拿 回不應 該給 的 賠償 金     寶特瓶 放在 地上   馬 上 滾 到 另 一邊   屋主 楊力 欽   「 這邊 是 整個 傾斜 的   因為 有 鑑定 報告 有 寫 說   它 的 高低 層 的 落差   」   屋主 指控   是 打 開後門 緊鄰 的 這棟 新蓋 大樓 害 的   屋主 楊力 欽   「 它 還是 有 漏水   止住 可是 好像 過幾個 月過 後   又 開始 有 水 跑 出來   」   新大樓 蓋 在 老舊 房子 中間   後 方 的 這一棟 舊型 的 公寓 總共 10 戶   施工 時 造成 鄰房 損壞   損壞 的 民宅 屋主 指控   建商 說 好 要給 總共 2 百多 萬 做 為 鄰 損修 復 費用   但是 建商 拿到 使用 執照後馬 上 反悔   還告 10 戶 住家 不當 得利     屋主 楊力 欽   「 既然 你 不承認 的 話   為 什麼 當初 你 不 直接 訴諸 法律   透過 法律 去 看 說   這個 合約 書無效   這個 鑑定 無效   而是 在 你 使用 執照 之 後   告 我們 12 位 所有 權人   最小 13 歲 年 長 者 71 歲   」   因為 有 地下水 修繕   和 地 下陷 問題 得 先 補救   2 百多 萬 的 修繕 費先 撥給 其中 一戶   現在 10 戶 屋主 全 被告 不當 得利   氣炸開 記者 會     不過 建商 說 大樓 地下室 開挖 至今   已經 超過 3 年   經過 土木 技師 公會 鑑定 沒有 損鄰   堅持 要求 拿 回 2 百多 萬修繕 賠償 金   因為 蓋大樓 建商 和 附近 住戶 互槓   雙方 都 指控 對方 不公   還有 得 吵  </t>
+          <t xml:space="preserve">根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重     雲林 縣 水利 處長 許 宏博 提及   「 以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 的 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林 縣 必須 去 克服   」   雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林 縣面 對 最大 危機 是 地層下陷   1 年 在 內陸 地區 有 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 也 提出 因應     許 宏博 說明   「 較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 內 陸裡面   都 擋 在 防潮 牆 之外   」   水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會 勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">住戶 拿 寶特瓶 平放   立即 滾去 較 低 的 地方   證明 地面 傾斜   牆上 也 有明 顯裂 縫   多次 修補 依然 出現     住戶 指控 自從 2019 年 11 月 開始   旁邊 大樓 興建 就 發現 他們 的 公寓 牆面 漏水   龜裂 還有 地層下陷   後 續 與 開遠 建設 協調   同意 透過 台中市 土木 技師 公會 鑑定     但 住戶 指控   公會 4 次 鑑定 確認 鄰損   建商 也 依法 賠償 修繕 費及 法定 的 4 成 加成 費用 224 萬   近日 卻 反 被 建商 提告 不當 得利     鄰損 住戶 代表 楊 先生 質疑   「 既然 你 不承認 的 話   為 什麼 當初 你 不 直接 訴諸 法律   由 法律 來 去 判說 這個 合意 書無效   這個 鑑定 無效   而是 在 你 取得 使用 執照 之 後   你 反告 我 這 12 位 房屋 所有 權人   」   住戶 代表 楊 先生 說   此案 因為 建商 被 市府 列管   建商 解除 列管 拿到 建照 後 就 不 認帳   反告 他們 不當 得利   使得 鄰近 10 戶   12 名 房屋 所有 權人 都 被告   也 不能 接受 當初 協調 找 公正 單位 鑑定   建商 卻 不認   還找 來 不是 雙方 都 同意 的 單位 檢驗     民進 黨 高雄市 議員 鄭光峰 說 道   「 創 下台 灣建 商史 上 第一 個   有 跟 人家 鄰損 之後又告 人家 的   」   對此 建商 不 受訪   只 透過 文字 聲明 表示   建案 地下室 開挖 3 年 多   不會 因地質 的 問題 損害 鄰房   而且 經過 台灣省 土木 技師 公會 鑑定 沒 鄰損 的 事情   鄰房 很多 是 屋齡 要 40 年 的 老 公寓   也 違法 增建 防火巷   卻 仍然 企圖 向 本 公司 要求 高額 賠償   本案 進入 司法   等待 判決   也 強調 有 損害 公司 名譽   會 依法 捍衛 權益  </t>
+          <t xml:space="preserve">[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候 變遷 辦 公室 評估   曼谷 在 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為 「 海底 之 城 」   泰國 官方 為此 考慮 遷 都   不過 目前 仍處 於 假 設階段     根據 新加坡 的   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 在 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 的 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   有 專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢   「 全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 的 趨勢   曼谷 大概 會 被淹 沒 」   他 也 透露   關於 首都 曼谷 面臨 的 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 的 低 地國 荷蘭   藉由 興建 堤防 的 方式 來 防堵 海水倒灌   同時 當局 也 有將 「 遷 都 」 納入 計畫 之中     這並 非泰國 首次 提出 遷 都   前首相 帕拉 育 在位 時   也 曾 提出 同樣 的 建議   2019 年時   這位 前 總理 在 「 泰國 與 世界 相連大會 」   Connecting   Thailand   with   the   World   Conference   拋出 遷 都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 和 人口 過度 稠密 問題     針對 遷 都 議題   帕維奇 也 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 在 初期   假設 階段   除了 泰國 打算 遷 都   目前 東南亞 有 計劃 遷 都 的 國家 就 有 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 的 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   也 因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 及 地層下陷 等 危機   預計 在 今年 正式 「 遷 都 」 至婆羅洲島 的 東 加里曼丹 省   East   Kalimantan     新 首都 名為 「 努山 塔拉 」   Nusantara     在 印尼 語中 有 「 群島 」 之意   不過 高達 350 億 美元 的 遷 都 計畫 也 備受 爭議  </t>
         </is>
       </c>
     </row>

--- a/repo/word_fragments.xlsx
+++ b/repo/word_fragments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A175"/>
+  <dimension ref="A1:A186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,1218 +441,1295 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 和平 東路 三段 一處 工地 旁 道路   凌晨 驚傳 地層下陷   連上頭 停放 的 轎車   也 跟 著下 墜   卡 在 1.5 公尺 深 的 大洞 裡   還壓 迫到 自來 水管 線   導致 破裂 流出 大灘 積水   居民 聽到 巨響   趕緊 報案 處理   也 透露 昨   4   天 下午 路面 就 出 現裂 縫   當時 建管 處會 勘   把 原因 歸咎 於 地震   但 他們 無法 接受   質疑 是 工地 施工 導致   工地 圍牆 外 一大 塊 路面 下陷 坍塌   上頭 停放 的 轎車 也 跟 著 地層 向下 墜 受困   一旁 管線 流出 的 積水 也 逐漸 淹進 車頭   就 怕 轎車 泡水 拋錨   警方 請來 吊車 協助 車輛 脫困   但 一移 開 景象 更 驚人   道路 側邊 就 像 破 了 大洞   凹陷 1.5 公尺 坑洞   面積 也 有 30 平方公尺   4 日 下午 北市 和平 東路 三段 這處 工地 外 的 道路 開始 出現 裂縫   建管 處 與 工地 人員前 來 會 勘   歸咎 於 3 日地 牛 翻身   還貼 出 警示牌 提醒 民眾   沒 想到 5 日 凌晨 地層 整個 塌陷   不過 這 答案 附近 居民 無法 接受   有人 說 地震 前 就 已經 看到 裂縫   但剛 好 遇上 地震   相關 單位 就 把 責任 推給 地震   還有 住民 透露   這處 工程 在 打 地基 時   自己 在 家中 就 曾 感覺 到 震動   就 像 地震 一樣   質疑 根本 是 施工 問題 釀成 地層下陷   居民 的 滿腔 怒火 恐怕 是 建管 處 在 修補 道路 外   下個 得 要面 對 的 難題  </t>
+          <t xml:space="preserve">台北市 和平東路 三段 一處 工地 旁 道路   凌晨 驚傳 地層下陷   連上頭 停放 轎車   跟 著下 墜   卡 1.5 公尺 深 大洞 裡   還壓 迫到 自來 水管 線   導致 破裂 流出 大灘 積水   居民 聽到 巨響   趕緊 報案 處理   透露 昨   4   天 下午 路面 就 出 現裂 縫   當時 建管處 會勘   把 原因 歸咎 於 地震   但 他們 無法 接受   質疑 是 工地 施工 導致   工地 圍牆 外 一大 塊 路面 下陷 坍塌   上頭 停放 轎車 跟 著 地層 向下 墜 受困   一旁 管線 流出 積水 逐漸 淹進 車頭   就 怕 轎車 泡水 拋錨   警方 請來 吊車 協助 車輛 脫困   但 一移 開 景象 更 驚人   道路 側邊 就 像 破 了 大洞   凹陷 1.5 公尺 坑洞   面積 30 平方公尺   4 日 下午 北市 和平東路 三段 這處 工地 外 道路 開始 出現 裂縫   建管處 與 工地 人員前 來 會勘   歸咎 於 3 日 地牛翻身   還貼 出 警示牌 提醒 民眾   沒 想到 5 日 凌晨 地層 整個 塌陷   不過 這 答案 附近 居民 無法 接受   有人 說 地震 前 就 已經 看到 裂縫   但剛 好 遇上 地震   相關 單位 就 把 責任 推給 地震   還有 住民 透露   這處 工程 打 地基 時   自己 家中 就 曾 感覺 到 震動   就 像 地震 一樣   質疑 根本 是 施工 問題 釀成 地層下陷   居民 滿腔 怒火 恐怕 是 建管處 修補 道路 外   下個 得 要面 對 難題  </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 推 再生能源 政策   近期 位 在 雲林 口湖 雲 147 線 道路 兩 側 椬 梧 農 場   長 期 地層下陷   土壤 鹽化   經 台糖 辦理 土地 使用 分區 變 更   將設 置 太陽能 光電 設施   但當 地民眾 不滿 因為 開發 需要 大量 砍 樹種電   喊著 抗議 口號   反對 砍 樹種電   位 在 雲林 口湖 鄉 雲 147 線 道路 兩側 是 台糖公司 椬 梧 農 場   但 這區 土地 因為 長 期 地層下陷   土壤 鹽化 不適 耕作   過去 是 配合 林務局 造林   但 近期 將 配合 中央 政策 推動 種電   讓 當地民眾 相當 不滿   反對 宜梧 變電所 自救 會 副 會長 李豐良 指出   「 旁邊 有 北堤 有 65 公頃 造林 區   南堤 也 有 65 公頃 造林 區   竟然 租給 私人 公司   配合 台糖 租給 私人 公司   私人 公司 才 跟 台糖 說 要 蓋 太陽能   」 雲縣 府 建設 處 處長 李俊 興回 應   「 他們 都 有 報給 農委會   因為 這是 申請 農業 用地   變 更 做 太陽能 光電廠   他們 都 有 經過 農業 單位   能源 單位 專業 審查   最後的 通過 才 有 今天 這案場 開發   」 當地 村民 表示   這次 規劃 開發 太陽光 電設 施場域   鄰 近 椬 梧 滯 洪 池   未來 若 周邊 設滿 太陽能 光電板 恐對 觀光 發展 有 影響   另外 針對 台電所 規劃 宜梧 變電所設 用地   過去 曾 被 傾倒 廢棄物 也 有所 疑慮   反對 宜梧 變電所 自救 會 副 會長 李豐良 表示   「 以前 有 被 盜 賣 土方   就 堆放 一些 廢棄物   怕 有 工業 廢水   我們 現在 是 憂慮   如果 是 蓋 變電所 後   是不是 以 後 口湖   水林   北港 大部分 都 會 用 地下水 的   」 台電輸供 電事業 部經理 黃 育新 回應   「 配合 縣 政府 環保局 來 辦理後續 調查 跟 釐 清   那環 保局 有擇定 開 挖 時間 我們 就 會 來 配合 辦理   」 台電 表示   宜梧 變電所 規劃 用地   都 是 依據 政府 採購 法及 相關 規定 取得   若當 地民眾 有所 疑慮   都 會 配合 環保 單位 調查   也 會會同 地方 民眾 參 與   希望 未來 變電所 成立 後   搭配 儲能 設備 提高 當地 用電 穩定度  </t>
+          <t xml:space="preserve">為 推 再生能源 政策   近期 位 雲林 口湖 雲 147 線 道路 兩 側 椬 梧 農 場   長 期 地層下陷   土壤 鹽化   經 台糖 辦理 土地 使用 分區 變更   將設 置 太陽能 光電 設施   但當 地民眾 不滿 因為 開發 需要 大量 砍樹 種電   喊著 抗議 口號   反對 砍 樹 種電   位 雲林 口湖 鄉 雲 147 線 道路 兩側 是 台糖公司 椬 梧 農 場   但 這區 土地 因為 長 期 地層下陷   土壤 鹽化 不適 耕作   過去 是 配合 林務局 造林   但 近期 將 配合 中央 政策 推動 種電   讓 當地民眾 相當 不滿   反對 宜梧 變電所 自救 會 副 會長 李豐良 指出     旁邊 北堤 65 公頃 造林 區   南堤 65 公頃 造林 區   竟然 租給 私人 公司   配合 台糖 租給 私人 公司   私人 公司 才 跟 台糖 說 要 蓋 太陽能     雲縣 府 建設 處 處長 李俊 興回 應     他們 都 報給 農委會   因為 這是 申請 農業 用地   變更 做太陽能 光電廠   他們 都 經過 農業 單位   能源 單位 專業 審查   最後的 通過 才 今天 這案場 開發     當地 村民 表示   這次 規劃 開發 太陽光 電設 施場域   鄰 近 椬 梧 滯 洪 池   未來 若 周邊 設滿 太陽能 光電板 恐對 觀光 發展 影響   另外 針對 台電所 規劃 宜梧 變電所設 用地   過去 曾 被 傾倒 廢棄物 有所 疑慮   反對 宜梧 變電所 自救 會 副 會長 李豐良 表示     以前 被 盜 賣 土方   就 堆放 一些 廢棄物   怕 工業 廢水   我們 現在 是 憂慮   如果 是 蓋 變電所 後   是不是 以 後 口湖   水林   北港 大部分 都 會 用 地下水     台電輸供 電事業 部經理 黃 育新 回應     配合 縣 政府 環保局 來 辦理後續 調查 跟 釐 清   那環 保局 有擇定 開 挖 時間 我們 就 會 來 配合 辦理     台電 表示   宜梧 變電所 規劃 用地   都 是 依據 政府 採購 法及 相關 規定 取得   若當 地民眾 有所 疑慮   都 會 配合 環保 單位 調查   會會同 地方 民眾 參 與   希望 未來 變電所 成立 後   搭配 儲能 設備 提高 當地 用電 穩定度  </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">地球 南北 兩極 這兩天 都 有 重要 的 科學 發現 發表 在 媒體 上   其中 在 北極 方面   科學家 發現 在 加拿大 北邊 的 海底 出現 地層下陷   最大 的 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 在 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 的 南極 大陸 東邊   在 3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 有 144 平方公里 的 冰架 崩解   相當 於 半個 台北市 的 大小   科學家 藉 著美國 太空 總署 NASA 的 衛星   拍 攝到 南極 大陸 東邊 的 「 格連澤 冰河 」   瀕臨 南 印度洋 的 冰架   在 2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 在 過去數 十年 來   冰架 崩解 的 現象   絕 大多 數出現 在 西邊 的 南極 半島   也 就是 與 南美洲 阿根廷 遙遙 相望 的 所在   而且 過去 的 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 的 冰雪 增厚   對 全球 海平面 的 衝擊 有限   從 2020 年 開始 南極 東邊 的 冰河 開始 縮小面積   但 也 是 以 每天 1 平方公里 的 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 有 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 的 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出   「 但 上星期 我們 發現 快速 的 氣候 現象   這也許 不足以 說明 事情 的 全貌   但 的 確對 冰架 造成 前 所 未 見 的 壓力 」   研究 人員 所 說 的 氣候 現象   是 指 發生 在 3 月 15 日 的 大氣 河流   這種 氣候 現 象是 指   高濃度 的 水蒸 氣沿 著 狹窄 的 區域 快速 前進   對 於 已經 在 消退 中 的 冰架 造成 致命 一擊   而大面積 的 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 在 加拿大 北邊 的 北極 海域   發現 大面積 的 地層下陷   最大 的 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 的 地下水 緩慢 流動   也 是 北極海 地層下陷 的 原因  </t>
+          <t xml:space="preserve">地球 南北 兩極 這兩天 都 重要 科學 發現 發表 媒體 上   其中 北極 方面   科學家 發現 加拿大 北邊 海底 出現 地層下陷   最大 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 南極 大陸 東邊   3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 144 平方公里 冰架 崩解   相當 於 半個 台北市 大小   科學家 藉 著美國 太空 總署 NASA 衛星   拍 攝到 南極 大陸 東邊   格連澤 冰河     瀕臨 南 印度洋 冰架   2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 過去數 十年 來   冰架 崩解 現象   絕 大多 數出現 西邊 南極 半島   就是 與 南美洲 阿根廷 遙遙 相望 所在   而且 過去 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 冰雪 增厚   對 全球 海平面 衝擊 有限   從 2020 年 開始 南極 東邊 冰河 開始 縮小面積   但 是 以 每天 1 平方公里 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出     但 上星期 我們 發現 快速 氣候 現象   這也許 不足以 說明 事情 全貌   但 確對 冰架 造成 前 所 未 見 壓力     研究 人員 所 說 氣候 現象   是 指 發生 3 月 15 日 大氣 河流   這種 氣候 現 象是 指   高濃度 水蒸 氣沿 著 狹窄 區域 快速 前進   對 於 已經 消退 中 冰架 造成 致命 一擊   而大面積 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域   發現 大面積 地層下陷   最大 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 地下水 緩慢 流動   是 北極海 地層下陷 原因  </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">地層 嚴重 下陷 的 問題 不是 只有 台灣會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 有 33 座 城市   以 每年 超過 一 公分 的 速度 下沉   是 海平面 上升 速度 的 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 的 是   連美國 南部 大城 休士頓 也 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 也 在 當地 設立 太空中心   但 你 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 在 地 平面   根據 「 世界 經濟 論壇 」 最近 發布 的 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 的 城市   也 是 西半球 唯一一 個 下沉 速度 排入 前十名 的 城市   美國氣 候專 家史 特勞斯 表示   「 雖然 土地 現在 有 大小 堤防 保護   但   地層下陷   仍 超乎想像   」 專家 表示   休士頓 下沉 速度 快   海平面 也 上升 迅速   再 加上 氣候 變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 的 惡化 強度 和 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 的 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 的 下沉 危機 也 一度 非常 嚴重   在 全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示   「 非常 重要 的   雅加 達 和 曼谷 從 東京 和 上海 汲取 成功 經驗   」 科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 的 模擬 畫面   在 在 都 提醒 人類 要 相信 科學   保護 自己 的 家園 避免 消失 刻 不容 緩  </t>
+          <t xml:space="preserve">地層 嚴重 下陷 問題 不是 只有 台灣 會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 33 座 城市   以 每年 超過 一 公分 速度 下沉   是 海平面 上升 速度 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 是   連美國 南部 大城 休士頓 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 當地 設立 太空中心   但 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 地 平面   根據   世界 經濟 論壇   最近 發布 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 城市   是 西半球 唯一一 個 下沉 速度 排入 前十名 城市   美國氣 候專 家史 特勞斯 表示     雖然 土地 現在 大小 堤防 保護   但   地層下陷   仍 超乎想像     專家 表示   休士頓 下沉 速度快   海平面 上升 迅速   再 加上 氣候變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 惡化 強度 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 下沉 危機 一度 非常 嚴重   全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示     非常 重要   雅加 達 曼谷 從 東京 上海 汲取 成功 經驗     科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 模擬 畫面   都 提醒 人類 要 相信 科學   保護 自己 家園 避免 消失 刻 不容 緩  </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>水岸 第一排 住宅   開門   開窗 即 見 怡然 美景   住家 擁有 永久 棟 距   是 許多人 嚮 往 的 住居   正因 稀有性   房價 比 一般 房宅略 高   不過   想 坐 擁 水岸 宅   購 屋前 需有 風險 意識   魔鬼 藏 在 細節裡   思考 後 再 出手   能 避免 踩 雷               登入 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     訂閱 支持</t>
+          <t>水岸 第一排 住宅   開門   開窗 即 見 怡然 美景   住家 擁有 永久 棟 距   是 許多人 嚮 往 住居   正因 稀有性   房價 比 一般 房宅 略 高   不過   想 坐 擁 水岸 宅   購 屋前 需有 風險 意識   魔鬼 藏 細節裡   思考 後 再 出手   能 避免 踩 雷               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>農委會 主委 陳 吉   右 3   與 立委 蘇治芬   右 2   等 人會 勘 雲林 口湖   台西 等 地 耕作 困難 地     記者 黃 淑莉攝     〔 記者黃淑莉 ／ 雲林 報導 〕 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人   到 雲林 口湖   台西 實地 勘查 多處 嚴重 地層下陷 區   土地 數 10 年來 無法 耕作   養殖   陳 吉仲說   不 排除 以 專案   示範場域 方式   與 國家 綠能 政策 結合   附予 這類 土地 新價值   進而 創造 多贏     蘇治芬 指出   口湖   台西 等 沿海 地區 有 多 處位 處 嚴重 地層下陷 區 土地   卻 具有 困難 耕作 地   養殖 專區   地層下陷 區等 多重 身分   現況 是數 10 年來 因難 耕作   地上 荒涼   地主 怨嘆 又 無奈     蘇治芬 說   若 沒 有 新 的 土地 政策 進場 協助   數 10 年後還 是 與 現況 一樣   接到 許多 農民陳情   今天 邀請 農委會 主委 現勘   盼能 盤點 政策 協助   才能 附予 土地 新價值     陳 吉仲 表示   會 勘後會 與 相關 單位 討論 調整 相關 政策   在 不 影響 農漁業 生產 又 兼顧 農漁 民生 計   考慮 結合國家 綠電 發展   並以 專案 或示 範場域 方式 進行   進而 創造 農民   地方 發展   國家 重要 政策 也 能 發展 的 三贏     一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
+          <t>農委會 主委 陳 吉   右 3   與 立委 蘇治芬   右 2   等 人 會勘 雲林 口湖   台西 等 地 耕作 困難 地     記者 黃 淑莉攝     〔 記者黃淑莉 ／ 雲林 報導 〕 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人   到 雲林 口湖   台西 實地 勘查 多處 嚴重 地層下陷區   土地 數 10 年來 無法 耕作   養殖   陳 吉仲說   不 排除 以 專案   示範場域 方式   與 國家 綠能 政策 結合   附予 這類 土地 新價值   進而 創造 多贏     蘇治芬 指出   口湖   台西 等 沿海 地區 多 處位 處 嚴重 地層下陷區 土地   卻 具有 困難 耕作 地   養殖 專區   地層下陷區 等 多重 身分   現況 是數 10 年來 因難 耕作   地上 荒涼   地主 怨嘆 又 無奈     蘇治芬 說   若 沒 新 土地 政策 進場 協助   數 10 年後還 是 與 現況 一樣   接到 許多 農民陳情   今天 邀請 農委會 主委 現勘   盼能 盤點 政策 協助   才能 附予 土地 新價值     陳 吉仲 表示   會勘 後 會 與 相關 單位 討論 調整 相關 政策   不 影響 農漁業 生產 又 兼顧 農漁 民生 計   考慮 結合國家 綠電 發展   並以 專案 或示 範場域 方式 進行   進而 創造 農民   地方 發展   國家 重要 政策 能 發展 三贏     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 捷運 萬大線 工程 被民眾 直擊 疑似 施工 不慎   日前 出現 自來 水管 破裂   還導致 柏油路 面 凹陷   讓 車輛 經過 像是 開在 彈簧 床上   不 只 如此   工人 甚至 被 目擊 在 滿 是 乙炔 鋼瓶 旁 抽 菸   遭質疑 這樣 難道 不會 對 工安 造成危害 嗎   被 指控 缺失   捷運局 表示   已經 找 自來 水 公司 協助止 漏   路面 下陷 也 加鋪 恢 復 正常   至於 工人 則是 在 休息 區抽 菸   並無 不妥   捷運 萬大線 施工 現場 滴滴答答   水流 個 不停   這 不是 天空 在 下雨   而是 水管 破裂   讓 工人 施工 像是 水 濂 洞 一樣   大量 自來 水不斷 流出   更 扯 的 是 有 附近 住戶 說   已經流 了 一個 禮拜 還沒 改善   更 疑似 導致 附近 路面 凹陷   車輛 經過 凹陷 路面 彈了 好 大 一下   駕駛 也 嚇到 急 踩 煞車   北市 的 捷運 萬大線 工程   有民眾 向 議員 投訴   說 恐怕 有 工安 問題   還有 工人 在 氧氣 跟 乙炔 鋼瓶 附近 大膽 抽 菸   讓民眾 看 了 好 擔心   對此 萬華區 全 德里 長 王平 三 表示   「 這個 地方 捷運 做到 現在   漏水   地方 下陷 的 地方 很多   所以 他們 也 很煩   但 不 至於 說 很 害怕   只是 我們 必須 要 小心 點 」   民眾 擔憂 破裂 的 水管 會導致 地層下陷   影響 住家 安全   也 質疑 是 捷運 施工 不慎   挖破 管線   但是 捷運局 趕緊 出面 澄清   表示 已經 找 自來 水 公司 協助止 漏   路面 凹陷 部分 也 重新 鋪 好   至於 工人 抽 菸 地點 是 在 休息 區內   符合 法規   但 未來 將劃 設明顯 休息 區   避免 民眾 質疑 有 工安疑慮  </t>
+          <t xml:space="preserve">台北 捷運 萬大線 工程 被民眾 直擊 疑似 施工 不慎   日前 出現 自來 水管 破裂   還導致 柏油路 面 凹陷   讓 車輛 經過 像是 開在 彈簧 床上   不 只 如此   工人 甚至 被 目擊 滿 是 乙炔 鋼瓶 旁 抽 菸   遭質疑 這樣 難道 不會 對 工安 造成危害   被 指控 缺失   捷運局 表示   已經 找 自來 水 公司 協助止 漏   路面 下陷 加鋪 恢 復 正常   至於 工人 則是 休息 區抽 菸   並無 不妥   捷運 萬大線 施工 現場 滴滴答答   水流 個 不停   這 不是 天空 下雨   而是 水管 破裂   讓 工人 施工 像是 水 濂 洞 一樣   大量 自來 水不斷 流出   更 扯 是 附近 住戶 說   已經流 了 一個 禮拜 還沒 改善   更 疑似 導致 附近 路面 凹陷   車輛 經過 凹陷 路面 彈了 好 大 一下   駕駛 嚇到 急 踩 煞車   北市 捷運 萬大線 工程   有民眾 向 議員 投訴   說 恐怕 工安 問題   還有 工人 氧氣 跟 乙炔 鋼瓶 附近 大膽 抽 菸   讓民眾 看 了 好 擔心   對此 萬華區 全 德里 長 王平 三 表示     這個 地方 捷運 做到 現在   漏水   地方 下陷 地方 很多   所以 他們 很煩   但 不 至於 說 很 害怕   只是 我們 必須 要 小心 點     民眾 擔憂 破裂 水管 會導致 地層下陷   影響 住家 安全   質疑 是 捷運 施工 不慎   挖破 管線   但是 捷運局 趕緊 出面 澄清   表示 已經 找 自來 水 公司 協助止 漏   路面 凹陷 部分 重新 鋪 好   至於 工人 抽 菸 地點 是 休息 區內   符合 法規   但 未來 將劃 設明顯 休息 區   避免 民眾 質疑 工安疑慮  </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 檢測 雲林 地層下陷 數值   水利 署 去年 在 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   能線 上 即 時 取得 觀測 資料   對 於 下陷 數據 監測 與 分析 有 很大 助益   因應 雲林 地層下陷 影響   水利 署後續 規劃 將分別 在 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所 再 設置 地下水 觀測 站   監測 下陷 狀況 來 做 相關 防制   放下 感測器   測量 目前 所在地 的 地下水位   可以 再 透過 手機 即 時線 上 取得 觀測 資料   提供 針對 地層下陷 數據 做 分析 監     為 了 要 防範 地層下陷 持續 擴大   水利 署 去年 在 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   水利 署 副署 長 黃 宏 莆 說明   「 我們 在 這國小設 了 5 個 水位 觀測井   還有 一個 地層下陷 觀測井   可以 把 周邊 大 埤 主要 的 地下水 分層 水位   可以 即 時線 上 獲得 相關 資訊   」 立委 劉建國 指出   「 這對 雲林 來 說   不管 是 對 土地 面積   農地 使用 種種   還有 最 重要 的 是 說   我們 也 是 高鐵行經 主要 縣市   要 克服 的 很大 環境 挑戰 議題   」 雲林 是 全台 地層下陷 嚴 重地 區   下陷 面積 數據 時 好 時壞   對 居民 及 高鐵 乘客 安全 有 隱憂   除了 仁和 國小設 置   水利 署 也 將規劃 在 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所   再 設置 地下水 觀測 站 共 7 口井   大 埤 仁和 國小校 長 洪千惠 表示   「 水利 署 如果 什麼 政策 要 跟民眾 宣導   還有 一些 教育   還有 跟 小朋友 的 環境 教育 的 結合   都 可 把 它 連在 一起   變成 與 民眾 共有 這樣   」 校方 表示   校園 中設 地下水 觀測 站   也 能 讓 學童 透過 實際 觀測 做 環境 教育   對此 水利 署則 表示   會 配合 校方 再 做 相關 規劃   也 希望 設置 觀測井 所 得到 的 即 時 資訊   作為 地層下陷 相關 防制 參考  </t>
+          <t xml:space="preserve">為 檢測 雲林 地層下陷 數值   水利 署 去年 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   能線 上 即 時 取得 觀測 資料   對 於 下陷 數據 監測 與 分析 很大 助益   因應 雲林 地層下陷 影響   水利 署後續 規劃 將分別 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所 再 設置 地下水 觀測 站   監測 下陷 狀況 來 相關 防制   放下 感測器   測量 目前 所在地 地下水位   可以 再 透過 手機 即 時線 上 取得 觀測 資料   提供 針對 地層下陷 數據 分析 監     為 了 要 防範 地層下陷 持續 擴大   水利 署 去年 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   水利 署 副署 長 黃 宏 莆 說明     我們 這國小設 了 5 個 水位 觀測井   還有 一個 地層下陷 觀測井   可以 把 周邊 大 埤 主要 地下水 分層 水位   可以 即 時線 上 獲得 相關 資訊     立委 劉建國 指出     這對 雲林 來 說   不管 是 對 土地 面積   農地 使用 種種   還有 最 重要 是 說   我們 是 高鐵行經 主要 縣市   要 克服 很大 環境 挑戰 議題     雲林 是 全台 地層下陷 嚴 重地 區   下陷 面積 數據 時 好 時壞   對 居民 高鐵 乘客 安全 隱憂   除了 仁和 國小設 置   水利 署 將規劃 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所   再 設置 地下水 觀測 站 共 7 口井   大 埤 仁和 國小校 長 洪千惠 表示     水利 署 如果 什麼 政策 要 跟民眾 宣導   還有 一些 教育   還有 跟 小朋友 環境 教育 結合   都 可 把 它 連在 一起   變成 與 民眾 共有 這樣     校方 表示   校園 中設 地下水 觀測 站   能 讓 學童 透過 實際 觀測 環境 教育   對此 水利 署則 表示   會 配合 校方 再 相關 規劃   希望 設置 觀測井 所 得到 即 時 資訊   作為 地層下陷 相關 防制 參考  </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 的 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 的 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 的 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 的 湖山 水庫   源源 不斷 的 滲水來 補充 雲林 的 地下水 源   對 減緩 地層下陷 有 很大 的 助益     林內 鄉 公所 今天 在 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 及 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 在 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林 縣及 鄰近 縣 市民 生   農業 及 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   在 林內 河段 是 河 寬 最窄 處   也 造就 了 林內 的 好 水質   就 可以 從事 很多 水環境 及 水資源 的 保護 措施   經調查 在 林內 三號 水門 附近 的 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 的 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 的 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 的 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 的 面積 已 達 20 公頃   源源 不絕 的 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 也 指出   去年 全國 百年 大旱   各地 都 沒 有 水 灌溉   別 的 縣市 就算 有 地下水 井   也 抽 不到 水   唯一 有水 的 就是 雲林   因為 有 地下水 補助   所以 農民 可以 抽 得到 地下水   他 也 強調   要 好好 保護林 內 的 水資源   因為 林內 的 水 如果 受到 污染   河川 局 也 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  </t>
+          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 抑制 濁水溪 揚塵   四河 局兩 年前 在 雲林 林內 段   多 設置 河槽 地下水 補注池   經過 兩年 地下水 補注經 監測   約 注入 1300 萬公噸 水源 入滲   今年 將再 增擴 20 公頃   有 當地 農民 就 說   去年 全國 百年 大旱   當地 農民持續 有 水源 灌溉   對此 第四 河川 局則 表示   地下水 補注池 效果 不錯   能 有效 舒緩 地層下陷 問題   雲林 林內 3 號水門 附近 濁水溪 河段   為 了 改善 揚塵   兩 年前 四河 局進行 疏濬 工程   並設 置 地下水 人工 補注池 蓄水   將 地面 河水 引進 補注 地下水   水源 最深 達到 地下 四百 公尺   希望 減緩 地層下陷   第四 河川 局 副 局長 張朝 恭 說   「 在 疏濬 的 部分   配合 把 引水 進來   來 做 一個 補注 地下水 的 功能   」 雲 科大 水土 中心 主任 溫志超 表示   「 這邊 8 公頃   上游 有個 28 公頃   兩個 合 併 約 35 公頃 去 操作   那 兩年 的 時間   基本上 總共 35 公頃 之下   有 1300 多萬公噸 的 水入滲 下去   」 雲 科大 水土 中心 表示   補注池 的 水源 由高處 流向 低處 補注   能 有效 減緩 地層下陷   也 能 使 地下水位 回升   像 去年 全國 百年 大 缺水   各地 都 沒水 可 灌溉   補注池 的 功效 就 明顯 可見   雲林 農民說   「 年尾時 沒 下雨 一定 都 會 缺水   那 缺水 時透過 這樣 的 補注   對 農民 一定 有所 幫助   」 雲林 農民 表示   「 要 用水 就 比 較 不用 擔心   就是 用排 的 也 排 得到   」 四河 局 表示   雲林 第一座 地下水 補注池   在 2020 年 完成 因為 效果 不錯   今年 將再 擴大將 蓄水池 面積 增加 20 公頃   希望 透過 地面水 補注 地下水   達到 減緩 地層下陷 情況   也 能 讓 農民有 足夠 水源 灌溉  </t>
+          <t xml:space="preserve">為 抑制 濁水溪 揚塵   四河 局兩 年前 雲林 林內 段   多 設置 河槽 地下水 補注池   經過 兩年 地下水 補注經 監測   約 注入 1300 萬公噸 水源 入滲   今年 將再 增擴 20 公頃   當地 農民 就 說   去年 全國 百年 大旱   當地 農民持續 水源 灌溉   對此 第四 河川 局則 表示   地下水 補注池 效果 不錯   能 有效 舒緩 地層下陷 問題   雲林 林內 3 號水門 附近 濁水溪 河段   為 了 改善 揚塵   兩 年前 四河 局進行 疏濬 工程   並設 置 地下水 人工 補注池 蓄水   將 地面 河水 引進 補注 地下水   水源 最深 達到 地下 四百 公尺   希望 減緩 地層下陷   第四 河川 局 副 局長 張朝 恭 說     疏濬 部分   配合 把 引水 進來   來 一個 補注 地下水 功能     雲 科大 水土 中心 主任 溫志超 表示     這邊 8 公頃   上游 有個 28 公頃   兩個 合 併 約 35 公頃 去 操作   兩年 時間   基本上 總共 35 公頃 之下   1300 多萬公噸 水入滲 下去     雲 科大 水土 中心 表示   補注池 水源 由高處 流向 低處 補注   能 有效 減緩 地層下陷   能 使 地下水位 回升   像 去年 全國 百年 大 缺水   各地 都 沒水 可 灌溉   補注池 功效 就 明顯 可見   雲林 農民說     年尾時 沒 下雨 一定 都 會 缺水   缺水 時透過 這樣 補注   對 農民 一定 有所 幫助     雲林 農民 表示     要 用水 就 比 較 不用 擔心   就是 用排 排 得到     四河 局 表示   雲林 第一座 地下水 補注池   2020 年 完成 因為 效果 不錯   今年 將再 擴大將 蓄水池 面積 增加 20 公頃   希望 透過 地面水 補注 地下水   達到 減緩 地層下陷 情況   能 讓 農民有 足夠 水源 灌溉  </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林 縣高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 內 虎尾   土庫   元長 和 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 在 去年 暫停 辦理   雲林 農民 表示   「 只要 不是 種 水稻 類   其實 它 的 吸 水量 會 真的 會差 很多   這是 實在 話   在 雲林 這邊 就是 水稻 的 需求   地下水 的 需求量 是 最 多 的   」 為 了 鼓勵 高鐵 沿線 的 農民能 在 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林 縣農業 處 副 處長 蔡耿宇 指出   「 高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 的 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 在 一期 作去 推動 的 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元   」 雲林 農民 指出   「 成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過   」 當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 也 說   縣內 高鐵 沿線 四鄉 鎮農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 內 達 到 稻作 1700 公頃 轉出 的 目標  </t>
+          <t xml:space="preserve">雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 內 農民種 植 低耗 水 作物 的 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林 縣府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 在 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 及 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 及 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 內農地   獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 的 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  </t>
+          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 內 農民種 植 低耗 水 作物 的 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林 縣府 近 幾年 積極 推動 地層下陷 防治 工作   在 農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 ○ 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 內 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 在 二 ○ 一 三年 至 二 ○ 二 ○ 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 及 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 的 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  </t>
+          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>資訊視 覺化 地層下陷                   書名     書上 設計展 2021       作者   尼 普利 編輯室 企劃     出版社   尼 普利 出版     出版 時間   2022 年 1 月 15 日           臺 灣 地層下陷   人們 對 於 這塊 土地 的 不當 利用   可說 是 現今 臺 灣 地層下陷 的 主要 肇因   像是 水資源 缺乏 所導致 超 抽 地下水   抑或 是 高鐵興 建所 造成 地面 荷重 大量 增加 等   都 加速 了 地層下陷 問題 的 發生   〈 B1 － 臺 灣 地層下陷 〉 專書以 複 合式 裝幀 結構 來 設計   將其分 為 兩 部分   分別 以線 裝及 摺 頁 書 的 方式 呈現   內容 運用 資訊視 覺化 設計 為 主軸   介紹 臺 灣國土 下陷 四大 原因   九大 下陷 地區 說明   及 各個 地區 的 圖文細節   藉由 閱讀 理解 各 下陷 地區 之間 的 差異   引領民眾 快速 了解 現今 臺 灣 地層下陷 的 嚴重 程度       複 合式 裝幀 結構 設計     有別 於 過往 百科 全書 的 呆板 形式   本 專書 運用 複 合式 裝幀 結構 設計   利用 資訊視 覺化 手法   將 原本 龐雜 的 數據   輔以 凸顯 重點 的 視覺 編排   呈現 一幅 巨型 的 資訊 圖表   並 搭配 注目 性較 高 的 紅色   警惕 民眾 地層下陷 所 造成 的 危害   以及 對 居住 與 國土 安全 的 威脅                                           以 專書設 計為 主軸   書籍 以 複 合式 裝幀 設計   圖 ／ 尼 普利   提供                           在 封面 以 雷射 切割 紙材 方式 呈現 下陷 層次 造型   圖 ／ 尼 普利   提供                           重點 介紹 九大 下陷 地區 的 數據表現 與 相 關訊息   圖 ／ 尼 普利   提供           ● 編輯 觀點     地層下陷 的 問題   好像 溫水 煮 青蛙   水平 看似 一致   卻 可能 正在 下移 而 渾然 未覺   安全 此刻 在 懸崖邊   搖搖欲 墜   〈 B1 － 臺 灣 地層下陷 〉 透過 設計 手法   視覺化 呈現 臺 灣 地層下陷 的 現況   讓 人 意識 到 問題 的 存在   進而 思考 土地 的 規劃   臺 灣 四面 環海   地層下陷 的 問題 格外 隱憂   國土 一旦 保持 不佳   負載 過度   一不留神 就是 海水倒灌 等 不 可逆 的 嚴重後患   那些 存在 的 也 許無力 一次 解決   但 不放棄   盡己 所能   喚起 危機 意識   也 是 一種 改變 的 開始     設計 團隊     樹德 科技 大學   視覺 傳達 設計系     Designer ｜ 江蓉   楊皓鈞   黃 上溢   廖楷平   林靜芬   黃 麒 樺     Advisor ｜ 陳 月 英                             【 本 文摘 選自尼 普利 編輯室 出版   書上 設計展 2021   一書 內容   授權 刊登 於 聯合 新聞網 「 琅琅 悅讀 」 頻道   未經 同意   請 勿 轉載   】 加入   琅琅 悅讀   Google   News   按下 追 蹤   精選 好文 不 漏接       五月 藝文 專題 及 活動 一覽     🎁 　 抽獎 ｜ 海明威   金城武 都 來過   法國 巴黎 左岸 的 莎士 比亞書店   📰 　 師大美術館 「 一拍 即影 」 300 件 拍 立得   見證 攝 影大師 的 黃 金 年代   📰 　 漫步 青島 老城 區   探訪 上 世紀 的 文藝書店   民宿 及 咖啡 館   📰 　 不一樣 的 山水 畫   M ＋ 博物 館 「 山鳴 水應 」 用 新視角 看藝術   📰 　 南美 館 雙館 共展 「 沃克   海怪   炮火 與 他們 」 以藝術 視角 回望 歷史   📰 　 你 吃 的 是 什麼 烤 鴨   北京 與 廣式 烤 鴨 之間 的 3 種差異   📌 　 梁朝 偉   劉德華 都 演過   盤點 金庸 武俠 劇中 的 經典 選角</t>
+          <t>資訊視 覺化 地層下陷                   書名     書上 設計展 2021       作者   尼 普利 編輯室 企劃     出版社   尼 普利 出版     出版 時間   2022 年 1 月 15 日           臺 灣 地層下陷   人們 對 於 這塊 土地 不當 利用   可說 是 現今 臺 灣 地層下陷 主要 肇因   像是 水資源 缺乏 所導致 超 抽 地下水   抑或 是 高鐵興 建所 造成 地面 荷重 大量 增加 等   都 加速 了 地層下陷 問題 發生   〈 B1 － 臺 灣 地層下陷 〉 專書以 複 合式 裝幀 結構 來 設計   將其分 為 兩 部分   分別 以線 裝及 摺 頁 書 方式 呈現   運用 資訊視 覺化 設計 為 主軸   介紹 臺 灣國土 下陷 四大 原因   九大 下陷 地區 說明   各個 地區 圖文細節   藉由 閱讀 理解 各 下陷 地區 之間 差異   引領民眾 快速 了解 現今 臺 灣 地層下陷 嚴重 程度       複 合式 裝幀 結構 設計     有別 於 過往 百科 全書 呆板 形式   本 專書 運用 複 合式 裝幀 結構 設計   利用 資訊視 覺化 手法   將 原本 龐雜 數據   輔以 凸顯 重點 視覺 編排   呈現 一幅 巨型 資訊 圖表   並 搭配 注目 性較 高 紅色   警惕 民眾 地層下陷 所 造成 危害   以及 對 居住 與 國土 安全 威脅                                           以 專書設 計為 主軸   書籍 以 複 合式 裝幀 設計   圖 ／ 尼 普利   提供                           封面 以 雷射 切割 紙材 方式 呈現 下陷 層次 造型   圖 ／ 尼 普利   提供                           重點 介紹 九大 下陷 地區 數據表現 與 相 關訊息   圖 ／ 尼 普利   提供           ● 編輯 觀點     地層下陷 問題   好像 溫水 煮 青蛙   水平 看似 一致   卻 可能 正在 下移 而 渾然 未覺   安全 此刻 懸崖邊   搖搖欲 墜   〈 B1 － 臺 灣 地層下陷 〉 透過 設計 手法   視覺化 呈現 臺 灣 地層下陷 現況   讓 人 意識 到 問題 存在   進而 思考 土地 規劃   臺 灣 四面 環海   地層下陷 問題 格外 隱憂   國土 一旦 保持 不佳   負載 過度   一不留神 就是 海水倒灌 等 不 可逆 嚴重後患   那些 存在 許無力 一次 解決   但 不放棄   盡己 所能   喚起 危機 意識   是 一種 改變 開始     設計 團隊     樹德 科技 大學   視覺 傳達 設計系     Designer ｜ 江蓉   楊皓鈞   黃 上溢   廖楷平   林靜芬   黃 麒 樺     Advisor ｜ 陳 月 英                             【 本 文摘 選自尼 普利 編輯室 出版   書上 設計展 2021   一書   授權 刊登 於 聯合 新聞網   琅琅 悅讀   頻道   未經 同意   請 勿 轉載   】 加入   琅琅 悅讀   Google   News   按下 追 蹤   精選 好文 不 漏接       五月 藝文 專題 活動 一覽     🎁 　 抽獎 ｜ 海明威   金城武 都 來過   法國 巴黎 左岸 莎士 比亞書店   📰 　 師大美術館   一拍 即影   300 件 拍 立得   見證 攝 影大師 黃 金 年代   📰 　 漫步 青島 老城 區   探訪 上 世紀 文藝書店   民宿 咖啡 館   📰 　 不一樣 山水 畫   M ＋ 博物 館   山鳴 水應   用 新視角 看藝術   📰 　 南美 館 雙館 共展   沃克   海怪   炮火 與 他們   以藝術 視角 回望 歷史   📰 　 吃 是 什麼 烤 鴨   北京 與 廣式 烤 鴨 之間 3 種差異   📌 　 梁朝 偉   劉德華 都 演過   盤點 金庸 武俠 劇中 經典 選角</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 中央社 〕 一項 新 的 研究 指出   南亞 和 東南亞 的 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 的 人 更 容易 受到 海平面 上升 的 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表 在 「 自然 永續 」   Nature   Sustainability   期刊 上 的 一項 研究   快速 的 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 的 需求     研究 指出   「 這 使得 經歷 當地 土地 快速 下沉 的 城市 所 面臨 沿海 災害 的 風險   比 那些 已 因氣候 導致 海平面 上升 的 城市 所 面臨 的 風險 更 大   」   越南 人口 最多 的 城市 和 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   在 這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 的 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 和 緬甸 商業 中心 仰光 在 高峰 年間 皆 下沉 20 多公 釐     研究 稱   「 這些 快速 下沉 的 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 的 建築 結構   導致 土地 下沉   」   下沉 的 城市 本身 並非 氣候 變遷 的 結果   但 研究 人員 說   他們 的 研究 能 更 深入 了解 下沉 現象 如何 「 加劇 氣候 所導致 平均 海平面 上升 的 影響 」     根據 聯合國 「 政府 間 氣候 變遷 問題 小組 」   Intergovernmental   Panel   on   Climate   Change     IPCC   的 資料   到 2050 年   將有 十多 億人 生活 在 沿海 城市   面臨 海平面 上升 的 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  </t>
+          <t xml:space="preserve">〔 中央社 〕 一項 新 研究 指出   南亞 東南亞 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 人 更 容易 受到 海平面 上升 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表   自然 永續     Nature   Sustainability   期刊 上 一項 研究   快速 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 需求     研究 指出     這 使得 經歷 當地 土地 快速 下沉 城市 所 面臨 沿海 災害 風險   比 那些 已 因氣候 導致 海平面 上升 城市 所 面臨 風險 更 大       越南 人口 最多 城市 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 緬甸 商業 中心 仰光 高峰 年間 皆 下沉 20 多公 釐     研究 稱     這些 快速 下沉 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 建築 結構   導致 土地 下沉       下沉 城市 本身 並非 氣候變遷 結果   但 研究 人員 說   他們 研究 能 更 深入 了解 下沉 現象 如何   加劇 氣候 所導致 平均 海平面 上升 影響       根據 聯合國   政府 間 氣候變遷 問題 小組     Intergovernmental   Panel   on   Climate   Change     IPCC   資料   到 2050 年   將有 十多 億人 生活 沿海 城市   面臨 海平面 上升 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 吳昇儒 ／ 新北 報導 〕 受 「 尼莎 」 颱 風共伴 效應 影響   新北 市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 也 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 的 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 的 改 道路 線 公告 在 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 的 管制 車流   柏油路 面上 出現 許多道 的 裂痕   除了 用 交通 錐 警示 阻擋   也 立起 告示牌   請行經 的 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 有 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 的 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 也 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 及 施工 單位   連夜 辛苦 的 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 也 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 有 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  </t>
+          <t xml:space="preserve">〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">汐止 工 建路 因連日 大雨 沖 刷   路面 下方 有 土石 流失   造成 路面 下陷   為維護 用路 安全   新北 市 水利局 表示   已連夜 成立 前進 指揮 所   調度 人員 機具 進行 路面 搶修   目前 先採 低壓 灌漿 穩定 地盤   期能 於 最 短 時間 內修 復 路面   水利局 表示   汐止 工 建路 下方 設有 污水 特四幹線   收集 汐止 地區 污水   於 103 年間 曾 遭建商 基樁 打破   因特 四幹線 管徑 1.8 公尺 且位 於 道路 下方 15 公尺   並持續 通水 使用 中   需設 置 替代 管線後方能 進行 修 復   因此 當時 由 台北市 衛工處 先行 於 管線 上方 灌漿 補強   並進行 新 設繞 流管 建置 工程   水利局 提到   目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程   計畫 新設 管徑 1.2 公尺 繞 流管 導水 後   再 辦理 原特四幹線 管線 修 復   此次 修繕 工程 繞 流管 尚約 剩 7 公尺 才能 接通   預計 11 月 14 日 工程 完成   水利局 透露   此次 工 建路 下陷 位置 臨近 特四幹線 遭 打破 點   初步 研判 可能 與 此 相關   為 避免 持續 下陷   水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作   等到 特四幹線 繞 流管 工程 完工 後   將進 行原 特四幹線 檢修 工程  </t>
+          <t xml:space="preserve">汐止 工 建路 因連日 大雨 沖 刷   路面 下方 土石 流失   造成 路面 下陷   為維護 用路 安全   新北市 水利局 表示   已連夜 成立 前進 指揮 所   調度 人員 機具 進行 路面 搶修   目前 先採 低壓 灌漿 穩定 地盤   期能 於 最 短 時間 內修 復 路面   水利局 表示   汐止 工 建路 下方 設有 污水 特四幹線   收集 汐止 地區 污水   於 103 年間 曾 遭建商 基樁 打破   因特 四幹線 管徑 1.8 公尺 且位 於 道路 下方 15 公尺   並持續 通水 使用 中   需設 置 替代 管線後方能 進行 修 復   因此 當時 由 台北市 衛工處 先行 於 管線 上方 灌漿 補強   並進行 新 設繞 流管 建置 工程   水利局 提到   目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程   計畫 新設 管徑 1.2 公尺 繞 流管 導水 後   再 辦理 原特四幹線 管線 修 復   此次 修繕 工程 繞 流管 尚約 剩 7 公尺 才能 接通   預計 11 月 14 日 工程 完成   水利局 透露   此次 工 建路 下陷 位置 臨近 特四幹線 遭 打破 點   初步 研判 可能 與 此 相關   為 避免 持續 下陷   水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作   等到 特四幹線 繞 流管 工程 完工 後   將進 行原 特四幹線 檢修 工程  </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">汐止 驚見 地層下陷   新北 市 汐止 區工建 路上 不明 原因 出現 地層下陷   而 上個 禮拜 就 發生過   區 公所 趕緊 進行 挖 填   沒 想到 這幾天 又 再度 下陷   為 避免 發生 危險   昨   22   天晚 間 9 點開始 該 路段 全線 封閉   並在 今   23   天 早上 進行 大規模 檢測   以及 進行 搶修 工程   確保 附近 住戶 安全  </t>
+          <t xml:space="preserve">汐止 驚見 地層下陷   新北市 汐止 區工建 路上 不明 原因 出現 地層下陷   而 上個 禮拜 就 發生過   區 公所 趕緊 進行 挖 填   沒 想到 這幾天 又 再度 下陷   為 避免 發生 危險   昨   22   天晚 間 9 點開始 該 路段 全線 封閉   並在 今   23   天 早上 進行 大規模 檢測   以及 進行 搶修 工程   確保 附近 住戶 安全  </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">台灣位 處菲律 賓海板 塊 及 歐亞板 塊 的 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出 「 台灣 真的 在 動 」   氣象局 在 全台 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 的 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 的 台灣斷 層 都 有 「 偷偷 」 地亂動   氣象局 表示   「 既然 手機 上 的 GPS 可以 監測 我們 每日 的 移動 路線 和 距離   那麼   同樣 的 概念 和 技術   是不是 也 能 監測 台灣 的 地表   看看 它 每天 移動 了 多少 呢   當然 可以   」 氣象局 已 在 全台灣 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站   結合 各 單位 的 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 的 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 的 地表 位移   像是 車籠埔斷 層 的 錯動   為 台灣 地表 帶來 一道 劇烈 的   長 達 105 公里 的 傷痕   斷層 上盤 的 水平 位移 為 1 至 9 公尺 不 等   而 在 大甲溪 更 出現 地殼 抬高   落差 5 公尺 的 瀑布 景觀   氣象局 表示   除了 地震 期間   在 短短 數 十秒 內 出現 的 「 同震 滑移 」 之外   地震 前   間震期     地震 後   震後期     斷層 也 都 有 「 偷偷 」 地亂動   氣象局 說明   地殼 不 只 在 地震 時會動   平時 地殼 在 「 累積 能量 」 的 過程 中   就 會 在 地表 出現 非常 微量 的 變形   或者 是 小小的   不起眼 的 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 的 一舉 一動   希望 可以 找出 大 地震 發 生前 的 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 的 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 的 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 的 樣態   或是 分析 出 地震 的 發生 週期   計算 地震 的 災害 潛勢   評估 台灣 各地 斷層 的 活動 和 地震 的 機制  </t>
+          <t xml:space="preserve">台灣 位處 菲律 賓海板 塊 歐亞板 塊 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出   台灣 真的 動     氣象局 全台 建置 超過 160 個   全球 導航衛 星系 統   測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 台灣 斷層 都   偷偷   地亂動   氣象局 表示     既然 手機 上 GPS 可以 監測 我們 每日 移動 路線 距離   那麼   同樣 概念 技術   是不是 能 監測 台灣 地表   看看 它 每天 移動 了 多少   當然 可以     氣象局 已 全 台灣 建置 超過 160 個   全球 導航衛 星系 統   測站   結合 各 單位 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 地表 位移   像是 車籠埔斷 層 錯動   為 台灣 地表 帶來 一道 劇烈   長 達 105 公里 傷痕   斷層 上盤 水平 位移 為 1 至 9 公尺 不 等   而 大甲溪 更 出現 地殼 抬高   落差 5 公尺 瀑布 景觀   氣象局 表示   除了 地震 期間   短短 數 十秒 出現   同震 滑移   之外   地震 前   間震期     地震 後   震後期     斷層 都   偷偷   地亂動   氣象局 說明   地殼 不 只 地震 時會動   平時 地殼   累積 能量   過程 中   就 會 地表 出現 非常 微量 變形   或者 是 小小的   不起眼 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 一舉 一動   希望 可以 找出 大 地震 發 生前 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 樣態   或是 分析 出 地震 發生 週期   計算 地震 災害 潛勢   評估 台灣 各地 斷層 活動 地震 機制  </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹 縣竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 在 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 和 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 的 透天 厝 會 不會 有 一夕 傾倒 的 危險   希望 相關 單位 幫忙 出面 解決     被 指控 的 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 有 原因 不明 的 下陷   龜裂 問題   看起 來 災害 也 確實 持續 進行 中   但導致 持續 龜裂 擴大 的 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 在 天氣 放晴 後 協助 維修 處理     陳 先生 講   鍾 姓 住戶 主要 是 拿 自家 建物 和 背 後 另 1 間 民宅 做 比 對   鍾 先生 認為 2 宅 「 沒有 一直 線 」   所以 認定 有 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 的 安全 維護     縣府 工務 處長 江良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 有 毀損 的 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 也 可 要求 工地 的 原設 計建築師 或 技師 到場 做 有 無 立即 性 危險 的 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 的 建物 做 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 的 被 徵收 戶   3 樓半 的 住家 就是 蓋 在 約 3   40 坪 的 配回 地上   10 年前 要蓋 這樣 的 透天 厝 少 說 也 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 在 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 也 有 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 在 其中   如果 房子 真的 不安   影響 非常 大     鍾 先生 說   隔鄰 的 新建 工地 約 是 在 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 的 地面   竟 在 自己 的 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 的 牆面 也 有 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 和 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 的 已有 他 的 1 片 手指甲 寬   至於 牆角 和 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  </t>
+          <t xml:space="preserve">〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹縣 竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險   希望 相關 單位 幫忙 出面 解決     被 指控 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 原因 不明 下陷   龜裂 問題   看起 來 災害 確實 持續 進行 中   但導致 持續 龜裂 擴大 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 天氣 放晴 後 協助 維修 處理     陳 講   鍾 姓 住戶 主要 是 拿 自家 建物 背 後 另 1 間 民宅 比 對   鍾 認為 2 宅   沒有 一直 線     所以 認定 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護     縣府 工務處 長江 良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 毀損 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 被 徵收 戶   3 樓半 住家 就是 蓋 約 3   40 坪 配回 地上   10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 其中   如果 房子 真的 不安   影響 非常 大     鍾 說   隔鄰 新建 工地 約 是 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 地面   竟 自己 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 牆面 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 已有 他 1 片 手指甲 寬   至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 編譯 管淑平 ／ 綜合 報導 〕 印度 的 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 的 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   的 斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 也 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 在 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 有 60 多戶 搬 到 政府 的 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 的 近因 「 似乎 是 有 問題 的 排水 系統 導致 房子 底下 滲水   造成 下陷   」   斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 和 觀光客 也 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 也 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 的 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   也 有 50 多間 房子 出現 不斷 擴大 的 裂縫   該鎮 人口 5 萬人  </t>
+          <t xml:space="preserve">〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">印度 北部 喜馬 拉雅山 區   一個經 常有 朝聖者 和 觀光 客造訪 的 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 也 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 在 安全 的 避難 地點   印度 北部 的 山城 地層下陷   房屋   樓梯 及 道路 都 嚴重 龜裂   建築物 的 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示   「 有 5 戶 人家 已經 搬走   其他 好 幾戶 也 計劃 遷移   另 做 打算   」 官員 表示   最近 幾個 星期 當地 通報 有 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 的 地點   「 在 找到 解決 方法 之前   我們 先 把 居民 安置 在 安全 無虞 的 飯店 賓館 跟 民宿   」 喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 的 門戶   也 常有 想要 征服 喜馬 拉雅山 的 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候 變遷 對 喜馬 拉雅山 的 影響   但 如果 不 做好 水土保持   這座 「 沉 沒 的 城鎮 」 可能 很快 就 會 走向 毀滅  </t>
+          <t xml:space="preserve">印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">插 在 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 在 田中 的 宮廟   事實 上 這座 宮廟 興建 在 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 的 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間 「 插 在 稻田 中 的 廟宇 」 出現 在 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 的 廟   仔細 一看   屋頂 上 的 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   有 大批 網友 直呼   「 真是 神跡 」   「 從田裡 冒 出廟 頂   是 獨特 的 裝置 藝術 」   更 有人 笑稱   「 這是 真正 的 土地公 廟   」 而前 來 朝 聖 的 遊客 蕭 先生 也 說   「 很 奇特 啊   田中 的 廟 」   其實   這間 廟 已有 將近 兩 百年 的 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 在 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說   「 大家 都 會 好奇   裡面 的 東西有 沒有 搬出 來   神明 有 沒 有 沉下去   都 會問 這些 問題   其實 神明 都 有 請 出來   」   百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  </t>
+          <t xml:space="preserve">插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">疑因 「 豐采 520 」 建案 導致 竹 北市 莊敬 六街 發生 道路 坍塌   一輛 特斯拉 還掉 進去   新竹 縣長 楊 文科 今天 表示   已 與 竹 北市 長 鄭 朝方 協議   市公所 將 全力 配合 相關 作業   並 要求 建商以 透地雷達 設備   預防性 檢測 建案 四周 道路 土質 情形   預防 再次 坍塌   工務處 表示   目前 初判 造成 此次 坍塌   原因 是 建商開 挖 地下室 抽取 地下水   導致 土砂 層 部分 帶 走 地層下陷   為 防止 附近 道路 再次 發生 坍塌   已 要求 建商以 透地雷達 設備 詳實 檢測 建案 四周 的 勝利 二路   勝利 一路   莊敬 六街 及 自強 北路   確認 是否 仍有 土質 流失 造成 坑洞   由 於 該 路段 路權 為 竹北 市公所 權責   縣長 楊 文科 與 竹 北市 長 鄭 朝方 達 成共識   市公所 將 全力 配合 周邊 道路 封鎖 及 透地雷達 監測 等   展開 全面 檢測   縣府 也 已 與 市公所 研議 相關 作業   確保 附近 住戶 安全 無虞   工務處 指出   縣府 也 已 要求 建商 於 維生 管線   及 自來 水   電力   瓦斯 等 檢測 維修 完成 後   會同 竹北 市公所 同意   以低 強度 混凝土 灌漿 補強   針對 承造 及 監造 人   縣府 也 希望 做 加重 懲罰 的 機制   將 蒐集 近幾次 的 相關 違 失事 證   移送 新竹 縣營 造業 審議 委員會 及 建築師 懲戒 委員會 審議   另外   縣府 也將 此次 工安 事件 提列 為 建築 爭議 的 損鄰 事件   立案 列管   通知 起造   承造 及 監造 人 改善 鄰房 損害 情況   並 於 完成 安全 改善 修 復 後   檢具 相關 證明 文件 與 同意 書 報府 核備   後 續 建商 也 必須 與 受 損戶 達成 和解   縣府 才 會 核發 使用 執照   工務處 也 說   縣府 將持續 配合 新竹 地檢署 調查   後 續 該 工地 建商 如 欲 復工   縣府將 與 竹檢 取得 共識   要求 工地 完善 工地 安全   確定 鑑定 報告 結果 無 虞   舉辦 施工 說 明會   繳清 所有 罰 鍰   以 嚴格 標準 檢視 改善 結果 後   再 評估 是否 辦理 復工  </t>
+          <t xml:space="preserve">疑因   豐采 520   建案 導致 竹 北市 莊敬 六街 發生 道路 坍塌   一輛 特斯拉 還掉 進去   新竹縣 長 楊 文科 今天 表示   已 與 竹北 市長 鄭 朝方 協議   市公所 將 全力 配合 相關 作業   並 要求 建商以 透地雷達 設備   預防性 檢測 建案 四周 道路 土質 情形   預防 再次 坍塌   工務處 表示   目前 初判 造成 此次 坍塌   原因 是 建商開 挖 地下室 抽取 地下水   導致 土砂 層 部分 帶 走 地層下陷   為 防止 附近 道路 再次 發生 坍塌   已 要求 建商以 透地雷達 設備 詳實 檢測 建案 四周 勝利 二路   勝利 一路   莊敬 六街 自強 北路   確認 是否 仍有 土質 流失 造成 坑洞   由 於 該 路段 路權 為 竹北 市公所 權責   縣長 楊 文科 與 竹北 市長 鄭 朝方 達 成共識   市公所 將 全力 配合 周邊 道路 封鎖 透地雷達 監測 等   展開 全面 檢測   縣府 已 與 市公所 研議 相關 作業   確保 附近 住戶 安全 無虞   工務處 指出   縣府 已 要求 建商 於 維生 管線   自來 水   電力   瓦斯 等 檢測 維修 完成 後   會同 竹北 市公所 同意   以低 強度 混凝土 灌漿 補強   針對 承造 監造 人   縣府 希望 加重 懲罰 機制   將 蒐集 近幾次 相關 違 失事 證   移送 新竹縣 營造業 審議 委員會 建築師 懲戒 委員會 審議   另外   縣府 也將 此次 工安 事件 提列 為 建築 爭議 損鄰 事件   立案 列管   通知 起造   承造 監造 人 改善 鄰房 損害 情況   並 於 完成 安全 改善 修 復 後   檢具 相關 證明 文件 與 同意 書 報府 核備   後 續 建商 必須 與 受 損戶 達成 和解   縣府 才 會 核發 使用 執照   工務處 說   縣府 將持續 配合 新竹 地檢署 調查   後 續 該 工地 建商 如 欲 復工   縣府將 與 竹檢 取得 共識   要求 工地 完善 工地 安全   確定 鑑定 報告 結果 無 虞   舉辦 施工 說 明會   繳清 所有 罰 鍰   以 嚴格 標準 檢視 改善 結果 後   再 評估 是否 辦理 復工  </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 的 工地   做 全面 的 清查   是不是 有 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 的 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 的 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 的 事件   整起 事件 會 做 完整 的 調查   並且 就 工地 全面 檢視   以及 營造商 的 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 在 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影</t>
+          <t>台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北市 長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 在 第一 時間 做出 相關 的 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 也 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 的 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 的 真正 原因   並 儘 快 排除   避免 坍塌 的 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 的 事件   將針 對 工地 的 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 的 安全   避免 讓 地面 坍塌 的 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管 處資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  </t>
+          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管 處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 也 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺 「 天坑 」   圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺 「 天坑 」   圖 ／ 北市 府 提供</t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>台北市 也 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 也 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供</t>
+          <t xml:space="preserve">台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 的 大 天坑   台北市 建管 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 在 現場 協助 鄰 房民眾 疏散   台北市 建管 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供</t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>台北市 也 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 也 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 及 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 有 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管 處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 的 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝</t>
+          <t>北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 坍塌 處 附近   約 10 人 安置 飯店   要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺   天坑     圖 ／ 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管 處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 有 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 有 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管 處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 有 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>北市 信義區 今 下午 3 點 多出 現大 天坑   崇德 街 60 巷 民宅 前 路面 坍陷   傍晚 5 點多 坑洞 再 擴大   消防局 已緊 急 疏散 鄰近 住戶   信義區 公所 區長 陳 冠伶 表示   9 位有 安置 需求者   已協助 找 好 旅社 並 入住   每人 每日 可申 請 補助 1600 元   最多 7 天       區長 陳 冠伶 表示   人數 調查 一直 在 變動   目前 9 位有 安置 需求   依規定 發生 緊急 災害 可 申請 安置 補助   每人 一天 1600 元   最多 申請 7 天   已協助 找 好 旅社   住戶 均 已 入住 安置   該 坑 主要 範圍 為 18 號至 24 號   警戒 區 12 號至 24 號已 拉起 封鎖線   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝</t>
+          <t>台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 也 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 在 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   也 請里長 逐戶 安撫   現場 分為 撤離區 和 監測區   除了 天坑 之外   轉角 一戶 有 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 先生 住 在 當地 20 多年   他 提到 走路 經過 時   有 看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 先生 表示   他 姊姊 騎車 來 時   突然 聽到 「 砰 」 一聲 被 嚇到   那時 就 有 一個 小洞   自己 也 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t>北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 的 工地   做 全面 的 清查   是不是 有 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 的 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管 處   警察局   區 公所   水處   瓦斯 公司 等等   也 都 在 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 的 安全   避免 讓 地面 坍塌 的 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 的 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 的 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 的 事件   整起 事件 會 做 完整 的 調查   並且 就 工地 全面 檢視   以及 營造商 的 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 的 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 的 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 的 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 的 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 在 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 在 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 在 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 及 36 名 消防 員   消防局 長 莫懷祖 也 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 也 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 做 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 在 評估 要 不要 做 預防性 疏散   因為 市民 安全 最 重要   在 現場 關心 約 半小時 後   蔣萬安 在 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 的 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡   「 現在 先 搶 救   原因 之後再 來 探討 」     台北市 建管 處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   有 安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 內 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 也 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供</t>
+          <t xml:space="preserve">台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街巷 弄 內 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 的 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 的 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 的 坑洞   道路 緊鄰 的 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 有 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 有 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 的 姊姊 大概 下午 2 時 50 分 的 時候 聽 到 「 砰 」 的 聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 在 這個 過程 中越 來 越 大   路上 的 腳踏車   摩托 車等 就 跟 著 掉下去   「 很 可怕   」   鄭 大哥 表示   他 住 在 這裡 3 年 多 了   旁邊 的 建案 大概 去年 開始 施工   剛開 挖 的 時候 路面 有 龜裂   建商 就 來 補好   之 後 雖然 在 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 也 沒 有 什麼 異狀     黃 先生 則說   他 住 這裡 20 多年 了   今天下午 在 外面 散步   走過 去 時 發現 有 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 有 聽 到 什麼 聲音     新竹 縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 的 特斯拉 轎車 直接 掉落  </t>
+          <t xml:space="preserve">【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 施工   疑似 因為 工地 連續 壁施作   且 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 基本 填補 坑洞   受影響 住戶 透露   剛剛 一度 5 名住 戶 受困 屋子 裡   所幸 消防 員協助 救援   而 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 的 道路 「 地層下陷 」   消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 的 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險 「 懸空 」   警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管 處   新工處   道管 中心   瓦斯 公司   北水處 也 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管 處 初步 了解   由 於 住 戶 旁 就是 工地 在 施工   疑似 因為 工地 連續 壁施作   且 有 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 先 基本 填補 坑洞   受影響 住戶 也 透露   剛剛 一度 有 5 名住 戶 受困 在 屋子 裡   所幸 消防 員協助 救援   而 有 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 在 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  </t>
+          <t xml:space="preserve">台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北 市長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 的 道路 「 地層下陷 」   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 的 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險 「 懸空 」   而 台北市 長 蔣萬安 稍早 也 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 也 做 了 緊急 疏散   也 強調   當這次 事件 的 緊急 處置 告一段落 之 後   會 做 台北市 相關 工地 的 全面 清查   了解 是否 有類 似 這次 地面 坍塌 的 原因   積極 做 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   也 聽 了 相關 單位 的 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 有 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   也 趕快 連絡 了 警察局   新工處   建管 處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   也 做 了 緊急 疏散   蔣萬安 指出   也 跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 的 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 的 損害 降到 最低   第二   就 旁邊 的 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 做 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 也 包括 工地 實施者   營造 商過 去 的 相關 紀錄   第四   當這次 事件 的 緊急 處置 告一段落 之 後   要 做 台北市 相關 工地 的 全面 清查   了解 是否 有類 似 這次 地面 坍塌 的 原因   要積 極來 做 相關 處置   蔣萬安 表示   「 我們 現在 已經 非常 努力 在 做 緊急 應變   處置   第一 時間 也 盡快 的 疏散 了 住戶   我 想 市民 朋友 的 安全 是 最 重要 的   目前 還在 緊急 處置   我 想 必要 的 話 我們 還是 希望 做 預防性 疏散 」   而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 的 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 的 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 的 部分 用 混 泥土 灌足外   也 在 開 挖面 做 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 在 可控 的 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 有 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 的 狀態   估計 應該 都 要 到 凌晨  </t>
+          <t xml:space="preserve">〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 的 2 部機車 及 一部 腳踏車 瞬間 掉 進 天坑 內   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管 處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 也 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 在 現場 協助 鄰 房民眾 疏散  </t>
+          <t>北市 信義區 今 下午 3 點 多出 現大 天坑   崇德 街 60 巷 民宅 前 路面 坍陷   傍晚 5 點多 坑洞 再 擴大   消防局 已緊 急 疏散 鄰近 住戶   信義區 公所 區長 陳 冠伶 表示   9 位有 安置 需求者   已協助 找 好 旅社 並 入住   每人 每日 可申 請 補助 1600 元   最多 7 天       區長 陳 冠伶 表示   人數 調查 一直 變動   目前 9 位有 安置 需求   依規定 發生 緊急 災害 可 申請 安置 補助   每人 一天 1600 元   最多 申請 7 天   已協助 找 好 旅社   住戶 均 已 入住 安置   該 坑 主要 範圍 為 18 號至 24 號   警戒 區 12 號至 24 號已 拉起 封鎖線   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管 處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管 處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 在 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 在 坍塌 處 附近   約 10 人 安置 飯店   她 也 要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺 「 天坑 」   圖 ／ 北市 府 提供</t>
+          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街一處 新建 工地 旁 的 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 的 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 在 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 的 攤位   擔心會 再次 坍塌   周邊 住戶 說   「 昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   也 是 要 關心 一下 我 自己 的 攤位 啊   希望 說 沒 有 下 一次 啦   」 信義區 區長 陳 冠伶 表示   「 安置 了 5 戶   一共 是 10 位   那現 在 我們 把 他們 都 安置 在 我們 信義區 的 旅館裡   」 台北市 長 蔣萬安 上午 也 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及   「 接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 做 整體 評估   」 初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 也 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋   「 初步 判斷 是 工地 裡面 的 地下 連續 壁   大約 在 11 到 12 公尺 之間 有 破口   所以 它 的 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞   」 為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 有 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 有 安全 疑慮者將 下令 停工   改善  </t>
+          <t xml:space="preserve">〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 的 大樓 建案   因為 地下 連續 壁 有 破洞   都 發局 初步 調查 後   對 承造 人 和 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 的 旅館 內   相關 費用 將由建 商來 負責   巷弄 內 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 也 遭殃   鐵門 幾乎 懸空   這樣 的 情況 就 發生 在 台北市 信義區   短時間 內   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出   「 昨天 有 做 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 的 住戶 一共 有 5 戶 」   市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 的 有 5 戶   一共 10 人   暫時 住 在 信義區 的 旅館 內   依照 規定   每人每天 可以 請領 的 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 內 是 回 不了 家 了   超出 的 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 的 是 搶災 的 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 的 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 的 大樓   地下 4 層   地上 17 層   負責 營造 的 華熊 營造 公司   興建過 的 包括 台北 101   世貿 中心 和 陶朱 隱園   都 是 赫赫有名 的 建築   如今 卻 發生 工安 意外   也 讓 工程 暫時 喊 卡   首要 之務得 先 設法 解決 安全 問題   還給 當地 居民 一個 安全 的 家  </t>
+          <t xml:space="preserve">首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 的 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 的 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 在 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 內 的 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 在 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 的 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 有 無 孔洞 或 軟弱 土層   監測 建築物 有 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 有 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 內 水位 在 地下 5.5 公尺   大約 在 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 的 有七戶   需要 安置 的 住戶 一共 有 5 戶 10 人   目前 都 安置 在 信義區 的 旅館 內   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 的 部分   廠 商承諾 超出 的 部分 可 負擔  </t>
+          <t xml:space="preserve">台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 的 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 的 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   在 晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管 處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管 處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 內 仍 監督持續 進行 填砂 灌漿     台北市 建管 處長 虞積學 表示   經 建管 處緊 急 聯 繫   台北市 土木 技師 公會莊 理事 長 及 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 及 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反 「 建築法 」 部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管 處將 持續 在 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 及 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  </t>
+          <t xml:space="preserve">北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 大樓 建案   因為 地下 連續 壁 破洞   都 發局 初步 調查 後   對 承造 人 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 旅館   相關 費用 將由建 商來 負責   巷弄 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 遭殃   鐵門 幾乎 懸空   這樣 情況 就 發生 台北市 信義區   短時間   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出     昨天 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 住戶 一共 5 戶     市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 5 戶   一共 10 人   暫時 住 信義區 旅館   依照 規定   每人每天 可以 請領 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 是 回 不了 家 了   超出 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 是 搶災 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 大樓   地下 4 層   地上 17 層   負責 營造 華熊 營造 公司   興建過 包括 台北 101   世貿 中心 陶朱 隱園   都 是 赫赫有名 建築   如今 卻 發生 工安 意外   讓 工程 暫時 喊 卡   首要 之務得 設法 解決 安全 問題   還給 當地 居民 一個 安全 家  </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 基隆 報導 〕 基隆市 七堵 區 10 日 發生 百一街 一處 建案 工地 旁電桿 下陷 2 公尺   由 於 5 月 13 日 台北市 信義區 也 出現 道路 塌陷   民眾 憂心 忡忡 天坑 在 基隆 重現   民進 黨籍 的 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全   基隆 市府 15 日 下午 5 點發布 新聞稿   市府 強調 已 要求 建案 停工   市府 將 全面 清查 基隆市 相關 工地 安全     曾怡芳 指出   10 日 晚間 五堵 國小 附近 的 一處 建案   突然 發生 建案 旁 的 電桿 下陷 2 公尺 的 意外   並 造成 附近 住戶 停電 5 小時   日前 台北市 信義區 也 發生 工地 旁 道路 塌陷 意外   引起 當地 居民 不安   擔心 天坑 在 基隆 重現     百一街 工地 旁電桿 下陷 事件 發生 後   基隆 市政府 都市 發展 處 12 日 赴 工地 現場 勘查   當天 結論 是 暫 不 要求 業者 停工   待 完成 固化 後   才 會 檢視 發生 電桿 塌陷 及 道路 龜裂 的 部分   但業者 表示   10 日 之所以 會 發生 電桿 塌陷   是 因為 電桿 上 的 變電箱 太重   土質 太 鬆 軟   才 導致 下陷 停電     曾怡芳 指出   事發 的 建案 旁 就是 五堵 國小   學童 人 數眾 多   且 鄰近 新台 五路 高架 橋   再 加上 附近 居民 也 表示   自該 建案 動工 以來   已導致 多處 柱位   地面 破損 龜裂   地面 高低 差達 7 公分   這樣 的 房子 根本 無法 住 人     曾怡芳 要求 基隆 市政府 重視 工安   不要 讓 4 月 27 日 的 新竹 天坑   5 月 13 日 的 北市 信義區 天坑 在 基隆 重現   並 要求 市府 以 最高 標準   來 審查 檢視此 建案     基隆 市政府 都 發處長 謝孝坤 表示   市府 15 日 已 經先 要求 百一街 的 工地 停工   後 續會 邀請 第三方 相關 技師 公會 詳細 檢視   釐 清電桿 下陷 原因   確保 安全 無虞後才 會 准許 復工   另外   市府 也 會 優先 清查 和 巡檢 全市 正在 開挖 地基 和 施作 連續 壁 的 工地   確 保民 眾 安全  </t>
+          <t xml:space="preserve">〔 記者 俞肇福 ／ 基隆 報導 〕 基隆市 七堵 區 10 日 發生 百一街 一處 建案 工地 旁電桿 下陷 2 公尺   由 於 5 月 13 日 台北市 信義區 出現 道路 塌陷   民眾 憂心 忡忡 天坑 基隆 重現   民進 黨籍 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全   基隆市 府 15 日 下午 5 點發布 新聞稿   市府 強調 已 要求 建案 停工   市府 將 全面 清查 基隆市 相關 工地 安全     曾怡芳 指出   10 日 晚間 五堵 國小 附近 一處 建案   突然 發生 建案 旁 電桿 下陷 2 公尺 意外   並 造成 附近 住戶 停電 5 小時   日前 台北市 信義區 發生 工地 旁 道路 塌陷 意外   引起 當地 居民 不安   擔心 天坑 基隆 重現     百一街 工地 旁電桿 下陷 事件 發生 後   基隆市 政府 都市 發展 處 12 日 赴 工地 現場 勘查   當天 結論 是 暫 不 要求 業者 停工   待 完成 固化 後   才 會 檢視 發生 電桿 塌陷 道路 龜裂 部分   但業者 表示   10 日 之所以 會 發生 電桿 塌陷   是 因為 電桿 上 變電箱 太重   土質 太 鬆 軟   才 導致 下陷 停電     曾怡芳 指出   事發 建案 旁 就是 五堵 國小   學童 人 數眾 多   且 鄰近 新台 五路 高架 橋   再 加上 附近 居民 表示   自該 建案 動工 以來   已導致 多處 柱位   地面 破損 龜裂   地面 高低 差達 7 公分   這樣 房子 根本 無法 住 人     曾怡芳 要求 基隆市 政府 重視 工安   不要 讓 4 月 27 日 新竹 天坑   5 月 13 日 北市 信義區 天坑 基隆 重現   並 要求 市府 以 最高 標準   來 審查 檢視此 建案     基隆市 政府 都 發處長 謝孝坤 表示   市府 15 日 已 經先 要求 百一街 工地 停工   後 續會 邀請 第三方 相關 技師 公會 詳細 檢視   釐 清電桿 下陷 原因   確保 安全 無虞後才 會 准許 復工   另外   市府 會 優先 清查 巡檢 全市 正在 開挖 地基 施作 連續 壁 工地   確 保民 眾 安全  </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>桃園 市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 和 草原 都 因 地層下陷   出現 大大小小 的 坑洞   遭議員 批評 宛如 成 了 「 地 雷公 園 」   市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 及 建置 自行 車道 會 勘過 程中   發現 有 綠地 及 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區 「 都 會 中 的 綠洲 」                             市議員 張桂綿 近期 發現   公園 中 的 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 和 兒童 奔跑 的 大 草原 也 出現 大小不一 的 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失       「 這裡 宛如 地雷 區   」 張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 她 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除 「 地雷 」   還給 鄉親 安全 的 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 的 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會 勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現 「 無底 洞 」   遭議員 批評 宛如 成 了 「 地 雷公 園 」   圖 ／ 張桂綿 提供</t>
+          <t>桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 草原 都 因 地層下陷   出現 大大小小 坑洞   遭議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 建置 自行 車道 會勘 過程 中   發現 綠地 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區   都 會 中 綠洲                               市議員 張桂綿 近期 發現   公園 中 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現   無底 洞     遭議員 批評 宛如 成 了   地 雷公 園     圖 ／ 張桂綿 提供</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">桃園 市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 和 草 原因 地層下陷   出現 大大小小 的 坑洞   議員 批評 宛如 成 了 「 地 雷公 園 」   市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會 勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   在 南 崁 住宅 密集 區營造 「 都 會 中 的 綠洲 」                             市議員 張桂綿 說   公園步 道 近期 嚴重 下陷   包括 法式 滾球區 和 兒童 奔跑 的 大 草原 也 出現 大小不一 的 坑洞   甚至 掏空 成 「 無底 洞 」   推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失       「 這裡 宛如 地雷 區   」 張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   她 已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除 「 地雷 」   還給 鄉親 安全 的 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 的 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  </t>
+          <t xml:space="preserve">桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 草 原因 地層下陷   出現 大大小小 坑洞   議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   南 崁 住宅 密集 區營造   都 會 中 綠洲                               市議員 張桂綿 說   公園 步道 近期 嚴重 下陷   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成   無底 洞     推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 的 速度   持續 下沉 中   而 有 部分 地區   下沉 的 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 的 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 和 海平面 上升 的 雙重 夾擊   讓 紐約市 岌岌可危   「 紐約 市將 在 30 年後沈入 海底     」 這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 的 速度 持續 下沉 中   紐約市 有 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 的 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 的 重量   聯合國 秘書長 古特 瑞斯 說   「 海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數 」   原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 的 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 的 情況 是   21 世紀 結束 時   紐約 海平面 比現 在 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  </t>
+          <t xml:space="preserve">根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 速度   持續 下沉 中   而 部分 地區   下沉 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 海平面 上升 雙重 夾擊   讓 紐約市 岌岌可危     紐約 市將 30 年後沈入 海底       這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 速度 持續 下沉 中   紐約市 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 重量   聯合國 秘書長 古特 瑞斯 說     海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數     原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 情況 是   21 世紀 結束 時   紐約 海平面 比現 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 的 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 的 居民 生存 備受 威脅     紐約 每年 均 在 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 在 內 的 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 的 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 的 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 的 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 內 的 建築物 也 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 和 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成 的   因為 上 一次 冰河 時期 最 寒冷 的 時候   巨大 的 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 的 地區則 開始 下陷     之前 有 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 的 力量 之外   研究 人員 也 認為還 可能 包括 其他人 為 因素   且 科學家 也 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 的 重量 造成     本次 研究 結果 刊登 在 Earth   s   Future 期刊   【 更 多 精采 內容   詳見 】</t>
+          <t>紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 的 是   科學家 預期 由 於 人 為 引發 的 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說   「 我們 離 海水倒灌 還有 一段 很長 的 路 … 但 我們 在 紐約 市經 歷過 數次 嚴重 的 颶風 事件   像 颶風珊迪   Sandy   及 艾達   Ida   帶來 的 暴雨 使得 城市 淹水 成災   都市化 帶來 的 部分 影響 也 使得 水災 發生   」   這篇論 文發表 在 期刊 「 地球 的 未來 」   Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 的 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 的 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 的 質量   計算出 這些 建築物 的 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 的 波音 747   400 客機     研究 團隊 接著 利用 模擬 的 方式   計算出 這些 重量 對 地面 的 影響   並和 顯示 實際 地表 地質 情況 的 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 的 地區 每年 下陷 約 4.5 毫米 」     然而   並非 所有 地層下陷 都 是 建築物 造成 的   帕森斯 說   「 我們 可想 見 在 非常 鬆 軟 的 土壤 和 人工 填土 的 地面 上 建造 建築 和 地層下陷 的 關聯 … 在 其他 地方   我們則 看到 難以 解釋 的 地層下陷   它 有 很多 不同 的 成因   例如 上個 冰河 時期 後 發生 的 後 冰期 回落   或是 抽取 地下水   」   研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 在 紐約市     帕森斯 說   「 這是 一個 全球性 的 問題   我來 自羅德島 大學   University   of   Rhode   Island   的 合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 也 有 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題   」</t>
+          <t xml:space="preserve">一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">經典 末日 電影   明天 過後     海水 源源 不絕 灌入 市區   整座 城市 轉眼 之間 沉 沒 大海   令人 難以 置信   這樣 的 災難 情節   未來 可能 在 紐約 真實 上演   人稱 「 大 蘋果 」 的 美國 紐約   高樓 林立   房子 一棟 比 一棟 蓋 得 更 高   更 奢華   光是 摩天 大樓 就 多 達 6000 棟   整座 城市 更 有 超過 100 萬棟 建築物   總 重量 高達 7700 億 公斤   約 1.4 億頭 大象   而 高樓 數量 還持續 在 增加 中   土地 承受 不了 建築物 重壓   加上 超 抽 地下水   使得 地層下陷   紐約 正 逐漸 下沉 中   雖然 從 數字來 看 沒什麼 大不了   換算 下來   每 10 年 才 下沉 2 公分   但 專家 警告   這對 沿海 地區 的 影響 不容 小覷   紐約 人口 最 密集 的 曼哈頓 跟 海岸 地區 首當 其衝   這個 世紀末   也 就是 西元 2100 年前   可能 陷入 汪洋 之中   成 了 名 副 其實 的 「 水 都 」   專家 擔心   在 地層下陷 跟 海平面 上升 雙重 夾擊 下   未來 如果 再 遇上 強烈 颶風   災情 可能 一年 比 一年 嚴重   氣候 變遷 加劇   海平面 快速 上升   原因 都 跟 高碳 排放 脫 不了 關 係   減碳 成為 各國 首要 目標   紐約 當局 祭出 了 減碳 法令   限制 大樓 的 排放量   希望 改善 暖化 問題   減緩 海平面 上升   紐約 一半 以上 的 建築都將 受到 規範   有效 控制 碳 排放   有些 建商 也 採用 新技術   在 地下室 打造 「 碳 捕捉 室 」   把 二氧化碳 收集 起來   做 更好 的 利用   透過 儀器   把 天然 氣燃 燒產生 的 二氧化碳 轉換成 液態   阻止 它 進入 大氣層   還能 賣給 建商   力行 減碳免 於 受罰   還能 賺 錢   是 一舉 多 得   大樓 是 紐約 最大 的 碳 排放 來源   佔 了 城市 碳排 的 三分之二   把 造成 暖化 的 二氧化碳 封存 在 水泥 內   從 根本 的 減碳 做起   未來 也將 全面 電氣化   停止使用 天然 氣和 化石 燃料   減緩 暖化 速度   紐約 當局 也 防患未然   在 沿海 地區 設立 防波堤   環繞 整個 紐約   強化 海岸 的 防洪 能力   避免 強烈 颶風來 襲時   海水 灌入 市區   對 市區 造成 損害   建造 海牆 能 有效 防洪   但 可能 破壞 市容   也 干擾 海邊 活動   影響 沿海居民   美國陸 軍 工程兵 團也 在 擬定 一項 名為 3B 的 新計畫   把 防洪 設施 分散 各地   降低 對 當地 的 影響   也 能 達 到 最好 的 效果   希望 對 民生   環境 能 面面俱到   不 只 紐約 面臨 下沉 危機   全球 多國 的 沿海 城市   也 飽 受 海平面 上升 之苦   氣候 變遷 的 威脅 越來 越大   各國 除了 要 加強 防洪 設施   也 要 在 經濟 開發 跟 環保 取得 平衡   加強 減碳 跟 發展 綠色 能源   才能 防止 大自然 反撲  </t>
+          <t xml:space="preserve">經典 末日 電影   明天 過後     海水 源源 不絕 灌入 市區   整座 城市 轉眼 之間 沉 沒 大海   令人 難以 置信   這樣 災難 情節   未來 可能 紐約 真實 上演   人稱   大 蘋果   美國 紐約   高樓 林立   房子 一棟 比 一棟 蓋 得 更 高   更 奢華   光是 摩天 大樓 就 多 達 6000 棟   整座 城市 更 超過 100 萬棟 建築物   總 重量 高達 7700 億 公斤   約 1.4 億頭 大象   而 高樓 數量 還持續 增加 中   土地 承受 不了 建築物 重壓   加上 超 抽 地下水   使得 地層下陷   紐約 正 逐漸 下沉 中   雖然 從 數字來 看 沒什麼 大不了   換算 下來   每 10 年 才 下沉 2 公分   但 專家 警告   這對 沿海 地區 影響 不容 小覷   紐約 人口 最 密集 曼哈頓 跟 海岸 地區 首當 其衝   這個 世紀末   就是 西元 2100 年前   可能 陷入 汪洋 之中   成 了 名 副 其實   水 都     專家 擔心   地層下陷 跟 海平面 上升 雙重 夾擊 下   未來 如果 再 遇上 強烈 颶風   災情 可能 一年 比 一年 嚴重   氣候變遷 加劇   海平面 快速 上升   原因 都 跟 高碳 排放 脫 不了 關 係   減碳 成為 各國 首要 目標   紐約 當局 祭出 了 減碳 法令   限制 大樓 排放量   希望 改善 暖化 問題   減緩 海平面 上升   紐約 一半 以上 建築都將 受到 規範   有效 控制 碳 排放   有些 建商 採用 新技術   地下室 打造   碳 捕捉 室     把 二氧化碳 收集 起來   更好 利用   透過 儀器   把 天然 氣燃 燒產生 二氧化碳 轉換成 液態   阻止 它 進入 大氣層   還能 賣給 建商   力行 減碳免 於 受罰   還能 賺 錢   是 一舉 多 得   大樓 是 紐約 最大 碳 排放 來源   佔 了 城市 碳排 三分之二   把 造成 暖化 二氧化碳 封存 水泥   從 根本 減碳 做起   未來 也將 全面 電氣化   停止使用 天然 氣和 化石 燃料   減緩 暖化 速度   紐約 當局 防患未然   沿海 地區 設立 防波堤   環繞 整個 紐約   強化 海岸 防洪 能力   避免 強烈 颶風來 襲時   海水 灌入 市區   對 市區 造成 損害   建造 海牆 能 有效 防洪   但 可能 破壞 市容   干擾 海邊 活動   影響 沿海居民   美國陸 軍 工程兵 團也 擬定 一項 名為 3B 新計畫   把 防洪 設施 分散 各地   降低 對 當地 影響   能 達 到 最好 效果   希望 對 民生   環境 能 面面俱到   不 只 紐約 面臨 下沉 危機   全球 多國 沿海 城市   飽 受 海平面 上升 之苦   氣候變遷 威脅 越來 越大   各國 除了 要 加強 防洪 設施   要 經濟 開發 跟 環保 取得 平衡   加強 減碳 跟 發展 綠色 能源   才能 防止 大自然 反撲  </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">美國 紐約 是 東部 最熱鬧 的 城市 之一   也 是 美國 人口 最多 的 城市   但 有 研究 顯示   這座 重要 的 城市 卻 每年 都 在 下沉 中   部分 地區 最 後 可能 還會 被淹 沒   電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   美國 紐約 摩天 大樓 林立   但 多 達 百萬棟 建築物實 在 太重 了   讓 整座 城市 地層 正在 下陷   再 加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   長 久 下來 恐發生 海水倒灌 等 洪水 災害   美國 地質 調查 所 專家 帕森斯 表示   「 無可 避免 的   地面 在 下降   水面 上升   在 某些 時候   這兩層 面會 同時 發生   但 我 沒辦 法給 你 確切 的 時間點   」 帕森斯 說   超過 百萬座 建築物 分布 在 五個 行政 區上   加起 來 約 有 1.7 兆 磅 的 混凝土   金屬 和 玻璃 等 建材   相當 於 4700 座帝 國大廈 的 重量 壓在 地球 上   其中   部分 大樓 建築 在 布魯克林   皇后 區和曼 哈頓 市中心 土 質 鬆 散 的 地 區 上   下沉 速度 更 快   美國 地質 調查 所 專家 帕森斯 表示   「 中部 大陸 上升   東 海岸 每年 下沉 約 1 至 2 公 釐   這是 我們 看到 的 主要 警訊   再 加上 紐約市 有 不同 土壤 質地   還有 人工 填土 來 增加 土地 面積   但 它們 的 土壤 固結度 很 差   還是 可以 讓 地層下陷   」 帕森斯 還說   雖然 下沉 的 速度 很 緩慢   但 紐約 部分 地區 最 終將 被淹 沒   猶如 電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   至於 紐約 是否 會 變成 美國版 的 威尼斯   帕森斯 表示   確切 的 時間點 目前 尚 不 清楚   可能 還 需要 數 百年 的 時間   但 他 的 研究 不是 危言 聳 聽   只是 希望 透過 科學 數據   在 問題 擴大前   先 採取 行動  </t>
+          <t xml:space="preserve">美國 紐約 是 東部 最熱鬧 城市 之一   是 美國 人口 最多 城市   但 研究 顯示   這座 重要 城市 卻 每年 都 下沉 中   部分 地區 最 後 可能 還會 被淹 沒   電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   美國 紐約 摩天 大樓 林立   但 多 達 百萬棟 建築物實 太重 了   讓 整座 城市 地層 正在 下陷   再 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   長 久 下來 恐發生 海水倒灌 等 洪水 災害   美國 地質 調查 所 專家 帕森斯 表示     無可 避免   地面 下降   水面 上升   某些 時候   這兩層 面會 同時 發生   但 我 沒辦 法給 確切 時間點     帕森斯 說   超過 百萬座 建築物 分布 五個 行政 區上   加起 來 約 1.7 兆 磅 混凝土   金屬 玻璃 等 建材   相當 於 4700 座帝 國大廈 重量 壓在 地球 上   其中   部分 大樓 建築 布魯克林   皇后 區和曼 哈頓 市中心 土 質 鬆 散 地 區 上   下沉 速度 更 快   美國 地質 調查 所 專家 帕森斯 表示     中部 大陸 上升   東 海岸 每年 下沉 約 1 至 2 公 釐   這是 我們 看到 主要 警訊   再 加上 紐約市 不同 土壤 質地   還有 人工 填土 來 增加 土地 面積   但 它們 土壤 固結度 很 差   還是 可以 讓 地層下陷     帕森斯 還說   雖然 下沉 速度 很 緩慢   但 紐約 部分 地區 最 終將 被淹 沒   猶如 電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   至於 紐約 是否 會 變成 美國版 威尼斯   帕森斯 表示   確切 時間點 目前 尚 不 清楚   可能 還 需要 數 百年 時間   但 他 研究 不是 危言 聳 聽   只是 希望 透過 科學 數據   問題 擴大前   採取 行動  </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 今天 塌陷   一輛 預拌 混凝土車 側翻   壓傷 一名 工人   被 送醫 急救   台中市 勞檢處 已 派 人 到場 調查   並 勒令停工   因 工地 沒 做 擋 土   地面 承載力 不足 等 缺失       台中市 消防局 今天 早上 9 點接 獲 報案   沙鹿 區錦華街 一處 工地 旁發生 緊急 創傷 救護   出動 沙鹿   龍井   梧棲   西屯 分隊 及 第四 大隊   各式 消防 車輛 10 輛   消防人 員 25 名   由大隊 長 蔡孟栩帶 隊 指揮 搶 救                             現場 是 路面 坍方   造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人   工地 營建廠 商已 協助 聯 繫 吊 車 到 場   地層下陷 造成 預拌 混 泥土 車車輛 翻覆   沙鹿 消防 分隊 到 場後先 以 消防 車絞盤   梧棲分隊 使用 車 吊臂 共同 固定 預拌 混 泥土 車   確保 傷者 安全 無虞   因 該車 重量 達 35 噸 以上   需 等待 業者 配合 大型 吊車 到 場方能 吊掛   先由救護 人員 接觸 患者 進行 緊 急救 護處 置       早上 9 點 34 分   業者 調派 吊車 至 現場 進行 車輛 吊掛   消防局 搶 救人 員協助 以油 壓破壞 器材   協助 傷者 脫困   10 點 4 分傷者 順利 脫困   送 梧棲童 綜合 醫院       傷者 到 醫院 時 意識 清楚   雙 下肢 和 背部 擦 挫傷   右 大腿 燙傷   應是 鋼版 高溫 造成   目前 仍 在 醫院 檢查 中   台中市 勞檢處 表示   工地 的 地面 承載力 不足   造成 地面 塌陷   車翻 傷心 意外   已 要求 停工   將開罰 3 到 30 萬元 不 等 罰 鍰   台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供</t>
+          <t>台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 今天 塌陷   一輛 預拌 混凝土車 側翻   壓傷 一名 工人   被 送醫 急救   台中市 勞檢處 已 派 人 到場 調查   並 勒令停工   因 工地 沒 擋 土   地面 承載力 不足 等 缺失       台中市 消防局 今天 早上 9 點接 獲 報案   沙鹿 區錦華街 一處 工地 旁發生 緊急 創傷 救護   出動 沙鹿   龍井   梧棲   西屯 分隊 第四 大隊   各式 消防 車輛 10 輛   消防人 員 25 名   由大隊 長 蔡孟栩帶 隊 指揮 搶 救                             現場 是 路面 坍方   造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人   工地 營建廠 商已 協助 聯 繫 吊 車 到 場   地層下陷 造成 預拌 混 泥土 車車輛 翻覆   沙鹿 消防 分隊 到 場後先 以 消防 車絞盤   梧棲分隊 使用 車 吊臂 共同 固定 預拌 混 泥土 車   確保 傷者 安全 無虞   因 該車 重量 達 35 噸 以上   需 等待 業者 配合 大型 吊車 到 場方能 吊掛   先由救護 人員 接觸 患者 進行 緊 急救 護處 置       早上 9 點 34 分   業者 調派 吊車 至 現場 進行 車輛 吊掛   消防局 搶 救人 員協助 以油 壓破壞 器材   協助 傷者 脫困   10 點 4 分傷者 順利 脫困   送 梧棲童 綜合 醫院       傷者 到 醫院 時 意識 清楚   雙 下肢 背部 擦 挫傷   右 大腿 燙傷   應是 鋼版 高溫 造成   目前 仍 醫院 檢查 中   台中市 勞檢處 表示   工地 地面 承載力 不足   造成 地面 塌陷   車翻 傷心 意外   已 要求 停工   將開罰 3 到 30 萬元 不 等 罰 鍰   台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">印尼 海域 的 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 的 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 有 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 的 寧靜 自然   還能 在 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出   「 紅樹林 是 很 獨特 的 生態 系統   一種 植物   有趣 的 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要 的 嗎   」 印尼 首都 雅加 達長 期受 極端 氣候 引發 的 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷 都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 的 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 的 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 的 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 的 一小部分   過去 一年 就 有 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 的 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示   「 我們 需要 生存 下去   但 很 難 找到 像樣 的 工作   當時 唯一 知道 的 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁   」 這片 海域 位 在 東南亞 從菲律 賓到 印尼   澳洲 之間 的 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 在 當地 巴迪島   努力 復 育 周邊 3 公頃 的 珊瑚礁   耐心 說 服漁民 做 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 的 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 的 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 的 海底 回春   熱帶 魚群 穿梭 在 新生 的 珊瑚礁 之間   環境 科學家 尤素夫 提及   「 印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 的 世界 遺產   一個 小小的 努力 都 可能 影響 世界   」 印尼 海域 的 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 的 18%   在 珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 有 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 的 海域   一步 一步 把 失去 的 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  </t>
+          <t xml:space="preserve">印尼 海域 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 寧靜 自然   還能 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出     紅樹林 是 很 獨特 生態 系統   一種 植物   有趣 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要     印尼 首都 雅加 達長 期受 極端 氣候 引發 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 一小部分   過去 一年 就 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示     我們 需要 生存 下去   但 很 難 找到 像樣 工作   當時 唯一 知道 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁     這片 海域 位 東南亞 從菲律 賓到 印尼   澳洲 之間 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 當地 巴迪島   努力 復 育 周邊 3 公頃 珊瑚礁   耐心 說 服漁民 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 海底 回春   熱帶 魚群 穿梭 新生 珊瑚礁 之間   環境 科學家 尤素夫 提及     印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 世界 遺產   一個 小小的 努力 都 可能 影響 世界     印尼 海域 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 18%   珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 海域   一步 一步 把 失去 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">台南市 人權律師 湯德章 故居 2020 年 由 文化界 發起 募款 籌得 2 千萬元 買 下   稍微 整修   但 目前 房舍 破爛   蟲蛀   傾斜   有 危險 之 虞   湯德章 紀念 協會 自籌 經費 及 獲 文化部   台南市 文化局 補助   將斥資 1260 萬元修 復   昨舉 行動土   預計 1 年 後 完工   希望 恢 復 老屋 原來 面貌       湯德章 紀念 協會 理事 長 黃 建龍 說   湯德章 故居 透過 群眾 集資 的 力量 順利 搶 救 買 下   並將 嚴重 蛀蝕 部分 清理   拆除 危牆   重新 拉配 水電   布設 簡要 的 展覽   前年 開放 參觀   但 這棟 90 餘年 的 老屋   歷經 多次 地震   後 段 建物 明顯 地層下陷 傾斜   嚴重 漏水   梁柱 遭蟲 蛀   木件 門窗 不見 等   為 讓 故居 永續 經營   決定 修 復 再生                             協會 去年 與 崑 山 科技 大學 合作   由 郭一勤 老師 帶 領團 隊展 開建築物 的 損毀 檢查 與 重新 測繪   提出 湯德章 故居 保存 再生 計畫   獲 文化部 私有 老建築 保存 再生 計畫 通過 補助   修 復工 程由 文化部 及 台南市 文化局 補助 882 萬餘元   其餘 由 協會 自籌   初估 超過 600 萬元       市長 黃 偉哲 說   保存 再生 計畫將 進行 設施 的 再 優化   也 會 陳 列許 多 湯德章 律師 的 遺物 及 呈現 228 事件 的歷 史事 蹟   讓 後 世子 孫永遠 都 能 記得   「 希望 這段 歷史 被 原諒   但 不能 被 忘記   」     文化局 表示   市府 努力 協助 爭取 再生 計畫 的 過程 中   全案 因具 高 公益性   是 去年 文化部 私有 老建築 保存 再生 計畫 中 最 受矚 目的 申請案   湯德章 故居 修 復工 程啟 動   象徵推 廣人權 教育 之 路 向前 邁進 一大步  </t>
+          <t xml:space="preserve">台南市 人權律師 湯德章 故居 2020 年 由 文化界 發起 募款 籌得 2 千萬元 買 下   稍微 整修   但 目前 房舍 破爛   蟲蛀   傾斜   危險 之 虞   湯德章 紀念 協會 自籌 經費 獲 文化部   台南市 文化局 補助   將斥資 1260 萬元修 復   昨舉 行動土   預計 1 年 後 完工   希望 恢 復 老屋 原來 面貌       湯德章 紀念 協會 理事 長 黃 建龍 說   湯德章 故居 透過 群眾 集資 力量 順利 搶 救 買 下   並將 嚴重 蛀蝕 部分 清理   拆除 危牆   重新 拉配 水電   布設 簡要 展覽   前年 開放 參觀   但 這棟 90 餘年 老屋   歷經 多次 地震   後 段 建物 明顯 地層下陷 傾斜   嚴重 漏水   梁柱 遭蟲 蛀   木件 門窗 不見 等   為 讓 故居 永續 經營   決定 修 復 再生                             協會 去年 與 崑 山 科技 大學 合作   由 郭一勤 老師 帶 領團 隊展 開建築物 損毀 檢查 與 重新 測繪   提出 湯德章 故居 保存 再生 計畫   獲 文化部 私有 老建築 保存 再生 計畫 通過 補助   修 復工 程由 文化部 台南市 文化局 補助 882 萬餘元   其餘 由 協會 自籌   初估 超過 600 萬元       市長 黃 偉哲 說   保存 再生 計畫將 進行 設施 再 優化   會 陳 列許 多 湯德章 律師 遺物 呈現 228 事件 的歷 史事 蹟   讓 後 世子 孫永遠 都 能 記得     希望 這段 歷史 被 原諒   但 不能 被 忘記         文化局 表示   市府 努力 協助 爭取 再生 計畫 過程 中   全案 因具 高 公益性   是 去年 文化部 私有 老建築 保存 再生 計畫 中 最 受矚 目的 申請案   湯德章 故居 修 復工 程啟 動   象徵推 廣人權 教育 之 路 向前 邁進 一大步  </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>近期 受滯 留鋒面 及 農 曆 大潮 影響   台灣 南部 午後出現 局部 強 降雨   嘉義 沿海 地層下陷 易 淹水   五河 局 預置 淹水 感測器 及 移動式 抽水機   監控積 淹水 情況   縣府 也 提前 協助 清除 河道 障礙物   確保 排水 通洪順暢   並呼籲 漁民 做好 防災 措施       縣府 漁業 處 指出   因 近期 可能 有 大量 降雨   先 整備 防汛 應變   督導 2 件 在建 中 的 大型 養殖區 排水工程   移除 河道 中機 具及 打通 阻礙物   雖會 影響 工期 及 增加 工程 不便   但 仍 以防 災為 最 優先 考量   避免 造成 附近 或 上游 淹水 災情                             漁業 處 也 呼籲   這 周天 氣極 不 穩定   低壓 帶 及 滯 留鋒面 影響   易有 短延 時強 降雨   海面 風浪 也 不佳   提醒 漁友 要 多加 留意 養殖 管理   並 做好 防災 工作   若有 災害 要 隨時 通報   以利 立即 搶救       第五 河川 局說   已 成立 應變 小組   全天候 線上 監控 水情   以便 及時 應 對   確保 各項 防洪措施 在 關鍵 時刻 發揮 作用   並積 極加強 防汛 整備   對 抽水站   破堤 施工   防汛 缺口 及 在建 工程 等 重點 項目 進行 檢查 和 監督       五河 局 提醒   民眾 應多關 注水 情資訊   清理 自家 陽台 的 洩 水管 和 附近 的 溝渠   並透過 防災 資訊 服務網   以及 行動 水情 APP 等 防災 工具   即時 掌握 相關訊息   有效 減少 災害 損失   近期 受鋒面 影響 恐有 瞬間強 降雨   嘉義 縣 沿海 地層下陷 恐 淹水   縣府 督導 在建 中 大型 養殖區 做好 排水工程   記者 黃 于 凡 ／ 翻攝 近期 受鋒面 影響 恐有 瞬間強 降雨   第五 河川 局出動 移動式 抽水機 待命   記者 黃 于 凡 ／ 翻攝 近期 受鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷 區 慎防 淹水   記者 黃 于 凡 ／ 翻攝 近期 受鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷 區 慎防 淹水   記者 黃 于 凡 ／ 翻攝</t>
+          <t>近期 受滯 留 鋒面 及農 曆 大潮 影響   台灣 南部 午後出現 局部 強 降雨   嘉義 沿海 地層下陷 易 淹水   五河 局 預置 淹水 感測器 移動式 抽水機   監控積 淹水 情況   縣府 提前 協助 清除 河道 障礙物   確保 排水 通洪順暢   並呼籲 漁民 做好 防災 措施       縣府 漁業 處 指出   因 近期 可能 大量 降雨   整備 防汛 應變   督導 2 件 在建 中 大型 養殖區 排水工程   移除 河道 中機 具及 打通 阻礙物   雖會 影響 工期 增加 工程 不便   但 仍 以防 災為 最 優先 考量   避免 造成 附近 或 上游 淹水 災情                             漁業 處 呼籲   這 周天 氣極 不 穩定   低壓 帶 滯留 鋒面 影響   易有 短延 時強 降雨   海面 風浪 不佳   提醒 漁友 要 多加 留意 養殖 管理   並 做好 防災 工作   若有 災害 要 隨時 通報   以利 立即 搶救       第五 河川 局說   已 成立 應變 小組   全天候 線上 監控 水情   以便 及時 應 對   確保 各項 防洪措施 關鍵 時刻 發揮 作用   並積 極加強 防汛 整備   對 抽水站   破堤 施工   防汛 缺口 在建 工程 等 重點 項目 進行 檢查 監督       五河 局 提醒   民眾 應多關 注水 情資訊   清理 自家 陽台 洩 水管 附近 溝渠   並透過 防災 資訊 服務網   以及 行動 水情 APP 等 防災 工具   即時 掌握 相關訊息   有效 減少 災害 損失   近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 縣 沿海 地層下陷 恐 淹水   縣府 督導 在建 中 大型 養殖區 做好 排水工程   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   第五 河川 局出動 移動式 抽水機 待命   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷區 慎防 淹水   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷區 慎防 淹水   記者 黃 于 凡 ／ 翻攝</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 的 是   科學家 預期 由 於 人 為 引發 的 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說   「 我們 離 海水倒灌 還有 一段 很長 的 路 … 但 我們 在 紐約 市經 歷過 數次 嚴重 的 颶風 事件   像 颶風珊迪   Sandy   及 艾達   Ida   帶來 的 暴雨 使得 城市 淹水 成災   都市化 帶來 的 部分 影響 也 使得 水災 發生   」     這篇論 文發表 在 期刊 「 地球 的 未來 」   Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 的 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 的 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 的 質量   計算出 這些 建築物 的 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 的 波音 747   400 客機       研究 團隊 接著 利用 模擬 的 方式   計算出 這些 重量 對 地面 的 影響   並和 顯示 實際 地表 地質 情況 的 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 的 地區 每年 下陷 約 4.5 毫米 」       然而   並非 所有 地層下陷 都 是 建築物 造成 的   帕森斯 說   「 我們 可想 見 在 非常 鬆 軟 的 土壤 和 人工 填土 的 地面 上 建造 建築 和 地層下陷 的 關聯 … 在 其他 地方   我們則 看到 難以 解釋 的 地層下陷   它 有 很多 不同 的 成因   例如 上個 冰河 時期 後 發生 的 後 冰期 回落   或是 抽取 地下水   」     研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 在 紐約市       帕森斯 說   「 這是 一個 全球性 的 問題   我來 自羅德島 大學   University   of   Rhode   Island   的 合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 也 有 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題   」       Take   action   加入   倡議 +    </t>
+          <t xml:space="preserve">一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生         這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機       研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米         然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水         研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市       帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題           Take   action   加入   倡議 +    </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷 區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 的 高鐵橋 下 便 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 的 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   便 道 位 在 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 有 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 在 地層下陷 區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 也 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 的 行車 品質  </t>
+          <t>雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>雲林 縣土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 的 便 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林 縣府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 的 低 強度   高流動 建材 施工   預定 近期 內 封路 動工   10 月 完工       高鐵 雲林 縣土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 的 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 在 下陷 區動 工將 橫跨 高鐵 的 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行 「 減重 」   此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 的 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 的 高鐵 便 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 的 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 便 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林 縣長 張麗善 今天 會 同工 務處 及 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   便 道 位 於 高鐵 的 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 的 兩側 便 道 共 修繕 約 630 公尺   採 「 低 強度   高流動 」 混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 便 道 承載 安全   在 路口 設 有限 重 10 噸 以下 的 車輛 通行   但 地方 反映   長 期來 仍 有 不少 大型 車為求 方便 直接 通行   才 使 便 道路 面受損   也 將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 內 雲 101   雲 98 道路 及 西螺 鎮九隆里 農路 等 會 勘 改善 工程   雲林 縣長 張麗善 一行 人 再 轉往 土庫崙 內 等 地   會 勘多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 便 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影</t>
+          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 高鐵橋 下 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   道 位 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 地層下陷區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 行車 品質  </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">高鐵 地層下陷 區 雲林 土庫 段橋 下 便 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 有 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬 上 攔檢   位 在 高鐵 雲林 土庫 段橋 下 便 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 有 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示   「 大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞   」 土庫 鎮長 陳 特凱則 指出   「 柏油 鋪設 之 後   多年 來 它 的 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 的 情況   一而再 再而三 的 重 複   」 土庫鎮 公所 表示   高鐵橋 下 便 道 窄   本來 就 不 適合大車 通行   但 有 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林 縣府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林 縣府 工務 處長 汪令堯 說明   「 這 路段 經 地方 反映   主要 是 它 地質 也 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     那 加上 這邊 也 有 重車 行駛   造成 它 地面 下陷 蠻 嚴重 的   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC   」 工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   便 道 位 在 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   也 將請 警方 加強 取締   維護 好 的 行車 品質  </t>
+          <t xml:space="preserve">高鐵 地層下陷區 雲林 土庫 段橋 下 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬 上 攔檢   位 高鐵 雲林 土庫 段橋 下 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示     大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞     土庫 鎮長 陳 特凱則 指出     柏油 鋪設 之 後   多年 來 它 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 情況   一而再 再而三 重 複     土庫鎮 公所 表示   高鐵橋 下 道 窄   本來 就 不 適合大車 通行   但 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林縣 府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林縣 府 工務 處長 汪令堯 說明     這 路段 經 地方 反映   主要 是 它 地質 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     加上 這邊 重車 行駛   造成 它 地面 下陷 蠻 嚴重   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC     工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   道 位 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   將請 警方 加強 取締   維護 好 行車 品質  </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林 縣土庫 鎮高鐵 沿線 列屬 地層下陷 區   軌道 下方 雲 158 甲線 通往 雲 97 線 的 便 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 的 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會 勘 後 表示   近期 內 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 便 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   在 路口 設 有限 重 10 噸 以下 的 車輛 通行   但 地方 反映 長 期來 仍 有 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   也 將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 的 兩側 便 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   便 道 不能 任意 挖掘 施工   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 的 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  </t>
+          <t xml:space="preserve">雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映 長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 兩側 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   道 不能 任意 挖掘 施工   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 的 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 的 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為 「 地獄 之門 」       影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 的 地形   這種 高低 起伏 的 地表 在 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示   「 當地 人稱 之 為 塌陷   在 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大 」       科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 的 苔原 也 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 的 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是 「 危險訊號 」   「 今 後   隨著 氣溫 升高 和 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 的 永凍土 都 消失 為止 」       永凍土 融化 已威脅 到 俄國 北部 與 東 北部 的 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 的 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 也 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說   「   兩 年前   巨坑 邊緣   距離 這條 小路 大約 有 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了   」     科學家 不 確定 巴塔 蓋卡 坑洞 擴大 的 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 的 土地   有些 地方 深約 100 公尺   含有 「 大量 」 有機 碳   隨著永凍 土 融化   這些 有 機碳 將釋 放到 大氣 中   加劇 全球 暖化   「 隨著 氣溫 的 升高   我們 可以 預計   巨坑   將以 更 快 的 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化   」         路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 的 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 的 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為 「 地獄 之門 」   路透</t>
+          <t>路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 的 永凍土 塌陷 坑   當地 人 把 它 稱作 「 冥界 之門 」   隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 有 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境 內 的 「 巴塔 蓋卡大融 洞 」   是 全世界 最大 的 永凍土 塌陷 坑   當地 人 把 它 稱作 「 冥界 之門 」   當地 居民 斯特 魯奇 科夫 表示   「 這是 在 1970 年代 形成 的   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大   」 當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 的 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出   「 這是 個 危險 的 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成 的   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 的 永凍土 都 消失   」 更 糟糕 的 是   隨著永凍 土 消失   封存 在 裡頭 的 有 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示   「 永凍 土內 的 碳 存量 是 大氣 中 的 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 的 甲烷 跟 二氧化碳 排放   加速 溫室 效應   」 科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 的 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 在 俄國 北部 與 東 北部 的 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  </t>
+          <t xml:space="preserve">俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">基隆 一處 屋齡 超過 40 年 的 公寓 住宅   後 方 的 排水 溝壁 破損   導致 流水 長 期 沖 刷   部分 住宅 地基 被 掏空   周圍 路面 也 出現 地層下陷 的 狀況   杜蘇芮 颱 風來襲   居民 擔心 大雨 不斷   後 果 不堪 設想   地基 掏空 發生 在 基隆 西定 路   一棟 公寓 住宅 住家 門口   破 了 一個 大 洞口   有 居民 行經 踩 空   才 驚覺 原來 民宅 外側 的 地基 被 掏空 了   進 一步 了解 才 發現   是 排水 溝壁 破損   長 期 沖 刷 造成   而且 長 期 土石 流失   也 讓 周圍 路面 出現 地層下陷 的 狀況   從 畫面 中 可以 看到   地層下陷 的 深度 大概 有 3 到 5 公分   可以 把手 機 放置 進去   居民 擔憂   地層下陷 將會 影響 住宅 的 結構 安全   尤其 杜蘇芮 颱 風期間   帶來 雨勢   恐怕 會帶 來 嚴重 的 影響   基隆市 議員施 偉政 也 提醒   地基 被 沖 刷   上面 載重 又 大 的 話   恐怕 房子 會 有 很大 的 問題   工務處 表示   會先 就 壁體 破損 坍方 處   施作 水溝 溝牆 再 回填   避免 淘空 範圍 擴大  </t>
+          <t xml:space="preserve">基隆 一處 屋齡 超過 40 年 公寓 住宅   後 方 排水 溝壁 破損   導致 流水 長 期 沖 刷   部分 住宅 地基 被 掏空   周圍 路面 出現 地層下陷 狀況   杜蘇芮 颱 風來襲   居民 擔心 大雨 不斷   後 果 不堪 設想   地基 掏空 發生 基隆 西定 路   一棟 公寓 住宅 住家 門口   破 了 一個 大 洞口   居民 行經 踩 空   才 驚覺 原來 民宅 外側 地基 被 掏空 了   進 一步 了解 才 發現   是 排水 溝壁 破損   長 期 沖 刷 造成   而且 長 期 土石 流失   讓 周圍 路面 出現 地層下陷 狀況   從 畫面 中 可以 看到   地層下陷 深度 大概 3 到 5 公分   可以 把手 機 放置 進去   居民 擔憂   地層下陷 將會 影響 住宅 結構 安全   尤其 杜蘇芮 颱 風期間   帶來 雨勢   恐怕 會帶 來 嚴重 影響   基隆市 議員施 偉政 提醒   地基 被 沖 刷   上面 載重 又 大 話   恐怕 房子 會 很大 問題   工務處 表示   會先 就 壁體 破損 坍方 處   施作 水溝 溝牆 再 回填   避免 淘空 範圍 擴大  </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉義 市 35 座公園 是 國內 密度 最高   其中 20 座公園 有 廁所   曾 有 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 的 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 的 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請 「 優質 公廁 及 美質 環境 推動 計畫 」 經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 及 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 的 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  </t>
+          <t xml:space="preserve">嘉義市 35 座公園 是 國內 密度 最高   其中 20 座公園 廁所   曾 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請   優質 公廁 美質 環境 推動 計畫   經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 羅 欣貞 ／ 屏東 報導 〕 屏東 縣 政府 2018 年 完工 並開始 操作 的 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫   近年 來 均 能 挹注 超過 5000 萬噸 的 水源 至 地下 含水 層   然而 由 於 南部 地區 近年 氣候 狀況 不如 預期   人工湖 於 今年 5 月僅 經過 1 個 月 餘 的 引水 操作   將大約 1000 萬噸 的 水 注入 含水 層   因應 颱 風 杜蘇芮 與後續 雨勢   從 7 月 27 日當晚 開始 啟動 今年 的 第二次 引水 作業   一直 持續 至今     屏縣 府 水利 處 表示   大 潮州 補注 湖不僅 是 目前 國內僅 有   也 是 東南亞 地區 最 大型 的 人工湖 補注 地下水 計畫   原理 為 於 洪水期 將林邊 溪 之 較 大 水源 導引 至 人工湖   而 此區 因 具備 入滲 效果 佳 的 地質 條件   即可 有效 補注 至 地下 含水 層   補注 之 效益 為 可 涵養 在 屏縣 使用率 較 高 的 地下水 資源   提高 部分 區域 的 地下水位   減緩 地層下陷 與 海水 入侵   防止 地下水 鹽化   此外   人工湖 也 具有 分洪   治洪 的 功能   而結 合水 銀行 抽補 概念   更是 能 提高 水資源 運用 效益     水利 處 指出   第 1 期 工程 經費 約 14.1 億元   無論 是 取輸水 效果   入滲 效率 與 補 注量 體均 極為 可觀   已具 顯著 成效   此項 目的 啟動 不僅 增加 屏南 地區 水資源 可運 用量   也 已 初步 達到 「 增源 減洪 」 的 重要 作用   後 續將 提出 第 2 期 人工湖 開闢 計畫   以達成 預估 完成 後 挹注 的 每年 1.5 億噸 的 地下水 補注量  </t>
+          <t xml:space="preserve">〔 記者 羅 欣貞 ／ 屏東 報導 〕 屏東縣 政府 2018 年 完工 並開始 操作 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫   近年 來 均 能 挹注 超過 5000 萬噸 水源 至 地下 含水 層   然而 由 於 南部 地區 近年 氣候 狀況 不如 預期   人工湖 於 今年 5 月僅 經過 1 個 月 餘 引水 操作   將大約 1000 萬噸 水 注入 含水 層   因應 颱 風 杜蘇芮 與後續 雨勢   從 7 月 27 日當晚 開始 啟動 今年 第二次 引水 作業   一直 持續 至今     屏縣 府 水利 處 表示   大 潮州 補注 湖不僅 是 目前 國內僅   是 東南亞 地區 最 大型 人工湖 補注 地下水 計畫   原理 為 於 洪水期 將林邊 溪 之 較 大 水源 導引 至 人工湖   而 此區 因 具備 入滲 效果 佳 地質 條件   即可 有效 補注 至 地下 含水 層   補注 之 效益 為 可 涵養 屏縣 使用率 較 高 地下水 資源   提高 部分 區域 地下水位   減緩 地層下陷 與 海水 入侵   防止 地下水 鹽化   此外   人工湖 具有 分洪   治洪 功能   而結 合水 銀行 抽補 概念   更是 能 提高 水資源 運用 效益     水利 處 指出   第 1 期 工程 經費 約 14.1 億元   無論 是 取輸水 效果   入滲 效率 與 補 注量 體均 極為 可觀   已具 顯著 成效   此項 目的 啟動 不僅 增加 屏南 地區 水資源 可運 用量   已 初步 達到   增源 減洪   重要 作用   後 續將 提出 第 2 期 人工湖 開闢 計畫   以達成 預估 完成 後 挹注 每年 1.5 億噸 地下水 補注量  </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">宜蘭 縣蘇 澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 有 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 的 路段   長 年 發生 地層下陷 問題   住戶 房子 的 地基 也 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 的 側溝 還要 矮   根本 沒有 排水 功能   居民 指出   「 游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們   」 當地 地層下陷 的 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 在 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 的 情形   教育部 高級 中等教育 組 行政 及 資源 科長 黃 懷瑩 表示   「 我覺 得 地質 監測 這一塊   我們 可以 持續 做   讓 大家 安心 說   我們 是不是 持續 有 劇烈 的 沉降 或 傾斜 的 狀況   也 會 定期 跟 大家 報告 我們 監測 的 結果   」 校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 有 抽水   過去 抽 的 也 是 溢流 出 地面 的 水源   教育部 則說   過去 壓力 灌漿 是 有 延緩 地質 沉降 的 效果   立法 委員陳琬惠 表示   「 房子 跟 道路 就是 在 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已   」 水利 署 組長 簡昭群 說   「 技師 公會 去 依據 他 的 測量 結果   找出 造成 沉陷 的 具體 原因   」 陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 先 確定 當地 地層下陷 的 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  </t>
+          <t xml:space="preserve">宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">地層下陷   居住 環境 出現 疑慮   宜蘭 蘇澳鎮 民富 街   持續 嚴重 地層下陷   除了 騎樓 和 路面 出現 裂縫   家裡 牆壁 和 地磚 也 都 是 裂痕   讓民眾 膽戰心 驚   質疑 是 附近 蘇澳 海事 水產 職業 學校 游泳池   超 抽 地下水 造成   也 在 10 號會同 當地 立委   縣府 官員 進行 協商   希望 解決 問題   道路 傾斜 越來 越 嚴重   路面 也 持續 有 裂痕 產生   地層下陷 越陷越深   民眾 憂心 忡忡   因為 騎樓 和 道路 也 出 現明 顯裂 縫   家門口 緊鄰 的 水溝 都 脫離 了 3 公分   走 進家裡 更是 驚險   白色 地磚 出現 裂痕   銜接 處變 得 高低不平   整個 牆 壁上 也 是 超長 裂痕   怵 目驚心   這裡 是 宜蘭 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 水產 職業 學校 的 游泳池   當地 地層 持續 嚴重 下陷   遊 泳池 用 了 四年 就 塌陷   讓 居民 質疑   是 學校 不當 抽取 地下水 惹 得 禍   10 號這天會 同 立委   縣府 官員 共同 協商   不過 水利 署 官員 分析 指出   地層下陷 除了 跟 抽水 行為 有關   也 和 泳池 載重 有關 係   還要 再 進 一步 釐 清   居家 環境 不 安全   民眾 生活 都 膽戰心 驚   只 盼望 可以 盡快 改善 問題   還給 居民 安全 的 生活 環境  </t>
+          <t xml:space="preserve">地層下陷   居住 環境 出現 疑慮   宜蘭 蘇澳鎮 民富 街   持續 嚴重 地層下陷   除了 騎樓 路面 出現 裂縫   家裡 牆壁 地磚 都 是 裂痕   讓民眾 膽戰心 驚   質疑 是 附近 蘇澳 海事 水產 職業 學校 游泳池   超 抽 地下水 造成   10 號會同 當地 立委   縣府 官員 進行 協商   希望 解決 問題   道路 傾斜 越來 越 嚴重   路面 持續 裂痕 產生   地層下陷 越陷越深   民眾 憂心 忡忡   因為 騎樓 道路 出 現明 顯裂 縫   家門口 緊鄰 水溝 都 脫離 了 3 公分   走 進家裡 更是 驚險   白色 地磚 出現 裂痕   銜接 處變 得 高低不平   整個 牆 壁上 是 超長 裂痕   怵 目驚心   這裡 是 宜蘭 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 水產 職業 學校 游泳池   當地 地層 持續 嚴重 下陷   遊 泳池 用 了 四年 就 塌陷   讓 居民 質疑   是 學校 不當 抽取 地下水 惹 得 禍   10 號這天會 同 立委   縣府 官員 共同 協商   不過 水利 署 官員 分析 指出   地層下陷 除了 跟 抽水 行為 有關   泳池 載重 有關 係   還要 再 進 一步 釐 清   居家 環境 不 安全   民眾 生活 都 膽戰心 驚   只 盼望 可以 盡快 改善 問題   還給 居民 安全 生活 環境  </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>台北市 再現 「 天坑 」   南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌   長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   市府 指出   目前 無人 受傷   員警 已 畫設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因       市府 晚間 7 點 30 分開 設前 進 指揮 所   南港 區長 蔡明 儒到 達 現場   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業 中                             新建 工程 處開 挖 確認 塌陷 原因   是 水利 處 的 連接 涵管 有輕微 脫管 的 現象   目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮官   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 有 無 其他 路面 下 空洞       水利 處 評估 工程 進度   實施 交通 維護   南港路 3 段 47 巷雙 向 封閉   預計 今晚 9 時修 復 機具 進入 開工   8 月 19 日 凌晨 0 時 灌漿 回填 作業   後 續 等到 混凝土 達到 一定 強度 之 後   路面 將會 辦理 復 舊   預計 於 明天 晚上 10 時許 恢 復 通車         市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 有 無 其他 路面 下 空洞   圖 ／ 北市 府 提供   台北市 下午 4 點多 再現 「 天坑 」   市府 指出 目前 無人 受傷   員警 已 畫設 警戒 線   新工處 調派 重機 具開 挖   確認 坍塌 原因   圖 ／ 北市 府 提供</t>
+          <t>台北市 再現   天坑     南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌   長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   市府 指出   目前 無人 受傷   員警 已 畫設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因       市府 晚間 7 點 30 分開 設前 進 指揮 所   南港區 長 蔡明 儒到 達 現場   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業 中                             新建 工程 處開 挖 確認 塌陷 原因   是 水利 處 連接 涵管 有輕微 脫管 現象   目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮官   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞       水利 處 評估 工程 進度   實施 交通 維護   南港路 3 段 47 巷雙 向 封閉   預計 今晚 9 時修 復 機具 進入 開工   8 月 19 日 凌晨 0 時 灌漿 回填 作業   後 續 等到 混凝土 達到 一定 強度 之 後   路面 將會 辦理 復 舊   預計 於 明天 晚上 10 時許 恢 復 通車         市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞   圖 ／ 北市 府 提供   台北市 下午 4 點多 再現   天坑     市府 指出 目前 無人 受傷   員警 已 畫設 警戒 線   新工處 調派 重機 具開 挖   確認 坍塌 原因   圖 ／ 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港 區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 及 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 在 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 有 無 其他 路面 下 空洞  </t>
+          <t>北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 開放 機車 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 北市 府 提供 北市 天坑 搶修 完成   圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 在 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   在 連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 先 開放 機車 及 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 / 北市 府 提供 北市 天坑 搶修 完成   圖 / 北市 府 提供</t>
+          <t xml:space="preserve">〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 在 短短 3 個 月 內 出現 4 個 天坑   遭批 天龍國 變成 了 「 天坑 國 」   對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 先 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 的 側溝位 在 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 的 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 及 混凝土 澆置 後 也 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港 區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 的 東區 門戶 計畫 範圍   許多 建案 均 在 施工 中   南港路 47 巷 的 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 的 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 的 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 有 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 也 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  </t>
+          <t xml:space="preserve">台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>北市 「 天坑 」 事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 在 工地 範圍 內   未影響 到民眾 安全 與 通車                             她 表示   據 建管 處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 有 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 有 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 有 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       她 呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管 處   簡直罔顧 公共安全   「 一次 又 一次   只會 讓 人民 對 政府 失去 信心   」       北市 「 天坑 」 事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   此為 今日 在 萬華區 某處 工地   圖 ／ 居民 提供</t>
+          <t>北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>繼 前天 南港 區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 有 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地 內   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 有 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 在 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 有 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港 區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 在 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地 內   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   此為 今日 在 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供</t>
+          <t>繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 在 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 的 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是 「 甩鍋 」   認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 的 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非 「 甩鍋 」   氣候 變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 的 老舊 排水管 損裂 更 嚴重   民生 東路 的 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 的 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 的 塌陷 處   也 完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 有 許多 建案 施工   四 七巷 的 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 的 掏 涮 所致     李 四川 在 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 的 豪 大雨   高雄 的 積 淹水   北市 的 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 的 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 及 管線 老舊 對策   林延鳳 認為 李 四川 的 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質 的 「 人禍 」   不應 歸咎 於 天災   陳 怡君 也 說   極端 氣候 不能 成為 推卸 市政 的 理由 與 藉口   市府 應針 對 路面 做 總體檢   更換 或 整修 老舊 的 管線 箱涵   積極 研擬 因應 極端 氣候 及 公共 管線 老舊 的 對策  </t>
+          <t xml:space="preserve">4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>新竹 縣竹 北市 天坑 再現   縣政 7 街 昨天 發生 道路 坍塌 形成 大 坑洞   今天上午 建商   住戶 代表   里長 與 技師 等到 現場 查看   討論 施作 透地雷達 的 範圍   鄰近 社區 住戶 說   這條 道 路旁 邊 就是 車道   且 鄰近 學校   九月 即將 開學   很多 學生 從 此 經過   盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況   安全 為 優先       斗崙里 長 張 琬 媃 表示   今天上午 邀請 土木 結構 技師 拱祥生 到 現場 勘查   盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況   後 將召開 說 明會   讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況                             鄰近 社區 住戶 說   建商 雖然 一周 兩次 監測且 未 超過 標準   然而 一旦 超過 就 來 不及 了   社區 希望 能 了解 整體 趨勢   盼建 商能 固定 給予 監測 數據   此外   地下 六樓 開 挖 深   導致 震動 頻率 高   社區 內 有 龜裂 狀況   這 部分 建商 允諾會 負責   未來 社區 也 會 提鄰損 要求   目前 該條 道路 是 社區 車道   鄰近 學校   開學後有 很多 學生 從 此 經過   希望 能 盡快 檢測 周邊 道路   以 安全 為 優先       拱祥生 表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   至於 後 方 涉及 到 肯德基 店家 與 私人 路段 要 再 確認   被動式 電磁波 檢測 能 偵測 淺   深層   將檢測 道路 範圍 下方 30 公尺 來 了解 地質   有否 潛藏 孔洞 或 疏 鬆 狀 況   以及 昨日 因自來 水 沖 蝕 後   回填 後 初步 的 結果   預計 最快 7 到 10 日 可 完成 檢測       媒體 也 追問 拱祥生   此案 與 豐采 520 的 天坑 事件   是否 都 因為 地下水 或 地理 環境易 地層下陷   拱祥生 回應   會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣   涉及 到 開 挖 工法   若 是 用 非止 水性 壁體   例如 這次 事件 用板 樁 和 橫板條   此工法 適用 於 林口 台地   桃園 台地 與 部分 竹北 工地   由 於 林口 台地   桃園 台地 屬於紅 土礫 石層   此地 質狀況 相對 不透水   若 使用 透水性 壁體   就 比 較 不怕   然而 遇強 下雨   自來 水管 線 有 潛 在 水分   搭配 降雨 形成 路徑   非止 水性 壁體 可能 就 會 帶 入土 沙   一下子 沖 入 基地       拱祥生 指出   這兩個 工地 都 有 共同 現象   主要 是 在 開 挖 工地 周遭   主動 破壞區 發生   就 像 開刀 本來 就 會 流血   因此 工地 在 開 挖 過程 中   正常 就 會導致 地表 沉陷   重點 是 透過 觀測 法來 了解 實際開 挖行 為   與 原來 工程 分析 的 行為 是否 相同   若 是 相同 就是 在 安全 範圍 內   若 是 有 異常   就 得 要 補強   新竹 縣竹 北市 縣政七 街道 路 塌陷 現場   工地 建商 坦承 疏失   記者 郭政芬 ／ 攝影 技師 拱祥生   右   表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   記者 郭政芬 ／ 攝影</t>
+          <t>新竹縣 竹 北市 天坑 再現   縣政 7 街 昨天 發生 道路 坍塌 形成 大 坑洞   今天上午 建商   住戶 代表   里長 與 技師 等到 現場 查看   討論 施作 透地雷達 範圍   鄰近 社區 住戶 說   這條 道 路旁 邊 就是 車道   且 鄰近 學校   九月 即將 開學   很多 學生 從 此 經過   盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況   安全 為 優先       斗崙里 長 張 琬 媃 表示   今天上午 邀請 土木 結構 技師 拱祥生 到 現場 勘查   盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況   後 將召開 說 明會   讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況                             鄰近 社區 住戶 說   建商 雖然 一周 兩次 監測且 未 超過 標準   然而 一旦 超過 就 來 不及 了   社區 希望 能 了解 整體 趨勢   盼建 商能 固定 給予 監測 數據   此外   地下 六樓 開 挖 深   導致 震動 頻率 高   社區 龜裂 狀況   這 部分 建商 允諾會 負責   未來 社區 會 提鄰損 要求   目前 該條 道路 是 社區 車道   鄰近 學校   開學後有 很多 學生 從 此 經過   希望 能 盡快 檢測 周邊 道路   以 安全 為 優先       拱祥生 表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   至於 後 方 涉及 到 肯德基 店家 與 私人 路段 要 再 確認   被動式 電磁波 檢測 能 偵測 淺   深層   將檢測 道路 範圍 下方 30 公尺 來 了解 地質   有否 潛藏 孔洞 或 疏 鬆 狀 況   以及 昨日 因自來 水 沖 蝕 後   回填 後 初步 結果   預計 最快 7 到 10 日 可 完成 檢測       媒體 追問 拱祥生   此案 與 豐采 520 天坑 事件   是否 都 因為 地下水 或 地理 環境易 地層下陷   拱祥生 回應   會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣   涉及 到 開 挖 工法   若 是 用 非止 水性 壁體   例如 這次 事件 用板 樁 橫板條   此工法 適用 於 林口 台地   桃園 台地 與 部分 竹北 工地   由 於 林口 台地   桃園 台地 屬於紅 土礫 石層   此地 質狀況 相對 不透水   若 使用 透水性 壁體   就 比 較 不怕   然而 遇強 下雨   自來 水管 線 潛 水分   搭配 降雨 形成 路徑   非止 水性 壁體 可能 就 會 帶 入土 沙   一下子 沖 入 基地       拱祥生 指出   這兩個 工地 都 共同 現象   主要 是 開 挖 工地 周遭   主動 破壞區 發生   就 像 開刀 本來 就 會 流血   因此 工地 開 挖 過程 中   正常 就 會導致 地表 沉陷   重點 是 透過 觀測 法來 了解 實際開 挖行 為   與 原來 工程 分析 行為 是否 相同   若 是 相同 就是 安全 範圍   若 是 異常   就 得 要 補強   新竹縣 竹 北市 縣政七 街道 路 塌陷 現場   工地 建商 坦承 疏失   記者 郭政芬 ／ 攝影 技師 拱祥生   右   表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   記者 郭政芬 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 也 質疑   建案 若 未 做 側溝   未來 仍 可能 有 天坑 事件   台北市 建管 處 表示   會 要求 將 排水 系統 做 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 在 前往 萬華 工地 會 勘   應曉薇 質疑 建案 是否 有 做 側溝   若側 溝都 沒有   未來 仍 可能 有 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   她 也 發現   坑洞 日前 雖已 填補   但現 在 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 的 人 為 疏失     蔡岳樺 也 說   福音 里 內 有 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 有 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 有 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 也 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 在 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管 處 表示   此 都 更案 採用 的 是 舊 有 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 的 排水 系統 做 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 也 沒 有 規範   但 建管 處會 要求 將 排水 系統 做 完   改善 區域 排水     建管 處 也 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 有 安全 疑慮 的 地方 阻隔  </t>
+          <t xml:space="preserve">〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">針對 北市 連續 出現 天坑   台北市 長 蔣萬安 下午 在 公安 會報 中 指示   最近 幾次 地層下陷   會 進行 全面 檢視   請 工務局 邀集 相關 單位   包括 都 發   建管   針對 道路 塌陷 的後續 處理 做成 通案 性處 理機 制外   也 應 做 全面 檢視   會先 就 老舊 管線 做 一次 清查   下 一步 再針 對 其他 地方   避免 後 續 再 發生 地層下陷 情形       北市 建管 處 下午 在 公安 會報 中針 對 今年 5 月 13 日 信義區 崇德 街 60   巷道 路 塌陷 案 進行 專題 報告   加強 管理 作為   針對 北市 建築 工地 正在 開挖 階段   計有 102 件   排定 由 三 大公 會 從 5 月 15 日 開始 逐案 現場 勘查   目前 已 全數檢 查完 畢   針對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善                             為 了 強化 管理 措施   加強 建築 工地 開挖 階段 安全 管理   自 6 月 分起 已委 託 三 大公 會 不定期 進行 現場 勘查   另 就 建築 工地 因違 反建築法 公共安全   公共交通 遭受 裁罰 或 勒令停工 案件   同步 於 建管 處網 站 揭露 相關裁 處訊息       另外   也 函告 工地 應主動 通報   若 工地 發生 公安 意外事件   應 於 第一 時間將 原因 及 緊急 應變 處理 情形 主動 通知 建管 處   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處以 9 萬元 罰款   情節 嚴重 時並 勒令停工       副 市長 李 四川 也 提醒 建管 處   最近 下午 雷陣雨   開挖 工地 要 加強 宣導 防範   蔣萬安 也 表示   信義區 的 案例   主要 因為 旁邊 有 有 建案 開 挖 造成 地層下陷   最近 有 許多 下午 的 暴雨   可能 造成 地層下陷   請 建管 處加強 工地 管理 加強 查核       蔣萬安 也 指示   針對 有些 地方 老舊 管線   不管 是 汙水 管等   主管 機關加 強督導   另環 保局 在 進行 清疏 時   或是 新工處   地面 上 施工   如果 有 發現 相關 管線 有 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理  </t>
+          <t xml:space="preserve">針對 北市 連續 出現 天坑   台北 市長 蔣萬安 下午 公安 會報 中 指示   最近 幾次 地層下陷   會 進行 全面 檢視   請 工務局 邀集 相關 單位   包括 都 發   建管   針對 道路 塌陷 的後續 處理 做成 通案 性處 理機 制外   應 全面 檢視   會先 就 老舊 管線 一次 清查   下 一步 再針 對 其他 地方   避免 後 續 再 發生 地層下陷 情形       北市 建管處 下午 公安 會報 中針 對 今年 5 月 13 日 信義區 崇德 街 60   巷道 路 塌陷 案 進行 專題 報告   加強 管理 作為   針對 北市 建築 工地 正在 開挖 階段   計有 102 件   排定 由 三 大公 會 從 5 月 15 日 開始 逐案 現場 勘查   目前 已 全數檢 查完 畢   針對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善                             為 了 強化 管理 措施   加強 建築 工地 開挖 階段 安全 管理   自 6 月 分起 已委 託 三 大公 會 不定期 進行 現場 勘查   另 就 建築 工地 因違 反建築法 公共安全   公共交通 遭受 裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 相關裁 處訊息       另外   函告 工地 應主動 通報   若 工地 發生 公安 意外事件   應 於 第一 時間將 原因 緊急 應變 處理 情形 主動 通知 建管處   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處以 9 萬元 罰款   情節 嚴重 時並 勒令停工       副 市長 李 四川 提醒 建管處   最近 下午 雷陣雨   開挖 工地 要 加強 宣導 防範   蔣萬安 表示   信義區 案例   主要 因為 旁邊 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 加強 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   不管 是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處   地面 上 施工   如果 發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理  </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 在 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   也 應 全面 檢視   先 清查 地下 的 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管 處 昨天下午 在 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 的 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 有 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 的 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管 處網 站 揭露 裁處訊息       建管 處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 及 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 和 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管 處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 有 許多 下午 的 暴雨   可能 造成 地層下陷   請 建管 處加強 工地 管理 及 查核       蔣萬安 指示   針對 有些 地方 的 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 在 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 有 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管 處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 的 隱憂  </t>
+          <t xml:space="preserve">北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林 沿海 受 藍 月 大潮 加上 颱 風 大浪   近日 接連 發生 嚴重 海水倒灌   最大 的 萡 子 寮 港 到 昨天 仍 一片汪洋   淹水 及 膝   港口 被迫 封閉   行政院 長 陳 建仁 昨 前往 現場 勘災   地方 陳 情指   漁港 淹水 已嚴 重威脅 下崙 3 個村 的 安危   應急 工程 不能 再 拖   縣府 也 盼 中央 補能 加高 及 延伸 堤防   陳 建仁 允諾 相關 部會 與 縣府 合作   研議 解決 之道       縣府 水利 處長 許 宏博 簡報 指出   因地盤 下陷 嚴重   多年 來 幾次 加高 防波堤 及 年 年 抽沙 清淤   仍難 敵 天象 變化   港域 高程 約 1.9 公尺   但 這兩天 高達 2.56 公尺   加上 風浪助長 爆發 嚴重 海水倒灌   目前 除應 急 擋 水 措施   要 增高 延伸 防波堤   及 清理 港域 30 萬 立方米 淤沙   確保 港口 不受 漂沙 封堵   才能 因應 極端 氣候 的 海象 變化   整建 經費 預估 10 億元                             同為 養殖業者 的 口湖 鄉 代王 紫陽 說   在 這 生活 60 幾年 從 沒見 過淹 水淹 得 如此 嚴重   鄰近 300 多公頃 養殖區 朝不保夕   政府 不能 坐視 不管   李姓 養殖業 也 說   這次 海水倒灌 造成 部分 魚苗 流失       議員黃 文祥 也 指 說   萡 子 寮 港 已 無 法 因 應 現 有 海象 變化   尤其 漂沙帶 來 的 淤塞 及 海水倒灌   連 以前 航行 澎湖 的 輪 船 也 因 淤沙 停駛   口湖 代表 會 主席 王溪邊 指   更 扯 的 是 退潮 水位 變低 時   漁船 竟 要 用 推 的 進港   實在 可笑   治港刻 不容 緩       昨 陪同 會 勘 的 雲林 縣長 張麗善 當面 遞交 雲林 漁港 治理 及 海堤 安全 防護 計畫   盼 請 行政院 協助   立委 蘇治芬 也 建議將 雲林 海岸 治理 一 併 納 入院 會 正在 檢討 的 國土 沙洲 案   以 擴大 治理 量 能       陳 建仁 說   這次 海水倒灌 對 地方 造成 損失   針對 地方 希望 能 加高 及 延伸 堤防   此須 經過 水工 模型 試驗   才能 確保不會 加劇 地層下陷 問題   行政院 會 聽取 地方 建議   與 縣府 共同 研議 解方       漁業署 表示   曾 與 立委 蘇治芬 多次 召開 海岸 治理 檢討   為 保漁港 的 漁業 永續   除應 急 工程 應要 進行 水工 研究 與 探測 再行 治理   才能 一勞永逸   由 於 該 漁港屬 地方 管理   中央 會予 協助 建置 長 遠 治理 方案  </t>
+          <t xml:space="preserve">雲林 沿海 受 藍 月 大潮 加上 颱 風 大浪   近日 接連 發生 嚴重 海水倒灌   最大 萡 子 寮 港 到 昨天 仍 一片汪洋   淹水 膝   港口 被迫 封閉   行政院 長 陳 建仁 昨 前往 現場 勘災   地方 陳 情指   漁港 淹水 已嚴 重威脅 下崙 3 個村 安危   應急 工程 不能 再 拖   縣府 盼 中央 補能 加高 延伸 堤防   陳 建仁 允諾 相關 部會 與 縣府 合作   研議 解決 之道       縣府 水利 處長 許 宏博 簡報 指出   因地盤 下陷 嚴重   多年 來 幾次 加高 防波堤 年 年 抽沙 清淤   仍難 敵 天象 變化   港域 高程 約 1.9 公尺   但 這兩天 高達 2.56 公尺   加上 風浪助長 爆發 嚴重 海水倒灌   目前 除應 急 擋 水 措施   要 增高 延伸 防波堤   清理 港域 30 萬 立方米 淤沙   確保 港口 不受 漂沙 封堵   才能 因應 極端 氣候 海象 變化   整建 經費 預估 10 億元                             同為 養殖業者 口湖 鄉 代王 紫陽 說   這 生活 60 幾年 從 沒見 過淹 水淹 得 如此 嚴重   鄰近 300 多公頃 養殖區 朝不保夕   政府 不能 坐視 不管   李姓 養殖業 說   這次 海水倒灌 造成 部分 魚苗 流失       議員黃 文祥 指 說   萡 子 寮 港 已 無 法 因 應 現 海象 變化   尤其 漂沙帶 來 淤塞 海水倒灌   連 以前 航行 澎湖 輪 船 因 淤沙 停駛   口湖 代表 會 主席 王溪邊 指   更 扯 是 退潮 水位 變低 時   漁船 竟 要 用 推 進港   實在 可笑   治港刻 不容 緩       昨 陪同 會勘 雲林縣 長 張麗善 當面 遞交 雲林 漁港 治理 海堤 安全 防護 計畫   盼 請 行政院 協助   立委 蘇治芬 建議將 雲林 海岸 治理 一 併 納 入院 會 正在 檢討 國土 沙洲 案   以 擴大 治理 量 能       陳 建仁 說   這次 海水倒灌 對 地方 造成 損失   針對 地方 希望 能 加高 延伸 堤防   此須 經過 水工 模型 試驗   才能 確保不會 加劇 地層下陷 問題   行政院 會 聽取 地方 建議   與 縣府 共同 研議 解方       漁業署 表示   曾 與 立委 蘇治芬 多次 召開 海岸 治理 檢討   為 保漁港 漁業 永續   除應 急 工程 應要 進行 水工 研究 與 探測 再行 治理   才能 一勞永逸   由 於 該 漁港屬 地方 管理   中央 會予 協助 建置 長 遠 治理 方案  </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 有 約 580 萬住 戶 沒 有 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣位 處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 的 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 有 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 的 房屋 倒塌 或 不堪 居住 之 「 全損 」 損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 的 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓 「 看房 要 排隊 」   一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房 「 房屋 稅 3 千變 3 萬 4 」   他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師 「 繳不出 頭期 」 全場 曝下場   穩死</t>
+          <t>高雄 仁武 區 今晚 9 時 30 分許   有民眾 發現 出現 一個 大 天坑   地點 就 永新 五街 永仁 街 路口 旁電線桿 周邊   高雄市 議員黃 飛鳳 獲報 隨即 到場 關心   並 通知 相關 單位 到場 協處   目前 高 市府 水利局 已調 派 機具 場開 挖 釐 清 下陷 肇因       由 於   天坑 發生 位置 就 電線桿 周圍   為 避免 電線桿 倒塌 造成 停電 意外   台灣 電力 公司 鳳山 營業 處 派員 前往 現場   暫以 吊桿 支撐 固定 電線桿   至於   地層下陷 肇因   水利局 人員 正在 現場 以管 挖 機具 進行 開 挖 調查                             仁武 分局 表示   因 路面 出現 坍塌 情事   為 安全 著想 避免 影響 用路 人   警方 獲報 後 已 將該 路段 封閉   經 水利局 挖開 查看   發現 不明 水源 流入 導致 地基 塌陷   屬 水利局 權責   遂 先行 填補 搶修   目前 水利局 污水 二科科長 張進 二 正在 現場 監督   台灣 電力 公司 鳳山 營業 處 暫以 吊桿 支撐 電線桿   避免 意外 發生 造成 停電   記者 古和純 ／ 翻攝 高雄 仁武 區出現 地層下陷   圖 ／ 取自 高雄市 議員黃 飛鳳個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面   記者 古和純 ／ 翻攝</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>高雄 仁武 區 今晚 9 時 30 分許   有民眾 發現 出現 一個 大 天坑   地點 就 在 永新 五街 及 永仁 街 路口 旁電線桿 周邊   高雄市 議員黃 飛鳳 獲報 隨即 到場 關心   並 通知 相關 單位 到場 協處   目前 高 市府 水利局 已調 派 機具 在 場開 挖 釐 清 下陷 肇因       由 於   天坑 發生 位置 就 在 電線桿 周圍   為 避免 電線桿 倒塌 造成 停電 意外   台灣 電力 公司 鳳山 營業 處 派員 前往 現場   暫以 吊桿 支撐 固定 電線桿   至於   地層下陷 肇因   水利局 人員 正在 現場 以管 挖 機具 進行 開 挖 調查                             仁武 分局 表示   因 路面 出現 坍塌 情事   為 安全 著想 及 避免 影響 用路 人   警方 獲報 後 已 將該 路段 封閉   經 水利局 挖開 查看   發現 有 不明 水源 流入 導致 地基 塌陷   屬 水利局 權責   遂 先行 填補 搶修   目前 水利局 污水 二科科長 張進 二 正在 現場 監督   台灣 電力 公司 鳳山 營業 處 暫以 吊桿 支撐 電線桿   避免 意外 發生 造成 停電   記者 古和純 ／ 翻攝 高雄 仁武 區出現 地層下陷   圖 ／ 取自 高雄市 議員黃 飛鳳個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面   記者 古和純 ／ 翻攝</t>
+          <t>嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 約 580 萬住 戶 沒 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣 位處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 房屋 倒塌 或 不堪 居住 之   全損   損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓   看房 要 排隊     一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房   房屋 稅 3 千變 3 萬 4     他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師   繳不出 頭期   全場 曝下場   穩死</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 在 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 內 有 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 的 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 先 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 的 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見 「 蹦 」 聲響   工地 先緊 急 疏散 工人   才 通知 住戶     她 說   附近 民眾 提到 此建案 動工 後   住家 就 有 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 也 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  </t>
+          <t xml:space="preserve">台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見   蹦   聲響   工地 先緊 急 疏散 工人   才 通知 住戶     說   附近 民眾 提到 此建案 動工 後   住家 就 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管 處處理 過程 是否 有 違失   「 絕不寬貸   護短 」   同時 也 會 檢視 基泰 建設 在 台北市 的 建案   不合 規定 就 會 勒令停工   北市 府 也 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 的 節目 專訪   坦言 建管 處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 的 開綠色 通道 至 台北市 聯合 醫院   後 續 也 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 也 有 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 的 申訴   及 建管 處判斷 過程 是否 有 違失 或 違法   才 導致 今天 的 狀況   「 絕不寬貸   也 絕不護 短 」   若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 的 危老 都 更 都 會 較 過往 開 挖 來 的 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管 處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 有 任何 違法 情事   或 發現 當時 處理 不當   表態 「 該換 就換   這沒有 疑問 」   強調 重新 檢視 後 「 有 需要 撤換 就 撤換 」   至於 基泰 建設 在 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 在 台北市 的 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   也 會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 的 一站式 聯合 服務 中心   也 成立 律師團 協助 住 戶後續 的 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 也 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 也 撂 狠話   「 建商 要負 全面 責任   否則 未來 在 台北市   很 抱歉   你 不 符合 相關 規定 或 標準 就 別 想 在 台北市 取得 任何 案子   」 而 下午 建管 處 也 已經 發文稱 基泰 在 北市 的 7 個 工地 全面 停工  </t>
+          <t xml:space="preserve">台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   也 使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 在 去年 選舉 前 和 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   也 透露 來 自 基泰 的 政治 獻金 是 一位 從 媒體界 轉從商 的 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 的 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬 上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 也 有 收 基泰 的 政治 獻金   她 想 請問 一下   這 是否是 綠營 想 再次 示範 「 綠能 你 不能 」 及 雙標   王鴻薇 也 指出   上次 她 質疑 綠能 產業 就 被民進 黨 挖出 也 收過 綠能 公司 的 政治 獻金 是 雙標   但 她 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 在 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 的 直播 就 會 知道   她 是 跟 大家 報告 現場 和 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 的 一貫 手法   王鴻薇 也 表示 她 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 的 里 長 也 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   她 今 早 也 建議 市政府 「 代位 求償 」   此外 得知 居民 準備 組成 自救 會   她 也 承諾 一定 會 全力 協助   最 重要 的 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 的 董事 長   總經理 她 真的 都 不 認識   但是 她 回頭 去 查 了 一下   是 有 一位 媒體 前輩去 做生意   確實 在 議員 選舉 以及 立委 補選時 有 做 政治 捐獻   而 由 於 有 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 也 要 查詢 是否 有 虧損   有 虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 在 她 的 選區   也 鄰近 以前 蔣萬安 的 選區   為 何會 在 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   她 也 立刻 跟 團隊 確認   確實 她 是 沒 有 接獲 選民 或 議員陳情   這 方面 他們 要 努力 的 空間還 很多   她 會勤 走 基層   聽 更 多 聲音   她 也 稱 很 遺憾   選民 這幾個 月 有 這樣 的 困擾   對民代來講   該 努力 的 就 應該 繼續 去 努力  </t>
+          <t xml:space="preserve">大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   透露 來 自 基泰 政治 獻金 是 一位 從 媒體界 轉從商 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬 上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金   想 請問 一下   這 是否是 綠營 想 再次 示範   綠能 不能   雙標   王鴻薇 指出   上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能 公司 政治 獻金 是 雙標   但 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 直播 就 會 知道   是 跟 大家 報告 現場 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 一貫 手法   王鴻薇 表示 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 里 長 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   今 早 建議 市政府   代位 求償     此外 得知 居民 準備 組成 自救 會   承諾 一定 會 全力 協助   最 重要 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 董事 長   總經理 真的 都 不 認識   但是 回頭 去 查 了 一下   是 一位 媒體 前輩去 做生意   確實 議員 選舉 以及 立委 補選時 政治 捐獻   而 由 於 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 要 查詢 是否 虧損   虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 選區   鄰近 以前 蔣萬安 選區   為 何會 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   立刻 跟 團隊 確認   確實 是 沒 接獲 選民 或 議員陳情   這 方面 他們 要 努力 空間還 很多   會勤 走 基層   聽 更 多 聲音   稱 很 遺憾   選民 這幾個 月 這樣 困擾   對民代來講   該 努力 就 應該 繼續 去 努力  </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>台北市 中山 區 大直 民宅 疑因 附近 建案 「 基泰 大直 」 施工 不慎   整棟 下陷   建商 基泰 建設 今天 認了 「 施工 不慎 」   表示 相關責 任絕 不 推卸   會 對 受 損戶 盡 最大 慰問   協助 安置   台北市 長 蔣萬安 上午 到 顯場 視察   指 預防性 撤離 可能 再 擴大       基泰 建設 表示   台北市 中山 區 「 基泰 大直 」 建案 於 9 月 7 日 晚間   因營 造廠 施工 不慎   造成 鄰房 損壞   深表 遺憾   為維護 公共安全   已 於 第一 時間 要求 停工   同時 進行 相關 措施       蔣萬安 表示   市府 第一 時間 就 進行 疏散   跨局 處 到場 做 預防性 撤離   撤離 人數 規模 大   共 197 戶   約 369 人   但 也 可能 再持續 擴大   道 明外 僑學校 操場   圍牆 裂開   教育局 緊急 確認 後   宣布 今日 預防性 停課 1 日   以策安全               登入 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     訂閱 支持</t>
+          <t>台北市 中山 區 大直 民宅 疑因 附近 建案   基泰 大直   施工 不慎   整棟 下陷   建商 基泰 建設 今天 認了   施工 不慎     表示 相關責 任絕 不 推卸   會 對 受 損戶 盡 最大 慰問   協助 安置   台北 市長 蔣萬安 上午 到 顯場 視察   指 預防性 撤離 可能 再 擴大       基泰 建設 表示   台北市 中山 區   基泰 大直   建案 於 9 月 7 日 晚間   因營 造廠 施工 不慎   造成 鄰房 損壞   深表 遺憾   為維護 公共安全   已 於 第一 時間 要求 停工   同時 進行 相關 措施       蔣萬安 表示   市府 第一 時間 就 進行 疏散   跨局 處 到場 預防性 撤離   撤離 人數 規模 大   共 197 戶   約 369 人   但 可能 再持續 擴大   道 明外 僑學校 操場   圍牆 裂開   教育局 緊急 確認 後   宣布 今日 預防性 停課 1 日   以策安全               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 在 現場 且 站 在 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 的 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 在 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 在 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 在 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任 「 這麼 大 的 事情   你們 負責人 沒 有 在 現場   只有 你 一個 主任 在 這   」 而 工地 主任 才 回應 「 我們 總經理 站 在 旁邊 那邊   」 李聲 稱 當下 自己 不 認識 馮   且 之 後 也 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 的 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 也 找 不到 馮   他 才 會 在 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 先 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   在 會 同 法制局 後 達 成後續 的 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 在 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 的 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   也 聽 到 消防局 回報 工地 一直 傳出 有 「 啪啪 啪 」 聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 也 詢問 單號 住戶 對面 有 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 的 也 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   便 立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨 「 啪啪 啪 」 間 隔 時間 越來 越短   他 就 要求 全部 站 在 旁邊 的 人 全部 快 疏散   李 表示   他 在 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 也 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 的 是 極端 氣候 的 影響   市區 很多 側溝 的 設計 是 無法 承受 近來 的 豪 大雨   若 「 用 工程 的 技術 去 追 」 不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 的 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 的 考驗  </t>
+          <t xml:space="preserve">基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>基泰 建設 的 新建 案 「 基泰 大直 」 因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 的 25 戶長 期 安置 計畫   也 公開 基泰 大直 的 連續 壁廠 商為 「 齊崴 營造 」   至於 本刊 揭監測 報告 早就 顯示 「 已 超出 警戒 值 」   王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 的 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 的 監測 報告 顯示   在 坍塌 前 44 天 的 監測 報告 結論 及 說 明一欄 中 已 明確 指出   「 部分 監測 儀器 已 超出 警戒 值 」   然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 的 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 的 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 的 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕   「 我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇   」 王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 的 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 在 附近   會持續 提供 安置 的 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   有 地下室 開挖 的 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 的 規定 會 做 一個 整體 的 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   有 工地 涉及 公安 跟 鄰損 的   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 她 今日 也 公布 「 基泰 大直 」 的 下 包連續 壁廠 商為 「 齊崴 營造 」   「 一個 都 不要 跑掉   也 讓 大家 可以 避開 雷區   」</t>
+          <t xml:space="preserve">北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   證交所 召開 重訊 記者 會   董事 長 陳 世銘 道歉 後 宣布 請辭 負責 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者   不 確定 故意   釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 會勘 紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 回報 是否 行政 怠惰   瀆職 或 疏 於 監督     建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人     王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  </t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   在 證交所 召開 重訊 記者 會   董事 長 陳 世銘 在 道歉 後 宣布 請辭 負責 便 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 在 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者 的 「 不 確定 故意 」 釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 的 會 勘紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 的 回報 是否 有 行政 怠惰   瀆職 或 疏 於 監督   「 建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人   」 王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 的 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  </t>
+          <t xml:space="preserve">台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">先前 才 發生 竹北 天坑 事件   新竹市 和平路 20 巷今   21   天 下午 突然 出現 天坑   大約 有 一輛車 的 面積   根據 了解   在 天坑 旁有 一個 建案   目前 已經 挖 到 地下 三樓   新竹市 府 說明   今日 下午 13 時 35 分許   消防局 受理 和平路 出現 道路 地基 下陷 情形   消防局 派員到 場後發現 道路 有 明顯 傾斜   並伴 隨 瓦斯 異味   隨即 通報 都 發處   工務處   自來 水 公司   瓦斯 公司 等 單位 前來 搶 修及 勘查   市長 高虹安 隨後也親 自到 場關 心及 了解 狀況   聆 聽 周邊民眾 心聲   要求 廠商必 須 儘 速 完成 改善   並確 保 居民 居住 安全   市府 指出   現場 工地 依規 有施 打 預壘 樁 及 擋 水樁   工法 沒有 問題   疑似 是 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂   市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 有 無 傾斜 情形   如 有 民宅 開始 傾斜 情形   應 進行 預防性 撤離   另 已確 認自來 水破管 位置   並 完成 修 復 回填   將持續 觀察 是否 還有 造成 洩漏 情形   避免 地層 再次 下陷   市府 進 一步 指出   本案 因違 反建築法 第 63 條   都 發處 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各三萬元   並視後續 情況 再行 論處  </t>
+          <t xml:space="preserve">先前 才 發生 竹北 天坑 事件   新竹市 和平路 20 巷今   21   天 下午 突然 出現 天坑   大約 一輛車 面積   根據 了解   天坑 旁有 一個 建案   目前 已經 挖 到 地下 三樓   新竹市 府 說明   今日 下午 13 時 35 分許   消防局 受理 和平路 出現 道路 地基 下陷 情形   消防局 派員到 場後發現 道路 明顯 傾斜   並伴 隨 瓦斯 異味   隨即 通報 都 發處   工務處   自來 水 公司   瓦斯 公司 等 單位 前來 搶 修及 勘查   市長 高虹安 隨後也親 自到 場關 心及 了解 狀況   聆 聽 周邊民眾 心聲   要求 廠商必 須 儘 速 完成 改善   並確 保 居民 居住 安全   市府 指出   現場 工地 依規 有施 打 預壘 樁 擋 水樁   工法 沒有 問題   疑似 是 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂   市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   如 民宅 開始 傾斜 情形   應 進行 預防性 撤離   另 已確 認自來 水破管 位置   並 完成 修 復 回填   將持續 觀察 是否 還有 造成 洩漏 情形   避免 地層 再次 下陷   市府 進 一步 指出   本案 因違 反建築法 第 63 條   都 發處 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各三萬元   並視後續 情況 再行 論處  </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">新竹市 和平路 20 巷 昨 下午 驚見 「 天坑 」   市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 也 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   也 希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 也 認為   未來須 全面 將 瓦斯 及 自來 水管 線 更新   同時須 在 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 及 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 有 無 傾斜 情形   後 續 也 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  </t>
+          <t xml:space="preserve">新竹市 和平路 20 巷 昨 下午 驚見   天坑     市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 認為   未來須 全面 將 瓦斯 自來 水管 線 更新   同時須 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   後 續 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 內 有 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂 「 整夜 睡不著 」   民代質疑 工法 有 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 的 灌漿 作業   自來 水 公司 今天 也 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 也 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 的 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 有 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 的 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 的 住 戶 約 20 多戶   居民 無奈 「 不敢 休息 」   也 擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   也 希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於 「 天坑 」 填平 後   今天 又 有 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 的 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 的 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 的 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到 場會 勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 也 會 同 土木 技師 等 四大 專業 技師 公會 及 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 在 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 的 自動 傾斜 偵測 設備 的 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 做 準備       明天 開始 的 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 的 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 也 說   在 確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 的 衝擊 降到 最低       高虹安說   今天 在 現場 也 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 的 靠山   不僅會 要求 廠商 負起 責任   在 完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 的 其他 工程   新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 在 搶 修處理   記者 張裕珍 ／ 攝影 新竹市 長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹市 長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 在 搶 修處理   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 有 他 處 下陷   建物 傾斜計 監測 數值 也 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 的 老舊 自來 水塑膠 管線   市長 高虹安 下午 也 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 的 巷弄 道路 下陷   由 於 一旁 的 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 也 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   在 前天 發生 和平路 20 巷 「 天坑 」 事件 後   建商 取得 住戶 同意 在 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 的 警戒 值   由 於 和平路 20 巷 仍 有 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 的 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 也 流入 基地       由 於 和平路 20 巷內 約 有 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   也 盼 建商 同步 處理 好 地基       「 各項 資訊要 更 透明   讓 住 戶們 安心   」 楊姓 住戶 說   他 在 巷 內 住 了 20 年   其他 老住 戶 有 的 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   也 希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 也 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 也 自行 組成 應變 中心   應變 中心 代表 也 允諾   已經 協調 明天 自來 水 公司 進場 換管   在 加派 人力 前   後 分頭 施工 的 情形 下   能 在 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會 勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 的 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 的 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 也 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會 勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 也 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會 勘   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設 新建 案 「 基泰 大直 」 日前 因 施工 不慎   導致 台北市 中山 區 大直 街鄰 近 民宅 傾斜 倒塌   甚至 發生 建物 下陷 情形   北市 府上 月 26 日 進行 拆除 下陷 建物 作業   本月 1 日 進行 單號 受災屋 拆除 工作   不過 民代今   17 日   在 臉書 爆料   週邊 雙號 受災戶 的 惡夢還 沒有 結束   15 日竟 出現 房子 撕裂   碎石 掉落 聲   且門外 溝壁 有 破裂 下陷 情形   經會 勘 確認 「 下陷 累積 7 公分 」   台北市 議員陳怡 君今 稍早 在 臉書上 透露   大直 街 5 民宅 危樓 已經 拆除   但 對面 的 雙號棟 卻 在 上 週日   15 日     某住 戶 聽聞 房子 撕裂   碎石 掉落 聲   且門外 溝壁 有 破裂 下陷 的 情形   經現 場會 勘後確 認 「 累積 下陷 約 7 公分 」   陳 怡君 表示   雖結構 技師 現場 判定 無 立即 性 危險   該 狀況 為 「 地面 下 無 地基   對面 單號 拆 危樓 」 所導致 地下 土壤 遭擾動   因此 下陷   她 強調   雖 判定 暫無 立即 性 危險   建管 處 也 多 設點 觀察   但 還是 讓 民眾 住 得 心驚膽 跳   陳 怡君 無奈   認為 基泰 建設 不 只是 造成 重災戶 無家 可 歸   也 讓 鄰房 住 得 不安 穩   雖然 市府 還在 統計 周遭 鄰房 是否 同意 公辦 都 更   但 不能 避免 的 是 在 公辦 都 更 前   民眾 仍 隨時 處 於 驚 恐狀態   下雨 地震 及 再次 施工 都 讓 鄰近 住戶 感到 恐慌   無法 安心 入住   陳 怡君 指出   因為 雙號 建物 有 下陷 狀況   溝壁 也 破損 不堪   而 基泰 旁邊 正在 施工 的 其他 建案 基地   也 令民眾 害怕 房子 不堪 一擊   再次 嚴重 損鄰   陳 怡君 提出 問題   在 損鄰 報告   房屋 安全 鑑定   以及 透地雷達 出來 前   鄰近 工地 施工   若 再次 造成 民房 受損   恐怕 更難 釐 清損 鄰責任  </t>
+          <t xml:space="preserve">基泰 建設 新建 案   基泰 大直   日前 因 施工 不慎   導致 台北市 中山 區 大直 街鄰 近 民宅 傾斜 倒塌   甚至 發生 建物 下陷 情形   北市 府上 月 26 日 進行 拆除 下陷 建物 作業   本月 1 日 進行 單號 受災屋 拆除 工作   不過 民代今   17 日   臉書 爆料   週邊 雙號 受災戶 惡夢還 沒有 結束   15 日竟 出現 房子 撕裂   碎石 掉落 聲   且門外 溝壁 破裂 下陷 情形   經 會勘 確認   下陷 累積 7 公分     台北市 議員陳怡 君今 稍早 臉書上 透露   大直 街 5 民宅 危樓 已經 拆除   但 對面 雙號棟 卻 上 週日   15 日     某住 戶 聽聞 房子 撕裂   碎石 掉落 聲   且門外 溝壁 破裂 下陷 情形   經現場 會勘 後 確認   累積 下陷 約 7 公分     陳 怡君 表示   雖結構 技師 現場 判定 無 立即 性 危險   該 狀況 為   地面 下 無 地基   對面 單號 拆 危樓   所導致 地下 土壤 遭擾動   因此 下陷   強調   雖 判定 暫無 立即 性 危險   建管處 多 設點 觀察   但 還是 讓 民眾 住 得 心驚膽 跳   陳 怡君 無奈   認為 基泰 建設 不 只是 造成 重災戶 無家 可 歸   讓 鄰房 住 得 不安 穩   雖然 市府 還在 統計 周遭 鄰房 是否 同意 公辦 都 更   但 不能 避免 是 公辦 都 更 前   民眾 仍 隨時 處 於 驚 恐狀態   下雨 地震 再次 施工 都 讓 鄰近 住戶 感到 恐慌   無法 安心 入住   陳 怡君 指出   因為 雙號 建物 下陷 狀況   溝壁 破損 不堪   而 基泰 旁邊 正在 施工 其他 建案 基地   令民眾 害怕 房子 不堪 一擊   再次 嚴重 損鄰   陳 怡君 提出 問題   損鄰 報告   房屋 安全 鑑定   以及 透地雷達 出來 前   鄰近 工地 施工   若 再次 造成 民房 受損   恐怕 更難 釐 清損 鄰責任  </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>捷運 萬大線 第一期 工程 預計 2025 年 完工   施工 路線 為 中 和   土城 交通要道   讓 原 交通 更塞   而 LG06 土建工程 圍籬 原定 今年 12 月 31 日 拆除   卻 將延長 3 年 才 要 拆除   恐將 影響 拉長   另有 議員 發現   萬大線 施工 造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂 等 鄰損   要求 新北 捷運局 加速 處理   新北 捷運局 表示   已 邀北捷局   里長 及民眾 現場 說明   目前 並無 地層下陷 問題       市議員陳錦錠 表示   新北 中和區 連城路 因捷 運萬大線 施工   造成 尖峰 時刻 壅塞   且 第一期 LG06 土建工程 圍籬 原定 年底 拆除   卻 延長 三年 後 才 要 拆除   再 加上 萬大線 施工   造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂   磁磚 破損 等 鄰損   新北 捷運局 應 盡快 提出 改善 方案   避免 鄰損 擴大   確 保民 眾 居住 安全                             對此   新北 捷運局 表示   萬大中 和 線 目前 計畫 進度 達 7 成   為紓解 施工 交通 瓶頸   台北 捷局 已 於 今年 8 月底 開放 施工 時封閉 的 連城路 北向 右轉 中正路 專用 車道   預計 明年初 陸續 展開 道路 回填 復 舊 作業   逐步 縮 減圍 籬範圍   緩解 壅塞 情形       至於 鄰損 部分   新北 捷運局 表示   9 月 28 日 邀北捷局   里長 及民眾 現場 說明   關於 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   現場 立刻 要求 廠商 當天 下午 進場 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 的 部分   北捷 也 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   「 後 續若涉 鄰損 鑑定   北捷局 已承諾將 依相關 規定 辦理   目前 並沒有 地層下陷 的 問題 」       新北 捷運局 長 李政安 表示   會 要求 北捷 局縮 短 工程   不能 任意 延長   新北 捷運 局局 另 指出   LG06 中 和 站   連城路 75 巷   為 捷運 出入口 B 暨 聯合開 發基礎 共構 工程   屬契約後續 變 更 擴充 工作   因開 工時程 較 晚   且位 於 路側   並不影響 連城路 道路 回填 復 舊 期程   也 不會 造成 交通 壅塞 狀況   萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 新北 捷運局 9 月 28 日 邀北捷局   里長 及民眾 現場 說明   巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   已 要求 廠商 當天 下午 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 的 部分   北捷 也 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   圖 ／ 新北 捷運局 提供 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 住家 出現 地面 出現 高低 落差   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 約 60 戶 民宅 出現 地面 出現 高低 落差   牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供</t>
+          <t>捷運 萬大線 第一期 工程 預計 2025 年 完工   施工 路線 為 中   土城 交通要道   讓 原 交通 更塞   而 LG06 土建工程 圍籬 原定 今年 12 月 31 日 拆除   卻 將延長 3 年 才 要 拆除   恐將 影響 拉長   另有 議員 發現   萬大線 施工 造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂 等 鄰損   要求 新北 捷運局 加速 處理   新北 捷運局 表示   已 邀北捷局   里長 及民眾 現場 說明   目前 並無 地層下陷 問題       市議員陳錦錠 表示   新北 中和區 連城路 因捷 運萬大線 施工   造成 尖峰 時刻 壅塞   且 第一期 LG06 土建工程 圍籬 原定 年底 拆除   卻 延長 三年 後 才 要 拆除   再 加上 萬大線 施工   造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂   磁磚 破損 等 鄰損   新北 捷運局 應 盡快 提出 改善 方案   避免 鄰損 擴大   確 保民 眾 居住 安全                             對此   新北 捷運局 表示   萬大中 線 目前 計畫 進度 達 7 成   為紓解 施工 交通 瓶頸   台北 捷局 已 於 今年 8 月底 開放 施工 時封閉 連城路 北向 右轉 中正路 專用 車道   預計 明年初 陸續 展開 道路 回填 復 舊 作業   逐步 縮 減圍 籬範圍   緩解 壅塞 情形       至於 鄰損 部分   新北 捷運局 表示   9 月 28 日 邀北捷局   里長 及民眾 現場 說明   關於 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   現場 立刻 要求 廠商 當天 下午 進場 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 部分   北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理     後 續若涉 鄰損 鑑定   北捷局 已承諾將 依相關 規定 辦理   目前 並沒有 地層下陷 問題         新北 捷運局 長 李政安 表示   會 要求 北捷 局縮 短 工程   不能 任意 延長   新北 捷運 局局 另 指出   LG06 中 站   連城路 75 巷   為 捷運 出入口 B 暨 聯合開 發基礎 共構 工程   屬契約後續 變更 擴充 工作   因開 工時程 較 晚   且位 於 路側   並不影響 連城路 道路 回填 復 舊 期程   不會 造成 交通 壅塞 狀況   萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 新北 捷運局 9 月 28 日 邀北捷局   里長 及民眾 現場 說明   巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   已 要求 廠商 當天 下午 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 部分   北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   圖 ／ 新北 捷運局 提供 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 住家 出現 地面 出現 高低 落差   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 約 60 戶 民宅 出現 地面 出現 高低 落差   牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">捷運 萬大線 目前 整體 施工 進度 已近 七成   台北市 捷運局 表示   如火如荼 趲 趕中 的 中 和 站 地下 段 工程   均 依照 規定 施工 及 定期 監測   目前 沒有 地層下陷 的 問題   捷運局 也 將依 施工 情形 逐步 縮 減圍 籬範圍   以 緩解 交通 壅塞       負責 施工 的 台北市 捷運局 一工處 說明   日前 接獲 施工 路段 住戶 反映 有 牆面 龜裂   磁磚 破損 等 情形   已 於 今年 9 月 28 日 前往 會勘 並向 住戶 說明   一工處 說   已 了解 建物 的 狀況   將依會 勘共識 積極 與 住戶 協調 處理   並將 責成 施工 廠 商 儘 可能 以敦親 睦 鄰協助 修繕   後 續 若 涉及 需鄰 損鑑定   將 按照 規定 辦理後續                             一工 處進 一步 指出   近年 因受 疫情 及 整體 營造 環境 不佳 的 影響   致使 中 和 站 需 延至 2024 年 6 月 開始 進行 道路 中間 段 回填 及 管線 復 舊   但 一工 處將 滾動式 檢討 工序   儘 可能 提早 完成 道路 復 舊 還路 於 民   以 減少 對民眾 及 周邊 交通 的 影響  </t>
+          <t xml:space="preserve">捷運 萬大線 目前 整體 施工 進度 已近 七成   台北市 捷運局 表示   如火如荼 趲 趕中 中 站 地下 段 工程   均 依照 規定 施工 定期 監測   目前 沒有 地層下陷 問題   捷運局 將依 施工 情形 逐步 縮 減圍 籬範圍   以 緩解 交通 壅塞       負責 施工 台北市 捷運局 一工處 說明   日前 接獲 施工 路段 住戶 反映 牆面 龜裂   磁磚 破損 等 情形   已 於 今年 9 月 28 日 前往 會勘 並向 住戶 說明   一工處 說   已 了解 建物 狀況   將依 會勘 共識 積極 與 住戶 協調 處理   並將 責成 施工 廠 商 儘 可能 以敦親 睦 鄰協助 修繕   後 續 若 涉及 需鄰 損鑑定   將 按照 規定 辦理後續                             一工 處進 一步 指出   近年 因受 疫情 整體 營造 環境 不佳 影響   致使 中 站 需 延至 2024 年 6 月 開始 進行 道路 中間 段 回填 管線 復 舊   但 一工 處將 滾動式 檢討 工序   儘 可能 提早 完成 道路 復 舊 還路 於 民   以 減少 對民眾 周邊 交通 影響  </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>記者 楊 金城 ／ 專題 報導   金門 酒廠 去年 起 在 台 契作 國產 高粱 三年 計畫   緣起 「 喝 高粱 救高鐵 」 往事   其中 學甲區 農會 與 金酒 合作 在 一期 作 推廣契作 高粱   去年 首年 栽種 四四 ○ 公頃   今年 八 ○ 一公頃   明年 目標 一千 公頃   成為 全台 最大 國產 高粱 產區     金酒 ︰ 種 多少 收 多少   台南市 學甲區 農會 總幹事 李曉軍說   金酒 在 台 契作 國產 高粱 計畫   一開始 即 希望 在 高鐵 沿線 縣市 推廣   節省 水源   減緩 地層下陷 問題   金酒 總經理 丁丞康 說   契作 高粱 的 收 購價 高出 進口 高粱 甚 多   但 為 了 扶植 國產 高粱 也 為 了 減少 碳排   「 契作 高粱 只要 品質夠   種 多少   收 多少   」   依農業部 農糧署 資料   今年 第二年 在 台南 學甲   鹽水   新營   後 壁   雲林 土庫   斗南   嘉義 義竹   桃園 新屋 和 苗栗 縣 苑里   新竹 縣 等 地契 作種 植 高粱   一期 作 和 二期 作合計 栽種 二 一 二七 公頃     學甲區 去年 四月 栽種 高粱 的 祈福 典禮   與 會 的 前 金門 縣長 楊鎮 浯 說   抗旱 的 高粱 一公頃 可節 水 一萬公噸   換算 一瓶 高粱酒 可節 水 三 ． 五公噸   在 雲嘉 推廣種 植 高粱   可 減緩 抽取 地下水   「 喝 高粱 也 可以 救高鐵 」   妙寓 推廣 高粱 有助 紓 緩 地層下陷 問題     減少 進口   提高 國產 自足 率   李曉軍回憶   陳 吉仲在 農委會主 委任 內帶 著 幾家 農會 直接 到 金門 洽談   才 開啟 金酒 在 台 契作 三年 計畫   除了 提高 國產 高粱 自足 率   減少 金酒 從 中國   南美洲 進口 高粱 依賴   提高 農民 收入   並 配合 農業 政策 推廣節 水 的 高粱     金酒 首年 以 契作 高粱 生產 超過 三萬瓶 「 一 穀 作契 」 金高 銷售 一空   明年 第三年 在 台 至少 契作 三 ○ ○ ○ 公頃 高粱   李曉軍說   和 金酒 合作 的 基層 農會 計畫 組團 再 到 金門 提前 洽談後續 契作 計畫   並 希望 爭取 契作 價格 一 公斤 廿一 元 再 提高     在 台 契作 釀酒 用 高粱 新品 種為 「 台南 七號 」   「 台南 八號 」 純 糯 高粱   是 農業部 台南 區農業 改良 場在 二 ○ 一 九年 育成   後經 二年 試種 和 金酒 試釀   因風味佳   出酒率 高   同時 具有 耐旱   耐淹   抗病 蟲害 等 優點   成為 政府 鼓勵 稻田 區域 轉作 選項     農糧署 補貼   提高 契作 誘因   因農民種 稻 收益 高於種 高粱   為 提高 農民參 與 契作 高粱 誘因   農糧署 提供 補貼 轉作 獎勵 每公頃 四 ． 五萬元 綠色 環境 給付   參與 小地主 的 大 專業農 每公頃 額外 獎勵 一萬元   並補助 購置 機具 設備 及 低利 貸款   在 雜糧區 的 學甲   鹽水因 在 一期 作 推廣 高粱   二期 作再種 硬質 玉米   對 農民 划算     而 為 配合 雲林 縣 嚴重 地層下陷 區   虎尾 鎮   土庫鎮   元長 鄉 及 北港 鎮   高鐵 沿線 地層下陷 防治 作業   行政院 並 核定 今年 一期 作起 推動 「 雲林 高鐵 沿線 特區 推動 農田 轉旱 作物 專案 措施 」   活化 農地 多元 使用 又 能 節水     〈 飲酒 過量   有礙 健康 〉</t>
+          <t>記者 楊 金城 ／ 專題 報導   金門 酒廠 去年 起 台 契作 國產 高粱 三年 計畫   緣起   喝 高粱 救高鐵   往事   其中 學甲區 農會 與 金酒 合作 一期 作 推廣契作 高粱   去年 首年 栽種 四四 公頃   今年 八 一公頃   明年 目標 一千 公頃   成為 全台 最大 國產 高粱 產區     金酒 ︰ 種 多少 收 多少   台南市 學甲區 農會 總幹事 李曉軍說   金酒 台 契作 國產 高粱 計畫   一開始 即 希望 高鐵 沿線 縣市 推廣   節省 水源   減緩 地層下陷 問題   金酒 總經理 丁丞康 說   契作 高粱 收 購價 高出 進口 高粱 甚 多   但 為 了 扶植 國產 高粱 為 了 減少 碳排     契作 高粱 只要 品質夠   種 多少   收 多少       依農業部 農糧署 資料   今年 第二年 台南 學甲   鹽水   新營   後 壁   雲林 土庫   斗南   嘉義 義竹   桃園 新屋 苗栗縣 苑里   新竹縣 等 地契 作種 植 高粱   一期 作 二期 作合計 栽種 二 一 二七 公頃     學甲區 去年 四月 栽種 高粱 祈福 典禮   與 會 前 金門縣 長 楊鎮 浯 說   抗旱 高粱 一公頃 可節 水 一萬公噸   換算 一瓶 高粱酒 可節 水 三 ． 五公噸   雲嘉 推廣種 植 高粱   可 減緩 抽取 地下水     喝 高粱 可以 救高鐵     妙寓 推廣 高粱 有助 紓 緩 地層下陷 問題     減少 進口   提高 國產 自足 率   李曉軍回憶   陳 吉仲在 農委會主 委任 內帶 著 幾家 農會 直接 到 金門 洽談   才 開啟 金酒 台 契作 三年 計畫   除了 提高 國產 高粱 自足 率   減少 金酒 從 中國   南美洲 進口 高粱 依賴   提高 農民 收入   並 配合 農業 政策 推廣節 水 高粱     金酒 首年 以 契作 高粱 生產 超過 三萬瓶   一 穀 作契   金高 銷售 一空   明年 第三年 台 至少 契作 三 公頃 高粱   李曉軍說   金酒 合作 基層 農會 計畫 組團 再 到 金門 提前 洽談後續 契作 計畫   並 希望 爭取 契作 價格 一 公斤 廿一 元 再 提高     台 契作 釀酒 用 高粱 新品 種為   台南 七號       台南 八號   純 糯 高粱   是 農業部 台南 區農業 改良 場在 二 一 九年 育成   後經 二年 試種 金酒 試釀   因風味佳   出酒率 高   同時 具有 耐旱   耐淹   抗病 蟲害 等 優點   成為 政府 鼓勵 稻田 區域 轉作 選項     農糧署 補貼   提高 契作 誘因   因農民種 稻 收益 高於種 高粱   為 提高 農民參 與 契作 高粱 誘因   農糧署 提供 補貼 轉作 獎勵 每公頃 四 ． 五萬元 綠色 環境 給付   參與 小地主 大 專業農 每公頃 額外 獎勵 一萬元   並補助 購置 機具 設備 低利 貸款   雜糧區 學甲   鹽水因 一期 作 推廣 高粱   二期 作再種 硬質 玉米   對 農民 划算     而 為 配合 雲林縣 嚴重 地層下陷區   虎尾 鎮   土庫鎮   元長 鄉 北港 鎮   高鐵 沿線 地層下陷 防治 作業   行政院 並 核定 今年 一期 作起 推動   雲林 高鐵 沿線 特區 推動 農田 轉旱 作物 專案 措施     活化 農地 多元 使用 又 能 節水     〈 飲酒 過量   有礙 健康 〉</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   也 是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 在 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 在 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 在 有 地下水 的 時候   不會 有 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 也 非常 快   不會 有 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 也 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 的 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   也 成為 高雄 地區 對 抗旱 象 的 關鍵 利器  </t>
+          <t xml:space="preserve">旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">順著 高屏溪 右岸 來 到 高雄 大樹區 的 九曲堂 工作站   從 空中 俯瞰 一個 個 用圍 欄圍 起 的 方形 區塊   排列 整齊   錯落 其中   靠近 一看 才 發現 這是 一根 根 打入 地底下 的 水管   稱為 抗旱 水井   高雄 市政府 水利局 表示   所謂 的 抗旱 水井 是 抽取 深層 地下水   從 地表 往下 150 米 深   透過 抽水 設備   將深層 地下水 經由 抗旱 水井 取出   相較 於 海淡廠   再生 水 等等   取水 更為 快速   成本 更 低   供水量 也 更 大 的 地下水   成為 抗旱 期間 的 關鍵 水源   類 似的 抗旱 水井 已 在 高雄 陸續 開鑿 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井 卻 讓 當地 農民相 當憂心   是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 的 深層 地下水   與 一般 深 20 到 40 公尺 間 淺層 地下水 的 農業 灌溉 井   含水 層 不同   且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產生 影響   水利局 局長 蔡長 展 指出   抗旱 水井 是備 援用 水   使用 時間 大約 在 每年 3 月 至 5 月   藉由 雨水 對 地下水 進行 補注   對 農業 灌溉 用水 不受 影響   根據 地下水位 監測 資料 顯示   112 年 1 月份 地下水位 高點 落 在 14 公尺   接著 隨著 枯水期 到 來   地下水位 在 5 月份 降到 了 大約 6 公尺   隨後迅 期到 來 開始 降雨   加上 高雄 市政府 與 水利 署 合作   推動 高屏溪 流域 河道 疏濬 補注 地下水 計畫   增加 地下水 量   使得 9 月份 地下水位 上升 到 16 公尺   足足 比 枯水期 高出 了 10 公尺   甚至 高 於 1 月份 水位   在 枯水期 嚴密 監控   視情況 抽用   在 豐水期 加強 地下水 補注   便 能夠 達 到 水資源 永續 發展 的 目標   經濟部 水利 署 副署 長 林元鵬 說明   高雄 地區 總 共有 11 口 的 觀測 水井   所有 水井 都 會 進行 管控   只要 是 有效 地去 管控 數據   地下水 在 高雄 地區 是 可以 當作 一個 安全 的 用水   在 嚴密監 控確 保不會 造成 地層下陷 及 影響 水源 保育 的 情況 之下   短期 備援 的 抗旱 水井 不僅成 了 抗旱 功臣   也 賦予 地下水 資源 更 多元 運用 的 可能  </t>
+          <t xml:space="preserve">順著 高屏溪 右岸 來 到 高雄 大樹區 九曲堂 工作站   從 空中 俯瞰 一個 個 用圍 欄圍 起 方形 區塊   排列 整齊   錯落 其中   靠近 一看 才 發現 這是 一根 根 打入 地底下 水管   稱為 抗旱 水井   高雄市 政府 水利局 表示   所謂 抗旱 水井 是 抽取 深層 地下水   從 地表 往下 150 米 深   透過 抽水 設備   將深層 地下水 經由 抗旱 水井 取出   相較 於 海淡廠   再生 水 等等   取水 更為 快速   成本 更 低   供水量 更 大 地下水   成為 抗旱 期間 關鍵 水源   類 似的 抗旱 水井 已 高雄 陸續 開鑿 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井 卻 讓 當地 農民相 當憂心   是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間 淺層 地下水 農業 灌溉 井   含水 層 不同   且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產生 影響   水利局 局長 蔡長 展 指出   抗旱 水井 是備 援用 水   使用 時間 大約 每年 3 月 至 5 月   藉由 雨水 對 地下水 進行 補注   對 農業 灌溉 用水 不受 影響   根據 地下水位 監測 資料 顯示   112 年 1 月份 地下水位 高點 落 14 公尺   接著 隨著 枯水期 到 來   地下水位 5 月份 降到 了 大約 6 公尺   隨後迅 期到 來 開始 降雨   加上 高雄市 政府 與 水利 署 合作   推動 高屏溪 流域 河道 疏濬 補注 地下水 計畫   增加 地下水 量   使得 9 月份 地下水位 上升 到 16 公尺   足足 比 枯水期 高出 了 10 公尺   甚至 高 於 1 月份 水位   枯水期 嚴密 監控   視情況 抽用   豐水期 加強 地下水 補注   能夠 達 到 水資源 永續 發展 目標   經濟部 水利 署 副署 長 林元鵬 說明   高雄 地區 總 共有 11 口 觀測 水井   所有 水井 都 會 進行 管控   只要 是 有效 地去 管控 數據   地下水 高雄 地區 是 可以 當作 一個 安全 用水   嚴密監 控確 保不會 造成 地層下陷 影響 水源 保育 情況 之下   短期 備援 抗旱 水井 不僅成 了 抗旱 功臣   賦予 地下水 資源 更 多元 運用 可能  </t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">越南 正在 加強 監管 開採 砂石   雖然 這可 說 是 全世界 最常 被 使用 的 一項 資源   但 若 濫採   可能 導致 水土流失   地層下陷 和 房屋 倒塌 等 災難       日經 新聞 報導   越南政府 官網 12 日 公告   總理范 明政 已 指示 五個 部會 和 多個 地方 政府   仔細 審視營 建業 的 礦物 開採   尤其 是 砂石   這種 大宗 商品 已成 為 一項 全球性 生意   可和水 混合 後 製 成 水泥   或是 用來 填海造地   越南 已 限制 砂石 的 出口                             在 越南 的 湄公河 三角洲 等 地區   盜採 砂石 已成 為 一種 比氣候 變遷 還要 嚴重 的 威脅   據 非營利 環保 組織 世界 自然 基金 會   WWF   最近 的 指標性 報告   湄公河 三角洲 的 砂石 可能 會 在 2035 年前 被 開 採殆 盡       越南政府 日前 已特別點 出河 內市 的 三樁 砂石 開採 招標 「 大眾 意見 特別 令人 擔憂 」   並在 官網 公告 中 表示   該市 應該 「 立即 重新 審視 調查 和 評估 砂石 存量 的 整個 流程 」   「 絕對 不准 組織 和 個 人 利用 管理 漏洞 賺取 暴利 」       范 明政 也 指示 環境部 調查 該 行業 活動 的 「 罕見 跡象 」   並 指示 安全部 「 嚴加 處置 違法行 為 」  </t>
+          <t xml:space="preserve">越南 正在 加強 監管 開採 砂石   雖然 這可 說 是 全世界 最常 被 使用 一項 資源   但 若 濫採   可能 導致 水土流失   地層下陷 房屋 倒塌 等 災難       日經 新聞 報導   越南政府 官網 12 日 公告   總理范 明政 已 指示 五個 部會 多個 地方 政府   仔細 審視營 建業 礦物 開採   尤其 是 砂石   這種 大宗 商品 已成 為 一項 全球性 生意   可和水 混合 後 製 成 水泥   或是 用來 填海造地   越南 已 限制 砂石 出口                             越南 湄公河 三角洲 等 地區   盜採 砂石 已成 為 一種 比 氣候變遷 還要 嚴重 威脅   據 非營利 環保 組織 世界 自然 基金 會   WWF   最近 指標性 報告   湄公河 三角洲 砂石 可能 會 2035 年前 被 開 採殆 盡       越南政府 日前 已特別點 出河 內市 三樁 砂石 開採 招標   大眾 意見 特別 令人 擔憂     並在 官網 公告 中 表示   該市 應該   立即 重新 審視 調查 評估 砂石 存量 整個 流程       絕對 不准 組織 個 人 利用 管理 漏洞 賺取 暴利         范 明政 指示 環境部 調查 該 行業 活動   罕見 跡象     並 指示 安全部   嚴加 處置 違法行 為    </t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">義 大利 除了 比薩 斜塔 外   在 義 大利 北部 的 波隆 那 也 有 個 知名 的 「 波隆 那 雙塔 」   這兩座 塔 的 歷史 將近 一千年   而 其中 一座 較 低矮 的 塔   最近 幾年 被 發現 結構 愈來 愈 不 穩定   傾斜 角度 也 逐漸 變大   當局 已經 封鎖 附近 區域   並在網 路上 發起 募捐 活動   希望 各界 共同 來 拯救 這座 重要 的 歷史 建築 和 文化 資產   義 大利 的 波隆納 雙塔   右側 的 阿西 內利 塔高 97 公尺   左側 的 加里森 達 塔高 48 公尺   雙塔 在 波隆納 矗立 超過 900 年   如今 張貼 禁止 進入 的 告示   基座 也 被 圍起   且 其中 比較 低 的 加里森 達塔   被 專家 認定   很 有 可能 在 近期 內 倒塌   情況 相當 危急   波隆 那 市民 寶拉 表示   「 這座 塔 是 波隆 那 的 象 徵   如果 它 倒塌 了 那 真的 是 個 恥辱   因為 我們將 失去 這座 城市 最 重要 的 古 蹟 之一   」 14 世紀 發生 一次 地層下陷 後   加里森 達塔持續 傾斜   目前 斜度 已 超越 比薩 斜塔 0.1 度達 到 4 度   當局 曾 於 2020 年 執行 抗傾倒 計畫   但 問題 不但 沒 改善 甚至 還惡化   今年夏天 面臨 極端 高溫 加上 洪水 等 極端 天氣   讓 高塔 難以 承受   當局 展開 搶 救 加里森 達塔 大作 戰   在網 路上 發起 募款 活動   目標 是 籌到 一 億台幣 的 資金   希望 各界 一起 來 拯救 義 大利 重要 的 歷史 建築 和 文化 資產  </t>
+          <t xml:space="preserve">義 大利 除了 比薩 斜塔 外   義 大利 北部 波隆 個 知名   波隆 雙塔     這兩座 塔 歷史 將近 一千年   而 其中 一座 較 低矮 塔   最近 幾年 被 發現 結構 愈來 愈 不 穩定   傾斜 角度 逐漸 變大   當局 已經 封鎖 附近 區域   並在網 路上 發起 募捐 活動   希望 各界 共同 來 拯救 這座 重要 歷史 建築 文化 資產   義 大利 波隆納 雙塔   右側 阿西 內利 塔高 97 公尺   左側 加里森 達 塔高 48 公尺   雙塔 波隆納 矗立 超過 900 年   如今 張貼 禁止 進入 告示   基座 被 圍起   且 其中 比較 低 加里森 達塔   被 專家 認定   很 可能 近期 倒塌   情況 相當 危急   波隆 市民 寶拉 表示     這座 塔 是 波隆 象 徵   如果 它 倒塌 了 真的 是 個 恥辱   因為 我們將 失去 這座 城市 最 重要 古 蹟 之一     14 世紀 發生 一次 地層下陷 後   加里森 達塔持續 傾斜   目前 斜度 已 超越 比薩 斜塔 0.1 度達 到 4 度   當局 曾 於 2020 年 執行 抗傾倒 計畫   但 問題 不但 沒 改善 甚至 還惡化   今年夏天 面臨 極端 高溫 加上 洪水 等 極端 天氣   讓 高塔 難以 承受   當局 展開 搶 救 加里森 達塔 大作 戰   在網 路上 發起 募款 活動   目標 是 籌到 一 億台幣 資金   希望 各界 一起 來 拯救 義 大利 重要 歷史 建築 文化 資產  </t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 捷運 信義線 東延段 工程   疑似 造成 松山 家商 校舍 下陷 5 公分   引發 安全 疑慮   直擊 北市 福德街   有 住戶 反映   下陷 情況 相當 明顯   連房價 都 跌 了   對此 台北市 捷運局 表示   已 安排 台北市 結構 技師 公會 辦理 結構 安全 鑑定   同時 也 已針 對 周邊 建物 及 鄰房 損壞 的 部分   進行 立即 修繕 作業   台北 捷運 信義線 東延段 工程   2016 年 開工 至今   工程 目前 還在 進行 中   不過 近期 有 北市 議員接 獲民眾 陳 情   說 先前 的 開 挖 工程   釀成 鄰近 的 建物 塌陷   實際到 現場 一看   發現 原本 馬 路 是 平 的   但 塌陷 的 狀況 確實 越來 越 明顯   附近 住戶 說   「 對 啊   本來 都 是 平 的   這邊 全部 都 下陷   我 就 住 在 二樓   那個 球 很 明顯 從 這樣 滑下去 」   說 到 地層下陷   附近 住戶 超級 有感   北市 福德街 一旁 騎樓   明顯 受到 捷運開 挖 工程 影響   下陷 相當 嚴重   連住 戶 都 直呼 「 這裡 房價 都 跌 了 」   里長 更 指出   福德街 51 巷到 89 巷是 影響 最明顯 的 地方   附近 住戶 擔心 的 說   「 補 了 也 沒用   你 看 就 這樣   結構 已經 不行 了   除非 重建 」   對此 台北市 土木 技師 公會 理事 長 莊均緯 表示   「 通常 捷運 施工 比較 容易 下陷 的 部分   就 是非 結構體   像是 水溝   人行道   有 瓷磚 的 部分   要 做 安全 檢測   看 是否 有 造成 結構 上 的 問題 」   而 在 松山 家商 校舍 也 被 發現 有 下陷 狀況   議員 指出   經過 一年 的 監測   確認 已經 下陷 約 5 公分   安全 疑慮 浮上 檯 面   捷運 工程局 及 承包商   趕緊 進行 結構 補強   施作 地質 鑽 探作業   要 確認 校舍 的 承受能力   台北市 政府 捷運局 第二 工程 處 主任 陳 建仁則 表示   110 年 9 年 有 接到 學校 通報   有 監測 作業 進行 修繕   今年 暑假 陸續 修繕 完成   這個 月 也 做 安全 鑑定   兩個 月 後 就 有 安全 報告   而 台北 捷運局 表示   施工期 間 因為 極端 地質 及 水文 條件 不利   釀成 地下 土層 沉陷   目前 已經 安排 結構 安全 鑑定   並進行 立即 修繕   在 捷運 施工 的 周邊 建物   都 有安裝 建物 監測 儀器   按時 觀測 監控   研判 施工 是否 再 造成 影響  </t>
+          <t xml:space="preserve">台北 捷運 信義線 東延段 工程   疑似 造成 松山 家商 校舍 下陷 5 公分   引發 安全 疑慮   直擊 北市 福德街   住戶 反映   下陷 情況 相當 明顯   連房價 都 跌 了   對此 台北市 捷運局 表示   已 安排 台北市 結構 技師 公會 辦理 結構 安全 鑑定   同時 已針 對 周邊 建物 鄰房 損壞 部分   進行 立即 修繕 作業   台北 捷運 信義線 東延段 工程   2016 年 開工 至今   工程 目前 還在 進行 中   不過 近期 北市 議員接 獲民眾 陳 情   說 先前 開 挖 工程   釀成 鄰近 建物 塌陷   實際到 現場 一看   發現 原本 馬 路 是 平   但 塌陷 狀況 確實 越來 越 明顯   附近 住戶 說     對   本來 都 是 平   這邊 全部 都 下陷   我 就 住 二樓   那個 球 很 明顯 從 這樣 滑下去     說 到 地層下陷   附近 住戶 超級 有感   北市 福德街 一旁 騎樓   明顯 受到 捷運開 挖 工程 影響   下陷 相當 嚴重   連住 戶 都 直呼   這裡 房價 都 跌 了     里長 更 指出   福德街 51 巷到 89 巷是 影響 最明顯 地方   附近 住戶 擔心 說     補 了 沒用   看 就 這樣   結構 已經 不行 了   除非 重建     對此 台北市 土木 技師 公會 理事 長 莊均緯 表示     通常 捷運 施工 比較 容易 下陷 部分   就 是非 結構體   像是 水溝   人行道   瓷磚 部分   要 安全 檢測   看 是否 造成 結構 上 問題     而 松山 家商 校舍 被 發現 下陷 狀況   議員 指出   經過 一年 監測   確認 已經 下陷 約 5 公分   安全 疑慮 浮上 檯 面   捷運 工程局 承包商   趕緊 進行 結構 補強   施作 地質 鑽 探作業   要 確認 校舍 承受能力   台北市 政府 捷運局 第二 工程 處 主任 陳 建仁則 表示   110 年 9 年 接到 學校 通報   監測 作業 進行 修繕   今年 暑假 陸續 修繕 完成   這個 月 安全 鑑定   兩個 月 後 就 安全 報告   而 台北 捷運局 表示   施工期 間 因為 極端 地質 水文 條件 不利   釀成 地下 土層 沉陷   目前 已經 安排 結構 安全 鑑定   並進行 立即 修繕   捷運 施工 周邊 建物   都 有安裝 建物 監測 儀器   按時 觀測 監控   研判 施工 是否 再 造成 影響  </t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候 變遷   南北 降雨 不均   不少 人憂心   南台 灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 的 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 的 集 水井 裡頭   有著 11 個 粗大 的 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 的 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 的 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 的 含水 層   以及 由細顆 粒 粘土 組成 的 阻水層   伏 流水 大約 落 在 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 在 的 救命 水   尤其 是 在 汛期 的 時候   它 非常 乾淨   外面 河川 裡面 的 濁度 甚至 於 飆到 10 萬個 NTU   那 根本 就 沒 有 辦法 做 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通 的   所以 伏 流水 就 可以 發揮 它 在 這段 時間 裡面 的 作用   所以 就 變成 所 說 的 救命 水   同樣 被 視為 救命 水源 的   還有 這 一根 根 打入 地底下 的 抗旱 水井   別 小看 這些 不起眼 的 水井   它們 可是 解決 高雄 缺水 危機 的 抗旱 英雄   類 似的 抗旱 水井   已經 在 3 年間 在 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 的 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 的 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 的 時間 大概 在 每年 的 3 月 到 5 月   到 了 下雨 的 時候   我們 就 沒 有 再 用   就是 藉由 下雨 的 時候   會 做 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 在 用 一些 農業 灌溉 用水   是 安全 的   神 祕 的 地下水 補注區   其實 就 隱身 在 高屏溪 的 河床 底下   從 空中 俯瞰   這些 不起眼 的 灰色 土石   全都 扮演 關鍵 角色   所謂 的 地下水 補注區   就是 利用 疏濬 的 砂石   在 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   也 使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   有 一些 礫石 跟 比 較 粗 的 沙子   所以 說 在 放釋 水 的 時候   它 比 較 不會產生 所謂 的 壓密 沉陷   因為 它 的 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 的 狀況   也 清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 的 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 也 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷 的   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 的 水 抽掉   它 抽走 得 很快   補充 也 非常 快   在 那個 地方 抽 地下水   是 不會 有 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 的 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  </t>
+          <t xml:space="preserve">2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">長 江 三角洲 簡稱 「 長 三角 」   是 中國大陸 經濟 發展 的 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 的 三角洲   然而   「 人無遠慮   必有 近憂 」   當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 的 此刻   當 全球 減碳 前景 仍 不樂觀 的 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長 江 三角洲 未來 所 可能 受到 的 危害   將牽動 著 中國大陸 的 發展 前景 與 紅色供 應鏈 的 未來       廿世紀 前 五十年 全球 平均 海水面 升高 的 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   也 就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國 「 政府 間 氣候 變遷 小組 」 去年 的 報告 書 指出   隨著 不同 暖化 程度   在 本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 的 將是 各大 河流 出海口 的 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 在 舊 金山 參加 一個 研討 全球 變遷 的 學術 大會   在 十幾個 議題 組中 領略 到 密西西比河 三角洲 的 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 的 景象 在 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 的 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 的 中上游 建設 上 了 四萬座 大大小小 的 壩體   一九六五年 以降   河系 的 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 的 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   也 擾亂 了 原來 大自然 的 泥沙 輸送 布局   加上 近 五十年 下游 地區 及 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧   「 自然 解方 」   力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長 江 三角洲 似乎 也 正 走上 密西西比河 的 老路   長 江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 的 社會 變遷   僅 上海 一地   人口 從 八 ○ 年代 的 六百 萬 增加 到 目前 的 三千 三百 萬   長 江原 來 每年 輸送 五 億公噸 的 泥沙 到 河口   全球排名 第五   長 江三峽 大壩 二 ○ ○ 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長 江 三角洲 的 前緣 已 經開 始後退   以 上海 為 發展 中心 的 三角洲 雖 享受 著開發 的 豐美果實   也 承受 著 上游 帶來 一切 災害 危機 的 總 和   包括 三角洲 萎縮 以及 水質 汙染   大量 的 人口 增加 也 使 地下水 抽取 量大增   地層下陷   局部 地區 的 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 的 範圍 約 占 全區 的 百分之十四   而 在 長 江 三角洲 則占 全區 的 百分之四十   在 未來 海水面 上升 的 風險 下   長 三角 面臨 的 挑戰 顯然 更 為 嚴峻   也 更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  </t>
+          <t xml:space="preserve">長江 三角洲 簡稱   長三角     是 中國大陸 經濟 發展 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 三角洲   然而     人無遠慮   必有 近憂     當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 此刻   當 全球 減碳 前景 仍 不樂觀 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長江 三角洲 未來 所 可能 受到 危害   將牽動 著 中國大陸 發展 前景 與 紅色供 應鏈 未來       廿世紀 前 五十年 全球 平均 海水面 升高 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國   政府 間 氣候變遷 小組   去年 報告 書 指出   隨著 不同 暖化 程度   本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 將是 各大 河流 出海口 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 舊 金山 參加 一個 研討 全球 變遷 學術 大會   十幾個 議題 組中 領略 到 密西西比河 三角洲 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 景象 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 中上游 建設 上 了 四萬座 大大小小 壩體   一九六五年 以降   河系 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   擾亂 了 原來 大自然 泥沙 輸送 布局   加上 近 五十年 下游 地區 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧     自然 解方     力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長江 三角洲 似乎 正 走上 密西西比河 老路   長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 社會 變遷   僅 上海 一地   人口 從 八 年代 六百 萬 增加 到 目前 三千 三百 萬   長江 原來 每年 輸送 五 億公噸 泥沙 到 河口   全球排名 第五   長江 三峽 大壩 二 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長江 三角洲 前緣 已 經開 始後退   以 上海 為 發展 中心 三角洲 雖 享受 著開發 豐美果實   承受 著 上游 帶來 一切 災害 危機 總   包括 三角洲 萎縮 以及 水質 汙染   大量 人口 增加 使 地下水 抽取 量大增   地層下陷   局部 地區 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 範圍 約 占 全區 百分之十四   而 長江 三角洲 則占 全區 百分之四十   未來 海水面 上升 風險 下   長三角 面臨 挑戰 顯然 更 為 嚴峻   更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  </t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 和 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 的 溢 淹 問題 及 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 和 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 在 地養 殖區 穩定 水質 及 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 的 機構 團體 來 「 取經 」   居民 卻長 期苦 於 地層下陷 帶來 的 排水 問題 及 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 和 生活 環境 品質                             她 說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東 縣 最大 的 養殖 漁業 生產區   塭 豐 二中 排旁 的 豐 海路 也 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 也 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 及 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖魚 塭 的 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 的 水環境       屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 和 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 的 溢 淹 問題 及 顛簸 起伏 路況 所苦   圖 ／ 屏東 縣 政府 提供 屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東 縣 政府 提供 屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東 縣 政府 提供</t>
+          <t>屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 溢 淹 問題 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 地養 殖區 穩定 水質 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 機構 團體 來   取經     居民 卻長 期苦 於 地層下陷 帶來 排水 問題 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 生活 環境 品質                             說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東縣 最大 養殖 漁業 生產區   塭 豐 二中 排旁 豐 海路 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖 魚塭 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 水環境       屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 溢 淹 問題 顛簸 起伏 路況 所苦   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 根據 水利 署 監測 資料   全國 最大 米 鄉 — 大 埤 鄉 近 5 年 地層下陷 面積 及 深度 有 惡化 情況   分析 原因 極端 氣候 水情 不穩   地下水 用量 增   對此   縣府 爭取 農業部 農田 水利 署將 大 埤納入 擴大溉 灌 服務範圍   可 從 北港溪 引水 在 高灘 地 建置 蓄水池   再 新建 管路 供農田 灌溉 用   經費 約 3.3 億元     縣府 水利 處 指出   水利 署 2023 雲林 地層下陷 監測 結果 顯示   雲林 顯著 下陷 面積 247.7 平方公里   比 前年 2022 年略增 一些   顯著 下陷 重點 地區 土庫   元長 的 地下水位 仍有 持續 下陷 形     水利 處長 許 宏博 表示   整體 監測 結果 可 看出   雲林 沿海 地層下陷 有 趨緩   顯著 下陷 主要 在 虎尾   土庫   元長   北港   四湖   褒忠   水林   崙 背 及 大 埤   值得注意 是 大 埤 鄉 下陷 面積   深度 近 5 年 有 惡化 現象     許 宏博 指出   大 埤 是 全國 水稻 種植 面積 最 多 的 鄉鎮   但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 及 怡然 等 村   若 要 一年 兩作   無水 可 灌溉 一定 要 抽 地下水 使用   在 水稻 面積 不變   用水量 都 固定 情況 下   地層下陷 應 不致 惡化   主要 變數 就是 水情   尤其 這幾年 極端 氣候   2021 遇 百年 大旱   2023 去年 又 遇 200 年 大旱   這 2 次 地下水 抽得 多   去年 枯水期 地下水位 洩降 大 埤 達 15 公尺 最 嚴重     許 宏博 說   目前 大 埤 農民 灌溉 情況 有 3 種   第一 種是 引 地面水 即區 排   第二 種是 抽 地下水   由 幾個 農民 共同 一個 公井   再分 擔電費   第三 種是 抽 北港溪 水   為 減緩 大 埤 地層下陷 持續 惡化   縣府 早先 已建議 列為 優先 防治 地   也 針對 大 埤 取水 灌溉 進行 初步 規劃 及構 想   考量 北港溪 尚有 水權 可 申請   即 從 北港溪 引 地面水 到 高灘 地 的 蓄水池   供給 農田 灌溉 使用  </t>
+          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 根據 水利 署 監測 資料   全國 最大 米 鄉 — 大 埤 鄉 近 5 年 地層下陷 面積 深度 惡化 情況   分析 原因 極端 氣候 水情 不穩   地下水 用量 增   對此   縣府 爭取 農業部 農田 水利 署將 大 埤納入 擴大溉 灌 服務範圍   可 從 北港溪 引水 高灘 地 建置 蓄水池   再 新建 管路 供農田 灌溉 用   經費 約 3.3 億元     縣府 水利 處 指出   水利 署 2023 雲林 地層下陷 監測 結果 顯示   雲林 顯著 下陷 面積 247.7 平方公里   比 前年 2022 年略增 一些   顯著 下陷 重點 地區 土庫   元長 地下水位 仍有 持續 下陷 形     水利 處長 許 宏博 表示   整體 監測 結果 可 看出   雲林 沿海 地層下陷 趨緩   顯著 下陷 主要 虎尾   土庫   元長   北港   四湖   褒忠   水林   崙 背 大 埤   值得注意 是 大 埤 鄉 下陷 面積   深度 近 5 年 惡化 現象     許 宏博 指出   大 埤 是 全國 水稻 種植 面積 最 多 鄉鎮   但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作   無水 可 灌溉 一定 要 抽 地下水 使用   水稻 面積 不變   用水量 都 固定 情況 下   地層下陷 應 不致 惡化   主要 變數 就是 水情   尤其 這幾年 極端 氣候   2021 遇 百年 大旱   2023 去年 又 遇 200 年 大旱   這 2 次 地下水 抽得 多   去年 枯水期 地下水位 洩降 大 埤 達 15 公尺 最 嚴重     許 宏博 說   目前 大 埤 農民 灌溉 情況 3 種   第一 種是 引 地面水 即區 排   第二 種是 抽 地下水   由 幾個 農民 共同 一個 公井   再分 擔電費   第三 種是 抽 北港溪 水   為 減緩 大 埤 地層下陷 持續 惡化   縣府 早先 已建議 列為 優先 防治 地   針對 大 埤 取水 灌溉 進行 初步 規劃 及構 想   考量 北港溪 尚有 水權 可 申請   即 從 北港溪 引 地面水 到 高灘 地 蓄水池   供給 農田 灌溉 使用  </t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>經濟部 水利 署 監測 雲林 縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林 縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林 縣 近年 地層下陷 顯著 的 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林 縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 及 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 有 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 及 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林 縣長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 及 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 的 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 及 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   在 自來 水可到 達 的 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林 縣大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影</t>
+          <t>經濟部 水利 署 監測 雲林縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林縣 長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   自來 水可到 達 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林縣 大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 水利 署 監測 資料   雲林 縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 有 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   有 當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示   「 就是 都 沒 有 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層 的   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋   」 雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 和 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 的 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 及 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示   「 非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 的 灌溉 水源   」 雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  </t>
+          <t xml:space="preserve">根據 水利 署 監測 資料   雲林縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示     就是 都 沒 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋     雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示     非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 灌溉 水源     雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  </t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">媒體 報導 雲林 縣大 埤 鄉 水情 不穩   地下水 用量 增加   地層下陷 惡化   農田 水利 署 今天 表示   雲林 縣府 有 提出 納入 擴大 灌溉 服務構 想   已 請 其 提擬 更具 體的 計畫   再 共同 推動 擴大 灌溉 服務     媒體 報導   水稻 產區 雲林 縣大 埤 鄉 近年 地層下陷 情況 惡化   可能 與 水情 不穩   抽取 地下水 用量 增加 有關   雲林 縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍                           農水署 副署 長 陳 衍源 告訴 中央社 記者   雲林 縣 政府 有 提出 構想   農水署 也 已 回覆   請 縣府 提出 更具 體的 計畫   收到 計畫後會 審查   然後跟 縣府 共同 推動 擴大 灌區 服務 的 計畫     針對 成立 3 年 3 個 月 來   已 擴大 5.6 萬公頃 農田 獲得 灌溉 用水   約 8 萬 多名 農民 受惠   農水署 並規劃 114 年 要 擴 增至 8.8 萬公頃   陳 衍源 說   要 等 縣府 提出 具體 計畫後會 先 做 審查   因此 能否 納入 114 年 的 8.8 萬公頃 目標 內   尚未 確定   但應 不 受此 影響   擴大 灌溉 服務計 畫會 持續 推動     另外   陳 衍源 也 說   如果 能 設計 引用 河川 水作 為 灌溉 使用   希望 能 替代 當地 抽用 地下水   對 減緩 地層下陷 有所 幫助  </t>
+          <t xml:space="preserve">媒體 報導 雲林縣 大 埤 鄉 水情 不穩   地下水 用量 增加   地層下陷 惡化   農田 水利 署 今天 表示   雲林縣 府 提出 納入 擴大 灌溉 服務構 想   已 請 其 提擬 更具 體的 計畫   再 共同 推動 擴大 灌溉 服務     媒體 報導   水稻 產區 雲林縣 大 埤 鄉 近年 地層下陷 情況 惡化   可能 與 水情 不穩   抽取 地下水 用量 增加 有關   雲林縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍                           農水署 副署 長 陳 衍源 告訴 中央社 記者   雲林縣 政府 提出 構想   農水署 已 回覆   請 縣府 提出 更具 體的 計畫   收到 計畫後會 審查   然後跟 縣府 共同 推動 擴大 灌區 服務 計畫     針對 成立 3 年 3 個 月 來   已 擴大 5.6 萬公頃 農田 獲得 灌溉 用水   約 8 萬 多名 農民 受惠   農水署 並規劃 114 年 要 擴 增至 8.8 萬公頃   陳 衍源 說   要 等 縣府 提出 具體 計畫後會 審查   因此 能否 納入 114 年 8.8 萬公頃 目標   尚未 確定   但應 不 受此 影響   擴大 灌溉 服務計 畫會 持續 推動     另外   陳 衍源 說   如果 能 設計 引用 河川 水作 為 灌溉 使用   希望 能 替代 當地 抽用 地下水   對 減緩 地層下陷 有所 幫助  </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東 縣 政府 於 東港   林邊   佳冬 及 枋寮 4 個 沿海 鄉鎮   劃定 「 嚴重 地層下陷 區光 電計畫 」 專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 有 3000 公頃 以上 的 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷 區為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷 區   現 仍屬 第 1   2 級 地下水 管制 區   且 在 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 有 縣府 在 尊重 地主 利用 土地 意願 及 權益 前提 及 既有 電力 設施 併 網 上限 條件 下   有 限度 的 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   在 部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 的 光電板 發電 效率 已較 八八 風災 後 的 「 養水 種電 」 到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 的 在 單位 發電量 更大下   所 需面積 的 比例 一定 更 小   至少 會 有 3000 公頃 以上 的 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 有 土地 鹽化 等 不利因素 無法 耕作 的 年 邁老農   則 可以 有 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供人 種電   一定 要 進行 變 更 地目   但 這是 完全 基 於 地主 的 利用 土地 意願 及 權益   縣府 環保局 從 未 要求 廠商 提供 所謂 「 不利 耕作 同意 書 」 或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 及 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 有 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   在 未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 內 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東 縣綠能 推動 政策 以 「 專案 專區 計畫 」   「 土地 複 合式 利用 」 兩大 策略 為主   專案 為 有 限度 使用 相對 不 適合 耕種 的 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電 的 「 複 合 利用 」 方式     屏東 縣環 保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 有 處置 自家 土地 財產   以及 業者 依法 申請 案件 的 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  </t>
+          <t xml:space="preserve">聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 文資 價值 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為   惡鄰     產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 上限 規定   目前 既有 電力 設施 併 網 上限 下   限度 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             強調   從 未 要求 廠商 提供   不利 耕作 同意 書   或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       指出   屏東 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   等 2 大 策略 為 優先   限度 使用 相對 不 適合 耕種 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活   至於 非 專案 專區 鄉鎮   則優先 鼓勵 廠 商以   土地 複 合式 利用   方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 處置 自家 土地 財產   及業者 依法 申請 案件 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電範圍 遍及 農地   山區 到 有 文資 價值 的 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為 「 惡鄰 」   產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 有 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 有 上限 規定   目前 在 既有 的 電力 設施 併 網 上限 下   有 限度 的 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 有 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             她 強調   從 未 要求 廠商 提供 「 不利 耕作 同意 書 」 或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   在 未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 的 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       她 指出   屏東 綠能 推動 政策 以 「 專案 專區 計畫 」   「 土地 複 合式 利用 」 等 2 大 策略 為 優先   有 限度 使用 相對 不 適合 耕種 的 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 有 土地 鹽化 等 不利因素 無法 耕作 的 年 邁老農   則 可以 有 穩定 收入 過 退休 生活   至於 非 專案 專區 的 鄉鎮   則優先 鼓勵 廠 商以 「 土地 複 合式 利用 」 方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 有 處置 自家 土地 財產   及業者 依法 申請 案件 的 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 內 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  </t>
+          <t xml:space="preserve">〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不 在   這是 屏東 沿海 地區 這幾年 興起 的 違 和 景致   也 是 全台種 電縮影   在 地 青農批 政府   業者 聯手種 電種 到 失心 瘋   從 農地   山區 到 有 文資 價值 的 二戰 遺跡 都 不放過   不僅家園 變貌   也 迫使 老農離 農   變相迫 遷青農       屏東 農地種 光電原 是 全台 濫觴 和 典範   二 ○ ○ 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   也 重創 屏東 南部 沿海 鄉鎮   不少 魚 塭   果園 被 沖 毀   時任 屏東 縣長 曹啟 鴻 提出 「 養水 種電 」 計畫   縣府 媒合 魚 塭   農 地租 給光 電業者   地主 負責 管理   地主 按 月 收 地租 及 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 ○ 一 三年 修法   允許 不適 耕作 農地 種電   大開種 電之門   但 農地 非 農用 的 罵 聲不斷   二 ○ 一 八年 十月 起   屏縣 府 公告 實施 「 嚴重 地層下陷 地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫 」   開放 下陷 區農地 可變 更 種電       二 ○ 二 ○ 年 七月   農委會 加嚴 農地變 更種 電門檻   二到卅公頃 農地變 更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變 更 種電   但 早 在 二 ○ 一 八年 屏東 縣長 潘孟安任 內   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷 區作 光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 的 光電   如今 變成 農民 的 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 的 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽 「 不利 耕作 聲明書 」   離農 坐收 光電場 租金   但 這些 農地 都 種著蓮霧   水稻   芭樂   何來 不利 耕作       「 沿海 四鄉 鎮美麗 的 鄉間 景致 丕 變   綠地 逐漸 蒸發   」 屏東 縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地將 失去 地 力   衝擊 農產業 服務鏈   受益 的 是 少數 地主   受影響 的 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東 縣府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能 「 五贏 」   前年 已達成 綠電供 應 全縣 民生 用電 的 階段 性 目標  </t>
+          <t xml:space="preserve">從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不   這是 屏東 沿海 地區 這幾年 興起 違 景致   是 全台 種電 縮影   地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 文資 價值 二戰 遺跡 都 不放過   不僅家園 變貌   迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 典範   二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出   養水 種電   計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 罵 聲不斷   二 一 八年 十月 起   屏縣 府 公告 實施   嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫     開放 下陷區 農地 可 變更 種電       二 二 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 二 一 八年 屏東縣 長 潘孟安任   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 光電   如今 變成 農民 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽   不利 耕作 聲明書     離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作         沿海 四鄉 鎮美麗 鄉間 景致 丕 變   綠地 逐漸 蒸發     屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 是 少數 地主   受影響 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能   五贏     前年 已達成 綠電供 應 全縣 民生 用電 階段 性 目標  </t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 的 果農 只能 忍痛 看著 心血 被毀   也 斬斷 兒子 想 當青農 接班 的 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   也 不給 老 農一畝 田維生   青年 若當 「 漂鳥 」 回農村   肯定 變走 投無路 的 「 落翅仔 」       五十六 歲 鄭明偉 在 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   有 兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 的 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 有 不少 國有 財產 署名 下 的 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 在 枋寮 內 寮 段種 芭樂   她 無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 在 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 也 靠 這片 三分 地 的 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種   「 我 不但 要 吃 土   連農保 都 沒 有 了   」     面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 和 枋寮 有 「 蓮霧 之 鄉 」 美名   四十八 歲 陳 呈祥 在 八八 風災後回 鄉 接手 父親 的 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 做 的 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   有 的 果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 和 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   在 地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改種電   年 輕人 想 返 鄉務農   也 無 低 租金 的 農地 可種   「 蓮霧 故鄉 」 金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   她 忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到   「 這 不是 迫遷 青農去 都市 討 生活 嗎   漂鳥 回農村   恐怕 走 投無路 變 落翅仔 吧   」</t>
+          <t xml:space="preserve">屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 果農 只能 忍痛 看著 心血 被毀   斬斷 兒子 想 當青農 接班 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   不給 老 農一畝 田維生   青年 若當   漂鳥   回農村   肯定 變走 投無路   落翅仔         五十六 歲 鄭明偉 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 不少 國有 財產 署名 下 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 枋寮 寮 段種 芭樂   無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 靠 這片 三分 地 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種     我 不但 要 吃 土   連農保 都 沒 了         面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 枋寮   蓮霧 之 鄉   美名   四十八 歲 陳 呈祥 八八 風災後回 鄉 接手 父親 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改 種電   年 輕人 想 返 鄉務農   無 低 租金 農地 可種     蓮霧 故鄉   金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到     這 不是 迫遷 青農去 都市 討 生活   漂鳥 回農村   恐怕 走 投無路 變 落翅仔    </t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">光電亂象 已久   從 之前 的 良田 種電   砍 樹種電   近來 變本 加厲   光電板 不僅 征服 山頭   占 領有 文資 價值 的 遺跡   更 一步步 裂解 農漁村 的 產業 鏈   恐阻斷 青農返 鄉 之路   地面 型 光電 的 社會 衝擊 比 預期 更大且 深   在 講求 氣候 正義和 「 企業 Ｅ Ｓ Ｇ   環境 保護   社會責任   公司 治理   」 的 國際 主流 下   政府 和 企業須 警覺   若綠電來 自迫 遷   危害 生態 與 在 地產業   恐埋 隱憂       屏東 縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷 區之名 畫為 光電 專區   本可 接軌 屏東 縣前 縣長 曹啟 鴻 的 「 養水 種電 」 政策   但 實際 推行 結果   鄉間 景觀 破碎   光電場 蛇 鼠 為 患   離農者 漸增 等 負面 效應 逐漸 浮現   加上 光電助 漲 農地 租金   無異將 返鄉 青年 拒 於 農漁村 之外   也 被 批評 與 「 養水 種電 」 初衷 漸行 漸遠                             屏東 只是 全台種 電爭議 的 縮影   有 更 多 生態   景觀 敏感 地   在 追 趕綠能 目標 下 可割 可棄   面對 爭議 與 衝擊   政策 把關 工具 遲未 發揮 效能   及早 阻止 種電 的 副作用   甚至 正向 引導 與 在 地 共生 共榮   實難辭 其咎   也 與 執政黨 的 「 愛鄉 土 」 理念 背道 而 馳       開發行 為 必須 堅守 環境 正義底 線   綠能 也 不 例外   猶記 得 台積 電在 被 徵收 用地 的 拆 遷戶 激烈 抗爭 下   突然 宣布 放棄 進 駐龍科 三期   不無環境 正義與 企業 Ｅ Ｓ Ｇ 的 考慮   民進 黨種 電國策 若 如 「 失速 列車 」   無情 地衝 撞 純樸 的 農漁村   把 青農   老農 都 當成 「 農村 最軟 的 一塊 」   這種 綠電 還是 國際 認可   符合 Ｅ Ｓ Ｇ 的 綠電 嗎  </t>
+          <t xml:space="preserve">光電亂象 已久   從 之前 良田 種電   砍樹 種電   近來 變本 加厲   光電板 不僅 征服 山頭   占 領有 文資 價值 遺跡   更 一步步 裂解 農漁村 產業 鏈   恐阻斷 青農返 鄉 之路   地面 型 光電 社會 衝擊 比 預期 更大且 深   講求 氣候 正義和   企業 Ｅ Ｓ Ｇ   環境 保護   社會責任   公司 治理     國際 主流 下   政府 企業須 警覺   若綠電來 自迫 遷   危害 生態 與 地產業   恐埋 隱憂       屏東縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷區 之名 畫為 光電 專區   本可 接軌 屏東縣 前縣 長 曹啟 鴻   養水 種電   政策   但 實際 推行 結果   鄉間 景觀 破碎   光電場 蛇 鼠 為 患   離農者 漸增 等 負面 效應 逐漸 浮現   加上 光電助 漲 農地 租金   無異將 返鄉 青年 拒 於 農漁村 之外   被 批評 與   養水 種電   初衷 漸行 漸遠                             屏東 只是 全 台 種電 爭議 縮影   更 多 生態   景觀 敏感 地   追 趕綠能 目標 下 可割 可棄   面對 爭議 與 衝擊   政策 把關 工具 遲未 發揮 效能   及早 阻止 種電 副作用   甚至 正向 引導 與 地 共生 共榮   實難辭 其咎   與 執政黨   愛鄉 土   理念 背道 而 馳       開發行 為 必須 堅守 環境 正義底 線   綠能 不 例外   猶記 得 台積 電在 被 徵收 用地 拆 遷戶 激烈 抗爭 下   突然 宣布 放棄 進 駐龍科 三期   不無環境 正義與 企業 Ｅ Ｓ Ｇ 考慮   民進 黨 種電 國策 若 如   失速 列車     無情 地衝 撞 純樸 農漁村   把 青農   老農 都 當成   農村 最軟 一塊     這種 綠電 還是 國際 認可   符合 Ｅ Ｓ Ｇ 綠電  </t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 及 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 和 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 的 的 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 在 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 及 捕魚 的 重要 基地   更是 漁民 生命 財產 的 保障   也 是 海洋 漁業 發展 的 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助 的   縣府 就 必須 出手   架 高作業 平台   解決 高漲 的 潮水   既 保障 漁民 日常 工作 需求   也 能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 的 基礎 建設   除 加高 平台 也 協助 清淤   讓 漁民有 更好 的 作業 環境   黃 嫈 珺 也 說   東石 沿海 導航燈 有 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 也 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 的 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 內容 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  </t>
+          <t xml:space="preserve">〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  </t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 的 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 在 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 有 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                             「 大潮 來   沒 看到 路 怎麼 走   」 鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 及 平台 改善 工程   目前 已 辦理 設計 工作   預計 在 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 也 指出   漁民向 她 反應 鰲 鼓   副 瀨   網寮 及 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 的 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 有 需求 做 盤點   將一 併 向 中央 爭取 第二期 的 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 也 反應 鰲 鼓   副 瀨   網寮 及 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 及 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影</t>
+          <t>嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 今   23 日   又 工地 地層下陷   松山 區慶城 街 與 興安街 交叉路口 晚間 9 時 01 分許   驚傳 新建 工地 地基 塌陷   路旁 整排 停放 的 汽車 因故 側翻 超過 45 度   現場 已劃 設 警戒 線   據 了解 台北市 長 蔣萬安正 趕往 現場   今晚 9 時 01 分許   慶城街 和 興安街 交叉路口 一處   所屬 璞 真建設 的 新建 工地 「 地基 下陷 」   下陷 範圍 評估 中   目前 無人 受傷   目前 影響 路旁 4 台 停放 的 車輛   現場 已劃 設 警戒 線   事發 後   已有 消防 車到場 指揮   詳細 發生 原因 仍待 釐 清   蔣萬安則 透過 臉書 表示 正 趕往 現場   呼籲 周遭 居民 和 經過 的 民眾 注意安全   有 最新 資訊 市府 會 即刻 通知  </t>
+          <t xml:space="preserve">台北市 今   23 日   又 工地 地層下陷   松山區 慶城街 與 興安街 交叉路口 晚間 9 時 01 分許   驚傳 新建 工地 地基 塌陷   路旁 整排 停放 汽車 因故 側翻 超過 45 度   現場 已劃 設 警戒 線   據 了解 台北 市長 蔣萬安正 趕往 現場   今晚 9 時 01 分許   慶城街 興安街 交叉路口 一處   所屬 璞 真建設 新建 工地   地基 下陷     下陷 範圍 評估 中   目前 無人 受傷   目前 影響 路旁 4 台 停放 車輛   現場 已劃 設 警戒 線   事發 後   已有 消防 車到場 指揮   詳細 發生 原因 仍待 釐 清   蔣萬安則 透過 臉書 表示 正 趕往 現場   呼籲 周遭 居民 經過 民眾 注意安全   最新 資訊 市府 會 即刻 通知  </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>台北市 松山 區慶城 街 一處 工地 附近   今   23   晚傳出 有 地層下陷 的 狀況   停 在 路邊 停車格 的 車輛   車身 甚至 已經 傾斜   影響 4 台車輛 傾斜   現場 為 新建 工地 地基 下陷   下陷 範圍 評估 中   無人 受傷   已劃 設 警戒 線   台北市 長 蔣萬安 和 副 市長 李 四川 正 趕往 現場   台北市 長 蔣萬安 發文 表示   「 稍早 在 慶城街 和 興安街 交叉口 發生 工地 地基 下陷   我正 趕往 現場   請 周遭 居民 和 經過 的 民眾 注意安全   有 最新 資訊   市府 會 即刻 通知   」</t>
+          <t xml:space="preserve">台北市 松山區 慶城街 一處 工地 附近   今   23   晚傳出 地層下陷 狀況   停 路邊 停車格 車輛   車身 甚至 已經 傾斜   影響 4 台車輛 傾斜   現場 為 新建 工地 地基 下陷   下陷 範圍 評估 中   無人 受傷   已劃 設 警戒 線   台北 市長 蔣萬安 副 市長 李 四川 正 趕往 現場   台北 市長 蔣萬安 發文 表示     稍早 慶城街 興安街 交叉口 發生 工地 地基 下陷   我正 趕往 現場   請 周遭 居民 經過 民眾 注意安全   最新 資訊   市府 會 即刻 通知    </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>台北市 慶城街 與 興安街 交叉口 今   23   晚發生 工地 地基 下陷   台北市 長 蔣萬安 發出 通知   提醒 周遭 居民 和 經過 的 民眾 注意安全   蔣萬安及 台北市 副 市長 李 四川 目前 也 趕到 事故 現場   了解 事發 原因   蔣萬安受 訪時 指出   今晚 9 點 左右 接獲 通報   慶城街 與 興安街 交叉口 一處 新建 工地 發生 下陷   第一 時間 即 通知 相關 單位   現場 也 拉起 警戒 線   無人 傷亡   不過 造成 四輛 停放 車輛 傾斜   蔣萬安 指出   目前 新建 工地 還沒 進行 基礎 開 挖   即將 準備 施作 的 連續 壁 工程 也 還沒 開始   只是 在 做 導溝   初步 了解 是 因為 內部 支撐力 不夠   造成 導溝 外壁 下陷   目前 緊急 回填 導溝 中   台北市 結構 技師 公會 理事 長 徐茂卿 表示   「 因為 工地 局部 導溝 施作 不佳   造成 道路 坍陷   現在 最 重要 的 是   把 導溝 內 的 坑洞 補起 來   由 於 區域 不大   災害 擴大跡 象 不 至於 產生 很大 的 影響   」</t>
+          <t xml:space="preserve">台北市 慶城街 與 興安街 交叉口 今   23   晚發生 工地 地基 下陷   台北 市長 蔣萬安 發出 通知   提醒 周遭 居民 經過 民眾 注意安全   蔣萬安及 台北市 副 市長 李 四川 目前 趕到 事故 現場   了解 事發 原因   蔣萬安受 訪時 指出   今晚 9 點 左右 接獲 通報   慶城街 與 興安街 交叉口 一處 新建 工地 發生 下陷   第一 時間 即 通知 相關 單位   現場 拉起 警戒 線   無人 傷亡   不過 造成 四輛 停放 車輛 傾斜   蔣萬安 指出   目前 新建 工地 還沒 進行 基礎 開 挖   即將 準備 施作 連續 壁 工程 還沒 開始   只是 導溝   初步 了解 是 因為 內部 支撐力 不夠   造成 導溝 外壁 下陷   目前 緊急 回填 導溝 中   台北市 結構 技師 公會 理事 長 徐茂卿 表示     因為 工地 局部 導溝 施作 不佳   造成 道路 坍陷   現在 最 重要 是   把 導溝 坑洞 補起 來   由 於 區域 不大   災害 擴大跡 象 不 至於 產生 很大 影響    </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街 一處 新建 工地 昨晚 發生 地層下陷 事故   對 於 台北市 接連 發生 地層下陷 事件   前 台北市 長   民眾 黨 主席 柯文 哲 今天 表示   台北市 本來 就是 地層下陷 潛勢區   台北市 政府 已經 把 地圖 做 得 很 完整   要 先 知道 高 危險區   並做 必要 的 措施       柯文 哲 表示   台北市 本來 就是 地層下陷 潛勢區   其實 只要 去 工務局 往 上查 一下   就 可以 看到 地層下陷 潛勢區 有 好 幾個   因為 這個 地方 本來 就是 盆地   所以 就 會 有 這個 問題   目前 台北市 做 的 地圖 已經 相當 完整   高 危險區 要 事先 知道   做出 必要 的 措施  </t>
+          <t xml:space="preserve">〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山區 慶城街 興安街 交叉路口 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 路邊 停車格 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前 市長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 問題     台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 發生 好 幾起 地層下陷 事件   柯文 哲今 早 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山 區慶城 街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 的 搶 救   工地 內 崩塌 範圍 已 完成 回填   今天下午 也 開始 灌漿 工地 外圍 的 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 的 地下 建築 結構 時   挖到 不連續 的 弱面   才 導致 導溝 崩塌   台北市 松山 區慶城 街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 的 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 也 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言   「 好 意外   真的 很 意外   文華飯 店 當初 蓋 的 時候 這麼 近   也 沒 有 發生過 問題   」 精華 地段 的 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 的 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 在 前置 的 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 的 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 的 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出   「 破除 既有 的 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 的 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 的 側壁壓 變形 之 後   就 產生 這樣 的 崩塌 現象   」 台北市 長 蔣萬安週 六 上午 也 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮   「 在 西側   南側   北側 目前 比 對 的 監測 數值 是 正常   而且 也 都 沒 有 地面 塌陷 以及 鄰房 傾斜 的 狀況   」 建管 處則 緊急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  </t>
+          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 路旁 4 台車 受到 波及   人行道 路面 凹陷   北市 府 緊急 成立 指揮 中心 處理   台北 市長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 檢測   目前 僅有 塌陷 處東側 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   都 沒 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 一 併 檢查 處理   此次 台北市 政府 昨晚 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 二度 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報   會 請 建管處 全面 清查     另外 此次 第一 時間 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 溝通 聯 繫  </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山 區慶城 街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 在 路旁 的 4 台車 受到 波及   人行道 路面 也 凹陷   北市 府 也 緊急 成立 指揮 中心 處理   台北市 長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 有 無 因應   對此 他 表示 會 請 建管 處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 和 檢測   目前 僅有 塌陷 處東側 有 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   也 都 沒 有 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 也 一 併 檢查 處理   此次 台北市 政府 昨晚 在 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   也 開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 內 二度 有 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 做 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 也 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 有 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報 「 會 請 建管 處 全面 清查 」   另外 此次 第一 時間 也 有 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   也 謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 有 溝通 聯 繫  </t>
+          <t xml:space="preserve">台北市 慶城街   興安街 交叉口 昨   23   天晚間 突發生 工地 地基 塌陷 問題   連帶 週邊 停 路旁 汽車   人行道 傾斜 下陷   北市 府 緊急 下令 回填   經過 連夜 灌漿   截至 今   24   早 7 點 左右   已經 灌漿 250 方   初估 中午 12 點可 完成   另外 針對業者 開罰 18 萬並 勒令停工   據 了解   新建 工地 尚未 開挖   只是 導溝   疑似 因內部 支撐力 不夠   造成 導溝 外壁 下陷   所幸 無人 傷亡   而 除了 導溝 回填 外   北市 府 表示 外側 坍塌 處   為 預防樹木 傾倒   且 灌漿 回填 後 樹木無法 存活   故將 4 棵 黑板 樹鋸斷   此外   北市 府 開罰 業者 18 萬   並 勒令停工   而 雖然 目前 沒有 漏水 情況   但 接下 來 自來 水處 將持續 監測   早上 會 進場 透地雷達 檢測   並確 認管線 排水 溝 是否 破壞 處理 方式   待 基地 內側 灌漿 完成 初 凝 後   即 進行 道路 回填   北市 府 透露   今早 沒 再 塌陷 情況   監測 資料 今天 比 對 完成 後 公布  </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山 區慶城 街 和 興安街 交叉路口 的 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 在 路邊 停車格 的 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前市 長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 有 的 問題     台北市 松山 區慶城 街 和 興安街 交叉路口 的 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 也 發生 好 幾起 地層下陷 事件   柯文 哲今 早 在 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 有 的 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 做 的 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  </t>
+          <t xml:space="preserve">台北市 松山區 慶城街   興安街 一處 新建 工地   昨   23   天晚間 發生 地基 塌陷 意外   造成 停 路旁 四台 車 受到 波及   人行道 路面 呈現 V 字型 凹陷   面積 約 4 公尺 長   30 公尺 寬   深度 約 1.5 公尺   所幸 週邊 建築物 沒有 危險   相關 單位 連夜 現場 進行 回填 作業   不過 工地 遭罰 18 萬 勒令停工   事發 原因 尚待 調查   慶城街 新建 工地 地基 下陷   路面 坍塌   人行道   工程 圍籬 都 明顯 下陷   路旁 停車格 消失 一大半   當時 路邊 4 輛汽車 遭殃 歪斜   建商 連夜 回填 灌漿   避免 塌陷 擴大   據 了解   該 處興 建工 地原 是 要 蓋 豪宅 大樓   原先 工地 上 地下 三層 地下室 建物   疑似 拆除 建物 後   地下室 進行 導溝 作業 時候   內部導 溝支 撐力 不足 才 發生 坍塌 意外   所幸 工地 尚未 進行 大規模 開 挖   沒 再 釀 更 大 事故   此次 路面 坍塌 面積長 約 4 公尺   寬約 30 公尺   深度 1.5 公尺   目前 週邊 建築物 沒有 相關 安危   而 北市 建管處 勘查 後   昨天 深夜 確定 裁罰 18 萬   並 勒令 回填 穩定 後 停工   待 確保 工地 安全   業者   建商 提出 復工 審查   才 會 進行後續 作業   至於 事發 原因 仍待 調查  </t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街   興安街 交叉口 昨   23   天晚間 突發生 工地 地基 塌陷 問題   連帶 週邊 停 在 路旁 的 汽車   人行道 也 傾斜 下陷   北市 府 緊急 下令 回填   經過 連夜 灌漿   截至 今   24   早 7 點 左右   已經 灌漿 250 方   初估 中午 12 點可 完成   另外 也 針對業者 開罰 18 萬並 勒令停工   據 了解   新建 工地 尚未 開挖   只是 在 做 導溝   疑似 因內部 支撐力 不夠   造成 導溝 外壁 下陷   所幸 無人 傷亡   而 除了 導溝 回填 外   北市 府 表示 外側 坍塌 處   為 預防樹木 傾倒   且 灌漿 回填 後 樹木無法 存活   故將 4 棵 黑板 樹鋸斷   此外   北市 府 開罰 業者 18 萬   並 勒令停工   而 雖然 目前 沒有 漏水 情況   但 接下 來 自來 水處 將持續 監測   早上 也 會 進場 做 透地雷達 檢測   並確 認管線 及 排水 溝 是否 破壞 及 處理 方式   待 基地 內側 灌漿 完成 及 初 凝 後   即 進行 道路 回填   北市 府 透露   今早 沒 有 再 塌陷 情況   監測 資料 今天 比 對 完成 後 公布  </t>
+          <t xml:space="preserve">台北 松山區 慶城街 昨   23   天晚間 發生 地層下陷   身為 前 台北 市長   民眾 黨 主席 柯文 哲今 早 挑戰 一日 北高   被 問到 卸任 後 北市 兩度 發生 工地 地層下陷   他 表示 台北市 是 盆地   本來 就是 地層下陷 檢視區   認為 高 危險區 要 能夠 事先 知道   並做 必要措施   柯文 哲 今天 一大早 6 點多   從 台北 關渡 宮出 發挑戰 一日 北高   面對慶 城街 昨晚 發生 地層下陷   他 認為 台北市 本來 就是 地層下陷 檢視區   工務 局網 站上 可以 看到 好 幾個 區域   且 北市 本來 就是 盆地   所以 本來 就 這個 問題   至於 問題 出 誰 身上   柯文 哲認 為   本來 地質 就 應該 多 注意   北市 地路 已經 相當 完整   高 危險區 要 能夠 事先 知道   必要措施 防範  </t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 松山 區慶城 街 昨   23   天晚間 發生 地層下陷   身為 前 台北市 長   民眾 黨 主席 柯文 哲今 早 挑戰 一日 北高   被 問到 卸任 後 北市 兩度 發生 工地 地層下陷   他 表示 台北市 是 盆地   本來 就是 地層下陷 檢視區   認為 高 危險區 要 能夠 事先 知道   並做 必要措施   柯文 哲 今天 一大早 6 點多   從 台北 關渡 宮出 發挑戰 一日 北高   面對慶 城街 昨晚 發生 地層下陷   他 認為 台北市 本來 就是 地層下陷 檢視區   工務 局網 站上 可以 看到 有 好 幾個 區域   且 北市 本來 就是 盆地   所以 本來 就 有 這個 問題   至於 問題 出 在 誰 身上   柯文 哲認 為   本來 地質 就 應該 多 注意   北市 做 的 地路 已經 相當 完整   高 危險區 要 能夠 事先 知道   做 必要措施 防範  </t>
+          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北 市長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山 區慶城 街   興安街 一處 新建 工地   昨   23   天晚間 發生 地基 塌陷 意外   造成 停 在 路旁 的 四台 車 受到 波及   人行道 路面 也 呈現 V 字型 凹陷   面積 約 4 公尺 長   30 公尺 寬   深度 約 1.5 公尺   所幸 週邊 建築物 沒有 危險   相關 單位 連夜 在 現場 進行 回填 作業   不過 工地 遭罰 18 萬 勒令停工   事發 原因 尚待 調查   慶城街 新建 工地 地基 下陷   路面 坍塌   人行道   工程 圍籬 都 明顯 下陷   路旁 停車格 也 消失 一大半   當時 路邊 4 輛汽車 也 遭殃 歪斜   建商 連夜 回填 灌漿   避免 塌陷 擴大   據 了解   該 處興 建工 地原 是 要 蓋 豪宅 大樓   原先 工地 上 有 地下 三層 地下室 的 建物   疑似 拆除 建物 後   地下室 在 進行 導溝 作業 的 時候   內部導 溝支 撐力 不足 才 發生 坍塌 意外   所幸 工地 尚未 進行 大規模 的 開 挖   沒 再 釀 更 大 事故   此次 路面 坍塌 面積長 約 4 公尺   寬約 30 公尺   深度 1.5 公尺   目前 週邊 建築物 沒有 相關 安危   而 北市 建管 處 勘查 後   昨天 深夜 確定 裁罰 18 萬   並 勒令 回填 穩定 後 停工   待 確保 工地 安全   業者   建商 提出 復工 審查   才 會 進行後續 作業   至於 事發 原因 仍待 調查  </t>
+          <t xml:space="preserve">台北市 慶城街 一處 新建 工地 昨晚 發生 地層下陷 事故   對 於 台北市 接連 發生 地層下陷 事件   前 台北 市長   民眾 黨 主席 柯文 哲 今天 表示   台北市 本來 就是 地層下陷 潛勢區   台北市 政府 已經 把 地圖 得 很 完整   要 知道 高 危險區   並做 必要 措施       柯文 哲 表示   台北市 本來 就是 地層下陷 潛勢區   其實 只要 去 工務局 往 上查 一下   就 可以 看到 地層下陷 潛勢區 好 幾個   因為 這個 地方 本來 就是 盆地   所以 就 會 這個 問題   目前 台北市 地圖 已經 相當 完整   高 危險區 要 事先 知道   做出 必要 措施  </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街 工地 附近   週 五晚 間 坍塌 下陷   昨天 基地 內 回填 完成 後   今   25   天 上午 台北市 副 市長 李 四川 再度 到場 視察   評估 地基 沒有 再 下陷   宣布 慶城街 上午 十點 恢 復 通車   李 四川 表示   填平 的 地方 沒有 繼續 沉陷   路面 部分 希望 今晚 人少 的 時候   重新 把 瀝青 鋪 好   明天 週一 上班 就 能 恢 復 正常 了   由 於 這已 經是 蔣 市府 上任 以來   兩年 內 發生 的 第 7 起 塌陷 事件   李 四川 也 要求 持續 監測   建商 若想 復工   依法 必須 交出 復工 計畫   經過 政府 和 專業 技師 公會 審查   確認 安全 無虞 後 才能 繼續 動工  </t>
+          <t xml:space="preserve">台北市 慶城街 工地 附近   週 五晚 間 坍塌 下陷   昨天 基地 回填 完成 後   今   25   天 上午 台北市 副 市長 李 四川 再度 到場 視察   評估 地基 沒有 再 下陷   宣布 慶城街 上午 十點 恢 復 通車   李 四川 表示   填平 地方 沒有 繼續 沉陷   路面 部分 希望 今晚 人少 時候   重新 把 瀝青 鋪 好   明天 週一 上班 就 能 恢 復 正常 了   由 於 這已 經是 蔣 市府 上任 以來   兩年 發生 第 7 起 塌陷 事件   李 四川 要求 持續 監測   建商 若想 復工   依法 必須 交出 復工 計畫   經過 政府 專業 技師 公會 審查   確認 安全 無虞 後 才能 繼續 動工  </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 在 烏日 焚化 廠旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師會 勘 釐 清 下陷 疑慮     「 泳道 南側 比北側 低 了 約 14 公分   」 台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 在 慶光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 及 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會 勘團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  </t>
+          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 14 公分     台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  </t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 在 烏日 焚化 廠旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師會 勘 釐 清 下陷 疑慮     「 泳道 南側 比北側 低 了 約 十四 公分 」   環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 在 慶光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 ○ 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 及 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會 勘團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  </t>
+          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 十四 公分     環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 李容萍 ／ 桃園 報導 〕 桃園 市石門 水庫 水情 吃緊   截至 今   21 日   中午   蓄水量 7131 萬噸   蓄水 率 34.75 ％   經濟部 水利 署自 19 日起 調整 桃竹苗 地區 水情 燈號 為 「 水情 提醒 」 的 綠燈   提醒 各界 節約 用水   國立 中央 大學 研究 團隊 今 發表 於 新屋 綠色 隧道 海岸 線 TaiCOAST 臨海 工作站   發現 地下水 出流 現象 非常 強勁   每年 出 流量 達 1 億公噸   相當 半座 石門 水庫 容量   這項 成果 刊載 於 新一期 「 水文 學雜誌 」 Journal   of   Hydrology     Regional   Studies 頂尖 期刊   未來 可進 一步 研究 探討 如何 適度 使用 不會 造成 環境 危害     中央 大學應 用地 質 研究所 教授 倪春發 表示   海岸 帶 地下水 出流   Submarine   Groundwater   Discharge     SGD   為 地下水 直接 流進 海洋 的 自然 現象   普遍存在 於 世界各地   中央 大學 TaiCOAST 臨海 工作站 自 2021 年 開始 進行 新屋 的 海岸 帶 地下水 出 流量 調查   發現 即使 在 2021 年 大旱 期間   遭遇 台灣 56 年 來 最 嚴重 的 缺水 危機   出 流量 仍 相當 豐沛     研究 團隊 透過 鑽井   深入 地下 100 公尺   發現 打出 的 仍 是 淡水   透過 數學 模型 計算 流速 和 面積 累加   發現 新屋 地區 的 海岸 帶 地下水 出 流量 每天 可達 30 萬噸   1 年 高達 1 億噸   相當 半座 石門 水庫 容量   近年 來 調查 結果 更 發現   新屋 區往 北 的 海岸 出 流量 有 更 高潛勢   顯示 桃園 海岸 帶 整體 地下水 出 流量 更為 可觀     研究 團隊 指出   台灣 年 降雨量 約 2500 毫米   約 為 全球 平均 的 3 倍   但 因台灣 地形 梯度 較大   60 ％ 流入 海洋   只有 5 ％ 在 含水 層   儘 管 台 灣 降水量 高   但 水資源 有限   雖然 發現 地下水 出 流量 資源 豐沛   但 如何 汲水 開發   不致 造成 海水 入侵 和 地層下陷   涉及 政策   科學 和 工程 等 多重 挑戰   還需 兼顧 出海口 生態 的 平衡   才能 造福 國家 社會     此 研究 團隊 涵蓋 中央 大學 地球 科學學院 各系所 老師   包括 應 用地 質 研究所 教授 倪春發   副教授 王士榮   水文 與 海洋 科學 研究所 教授 李明旭   錢樺   副教授 黃 志 誠   以及 地球 科學學系 教授 顏宏元   陳 建志 等 人   各自 發揮 所長   追求 科學 卓越   也 期許 對 人類 社會 有所 貢獻  </t>
+          <t xml:space="preserve">〔 記者 李容萍 ／ 桃園 報導 〕 桃園市 石門 水庫 水情 吃緊   截至 今   21 日   中午   蓄水量 7131 萬噸   蓄水 率 34.75 ％   經濟部 水利 署自 19 日起 調整 桃竹苗 地區 水情 燈號 為   水情 提醒   綠燈   提醒 各界 節約 用水   國立 中央 大學 研究 團隊 今 發表 於 新屋 綠色 隧道 海岸 線 TaiCOAST 臨海 工作站   發現 地下水 出流 現象 非常 強勁   每年 出 流量 達 1 億公噸   相當 半座 石門 水庫 容量   這項 成果 刊載 於 新一期   水文 學雜誌   Journal   of   Hydrology     Regional   Studies 頂尖 期刊   未來 可進 一步 研究 探討 如何 適度 使用 不會 造成 環境 危害     中央 大學應 用地 質 研究所 教授 倪春發 表示   海岸 帶 地下水 出流   Submarine   Groundwater   Discharge     SGD   為 地下水 直接 流進 海洋 自然 現象   普遍存在 於 世界各地   中央 大學 TaiCOAST 臨海 工作站 自 2021 年 開始 進行 新屋 海岸 帶 地下水 出 流量 調查   發現 即使 2021 年 大旱 期間   遭遇 台灣 56 年 來 最 嚴重 缺水 危機   出 流量 仍 相當 豐沛     研究 團隊 透過 鑽井   深入 地下 100 公尺   發現 打出 仍 是 淡水   透過 數學 模型 計算 流速 面積 累加   發現 新屋 地區 海岸 帶 地下水 出 流量 每天 可達 30 萬噸   1 年 高達 1 億噸   相當 半座 石門 水庫 容量   近年 來 調查 結果 更 發現   新屋 區往 北 海岸 出 流量 更 高潛勢   顯示 桃園 海岸 帶 整體 地下水 出 流量 更為 可觀     研究 團隊 指出   台灣 年 降雨量 約 2500 毫米   約 為 全球 平均 3 倍   但 因 台灣 地形 梯度 較大   60 ％ 流入 海洋   只有 5 ％ 含水 層   儘 管 台灣 降水量 高   但 水資源 有限   雖然 發現 地下水 出 流量 資源 豐沛   但 如何 汲水 開發   不致 造成 海水 入侵 地層下陷   涉及 政策   科學 工程 等 多重 挑戰   還需 兼顧 出海口 生態 平衡   才能 造福 國家 社會     此 研究 團隊 涵蓋 中央 大學 地球 科學學院 各系所 老師   包括 應 用地 質 研究所 教授 倪春發   副教授 王士榮   水文 與 海洋 科學 研究所 教授 李明旭   錢樺   副教授 黃 志 誠   以及 地球 科學學系 教授 顏宏元   陳 建志 等 人   各自 發揮 所長   追求 科學 卓越   期許 對 人類 社會 有所 貢獻  </t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 中山 區 大直 街 「 基泰 大直 」 建案   去年 9 月 因開 挖 不慎   連續 壁斷 裂   導致 鄰房 下陷   25 戶無家 可虧   近百 戶 受損   建案 也 遭 勒令停工   基泰 建設 今 發布 聲明 表示   在 與 受 災戶 溝通下 建案 事故 賠償 已 達 市府 解除 列管 標準   但 因 都 更 程序 關 係   短期 內暫 不 復工   後 續 也 會 和 願 和解 受災 持續 調解       基泰 表示   由福益 營造 公司 承包 的 「 基泰 大直 」 建案 事故 發生 後   經與 市府 協調   建案 起造 人 基泰 公司 對外 宣示 負起 所有 責任   為 加速 後 續理 賠   基泰 公司 進 行人 事 改組   由 新任 高階 主管 與 團隊   全權 處理 中   目前 25 拆除 戶 重建 案 已 依 都 更 程序 進行   因 程序 關 係   短期 內暫 不 施工   無 外界 抹黑 基泰 急 於 大直 案 復工 情事                             基泰 說   包含 179 戶鄰 損受 災戶 與 道 明國際學 校理 賠   日前 已 與 多位 受災戶   學校 達成 和解   過程 中 雖 遭 部分 人士 抹黑   阻礙   但 在 公司 與 受 災戶 溝通   已達 到 巿 府 鄰損 賠償 解除 列管 標準   基 於 企業 責任   以公會 鑑定價 的 1.2 倍 做 賠償 基礎   爲 受 災戶 爭取 最大 幫助   且里長 舉辦 說 明會 到 賠償 金 的 發放   全程 透明       基泰 表示   市府 因該 案 事故 緊急 支出   在 各 單位 協助 下   已 完成 多項 給付   目前 只 剩少 數項 目待 細項 核 對 後   即可 全部 完成   對 於 不願 和解 受災戶   基泰 公司 予以 尊重   將以 提存 賠償 金 的 方式   與 部分 受災戶 進行 鄰損 調解 程序       基泰 也 感謝 市政府 和 大直 里里長   各級民代 在 救災 與 賠償 程序 中 的 協助   以 讓 受 災戶 盡快 恢 復 正常 生活   日後在 各方 督導下   基泰 公司 基 於 社會責任   必 致力 與 社會 各界 共創 美好 未來   另針 對少 數民代以 不 實言論 攻訐 企圖 阻撓 受災戶 和解 情事   基泰 公司 表示   將採 法律 途徑   以正視 聽  </t>
+          <t xml:space="preserve">北市 中山 區 大直 街   基泰 大直   建案   去年 9 月 因開 挖 不慎   連續 壁斷 裂   導致 鄰房 下陷   25 戶無家 可虧   近百 戶 受損   建案 遭 勒令停工   基泰 建設 今 發布 聲明 表示   與 受 災戶 溝通下 建案 事故 賠償 已 達 市府 解除 列管 標準   但 因 都 更 程序 關 係   短期 內暫 不 復工   後 續 會 願 和解 受災 持續 調解       基泰 表示   由福益 營造 公司 承包   基泰 大直   建案 事故 發生 後   經與 市府 協調   建案 起造 人 基泰 公司 對外 宣示 負起 所有 責任   為 加速 後 續理 賠   基泰 公司 進 行人 事 改組   由 新任 高階 主管 與 團隊   全權 處理 中   目前 25 拆除 戶 重建 案 已 依 都 更 程序 進行   因 程序 關 係   短期 內暫 不 施工   無 外界 抹黑 基泰 急 於 大直 案 復工 情事                             基泰 說   包含 179 戶鄰 損受 災戶 與 道 明國際學 校理 賠   日前 已 與 多位 受災戶   學校 達成 和解   過程 中 雖 遭 部分 人士 抹黑   阻礙   但 公司 與 受 災戶 溝通   已達 到 巿 府 鄰損 賠償 解除 列管 標準   基 於 企業 責任   以公會 鑑定價 1.2 倍 賠償 基礎   爲 受 災戶 爭取 最大 幫助   且里長 舉辦 說 明會 到 賠償 金 發放   全程 透明       基泰 表示   市府 因該 案 事故 緊急 支出   各 單位 協助 下   已 完成 多項 給付   目前 只 剩少 數項 目待 細項 核 對 後   即可 全部 完成   對 於 不願 和解 受災戶   基泰 公司 予以 尊重   將以 提存 賠償 金 方式   與 部分 受災戶 進行 鄰損 調解 程序       基泰 感謝 市政府 大直 里里長   各級民代 救災 與 賠償 程序 中 協助   以 讓 受 災戶 盡快 恢 復 正常 生活   日後在 各方 督導下   基泰 公司 基 於 社會責任   必 致力 與 社會 各界 共創 美好 未來   另針 對少 數民代以 不 實言論 攻訐 企圖 阻撓 受災戶 和解 情事   基泰 公司 表示   將採 法律 途徑   以正視 聽  </t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 的 新北 市萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 也 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 有 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北 市議員 周雅玲 表示   她 接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商到 場會 勘後發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   在 男女 湯室 地底下 有 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 在 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   她 建議 應該 邀請 土木 技師 一 併 會 勘   包含 溫泉 主管 機關 的 經濟 發展局   水利局 邀請 來   對 於 周邊 的 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 有 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 的 改善 方法   公所 將再 請 新北 市 土木 技師 公會 等 相關 專家 進行 專業 的 檢查 評估   期望 在 確保 安全 無虞 的 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   她 呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  </t>
+          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 地層下陷 現象   為確 保泡湯 安全   目前 已 封閉 修繕 中     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>新北 市萬里 區加 投溫泉 公共 浴室 疑似 有 地層下陷 的 現象   為確 保泡湯 安全   目前 已 封閉 修繕 中     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 地層下陷 現象   造成 浴池 受損   壁磚 脫落   未來將 進行 修繕 改善   確認 無 危險 之 虞   才 會 再行 開放 供民眾 使用     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>新北 市萬里 的 「 加投 溫泉 」 公共 浴室   算是 古 蹟 了   它 是 日據 時期 就 蓋 好 的   而且 到現 在 也 有 很多 人   喜歡 來 這裡 泡湯   不過 上個 月 開始   這裡 出現 大大小小 問題   浴池 磁磚 掉落   水泥柱 有 裂痕   地面 也 嚴重 傾斜   因此 現在 浴池 已經 暫時 封閉 了   等到 廠 商都 修繕 完畢   確認 安全 都 沒 問題   才 會 再度 開放       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   / / reurl . cc / kqyqML   鏡新聞 APP   Android 👉 https   / / reurl . cc / Ay2y63   有話 鏡來講 YT 👉 https   / / reurl . cc / A4DjQj   少年 新聞 週記 YT 👉 https   / / reurl . cc / K4DeN9</t>
+          <t>新北市 萬里   加投 溫泉   公共 浴室   算是 古 蹟 了   它 是 日據 時期 就 蓋 好   而且 到現 很多 人   喜歡 來 這裡 泡湯   不過 上個 月 開始   這裡 出現 大大小小 問題   浴池 磁磚 掉落   水泥柱 裂痕   地面 嚴重 傾斜   因此 現在 浴池 已經 暫時 封閉 了   等到 廠 商都 修繕 完畢   確認 安全 都 沒 問題   才 會 再度 開放       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   reurl . cc kqyqML   鏡新聞 APP   Android 👉 https   reurl . cc Ay2y63   有話 鏡來講 YT 👉 https   reurl . cc A4DjQj   少年 新聞 週記 YT 👉 https   reurl . cc K4DeN9</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>新北 市萬里 區加 投溫泉 公共 浴室 疑似 有 地層下陷 的 現象   造成 浴池 受損   壁磚 脫落   未來將 進行 修繕 改善   確認 無 危險 之 虞   才 會 再行 開放 供民眾 使用     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商 到場 會勘 後 發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   男女 湯室 地底下 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   建議 應該 邀請 土木 技師 一 併 會勘   包含 溫泉 主管 機關 經濟 發展局   水利局 邀請 來   對 於 周邊 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 改善 方法   公所 將再 請 新北市 土木 技師 公會 等 相關 專家 進行 專業 檢查 評估   期望 確保 安全 無虞 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  </t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">新北 市萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 有 地層下陷 的 現象   地質 檢測 人員 檢查   原來 湯室 的 地底 有 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 也 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北 市萬 里加 投溫泉 公共 浴室 在 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 有 泡 湯遊客 反應   燈管   溫度 顯示器 和 溫泉 管線 設備 有 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 的 現象   公所 從 4 號開始 封閉 浴室   也 趕緊 找 專業 技師 到場 檢查   男女 湯室 內 的 地底 有 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 的 溫泉 露頭 有關 係     大鵬里長 李建才   「 露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 的 東西   在 地底下 也 看不到   以 目前 整個 狀況 來講 的 話   下陷 的 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 的 感覺   」   溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   在 流入 浴池 內   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉   「 技師 建議 我們 要 有 專業 的 技師 公會   針對 結構物 下陷 狀況 去 做 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 的 部分 做 改善   還是 可能 要大動 作去 做後續 的 改建   這個 部分 後 續 可能 會 需要 比較 多 的 費用   」   公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 的 泡 湯空間  </t>
+          <t xml:space="preserve">新北市 萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 地層下陷 現象   地質 檢測 人員 檢查   原來 湯室 地底 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北市 萬 里加 投溫泉 公共 浴室 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 泡 湯遊客 反應   燈管   溫度 顯示器 溫泉 管線 設備 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 現象   公所 從 4 號開始 封閉 浴室   趕緊 找 專業 技師 到場 檢查   男女 湯室 地底 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 溫泉 露頭 有關 係     大鵬里長 李建才     露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 東西   地底下 看不到   以 目前 整個 狀況 來講 話   下陷 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 感覺       溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   流入 浴池   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉     技師 建議 我們 要 專業 技師 公會   針對 結構物 下陷 狀況 去 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 部分 改善   還是 可能 要大動 作去 做後續 改建   這個 部分 後 續 可能 會 需要 比較 多 費用       公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 泡 湯空間  </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">新北 萬里 的 加頭 溫泉 2 月份 被 遊客 發現   不僅 燈管   溫度 顯示氣 等等 設備 有 問題   更 有 地層下陷   因此 趕緊 請 公所 找人 檢修   目前 已經 緊急 封閉   確認 沒有 安全 疑慮   才 會 再度 開放     浴池 內 整塊 磁磚 脫落   地磚 也 不平   甚至 還 有些 地層下陷   看起 來 相當 老舊   這裡 是 新北 萬里 的 加頭 溫泉   從 日據 時代起   就 受到 不少 民眾 喜愛   許多人 泡 完湯   都 覺得 放 鬆 筋骨     不過 2 月份 卻 被 發現   不僅 燈管   溫度 顯示器   和 一些 溫泉 管線 設備 有 問題 外   還有 地層下陷 的 跡象   鐵鋁罐 放在 地上   都 會 不 自主 的   滾向 一邊   加上 後 方 就是 溫泉 露頭   要是 坍方 相當 危險   萬里區 長 黃 雱 勉   「 技師 建議 我們   要 有 專業 的 技師 公會 去   針對 結構物 下陷 狀況   去 做 監測   評估後續 是不是 可以 用   液壓 灌漿 的 部分 做 改善   」   地質 人員 透過 地雷 達 偵測 結果 發現   確實 男女 湯內 地底   有 大量 孔隙   造成 土壤 流失   目前 公所 已經   緊急 封閉 浴室   以民眾 安全 為 第一 考量   盡快 修建       封面 圖 ／ 東森新聞  </t>
+          <t>新北市 萬里區 公所 表示   有民眾 日前 反應加 投溫泉 公共 浴室 燈管   溫度 顯示器 不亮 等 問題   委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   圖為 建物 出現 裂縫     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 內 的 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 有 地層下陷 的 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 的 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 在 安全 的 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 的 供給 及 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   在 男女 湯室 地下 發現 有 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326</t>
+          <t>萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>新北 市萬里區 公所 表示   有民眾 日前 反應加 投溫泉 公共 浴室 內 的 燈管   溫度 顯示器 不亮 等 問題   委 託 廠商 勘查 後 發現   疑似 有 地層下陷 的 現象   圖為 建物 出現 裂縫     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t xml:space="preserve">新北 萬里 加頭 溫泉 2 月份 被 遊客 發現   不僅 燈管   溫度 顯示氣 等等 設備 問題   更 地層下陷   因此 趕緊 請 公所 找人 檢修   目前 已經 緊急 封閉   確認 沒有 安全 疑慮   才 會 再度 開放     浴池 整塊 磁磚 脫落   地磚 不平   甚至 還 有些 地層下陷   看起 來 相當 老舊   這裡 是 新北 萬里 加頭 溫泉   從 日據 時代起   就 受到 不少 民眾 喜愛   許多人 泡 完湯   都 覺得 放 鬆 筋骨     不過 2 月份 卻 被 發現   不僅 燈管   溫度 顯示器   一些 溫泉 管線 設備 問題 外   還有 地層下陷 跡象   鐵鋁罐 放在 地上   都 會 不 自主   滾向 一邊   加上 後 方 就是 溫泉 露頭   要是 坍方 相當 危險   萬里區 長 黃 雱 勉     技師 建議 我們   要 專業 技師 公會 去   針對 結構物 下陷 狀況   去 監測   評估後續 是不是 可以 用   液壓 灌漿 部分 改善       地質 人員 透過 地雷 達 偵測 結果 發現   確實 男女 湯內 地底   大量 孔隙   造成 土壤 流失   目前 公所 已經   緊急 封閉 浴室   以民眾 安全 為 第一 考量   盡快 修建       封面 圖 ／ 東森新聞  </t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 的 新北 市萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 也 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北 市議員 周雅玲 表示   她 接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商會 勘後懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   在 男女 湯室 的 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 也 出動 透地雷達 探測   這次 發現 問題 較 嚴重   她 建議 邀請 土木 技師 參與會 勘   經濟 發展局 和 水利局 應針 對 附近 的 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 有 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 在 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  </t>
+          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   男女 湯室 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 出動 透地雷達 探測   這次 發現 問題 較 嚴重   建議 邀請 土木 技師 參 與 會勘   經濟 發展局 水利局 應針 對 附近 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  </t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">即時 中心 ／ 綜合 報導   新北 市 新店 區 安泰 路今   3 日   上午 8 時 21 分傳 有 7 棟 房屋 嚴重 下陷   多輛 汽車 傾斜   目前 已 疏散 12 人   區長 與 里 長 正在 現場 了解 情況         安泰 路由 於 路基 受損 變形   多輛 汽車 傾斜 相當 危急   目前 區長 與 里 長 正在 現場 了解 情況   指出 必須 先 把 房屋 下陷 狀況 穩 定下 來   車子 若 無 受損 的 話   就 會 立即 拖吊 離開 現場   找 專業 人員 評估 地層 掏空 狀況   並 等待 自來 水 公司 採樣 處理  </t>
+          <t xml:space="preserve">即時 中心 ／ 綜合 報導   新北市 新店 區 安泰 路今   3 日   上午 8 時 21 分傳 7 棟 房屋 嚴重 下陷   多輛 汽車 傾斜   目前 已 疏散 12 人   區長 與 里 長 正在 現場 了解 情況         安泰 路由 於 路基 受損 變形   多輛 汽車 傾斜 相當 危急   目前 區長 與 里 長 正在 現場 了解 情況   指出 必須 把 房屋 下陷 狀況 穩 定下 來   車子 若 無 受損 話   就 會 立即 拖吊 離開 現場   找 專業 人員 評估 地層 掏空 狀況   並 等待 自來 水 公司 採樣 處理  </t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">水利局 表示   今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 寶貴 時間   請 於 預定 複 查 日期 前 清除 水井 周圍 草叢   以 加速 複 查作業 進行  </t>
+          <t xml:space="preserve">水利局 表示   今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 寶貴 時間   請 於 預定 複 查 日期 前 清除 水井 周圍 草叢   以 加速 複 查作業 進行  </t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮 市區 有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 的 原因   包含 地震 本身 震動 的 方向   建築物 結構 及 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮 縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮 縣 6 強   各地 陸續 傳出 災情   如 花蓮 市區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   在 地震 發生 的 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 的 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 的 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 在 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   在 結構 上僅 靠 少數 樑 柱 支撐   因此 有 可能 會 在 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 有 土壤 液化 的 問題   有些 建築物 若 座落在 比 較 鬆 軟 的 沉 積 層 上   如河邊 在 長 久 沖 積下   有 部分 地底 縫隙 會 被 沙石 填滿   但 在 地震 後 卻 又 鬆 動   或是 局部 液化 的 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 也 有 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 有 騎 樓式 設計 的 房屋   在 大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 在 已 經有 許多 耐震 的 建築 技術   或許 政府 部門 在 未來 考量 建築 補強 上 可以 採用   增加 老建築 的 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因   「 只是 剛開始 」   ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了 嗎   地科 教授 分析 餘震 分布   有 花蓮 特性</t>
+          <t>花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">今   3   日 強震 震撼 全 台   各地 災情 不斷   新北 市 新店 區 安泰 路 一處 民宅 更 發生 地基 下陷 慘況   此外 台北市 方面 先前 則傳出 3 傷   有 2 名 工人 因 乙炔 鋼瓶 傾倒 爆破 導致燒 燙傷   還有 一人 手臂 撕裂 傷   綜合 媒體 報導   新北 市 新店 區 安泰 路 60 巷 90 弄 頂 好 社區 的 民宅 今 在 地震 後 傳出 災情   從 現場 照片 來 看   不僅 民房 地基 下陷   花盆 傾倒   原先 停 在 路邊 的 車輛 更是 直接 下沉   場面 驚 悚   目前 粗估 坍塌 面積 約 1   000 平方公尺   所幸 住戶 12 人 已 全數 撤離   另外   稍早 台北市 長 蔣萬安 也 表示   北市 接獲 3 人 受傷 消息   其中 有 2 名 男性 工人 在 地震 期間 因 乙炔 鋼瓶 傾倒 爆破 導致 身上 68 ％ 燒燙傷   目前 已 被 送往 台大 醫院 治療   還有 一名 大同 區的民眾 在 地震 時因 玻璃 破裂 導致 左手 撕裂 傷   已 送往 馬 偕 醫院 治療   北市 教育局 則 透露 有 2 名學生 疏散 時腳踝 扭傷 與 遭 玻璃 輕微 割傷   截至 先前   北市 共接 獲 588 災情 案件   大多 為 停電   漏水   瓦斯 管線 破損   此外 還有 建築物 外牆 毀損   招牌 掉落 等   也 有 受困 電梯 人員 已 被 救出   後 續 北市 府 將落 實外 牆   招牌 懸掛 物防護 以及 高架   橋 樑 巡檢  </t>
+          <t xml:space="preserve">今   3   日 強震 震撼 全 台   各地 災情 不斷   新北市 新店 區 安泰 路 一處 民宅 更 發生 地基 下陷 慘況   此外 台北市 方面 先前 則傳出 3 傷   2 名 工人 因 乙炔 鋼瓶 傾倒 爆破 導致燒 燙傷   還有 一人 手臂 撕裂 傷   綜合 媒體 報導   新北市 新店 區 安泰 路 60 巷 90 弄 頂 好 社區 民宅 今 地震 後 傳出 災情   從 現場 照片 來 看   不僅 民房 地基 下陷   花盆 傾倒   原先 停 路邊 車輛 更是 直接 下沉   場面 驚 悚   目前 粗估 坍塌 面積 約 1   000 平方公尺   所幸 住戶 12 人 已 全數 撤離   另外   稍早 台北 市長 蔣萬安 表示   北市 接獲 3 人 受傷 消息   其中 2 名 男性 工人 地震 期間 因 乙炔 鋼瓶 傾倒 爆破 導致 身上 68 ％ 燒燙傷   目前 已 被 送往 台大 醫院 治療   還有 一名 大同 區的民眾 地震 時因 玻璃 破裂 導致 左手 撕裂 傷   已 送往 馬 偕 醫院 治療   北市 教育局 則 透露 2 名學生 疏散 時腳踝 扭傷 與 遭 玻璃 輕微 割傷   截至 先前   北市 共接 獲 588 災情 案件   大多 為 停電   漏水   瓦斯 管線 破損   此外 還有 建築物 外牆 毀損   招牌 掉落 等   受困 電梯 人員 已 被 救出   後 續 北市 府 將落 實外 牆   招牌 懸掛 物防護 以及 高架   橋 樑 巡檢  </t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 王涵 平 ／ 新營 報導 〕 南市 已 受理 超過 二五 ○ ○ ○ 件 既有 未登記 水井 納管 申報 案件   但 仍 有 部分 民眾 未 申報   為 避免 地下水 過度 使用 造成 地層下陷   四月 起 受理 申報 同時 辦理 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     水利局 表示   今年 四月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量     申報 時間 即日起 至 八月 二日 止   可 就近 就近 至 各區 公所 或 至 市府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 水利局 網站 「 水井 納管 申報 」 Web 平台 申報   也 可以 手機 下載 「 水井 納管 申報 及 查詢 」 APP 申報  </t>
+          <t xml:space="preserve">〔 記者 王涵 平 ／ 新營 報導 〕 南市 已 受理 超過 二五 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未 申報   為 避免 地下水 過度 使用 造成 地層下陷   四月 起 受理 申報 同時 辦理 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     水利局 表示   今年 四月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量     申報 時間 即日起 至 八月 二日 止   可 就近 就近 至 各區 公所 或 至 市府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 水利局 網站   水井 納管 申報   Web 平台 申報   可以 手機 下載   水井 納管 申報 查詢   APP 申報  </t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲ 南市 水井 納管 申報 及 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 及 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 有 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 的 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 有 部分 民眾 未及 申報   為 保障 水井 用戶 權益 及 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 的 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 也 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 「 臺 南 市政府 水利局 」 網站 「 水井 納管 申報 」 Web 平台 申報   也 可手 機下載 「 水井 納管 申報 及 查詢 」 APP 申報   市府 也 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  </t>
+          <t xml:space="preserve">▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  </t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 盧賢秀 ／ 基隆 報導 〕 基隆 中正路 425 號至 447 號間   去年 發現 水溝 有 下陷 破洞 情形   市府 進場 改善   但 花蓮 地震 後   發現 騎樓 有裂 縫   地基 可能 掏空   房屋 也 疑似 傾斜   市議員 許睿慈 與 市府 相關 單位 勘查   要求 儘 速 鑑 定 地基 與 房屋 結構   讓 居民 可以 住 得 安心 且 安全     市府 表示   經技師 鑑定 房屋 結構 目前 安全 的   工務處 將加強 下水道 巡檢補強     市議員 許睿慈 指出   居民 去年 陳 情   舊漁會 大樓 附近 的 中正路 425 號前 道 路旁 水溝   有 發生 下陷   破洞 的 情形   經會 勘後工務處 已 進場 施作   但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況   令 附近 住戶 人心惶惶     許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會 勘   許睿慈 表示   花蓮 地震 後   427 號至 447 號沿線 都 發生 了 地層 陷落   其中 4 戶 騎樓 有裂 縫   居民 地下室 也 出現 滲水 現象   擔憂 地質 結構 是否 安全   要求 市府 儘 速 完成 房屋 與 地質 安全 檢測     市府 工務處 表示   該 民宅 鄰近 海岸   可能 因 地震 造成 地下室 牆面 裂痕 滲加   工務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡檢   確認 中正路 425 號至 447 號沿線 是否 有 地基 掏空 的 問題     都 發處 表示   有 請 土木 技師 公會 的 技師 前往 勘查   初步 認為 沒有 傾斜 狀況   騎樓 裂 縫區 公所 近期 就 會 整修  </t>
+          <t xml:space="preserve">〔 記者 盧賢秀 ／ 基隆 報導 〕 基隆 中正路 425 號至 447 號間   去年 發現 水溝 下陷 破洞 情形   市府 進場 改善   但 花蓮 地震 後   發現 騎樓 有裂 縫   地基 可能 掏空   房屋 疑似 傾斜   市議員 許睿慈 與 市府 相關 單位 勘查   要求 儘 速 鑑 定 地基 與 房屋 結構   讓 居民 可以 住 得 安心 且 安全     市府 表示   經技師 鑑定 房屋 結構 目前 安全   工務處 將加強 下水道 巡檢補強     市議員 許睿慈 指出   居民 去年 陳 情   舊漁會 大樓 附近 中正路 425 號前 道 路旁 水溝   發生 下陷   破洞 情形   經 會勘 後 工務處 已 進場 施作   但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況   令 附近 住戶 人心惶惶     許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會勘   許睿慈 表示   花蓮 地震 後   427 號至 447 號沿線 都 發生 了 地層 陷落   其中 4 戶 騎樓 有裂 縫   居民 地下室 出現 滲水 現象   擔憂 地質 結構 是否 安全   要求 市府 儘 速 完成 房屋 與 地質 安全 檢測     市府 工務處 表示   該 民宅 鄰近 海岸   可能 因 地震 造成 地下室 牆面 裂痕 滲加   工務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡檢   確認 中正路 425 號至 447 號沿線 是否 地基 掏空 問題     都 發處 表示   請 土木 技師 公會 技師 前往 勘查   初步 認為 沒有 傾斜 狀況   騎樓 裂 縫區 公所 近期 就 會 整修  </t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">彰化 縣 大城 鄉現 有納 骨塔 接近 飽 和   鄉 公所 規畫 在 第六 公墓 新建 第二 納 骨塔   頂庄 村民 群起 反對   已有 140 人連署 陳 情   村民 抱怨 縣府 裁撤 頂庄國 小   鄉 公所 在 村 內蓋 第二座 納 骨塔   「 吃 虧 都 是 我們 」   讓 頂 庄村 發展 雪上加霜   要求 重新 研議 興建 地點   鄉長 陳 玉照 說   納 骨塔 近 飽 和   將持續 溝通       大城 鄉有 8 座 公墓   頂庄村 和 山腳 村設 有納 骨塔   山腳村 的 已 飽 和   頂庄村 的 只 剩 不到 700 個 空位   鄉 公所 認為   興 建新 塔有 迫切性   日前 向 頂庄 村民 說明 新建 計畫   村民 痛批 「 一村 二塔 」 違反公 平原 則   當場 反對                             許姓 村民 表示   縣府 認為 頂 庄村 出生率 低   已 是 大城 鄉 人口 倒數 第 2   前年 裁撤 頂庄國 小   可見 頂 庄村 沒 新建 納 骨塔 的 需求   周邊 地層下陷 易 淹水   無論 地理 和 風水   都 不 適合 安放 往生 親人   新建 第二 納 骨塔 離 村落 僅 200 公尺   違反 縣府 規定 500 公尺 的 審查 原則   嚴 重影 響 村民 的 身心健康       鄉長 陳 玉照 指出   頂庄 第一 納 骨塔 建在 高灘 地   第二 納 骨塔 也 一樣   不開 挖 地下室   還 建造 7 層台 階 升高 塔座   沒 淹水 疑慮   第二 納 骨塔 距離 村落 人口稠密 區約 500 公尺   像 他家 距離 墓地 很近   不會 有 問題       頂庄 村長 許仁寶說   如非建 不可   應 提出 有力 的 說明   並訂定 回饋 辦法  </t>
+          <t xml:space="preserve">彰化縣 大城 鄉現 有納 骨塔 接近 飽   鄉 公所 規畫 第六 公墓 新建 第二 納 骨塔   頂庄 村民 群起 反對   已有 140 人連署 陳 情   村民 抱怨 縣府 裁撤 頂庄國 小   鄉 公所 村 內蓋 第二座 納 骨塔     吃 虧 都 是 我們     讓 頂 庄村 發展 雪上加霜   要求 重新 研議 興建 地點   鄉長 陳 玉照 說   納 骨塔 近 飽   將持續 溝通       大城 鄉有 8 座 公墓   頂庄村 山腳 村設 有納 骨塔   山腳村 已 飽   頂庄村 只 剩 不到 700 個 空位   鄉 公所 認為   興 建新 塔有 迫切性   日前 向 頂庄 村民 說明 新建 計畫   村民 痛批   一村 二塔   違反公 平原 則   當場 反對                             許姓 村民 表示   縣府 認為 頂 庄村 出生率 低   已 是 大城 鄉 人口 倒數 第 2   前年 裁撤 頂庄國 小   可見 頂 庄村 沒 新建 納 骨塔 需求   周邊 地層下陷 易 淹水   無論 地理 風水   都 不 適合 安放 往生 親人   新建 第二 納 骨塔 離 村落 僅 200 公尺   違反 縣府 規定 500 公尺 審查 原則   嚴 重影 響 村民 身心健康       鄉長 陳 玉照 指出   頂庄 第一 納 骨塔 建在 高灘 地   第二 納 骨塔 一樣   不開 挖 地下室   還 建造 7 層台 階 升高 塔座   沒 淹水 疑慮   第二 納 骨塔 距離 村落 人口稠密 區約 500 公尺   像 他家 距離 墓地 很近   不會 問題       頂庄 村長 許仁寶說   如非建 不可   應 提出 有力 說明   並訂定 回饋 辦法  </t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   在 大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 的 地梁 也 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 的 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 的 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  </t>
+          <t xml:space="preserve">台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 地梁 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  </t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 王捷 ／ 台南 報導 〕 台南市 北區 北華街 的 一處 工地 傳出 下陷   導致 工地 旁 的 住戶 外牆   地板 出現 龜裂   警方 在 今晚 六點 多 接獲 報案   並通報 相關 單位   由 於 台南 前陣子 也 有 工地 塌陷 意外   加上 這個 月 花蓮 強震 帶來 的 災害   警方 呼籲 目前 正在 交通管制   請民眾 不要 靠近     初步 調查 發現   該 工地 的 建設 公司 近期 在 開 挖 地下室 的 過程 中   地下水 湧出   北區 公所 與 工務局 在 北華里 活動 中心 成立 臨時 指揮 所   由 相關 人員到 場會 勘   認為 可能 是 地下水 湧出   地基 不 穩定   造成 附近 的 住家 出現 牆壁   地板 龜裂 的 主因     工務局 人員 除了 要求 建設 公司 立即 停止 工程施工   並要 建設 公司 調派 水泥 車   先將 湧出 的 地下水 源以 水泥 灌漿 封閉   防止 狀況 持續 惡化   目前 仍 在 進行 緊急 的 灌漿 作業 中     建設 公司 表示   一定 會 遵照 工務局 指示   並對 鄰近 住戶 的 損失 給予 妥善 的 賠償 與 補償   絕不會 卸責 推諉   工務局 也 將持續 監控 現場 狀況   待 地下水 源 控制 後   再視 實際 損害 情形     警方 為 了 維護 交通秩序   派員 到場 管制 交通   直到 灌漿 結束   並 希望 民眾 不要 擔心   如果 發生 類似 事件   施工 單位 應當 立即 停工   並 通知 主管 機關   否則將 嚴加 開罰 及 要求 賠償   受災戶 如有 任何 疑問   也 可多加 利用 1999 話務 專線 諮 詢  </t>
+          <t xml:space="preserve">〔 記者 王捷 ／ 台南 報導 〕 台南市 北區 北華街 一處 工地 傳出 下陷   導致 工地 旁 住戶 外牆   地板 出現 龜裂   警方 今晚 六點 多 接獲 報案   並通報 相關 單位   由 於 台南 前陣子 工地 塌陷 意外   加上 這個 月 花蓮 強震 帶來 災害   警方 呼籲 目前 正在 交通管制   請民眾 不要 靠近     初步 調查 發現   該 工地 建設 公司 近期 開 挖 地下室 過程 中   地下水 湧出   北區 公所 與 工務局 北華里 活動 中心 成立 臨時 指揮 所   由 相關 人員 到場 會勘   認為 可能 是 地下水 湧出   地基 不 穩定   造成 附近 住家 出現 牆壁   地板 龜裂 主因     工務局 人員 除了 要求 建設 公司 立即 停止 工程施工   並要 建設 公司 調派 水泥 車   先將 湧出 地下水 源以 水泥 灌漿 封閉   防止 狀況 持續 惡化   目前 仍 進行 緊急 灌漿 作業 中     建設 公司 表示   一定 會 遵照 工務局 指示   並對 鄰近 住戶 損失 給予 妥善 賠償 與 補償   絕不會 卸責 推諉   工務局 將持續 監控 現場 狀況   待 地下水 源 控制 後   再視 實際 損害 情形     警方 為 了 維護 交通秩序   派員 到場 管制 交通   直到 灌漿 結束   並 希望 民眾 不要 擔心   如果 發生 類似 事件   施工 單位 應當 立即 停工   並 通知 主管 機關   否則將 嚴加 開罰 要求 賠償   受災戶 如有 任何 疑問   可多加 利用 1999 話務 專線 諮 詢  </t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>水利 署 在 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 生 態 環 境   土方 培厚則 為 河道 治理   經監 測確 有 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 的 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 的 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 的 生態   環境 調查   施工期 間 的 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 也 發現 仍 有 石虎 出 沒 活動   甚至 有 定居 個體   巴氏 銀 鮈 棲地 也 沒 有 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 的 生態 工法 理念 相近   也 有 專業 技師 分析   經比 對 去年 培厚前   後 的 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 在 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片</t>
+          <t>水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">水利 署 在 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 生 態 環 境   土方 培厚 為 河道 治理   經監測 有 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 的 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 的 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 的 生態   環境 調查   施工期 間 的 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  </t>
+          <t xml:space="preserve">水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  </t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>路透社 報導   根據 今天 ( 19 日 ) 發布 的 一份 全國衛星 資料 研究 顯示   中國將 近一半 的 主要 城市 正 遭受 「 中等 到 嚴重 」 程度 的 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 的 論文 作者 發現   中國 45% 的 都市 土地 正以 每年 超過 3 公 釐 的 速度 下陷   16% 的 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 的 原因 不僅 是 地下水位 下降   還有 建築 環境 的 龐大 重量     華南師 範大學 敖祖銳 領導 的 研究 團隊 表示   中國 的 都市人口 已經 超過 9 億   因此 「 即使 是 一小部分 的 土地 下陷   都 會 對 都市生活 構成 巨大 威脅 」     土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 在 下 一個 世紀   近 四分之一 的 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 的 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾氣候 變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 的 尼科 爾斯 ( Robert   Nicholls ) 表示   「 這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 的 問題   而 不僅僅 是 一 兩個 地方 的 問題   」 他 說   「 這也 是 世界 其他 地方 正在 發生 的 事情 的 縮影   」   人口 超過 1   500 萬 的 北部 城市 天津   被確 認為 受災 最 嚴重 的 城市 之一   去年 一場 「 突發性 地質 災害 」 導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 的 興建     中國 許多 老 煤 礦區 也 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 的 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 的 另 一份 研究 指出   全球 約 有 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 的 國家 之一   首都 雅加 達 大部分 地區現 在 已 低 於 海平面     尼科 爾斯說   易受 影響 的 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 在 1970 年代 禁止 抽取 地下水     他 補充 說   「 減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 你 不 可能 阻止 所有 下陷   因此 要 討論 適應力 和 建造 海堤   」   根據 新加坡 2022 年 的 一項 研究   44 個 飽 受 這個 問題 困擾 的 主要 沿海 城市 中   有 30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示   「 這是 一個 都市化 和 人口 增長 的 問題   人口密度 愈大   抽 的 水 就 愈 多   也 就 造成 更 多 下陷   」</t>
+          <t>中國 過度 抽取 地下水   導致 近 40% 主要 城市 土地 下陷     路透     陳 麗珠 ／ 核稿 編輯   〔 財經 頻道 ／ 綜合 報導 〕 中國 近一半 主要 城市 正 遭受   中度 至 重度   不 等 程度 沉降   海平面 上升 情況 下   恐有 數百萬人將 面臨 洪水 風險     路透   指出   中國 都市人口 約 9 億人   當中 約 2.7 億人 生活 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     中國 82 個 城市 中   約 45% 每年 下沉 超過 3 公 釐   16% 土地 平均 每年 下沉 更是 超過 10 公 釐   約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     據 了解   而 造成 中國 土地 逐年 下沉   最 主要 是 地下水位 下降 所致     路透 表示     土地 下陷   對 中國 每年 造成 超過 75 億元 人民 幣   約 新 台幣 337 億元   損失   研究 人員 預計   下個 世紀   中國將 約 近 四分之一 沿海 土地   恐低 於 海平面   數億人將 面臨 大 洪水 風險     最 嚴重 受災 城市 是 北方 天津   這 城市 約 1500 萬 人口   2023 年 一場   突發 地質 災害     導致 3000 名 居民 被 疏散   調查 人員將 這場 災害 歸咎 於   水資源 枯竭 地 熱井 建設       一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>中國 過度 抽取 地下水   導致 近 40% 主要 城市 的 土地 下陷     路透     陳 麗珠 ／ 核稿 編輯   〔 財經 頻道 ／ 綜合 報導 〕 中國 有 近一半 的 主要 城市 正 遭受 「 中度 至 重度 」 不 等 程度 的 沉降   在 海平面 上升 的 情況 下   恐有 數百萬人將 面臨 洪水 風險     路透   指出   中國 都市人口 約 9 億人   當中 約 有 2.7 億人 生活 在 每年 下陷 逾 3 公 釐 的 地區   相當 於 都市人口 的 29%     在 中國 82 個 城市 中   約 有 45% 每年 下沉 超過 3 公 釐   16% 土地 平均 每年 下沉 更是 超過 10 公 釐   約 有 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   也 可能 造成 重大 威脅     據 了解   而 造成 中國 土地 逐年 下沉   最 主要 是 地下水位 下降 所致     路透 表示   「 土地 下陷 」 對 中國 每年 造成 超過 75 億元 人民 幣   約 新 台幣 337 億元   的 損失   研究 人員 預計   在 下個 世紀 內   中國將 有 約 近 四分之一 的 沿海 土地   恐低 於 海平面   數億人將 面臨 大 洪水 風險     最 嚴重 的 受災 城市 是 北方 的 天津   這 城市 約 有 1500 萬 人口   2023 年 一場 「 突發 地質 災害 」   導致 3000 名 居民 被 疏散   調查 人員將 這場 災害 歸咎 於   水資源 枯竭 和 地 熱井 的 建設       一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
+          <t xml:space="preserve">最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  </t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">最新 一份 根據 衛星 雷達 觀測 的 研究 顯示   中國近 40% 主要 城市 的 土地 正發生 「 中度 至 重度 」 的 地層下陷   上 億 居民 面臨 洪水 的 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 / 19   發表 在 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 的 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 在 2015 至 2022 年 的 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 有 2.7 億 人口 生活 在 這些 每年 下陷 逾 3 公 釐 的 地區   相當 於 都市人口 的 29%     這 82 個 城市 中   更 有 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   也 可能 造成 重大 威脅     導致 中國 都市 地層下陷 的 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 的 重量 不斷 增加   在 時間 推移 下   沉積物 堆積   以及 不斷 增加 的 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 和 海平面 上升   最終 中國將 有 約 四分之一 的 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 的 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 的 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 的 堤防   「 即使 地層下陷 和 海平面 上升   這樣 龐大 的 沿海 堤防 也 能 在 很大 程度 上 降低 城市 被淹 沒 的 風險 」   就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 的 堤防     陶勝利稱   中國 政府 也 實施 嚴格 的 地下水 管制法 規   減緩 了 上海 周邊 的 地層下陷 速度     全球 多個 城市 都 在 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 的 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 有 海平面 上升 的 問題   大家 比較 關心 沿海 城市   「 但 大多 數 城市 下沉 的 速度   和 沿海 城市 其實 都 差不多   甚至 還更快 」     地層下陷 也 不僅 是 中國 才 有 的 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快 的   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 的 土地 有 下陷 風險   印尼 是 最 嚴重 的 國家 之一   首都 雅加 達 大部分 地區現 在 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 的 44 個 沿海 大城市 當中   有 30 個 在 亞洲  </t>
+          <t xml:space="preserve">路透社 報導   根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示   中國將 近一半 主要 城市 正 遭受   中等 到 嚴重   程度 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 論文 作者 發現   中國 45% 都市 土地 正以 每年 超過 3 公 釐 速度 下陷   16% 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 原因 不僅 是 地下水位 下降   還有 建築 環境 龐大 重量     華南師 範大學 敖祖銳 領導 研究 團隊 表示   中國 都市人口 已經 超過 9 億   因此   即使 是 一小部分 土地 下陷   都 會 對 都市生活 構成 巨大 威脅       土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 下 一個 世紀   近 四分之一 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示     這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 問題   而 不僅僅 是 一 兩個 地方 問題     他 說     這也 是 世界 其他 地方 正在 發生 事情 縮影       人口 超過 1   500 萬 北部 城市 天津   被確 認為 受災 最 嚴重 城市 之一   去年 一場   突發性 地質 災害   導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 興建     中國 許多 老 煤 礦區 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 另 一份 研究 指出   全球 約 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 已 低 於 海平面     尼科 爾斯說   易受 影響 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 1970 年代 禁止 抽取 地下水     他 補充 說     減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 不 可能 阻止 所有 下陷   因此 要 討論 適應力 建造 海堤       根據 新加坡 2022 年 一項 研究   44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中   30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示     這是 一個 都市化 人口 增長 問題   人口密度 愈大   抽 水 就 愈 多   就 造成 更 多 下陷    </t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">中國 有將 近一半 的 主要 城市 正 面臨 「 中度 至 重度 」 地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 有 9 億   其中 約 有 2.7 億人 生活 在 每年 下陷 逾 3 公分 的 的 地區   相當 於 都市人口 的 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 有 約 四分之一 的 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 的 報告 在 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 的 地層下陷 情形   發現 約 有 45% 的 地區 每年 下沉 超過 3 公 釐   更 有 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 有 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 的 重量 不斷 增加   不斷 增加 的 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 和 海平面 上升   最終 中國會 有 約 四分之一 的 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 的 天津市 被 認為 是 「 最 嚴重 受災 城市 」   2023 年 6 月間   一場 「 突發 地質 災害 」 讓 3 幢 大樓 出現 裂痕   地下室 滲水   有 3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 的 鑽井 施工 觸動 深層 「 地質 空腔 」 所致     不僅 是 中國 有 此 問題   世界各地 皆 面臨 地層下陷 危機   在 今年 2 月 發表 的 另項 研究 指出   全球 約 630 萬 平方公里 的 土地 有 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   內容 提及 全世界 有著 嚴重 地層下陷 的 44 個 沿海 主要 城市 中   就 有 30 個位 於 亞洲  </t>
+          <t xml:space="preserve">中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  </t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">李欣潔 ／ 核稿 編輯   〔 即時 新聞 ／ 綜合 報導 〕 中國 各 大都市 面臨 地層下陷 的 環境 危機   北京 大學 城市 與 環境 學院 生態 研究 中心 研究 員 陶勝利 團隊   華南師 範大學 北斗 研究院 敖祖銳 團隊 等 人   共同 在 頂 尖 期刊   科學   發表論 文   指稱 2120 年 中國 沿海 城市 恐有 26 ％ 土地 會 低 於 海平面   北京 是 全中國 下沉 速度 最快 的 都市 之一     據   紐約 時報   報導   中國 16 ％ 的 大城市 每年 海拔高度 下降 超過 10 公 釐   近一半 城市 每年 海拔高度 下降 超過 3 公 釐   這些 數字 看 起來 不大   但 日積 月 累 之下 不能 忽視     這些 城市 的 地層下陷 有 一部分 是 由 於 建物 和 基礎 設施 的 重量 造成 的   超 抽 地下水   開採 石油 和 煤礦 也 是 原因 之一   上述 影響 到 環境 的 行為   可能 會 造成 土壤 和 岩石 的 擠 壓 和 坍塌     研究 人員 透過 雷達圖 像   測量 中國 82 個 主要 都市 2015 至 2022 年間 地表 升降 狀況   並和當 地 建物 重量   地下水位 進行 比 較   結果 發現 中國 沿海 城市 目前 約 有 6 ％ 土地 相對 海拔 低于 海平面   假如 2120 年 全球 平均 海平面 上升 0.87 公尺   則 可能 會 上升 到 26 ％     其中   北京 是 全中國 下陷 速度 最快 的 城市 之一   鄰近 的 天津 也 有 同樣 危機   天津 去年 數條 道路 突然 發 生地 裂狀況   導致 數千 居民 從 公寓 撤離   中國 都市 下陷 狀況 是 不均 勻 的   亦 即 不同 區域 以 不同 的 速度 下沉   使得 土地 上 的 建物 面臨 受損 風險     都市 土地 低 於 海平面 並不 代表 滅亡   荷蘭 大部分 地區 都 在 海平面 以下 並持續 下陷   但 荷蘭展 開 了 大量 的 蓄洪 工程 防止 洪災   中國 研究 人員 認為   降低 下陷 速度 的 關鍵 是 限制 地下水 抽取   上海 實施 地下水 管理 後 下沉 速度 比中國 其他 城市 更慢   日本 東京 和 大阪 多年 來 的 地下水 規劃 已 能夠 穩定 地表 沉降 狀況     不過   審查 該 篇 論文 的 英國東 英吉利 大學 氣候 科學家 和 土木工程 專家 尼科 爾斯   Robert   Nicholls   透露   地層下陷 是 中國 全國性 的 問題   很難 完全 阻止   中國 沿海 地區 必須 適應 海平面 上升   地表 下沉 的 狀況     同樣 參與 審查 論文 的 美國維吉尼亞 理工大 學 地球物理 學家 希爾扎 伊   Manoochehr   Shirzaei     曾 以類 似的 方法 研究 了 美國 沿海 都市 的 下沉   他 直指 地層下陷 幾乎 在 任何 地方 都 存在   卻 一直 遭到 忽視     希爾扎 伊說   目前 大多 數應 對 氣候 變化   指 海平面 上升   的 策略 都 是 不 準確 的   因為 這些 都 沒 有 考慮 到 地層下陷 狀況   這個 課題 從 未 像 海平面 上升 一樣 得到 廣泛 研究  </t>
+          <t xml:space="preserve">李欣潔 ／ 核稿 編輯   〔 即時 新聞 ／ 綜合 報導 〕 中國 各 大都市 面臨 地層下陷 環境 危機   北京 大學 城市 與 環境 學院 生態 研究 中心 研究 員 陶勝利 團隊   華南師 範大學 北斗 研究院 敖祖銳 團隊 等 人   共同 頂 尖 期刊   科學   發表論 文   指稱 2120 年 中國 沿海 城市 恐有 26 ％ 土地 會 低 於 海平面   北京 是 全中國 下沉 速度 最快 都市 之一     據   紐約 時報   報導   中國 16 ％ 大城市 每年 海拔高度 下降 超過 10 公 釐   近一半 城市 每年 海拔高度 下降 超過 3 公 釐   這些 數字 看 起來 不大   但 日積 月 累 之下 不能 忽視     這些 城市 地層下陷 一部分 是 由 於 建物 基礎 設施 重量 造成   超 抽 地下水   開採 石油 煤礦 是 原因 之一   上述 影響 到 環境 行為   可能 會 造成 土壤 岩石 擠 壓 坍塌     研究 人員 透過 雷達圖 像   測量 中國 82 個 主要 都市 2015 至 2022 年間 地表 升降 狀況   並和當 地 建物 重量   地下水位 進行 比 較   結果 發現 中國 沿海 城市 目前 約 6 ％ 土地 相對 海拔 低于 海平面   假如 2120 年 全球 平均 海平面 上升 0.87 公尺   則 可能 會 上升 到 26 ％     其中   北京 是 全中國 下陷 速度 最快 城市 之一   鄰近 天津 同樣 危機   天津 去年 數條 道路 突然 發 生地 裂狀況   導致 數千 居民 從 公寓 撤離   中國 都市 下陷 狀況 是 不均 勻   亦 即 不同 區域 以 不同 速度 下沉   使得 土地 上 建物 面臨 受損 風險     都市 土地 低 於 海平面 並不 代表 滅亡   荷蘭 大部分 地區 都 海平面 以下 並持續 下陷   但 荷蘭展 開 了 大量 蓄洪 工程 防止 洪災   中國 研究 人員 認為   降低 下陷 速度 關鍵 是 限制 地下水 抽取   上海 實施 地下水 管理 後 下沉 速度 比中國 其他 城市 更慢   日本 東京 大阪 多年 來 地下水 規劃 已 能夠 穩定 地表 沉降 狀況     不過   審查 該 篇 論文 英國東 英吉利 大學 氣候 科學家 土木工程 專家 尼科 爾斯   Robert   Nicholls   透露   地層下陷 是 中國 全國性 問題   很難 完全 阻止   中國 沿海 地區 必須 適應 海平面 上升   地表 下沉 狀況     同樣 參與 審查 論文 美國維吉尼亞 理工大 學 地球物理 學家 希爾扎 伊   Manoochehr   Shirzaei     曾 以類 似的 方法 研究 了 美國 沿海 都市 下沉   他 直指 地層下陷 幾乎 任何 地方 都 存在   卻 一直 遭到 忽視     希爾扎 伊說   目前 大多 數應 對 氣候 變化   指 海平面 上升   策略 都 是 不 準確   因為 這些 都 沒 考慮 到 地層下陷 狀況   這個 課題 從 未 像 海平面 上升 一樣 得到 廣泛 研究  </t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 顏宏駿 ／ 彰化 報導 〕 彰化 縣 沒 有 水庫   多年 以來 不 缺水   民生 用水   的 原因 係 倚賴 全縣 200 多口 地下水 井   但 已 造成 地層下陷 問題   惟鳥 嘴潭 人工湖 淨水廠 完工 後 將可 改變 現今 抽 地下水 的 窘境   目前 台一線 南 彰化 段 正 進行 大型 管路 埋設 工程   2026 年 完工 後   這條 管路 成為 彰化 縣 的 給水大動脈   透過 管路 連結   達到 鳥 嘴潭 人工湖   湖山 水庫   鯉魚 潭 水庫 的 水源 靈活 調度 的 目的     台水 公司 指出   目前 鳥 嘴潭淨 水廠 工程 進行 中   埋管 工程 多線 展開   直徑 1.2 公尺 的 幹管 埋設 工程   為 避免 影響 交通   採 分段 施工   預計 2026 年 全部 完工   最後可達 到 北水南 送   南 水北 送   靈活 供水 目標     台水 公司 表示   目前 彰化 縣 每日 用水量 約 為 40 萬公噸   地面水 部分   彰化市 與 和 美   花壇 部分 地區 每日 用水量 約 為 8 萬公噸   主要 靠 台中 支援   鯉魚 潭 水庫     南 彰化 的 北斗   二林 與 溪湖 一帶   則由 雲林   湖山 水庫   每日 支援 約 5 萬公噸   烏嘴潭淨 水廠 完工 送水 後   彰化 縣 每年 可減 抽 6100 萬噸 的 地下水   解決 農民 枯水期 經常 抽 不到 地下水 窘境     台水 公司 說   未來 鳥 嘴潭淨 水廠 每天 可供 應 彰化 地區 21 萬噸 的 水量   加上 現有 每日 來 自 雲林 湖山 水庫 5 萬公噸   而 透過 台 一線 埋設 的 幹管   南   北 水路 相通   增加 水資源 調度 彈性   在 上游 採 一般 水庫 採高 水位 操作   依循 「 蓄豐濟 枯 」 邏輯   趁 豐水期 盡量 蓄滿   枯水期 才 有 水 可用   包含 中水 局轄區 內 鯉 魚潭   湖山 水庫   目前 處 於 枯水期 階段   卻 仍 持續 滿水 溢流   未來 也 能 應付 極端 氣候 或 突發 供水 危機     台水 公司 第十一 處長 曾 盛一說   水資源 運用 已 不 像 過去   單一 水庫 供水 區 固定   在 水利 署力 拚 打造 西部 廊道 供水管 網   強化 區域 調度 的 同時   鳥 嘴潭 雖 不是 直接 參與 管網   但 透過 減少 中部 水庫 支援 彰化 水量   「 其實 也 有 達 到 調度 功能 」  </t>
+          <t xml:space="preserve">〔 記者 顏宏駿 ／ 彰化 報導 〕 彰化縣 沒有 水庫   多年 以來 不 缺水   民生 用水   原因 係 倚賴 全縣 200 多口 地下水 井   但 已 造成 地層下陷 問題   惟鳥 嘴潭 人工湖 淨水廠 完工 後 將可 改變 現今 抽 地下水 窘境   目前 台一線 南 彰化 段 正 進行 大型 管路 埋設 工程   2026 年 完工 後   這條 管路 成為 彰化縣 給水大動脈   透過 管路 連結   達到 鳥 嘴潭 人工湖   湖山 水庫   鯉魚 潭 水庫 水源 靈活 調度 目的     台水 公司 指出   目前 鳥 嘴潭淨 水廠 工程 進行 中   埋管 工程 多線 展開   直徑 1.2 公尺 幹管 埋設 工程   為 避免 影響 交通   採 分段 施工   預計 2026 年 全部 完工   最後可達 到 北水南 送   南 水北 送   靈活 供水 目標     台水 公司 表示   目前 彰化縣 每日 用水量 約 為 40 萬公噸   地面水 部分   彰化市 與 美   花壇 部分 地區 每日 用水量 約 為 8 萬公噸   主要 靠 台中 支援   鯉魚 潭 水庫     南 彰化 北斗   二林 與 溪湖 一帶   則由 雲林   湖山 水庫   每日 支援 約 5 萬公噸   烏嘴潭淨 水廠 完工 送水 後   彰化縣 每年 可減 抽 6100 萬噸 地下水   解決 農民 枯水期 經常 抽 不到 地下水 窘境     台水 公司 說   未來 鳥 嘴潭淨 水廠 每天 可供 應 彰化 地區 21 萬噸 水量   加上 現有 每日 來 自 雲林 湖山 水庫 5 萬公噸   而 透過 台 一線 埋設 幹管   南   北 水路 相通   增加 水資源 調度 彈性   上游 採 一般 水庫 採高 水位 操作   依循   蓄豐濟 枯   邏輯   趁 豐水期 盡量 蓄滿   枯水期 才 水 可用   包含 中水 局轄區 鯉 魚潭   湖山 水庫   目前 處 於 枯水期 階段   卻 仍 持續 滿水 溢流   未來 能 應付 極端 氣候 或 突發 供水 危機     台水 公司 第十一 處長 曾 盛一說   水資源 運用 已 不 像 過去   單一 水庫 供水 區 固定   水利 署力 拚 打造 西部 廊道 供水管 網   強化 區域 調度 同時   鳥 嘴潭 雖 不是 直接 參與 管網   但 透過 減少 中部 水庫 支援 彰化 水量     其實 達 到 調度 功能    </t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   根據 美國 科學促 進會   AAAS   出版 的 期刊   科學     Science   於 18 日 發表 的 論文 顯示   中國 近一半 主要 城市 面臨 「 中度 至 重度 」 的 地層下陷 問題   45% 的 城市 每年 下陷 超過 3 毫米   16% 的 城市 每年 快速 下陷 逾 10 毫米   並 造成 每年 75 億元 人民 幣   約合 新 台幣 337 億元   的 經濟 損失   預計 未來 1 世紀 內   中國 沿海 城市 可能 有 1 / 10 的 居民 將 生活 在 海平面 以下     下陷 主因 則 包括 地下水位 下降   以及 建築 環境 對 地下 土壤 帶來 的 沉重 壓力 等   尤其 都市化 進程 更是 加速 了 地下水 資源 過度 開採   以及 大量 建築物 的 重壓   受影響 的 城市 包括 北京   天津   合肥 和 西安 等   由 於 中國 城市 人口 已 超過 9 億人   因此 「 即使 只有 一小部分 的 土地 下陷   都 有 可能 對 城市 生活 構成 重大 威脅 」   涉及 居民 安全   基礎 建設   交通 運作 及 生態 環境 等 多個 層面     研究 估算   地層下陷 已使 中國年 經濟 損失 超過 75 億元 人民 幣   凸顯 了 問題 的 嚴峻 與 急迫   例如 擁有 1500 萬 人口 的 天津   近幾年 都 是 水患 受災 嚴重 的 地區 之一   未來   隨著 全球 暖化 造成 的 海平面 上升   以及 地層下陷 持續   預計 下個 世紀   中國將 有 近 1 / 4 的 沿海 土地 低 於 海平面   洪水 風險 劇增     除 沿海 城市   中國舊 煤區 亦 因 過度 開 採出 現類 似狀況   地下 礦產開 採導致 土地 結構 變化   引發 地層下陷   地方 政府 常採 取向 礦井 注漿 加固 等 臨時 措施   但 無法 從 根源 解決 問題     英國東 英吉利 大學   University   of   East   Anglia   氣候 變遷 研究 中心 主任 尼可斯 指出   地層下陷 不僅 是 中國 的 全國性 問題   也 是 全球 的 重大 危機   今年 2 月 的 研究 顯示   全世界 約 有 630 萬 平方公里 的 土地 有 下陷 風險   尤其 印尼 更是如此   其 首都 雅加 達   Jakarta   大部分 區域 目前 已低 於 海平面   加劇 洪水 風險 並嚴 重威脅 居民 生活 與 生態 環境  </t>
+          <t xml:space="preserve">[ 周刊 王 CTWANT ]   根據 美國 科學促 進會   AAAS   出版 期刊   科學     Science   於 18 日 發表 論文 顯示   中國 近一半 主要 城市 面臨   中度 至 重度   地層下陷 問題   45% 城市 每年 下陷 超過 3 毫米   16% 城市 每年 快速 下陷 逾 10 毫米   並 造成 每年 75 億元 人民 幣   約合 新 台幣 337 億元   經濟 損失   預計 未來 1 世紀   中國 沿海 城市 可能 1 10 居民 將 生活 海平面 以下     下陷 主因 則 包括 地下水位 下降   以及 建築 環境 對 地下 土壤 帶來 沉重 壓力 等   尤其 都市化 進程 更是 加速 了 地下水 資源 過度 開採   以及 大量 建築物 重壓   受影響 城市 包括 北京   天津   合肥 西安 等   由 於 中國 城市 人口 已 超過 9 億人   因此   即使 只有 一小部分 土地 下陷   都 可能 對 城市 生活 構成 重大 威脅     涉及 居民 安全   基礎 建設   交通 運作 生態 環境 等 多個 層面     研究 估算   地層下陷 已使 中國年 經濟 損失 超過 75 億元 人民 幣   凸顯 了 問題 嚴峻 與 急迫   例如 擁有 1500 萬 人口 天津   近幾年 都 是 水患 受災 嚴重 地區 之一   未來   隨著 全球 暖化 造成 海平面 上升   以及 地層下陷 持續   預計 下個 世紀   中國將 近 1 4 沿海 土地 低 於 海平面   洪水 風險 劇增     除 沿海 城市   中國舊 煤區 亦 因 過度 開 採出 現類 似狀況   地下 礦產開 採導致 土地 結構 變化   引發 地層下陷   地方 政府 常採 取向 礦井 注漿 加固 等 臨時 措施   但 無法 從 根源 解決 問題     英國東 英吉利 大學   University   of   East   Anglia   氣候變遷 研究 中心 主任 尼可斯 指出   地層下陷 不僅 是 中國 全國性 問題   是 全球 重大 危機   今年 2 月 研究 顯示   全世界 約 630 萬 平方公里 土地 下陷 風險   尤其 印尼 更是如此   其 首都 雅加 達   Jakarta   大部分 區域 目前 已低 於 海平面   加劇 洪水 風險 並嚴 重威脅 居民 生活 與 生態 環境  </t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   屏東 縣 的 東港   林邊   佳冬   枋寮 等 4 鄉鎮   因 沿海 土地 嚴重 地層下陷   多數 土地 鹽化 又 易 淹水 不利 耕作   不利 耕作   造成 農業 欠收 或 土地 荒廢   力 暘 公司 優先 選擇 佳冬 鄉進 駐 種電   協助 地方 政府 推動 嚴重 地層下陷 區域 太陽光 電發 電業 的 政策   宣示 要 把 屏東 打造 為 綠能 王國     力 暘 以光 電技術 專業 著稱   整合 旗下 4 公司 建置 99MW   百萬瓦   太陽能 光電場   以 佳冬 鄉作 為 領先 模範 案例   從 2020 年 起   預計 3 年 內 累計 建置 完成 300MW 的 太陽能 光電場   將 打造 屏東 縣為 全台 第一 的 綠能 王國     時任 屏東 縣長 潘孟安 2020 年 6 月 出席 配合 廠商力 暘 太陽能 光電場 動土 典禮   盛 讚 力 暘 能 夠 以 民 間 企 業 力量   鍥而 不 捨 與 地主 溝通   取得 超過 1000 名 地主 認同   用心 令人 敬佩     雖然 得到 地方 政府 肯定   黃 志文 卻 坦言 「 挑戰 很大   」   因為 發展 太陽能 的 最大 挑戰   就是 取得 地主 信任   所以 力 暘 能源 積極 與 地主 溝通   以 每甲 土地 年租金 40 萬 承租   簽約 20 年   為 農民 地主 增加 經濟 收益   而 2 年 來 的 努力   有 超過 1000 位 的 地主   總計 250 多甲 的 土地 出租 給力 暘     他 說   此次 推動 99MW 太陽能 光電場   除攜手 策略 合作 夥伴 中租迪 和 投入 合作 地面 型 電場 外   也 獲 科技 大廠 士林 電機   友達 與 富士康 等 協力 廠商 共同 合作   預定 2021 年 6 月底 全數 完工   每年 將為 屏東 創造 約 1.35 億度 發電 總量   他 強調   力 暘 將以 佳冬 鄉作 為 領先 模範 案例   預計 3 年 內 累計 建置 完成 300MW 的 太陽能 光電場   將 打造 屏東 縣為 全台 第一 的 綠能 王國  </t>
+          <t xml:space="preserve">[ 周刊 王 CTWANT ]   屏東縣 東港   林邊   佳冬   枋寮 等 4 鄉鎮   因 沿海 土地 嚴重 地層下陷   多數 土地 鹽化 又 易 淹水 不利 耕作   不利 耕作   造成 農業 欠收 或 土地 荒廢   力 暘 公司 優先 選擇 佳冬 鄉進 駐 種電   協助 地方 政府 推動 嚴重 地層下陷區 域 太陽光 電發 電業 政策   宣示 要 把 屏東 打造 為 綠能 王國     力 暘 以光 電技術 專業 著稱   整合 旗下 4 公司 建置 99MW   百萬瓦   太陽能 光電場   以 佳冬 鄉作 為 領先 模範 案例   從 2020 年 起   預計 3 年 累計 建置 完成 300MW 太陽能 光電場   將 打造 屏東縣 為 全台 第一 綠能 王國     時任 屏東縣 長 潘孟安 2020 年 6 月 出席 配合 廠商力 暘 太陽能 光電場 動土 典禮   盛 讚 力 暘 能 夠 以 民 間 企 業 力量   鍥而 不 捨 與 地主 溝通   取得 超過 1000 名 地主 認同   用心 令人 敬佩     雖然 得到 地方 政府 肯定   黃 志文 卻 坦言   挑戰 很大       因為 發展 太陽能 最大 挑戰   就是 取得 地主 信任   所以 力 暘 能源 積極 與 地主 溝通   以 每甲 土地 年租金 40 萬 承租   簽約 20 年   為 農民 地主 增加 經濟 收益   而 2 年 來 努力   超過 1000 位 地主   總計 250 多甲 土地 出租 給力 暘     他 說   此次 推動 99MW 太陽能 光電場   除攜手 策略 合作 夥伴 中租迪 投入 合作 地面 型 電場 外   獲 科技 大廠 士林 電機   友達 與 富士康 等 協力 廠商 共同 合作   預定 2021 年 6 月底 全數 完工   每年 將為 屏東 創造 約 1.35 億度 發電 總量   他 強調   力 暘 將以 佳冬 鄉作 為 領先 模範 案例   預計 3 年 累計 建置 完成 300MW 太陽能 光電場   將 打造 屏東縣 為 全台 第一 綠能 王國  </t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 內 的 墩 柱 差異 沉陷 量 呈 逐年 降低 的 趨勢     監測 報告 顯示   2023 年 的 高鐵 彰化   雲林 共 8 處 路段 的 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林 縣土 庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 的 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 的 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 在 容許 範圍 內   連續 梁為 1 / 1500   簡支梁 1 / 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 的 累積角 變量 有 逾容 許範圍 的 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 及 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 的 橋墩   反而 是 位 在 沉陷 改善 的 嘉義 路段   位 在 朴子溪 河 中   目前 簡支 梁累積 的 角 變量 達 1.96 / 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 / 1000   雖 仍 在 容 許值 範圍   但 已 從 2020 年 起 逐年 增加  </t>
+          <t xml:space="preserve">  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 容許 範圍   結構 安全 無虞     高鐵路線 通過 彰化   雲林 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化縣 溪州 鄉   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 橋墩   反而 是 沉陷 改善 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設位 在 台北市 大直 的 新建 案 在 去   2023   年 9 月 7 日 晚間 突然 發生 崩塌   導致 附近 5 樓 民宅 下陷 成 4 樓   台北 地檢署 偵查 終結   將 工地 邱姓 負責人   基泰 公司 工程部 人員 張姓 工地 主任   王姓 及 劉姓 建築師   姜姓 專案 人員 等 5 人   依涉 犯 違背 建築術 成規   偽造 文書 等 罪 起訴   檢方 查出   大直 基泰 建案 坍塌 後   所幸 住戶 及 時 撤離   無人 傷亡   檢方 發現 建案 商未 依圖 施工   應該 60 公分 厚 的 連續 壁   只施作 50 公分   此外   建商 為 了 趕工   改變 施工 順序   竟 調整 監測 異常數 據   導致 工安 意外   至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結  </t>
+          <t xml:space="preserve">台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  </t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 的 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 的 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 在 容許 範圍 內   結構 安全 無虞     高鐵路線 通過 彰化   雲林 及 嘉義 主要 地層下陷 區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 內 的 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 的 下陷 量 從 2.6 公分   彰化 縣 溪州 鄉   到 5.4 公分   雲林 縣土 庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 的 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 的 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 在 容許 範圍 內   連續 梁為 1 / 1500   簡支梁 1 / 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 有 逾容 許範圍 的 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 及 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 的 橋墩   反而 是 在 沉陷 改善 的 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 / 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 / 1000   雖 仍 在 容 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429</t>
+          <t xml:space="preserve">基泰 建設位 台北市 大直 新建 案 去   2023   年 9 月 7 日 晚間 突然 發生 崩塌   導致 附近 5 樓 民宅 下陷 成 4 樓   台北 地檢署 偵查 終結   將 工地 邱姓 負責人   基泰 公司 工程部 人員 張姓 工地 主任   王姓 劉姓 建築師   姜姓 專案 人員 等 5 人   依涉 犯 違背 建築術 成規   偽造 文書 等 罪 起訴   檢方 查出   大直 基泰 建案 坍塌 後   所幸 住戶 時 撤離   無人 傷亡   檢方 發現 建案 商未 依圖 施工   應該 60 公分 厚 連續 壁   只施作 50 公分   此外   建商 為 了 趕工   改變 施工 順序   竟 調整 監測 異常數 據   導致 工安 意外   至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結  </t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 去年 高鐵 沿線 雲林 路段 不僅 持續 下陷 5.4 公分   且 累積 下陷 量 已 達 114.2 公分   全國 下陷 最 嚴重   雲林 縣 政府 表示   沿途 現有 的 12 萬 6 千口 的 灌溉 水井   政府 只能 加以 管制 不能 禁止 其繼續 抽水   地下水 入不敷出   自然 持續 下陷     高鐵 公司 從 2003 年 起委 託 學術 單位   每年 針對 高鐵 沿線 結構 墩 柱 地層下陷 進行 監測   去年 高鐵 沿線 持續 下陷 的 路段 包 彰化 及 雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   最大 累積 下陷 量 已 達 到 114.2 公分   地點 是 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   不過   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 在 容許 範圍 內   高鐵 結構 安全 無虞     雲林 縣 政府 水利 處處長 許 宏博 表示   雖然 相關 單位 持續 針對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 的 水井 擁有 合法 水權   數量 多 達 12 萬 6 千口   政府 不能 禁止 抽水   農民 灌溉 持續 抽水   地下水 補充 不及   當然會 持續 下陷     許 宏博 表示   縣府 也 積極 輔導 高鐵 沿線 種植 水稻 的 農民 轉作 大豆 及 玉米 等 作物   還是 遇到 一些 瓶頸   由 於 雲林 農村 人力 嚴重 老化   許多 水田 都 是 代耕   老農 根本 無力 自行 耕種   但 旱田 卻 沒 有 代耕 行業   即使 水田 的 利潤 低   農民 也 無力 轉作  </t>
+          <t xml:space="preserve">〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 去年 高鐵 沿線 雲林 路段 不僅 持續 下陷 5.4 公分   且 累積 下陷 量 已 達 114.2 公分   全國 下陷 最 嚴重   雲林縣 政府 表示   沿途 現有 12 萬 6 千口 灌溉 水井   政府 只能 加以 管制 不能 禁止 其繼續 抽水   地下水 入不敷出   自然 持續 下陷     高鐵 公司 從 2003 年 起委 託 學術 單位   每年 針對 高鐵 沿線 結構 墩 柱 地層下陷 進行 監測   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   最大 累積 下陷 量 已 達 到 114.2 公分   地點 是 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   不過   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   高鐵 結構 安全 無虞     雲林縣 政府 水利 處處長 許 宏博 表示   雖然 相關 單位 持續 針對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 12 萬 6 千口   政府 不能 禁止 抽水   農民 灌溉 持續 抽水   地下水 補充 不及   當然會 持續 下陷     許 宏博 表示   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等 作物   還是 遇到 一些 瓶頸   由 於 雲林 農村 人力 嚴重 老化   許多 水田 都 是 代耕   老農 根本 無力 自行 耕種   但 旱田 卻 沒 代耕 行業   即使 水田 利潤 低   農民 無力 轉作  </t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇瓶 頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林 縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 的 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 的 瓶 頸 仍 待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 及 嘉義 等 地層下陷 區   高鐵 公司 從 二 ○ ○ 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 的 路段 包 彰化 及 雲林 共八處   最 值得 關注 的 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 及 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 在 雲林 縣土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 在 容許 範圍 內   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 的 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 的 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 的 水田 轉作 旱田   一年 可望 省下 八千 噸 的 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 的 農民 轉作 大豆 及 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 的 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 有 代耕 業者   即使 水田 的 利潤 低   農民 也 無力 轉作   類 似的 瓶 頸 仍 有待 中央 統籌 解決  </t>
+          <t xml:space="preserve">去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  </t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">去年 高鐵 沿線 持續 下陷   路段 包括 彰化   雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   雲林 縣土庫 台 78 線 與 高鐵 交界 處   累積 下陷 量 達 到 114.2 公分   是 全國 下陷 最 嚴重 的 地方     鐵道局 土木 建築組 副 組長 謝炎廷 回應   「 這 路段 經由 高鐵 公司 施作 橋梁 預防性 的 改善 措施   以及 公路局 移除 台 78 號的 高 路堤 荷載   改以 鋼橋 行駛 型式 取代 之 後   經過 我們 長 期 追 蹤   沉陷 量 已 趨 於 穩定   」   雲縣 府 水利 處 表示   雖然 相關 單位 有針 對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 的 合法 水井 高達 12 萬 6 千口   政府 不能 禁止 抽水 只能 管理   加上 輔導 農民轉 旱作 也 出現 難題     雲縣 府 水利 處 技正 林昆賢 指出   「 水稻田 原則 上 來講   幾乎 百分之百 是 都 可以 機械 耕作   所以 它 在 人力 上 是 最 沒 有 問題 的   那 我們 要轉 旱作 的 時候   因為 各種 旱作 目前 來講   機械 跟 機械 耕作 的 比例   都 跟 水田 比起 來 都 有 很大 落差   」   水利 處 表示   要 輔導 高鐵 沿線 農民轉 旱作   除了 碰上 人力不足 問題   還 存在 產銷 失衡 情況   因農民若 旱作 只能 透過 契作   沒有 保價 機制   多少 降低 農民 轉作 意願   這些 問題還 有待 中央 統籌 解決  </t>
+          <t xml:space="preserve">去年 高鐵 沿線 持續 下陷   路段 包括 彰化   雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   雲林縣 土庫 台 78 線 與 高鐵 交界 處   累積 下陷 量 達 到 114.2 公分   是 全國 下陷 最 嚴重 地方     鐵道局 土木 建築組 副 組長 謝炎廷 回應     這 路段 經由 高鐵 公司 施作 橋梁 預防性 改善 措施   以及 公路局 移除 台 78 號的 高 路堤 荷載   改以 鋼橋 行駛 型式 取代 之 後   經過 我們 長 期 追 蹤   沉陷 量 已 趨 於 穩定       雲縣 府 水利 處 表示   雖然 相關 單位 有針 對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 合法 水井 高達 12 萬 6 千口   政府 不能 禁止 抽水 只能 管理   加上 輔導 農民轉 旱作 出現 難題     雲縣 府 水利 處 技正 林昆賢 指出     水稻田 原則 上 來講   幾乎 百分之百 是 都 可以 機械 耕作   所以 它 人力 上 是 最 沒 問題   我們 要轉 旱作 時候   因為 各種 旱作 目前 來講   機械 跟 機械 耕作 比例   都 跟 水田 比起 來 都 很大 落差       水利 處 表示   要 輔導 高鐵 沿線 農民轉 旱作   除了 碰上 人力不足 問題   還 存在 產銷 失衡 情況   因農民若 旱作 只能 透過 契作   沒有 保價 機制   多少 降低 農民 轉作 意願   這些 問題還 有待 中央 統籌 解決  </t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察 「 草屯 淨水場 新建 工程 」   陳 建仁 提到   為 減緩 地層下陷   水利 署 推動 「 烏溪 鳥 嘴潭 人工湖 工程 計畫 」   以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 及 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 的 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 在 今年 3 月 27 日達 到 最大 設計 的 出水 功能   通過 每日 5 萬噸 的 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能 體現 出台 灣 人民 不分 地區 互助 互惠 的 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 的 工作 量大增   也 承擔 很多 的 任務 與 責任   此外 台水 是 公司   接受 政府 的 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出   「 鳥 嘴潭 人工湖 工程 計畫 」 完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 及 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   及 85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 在 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
+          <t>行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察   草屯 淨水場 新建 工程     陳 建仁 提到   為 減緩 地層下陷   水利 署 推動   烏溪 鳥 嘴潭 人工湖 工程 計畫     以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 今年 3 月 27 日達 到 最大 設計 出水 功能   通過 每日 5 萬噸 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能體 現出 台灣 人民 不分 地區 互助 互惠 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 工作 量大增   承擔 很多 任務 與 責任   此外 台水 是 公司   接受 政府 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出     鳥 嘴潭 人工湖 工程 計畫   完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">因應 極端 氣候   水利 署 投入 123.6 億元展 開 「 鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫 」   包括 6 座 人工 蓄水池 及 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 也 能 同享 量 好質 優 的 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 的 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定 「 雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫 」 中 的 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 的 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   的 能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 的 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投 縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投 縣 的 自來 水 普及率 及 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投 縣內 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投 縣 用水 問題  </t>
+          <t xml:space="preserve">因應 極端 氣候   水利 署 投入 123.6 億元展 開   鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫     包括 6 座 人工 蓄水池 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 能 同享 量 好質 優 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定   雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫   中 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投縣 自來 水 普及率 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投縣 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投縣 用水 問題  </t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 的 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 和 產業 發展區   整體 需水量 不斷 增加   也 造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 和 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投 縣有 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投 縣民 配合 政府 政策   但 南投 縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投 縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 也 能 喝 到 量 好質 優 的 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒 「 珍珠 串 」   讓 台灣 水資源 調度 更好   也 顯示 台灣 人民 的 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   也 會 持續 綠 美化   變成 南投 新 的 觀光 地標     立委 游顥 說   南投 縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 和 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 和 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 在 立法院 繼續 爭取   也 希望 行政院 重視 南投 用水 的 問題  </t>
+          <t xml:space="preserve">烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 產業 發展區   整體 需水量 不斷 增加   造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投縣 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投縣 民 配合 政府 政策   但 南投縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 能 喝 到 量 好質 優 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒   珍珠 串     讓 台灣 水資源 調度 更好   顯示 台灣 人民 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   會 持續 綠 美化   變成 南投 新 觀光 地標     立委 游顥 說   南投縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 立法院 繼續 爭取   希望 行政院 重視 南投 用水 問題  </t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 公寓   10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋   建商 本來 願意 賠償 2 百多 萬元 修繕   但給 了 錢 後   屋主 指控 建商 拿到 使用 執照 開始 反悔   還告 10 戶 屋主 不當 得利   其中 被告 的 還有 13 歲 的 少年   但 建商 說 大樓 地下室 開挖 已經 超過 三年   經過 土木 技師 公會 鑑定 沒有 損鄰   將訴諸 法律 拿 回不應 該給 的 賠償 金     寶特瓶 放在 地上   馬 上 滾 到 另 一邊   屋主 楊力 欽   「 這邊 是 整個 傾斜 的   因為 有 鑑定 報告 有 寫 說   它 的 高低 層 的 落差   」   屋主 指控   是 打 開後門 緊鄰 的 這棟 新蓋 大樓 害 的   屋主 楊力 欽   「 它 還是 有 漏水   止住 可是 好像 過幾個 月過 後   又 開始 有 水 跑 出來   」   新大樓 蓋 在 老舊 房子 中間   後 方 的 這一棟 舊型 的 公寓 總共 10 戶   施工 時 造成 鄰房 損壞   損壞 的 民宅 屋主 指控   建商 說 好 要給 總共 2 百多 萬 做 為 鄰 損修 復 費用   但是 建商 拿到 使用 執照後馬 上 反悔   還告 10 戶 住家 不當 得利     屋主 楊力 欽   「 既然 你 不承認 的 話   為 什麼 當初 你 不 直接 訴諸 法律   透過 法律 去 看 說   這個 合約 書無效   這個 鑑定 無效   而是 在 你 使用 執照 之 後   告 我們 12 位 所有 權人   最小 13 歲 年 長 者 71 歲   」   因為 有 地下水 修繕   和 地 下陷 問題 得 先 補救   2 百多 萬 的 修繕 費先 撥給 其中 一戶   現在 10 戶 屋主 全 被告 不當 得利   氣炸開 記者 會     不過 建商 說 大樓 地下室 開挖 至今   已經 超過 3 年   經過 土木 技師 公會 鑑定 沒有 損鄰   堅持 要求 拿 回 2 百多 萬修繕 賠償 金   因為 蓋大樓 建商 和 附近 住戶 互槓   雙方 都 指控 對方 不公   還有 得 吵  </t>
+          <t xml:space="preserve">高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 公寓   10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋   建商 本來 願意 賠償 2 百多 萬元 修繕   但給 了 錢 後   屋主 指控 建商 拿到 使用 執照 開始 反悔   還告 10 戶 屋主 不當 得利   其中 被告 還有 13 歲 少年   但 建商 說 大樓 地下室 開挖 已經 超過 三年   經過 土木 技師 公會 鑑定 沒有 損鄰   將訴諸 法律 拿 回不應 該給 賠償 金     寶特瓶 放在 地上   馬 上 滾 到 另 一邊   屋主 楊力 欽     這邊 是 整個 傾斜   因為 鑑定 報告 寫 說   它 高低 層 落差       屋主 指控   是 打 開後門 緊鄰 這棟 新蓋 大樓 害   屋主 楊力 欽     它 還是 漏水   止住 可是 好像 過幾個 月過 後   又 開始 水 跑 出來       新大樓 蓋 老舊 房子 中間   後 方 這一棟 舊型 公寓 總共 10 戶   施工 時 造成 鄰房 損壞   損壞 民宅 屋主 指控   建商 說 好 要給 總共 2 百多 萬 為 鄰 損修 復 費用   但是 建商 拿到 使用 執照後馬 上 反悔   還告 10 戶 住家 不當 得利     屋主 楊力 欽     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   透過 法律 去 看 說   這個 合約 書無效   這個 鑑定 無效   而是 使用 執照 之 後   告 我們 12 位 所有 權人   最小 13 歲 年 長 者 71 歲       因為 地下水 修繕   地 下陷 問題 得 補救   2 百多 萬 修繕 費先 撥給 其中 一戶   現在 10 戶 屋主 全 被告 不當 得利   氣炸開 記者 會     不過 建商 說 大樓 地下室 開挖 至今   已經 超過 3 年   經過 土木 技師 公會 鑑定 沒有 損鄰   堅持 要求 拿 回 2 百多 萬修繕 賠償 金   因為 蓋大樓 建商 附近 住戶 互槓   雙方 都 指控 對方 不公   還有 得 吵  </t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">住戶 拿 寶特瓶 平放   立即 滾去 較 低 的 地方   證明 地面 傾斜   牆上 也 有明 顯裂 縫   多次 修補 依然 出現     住戶 指控 自從 2019 年 11 月 開始   旁邊 大樓 興建 就 發現 他們 的 公寓 牆面 漏水   龜裂 還有 地層下陷   後 續 與 開遠 建設 協調   同意 透過 台中市 土木 技師 公會 鑑定     但 住戶 指控   公會 4 次 鑑定 確認 鄰損   建商 也 依法 賠償 修繕 費及 法定 的 4 成 加成 費用 224 萬   近日 卻 反 被 建商 提告 不當 得利     鄰損 住戶 代表 楊 先生 質疑   「 既然 你 不承認 的 話   為 什麼 當初 你 不 直接 訴諸 法律   由 法律 來 去 判說 這個 合意 書無效   這個 鑑定 無效   而是 在 你 取得 使用 執照 之 後   你 反告 我 這 12 位 房屋 所有 權人   」   住戶 代表 楊 先生 說   此案 因為 建商 被 市府 列管   建商 解除 列管 拿到 建照 後 就 不 認帳   反告 他們 不當 得利   使得 鄰近 10 戶   12 名 房屋 所有 權人 都 被告   也 不能 接受 當初 協調 找 公正 單位 鑑定   建商 卻 不認   還找 來 不是 雙方 都 同意 的 單位 檢驗     民進 黨 高雄市 議員 鄭光峰 說 道   「 創 下台 灣建 商史 上 第一 個   有 跟 人家 鄰損 之後又告 人家 的   」   對此 建商 不 受訪   只 透過 文字 聲明 表示   建案 地下室 開挖 3 年 多   不會 因地質 的 問題 損害 鄰房   而且 經過 台灣省 土木 技師 公會 鑑定 沒 鄰損 的 事情   鄰房 很多 是 屋齡 要 40 年 的 老 公寓   也 違法 增建 防火巷   卻 仍然 企圖 向 本 公司 要求 高額 賠償   本案 進入 司法   等待 判決   也 強調 有 損害 公司 名譽   會 依法 捍衛 權益  </t>
+          <t xml:space="preserve">住戶 拿 寶特瓶 平放   立即 滾去 較 低 地方   證明 地面 傾斜   牆上 有明 顯裂 縫   多次 修補 依然 出現     住戶 指控 自從 2019 年 11 月 開始   旁邊 大樓 興建 就 發現 他們 公寓 牆面 漏水   龜裂 還有 地層下陷   後 續 與 開遠 建設 協調   同意 透過 台中市 土木 技師 公會 鑑定     但 住戶 指控   公會 4 次 鑑定 確認 鄰損   建商 依法 賠償 修繕 費及 法定 4 成 加成 費用 224 萬   近日 卻 反 被 建商 提告 不當 得利     鄰損 住戶 代表 楊 質疑     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   由 法律 來 去 判說 這個 合意 書無效   這個 鑑定 無效   而是 取得 使用 執照 之 後   反告 我 這 12 位 房屋 所有 權人       住戶 代表 楊 說   此案 因為 建商 被 市府 列管   建商 解除 列管 拿到 建照 後 就 不 認帳   反告 他們 不當 得利   使得 鄰近 10 戶   12 名 房屋 所有 權人 都 被告   不能 接受 當初 協調 找 公正 單位 鑑定   建商 卻 不認   還找 來 不是 雙方 都 同意 單位 檢驗     民進 黨 高雄市 議員 鄭光峰 說 道     創下 台灣 建 商史 上 第一 個   跟 人家 鄰損 之後又告 人家       對此 建商 不 受訪   只 透過 文字 聲明 表示   建案 地下室 開挖 3 年 多   不會 因地質 問題 損害 鄰房   而且 經過 台灣 省 土木 技師 公會 鑑定 沒 鄰損 事情   鄰房 很多 是 屋齡 要 40 年 老 公寓   違法 增建 防火巷   卻 仍然 企圖 向 本 公司 要求 高額 賠償   本案 進入 司法   等待 判決   強調 損害 公司 名譽   會 依法 捍衛 權益  </t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 環境部   國科會 發布 全球 暖化 若 未來 無法 有效 控制 增溫   台灣 夏天 可能 長 達 7 個 月   海平面 上升 會 造成 海岸 溢淹 面積 增加   其中 以 雲林 溢淹 面積 增加 最顯 著   對 此雲縣 府 水利 處 表示   除了 暖化 影響   地層下陷 也 是 影響 主因   目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫   雲林 縣 最大 箔子 寮 漁港   去   2023   年 8 月 發生 嚴重 海水倒灌   整座 漁港 幾乎 都 被淹 沒   甚至 危及 近鄰 村落   根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重   雲林 縣 水利 處長 許 宏博 提及   「 以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 的 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林 縣 必須 去 克服   」 雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林 縣面 對 最大 危機 是 地層下陷   1 年 在 內陸 地區 有 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 也 提出 因應   許 宏博 說明   「 較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 內 陸裡面   都 擋 在 防潮 牆 之外   」 水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會 勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
+          <t xml:space="preserve">根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重     雲林縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服       雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應     許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外       水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重     雲林 縣 水利 處長 許 宏博 提及   「 以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 的 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林 縣 必須 去 克服   」   雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林 縣面 對 最大 危機 是 地層下陷   1 年 在 內陸 地區 有 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 也 提出 因應     許 宏博 說明   「 較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 內 陸裡面   都 擋 在 防潮 牆 之外   」   水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會 勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
+          <t xml:space="preserve">根據 環境部   國科會 發布 全球 暖化 若 未來 無法 有效 控制 增溫   台灣 夏天 可能 長 達 7 個 月   海平面 上升 會 造成 海岸 溢淹 面積 增加   其中 以 雲林 溢淹 面積 增加 最顯 著   對 此雲縣 府 水利 處 表示   除了 暖化 影響   地層下陷 是 影響 主因   目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫   雲林縣 最大 箔子 寮 漁港   去   2023   年 8 月 發生 嚴重 海水倒灌   整座 漁港 幾乎 都 被淹 沒   甚至 危及 近鄰 村落   根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重   雲林縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服     雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應   許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外     水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候 變遷 辦 公室 評估   曼谷 在 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為 「 海底 之 城 」   泰國 官方 為此 考慮 遷 都   不過 目前 仍處 於 假 設階段     根據 新加坡 的   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 在 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 的 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   有 專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢   「 全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 的 趨勢   曼谷 大概 會 被淹 沒 」   他 也 透露   關於 首都 曼谷 面臨 的 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 的 低 地國 荷蘭   藉由 興建 堤防 的 方式 來 防堵 海水倒灌   同時 當局 也 有將 「 遷 都 」 納入 計畫 之中     這並 非泰國 首次 提出 遷 都   前首相 帕拉 育 在位 時   也 曾 提出 同樣 的 建議   2019 年時   這位 前 總理 在 「 泰國 與 世界 相連大會 」   Connecting   Thailand   with   the   World   Conference   拋出 遷 都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 和 人口 過度 稠密 問題     針對 遷 都 議題   帕維奇 也 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 在 初期   假設 階段   除了 泰國 打算 遷 都   目前 東南亞 有 計劃 遷 都 的 國家 就 有 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 的 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   也 因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 及 地層下陷 等 危機   預計 在 今年 正式 「 遷 都 」 至婆羅洲島 的 東 加里曼丹 省   East   Kalimantan     新 首都 名為 「 努山 塔拉 」   Nusantara     在 印尼 語中 有 「 群島 」 之意   不過 高達 350 億 美元 的 遷 都 計畫 也 備受 爭議  </t>
+          <t xml:space="preserve">[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  </t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>印尼 打算 遷移 首都   因為 目前 首都 雅加 達   問題 一籮 筐   除了 人口 過度 密集   引發   城市 汙染   之外   當地 還是   全球   地層下陷 最快   都市   當局 計畫   兩年 就要 新 首都   努山 塔拉   蓋好 機場   各項 新建 設   讓 不少台 廠 嗅到 商機   來 看到 鏡新聞 記者 從 印尼 帶來 第一手 觀察       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   reurl . cc kqyqML   鏡新聞 APP   Android 👉 https   reurl . cc Ay2y63   有話 鏡來講 YT 👉 https   reurl . cc A4DjQj   少年 新聞 週記 YT 👉 https   reurl . cc K4DeN9</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">科技 大亨 馬 斯克   Elon   Musk   今天   5 19   抵達 印尼 峇里島   將與 印尼 總統 佐科威   Joko   Widodo   一起 參加 星鏈   Starlink   網路 服務 啟用   印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   政府 希望 星鏈 能夠 提高 各島嶼 網路 普及 度   這是 印尼 一個 月 迎接 第 3 名 科技 企業 執行長   此前 蘋果   微軟 執行長 都 已來訪     綜合 路透社 與 美聯社 報導   太空 科技 公司 SpaceX 執行長 馬 斯克 今天 搭乘 私人 飛機 抵達 印尼 峇里島 機場   印尼 首席 投資部長 盧胡特   Luhut   Binsar   Pandjaitan   機場 迎接   預計 兩人 將會 討論 一些 重要 合作   包含 星鏈 服務 啟動   馬 斯克 還會 簽署 一項 協助 印尼 加強 衛生 與 教育 單位 聯絡 互通 合約     盧胡特 表示   馬 斯克 今天 稍晚 將和 印尼 總統 佐科威 一起 峇里島 首府 登巴薩   Denpasar   社區 衛生 中心 一起 啟動 星鏈   盧胡特 說   衛生 機構 啟動 這項 服務   呼應 星鏈   提供 平價 高速 網路   宗旨   尤其 是 網路 收訊 不佳 或過 於 偏遠 地區     印尼 是 個 群島 國家   約 1.7 萬座 島嶼   橫跨 3 個 時區   人口 超過 2.7 億   盧胡特 說   印尼 偏鄉 需要 星鏈 來 拓展 高速 網路   尤其 是 要 用 來 解決 衛生   教育 海事 單位 問題     印尼 通訊 部長 布迪   Budi   Arie   Setiadi   上週 表示   星鏈 已經 獲得 印尼 營運許 可   布迪 強調   星鏈 低 軌衛星 可以 讓 網路 擴及 目前 印尼 通訊 商無法 到 達 地區     據報   位 於 印尼 婆羅洲   Borneo   新 首都 努山 塔拉   Nusantara   本月 將先 試用 星鏈   8 月 正式 上線   印尼 正準備 遷都 努山 塔拉   因為 受 海平面 上升 與 地層下陷 影響   預計 目前 首都 雅加 達 大部分 地區將 2050 年 被淹 沒     印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   馬 來 西亞 去年 已核 發許 可證 給營 運星鏈 SpaceX 公司   菲律賓 一家 公司 則是 2022 年 與 SpaceX 簽約 合作     馬 斯克訪 印尼 前   蘋果 公司 執行長 庫克   Tim   Cook   4 月 17 與 印尼 總統佐科 威會面   並 表示 會將 印尼 產能 納入 考慮   兩周 後   微軟 執行長 納 德拉   Satya   Nadella   同月 30 日訪 印尼   承諾 未來 4 年 印尼 投資 17 億 美元   強化 印尼 新雲端 運算 與 人工智慧 基礎 設施     馬 斯克 此次 訪 峇里島   將參加 第十 屆 世界 水論壇   World   Water   Forum     研討 全球 水資源 衛生 挑戰  </t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[ 周刊 王 CTWANT ]   花蓮市 名店   歪 歪歪 甜點     南京 街 店面 竟 被後方 建案   廣朋   建設 公司 以修繕 名義 直接 將廁 所 拆除   業者 忍無可忍 報警 處理   而廣朋 於 建設 新大樓 過程 當中 造成 鄰損 不 只 這一樁   一名 A 房屋 剛好位 基地 旁邊   房屋 早已 因 地層下陷 而 硬生生 斷成 兩截   而廣朋 不但 試圖將 相關 損害 歸咎 於 地震   且 只 買 了 一個 大 水桶 讓 住 戶接 漏水   讓 住戶 完全 無法 接受     A 帶著 本刊 記者 實際 走 進屋   儘 管 該 棟 房屋 為 老舊 3 層 透天   但 屋內 深度 相當 深   穿越 車庫 進入 客廳 後 可以 明顯 感覺 地層 已 下陷   腳下 磁磚 碎裂   屋主 已 鋪 上 軟 墊   避免 踩 上面 時 受傷     A 拿出 一顆 乒乓球 放在 地面 測試 屋內 地板 磁磚 水平   且 明顯 看見 本該 靜止 乒乓球 滾動   證明 地面 出現 傾斜   A 憤怒 表示     這些 損害 早 0403 大 地震 前 就 已經 發生   廣朋還 試圖 想要 將責任 全部 歸咎 地震 上       A 帶著 記者 穿越 客廳 進入 一樓後方 臥室   不但 明顯 感受 到 地面 傾斜   地上 更裂 出 一條 又 深 又 長 裂縫   一路 到 房屋 正後方   而後方 因 房屋 管線 受損 嚴重 已 無電力 照明   A 隨手 拿 起 一條 目測 至少 約 1 公尺 長 木棍   直接 插 進裂 開 縫 中   他 裂縫 中 攪動 木棍 表示     這裂 縫 寬度 至少 約 5 公分   而 這根 木棍 甚至 還沒 到底   跟 我 說 這叫 地震 造成       走上 2 樓   由 於 房屋 後 半段 傾斜   門框 早已 變形 無法 關上   管線 被 嚴重 破壞   不但 沒有 電力 照明   水還 從 四面八方 滴滴答答 滲出   A 說   這樣 到底 要 怎麼 住   而 廣朋所 事 就是   買 了 一個 大 水桶 要 我們 接 漏水       當地 主商里 里 長 廖大慶 5 月 22 日 帶 著 縣府 與 市公所 人員 前往 工地 會勘   廖大慶 比著 工地 一旁 柏油路 上 明顯 裂痕 與 民宅 地板 明顯 落差 表示     這 不是 地層下陷 是 什麼     廣朋 李姓 協理則 表示   柏油路 裂痕 已有 補過   但 主要 應是 3   40 噸 重機具 每天 這裡 進出 所導致   里長 吐 槽 表示     不要 跟 我 說 是 重機具   那為 什麼 只有 工地 這 一段 出現 裂痕 下陷   工地 前 後 柏油路 都 沒 裂開     場面 一度 相當 火爆     22 日 會勘 住 戶 對 建商 一片 罵聲 中 暫時 落幕   花蓮縣 議員 吳東 昇 居中 協調   廣朋 初步 承諾會 先將 裂開 下陷 馬 路 進行 修繕   以維護 公共安全   至於 與 住 戶 所 造成 鄰損 等 狀況   雙方遲 遲無法 達 成共識   因此 相關 損害 修 復 恐怕 還有 得 吵     廣朋總 公司 位 於 台北 市長 安東路   其 於 104 上 敘述 自稱 成立 20 年來 擁有 專業 建築 團隊   除 專注 北市 市中心 精華區 興建 精 緻 住宅   同時 將建築 領域 開發 至 花蓮市   台南 與 高雄   同時 更是 ViVi   PARK 停車 品牌 經營者     但 廣朋在 2017 年 時 與 台灣 知名 視障 慢跑 者     台灣 阿甘   之稱 張文彥 發生 租屋 糾紛   張文彥 向 廣朋租 店面 開設 視障 健康 按摩 養生會館   但 廣朋 卻 將停 車場 以金 店面 名義 承租 給張 文彥   並 要求 提前 解約   甚至 將 店面 大門 以鐵片 封死   搬 2 塊 巨石 擋住 大門   被 批 手段 惡劣   而前 台北市 議員 黃 向 羣 曾 被 周刊 踢 爆   其為 北捷 萬大線   捷七聯 開案   地主 拒絕 加入 聯合 開發 一事   以 優先 投資權   開發 獲利 超過 13 億元 吸引 地主 找廣朋 合作   以此 收取 6500 萬元 顧 問費   造成 地主 200 坪 土地 被 納入 聯開   市價 5 億 多元 土地 僅能 拿 回 1 億餘元     對此   本刊 兩度致 電向位 北市 廣朋總 公司 詢問   該 公司 接線 人員 表示 對 此事 不 了解   並說 公司 沒 有人 可 代表 對外 說明   就 將電話 掛斷   不再 回應  </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">江慶賢 指出   近一個 月 立信 街   信街   自強 街 附近 住戶   不斷 反映 水壓 不足   很多 里民因 為 抽 不到 水   馬 達 都 燒壞 了   他 向 自來 水 公司 反映   水 公司 一開始 堅持 水壓 供水 都 正常   最後才 說 水管 破裂   今天 要來 修理     今   5   日 早上 江慶賢還 沒 等到 水 公司 工程 人員   就 接到 里民通報   指立 中 六街 出現 天坑   他 跑 到 現場   見 到 一部 工程 車右後輪 將馬路 壓出 一個 洞   怪手 正在 協助 工程 車脫 困   幸好 沒人 傷亡   但馬路 破洞 裡的 水源 源不斷 湧出   地層下陷 情形 似乎 很 嚴重   他將 要求 自來 水 公司 全力 補救     自來 水 公司 回應 表示   一開始 以 為 只是 漏水   後 來 才 發現 立中 六街 下方 還有 一處 直徑 10 公分 自來 水管 線 破裂   當下 已 立即 派遣 工班 到場 處理   針對 住戶 抽水 馬 達 燒壞   將會 研議 是否 進行 相關 賠償  </t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台灣 西南 沿海 地區 為候 鳥 主要 度冬棲息 地   為 了 守護 於 此 休憩 黑面 琵鷺   水鳥 與 候鳥   台灣 環境 資訊 協會   簡稱 環資   嘉時 航運 股份 有限公司   簡稱 嘉時 航運   攜手 合作 生態 工作 假期   於 5 月 27 日至 嘉義 布袋 濕地   執行 棲地 植樹 活動   讓候 鳥 過境 休憩 時   樹林 保護下 安心 成長   更 期盼 長 期 努力 下   成為 全球 生物 多樣 性 後 盾     嘉義 布袋 擁有 廣闊 濕地 多樣 鳥類 棲息 地   以豐富 生態 資源 特色 環境 聞名   這裡 每年 冬季 都 會 迎來 一批 特別 客人   是 全球 關注 物種 — — 黑面 琵鷺   從 1989 年 全球 紀錄 288 隻   到 2024 年 共 6988 隻   數量 變化 一直 受到 國際 鳥類 保護 組織 密切 追 蹤     天氣剛 好 遇到 5 月 梅雨季   各地 受 鋒面 與 氣流 影響   很 幸運 受到 天公 伯伯 賞臉   讓 雲層 遮住 炙熱 太陽   陰涼 天氣 下 順利 進行     志工 雙手 從 平常 使用 電腦 與 滑鼠   換成 圓鍬 鏟子   互相 協助 挖出 半 公尺 深 與 寬 土穴   倒入 蚵 殼 抵擋 鹽氣   細心 覆土種 下 適合 濱 海生 長 木麻黃   黃 槿 大葉欖仁 樹苗   總共種 下 40 棵 樹   廣闊 環境 中 工作   志工 臉 因 挖掘 動作 變得 通紅   休補充 水分 時   抬頭望 就 能 看 見 波光粼粼 濕地 中   鳥類 生活 覓食 畫面   相信 大家 不僅 是 為 黑面 琵鷺 保護 出力   更是 為 全球 生物 多樣 性 維護 做出 貢獻     本次 環資 活動 總籌乙雯 說     相信 經過 今天 棲地 行動   我們 都 更 貼 近 腳下 這片 土地   了解 生態 保育 重要性       嘉義 擁有 著 美好 生態 棲地外   面臨 著 多重 環境 挑戰   工作 完成 後   志工 搭 上 遊覽車 移動 前往 白水 湖壽島   走訪 2020 年   消失 情人 節   電影 壯闊 海景 美麗夕陽 背 後   沒有 說 出 國土 消失   地層下陷   影響 生態 系統 健康 現況     嘉義 因優越 水質 地勢 條件   使養 蚵 產業 蓬勃 發展   外海 密密麻麻 竹棚   近岸 漂浮 白色 保麗龍   垂 吊式 養殖 道路 上 暫放 成山 蚵 殼   從 眼前 景色 就 能 了解 牡蠣 不同 養殖 方式   志工 走 隔 開陸 地 與 海 堤防 上   右手 邊是 海   左手 邊是 滯洪池   蔡 福昌 老師 說     現在 大家 腳下 堤防 近幾年 修建 加高   如果 不 這麼   陸 地上 坐路 掌潭村 就 會 淹 沒 危險     吹 著涼爽 海風   遠方 風力 發電機 運轉 著   退潮 時 沿著 海水 與 紅磚 被 海 水淹 沒 痕跡   水泥 路上 長 滿蘚類   可以 走向 外 海沙 島的 方向   感受 濱海 滄桑 與 失落     志工文 函用 望眼 鏡發現 高蹺 鴴   又名 長 腳 鷸 身影   一雙長 紅腿 淺水 地上 行走   欣賞 之餘 用 手機 連接 著望 遠鏡 鏡頭   拍下 它們 拍 翅 美姿     來 到 嘉義 不 只有 食 蚵   嘉時 航運 志工 不僅付 諸行動   守護 遠道 來 台 黑面 琵鷺 與候 鳥棲地   還相約 下次 再 到 布袋 濕地   樹下 乘涼   欣賞候 鳥 安心 棲息 美好 畫面   成為 生物 多樣 性守護者  </t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">此外   住 戶質 疑公會 鑑定 專業   表示 重災戶 房子 傾斜 倒塌   不 就是 基泰 跟 技師 做出 來   安全 無虞證 明書     才 引起 這場 重大 公安   住戶 質疑現 鑑定   結構 安全     誰 能 保證 是 真的 安全     陳 怡君 提到   住戶 表示   對 於 下陷 地層   家中 磁磚 脫落   地 磚裂 掉   門窗 鐵門壞 掉   家中 漏水 水管 破裂   天花板 掉落 等   賠償 1.2 倍 相當 沒誠意   除了 財產 損失   多處 損鄰 造成 生活 不便   家中 隨時 磁磚 脫落 精神 折磨   還有 地震 來時 不安   這些 精神 賠償     陳 怡君 說   這是 損鄰戶 第一次 公部門 主導 下 所 召開 調解會議   基泰 應正視 損鄰戶 心聲   針對 賠償 金額   陳 怡 君主 張應 提高 為 1.5 倍   或主動 至 損鄰戶 家中 估價除 結構 之外 損失   增列 至 賠償 金額 中   才 是 該 賠償 氣度     對此   據   自由 時報   報導   台北市 建管處 表示   為 促進 基泰 與 受 損戶 協調 和解 效率   都 發局 主動 本月 6 日 於 大直 國小辦 理代為 協調 會議   針對 會議 中受 損戶 提出 修繕 賠償 金額 不足 等 訴求   已 請 基泰 建設 收集 受 損戶 所 提相 關意 見後並 妥為 處理   促進 建損 雙方 和解 進度  </t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">原來 同一 個 新能源 市場   同時 這麼 多 幫人 市場 上 探索   開發     圖片 來源 ／ Pixabay  </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">記者 林意筑 ／ 台中 報導   台中港 西碼頭 附近   今   11   日 上午 一度 傳出 碼頭 破堤 消息   透過 現場 畫面 可見   一部 重型 機具 因 不明 原因 深陷 海砂 中   一旁 海水 幾乎 快 淹過   引發民眾 恐慌   不過 稍早 警方 緊急 澄清   由 於 該 起 工程 作業 本身 就 海平面 以下   因此 下 挖 管線 時   因 海水 壓力 導致 機具 下沉   並非 地層下陷 引起 海水倒灌     據悉   台中港 西碼頭 中油 區 近日 正在 進行 建造 冷凝 設備 工程 作業   但 今日 上午 一度 傳出   大型 機具 因 不明 原因 深陷 海砂 中   造成 恐慌     對此   台中港 務西 碼頭 中隊 長 賴逸丰 表示   由 於 該 起 工程 作業   挖 埋 管線   部分 本身 就 海平面 以下   而 下 挖 管線 時 因 海水 壓力 差而導致 機具 下沉   並非 地層下陷 引起 海水倒灌   預計 今日 下午 抽完 海水 後 即可 繼續 作業   現場 無人員 受傷   無 相關 設備 建物 損壞  </t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">近期 能源 公司 元長 鄉 瓦 磘 村 建 設 太 陽 光 電 場   卻 場址 設 村莊 中心   讓 當地 居民 人心惶惶   今 ( 11 ) 日 瓦 磘 反光 電 自救 會 前往 雲林縣 議會   向 縣長 張麗善 遞交陳情 書   盼光 電廠 商 另 尋他 地   不要 將光 電場 設置 於 瓦 磘 村 中   張麗善 除 親手 接下 陳 情書   表示 會 站 鄉親 立場   保護 大家 居住 環境   呼籲台 電應 考量 民眾 意見 本權責 妥處     張麗善 表示   地方 政府 跟 中央政府 都 各自 權責   公務人員 需要 配合 行政 程序   目前 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 土地   已經 被 中央 核定 為 合法 種電 範圍     張麗善 再次 強調   三不三要     不 希望 農地 一直 種電   破壞 農地 未來 發展 跟 價值   認為 光電業者 聚落 裡 種電   已影響 鄉親 生活 起居 跟 品質   能 感同身受 鄉親 不安 焦慮   會 透過 各種 協調 溝通   保障 地 鄉親 權益     建設 處長 李俊 興 表示   本案 屬於鄉 村區 乙種 建築 用地   業者 依法 向 縣府 提出 申請   公部門 亦 依法行政 核發 同意 文件   去年 9 月 接 獲民眾 陳 情 後   立即 協調 業者 應 與 當地 居民 持續 溝通   業者 表示同意 先行 暫停 施工  </t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">陳 安邦 等 表示   種電 可以 村外   村內 緊鄰 民宅   不要 說 危害   打 開家門   窗戶 看到 就是 太陽 能板   叫 8   90 歲 老人 情 何以堪   尤其 庄內 種電 作為   請問 哪個 村 可以 接受   所以 村民 大團 結堅 決展 現反 對 到底 決心   任何 回饋 都 不用 說   打死 都 反 對 庄內 種電   任何 法律 問題 他 一個 人承擔   甚至 為 了 爭取 縣長 張麗善 村民 主持公道   特別 今天 前來 向 張縣 長 陳 情   唯一 要求 光場 業者 退出 瓦 磘 村     縣長 張麗善 接下 陳 情書 後 指出   地方 政府 跟 中央政府 都 各自 權責   公務人員 需要 配合 行政 程序   目前 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 土地   已經 被 中央 核定 為 合法 種電 範圍   為 了 保護 我們 農地   特別 提出 三不三要   就是 不 希望 農地 上面 一直 種電   破壞 農地 未來 發展 跟 價值   光電業者 聚落 裡面 種電   已經 影響 鄉親 生活 起居 跟 品質   大家 不安 焦慮 我們 都 能 感同身受   縣府 透過 各種 協調 溝通   希望 能 保障 地 鄉親 權益  </t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">張信 哲杜拜 站 演唱 會 原定 2 月 登場   後 來 撞 上 極端 氣候 出現 冰雹   淹水 災害   因而 延期 至 端午 假期 6 月 9 日舉行   他 笑 說     很 開心   差點 變成 不是 第一 個     透露 目前 已經 很多 歌手   陸續 安排 開唱 計畫   原本 很 擔心 阿拉伯 國家 演出 會 很多 限制   像是 有些 景點 不能 比 出 特定 手勢   演唱 會太過 喧鬧   後 來 才 發現 他們 對 外國人 很 禮遇   很 支持 娛樂 活動     第一次 得知 邀請 時   張信哲 心想     真的假 啦   有人 要 聽     過往 都 只有 杜拜 轉機 經驗   從 未 入境 過旅遊 他 說     他們 來 邀 請 時 就 說   以中 東來 說 這邊 是 華人 最 多 地方   30 萬人     杜拜位 處國際 航班 交通 樞紐   因此 有來 自 歐洲   俄羅斯 華人 歌迷   特地 飛來 欣賞 演唱 會   因為 天災 延期 開唱   歌迷 們 沒 太 多 抱怨 問題   把 票 留著 就 為 了 等到 正式 演出 這 一天 朝聖     首次 前進 沙漠 開唱   張信哲 歌喉 完全 沒有 受 影響     還好   場館 冷氣 很足   我 提前 4 天來   杜拜   調時 差     本來 就 沒 計畫 要 衝場 次 演出   1 週 1 場已 是 最大 限度     未來式   巡演 開唱 6 年   亞洲 站 預計 至 2024 年底 結束   前進 海外 開唱   他 最 想 攻 佔 場館 是 英國倫敦 皇家 阿爾伯特 音樂廳   Royal   Albert   Hall       張信 哲新 專輯 已經 籌備 中   下半年 會釋 出 更 多 新歌   台北 小 巨蛋   高雄 巨蛋 演唱 會   則要 排到 2025 年 才能 開唱     第一 個 要 搶 時間   現在 場館 太難 搶 了     記者 提議 大 巨蛋 開唱   張信哲 卻 謙虛回     大 巨蛋 周董   周杰倫   都 還排 不到   哪 還輪 到 我   等 別人 有空 給我用   我 再 用 就 好       歌神 張學友 因為 身體 不適   日前 取消 台北 站 演唱 會   張信哲 關注 此事     好 害怕   我 吃 增強 免疫力 的藥   醫生開     即將 前進 海拔 2000 多 公尺 青海 西寧站 開唱   張信哲 提到   前輩   薛之謙唱 到 吸氧 氣   私下 還嚇 他     一定 不要 亂動   不要 突然 爆衝    </t>
         </is>
       </c>
     </row>

--- a/repo/word_fragments.xlsx
+++ b/repo/word_fragments.xlsx
@@ -441,1295 +441,1295 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 和平東路 三段 一處 工地 旁 道路   凌晨 驚傳 地層下陷   連上頭 停放 轎車   跟 著下 墜   卡 1.5 公尺 深 大洞 裡   還壓 迫到 自來 水管 線   導致 破裂 流出 大灘 積水   居民 聽到 巨響   趕緊 報案 處理   透露 昨   4   天 下午 路面 就 出 現裂 縫   當時 建管處 會勘   把 原因 歸咎 於 地震   但 他們 無法 接受   質疑 是 工地 施工 導致   工地 圍牆 外 一大 塊 路面 下陷 坍塌   上頭 停放 轎車 跟 著 地層 向下 墜 受困   一旁 管線 流出 積水 逐漸 淹進 車頭   就 怕 轎車 泡水 拋錨   警方 請來 吊車 協助 車輛 脫困   但 一移 開 景象 更 驚人   道路 側邊 就 像 破 了 大洞   凹陷 1.5 公尺 坑洞   面積 30 平方公尺   4 日 下午 北市 和平東路 三段 這處 工地 外 道路 開始 出現 裂縫   建管處 與 工地 人員前 來 會勘   歸咎 於 3 日 地牛翻身   還貼 出 警示牌 提醒 民眾   沒 想到 5 日 凌晨 地層 整個 塌陷   不過 這 答案 附近 居民 無法 接受   有人 說 地震 前 就 已經 看到 裂縫   但剛 好 遇上 地震   相關 單位 就 把 責任 推給 地震   還有 住民 透露   這處 工程 打 地基 時   自己 家中 就 曾 感覺 到 震動   就 像 地震 一樣   質疑 根本 是 施工 問題 釀成 地層下陷   居民 滿腔 怒火 恐怕 是 建管處 修補 道路 外   下個 得 要面 對 難題  </t>
+          <t>台北市 平東路 三段 一處 工地 旁 道路 凌晨 驚傳 地層下陷 連 上頭 停放 轎車 跟著 下墜 卡 1.5 深 大洞 裡還 壓迫 到 自來 水管 線導致 破裂 流出 大灘 積水 居民 聽到 巨響 趕緊 報案 處理 透露 昨 4 天 下午 路面 就 出 現裂 縫 當時 建管處 會勘 把 原因 歸咎 於 地震 但 他們 無法 接受 質疑 工地 施工 導致 工地 圍牆 外 一大 塊 路面 下陷 坍塌 上頭 停放 轎車 跟著 地層 向下 墜 受困 一旁 管線 流出 積水 逐漸 淹進 車頭 就 怕 轎車 泡水 拋錨 警方 請來 吊車 協助 車輛 脫困 但 一 移開 景象 更 驚人 道路 側邊 就 像 破 了 大洞 凹陷 1.5 坑洞 面積 30 平方 4 日 下午 北市 平東路 三段 這處 工地 外 道路 開始 出現 裂縫 建管處 與 工地人員 前來 會勘 歸咎 於 3 日 地牛翻身 還貼 出 警示牌 提醒 民眾 沒 想到 5 日 凌晨 地層 整個 塌陷 不過 這 答案 附近 居民 無法 接受 人 說 地震 前 就 已經 看到 裂縫 但 剛好 遇上 地震 相關 單位 就 把 責任 推給 地震 還 住民 透露 這處 工程 打 地基 時 自己 家中 就 曾 感覺 到 震動 就 像 地震 一樣 質疑 根本 施工 問題 釀成 地層下陷 居民 滿腔 怒火 恐怕 建管處 修補 道路 外下個 得 要 面對 難題</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 推 再生能源 政策   近期 位 雲林 口湖 雲 147 線 道路 兩 側 椬 梧 農 場   長 期 地層下陷   土壤 鹽化   經 台糖 辦理 土地 使用 分區 變更   將設 置 太陽能 光電 設施   但當 地民眾 不滿 因為 開發 需要 大量 砍樹 種電   喊著 抗議 口號   反對 砍 樹 種電   位 雲林 口湖 鄉 雲 147 線 道路 兩側 是 台糖公司 椬 梧 農 場   但 這區 土地 因為 長 期 地層下陷   土壤 鹽化 不適 耕作   過去 是 配合 林務局 造林   但 近期 將 配合 中央 政策 推動 種電   讓 當地民眾 相當 不滿   反對 宜梧 變電所 自救 會 副 會長 李豐良 指出     旁邊 北堤 65 公頃 造林 區   南堤 65 公頃 造林 區   竟然 租給 私人 公司   配合 台糖 租給 私人 公司   私人 公司 才 跟 台糖 說 要 蓋 太陽能     雲縣 府 建設 處 處長 李俊 興回 應     他們 都 報給 農委會   因為 這是 申請 農業 用地   變更 做太陽能 光電廠   他們 都 經過 農業 單位   能源 單位 專業 審查   最後的 通過 才 今天 這案場 開發     當地 村民 表示   這次 規劃 開發 太陽光 電設 施場域   鄰 近 椬 梧 滯 洪 池   未來 若 周邊 設滿 太陽能 光電板 恐對 觀光 發展 影響   另外 針對 台電所 規劃 宜梧 變電所設 用地   過去 曾 被 傾倒 廢棄物 有所 疑慮   反對 宜梧 變電所 自救 會 副 會長 李豐良 表示     以前 被 盜 賣 土方   就 堆放 一些 廢棄物   怕 工業 廢水   我們 現在 是 憂慮   如果 是 蓋 變電所 後   是不是 以 後 口湖   水林   北港 大部分 都 會 用 地下水     台電輸供 電事業 部經理 黃 育新 回應     配合 縣 政府 環保局 來 辦理後續 調查 跟 釐 清   那環 保局 有擇定 開 挖 時間 我們 就 會 來 配合 辦理     台電 表示   宜梧 變電所 規劃 用地   都 是 依據 政府 採購 法及 相關 規定 取得   若當 地民眾 有所 疑慮   都 會 配合 環保 單位 調查   會會同 地方 民眾 參 與   希望 未來 變電所 成立 後   搭配 儲能 設備 提高 當地 用電 穩定度  </t>
+          <t>為 推 再 能源 政策 近期 位 雲林 口湖 雲 147 線 道路 兩 側 椬 梧 農場 長 期 地層下陷 土壤 鹽化經 台糖 辦理 土地 使用 分區 變更 將設 置 太陽能 光電 設施 但 當地民眾 不滿 因為 開發 需要 大量 砍樹 種電 喊著 抗議 口號 反 對 砍 樹 種電 位 雲林 口湖鄉 雲 147 線 道路 兩側 台糖 司 椬 梧 農場 但 這區 土地 因為 長 期 地層下陷 土壤 鹽化 不適 耕作 過去 配合 林務局 造林 但 近期 將 配合 中央 政策 推動 種電 讓 當地民眾 相當 不滿 反對 宜梧 變電所 自救 會 副 會長 李豐良 指出 「 旁邊 北堤 65 頃 造林 區南堤 65 頃 造林 區 竟然 租給 私人 司 配合 台糖 租給 私人 司 私人 司才 跟 台糖 說 要 蓋 太陽能 」 雲縣 府 建設 處 處長 李俊 興回 應 「 他們 都 報給 農委會 因為 這申 請 農業 用地 變更 太陽能 光電廠 他們 都 經過 農業 單位 能源 單位 專業 審查 最後通過 才 今天 這案場 開發 」 當地 村民 表示 這次 規劃 開發 太陽光 電設 施場域 鄰 近 椬 梧 滯 洪 池 未 來 若 周 邊 設 滿 太 陽 能 光 電 板 恐 對 觀 光 發 展 響 另外 針對 台電所 規劃 宜梧 變電所設 用地 過去 曾 被 傾倒 廢棄物 所疑慮 反對 宜梧 變電所 自救 會 副 會長 李豐良 表示 「 以前 被 盜 賣 土方 就 堆放 一些 廢棄 物怕 工業 廢水 我們 現憂慮 如果 蓋變 電所 後 不 以後口 湖水 林 北港 大部分 都 會 用 地下水 」 台電輸供 電事業 部經理 黃 育新 回應 「 配合 縣 政府 環保局 來 辦理後續 調查 跟 釐 清環 保局 擇定 開 挖 時間 我們 就 會 來 配合 辦理 」 台電 表示 宜梧 變電所 規劃 用地 都 依據 政府 採購 法相 關規定 取得 若當 地民眾 所疑慮 都 會 配合 環保 單位 調查 會會同 地方 民眾 參 與 希望 未來 變電所 成立 後 搭配 儲能 設備 提高 當地 用電 穩定度</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">地球 南北 兩極 這兩天 都 重要 科學 發現 發表 媒體 上   其中 北極 方面   科學家 發現 加拿大 北邊 海底 出現 地層下陷   最大 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 南極 大陸 東邊   3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 144 平方公里 冰架 崩解   相當 於 半個 台北市 大小   科學家 藉 著美國 太空 總署 NASA 衛星   拍 攝到 南極 大陸 東邊   格連澤 冰河     瀕臨 南 印度洋 冰架   2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 過去數 十年 來   冰架 崩解 現象   絕 大多 數出現 西邊 南極 半島   就是 與 南美洲 阿根廷 遙遙 相望 所在   而且 過去 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 冰雪 增厚   對 全球 海平面 衝擊 有限   從 2020 年 開始 南極 東邊 冰河 開始 縮小面積   但 是 以 每天 1 平方公里 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出     但 上星期 我們 發現 快速 氣候 現象   這也許 不足以 說明 事情 全貌   但 確對 冰架 造成 前 所 未 見 壓力     研究 人員 所 說 氣候 現象   是 指 發生 3 月 15 日 大氣 河流   這種 氣候 現 象是 指   高濃度 水蒸 氣沿 著 狹窄 區域 快速 前進   對 於 已經 消退 中 冰架 造成 致命 一擊   而大面積 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域   發現 大面積 地層下陷   最大 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 地下水 緩慢 流動   是 北極海 地層下陷 原因  </t>
+          <t>地球 南北 兩極 這兩天 都 重要 科學 發現 發表媒體 上 其中 北極 方面 科學家 發現 加拿大 北邊 海底 出現 地層下陷 最大 坑洞 長 200 寬 74 深度 達 24 而南極 方面 向 來 被 認為 氣溫 較 低 冰層 較 穩 定南 極大陸 東邊 3 月初 到 3 月 中發 冰河 快速 消退 導致 面積 144 平方里 冰架 崩解 相當 於 半個 台北市 大小 科學家 藉 著美國 太空 總署 NASA 衛星 拍 到 南極 大陸 東邊 「 格連澤 冰河 」 瀕臨 南 印度洋 冰架 2 月底 還狀況 良好 但 3 月初 到 3 月 中 卻 開始 快速 消退 崩解 令科學家 相當 憂心 南極過 去數 十年 來 冰架 崩解 現象絕 大多 數出 現西邊 南極 半島 就 與 南美洲 阿根廷 遙遙 相望 所 而且 過去 冰架 崩解 面積 與 規模 相 對 較 小同 時當 南半球 冬季 來 臨南極 冰雪 增厚 對 全球 海平面 衝擊限 從 2020 年 開始 南極 東邊 冰河 開始 縮小面積 但 以 每天 1 平方里 速度 減少 被 認為 自然 現象 直到 3 月初 情況 開始 了 改變 美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示 過去 發算 相當 緩慢 變化 原因 包括 海洋 暖化 與 冰 河流 動凱瑟琳 沃克 指出 「 但 上星期 我們 發現 快速 氣候 現象 這許 不足以 說明 事情 全貌 但確 對 冰架 造成 前 所 未見 壓力 」 研究 人員 所 說 氣候 現象 指發 3 月 15 日大氣 河流 這種 氣候 現象 指高 濃度 水蒸 氣沿 著 狹窄 區域 快速 前進 對 於 已經 消退 中 冰架 造成 致命 一擊 而 大面積 冰架 崩解 進而 消失 科學家 擔心 未來 海平面 將明顯 上升 另外 美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域 發現 大面積 地層下陷 最大 坑洞 長 約 220 寬 74 深度 達 24 研究 團隊 懷疑 除了 氣候 暖化 溫度 上升 地下水 緩慢 流動 北極海 地層下陷 原因</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">地層 嚴重 下陷 問題 不是 只有 台灣 會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 33 座 城市   以 每年 超過 一 公分 速度 下沉   是 海平面 上升 速度 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 是   連美國 南部 大城 休士頓 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 當地 設立 太空中心   但 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 地 平面   根據   世界 經濟 論壇   最近 發布 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 城市   是 西半球 唯一一 個 下沉 速度 排入 前十名 城市   美國氣 候專 家史 特勞斯 表示     雖然 土地 現在 大小 堤防 保護   但   地層下陷   仍 超乎想像     專家 表示   休士頓 下沉 速度快   海平面 上升 迅速   再 加上 氣候變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 惡化 強度 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 下沉 危機 一度 非常 嚴重   全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示     非常 重要   雅加 達 曼谷 從 東京 上海 汲取 成功 經驗     科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 模擬 畫面   都 提醒 人類 要 相信 科學   保護 自己 家園 避免 消失 刻 不容 緩  </t>
+          <t>地層 嚴重 下陷 問題 不只 台灣 會 發國外 一份 專業 調查 報告 顯示 全球 至少 33 座 城市 以 每年 超過 一分 速度 下沉 海平面 上升 速度 五倍 尤其 中國 天津 最嚴 重印 尼雅 加達 一樣 危險 令人 驚訝 連美國 南部 大城 休士 頓拉警報 專家 甚至 悲觀 預測 到 了 2100 年 休士頓 就 可能 從 地表 消失 休士頓 美國 德州 第一 大城 工商 業發達 美國 太空 總署 當地 設立 太空中心 但 能 想像 專家 已經 預測 80 年後大約 2100 年 休士 頓會 因為 地層 嚴重 下沉 整座 城市 消失 地 平面 根據 「 世界 經濟 論壇 」 最近 發布 報告 休士頓 平均 每年 以 1.95 分 速度 下沉 全球 下沉 速度 第 10 快 城市 西半球 唯一一 個 下沉 速度 排入 前十名 城市 美國氣 候專 家史 特勞斯 表示 「 雖然 土地 現 大小 堤防 保護 但 地層下陷 仍 超乎想像 」 專家 表示 休士頓 下沉 速度快 海平面 上升 迅速 再 加上 氣候變遷 因素 用科學 模型 推估 已經 無法 準確 預測 洪水 侵襲 惡化 強度 速度 呼籲 當局 必 須 儘 快 因 應 專 家 還 列 舉 全球 下沉 速度 最快 城市 中國 天津市 每年 以 5.22 分 速度 下沉 非常 驚人 印尼 雅加 達 下沉 危機 一度 非常 嚴重 全球 名列前茅 幸好 當局 嚴格 限制 抽取 地下水 地層下陷 從 每年 28 分 大幅 減少 到 3 分 印尼 學 表示 「 非常 重要 雅加 達 曼谷 從 東京 上海 汲取 成功 經驗 」 科學家 不斷 佈 全球 各 大城市 面臨 地層下陷 土地 沉沒模擬 畫面 都 提醒 人類 要 相信 科學 保護 自己 家園 避免 消失 刻不緩</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>水岸 第一排 住宅   開門   開窗 即 見 怡然 美景   住家 擁有 永久 棟 距   是 許多人 嚮 往 住居   正因 稀有性   房價 比 一般 房宅 略 高   不過   想 坐 擁 水岸 宅   購 屋前 需有 風險 意識   魔鬼 藏 細節裡   思考 後 再 出手   能 避免 踩 雷               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持</t>
+          <t>水岸 第一排 住宅 開門 開窗 即 見 怡然 美景 住家 擁 永久 棟 距 許多人 嚮 往 住 居正因 稀性 房價 比 一般 房宅 略 高不過 想 坐 擁 水岸 宅購 屋前 需風險 意識 魔鬼 藏細 節裡 思考 後 再 出手 能 避免 踩 雷   登入 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 登入 讀 還不會員   馬上 註 冊 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 登入 讀 還不會員   馬上 註 冊   ｜   立即 搶購 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 支持</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>農委會 主委 陳 吉   右 3   與 立委 蘇治芬   右 2   等 人 會勘 雲林 口湖   台西 等 地 耕作 困難 地     記者 黃 淑莉攝     〔 記者黃淑莉 ／ 雲林 報導 〕 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人   到 雲林 口湖   台西 實地 勘查 多處 嚴重 地層下陷區   土地 數 10 年來 無法 耕作   養殖   陳 吉仲說   不 排除 以 專案   示範場域 方式   與 國家 綠能 政策 結合   附予 這類 土地 新價值   進而 創造 多贏     蘇治芬 指出   口湖   台西 等 沿海 地區 多 處位 處 嚴重 地層下陷區 土地   卻 具有 困難 耕作 地   養殖 專區   地層下陷區 等 多重 身分   現況 是數 10 年來 因難 耕作   地上 荒涼   地主 怨嘆 又 無奈     蘇治芬 說   若 沒 新 土地 政策 進場 協助   數 10 年後還 是 與 現況 一樣   接到 許多 農民陳情   今天 邀請 農委會 主委 現勘   盼能 盤點 政策 協助   才能 附予 土地 新價值     陳 吉仲 表示   會勘 後 會 與 相關 單位 討論 調整 相關 政策   不 影響 農漁業 生產 又 兼顧 農漁 民生 計   考慮 結合國家 綠電 發展   並以 專案 或示 範場域 方式 進行   進而 創造 農民   地方 發展   國家 重要 政策 能 發展 三贏     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
+          <t>農委會 主委 陳 吉右 3 與 立委 蘇治芬 右 2 等 人 會勘 雲林 口湖 台西 等 地 耕作 困難 地黃淑莉 〔 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人 到 雲林 口湖 台西 實地 勘查 多處 嚴重 地層下陷區 土地 數 10 年來 無法 耕作 養殖 陳 吉仲說 不 排除 以 專案 示範場域 方式 與 國家 綠能 政策 結合 附予 這類 土地 新價值 進而 創造 多贏 蘇治芬 指出 口湖 台西 等 沿海 地區 多 處位 處 嚴重 地層下陷區 土地 卻 具困難 耕作 地養殖 專區 地層下陷區 等 多重 身分 現況數 10 年來 因難 耕作 地上 荒涼 地主 怨嘆 又 無奈 蘇治芬 說 若 沒 新 土地 政策 進場 協助數 10 年後還 與 現況 一樣 接到 許多 農民陳情 今天 邀請 農委會 主委 現勘 盼 能 盤點 政策 協助 才能 附予 土地 新價值 陳 吉仲 表示 會勘 後 會 與 相關 單位 討論 調整 相關 政策 不響 農漁業產 又 兼顧 農漁民計 考慮 結合國家 綠電 發展 並以 專案 或示 範場域 方式 進行 進而 創造 農民 地方 發展 國家 重要 政策 能 發展 三贏 一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 捷運 萬大線 工程 被民眾 直擊 疑似 施工 不慎   日前 出現 自來 水管 破裂   還導致 柏油路 面 凹陷   讓 車輛 經過 像是 開在 彈簧 床上   不 只 如此   工人 甚至 被 目擊 滿 是 乙炔 鋼瓶 旁 抽 菸   遭質疑 這樣 難道 不會 對 工安 造成危害   被 指控 缺失   捷運局 表示   已經 找 自來 水 公司 協助止 漏   路面 下陷 加鋪 恢 復 正常   至於 工人 則是 休息 區抽 菸   並無 不妥   捷運 萬大線 施工 現場 滴滴答答   水流 個 不停   這 不是 天空 下雨   而是 水管 破裂   讓 工人 施工 像是 水 濂 洞 一樣   大量 自來 水不斷 流出   更 扯 是 附近 住戶 說   已經流 了 一個 禮拜 還沒 改善   更 疑似 導致 附近 路面 凹陷   車輛 經過 凹陷 路面 彈了 好 大 一下   駕駛 嚇到 急 踩 煞車   北市 捷運 萬大線 工程   有民眾 向 議員 投訴   說 恐怕 工安 問題   還有 工人 氧氣 跟 乙炔 鋼瓶 附近 大膽 抽 菸   讓民眾 看 了 好 擔心   對此 萬華區 全 德里 長 王平 三 表示     這個 地方 捷運 做到 現在   漏水   地方 下陷 地方 很多   所以 他們 很煩   但 不 至於 說 很 害怕   只是 我們 必須 要 小心 點     民眾 擔憂 破裂 水管 會導致 地層下陷   影響 住家 安全   質疑 是 捷運 施工 不慎   挖破 管線   但是 捷運局 趕緊 出面 澄清   表示 已經 找 自來 水 公司 協助止 漏   路面 凹陷 部分 重新 鋪 好   至於 工人 抽 菸 地點 是 休息 區內   符合 法規   但 未來 將劃 設明顯 休息 區   避免 民眾 質疑 工安疑慮  </t>
+          <t>台北 捷運 萬大線 工程 被民眾 直擊 疑似 施工 不慎 日前 出現 自來 水管 破裂 還導致 柏油路 面 凹陷 讓 車輛 經過 像 開彈 簧 床上 不只 如此 工人 甚至 被 目擊滿 乙炔 鋼瓶 旁 抽 菸 遭質疑 這樣 難道 不會 對 工安 造成危害 被 指控 缺失 捷運局 表示 已經 找 自來 水司 協助止 漏 路面 下陷 加鋪 恢 復 正常 至於 工人 則 休息 區抽 菸 並無 不妥 捷運 萬大線 施工 現場 滴滴答答 水流 個 不停 這不 天空 下雨 而 水管 破裂 讓 工人 施工 像 水 濂 洞 一樣 大量 自來 水不斷 流出 更 扯 附近 住戶 說 已 經流 了 一個 禮拜 還沒 改善 更 疑似 導致 附近 路面 凹陷 車輛 經過 凹陷 路面 彈了 好 大 一下 駕駛嚇 到 急 踩 煞車 北市 捷運 萬大線 工程 民眾 向 議員 投訴 說 恐怕 工安問 題還 工人 氧氣 跟 乙炔 鋼瓶 附近 大膽 抽 菸 讓 民眾 看 了 好 擔心 對 此 萬華區 全 德里 長 王平 三 表示 「 這個 地方 捷運到 現 漏水 地方 下陷 地方 很多 所以 他們 很煩 但 不 至於 說 很 害怕 只 我們 必須 要 小心 點 」 民眾 擔憂 破裂 水管 會導致 地層下陷 響 住家 安全 質疑 捷運 施工 不慎 挖破 管線 但 捷運局 趕緊 出面 澄清 表示 已經 找 自來 水司 協助止 漏 路面 凹陷 部分 重新 鋪 好 至於 工人 抽 菸 地點 休息 區 符合 法規 但 未來 將劃 設明顯 休息 區 避免 民眾 質疑 工安疑慮</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 檢測 雲林 地層下陷 數值   水利 署 去年 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   能線 上 即 時 取得 觀測 資料   對 於 下陷 數據 監測 與 分析 很大 助益   因應 雲林 地層下陷 影響   水利 署後續 規劃 將分別 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所 再 設置 地下水 觀測 站   監測 下陷 狀況 來 相關 防制   放下 感測器   測量 目前 所在地 地下水位   可以 再 透過 手機 即 時線 上 取得 觀測 資料   提供 針對 地層下陷 數據 分析 監     為 了 要 防範 地層下陷 持續 擴大   水利 署 去年 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   水利 署 副署 長 黃 宏 莆 說明     我們 這國小設 了 5 個 水位 觀測井   還有 一個 地層下陷 觀測井   可以 把 周邊 大 埤 主要 地下水 分層 水位   可以 即 時線 上 獲得 相關 資訊     立委 劉建國 指出     這對 雲林 來 說   不管 是 對 土地 面積   農地 使用 種種   還有 最 重要 是 說   我們 是 高鐵行經 主要 縣市   要 克服 很大 環境 挑戰 議題     雲林 是 全台 地層下陷 嚴 重地 區   下陷 面積 數據 時 好 時壞   對 居民 高鐵 乘客 安全 隱憂   除了 仁和 國小設 置   水利 署 將規劃 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所   再 設置 地下水 觀測 站 共 7 口井   大 埤 仁和 國小校 長 洪千惠 表示     水利 署 如果 什麼 政策 要 跟民眾 宣導   還有 一些 教育   還有 跟 小朋友 環境 教育 結合   都 可 把 它 連在 一起   變成 與 民眾 共有 這樣     校方 表示   校園 中設 地下水 觀測 站   能 讓 學童 透過 實際 觀測 環境 教育   對此 水利 署則 表示   會 配合 校方 再 相關 規劃   希望 設置 觀測井 所 得到 即 時 資訊   作為 地層下陷 相關 防制 參考  </t>
+          <t>為 檢測 雲林 地層下陷 數值 水利 署 去年 雲林 大埤鄉 仁國 小 設置 地下水 觀測 站 能線 上 即 時 取得 觀測 資料 對 於 下陷 數據 監測 與 分析 很大 助益 因應 雲林 地層下陷 響 水利 署後續 規劃 將分別 元長 國小 口湖 金湖 國小以 台 西海 園水試 所 再 設置 地下水 觀測 站 監測 下陷 狀況 來 相關 防制 放下 感測器 測量 目前 所地 地下水位 可以 再 透過 手機 即 時線 上 取得 觀測 資料 提供 針對 地層下陷 數據 分析 監為 了 要 防範 地層下陷 持續 擴大 水利 署 去年 雲林 大埤鄉 仁國 小 設置 地下水 觀測 站 水利 署 副署 長 黃 宏 莆 說明 「 我們 這國小設 了 5 個 水位 觀測井 還一個 地層下陷 觀測井 可以 把 周邊 大埤 主要 地下水 分層 水位 可以 即 時線 上 獲得 相關 資訊 」 立委 劉 建國 指出 「 這對 雲林 來 說 不管 對 土地 面積 農地 使用 種種還 最 重要 說 我們 高鐵行經 主要 縣市 要 克服 很大 環境 挑戰 議題 」 雲林 全 台 地層下陷 嚴 重地 區 下陷 面積 數據 時 好 時壞 對 居民 高鐵 乘客 安全 隱憂 除了 仁國 小 設置 水利 署將 規劃 元長 國小 口湖 金湖 國小以 台 西海 園水試 所 再 設置 地下水 觀測 站 共 7 口井 大埤 仁國小校 長 洪千惠 表示 「 水利 署 如果 什麼 政策 要 跟民眾 宣導還 一些 教育 還跟 小朋友 環境 教育 結合 都 可 把 它連 一起 變成 與 民眾 共 這樣 」 校方 表示 校園 中設 地下水 觀測 站 能 讓 學童 透過 實際 觀測 環境 教育 對此 水利 署則 表示 會 配合 校方 再 相關 規劃 希望 設置 觀測井 所 得到 即時 資訊作 為 地層下陷 相關 防制 參考</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  </t>
+          <t>〔 困擾 雲林 多年 地層下陷 解了 第四 河川 局濁 水溪林段 河槽 河床 設置 地下水 補注池 成效 卓越 今年 補注池 蓄水 面積 已 增加 至 20 頃等 於 添增 一座 隱形 湖山 水庫 源源 不斷 滲水來 補充 雲林 地下水 源 對 減緩 地層下陷 很大 助益 林鄉 所 今天 林鄉 觸口 堤防 國道 3 號 高速路 橋下 舉辦 河川 淨堤 活動 由 鄉長 張維崢 第四 河川 局長 李友 平帶 領所員 工環 保志 工淵 明國 中師 地 居民 約 200 人沿 觸口 堤防 道路 進行 清掃 清理 河堤 外 垃圾 用行 動守護 環境 張維崢 表示 林鄉位 於 濁 水溪 沖 積扇 水源 頭之頂 點得天 獨厚 天然 地理 環境 與 豐富 自然 態緊 鄰濁 水溪 河畔 水源 供 雲林縣 鄰近 縣 市民 農業 工業 用水 為 重要 水源地 李友平 表示 台灣 早年 因超 抽 地下水 導致 地層下陷 濁水溪長 186.7 里林 河段 河寬 最窄 處 造就 了 林好 水質 就 可以 從事 很多 水環境 水資源 保護 措施 經調 查林三號 水門 附近 河段 濁水溪 唯一 能 從 事 地下水 補助 河段 經由 設置 蓄水池 留住 地面水 挖掘 入 滲補 注池 以 河水 補注 地下水 可補充 最深 達 地下 400 地下水 源 再 流往 海岸 地區 能 減輕 地下水 洩降 舒緩 地層下陷 問題 李友平 表示 第一座 地下水 補助池 於 2020 年 完成 效果 非常 好 今年 擴大 辦理 蓄水池 面積 已 達 20 頃 源源 不絕 地面水 持續 往 地下 滲入 可效 減緩 地層下陷 挹注 地下水 資源 李友平 指出 去年 全國 百年 大旱 各地 都 沒水 灌溉 別縣 市 就算 地下水 井 抽 不到 水 唯一 水 就 雲林 因為 地下水 補助 所以 農民 可以 抽 得到 地下水 他強 調要 好好 保護林 水資源 因為 林水 如果 受到 污染 河川 局 不敢 讓 水 滲到 地下 因 為 髒 水下 滲就會 變成 地下水 深層 污染</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 抑制 濁水溪 揚塵   四河 局兩 年前 雲林 林內 段   多 設置 河槽 地下水 補注池   經過 兩年 地下水 補注經 監測   約 注入 1300 萬公噸 水源 入滲   今年 將再 增擴 20 公頃   當地 農民 就 說   去年 全國 百年 大旱   當地 農民持續 水源 灌溉   對此 第四 河川 局則 表示   地下水 補注池 效果 不錯   能 有效 舒緩 地層下陷 問題   雲林 林內 3 號水門 附近 濁水溪 河段   為 了 改善 揚塵   兩 年前 四河 局進行 疏濬 工程   並設 置 地下水 人工 補注池 蓄水   將 地面 河水 引進 補注 地下水   水源 最深 達到 地下 四百 公尺   希望 減緩 地層下陷   第四 河川 局 副 局長 張朝 恭 說     疏濬 部分   配合 把 引水 進來   來 一個 補注 地下水 功能     雲 科大 水土 中心 主任 溫志超 表示     這邊 8 公頃   上游 有個 28 公頃   兩個 合 併 約 35 公頃 去 操作   兩年 時間   基本上 總共 35 公頃 之下   1300 多萬公噸 水入滲 下去     雲 科大 水土 中心 表示   補注池 水源 由高處 流向 低處 補注   能 有效 減緩 地層下陷   能 使 地下水位 回升   像 去年 全國 百年 大 缺水   各地 都 沒水 可 灌溉   補注池 功效 就 明顯 可見   雲林 農民說     年尾時 沒 下雨 一定 都 會 缺水   缺水 時透過 這樣 補注   對 農民 一定 有所 幫助     雲林 農民 表示     要 用水 就 比 較 不用 擔心   就是 用排 排 得到     四河 局 表示   雲林 第一座 地下水 補注池   2020 年 完成 因為 效果 不錯   今年 將再 擴大將 蓄水池 面積 增加 20 公頃   希望 透過 地面水 補注 地下水   達到 減緩 地層下陷 情況   能 讓 農民有 足夠 水源 灌溉  </t>
+          <t>為 抑制 濁水溪 揚塵 四河 局兩 年前 雲林 林段 多 設置 河槽 地下水 補注池 經過 兩年 地下水 補注經 監測 約 注入 1300 萬噸 水源 入滲 今年 將再 增擴 20 頃當 地 農民 就 說 去年 全國 百年 大旱 當地 農民持續 水源 灌溉 對此 第四 河川 局則 表示 地下水 補注池 效果 不錯 能效 舒緩 地層下陷 問題 雲林 林 3 號水門 附近 濁水溪 河段 為 了 改善 揚塵 兩 年前 四河 局進行 疏濬 工程 並設 置 地下水 人工 補注池 蓄水 將 地面 河水 引進 補注 地下水 水源 最深 達到 地下 四百 希望 減緩 地層下陷 第四 河川 局 副 局長 張朝 恭 說 「 疏濬 部分 配合 把 引水 進來 來 一個 補注 地下水 功能 」 雲 科大 水土 中心 主任 溫志超 表示 「 這邊 8 頃 上游 個 28 頃兩個 合 併 約 35 頃去 操作 兩年 時間 基本上 總共 35 頃 之下 1300 多萬噸 水入滲 下去 」 雲 科大 水土 中心 表示 補注池 水源 由高處 流向 低處 補注 能效 減緩 地層下陷 能 使 地下水位 回升 像 去年 全國 百年 大 缺水 各地 都 沒水 可 灌溉 補注池 功效 就 明顯 可見 雲林 農民說 「 年尾時 沒 下雨 一定 都 會 缺水 缺水 時透過 這樣 補注 對 農民 一定 所幫助 」 雲林 農民 表示 「 要 用水 就 比 較 不用 擔心 就 用 排排 得到 」 四河 局 表示 雲林 第一座 地下水 補注池 2020 年 完成 因為 效果 不錯 今年 將再 擴大將 蓄水池 面積 增加 20 頃 希望 透過 地面水 補注 地下水 達到 減緩 地層下陷 情況 能 讓 農民足夠 水源 灌溉</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  </t>
+          <t>雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重 恐響 高鐵行車 安全 農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作 但 卻 從 去年 暫停 獎助 雲 縣府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水 持續 向 中央 爭取 獲得 核定 復 辦 將明 2023 年 起 恢 復 實施 節水 獎勵 措施 雲林 高鐵 沿線 地區 地層下陷 嚴重 區域 其中 雲林 土庫 段 一年 下陷 6.5 分 最嚴 重恐 危高鐵 安全 農委會 2013 年針 對雲縣 虎尾 土庫 元長 北港 高鐵 沿線 左右 1.5 里 提出 節水 獎勵 鼓勵 稻農 轉作 但 卻 去年 暫停 辦理 雲林 農民 表示 「 只要 不種 水稻 類其實 它 吸 水量 會真會 差 很多 這實話 雲林 這邊 就 水稻 需求 地下水 需求量 最 多 」 為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物 雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定 除了 領取 綠色 獎勵 金外 還能 領轉 作金 3 萬元 或 產環境 維護金 4 萬 2 至 5 萬 2 不 等 雲林縣 農業 處 副 處長 蔡耿宇 指出 「 高鐵 沿線 周邊 1.5 里 它 針對 綠肥 部分 原本 大概 每頃 補助 4 萬 5 這次會 加碼 如果 一期 作去 推動話 可以 加碼 4 萬 2000 元 所以 一頃 可以 領到 8 萬 7000 元 」 雲林 農民 指出 「 成本 還 包括 肥料 噴灑 農藥 至少 都 要 花 2 萬元 成本 超過 」 當地 農民 表示 面對 近期 人工 肥料 成本 提高 若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願 而 農業 處 說 縣 高鐵 沿線 四鄉鎮 農地 大約 4 千頃 希望 能 透過 推動 農地 轉旱 作物 獎勵 3 年 達 到 稻作 1700 頃轉出 目標</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  </t>
+          <t>〔 為 防治 地層下陷 行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 里 半範圍 農民種 植 低耗 水 作物 節水 獎勵 即種 植轉作 作物 每頃 給予 3 萬元種 綠肥 4 萬 2000 元種 景觀 作物 5 萬 2000 元鑑 雲林 高鐵 沿線 地層下陷 嚴重 避免 響到 高鐵行車 安全 中央 相關 部會 雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作 其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物 減少 地下水 抽取 量 縣府 農業 處 指出 農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 里 範圍 節水 獎勵 給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 產獎 勵效 減少 地下水 抽取 地層下陷 明顯 減緩 農業 處 表示 獎勵 措施 至 2020 年 截止 去年 今年 沒辦理 統計 發現 高鐵 沿線 第一期 作種 稻面積 又 恢 復 為 避免 地層下陷 再 惡化 縣府 向 中央 爭取 持續 辦理節 水獎 勵經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵 農業 處 說 這次 行政院 核定 針對 雲林 虎尾 土庫 元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 里 農地 獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 節水 獎勵 額度 歡迎 符合 申辦 資格 農民 踴躍 配合 相關 資訊 可 洽詢 縣府 農業 處</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  </t>
+          <t>〔 防治 高鐵 沿線 地層下陷 行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一里 半範圍 農民種 植 低耗 水 作物 節水 獎勵 即種 植轉作 作物 每頃 給予 三萬元種 綠肥 四萬 二千元 種景觀 作物 五萬 二千元 雲林 高鐵 沿線 地層下陷 嚴重 避免 響到 高鐵行車 安全 中央 相關 部會 雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作 農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱 大豆 等 低耗 水 作物 減少 地下水 抽取 量 縣府 農業 處 表示 為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵 針對 雲林 高鐵 沿線 三里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業產 獎勵 農業 處 指出 獎勵 計畫 二 一 三年 至 二 二年 期間 地下水 抽取 減少 地層下陷 明顯 減緩 獎勵 計畫 截止 後 統計 發現 高鐵 沿線 第一期 作種 稻面積 又 恢 復 為 避免 地層下陷 再 惡化 縣府 向 中央 爭取 持續 辦理節 水獎 勵經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵 農業 處 說 這次 行政院 核定 針對 雲林 虎尾 土庫 元長 北港 等 四鄉 鎮高鐵 沿線 左右 一里 半 農地 獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 節水 獎勵 額度 歡迎 符合 申辦 資格 農民 踴躍 配合</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>資訊視 覺化 地層下陷                   書名     書上 設計展 2021       作者   尼 普利 編輯室 企劃     出版社   尼 普利 出版     出版 時間   2022 年 1 月 15 日           臺 灣 地層下陷   人們 對 於 這塊 土地 不當 利用   可說 是 現今 臺 灣 地層下陷 主要 肇因   像是 水資源 缺乏 所導致 超 抽 地下水   抑或 是 高鐵興 建所 造成 地面 荷重 大量 增加 等   都 加速 了 地層下陷 問題 發生   〈 B1 － 臺 灣 地層下陷 〉 專書以 複 合式 裝幀 結構 來 設計   將其分 為 兩 部分   分別 以線 裝及 摺 頁 書 方式 呈現   運用 資訊視 覺化 設計 為 主軸   介紹 臺 灣國土 下陷 四大 原因   九大 下陷 地區 說明   各個 地區 圖文細節   藉由 閱讀 理解 各 下陷 地區 之間 差異   引領民眾 快速 了解 現今 臺 灣 地層下陷 嚴重 程度       複 合式 裝幀 結構 設計     有別 於 過往 百科 全書 呆板 形式   本 專書 運用 複 合式 裝幀 結構 設計   利用 資訊視 覺化 手法   將 原本 龐雜 數據   輔以 凸顯 重點 視覺 編排   呈現 一幅 巨型 資訊 圖表   並 搭配 注目 性較 高 紅色   警惕 民眾 地層下陷 所 造成 危害   以及 對 居住 與 國土 安全 威脅                                           以 專書設 計為 主軸   書籍 以 複 合式 裝幀 設計   圖 ／ 尼 普利   提供                           封面 以 雷射 切割 紙材 方式 呈現 下陷 層次 造型   圖 ／ 尼 普利   提供                           重點 介紹 九大 下陷 地區 數據表現 與 相 關訊息   圖 ／ 尼 普利   提供           ● 編輯 觀點     地層下陷 問題   好像 溫水 煮 青蛙   水平 看似 一致   卻 可能 正在 下移 而 渾然 未覺   安全 此刻 懸崖邊   搖搖欲 墜   〈 B1 － 臺 灣 地層下陷 〉 透過 設計 手法   視覺化 呈現 臺 灣 地層下陷 現況   讓 人 意識 到 問題 存在   進而 思考 土地 規劃   臺 灣 四面 環海   地層下陷 問題 格外 隱憂   國土 一旦 保持 不佳   負載 過度   一不留神 就是 海水倒灌 等 不 可逆 嚴重後患   那些 存在 許無力 一次 解決   但 不放棄   盡己 所能   喚起 危機 意識   是 一種 改變 開始     設計 團隊     樹德 科技 大學   視覺 傳達 設計系     Designer ｜ 江蓉   楊皓鈞   黃 上溢   廖楷平   林靜芬   黃 麒 樺     Advisor ｜ 陳 月 英                             【 本 文摘 選自尼 普利 編輯室 出版   書上 設計展 2021   一書   授權 刊登 於 聯合 新聞網   琅琅 悅讀   頻道   未經 同意   請 勿 轉載   】 加入   琅琅 悅讀   Google   News   按下 追 蹤   精選 好文 不 漏接       五月 藝文 專題 活動 一覽     🎁 　 抽獎 ｜ 海明威   金城武 都 來過   法國 巴黎 左岸 莎士 比亞書店   📰 　 師大美術館   一拍 即影   300 件 拍 立得   見證 攝 影大師 黃 金 年代   📰 　 漫步 青島 老城 區   探訪 上 世紀 文藝書店   民宿 咖啡 館   📰 　 不一樣 山水 畫   M ＋ 博物 館   山鳴 水應   用 新視角 看藝術   📰 　 南美 館 雙館 共展   沃克   海怪   炮火 與 他們   以藝術 視角 回望 歷史   📰 　 吃 是 什麼 烤 鴨   北京 與 廣式 烤 鴨 之間 3 種差異   📌 　 梁朝 偉   劉德華 都 演過   盤點 金庸 武俠 劇中 經典 選角</t>
+          <t>資訊視 覺化 地層下陷   書名 書 上 設計展 2021   作尼 普利 編輯室 企劃   出版社 尼 普利 出版   出版 時間 2022 年 1 月 15 日     臺 灣 地層下陷 人們 對 於 這塊 土地 不當 利用 可說 現今 臺 灣 地層下陷 主要 肇因 像 水資源 缺乏 所導致 超 抽 地下水 抑或 高鐵興 建所 造成 地面 荷重 大量 增加 等 都 加速 了 地層下陷 問題 發 〈 B1 － 臺 灣 地層下陷 〉 專書以 複 合式 裝幀 結構 來 設計將 其分 為 兩 部分 分別 以線裝 摺 頁 書 方式 呈現 運用 資訊視 覺化 設計 為 主軸介紹 臺 灣國土 下陷 四大 原因 九大 下陷 地區 說明 各個 地區 圖文細節 藉由 讀 理解 各 下陷 地區 之間 差異 引 領民眾 快速 了解 現今 臺 灣 地層下陷 嚴重 程度     複 合式 裝幀 結構 設計     別 於 過往 百科 全書 呆板 形式 本 專書 運用 複 合式 裝幀 結構 設計 利用 資訊視 覺化 手法 將 原本 龐雜 數據 輔以 凸顯 重點 視覺 編排 呈現 一幅 巨型 資訊 圖表並 搭配 注目 性較 高紅色 警惕 民眾 地層下陷 所 造成危害 以 對 居住 與 國土 安全 威脅   以 專書設 計為 主軸書籍 以 複 合式 裝幀 設計 圖尼 普利   提供   封面 以 雷射 切割 紙材 方式 呈現 下陷 層次 造型 圖尼 普利   提供   重點 介紹 九大 下陷 地區 數據表現 與 相 關訊息 圖尼 普利   提供   ● 編輯 觀點     地層下陷 問題 好像 溫水 煮 青蛙 水平 看似 一致 卻 可能 正 下移 而 渾然 未覺 安全 此刻 懸崖邊 搖搖欲 墜 〈 B1 － 臺 灣 地層下陷 〉 透過 設計 手法 視覺化 呈現 臺 灣 地層下陷 現況 讓 人 意識 到 問題 存進 而 思考 土地 規劃 臺 灣 四面 環海 地層下陷 問題 格外 隱憂國土 一旦 保持 不佳 負載 過度 一不留神 就 海水倒灌 等 不 可逆 嚴重 後 患些 存許 無力 一次 解決 但 不放棄 盡己 所能 喚起 危機 意識 一種 改變 開始   設計 團隊     樹德 科技 大學   視覺 傳達 設計系     Designer ｜ 江蓉 楊皓鈞 黃 上溢 廖楷 平林靜芬 黃 麒 樺     Advisor ｜ 陳 月 英       【 本 文摘 選自尼 普利 編輯室 出版 書上 設計展 2021 一書 授權 刊登 於 聯合 新聞網 「 琅琅 悅讀 」 頻道 未經 同意 請 勿 轉載 】 加入   琅琅 悅讀   Google   News   按下 追 蹤 精 選 好 文 不 漏接 五月 藝文 專題 活動 一覽 🎁 　 抽獎 ｜ 海明威 金城武 都 來 過法國 巴黎 左岸 莎士 比亞書店 📰 　 師 大美 術館 「 一拍 即 」 300 件 拍 立得   見 證大師 黃 金 年代 📰 　 漫步 青島 老城 區探 訪上 世紀 文藝書店 民宿 咖啡 館 📰 　 不一樣 山水 畫 M ＋ 博物 館 「 山鳴 水應 」 用 新視角 看藝術 📰 　 南美 館 雙館 共展 「 沃克 海怪 炮火 與 他們 」 以藝術 視角 回望 歷史 📰 　 吃 什麼 烤 鴨 北京 與 廣式 烤 鴨 之間 3 種差異 📌 　 梁朝 偉劉德華 都 演過 盤點 金庸 武俠 劇中 經典 選角</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 中央社 〕 一項 新 研究 指出   南亞 東南亞 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 人 更 容易 受到 海平面 上升 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表   自然 永續     Nature   Sustainability   期刊 上 一項 研究   快速 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 需求     研究 指出     這 使得 經歷 當地 土地 快速 下沉 城市 所 面臨 沿海 災害 風險   比 那些 已 因氣候 導致 海平面 上升 城市 所 面臨 風險 更 大       越南 人口 最多 城市 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 緬甸 商業 中心 仰光 高峰 年間 皆 下沉 20 多公 釐     研究 稱     這些 快速 下沉 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 建築 結構   導致 土地 下沉       下沉 城市 本身 並非 氣候變遷 結果   但 研究 人員 說   他們 研究 能 更 深入 了解 下沉 現象 如何   加劇 氣候 所導致 平均 海平面 上升 影響       根據 聯合國   政府 間 氣候變遷 問題 小組     Intergovernmental   Panel   on   Climate   Change     IPCC   資料   到 2050 年   將有 十多 億人 生活 沿海 城市   面臨 海平面 上升 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  </t>
+          <t>〔 一項 新 研究 指出 南亞 東南亞 沿海 大城市 下沉 速度 要 比 世界 其他 地方 更快 使數 以千萬計 人 更易 受到 海平面 上升 響 法新社 報導 根據 新加坡 南洋 理工大 學 Nanyang   Technological   University 上週 發表 「 自然 永續 」 Nature   Sustainability 期刊 上 一項 研究 快速 城市化 使 這些 城市 大量 抽取 地下水 以 因應 不斷 成長 人口 需求 研究 指出 「 這 使得 經歷 當地 土地 快速 下沉 城市 所 面臨 沿海 災害 風險 比些 已 因氣候 導致 海平面 上升 城市 所 面臨 風險 更 大 」 越南 人口 最 多 城市 主要 商業 中心 胡志明市 Ho   Chi   Minh   City 每年 平均 下沉 16.2 釐 這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅 排名 第二 孟加拉 南部 港口城市 吉大港 Chittagong 吉大港 與 印度 西部 城市 阿默達 巴德 Ahmedabad 印尼 首都 雅加達 緬甸 商業 中心 仰光 高峰 年間 皆 下沉 20 多 釐 研究 稱 「 這些 快速 下沉 沿海 城市 許多正 快速 擴張 成為 巨型 城市 megacity 這些 地方 … 抽取 地下水 以 承受 密集 建築 結構 導致 土地 下沉 」 下沉 城市 本身 並非 氣候變遷 結果 但 研究 人員 說 他們 研究 能 更 深入 了解 下沉 現象 如何 「 加劇 氣候 所導致 平均 海平面 上升 響 」 根據 聯合國 「 政府 間 氣候變遷 問題 小組 」 Intergovernmental   Panel   on   Climate   Change   IPCC 資 料到 2050 年將 十多 億人活 沿海 城市 面臨 海平面 上升 風險 IPCC 稱 就算 溫室 氣體 排放量 大幅 減少 到 本世紀 末 全球 海平面 仍 可能 上升 至多 60 分</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  </t>
+          <t>〔 受 「 尼莎 」 颱風 共伴效應 響 新北市 汐止 地區 降下 豪 大雨 不只 發 土石流 就連 工建路 出現 地層下陷 情形 工務人員 初步 搶修 後 工建路 一度 恢 復 通行 但 昨日 夜間 卻 發現 地基 仍須 補強 必須 再次 施工 警方 獲報 後 立刻 派員 前往 進行 交通管制 全線 封閉 該 路段 為 加快 搶救 速度 警方 還 徒手 協助 搬運 30 多輛 機車 讓 工程 能 順利 進行 汐止區 工建路 地層下陷 後 經工務 人員 搶 救 暫時將 凹陷 地基 填補 起來 未料 這兩天 又 因受 豪雨 響 再 此 下陷 汐止 警 分局 接獲 通報 後 即刻 拉起 封鎖線 並連夜 將規劃 好 改 道路 線告 各 臉書 地方 集團 供民眾 參考 深夜 中員 警手 拿 指揮棒 持續 管制 車流 柏油路 面上 出現 許多道 裂痕 除了 用 交通 錐 警示 阻擋 立起 告示牌 請行 經車輛 改道 行駛 經過 徹夜 管制 後 施工 單位 評估 現場 完畢 於 今早 6 點準備 開工 卻 發現 許多 機車 車主未 依 通知 移置 車輛 造成 施工 路段 周圍 停滿 機車 負責 交通管制 社后 派出所 2 名員警 見 狀 趕緊 上前 幫忙 短短 10 幾分鐘 就 徒手 移 了 340 台機車 讓 搶 救 工程 得以 順利 進行 新北 市長 侯友宜 上午 特別 到 工建路 了解 現場 狀況 並感謝 汐止 警 分局 區所 施工 單位 連夜 辛苦 進行 管制 勘查 並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢 全力 協助民眾 解決 問題 民進 黨籍 市議員 張錦豪 請 助理 前往 工建路 現場 向 周邊 住戶 詢問 需要 協助 之 處並 與 施工 單位 保持 聯 繫 希望 能 早日 恢 復 正常 通行</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">汐止 工 建路 因連日 大雨 沖 刷   路面 下方 土石 流失   造成 路面 下陷   為維護 用路 安全   新北市 水利局 表示   已連夜 成立 前進 指揮 所   調度 人員 機具 進行 路面 搶修   目前 先採 低壓 灌漿 穩定 地盤   期能 於 最 短 時間 內修 復 路面   水利局 表示   汐止 工 建路 下方 設有 污水 特四幹線   收集 汐止 地區 污水   於 103 年間 曾 遭建商 基樁 打破   因特 四幹線 管徑 1.8 公尺 且位 於 道路 下方 15 公尺   並持續 通水 使用 中   需設 置 替代 管線後方能 進行 修 復   因此 當時 由 台北市 衛工處 先行 於 管線 上方 灌漿 補強   並進行 新 設繞 流管 建置 工程   水利局 提到   目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程   計畫 新設 管徑 1.2 公尺 繞 流管 導水 後   再 辦理 原特四幹線 管線 修 復   此次 修繕 工程 繞 流管 尚約 剩 7 公尺 才能 接通   預計 11 月 14 日 工程 完成   水利局 透露   此次 工 建路 下陷 位置 臨近 特四幹線 遭 打破 點   初步 研判 可能 與 此 相關   為 避免 持續 下陷   水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作   等到 特四幹線 繞 流管 工程 完工 後   將進 行原 特四幹線 檢修 工程  </t>
+          <t>汐止 工建路 因連日 大雨 沖 刷 路面 下方 土石流 失 造成 路面 下陷 為維護 用路 安全 新北市 水利局 表示 已連夜 成立 前進 指揮 所 調度 人員 機具 進行 路面 搶修 目前 採低 壓 灌漿 穩定 地盤期 能 於 最 短 時間 修 復 路面 水利局 表示 汐止 工建路 下方 設 污水 特四幹線 收集 汐止 地區 污水 於 103 年間 曾 遭建商 基樁 打破 因特 四幹線 管徑 1.8 且位 於 道路 下方 15 並持續 通水 使用 中需 設置 替代 管線後方能 進行 修 復 因此 當時 由 台北市 衛工 處行 於 管線 上方 灌漿 補強 並進行 新 設繞 流管 建置 工程 水利局 提到 目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程 計畫 新設 管徑 1.2 繞 流管 導水後再 辦理 原特四幹線 管線 修 復 此次 修繕 工程 繞 流管 尚約 剩 7 才能 接通 預計 11 月 14 日 工程 完成 水利局 透露 此次 工建路 下陷 位置 臨近 特四幹線 遭 打破 點 初步 研判 可能 與 此 相關 為 避免 持續 下陷 水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作 等到 特四幹線 繞 流管 工程 完工 後 將進 行原 特四幹線 檢修 工程</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">汐止 驚見 地層下陷   新北市 汐止 區工建 路上 不明 原因 出現 地層下陷   而 上個 禮拜 就 發生過   區 公所 趕緊 進行 挖 填   沒 想到 這幾天 又 再度 下陷   為 避免 發生 危險   昨   22   天晚 間 9 點開始 該 路段 全線 封閉   並在 今   23   天 早上 進行 大規模 檢測   以及 進行 搶修 工程   確保 附近 住戶 安全  </t>
+          <t>汐止 驚見 地層下陷 新北市 汐止區 工建路 上 不明 原因 出現 地層下陷 而 上個 禮拜 就 發過區 所 趕緊 進行 挖 填 沒 想到 這幾天 又 再度 下陷 為 避免 發危險 昨 22 天晚 間 9 點開始 該 路段 全線 封閉 並今 23 天 早上 進行 大規模 檢測 以 進行 搶修 工程 確保 附近 住戶 安全</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">台灣 位處 菲律 賓海板 塊 歐亞板 塊 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出   台灣 真的 動     氣象局 全台 建置 超過 160 個   全球 導航衛 星系 統   測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 台灣 斷層 都   偷偷   地亂動   氣象局 表示     既然 手機 上 GPS 可以 監測 我們 每日 移動 路線 距離   那麼   同樣 概念 技術   是不是 能 監測 台灣 地表   看看 它 每天 移動 了 多少   當然 可以     氣象局 已 全 台灣 建置 超過 160 個   全球 導航衛 星系 統   測站   結合 各 單位 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 地表 位移   像是 車籠埔斷 層 錯動   為 台灣 地表 帶來 一道 劇烈   長 達 105 公里 傷痕   斷層 上盤 水平 位移 為 1 至 9 公尺 不 等   而 大甲溪 更 出現 地殼 抬高   落差 5 公尺 瀑布 景觀   氣象局 表示   除了 地震 期間   短短 數 十秒 出現   同震 滑移   之外   地震 前   間震期     地震 後   震後期     斷層 都   偷偷   地亂動   氣象局 說明   地殼 不 只 地震 時會動   平時 地殼   累積 能量   過程 中   就 會 地表 出現 非常 微量 變形   或者 是 小小的   不起眼 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 一舉 一動   希望 可以 找出 大 地震 發 生前 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 樣態   或是 分析 出 地震 發生 週期   計算 地震 災害 潛勢   評估 台灣 各地 斷層 活動 地震 機制  </t>
+          <t>台灣 位處 菲律 賓海板 塊 歐亞板 塊 交界 處 因此 時常 因為 板塊 運動 而 引發 地震 台東 昨 31 日 下午 四點 多 就 發規模 5.0 地震 中央 氣象 局長 鄭明典 指出 「 台灣 真動 」 氣象局 全台 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站 藉由 監測 大地 變形 地球 科學家 可以 監視 斷層 火山 活動 以 地層下陷 或 滑動 一舉 一動 而 從 地表 來 看 除了 地震 期間 地震 前 後 台灣 斷層 都 「 偷偷 」 地亂動 氣象局 表示 「 既然 手機 上 GPS 可以 監測 我們 每日 移動 路線 距 離麼 同樣 概念 技術 不能 監測 台灣 地表 看看 它 每天 移動 了 多少 當然 可以 」 氣象局 已全 台灣 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站 結合 各 單位 建置 成果 台灣 已 超過 450 個 連續 觀測 站 進行 大地 測量 建立 台灣 大地 變形 資料 庫氣 象局 指出 從 地表 來 看 大型 地震 會 造成 明顯 地表 位移 像車 籠埔斷 層 錯動 為 台灣 地表 帶來 一道 劇烈 長 達 105 里 傷痕 斷層 上盤 水平 位移 為 1 至 9 不 等 而 大甲溪 更 出現 地殼 抬高 落差 5 瀑布 景觀 氣象局 表示 除了 地震 期間 短短 數 十秒 出現 「 同震 滑移 」 之外 地震 前間 震期 地震 後 震後期 斷層 都 「 偷偷 」 地亂動 氣象局 說明 地殼 不只 地震 時會動 平時 地殼 「 累積 能量 」 過程 中 就 會 地表 出現 非常 微量 變形 或 小小 不起眼 地震 地球 科學家 就 透過 這個 原理 長 期連續 監測 台灣 地表 一舉 一動 希望 可以 找出 大 地震 發前 徵兆氣 象局 表示 雖然 目前 尚未 發 展出 成熟 地震 預測 技術 藉由 地震 前 中後所 蒐集 地表 微小 變形 資料 可以 讓 地球 科學家 更 了解 地殼 運動 樣態 或 分析 出 地震 發週期 計算 地震 災害 潛勢 評估 台灣 各地 斷層 活動 地震 機制</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹縣 竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險   希望 相關 單位 幫忙 出面 解決     被 指控 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 原因 不明 下陷   龜裂 問題   看起 來 災害 確實 持續 進行 中   但導致 持續 龜裂 擴大 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 天氣 放晴 後 協助 維修 處理     陳 講   鍾 姓 住戶 主要 是 拿 自家 建物 背 後 另 1 間 民宅 比 對   鍾 認為 2 宅   沒有 一直 線     所以 認定 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護     縣府 工務處 長江 良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 毀損 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 被 徵收 戶   3 樓半 住家 就是 蓋 約 3   40 坪 配回 地上   10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 其中   如果 房子 真的 不安   影響 非常 大     鍾 說   隔鄰 新建 工地 約 是 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 地面   竟 自己 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 牆面 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 已有 他 1 片 手指甲 寬   至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  </t>
+          <t>〔 新竹縣 竹北市 房市 熱絡 集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出 然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地 疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷 牆面 牆角 龜裂 等 屋主 向 北興 里長 田慶 順陳情 擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險 希望 相關 單位 幫忙 出面 解決 被 指控 工地 陳 姓 現場 負責人 說 經實 勘 發現 該 民宅 應該 之前 就 原因 不明 下陷 龜裂 問題 看 起來 災害 確實 持續 進行 中 但 導致 持續 龜裂 擴大 原因 待 鑑定 釐 清 但 基 於 敦親 睦 鄰 他 允諾會 天氣 放晴 後 協助 維修 處理 陳 講鍾姓 住戶 主要 拿 自家 建物 背 後 另 1 間 民宅 比 對 鍾 認為 2 宅 「 沒 一直 線 」 所以 認定 傾斜 但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞 不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護 縣府 工務處 長江 良淵 說 鄉親 若 發現 自宅 可能 因 他人 施工 導致毀 損疑慮 時 可以 向 該 處建 管科 陳 情由 他們 立案 追 蹤 同 時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷 因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定 就 供 一旦 發鄰 損爭 議時 比 對 參考 北興 里長 田慶順 說 鍾 姓 住戶 縣治 3 期 被 徵收 戶 3 樓半 住家 就 蓋 約 340 坪 配回 地上 10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬現 當地 房價 被 建商 炒作 到 每坪 80 萬以現 新建 工程款 每坪 約 15 萬元 等 換算 鍾 宅少 說 45000 萬由 於 鍾 家 1 家 56 口人 就 住 其中 如果 房子 真 不安 響 非常 大 鍾 說 隔 鄰 新建 工地 約 2 個 多月 前開 挖 地下室 不久 後 他 就察覺 自宅 車庫 原本 平整 地面 竟 自己 車位 處 開始 出現 下陷 一旁 區隔 鄰宅用 牆面 了 龜裂 狀況 牆角 跟 地面 磁磚裂 開且 前述 下陷 裂縫 都 不斷 加大 田慶 順聞言 實際 測量 發現 鍾 宅 車位 下陷 處 最高 已 他 1 片 手指甲 寬 至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子 確實 讓 人 擔憂</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  </t>
+          <t>〔 印度 斯希馬 特鎮 Joshimath 位 於 喜馬 拉雅山 區因 地層 持續 下陷 已 接連 600 間 房屋 出現 明顯裂 縫 6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌 當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所 美聯社 7 日 報導位 於 印度 北阿 坎德 省 Uttarakhand 傑 莫利 縣 Chamoli 斯希馬 特鎮 居民 說 之前 就 注意 到 房子 出現 裂痕 尤其 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地後當 地 媒體 播出 畫面 顯示 該 鎮多處 道路 出現 裂 縫響 車輛 往來 6 日 晚間 當地 一座 神廟 崩塌 所幸 附近 居民 已 前一天 撤離 沒 造成 人員 傷亡 地方 首長 庫拉納 Himanshu   Khurana 說 已經 60 多戶 搬 到 政府 臨時 避難 所 撤離 人數 可能 會達 到 600 戶北 阿 坎德 省災難 管理 官員辛赫 Ranjit   Singh 說出 現裂 縫 近因 「 似乎 問題 排水 系統 導致 房子 底下 滲水 造成 下陷 」 斯希馬特 人口 約 2 萬 5000 人 印度教 錫克 教徒 朝聖 必經 之 地 大批 朝聖觀 光客 促使 該鎮 多年 來大興 土木 鋪路 造房 不斷 擴張 部份 專家 認為 地層下陷 與 此關 係 現當 地 政府 已經 暫停 所建築 工程 另外 根據 印度 媒體 報導 巴德 林納斯鎮 Badrinath 相距 80 里 同縣 另 一鎮 卡納 普拉 耶格 Karnaprayag50 多間 房子 出現 不斷 擴大裂 縫 該鎮 人口 5 萬人</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  </t>
+          <t>印度 北部 喜馬 拉雅山 區一個 經常 朝聖觀 光客 造訪 城鎮 這兩天 突然 發 地層下陷 超過 600 棟 房屋 出現 裂縫 寺 廟 紛紛 倒塌 當地 政府 緊急 撤離 將近 200 位民眾 安置 安全 避難 地點 印度 北部 山城 地層下陷 房屋 樓梯 道路 都 嚴重 龜裂 建築物 牆壁 還不斷 滲出 泥水 隨時 可能 發 崩塌 景象 怵 目驚心 當地 居民 表示 「 5 戶 人家 已經 搬走 其他 好 幾戶 計劃 遷移 另 打算 」 官員 表示 最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫 因此 已經將 至少 193 名 居民 安置 到 安全 地點 「 找到 解決 方法 之前 我們 把 居民 安置 安全 無虞飯 店賓館 跟 民宿 」 喬西馬斯 Joshimath 海拔 將近 2000 人口 約 2 萬 5000 人朝 聖客 前往 山上 印度教 跟錫克 教寺 廟門 戶常 想要 征服 喜馬 拉雅山 登山 客造訪 喬西馬斯 所傑 莫利 縣 Chamoli2021 年 2 月 曾經 爆發 洪水 造成 200 多人 喪還 沖 走 兩座 水力 發電站 災情 相當 慘重 科學家 目前 還 研究 氣候變遷 對 喜馬 拉雅山 響 但 如果 不好 水土保持 這座 「 沉沒城鎮 」 可能 很快 就 會 走向 毀滅</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  </t>
+          <t>插 稻田 裡廟 宇 嘉義 縣 六腳鄉 出現 了 只 露出 屋簷 底下 全 被淹 沒 田中 宮廟 事實 上 這座 宮廟 興建 清道光 年間 已 將近 兩 百年 歷史 由 於 民國 48 年 一場 水患 廟方將 神像 遷 走後舊 廟 就此 荒廢 下沉 如今 才 會 變成 隱身 稻田 裡獨特 打卡 景點 這間 「 插 稻田 中廟 宇 」 出現 嘉義 縣 六腳鄉 一片 綠 油油 稻田 放眼望去 田中 間 竟 出現 只 剩下 屋簷 露出 廟 仔細 一看 屋頂 上 雕刻 嚴重 斑駁 奇特 景象 吸引 民眾 朝 聖 搶 拍 大批 網友 直呼 「 真神 跡 」 「 從田裡 冒 出廟 頂 獨特裝置 藝術 」 更人 笑 稱 「 這 真正 土地 廟 」 而前 來 朝 聖遊客 蕭說 「 很 奇特 田中 廟 」 其實 這間 廟 已 將近 兩 百年 歷史 它 前 大庄 五福 宮舊 廟 興建 於 清代 道光 年間 不 過民國 48 年 碰上 水災 受損 村民 另 建新 廟 而 這間 舊廟 隨著 地層下陷 漸漸 下沉 五福 宮前 總幹事 姚水順 說 「 大家 都 會 好奇 裡面 東西 沒 搬出 來 神明 沒 沉下去 都 會問 這些 問題 其實 神明 都 請 出來 」   百年 舊廟 搬 遷 未 拆 隱身 稻田 裡 意外 成為 當地 打卡 熱點</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">疑因   豐采 520   建案 導致 竹 北市 莊敬 六街 發生 道路 坍塌   一輛 特斯拉 還掉 進去   新竹縣 長 楊 文科 今天 表示   已 與 竹北 市長 鄭 朝方 協議   市公所 將 全力 配合 相關 作業   並 要求 建商以 透地雷達 設備   預防性 檢測 建案 四周 道路 土質 情形   預防 再次 坍塌   工務處 表示   目前 初判 造成 此次 坍塌   原因 是 建商開 挖 地下室 抽取 地下水   導致 土砂 層 部分 帶 走 地層下陷   為 防止 附近 道路 再次 發生 坍塌   已 要求 建商以 透地雷達 設備 詳實 檢測 建案 四周 勝利 二路   勝利 一路   莊敬 六街 自強 北路   確認 是否 仍有 土質 流失 造成 坑洞   由 於 該 路段 路權 為 竹北 市公所 權責   縣長 楊 文科 與 竹北 市長 鄭 朝方 達 成共識   市公所 將 全力 配合 周邊 道路 封鎖 透地雷達 監測 等   展開 全面 檢測   縣府 已 與 市公所 研議 相關 作業   確保 附近 住戶 安全 無虞   工務處 指出   縣府 已 要求 建商 於 維生 管線   自來 水   電力   瓦斯 等 檢測 維修 完成 後   會同 竹北 市公所 同意   以低 強度 混凝土 灌漿 補強   針對 承造 監造 人   縣府 希望 加重 懲罰 機制   將 蒐集 近幾次 相關 違 失事 證   移送 新竹縣 營造業 審議 委員會 建築師 懲戒 委員會 審議   另外   縣府 也將 此次 工安 事件 提列 為 建築 爭議 損鄰 事件   立案 列管   通知 起造   承造 監造 人 改善 鄰房 損害 情況   並 於 完成 安全 改善 修 復 後   檢具 相關 證明 文件 與 同意 書 報府 核備   後 續 建商 必須 與 受 損戶 達成 和解   縣府 才 會 核發 使用 執照   工務處 說   縣府 將持續 配合 新竹 地檢署 調查   後 續 該 工地 建商 如 欲 復工   縣府將 與 竹檢 取得 共識   要求 工地 完善 工地 安全   確定 鑑定 報告 結果 無 虞   舉辦 施工 說 明會   繳清 所有 罰 鍰   以 嚴格 標準 檢視 改善 結果 後   再 評估 是否 辦理 復工  </t>
+          <t>疑因 「 豐采 520 」 建案 導致 竹北市 莊敬六街 發 道路 坍塌 一輛 特斯拉 還掉 進去 新竹縣 長 楊 文科 今天 表示 已 與 竹北 市長 鄭 朝方 協議市 所將 全力 配合 相關 作業並 要求 建商以 透地雷達 設備 預防性 檢測 建案 四周 道路 土質 情形 預防 再次 坍塌 工務處 表示 目前 初判 造成 此次 坍塌 原因 建商開 挖 地下室 抽取 地下水 導致 土砂 層 部分 帶 走 地層下陷 為 防止 附近 道路 再次 發 坍塌 已 要求 建商以 透地雷達 設備 詳實 檢測 建案 四周 勝利二路 勝利一路 莊敬六街 自強北路 確認 仍 土質 流失 造成 坑洞 由 於 該 路段 路權 為 竹北市 所權 責縣 長 楊 文科 與 竹北 市長 鄭 朝方 達成 共識市 所將 全力 配合 周邊 道路 封鎖 透地雷達 監測 等 展開 全面 檢測 縣府 已 與 市 所 研議 相關 作業 確保 附近 住戶 安全 無虞 工務處 指出 縣府 已 要求 建商 於 維管線 自來 水電力 瓦斯 等 檢測 維修 完成 後 會 同 竹北市 所 同意 以低 強度 混凝土 灌漿 補 強針 對 承造 監造 人 縣府 希望 加重 懲罰 機制將 蒐集 近幾次 相關 違 失事 證 移送 新竹縣 營造業 審議 委員會 建築師 懲戒 委員會 審議 另外 縣府將 此次 工安 事件 提列 為 建築 爭議 損鄰 事件 立案 列管 通知 起造 承造 監造 人 改善 鄰房 損害 情況並 於 完成 安全 改善 修 復 後 檢具 相關 證明 文件 與 同意 書 報府 核備後續 建商 必須 與 受 損戶 達 成解 縣府 才 會 核發 使用 執照 工務處 說 縣府 將持續 配合 新竹 地檢署 調查後續 該 工地 建商 如 欲 復工 縣府將 與 竹檢 取得 共識 要求 工地 完善 工地 安全 確定 鑑定 報告 結果 無虞舉 辦 施工 說 明會 繳清 所罰 鍰 以 嚴格 標準 檢視 改善 結果 後 再 評估 辦理 復工</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝</t>
+          <t>台北市 出現 天坑 今天下午 15 時許 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 坑洞 長 15 寬 3 深度 2 到 3 目視 可 看到 機車 自行 車 陷落 坑中 同時 坑洞 波 一旁 民宅 地基 目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人 並劃 設緊 戒線並 通知 市府 相關 單位 到場 處理 天坑 位 於 新建 工地 民宅 中間 巷弄 道路 塌陷 時 發出 聲響 驚動 住戶 但 因為 坑洞 擋家門 前 第一 時間 無法 脫困 消防局 緊急 到場 以 爬梯 方式 救援 住戶 出來 消防局 救出 2 名 女子 疏散 1 男 1 女人 員 已 全數 疏散 完畢 另外 1 名 85 歲 老婦 因長 期行動 不 雖無外 傷意識 清醒 但家屬 要求 預防性 送 醫由 消防局 送北醫 由 於 天坑 危 安全 響 周遭 至少 五戶 民宅 部分 住戶 無法 回家 估計 10 餘人 受響 將由 台北市 府 處理 安置 問題 台北市 信義區 出現 天坑 目前 市府 新工處 建管處 勞檢處 等 相關 單位 都 已 派 人 到場 現場 設置 指揮 所 初步 懷疑 與 民宅 對面 新建 工地 工程 關現 以 灌漿 方式 緊急 處置 至於 天坑 出現 原因 將 交由 市府 建管 新工 等 單位 調查 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道 蹋陷 緊急 灌漿 回填 住戶 驚慌 撤離   消防局 於 15 時 13 分獲報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 寬 3 深度 23 ) 幸無人 受 傷警 消緊 急 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 目前 評估 約 10 餘位 住戶 需要 安置 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 施工 單位 緊急 灌漿 回填 防止 塌陷 區域 擴大   林俊良警 消緊 急 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 目前 評估 約 10 餘位 住戶 需要 安置 林俊良 消防局 於 15 時 13 分獲報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 警消 緊急 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 林俊良 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 住戶 心餘悸 驚慌 撤離 到 一旁 安全 區域 林俊良 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 警方 疏導 住戶 驚慌 撤離 目前 評估 約 10 餘位 住戶 需要 安置 林俊良 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 施工 單位 緊急 灌漿 回填 防止 塌陷 區域 擴大   林俊良</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影</t>
+          <t>台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 晚上 到場 關心並 指出 整個 狀況 控制 住 以後會針 對 台北市 工地 全面 清查 不 這次 事件 類似 情況 再 積極 處理 蔣 萬安 表示 工地 部分 市府 馬上 勒令停工 找出 這次 地面 坍塌 原因 盡快 排除 避免 坍塌 面積 持續 擴大 這次 地層下陷 事件 整起 事件 會 完整 調查 並且 就 工地 全面 檢視 以營 造商 相關 紀錄 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 周邊 拉起 警戒 線 提醒 民眾 注意安全 民眾 警方 協助 下回 住 處拿東 西林 伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 周邊民眾 聚集 關心 林伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 晚間 坑洞 正持續 灌漿 阻止 繼續 塌陷 林伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北市 議員 許淑華前 右到 場關 心民眾 林伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 左二 台北市 議員 徐巧 芯 右二到 場關 心林伯東</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  </t>
+          <t>台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 中到 場關 心林伯東 台北市 信義區 崇德街 今 13 日 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 且 二度 坍塌 台北 市長 蔣 萬安 晚上 到場 關心並 作出 四點 指示 蔣 萬安 表示 市府 已 第一 時間 出 相關 緊急 疏散 處置 並向 同仁 作出 四點 指示 第一 安全 至上 相關 緊急 應變 處置 必 須 儘 速 地 完成 包括 疏散 安置 等 已 媒合 旅宿業 進行 安置 住民 入住 可依規定 申請 補助 我們 會 盡力將 損害 降到 最低 第二 釐 清 坍塌 原因 儘 快 排除 目前 了解 可能 連續 壁 滲水 問題 市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因 並 儘 快 排除 避免 坍塌 面積 持續 擴大 第三 事件 整體 調查 就 這次 地面 坍塌 事件 將針 對 工地 負責營 造商 就 過去 相關 建造 紀錄 整體 調查 第四 全市 工地 全面 清查 崇德街 案緊 急 處置 後 將針 對 台北市 興建 工程 工地 作 全面 清查 避免 相關 事件 重演 蔣 萬安 強調 目前 已責成 相關局 處務必 盡速 完成 相關 緊急應 變作 為確 保住 民 市民 安全 避免 讓 地面 坍塌 損壞 再 持續 擴大將 損害 降到 最低 全力 捍衛 市民 命財產 安全 根據 建管處 資料 顯示 該 起 工程 工地 起造 人 東禧 建設 承造 人華熊 營造 監造 人 向度 聯 合建 築師 事務 所 目前 則已針 對 承造 人 監造 人 各 開罰 新 台幣 九萬元</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供</t>
+          <t>台北市 信義區 崇德街 下午 出現 地層下陷 北市 府 表示 消防局 於 15 時 13 分通報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 長 15 寬 3 深度 2 至 3 無人 受傷 市府 表示 目前 處置 作為 已 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 信義區 區長 已 趕 抵 現場 坐鎮 指揮 目前 評估 約 10 餘位 住戶 需要 安置 北市 信義區 出現 長 15 深 3 「 天坑 」 圖 北市 府 提供 北市 信義區 出現 長 15 深 3 「 天坑 」 圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 坍塌 處 附近   約 10 人 安置 飯店   要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺   天坑     圖 ／ 北市 府 提供</t>
+          <t>北市 信義區 崇德街 60 巷 路面 今天下午 出現 大 天坑 坑洞 長 15 寬 3 深度 2 到 3 機車 單車 陷落 坑中 消防局 已 疏散 鄰近 住戶 10 多人 台北市 建管處 表示 路面 坍陷 處以 混凝土 處置 目前 已 勒令停工 將依建築法 開罰 營造廠 監造 人 各 9 萬元 台北市 建管處 表示 事發地 旁為 一處 新建 住宅 大樓 工地 疑似 施作 連續 壁 滲水導致 道路 塌陷 目前 以 混凝土 處置 工地 現場 緊急 處理 中將 依建築法 第 89 條開罰 承造 人營 造廠 監造 人 建築師 各 9 萬元 目前 已 勒令停工 未來 把 一切 安全 問題 妥善 完成 後 才 會 復工 消防局 已協助 將住 戶 全部 撤離 完 畢人員均 安全 信義區 所正 處理 安置 問題 北市 議員 許淑華 表示 該處 昨晚 就 灌水 疑似 連續 壁施作 釀禍事 發地 鄰近 住戶 共 30 戶 12 戶住 坍塌 處 附近 約 10 人 安置 飯店 要求 市府 妥善 協助 住戶 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 北市 信義區 出現 長 15 深 3 「 天坑 」 圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供</t>
+          <t>台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 中到 場關 心林伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 晚間 前往 現場 蔣 萬安 指出 整個 狀況 控制 住 以後會針 對 台北市 工地 全面 清查 不 這次 事件 類似 情況 再 積極 處理 蔣 萬安 說 第一 時間 消防局 長 就 趕到 現場 共 啟用 13 輛 消防 車 2 輛救護車 36 位 消防 同仁 趕到 現場 第一 緊急 應變 處置 包括 疏散 安置 或 其他 必要 作為 相關 局處 都 發局 建管處 警察局 區所水處 瓦斯 司 等等 都 現場 必須 要 盡速 完成 相關 緊急應 變作 為 來確 保人 員 安全 避免 讓 地面 坍塌 損壞 再 持續 擴大 把 整個 損害 降到 最低 蔣 萬安 指出 工地 部分 市府 馬上 勒令停工 找出 這次 地面 坍塌 原因 盡快 排除 避免 坍塌 面積 持續 擴大 這次 地層下陷 事件 整起 事件 會 完整 調查 並且 就 工地 全面 檢視 以營 造商 相關 紀錄 【 中央社 台北 13 日電 】 北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 深 3 坑洞 市府 已 開罰 營造廠 建築師 各 9 萬元 市長 蔣 萬安 則 下令 後 續 要 清查 所 工地 避免 類似 情況 再度 發 台北市 信義區 崇德街 巷弄 今天下午 約 3 時 突然 出現 一個 長 15 寬 3 深度 3 坑洞 下午 5 時 22 分 又 再度 塌陷 道路 緊鄰 新建 工地 當時 正施 作連續 壁 工程 市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶 台北市 工務局 長 黃 一平 都發局長 王玉芬 皆 下午 4 時許 到場 了解 狀況 副 市長 李 四川 則晚 間 6 時 抵達 現場 市長 蔣 萬安 約 晚間 6 時 30 分現 身 蔣 萬安 聽取 報告 後 接受 媒體 聯訪 表示 消防局 下午 3 時許 獲報 地層下陷 後 共 出動 13 輛 消防 車 2 輛救護車 36 名 消防 員 消防局 長 莫懷祖 到場 坐鎮 蔣 萬安 說 第一件 事 趕快 緊急 應變 處置確 保人 員 都 安全 並 排除 事發 原因 避免 坍塌 再度 擴大建築 工地 已 被 勒令停工 他 指出 接下 來會 就 這次 事件 完整 調查 全面 檢視 建築 工地 營造 商紀錄 等 狀況 控制 住後會 清查 台北市 所 工地 尤其 新建 工程 工地 避免 類似 情況 再度 發 至於 需要 多久 處理 時間 蔣 萬安 說 目前 正積極 努力 中同 時評 估要 不要 預防性 疏散 因為 市民 安全 最 重要 現場 關心 約 半小時 後 蔣 萬安 晚間 6 時 50 分離開 台北市 結構 技師會 理事 長 徐茂卿 指出 因為 巷弄 旁邊 建案 地下 層連續 壁 破洞 導致 道路 塌陷 所以 緊急 撤離 周遭 住 戶後建築 工地 灌水 道路 灌漿 讓 兩邊 土壓 平衡 「 現搶 救 原因 之後再 來 探討 」 台北市 建管處 表示 此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷 將依建築法 第 89 條開罰 承造 人營 造廠 監造 人 建築師 各新 台幣 9 萬元 信義區 所 表示 安置 需求 每人每天 可申 請 新 台幣 1600 元 補助 最多 7 天 台北市 信義區 崇德街 巷弄 道路 13 日驚傳 塌陷 警消 獲報 到場 疏散 鄰近 住戶 目前 無人 傷亡 但 現場 坍塌 似 擴大 趨勢 傍晚 5 時許 現場 再度 塌陷 一旁 工地 藍色 帳棚 等 遭波 傾倒 中央社 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 圖 消防局 提供</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供</t>
+          <t>台北市 出現 天坑 今天下午 15 時許 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 坑洞 長 15 寬 3 深度 2 到 3 目視 可 看到 機車 自行 車 陷落 坑中 同時 坑洞 波 一旁 民宅 地基 目前 台北市 消防局 已經 疏散 鄰近 住戶 並劃 設緊 戒線並 通知 府 相關 單位 到場 處理 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 緊急 救援 住戶 圖讀 提供</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t>北市 信義區 崇德街 60 巷鄰近 一處 新建 工地 今天下午 3 點多 路面 突然 下陷 出現 一個 大 天坑 台北市 副 市長 李 四川 都發局長 王玉芬 傍晚 抵達 了解 現況 王說 明處理 進度 住戶 方面 已 撤離 16 戶 工程 則 坑洞 灌漿 建案 基地 灌水 都發局長 王玉芬 到場 表示 馬 路上 坑洞 約 10 幾長 3 寬 深度 判斷 達 到 3 以 灌漿 方式 處理 建築 基地 開挖 地下室 部分 用 消防 水車 拉水線 灌水 使外 壓力 可以 平衡 已拉 兩條 水線 再 請 消防局 再拉一條 加快 灌水 速度 王玉芬 說 明住 戶 部分 已經 撤離 16 戶 10 人 需要 安置 且 安置 妥當 某 一家 旅館 所 住宿 日常 開銷 都 會 由 營造 單位 負責 其餘住 戶 由 台北市 結構 技師會 判斷 沒 危險 因 居民 擔心 請里長 逐戶 安撫 現場 分為 撤離區 監測區 除了 天坑 之外 轉角 一戶 地下室 技師 下去 看 目前 還沒 任何 響會 持續 監測 黃 住 當地 20 多年 他 提到 走路 經過 時 看到 裂一個 小洞 下午 2 點多 就 一直 下陷 從 22 號坍 下去 住戶 鄭 表示 他 姊姊 騎車 來 時 突然 聽到 「 砰 」 一聲 被 嚇到 時 就 一個 小洞 自己 走 出去 看前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了 沒 多久 警察 到場 就 要求 不要 過去 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 施工 單位 緊急 灌漿 回填 防止 塌陷 區域 擴大   林俊良</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  </t>
+          <t>台北市 信義區 崇德街 巷弄 13 日 下午 發 路面 塌陷 事故 現場 緊鄰 一旁 建案 工地 中央社 台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 深 3 坑洞 市府 表示 正持續 向 坑洞 灌漿 建案 基地 灌水 共 撤離 周遭 16 戶住 戶 其餘住 戶判斷 沒 危險 台北市 信義區 崇德街 巷弄 今天下午 出現 一個 長 15 寬 3 深度 3 坑洞 道路 緊鄰 建築 基地 當時 正施 作連續 壁 工程 目前 已 停工 並 疏散 鄰近 住戶 副 市長 李 四川 工務局 長 黃 一平 都發局長 王玉芬 皆 到場 了解 狀況 王玉芬 向 中央社 表示 坑洞 正持續 灌漿 建築 基地 則用 消防 車 灌水 讓 外 壓力 平衡 阻止 繼續 塌陷 何時 才能 確認 沒進 一步 危害 則要 持續 觀察 至於 住戶 部分 王玉芬 說 已經 撤離 16 戶 其中 10 人 需要 安置 這些 開銷 都 會 由 開發 單位 負責 其餘住 戶 雖 由 台北市 結構 技師會 判斷 沒 危險 考量 住戶 仍會 擔心 已 請里長 逐戶 安撫 談到 事發 過程 附近 居民 仍然 餘悸 猶存 鄭 大哥 說 他 姊姊 大概 下午 2 時 50 分時候 聽 到 「 砰 」 聲音並 看到 門口 出現 一個 小洞 就 喊 他 出去 看洞 這個 過程 中越 來 越 大 路上 腳踏車 摩托 車等 就 跟著 掉下去 「 很 可怕 」 鄭 大哥 表示 他 住 這裡 3 年 多 了 旁邊 建案 大概 去年 開始 施工 剛開 挖 時候 路面 龜裂 建商 就 來 補好 之 後 雖然 施工 時 住家 總會 感到 地震 無法 睡 午覺 但 沒什麼 異狀黃則 說 他 住 這裡 20 多年 了 今天下午 外面 散步 走過 去 時 發現 一個 小洞 這個 洞後來 持續 陷 下去 但 他 沒 聽 到 什麼 聲音 新竹縣 竹北 莊敬六街 一處 建案 周邊 日前 才 發 路基 坍塌 導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 施工   疑似 因為 工地 連續 壁施作   且 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 基本 填補 坑洞   受影響 住戶 透露   剛剛 一度 5 名住 戶 受困 屋子 裡   所幸 消防 員協助 救援   而 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  </t>
+          <t>【 1727 ｜ 更新 天坑 初步 原因 】 信義區 崇德街 今 13 天 下午 3 點 13 分傳出 一處 新建 案 工地 旁 道路 「 地層下陷 」 消防局 獲報 緊急 疏散 鄰近 住戶 無人 受傷 根據 消防局 獲報 消息 信義區 崇德街 60 巷 22 號前 新建 工地 旁 出現 道路 地層下陷 馬 路上 出現 一個 長 15 寬 3 深度 約 4 天坑 摩托 車腳 踏車 都 掉入 坑洞 一旁 住戶 家門口 更 危險 「 懸空 」 警消 人員 疏散 鄰近 住戶 所幸 無人 受傷 目前 劃設 警戒 線 建管處 新工處 道 管 中心 瓦斯 司 北水 處派員 趕 赴 現場 處理 信義區 區長 已 趕 抵 現場 坐鎮 指揮 目前 評估 約 10 餘位 住戶 需要 安置 這個 天坑 幾乎 占據 整條 巷弄 北市 建管處 初步 了解 由 於 住 戶 旁 就 工地 施工 疑似 因為 工地 連續 壁施 作且 出現 滲水 狀況 才 釀成 天坑 出現 稍早 水泥 車緊 急 進行 灌漿 作業 主要 基本 填補 坑洞 受響 住戶 透露 剛剛 一度 5 名住 戶 受困 屋子 裡 所幸 消防 員協助 救援 而三戶 門口 前端 地基 被 掏空 住戶 非常 擔心 房屋 可能 會 倒塌 地基 到底 穩不穩 固住 裡面 到底 安 不 安全 今天 晚上 到底 要 住 哪裡 等 問題 不 過關 於後續 賠償 等 都 還要 進 一步 釐 清</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北 市長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  </t>
+          <t>台北市 信義區 崇德街 今 13 日 下午 3 點 13 分傳出 一處 新建 案 工地 旁 道路 「 地層下陷 」 馬 路上 出現 一個 長 15 寬 3 深度 約 4 天坑 摩托 車腳 踏車 都 掉入 坑洞 一旁 住戶 家門口 更 危險 「 懸空 」 而 台北 市長 蔣 萬安 稍早 前往 現場 勘查 受訪 時 表示 第一 時間 就 即刻 派員前 來 相關 單位 了 緊急 疏散 強調當 這次 事件 緊急 處置 告一段落 之後會 台北市 相關 工地 全面 清查 了解 類似 這次 地面 坍塌 原因 積極 相關 處置 目前 對廠 商建築師 各 開罰 9 萬元 工地 勒令停工 蔣 萬安 表示 初步 了解 聽 了 相關 單位 說明 我們 下午 3 點 13 分 消防局 接收 到 地方 反應 這邊 地層下陷 第一 時間 就 即刻 派員前 來 趕快 連絡 了 警察局 新工處 建管處 區所 自來 水處 瓦斯 司台 電等 相關 單位 了 緊急 疏散 蔣 萬安 指出 跟 指揮官 相關 單位 來 說明 第一 人員 安全 最 重要 所以 相關 緊急 應變 處置 必須 盡速 完成 包括 疏散 安置 等等 將這次 地面 坍塌 可能 造成 損害 降到 最低 第二 就 旁邊 工地 目前 了解 可能 連續 壁 滲水 問題 已經 趕快 了 處理 盡速 找出 坍塌 原因 然後盡 快 排除 避免 坍塌 面積 持續 擴大 第三 會 就 這次 地面 坍塌 事件 進行 調查 當然 包括 工地 實施 營造 商過 去 相關 紀錄 第四 當這次 事件 緊急 處置 告一段落 之後要 台北市 相關 工地 全面 清查 了解 類似 這次 地面 坍塌 原因 要積 極來 相關 處置 蔣 萬安 表示 「 我們 現 已經 非常 努力 緊急 應變 處置 第一 時間 盡快 疏散 了 住 戶 我 想 市民 朋友 安全 最 重要 目前 還緊 急 處置 我 想 必要 話 我們還 希望 預防性 疏散 」 而 台北市 土木 技師會 理事 長 莊均緯 指出 還要 再 把 崩塌 孔洞 填補 完成 現還 灌水 當中 水頭 差會 慢慢 達到 平衡 而 因 地質 條件屬 於 沙 跟 水 因此 擔心 擋 土 設施 破洞 只要 衝破 連續 壁洞 勢必 擋 土 牆後面 會 崩塌 目前 要 把 崩塌 部分 用 混 泥土 灌足 外開 挖面 水平衡 只要 水 與 地下水位 一 平衡 土沙 部分 就 會靜止 就 不會 往開 挖面 流動 防止 二次 下陷 目前 搶救 可控 範圍 莊均緯 表示 通常 會發 這狀況 地面 本來 就 下陷 只 下陷 又 再 造成 第二 崩塌 灌漿 部分 還從 最 底下 往上 灌表層 部分 基本上 還 些 鬆 動 需要 等 水位 平衡 後 才能 達到 搶災 最終 停止 狀態 估計 應該 都 要 到 凌晨</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  </t>
+          <t>〔 台北市 信義區 出現 天坑 台北市 消防局 下午 3 時 13 分接 獲通報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 長 15 寬 3 深度 2 至 3 附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑 幸無人 受傷 台北市 政府 表示 目前 已 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 信義區 長 已 趕 抵 現場 坐鎮 指揮 目前 評估 約 10 餘位 住戶 需要 安置 台北市 建築 管理 處 表示 該案 因連續 壁施作 已 派員至 現場 了解 處理 中 目前 了解 連續 壁 滲水 工地 正 止水 當中 消防局 現場 協助 鄰 房民眾 疏散</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>北市 信義區 今 下午 3 點 多出 現大 天坑   崇德 街 60 巷 民宅 前 路面 坍陷   傍晚 5 點多 坑洞 再 擴大   消防局 已緊 急 疏散 鄰近 住戶   信義區 公所 區長 陳 冠伶 表示   9 位有 安置 需求者   已協助 找 好 旅社 並 入住   每人 每日 可申 請 補助 1600 元   最多 7 天       區長 陳 冠伶 表示   人數 調查 一直 變動   目前 9 位有 安置 需求   依規定 發生 緊急 災害 可 申請 安置 補助   每人 一天 1600 元   最多 申請 7 天   已協助 找 好 旅社   住戶 均 已 入住 安置   該 坑 主要 範圍 為 18 號至 24 號   警戒 區 12 號至 24 號已 拉起 封鎖線   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝</t>
+          <t>北市 信義區 今 下午 3 點 多出 現大 天坑 崇德街 60 巷 民宅 前 路面 坍陷 傍晚 5 點多 坑洞 再 擴大 消防局 已緊 急 疏散 鄰近 住戶 信義區 所區長 陳 冠伶 表示 9 位 安置 需求 已協助 找 好 旅社 並 入住 每人 每日 可申 請 補助 1600 元 最 多 7 天區長 陳 冠伶 表示 人數 調查 一直 變動 目前 9 位 安置 需求 依規定 發緊 急 災害 可 申請 安置 補助 每人 一天 1600 元 最 多 申請 7 天已 協助 找 好 旅社 住戶 均 已 入住 安置 該 坑 主要 範圍 為 18 號至 24 號 警戒 區 12 號至 24 號已 拉起 封鎖線 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供</t>
+          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷 崇德街 60 巷 路面 今天下午 3 點 13 分出 現長 15 寬 3 約 2 至 3 深大 天坑 台北市 建管處 表示 該案 因連續 壁施作 已 派員至 現場 了解 處理 中 目前 了解 連續 壁 滲水 工地 正 止水 當中 消防局 現場 協助 鄰 房民眾 疏散 台北市 建管處 表示 該案 因連續 壁施作 已 派員至 現場 了解 處理 中 工地 正 止水 當中 圖讀 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷 崇德街 60 巷 路面 出現 大 天坑 圖讀 提供</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  </t>
+          <t>〔 台北市 信義區 崇德街 60 巷華熊 營造 建案 工地 旁 巷道 昨 13 日 下午 發 地層下陷 出現 長 15 寬 3 深 3 巨大 坑洞 昨晚 灌漿 填補 坑洞 與 建案 基地 坑洞 初步 填平 完成 但 目前 為將 土水壓 平衡 仍 基地 持續 灌水 台北市 都發局長 王玉芬 今 14 日 上午 說明 灌水 作業 預計 今 下午 完成 至於 住戶 回家 需達 3 條件 估計 作業 需 1 至 2 週王玉芬 今 上午 抵達 現場 說明 進度並 表示 造成 道路 塌陷 初步 判斷 工地 地下 連續 壁 約 1112 處 破洞 造成 水 與 砂往 工地 流產 破洞 原因 疑似 為 連續 壁 施工 時 包土 狀況 目前 已 坑洞 進行 灌漿 回填 基地 則採 填砂 灌水 以 平衡 水壓 至於 安置 外住 戶 王玉芬 指出 住戶 回到 家 需 3 個 條件 包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層 監測 建築物 無 傾斜 由 專業 技術 人員 進入 屋檢查 無 毀損 或 裂縫 預計 時間 需 1 至 2 週 希望 可盡 早 完成 讓 住戶 回到 家園 安置 費用則 由 廠商 全部 負擔 針對 現場 作業 進度 王玉芬 說 目前 基地 水位 地下 5.5 大約 下午 會 灌到 地下 3 雖然 昨晚 已 初步 判斷 狀況 趨 於 穩定 但 北市 府 要求 持續 灌水 至 地下 3 處 預計 灌水 作業 今 下午 可 完成 台北市 信義區 長 陳 冠伶今 受訪 表示 調查 結果 撤出 七戶 需要 安置 住戶 一共 5 戶 10 人 目前 都 安置 信義區 旅館 按照 規定 發緊 急 災害 補助 可 申請 安置 補助 每人 一天 1600 元 最 多 可 申請 七天 超過 部分 廠 商承諾 超出 部分 可 負擔</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  </t>
+          <t>首次 上稿   0004 更新 時間   0609 〔 台北市 信義區 崇德街 60 巷一處 華熊 營造 建案 工地 旁 巷道 13 日 下午 3 點多發 地層下陷 出現 長 15 寬 3 深 3 巨大 坑洞 台北市 政府 與 建 商展 開搶救 灌漿 填補 坑洞 與 建案 基地 晚間 11 點 坑洞 初步 填平 完成 北市 府 啟動 預防性 疏散 疏散 安置 11 名住 戶到 旅館 住宿 台北市 建管處 指出 崇德街 60 巷華熊 營造 建築 工地 旁發 道路 坍陷 建管處 收到 訊息 立刻 派員 現場 了解 工地 正 進行 地下室 開挖 因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷 立即 指揮 承造 人 進行 緊急 處置 要求 基地 外 道路 下陷 處 進行 灌漿 回填 基地 採填砂 灌水 以 平衡 水壓 至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成 趨 於 穩定 基地 仍 監督持續 進行 填砂 灌漿 台北市 建管處 長 虞 積學 表示 經 建管處 緊急 聯 繫 台北市 土木 技師會莊 理事 長 結構 技師會 徐 理事 長 均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍 目前 採預 防性 疏散 措施 疏散 1224 號計 5 戶 需 安置 11 名住 戶 均 已 安排 至 旅館 住宿 虞積 學強 調該 建案 違反 「 建築法 」 部分 現場 已 立即 勒令停工 並處 以 18 萬元罰 鍰 建管處 將持續 現場 指揮 搶 救 現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測 提高 觀測 頻率 直到 確認 安全 無虞該 工地 目前 已 勒令停工 後 續須 確認 週邊 地質 鄰房 安全 無虞並 檢具 改善 計畫 經相 關會 審 查核 可 後 始得 復工</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  </t>
+          <t>台北市 信義區 崇德街 一處 新建 工地 旁 道路 13 日發 地層下陷 晚間 緊急 灌漿 搶 救 晚間 11 時 坑洞 初步 填平 完成 附近 住戶 一 早就 跑 來 關心 自己 攤位 擔心會 再次 坍塌 北市 都發局長 王玉芬 視察 表示 初步 判斷 道路 塌陷 原因 因 工地 地下 連續 壁 約 11 至 12 處 破口 水 與 砂往 地下室 流 造成 坑洞 未來 一周 將會 同三大技 師會 全面 檢查 地下室 開挖 工地 避免 類似 意外 再度 發 台北市 信義區 崇德街 一處 新建 工地 旁 巷道 13 日 下午 突然 發 地層下陷 坑洞 長 約 15 寬 3 深度 3 北市 勒令 工地 停工 附近 住戶 一 早就 跑 來 關心 自己 攤位 擔心會 再次 坍塌 周邊 住戶 說 「 昨晚 1112 點還 沒 睡覺 早上 56 點又趕 快 跑 出來 看要 關心 一下 我 自己 攤位 希望 說 沒下 一次 啦 」 信義區 區長 陳 冠伶 表示 「 安置 了 5 戶 一共 10 位現 我們 把 他們 都 安置 我們 信義區 旅館裡 」 台北 市長 蔣 萬安 上午 前往 旅館 探視 安置 戶致 贈慰 問金以 康乃馨 報告 工程 搶修 進度 蔣 萬安 提 「 接下 來 我們 還要 持續 監測 第二 個 我們 會 請 土木 技師來 整體 評估 」 初步 了解 因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷 現場 隨即 進行 緊急 處置 基地 外 道路 下陷 處 進行 灌漿 回填 基地 採填砂 灌水 以 平衡 水壓 北市 府 都發局長 王玉芬 解釋 「 初步 判斷 工地 裡面 地下 連續 壁大約 11 到 12 之間 破口 所以 它 水 跟 砂會 往 地下室 裡面 流才 造成 這個 坑洞 」 為 了 避免 類似 工地 意外 再度 發蔣 萬安 指出 已責成 相關局 處針 對 北市 工地 全面 清查 目前 建築 工地 正開 挖階段 102 件 將由三大 專業會 逐案 現場 勘查 於 一 週檢 查完 畢屆 時 安全 疑慮將 下令 停工 改善</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 大樓 建案   因為 地下 連續 壁 破洞   都 發局 初步 調查 後   對 承造 人 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 旅館   相關 費用 將由建 商來 負責   巷弄 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 遭殃   鐵門 幾乎 懸空   這樣 情況 就 發生 台北市 信義區   短時間   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出     昨天 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 住戶 一共 5 戶     市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 5 戶   一共 10 人   暫時 住 信義區 旅館   依照 規定   每人每天 可以 請領 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 是 回 不了 家 了   超出 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 是 搶災 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 大樓   地下 4 層   地上 17 層   負責 營造 華熊 營造 公司   興建過 包括 台北 101   世貿 中心 陶朱 隱園   都 是 赫赫有名 建築   如今 卻 發生 工安 意外   讓 工程 暫時 喊 卡   首要 之務得 設法 解決 安全 問題   還給 當地 居民 一個 安全 家  </t>
+          <t>北市 信義區 驚見 天坑 市政府 表示 坍塌 原因 指向 旁邊 大樓 建案 因為 地下 連續 壁 破洞 都 發局 初步 調查 後 對 承造 人 監造 人 各 開出 9 萬元罰 單 等 釐 清責任 歸屬 再 進 一步 開罰 至於 附近 住戶 目前 共 10 人 接受 安置 暫住 信義區 旅館 相關 費用 將由建 商來 負責 巷弄 路面 塌陷 好大 一塊 深度 達到 3 一旁 民宅 門口 遭殃 鐵門 幾乎 懸空 這樣 情況 就 發 台北市 信義區 短時間 房子 不能 住 了 住 戶們 該何 去 何 從 台北市 信義區 長 陳 冠伶 指出 「 昨天 疏散 撤離 範圍 從 12 號到 24 號調查 結果 發現 需要 安置 住戶 一共 5 戶 」 市府 緊急 介入 安置 一共 撤離 7 戶 需要 安置 5 戶 一共 10 人 暫時 住 信義區 旅館 依照 規定 每人每天 可以 請領 補助 金 1600 元 可以 請領 7 天 但 看 這情況 住 戶們 一週 回 不了 家 了 超出 費用 將由建商 全額 買單 另外 台北市 都 發局 局長 王玉芬 表示 第一 時間 已經 勒令停工 現進行 搶災 部分 同時會 對 承造 人 跟 監造 人處 各 9 萬元罰 鍰 根據 初判 建商要 負責 因為 一旁 建案 施工 地下 連續 壁 破洞 釀災 原本 要蓋 大樓 地下 4 層 地上 17 層 負責營 造華 熊營 造司 興建過 包括 台北 101 世貿 中心 陶朱 隱園 都 赫赫 名建築 如今 卻 發工安 意外 讓 工程 暫時 喊 卡 首要 之務得 設法 解決 安全 問題 還給 當地 居民 一個 安全 家</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 基隆 報導 〕 基隆市 七堵 區 10 日 發生 百一街 一處 建案 工地 旁電桿 下陷 2 公尺   由 於 5 月 13 日 台北市 信義區 出現 道路 塌陷   民眾 憂心 忡忡 天坑 基隆 重現   民進 黨籍 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全   基隆市 府 15 日 下午 5 點發布 新聞稿   市府 強調 已 要求 建案 停工   市府 將 全面 清查 基隆市 相關 工地 安全     曾怡芳 指出   10 日 晚間 五堵 國小 附近 一處 建案   突然 發生 建案 旁 電桿 下陷 2 公尺 意外   並 造成 附近 住戶 停電 5 小時   日前 台北市 信義區 發生 工地 旁 道路 塌陷 意外   引起 當地 居民 不安   擔心 天坑 基隆 重現     百一街 工地 旁電桿 下陷 事件 發生 後   基隆市 政府 都市 發展 處 12 日 赴 工地 現場 勘查   當天 結論 是 暫 不 要求 業者 停工   待 完成 固化 後   才 會 檢視 發生 電桿 塌陷 道路 龜裂 部分   但業者 表示   10 日 之所以 會 發生 電桿 塌陷   是 因為 電桿 上 變電箱 太重   土質 太 鬆 軟   才 導致 下陷 停電     曾怡芳 指出   事發 建案 旁 就是 五堵 國小   學童 人 數眾 多   且 鄰近 新台 五路 高架 橋   再 加上 附近 居民 表示   自該 建案 動工 以來   已導致 多處 柱位   地面 破損 龜裂   地面 高低 差達 7 公分   這樣 房子 根本 無法 住 人     曾怡芳 要求 基隆市 政府 重視 工安   不要 讓 4 月 27 日 新竹 天坑   5 月 13 日 北市 信義區 天坑 基隆 重現   並 要求 市府 以 最高 標準   來 審查 檢視此 建案     基隆市 政府 都 發處長 謝孝坤 表示   市府 15 日 已 經先 要求 百一街 工地 停工   後 續會 邀請 第三方 相關 技師 公會 詳細 檢視   釐 清電桿 下陷 原因   確保 安全 無虞後才 會 准許 復工   另外   市府 會 優先 清查 巡檢 全市 正在 開挖 地基 施作 連續 壁 工地   確 保民 眾 安全  </t>
+          <t>〔 基隆市 七堵區 10 日發 百一街 一處 建案 工地 旁電桿 下陷 2 由 於 5 月 13 日 台北市 信義區 出現 道路 塌陷 民眾 憂心 忡忡 天坑 基隆 重現 民進 黨籍 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全 基隆市 府 15 日 下午 5 點發布 新聞稿 市府 強調 已 要求 建案 停工 市府 將 全面 清查 基隆市 相關 工地 安全 曾怡芳 指出 10 日 晚間 五堵 國小 附近 一處 建案 突然 發建案 旁電桿 下陷 2 意外 並 造成 附近 住戶 停電 5 小時 日前 台北市 信義區 發 工地 旁 道路 塌陷 意外 引起 當地 居民 不安 擔心 天坑 基隆 重現 百一街 工地 旁電桿 下陷 事件 發 後 基隆市 政府 都市 發展 處 12 日 赴 工地 現場 勘查 當天 結論 暫 不 要求 業 停工 待 完成 固化 後 才 會 檢視 發電桿 塌陷 道路 龜裂 部分 但業 表示 10 日 之所以 會 發電桿 塌陷 因為 電桿 上 變電箱 太重 土質 太 鬆 軟 才 導 致 下陷 停電 曾怡芳 指出 事發 建案 旁 就 五堵 國小學 童人 數眾 多且 鄰近 新台五路 高架 橋再 加上 附近 居民 表示 自該 建案 動工 以來 已導致 多處 柱位 地面 破損 龜裂 地面 高低 差達 7 分 這樣 房子 根本 無法 住 人 曾怡芳 要求 基隆市 政府 重視 工安 不要 讓 4 月 27 日 新竹 天坑 5 月 13 日 北市 信義區 天坑 基隆 重現並 要求 市府 以 最高 標準 來 審查 檢視此 建案 基隆市 政府 都 發處長 謝孝坤 表示 市府 15 日 已經 要求 百一街 工地 停工 後 續會 邀請 第三方 相關 技師會 詳細 檢視 釐 清電桿 下陷 原因 確保 安全 無虞後才 會 准許 復工 另外 市府 會優 清查 巡檢 全市 正開 挖 地基 施作 連續 壁 工地 確 保民 眾 安全</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 草原 都 因 地層下陷   出現 大大小小 坑洞   遭議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 建置 自行 車道 會勘 過程 中   發現 綠地 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區   都 會 中 綠洲                               市議員 張桂綿 近期 發現   公園 中 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現   無底 洞     遭議員 批評 宛如 成 了   地 雷公 園     圖 ／ 張桂綿 提供</t>
+          <t>桃園市 蘆竹區 南興 水岸 遊憩 園耗資 1 億元 2019 年 竣工 不到 4 年 近期 卻 被 發現 步道 草原 都 因 地層下陷 出現 大大小小 坑洞 遭議員 批評 宛如 成 了 「 地雷 園 」 市府 工務局 表示 地層下陷 原因 可能 水路 沖 刷 造成 後 續會 再 前往 會勘 確認 南興 水岸 遊憩 園 2019 年 完工 當時 市府 進行 南 崁 溪 整治 建置 自行 車道 會勘 過程 中 發現 綠地水 利用 地未 被 徵收 經與 地方 討論 後 市府 決定 徵收 開闢 為 水景 園引 進共融式 設計 設置 樹屋 人文 廣場 森林 小徑 遊戲 沙坑 自行 車道 等 成為 南 崁 住宅 密集 區 「 都 會 中綠洲 」 市議員 張桂綿 近期 發現 園中 步道 嚴重 下陷 凹 了 一塊 包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞 甚至 掏空 成 了 無底 洞 主因 就 鄰近 河川 水流 滲透導致 地層下陷 嚴重 土壤 幾乎 全都 流失 「 這裡 宛如 地雷 區 」 張桂綿 直言 如果 民眾 或 兒童 沒 注意 一不小心 可能 會 踩 空受 傷前 已向區 所 反映 但 至今 仍無解 方呼籲 市府 務 單位 多 幫忙 盡速 拆除 「 地雷 」 還給 鄉親 安全 遊憩 環境 工務局 長 汪宙 表示 初步 判斷 可能 施工 時 夯土 不夠 扎實 附近 水流 滲透 加上 行人 重量 造成 壓力 才 導致 夯土 流失 地層下陷 市府 後 續會 協同 各 單位 前往 會勘 了解 發 原因 並盡速 改善 施工 缺失 桃園 蘆竹區 南興 水岸 遊憩 園 竣工 不到 4 年 步道 卻 嚴重 凹陷 恐響 市民 安全 圖 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 園耗資 1 億元 卻 出現 「 無底 洞 」 遭議員 批評 宛如 成 了 「 地雷 園 」 圖 張桂綿 提供</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 草 原因 地層下陷   出現 大大小小 坑洞   議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   南 崁 住宅 密集 區營造   都 會 中 綠洲                               市議員 張桂綿 說   公園 步道 近期 嚴重 下陷   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成   無底 洞     推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  </t>
+          <t>桃園市 蘆竹區 南興 水岸 遊憩 園耗資 1 億元 打造 完工 迄今 不到 4 年 近期 被 發現 步道 草 原因 地層下陷 出現 大大小小 坑洞 議員 批評 宛如 成 了 「 地雷 園 」 市府 工務局 表示 地層下陷 原因 可能 夯土 不夠 扎實 水路 沖 刷 造成 將 安排 會勘 改善 南興 水岸 遊憩 園 2019 年 竣工 市府 特別 引進 共融式 設計 設置 樹屋 人文 廣場 森林 小徑 遊戲 沙坑 自行 車道 等 南 崁 住宅 密集 區營造 「 都 會 中綠洲 」 市議員 張桂綿 說園 步道 近期 嚴重 下陷 包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞 甚至 掏空 成 「 無底 洞 」 推測 鄰近 河川 水流 滲透導致 地層下陷 嚴重 土壤 幾乎 全都 流失 「 這裡 宛如 地雷 區 」 張桂綿 直言 如果 民眾 或 兒童 沒 注意 一不小心 可能 踩 空 受傷 已向區 所 反映 但 仍 無 解方 呼籲 市府 工務 單位 正視 盡速 拆除 「 地雷 」 還給 鄉親 安全 遊憩 環境 工務局 長 汪宙 說 初判 可能 施工 時 夯土 不夠 扎實 附近 水流 滲透 加上 行人 重量 造成 壓力 導致 夯土 流失 地層下陷 市府 後 續會 協同 各 單位 現勘 了解 發 原因 並盡速 改善 施工 缺失</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 速度   持續 下沉 中   而 部分 地區   下沉 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 海平面 上升 雙重 夾擊   讓 紐約市 岌岌可危     紐約 市將 30 年後沈入 海底       這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 速度 持續 下沉 中   紐約市 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 重量   聯合國 秘書長 古特 瑞斯 說     海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數     原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 情況 是   21 世紀 結束 時   紐約 海平面 比現 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  </t>
+          <t>根據 研究 指出 美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 分 速度 持續 下沉 中 而 部分 地區 下沉 速度 甚至 比 平均值 高出 兩倍 分析 主要 原因 因為 大量 建築物 尤其 一棟棟 摩天 大樓 讓 地表 超重 再 加上 海平面 不斷 上升 地層下陷 海平面 上升 雙重 夾擊 讓 紐約市 岌岌可危 「 紐約 市將 30 年後沈入 海底 」 這 可能 不 危言 聳 聽 因為 研究 指出 紐約市 正以 每年 0.1 到 0.2 分 速度 持續 下沉 中紐 約 市 840 萬人 不但 人口 高度 密集 更 一座 水泥 叢林帝 國大廈 等 數不清 摩天 大樓 壓得 紐約 喘 不 過氣 紐約市 建築 總 重量 大約 7620 億斤 相當 於 1.4 億頭 大象 重量 聯合國 秘書長 古特 瑞斯 說 「 海平面 上升 不僅僅 只 威脅 而已 它 更 威脅 乘數 」 原來 從 1950 年 以來 紐約市 沿岸 海平面 已經 上升 22 分大 蘋果 海平面 上升 速度 全球 平均值 兩倍 預 估到 2050 年 紐約市 海平面 將 上升 30 到 45 分 這中間 值 最高 甚至 估計 到 76 分 最壞 情況 21 世紀 結束 時紐 約 海平面 比現 上升 約 180 分 自由 女神像 早已 滅頂 建築物 導致 地層下陷 海平面 快速 上升 不用 太久 紐約市 恐怕 將成 為 歷史 名詞</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】</t>
+          <t>紐約市 正 下陷 美國 地質 專家 研究 發現 由 於 紐約市 摩天 大樓 眾多 加上 地質 變動 部分 紐約市 地層 已 下陷 至少 2 分未來 若 再 加上 海平面 上升 恐讓 沿海 地區 居民 存備 受 威脅 紐約 每年 均 下沉 據 獨立報 報導 紐約市 人口 約 800 萬美國 地質 調查局 研究 人員 指出 包括 布魯克林 皇后 區與 下曼頓 部分 紐約市 因為 地層下陷 每年 下沉 1 到 2 分該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億斤 重量 等 因素 除此之外 研究 更 指出 紐約 市還 面臨 洪水 危害 風險 海平面 上升 亦 威脅 稍早 研究 曾 指出 全球 暖化 帶來 海平面 快速 上升 2050 年前 全球 海平面 將 上升 200 到 600 分 研究 人員還 指出 紐約市 每年 下陷 約 1 到 2 分 部分 地區 下沉 速度 更 快 原因 除了 近期 不斷 興建 摩天 大樓 外還 包括 抽取 地下水 土壤 壓實 與 地震 等 因素 都市 建築物 面臨 其他 風險 例如 地層 暴露 鹽水 後 可能 導致 鋼筋 混凝土 受到 侵蝕 因此 減少壽命 下 沈 自然 造成 據 Live   Science 報導 研究 指出 紐約市 下 沈 部分 原因 可能 自然 形成 因為 上 一次 冰河 時期 最 寒冷 時候 巨大 冰層 曾 覆蓋 大部分 地球 造成 冰層 下方 地面 下陷 進而 讓 陸地 邊緣 升起 等到 冰層 融化 後 被 抬升 地區則 開始 下陷 之前 研究 就 指出 到 2100 年 美國 東岸 可能 會 下陷 48 至 150 分 除了 大自然 力量 之外 研究 人員 認為還 可能 包括 其他人 為 因素 且 科學家 發現 當地 某些 地區 下沉 速度 更 快 原因 可能 建築物 重量 造成 本次 研究 結果 刊登 Earths   Future 期刊 【 更 多 精采 詳見 】</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    </t>
+          <t>一項 最新 研究 發現 美國 紐約 市長 期 承受 大量 建築物 重量 之下 地層 正 下陷 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上 恐為 紐約市 招致 洪災 等 危機 美國線 電視 新聞網 CNN 報導據 推估 紐約市 2050 年 海平面 將 上升 8 至 30 英寸 20.32 至 76.2 分 更 重要 科學家 預期 由 於 人 為 引發 氣候 危機類 似東 北風暴 noreaster 颶風 這類 極端 降雨 事件 將更頻 繁地 出現 美國 地質 調查 所 US   Geological   Survey 專家 帕森斯 Tom   Parsons 說 「 我們 離 海水倒灌 還 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件 像 颶風珊迪 Sandy 艾達 Ida 帶來 暴雨 使得 城市 淹水 成災 都市化 帶來 部分 響 使得 水災發 」 這篇論 文發表 期刊 「 地球 未來 」 EarthsFuture 上旨 展示 沿海 河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險 以應 採取 相關 措施 來 降低 潛危險 衝擊 研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量 計算出 這些 建築物 重量 約 為 7620 億斤 相當 於 約 190 萬架 滿載 波音 747400 客機 研究 團隊 接著 利用 模擬 方式 計算出 這些 重量 對 地面 響並 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較 帕森斯 說 這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米 部分 下陷 較嚴 重地 區 每年 下陷 約 4.5 毫米 」 然而 並非 所 地層下陷 都 建築物 造成 帕森斯 說 「 我們 可想 見 非常 鬆 軟 土壤 人工 填 土地 面上 建造 建築 地層下陷 關聯 … 其他 地方 我們則 看到 難以 解釋 地層下陷 它 很多 不同 成因 例如 上個 冰河 時期後發 後 冰期 回落 或 抽取 地下水 」 研究 表明 地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅 而且 這種 情況 不只 發紐 約 市 帕森斯 說 「 這一個 全球性 問題 我 來 自羅德島 大學 University   of   Rhode   Island 合著 研究 了 世界各地 共 99 座 城市 不只 沿海 城市 陸 城市 其中 絕 大多 數都存 地層下陷 問題 」</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">經典 末日 電影   明天 過後     海水 源源 不絕 灌入 市區   整座 城市 轉眼 之間 沉 沒 大海   令人 難以 置信   這樣 災難 情節   未來 可能 紐約 真實 上演   人稱   大 蘋果   美國 紐約   高樓 林立   房子 一棟 比 一棟 蓋 得 更 高   更 奢華   光是 摩天 大樓 就 多 達 6000 棟   整座 城市 更 超過 100 萬棟 建築物   總 重量 高達 7700 億 公斤   約 1.4 億頭 大象   而 高樓 數量 還持續 增加 中   土地 承受 不了 建築物 重壓   加上 超 抽 地下水   使得 地層下陷   紐約 正 逐漸 下沉 中   雖然 從 數字來 看 沒什麼 大不了   換算 下來   每 10 年 才 下沉 2 公分   但 專家 警告   這對 沿海 地區 影響 不容 小覷   紐約 人口 最 密集 曼哈頓 跟 海岸 地區 首當 其衝   這個 世紀末   就是 西元 2100 年前   可能 陷入 汪洋 之中   成 了 名 副 其實   水 都     專家 擔心   地層下陷 跟 海平面 上升 雙重 夾擊 下   未來 如果 再 遇上 強烈 颶風   災情 可能 一年 比 一年 嚴重   氣候變遷 加劇   海平面 快速 上升   原因 都 跟 高碳 排放 脫 不了 關 係   減碳 成為 各國 首要 目標   紐約 當局 祭出 了 減碳 法令   限制 大樓 排放量   希望 改善 暖化 問題   減緩 海平面 上升   紐約 一半 以上 建築都將 受到 規範   有效 控制 碳 排放   有些 建商 採用 新技術   地下室 打造   碳 捕捉 室     把 二氧化碳 收集 起來   更好 利用   透過 儀器   把 天然 氣燃 燒產生 二氧化碳 轉換成 液態   阻止 它 進入 大氣層   還能 賣給 建商   力行 減碳免 於 受罰   還能 賺 錢   是 一舉 多 得   大樓 是 紐約 最大 碳 排放 來源   佔 了 城市 碳排 三分之二   把 造成 暖化 二氧化碳 封存 水泥   從 根本 減碳 做起   未來 也將 全面 電氣化   停止使用 天然 氣和 化石 燃料   減緩 暖化 速度   紐約 當局 防患未然   沿海 地區 設立 防波堤   環繞 整個 紐約   強化 海岸 防洪 能力   避免 強烈 颶風來 襲時   海水 灌入 市區   對 市區 造成 損害   建造 海牆 能 有效 防洪   但 可能 破壞 市容   干擾 海邊 活動   影響 沿海居民   美國陸 軍 工程兵 團也 擬定 一項 名為 3B 新計畫   把 防洪 設施 分散 各地   降低 對 當地 影響   能 達 到 最好 效果   希望 對 民生   環境 能 面面俱到   不 只 紐約 面臨 下沉 危機   全球 多國 沿海 城市   飽 受 海平面 上升 之苦   氣候變遷 威脅 越來 越大   各國 除了 要 加強 防洪 設施   要 經濟 開發 跟 環保 取得 平衡   加強 減碳 跟 發展 綠色 能源   才能 防止 大自然 反撲  </t>
+          <t>經典 末日 電 明天 過後 海水 源源 不絕 灌入 市區 整座 城市 轉眼 之間 沉 沒 大海 令人 難以 置信 這樣 災難 情節 未來 可能 紐約 真實 上演 人稱 「 大 蘋果 」 美國 紐約 高樓 林立 房子 一棟 比 一棟 蓋 得 更 高 更 奢華光 摩天 大樓 就 多 達 6000 棟 整座 城市 更 超過 100 萬棟 建築物 總 重量 高達 7700 億斤 約 1.4 億頭 大象 而 高樓 數量 還持續 增加 中 土地 承受 不了 建築物 重壓 加上 超 抽 地下水 使得 地層下陷 紐約 正 逐漸 下沉 中 雖然 從 數字來 看 沒什麼 大不了 換算下 來 每 10 年 才 下沉 2 分 但 專家 警告 這對 沿海 地區響 不小 覷 紐約 人口 最 密集 曼頓 跟 海岸 地區 首當 其衝 這個 世紀 末 就 西元 2100 年前 可能 陷入 汪洋 之中 成 了 名 副 其實 「 水 都 」 專家 擔心 地層下陷 跟 海平面 上升 雙重 夾擊 下 未來 如果 再 遇上 強烈 颶風 災情 可能 一年 比 一年 嚴重 氣候變遷 加劇 海平面 快速 上升 原因 都 跟 高碳 排放 脫 不了 關 係 減碳 成為 各國 首要 目標 紐約 當局 祭出 了 減碳 法令 限制 大樓 排放量 希望 改善 暖化 問題 減緩 海平面 上升 紐約 一半 以上 建築都將 受到 規範效 控制 碳 排放 些 建商 採用 新技術 地下室 打造 「 碳 捕捉 室 」 把 二氧化碳 收集 起來 更好 利用 透過 儀器 把 天然 氣燃 燒產 二氧化碳 轉換成 液態 阻止 它 進入 大氣層 還能 賣給 建商 力行 減碳免 於 受罰 還能 賺 錢 一舉 多 得 大樓 紐約 最大 碳 排放 來源 佔 了 城市 碳排 三分之二 把 造成 暖化 二氧化碳 封存 水泥 從 根本 減碳 起 未來將 全面 電氣化 停止使用 天然 氣 化石 燃料 減緩 暖化 速度 紐約 當局 防患未然 沿海 地區 設立 防波堤 環繞 整個 紐約 強化 海岸 防洪 能力 避免 強烈 颶風來 襲時 海水 灌入 市區 對 市區 造成 損害 建造 海牆 能效 防洪 但 可能 破壞 市 干擾 海邊 活動響 沿海居民 美國陸 軍 工程兵 團擬定 一項 名為 3B 新計畫 把 防洪 設施 分散 各地 降低 對當 地響 能 達 到 最好 效果 希望 對民環境 能 面面俱到 不只 紐約 面臨 下沉 危機 全球 多國 沿海 城市 飽受 海平面 上升 之苦 氣候變遷 威脅 越來 越大 各國 除了 要 加強 防洪 設施 要 經濟 開發 跟 環保 取得 平衡 加強 減碳 跟 發展 綠色 能源 才能 防止 大自然 反撲</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">美國 紐約 是 東部 最熱鬧 城市 之一   是 美國 人口 最多 城市   但 研究 顯示   這座 重要 城市 卻 每年 都 下沉 中   部分 地區 最 後 可能 還會 被淹 沒   電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   美國 紐約 摩天 大樓 林立   但 多 達 百萬棟 建築物實 太重 了   讓 整座 城市 地層 正在 下陷   再 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   長 久 下來 恐發生 海水倒灌 等 洪水 災害   美國 地質 調查 所 專家 帕森斯 表示     無可 避免   地面 下降   水面 上升   某些 時候   這兩層 面會 同時 發生   但 我 沒辦 法給 確切 時間點     帕森斯 說   超過 百萬座 建築物 分布 五個 行政 區上   加起 來 約 1.7 兆 磅 混凝土   金屬 玻璃 等 建材   相當 於 4700 座帝 國大廈 重量 壓在 地球 上   其中   部分 大樓 建築 布魯克林   皇后 區和曼 哈頓 市中心 土 質 鬆 散 地 區 上   下沉 速度 更 快   美國 地質 調查 所 專家 帕森斯 表示     中部 大陸 上升   東 海岸 每年 下沉 約 1 至 2 公 釐   這是 我們 看到 主要 警訊   再 加上 紐約市 不同 土壤 質地   還有 人工 填土 來 增加 土地 面積   但 它們 土壤 固結度 很 差   還是 可以 讓 地層下陷     帕森斯 還說   雖然 下沉 速度 很 緩慢   但 紐約 部分 地區 最 終將 被淹 沒   猶如 電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   至於 紐約 是否 會 變成 美國版 威尼斯   帕森斯 表示   確切 時間點 目前 尚 不 清楚   可能 還 需要 數 百年 時間   但 他 研究 不是 危言 聳 聽   只是 希望 透過 科學 數據   問題 擴大前   採取 行動  </t>
+          <t>美國 紐約 東部 最熱鬧 城市 之一 美國 人口 最 多 城市 但 研究 顯示 這座 重要 城市 卻 每年 都 下沉 中 部分 地區 最 後 可能 還會 被淹 沒電 明天 過後 海水倒灌 場景 未來 恐怕 真會 發美國 紐約 摩天 大樓 林立 但 多 達 百萬棟 建築物實 太重 了 讓 整座 城市 地層 正 下陷 再 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上 長 久 下來 恐發 海水倒灌 等 洪水 災害 美國 地質 調查 所 專家 帕森斯 表示 「 無可 避免 地面 下降 水面 上升 某些 時候 這兩層 面會同 時發 但 我 沒辦 法給 確切 時間點 」 帕森斯 說 超過 百萬座 建築物 分布 五個 行政 區上 加起 來 約 1.7 兆 磅 混凝土 金屬 玻璃 等 建材 相當 於 4700 座帝 國大廈 重量 壓 地球 上 其中 部分 大樓 建築布 魯克林 皇后 區曼頓 市中心 土 質 鬆 散 地 區 上 下沉 速度 更快 美國 地質 調查 所 專家 帕森斯 表示 「 中部 大陸 上升 東 海岸 每年 下沉 約 1 至 2 釐 這我們 看到 主要 警訊 再 加上 紐約市 不同 土壤 質地還 人工 填土 來 增加 土地 面積 但 它們 土壤 固結度 很 差還 可以 讓 地層下陷 」 帕森斯 還說 雖然 下沉 速度 很 緩慢 但 紐約 部分 地區 最 終將 被淹 沒猶如電 明天 過後 海水倒灌 場景 未來 恐怕 真會發 至於 紐約會 變成 美國版 威尼斯 帕森斯 表示 確切 時間點 目前 尚 不 清楚 可能 還 需要 數 百年 時間 但 他 研究 不 危言 聳 聽 只 希望 透過 科學 數據 問題 擴大前 採取 行動</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 今天 塌陷   一輛 預拌 混凝土車 側翻   壓傷 一名 工人   被 送醫 急救   台中市 勞檢處 已 派 人 到場 調查   並 勒令停工   因 工地 沒 擋 土   地面 承載力 不足 等 缺失       台中市 消防局 今天 早上 9 點接 獲 報案   沙鹿 區錦華街 一處 工地 旁發生 緊急 創傷 救護   出動 沙鹿   龍井   梧棲   西屯 分隊 第四 大隊   各式 消防 車輛 10 輛   消防人 員 25 名   由大隊 長 蔡孟栩帶 隊 指揮 搶 救                             現場 是 路面 坍方   造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人   工地 營建廠 商已 協助 聯 繫 吊 車 到 場   地層下陷 造成 預拌 混 泥土 車車輛 翻覆   沙鹿 消防 分隊 到 場後先 以 消防 車絞盤   梧棲分隊 使用 車 吊臂 共同 固定 預拌 混 泥土 車   確保 傷者 安全 無虞   因 該車 重量 達 35 噸 以上   需 等待 業者 配合 大型 吊車 到 場方能 吊掛   先由救護 人員 接觸 患者 進行 緊 急救 護處 置       早上 9 點 34 分   業者 調派 吊車 至 現場 進行 車輛 吊掛   消防局 搶 救人 員協助 以油 壓破壞 器材   協助 傷者 脫困   10 點 4 分傷者 順利 脫困   送 梧棲童 綜合 醫院       傷者 到 醫院 時 意識 清楚   雙 下肢 背部 擦 挫傷   右 大腿 燙傷   應是 鋼版 高溫 造成   目前 仍 醫院 檢查 中   台中市 勞檢處 表示   工地 地面 承載力 不足   造成 地面 塌陷   車翻 傷心 意外   已 要求 停工   將開罰 3 到 30 萬元 不 等 罰 鍰   台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供</t>
+          <t>台中市 沙鹿區 一處 工地 旁 路面 坍方 今天 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 圖 台中市 消防局 提供 台中市 沙鹿區 一處 工地 旁 路面 今天 塌陷 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 被 送醫 急救 台中市 勞檢處 已 派 人 到場 調查並 勒令停工 因 工地 沒擋 土地 面承載力 不足 等 缺失 台中市 消防局 今天 早上 9 點接 獲 報案 沙鹿區 錦華街 一處 工地 旁發 緊急 創傷 救護 出動 沙鹿 龍井 梧棲 西屯 分隊 第四 大隊 各式 消防 車輛 10 輛 消防人 員 25 名由大隊 長 蔡孟栩帶 隊 指揮 搶 救 現場 路面 坍方 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 工地 營建廠 商已 協助 聯 繫 吊 車 到 場 地層下陷 造成 預拌 混 泥土 車車輛 翻覆 沙鹿 消防 分隊 到 場後以 消防 車絞盤 梧棲 分隊 使用 車 吊臂 共同 固定 預拌 混 泥土 車確 保傷 安全 無虞因 該車 重量 達 35 噸 以上 需 等待 業 配合 大型 吊車 到 場方能 吊掛 由 救護 人員 接觸 患進 行緊 急救 護處 置 早上 9 點 34 分業 調派 吊車 至 現場 進行 車輛 吊掛 消防局 搶 救人 員協助 以油 壓破壞 器材 協助傷 脫困 10 點 4 分傷 順利脫 困送 梧棲 童 綜合 醫院 傷到 醫院 時 意識 清楚 雙 下肢 背部 擦 挫傷 右 大腿 燙 傷應 鋼版 高溫 造成 目前 仍 醫院 檢查 中 台中市 勞檢處 表示 工地 地面 承載力 不足 造成 地面 塌陷 車翻 傷心 意外 已 要求 停工 將開罰 3 到 30 萬元 不 等 罰 鍰 台中市 沙鹿區 一處 工地 旁 路面 坍方 今天 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 圖 台中市 消防局 提供 台中市 沙鹿區 一處 工地 旁 路面 坍方 今天 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 圖 台中市 消防局 提供 台中市 沙鹿區 一處 工地 旁 路面 坍方 今天 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 圖 台中市 消防局 提供 台中市 沙鹿區 一處 工地 旁 路面 坍方 今天 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 圖 台中市 消防局 提供 台中市 沙鹿區 一處 工地 旁 路面 坍方 今天 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 圖 台中市 消防局 提供</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">印尼 海域 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 寧靜 自然   還能 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出     紅樹林 是 很 獨特 生態 系統   一種 植物   有趣 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要     印尼 首都 雅加 達長 期受 極端 氣候 引發 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 一小部分   過去 一年 就 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示     我們 需要 生存 下去   但 很 難 找到 像樣 工作   當時 唯一 知道 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁     這片 海域 位 東南亞 從菲律 賓到 印尼   澳洲 之間 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 當地 巴迪島   努力 復 育 周邊 3 公頃 珊瑚礁   耐心 說 服漁民 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 海底 回春   熱帶 魚群 穿梭 新生 珊瑚礁 之間   環境 科學家 尤素夫 提及     印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 世界 遺產   一個 小小的 努力 都 可能 影響 世界     印尼 海域 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 18%   珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 海域   一步 一步 把 失去 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  </t>
+          <t>印尼 海域 珊瑚礁 面積 超過 5 萬 平方里 占 全世界 18% 但過 去 飽 受 非法 炸魚 破壞 一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變成 了 保護 珊瑚礁 尖兵 另外 印尼 首都 雅加 達 地層下陷 嚴重 當局 開發紅 樹林 態觀光 讓 遊客 種樹救 環境 寓教 於 樂 印尼 首都 雅加 達 北部 海岸 一片 紅 樹林 自然 保護區遊 客划 著 小艇 來 這裡 享受 遠離塵 囂寧靜 自然 還能 環保 人士 引導 下親 手種 植紅 樹林 樹苗為 保護 首都 環境 盡 一份 心 力保 護區 遊客 娜塔莉 亞 指出 「 紅 樹林 很 獨特態 系統 一種 植物 趣紅 樹林 可 吸收 危險 金屬還 可以 改善 空氣 品質 這 不正 我們 人類 所 需要 」 印尼 首都 雅加 達長 期受 極端 氣候 引發 洪水 暴風雨 衝擊 加上 超 抽 地下水 地層下陷 快速 平均 一年 15 分 已經 面臨 遷都 危機紅 樹林 能夠 抵擋 潮汐 上升 保護 土地 天然屏障 印尼 當局 去 2022 年 啟動 了 一項 恢 復 60 萬 頃紅 樹林 計畫 但紅 樹林 必須 成長 5 到 10 年才夠 強壯能 抵禦 海浪 潮汐 而 周邊還 很多 建商虎視 眈眈 想把紅 樹林 開發 成沙 灘遊樂區 保育 計畫 困難 重重 卻 必須 堅持 到底 而 這片 98 頃保護區 只 印尼 全國 沿岸 410 萬 頃紅 樹林 一小部分 過去 一年 就 70 萬頃 被 砍伐 另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組 成斯珀 蒙德 群島 海域 20 年前 因為 非法 捕魚 猖獗 海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般 碎片 只 剩 2% 倖 存前 偷 獵達林 表示 「 我們 需要 存 下去 但 很 難 找到 像樣 工作 當時 唯一 知道 工作 盜獵 所以 我們 開始 炸 珊瑚礁 」 這片 海域 位東 南亞 從菲律 賓到 印尼 澳洲 之間 珊瑚 大 三角 區域 物種 豐富 多樣 海底 態搖籃 破壞 至此 非常 可惜 科學家 尤素夫 教授 過去 20 年來 當地 巴迪島 努力 復 育 周邊 3 頃 珊瑚礁 耐心 說 服漁民 保育 從 珊瑚 產卵 受精 繁殖 開始 起 把 蜘蛛 型 框架 結構 放入 海底 上面 綁 著 珊瑚 碎片 讓 它們 長 過去 炸魚 毒魚 盜 獵變 成態 守護長 期紀錄 並且 細 心照 顧 已經 慢慢 看到 荒蕪 海底 回春 熱帶 魚群 穿梭 新 珊瑚礁 之間 環境 科學家 尤素夫 提 「 印尼 菲律賓 與 印度 太平洋 這片 珊瑚 大 三角 必須 得到 保護 才能 為 後 代子 孫 保留 這片 海中 世界 遺產 一個 小小 努力 都 可能 響 世界 」 印尼 海域 珊瑚礁 面積 5 萬 875 平方里 占 世界 珊瑚礁 總面積 18% 珊瑚 大 三角 區域 佔 比 更 高達 65% 尤素夫 教授 了 成功 經驗現 把 保育 觸角 擴展 到 鄰近 兩個 島嶼 將近 5 頃 海域 一步 一步 把 失去 珊瑚礁 補 救回 來 但 這還 一條 漫漫 長 路</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">台南市 人權律師 湯德章 故居 2020 年 由 文化界 發起 募款 籌得 2 千萬元 買 下   稍微 整修   但 目前 房舍 破爛   蟲蛀   傾斜   危險 之 虞   湯德章 紀念 協會 自籌 經費 獲 文化部   台南市 文化局 補助   將斥資 1260 萬元修 復   昨舉 行動土   預計 1 年 後 完工   希望 恢 復 老屋 原來 面貌       湯德章 紀念 協會 理事 長 黃 建龍 說   湯德章 故居 透過 群眾 集資 力量 順利 搶 救 買 下   並將 嚴重 蛀蝕 部分 清理   拆除 危牆   重新 拉配 水電   布設 簡要 展覽   前年 開放 參觀   但 這棟 90 餘年 老屋   歷經 多次 地震   後 段 建物 明顯 地層下陷 傾斜   嚴重 漏水   梁柱 遭蟲 蛀   木件 門窗 不見 等   為 讓 故居 永續 經營   決定 修 復 再生                             協會 去年 與 崑 山 科技 大學 合作   由 郭一勤 老師 帶 領團 隊展 開建築物 損毀 檢查 與 重新 測繪   提出 湯德章 故居 保存 再生 計畫   獲 文化部 私有 老建築 保存 再生 計畫 通過 補助   修 復工 程由 文化部 台南市 文化局 補助 882 萬餘元   其餘 由 協會 自籌   初估 超過 600 萬元       市長 黃 偉哲 說   保存 再生 計畫將 進行 設施 再 優化   會 陳 列許 多 湯德章 律師 遺物 呈現 228 事件 的歷 史事 蹟   讓 後 世子 孫永遠 都 能 記得     希望 這段 歷史 被 原諒   但 不能 被 忘記         文化局 表示   市府 努力 協助 爭取 再生 計畫 過程 中   全案 因具 高 公益性   是 去年 文化部 私有 老建築 保存 再生 計畫 中 最 受矚 目的 申請案   湯德章 故居 修 復工 程啟 動   象徵推 廣人權 教育 之 路 向前 邁進 一大步  </t>
+          <t>台南市 人權律師 湯德章 故居 2020 年 由 文化界 發起 募款 籌得 2 千萬元 買 下 稍微 整修 但 目前 房舍 破爛蟲 蛀 傾斜 危險 之 虞 湯德章 紀念 協會 自籌 經費 獲 文化部 台南市 文化局 補助 將斥資 1260 萬元修 復 昨舉 行動土 預計 1 年 後 完工 希望 恢 復 老屋 原來 面貌 湯德章 紀念 協會 理事 長 黃 建龍 說 湯德章 故居 透過 群眾 集資 力量 順利 搶 救 買 下 並將 嚴重 蛀蝕 部分 清理 拆除 危牆 重新 拉配 水電布設 簡要 展覽 前年 開放 參觀 但 這棟 90 餘年 老屋 歷經 多次 地震 後 段 建物 明顯 地層下陷 傾斜 嚴重 漏水 梁柱 遭蟲 蛀 木件 門窗 不見 等 為 讓 故居 永續 經營 決定 修 復 再 協會 去年 與 崑 山 科技 大學 合作 由 郭一勤 老師 帶 領團 隊展 開建築物 損毀 檢查 與 重新 測繪 提出 湯德章 故居 保存 再計畫 獲 文化部 私老 建築 保存 再計畫 通過 補助 修 復工 程由 文化部 台南市 文化局 補助 882 萬餘元 其餘 由 協會 自籌 初估 超過 600 萬元 市長 黃 偉哲 說 保存 再計 畫將 進行 設施 再 優化會 陳 列許 多 湯德章 律師 遺物 呈現 228 事件 歷 史事 蹟 讓 後 世子 孫永遠 都 能 得 「 希望 這段 歷史 被 原諒 但 不能 被 忘 」 文化局 表示 市府 努力 協助 爭取 再計畫 過程 中 全案 因具 高 益性 去年 文化部 私老 建築 保存 再計畫 中 最受 矚目 申請案 湯德章 故居 修 復工 程啟 動象 徵推廣人權 教育 之 路 向前 邁進 一大步</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>近期 受滯 留 鋒面 及農 曆 大潮 影響   台灣 南部 午後出現 局部 強 降雨   嘉義 沿海 地層下陷 易 淹水   五河 局 預置 淹水 感測器 移動式 抽水機   監控積 淹水 情況   縣府 提前 協助 清除 河道 障礙物   確保 排水 通洪順暢   並呼籲 漁民 做好 防災 措施       縣府 漁業 處 指出   因 近期 可能 大量 降雨   整備 防汛 應變   督導 2 件 在建 中 大型 養殖區 排水工程   移除 河道 中機 具及 打通 阻礙物   雖會 影響 工期 增加 工程 不便   但 仍 以防 災為 最 優先 考量   避免 造成 附近 或 上游 淹水 災情                             漁業 處 呼籲   這 周天 氣極 不 穩定   低壓 帶 滯留 鋒面 影響   易有 短延 時強 降雨   海面 風浪 不佳   提醒 漁友 要 多加 留意 養殖 管理   並 做好 防災 工作   若有 災害 要 隨時 通報   以利 立即 搶救       第五 河川 局說   已 成立 應變 小組   全天候 線上 監控 水情   以便 及時 應 對   確保 各項 防洪措施 關鍵 時刻 發揮 作用   並積 極加強 防汛 整備   對 抽水站   破堤 施工   防汛 缺口 在建 工程 等 重點 項目 進行 檢查 監督       五河 局 提醒   民眾 應多關 注水 情資訊   清理 自家 陽台 洩 水管 附近 溝渠   並透過 防災 資訊 服務網   以及 行動 水情 APP 等 防災 工具   即時 掌握 相關訊息   有效 減少 災害 損失   近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 縣 沿海 地層下陷 恐 淹水   縣府 督導 在建 中 大型 養殖區 做好 排水工程   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   第五 河川 局出動 移動式 抽水機 待命   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷區 慎防 淹水   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷區 慎防 淹水   記者 黃 于 凡 ／ 翻攝</t>
+          <t>近期 受滯 留 鋒面 農 曆 大潮 響 台灣 南部 午後出現 局部 強 降雨 嘉義 沿海 地層下陷 易 淹水 五河 局 預置 淹水 感測器 移動式 抽水機 監控積 淹水 情況 縣府 提前 協助 清除 河道 障礙物 確保 排水 通洪順暢 並呼籲 漁民好 防災 措施 縣府 漁業 處 指出 因 近期 可能 大量 降雨 整備 防汛 應變督導 2 件 建中 大型 養殖區 排水工程 移除 河道 中機具 打通 阻礙物 雖會響 工期 增加 工程 不但 仍 以防 災為 最優 考量 避免 造成 附近 或 上游 淹水 災情 漁業 處 呼籲 這 周天 氣極 不 穩定 低 壓帶 滯留 鋒面 響易 短延 時強 降雨 海面 風浪 不佳 提醒 漁友 要 多加 留意 養殖 管理 並好 防災 工作 若災害 要 隨時 通報 以利 立即 搶救 第五 河川 局說 已 成立 應變 小組 全天候 線上 監控 水情 以時 應 對 確保 各項 防洪措施 關鍵 時刻 發揮 作用 並積 極加強 防汛 整備 對 抽水站 破堤 施工 防汛 缺口 建 工程 等 重點 項目 進行 檢查 監督 五河 局 提醒 民眾 應多關 注水 情資訊 清理 自家 陽台 洩 水管 附近 溝渠 並透過 防災 資訊 服務網 以行動 水情 APP 等 防災 工具 即時 掌握 相關訊息效 減少 災害 損失 近期 受 鋒面 響恐 瞬間強 降雨 嘉義 縣 沿海 地層下陷 恐 淹水 縣府 督導 建中 大型 養殖區 好 排水工程 黃 于 凡 翻 近期 受 鋒面 響恐 瞬間強 降雨 第五 河川 局出動 移動式 抽水機 待命 黃 于 凡 翻 近期 受 鋒面 響恐 瞬間強 降雨 嘉義 沿海 地層下陷區 慎防 淹水 黃 于 凡 翻 近期 受 鋒面 響恐 瞬間強 降雨 嘉義 沿海 地層下陷區 慎防 淹水 黃 于 凡 翻</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生         這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機       研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米         然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水         研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市       帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題           Take   action   加入   倡議 +    </t>
+          <t>一項 最新 研究 發現 美國 紐約 市長 期 承受 大量 建築物 重量 之下 地層 正 下陷 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上 恐為 紐約市 招致 洪災 等 危機   圖 Unsplash 一項 最新 研究 發現 美國 紐約 市長 期 承受 大量 建築物 重量 之下 地層 正 下陷 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上 恐為 紐約市 招致 洪災 等 危機 美國線 電視 新聞網 CNN 報導據 推估 紐約市 2050 年 海平面 將 上升 8 至 30 英寸 20.32 至 76.2 分 更 重要 科學家 預期 由 於 人 為 引發 氣候 危機類 似東 北風暴 noreaster 颶風 這類 極端 降雨 事件 將更頻 繁地 出現 美國 地質 調查 所 US   Geological   Survey 專家 帕森斯 Tom   Parsons 說 「 我們 離 海水倒灌 還 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件 像 颶風珊迪 Sandy 艾達 Ida 帶來 暴雨 使得 城市 淹水 成災 都市化 帶來 部分 響 使得 水災發 」 這篇論 文發表 期刊 「 地球 未來 」 EarthsFuture 上旨 展示 沿海 河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險 以應 採取 相關 措施 來 降低 潛危險 衝擊 研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量 計算出 這些 建築物 重量 約 為 7620 億斤 相當 於 約 190 萬架 滿載 波音 747400 客機 研究 團隊 接著 利用 模擬 方式 計算出 這些 重量 對 地面 響並 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較 帕森斯 說 這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米 部分 下陷 較嚴 重地 區 每年 下陷 約 4.5 毫米 」 然而 並非 所 地層下陷 都 建築物 造成 帕森斯 說 「 我們 可想 見 非常 鬆 軟 土壤 人工 填 土地 面上 建造 建築 地層下陷 關聯 … 其他 地方 我們則 看到 難以 解釋 地層下陷 它 很多 不同 成因 例如 上個 冰河 時期後發 後 冰期 回落 或 抽取 地下水 」 研究 表明 地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅 而且 這種 情況 不只 發紐 約 市 帕森斯 說 「 這一個 全球性 問題 我 來 自羅德島 大學 University   of   Rhode   Island 合著 研究 了 世界各地 共 99 座 城市 不只 沿海 城市 陸 城市 其中 絕 大多 數都存 地層下陷 問題 」 Take   action 加入 倡議 +</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影</t>
+          <t>雲林縣 土庫鎮 高鐵 沿線 列屬 地層下陷 管制 區高鐵 下方 雲 158 甲 通往 雲 97 線道 雖 只 短短 約 500 但車 流大 路面 受損 累累 雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准 將以 不響 高鐵 地基 安全 低 強度 高流動 建材 施工 預定 近期 封路 動工 10 月 完工 高鐵 雲林縣 土庫 段 受 地層下陷 響過 去 以 每年 約 6.5 分 沈陷 量 下陷 為維護 高鐵 安全 多年 前 曾 下陷區 動工將 橫跨 高鐵台 78 線 快速道路 原為 土方 高架 改以 輕質 建材 重新 施工 進行 「 減重 」 此外 高鐵 沿線禁 抽 地下水 推廣 旱作 廣闢 黃 金 廊道 才 使 高鐵 雲林 段 沈陷 獲得 紓 緩位 於 土庫 高鐵 下方 連接 雲 158 甲 雲 97 線路 高鐵道 雖僅 短短 約 500 卻 管制 區 唯一 高鐵 通道 土庫鎮 長 陳 特凱 說 高鐵道 開通 多年 車流 大 卻 未曾 修繕 路面 凹陷 破損 累累 響行車 安全 居民 陳 情 希望 改善 雲林縣 長 張麗善 今天 會 同工 務處 縣議員 王鈺齊 張維心 等 人現 勘 張麗善 說 道 位 於 高鐵 管制 區 不能 任意 挖掘 施工 因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕 預定 今年 9 月 動工 10 月 完工 提供 平整 安全 道路 屆 時將 封路 約 50 天請 車輛 繞 道 工務 處長 汪令堯 指出 高鐵下 道路 屬 鐵路 禁限建範 圍須 依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理 未來 將以 390 萬元 對 高鐵下 寬 4.7 兩側 道 共 修繕 約 630 採 「 低 強度 高流動 」 混凝土 施工 法 打造 路基 更加 穩固 縣府 表示 為維護 高鐵道 承載 安全 路口 設限重 10 噸 以下 車輛 通行 但 地方 反映 長 期來 仍 不少 大型 車為 求方 直接 通行 才 使 道路 面受 損將會 請 警方 加強 取締 隨後縣 長 張麗善 一行 人 再 轉往 土庫 崙 雲 101 雲 98 道路 西螺鎮 九隆 里 農路 等 會勘 改善 工程 雲林縣 長 張麗善 一行 人 再 轉往 土庫 崙 等 地 會勘 多條 道路 工程 蔡維斌 高鐵 雲林 土庫 段位 於 地層下陷 管制 區高鐵下 唯一 道破 損 累累 經縣 府 向 高鐵局 專案 申請 後 近期 將 封路 動工 修路 蔡維斌</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 高鐵橋 下 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   道 位 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 地層下陷區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 行車 品質  </t>
+          <t>〔 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里位 於 土庫 國中 附近 高鐵 橋下 道路 面龜裂 坑坑洞洞 路況 極差 但 因 工程 涉 鐵路 禁限建範 圍須 依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理 日前 終獲 高鐵局 同意 預計以 50 個 日 曆 天 完成 改善 土庫鎮 鎮長 陳 特凱 表示 石廟 里 高鐵 橋下 道路 經長 年 使用 平時車 流量 極大 加上 重車 違規 行駛 造成 路面 凹陷 破損 不堪 導致 居民 行車 時易 引發 交通事故 嚴重響 行車 安全 所以 向 縣府 反映 希望 能 儘 速 改善 高鐵 土庫 段 高鐵 沿線 地層下陷 最 嚴重 地方 每年 平均 下陷 6.5 分工 務處長 汪令堯 表示 道位 高鐵 正下方 涉 鐵路 禁限建   範圍 須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理 故 改為 專案 發包 方式 辦 理由 於 該 路段 交通量 極大 雖然限 10 噸 以下 車輛 行駛 但還 很多 重車 違規 加上 道路 路基 鬆 軟 所以 路況 極差 汪令堯 指出 由 於 道路 位 地層下陷區 加上 原 就 農地 土 質 鬆 軟 光 重 鋪 路面 一下 大雨 重車 再 輾壓 道路 很快 就 會 再度 損壞 所以 需地質 改良 但 高鐵局 不 同意 用 給配 改善 路基 所以 工務處 改用 低 強度 水泥 替代 終獲 同意 汪令堯 表示 道路 改善 工程 總 預算 390 萬元 預期 改善 道路 長 度 兩側 約 630 寬 4.7 預計 9 月 中旬 發包 工期 為 50 日 曆 天 改善 後 可 提 昇 居民 活品 質維護 用路 人行 車安 另 他 會 建議 警察局 多派 員取 締重車 違規 行駛 才能 確保 道路 改善 後 以維持 好 行車 品質</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">高鐵 地層下陷區 雲林 土庫 段橋 下 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬 上 攔檢   位 高鐵 雲林 土庫 段橋 下 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示     大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞     土庫 鎮長 陳 特凱則 指出     柏油 鋪設 之 後   多年 來 它 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 情況   一而再 再而三 重 複     土庫鎮 公所 表示   高鐵橋 下 道 窄   本來 就 不 適合大車 通行   但 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林縣 府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林縣 府 工務 處長 汪令堯 說明     這 路段 經 地方 反映   主要 是 它 地質 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     加上 這邊 重車 行駛   造成 它 地面 下陷 蠻 嚴重   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC     工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   道 位 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   將請 警方 加強 取締   維護 好 行車 品質  </t>
+          <t>高鐵 地層下陷區 雲林 土庫 段 橋下 道 每次 進行 路面 改善 後 使用 不到 3 年 就 會 出現 路面 龜裂 充滿 坑坑洞洞 響行車 安全 當地屬 禁限建區 日前 獲高鐵局 同意 將進行 改善 不過 該 路段 不時 大型 車輛 未 依規定 超重 行駛導致 路面 加速 毀損 將請 警方 加強 取締 警方 一 看到 大車 馬上 攔檢位 高鐵 雲林 土庫 段 橋下 道 為 避免 路面 持續 下陷 管制 限重 10 噸 以下 車輛 通行 但 因為 這裡車 流量 大鄰 近 交流 道還 大型 車常未 依規定 行駛導致 路面 龜裂 充滿 坑坑洞洞 響行車 安全 土庫 民眾 表示 「 大車 如果 行駛 輾壓 這樣 路 比 較易壞 」 土庫鎮 長 陳 特凱則 指出 「 柏油 鋪設 之 後 多年 來 它 使用 期限 都 差不多 3 年 左右 就 受到 破壞 這樣 情況 一而再再 而 三重 複 」 土庫鎮 所 表示 高鐵 橋下 道 窄 本來 就 不 適合大車 通行 但 駕駛 貪圖方 違規 行駛 讓 路面 破損 不堪 易 引發 交通事故 日前 雲林縣 府 爭取 已獲 高鐵局 同意 將以 50 個 工作 天 改善 雲林縣 府 工務 處長 汪令堯 說明 「 這 路段 經 地方 反映 主要 它 地質 不好 原來 大概 都 農 田土 直接 就 回填 鋪 AC 瀝青 混凝土 加上 這邊 重車 行駛 造成 它 地面 下陷 蠻 嚴重 我們 會 整個 基底 改良 30 分再 來 鋪 設 5 分 AC 」 工務處 表示 高鐵 土庫 段 高鐵 沿線 地層下陷 最 嚴重 路段 每年 平均 下陷 6.5 分道位 高鐵 高架 橋 正下方 涉 鐵路 禁限 建範圍 這次 以 低 強度 水泥 替代 獲高鐵局 同意 預計 年底 能 改善 完畢將 請 警方 加強 取 締維護 好 行車 品質</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映 長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 兩側 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   道 不能 任意 挖掘 施工   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  </t>
+          <t>雲林縣 土庫鎮 高鐵 沿線 列屬 地層下陷區 軌道 下方 雲 158 甲線 通往 雲 97 線道 雖 只 短短 約 500 但車 流大 路面 受損 累累 縣府 以 專案 向 高鐵局 申請 修繕 獲准 將以 不響 高鐵 地基 安全 低 強度 高流動 建材 施工 縣長 張麗善 昨天 會勘 後 表示 近期 封路 動工 10 月 完工 土庫鎮 長 陳 特凱 說 高鐵道 開通 多年 車流 大 卻 未曾 修繕 路面 凹陷 破損 累累 響行車 安全 居民 陳 情 希望 改善 縣府 表示 路口 設限重 10 噸 以下 車輛 通行 但 地方 反映 長 期來 仍 不少 大型 車為 求方 直接 通行 才 使 路面 受 損將 請 警方 加強 取締 昨縣 府 會 同議員現 勘工務 處長 汪令堯 說 高鐵軌 道下 寬度 4.7 兩側 道 將修繕 共約 630 採低 強度 高流動 混凝土 施工 法 打造 路基 更加 穩固 預算約 390 萬元 張麗善 指出 高鐵下 道路 屬 鐵路 禁限 建範圍 道 不能 任意 挖掘 施工 須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理 因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕 預定 今年 9 月動 工屆 時將 封路 約 50 天請 車輛 繞 道 高鐵 土庫 段過 去 以 每年 約 6.5 分 沉陷 量 下陷 後 來 沿線禁 抽 地下水 推廣 旱作 廣闢 黃 金 廊道 才 較 為 減緩</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透</t>
+          <t>路透 報導 一段 無人 機片 揭露 巴塔 蓋卡 坑洞 Batagaika   crater 近況 這道 長 1 里 塌陷 區域 位 於 俄羅斯遠 東地區 世上 最大 永凍土 巨坑 俄羅斯薩共國 當地 人稱 之 為 「 地獄 之門 」 片中 兩名 探險 爬過 巨坑 底部 凹凸不平 地形 這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成 因 地下 永凍土 融化 導致 地層下陷 當地 居民 兼 探險 家史 特魯奇 科夫 Erel   Struchkov 表示 「 當地 人稱 之 為 塌陷 1970 年代 形成 最初 條溝壑然 後 晴天 高溫 下 解凍 開始 擴大 」 科學家 說 俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍 占 俄國國 土面 積達 65% 苔原 因此 融化 釋出 溫室 氣體位 於 亞庫 次克梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 Nikita   Tananayev 表示 雖然 這 可能 吸引 遊客 但 坑洞 擴大 「 危險訊號 」 「 今後隨著 氣溫 升高 人為 壓力 增加 我們將 看到 越來 越 多 這種 巨型 塌陷 形成 直到 所永凍 土 都 消失 為止 」 永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮 導致 道路 坍塌 房屋 崩裂 管線 中斷 最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重 薩共國 當地 人 注意 到 巨坑 迅速 擴大史 特魯奇 科夫 說 「 兩 年前 巨坑 邊緣 距離 這條 小路 大約 20 到 30 現它 顯然 離 我們 更 近 了 」 科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度 但塔納 納耶夫 說 巨坑 下面 土地 些 地方 深約 100 含 「 大量 」 機碳 隨著永凍 土 融化 這些 機碳 將釋 放到 大氣 中加 劇 全球 暖化 「 隨著 氣溫 升高 我們 可以 預計 巨坑 將以 更 快 速度 擴大 這將 導致 未來 幾年 氣候 更加 暖化 」 路透 報導 一段 無人 機片 揭露 巴塔 蓋卡 坑洞 近況 這道 長 1 里 塌陷 區域 位 於 俄羅斯遠 東地區 世上 最大 永凍土 巨坑 俄羅斯薩共國 當地 人稱 之 為 「 地獄 之門 」 路透</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  </t>
+          <t>俄羅斯遠 東薩共國 一個 全球 最大 永凍土 塌陷 坑當 地人 把 它 稱作 「 冥界 之門 」 隨著 全球 暖化 加劇 這個 巨型 天坑 正持續 擴大科 學家 警告 永凍土 融化 會 把 更 多機 碳釋 放到 大氣 中 讓 溫室 效應 跟 全球 暖化 加劇 俄羅斯遠 東薩共國境 「 巴塔 蓋卡大融 洞 」 全世界 最大 永凍土 塌陷 坑當 地人 把 它 稱作 「 冥界 之門 」 當地 居民 斯特 魯奇 科夫 表示 「 這 1970 年代 形成 最初 條溝壑然 後 晴天 高溫 下 解凍 開始 擴大 」 當地 1960 年代 開始 砍伐森林 造成 地下 永凍土 融化 進而導致 地層下陷 氣候 暖化 更 加速 永凍土 流失 讓 融洞 越來 越大梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出 「 這個 危險跡 象 因為 這高氣 溫氣候 暖化 跟 人 為 活動 壓力 造成 我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成 直到 所永凍 土 都 消失 」 更 糟糕 隨著永凍 土 消失 封存 裡頭 機碳會 被釋 放到 大氣 中加 劇 全球 暖化 塔納納 耶夫 表示 「 永凍 土碳 存量 大氣 中 兩倍 它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 取導致 更 高 甲烷 跟 二氧化碳 排放 加速 溫室 效應 」 科學家 說 俄國國土 六成 五 都 苔原 當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上 永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮 造成 道路 坍塌 房屋 崩裂 並阻礙 管線 運作 對民眾 活構 成威脅</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">基隆 一處 屋齡 超過 40 年 公寓 住宅   後 方 排水 溝壁 破損   導致 流水 長 期 沖 刷   部分 住宅 地基 被 掏空   周圍 路面 出現 地層下陷 狀況   杜蘇芮 颱 風來襲   居民 擔心 大雨 不斷   後 果 不堪 設想   地基 掏空 發生 基隆 西定 路   一棟 公寓 住宅 住家 門口   破 了 一個 大 洞口   居民 行經 踩 空   才 驚覺 原來 民宅 外側 地基 被 掏空 了   進 一步 了解 才 發現   是 排水 溝壁 破損   長 期 沖 刷 造成   而且 長 期 土石 流失   讓 周圍 路面 出現 地層下陷 狀況   從 畫面 中 可以 看到   地層下陷 深度 大概 3 到 5 公分   可以 把手 機 放置 進去   居民 擔憂   地層下陷 將會 影響 住宅 結構 安全   尤其 杜蘇芮 颱 風期間   帶來 雨勢   恐怕 會帶 來 嚴重 影響   基隆市 議員施 偉政 提醒   地基 被 沖 刷   上面 載重 又 大 話   恐怕 房子 會 很大 問題   工務處 表示   會先 就 壁體 破損 坍方 處   施作 水溝 溝牆 再 回填   避免 淘空 範圍 擴大  </t>
+          <t>基隆 一處 屋齡 超過 40 年 寓 住宅 後 方 排水 溝壁 破 損導致 流水 長 期 沖 刷 部分 住宅 地基 被 掏空 周圍 路面 出現 地層下陷 狀況 杜蘇芮 颱風 來襲 居民 擔心 大雨 不斷後果 不堪 設想 地基 掏空 發 基隆 西定路 一棟 寓 住宅 住家 門口 破 了 一個 大 洞口 居民 行經 踩 空才 驚覺 原來 民宅 外側 地基 被 掏空 了 進 一步 了解 才 發現 排水 溝壁 破 損長 期 沖 刷 造成 而且 長 期 土石流 失讓 周圍 路面 出現 地層下陷 狀況 從 畫面 中 可以 看到 地層下陷 深度 大概 3 到 5 分 可以 把手 機 放置 進去 居民 擔憂 地層下陷 將會響 住宅 結構 安全 尤其 杜蘇芮 颱風 期間 帶來 雨勢 恐怕 會帶 來 嚴重響 基隆市 議員施 偉政 提醒 地基 被 沖 刷 上面 載重 又 大話 恐怕 房子 會 很大 問題 工務處 表示 會 就 壁體 破損 坍方 處施 作水溝 溝牆 再 回填 避免 淘空 範圍 擴大</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉義市 35 座公園 是 國內 密度 最高   其中 20 座公園 廁所   曾 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請   優質 公廁 美質 環境 推動 計畫   經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  </t>
+          <t>嘉義市 35 座園國 密度 最高 其中 20 座園 廁所 曾 議員 勘察 指出 不少 照明 不足 設備 損壞 沒 修衛不佳 等 問題 市府 指出 爭取 經費 改善 逐步 翻新 今年 至今 完成 3 處 以往 漏積水 嚴重 番仔溝 園廁 所 改建 後 光潔 明亮 具設 計感 未來 每年 持續 將老 舊園 廁 改善 更新 番仔溝 園廁 已 10 多年 市府 接 獲陳情 反映 多次派 員維修 但 管線 設備 老舊 再 加上 地震 地層下陷 等 造成 漏積 水 尤其 男廁 問題 嚴重 去年 獲環 保署 補助 566 萬元 與 南 興園 228 紀念園 共 3 處廁 所 於 今年 4 月底 改善 完工 5 月底 同步 開放 番仔溝 園廁 更新 男女 廁無障礙 廁所 包括 廁具 隔間 燈光 造型 壁地磚 等 設備 尤無障礙 廁所升級 加入 親子 廁所 功能 設備 兒 童馬桶 尿布 台較 低 洗手台 功能 上 更 完善 市府 建設 處 表示 2019 年 起 向 環保署 申請 「 優質 廁美質 環境 推動 計畫 」 經費 補助 整修 文化 友忠 劉厝 中正 北社尾 宣信園 廁廁 設施 損毀 潮 濕 髒 臭 等 情形 都 修繕 清理 今年 還會針 對 嘉義 園裡 廁陸續 整修 工程 採半半 施工 施工期 間民眾 還能 使用 其他 廁</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 羅 欣貞 ／ 屏東 報導 〕 屏東縣 政府 2018 年 完工 並開始 操作 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫   近年 來 均 能 挹注 超過 5000 萬噸 水源 至 地下 含水 層   然而 由 於 南部 地區 近年 氣候 狀況 不如 預期   人工湖 於 今年 5 月僅 經過 1 個 月 餘 引水 操作   將大約 1000 萬噸 水 注入 含水 層   因應 颱 風 杜蘇芮 與後續 雨勢   從 7 月 27 日當晚 開始 啟動 今年 第二次 引水 作業   一直 持續 至今     屏縣 府 水利 處 表示   大 潮州 補注 湖不僅 是 目前 國內僅   是 東南亞 地區 最 大型 人工湖 補注 地下水 計畫   原理 為 於 洪水期 將林邊 溪 之 較 大 水源 導引 至 人工湖   而 此區 因 具備 入滲 效果 佳 地質 條件   即可 有效 補注 至 地下 含水 層   補注 之 效益 為 可 涵養 屏縣 使用率 較 高 地下水 資源   提高 部分 區域 地下水位   減緩 地層下陷 與 海水 入侵   防止 地下水 鹽化   此外   人工湖 具有 分洪   治洪 功能   而結 合水 銀行 抽補 概念   更是 能 提高 水資源 運用 效益     水利 處 指出   第 1 期 工程 經費 約 14.1 億元   無論 是 取輸水 效果   入滲 效率 與 補 注量 體均 極為 可觀   已具 顯著 成效   此項 目的 啟動 不僅 增加 屏南 地區 水資源 可運 用量   已 初步 達到   增源 減洪   重要 作用   後 續將 提出 第 2 期 人工湖 開闢 計畫   以達成 預估 完成 後 挹注 每年 1.5 億噸 地下水 補注量  </t>
+          <t>〔 屏東縣 政府 2018 年 完工 並開始 操作 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫 近年 來 均 能 挹注 超過 5000 萬噸 水源 至 地下 含水 層 然而 由 於 南部 地區 近年 氣候 狀況 不如 預期 人工湖 於 今年 5 月僅 經過 1 個 月 餘 引水 操作 將大約 1000 萬噸 水 注入 含水 層 因應 颱風 杜蘇芮 與後續 雨勢 從 7 月 27 日當晚 開始 啟動 今年 第二次 引水 作業 一直 持續 至今 屏縣 府 水利 處 表示 大 潮州 補注 湖不僅 目前 國僅 東南亞 地區 最 大型 人工湖 補注 地下水 計畫 原理 為 於 洪水期 將 林邊 溪 之 較 大 水源 導引 至 人工湖 而 此區 因 具備 入滲 效果 佳地質 條件 即可 效補 注至 地下 含水 層補注 之 效益 為 可 涵養 屏縣 使用率 較 高 地下水 資源 提高 部分 區域 地下水位 減緩 地層下陷 與 海水 入侵 防止 地下水 鹽化 此外 人工湖 具 分洪 治洪 功能 而結 合水 銀行 抽補 概念 更能 提高 水資源 運用 效益 水利 處 指出 第 1 期 工程 經費 約 14.1 億元 無論 取輸水 效果 入滲 效率 與 補 注量 體均 極為 可觀 已 具顯 著 成效 此 項目 啟動 不僅 增加 屏南 地區 水資源 可運 用量 已 初步 達到 「 增源 減洪 」 重要 作用 後 續將 提出 第 2 期 人工湖 開闢 計畫 以達成 預估 完成 後 挹注 每年 1.5 億噸 地下水 補注量</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  </t>
+          <t>宜蘭縣 蘇澳鎮 民富街 部分 路段 緊臨 蘇澳 海事 游泳池 居民 質疑 疑似 校方 長 期為 泳池 抽 地下水 導致當 地底 層 下陷 連 住家 地基 都 被 掏空 嚴重響 居住 安全 校方 認超 抽 地下水 立委 陳 琬惠會 同 教育部 水利 署 官員到 當地 與 居民 研商 解決 辦法 宜蘭 蘇澳鎮 民富街 部分 與 蘇澳 海事 緊鄰 路段 長 年 發 地層下陷 問題 住戶 房子 地基 被 掏空 地面 牆面 出 現裂 縫 從 住家 滾一個 鐵罐 到 道路 對 面相 當順暢 可以 見 到 坡度 相當大且 道路 表面 比旁邊 側溝 還要 矮 根本 沒 排水 功能 居民 指出 「 游泳池 建好 以 後 大概 用 了 4 年 多 就 塌 掉 了 響 到 我們 」 當地 地層下陷 情況 從 2017 年 蘇澳 海事 游泳池 塌陷 後 就 開始 發 多年 來無法 完全 改善 即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿 道路 仍持續 塌陷 居民 質疑 當年 蘇澳 海事 為 了 游泳池 超 抽 地下水 才 導致 地層下陷 情形 教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示 「 我覺 得 地質 監測 這一塊 我們 可以 持續 讓 大家 安心 說 我們 不持續 劇烈 沉降 或 傾斜 狀況 會 定期 跟 大家 報告 我們 監測 結果 」 校方 認超 抽 地下水 表示 當年 泳池 塌陷 後 就 沒 抽水 過去 抽 溢流 出 地面 水源 教育部 則說 過去 壓力 灌漿 延緩 地質 沉降 效果 立法 委員陳琬惠 表示 「 房子 跟 道路 就 脫離 當中 所以 我 希望 我們 今天 要 找到 一個 方法 不只 檢測 而已 」 水利 署 組長 簡昭群 說 「 技師會 去 依據 他 測量 結果 找出 造成 沉陷 具體 原因 」 陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會 研商 解決 辦法 水利 署 說 要 確定 當地 地層下陷 真正 原因 抽水 行為 還土質 問題 才能 根治 問題</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">地層下陷   居住 環境 出現 疑慮   宜蘭 蘇澳鎮 民富 街   持續 嚴重 地層下陷   除了 騎樓 路面 出現 裂縫   家裡 牆壁 地磚 都 是 裂痕   讓民眾 膽戰心 驚   質疑 是 附近 蘇澳 海事 水產 職業 學校 游泳池   超 抽 地下水 造成   10 號會同 當地 立委   縣府 官員 進行 協商   希望 解決 問題   道路 傾斜 越來 越 嚴重   路面 持續 裂痕 產生   地層下陷 越陷越深   民眾 憂心 忡忡   因為 騎樓 道路 出 現明 顯裂 縫   家門口 緊鄰 水溝 都 脫離 了 3 公分   走 進家裡 更是 驚險   白色 地磚 出現 裂痕   銜接 處變 得 高低不平   整個 牆 壁上 是 超長 裂痕   怵 目驚心   這裡 是 宜蘭 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 水產 職業 學校 游泳池   當地 地層 持續 嚴重 下陷   遊 泳池 用 了 四年 就 塌陷   讓 居民 質疑   是 學校 不當 抽取 地下水 惹 得 禍   10 號這天會 同 立委   縣府 官員 共同 協商   不過 水利 署 官員 分析 指出   地層下陷 除了 跟 抽水 行為 有關   泳池 載重 有關 係   還要 再 進 一步 釐 清   居家 環境 不 安全   民眾 生活 都 膽戰心 驚   只 盼望 可以 盡快 改善 問題   還給 居民 安全 生活 環境  </t>
+          <t>地層下陷 居住 環境 出現 疑慮 宜蘭 蘇澳鎮 民富街 持續 嚴重 地層下陷 除了 騎樓 路面 出現 裂 縫家裡 牆壁 地磚 都 裂痕 讓民眾 膽戰心 驚質疑 附近 蘇澳 海事 水產 職業 學校 游泳池 超 抽 地下水 造成 10 號會同 當地 立委 縣府 官員 進行 協商 希望 解決 問題 道路 傾斜 越來 越 嚴重 路面 持續 裂痕 產 地層下陷 越陷越深 民眾 憂心 忡忡 因為 騎樓 道路 出現 明顯裂 縫家門口 緊鄰 水溝 都 脫離 了 3 分走 進家裡 更 驚險 白色 地磚 出現 裂痕 銜接 處變 得 高低不平 整個 牆 壁上 超長 裂痕 怵 目驚心 這裡 宜蘭 蘇澳鎮 民富街 部分 路段 緊臨 蘇澳 海事 水產 職業 學校 游泳池 當地 地層 持續 嚴重 下陷 遊 泳池 用 了 四年 就 塌陷 讓 居民 質疑 學校 不當 抽取 地下水 惹 得 禍 10 號這天會 同 立委 縣府 官員 共同 協商 不過 水利 署 官員 分析 指出 地層下陷 除了 跟 抽水 行為關 泳池 載 重關 係 還要 再 進 一步 釐 清 居家 環境 不安 全民 眾活 都 膽戰心 驚 只 盼望 可以 盡快 改善 問題 還給 居民 安全 活環境</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>台北市 再現   天坑     南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌   長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   市府 指出   目前 無人 受傷   員警 已 畫設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因       市府 晚間 7 點 30 分開 設前 進 指揮 所   南港區 長 蔡明 儒到 達 現場   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業 中                             新建 工程 處開 挖 確認 塌陷 原因   是 水利 處 連接 涵管 有輕微 脫管 現象   目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮官   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞       水利 處 評估 工程 進度   實施 交通 維護   南港路 3 段 47 巷雙 向 封閉   預計 今晚 9 時修 復 機具 進入 開工   8 月 19 日 凌晨 0 時 灌漿 回填 作業   後 續 等到 混凝土 達到 一定 強度 之 後   路面 將會 辦理 復 舊   預計 於 明天 晚上 10 時許 恢 復 通車         市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞   圖 ／ 北市 府 提供   台北市 下午 4 點多 再現   天坑     市府 指出 目前 無人 受傷   員警 已 畫設 警戒 線   新工處 調派 重機 具開 挖   確認 坍塌 原因   圖 ／ 北市 府 提供</t>
+          <t>台北市 再現 「 天坑 」 南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌 長 約 2 寬約 2 深度 約 2 市府 指出 目前 無人受 傷員警 已 畫設 警戒 線 副 市長 李 四川 指示 區所新 工處 調派 重機 具開 挖 確認 坍塌 原因 市府 晚間 7 點 30 分開設 前進 指揮 所 南港區 長 蔡明 儒到 達 現場 由 水利 處派員 擔任 現場 指揮官 進行 擴大開 挖 作業 中 新建 工程 處開 挖 確認 塌陷 原因 水利 處連接 涵管 輕微 脫管 現象 目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮 官後續 將由 水利 處修 復 脫 管處 含 路面 修 復 並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞 水利 處 評估 工程 進度 實施 交通 維護 南港路 3 段 47 巷雙 向 封閉 預計 今晚 9 時修 復 機具 進入 開工 8 月 19 日 凌晨 0 時 灌漿 回填 作業後續 等到 混凝土 達到 一定 強度 之 後 路面 將會 辦理 復 舊 預計 於 明天 晚上 10 時許 恢 復 通車 市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管後續 將由 水利 處修 復 脫 管處 含 路面 修 復 並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞 圖 北市 府 提供 台北市 下午 4 點多 再現 「 天坑 」 市府 指出 目前 無人受 傷員警 已 畫設 警戒 線新 工處 調派 重機 具開 挖 確認 坍塌 原因 圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 開放 機車 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 北市 府 提供 北市 天坑 搶修 完成   圖 北市 府 提供</t>
+          <t>北市 南港路 3 段 47 巷 昆陽街 60 巷 交界 昨晚 出現 道路 局部 塌陷 連夜 搶 修下 預 中午 12 點 全面 通行 昨晚 天坑 地點 一處 機車 停等區 地層下陷 長 約 2 寬約 2 深度 約 2 由 水利 處派員 擔任 現場 指揮官 進行 擴大開 挖 作業 水利 處 指出 連夜 搶 修下 已 接續 完成 連 接管 脱管 處鋼 鈑 包覆 灌漿 回填 路 面臨 鋪 作業 19 日 8 時將 開放 機車 小型 轎車 通行 預 12 點 全面 通行 北市 天坑 搶修 完成 圖 北市 府 提供 北市 天坑 搶修 完成 圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  </t>
+          <t>〔 台北市 南港區 昨天 晚間 發 道路 塌陷 經查 塌陷 原因 雨水 連 接管 脫管 造成 南港路 3 段 47 巷雙 向 封閉 施工 原 預計 今 19 晚 10 時 恢 復 通車 水利 處連夜 搶 修下 已 接續 完成 連 接管 脱管 處鋼 鈑 包覆 灌漿 回填 路 面臨 鋪 作業 提前 於 早上 8 點開放 機車 小型 轎車 通行 預 中午 12 點 全面 通行 南港 警方 昨天 晚間 近 6 點 42 分接 獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷 下陷 面積長 約 2 寬約 2 深度 約 2 幸無人 受 傷員 警劃 設 警戒 線 副 市長 李 四川 指示 區所新 工處 調派 重機 具開 挖 確認 坍塌 原因 經設 置 前進 指揮 所 水利 處 擴大開 挖 作業 確認 雨水 連 接管 脫管 造成 連夜 搶 修後已 經修 復 完成 並 回填 路面 今天 早上 已經 提前 恢 復 通車後續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  </t>
+          <t>台北市 短短 3 個 月 出現 4 個 天坑 遭批 天龍國 變成 了 「 天坑 國 」 對此 工務局 今 20 日強 調 今年 發四案 道路 坑洞 情形 均 非 道路 受 輾壓 破 損導致 工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案 以 避免 類似 情形 發 北市 民東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞 新工處 接獲 通報 立即 調派 開 挖機 進場 確認 為 路旁 側溝 破損 造成 道路 掏空 新工處 進行 路面 回填 後 續 由 水利 處修 復 溝體 水利 處下 工科 科長 邱佑銘 表示 經現場 勘查 破 損側 溝位 排水 下游 處 可能 因 水流 長 期 沖 刷 或 施作 年代 久遠 溝底 出現 局部 破損 情形 水利 處並 已督商 今日 進場 辦理 搶 修作業 因案址 位處 8 以下 單行 道 因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行 當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護 欄圍 設並 可回 復 道路 通行 為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間 溝底 牆身 頂版會 分次 施工 預計 2 天可將 側溝 搶修 完成 工務局 說明 北市 近期 出現 4 個 道路 坑洞 事件 歸納為 3 種 原因 造成 5 月 19 日 信義區 崇德街 因建案 工地 開挖 地下 基礎 連續 壁 滲水 造成 地下水 湧入 基地 周邊 道路 沙土 被 帶 走 而 出現 坑洞 7 月 10 日 大同區 南京西路 坑洞 因該 處 地層 軟弱 長 期受 潮汐 響 地下水位 升降 使 污水 管線 下方 土壤 承載力 不佳導致 污水 管接 頭 鬆 脫 錯 位 土砂 沿管線 破 損處 流失 所致 後 衛工處 以視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常 近 兩日發 兩 案件 均 與 水利 管渠 破 損關 南港區 南港路 出現 坑洞 市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍 許多 建案 均 施工 中 南港路 47 巷道 路 狹小 因此 水利 處無法 深埋 排水 箱涵 接側 溝連 接管 研判 與 重車 來 往頻 繁間 接關 係 使得 連 接管 間 出現 縫隙 地下水 帶 走 土沙而發 地層下陷 至於 昨夜 民東路 二段 159 巷口 坑洞 則因 道路 側溝 溝體 老舊 破損 而 造成 近期 下雨 排水 淘涮 因應 幾次 道路 塌陷 坑洞 問題 事件 北市 府 已 擬定 防範 措施 新工處 將加強 定期 道路 巡查 如發現 路面 曾 出現 塌陷 修補 狀況 會 再 使用 透地雷達 確認 道路 無 孔洞 若 土壤 流失 透過 預判 可行 強 化道路 衛工 處則 啟動機 巡視 各個 大型 管道 水利 處將針 對 管路 箱涵 等 進行 巡視 機制 多管 齊下 避免 類似 坑洞 情形 再發</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供</t>
+          <t>北市 「 天坑 」 事件 接連 3 天發 今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞 民進 黨 北市 議員 洪婉臻 晚間 表示 短短 時間 發多起 塌陷 意外 道路 品質 堪憂 根本 不堪 大雨 考驗 每下 一次 大雨 前進 指揮 所 就 出動然 後 各局 處分別 擔責 任批 市府 宜 行事 罔 顧共 安全 洪婉臻 說 昆明街 320 巷 92 號 今天下午 4 點 42 分出 現 天坑 事件 該 事件 因建案 開 挖 造成 長 3 寬 2 深度 1.5 地層下陷 約 一輛 汽車 車身 所幸 塌陷 部分 位 工地 範圍 未響 到民眾 安全 與 通車 表示 據 建管處 施工 科回報 查明 連續 壁 並無滲 水破損 情形 與 之前 南京西路 發 塌陷 原因 不同 比較 可能 因為 連日豪 大雨 造成 土 質 鬆 動 才 發 整 體 事件 因 基地 退縮 建築線 3.64 米開 挖 故 坍陷 處裡開 挖面 仍 2 至 3 米 距離 坍陷 原因 還 查明 洪婉臻 指出 繼 之前 大同區 南京西路 後 今天 已 北市 第 3 次發 路面 塌陷 事件 短短 時間 發多起 塌陷 意外 北市 道路 品質 堪憂 根本 不堪 大雨 考驗 直言 北市 府 真 應該 好好 檢討 路面 品質 呼籲 市府 對 於 道路 品質 不要 宜 行事 屢次 臨時 抱 佛腳 每下 一次 大雨 前進 指揮 所 就 出動然 後 各局 處分別 擔責任 上次 衛工處 這次 建管處 簡直 罔 顧共 安全 「 一次 又 一次 只會 讓 人民 對 政府 失去 信心 」 北市 「 天坑 」 事件 接連 3 天發 今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞 圖洪婉臻 辦室 提供 北市 短短 3 個 月 出現 第 5 個 「 天坑 」 此為 今日 萬華區 某處 工地 圖 居民 提供</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供</t>
+          <t>繼 前天 南港區 昨日 中山區 北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞 這 北市 短短 3 個 月 出現 第 5 個 「 天坑 」 台北市 工務局 表示 該處 為 新建 工地 疑 基地 外舊 水溝 加上 地基 較 鬆 軟 遇上 大雨 沖 刷 導致 土石流 失 下陷 這處 天坑 約長 3 寬 2 深度 1.5 無人 受傷 已 畫設 警戒 線 淘空 點位 建築 基地 建商 已 接手 灌漿 處 理完 畢 萬華區 天坑 位 於 昆明街 320 巷 92 號 新建 工地 旁 今天下午 16 時 42 分 左右 疑似 因 基地 外舊 水溝 加上 地基 鬆 軟 遇 大雨 沖 刷 導致 土石流 失 下陷 北市 府 表示 這起 萬華 地層下陷 長 寬 約 一輛 汽車 車身 還好 塌陷 時 無 造成 人員 受傷 目前 北市 府 已 畫設 警戒 線 消防局 已 現場 成立 前進 指揮 所 警戒 守視 新 工處 表示 本案 經 工地 主任 說明 因 基地 外舊 水溝 加上 地基 較 鬆 軟 遇上 大雨 沖 刷 疑似 導致 土石流 失 下陷 建商 已 緊急 調用 水泥 車搶修 晚間 19 時 完成 灌漿 回填 作業 目前 初步 評估 並無 擴大 危害 之虞 北市 近期 五度 出現 路面 坑道 分別 為 5 月 13 日 信義區 崇德街 7 月 10 日 大同區 南京西路 8 月 18 日 南港區 南港路 8 月 19 日 中山區 民東路 以 今天 萬華區 昆明街 北市 萬華 某處 工地 今天 出現 路面 坑洞 圖 居民 提供 工務局 表示 掏空 點位 建築 基地 建商 已 接手 灌漿 處 理完 畢圖 居民 提供 北市 短短 3 個 月 出現 第 5 個 「 天坑 」 此為 今日 萬華區 某處 工地 圖 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞 圖 居民 提供</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  </t>
+          <t>4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線關   市府 已 要求 總體檢 〔 台北市 昨晚 萬華區 昆明路 一處 建案 工地 旁 又 發 地層下陷 近四個 月 來 第五次 市區 道路 塌陷 昨晚 塌陷 原因 仍 不明 不 排除 豪 大雨 所致 台北市 政府 工務局 說 前 四次 塌陷 都 不 車輛 輾壓 破損 而 與 地下 管線關 已 擬定 防範 措施 台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 關呼籲 重視民眾 看不到 基礎 建設民 進黨議 員林 延鳳陳怡 君質疑 「 甩鍋 」 認為 市府 應積極 研擬 極端 氣候 下 管線 老舊 問題 對策 萬華 昆明路 建案 工地 旁   又 發 地層下陷 李 四川 回應 議員質疑 說 絕非 「 甩鍋 」 氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵導 致些 本來 就 破裂 老舊 排水管 損裂 更 嚴重 民東路 管線 就 超過 廿年 而 上次 南京西路 塌陷 後 他 已 要求 衛工處 總體 檢老舊 管線 箱涵 若 需要 維修 或 更 換會 立即 處理 萬華 昨晚 塌陷地 點建案 工地 旁 下陷 面積 約 長 三 寬 兩 深度 一 ． 五晚 間 已經 完成 回填 十九日 民東路 塌陷 處 完成 回填 水利 處 勘查 側溝 破 損導致 地層 被 掏空 將進 行側 溝修 復 豪 大雨 沖 刷   導致 破裂 排水管 損害 更嚴 重工 務局 說明 這幾起 道路 塌陷 都 不 車輛 輾壓 造成 五月 十三日 崇德街 因建案 開 挖 地下 基礎 連續 壁 滲水 造成 地下水 湧入 基地 帶 走 周邊 道路 沙土 而 出現 坑洞 七月 十日 南京西路 軟弱 地層 長 期受 潮汐 響 地下水位 土壤 承載力 不佳導致 污水 管接 頭 鬆 脫 錯 位 土 沙 沿 管 線 破 損 處 流失 而 南港路 許多 建案 施工 四 七巷 道路 狹小 排水 箱涵 接側 溝連 接管 無法 深埋 疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙 地下水 帶 走 土沙 而 地層下陷 民東路 道路 側溝 溝體 老舊 破損 加上 近期 下雨 排水 掏涮 所致 李 四川 臉書感 而 發說 近來 國外 天災 不斷 包含 國 南投 豪 大雨 高雄 積 淹水 北市 路面 塌陷 等 都 與 極端 氣候 溫室 效應關 希望 每 一位 位 都 能 對 百姓 看不到 基礎 建設 工程 多用 一點 心議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策 林延鳳 認為 李 四川 說法 甩 鍋卸責失 專業 直指 四起 道路 塌陷 都 疏 於 督管 工程 品質 「 人禍 」 不應 歸咎 於 天災 陳 怡君 說 極端 氣候 不能 成為 推卸 市政 理由 與 藉口 市府 應針 對 路面 總體 檢更換 或 整修 老舊 管線 箱涵 積極 研擬 因應 極端 氣候 共管 線 老舊 對策</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>新竹縣 竹 北市 天坑 再現   縣政 7 街 昨天 發生 道路 坍塌 形成 大 坑洞   今天上午 建商   住戶 代表   里長 與 技師 等到 現場 查看   討論 施作 透地雷達 範圍   鄰近 社區 住戶 說   這條 道 路旁 邊 就是 車道   且 鄰近 學校   九月 即將 開學   很多 學生 從 此 經過   盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況   安全 為 優先       斗崙里 長 張 琬 媃 表示   今天上午 邀請 土木 結構 技師 拱祥生 到 現場 勘查   盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況   後 將召開 說 明會   讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況                             鄰近 社區 住戶 說   建商 雖然 一周 兩次 監測且 未 超過 標準   然而 一旦 超過 就 來 不及 了   社區 希望 能 了解 整體 趨勢   盼建 商能 固定 給予 監測 數據   此外   地下 六樓 開 挖 深   導致 震動 頻率 高   社區 龜裂 狀況   這 部分 建商 允諾會 負責   未來 社區 會 提鄰損 要求   目前 該條 道路 是 社區 車道   鄰近 學校   開學後有 很多 學生 從 此 經過   希望 能 盡快 檢測 周邊 道路   以 安全 為 優先       拱祥生 表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   至於 後 方 涉及 到 肯德基 店家 與 私人 路段 要 再 確認   被動式 電磁波 檢測 能 偵測 淺   深層   將檢測 道路 範圍 下方 30 公尺 來 了解 地質   有否 潛藏 孔洞 或 疏 鬆 狀 況   以及 昨日 因自來 水 沖 蝕 後   回填 後 初步 結果   預計 最快 7 到 10 日 可 完成 檢測       媒體 追問 拱祥生   此案 與 豐采 520 天坑 事件   是否 都 因為 地下水 或 地理 環境易 地層下陷   拱祥生 回應   會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣   涉及 到 開 挖 工法   若 是 用 非止 水性 壁體   例如 這次 事件 用板 樁 橫板條   此工法 適用 於 林口 台地   桃園 台地 與 部分 竹北 工地   由 於 林口 台地   桃園 台地 屬於紅 土礫 石層   此地 質狀況 相對 不透水   若 使用 透水性 壁體   就 比 較 不怕   然而 遇強 下雨   自來 水管 線 潛 水分   搭配 降雨 形成 路徑   非止 水性 壁體 可能 就 會 帶 入土 沙   一下子 沖 入 基地       拱祥生 指出   這兩個 工地 都 共同 現象   主要 是 開 挖 工地 周遭   主動 破壞區 發生   就 像 開刀 本來 就 會 流血   因此 工地 開 挖 過程 中   正常 就 會導致 地表 沉陷   重點 是 透過 觀測 法來 了解 實際開 挖行 為   與 原來 工程 分析 行為 是否 相同   若 是 相同 就是 安全 範圍   若 是 異常   就 得 要 補強   新竹縣 竹 北市 縣政七 街道 路 塌陷 現場   工地 建商 坦承 疏失   記者 郭政芬 ／ 攝影 技師 拱祥生   右   表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   記者 郭政芬 ／ 攝影</t>
+          <t>新竹縣 竹北市 天坑 再現 縣政 7 街 昨天 發 道路 坍塌 形成 大 坑洞 今天上午 建 商住 戶 代表 里長 與 技師 等到 現場 查看 討論 施作 透地雷達 範圍 鄰近 社區 住戶 說 這條 道 路旁 邊就車 道 且 鄰近 學校 九月 即將 開學 很多 學從 此 經過 盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況 安全 為 優斗崙里 長 張 琬 媃 表示 今天上午 邀請 土木 結構 技師 拱祥到 現場 勘查 盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況 後 將召開 說 明會 讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況 鄰近 社區 住戶 說 建商 雖然 一周 兩次 監測且 未 超過 標準 然而 一旦 超過 就 來 不了 社區 希望 能 了解 整體 趨勢 盼 建商能 固定 給予 監測 數據 此外 地下 六樓 開 挖 深導致 震動 頻率 高 社區 龜裂 狀況 這 部分 建商 允諾會 負責 未來 社區會 提鄰損 要求 目前 該條 道路 社區 車道 鄰近 學校 開學 後 很多 學從 此 經過 希望 能 盡快 檢測 周邊 道路 以 安全 為 優拱祥 表示 會 採用 被 動式 電磁波 檢測 以 光明六路 縣政七街 為主 至於 後 方涉 到 肯德基 店家 與 私人 路段 要 再 確認 被 動式 電磁波 檢測 能 偵測 淺 深層 將檢測 道路 範圍 下方 30 來 了解 地質 潛藏 孔洞 或 疏 鬆 狀 況 以 昨日 因自來 水 沖 蝕 後 回填 後 初步 結果 預計 最快 7 到 10 日 可 完成 檢測 媒體 追問 拱祥 此案 與 豐采 520 天坑 事件 都 因為 地下水 或 地理 環境易 地層下陷 拱祥 回應會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣 涉到 開 挖 工法 若用 非止 水性 壁體 例如 這次 事件 用板 樁 橫板 條此 工法 適用 於 林口 台地 桃園 台地 與 部分 竹北 工地 由 於 林口 台地 桃園 台地 屬於紅 土礫 石層 此地 質狀況 相對 不透水 若 使用 透水性 壁體 就 比 較 不怕 然而 遇強 下雨 自來 水管 線潛 水分 搭配 降雨 形成 路徑 非止 水性 壁體 可能 就 會 帶 入土 沙 一下子 沖 入 基地 拱祥 指出 這兩個 工地 都 共同 現象 主要 開挖 工地 周遭 主動 破壞 區發 就 像 開刀 本來 就 會 流血 因此 工地 開挖 過程 中 正常 就 會導致 地表 沉陷 重點 透過 觀測 法來 了解 實際開 挖行 為 與 原來 工程 分析 行為 相同 若 相同 就 安全 範圍 若 異常 就 得 要 補強 新竹縣 竹北市 縣政七街 道路 塌陷 現場 工地 建商 坦承 疏失 郭政芬 技師 拱祥右 表示 會 採用 被 動式 電磁波 檢測 以 光明六路 縣政七街 為主 郭政芬</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  </t>
+          <t>〔 台北市 近來 天坑 事件 頻傳 萬華區 一處 建案 工地 旁 道路 日前 發 地層下陷 坑洞 面積 約 一輛 汽車 車身 所幸 無人 受傷 不 過當 地里 長 蔡岳樺 表示 工地 已 二度 出包 天坑 修補 後 又 出現 積水 北市 議員 應曉薇 質疑 建案 若 未側 溝未來 仍 可能 天坑 事件 台北市 建管處 表示 會 要求 將 排水 系統 完 已 將個 案列 為 重點 稽查 個案 應曉薇 今天 與 多位 萬華 里長 前往 萬華 工地 會勘 應曉薇 質疑 建案 側溝 若 側溝 都 沒 未來 仍 可能 天坑 若 再 大雨 台北市 衛工處 又 要 幫忙 清砂 發現 坑洞 日前 雖已 填補 但現 又 出現 積水 對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 關則 稱 這就 沒 側溝 造成 人為 疏失 蔡岳樺 說 福音 里 3 個 工程 每次 都 這個 建案 出事 他 對 於 都市 更新 樂觀 其成 但 不 希望 響民眾 安全 他 呼籲 建商 出事 要 負責 不要 什麼 就 推給 別人 蔡 表示 天坑 意外 當天 建案 負責人 推 託 說 下雨 地基 掏空 又 說 沒 危險 沒什麼 讓 他 相當 憤怒 難道 要 出事 才 算 問題 呼籲 建商要 把 事情 好 萬華區 全 德里 里長 趙 素美 認為 這個 問題 應該 可以 提前 處理 不能 發 事情 才 處理里 長 都 為 里 民保護 身家 財產建商 與 里 長 應該 互相 尊重 建管處 表示 此 都 更案 採用 舊 法令 本案 涉私 土地 法令 上不會 要求 現 就 按照 使用 執照 竣工 時 排水 系統 完 但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷 現行 法令 對 於 打通 道路 區域 排水 沒規範 但 建管處 會 要求 將 排水 系統 完 改善 區域 排水 建管處 說 已將 此案 列為 重點 稽查 個案 未來會 加強 稽查 目前 坑洞 已 填好 初步 安全 無虞 並將 安全 疑慮 地方 阻隔</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">針對 北市 連續 出現 天坑   台北 市長 蔣萬安 下午 公安 會報 中 指示   最近 幾次 地層下陷   會 進行 全面 檢視   請 工務局 邀集 相關 單位   包括 都 發   建管   針對 道路 塌陷 的後續 處理 做成 通案 性處 理機 制外   應 全面 檢視   會先 就 老舊 管線 一次 清查   下 一步 再針 對 其他 地方   避免 後 續 再 發生 地層下陷 情形       北市 建管處 下午 公安 會報 中針 對 今年 5 月 13 日 信義區 崇德 街 60   巷道 路 塌陷 案 進行 專題 報告   加強 管理 作為   針對 北市 建築 工地 正在 開挖 階段   計有 102 件   排定 由 三 大公 會 從 5 月 15 日 開始 逐案 現場 勘查   目前 已 全數檢 查完 畢   針對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善                             為 了 強化 管理 措施   加強 建築 工地 開挖 階段 安全 管理   自 6 月 分起 已委 託 三 大公 會 不定期 進行 現場 勘查   另 就 建築 工地 因違 反建築法 公共安全   公共交通 遭受 裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 相關裁 處訊息       另外   函告 工地 應主動 通報   若 工地 發生 公安 意外事件   應 於 第一 時間將 原因 緊急 應變 處理 情形 主動 通知 建管處   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處以 9 萬元 罰款   情節 嚴重 時並 勒令停工       副 市長 李 四川 提醒 建管處   最近 下午 雷陣雨   開挖 工地 要 加強 宣導 防範   蔣萬安 表示   信義區 案例   主要 因為 旁邊 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 加強 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   不管 是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處   地面 上 施工   如果 發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理  </t>
+          <t>針對 北市 連續 出現 天坑 台北 市長 蔣 萬安 下午 安會 報中 指示 最近 幾次 地層下陷 會 進行 全面 檢視 請 工務局 邀集 相關 單位 包括 都 發 建管 針對 道路 塌陷 後 續 處理成 通案性 處理 機制 外應 全面 檢視會 就 老舊 管線 一次 清查 下 一步 再針 對 其他 地方 避免 後 續 再 發 地層下陷 情形 北市 建管處 下午 安會報 中針 對 今年 5 月 13 日 信義區 崇德街 60   巷道 路 塌陷 案 進行 專題 報告 加強 管理 作為 針對 北市 建築 工地 正開 挖階段計 102 件 排定 由三大會 從 5 月 15 日 開始 逐案 現場 勘查 目前 已 全數檢 查完 畢針 對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善 為 了 強化 管理 措施 加強 建築 工地 開挖 階段 安全 管理 自 6 月 分起 已委 託 三大會 不定期 進行 現場 勘查 另 就 建築 工地 因違 反建築 法共 安全 共 交通 遭受 裁罰 或 勒令停工 案件 同步 於 建管處 網站 揭露 相關裁 處訊息 另外 函告 工地 應主動 通報 若 工地 發安 意外事件 應 於 第一 時間將 原因 緊急 應變 處理 情形 主動 通知 建管處 未通 報將 依建築 法相 關規定 加重 裁罰 最高 處以 9 萬元 罰款 情節 嚴重 時並 勒令停工 副 市長 李 四川 提醒 建管處 最近 下午 雷陣雨開 挖 工地 要 加強 宣導 防範 蔣 萬安 表示 信義區 案例 主要 因為 旁邊 建案 開 挖 造成 地層下陷 最近 許多 下午 暴雨 可能 造成 地層下陷 請 建管處 加強 工地 管理 加強 查核 蔣 萬安 指示 針對些 地方 老舊 管線 不管 汙水 管等 主管 機關加 強督導 另 環保局 進行 清疏 時 或 新 工處   地面 上 施工 如果 發現 相關 管 線 鬆 脫 或 破裂 情形 要 即 時 通報 相關 單位 處理</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  </t>
+          <t>北市 近日 連續 出現 天坑 市長 蔣 萬安 昨天下午 安會 報中 指示 工務局 邀集 都 發 建管 等 相關 單位 針對 道路 塌陷 制定 通案性 處理 機制 外應 全面 檢視 清查 地下 老舊 管線 下 一步 再針 對 其他 地方 避免 再發 地層下陷 情形 北市 建管處 昨天下午 安會 報針 對 今年 5 月 13 日 信義區 崇德街 60 巷道 路 塌陷 案 進行 專題 報告 北市 開挖 中建 築 工地 計 102 件 已委 託 台北市 土木 技師會 台北市 建築 師會 台北市 結構 工程 工業 技師會 從 5 月 15 日起 逐案 現勘 包括 觀測 項目 設置 按 計畫 觀測 以 施工 計畫 例如 抽水 計畫 等 已 全數檢 查完 畢針 對 檢查 項目 不 符合 建築 工地 要求 停工 釐 清 改善 為 加強 建築 工地 開挖 階段 安全 管理 6 月 起委 託 三大會 不定期 現勘並 就 建築 工地 因違 反建築 法共 安全 共 交通 受裁罰 或 勒令停工 案件 同步 於 建管處 網站 揭露 裁處訊息 建管處 表示 已 函告 工地 若 發安 意外 應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形 未通 報將 依建築 法相 關規定 加重 裁罰 最高 處 9 萬元 罰款 情節 嚴重 時 還會 勒令停工 最近 常發午 後 雷雨 市長 蔣 萬安 副 市長 李 四川 都 強調 要 注意 李 四川 提醒 建管處 開挖 中 工地 要 加強 宣導 防範 蔣 萬安 說 信義區 案例 主因 為 建案 開 挖 造成 地層下陷 最近 許多 下午 暴雨 可能 造成 地層下陷 請 建管處 加強 工地 管理 查核 蔣 萬安 指示 針對些 地方 老舊 管線 像 汙水 管等 主管 機關加 強督導 另 環保局 進行 清疏 時 或 新 工處 地面 上 施工 發現 相關 管 線 鬆 脫 或 破裂 情形 要 即 時 通報 相關 單位 處理 建管處 指出 地下 管線 一旦 老舊 可能 鬆 脫 造成 漏水 淘空 地基 導致 地層下陷 隱憂</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林 沿海 受 藍 月 大潮 加上 颱 風 大浪   近日 接連 發生 嚴重 海水倒灌   最大 萡 子 寮 港 到 昨天 仍 一片汪洋   淹水 膝   港口 被迫 封閉   行政院 長 陳 建仁 昨 前往 現場 勘災   地方 陳 情指   漁港 淹水 已嚴 重威脅 下崙 3 個村 安危   應急 工程 不能 再 拖   縣府 盼 中央 補能 加高 延伸 堤防   陳 建仁 允諾 相關 部會 與 縣府 合作   研議 解決 之道       縣府 水利 處長 許 宏博 簡報 指出   因地盤 下陷 嚴重   多年 來 幾次 加高 防波堤 年 年 抽沙 清淤   仍難 敵 天象 變化   港域 高程 約 1.9 公尺   但 這兩天 高達 2.56 公尺   加上 風浪助長 爆發 嚴重 海水倒灌   目前 除應 急 擋 水 措施   要 增高 延伸 防波堤   清理 港域 30 萬 立方米 淤沙   確保 港口 不受 漂沙 封堵   才能 因應 極端 氣候 海象 變化   整建 經費 預估 10 億元                             同為 養殖業者 口湖 鄉 代王 紫陽 說   這 生活 60 幾年 從 沒見 過淹 水淹 得 如此 嚴重   鄰近 300 多公頃 養殖區 朝不保夕   政府 不能 坐視 不管   李姓 養殖業 說   這次 海水倒灌 造成 部分 魚苗 流失       議員黃 文祥 指 說   萡 子 寮 港 已 無 法 因 應 現 海象 變化   尤其 漂沙帶 來 淤塞 海水倒灌   連 以前 航行 澎湖 輪 船 因 淤沙 停駛   口湖 代表 會 主席 王溪邊 指   更 扯 是 退潮 水位 變低 時   漁船 竟 要 用 推 進港   實在 可笑   治港刻 不容 緩       昨 陪同 會勘 雲林縣 長 張麗善 當面 遞交 雲林 漁港 治理 海堤 安全 防護 計畫   盼 請 行政院 協助   立委 蘇治芬 建議將 雲林 海岸 治理 一 併 納 入院 會 正在 檢討 國土 沙洲 案   以 擴大 治理 量 能       陳 建仁 說   這次 海水倒灌 對 地方 造成 損失   針對 地方 希望 能 加高 延伸 堤防   此須 經過 水工 模型 試驗   才能 確保不會 加劇 地層下陷 問題   行政院 會 聽取 地方 建議   與 縣府 共同 研議 解方       漁業署 表示   曾 與 立委 蘇治芬 多次 召開 海岸 治理 檢討   為 保漁港 漁業 永續   除應 急 工程 應要 進行 水工 研究 與 探測 再行 治理   才能 一勞永逸   由 於 該 漁港屬 地方 管理   中央 會予 協助 建置 長 遠 治理 方案  </t>
+          <t>雲林 沿海 受 藍 月 大潮 加上 颱風 大浪 近日 接連發 嚴重 海水倒灌 最大 萡子寮 港到 昨天 仍 一片汪洋 淹水 膝 港口 被迫 封閉 行政院 長 陳 建仁 昨 前往 現場 勘災 地方 陳 情指 漁港 淹水 已嚴 重威脅 下崙 3 個村 安危 應急 工程 不能 再 拖 縣府 盼 中央 補能 加高 延伸 堤防 陳 建仁 允諾 相關 部會 與 縣府 合作 研議 解決 之道 縣府 水利 處長 許 宏博 簡報 指出 因地盤 下陷 嚴重 多年 來 幾次 加高 防波堤 年 年 抽沙 清淤 仍難 敵 天象 變化 港域 高程 約 1.9 但 這兩天 高達 2.56 加上 風浪助長 爆發 嚴重 海水倒灌 目前 除應 急 擋 水 措施 要 增高 延伸 防波堤 清理 港域 30 萬 立方米 淤沙 確保 港口 不受 漂沙 封堵 才能 因應 極端 氣候 海象 變化 整建 經費 預估 10 億元 同為 養殖業 口湖鄉 代王 紫陽 說 這活 60 幾年 從 沒見 過淹 水淹 得 如此 嚴重 鄰近 300 多頃 養殖區 朝不保夕 政府 不能 坐視 不管 李姓 養殖業 說 這次 海水倒灌 造成 部分 魚苗 流失 議員黃 文祥 指說 萡子寮 港 已 無法 因應現 海象 變化 尤其 漂沙帶 來 淤塞 海水倒灌 連 以前 航行 澎湖 輪船 因 淤沙 停駛 口湖 代表 會 主席 王 溪邊 指 更 扯 退潮 水位 變低 時漁船 竟 要 用 推進 港實 可笑 治港刻 不緩 昨 陪同 會勘 雲林縣 長 張麗善 當面 遞交 雲林 漁港 治理 海堤 安全 防護 計畫 盼 請 行政院 協助 立委 蘇治芬 建議將 雲林 海岸 治理 一 併 納 入院 會正 檢討國土 沙洲 案以 擴大 治理 量 能 陳 建仁 說 這次 海水倒灌 對 地方 造成 損失針 對 地方 希望 能 加高 延伸 堤防 此須 經過 水工 模型 試驗 才能 確保不會 加劇 地層下陷 問題 行政院 會 聽取 地方 建議 與 縣府 共同 研議 解方 漁業署 表示 曾 與 立委 蘇治芬 多次 召開 海岸 治理 檢討為 保 漁港 漁業 永續 除 應急 工程 應要 進行 水工 研究 與 探測 再行 治理 才能 一勞永逸 由 於 該 漁港 屬 地方 管理 中央 會予 協助 建置 長 遠 治理 方案</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>高雄 仁武 區 今晚 9 時 30 分許   有民眾 發現 出現 一個 大 天坑   地點 就 永新 五街 永仁 街 路口 旁電線桿 周邊   高雄市 議員黃 飛鳳 獲報 隨即 到場 關心   並 通知 相關 單位 到場 協處   目前 高 市府 水利局 已調 派 機具 場開 挖 釐 清 下陷 肇因       由 於   天坑 發生 位置 就 電線桿 周圍   為 避免 電線桿 倒塌 造成 停電 意外   台灣 電力 公司 鳳山 營業 處 派員 前往 現場   暫以 吊桿 支撐 固定 電線桿   至於   地層下陷 肇因   水利局 人員 正在 現場 以管 挖 機具 進行 開 挖 調查                             仁武 分局 表示   因 路面 出現 坍塌 情事   為 安全 著想 避免 影響 用路 人   警方 獲報 後 已 將該 路段 封閉   經 水利局 挖開 查看   發現 不明 水源 流入 導致 地基 塌陷   屬 水利局 權責   遂 先行 填補 搶修   目前 水利局 污水 二科科長 張進 二 正在 現場 監督   台灣 電力 公司 鳳山 營業 處 暫以 吊桿 支撐 電線桿   避免 意外 發生 造成 停電   記者 古和純 ／ 翻攝 高雄 仁武 區出現 地層下陷   圖 ／ 取自 高雄市 議員黃 飛鳳個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面   記者 古和純 ／ 翻攝</t>
+          <t>高雄 仁武區 今晚 9 時 30 分 許民眾 發現 出現 一個 大 天坑 地點 就 永新五街 永仁街 路口 旁電線桿 周邊 高雄市 議員 黃 飛鳳 獲報 隨即 到 場關 心並 通知 相關 單位 到場 協處 目前 高 市府 水利局 已調 派機 具場 開 挖 釐 清 下陷 肇因 由 於 天坑 發 位置 就 電線桿 周圍 為 避免 電線桿 倒塌 造成 停電 意外 台灣 電力司 鳳山 營業 處 派員 前往 現場 暫以 吊桿 支撐 固定 電線桿 至於 地層下陷 肇因 水利局 人員正 現場 以管 挖 機具 進行 開 挖 調查 仁武 分局 表示 因 路面 出現 坍塌 情事 為 安全 著想 避免 響用 路 人 警方 獲報 後 已 將該 路段 封閉經 水利局 挖開 查看 發現 不明 水源 流入 導致 地基 塌陷 屬 水利局 權責 遂行 填補 搶修 目前 水利局 污水 二科科長 張 進二正 現場 監督 台灣 電力司 鳳山 營業 處 暫以 吊桿 支撐 電線桿 避免 意外 發 造成 停電古純 翻 高雄 仁武區 出現 地層下陷 圖 取自 高雄市 議員 黃 飛鳳 個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面 古純 翻</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 約 580 萬住 戶 沒 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣 位處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 房屋 倒塌 或 不堪 居住 之   全損   損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓   看房 要 排隊     一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房   房屋 稅 3 千變 3 萬 4     他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師   繳不出 頭期   全場 曝下場   穩死</t>
+          <t>嘉義 縣 新港鄉 5 日 下午 5 時 30 分發 芮氏 規模 5.5 極淺層 地震 深度 8.5 里 今 6 日 下午 高雄 又 發芮氏 規模 4.3 地震 地震 頻傳 讓 民眾 人心惶惶 而據 統計 我國 住宅 地震 基本 保險 截至 7 月底 止 投保 率約 37.53% 相當 於 約 580 萬住 戶 沒 地震 保險 住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險 以 減輕 地震 災情 造成 之 財物 損失 台灣 位處環 太平洋 地震 帶 地震 發頻 繁為 使民眾 迅速 獲得 基本 地震 險 保障 住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險 以 減輕 地震 災情 造成 之 財物 損失 住宅 地震 保險 基金 表示 我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止以 全國戶數 922 萬戶計 投保 率約 37.53% 顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識 惟 仍 許多 屋主 尚未 投保 建議 應 即 早 投保 以 獲得 基本保障 住宅 地震 保險 基金 提醒 住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動 地震 引起 之火災 爆炸 山崩 地層下陷 滑動 開裂 決口 海嘯 海潮 高漲 洪水 等 危險 事故 造成 已 投保 住宅 地震 基本 保險 房屋 倒塌 或 不堪 居住 之 「 全損 」 損失 時 即可 取得 保險 金額理 賠臨 時 住宿 費用 目前 保險 金額 最高 為 150 萬元 臨時 住宿 費用 為 20 萬元 保險 期間 為 一年期 每年 保費 1350 元 相當 於 每日 只 需 3.7 元 即可 獲得 基本 地震 險 保障 🏠 udn 房地 產推薦 新聞   ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查   ▪   老 又 臭 沒人要 他 目睹 台北 老寓 「 看房 要 排隊 」 一堆 人 搶   ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物 不用 開冷氣   ▪   換同坪數 新房 「 房屋 稅 3 千變 3 萬 4 」   他 哀號 貴到 快 哭 出來   ▪   借錢 買 房台 積輪班 工程 師 「 繳不出 頭期 」 全場 曝下場 穩死</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見   蹦   聲響   工地 先緊 急 疏散 工人   才 通知 住戶     說   附近 民眾 提到 此建案 動工 後   住家 就 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  </t>
+          <t>台北市 中山區 大直 街巷 弄 今晚 多棟 大樓 傾斜 警方 初步 了解 大樓 附近 建案 施工 開挖 地下 連續 壁 最後一層 工程 時疑 因土質 問題 導致 地基 不穩 造成 民宅 傾斜 台北市 警消 晚間 8 時 34 分獲報 大直 街巷 弄 民宅 傾斜 出現 磁磚 牆壁 龜 裂警 消派員 到場 發現 建案 工地 旁 5 至 6 棟大樓 受響 立即 拉 警戒 線並 疏散 25 戶無人 受傷 目前 住戶 疏散 到 實踐 大學 警方 初步 了解 新建 工地 工程 人員開 挖 地下 連續 壁 最後一層 時疑 因土質 問題 導致 地基 不 穩定 造成 旁邊 民宅 傾斜且 地基 變形 出現 可能 倒塌 狀況 消防 車已 持續 針對 建案 基地 灌水 協助 穩定 地質民 進黨 台北市 議員陳怡君 第一 時間 赴 事故 現場 勘災後發布 新聞 資料 表示 附近 民眾 提晚 間 曾 聽 見 「 蹦 」 聲響 工地 緊急 疏散 工人 才 通知 住戶 說 附近 民眾 提到 此建案 動工 後 住家 就 龜裂 狀況 已 多次 向 建商 反映 但 都 無 處理 市府 主管 機關 無作 為 才 釀成 此 狀況 要求 市府 清查 受災戶 狀況並 立刻 協助 安置 台北市 信義區 崇德街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水導致 道路 地層下陷 危旁邊 民宅</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  </t>
+          <t>台北市 中山 大直街 94 巷 周邊 民宅 嚴重 塌陷 市長 蔣 萬安 強調 會 徹底 調查 建管處 處理 過程 違失 「 絕不寬 貸護 短 」 同時會 檢視 基泰 建設 台北市 建案 不合 規定 就 會 勒令停工 北市 府 成立 律師團 協助 住 戶後續 追償 蔣 萬安 今 8 日 接受 資深 媒體 人 黃 光芹 主持 節目 專訪 坦言 建管處 45 月 收到 住戶 書面 申訴 牆壁 龜裂 獲 報後派員 了解 當時 認為 與 基泰 建設 開 挖 無 直接 相關 而 當時 仍施 作連續 壁 直至 7 月 24 日才 開 挖 至於 大直 災民 安置 問題 蔣 萬安 表示 會 找 時間 了解 住戶 需求 昨 7 日 就 成立 群組 包含 民政局 社會 局衛局 等 局處 需要 領藥 開綠色 通道 至 台北市 聯合 醫院後續 會 協助 住戶 追究 責任 求償 至於 市議員陳怡 君質 疑住 戶僅 被 安置 1 天蔣 萬安 認 目前 安置 到 11 日 即刻 請觀 傳局 了解 協調 旅宿業 以 降低 大家 搬動 當然 住戶 不想 住麼 長 只要 確認 安全 無虞 就 會 讓 住戶 回去 蔣 萬安 強調將 重新 檢視 調查 事情 原委 包含 住戶 起初 提出 申訴 建管處 判斷 過程 違失 或 違法 才 導致 今天 狀況 「 絕不寬 貸絕 不護 短 」 若 發現 機制 SOP 出 了 問題 就 會 修正 蔣 萬安 提 台北 30 年 以上 老舊 建物 超過 7 成危 老 都 更案 經常 緊臨 老房子 現危 老 都 更 都 會 較 過往 開 挖 來 深 基泰 大直 就 開 挖 到 地下 3 層 故會 要求 建管處 增加 查核 頻率 尤其 地下 深開 挖 部分 要 確保 施工 安全 黃 光芹 詢問 可能 要求 任何 局處 首長 下台 或 撤 職來 負責 蔣 萬安 回應 只要 徹底 調查 發現 任何 違法 情事 或 發現 當時 處理 不 當表態 「 該換 就換 這沒疑問 」 強調 重新 檢視 後 「 需要 撤換 就 撤換 」 至於 基泰 建設 台北 尚 4 個 建案 會 要求 全面 停工 蔣 萬安 回應會 全面 檢視 基泰 建設 台北市 所建案 包含 今日 已 派員去 基泰 建設 勞檢會 檢視 相關 施工 合乎 規定 若 未 依規 就 會 依法 勒令停工 蔣 萬安 稱 北市 府 已 成立 跨局 處 一站式 聯合 服務 中心 成立 律師團 協助 住 戶後續 求償 他 下午 再度 前往 視察時 重申 要 重檢視 北市 建物 而 北市 府 會 向 建商 與 施工 廠商 追究 到底 蔣 萬安 撂 狠話 「 建商 要負 全面 責任則 未來 台北市 很 抱歉 不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子 」 而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   透露 來 自 基泰 政治 獻金 是 一位 從 媒體界 轉從商 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬 上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金   想 請問 一下   這 是否是 綠營 想 再次 示範   綠能 不能   雙標   王鴻薇 指出   上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能 公司 政治 獻金 是 雙標   但 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 直播 就 會 知道   是 跟 大家 報告 現場 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 一貫 手法   王鴻薇 表示 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 里 長 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   今 早 建議 市政府   代位 求償     此外 得知 居民 準備 組成 自救 會   承諾 一定 會 全力 協助   最 重要 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 董事 長   總經理 真的 都 不 認識   但是 回頭 去 查 了 一下   是 一位 媒體 前輩去 做生意   確實 議員 選舉 以及 立委 補選時 政治 捐獻   而 由 於 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 要 查詢 是否 虧損   虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 選區   鄰近 以前 蔣萬安 選區   為 何會 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   立刻 跟 團隊 確認   確實 是 沒 接獲 選民 或 議員陳情   這 方面 他們 要 努力 空間還 很多   會勤 走 基層   聽 更 多 聲音   稱 很 遺憾   選民 這幾個 月 這樣 困擾   對民代來講   該 努力 就 應該 繼續 去 努力  </t>
+          <t>大直 民宅 傾斜案 引發 全台關 注疑 因 附近 基泰 建設 開 挖 工地 導致 地層下陷 使得 197 戶 367 名住 戶 緊急 疏散 而今 8 國民 黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金 對 此 王鴻薇 下午 受訪 強調 並非 收受 政治 獻金 就 不能 監督 透露 來 自 基泰 政治 獻金 一位 從 媒體界 轉從 商前 輩 捐 贈針 對 被 指 收取 基泰 建設 政治 獻金 部分 王鴻薇 今 受訪 表示 這件 事情 民進 黨 以 為 自己 撿 到 槍 但 迴 力 鏢 馬上 就 回到 自己 身上 民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金想 請問 一下 這綠營 想 再次 示範 「 綠能 不能 」 雙標 王鴻薇 指出 上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能司 政治 獻金 雙標 但 認為 不收 政治 獻金 就 不能 監督 至於 昨被 質疑 現場 笑嘻嘻 王鴻薇則 解釋 看 全部 直播 就 會 知道 跟 大家 報告 現場 安置 狀況 但 被 截圖 文章 認為 這綠營 側翼 一貫 手法 王鴻薇 表示 要 特別 提 2 件 事 第一 基泰 建設 全部 北市 工地 都 該 停工 不然 其他 地區 里 長 很 擔心 第二 為 了 慎防 基泰 脫產今 早建議 市政府 「 代位 求償 」 此外 得知 居民 準備 組成 自救 會承諾 一定 會 全力 協助 最 重要 補償 一定 要 落實 而 不 基泰 口頭 上 說 說 而已 再 被問 政治 獻金 部分 王鴻薇則 透露 基泰 董事 長 總經理 真 都 不 認識 但 回頭 去 查 了 一下 一位 媒體 前輩去 意確 實議員 選舉 以 立委 補選時 政治 捐獻 而 由 於 捐 錢個 人要 提供 個 人 身分 證字 號司 要 提供 司 地址 等司 部分 要 查詢 虧損 虧損 就要 退款 不然 會 被 沒收 等等 而 這兩筆 政治 獻金 就 來 自媒體 前輩以 基泰 建設 為 名 捐獻 至於 外界 質疑 王鴻薇 監督 了 許多 全國 各地 之建設 但 這次 大直 民宅 不僅 選區 鄰近 以前 蔣 萬安 選區 為 何會 當選 這 8 個 月 以來 都 沒人 溝通 王鴻薇 表示 昨天 發 事情 後 立刻 跟 團隊 確認 確實 沒接 獲選民 或 議員陳情 這 方面 他們 要 努力 空間還 很多 會勤 走 基層 聽 更 多聲 音稱 很 遺憾 選民 這幾個 月 這樣 困擾 對民代來 講該 努力 就 應該 繼續 去 努力</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>台北市 中山 區 大直 民宅 疑因 附近 建案   基泰 大直   施工 不慎   整棟 下陷   建商 基泰 建設 今天 認了   施工 不慎     表示 相關責 任絕 不 推卸   會 對 受 損戶 盡 最大 慰問   協助 安置   台北 市長 蔣萬安 上午 到 顯場 視察   指 預防性 撤離 可能 再 擴大       基泰 建設 表示   台北市 中山 區   基泰 大直   建案 於 9 月 7 日 晚間   因營 造廠 施工 不慎   造成 鄰房 損壞   深表 遺憾   為維護 公共安全   已 於 第一 時間 要求 停工   同時 進行 相關 措施       蔣萬安 表示   市府 第一 時間 就 進行 疏散   跨局 處 到場 預防性 撤離   撤離 人數 規模 大   共 197 戶   約 369 人   但 可能 再持續 擴大   道 明外 僑學校 操場   圍牆 裂開   教育局 緊急 確認 後   宣布 今日 預防性 停課 1 日   以策安全               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持</t>
+          <t>台北市 中山區 大直 民宅 疑因 附近 建案 「 基泰 大直 」 施工 不慎 整棟 下陷 建商 基泰 建設 今天 認了 「 施工 不慎 」 表示 相關責 任絕 不 推卸 會 對 受 損戶 盡 最大 慰問 協助 安置 台北 市長 蔣 萬安 上午 到 顯場 視察指 預防性 撤離 可能 再 擴大 基泰 建設 表示 台北市 中山區 「 基泰 大直 」 建案 於 9 月 7 日 晚間 因營 造廠 施工 不慎 造成 鄰房 損壞 深表 遺憾 為 維護 共 安全 已 於 第一 時間 要求 停工 同時 進行 相關 措施 蔣 萬安 表示 市府 第一 時間 就 進行 疏散 跨局 處 到場 預防性 撤離 撤離 人數 規模 大共 197 戶約 369 人 但 可能 再持續 擴 大道 明外 僑學校 操場 圍牆 裂開 教育局 緊急 確認 後 宣布 今日 預防性 停課 1 日 以策安全   登入 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 登入 讀 還不會員   馬上 註 冊 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 登入 讀 還不會員   馬上 註 冊   ｜   立即 搶購 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 支持</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    </t>
+          <t>基泰 建設 新建 案 「 基泰 大直 」 因 施工 不慎 釀嚴 重安 意外 台北市 都發局長 王玉芬 今日 受訪 說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫 開 基泰 大直 連續 壁廠 商為 「 齊崴 營造 」 至於 本刊 揭監測 報告 早就 顯示 「 已 超出 警戒 值 」 王則 稱 沒 看過 這份 監測報 告後續 會 要求 建商 提供 本刊 今 11 日 獨家 揭露 基泰 建設委 託 儀大 工程 顧問司 提供 北市 都 發局 7 月 26 日 監測 報告 顯示 坍塌 前 44 天監測 報告 結論 說明 一欄 中 已 明確 指出 「 部分 監測 儀器 已 超出 警戒 值 」 然而 基泰 建設 卻 未 積極 處理 9 月 照常 大規 模開 挖 最終 釀成 這起 嚴峻安 事故 對此 王玉芬 回應 昨 10 日才 收到 建商 提供 89 月 監測 報告 7 月 尚未 收到 已 要求 建商 提供 完整 監測 資料 並請 專業 技師會 判讀 如 發現 任何 違失會 將技師 建築師 等 相關 人員 移送 懲戒 媒體 追 問判讀 需要 多少 時間 王玉芬 回應 由 於 資料 應該 很多 但會用 最快 時間 得出 結論 除 25 戶重 災戶 外 其他 居民 可 返家 住 但 居民 因 安全 疑慮僅 38 戶 返回 王玉芬 稱 近期 會 召開 說 明會 由 技師會 對 所 疑慮 住戶 說 明檢測 結果 以 解除 住戶 疑慮 而 這次 共 撤離 236 戶民眾 除 25 戶 以外 撤離戶 每戶 家中 裂縫 需要 補強 會 由 技師 逐步 去 勘檢逐戶 錄去 修繕 「 我們 沒所謂 強迫 住戶 入住 南港 社宅 這都 讓 住戶 可以 自己 選擇 」 王玉芬 指出 北市 府將 於 週三 13 日召 說 明會 說 明長 期 安置 3 個 方案 包含 南港 國宅備 妥 25 戶 家具 冷氣 冰箱 等 若想 住 附近 會持續 提供 安置 旅館 最後民眾 可 自由 選擇 居住地 1 坪 補貼 1600 元 租金 此外 王玉芬 指出 今日 已 啟動 4 大技師會 對 184 處開 挖 工地 進行 嚴格 檢查 第二 波針 對 地下室 開挖 導溝 連續 壁 工程 檢查 另 對 所 工地 加強 加強 頻率 檢查 預計 每月 1 次 地下室 開挖 會 增加 檢查 頻率 而 鄰損 規則 SOP 結構 外 審規定 會 一個 整體 檢視 即刻 啟動修 法王 玉芬 強調 未來 只要 建設 司營 造廠 或 分包 廠商 相關 技師 工地 涉安 跟 鄰 損嚴 重時 就 會 全部 開資訊 包括 下 包廠 商而 今日 布 「 基泰 大直 」 下 包連續 壁廠 商為 「 齊崴 營造 」 「 一個 都 不要 跑掉 讓 大家 可以 避開 雷區 」</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   證交所 召開 重訊 記者 會   董事 長 陳 世銘 道歉 後 宣布 請辭 負責 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者   不 確定 故意   釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 會勘 紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 回報 是否 行政 怠惰   瀆職 或 疏 於 監督     建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人     王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  </t>
+          <t>北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案 基泰 建設 昨 10 日證 交所 召開 重訊會 董事 長 陳 世銘 道歉 後 宣布 請辭 負責離 去 北市 議員 王世堅 指出 從 監測 資料 判斷 基泰 大直 連續 壁施 作後保養 期間 就 已 出現 監測 數據 異常 基泰 仍選擇 繼續 開 挖業 「 不 確定 故意 」 釀成 大禍 今 11 日 上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂 王世堅 說 基泰 大直 這類 建案 依規定 進行 深開 挖 工程 前建商 必須 安裝 監測 系統 並錄 每日 施工 導致 各種 建物 馬 路 位移 等 情況 依照 議員陳怡君 會勘 紀錄 附近 居民 檢舉 已 8 個 月 市府 卻 一再 回應 安全 無虞 從 監測 資料 就 可 推斷 市府 回報 行政 怠惰 瀆職 或 疏 於 監督 「 建商 老 闆 起造 人出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人 」 王世堅 說 基泰 董事 長 陳 世銘 昨天 請辭 擺明 就 只 想 用 民事 賠償 解決 不想 負 刑事 責任 他 今天 將赴 北檢加告 殺 人 未遂 就 希望 檢方 要 儘 快 蒐 證 確 保 事件 發時 起造 人應 負起 完全 責任 不能 出 了 事 就 落 跑</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  </t>
+          <t>台北市 中山區 大直 民宅 塌陷 案 基泰 建設 總經理 馮勉 委屈 地稱 事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊 對 此 李 四川 今 受訪 還原 真相 馮當 晚確 現場 但 當晚 後 就 沒見 到 馮到 現場 關心還 一度 失聯 找 不到 人談 相關後續 事宜 李 四川 今 11 日 接受 媒體 人王 淺秋廣播 專訪 千秋 萬事談 基泰 建設 董事 長 陳 世銘 昨 10 日快 閃離 開會 一事 直言 碰到 問題 只能 面對 不能逃避 至於 基泰 總經理 馮勉聲 稱 一直 現場 李 四川 則還 原事 發當天 7 日 晚間 抵達 現場 後 一直 處理 救災 灌水 任務 最後因 灌水 速度 不 搶 救 他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去 李 四川 當時 就 疑惑 詢問 工地 主任 「 這麼 大 事情 們 負責人 沒 現場 只 一個 主任 這 」 而 工地 主任 才 回應 「 我們 總經理 站 旁 邊邊 」 李聲 稱 當下 自己 不 認識 馮且 之 後 沒見 到 馮 直至 9 日救災 告一段落 需談 安置 時尋找 基泰 建設 祕 書要 馮來 談 一談 結果 馮 卻 沒接 電話連 祕 書 找 不到 馮他 才 會 媒體 前 嚴厲 譴責 基泰 李 四川 回憶 說 道 直至 10 日 上午 才 聯 繫 到 馮 勉 雙 方 約 好 9 時 30 分到 台北市 政府 開會會 同 法制局 後 達 成後續 3 點承諾王 淺秋詢 問發 事故 當晚 工地 主任 介紹 馮勉 後 馮無過 來 稍微 討論 一下 發什麼 事 還馮 就 旁邊 像 個 路 人 一樣 圍觀 李 四川 回應 馮勉 過來 打招呼 說 自己 總經理 但 沒談 任何 相關 事宜 李 四川 提當天 搶 救 緊急 過程 當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散 聽到 消防局 回報 工地 一直 傳出 「 啪啪 啪 」 聲音察覺 不妥 後 就 要求 立即 消防局 疏散 住民 同時 詢問 單號 住戶 對面 無 房子 間 隔 獲得 對 面還 一排 雙號 住戶 因此 當下 就 下令 對面 要 依法 全部 撤離 並請區 所 找到 實踐 大學行 安置 李 四川 當天 到 現場 約 22 時當時 單號棟 已 稍微 傾斜 但 未 沉下去 立即 要求 消防局 衛工處 水處 全部 灌水 看能 不能 讓 基地 平衡 不過 隨 「 啪啪 啪 」 間 隔 時間 越來 越短 他 就 要求 全部 站 旁邊 人 全部 快 疏散 李 表示 他 現場 約 40 分鐘後因 灌水 無法 讓 基地 平衡 眼睜睜 看著 房子 沉陷 垮掉 就 等同 連續 壁 全部 斷掉 緊急 改為 灌漿 處理 李 四川 提 退休 後 又 重新 回到 北市 府 工作 很多 市政 幾乎 都 不 陌不過 比較 麻煩 極端 氣候 響 市區 很多 側溝 設計 無法 承受 近來 豪 大雨 若 「 用 工程 技術 去 追 」 不斷 投入 資源 改善 怎樣 都 無法 追上 老天 給挑 戰舉 例豪 大雨 對 一些 老舊 低窪 社區 市府 要 想 辦法 減災 這他 回到 北市 府 任職 最大 考驗</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">先前 才 發生 竹北 天坑 事件   新竹市 和平路 20 巷今   21   天 下午 突然 出現 天坑   大約 一輛車 面積   根據 了解   天坑 旁有 一個 建案   目前 已經 挖 到 地下 三樓   新竹市 府 說明   今日 下午 13 時 35 分許   消防局 受理 和平路 出現 道路 地基 下陷 情形   消防局 派員到 場後發現 道路 明顯 傾斜   並伴 隨 瓦斯 異味   隨即 通報 都 發處   工務處   自來 水 公司   瓦斯 公司 等 單位 前來 搶 修及 勘查   市長 高虹安 隨後也親 自到 場關 心及 了解 狀況   聆 聽 周邊民眾 心聲   要求 廠商必 須 儘 速 完成 改善   並確 保 居民 居住 安全   市府 指出   現場 工地 依規 有施 打 預壘 樁 擋 水樁   工法 沒有 問題   疑似 是 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂   市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   如 民宅 開始 傾斜 情形   應 進行 預防性 撤離   另 已確 認自來 水破管 位置   並 完成 修 復 回填   將持續 觀察 是否 還有 造成 洩漏 情形   避免 地層 再次 下陷   市府 進 一步 指出   本案 因違 反建築法 第 63 條   都 發處 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各三萬元   並視後續 情況 再行 論處  </t>
+          <t>前才 發 竹北 天坑 事件 新竹市 平路 20 巷今 21 天 下午 突然 出現 天坑 大約 一輛 車面積 根據 了解 天坑 旁一個 建案 目前 已經 挖 到 地下 三樓 新竹市 府 說明 今日 下午 13 時 35 分許 消防局 受理 平路 出現 道路 地基 下陷 情形 消防局 派員到 場後發現 道路 明顯 傾斜 並伴 隨 瓦斯 異味 隨即 通報 都 發處 工務處 自來 水司 瓦斯 司等 單位 前來 搶修 勘查 市長 高虹安 隨後親 自到場 關心 了解 狀況 聆 聽 周邊民眾 心聲 要求 廠商必 須 儘 速 完成 改善 並確 保 居民 居住 安全 市府 指出 現場 工地 依規施 打 預壘 樁 擋 水樁 工法 沒 問題 疑似 基地 側開 挖 後 造成 基地 外側 道路 部 土壤 位移 連帶 造成 自來 水管 線 破裂 沖 刷 土壤 泥沙 後 再 造成 地層下陷 瓦斯 管線 破裂 市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無傾斜 情形 如 民宅 開始 傾斜 情形 應 進行 預防性 撤離 另 已確 認自來 水破管 位置 並 完成 修 復 回填 將持續 觀察還 造成 洩漏 情形 避免 地層 再次 下陷 市府 進 一步 指出 本案 因違 反建築法 第 63 條都 發處 依建築法 89 條 勒令停工 並針 對 起造 人 承造 人 監造 人 進行 裁罰 各三萬元 並視後續 情況 再行 論處</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">新竹市 和平路 20 巷 昨 下午 驚見   天坑     市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 認為   未來須 全面 將 瓦斯 自來 水管 線 更新   同時須 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   後 續 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  </t>
+          <t>新竹市 平路 20 巷 昨 下午 驚見 「 天坑 」 市府 獲報 到 場確 認平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線 瓦斯 管線 洩漏 導致 地層下陷 多名 民代 要求 強化 安全 檢測 市長 高虹安 昨 要求 建商務必 盡速 完成 改善 市府 並 勒令 承造 人 立即 停工 依法 裁處 改善 完成 無虞 才能 復工 市府 表示 昨 下午 13 時 35 分多 消防局 受理 平路 出現 道路 地基 下陷 還伴 隨 瓦斯 異味 相關 單位 都 獲報 搶 修 由 於 近期 接連發 竹北 天坑 基泰 大直 工地 事故 平 路 附近 居民 人心惶惶 時代 力量 立委 邱顯智 市議 員林 彥甫 說 要求 建商確 保相關 支撐 才能 復工 希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次 國民 黨市 議員黃 美慧 認為 未來須 全面 將 瓦斯 自來 水管 線 更新 同時須 工地 周邊 建築安裝 警示 裝置 確保 居民 安全 市府 指出 該 建案 工地 下 挖 到 地下 3 樓 依規施 打 預壘 樁 擋 水樁 但 疑似 為 基地 側開 挖 後 造成 基地 外側 道路 部 土壤 位移 連帶 造成 自來 水管 線 破裂 沖 刷 土壤 泥沙 後 再 造成 地層下陷 瓦斯 管線 破裂 市府 指出 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無傾斜 情形 後 續 將持續 觀察 自來 水管 還 造成 洩漏 由 於 施工 造成 地層下陷 都 發處將 依建築法 89 條 勒令停工 並針 對 起造 人 承造 人 監造 人 進行 裁罰 各 3 萬元 並視後續 情況 再行 論處</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 凹陷 面積 約 1 見方 雖然 緊急 灌漿 回填 但 今天 又 發現 巷 另 處 凹陷 下沉 由 於 一旁 不到 3 緊鄰 20 多戶 住戶 引發 住戶 擔憂 「 整夜 睡不著 」 民代質疑 工法 問題 未來 恐繼續 塌陷 市府 都 發處 指出 昨天 已 勒令 建案 停工 裁罰並 要求 廠商 進行 加固 支撐 灌漿 作業 自來 水司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線之後將 觀察 管線 狀況 再 重鋪 路面 現場 將加裝 傾斜儀 24 小時 檢測 預警 以確 保住 戶 安全 為 最大 前提 據 了解 該 建案 基地 正下 挖 到 地下 3 層頻 繁重 車進 出前 就 人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫 昨天 則開始 出現 道路 地層下陷 還伴 隨 瓦斯 異味 讓 周邊 住戶 相當 害怕 就 怕 上演 基泰 大直 工地 事件 竹 市府 指出 地層下陷 疑似 為 建案 基地 側開 挖 後 造成 基地 外側 道路 部 土壤 位移 連帶 造成 自來 水管 線 破裂 沖 刷 土壤 泥沙 後 再 造成 地層下陷 瓦斯 管線 破裂 市議員陳慶齡 熟悉 建築 營造 工程 他 說 該 建案工 地位 於 沙地 正下 挖 地下室 懷疑 打 基樁 過程 不夠 密實 導致 基地 旁 道路 沙土 不斷 流失 流進 地下室 才 會 造成 道路 沈陷 如果 沒 妥善 處理 未來 還會發 道路 沈陷 可能 平路 20 巷住 戶 約 20 多戶 居民 無奈 「 不敢 休息 」 擔心 瓦斯 味 很 重萬一 爆炸 怎麼 辦 平常 只 兩 老住 這 而已 半夜 已經 沒法 入睡 眼看 住家 旁建案 工地 才 剛蓋 未來 至少 還要 辛苦 兩 三年 希望 好 偵測事 預防則 出事 就 麻煩 了 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 今天 還另處 塌陷 張裕珍 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 雖然 已經 回填 但 仍 可見 到 住家 前方 裂縫 張裕珍 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 雖然 已經 回填 但 仍 可見 到 住家 前方 裂縫 張裕珍 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 今天 還另處 塌陷 張裕珍</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 還自來 水洩漏 瓦斯 異味 飄散 情形 引起 住戶 疑慮 雖然 天坑 處緊 急 回填 但 仍 持續 他 處 下陷 建物 傾斜計 監測 數值 逼近 警戒 值自來 水司將 於 明天 起汰換 上百 老舊 自來 水塑膠 管線 市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形 新竹市 平路 該 建案 工地 規畫 地上 14 層 地下 3 層 建物 正下 挖 地下 3 層未料 前天 竟釀 緊鄰 巷弄 道路 下陷 由 於 一旁 住家 距離 建案 基地 只 3 將近 40 戶住 戶 相當 擔憂 市府 今天下午 請來 4 大技師會 到場 了解 確認 工地 與 道路 下陷 情形 據 了解 前天 發平路 20 巷 「 天坑 」 事件 後 建商 取得 住戶 同意 20 巷前 中後段 設置 建物 傾斜計 監測 傾斜 情形 今天 最新 測得 最大值 每秒 387 已經 接近 每秒 413 警戒 值 由 於 平路 20 巷 仍 道路 下陷 漏水 情形 今天 緊急 加裝 關水閥 處理 建案 營造 商工 務經理 黃 姓 經理 說 建案 地質 為 砂質 帶 土下 挖 施工 採鑽掘 方式 進行 強度 類似 連續 壁 工法 但蔽 體開 挖 壓力 造成 基地 外側 道路 部 土壤 位移 加上 巷老舊 自來 水管 線 破裂 漏水 導致 土壤 泥沙 流失 進而 造成 地層下陷 水 流入 基地 由 於 平路 20 巷約 340 戶 民宅 民富 里里長 沈朝旺 說 住 戶 都 擔心 房子 會 塌陷 不要 等到 真正 傾斜 就 來 不了 希望 相關 單位 告監測 數據並 加快 自來 水 與 瓦斯 管線汰換 自來 水司 明天 將進場 開 挖汰換 鑄鐵管 盼 建商 同步 處理 好 地基 「 各項 資訊要 更 透明 讓 住 戶們 安心 」 楊姓 住戶 說 他 巷 住 了 20 年 其他 老住 戶 更 住 了 40 多年 大家 都 擔心 道路 下陷 擴大 希望 檢測 資訊 更加 透明 因為 他們 肉眼 看不到 傾斜 程度 很 需要 科技 儀器 來 幫忙 監測 數據 要 開 讓 住 戶 都 了解 由 於 建案 工地 旁不斷 道路 下陷 建案 自行 組成 應變 中心 應變 中心 代表 允諾 已 經協調 明天 自來 水司 進場 換管 加派 人力 前後分頭 施工 情形 下能 7 天汰管 完成 預計 10 月初 再換 瓦斯 管線 若 傾斜計 監測 到 了 警戒 值將 安置 住戶 入住 旅館 新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 市府 今天 邀集 技師會 進入 工地 會勘 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 造成 緊鄰 平路 20 巷道 路 下陷 明天 將進 場汰換 老舊 自來 水管 線 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 造成 緊鄰 平路 20 巷道 路 下陷 市府 今天 設置 前進 指揮 所 市長 高虹安 下午 到場 了解 應變 情形 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 市府 今天 邀集 技師會 進入 工地 會勘 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 造成 緊鄰 平路 20 巷道 路 下陷 市府 今天 設置 前進 指揮 所 市長 高虹安 下午 到場 了解 應變 情形 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 市府 今天 邀集 技師會 進入 工地 會勘 張裕珍</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 平 路竹 慶建設 「 筑光 」 建案 工地 下 挖 地下室 未料 前天 發 基地 旁 道路 下方 自來 水管 線 瓦斯 管線 洩漏 連帶 造成 平路 20 巷 地層下陷 由 於 「 天坑 」 填平 後 今天 又 他 處 塌陷 竹 市府 下午 成立 前進 指揮 所 市長 高虹安 提出 8 點 指示 包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時回 報確 保當 地 安全 平路 該 建案 工地 規畫 地上 14 層 地下 3 層 建物 正下 挖 地下 3 層 前天 竟釀 緊鄰 巷弄 道路 下陷 後 被 市府 勒令停工 不過 因為 一旁 住家 距離 建案 基地 只 3 將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂 市府 今天下午 請來 4 大技師會 到場 會勘 高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所並 要求 廠商 與 消防局 警察局 都 發處 民政 處產發 處區 所 立即 派員進 駐 下午 4 點半高虹 安會同 土木 技師 等 四大 專業 技師會 民富 里 沈朝 旺里長 聽取 簡報並 了解 居民 訴求 高虹安 今晚 臉書 發文 說 明針 對 此案 已下 達 8 項 指示 包含 責成 消防局 工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 司 明天 立即 進場 全面 開 挖汰 換成 最新 管線 因無法 同 時汰換 兩種 管線將 依序 後 汰 換自來 水 與 瓦斯 管線 由 於 傾斜計 監測 數值 逼近 警戒 值高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報 要求 消防局 會同 民政 處 社會處 研擬 若事態 進 一步 擴大時 緊急 撤離 與 安置 措施 並預 準備 明天 開始 於 管線汰換 與 相關 改善 工程 期間 要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用 要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛 竹光 國民 運動 中心 免費 開放 居民 盥洗 使用 高虹安說 確認 改善 完成 前 要求 災害 應變 前進 指揮 所 全天候 開設 隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題 於 管線汰換 與 相關 改善 工程 期間 要求 警察局 好 周邊 交通管制 確保 對 當地 交通 衝擊 降到 最低 高虹安說 今天 現場 與 當地 居民 溝通 與 聆 聽 心聲並 一一 錄 要求 廠商 與 局處 盡 全力 處理 強調 市府 團隊 一定 各位 最大 靠山 不僅會 要求 廠商 負起 責任 完成 改善 並經 確認 安全 無虞 之前 不得 進行 除了 安全工程 以外 其他 工程 新竹市 平 路竹 慶建設 「 筑光 」 建案 工地 旁平路 20 巷 地層下陷 連日來 都 搶 修處理 張裕珍 新竹 市長 高虹安 今天下午 到 平路 20 巷 了解 居民 心聲 圖竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況 圖竹 市府 提供 新竹市 平 路竹 慶建設 「 筑光 」 建案 工地 旁平路 20 巷 地層下陷 連日來 都 搶 修處理 張裕珍</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設 新建 案   基泰 大直   日前 因 施工 不慎   導致 台北市 中山 區 大直 街鄰 近 民宅 傾斜 倒塌   甚至 發生 建物 下陷 情形   北市 府上 月 26 日 進行 拆除 下陷 建物 作業   本月 1 日 進行 單號 受災屋 拆除 工作   不過 民代今   17 日   臉書 爆料   週邊 雙號 受災戶 惡夢還 沒有 結束   15 日竟 出現 房子 撕裂   碎石 掉落 聲   且門外 溝壁 破裂 下陷 情形   經 會勘 確認   下陷 累積 7 公分     台北市 議員陳怡 君今 稍早 臉書上 透露   大直 街 5 民宅 危樓 已經 拆除   但 對面 雙號棟 卻 上 週日   15 日     某住 戶 聽聞 房子 撕裂   碎石 掉落 聲   且門外 溝壁 破裂 下陷 情形   經現場 會勘 後 確認   累積 下陷 約 7 公分     陳 怡君 表示   雖結構 技師 現場 判定 無 立即 性 危險   該 狀況 為   地面 下 無 地基   對面 單號 拆 危樓   所導致 地下 土壤 遭擾動   因此 下陷   強調   雖 判定 暫無 立即 性 危險   建管處 多 設點 觀察   但 還是 讓 民眾 住 得 心驚膽 跳   陳 怡君 無奈   認為 基泰 建設 不 只是 造成 重災戶 無家 可 歸   讓 鄰房 住 得 不安 穩   雖然 市府 還在 統計 周遭 鄰房 是否 同意 公辦 都 更   但 不能 避免 是 公辦 都 更 前   民眾 仍 隨時 處 於 驚 恐狀態   下雨 地震 再次 施工 都 讓 鄰近 住戶 感到 恐慌   無法 安心 入住   陳 怡君 指出   因為 雙號 建物 下陷 狀況   溝壁 破損 不堪   而 基泰 旁邊 正在 施工 其他 建案 基地   令民眾 害怕 房子 不堪 一擊   再次 嚴重 損鄰   陳 怡君 提出 問題   損鄰 報告   房屋 安全 鑑定   以及 透地雷達 出來 前   鄰近 工地 施工   若 再次 造成 民房 受損   恐怕 更難 釐 清損 鄰責任  </t>
+          <t>基泰 建設 新建 案 「 基泰 大直 」 日前 因 施工 不慎 導致 台北市 中山區 大直街 鄰近 民宅 傾斜 倒塌 甚至 發 建物 下陷 情形 北市 府上 月 26 日 進行 拆除 下陷 建物 作業 本月 1 日 進行 單號 受災屋 拆除 工作 不過 民代今 17 日 臉書 爆料 週邊 雙號 受災戶 惡夢還 沒 結束 15 日竟 出現 房子 撕裂 碎石 掉落 聲且 門外 溝壁 破裂 下陷 情形 經 會勘 確認 「 下陷 累積 7 分 」 台北市 議員陳怡 君今 稍早 臉書上 透露 大直街 5 民宅 危樓 已經 拆除 但 對面 雙號棟 卻 上 週日 15 日 某 住戶 聽聞 房子 撕裂 碎石 掉落 聲且 門外 溝壁 破裂 下陷 情形 經現場 會勘 後 確認 「 累積 下陷 約 7 分 」 陳 怡君 表示 雖結構 技師 現場 判定 無 立即 性 危險 該 狀況 為 「 地面 下 無 地基 對面 單號 拆 危樓 」 所導致 地下 土壤 遭擾動 因此 下陷 強調 雖 判定 暫無 立即 性 危險 建管處 多 設點 觀察 但 還讓 民眾 住 得 心驚膽 跳陳怡 君無奈 認為 基泰 建設 不只 造成 重災戶 無家 可 歸 讓 鄰房 住 得 不安 穩 雖然 市府 還統計 周遭 鄰房 同意 辦 都 更 但 不能 避免 辦 都 更 前民眾 仍 隨時 處 於 驚 恐狀態 下雨 地震 再次 施工 都 讓 鄰近 住戶 感到 恐慌 無法 安心 入住 陳 怡君 指出 因為 雙號 建物 下陷 狀況 溝壁 破損 不堪 而 基泰 旁邊 正 施工 其他 建案 基地 令民眾 害怕 房子 不堪 一擊 再次 嚴重 損鄰 陳 怡君 提出 問題 損鄰 報告 房屋 安全 鑑定 以 透地雷達 出來 前 鄰近 工地 施工 若 再次 造成 民房 受損 恐怕 更難 釐 清損 鄰責任</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>捷運 萬大線 第一期 工程 預計 2025 年 完工   施工 路線 為 中   土城 交通要道   讓 原 交通 更塞   而 LG06 土建工程 圍籬 原定 今年 12 月 31 日 拆除   卻 將延長 3 年 才 要 拆除   恐將 影響 拉長   另有 議員 發現   萬大線 施工 造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂 等 鄰損   要求 新北 捷運局 加速 處理   新北 捷運局 表示   已 邀北捷局   里長 及民眾 現場 說明   目前 並無 地層下陷 問題       市議員陳錦錠 表示   新北 中和區 連城路 因捷 運萬大線 施工   造成 尖峰 時刻 壅塞   且 第一期 LG06 土建工程 圍籬 原定 年底 拆除   卻 延長 三年 後 才 要 拆除   再 加上 萬大線 施工   造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂   磁磚 破損 等 鄰損   新北 捷運局 應 盡快 提出 改善 方案   避免 鄰損 擴大   確 保民 眾 居住 安全                             對此   新北 捷運局 表示   萬大中 線 目前 計畫 進度 達 7 成   為紓解 施工 交通 瓶頸   台北 捷局 已 於 今年 8 月底 開放 施工 時封閉 連城路 北向 右轉 中正路 專用 車道   預計 明年初 陸續 展開 道路 回填 復 舊 作業   逐步 縮 減圍 籬範圍   緩解 壅塞 情形       至於 鄰損 部分   新北 捷運局 表示   9 月 28 日 邀北捷局   里長 及民眾 現場 說明   關於 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   現場 立刻 要求 廠商 當天 下午 進場 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 部分   北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理     後 續若涉 鄰損 鑑定   北捷局 已承諾將 依相關 規定 辦理   目前 並沒有 地層下陷 問題         新北 捷運局 長 李政安 表示   會 要求 北捷 局縮 短 工程   不能 任意 延長   新北 捷運 局局 另 指出   LG06 中 站   連城路 75 巷   為 捷運 出入口 B 暨 聯合開 發基礎 共構 工程   屬契約後續 變更 擴充 工作   因開 工時程 較 晚   且位 於 路側   並不影響 連城路 道路 回填 復 舊 期程   不會 造成 交通 壅塞 狀況   萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 新北 捷運局 9 月 28 日 邀北捷局   里長 及民眾 現場 說明   巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   已 要求 廠商 當天 下午 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 部分   北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   圖 ／ 新北 捷運局 提供 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 住家 出現 地面 出現 高低 落差   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 約 60 戶 民宅 出現 地面 出現 高低 落差   牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供</t>
+          <t>捷運 萬大線 第一期 工程 預計 2025 年 完工 施工 路線 為 中 土城 交通要道 讓 原 交通 更塞 而 LG06 土建工程 圍籬 原定 今年 12 月 31 日 拆除 卻 將延長 3 年 才 要 拆除 恐將 響拉長 另 議員 發現 萬大線 施工 造成 約 60 戶 民宅 出現 地層下陷 牆面 龜裂 等 鄰損 要求 新北 捷運局 加速 處理 新北 捷運局 表示 已 邀北捷 局里 長 民眾 現場 說明 目前 並無 地層下陷 問題 市議員陳錦錠 表示 新北 中區 連城路 因捷 運萬大線 施工 造成 尖峰 時刻 壅塞 且 第一期 LG06 土建工程 圍籬 原定 年底 拆除 卻 延長 三年 後 才 要 拆除 再 加上 萬大線 施工 造成 約 60 戶 民宅 出現 地層下陷 牆面 龜裂 磁磚 破損 等 鄰損 新北 捷運局 應 盡快 提出 改善 方案 避免 鄰損 擴大確 保民 眾 居住 安全 對此 新北 捷運局 表示 萬大中線 目前 計畫 進度 達 7 成為 紓 解 施工 交通 瓶頸 台北 捷局 已 於 今年 8 月底 開放 施工 時封閉 連城路 北向 右轉 中正路 專用 車道 預計 明年初 陸續 展開 道路 回填 復 舊 作業 逐步 縮 減圍 籬範圍 緩解 壅塞 情形 至於 鄰損 部分 新北 捷運局 表示 9 月 28 日 邀北捷 局里 長 民眾 現場 說 明關 於 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良 現場 立刻 要求 廠商 當天 下午 進場 處理 另 住戶 反應門 窗磁磚 不易 正常 使用 部分 北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理 「 後 續若涉 鄰損 鑑定 北捷局 已承諾將 依相關 規定 辦理 目前 並沒 地層下陷 問題 」 新北 捷運局 長 李政安 表示 會 要求 北捷 局縮 短 工程 不能 任意 延長 新北 捷運 局局 另 指出 LG06 中站 連城路 75 巷為 捷運 出入口 B 暨 聯合開 發基礎 共構 工程 屬契約後續 變更 擴充 工作 因開 工時程 較 晚且 位 於 路側 並不響 連城路 道路 回填 復 舊 期程 不會 造成 交通 壅塞 狀況 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂 磁磚 破損 等 鄰 損圖 陳 錦錠 服務處 提供 新北 捷運局 9 月 28 日 邀北捷 局里 長 民眾 現場 說明 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良 已 要求 廠商 當天 下午 處理 另 住戶 反應門 窗磁磚 不易 正常 使用 部分 北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理圖 新北 捷運局 提供 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂 磁磚 破損 等 鄰 損圖 陳 錦錠 服務處 提供 民眾 反映 萬大線 施工 造成 住家 出現 地面 出現 高低 落差 圖陳錦錠 服務處 提供 民眾 反映 萬大線 施工 造成 約 60 戶 民宅 出現 地面 出現 高低 落差 牆面 龜裂 磁磚 破損 等 鄰 損圖 陳 錦錠 服務處 提供</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">捷運 萬大線 目前 整體 施工 進度 已近 七成   台北市 捷運局 表示   如火如荼 趲 趕中 中 站 地下 段 工程   均 依照 規定 施工 定期 監測   目前 沒有 地層下陷 問題   捷運局 將依 施工 情形 逐步 縮 減圍 籬範圍   以 緩解 交通 壅塞       負責 施工 台北市 捷運局 一工處 說明   日前 接獲 施工 路段 住戶 反映 牆面 龜裂   磁磚 破損 等 情形   已 於 今年 9 月 28 日 前往 會勘 並向 住戶 說明   一工處 說   已 了解 建物 狀況   將依 會勘 共識 積極 與 住戶 協調 處理   並將 責成 施工 廠 商 儘 可能 以敦親 睦 鄰協助 修繕   後 續 若 涉及 需鄰 損鑑定   將 按照 規定 辦理後續                             一工 處進 一步 指出   近年 因受 疫情 整體 營造 環境 不佳 影響   致使 中 站 需 延至 2024 年 6 月 開始 進行 道路 中間 段 回填 管線 復 舊   但 一工 處將 滾動式 檢討 工序   儘 可能 提早 完成 道路 復 舊 還路 於 民   以 減少 對民眾 周邊 交通 影響  </t>
+          <t>捷運 萬大線 目前 整體 施工 進度 已近 七成 台北市 捷運局 表示 如火如荼 趲 趕中 中站 地下 段 工程 均 依照 規定 施工 定期 監測 目前 沒 地層下陷 問題 捷運局 將依 施工 情形 逐步 縮 減圍 籬範圍 以 緩解 交通 壅塞 負責 施工 台北市 捷運局 一工處 說 明日 前接 獲 施工 路段 住戶 反映 牆面 龜裂 磁磚 破損 等 情形 已 於 今年 9 月 28 日 前往 會勘 並向 住戶 說明 一工處 說 已 了解 建物 狀況 將依 會勘 共識 積極 與 住戶 協調 處理 並將 責成 施工 廠 商 儘 可能 以敦親 睦 鄰協助 修 繕後續 若涉 需鄰 損鑑 定將 按照 規定 辦理後續 一工 處進 一步 指出 近年 因受 疫情 整體 營造 環境 不佳響 致使 中站 需 延至 2024 年 6 月 開始 進行 道路 中間 段 回填 管線 復 舊 但 一工 處將 滾動式 檢討 工序 儘 可能 提早 完成 道路 復 舊 還路 於 民以 減少 對民眾 周邊 交通 響</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>記者 楊 金城 ／ 專題 報導   金門 酒廠 去年 起 台 契作 國產 高粱 三年 計畫   緣起   喝 高粱 救高鐵   往事   其中 學甲區 農會 與 金酒 合作 一期 作 推廣契作 高粱   去年 首年 栽種 四四 公頃   今年 八 一公頃   明年 目標 一千 公頃   成為 全台 最大 國產 高粱 產區     金酒 ︰ 種 多少 收 多少   台南市 學甲區 農會 總幹事 李曉軍說   金酒 台 契作 國產 高粱 計畫   一開始 即 希望 高鐵 沿線 縣市 推廣   節省 水源   減緩 地層下陷 問題   金酒 總經理 丁丞康 說   契作 高粱 收 購價 高出 進口 高粱 甚 多   但 為 了 扶植 國產 高粱 為 了 減少 碳排     契作 高粱 只要 品質夠   種 多少   收 多少       依農業部 農糧署 資料   今年 第二年 台南 學甲   鹽水   新營   後 壁   雲林 土庫   斗南   嘉義 義竹   桃園 新屋 苗栗縣 苑里   新竹縣 等 地契 作種 植 高粱   一期 作 二期 作合計 栽種 二 一 二七 公頃     學甲區 去年 四月 栽種 高粱 祈福 典禮   與 會 前 金門縣 長 楊鎮 浯 說   抗旱 高粱 一公頃 可節 水 一萬公噸   換算 一瓶 高粱酒 可節 水 三 ． 五公噸   雲嘉 推廣種 植 高粱   可 減緩 抽取 地下水     喝 高粱 可以 救高鐵     妙寓 推廣 高粱 有助 紓 緩 地層下陷 問題     減少 進口   提高 國產 自足 率   李曉軍回憶   陳 吉仲在 農委會主 委任 內帶 著 幾家 農會 直接 到 金門 洽談   才 開啟 金酒 台 契作 三年 計畫   除了 提高 國產 高粱 自足 率   減少 金酒 從 中國   南美洲 進口 高粱 依賴   提高 農民 收入   並 配合 農業 政策 推廣節 水 高粱     金酒 首年 以 契作 高粱 生產 超過 三萬瓶   一 穀 作契   金高 銷售 一空   明年 第三年 台 至少 契作 三 公頃 高粱   李曉軍說   金酒 合作 基層 農會 計畫 組團 再 到 金門 提前 洽談後續 契作 計畫   並 希望 爭取 契作 價格 一 公斤 廿一 元 再 提高     台 契作 釀酒 用 高粱 新品 種為   台南 七號       台南 八號   純 糯 高粱   是 農業部 台南 區農業 改良 場在 二 一 九年 育成   後經 二年 試種 金酒 試釀   因風味佳   出酒率 高   同時 具有 耐旱   耐淹   抗病 蟲害 等 優點   成為 政府 鼓勵 稻田 區域 轉作 選項     農糧署 補貼   提高 契作 誘因   因農民種 稻 收益 高於種 高粱   為 提高 農民參 與 契作 高粱 誘因   農糧署 提供 補貼 轉作 獎勵 每公頃 四 ． 五萬元 綠色 環境 給付   參與 小地主 大 專業農 每公頃 額外 獎勵 一萬元   並補助 購置 機具 設備 低利 貸款   雜糧區 學甲   鹽水因 一期 作 推廣 高粱   二期 作再種 硬質 玉米   對 農民 划算     而 為 配合 雲林縣 嚴重 地層下陷區   虎尾 鎮   土庫鎮   元長 鄉 北港 鎮   高鐵 沿線 地層下陷 防治 作業   行政院 並 核定 今年 一期 作起 推動   雲林 高鐵 沿線 特區 推動 農田 轉旱 作物 專案 措施     活化 農地 多元 使用 又 能 節水     〈 飲酒 過量   有礙 健康 〉</t>
+          <t>楊 金城 專題 報導 金門 酒廠 去年 起台 契作 國產 高粱 三年 計畫 緣起 「 喝 高粱 救高鐵 」 往事 其中 學甲區 農會 與 金酒 合作 一期 作 推廣契作 高粱 去年 首年 栽種 四四 頃 今年 八一 頃 明年 目標 一千 頃成 為 全台 最大 國產 高粱 產區 金酒 ︰ 種 多少 收 多少 台南市 學甲區 農會 總幹事 李曉軍說 金酒 台 契作 國產 高粱 計畫 一開始 即 希望 高鐵 沿線 縣市 推廣節 省 水源 減緩 地層下陷 問題 金酒 總經理 丁丞康 說 契作 高粱 收購價 高出 進口 高粱 甚多 但 為 了 扶植 國產 高粱 為 了 減少 碳排 「 契作 高粱 只要 品質 夠種 多少 收 多少 」 依農業部 農糧署 資料 今年 第二年 台南 學甲 鹽水 新營 後壁 雲林 土庫 斗南 嘉義 義竹 桃園 新屋 苗栗縣 苑里 新竹縣 等 地契 作種 植 高粱 一期 作 二期 作合計 栽種 二 一 二七 頃 學甲區 去年 四月 栽種 高粱 祈福 典禮 與 會 前 金門縣 長 楊鎮 浯 說 抗旱 高粱 一頃 可節 水 一萬噸 換算 一瓶 高粱酒 可節 水 三 ． 五噸 雲嘉 推廣種 植 高粱 可 減緩 抽取 地下水 「 喝 高粱 可以 救高鐵 」 妙寓 推廣 高粱 助紓緩 地層下陷 問題 減少 進口   提高 國產 自足 率 李曉軍回憶 陳 吉仲農委會主 委任 帶著 幾家 農會 直接 到 金門 洽談 才 開啟 金酒 台 契作 三年 計畫 除了 提高 國產 高粱 自足 率 減少 金酒 從 中國 南美洲 進口 高粱 依賴 提高 農民 收入 並 配合 農業 政策 推廣節 水 高粱 金酒 首年 以 契作 高粱 產超過 三萬瓶 「 一 穀 作契 」 金高 銷售 一 空明 年 第三年 台 至少 契作 三頃 高粱 李曉軍說 金酒 合作 基層 農會 計畫 組團 再 到 金門 提前 洽談後續 契作計 畫並 希望 爭取 契作 價格 一斤 廿一 元 再 提高 台契作 釀酒 用 高粱 新品 種為 「 台南 七號 」 「 台南 八號 」 純 糯 高粱 農業 部台 南區 農業 改良場 二一 九年 育成 後經 二年 試種 金酒 試釀 因風味佳出 酒率 高同 時具 耐旱 耐淹 抗病 蟲害 等 優點 成為 政府 鼓勵 稻田 區域 轉作 選項 農糧署 補貼   提高 契作 誘因 因 農民種 稻 收益 高於種 高粱 為 提高 農民參 與 契作 高粱 誘因 農糧署 提供 補貼 轉作 獎勵 每頃 四 ． 五萬元 綠色 環境 給付 參 與 小地主 大 專業農 每頃 額外 獎勵 一萬元 並補助 購置 機具 設備 低利 貸款 雜糧區 學甲 鹽水 因 一期 作 推廣 高粱 二期 作再種 硬質 玉米 對 農民 划算 而 為 配合 雲林縣 嚴重 地層下陷區 虎尾鎮 土庫鎮 元長鄉 北港鎮 高鐵 沿線 地層下陷 防治 作業 行政院 並 核定 今年 一期 作起 推動 「 雲林 高鐵 沿線 特區 推動 農田 轉旱 作物 專案 措施 」 活化 農地 多元 使用 又 能 節水 〈 飲酒 過量礙 健康 〉</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  </t>
+          <t>旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪 大 高雄 地區 民用 水主動脈 枯水期 間 地下水 主要 供水 區域 如何 永續 地下水 資源 當前 重要 課題 經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游 設置 地下水 補注區 112 年 已 設置 約 11 處 總計 460 頃評 估 一年 補注 將近 1400 萬噸 補 注量 地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤 讓 水流 受阻 流速 變慢 增加 滯水範圍 讓 更 多水 滲入 地下 當 抽取 完 地下水 後 透過 自然 入 滲補注 就 能 讓 地下水位 快速 回 復 平常 水位 以上 使 地下水 源 得以 永續 1960 年代 起 台灣 引進 地下水 鑿井技術 台灣 西 半部 沿海 養殖 漁業 盛行 大量 地超 抽 地下水 使得 地層下陷 海水倒灌 土壤 鹽化 等 問題 層出 不窮關 高雄 運用 地下水 資源會 造成 地層下陷 水利 署透 過長 期監 控出 釋疑 經濟部 水利 署 水文 技術 組科長 吳 明哲 表示 高屏溪 沿岸 屏東 平原 地下水 區 主要 以砂礫 石層 為 主礫石 跟 礫 石之間 顆粒 地下水 時候 不會 壓密行 為 地下水 一旦 下降 因顆 粒 與 顆粒 支撐 不會產 壓密 沉陷 另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗 模擬 高雄 地區 砂礫 石層 抽水 情況 證明 砂礫 石層 比較 不會 出現 地層下陷 民眾 不必 過度 擔心 經濟部 水利 署 南區 水資源局 副 局長 何達夫 說明 軟礫 石層 跟 粘土 層 不 一樣 粘土 層 抽水 後 會 下陷 但 軟礫 石層 一個 石頭 接著 一個 石頭 把 石頭間 水 抽掉 抽走 得 很快 補充 非常 快不會 地層下陷 問題 專家 強調 只要 不過度 超 抽 加上 嚴密 監測 就 不必 擔心 地層下陷 學呼籲 豐水期 應多加 利用 地下水 不僅 能夠 避免 水資源 浪費 還能夠 防洪 減災 高屏溪 擁豐沛 地下水 資源 從 鑿 井 取水 到 地下水 補注 不僅 讓 水資源 得以 永續 成為 高雄 地區 對 抗旱 象 關鍵 利器</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">順著 高屏溪 右岸 來 到 高雄 大樹區 九曲堂 工作站   從 空中 俯瞰 一個 個 用圍 欄圍 起 方形 區塊   排列 整齊   錯落 其中   靠近 一看 才 發現 這是 一根 根 打入 地底下 水管   稱為 抗旱 水井   高雄市 政府 水利局 表示   所謂 抗旱 水井 是 抽取 深層 地下水   從 地表 往下 150 米 深   透過 抽水 設備   將深層 地下水 經由 抗旱 水井 取出   相較 於 海淡廠   再生 水 等等   取水 更為 快速   成本 更 低   供水量 更 大 地下水   成為 抗旱 期間 關鍵 水源   類 似的 抗旱 水井 已 高雄 陸續 開鑿 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井 卻 讓 當地 農民相 當憂心   是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間 淺層 地下水 農業 灌溉 井   含水 層 不同   且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產生 影響   水利局 局長 蔡長 展 指出   抗旱 水井 是備 援用 水   使用 時間 大約 每年 3 月 至 5 月   藉由 雨水 對 地下水 進行 補注   對 農業 灌溉 用水 不受 影響   根據 地下水位 監測 資料 顯示   112 年 1 月份 地下水位 高點 落 14 公尺   接著 隨著 枯水期 到 來   地下水位 5 月份 降到 了 大約 6 公尺   隨後迅 期到 來 開始 降雨   加上 高雄市 政府 與 水利 署 合作   推動 高屏溪 流域 河道 疏濬 補注 地下水 計畫   增加 地下水 量   使得 9 月份 地下水位 上升 到 16 公尺   足足 比 枯水期 高出 了 10 公尺   甚至 高 於 1 月份 水位   枯水期 嚴密 監控   視情況 抽用   豐水期 加強 地下水 補注   能夠 達 到 水資源 永續 發展 目標   經濟部 水利 署 副署 長 林元鵬 說明   高雄 地區 總 共有 11 口 觀測 水井   所有 水井 都 會 進行 管控   只要 是 有效 地去 管控 數據   地下水 高雄 地區 是 可以 當作 一個 安全 用水   嚴密監 控確 保不會 造成 地層下陷 影響 水源 保育 情況 之下   短期 備援 抗旱 水井 不僅成 了 抗旱 功臣   賦予 地下水 資源 更 多元 運用 可能  </t>
+          <t>順著 高屏溪 右岸 來 到 高雄 大樹區 九曲堂 工作站 從 空中 俯瞰 一個 個 用圍 欄圍 起 方形 區塊 排列 整齊 錯落 其中 靠近 一看 才 發現 這 一根 根 打入 地底下 水管 稱為 抗旱 水井 高雄市 政府 水利局 表示 所謂 抗旱 水井 抽取 深層 地下水 從 地表 往下 150 米 深透 過 抽水 設備 將深層 地下水 經由 抗旱 水井 取出 相較 於 海淡廠 再 水 等等 取水 更為 快速 成本 更 低 供水量 更大 地下水 成為 抗旱 期間 關鍵 水源 類似 抗旱 水井 已 高雄 陸續 開鑿 110 座 每日 供水量 將近 35 萬噸 雖然 穩定 水情 但 大規模 鑿 井 卻 讓 當地 農民相 當憂 心會 剝奪 農業 用水 對此 專家 解釋 抗旱 水井 取用 深度 達 100 到 150 深層 地下水 與 一般 深 20 到 40 間 淺層 地下水 農業 灌溉 井 含水 層 不同 且 兩間 還阻 水層 相互 阻隔 因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產響 水利局 局長 蔡長 展 指出 抗旱 水井 備 援用 水 使用 時間 大約 每年 3 月 至 5 月 藉由 雨水 對 地下水 進行 補注 對 農業 灌溉 用水 不 受響 根據 地下水位 監測 資料 顯示 112 年 1 月份 地下水位 高點 落 14 接著 隨著 枯水期 到 來 地下水位 5 月份 降到 了 大約 6 隨後迅 期到 來 開始 降雨 加上 高雄市 政府 與 水利 署 合作 推動 高屏溪 流域 河道 疏濬 補注 地下水 計畫 增加 地下水 量 使得 9 月份 地下水位 上升 到 16 足足 比 枯水期 高出 了 10 甚至 高 於 1 月份 水位 枯水期 嚴密監 控視 情況 抽用 豐水期 加強 地下水 補注 能夠 達 到 水資源 永續 發展 目標 經濟部 水利 署 副署 長 林元鵬 說明 高雄 地區 總共 11 口觀測 水井 所 水井 都 會 進行 管控 只要 效地 去 管控 數據 地下水 高雄 地區 可以 當作 一個 安全 用水 嚴密監 控確 保不會 造成 地層下陷 響 水源 保育 情況 之下 短期 備援 抗旱 水井 不僅成 了 抗旱 功臣 賦予 地下水 資源 更 多元 運用 可能</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">越南 正在 加強 監管 開採 砂石   雖然 這可 說 是 全世界 最常 被 使用 一項 資源   但 若 濫採   可能 導致 水土流失   地層下陷 房屋 倒塌 等 災難       日經 新聞 報導   越南政府 官網 12 日 公告   總理范 明政 已 指示 五個 部會 多個 地方 政府   仔細 審視營 建業 礦物 開採   尤其 是 砂石   這種 大宗 商品 已成 為 一項 全球性 生意   可和水 混合 後 製 成 水泥   或是 用來 填海造地   越南 已 限制 砂石 出口                             越南 湄公河 三角洲 等 地區   盜採 砂石 已成 為 一種 比 氣候變遷 還要 嚴重 威脅   據 非營利 環保 組織 世界 自然 基金 會   WWF   最近 指標性 報告   湄公河 三角洲 砂石 可能 會 2035 年前 被 開 採殆 盡       越南政府 日前 已特別點 出河 內市 三樁 砂石 開採 招標   大眾 意見 特別 令人 擔憂     並在 官網 公告 中 表示   該市 應該   立即 重新 審視 調查 評估 砂石 存量 整個 流程       絕對 不准 組織 個 人 利用 管理 漏洞 賺取 暴利         范 明政 指示 環境部 調查 該 行業 活動   罕見 跡象     並 指示 安全部   嚴加 處置 違法行 為    </t>
+          <t>越南 正加強 監管 開採 砂石 雖然 這可說 全世界 最常 被 使用 一項 資源 但 若 濫採 可能 導致 水土流失 地層下陷 房屋 倒塌 等 災難 日 經新聞 報導 越南政府 官網 12 日告 總理范 明政 已 指示 五個 部會 多個 地方 政府 仔細 審視營 建業 礦物 開採 尤其 砂石 這種 大宗 商品 已成 為 一項 全球性 意可水 混合 後 製 成 水泥 或用 來 填海造地 越南 已 限制 砂石 出口 越南 湄河 三角洲 等 地區 盜採 砂石 已成 為 一種 比 氣候變遷 還要 嚴重 威脅 據 非營利 環保 組織 世界 自然 基金 會 WWF 最近 指標性 報告 湄河 三角洲 砂石 可能 會 2035 年前 被 開 採殆 盡 越南政府 日前 已特別 點出 河市 三樁 砂石 開採 招標 「 大眾 意見 特別 令人 擔憂 」 並官 網告 中 表示 該市 應該 「 立即 重新 審視 調查 評估 砂石 存量 整個 流程 」 「 絕對 不准 組織個 人 利用 管理 漏洞 賺取 暴利 」 范 明政 指示 環境部 調查 該 行業 活動 「 罕見 跡象 」 並 指示 安全部 「 嚴加 處置 違法行 為 」</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">義 大利 除了 比薩 斜塔 外   義 大利 北部 波隆 個 知名   波隆 雙塔     這兩座 塔 歷史 將近 一千年   而 其中 一座 較 低矮 塔   最近 幾年 被 發現 結構 愈來 愈 不 穩定   傾斜 角度 逐漸 變大   當局 已經 封鎖 附近 區域   並在網 路上 發起 募捐 活動   希望 各界 共同 來 拯救 這座 重要 歷史 建築 文化 資產   義 大利 波隆納 雙塔   右側 阿西 內利 塔高 97 公尺   左側 加里森 達 塔高 48 公尺   雙塔 波隆納 矗立 超過 900 年   如今 張貼 禁止 進入 告示   基座 被 圍起   且 其中 比較 低 加里森 達塔   被 專家 認定   很 可能 近期 倒塌   情況 相當 危急   波隆 市民 寶拉 表示     這座 塔 是 波隆 象 徵   如果 它 倒塌 了 真的 是 個 恥辱   因為 我們將 失去 這座 城市 最 重要 古 蹟 之一     14 世紀 發生 一次 地層下陷 後   加里森 達塔持續 傾斜   目前 斜度 已 超越 比薩 斜塔 0.1 度達 到 4 度   當局 曾 於 2020 年 執行 抗傾倒 計畫   但 問題 不但 沒 改善 甚至 還惡化   今年夏天 面臨 極端 高溫 加上 洪水 等 極端 天氣   讓 高塔 難以 承受   當局 展開 搶 救 加里森 達塔 大作 戰   在網 路上 發起 募款 活動   目標 是 籌到 一 億台幣 資金   希望 各界 一起 來 拯救 義 大利 重要 歷史 建築 文化 資產  </t>
+          <t>義 大利 除了 比薩 斜塔 外義 大利 北部 波隆個 知名 「 波隆 雙塔 」 這兩座 塔 歷史 將近 一千年 而 其中 一座 較 低矮 塔 最近 幾年 被 發現 結構 愈來 愈 不 穩定 傾斜 角度 逐漸 變大 當局 已經 封鎖 附近 區域 並網 路上 發起 募捐 活動 希望 各界 共同 來 拯救 這座 重要 歷史 建築 文化 資產義 大利 波隆納 雙塔右側 阿 西利 塔高 97 左側 加里森 達 塔高 48 雙塔波 隆納 矗立 超過 900 年 如今 張貼 禁止 進入 告示 基座 被圍 起且 其中 比較 低 加里森 達塔 被 專家 認定 很 可能 近期 倒塌 情況 相當 危急 波隆 市民 寶拉 表示 「 這座 塔波 隆象 徵 如果 它 倒塌 了 真個 恥辱 因為 我們將 失去 這座 城市 最 重要 古 蹟 之一 」 14 世紀發 一次 地層下陷 後 加里森 達塔持續 傾斜 目前 斜度 已 超越 比薩 斜塔 0.1 度達 到 4 度 當局 曾 於 2020 年 執行 抗傾倒 計畫 但 問題 不但 沒 改善 甚至 還惡化 今年夏天 面臨 極端 高溫 加上 洪水 等 極端 天氣 讓 高塔 難以 承受 當局 展開 搶 救 加里森 達塔 大作 戰網 路上 發起 募款 活動 目標 籌到 一 億台幣 資金 希望 各界 一起 來 拯救 義 大利 重要 歷史 建築 文化 資產</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 捷運 信義線 東延段 工程   疑似 造成 松山 家商 校舍 下陷 5 公分   引發 安全 疑慮   直擊 北市 福德街   住戶 反映   下陷 情況 相當 明顯   連房價 都 跌 了   對此 台北市 捷運局 表示   已 安排 台北市 結構 技師 公會 辦理 結構 安全 鑑定   同時 已針 對 周邊 建物 鄰房 損壞 部分   進行 立即 修繕 作業   台北 捷運 信義線 東延段 工程   2016 年 開工 至今   工程 目前 還在 進行 中   不過 近期 北市 議員接 獲民眾 陳 情   說 先前 開 挖 工程   釀成 鄰近 建物 塌陷   實際到 現場 一看   發現 原本 馬 路 是 平   但 塌陷 狀況 確實 越來 越 明顯   附近 住戶 說     對   本來 都 是 平   這邊 全部 都 下陷   我 就 住 二樓   那個 球 很 明顯 從 這樣 滑下去     說 到 地層下陷   附近 住戶 超級 有感   北市 福德街 一旁 騎樓   明顯 受到 捷運開 挖 工程 影響   下陷 相當 嚴重   連住 戶 都 直呼   這裡 房價 都 跌 了     里長 更 指出   福德街 51 巷到 89 巷是 影響 最明顯 地方   附近 住戶 擔心 說     補 了 沒用   看 就 這樣   結構 已經 不行 了   除非 重建     對此 台北市 土木 技師 公會 理事 長 莊均緯 表示     通常 捷運 施工 比較 容易 下陷 部分   就 是非 結構體   像是 水溝   人行道   瓷磚 部分   要 安全 檢測   看 是否 造成 結構 上 問題     而 松山 家商 校舍 被 發現 下陷 狀況   議員 指出   經過 一年 監測   確認 已經 下陷 約 5 公分   安全 疑慮 浮上 檯 面   捷運 工程局 承包商   趕緊 進行 結構 補強   施作 地質 鑽 探作業   要 確認 校舍 承受能力   台北市 政府 捷運局 第二 工程 處 主任 陳 建仁則 表示   110 年 9 年 接到 學校 通報   監測 作業 進行 修繕   今年 暑假 陸續 修繕 完成   這個 月 安全 鑑定   兩個 月 後 就 安全 報告   而 台北 捷運局 表示   施工期 間 因為 極端 地質 水文 條件 不利   釀成 地下 土層 沉陷   目前 已經 安排 結構 安全 鑑定   並進行 立即 修繕   捷運 施工 周邊 建物   都 有安裝 建物 監測 儀器   按時 觀測 監控   研判 施工 是否 再 造成 影響  </t>
+          <t>台北 捷運 信義 線東 延段 工程 疑似 造成 松山 家商 校舍 下陷 5 分引發 安全 疑慮 直擊 北市 福德街 住戶 反映 下陷 情況 相當明 顯連 房價 都 跌 了 對 此 台北市 捷運局 表示 已 安排 台北市 結構 技師會 辦理 結構 安全 鑑定 同時 已針 對 周邊 建物 鄰房 損壞 部分 進行 立即 修繕 作業 台北 捷運 信義 線東 延段 工程 2016 年 開工 至今 工程 目前 還進行 中不過 近期 北市 議員接 獲民眾 陳 情說 前開 挖 工程 釀成 鄰近 建物 塌陷 實際到 現場 一看 發現 原本 馬 路平 但 塌陷 狀況 確實 越來 越 明顯 附近 住戶 說 「 對本來 都 平 這邊 全部 都 下陷 我 就 住 二樓 個 球 很 明顯 從 這樣 滑下去 」 說 到 地層下陷 附近 住戶 超級 感 北市 福德街 一旁 騎樓 明顯 受到 捷運開 挖 工程 響 下陷 相當 嚴重 連住 戶 都 直呼 「 這裡 房價 都 跌 了 」 里長 更 指出 福德街 51 巷到 89 巷響 最明顯 地方 附近 住戶 擔心 說 「 補 了 沒用 看 就 這樣 結構 已經 不行 了 除非 重建 」 對此 台北市 土木 技師會 理事 長 莊均緯 表示 「 通常 捷運 施工 比較 易 下陷 部分 就 非 結構 體像 水溝 人行道 瓷磚 部分 要 安全 檢測 看 造成 結構 上 問題 」 而 松山 家商 校舍 被 發現 下陷 狀況 議員 指出 經過 一年 監測 確認 已經 下陷 約 5 分 安全 疑慮 浮上 檯 面捷運 工程局 承包商 趕緊 進行 結構 補強 施作 地質 鑽 探作業 要 確認 校舍 承受能力 台北市 政府 捷運局 第二 工程 處 主任 陳 建仁則 表示 110 年 9 年 接到 學校 通報 監測 作業 進行 修繕 今年 暑假 陸續 修繕 完成 這個 月 安全 鑑定 兩個 月 後 就 安全 報告 而 台北 捷運局 表示 施工期 間 因為 極端 地質 水文 條件 不利 釀成 地下 土層 沉陷 目前 已經 安排 結構 安全 鑑定 並進行 立即 修繕 捷運 施工 周邊 建物 都 安裝 建物 監測 儀器 按時 觀測 監控 研判 施工 再 造成 響</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  </t>
+          <t>2023 年 9 月 海葵 颱風 登陸前 南部 地區 一度 超過 600 天 沒 下雨 高雄 爆發 旱象 雖然 高雄 地表 缺水 但 地面 下 卻 蘊藏 豐富 水源 根據 統計 高雄 高達 8 成到 9 成備 援用 水 都 能 取自 地下水 伏 流水 但 大規模 鑿 井會 剝奪 農業 用水 甚至 造成 地層下陷 時序 來 到 年底 全 台 各地 開始 進入 枯水期 加上 氣候變遷 南北 降雨 不均 不少 人憂 心南 台灣 今年 會 再度 面臨 缺水 危機 幸好 高雄 地區 地表 之下 蘊藏 了 神 祕 巨大 水庫 靠 著伏 流水 資源度過 缺水 危機 高雄 大泉 伏 流水 取水 站徑 15 深 19 集 水井 裡頭 著 11 個 粗大 管線 負責 抽水 將伏 流水 運到 淨水廠 供 民用 水所謂 伏 流水 就 流動 或 儲存 河床 底下 砂礫 石層 當中 水源 透過 自然 過濾 或 滲透 流入 地面 之下 包括 了 由 粗顆 粒 土壤 組成 含水 層以 由 細顆 粒 粘土 組成 阻水層 伏 流水 大約 落 地面 下 15 到 20 反觀 如果 滲透到 了 20 到 40 深稱 為 淺層 地下水 如果 繼續 滲透到 了 50 以下 到 150 處則 稱 為 深層 地下水 屏東 科技 大學 名譽 教授 丁澈士 表示 伏 流水 變成現 救命 水 尤其 汛期 時候 它 非常 乾淨 外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU 根本 就 沒 辦法 後 製 沉 沙 沉 澱 處 理 但 伏 流水 因為 河水 跟 井水 相通 所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用 所以 就 變成 所 說 救命 水同樣 被 視為 救命 水源 還 這 一根 根 打入 地底下 抗旱 水井 別 小看 這些 不起眼 水井 它們 可解決 高雄 缺水 危機 抗旱 英雄 類似 抗旱 水井 已經 3 年間 高雄 陸續 開鑿 了 110 座 每日 供水量 將近 35 萬噸 雖然 穩定 水情 但 大規模 鑿 井 卻 讓 當地 農民相 當憂 心會 剝奪 農業 用水 對此 專家 解釋 抗旱 水井 取用 深度 達 100 到 150 深層 地下水 與 一般 深 20 到 40 間 淺層 地下水 農業 灌溉 井 含水 層 不同 而且 兩間 還阻 水層 相互 阻隔 因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產響 高雄市 水利局 長 蔡長 展 表示 抗旱 水井 其實 一個備 援用 水它 使用 時間 大概 每年 3 月 到 5 月 到 了 下雨 時候 我們 就 沒 再 用 就 藉由 下雨 時候 會 地下水 補注 所以 對 整個 地下水位 來講 跟 市民 用 一些 農業 灌溉 用水 安全 神 祕 地下水 補注區 其實 就 隱身 高屏溪 河床 底下 從 空中 俯瞰 這些 不起眼 灰色 土石 全都 扮演 關鍵 角色 所謂 地下水 補注區 就 利用 疏濬 砂石 河床 蓋 微型 土堤 讓 水流 受阻 流速 變慢 增加 滯水範圍 讓 更 多水 滲入 地下 藉此 增加 地下水 量 使得 地下水 源 得以 永續 大量 運用 地下水 資源 不免 讓 人 憂心 抽取 地下水 會 造成 地層下陷 水利 專 家丁 澈士 教授 解釋 因為 這 一些 土壤 裡面 一些 礫石 跟 比 較 粗 沙子 所以 說放釋 水時候 它 比 較 不會產 所謂 壓密 沉陷 因為 它 骨架 會 互相 地支 撐 實驗 還原 了 高雄 地層 下 狀況 清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形 因此 民眾 不必 過度 擔心 南區 水資源 分署 副 分署 長 何達夫 表示 軟礫 石層 跟 粘土 層 不 一樣 粘土 層 抽 了 水之後它 會 下陷 但 軟礫 石層 一個 石頭 接著 一個 石頭 把 石頭間 水 抽掉 它 抽走 得 很快 補充 非常 快個 地方 抽 地下水 不會 地層下陷 問題 極端 氣候 肆虐 全球 缺水 危機 恐將 一再 重演 無論 伏 流水 還 地下水 都 抗旱 時期 救命 水源 唯 善加利用 才能 讓 危機 成為 轉機</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">長江 三角洲 簡稱   長三角     是 中國大陸 經濟 發展 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 三角洲   然而     人無遠慮   必有 近憂     當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 此刻   當 全球 減碳 前景 仍 不樂觀 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長江 三角洲 未來 所 可能 受到 危害   將牽動 著 中國大陸 發展 前景 與 紅色供 應鏈 未來       廿世紀 前 五十年 全球 平均 海水面 升高 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國   政府 間 氣候變遷 小組   去年 報告 書 指出   隨著 不同 暖化 程度   本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 將是 各大 河流 出海口 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 舊 金山 參加 一個 研討 全球 變遷 學術 大會   十幾個 議題 組中 領略 到 密西西比河 三角洲 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 景象 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 中上游 建設 上 了 四萬座 大大小小 壩體   一九六五年 以降   河系 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   擾亂 了 原來 大自然 泥沙 輸送 布局   加上 近 五十年 下游 地區 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧     自然 解方     力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長江 三角洲 似乎 正 走上 密西西比河 老路   長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 社會 變遷   僅 上海 一地   人口 從 八 年代 六百 萬 增加 到 目前 三千 三百 萬   長江 原來 每年 輸送 五 億公噸 泥沙 到 河口   全球排名 第五   長江 三峽 大壩 二 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長江 三角洲 前緣 已 經開 始後退   以 上海 為 發展 中心 三角洲 雖 享受 著開發 豐美果實   承受 著 上游 帶來 一切 災害 危機 總   包括 三角洲 萎縮 以及 水質 汙染   大量 人口 增加 使 地下水 抽取 量大增   地層下陷   局部 地區 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 範圍 約 占 全區 百分之十四   而 長江 三角洲 則占 全區 百分之四十   未來 海水面 上升 風險 下   長三角 面臨 挑戰 顯然 更 為 嚴峻   更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  </t>
+          <t>長江 三角洲 簡稱 「 長三角 」 中國大陸 經濟 發展 前緣 地區 人口 超過 三千 萬年 產毛額 兩千 兩百億 美元 全球 最 富裕 三角洲 然而 「 人無遠慮 必近 憂 」 當聯合國 氣候 變化 綱要 約 締約 方大會 COP28 閉幕 不久 此刻 當 全球 減碳 前景 仍 不樂觀 當下 我們 要 想想 全球 暖化 北極 冰融 海水面 上升 加劇 趨勢 中 長江 三角洲 未來 所 可能 受到 危害 將牽動 著 中國大陸 發展 前景 與 紅色供 應鏈 未來 廿世紀 前 五十年 全球 平均 海水面 升高 速率 為 每年 一點 五 毫米 近 卅年 來 該 速率 已經 加倍 達到 每年 三點 四 毫米 就 說 卅 多年 來 全球 海水面 升高 了 十一分 聯合國 「 政府 間 氣候變遷 小組 」 去年 報告 書 指出 隨著 不同 暖化 程度 本世紀 前 海水面 將 升高 一到 二點 五 不 等 衝擊 最嚴 重將 各大 河流 出海口 三角洲 — 洪水 淹 沒 土地 侵蝕 鹽水 入侵 態 崩解 近日 筆舊 金山 參加 一個 研討 全球 變遷 學術 大會 十幾個 議題 組中 領略 到 密西西比河 三角洲 海陸 變化 從 航空 照片 到 衛星 遙測 桑田 變滄海 景象 眼前 一幕幕 展開述 說 著數 十年 來 淤積 與 滅頂 故事 十九 世紀 這個 大河 系 每年 輸送 四 億噸 泥沙 入海 廿世紀 中期 之後以 水利 為名 密西西比河 中上游 建設 上 了 四萬座 大大小小 壩體 一九六五年 以降 河系 輸 沙量 已經 減半 不止 只 剩下 每年 一億 三千 萬噸 上游 蓋壩 為 了 蓄水 與 發電頭 痛醫頭 下游 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕 人們 又 開始 腳痛 醫腳 建造 了 許多 堤防 防範 海水 入侵 總長 三 萬里 擾亂 了 原來 大自然 泥沙 輸送 布局 加上 近 五十年 下游 地區 墨西哥 灣 石油 與 天然 氣開發 地層下陷 河道 漂移 人們 總以 為 人定 勝天救 東牆 補西牆 整個 地區 亂成 一鍋 粥 現 又 奢言 利用 人工智慧 「 自然 解方 」 力挽狂 瀾 於 既 倒 扶大廈 之將 傾 只怕 痴人 說夢為 時 已 晚 長江 三角洲 似乎 正 走上 密西西比河 老路 長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 社會變 遷僅 上海 一地 人口 從 八 年代 六百 萬 增加 到 目前 三千 三百 萬 長江 原來 每年 輸送 五 億噸 泥沙 到 河口 全球排名 第五 長江 三峽 大壩 二三年 啟用 之 後 目前 輸 沙量 大約 每年 一億噸 長江 三角洲 前緣 已 經開 始後退 以 上海 為 發展 中心 三角洲 雖 享受 著開 發豐 美果實 承受 著 上游 帶來 一切 災害 危機 總 包括 三角洲 萎縮 以水質 汙染 大量 人口 增加 使 地下水 抽取 量大增 地層下陷 局部 地區 下陷 量 曾一度 高達 每年 十七分 使得 淹水 危機 更 甚 雪上加霜 近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助 才 暫時 阻延 了 一些 頹勢 密西西比 三角洲 海拔 低 於 二米 範圍 約 占 全區 百分之十四 而 長江 三角洲 則占 全區 百分之四十 未來 海水面 上升 風險 下 長三角 面臨 挑戰 顯然 更 為 嚴峻 更 為 棘手 作為 逢甲 大學 創能 學院 教授</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 溢 淹 問題 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 地養 殖區 穩定 水質 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 機構 團體 來   取經     居民 卻長 期苦 於 地層下陷 帶來 排水 問題 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 生活 環境 品質                             說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東縣 最大 養殖 漁業 生產區   塭 豐 二中 排旁 豐 海路 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖 魚塭 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 水環境       屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 溢 淹 問題 顛簸 起伏 路況 所苦   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供</t>
+          <t>屏東縣 沿海 佳冬鄉 塭 豐養殖 漁業 產區 養殖 面積 漁產量 居 全縣 之冠當 地漁民 卻 一直 飽受 地層下陷 帶來 溢淹 問題 道路 顛簸 路況 所苦 縣府 向 中央 爭取 8861 萬元 經費 投入 治水 道路 改善 工程 縣長 周春米 今天 主持 動工 儀式將 改善 排水 護岸 總長 854.8 道路 面 平均 抬升 1.3 定 明年 10 月 完工 周春米 說 佳冬鄉 塭 豐養殖 漁業 產區 擁全台 首座 大型 海水 供水 設施供 地養 殖區 穩定 水質 足夠 水量 以達 養殖 環境 永續 經營 目成 為 全台 指標性 建設 吸引 各地 機構 團體 來 「 取經 」 居民 卻長 期苦 於 地層下陷 帶來 排水 問題 既路況 顛簸 起伏 縣府 向 中央 爭取 經費 改善 可 降低 區域 淹水 風險 提升 當地 產活 環境 品質 說 佳冬鄉 塭 豐養殖 漁業 產區 面積 470 頃 屏東縣 最大 養殖 漁業 產區 塭 豐 二中 排旁 豐海路 塭 豐產區 東西 向 重要 主要 聯絡 道路 改善 工程 不僅針 對 塭 豐 二中 排進行 改善 對 豐海路 路面 裂化 高程 不足 等 問題 一 併 改善 完工 後 可 改善 路面 破損 道路 淹水 等 問題 讓 風災來 臨時 漁民 安全 通行 道路 進出 養殖區 強化 養殖 漁業產 環境 安全 縣府 海洋 漁業 事務 管理所 表示 工程 護岸 採用 預力 混凝土 板樁 具 施工 快速 振動 噪音 低 材料 品質 穩定 等 優點 減少 施工 時 對 養殖 魚塭 響 防汛 道路 高度 平均 抬升 1.3 路面 鋪設 厚度 為 10 分讓 道路 平順銜 接 防止 溢淹 情形 營造 優質 自然 安全 水環境 屏東縣 沿海 佳冬鄉 塭 豐養殖 漁業 產區 養殖 面積 漁產量 居 全縣 之冠 居民 卻 一直 為 地層下陷 帶來 溢淹 問題 顛簸 起伏 路況 所苦圖 屏東縣 政府 提供 屏東縣 沿海 佳冬鄉 塭 豐養殖 漁業 產區 縣府 爭取 8861 萬元 經費 治水 縣長 周春米 今天 主持 動工 儀式定 明年 10 月 完工 圖 屏東縣 政府 提供 屏東縣 沿海 佳冬鄉 塭 豐養殖 漁業 產區 縣府 爭取 8861 萬元 經費 治水 縣長 周春米 今天 主持 動工 儀式定 明年 10 月 完工 圖 屏東縣 政府 提供</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 根據 水利 署 監測 資料   全國 最大 米 鄉 — 大 埤 鄉 近 5 年 地層下陷 面積 深度 惡化 情況   分析 原因 極端 氣候 水情 不穩   地下水 用量 增   對此   縣府 爭取 農業部 農田 水利 署將 大 埤納入 擴大溉 灌 服務範圍   可 從 北港溪 引水 高灘 地 建置 蓄水池   再 新建 管路 供農田 灌溉 用   經費 約 3.3 億元     縣府 水利 處 指出   水利 署 2023 雲林 地層下陷 監測 結果 顯示   雲林 顯著 下陷 面積 247.7 平方公里   比 前年 2022 年略增 一些   顯著 下陷 重點 地區 土庫   元長 地下水位 仍有 持續 下陷 形     水利 處長 許 宏博 表示   整體 監測 結果 可 看出   雲林 沿海 地層下陷 趨緩   顯著 下陷 主要 虎尾   土庫   元長   北港   四湖   褒忠   水林   崙 背 大 埤   值得注意 是 大 埤 鄉 下陷 面積   深度 近 5 年 惡化 現象     許 宏博 指出   大 埤 是 全國 水稻 種植 面積 最 多 鄉鎮   但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作   無水 可 灌溉 一定 要 抽 地下水 使用   水稻 面積 不變   用水量 都 固定 情況 下   地層下陷 應 不致 惡化   主要 變數 就是 水情   尤其 這幾年 極端 氣候   2021 遇 百年 大旱   2023 去年 又 遇 200 年 大旱   這 2 次 地下水 抽得 多   去年 枯水期 地下水位 洩降 大 埤 達 15 公尺 最 嚴重     許 宏博 說   目前 大 埤 農民 灌溉 情況 3 種   第一 種是 引 地面水 即區 排   第二 種是 抽 地下水   由 幾個 農民 共同 一個 公井   再分 擔電費   第三 種是 抽 北港溪 水   為 減緩 大 埤 地層下陷 持續 惡化   縣府 早先 已建議 列為 優先 防治 地   針對 大 埤 取水 灌溉 進行 初步 規劃 及構 想   考量 北港溪 尚有 水權 可 申請   即 從 北港溪 引 地面水 到 高灘 地 蓄水池   供給 農田 灌溉 使用  </t>
+          <t>〔 根據 水利 署 監測 資料 全國 最大 米 鄉 — 大埤鄉 近 5 年 地層下陷 面積 深度 惡化 情況 分析 原因 極端 氣候 水情 不穩 地下水 用量 增對 此 縣府 爭取 農業部 農田 水利 署將 大埤 納入 擴大溉 灌 服務範圍 可 從 北港溪 引水 高灘 地 建置 蓄水池 再 新建 管路 供農田 灌溉 用 經費 約 3.3 億元 縣府 水利 處 指出 水利 署 2023 雲林 地層下陷 監測 結果 顯示 雲林 顯著 下陷 面積 247.7 平方里 比 前年 2022 年略增 一些 顯著 下陷 重點 地區 土庫 元長 地下水位 仍持續 下陷 形 水利 處長 許 宏博 表示 整體 監測 結果 可 看出 雲林 沿海 地層下陷 趨緩 顯著 下陷 主要 虎尾 土庫 元長 北港 四湖 褒忠 水林 崙背 大埤 值得注意 大埤鄉 下陷 面積 深度 近 5 年 惡化 現象許 宏博 指出 大埤 全國 水稻 種植 面積 最多 鄉鎮 但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外 包括 北鎮 西鎮 怡然 等 村若要 一年 兩作 無水 可 灌溉 一定 要 抽 地下水 使用 水稻 面積 不變 用水量 都 固定 情況 下 地層下陷 應 不致 惡化 主要 變數 就 水情 尤其 這幾年 極端 氣候 2021 遇 百年 大旱 2023 去年 又 遇 200 年 大旱 這 2 次 地下水 抽得 多 去年 枯水期 地下水位 洩降 大埤 達 15 最嚴 重許 宏博 說 目前 大埤 農民 灌溉 情況 3 種 第一 種引 地面水 即區 排 第二 種抽 地下水 由 幾個 農民 共同 一個 井 再 分擔 電費 第三 種抽 北港溪 水為 減緩 大埤 地層下陷 持續 惡化 縣府 早已 建議 列為 優 防治 地針 對 大埤 取水 灌溉 進行 初步 規劃構 想 考量 北港溪 尚水權 可 申請 即 從 北港溪 引 地面水 到 高灘 地 蓄水池 供給 農田 灌溉 使用</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>經濟部 水利 署 監測 雲林縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林縣 長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   自來 水可到 達 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林縣 大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影</t>
+          <t>經濟部 水利 署 監測 雲林縣 地層下陷 去年 雲林 顯著 下陷 面積 247.7 平方里 較 前年 略 增全 台面 積 最大 稻作 鄉鎮 大埤鄉 因 部分 地區 非 灌區 僅能 抽取 地下水 近年 下陷 面積 逐漸 擴大縣 府 提出 大埤鄉 非灌區 灌溉 水源 改善 工程 提報 中央 爭取 專案 經費 並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍 根據 水利 署 監測 資料 顯示 雲林縣 去年 顯著 下陷 面積 為 247.7 平方里 較 前年 239.5 里 增加 年 下陷 速度 約 7 分 土庫 元長 水位 仍持續 下降 趨勢 枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 其中 又 以 大埤 監測 站 洩降 15 最嚴 重為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮 縣府 水利 處長 許 宏博 表示 過去 雲林縣 地層下陷 以高鐵 沿線 虎尾 土庫 元長 北港 較 為 嚴重 但 近年 大埤鄉 地層下陷 惡化 趨勢 主因 為 大埤鄉 為 全台 稻作 面積 最 大鄉 鎮種 植面積 逾 5 千頃 但 部分 地區 非 灌區 需仰賴 地表水 或 抽取 地下水 灌溉 導致 近 5 年 地層下陷 面積 深度 都 惡化 為 改善 地層下陷 縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫擬 北港溪 高灘 地 設置 調蓄 池臨 時性 滯水 設施 透過 貯蓄 北港溪 水源 新建 給 水管路 供給 非 灌區 農田 使用 經費 約 3.32 億元將 向 中央 提報 並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍 雲林縣 長 張麗善 說 極端 氣候 越來 越 嚴峻 地面水 資源 無法 支持 產業 所 需農田 水利 署 如 未能 綜合 考量 水資源 供 應量 農民因 耕作 計所 需勢 必尋求 抽取 地下水 因應 導致 地層下陷 問題 對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅許 宏博 表示 針對 高鐵 沿線 虎尾 土庫 元長 北港 四鄉鎮 地區 縣府 將持續 加強 查察 水井 用水 情形 並檢討 與 研議 增設 調蓄 設施 增供 地表水 以 限制 溉 地下水 抽取 自來 水可到 達 水井 將 逐年 核減 水權 以 減少 地下水 抽取 造成 地層下陷 雲林縣 大埤鄉 為 全 台面 積 最大 稻作 鄉鎮 因 部分 地區 非 灌區 僅能 抽取 地下水 近年 地層下陷 面積 逐漸 擴大陳雅玲</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 水利 署 監測 資料   雲林縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示     就是 都 沒 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋     雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示     非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 灌溉 水源     雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  </t>
+          <t>根據 水利 署 監測 資料 雲林縣 水稻 最大 種植 地區 大埤鄉 近 5 年 地層下陷 面積 與 深度 惡化 現象 為 了 避免 極端 氣候 造成 水情 吃緊 地層下陷 持續 雲 縣府 建議 引 北港溪 水源 新建 給 水管路 供應 灌溉 經費 約 3.3 億餘元並 提報 中央 等待 核准 辦理 中 2 期稻 收割 後 農民忙 著 整地 雲林 大埤鄉 雲林 種植 水稻 面積 最大 地區 但 卻 時常 面臨 灌溉 水源 不足 問題 當地 農民 就 說 為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水 才能 夠來 因應 雲林 大埤鄉 農民 表示 「 就 都 沒水 如果 人 耕田 廣一點 就 用 大 井水 比較 深層 我 這個 都 小 井水 就 很 難 去 灌溉 時要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋 」 雲縣 府 表示 根據 水利 署 監測 資料 大埤鄉 下陷 面積 深度 持續 擴大 主要 就 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外 包括 北鎮 西鎮 怡然 等 村若要 一年 兩作 無水 可 灌溉 一定 要 抽取 地下水 使用 雲縣 府 水利 處處長 許 宏博 表示 「 非灌區 地方 去 想 辦法 怎麼 用 地面 水源 來 補充 我們 研究 以 大埤 附近 北港溪 去 引 北港溪 水源 作為 1 期 稻作 灌溉 水源 」 雲縣 府 水利 處 表示 為 改善 大埤鄉 地層下陷 惡化 問題 縣府 完成 大埤 非灌區 灌溉 水源 改善 工程 前期 規劃 希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等 供給 農田 灌溉 使用 但 概估 工程 經費 約 3.3 億 目前 已經報 請 中央 等待 核定 中</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">媒體 報導 雲林縣 大 埤 鄉 水情 不穩   地下水 用量 增加   地層下陷 惡化   農田 水利 署 今天 表示   雲林縣 府 提出 納入 擴大 灌溉 服務構 想   已 請 其 提擬 更具 體的 計畫   再 共同 推動 擴大 灌溉 服務     媒體 報導   水稻 產區 雲林縣 大 埤 鄉 近年 地層下陷 情況 惡化   可能 與 水情 不穩   抽取 地下水 用量 增加 有關   雲林縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍                           農水署 副署 長 陳 衍源 告訴 中央社 記者   雲林縣 政府 提出 構想   農水署 已 回覆   請 縣府 提出 更具 體的 計畫   收到 計畫後會 審查   然後跟 縣府 共同 推動 擴大 灌區 服務 計畫     針對 成立 3 年 3 個 月 來   已 擴大 5.6 萬公頃 農田 獲得 灌溉 用水   約 8 萬 多名 農民 受惠   農水署 並規劃 114 年 要 擴 增至 8.8 萬公頃   陳 衍源 說   要 等 縣府 提出 具體 計畫後會 審查   因此 能否 納入 114 年 8.8 萬公頃 目標   尚未 確定   但應 不 受此 影響   擴大 灌溉 服務計 畫會 持續 推動     另外   陳 衍源 說   如果 能 設計 引用 河川 水作 為 灌溉 使用   希望 能 替代 當地 抽用 地下水   對 減緩 地層下陷 有所 幫助  </t>
+          <t>媒體 報導 雲林縣 大埤鄉 水情 不穩 地下水 用量 增加 地層下陷 惡化 農田 水利 署 今天 表示 雲林縣 府 提出 納入 擴大 灌溉 服務構 想 已 請 其 提擬 更具 體計畫 再 共同 推動 擴大 灌溉 服務 媒體 報導 水稻 產區 雲林縣 大埤鄉 近年 地層下陷 情況 惡化 可能 與 水情 不穩 抽取 地下水 用量 增加 關 雲林縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍 農水署 副署 長 陳 衍源 告訴 中央社 雲林縣 政府 提出 構想 農水署 已 回覆 請 縣府 提出 更具 體計畫 收到 計畫後會 審查然 後 跟 縣府 共同 推動 擴大 灌區 服務計 畫針 對 成立 3 年 3 個 月 來 已 擴大 5.6 萬頃 農田 獲得 灌溉 用水 約 8 萬 多名 農民 受惠 農水署 並規劃 114 年 要 擴 增至 8.8 萬頃 陳 衍源 說 要 等 縣府 提出 具體 計畫後會 審查 因此 能納入 114 年 8.8 萬頃 目標 尚未 確定 但 應不受 此響 擴大 灌溉 服務計 畫會 持續 推動 另外 陳 衍源 說 如果 能 設計 引用 河川 水作 為 灌溉 使用 希望 能 替代 當地 抽用 地下水 對 減緩 地層下陷 所幫助</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 文資 價值 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為   惡鄰     產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 上限 規定   目前 既有 電力 設施 併 網 上限 下   限度 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             強調   從 未 要求 廠商 提供   不利 耕作 同意 書   或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       指出   屏東 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   等 2 大 策略 為 優先   限度 使用 相對 不 適合 耕種 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活   至於 非 專案 專區 鄉鎮   則優先 鼓勵 廠 商以   土地 複 合式 利用   方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 處置 自家 土地 財產   及業者 依法 申請 案件 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  </t>
+          <t>聯合 報陽光 行動 專題 報導光 電進 駐 屏東 種電 範圍 遍 農地 山區 到 文資 價值 二戰 遺跡 造成 家園 地景 地貌 變遷 衝擊 老 農計變 相迫 遷青農 更 被 地方 形為 「 惡鄰 」 產蛇鼠 與 害蟲 提升 鄰田 管理 困難度 還潛藏 糧食 危機   縣府 環保局 長 顏幸苑 表示 光電不會 無限 擴張 目前 種電 專區 仍 約 3 千頃 可 耕作 並專案 輔導業 除草 一定 會 兼顧 農業 永續 發展 顏幸苑 表示 台電饋 線 上限 規定 目前 既電力 設施 併 網 上限 下 限度 推動 光電 專區 不會 無 限制 使用 農地 種電 而 東港鎮 林邊 佳冬 枋寮鄉 等 4 鄉鎮 專案 截至 去年底 共 併 網約 3 百 兆瓦 光電 該區 農地 總面 積約 3800 頃 至少 還約 3 千頃 面積 可 農作 使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成 強調 從 未 要求 廠商 提供 「 不利 耕作 同意 書 」 或 其他 不 平等 條約 相關 文件 針對 部分 地區 爭議 案件 未 取得 居民 同意 之前 皆 已 要求 業 停止 施工 另太陽能 案場 並無 食物 來源 應 非屬 引來 老鼠 主因 目前 已 要求 專案 輔導業 定期 進行 除草 維護 周遭 環境 整潔 指出 屏東 綠能 推動 政策 以 「 專案 專區 計畫 」 「 土地 複 合式 利用 」 等 2 大 策略 為 優 限度 使用 相對 不 適合 耕種 土地 發展 綠能 提供 給 地主 農民階段 性 活化 土地 新選擇 對 於 無力 管理 田間 工作 又 土地 鹽化 等 不利因素 無法 耕作 年 邁老 農則 可以 穩定 收入 過 退休 活 至於 非 專案 專區 鄉鎮則 優鼓勵 廠 商以 「 土地 複 合式 利用 」 方式 利用 既 設施 結合 太陽光 電設 施效 利用 共空間 屏 縣府 綠能 辦室 表示 尊重 私 地主 處置 自家 土地 財產業 依法 申請 案件 權利 相關 審查 過程將 審慎 關注 山坡地 耕作 農地 歷史 遺跡態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等議 題並 要求 廠商 提出 因應 作為 以 避免 衍爭 議性 問題 兼顧 開發 合理性 維護 本縣 農民 耕作 權益利 能源 表示 屏東 枋寮 案場 合法 開發 於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後 隨即 保留 並主動展 開一連串 文資 保護作 為 並無二戰 槍堡 被 挖除 等 情事</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  </t>
+          <t>〔 屏東縣 政府 於 東港 林邊 佳冬 枋寮 4 個 沿海 鄉鎮 劃定 「 嚴重 地層下陷區 光電計畫 」 專區 為 確保 農民 耕作 權不過 近來坊 間質 疑聲 浪漸 漲 環保局 強調 該區 計畫 發電量 為 800MW 百萬瓦 不會 無 限制 擴張 因此 至少 會 仍 3000 頃 以上 農地 可供 農作 地面 型 光電場 成為 選戰 攻防 議題 屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案 成野黨 攻 詰 對象 近期 坊 間 又 再 傳出 農民因 種電 失去 農保老 農退場 又 留不住 青農蛇鼠 窩 藏 副作用 等 爭議 屏 縣府 環保局 指出 這 4 鄉鎮過 去 因超 抽 地下水 曾列 為 嚴重 地層下陷區 現 仍屬 第 12 級 地下水 管制 區且 海水 上溯 下許 多 土地 都 已 出現 鹽化 不少 已 不利 耕地 多年 因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既電力 設施 併 網 上限 條件 下 限度 推動 光電 專區 預計 發電量 為 800MW 環保局 指出 部分 農地 轉作 太陽光 電後減 少 農民 抽取 林邊 溪 下游 地下水 需求 並 搭配 上游 設置 大 潮州 人工湖 補注 地下水 減緩 地層下陷 達到 國土 復 育產業 永續 發展 目而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後 「 養水 種電 」 到 近 2 倍 單 一片 就 可 發電達 400w 以 目前 併 網約 300MW 太陽光 電裝 置量 使用 農地 比例 約 250 頃 左右 未來 達 到 目標 單位 發電量 更大下 所 需面積 比例 一定 更 小 至少 會 3000 頃 以上 農地 可供 農作 使用 另外 對 於 無力 管理 田間 工作 又 土地 鹽化 等 不利因素 無法 耕作 年 邁老 農則 可以 穩定 收入 過 退休 活 至於 農保 問題 環保局 重申 農地 若意願 出租 供 人 種電 一定 要 進行 變更 地目 但 這 完全 基 於 地主 利用 土地 意願 權益 縣府 環保局 從 未 要求 廠商 提供 所謂 「 不利 耕作 同意 書 」 或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件 前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡告 於 縣府 綠辦 官網 讓 地主 了解 相關 權利 與 義務 只要 民眾 對 合約疑 問均 可 撥 打 專線 電話詢 問綠能 專案 推動 辦室 針對 部分 地區 爭議 案件 未 取得 居民 同意 之前 縣府 已 要求 業 停止 施工 蛇鼠 患 問題 縣府 環保局 長 顏幸 苑則 認為 作物 收成 期間 食物 充沛 易 引鼠 鳥禽 覓 食 但 太陽能 案場 並無食源 應 非屬 引鼠 主因 縣府 要求 專案 輔導業 維護 周遭 環境 整潔 至於 選址 不當 縣府 重申 屏東縣 綠能 推動 政策 以 「 專案 專區 計畫 」 「 土地 複 合式 利用 」 兩大 策略 為主 專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能 專案 專區 外 鄉鎮 優鼓勵 結合 既 設施 與 光電 「 複 合 利用 」 方式 屏東縣 環保局 表示 民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視 縣府 尊重 私 地主 處置 自家 土地 財產 以業 依法 申請 案件 權利惟 審查 過程將 審慎 關注 山坡地 耕作 農地 歷史 遺跡態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等議 題並 要求 廠商 提出 因應 作為 以 避免 衍爭 議性 問題 兼顧 開發 合理性 維護 本縣 農民 耕作 權益</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不   這是 屏東 沿海 地區 這幾年 興起 違 景致   是 全台 種電 縮影   地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 文資 價值 二戰 遺跡 都 不放過   不僅家園 變貌   迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 典範   二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出   養水 種電   計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 罵 聲不斷   二 一 八年 十月 起   屏縣 府 公告 實施   嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫     開放 下陷區 農地 可 變更 種電       二 二 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 二 一 八年 屏東縣 長 潘孟安任   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 光電   如今 變成 農民 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽   不利 耕作 聲明書     離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作         沿海 四鄉 鎮美麗 鄉間 景致 丕 變   綠地 逐漸 蒸發     屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 是 少數 地主   受影響 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能   五贏     前年 已達成 綠電供 應 全縣 民生 用電 階段 性 目標  </t>
+          <t>從國道 三號 林邊 交流 道下 來光 電場 廣告 映入 眼簾 從 大馬路 旁到 鄉間 農田光 電板 無 所 不 這 屏東 沿海 地區 這幾年 興起 違 景致 全 台 種電 縮地 青農批 政府 業聯手 種電 種到 失心 瘋 從 農地 山區 到 文資 價值 二戰 遺跡 都 不放過 不僅家園 變貌 迫使 老農離 農變 相迫 遷青農 屏東 農地 種光 電原 全台 濫觴 典範二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量 造成 中南部 嚴 重水 災重 創 屏東 南部 沿海 鄉鎮 不少 魚塭 果園 被 沖 毀時任 屏東縣 長 曹啟 鴻 提出 「 養水 種電 」 計畫 縣府 媒合 魚塭 農地 租給 光電業 地主 負責 管理 地主 按 月 收 地租 管理 費綠電賣 給台 電能 涵養 地下水 減緩 下陷 一舉 數得 屏東 種電   侵蝕 農地   製 表 都 會 地方 中心 農業部 前身 農委會 二 一 三年 修法 允許 不適 耕作 農地 種電 大開 種電 之門 但 農地 非農用 罵 聲不斷 二 一 八年 十月 起屏 縣府 告實施 「 嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫 」 開放 下陷區 農地 可 變更 種電 二 二年 七月 農委會 加嚴 農地 變更 種電 門檻 二 到卅頃 農地 變更 要 由 中央 審查 兩頃 以下 原則 不 同意 變更 種電 但 早二一 八年 屏東縣 長 潘孟安任 報請 行政院 同意 把 東港 林邊 佳冬 枋寮 四鄉 鎮畫 為 嚴重 地層下陷區 作光電 專區 成為 特例 四年 多來 屏東 種電 發展 快速 原本 立意 良善 光電 如今 變成 農民 陰霾 枋寮 女青農 張靜玉 說 為 衝高 綠電 占 比 種電 已種 到 失心 瘋不該 種電 地方 都 被 光電板 占領 很多 農民 被 業遊 說簽 「 不利 耕作 聲明書 」 離農 坐收 光電場 租金 但 這些 農地 都種 著蓮霧 水稻 芭樂何 來 不利 耕作 「 沿海 四鄉 鎮美麗 鄉間 景致 丕 變綠地 逐漸 蒸發 」 屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說 綠地 果園 被 一塊 塊 光電板 取代 像 貼 狗皮 膏藥般 醜陋 不但 壓縮 農業 空間 光電板 遮陽 廿年 農地 將 失去 地力 衝擊 農產業 服務鏈 受益 少數 地主 受響 多數 農民 整體 農業將 衰退 屆 時 想 回頭 搶 救 就 難 了 屏東縣 府 綠能 辦室 表示 沿海 四鄉 鎮持續 下陷 列 第一二 級 地下水 管制 區縣 府 把 四 鄉鎮 部分 農地 轉作光 電場 搭配 上游 補注 地下水 減緩 地層下陷 創造 地主 業 政府 全民 與 綠能 「 五贏 」 前年 已達成 綠電供 應 全縣 民用 電階段 性 目標</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 果農 只能 忍痛 看著 心血 被毀   斬斷 兒子 想 當青農 接班 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   不給 老 農一畝 田維生   青年 若當   漂鳥   回農村   肯定 變走 投無路   落翅仔         五十六 歲 鄭明偉 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 不少 國有 財產 署名 下 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 枋寮 寮 段種 芭樂   無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 靠 這片 三分 地 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種     我 不但 要 吃 土   連農保 都 沒 了         面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 枋寮   蓮霧 之 鄉   美名   四十八 歲 陳 呈祥 八八 風災後回 鄉 接手 父親 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改 種電   年 輕人 想 返 鄉務農   無 低 租金 農地 可種     蓮霧 故鄉   金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到     這 不是 迫遷 青農去 都市 討 生活   漂鳥 回農村   恐怕 走 投無路 變 落翅仔    </t>
+          <t>屏東 光電場 熱區 之一 正 上演 光電板 與 農民 搶 地爭 奪戰光 電業 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電 租地 種蓮霧 果農 只能 忍痛 看著 心血 被毀 斬斷 兒子 想 當青農 接班 願望 青農 自嘲 說 政府 寧可 把 地租 給業 種電 不給 老 農一畝 田維 青年 若當 「 漂鳥 」 回農村 肯定 變走 投無路 「 落翅仔 」 五十六 歲 鄭明偉 林邊 佳冬鄉 租下 三座 蓮霧園 他 說 兩座 花 了 十多年 整理 收成 正漸 入 佳境 地主 竟 收回 種電 他 只能 忍痛 放棄 由 於 種蓮霧 要 手把手 長 期培養 技術 正念 農校 兒子 雖心 接手 但 他 勸 兒子 算了 最好 另謀 出路 農民控 國產署   為 賺 更 多 租金 屏東 沿海 不少 國財產 署名 下新 地被 農 民用 於 種田 六十三 歲 楊寶秀 枋寮 寮 段種 芭樂 無奈 說種 芭樂近 四十年 繳 用地 補償 金給 國產署 一直 相安 無事 近年 數度 送件 申請 合法 承租 都 被 拒 絕後來 光電業 芭樂園 貼 告示 已 承租 種電 要 農民早 搬 離國產 署則 回覆 因 地層下陷 不利 耕作 要 轉作光 電場 六十多 歲 呂姓 老農靠 這片 三分 地蓮霧 園維 他 說 國產署 明知 老農靠 種蓮霧 養家寧 可租給 光電業 賺 更 多 如果 沒地 可種 「 我 不但 要 吃 土連 農保 都 沒 了 」 面對 農民 控訴 國產署 南區 分署 屏東 辦室 指出 光電業 依法 種電 並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物 占用 繳 使用 補償 金 但 他們 本 就 沒 合法 使用 權 林邊 佳冬 枋寮 「 蓮霧 之 鄉 」 美名 四十八 歲 陳 呈祥 八八 風災後回 鄉 接手 父親 蓮霧園 他 感嘆 近年 光電大舉 入侵 正 侵蝕 果農 維 繫 傳 統 產 業 所 努力 他 說 蓮霧 老農因 子女 無意 接手 只好 租地 給光 電商 果園 地主 刻意 抬高 租金 逼退 承租 農一塊 塊 果園 被 光電場 取代 包圍 整體 產量 正持續 下降 衝擊 採收 包裝 運銷 等 產業 鏈 未來 工人 更難 找 材料 更貴務 農條件 就 更 差 農地 租金 上漲   加速 產業 衰退 陳 呈祥 說蓮霧 產業 衰退 人口老化 缺工 等關 雖 不能 全歸責 光電 但 確實 造成 農地 租金 上漲 問題 間 接 加速 產業 衰退 政府 對 這些 衝突視 若 無睹 苦果 只 由 農民吞 枋寮 農會 總幹事 鄭晏昕 林邊 農會 總幹事 黃 金順 都 慨嘆 原盼 農電能 共 如今 衝突 嚴 重地 驕傲 半世 紀蓮霧 產業 正 因光電 面臨 式微 危機 黃 金順 說 光電場 租金 一分 地四萬元 承租 農民頂 多出 得起 一萬元 相差 四倍 到 處 都 聽 到 地 主要 改 種電 年 輕人 想 返 鄉務 農無低 租金 農地 可種 「 蓮霧 故鄉 」 金字招牌 正 褪色 台大 農經 碩士 張靜玉 枋寮 蓮霧 農 眼看 鄰近 農民 被 光電 搶 地 忿忿不平 直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫 要 青年 返鄉務 農現 連地 都 租 不到 「 這不迫 遷青 農去 都市 討活 漂鳥 回農村 恐怕 走 投無路 變 落翅仔 」</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">光電亂象 已久   從 之前 良田 種電   砍樹 種電   近來 變本 加厲   光電板 不僅 征服 山頭   占 領有 文資 價值 遺跡   更 一步步 裂解 農漁村 產業 鏈   恐阻斷 青農返 鄉 之路   地面 型 光電 社會 衝擊 比 預期 更大且 深   講求 氣候 正義和   企業 Ｅ Ｓ Ｇ   環境 保護   社會責任   公司 治理     國際 主流 下   政府 企業須 警覺   若綠電來 自迫 遷   危害 生態 與 地產業   恐埋 隱憂       屏東縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷區 之名 畫為 光電 專區   本可 接軌 屏東縣 前縣 長 曹啟 鴻   養水 種電   政策   但 實際 推行 結果   鄉間 景觀 破碎   光電場 蛇 鼠 為 患   離農者 漸增 等 負面 效應 逐漸 浮現   加上 光電助 漲 農地 租金   無異將 返鄉 青年 拒 於 農漁村 之外   被 批評 與   養水 種電   初衷 漸行 漸遠                             屏東 只是 全 台 種電 爭議 縮影   更 多 生態   景觀 敏感 地   追 趕綠能 目標 下 可割 可棄   面對 爭議 與 衝擊   政策 把關 工具 遲未 發揮 效能   及早 阻止 種電 副作用   甚至 正向 引導 與 地 共生 共榮   實難辭 其咎   與 執政黨   愛鄉 土   理念 背道 而 馳       開發行 為 必須 堅守 環境 正義底 線   綠能 不 例外   猶記 得 台積 電在 被 徵收 用地 拆 遷戶 激烈 抗爭 下   突然 宣布 放棄 進 駐龍科 三期   不無環境 正義與 企業 Ｅ Ｓ Ｇ 考慮   民進 黨 種電 國策 若 如   失速 列車     無情 地衝 撞 純樸 農漁村   把 青農   老農 都 當成   農村 最軟 一塊     這種 綠電 還是 國際 認可   符合 Ｅ Ｓ Ｇ 綠電  </t>
+          <t>光電亂象 已久 從 之前 良田 種電 砍樹 種電 近來 變本加 厲光 電板 不僅 征服 山頭 占 領文資 價值 遺跡 更 一步步 裂解 農漁村 產業 鏈恐 阻斷 青農返 鄉 之路 地面 型 光電 社會 衝擊 比 預期 更大且 深 講求 氣候 正義 「 企業 Ｅ Ｓ Ｇ 環境 保護 社會責 任司 治理 」 國際 主流 下 政府 企業須 警覺 若 綠電來 自迫 遷 危害 態 與 地產業 恐埋 隱憂 屏東縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷區 之名 畫為 光電 專區 本 可 接軌 屏東縣 前縣 長 曹啟 鴻 「 養水 種電 」 政策 但 實際 推行 結果 鄉間 景觀 破碎 光電場 蛇 鼠 為 患離 農漸 增等 負面 效應 逐漸 浮現 加上 光電助 漲 農地 租金 無異將 返鄉 青年 拒 於 農漁村 之外 被 批評 與 「 養水 種電 」 初衷 漸行 漸遠 屏東 只 全台 種電 爭議 縮 更 多態 景觀 敏感 地 追 趕綠能 目標 下 可割 可棄 面對 爭議 與 衝擊 政策 把關 工具 遲未 發揮 效能 早 阻止 種電 副作用 甚至 正向 引導 與 地共共榮 實難辭 其咎 與 執政黨 「 愛鄉 土 」 理念 背道 而 馳開 發行 為 必須 堅守 環境 正義底 線 綠能 不 例外 猶得 台積電 被 徵收 用地 拆遷戶 激烈 抗爭 下 突然 宣布 放棄 進 駐龍科 三期 不無環境 正義與 企業 Ｅ Ｓ Ｇ 考慮 民進 黨 種電 國策 若 如 「 失速 列車 」 無情 地衝 撞 純樸 農漁村 把 青農老 農都 當成 「 農村 最軟 一塊 」 這種 綠電還 國際 認可 符合 Ｅ Ｓ Ｇ 綠電</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  </t>
+          <t>〔 嘉義 縣 東石鄉 鰲鼓 副瀨網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足 每逢 大潮 海水 經常 漫溢 危船 隻 漁民作業 安全 嘉義 縣 政府 斥資 1510 萬元 規劃 改善 今天 縣長 翁章 梁 前往 副 瀨 漁港 現勘 時 表示 3 座 漁港 加高 工程 預計 今年 6 月 發包動工 10 月底 完工 讓 碼頭 高度 可 提升 至暴 潮位 以上 解決 漁民 多年 來 面臨 作業 困難 困境 翁章 梁 立委 蔡易餘 東石鄉 長 林俊雄 嘉義 區漁會 總幹事 林佳瑩縣 議員 姜梅紅 李國勝 黃 嫈 珺 等 今天 到 副 瀨 漁港 現勘 翁章 梁說 為 保障 漁民 需求 因此 以 縣府 經費 1510 萬元 進行 加高 工程 規劃 完善 基礎 建設 農業 處漁業 科長 張 建成 說 鰲鼓 副 瀨 漁港 碼頭網 寮 漁港 南側 作業 平台 因 地層下陷 高度 明顯 不足 每逢 大潮 海水 漫溢 到 碼頭響 安危 由 於 鰲鼓 副 瀨 漁港 為 中央 列冊 低 利用 度 漁港 網寮 漁港 南側 作業 平台 則位 漁港 範圍 外無法 爭取 中央 經費 翁章 梁說 漁港 出海 養殖 牡蠣 捕魚 重要 基地 更 漁 民命 財產 保障 海洋 漁業 發展 最 基本 建設 但 小 漁港 年久失修 加上 地層下陷 漁民作業 困難 漲潮 時海 水淹 沒 港口 中央 無法 補助 縣府 就 必須 出手 架 高作業 平台 解決 高漲 潮水 既 保障 漁民 日常 工作 需求 能 化解 安全 問題 副 瀨村長 林泰平 說 因 副 瀨 漁港 很 淺數 十年 來 出入 困難 感謝 翁 縣長 關心 漁港 基礎 建設 除 加高 平台 協助 清淤 讓 漁民 更好 作業 環境 黃 嫈 珺 說 東石 沿海 導航燈 多處 損壞 漁民 只能 摸黑 出海 靠 經驗 航行 建議 縣府 要 修繕 導航燈 張 建成 回應將 再 請 嘉義 區漁會 盤點 損壞導 航燈 再 向 中央 爭取 經費 改善 農業 處 表示 鰲鼓 副瀨網 寮 漁港 加高 工程 改善 包括 碼頭面 作業區 加高 以 其他 附屬 設施 銜接 鰲鼓 工程 預算 經費 288 萬元 副 瀨 工程 經費 912 萬元網 寮 工程 預算 經費 310 萬元</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影</t>
+          <t>嘉義 縣 東石鄉 鰲鼓 副瀨網 寮 等 3 漁港 碼頭 作業 平台 因 地層下陷 問題 逢 農 曆 大潮 時 就 會發 海水 溢漫 淹過 碼頭 平台 長 期 危漁民作業 安全 為解 決此 問題 今天 縣長 翁章 梁抵 副 瀨 漁港 現勘 聽 簡報將 採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元來 改善 漁港 環境 預計 今年 6 月 動工 10 月 完工 縣長 翁章 梁 表示 鰲鼓 副瀨等 二個 漁港 中央 列冊 低 利用 度 漁港 另網 寮 漁港 南側 作業 平台 則位 漁港 範圍 外 因此 無法 爭取 中央 經費 挹注 改善 他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足 危漁民作業 安全 即 指示 農業 處 規畫 改善 「 大潮 來 沒 看到 路 怎麼 走 」 鰲鼓 蚵 農何 金聰 說 大潮 時 整個 平台 都 淹滿水 碼頭 完全 消失 漁民 不得已 都 要 冒險 拿 著長 竹竿 撐 著 地面 去 探路 走下 碼頭 上船 隻 長 期 都 很 危險 漁業 科長 張 建成 表示 3 處 增高 碼頭 平台 改善 工程 目前 已 辦理 設計 工作 預計 今年 6 月 完成 發包動工 10 月底 前 完工 讓 各 碼頭 高度 可 提升 到暴 潮位 以上 讓 漁民 安全 作業 環境 縣議員 黃 嫈 珺 場 指出 漁民向 反應 鰲鼓 副瀨網 寮 白水湖 導航燈 壞 掉 導致 漁民 都 摸黑 出海 靠 得 全經驗值 相當 危險 盼 增經費 盡快 設置 完成 對此 科長 張 建成 回應 前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善 議員 反應 4 處 漁港 他 已 跟 東石 漁會 總幹事 討論 並進行 其他 漁港 需求 盤點 將一 併 向 中央 爭取 第二期 改善 經費嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲鼓 副瀨網 寮 白水湖 導航燈 壞 掉 導致 漁民 摸黑 出海 靠 得 全經驗值 相當 危險 盼 增經費 盡快 改善 呂慧瑜 嘉縣 長 翁章 梁今 現勘 東石鄉 副 瀨 漁港 包括 鰲鼓 網寮 等 3 漁港 碼頭 作業 平台 縣府 自掏腰包 1510 萬元 增高 改善 漁港 環境 預計 今年 6 月 動工 10 月 完工 呂慧瑜 嘉縣 東石鄉 鰲鼓 副瀨網 寮 等 3 漁港 碼頭 作業 平台 逢農 曆 大潮 時 就 會發 海水 溢漫 淹過 碼頭 平台 長 期 危漁民作業 安全 問題 呂慧瑜 嘉縣 東石鄉 鰲鼓 副瀨網 寮 等 3 漁港 碼頭 作業 平台 縣府 自掏腰包 1510 萬元 增高 改善 漁港 環境 預計 今年 6 月 動工 10 月 完工 呂慧瑜</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 今   23 日   又 工地 地層下陷   松山區 慶城街 與 興安街 交叉路口 晚間 9 時 01 分許   驚傳 新建 工地 地基 塌陷   路旁 整排 停放 汽車 因故 側翻 超過 45 度   現場 已劃 設 警戒 線   據 了解 台北 市長 蔣萬安正 趕往 現場   今晚 9 時 01 分許   慶城街 興安街 交叉路口 一處   所屬 璞 真建設 新建 工地   地基 下陷     下陷 範圍 評估 中   目前 無人 受傷   目前 影響 路旁 4 台 停放 車輛   現場 已劃 設 警戒 線   事發 後   已有 消防 車到場 指揮   詳細 發生 原因 仍待 釐 清   蔣萬安則 透過 臉書 表示 正 趕往 現場   呼籲 周遭 居民 經過 民眾 注意安全   最新 資訊 市府 會 即刻 通知  </t>
+          <t>台北市 今 23 日 又 工地 地層下陷 松山區 慶城街 與 興安街 交叉路口 晚間 9 時 01 分許 驚傳 新建 工地 地基 塌陷 路旁 整排 停放 汽車 因故 側翻 超過 45 度 現場 已劃 設 警戒 線據 了解 台北 市長 蔣 萬安 正 趕往 現場 今晚 9 時 01 分許 慶城街 興安街 交叉路口 一處 所屬 璞 真建設 新建 工地 「 地基 下陷 」 下陷 範圍 評估 中 目前 無人 受傷 目前 響 路旁 4 台 停放 車輛 現場 已劃 設 警戒 線事 發後已 消防 車到場 指揮 詳細發 原因 仍待 釐 清 蔣 萬安 則透過 臉書 表示 正 趕往 現場 呼籲 周遭 居民 經過 民眾 注意安全 最新 資訊 市府 會 即刻 通知</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街 一處 工地 附近   今   23   晚傳出 地層下陷 狀況   停 路邊 停車格 車輛   車身 甚至 已經 傾斜   影響 4 台車輛 傾斜   現場 為 新建 工地 地基 下陷   下陷 範圍 評估 中   無人 受傷   已劃 設 警戒 線   台北 市長 蔣萬安 副 市長 李 四川 正 趕往 現場   台北 市長 蔣萬安 發文 表示     稍早 慶城街 興安街 交叉口 發生 工地 地基 下陷   我正 趕往 現場   請 周遭 居民 經過 民眾 注意安全   最新 資訊   市府 會 即刻 通知    </t>
+          <t>台北市 松山區 慶城街 一處 工地 附近 今 23 晚傳出 地層下陷 狀況 停路邊 停車格 車輛 車身 甚至 已經 傾斜響 4 台車輛 傾斜 現場 為 新建 工地 地基 下陷 下陷 範圍 評估 中無人 受傷 已劃 設 警戒 線 台北 市長 蔣 萬安 副 市長 李 四川 正 趕往 現場 台北 市長 蔣 萬安 發文 表示 「 稍早 慶城街 興安街 交叉口 發 工地 地基 下陷 我正 趕往 現場 請 周遭 居民 經過 民眾 注意安全 最新 資訊 市府 會 即刻 通知 」</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街 與 興安街 交叉口 今   23   晚發生 工地 地基 下陷   台北 市長 蔣萬安 發出 通知   提醒 周遭 居民 經過 民眾 注意安全   蔣萬安及 台北市 副 市長 李 四川 目前 趕到 事故 現場   了解 事發 原因   蔣萬安受 訪時 指出   今晚 9 點 左右 接獲 通報   慶城街 與 興安街 交叉口 一處 新建 工地 發生 下陷   第一 時間 即 通知 相關 單位   現場 拉起 警戒 線   無人 傷亡   不過 造成 四輛 停放 車輛 傾斜   蔣萬安 指出   目前 新建 工地 還沒 進行 基礎 開 挖   即將 準備 施作 連續 壁 工程 還沒 開始   只是 導溝   初步 了解 是 因為 內部 支撐力 不夠   造成 導溝 外壁 下陷   目前 緊急 回填 導溝 中   台北市 結構 技師 公會 理事 長 徐茂卿 表示     因為 工地 局部 導溝 施作 不佳   造成 道路 坍陷   現在 最 重要 是   把 導溝 坑洞 補起 來   由 於 區域 不大   災害 擴大跡 象 不 至於 產生 很大 影響    </t>
+          <t>台北市 慶城街 與 興安街 交叉口 今 23 晚發 工地 地基 下陷 台北 市長 蔣 萬安 發出 通知 提醒 周遭 居民 經過 民眾 注意安全 蔣 萬安 台北市 副 市長 李 四川 目前 趕到 事故 現場 了解 事發 原因 蔣 萬安 受訪 時 指出 今晚 9 點 左右 接獲 通報 慶城街 與 興安街 交叉口 一處 新建 工地 發 下陷 第一 時間 即 通知 相關 單位 現場 拉起 警戒 線無人 傷亡 不過 造成 四輛 停放 車輛 傾斜 蔣 萬安 指出 目前 新建 工地 還沒 進行 基礎 開 挖 即將 準備 施作 連續 壁 工程 還沒 開始 只導溝 初步 了解 因為 部支 撐力 不夠 造成 導溝 外壁 下陷 目前 緊急 回填 導溝 中 台北市 結構 技師會 理事 長 徐茂卿 表示 「 因為 工地 局部 導溝 施作 不佳 造成 道路 坍陷 現 最 重要 把 導溝 坑洞 補起 來 由 於 區域 不大災害 擴大跡 象 不 至於 產 很大 響 」</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山區 慶城街 興安街 交叉路口 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 路邊 停車格 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前 市長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 問題     台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 發生 好 幾起 地層下陷 事件   柯文 哲今 早 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  </t>
+          <t>〔 台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 23 日發 地基 塌陷 工地 旁 4 輛停 路邊 停車格 轎車 車身 隨著 地基 塌陷 呈 70 度 傾斜 幸好 無人 傷亡 對 此 台北市 前 市長 柯文 哲今 早 24 日 受訪 表示 台北市 地層下陷 警示 區這本 來 就 問題 台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 發 地基 塌陷 而 柯文 哲 卸任 後 發好 幾起 地層下陷 事件 柯文 哲今 早 關渡 宮前 受訪 表示 台北市 本來 就 地層下陷 警示 區其 實去 工務局 網站 看 就 知道 地層下陷 警示 區好 幾個 台北盆地 這本來 就 問題 媒體 詢問 地層下陷 建商 問題 或 地質 需進 一步 檢查 柯文 哲回應 他們 地圖 已經 相當 完整 高 危險區 要 能夠 事 知道</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 路旁 4 台車 受到 波及   人行道 路面 凹陷   北市 府 緊急 成立 指揮 中心 處理   台北 市長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 檢測   目前 僅有 塌陷 處東側 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   都 沒 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 一 併 檢查 處理   此次 台北市 政府 昨晚 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 二度 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報   會 請 建管處 全面 清查     另外 此次 第一 時間 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 溝通 聯 繫  </t>
+          <t>台北市 松山區 慶城街 一處 新建 工地 昨 23 天晚 間 發 地基 塌陷 意外 停 路旁 4 台車 受到 波 人行道 路面 凹陷 北市 府 緊急 成立 指揮 中心 處理 台北 市長 蔣 萬安 今早 二度 到 現場 視察 現況 被問 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報 市府 無因 應 對 此 他 表示 會 請 建管處 全面 清查 台北 慶城街 塌陷 案 截至 上午 11 點已 回填 360 立方 回填 高度 已近 安全 目標值 3 約 12 點 左右 就 會 完成 作業 而 比 對 相關 數據 檢測 目前 僅 塌陷 處東側 超過 15 分 裂痕 西 南北 側比 對 監測 數值 正常 都 沒 地面 塌陷 鄰房 傾斜 狀況 管線 路樹 等 一 併 檢查 處理 此次 台北市 政府 昨晚 慶城街 工地 塌陷 事 發後緊 急 成立 指揮 中心 開罰 18 萬並 勒令 停業 要求 工作 灌漿 回填 確保 安全 這蔣 萬安 任 二度 建案 塌陷 發 此次 處理 速度 較 上次 更快 蔣 萬安 強調 每 一次 事件 發都會 一次 檢視 只要 機制 完善 每個 人員落 實運作 其實 反應 就 會 快速 確實 確保 各項 安全 讓 一切 恢 復 正常 不過 外界 質疑 相比 日前 雙北惡 臭案 市府 被質 疑動作 慢半拍 蔣 萬安 回應 往後相關 機制 調整 完善 確 保人 員透過 機制 系統 運作 其實 各項 反應 就 能 即刻 因應後續 處理 就 會 到位 至於 許淑華 透露 年前 就 接獲 異常通 報且 未來 可以 跟 外審 單位 大地 工程 結構 技師 等 一起 監工 對 此 蔣 萬安 表示 異常 通報 「 會 請 建管處 全面 清查 」 另外 此次 第一 時間 邀請 四大 工會 技師 結構 大地 建築師 工會 參與謝 謝里長 到 現場 協助 各項 監測 這 部份 第一 時間 都 溝通 聯 繫</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街   興安街 交叉口 昨   23   天晚間 突發生 工地 地基 塌陷 問題   連帶 週邊 停 路旁 汽車   人行道 傾斜 下陷   北市 府 緊急 下令 回填   經過 連夜 灌漿   截至 今   24   早 7 點 左右   已經 灌漿 250 方   初估 中午 12 點可 完成   另外 針對業者 開罰 18 萬並 勒令停工   據 了解   新建 工地 尚未 開挖   只是 導溝   疑似 因內部 支撐力 不夠   造成 導溝 外壁 下陷   所幸 無人 傷亡   而 除了 導溝 回填 外   北市 府 表示 外側 坍塌 處   為 預防樹木 傾倒   且 灌漿 回填 後 樹木無法 存活   故將 4 棵 黑板 樹鋸斷   此外   北市 府 開罰 業者 18 萬   並 勒令停工   而 雖然 目前 沒有 漏水 情況   但 接下 來 自來 水處 將持續 監測   早上 會 進場 透地雷達 檢測   並確 認管線 排水 溝 是否 破壞 處理 方式   待 基地 內側 灌漿 完成 初 凝 後   即 進行 道路 回填   北市 府 透露   今早 沒 再 塌陷 情況   監測 資料 今天 比 對 完成 後 公布  </t>
+          <t>台北市 慶城街 興安街 交叉口 昨 23 天晚間 突發 工地 地基 塌陷 問題 連帶 週邊 停 路旁 汽車 人行道 傾斜 下陷 北市 府 緊急 下令 回填 經過 連夜 灌漿 截至 今 24 早 7 點 左右 已經 灌漿 250 方初估 中午 12 點可 完成 另外 針對業 開罰 18 萬並 勒令停工 據 了解 新建 工地 尚未 開挖 只導溝 疑似 因部 支撐力 不夠 造成 導溝 外壁 下陷 所幸 無人 傷亡 而 除了 導溝 回填 外 北市 府 表示 外側 坍塌 處為 預防樹木 傾倒且 灌漿 回填 後 樹木無法 存活 故將 4 棵 黑板 樹鋸斷 此外 北市 府 開罰業 18 萬並 勒令停工 而 雖然 目前 沒 漏水 情況 但 接下 來 自來 水處 將持續 監測 早上 會 進場 透地雷達 檢測 並確 認管線 排水 溝破壞 處理 方式 待 基地 側灌漿 完成 初凝後即 進行 道路 回填 北市 府 透露 今早 沒 再 塌陷 情況 監測 資料 今天 比 對 完成 後 布</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街   興安街 一處 新建 工地   昨   23   天晚間 發生 地基 塌陷 意外   造成 停 路旁 四台 車 受到 波及   人行道 路面 呈現 V 字型 凹陷   面積 約 4 公尺 長   30 公尺 寬   深度 約 1.5 公尺   所幸 週邊 建築物 沒有 危險   相關 單位 連夜 現場 進行 回填 作業   不過 工地 遭罰 18 萬 勒令停工   事發 原因 尚待 調查   慶城街 新建 工地 地基 下陷   路面 坍塌   人行道   工程 圍籬 都 明顯 下陷   路旁 停車格 消失 一大半   當時 路邊 4 輛汽車 遭殃 歪斜   建商 連夜 回填 灌漿   避免 塌陷 擴大   據 了解   該 處興 建工 地原 是 要 蓋 豪宅 大樓   原先 工地 上 地下 三層 地下室 建物   疑似 拆除 建物 後   地下室 進行 導溝 作業 時候   內部導 溝支 撐力 不足 才 發生 坍塌 意外   所幸 工地 尚未 進行 大規模 開 挖   沒 再 釀 更 大 事故   此次 路面 坍塌 面積長 約 4 公尺   寬約 30 公尺   深度 1.5 公尺   目前 週邊 建築物 沒有 相關 安危   而 北市 建管處 勘查 後   昨天 深夜 確定 裁罰 18 萬   並 勒令 回填 穩定 後 停工   待 確保 工地 安全   業者   建商 提出 復工 審查   才 會 進行後續 作業   至於 事發 原因 仍待 調查  </t>
+          <t>台北市 松山區 慶城街 興安街 一處 新建 工地 昨 23 天晚 間 發 地基 塌陷 意外 造成 停 路旁 四台 車 受到 波 人行道 路面 呈現 V 字型 凹陷 面積 約 4 長 30 寬 深度 約 1.5 所幸 週邊 建築物 沒 危險 相關 單位 連夜 現場 進行 回填 作業 不過 工地 遭罰 18 萬 勒令停工 事發 原因 尚待 調查 慶城街 新建 工地 地基 下陷 路面 坍塌 人行道 工程 圍籬 都 明顯 下陷 路旁 停車格 消失 一大半 當時 路邊 4 輛汽車 遭殃 歪斜 建商 連夜 回填 灌漿 避免 塌陷 擴大據 了解 該 處興 建工 地原 要 蓋 豪宅 大樓 原 工地 上 地下 三層 地下室 建物 疑似 拆除 建物 後 地下室 進行 導溝 作業 時候 部導溝 支撐力 不足 才 發 坍塌 意外 所幸 工地 尚未 進行 大規 模開 挖 沒 再 釀 更 大 事故 此次 路面 坍塌 面積長 約 4 寬約 30 深度 1.5 目前 週邊 建築物 沒 相關 安危 而 北市 建管處 勘查 後 昨天 深夜 確定 裁罰 18 萬並 勒令 回填 穩定 後 停工 待 確保 工地 安全 業建商 提出 復工 審查 才 會 進行後續 作業 至於 事發 原因 仍待 調查</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 松山區 慶城街 昨   23   天晚間 發生 地層下陷   身為 前 台北 市長   民眾 黨 主席 柯文 哲今 早 挑戰 一日 北高   被 問到 卸任 後 北市 兩度 發生 工地 地層下陷   他 表示 台北市 是 盆地   本來 就是 地層下陷 檢視區   認為 高 危險區 要 能夠 事先 知道   並做 必要措施   柯文 哲 今天 一大早 6 點多   從 台北 關渡 宮出 發挑戰 一日 北高   面對慶 城街 昨晚 發生 地層下陷   他 認為 台北市 本來 就是 地層下陷 檢視區   工務 局網 站上 可以 看到 好 幾個 區域   且 北市 本來 就是 盆地   所以 本來 就 這個 問題   至於 問題 出 誰 身上   柯文 哲認 為   本來 地質 就 應該 多 注意   北市 地路 已經 相當 完整   高 危險區 要 能夠 事先 知道   必要措施 防範  </t>
+          <t>台北 松山區 慶城街 昨 23 天晚 間 發 地層下陷 身為 前 台北 市長 民眾 黨 主席 柯文 哲今 早 挑戰 一日 北高 被 問到 卸任 後 北市 兩度 發 工地 地層下陷 他 表示 台北市 盆地 本來 就 地層下陷 檢視區 認為 高 危險區 要 能夠 事 知道 並 必要措施 柯文 哲 今天 一大早 6 點多 從 台北 關渡 宮出 發挑戰 一日 北高 面對 慶城街 昨晚 發 地層下陷 他 認為 台北市 本來 就 地層下陷 檢視區 工務 局網 站上 可以 看到 好 幾個 區域 且 北市 本來 就 盆地 所以 本來 就 這個 問題 至於 問題 出 誰 身上 柯文 哲認 為 本來 地質 就 應該 多 注意 北市 地路 已經 相當 完整 高 危險區 要 能夠 事 知道 必要措施 防範</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北 市長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  </t>
+          <t>台北市 松山區 慶城街 一處 新建 工地 旁 昨天 晚間 發 路面 塌陷 意外 經過 將近 20 小時 搶 救 工地 崩塌 範圍 已 完成 回填 今天下午 開始 灌漿 工地 外圍 塌陷 路面 初步 研判 疑似 新建 工程 拆除 建地 既 地下 建築 結構 時 挖 到 不連續 弱面 才 導致 導溝 崩塌 台北市 松山區 慶城街 新建 工地 23 日 晚間 發地層 坍陷 意外 經過 約 18 小時 緊急 搶 救 工地 外圍 崩塌 範圍終 於 展開 回填 作業 從 制高點 俯瞰 更 清楚 混 泥土 車來 回 進出 灌漿 沒 停過 因為 這一崩 不僅 人行道 嚴重 下陷 路邊 車格 消失 一大半 當時還 4 輛汽車 差點 被 吞噬 附近 住戶 直言 「 好 意外 真 很 意外 文華飯 店當 初蓋 時候 這麼 近 沒 發過 問題 」 精華 地段 豪宅 新建 案出 現大 坍塌 讓 附近 居民 全都 嚇壞 畢竟 這長 約 4 寬約 30 深度 達到 1.5 坍陷 範圍實 不小 而且 建案 甚至 才 正 準備 施作 連續 壁 基礎 地基 都 還沒大規 模開 挖 竟然 就 前置 導溝 作業發 意外 初步 研判 坍塌 原因 跟 建地 原存 地下室 結構 脫 不了 關 係 原來 這回 要 建立 深導溝 越過 既 結構 時 卻 不慎 碰到 既存 不連續 面才會 釀禍 台北市 土木 技師會 理事 長 莊均緯 指出 「 破除 既連續 壁 跟 外牆 個 地方 個 不連續 面原 地下室 這個 部分 外牆 它 推擠 進來 變位 就 把 原來 深導 溝側 壁壓 變形 之後就產 這樣 崩塌 現象 」 台北 市長 蔣 萬安 週六 上午 二度 到 現場 勘查 向 居民 保證 周邊 住宅 暫無 安全 疑慮 「 西側 南側 北側 目前 比對 監測 數值 正常 而且 都 沒 地面 塌陷 以鄰房 傾斜 狀況 」 建管處 則緊 急 開罰 18 萬並 勒令停工 後 續 就 待 道路 回填 並由 透地雷達 確認 周邊 無 安全 疑慮 就 可 恢 復 通車 還給 居民 安全 環境</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街 一處 新建 工地 昨晚 發生 地層下陷 事故   對 於 台北市 接連 發生 地層下陷 事件   前 台北 市長   民眾 黨 主席 柯文 哲 今天 表示   台北市 本來 就是 地層下陷 潛勢區   台北市 政府 已經 把 地圖 得 很 完整   要 知道 高 危險區   並做 必要 措施       柯文 哲 表示   台北市 本來 就是 地層下陷 潛勢區   其實 只要 去 工務局 往 上查 一下   就 可以 看到 地層下陷 潛勢區 好 幾個   因為 這個 地方 本來 就是 盆地   所以 就 會 這個 問題   目前 台北市 地圖 已經 相當 完整   高 危險區 要 事先 知道   做出 必要 措施  </t>
+          <t>台北市 慶城街 一處 新建 工地 昨晚 發 地層下陷 事故 對 於 台北市 接連發 地層下陷 事件 前 台北 市長 民眾 黨 主席 柯文 哲 今天 表示 台北市 本來 就 地層下陷 潛勢區 台北市 政府 已經 把 地圖 得 很 完整 要 知道 高 危險 區並 必要措施 柯文 哲 表示 台北市 本來 就 地層下陷 潛勢區 其實 只要 去 工務局 往 上查 一下 就 可以 看到 地層下陷 潛勢區 好 幾個 因為 這個 地方 本來 就 盆地 所以 就會 這個 問題 目前 台北市 地圖 已經 相當 完整 高 危險區 要 事 知道 出 必要措施</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街 工地 附近   週 五晚 間 坍塌 下陷   昨天 基地 回填 完成 後   今   25   天 上午 台北市 副 市長 李 四川 再度 到場 視察   評估 地基 沒有 再 下陷   宣布 慶城街 上午 十點 恢 復 通車   李 四川 表示   填平 地方 沒有 繼續 沉陷   路面 部分 希望 今晚 人少 時候   重新 把 瀝青 鋪 好   明天 週一 上班 就 能 恢 復 正常 了   由 於 這已 經是 蔣 市府 上任 以來   兩年 發生 第 7 起 塌陷 事件   李 四川 要求 持續 監測   建商 若想 復工   依法 必須 交出 復工 計畫   經過 政府 專業 技師 公會 審查   確認 安全 無虞 後 才能 繼續 動工  </t>
+          <t>台北市 慶城街 工地 附近 週 五晚 間 坍塌 下陷 昨天 基地 回填 完成 後 今 25 天 上午 台北市 副 市長 李 四川 再度 到場 視察 評估 地基 沒 再 下陷 宣布 慶城街 上午 十點 恢 復 通車 李 四川 表示 填平 地方 沒繼續 沉陷 路面 部分 希望 今晚 人少 時候 重新 把 瀝青 鋪 好 明天 週一 上班 就 能 恢 復 正常 了 由 於 這已 經蔣 市府 上任 以來 兩年 發第 7 起 塌陷 事件 李 四川 要求 持續 監測 建商 若想 復工 依法 必須 交出 復工 計畫 經過 政府 專業 技師會 審查 確認 安全 無虞 後 才能 繼續 動工</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 14 公分     台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  </t>
+          <t>〔 台中市 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁 由 於 地下水 井積沙 淤泥 嚴重 去年 起 停止 對外 開放 地方 民眾 認為 未 於 本月 如期 開館 營運 通報 台中市 議員 曾威 查出 泳池 前後地層 落差 約 14 分疑 地層下陷 疑慮 環保局 強調 立即 通報 土木 技師 會勘 釐 清 下陷 疑慮 「 泳道 南側 比北側 低 了 約 14 分 」 台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量 查出 50 泳道 平面 傾斜 約 14 分南側 地勢 明顯 較 低 疑似 地層下陷 緊急 通報 台中市 土木 技師會 複 驗 曾威 說 泳池 蓋 慶光路 焚化 爐旁 運用 焚化 爐 回饋 金設 置 當初 建造 因空 污響 社區 回饋 鄉 親營運 十年 來 陸續 發 池底 積沙頂 棚 消防 設備 被 消防局 要求 改善 等 問題 且 沒水 狀況 下 泳池 兩端 落差 14 分 疑似 後 方 地層下陷 相當 危險 烏日 溫水 游泳池 於 2016 年 起營 運設 10 道 50 泳道 兒童池 spa 池 烤箱 蒸氣室 今年 起 由 台中市 體育局 移交 給環 保局 列管 會勘 團隊 查出 泳池 北側 地勢 最高 處 水面 距 泳池 頂約 20 分南側 地勢 最低 處僅 約 6 分結 構明 顯出 問題 土木 技師 初 勘 認定 複 雜 程度 估價 再 進行後續 評估 結構 補強 作業 環保局 副 局長 陳 政良 說 預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節 至於 地層下陷 疑慮將 15 日請 廠商 鑑定 評估 盡 全力 讓 泳池 盡快 恢 復 營運</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 十四 公分     環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  </t>
+          <t>〔 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁 由 於 地下水 井積沙 淤泥 嚴重 去年 起 停止 對外 開放 地方 民眾 認為 未 於 本月 如期 開館 營運通 報市 議員 曾威 查出 泳池 前後地層 落差 約 十四分 疑 地層下陷 疑慮 環保局 強調 立即 通報 土木 技師 會勘 釐 清 下陷 疑慮 「 泳道 南側 比北側 低 了 約 十四分 」 環保局 技士 本週 前往 烏日 溫水 游泳池 測量 查出 五十 泳道 平面 傾斜 約 十四分 南側 地勢 明顯 較 低 疑似 地層下陷 緊急 通報 台中市 土木 技師會 複 驗 曾威 說 泳池 蓋 慶光路 焚化 爐旁 運用 焚化 爐 回饋 金設 置 當初 建造 因空 污響 社區 回饋 鄉 親營運 十年 來 陸續 發 池底 積沙頂 棚 消防 設備 被 消防局 要求 改善 等 問題 且 沒水 狀況 下 泳池 兩端 落差 十四分 疑似 後 方 地層下陷 相當 危險 烏日 溫水 游泳池 於 二一六年 起營 運設 十道 五十 長 泳道 兒童池 spa 池 烤箱 蒸氣室 今年 起 由 體育局 移交 給環 保局 列管 會勘 團隊 查出 泳池 北側 地勢 最高 處 水面 距 泳池 頂約 廿分 南側 地勢 最低 處 水面 距 泳池 頂僅 約 六分 結構 明顯 出 問題 土木 技師 初 勘 認定 複 雜 程度 估價 再 進行後續 評估 結構 補強 作業 環保局 副 局長 陳 政良 說 預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節 至於 地層下陷 疑慮將 於 十五日 請廠 商鑑定 評估 讓 泳池 儘 快 恢 復 營 運</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 李容萍 ／ 桃園 報導 〕 桃園市 石門 水庫 水情 吃緊   截至 今   21 日   中午   蓄水量 7131 萬噸   蓄水 率 34.75 ％   經濟部 水利 署自 19 日起 調整 桃竹苗 地區 水情 燈號 為   水情 提醒   綠燈   提醒 各界 節約 用水   國立 中央 大學 研究 團隊 今 發表 於 新屋 綠色 隧道 海岸 線 TaiCOAST 臨海 工作站   發現 地下水 出流 現象 非常 強勁   每年 出 流量 達 1 億公噸   相當 半座 石門 水庫 容量   這項 成果 刊載 於 新一期   水文 學雜誌   Journal   of   Hydrology     Regional   Studies 頂尖 期刊   未來 可進 一步 研究 探討 如何 適度 使用 不會 造成 環境 危害     中央 大學應 用地 質 研究所 教授 倪春發 表示   海岸 帶 地下水 出流   Submarine   Groundwater   Discharge     SGD   為 地下水 直接 流進 海洋 自然 現象   普遍存在 於 世界各地   中央 大學 TaiCOAST 臨海 工作站 自 2021 年 開始 進行 新屋 海岸 帶 地下水 出 流量 調查   發現 即使 2021 年 大旱 期間   遭遇 台灣 56 年 來 最 嚴重 缺水 危機   出 流量 仍 相當 豐沛     研究 團隊 透過 鑽井   深入 地下 100 公尺   發現 打出 仍 是 淡水   透過 數學 模型 計算 流速 面積 累加   發現 新屋 地區 海岸 帶 地下水 出 流量 每天 可達 30 萬噸   1 年 高達 1 億噸   相當 半座 石門 水庫 容量   近年 來 調查 結果 更 發現   新屋 區往 北 海岸 出 流量 更 高潛勢   顯示 桃園 海岸 帶 整體 地下水 出 流量 更為 可觀     研究 團隊 指出   台灣 年 降雨量 約 2500 毫米   約 為 全球 平均 3 倍   但 因 台灣 地形 梯度 較大   60 ％ 流入 海洋   只有 5 ％ 含水 層   儘 管 台灣 降水量 高   但 水資源 有限   雖然 發現 地下水 出 流量 資源 豐沛   但 如何 汲水 開發   不致 造成 海水 入侵 地層下陷   涉及 政策   科學 工程 等 多重 挑戰   還需 兼顧 出海口 生態 平衡   才能 造福 國家 社會     此 研究 團隊 涵蓋 中央 大學 地球 科學學院 各系所 老師   包括 應 用地 質 研究所 教授 倪春發   副教授 王士榮   水文 與 海洋 科學 研究所 教授 李明旭   錢樺   副教授 黃 志 誠   以及 地球 科學學系 教授 顏宏元   陳 建志 等 人   各自 發揮 所長   追求 科學 卓越   期許 對 人類 社會 有所 貢獻  </t>
+          <t>〔 桃園市 石門 水庫 水情 吃緊 截至 今 21 日 中午 蓄水量 7131 萬噸 蓄水 率 34.75 ％ 經濟部 水利 署自 19 日起 調整 桃竹苗 地區 水情 燈號 為 「 水情 提醒 」 綠燈 提醒 各界 節約 用水 國立 中央 大學 研究 團隊 今 發表 於 新屋 綠色 隧道 海岸 線 TaiCOAST 臨海 工作站 發現 地下水 出流 現象 非常 強勁 每年 出 流量 達 1 億噸 相當 半座 石門 水庫 量 這項 成果 刊載 於 新一期 「 水文 學雜誌 」 Journal   of   Hydrology   Regional   Studies 頂尖 期刊 未來 可進 一步 研究 探討 如何 適度 使用 不會 造成 環境 危害 中央 大學應 用地 質 研究所 教授 倪春發 表示 海岸 帶 地下水 出流 Submarine   Groundwater   Discharge   SGD 為 地下水 直接 流進 海洋 自然 現象 普遍 存 於 世界各地 中央 大學 TaiCOAST 臨海 工作站 自 2021 年 開始 進行 新屋 海岸 帶 地下水 出 流量 調查 發現 即使 2021 年 大旱 期間 遭遇 台灣 56 年 來 最 嚴重 缺水 危機出 流量 仍 相當 豐沛 研究 團隊 透過 鑽井 深入 地下 100 發現 打出 仍 淡水 透過 數學 模型 計算 流速 面積 累加 發現 新屋 地區 海岸 帶 地下水 出 流量 每天 可達 30 萬噸 1 年 高達 1 億噸 相當 半座 石門 水庫 量 近年 來 調查 結果 更 發現 新屋區 往 北海岸 出 流量 更高 潛勢 顯示 桃園 海岸 帶 整體 地下水 出 流量 更為 可觀 研究 團隊 指出 台灣 年 降雨量 約 2500 毫米 約 為 全球 平均 3 倍 但 因 台灣 地形 梯度 較大 60 ％ 流入 海洋 只 5 ％ 含水 層 儘 管 台灣 降水量 高 但 水資源限 雖然 發現 地下水 出 流量 資源 豐沛 但 如何 汲水 開發 不致 造成 海水 入侵 地層下陷 涉 政策 科學 工程 等 多重 挑戰 還需 兼顧 出海口 態 平衡 才能 造福 國家 社會此 研究 團隊 涵蓋 中央 大學 地球 科學學院 各系所 老師 包括 應 用地 質 研究所 教授 倪春發 副教授 王士榮 水文 與 海洋 科學 研究所 教授 李明旭 錢 樺 副教授 黃 志誠以 地球 科學學系 教授 顏宏元 陳 建志 等 人 各自 發揮 所長 追求 科學 卓越 期許 對 人類 社會 所 貢獻</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 中山 區 大直 街   基泰 大直   建案   去年 9 月 因開 挖 不慎   連續 壁斷 裂   導致 鄰房 下陷   25 戶無家 可虧   近百 戶 受損   建案 遭 勒令停工   基泰 建設 今 發布 聲明 表示   與 受 災戶 溝通下 建案 事故 賠償 已 達 市府 解除 列管 標準   但 因 都 更 程序 關 係   短期 內暫 不 復工   後 續 會 願 和解 受災 持續 調解       基泰 表示   由福益 營造 公司 承包   基泰 大直   建案 事故 發生 後   經與 市府 協調   建案 起造 人 基泰 公司 對外 宣示 負起 所有 責任   為 加速 後 續理 賠   基泰 公司 進 行人 事 改組   由 新任 高階 主管 與 團隊   全權 處理 中   目前 25 拆除 戶 重建 案 已 依 都 更 程序 進行   因 程序 關 係   短期 內暫 不 施工   無 外界 抹黑 基泰 急 於 大直 案 復工 情事                             基泰 說   包含 179 戶鄰 損受 災戶 與 道 明國際學 校理 賠   日前 已 與 多位 受災戶   學校 達成 和解   過程 中 雖 遭 部分 人士 抹黑   阻礙   但 公司 與 受 災戶 溝通   已達 到 巿 府 鄰損 賠償 解除 列管 標準   基 於 企業 責任   以公會 鑑定價 1.2 倍 賠償 基礎   爲 受 災戶 爭取 最大 幫助   且里長 舉辦 說 明會 到 賠償 金 發放   全程 透明       基泰 表示   市府 因該 案 事故 緊急 支出   各 單位 協助 下   已 完成 多項 給付   目前 只 剩少 數項 目待 細項 核 對 後   即可 全部 完成   對 於 不願 和解 受災戶   基泰 公司 予以 尊重   將以 提存 賠償 金 方式   與 部分 受災戶 進行 鄰損 調解 程序       基泰 感謝 市政府 大直 里里長   各級民代 救災 與 賠償 程序 中 協助   以 讓 受 災戶 盡快 恢 復 正常 生活   日後在 各方 督導下   基泰 公司 基 於 社會責任   必 致力 與 社會 各界 共創 美好 未來   另針 對少 數民代以 不 實言論 攻訐 企圖 阻撓 受災戶 和解 情事   基泰 公司 表示   將採 法律 途徑   以正視 聽  </t>
+          <t>北市 中山區 大直街 「 基泰 大直 」 建案 去年 9 月 因開 挖 不慎 連續 壁斷 裂導致 鄰房 下陷 25 戶無家 可虧 近百 戶受 損建案 遭 勒令停工 基泰 建設 今 發布 聲明 表示 與 受 災戶 溝通下 建案 事故 賠償 已 達 市府 解除 列管 標準 但 因 都 更 程序 關 係 短期 暫 不 復工 後 續會願 解受 災持續 調解 基泰 表示 由福益 營造司 承包 「 基泰 大直 」 建案 事故 發後經 與 市府 協調 建案 起造 人 基泰 司對外 宣示 負起 所責任 為 加速 後 續理 賠 基泰 司進 行人 事 改組 由 新任 高階 主管 與 團隊 全權 處理 中 目前 25 拆除 戶 重建 案 已 依 都 更 程序 進行 因 程序 關 係 短期 暫 不 施工 無 外界 抹黑 基泰 急 於 大直 案 復工 情事 基泰 說 包含 179 戶鄰 損受 災戶 與 道 明 國際 學校理 賠 日前 已 與 多位 受災戶 學校 達 成解 過程 中 雖 遭 部分 人士 抹黑 阻礙 但司 與 受 災戶 溝通 已 達 到 巿 府 鄰損 賠償 解除 列管 標準 基 於 企業 責任 以會 鑑定價 1.2 倍 賠償 基礎 爲 受 災戶 爭取 最大 幫助且 里 長 舉辦 說 明會 到 賠償金 發放 全程 透明 基泰 表示 市府 因該 案 事故 緊急 支出 各 單位 協助 下 已 完成 多項 給付 目前 只 剩少 數項 目待 細項 核 對 後 即可 全部 完成 對 於 不願 解受 災戶 基泰 司 予以 尊重 將以 提存 賠償金 方式 與 部分 受災戶 進行 鄰損 調解 程序 基泰 感謝 市政府 大直 里里長 各級民代 救災 與 賠償 程序 中協助 以 讓 受 災戶 盡快 恢 復 正常 活日 後 各方 督導下 基泰 司基 於 社會責 任必 致力 與 社會 各界 共創 美好 未來 另針 對少 數民代以 不 實言論 攻訐 企圖 阻撓 受 災戶解 情事 基泰 司 表示 將採 法律 途徑 以 正視 聽</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 地層下陷 現象   為確 保泡湯 安全   目前 已 封閉 修繕 中     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>新北市 萬里區 加投 溫泉 共 浴室 疑似 地層下陷 現象 為 確保 泡湯 安全 目前 已 封閉 修繕 中 所 提供 中央社 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 地層下陷 現象   造成 浴池 受損   壁磚 脫落   未來將 進行 修繕 改善   確認 無 危險 之 虞   才 會 再行 開放 供民眾 使用     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>新北市 萬里區 加投 溫泉 共 浴室 疑似 地層下陷 現象 造成 浴池 受 損壁 磚脫 落 未來將 進行 修繕 改善 確認 無 危險 之 虞 才 會 再行 開放 供民眾 使用 所 提供 中央社 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>新北市 萬里   加投 溫泉   公共 浴室   算是 古 蹟 了   它 是 日據 時期 就 蓋 好   而且 到現 很多 人   喜歡 來 這裡 泡湯   不過 上個 月 開始   這裡 出現 大大小小 問題   浴池 磁磚 掉落   水泥柱 裂痕   地面 嚴重 傾斜   因此 現在 浴池 已經 暫時 封閉 了   等到 廠 商都 修繕 完畢   確認 安全 都 沒 問題   才 會 再度 開放       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   reurl . cc kqyqML   鏡新聞 APP   Android 👉 https   reurl . cc Ay2y63   有話 鏡來講 YT 👉 https   reurl . cc A4DjQj   少年 新聞 週記 YT 👉 https   reurl . cc K4DeN9</t>
+          <t>新北市 萬里 「 加投 溫泉 」 共 浴室 算古 蹟 了 它 日據 時期 就 蓋 好 而且 到現 很多 人喜 歡來 這裡 泡 湯不過 上個 月 開始 這裡 出現 大大小小 問題 浴池 磁磚 掉落 水泥柱 裂痕 地面 嚴重 傾斜 因此 現 浴池 已經 暫時 封閉 了 等到 廠 商都 修繕 完畢 確認 安全 都 沒 問題 才 會 再度 開放   鏡新聞 已 上架 86 台若 無法 收看 請 洽詢 當地系 統台   鏡新聞 APP   iOS 👉 httpsreurl . cckqyqML   鏡新聞 APP   Android 👉 httpsreurl . ccAy2y63   話鏡 來講 YT 👉 httpsreurl . ccA4DjQj   少年 新聞週 YT 👉 httpsreurl . ccK4DeN9</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商 到場 會勘 後 發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   男女 湯室 地底下 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   建議 應該 邀請 土木 技師 一 併 會勘   包含 溫泉 主管 機關 經濟 發展局   水利局 邀請 來   對 於 周邊 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 改善 方法   公所 將再 請 新北市 土木 技師 公會 等 相關 專家 進行 專業 檢查 評估   期望 確保 安全 無虞 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  </t>
+          <t>〔 日治 時代 建造 新北市 萬里區 加投 溫泉 共 浴室 因 係 屬免 費泡湯 不但 金山 萬里 當地民眾 喜愛就連 基隆 人 搭車 專程 前來 免費 泡 湯因 日前 發現 疑似 地層下陷 萬里區 所 立即 封閉 浴室 並邀 請 專業 技師 與 工程 廠商 勘查 將於 完成 改善 並確 認無 危險 才 會 再行 開放 新北市 議員 周雅玲 表示 接獲 當地民眾 反映 加投 溫泉 共 浴室 屋頂 漏水 排水 不良 牆裂 縫 等 事宜 廠商 到場 會勘 後 發現 懷疑 地層下陷 為確 保民 眾泡湯 安全 自 3 月 4 日起 封閉 浴室 經技師 以 透地雷達 探測 後 男女 湯室 地底下 土壤 流失 現象 所 再度 發起現 勘商 討後續 改善 辦法 周雅玲 指出 萬里加投 溫泉 共 浴室 10 多年 前 曾 經修繕 當時 就 曾經 出動 透地雷達 探測 這次 透地雷達 探測 與 當年 比較 發現 問題 較 為 嚴 重建 議 應該 邀請 土木 技師 一 併 會勘 包含 溫泉 主管 機關 經濟 發展局 水利局 邀請 來 對 於 周邊 溫泉 開發應 予以 總量 管制 以免 加投 溫泉 共 浴室 慘遭 池魚 之殃 萬里區 區長 黃 雱 勉 表示 加投 溫泉 共 浴室 經專業 技師 檢視 發現 下陷 致建築物 傾斜 情形 為 瞭解 確切 原因 找出 效 改善 方法 所將 再 請 新北市 土木 技師會 等 相關 專家 進行 專業 檢查 評估 期望 確保 安全 無虞 前提 下 儘 早 恢 復 提供 民眾 泡 湯空間 呼籲加 投 溫泉 共 浴室 封閉 期間 民眾 切勿 擅 闖 翻越 圍籬 進入 使用 以維護 自身 安全</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">新北市 萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 地層下陷 現象   地質 檢測 人員 檢查   原來 湯室 地底 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北市 萬 里加 投溫泉 公共 浴室 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 泡 湯遊客 反應   燈管   溫度 顯示器 溫泉 管線 設備 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 現象   公所 從 4 號開始 封閉 浴室   趕緊 找 專業 技師 到場 檢查   男女 湯室 地底 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 溫泉 露頭 有關 係     大鵬里長 李建才     露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 東西   地底下 看不到   以 目前 整個 狀況 來講 話   下陷 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 感覺       溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   流入 浴池   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉     技師 建議 我們 要 專業 技師 公會   針對 結構物 下陷 狀況 去 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 部分 改善   還是 可能 要大動 作去 做後續 改建   這個 部分 後 續 可能 會 需要 比較 多 費用       公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 泡 湯空間  </t>
+          <t>新北市 萬里加投 溫泉 共 浴室 歷史 悠久 吸引 許多人 前來 泡 湯不過 今年 2 月民眾 反應 溫泉 設備 出 問題 沒 想到 廠商 進場 維修 後 發現 浴池 磁磚 掉落 水泥柱 充滿 裂痕 地面 嚴重 傾斜 等 狀況 更 仔細 勘查 下 竟然 地層下陷 現象 地質 檢測 人員 檢查 原來 湯室 地底 大量 孔隙 造成 土壤 流失 目前 封閉 整修 鋁罐 放 地上 一路 滾 不停 不只 地面 嚴重 傾斜 浴池 還一 大片 磁磚 脫落 水泥柱 充滿 裂痕 原來 這處 溫泉 發 地層下陷 新北市 萬里加投 溫泉 共 浴室 日治時 代興建 歷史 相當 悠久 水質 相當 不錯 吸引 許多人 前來 泡 湯不過 今年 2 月 開始 就 泡 湯遊客 反應 燈管 溫度 顯示器 溫泉 管線 設備 問題 區所派 人 前往 了解 狀況 由 廠商 進場 維修 發現 不只 設備 故障 還磁磚 脫 落地 磚不 平等 狀況 仔細 勘查 下 發現 地層下陷 現象 所 從 4 號開始 封閉 浴室 趕緊 找 專業 技師 到場 檢查 男女 湯室 地底 大量 孔隙 造成 土壤 流失 懷疑 可能 跟 一旁 溫泉 露頭關 係 大鵬里長 李建才 「 露頭 我 不敢 說絕 對 沒關 係 因為 這個 相通 東西 地底下 看不到 以 目前 整個 狀況 來 講話 下陷 狀況 速度 應該 不 很 急速 這 很多年 類似點 掏空 感覺 」 溫泉 從 溫泉 露頭 自然 湧出 抽到 蓄水池 後 流入 浴池 可能 連帶響 地基 被 掏空 萬里區 長 黃 雱 勉 「 技師 建議 我們 要 專業 技師會針 對 結構物 下陷 狀況 去 監測 再 去 評 估後續 不 可以 用液 壓 灌漿 部分 改善 還 可能 要 大動作 去後續 改建 這個 部分 後 續 可能 會 需要 比較 多費用 」 所強 調 儘 快 修建 完成 提供 民眾 安全 舒適 泡 湯空間</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>新北市 萬里區 公所 表示   有民眾 日前 反應加 投溫泉 公共 浴室 燈管   溫度 顯示器 不亮 等 問題   委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   圖為 建物 出現 裂縫     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>新北市 萬里區 所 表示 民眾 日前 反應加 投 溫泉 共 浴室 燈管 溫度 顯示器 不亮 等 問題 委 託 廠商 勘查 後 發現 疑似 地層下陷 現象 圖為 建物 出現 裂縫 所 提供 中央社 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326</t>
+          <t>萬里區 所以 訊息 說明 萬里區 加投 溫泉 共 浴室 於 日據 時代 建造 歷史 悠久 屬 於 海底 溫泉 為 當地 居民 從小到 大泡 湯空間區 所 表示 因 2 月底 民眾 反應 浴室 燈管 溫度 顯示器 不亮 等 問題 於 委 託 廠商 勘查 後 發現 疑似 地層下陷 現象 為 確保 泡湯 安全 已 封閉 浴室 區長 黃 雱 勉 表示 為 瞭解 確切 原因 找出 效 改善 方法 將邀 請 專業 技師 進行 檢查 評估 以商 討後續 改善 辦法 期望 安全 前提 下 儘 早 恢 復 提供 民眾 泡 湯空間 提醒 民眾 封閉 期間 勿 擅自 進入 使用 以維護 自身 安全 萬里區 所 主任 秘書 許明富 向 中央社 表示 當地過 去 地層下陷 並 完成 改善 多年 未響 溫泉 供給 溫度 加投 溫泉 共 浴室 經找 技師 以 透地雷達 探測 後 男女 湯室 地下 發現 土壤 流失 現象 未來將 進行 修繕 改善 並確 認無 危險 之 虞 才 會 再行 開放 供民眾 使用 編輯 林恕暉 1130326</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">新北 萬里 加頭 溫泉 2 月份 被 遊客 發現   不僅 燈管   溫度 顯示氣 等等 設備 問題   更 地層下陷   因此 趕緊 請 公所 找人 檢修   目前 已經 緊急 封閉   確認 沒有 安全 疑慮   才 會 再度 開放     浴池 整塊 磁磚 脫落   地磚 不平   甚至 還 有些 地層下陷   看起 來 相當 老舊   這裡 是 新北 萬里 加頭 溫泉   從 日據 時代起   就 受到 不少 民眾 喜愛   許多人 泡 完湯   都 覺得 放 鬆 筋骨     不過 2 月份 卻 被 發現   不僅 燈管   溫度 顯示器   一些 溫泉 管線 設備 問題 外   還有 地層下陷 跡象   鐵鋁罐 放在 地上   都 會 不 自主   滾向 一邊   加上 後 方 就是 溫泉 露頭   要是 坍方 相當 危險   萬里區 長 黃 雱 勉     技師 建議 我們   要 專業 技師 公會 去   針對 結構物 下陷 狀況   去 監測   評估後續 是不是 可以 用   液壓 灌漿 部分 改善       地質 人員 透過 地雷 達 偵測 結果 發現   確實 男女 湯內 地底   大量 孔隙   造成 土壤 流失   目前 公所 已經   緊急 封閉 浴室   以民眾 安全 為 第一 考量   盡快 修建       封面 圖 ／ 東森新聞  </t>
+          <t>新北 萬里 加頭 溫泉 2 月份 被 遊客 發現 不僅 燈管 溫度 顯示氣 等等 設備 問題 更 地層下陷 因此 趕緊 請 所 找 人 檢修 目前 已經 緊急 封閉 確認 沒 安全 疑慮 才 會 再度 開放 浴池 整塊 磁磚 脫 落地 磚 不平 甚至 還些 地層下陷 看起 來 相當 老舊 這裡 新北 萬里 加頭 溫泉 從 日據 時代起 就 受到 不少 民眾 喜愛許 多 人 泡 完湯 都 覺得 放 鬆 筋骨 不過 2 月份 卻 被 發現 不僅 燈管 溫度 顯示器 一些 溫泉 管線 設備 問題 外還 地層下陷 跡象 鐵鋁 罐放 地上 都 會 不 自主 滾向 一邊 加上 後 方 就 溫泉 露頭 要 坍方 相當 危險 萬里區 長 黃 雱 勉 「 技師 建議 我們 要 專業 技師會 去 針對 結構物 下陷 狀況 去 監測評 估後續 不 可以 用液 壓 灌漿 部分 改善 」 地質 人員 透過 地雷 達 偵測 結果 發現 確實 男女 湯 地底 大量 孔隙 造成 土壤 流失 目前 所 已 經緊 急 封閉 浴室 以民眾 安全 為 第一 考量 盡快 修建 封面 圖東 森新聞</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   男女 湯室 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 出動 透地雷達 探測   這次 發現 問題 較 嚴重   建議 邀請 土木 技師 參 與 會勘   經濟 發展局 水利局 應針 對 附近 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  </t>
+          <t>〔 日治 時代 建造 新北市 萬里區 加投 溫泉 共 浴室 提供 大眾 免費 泡 湯不僅 受到 當地民眾 喜愛就連 基隆 人 慕名 前來 日前 發現 疑似 地層下陷 萬里區 所 立即 封閉 浴室 並邀 請 專業 技師 與 工程 廠商 勘查 將於 完成 改善 並確 認沒 危險 才 會 重新 開放 新北市 議員 周雅玲 表示 接獲 當地民眾 反映 加投 溫泉 共 浴室 屋頂 漏水 排水 不良 牆面 出現 裂縫 廠商 會勘 後 懷疑 地層下陷 為確 保民 眾 安全 三月 四日 起封閉 浴室 經技師 以 透地雷達 探測 男女 湯室 地底下 發現 土壤 流失 現象 周雅玲 指出 萬里加投 溫泉 共 浴室 十多年 前 曾 經修繕 當時 出動 透地雷達 探測 這次 發現 問題 較 嚴 重建 議邀 請 土木 技師 參 與 會勘 經濟 發展局 水利局 應針 對 附近 溫泉 業開發 予以 總量 管制 以利 共 浴室 永續 發展 萬里區 長 黃 雱 勉 表示 加投 溫泉 共 浴室 經專業 技師 檢視 發現 下陷 致建築物 傾斜 情形 所將 再 請 土木 技師會 等 專家 進行 檢查 評估 期望 確保 安全 前提 下 儘 早 恢 復 民 眾 泡 湯 空 間</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">即時 中心 ／ 綜合 報導   新北市 新店 區 安泰 路今   3 日   上午 8 時 21 分傳 7 棟 房屋 嚴重 下陷   多輛 汽車 傾斜   目前 已 疏散 12 人   區長 與 里 長 正在 現場 了解 情況         安泰 路由 於 路基 受損 變形   多輛 汽車 傾斜 相當 危急   目前 區長 與 里 長 正在 現場 了解 情況   指出 必須 把 房屋 下陷 狀況 穩 定下 來   車子 若 無 受損 話   就 會 立即 拖吊 離開 現場   找 專業 人員 評估 地層 掏空 狀況   並 等待 自來 水 公司 採樣 處理  </t>
+          <t>即時 中心 綜合 報導 新北市 新店區 安泰路 今 3 日 上午 8 時 21 分傳 7 棟 房屋 嚴重 下陷 多輛 汽車 傾斜 目前 已 疏散 12 人區長 與 里 長 正 現場 了解 情況   安泰路 由 於 路基 受 損變 形多輛 汽車 傾斜 相當 危急 目前 區長 與 里 長 正 現場 了解 情況 指出 必須 把 房屋 下陷 狀況 穩 定下 來 車子 若 無受 損話 就 會 立即 拖吊 離開 現場 找 專業 人員 評估 地層 掏空 狀況並 等待 自來 水司 採樣 處理</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">水利局 表示   今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 寶貴 時間   請 於 預定 複 查 日期 前 清除 水井 周圍 草叢   以 加速 複 查作業 進行  </t>
+          <t>水利局 表示 今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業 規劃 以 北門區 學甲區 鹽水區 安定區 地下水 一級 管制 區分區 方式 依序 進行 並由 專人 電話 通知 約定 複 查時間 若 申請 人 無法親 自到場 辦理 請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書 現場 除了 確認 基本 資料 調查 水井 狀況 坐標 地段 號井 深井 徑 出水管 徑 抽水機 位置 型式 馬 力 電表電號 用水 標與 範圍 農用 水井 另 進行 水電比 檢測 透過 用 電量 測定 抽 水量 為節 省民眾 寶貴 時間 請 於 預定 複 查 日期 前 清除 水井 周圍 草叢 以 加速 複 查作業 進行</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性</t>
+          <t>花蓮 近海 今天上午 發規模 7.2 強震 花蓮市 區大樓 嚴重 傾斜學 解釋 地震 造成 房屋 傾斜 原因 包含 地震 本身 震動 方向 建築物 結構 與 土壤 液化 關根據 中央 氣象署 資訊 今天上午 7 時 58 分發 芮氏 規模 7.2 地震 地震 深度 15.5 里 震央 位 於 花蓮縣 政府 南南 東方 25.0 里位 於 台灣 東部 海域 最大 震度 花蓮縣 6 強 各地 陸續 傳出 災情 如 花蓮市 區 2 大樓 嚴重 傾斜 等 中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 地震 發當下 可能 些 民眾會 發現 某些 牆面 東西易 倒 某些 不會 就 代表 該起 地震 震動 方向 然而 這 部分 與 地震 震源 斷層 位置 傳遞 能量 大小 等 相關並 不好 預測 另外 黃 信樺 指出 建築 結構 工程 問題 比方 許多大樓 1 樓 可能 規畫 為 騎樓 甚至 些 成 挑 高大 廳 結構 上僅 靠 少數 樑 柱 支撐 因此 可能 會大 地震 發時 造成 不 穩況 黃 信樺 說 第 3 點就 可能 土壤 液化 問題 些 建築物 若 座落 比 較 鬆 軟 沉 積 層 上 如 河 邊 長 久 沖 積 下 部分 地底 縫隙 會 被 沙石 填滿 但 地震 後 卻 又 鬆 動 或 局部 液化 情況 造成 地層下陷 黃 信樺 提到 雖然 台北市 可能 很多 老式 騎樓 但 一來 震央 位置 離 台北 較 遠二來 老式 騎樓 通常 較 矮 不易 與 地震 發 共振 反之 若高樓 層 又 騎 樓式 設計 房屋 大 地震 來 臨時 就 會 相 對 危險 黃 信樺 表示 其實現 已經 許多 耐震 建築 技術 或許 政府 部門 未來 考量 建築 補強 上 可以 採用 增加 老建築 安全性 ▶ ▶ ▶ 花蓮 大 地震 延伸 讀   ▪ 一夜 83 震氣 象署 曝餘震 暴增 原因   「 只剛 開始 」   ▪ 花蓮 強震 整理 包釀 18 死   重大 災情 災後理 賠 專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言 點不尋常   ▪ 大 地震 要來 了 地科 教授 分析 餘震 分布 花蓮 特性</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">今   3   日 強震 震撼 全 台   各地 災情 不斷   新北市 新店 區 安泰 路 一處 民宅 更 發生 地基 下陷 慘況   此外 台北市 方面 先前 則傳出 3 傷   2 名 工人 因 乙炔 鋼瓶 傾倒 爆破 導致燒 燙傷   還有 一人 手臂 撕裂 傷   綜合 媒體 報導   新北市 新店 區 安泰 路 60 巷 90 弄 頂 好 社區 民宅 今 地震 後 傳出 災情   從 現場 照片 來 看   不僅 民房 地基 下陷   花盆 傾倒   原先 停 路邊 車輛 更是 直接 下沉   場面 驚 悚   目前 粗估 坍塌 面積 約 1   000 平方公尺   所幸 住戶 12 人 已 全數 撤離   另外   稍早 台北 市長 蔣萬安 表示   北市 接獲 3 人 受傷 消息   其中 2 名 男性 工人 地震 期間 因 乙炔 鋼瓶 傾倒 爆破 導致 身上 68 ％ 燒燙傷   目前 已 被 送往 台大 醫院 治療   還有 一名 大同 區的民眾 地震 時因 玻璃 破裂 導致 左手 撕裂 傷   已 送往 馬 偕 醫院 治療   北市 教育局 則 透露 2 名學生 疏散 時腳踝 扭傷 與 遭 玻璃 輕微 割傷   截至 先前   北市 共接 獲 588 災情 案件   大多 為 停電   漏水   瓦斯 管線 破損   此外 還有 建築物 外牆 毀損   招牌 掉落 等   受困 電梯 人員 已 被 救出   後 續 北市 府 將落 實外 牆   招牌 懸掛 物防護 以及 高架   橋 樑 巡檢  </t>
+          <t>今 3 日 強震 震撼 全 台 各地 災情 不斷 新北市 新店區 安泰路 一處 民宅 更發 地基 下陷 慘況 此外 台北市 方面 前則 傳出 3 傷 2 名 工人 因 乙炔 鋼瓶 傾倒 爆破 導致燒 燙傷 還一人 手臂 撕裂 傷綜合 媒體 報導 新北市 新店區 安泰路 60 巷 90 弄 頂 好 社區 民宅 今 地震 後 傳出 災情 從 現場 照片 來 看 不僅 民房 地基 下陷 花盆 傾倒 原停 路邊 車輛 更 直接 下沉 場面 驚 悚 目前 粗估 坍塌 面積 約 1000 平方 所幸 住戶 12 人 已 全數 撤離 另外 稍早 台北 市長 蔣 萬安 表示 北市 接獲 3 人 受傷 消息 其中 2 名 男性 工人 地震 期間 因 乙炔 鋼瓶 傾倒 爆破 導致 身上 68 ％ 燒燙傷 目前 已 被 送往 台大 醫院 治療 還 一名 大同區 民眾 地震 時因 玻璃 破裂 導致 左手 撕裂 傷已 送往 馬 偕 醫院 治療 北市 教育局 則 透露 2 名學 疏散 時腳踝 扭傷 與 遭 玻璃 輕微 割傷 截至 前 北市 共接 獲 588 災情 案件 大多 為 停電 漏水 瓦斯 管線 破損 此外 還建築物 外牆 毀損 招牌 掉落 等 受困 電梯 人員 已 被 救出 後 續 北市 府 將落 實外 牆 招牌 懸掛 物防護 以 高架 橋 樑 巡檢</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 王涵 平 ／ 新營 報導 〕 南市 已 受理 超過 二五 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未 申報   為 避免 地下水 過度 使用 造成 地層下陷   四月 起 受理 申報 同時 辦理 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     水利局 表示   今年 四月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量     申報 時間 即日起 至 八月 二日 止   可 就近 就近 至 各區 公所 或 至 市府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 水利局 網站   水井 納管 申報   Web 平台 申報   可以 手機 下載   水井 納管 申報 查詢   APP 申報  </t>
+          <t>〔 南市 已 受理 超過 二 五件 既 未 登 水井 納管 申報 案件 但 仍 部分 民眾 未 申報 為 避免 地下水 過度 使用 造成 地層下陷 四月 起 受理 申報 同時 辦理 複 查作業針 對轄納管 水井 辦理 複 查 暨 貼標 籤 作業 透過 現場 訪談 測量 等 方式 建立 水井 基本 資料 以利 後 續 地下水 管理 水利局 表示 今年 四月 起 辦理 地下水 井現 地 複 查作業 規劃 以 北門區 學甲區 鹽水區 安定區 地下水 一級 管制 區分區 方式 依序 進行 並由 專人 電話 通知 約定 複 查時間 若 申請 人 無法親 自到場 辦理 請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書 現場 除了 確認 基本 資料 調查 水井 狀況 坐標 地段 號井 深井 徑 出水管 徑 抽水機 位置 型式 馬 力 電表電號 用水 標與 範圍 農用 水井 另 進行 水電比 檢測 透過 用 電量 測定 抽 水量 申報 時間 即日起 至 八月 二日 止 可 就近 就近 至 各區 所 或 至 市府 民治 行政 中心 服務台 永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱 或 透過 水利局 網站 「 水井 納管 申報 」 Web 平台 申報 可以 手機 下載 「 水井 納管 申報 查詢 」 APP 申報</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  </t>
+          <t>▲ 南市 水井 納管 申報 複 查作業 同時 啟動針 對轄納管 水井 辦理 複 查 暨 貼標 籤 作業 合理 使用 水資源 防治 地層下陷 李 嘉祥 為 保育 地下水 資源 加強 地下水 管理 避免 地下水 過度 使用 造成 地層下陷 響 市民 人身 財產 安全 臺 南 市政府 水利局 積極 推動 水井 管理 政策 自 112 年 起 辦理 水井 納管 作業 受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登 既 水井 納管 後 可 避免 遭檢舉 而 封井且 取得 合法 水權 機會 並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業針 對轄納管 水井 辦理 複 查 暨 貼標 籤 作業 透過 現場 訪談 測量 等 方式 建立 水井 基本 資料 以利 後 續 地下水 管理 市長 黃 偉哲 表示 水井 納管 除 可 保育 地下水 資源 對 於 使用 水井 民眾 而言 接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障 另為 減輕 農民負 擔經 水井 納管 農業 用 水井 免收 各項 水權 登規費 倘未 登 水井 逾期 未申 報且 經查 獲將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處 分籲 請 鄉親 踴躍申報 讓 珍貴 地下水 資源 合理 使用 並同 時維護 自身 用水 權益 水利局 長 邱忠川 說 根據 水利局 統計 截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既 未 登 水井 納管 申報 案件 但 仍 部分 民眾 未 申報 為 保障 水井 用戶 權益 落實 地下水 保育 市府 特別 再 開放 受理 申報 納管 申報 時間 於 4 月 1 日起 至 8 月 2 日 截止 時間 限籲 請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請 以維護 自身 權益 邱忠川 指出 4 月 起 將展 開 地下水 井現 地 複 查將 以 北門區 學甲區 鹽水區 安定區 地下水 一級 管制 區分區 方式 依序 進行 並由 專人 電話 通知 約定 複 查時間 若 申請 人無法 到場 請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書 現場 除 確認 基本 資料 調查 水井 狀況 坐標 地段 號井 深井 徑 出水管 徑 抽水機 位置 型式 馬 力 電表電號 用水 標與 範圍 農用 水井 另 進行 水電比 檢測 透過 用 電量 測定 抽 水量 為節 省民眾 時間 與 請 所 人 於 預定 複 查 日期 前 清除 水井 周圍 草叢 以 加速 複 查作業 進行 邱忠川 呼籲 水井 所人 可 就近 至 各區 所 或 至 臺 南 市政府 民治 行政 中心 服務台 永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱 或 透過 「 臺 南 市政府 水利局 」 網站 「 水井 納管 申報 」 Web 平台 申報 可手 機下載 「 水井 納管 申報 查詢 」 APP 申報 市府 設置 水井 納管 專線 066321212 主動 輔導解 決民眾 申報 問題</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 盧賢秀 ／ 基隆 報導 〕 基隆 中正路 425 號至 447 號間   去年 發現 水溝 下陷 破洞 情形   市府 進場 改善   但 花蓮 地震 後   發現 騎樓 有裂 縫   地基 可能 掏空   房屋 疑似 傾斜   市議員 許睿慈 與 市府 相關 單位 勘查   要求 儘 速 鑑 定 地基 與 房屋 結構   讓 居民 可以 住 得 安心 且 安全     市府 表示   經技師 鑑定 房屋 結構 目前 安全   工務處 將加強 下水道 巡檢補強     市議員 許睿慈 指出   居民 去年 陳 情   舊漁會 大樓 附近 中正路 425 號前 道 路旁 水溝   發生 下陷   破洞 情形   經 會勘 後 工務處 已 進場 施作   但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況   令 附近 住戶 人心惶惶     許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會勘   許睿慈 表示   花蓮 地震 後   427 號至 447 號沿線 都 發生 了 地層 陷落   其中 4 戶 騎樓 有裂 縫   居民 地下室 出現 滲水 現象   擔憂 地質 結構 是否 安全   要求 市府 儘 速 完成 房屋 與 地質 安全 檢測     市府 工務處 表示   該 民宅 鄰近 海岸   可能 因 地震 造成 地下室 牆面 裂痕 滲加   工務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡檢   確認 中正路 425 號至 447 號沿線 是否 地基 掏空 問題     都 發處 表示   請 土木 技師 公會 技師 前往 勘查   初步 認為 沒有 傾斜 狀況   騎樓 裂 縫區 公所 近期 就 會 整修  </t>
+          <t>〔 基隆 中正路 425 號至 447 號間 去年 發現 水溝 下陷 破洞 情形 市府 進場 改善 但 花蓮 地震 後 發現 騎樓 裂縫 地基 可能 掏空 房屋 疑似 傾斜市 議員許 睿 慈 與 市府 相關 單位 勘查 要求 儘 速 鑑 定 地基 與 房屋 結構 讓 居民 可以 住 得 安心 且 安全   市府 表示 經技師 鑑定 房屋 結構 目前 安全 工務處 將加強 下水道 巡檢補 強市 議員許 睿 慈 指出 居民 去年 陳 情舊 漁會 大樓 附近 中正路 425 號前 道 路旁 水溝發 下陷 破洞 情形 經 會勘 後 工務處 已 進場 施作 但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況 令 附近 住戶 人心惶惶 許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會勘 許睿慈 表示 花蓮 地震 後 427 號至 447 號沿線 都 發 了 地層 陷落 其中 4 戶 騎樓 裂縫 居民 地下室 出現 滲水 現象 擔憂 地質 結構 安全 要求 市府 儘 速 完成 房屋 與 地質 安全 檢測 市府 工務處 表示 該 民宅 鄰近 海岸 可能 因 地震 造成 地下室 牆面 裂痕 滲 加工 務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡 檢確 認 中正路 425 號至 447 號沿線 地基 掏空 問題 都 發處 表示 請 土木 技師會 技師 前往 勘查 初步 認為 沒 傾斜 狀況 騎樓 裂 縫區 所 近期 就 會 整修</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">彰化縣 大城 鄉現 有納 骨塔 接近 飽   鄉 公所 規畫 第六 公墓 新建 第二 納 骨塔   頂庄 村民 群起 反對   已有 140 人連署 陳 情   村民 抱怨 縣府 裁撤 頂庄國 小   鄉 公所 村 內蓋 第二座 納 骨塔     吃 虧 都 是 我們     讓 頂 庄村 發展 雪上加霜   要求 重新 研議 興建 地點   鄉長 陳 玉照 說   納 骨塔 近 飽   將持續 溝通       大城 鄉有 8 座 公墓   頂庄村 山腳 村設 有納 骨塔   山腳村 已 飽   頂庄村 只 剩 不到 700 個 空位   鄉 公所 認為   興 建新 塔有 迫切性   日前 向 頂庄 村民 說明 新建 計畫   村民 痛批   一村 二塔   違反公 平原 則   當場 反對                             許姓 村民 表示   縣府 認為 頂 庄村 出生率 低   已 是 大城 鄉 人口 倒數 第 2   前年 裁撤 頂庄國 小   可見 頂 庄村 沒 新建 納 骨塔 需求   周邊 地層下陷 易 淹水   無論 地理 風水   都 不 適合 安放 往生 親人   新建 第二 納 骨塔 離 村落 僅 200 公尺   違反 縣府 規定 500 公尺 審查 原則   嚴 重影 響 村民 身心健康       鄉長 陳 玉照 指出   頂庄 第一 納 骨塔 建在 高灘 地   第二 納 骨塔 一樣   不開 挖 地下室   還 建造 7 層台 階 升高 塔座   沒 淹水 疑慮   第二 納 骨塔 距離 村落 人口稠密 區約 500 公尺   像 他家 距離 墓地 很近   不會 問題       頂庄 村長 許仁寶說   如非建 不可   應 提出 有力 說明   並訂定 回饋 辦法  </t>
+          <t>彰化縣 大城鄉 現納 骨塔 接近 飽鄉 所 規畫 第六 墓 新建 第二 納 骨塔 頂庄 村民 群起 反對 已 140 人連署 陳 情 村民 抱怨 縣府 裁撤 頂庄 國小鄉 所村 蓋 第二座 納 骨塔 「 吃 虧 都 我們 」 讓 頂庄 村發展 雪上加霜 要求 重新 研議 興建 地點 鄉長 陳 玉照 說納 骨塔 近飽將 持續 溝通 大城鄉 8 座 墓 頂庄 村 山腳 村 設納 骨塔 山腳 村 已 飽 頂庄 村 只 剩 不到 700 個 空位 鄉 所 認為 興 建新 塔 迫切性 日前 向 頂庄 村民 說明 新建 計畫 村民 痛批 「 一村 二塔 」 違反 平原 則當場 反對 許姓 村民 表示 縣府 認為 頂庄 村出 率 低 已 大城鄉 人口 倒數 第 2 前年 裁撤 頂庄 國 小可 見 頂庄 村 沒 新建 納 骨塔 需求 周邊 地層下陷 易 淹水 無論 地理 風水 都 不 適合 安放 往親 人 新建 第二 納 骨塔 離 村落 僅 200 違反 縣府 規定 500 審查 原則 嚴重響 村民 身心健康 鄉長 陳 玉照 指出 頂庄 第一 納 骨塔 建高灘 地 第二 納 骨塔 一樣 不開 挖 地下室 還 建造 7 層台 階 升高 塔座 沒 淹水 疑慮 第二 納 骨塔 距離 村落 人口稠密 區約 500 像 他家 距離 墓地 很近 不會 問題 頂庄 村長 許仁寶說 如 非建 不可 應 提出 力說明 並定 回饋 辦法</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 地梁 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  </t>
+          <t>台中市 西屯區 大墩 20 街 大聖街 口正 進行 自來 水管 線 工程 議員 表示 6 日 晚間 地層下陷 懷疑 地震 造成 鄰近 大樓 集 水井 破裂 水流 淘空 地基 塌陷 約 50 分還 露出 地梁 中市 建設局 表示 該處 側溝 老舊 破損 滲漏 導致 側溝 淘空 已 填補集 水井 溝底並 拆除 損毀 溝底 今將 重新 灌漿 穩固 都 發局 表示 未響 結構 無 安全 疑慮 民進 黨議 員林 祈烽 表示 花蓮 強震 後 各地 災情 多何 南里長 曹豐洋陳情 大墩二十街 大聖街 口 路面 坍塌 崩塌 處離 鄰近 大樓 很 近疑 因 地震 造成 大樓 集 水井 破漏 水流 淘空 地基 才 塌陷 該 社區 地梁 露出 深度 至少 坍塌 50 分建 設局 表示 現場 勘查 發現 側溝 老舊 破損 上游 建設 工地 施工 長 時間 抽 地下水 排放 側溝 淘空 損壞 下陷 目前 已 完成 集 水井 溝底 填補 拆除 損壞 溝體並 重新 灌漿 周六 前 改善 完成 台中市 都 發局 表示 坍塌 側溝 旁建築 為 地下 2 層 地上 7 層 鋼筋 混凝土 建築 淘空 範圍 臨 大聖街 人行道 推測 為 早期 邊溝 斷裂 滲水 造成 騎樓 下方 土壤 淘空 樓板 下陷 深度 50 分長 1 目前 已 封鎖 騎 樓將 混凝土 回填 未響 建築 結構 沒 安全 疑慮 都發局長 李正偉 表示 花蓮 強震 後 收到 13 件 民眾 通報 住家 出現 裂痕 經 第三方 正 單位 檢測 均 非 結構 性破壞 無 立即 危險 都 發局 提供 多項 補助 方案 供民眾 申請</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 王捷 ／ 台南 報導 〕 台南市 北區 北華街 一處 工地 傳出 下陷   導致 工地 旁 住戶 外牆   地板 出現 龜裂   警方 今晚 六點 多 接獲 報案   並通報 相關 單位   由 於 台南 前陣子 工地 塌陷 意外   加上 這個 月 花蓮 強震 帶來 災害   警方 呼籲 目前 正在 交通管制   請民眾 不要 靠近     初步 調查 發現   該 工地 建設 公司 近期 開 挖 地下室 過程 中   地下水 湧出   北區 公所 與 工務局 北華里 活動 中心 成立 臨時 指揮 所   由 相關 人員 到場 會勘   認為 可能 是 地下水 湧出   地基 不 穩定   造成 附近 住家 出現 牆壁   地板 龜裂 主因     工務局 人員 除了 要求 建設 公司 立即 停止 工程施工   並要 建設 公司 調派 水泥 車   先將 湧出 地下水 源以 水泥 灌漿 封閉   防止 狀況 持續 惡化   目前 仍 進行 緊急 灌漿 作業 中     建設 公司 表示   一定 會 遵照 工務局 指示   並對 鄰近 住戶 損失 給予 妥善 賠償 與 補償   絕不會 卸責 推諉   工務局 將持續 監控 現場 狀況   待 地下水 源 控制 後   再視 實際 損害 情形     警方 為 了 維護 交通秩序   派員 到場 管制 交通   直到 灌漿 結束   並 希望 民眾 不要 擔心   如果 發生 類似 事件   施工 單位 應當 立即 停工   並 通知 主管 機關   否則將 嚴加 開罰 要求 賠償   受災戶 如有 任何 疑問   可多加 利用 1999 話務 專線 諮 詢  </t>
+          <t>〔 台南市 北區 北華街 一處 工地 傳出 下陷 導致 工地 旁住 戶 外牆 地板 出現 龜裂 警方 今晚 六點 多 接獲 報案 並通報 相關 單位 由 於 台南 前陣子 工地 塌陷 意外 加上 這個 月 花蓮 強震 帶來 災害 警方 呼籲 目前 正 交通管制 請民眾 不要 靠近 初步 調查 發現 該 工地 建設司 近期 開挖 地下室 過程 中 地下水 湧出 北區 所 與 工務局 北華里 活動 中心 成立 臨時 指揮 所 由 相關 人員 到場 會勘 認為 可能 地下水 湧出 地基 不 穩定 造成 附近 住家 出現 牆壁 地板 龜裂 主因 工務局 人員 除了 要求 建設司 立即 停止 工程施工 並要 建設司 調派 水泥 車將 湧出 地下水 源以 水泥 灌漿 封閉 防止 狀況 持續 惡化 目前 仍 進行 緊急 灌漿 作業 中建 設司 表示 一定 會 遵照 工務局 指示 並對 鄰近 住戶 損失 給予 妥善 賠償 與 補償 絕不會 卸責 推諉 工務局 將持續 監控 現場 狀況 待 地下水 源 控制 後 再視 實際 損害 情形 警方 為 了 維護 交通秩序 派員 到場 管制 交通 直到 灌漿 結束並 希望 民眾 不要 擔心 如果 發類 似 事件 施工 單位 應當 立即 停工 並 通知 主管 機關則將 嚴加 開罰 要求 賠償 受災戶 如 任何 疑問 可多加 利用 1999 話務 專線 諮 詢</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片</t>
+          <t>水利 署 南投 草屯 打造 鳥 嘴潭 人工湖 遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床 破壞 環境態 向 環境部 提起 行政 訴訟 5 月 1 日將 開庭 近期 重申 要求 移除 違法 土石 水利 署中 水分 署 表示 均依 環境 評估 相關 規定 辦理 並持續 追 蹤 態 環 境 土方 培厚則 為 河道 治理 經監 測確 保護堤 腳 提升 河防 安全 功效 為 改善 沿海 地區 地下水 超 抽 造成 地層下陷 水利 署 打造 草屯 鳥 嘴潭 人工湖 引取 烏 溪水 源蓄存 於 6 座 湖區 總 蓄水量 約 1450 萬噸 可供 應 每日 25 萬噸 約 百萬人 用水 目前 已近 完工 並行 供水 草屯 每日 1 萬噸 彰化 6 萬噸 民用 水 但 鳥 嘴潭 人工湖 工程 啟動 後 多次遭 台灣 石虎 保育 協會 台灣 態學會 台灣 淺山學社 台灣 水資源 保育 聯盟 等 環團 指控 開發破 壞態 環境 造成 保育 類動物 石虎 巴氏 銀 鮈 棲地 消失 更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床 台灣 石虎 保育 協會 近期 發文 表示 該會 與 其他 環團 自 2022 年 7 月 起 透過 現勘 開會 開會議 行文 等 持續 向 部門 反應 鳥 嘴潭 工程 破壞態 但 至今 爭議 未解 去年 7 月委 託 律師 向 環境部 提起 行政 訴訟 並將 於 5 月 1   日 首度 開庭 台灣 石虎 保育 協會 強調 環境部 應善 盡到 監督 環評 之責 對 開發 單位 水利 署 中區 水資源 分署 開罰 並命 該 分署 移除 違法 堆置 於 烏溪 土石方 若 未 依 限期 移除 環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程 或 由 環境 部 逕 命 其 停止 開發行 為 對 此 水利 署中 水分 署 表示 鳥 嘴潭 工程 不論 施工 前態 環境 調查 施工期 間態 監測 檢核 機制 強化 保育 措施 或 土石 處理 依環評 規定 辦理後續 監測 發現 仍 石虎 出 沒 活動 甚至 定居 個體 巴氏 銀 鮈 棲地 沒明 顯響 鳥 嘴潭 土方 則協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理 與 既 混凝土 坡 面上 覆土態 工法 理念 相近 專業 技師 分析 經比 對 去年 培厚前 後 颱 洪空 拍 地形 變化 顯示 確保護 堤 腳 提升 河防 安全 功效 環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床 為 此 提 行政 訴訟 5 月 1 日將 開庭圖 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發破 壞態 環境 並質疑 違反環 評將 廢土 傾倒 於 烏溪 為 此 提 行政 訴訟 5 月 1 日將 開庭圖 聯合 報系 資料 照片</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  </t>
+          <t>水利 署 南投 草屯 打造 鳥 嘴潭 人工湖 環團 質疑 傾倒 工程 廢土 至 烏溪 河床 破壞 環境態 向 環境部 提起 行政 訴訟 5 月 1 日將 開庭 要求 移除 違法 土石 水利 署中 水分 署 表示 依環評 規定 辦理 並持續 追 蹤 態 環 境 土方 培厚 為 河道 治理 經監測 保護堤 腳 可 提升 河防 安全 水利 署 打造 鳥 嘴潭 人工湖 供水 給彰 投 改善 沿海 地下水 超 抽 地層下陷 問題 引取 烏 溪水 源蓄存 6 座 湖區 總 蓄水量 1450 萬噸 每日 可 供水 25 萬噸 約 百萬人 用水 目前 已近 完工 已日供 草屯 1 萬噸 彰化 6 萬噸 民用 水鳥 嘴潭 人工湖 工程 啟動 後 多次遭 台灣 石虎 保育 協會 台灣 態學會 台灣 淺山學社 台灣 水資源 保育 聯盟 等 環團 指控 破壞態 環境 造成 保育 類 石虎 巴氏 銀 鮈 棲地 消失 質疑 違反 環評 程序 將廢土 傾倒 於 烏溪 河床 台灣 石虎 協會 發文 與 其他 環團 從 2022 年 7 月 起 多次 舉辦現 勘會 行文 等 反映 該 工程 破壞態 至今 爭議 未解 去年 7 月 已委 託 律師 向 環境部 提起 行政 訴訟 5 月 1 日 首度 開庭 協會 強調 環境 部應 開罰 中 水分 署 移除 違法 堆置 烏溪 土石方 若 未 限期 移除 應 要求 停止 鳥 嘴潭 工程 水利 署中 水分 署 表示 施工 前態 環境 調查 施工期 間態 監測 檢核 機制 保育 措施 或 土石 處理 都 依環評 規定 辦理</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>中國 過度 抽取 地下水   導致 近 40% 主要 城市 土地 下陷     路透     陳 麗珠 ／ 核稿 編輯   〔 財經 頻道 ／ 綜合 報導 〕 中國 近一半 主要 城市 正 遭受   中度 至 重度   不 等 程度 沉降   海平面 上升 情況 下   恐有 數百萬人將 面臨 洪水 風險     路透   指出   中國 都市人口 約 9 億人   當中 約 2.7 億人 生活 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     中國 82 個 城市 中   約 45% 每年 下沉 超過 3 公 釐   16% 土地 平均 每年 下沉 更是 超過 10 公 釐   約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     據 了解   而 造成 中國 土地 逐年 下沉   最 主要 是 地下水位 下降 所致     路透 表示     土地 下陷   對 中國 每年 造成 超過 75 億元 人民 幣   約 新 台幣 337 億元   損失   研究 人員 預計   下個 世紀   中國將 約 近 四分之一 沿海 土地   恐低 於 海平面   數億人將 面臨 大 洪水 風險     最 嚴重 受災 城市 是 北方 天津   這 城市 約 1500 萬 人口   2023 年 一場   突發 地質 災害     導致 3000 名 居民 被 疏散   調查 人員將 這場 災害 歸咎 於   水資源 枯竭 地 熱井 建設       一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
+          <t>中國 過度 抽取 地下水 導致 近 40% 主要 城市 土地 下陷 路透 陳 麗珠 核稿 編輯 〔 中國 近一半 主要 城市 正 遭受 「 中度 至 重度 」 不 等 程度 沉降 海平面 上升 情況 下 恐數 百萬人將 面臨 洪水 風險 路透 指出 中國 都市人口 約 9 億人 當中 約 2.7 億人活 每年 下陷 逾 3 釐 地區 相當 於 都市人口 29% 中國 82 個 城市 中約 45% 每年 下沉 超過 3 釐 16% 土地 平均 每年 下沉 更 超過 10 釐 約 6700 萬 居民 活 於 此 研究 小組 指出 由 於 中國 城市 人口 多 即使 一小部分 地層下陷 可能 造成 重大 威脅 據 了解 而 造成 中國 土地 逐年 下沉 最 主要 地下水位 下降 所致 路透 表示 「 土地 下陷 」 對 中國 每年 造成 超過 75 億元 人民 幣約 新 台幣 337 億元 損失 研究 人員 預計 下個 世紀 中國將 約 近 四分之一 沿海 土地 恐低 於 海平面 數億人將 面臨 大 洪水 風險 最 嚴重 受災 城市 北方 天津 這 城市 約 1500 萬 人口 2023 年 一場 「 突發 地質 災害 」 導致 3000 名 居民 被 疏散 調查 人員將 這場 災害 歸咎 於 水資源 枯竭 地熱井 建設 一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  </t>
+          <t>最新 一份 根據 衛星 雷達 觀測 研究 顯示 中國近 40% 主要 城市 土地 正發 「 中度 至 重度 」 地層下陷 上 億 居民 面臨 洪水 風險 加上 海平面 上升 上海 廣州 天津 都 面臨 災害 風險 綜合 路透社 與 美國線 電視 新聞網 CNN 報導 這篇 研究 今天 419 發表 期刊 科學 Science 上 由 中國 華南 師範大學 教授 敖祖銳領 軍 研究 小組 透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況 發現 40% 城市 土地 每年 平均 下沉 超過 3 釐 中國 都市人口 約 9 億約 2.7 億 人口 活 這些 每年 下陷 逾 3 釐 地區 相當 於 都市人口 29% 這 82 個 城市 中 更 16% 土地 平均 每年 下沉 超過 10 釐 6700 萬 居民 活 於 此 研究 小組 指出 由 於 中國 城市 人口 多 即使 一小部分 地層下陷 可能 造成 重大 威脅 導致 中國 都市 地層下陷 主因 過度 抽用 地下水 另 一大 因素 城市 土地 上 重量 不斷 增加 時間 推移 下沉 積物 堆積 以 不斷 增加 沉重 建物 將 土壤 越壓 越緊 實導致 土地 下沉 研究 顯示 由 於 地層下陷 海平面 上升 最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面 天津 上海 廣州 周邊 都 面臨 這樣 風險 中國 一些 地區 已經 建立 保護 措施 這份 研究 並未 探討 這些 措施 效果 報告 合著 北京 大學 城市 與 環境 學院 教授 陶勝利 說 上海 就 建造 了 數高 堤防 「 即使 地層下陷 海平面 上升 這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒風險 」 就 他 所知 沒 其他 國家 打造 過規模 這麼 大 堤防 陶勝利稱 中國 政府 實施 嚴格 地下水 管制法 規減 緩 了 上海 周邊 地層下陷 速度 全球 多個 城市 都 下陷 維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨 Leonard   Ohenhen 最近 一份 針對 美國 地層下陷 狀況 報告 指出 大部分 城市 都 會發 土地 下沉 但 因為 沿海 地區 海平面 上升 問題 大家 比較 關心 沿海 城市 「 但 大多 數 城市 下沉 速度 沿海 城市 其實 都 差不多 甚至 還更快 」 地層下陷 不僅 中國 才 問題 CNN 指出 美國 紐約市 等 數十個 沿海 城市 正 下沉 墨西哥 首都 墨西哥城 土地 每年 最 多 下沉 50 分 可能 全球 沉 最快 荷蘭 已 25% 土地 低 於 海平面 今年 2 月 另 一項 研究 指出 全球 約 630 萬 平方里 土地 下陷 風險 印尼 最嚴 重國家 之一 首都 雅加 達 大部分 地區現 都 已 低 於 海平面 新加坡 2022 年 一項 研究 提到 全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中 30 個亞洲</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">路透社 報導   根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示   中國將 近一半 主要 城市 正 遭受   中等 到 嚴重   程度 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 論文 作者 發現   中國 45% 都市 土地 正以 每年 超過 3 公 釐 速度 下陷   16% 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 原因 不僅 是 地下水位 下降   還有 建築 環境 龐大 重量     華南師 範大學 敖祖銳 領導 研究 團隊 表示   中國 都市人口 已經 超過 9 億   因此   即使 是 一小部分 土地 下陷   都 會 對 都市生活 構成 巨大 威脅       土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 下 一個 世紀   近 四分之一 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示     這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 問題   而 不僅僅 是 一 兩個 地方 問題     他 說     這也 是 世界 其他 地方 正在 發生 事情 縮影       人口 超過 1   500 萬 北部 城市 天津   被確 認為 受災 最 嚴重 城市 之一   去年 一場   突發性 地質 災害   導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 興建     中國 許多 老 煤 礦區 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 另 一份 研究 指出   全球 約 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 已 低 於 海平面     尼科 爾斯說   易受 影響 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 1970 年代 禁止 抽取 地下水     他 補充 說     減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 不 可能 阻止 所有 下陷   因此 要 討論 適應力 建造 海堤       根據 新加坡 2022 年 一項 研究   44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中   30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示     這是 一個 都市化 人口 增長 問題   人口密度 愈大   抽 水 就 愈 多   就 造成 更 多 下陷    </t>
+          <t>路透社 報導 根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示 中國將 近一半 主要 城市 正 遭受 「 中等 到 嚴重 」 程度 地層下陷 數百萬人將 面臨 洪災 風險 尤其 海平面 正 上升 這篇 發表 於 科學 ( Science ) 期刊 論文作 發現 中國 45% 都市 土地 正以 每年 超過 3 釐 速度 下陷 16% 都市 土地 下陷 速度 每年 超過 10 釐 造成 原因 不僅 地下水位 下降 還建築 環境 龐大 重量 華南 師範大學 敖祖銳 領導 研究 團隊 表示 中國 都市人口 已經 超過 9 億 因此 「 即使 一小部分 土地 下陷 都 會 對 都市 活構 成 巨大 威脅 」 土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 ) 而下 一個 世紀近 四分之一 沿海 陸地 可能 將低 於 海平面 使數 億人 面臨 更大 洪水 風險 東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示 「 這讓 我們 真正 認識 到 對 中國來 說 這一個 全國性 問題 而 不僅僅 一 兩個 地方 問題 」 他 說 「 這 世界 其他 地方 正發 事情 縮 」 人口 超過 1500 萬 北部 城市 天津 被確 認為 受災 最 嚴重 城市 之一 去年 一場 「 突發性 地質 災害 」 導致 3 千名 居民 撤離 調查 人員將 原因 歸咎 於 水資源 枯竭 以地 熱井興 建中 國許 多 老 煤 礦區 因為 過度 開採 而 受到 響當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥 以 強化 土地 這個 問題 並不 只限 於 中國 今年 2 月 發表 另 一份 研究 指出 全球 約 630 萬 平方里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中 印尼 受響 最嚴 重國家 之一 首都 雅加 達 大部分 地區現 已 低 於 海平面 尼科 爾斯 說易 受響 城市 可以 從 東京 汲取 教訓 東京 曾經 下陷 約 5 ( 16 英 ) 後 來 1970 年代 禁止 抽取 地下水 他 補充 說 「 減緩 土地 下陷 問題 應該 被 非常 認真 看待 但 不 可能 阻止 所 下陷 因此 要 討論 適應力 建造 海堤 」 根據 新加坡 2022 年 一項 研究 44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中 30 個位 於 亞洲羅德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示 「 這一個 都市化 人口 增長 問題 人口密度 愈大 抽水 就 愈 多 就 造成 更 多 下陷 」</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  </t>
+          <t>中國將 近一半 主要 城市 正 面臨 「 中度 至 重度 」 地層下陷 威脅 根據 最新 研究 顯示 中國 都市人口 約 9 億 其中 約 2.7 億人活 每年 下陷 逾 3 分地區 相當 於 都市人口 29% 加上 海平面 上升 情形 日漸 加劇 最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面 上 億 居民 將 面臨 洪水 危機 綜合外 媒報導 這篇關 中國 土地 現況 報告 期刊 科學 Science 上 發表 研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形 發現 約 45% 地區 每年 下沉 超過 3 釐 更 16% 土地 平均 每年 下沉 超過 10 釐 且 約 6700 萬 居民 活 於 此 研究 小組 指出 由 於 中國 城市 人口 眾多 即使 地層下陷 只 占 一小部分 威脅 仍 不 忽視 根據 了解 造成 中國 土地 逐年 下沉 主因 過度 抽用 地下水 另 一 因素 為 城市 土地 上 重量 不斷 增加 不斷 增加 沉重 建物 將 土壤 越壓 越緊 實且 研究 人員 預計 由 於 地層下陷 海平面 上升 最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面 包含 天津 上海 廣州 等 都市 數億人將 面臨 洪水 威脅 人口 超過 1500 萬 天津市 被 認為 「 最 嚴重 受災 城市 」 2023 年 6 月間 一場 「 突發 地質 災害 」 讓 3 幢 大樓 出現 裂痕 地下室 滲水 3000 名 居民 被 緊急 疏散 事 發後調 查人員將 災害 肇因 歸咎 於 地下水 資源 枯竭 以地 熱井 鑽井 施工 觸動 深層 「 地質 空腔 」 所致 不僅 中國此 問題 世界各地 皆 面臨 地層下陷 危機 今年 2 月 發表 另項 研究 指出 全球 約 630 萬 平方里 土地 下陷 風險 尤為 印尼 情況 最為 告急 首都 雅加 達 大部分 地區現 已 低 於 海平面 另據 新加坡 2022 年 一項 研究 提 全世界 著 嚴重 地層下陷 44 個 沿海 主要 城市 中 就 30 個位 於 亞洲</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">李欣潔 ／ 核稿 編輯   〔 即時 新聞 ／ 綜合 報導 〕 中國 各 大都市 面臨 地層下陷 環境 危機   北京 大學 城市 與 環境 學院 生態 研究 中心 研究 員 陶勝利 團隊   華南師 範大學 北斗 研究院 敖祖銳 團隊 等 人   共同 頂 尖 期刊   科學   發表論 文   指稱 2120 年 中國 沿海 城市 恐有 26 ％ 土地 會 低 於 海平面   北京 是 全中國 下沉 速度 最快 都市 之一     據   紐約 時報   報導   中國 16 ％ 大城市 每年 海拔高度 下降 超過 10 公 釐   近一半 城市 每年 海拔高度 下降 超過 3 公 釐   這些 數字 看 起來 不大   但 日積 月 累 之下 不能 忽視     這些 城市 地層下陷 一部分 是 由 於 建物 基礎 設施 重量 造成   超 抽 地下水   開採 石油 煤礦 是 原因 之一   上述 影響 到 環境 行為   可能 會 造成 土壤 岩石 擠 壓 坍塌     研究 人員 透過 雷達圖 像   測量 中國 82 個 主要 都市 2015 至 2022 年間 地表 升降 狀況   並和當 地 建物 重量   地下水位 進行 比 較   結果 發現 中國 沿海 城市 目前 約 6 ％ 土地 相對 海拔 低于 海平面   假如 2120 年 全球 平均 海平面 上升 0.87 公尺   則 可能 會 上升 到 26 ％     其中   北京 是 全中國 下陷 速度 最快 城市 之一   鄰近 天津 同樣 危機   天津 去年 數條 道路 突然 發 生地 裂狀況   導致 數千 居民 從 公寓 撤離   中國 都市 下陷 狀況 是 不均 勻   亦 即 不同 區域 以 不同 速度 下沉   使得 土地 上 建物 面臨 受損 風險     都市 土地 低 於 海平面 並不 代表 滅亡   荷蘭 大部分 地區 都 海平面 以下 並持續 下陷   但 荷蘭展 開 了 大量 蓄洪 工程 防止 洪災   中國 研究 人員 認為   降低 下陷 速度 關鍵 是 限制 地下水 抽取   上海 實施 地下水 管理 後 下沉 速度 比中國 其他 城市 更慢   日本 東京 大阪 多年 來 地下水 規劃 已 能夠 穩定 地表 沉降 狀況     不過   審查 該 篇 論文 英國東 英吉利 大學 氣候 科學家 土木工程 專家 尼科 爾斯   Robert   Nicholls   透露   地層下陷 是 中國 全國性 問題   很難 完全 阻止   中國 沿海 地區 必須 適應 海平面 上升   地表 下沉 狀況     同樣 參與 審查 論文 美國維吉尼亞 理工大 學 地球物理 學家 希爾扎 伊   Manoochehr   Shirzaei     曾 以類 似的 方法 研究 了 美國 沿海 都市 下沉   他 直指 地層下陷 幾乎 任何 地方 都 存在   卻 一直 遭到 忽視     希爾扎 伊說   目前 大多 數應 對 氣候 變化   指 海平面 上升   策略 都 是 不 準確   因為 這些 都 沒 考慮 到 地層下陷 狀況   這個 課題 從 未 像 海平面 上升 一樣 得到 廣泛 研究  </t>
+          <t>李欣潔 核稿 編輯 〔 中國 各 大都市 面臨 地層下陷 環境 危機 北京 大學 城市 與 環境 學院態 研究 中心 研究 員 陶勝利 團隊 華南 師範大學 北斗 研究院 敖祖銳 團隊 等 人 共同 頂尖 期刊 科學 發表論 文指稱 2120 年 中國 沿海 城市 恐 26 ％ 土地 會 低 於 海平面 北京 全中國 下沉 速度 最快 都市 之一 據 紐約 時報 報導 中國 16 ％ 大城市 每年 海拔高度 下降 超過 10 釐 近一半 城市 每年 海拔高度 下降 超過 3 釐 這些 數字 看 起來 不大 但 日積 月 累 之下 不能 忽視 這些 城市 地層下陷 一部分 由 於 建物 基礎 設施 重量 造成 超 抽 地下水 開採 石油 煤礦 原因 之一 上述 響到 環境 行為 可能 會 造成 土壤 岩石 擠壓 坍塌 研究 人員 透過 雷達圖 像 測量 中國 82 個 主要 都市 2015 至 2022 年間 地表 升降 狀況 並當 地 建物 重量 地下水位 進行 比較 結果 發現 中國 沿海 城市 目前 約 6 ％ 土地 相對 海拔 低于 海平面 假如 2120 年 全球 平均 海平面 上升 0.87 則 可能 會 上升 到 26 ％ 其中 北京 全中國 下陷 速度 最快 城市 之一 鄰近 天津 同樣 危機 天津 去年 數條 道路 突然 發地裂 狀況 導致 數千 居民 從寓 撤離 中國 都市 下陷 狀況 不均 勻 亦 即 不同 區域 以 不同 速度 下沉 使得 土地 上 建物 面臨 受損 風險 都市 土地 低 於 海平面 並不 代表 滅亡 荷蘭 大部分 地區 都 海平面 以下 並持續 下陷 但 荷蘭展 開 了 大量 蓄洪 工程 防止 洪災 中國 研究 人員 認為 降低 下陷 速度 關鍵 限制 地下水 抽取 上海 實施 地下水 管理 後 下沉 速度 比中國 其他 城市 更慢 日本 東京 大阪 多年 來 地下水 規劃 已 能夠 穩定 地表 沉降 狀況 不過 審查 該篇論 文英國東 英吉利 大學 氣候 科學家 土木工程 專家 尼科 爾斯 Robert   Nicholls 透露 地層下陷 中國 全國性 問題 很 難 完全 阻止 中國 沿海 地區 必須 適應 海平面 上升 地表 下沉 狀況 同樣 參與 審查論 文美國 維吉尼亞 理工大 學 地球物理 學家 希爾扎 伊 Manoochehr   Shirzaei 曾 以類 似 方法 研究 了 美國 沿海 都市 下沉 他 直指 地層下陷 幾乎 任何 地方 都 存 卻 一直 遭到 忽視 希爾扎 伊說 目前 大多 數應 對 氣候 變化 指 海平面 上升 策略 都 不 準確 因為 這些 都 沒 考慮 到 地層下陷 狀況 這個 課題 從 未 像 海平面 上升 一樣 得到 廣泛 研究</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 顏宏駿 ／ 彰化 報導 〕 彰化縣 沒有 水庫   多年 以來 不 缺水   民生 用水   原因 係 倚賴 全縣 200 多口 地下水 井   但 已 造成 地層下陷 問題   惟鳥 嘴潭 人工湖 淨水廠 完工 後 將可 改變 現今 抽 地下水 窘境   目前 台一線 南 彰化 段 正 進行 大型 管路 埋設 工程   2026 年 完工 後   這條 管路 成為 彰化縣 給水大動脈   透過 管路 連結   達到 鳥 嘴潭 人工湖   湖山 水庫   鯉魚 潭 水庫 水源 靈活 調度 目的     台水 公司 指出   目前 鳥 嘴潭淨 水廠 工程 進行 中   埋管 工程 多線 展開   直徑 1.2 公尺 幹管 埋設 工程   為 避免 影響 交通   採 分段 施工   預計 2026 年 全部 完工   最後可達 到 北水南 送   南 水北 送   靈活 供水 目標     台水 公司 表示   目前 彰化縣 每日 用水量 約 為 40 萬公噸   地面水 部分   彰化市 與 美   花壇 部分 地區 每日 用水量 約 為 8 萬公噸   主要 靠 台中 支援   鯉魚 潭 水庫     南 彰化 北斗   二林 與 溪湖 一帶   則由 雲林   湖山 水庫   每日 支援 約 5 萬公噸   烏嘴潭淨 水廠 完工 送水 後   彰化縣 每年 可減 抽 6100 萬噸 地下水   解決 農民 枯水期 經常 抽 不到 地下水 窘境     台水 公司 說   未來 鳥 嘴潭淨 水廠 每天 可供 應 彰化 地區 21 萬噸 水量   加上 現有 每日 來 自 雲林 湖山 水庫 5 萬公噸   而 透過 台 一線 埋設 幹管   南   北 水路 相通   增加 水資源 調度 彈性   上游 採 一般 水庫 採高 水位 操作   依循   蓄豐濟 枯   邏輯   趁 豐水期 盡量 蓄滿   枯水期 才 水 可用   包含 中水 局轄區 鯉 魚潭   湖山 水庫   目前 處 於 枯水期 階段   卻 仍 持續 滿水 溢流   未來 能 應付 極端 氣候 或 突發 供水 危機     台水 公司 第十一 處長 曾 盛一說   水資源 運用 已 不 像 過去   單一 水庫 供水 區 固定   水利 署力 拚 打造 西部 廊道 供水管 網   強化 區域 調度 同時   鳥 嘴潭 雖 不是 直接 參與 管網   但 透過 減少 中部 水庫 支援 彰化 水量     其實 達 到 調度 功能    </t>
+          <t>〔 彰化縣 沒 水庫 多年 以來 不 缺水 民用 水 原因 係 倚賴 全縣 200 多口 地下水 井 但 已 造成 地層下陷 問題 惟鳥 嘴潭 人工湖 淨水廠 完工 後 將可 改變 現今 抽 地下水 窘境 目前 台一線 南 彰化 段 正 進行 大型 管路 埋設 工程 2026 年 完工 後 這條 管路 成為 彰化縣 給水大動脈 透過 管路 連結 達 到 鳥 嘴潭 人工湖 湖山 水庫 鯉魚 潭 水庫 水源 靈活 調度 目台 水司 指出 目前 鳥 嘴潭淨 水廠 工程 進行 中 埋管 工程 多線 展開 直徑 1.2 幹管 埋設 工程 為 避免 響 交通 採 分段 施工 預計 2026 年 全部 完工 最後可達 到 北水 南送 南 水北 送靈活 供水 目標 台水司 表示 目前 彰化縣 每日 用水量 約 為 40 萬噸 地面水 部分 彰化市 與 美 花壇 部分 地區 每日 用水量 約 為 8 萬噸 主要 靠 台中 支援 鯉魚 潭 水庫 南 彰化 北斗 二林 與 溪湖 一帶則 由 雲林 湖山 水庫 每日 支援 約 5 萬噸 烏嘴潭淨 水廠 完工 送水 後 彰化縣 每年 可減 抽 6100 萬噸 地下水 解決 農民 枯水期 經常 抽 不到 地下水 窘境 台水司 說 未來 鳥 嘴潭淨 水廠 每天 可供 應 彰化 地區 21 萬噸 水量 加上 現 每日 來 自 雲林 湖山 水庫 5 萬噸 而 透過 台 一線 埋設 幹管 南北 水路 相通 增加 水資源 調度 彈性 上游 採 一般 水庫 採高 水位 操作 依循 「 蓄豐濟 枯 」 邏輯 趁 豐水期 盡量 蓄滿 枯水期 才 水 可用 包含 中水 局轄區 鯉 魚潭 湖山 水庫 目前 處 於 枯水期 階段 卻 仍 持續 滿水 溢流 未來 能 應付 極端 氣候 或 突發 供水 危機 台水司 第十一 處長 曾 盛一說 水資源 運用 已 不 像 過去 單一 水庫 供水 區 固定 水利 署力 拚 打造 西部 廊道 供水管 網強 化區域 調度 同時 鳥 嘴潭 雖 不 直接 參與 管網 但 透過 減少 中部 水庫 支援 彰化 水量 「 其實 達 到 調度 功能 」</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   根據 美國 科學促 進會   AAAS   出版 期刊   科學     Science   於 18 日 發表 論文 顯示   中國 近一半 主要 城市 面臨   中度 至 重度   地層下陷 問題   45% 城市 每年 下陷 超過 3 毫米   16% 城市 每年 快速 下陷 逾 10 毫米   並 造成 每年 75 億元 人民 幣   約合 新 台幣 337 億元   經濟 損失   預計 未來 1 世紀   中國 沿海 城市 可能 1 10 居民 將 生活 海平面 以下     下陷 主因 則 包括 地下水位 下降   以及 建築 環境 對 地下 土壤 帶來 沉重 壓力 等   尤其 都市化 進程 更是 加速 了 地下水 資源 過度 開採   以及 大量 建築物 重壓   受影響 城市 包括 北京   天津   合肥 西安 等   由 於 中國 城市 人口 已 超過 9 億人   因此   即使 只有 一小部分 土地 下陷   都 可能 對 城市 生活 構成 重大 威脅     涉及 居民 安全   基礎 建設   交通 運作 生態 環境 等 多個 層面     研究 估算   地層下陷 已使 中國年 經濟 損失 超過 75 億元 人民 幣   凸顯 了 問題 嚴峻 與 急迫   例如 擁有 1500 萬 人口 天津   近幾年 都 是 水患 受災 嚴重 地區 之一   未來   隨著 全球 暖化 造成 海平面 上升   以及 地層下陷 持續   預計 下個 世紀   中國將 近 1 4 沿海 土地 低 於 海平面   洪水 風險 劇增     除 沿海 城市   中國舊 煤區 亦 因 過度 開 採出 現類 似狀況   地下 礦產開 採導致 土地 結構 變化   引發 地層下陷   地方 政府 常採 取向 礦井 注漿 加固 等 臨時 措施   但 無法 從 根源 解決 問題     英國東 英吉利 大學   University   of   East   Anglia   氣候變遷 研究 中心 主任 尼可斯 指出   地層下陷 不僅 是 中國 全國性 問題   是 全球 重大 危機   今年 2 月 研究 顯示   全世界 約 630 萬 平方公里 土地 下陷 風險   尤其 印尼 更是如此   其 首都 雅加 達   Jakarta   大部分 區域 目前 已低 於 海平面   加劇 洪水 風險 並嚴 重威脅 居民 生活 與 生態 環境  </t>
+          <t>[   根據 美國 科學促 進會 AAAS 出版 期刊 科學 Science 於 18 日 發表論 文顯示 中國 近一半 主要 城市 面臨 「 中度 至 重度 」 地層下陷 問題 45% 城市 每年 下陷 超過 3 毫米 16% 城市 每年 快速 下陷 逾 10 毫米 並 造成 每年 75 億元 人民 幣約 合新 台幣 337 億元 經濟 損失 預計 未來 1 世紀 中國 沿海 城市 可能 110 居民 將活 海平面 以下 下陷 主因 則 包括 地下水位 下降 以建築 環境 對 地下 土壤 帶來 沉重 壓力 等 尤其 都市化 進程 更 加速 了 地下水 資源 過度 開 採以 大量 建築物 重壓 受響 城市 包括 北京 天津 合肥 西安 等 由 於 中國 城市 人口 已 超過 9 億人 因此 「 即使 只 一小部分 土地 下陷 都 可能 對 城市 活構 成 重大 威脅 」 涉 居民 安全 基礎 建設 交通 運作態 環境 等 多個 層面 研究 估算 地層下陷 已使 中國年 經濟 損失 超過 75 億元 人民 幣凸顯 了 問題 嚴峻 與 急迫 例如 擁 1500 萬 人口 天津 近幾年 都 水患 受災嚴 重地 區 之一 未來 隨著 全球 暖化 造成 海平面 上升 以 地層下陷 持續 預計 下個 世紀 中國 將近 14 沿海 土地 低 於 海平面 洪水 風險劇 增除 沿海 城市 中國舊 煤區 亦 因 過度 開 採出 現類 似狀況 地下 礦產開 採導致 土地 結構 變化 引發 地層下陷 地方 政府 常採 取向 礦井 注漿 加固 等 臨時 措施 但 無法 從 根源 解決 問題 英國東 英吉利 大學 University   of   East   Anglia 氣候變遷 研究 中心 主任 尼可斯 指出 地層下陷 不僅 中國 全國性 問題 全球 重大 危機 今年 2 月 研究 顯示 全世界 約 630 萬 平方里 土地 下陷 風險 尤其 印尼 更 如此 其 首都 雅加 達 Jakarta 大部分 區域 目前 已低 於 海平面 加劇 洪水 風險 並嚴 重威脅 居民 活與態 環境</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   屏東縣 東港   林邊   佳冬   枋寮 等 4 鄉鎮   因 沿海 土地 嚴重 地層下陷   多數 土地 鹽化 又 易 淹水 不利 耕作   不利 耕作   造成 農業 欠收 或 土地 荒廢   力 暘 公司 優先 選擇 佳冬 鄉進 駐 種電   協助 地方 政府 推動 嚴重 地層下陷區 域 太陽光 電發 電業 政策   宣示 要 把 屏東 打造 為 綠能 王國     力 暘 以光 電技術 專業 著稱   整合 旗下 4 公司 建置 99MW   百萬瓦   太陽能 光電場   以 佳冬 鄉作 為 領先 模範 案例   從 2020 年 起   預計 3 年 累計 建置 完成 300MW 太陽能 光電場   將 打造 屏東縣 為 全台 第一 綠能 王國     時任 屏東縣 長 潘孟安 2020 年 6 月 出席 配合 廠商力 暘 太陽能 光電場 動土 典禮   盛 讚 力 暘 能 夠 以 民 間 企 業 力量   鍥而 不 捨 與 地主 溝通   取得 超過 1000 名 地主 認同   用心 令人 敬佩     雖然 得到 地方 政府 肯定   黃 志文 卻 坦言   挑戰 很大       因為 發展 太陽能 最大 挑戰   就是 取得 地主 信任   所以 力 暘 能源 積極 與 地主 溝通   以 每甲 土地 年租金 40 萬 承租   簽約 20 年   為 農民 地主 增加 經濟 收益   而 2 年 來 努力   超過 1000 位 地主   總計 250 多甲 土地 出租 給力 暘     他 說   此次 推動 99MW 太陽能 光電場   除攜手 策略 合作 夥伴 中租迪 投入 合作 地面 型 電場 外   獲 科技 大廠 士林 電機   友達 與 富士康 等 協力 廠商 共同 合作   預定 2021 年 6 月底 全數 完工   每年 將為 屏東 創造 約 1.35 億度 發電 總量   他 強調   力 暘 將以 佳冬 鄉作 為 領先 模範 案例   預計 3 年 累計 建置 完成 300MW 太陽能 光電場   將 打造 屏東縣 為 全台 第一 綠能 王國  </t>
+          <t>[   屏東縣 東港 林邊 佳冬 枋寮 等 4 鄉鎮 因 沿海 土地 嚴重 地層下陷 多數 土地 鹽化 又 易 淹水 不利 耕作 不利 耕作 造成 農業 欠收 或 土地 荒廢力 暘 司 優選擇 佳冬鄉 進駐 種電 協助 地方 政府 推動 嚴重 地層下陷區 域 太陽光 電發 電業 政策 宣示 要 把 屏東 打造 為 綠能 王國力 暘 以光 電技術 專業 著稱 整合 旗下 4 司 建置 99MW 百萬瓦 太陽能 光電場 以 佳冬鄉 作為 領模範 案例 從 2020 年 起 預計 3 年 累計 建置 完成 300MW 太陽能 光電場將 打造 屏東縣 為 全台 第一 綠能 王國 時任 屏東縣 長 潘孟安 2020 年 6 月 出席 配合 廠商力 暘 太陽能 光電場 動土 典禮 盛 讚 力 暘 能 夠 以 民 間 企 業 力量 鍥而 不 捨 與 地主 溝通 取得 超過 1000 名 地主 認同 用心 令人 敬佩 雖然 得到 地方 政府 肯定 黃 志文 卻 坦言 「 挑戰 很大 」 因為 發展 太陽能 最大 挑戰 就 取得 地主 信任 所以 力 暘 能源 積極 與 地主 溝通以 每甲 土地 年租金 40 萬 承租 簽約 20 年 為 農民 地主 增加 經濟 收益 而 2 年來 努力 超過 1000 位 地主 總計 250 多甲 土地 出租 給力 暘 他 說 此次 推動 99MW 太陽能 光電場 除 攜手 策略 合作 夥伴 中租迪 投入 合作 地面 型 電場 外獲 科技 大廠 士林 電機友 達 與 富士康 等 協力 廠商 共同 合作 預定 2021 年 6 月底 全數 完工 每年 將為 屏東 創造 約 1.35 億度 發電 總量 他強 調力 暘 將以 佳冬鄉 作為 領模範 案例 預計 3 年 累計 建置 完成 300MW 太陽能 光電場將 打造 屏東縣 為 全台 第一 綠能 王國</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 容許 範圍   結構 安全 無虞     高鐵路線 通過 彰化   雲林 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化縣 溪州 鄉   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 橋墩   反而 是 沉陷 改善 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429</t>
+          <t>中央社 汪淑芬 台北 29 日電 根據 鐵道 局新布 台灣 高鐵路 段 下陷 監測 報告 彰化 雲林 下陷 持續 累積 下陷 量 最大 雲林 114.2 分鐵道 局 表示 高鐵墩 柱角 變量 都 許範圍 結構 安全 無虞 高鐵路 線通過 彰化 雲林 嘉義 主要 地層下陷區 台灣 高鐵司 從民國 92 年 至今 委 託 學術 單位 持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測並 提報 交通部 鐵道局 日前 布 112 年 監測 報告 根據 最新 報告 高鐵路 線 最大 累積 下陷 量 已 達 到 114.2 分其位 於 雲林縣 土庫鎮 台 78 線 與 高鐵 交界 處墩 柱 但 自 103 年 進行 改善 工程 後 目標 範圍 墩柱 差異 沉陷 量 呈 逐年 降低 趨勢 監測 報告 顯示 112 年 高鐵 彰化 雲林 共 8 處 路段 下陷 量 從 2.6 分 彰化縣 溪州鄉 到 5.4 分 雲林縣 土庫鎮 與 元長鄉 交界 都 比 111 年 增加 嘉義 不但 未 再 下陷 還連續 2 年 回脹 但 112 年 回脹量 比 111 年少 鐵道局 指出 較 值得 關注 高鐵 下陷 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段 高鐵 雲林 車站 區高鐵 跨 雲 158 縣道 高鐵 跨台 78 號 快速道路 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 都 仍 許範圍 連續 梁為 11500 簡支梁 11000 高鐵 結構 安全 無虞鐵道 局 指出 高鐵 零星 數處 累積角 變量 逾 許範圍 橋墩 結構 型式 皆 為 簡支梁 台灣 高鐵 已納入 定期 軌道 巡檢 土建 設施 維護 計畫 持續 密切 關注 並依角 變量 變化 速率 按風險 等級 高低 採取 相應 加密 監測 頻率 並已備 妥 軌道 調整 預防性 結構 補強 方案 根據 監測 報告 目前 高鐵累 積角 變量 超過 標準 值橋 墩 反而 沉陷 改善 嘉義 路段 位 於 朴子溪 河 中 目前 簡支 梁累 積角 變量 達 1.961000 而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.3951000 雖 仍 許值 範圍 但 已 從 109 年 起 逐年 增加 編輯 張雅淨 1130429</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  </t>
+          <t>台灣 高鐵司 從民國 92 年 至今 委 託 學術 單位 持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測並 提報 交通部 鐵道局 日前 布 2023 年 監測 報告 根據 最新 報告 高鐵 彰化 雲林 路段 下陷 持續 高鐵路 線 最大 累積 下陷 量 已 達 到 114.2 分位 於 雲林縣 土庫鎮 台 78 線 與 高鐵 交界 處墩 柱 但 自 103 年 進行 改善 工程 後 目標 範圍 墩柱 差異 沉陷 量 呈 逐年 降低 趨勢 監測 報告 顯示 2023 年 高鐵 彰化 雲林 共 8 處 路段 下陷 量 從 2.6 分 彰化 溪洲 到 5.4 分 雲林縣 土庫鎮 與 元長鄉 交界 都 比 2022 年 增加 嘉義 不但 未 再 下陷 還連續 2 年 回脹 但 2023 年 回脹量 比 2022 年少 鐵道局 說 較 值得 關注 高鐵 下陷 路段 包括 彰化 溪州 高鐵 與 中山 高跨 交高鐵 雲林 車站 區高鐵 跨 雲 158 縣道 高鐵 跨台 78 號 快速道路 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 皆 許範圍 連續 梁為 11500 簡支梁 11000 高鐵 結構 安全 無虞鐵道 局說 高鐵 零星 數處 累積角 變量 逾 許範圍 橋墩 結構 型式 皆 為 簡支梁 台灣 高鐵 已納入 定期 軌道 巡檢 土建 設施 維護 計畫 持續 密切 關注 並依角 變量 變化 速率 按風險 等級 高低 採取 相應 加密 監測 頻率 並已備 妥 軌道 調整 預防性 結構 補強 方案 根據 監測 報告 目前 高鐵累 積角 變量 過標 準值 橋墩 反而 位 沉陷 改善 嘉義 路段 位 朴子溪 河 中 目前 簡支 梁累 積角 變量 達 1.961000 而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.3951000 雖 仍 許值 範圍 但 已 從 2020 年 起 逐年 增加</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設位 台北市 大直 新建 案 去   2023   年 9 月 7 日 晚間 突然 發生 崩塌   導致 附近 5 樓 民宅 下陷 成 4 樓   台北 地檢署 偵查 終結   將 工地 邱姓 負責人   基泰 公司 工程部 人員 張姓 工地 主任   王姓 劉姓 建築師   姜姓 專案 人員 等 5 人   依涉 犯 違背 建築術 成規   偽造 文書 等 罪 起訴   檢方 查出   大直 基泰 建案 坍塌 後   所幸 住戶 時 撤離   無人 傷亡   檢方 發現 建案 商未 依圖 施工   應該 60 公分 厚 連續 壁   只施作 50 公分   此外   建商 為 了 趕工   改變 施工 順序   竟 調整 監測 異常數 據   導致 工安 意外   至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結  </t>
+          <t>基泰 建設位 台北市 大直 新建 案去 2023 年 9 月 7 日 晚間 突然 發 崩塌 導致 附近 5 樓 民宅 下陷 成 4 樓 台北 地檢署 偵查 終結將 工地 邱姓 負責人 基泰 司 工程部 人員 張姓 工地 主任 王姓 劉姓 建築師 姜姓 專案 人員 等 5 人依涉 犯 違背 建築術 成規 偽造 文書 等 罪 起訴 檢方 查出 大直 基泰 建案 坍塌 後 所幸 住戶 時 撤離 無人 傷亡 檢方 發現 建案 商未 依圖 施工 應該 60 分厚 連續 壁 只 施作 50 分 此外 建商 為 了 趕工 改變 施工 順序 竟 調整 監測 異常 數據 導致 工安 意外 至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 去年 高鐵 沿線 雲林 路段 不僅 持續 下陷 5.4 公分   且 累積 下陷 量 已 達 114.2 公分   全國 下陷 最 嚴重   雲林縣 政府 表示   沿途 現有 12 萬 6 千口 灌溉 水井   政府 只能 加以 管制 不能 禁止 其繼續 抽水   地下水 入不敷出   自然 持續 下陷     高鐵 公司 從 2003 年 起委 託 學術 單位   每年 針對 高鐵 沿線 結構 墩 柱 地層下陷 進行 監測   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   最大 累積 下陷 量 已 達 到 114.2 公分   地點 是 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   不過   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   高鐵 結構 安全 無虞     雲林縣 政府 水利 處處長 許 宏博 表示   雖然 相關 單位 持續 針對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 12 萬 6 千口   政府 不能 禁止 抽水   農民 灌溉 持續 抽水   地下水 補充 不及   當然會 持續 下陷     許 宏博 表示   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等 作物   還是 遇到 一些 瓶頸   由 於 雲林 農村 人力 嚴重 老化   許多 水田 都 是 代耕   老農 根本 無力 自行 耕種   但 旱田 卻 沒 代耕 行業   即使 水田 利潤 低   農民 無力 轉作  </t>
+          <t>〔 鐵道 局布 去年 高鐵 沿線 雲林 路段 不僅 持續 下陷 5.4 分且 累積 下陷 量 已 達 114.2 分全國 下陷 最 嚴重 雲林縣 政府 表示 沿途 現 12 萬 6 千口 灌溉 水井 政府 只能 加以 管制 不能 禁止 其繼續 抽水 地下水 入不敷出 自然 持續 下陷 高鐵司 從 2003 年 起委 託 學術 單位 每年 針對 高鐵 沿線 結構 墩 柱 地層下陷 進行 監測 去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共 8 處 下陷 量 從 2.6 分到 5.4 分 最大 累積 下陷 量 已 達 到 114.2 分地點 雲林縣 土庫鎮 台 78 線 與 高鐵 交界 處墩 柱 不過 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 都 仍 許範圍 高鐵 結構 安全 無虞 雲林縣 政府 水利 處處長 許 宏博 表示 雖然 相關 單位 持續 針對 地層下陷 進行 防治 但 雲林 高鐵 沿線 既 水井 擁 合法 水權 數量 多 達 12 萬 6 千口 政府 不能 禁止 抽水 農民 灌溉 持續 抽水 地下水 補充 不 當然會 持續 下陷 許 宏博 表示 縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等 作物 還 遇到 一些 瓶頸 由 於 雲林 農村 人力 嚴重 老化 許多 水田 都 代耕 老農 根本 無力 自行 耕種 但 旱田 卻 沒 代耕 行業 即使 水田 利潤 低 農民無力 轉作</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  </t>
+          <t>去年 再增 5.4 分   累計達 114.2 分   防治 卻 遇 瓶頸 〔 鐵道 局布 台灣 高鐵路 段 下陷 監測 報告 去年 雲林 路段 不僅 持續 下陷 五 ． 四分 且 累積 下陷 量 已 達 一一 四 ． 二分 全國 最高 雲林縣 政府 水利 處處長 許 宏博 表示 針對 高鐵 沿線 地層下陷 問題 中央 成立 跨部會 平台 進行 監控 整治 但 沿途 現 十二 萬 六千 口 灌溉 水井 政府 只能 管制 限制 其繼續 深挖 無權 禁止 使用 地下水 入不敷出 地層 自然 持續 下陷 地層下陷 遭遇 瓶頸 仍待 解決 12.6 萬口 灌溉 水井   無法 禁用 台灣 高鐵行經 彰化 雲林 嘉義 等 地層下陷區 高鐵司 從 二三年 起委 託 學術 單位 監測 最新 監測 報告 指出 去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處 最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段 高鐵 雲林 車站 區高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點 下陷 量 從 二 ． 六分 到 五 ． 四分 不等且 比 前年 增加 但 嘉義 卻 未 再 下陷 甚至 已連續 兩年 地層還 上升 與 土庫 台 78 線 交界 處   下陷 最多 監測 報告 指出 高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二分 地點 雲林縣 土庫鎮 台 七八 線 與 高鐵 交界 處 進行 改善 工程 後 墩 柱 差異 沉陷 量 逐年 降低 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 都 許範圍 高鐵 結構 安全 無虞許 宏博 表示 地層下陷 防治 工作 遭遇 瓶頸 雲林 高鐵 沿線 既 水井 擁 合法 水權 數量 多 達 十二 萬 六千 口 政府 不能 禁止 農民 抽水 何況 這更關 係 到 大約 十二 萬 六千 戶 農民計 農民持續 抽水 地層 自然 持續 下陷 輔導 水田 轉作 旱田   推動 不易 許 宏博 表示 一頃 水田 轉作 旱田 一年 可望 省下 八千 噸 灌溉水 縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等 但 雲林 農村 人力 嚴重 老化 種植 水田 老農無力 自行 耕種 多 數委 託 代耕 但 旱田 卻 沒 代耕 業 即使 水田 利潤 低 農民無力 轉作類 似 瓶頸 仍待 中央 統籌 解決</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">去年 高鐵 沿線 持續 下陷   路段 包括 彰化   雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   雲林縣 土庫 台 78 線 與 高鐵 交界 處   累積 下陷 量 達 到 114.2 公分   是 全國 下陷 最 嚴重 地方     鐵道局 土木 建築組 副 組長 謝炎廷 回應     這 路段 經由 高鐵 公司 施作 橋梁 預防性 改善 措施   以及 公路局 移除 台 78 號的 高 路堤 荷載   改以 鋼橋 行駛 型式 取代 之 後   經過 我們 長 期 追 蹤   沉陷 量 已 趨 於 穩定       雲縣 府 水利 處 表示   雖然 相關 單位 有針 對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 合法 水井 高達 12 萬 6 千口   政府 不能 禁止 抽水 只能 管理   加上 輔導 農民轉 旱作 出現 難題     雲縣 府 水利 處 技正 林昆賢 指出     水稻田 原則 上 來講   幾乎 百分之百 是 都 可以 機械 耕作   所以 它 人力 上 是 最 沒 問題   我們 要轉 旱作 時候   因為 各種 旱作 目前 來講   機械 跟 機械 耕作 比例   都 跟 水田 比起 來 都 很大 落差       水利 處 表示   要 輔導 高鐵 沿線 農民轉 旱作   除了 碰上 人力不足 問題   還 存在 產銷 失衡 情況   因農民若 旱作 只能 透過 契作   沒有 保價 機制   多少 降低 農民 轉作 意願   這些 問題還 有待 中央 統籌 解決  </t>
+          <t>去年 高鐵 沿線 持續 下陷 路段 包括 彰化 雲林 共 8 處 下陷 量 從 2.6 分到 5.4 分 雲林縣 土庫 台 78 線 與 高鐵 交界 處累積 下陷 量 達 到 114.2 分全國 下陷 最 嚴重 地方 鐵道局 土木 建築組 副 組長 謝炎廷 回應 「 這 路段 經由 高鐵司 施作 橋梁 預防性 改善 措施 以 路局 移除 台 78 號高 路堤 荷載 改以 鋼橋 行駛 型式 取代 之後經過 我們 長 期 追 蹤 沉陷 量 已 趨 於 穩定 」 雲縣 府 水利 處 表示 雖然 相關 單位 針對 地層下陷 進行 防治 但 雲林 高鐵 沿線 既 合法 水井 高達 12 萬 6 千口 政府 不能 禁止 抽水 只能 管理 加上 輔導 農民 轉旱 作出 現難題 雲 縣府 水利 處 技正 林昆賢 指出 「 水稻田 原則 上 來 講幾乎 百分之百 都 可以 機械 耕作 所以 它 人力 上 最 沒 問題 我們 要轉 旱作 時候 因為 各種 旱作 目前 來 講機械 跟 機械 耕作 比例 都 跟 水田 比起 來 都 很大 落差 」 水利 處 表示 要 輔導 高鐵 沿線 農民轉 旱作 除了 碰上 人力不足 問題 還存 產銷 失衡 情況 因 農民若 旱作 只能 透過 契作 沒保價 機制 多少 降低 農民 轉作 意願 這些 問題 還待 中央 統籌 解決</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察   草屯 淨水場 新建 工程     陳 建仁 提到   為 減緩 地層下陷   水利 署 推動   烏溪 鳥 嘴潭 人工湖 工程 計畫     以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 今年 3 月 27 日達 到 最大 設計 出水 功能   通過 每日 5 萬噸 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能體 現出 台灣 人民 不分 地區 互助 互惠 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 工作 量大增   承擔 很多 任務 與 責任   此外 台水 是 公司   接受 政府 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出     鳥 嘴潭 人工湖 工程 計畫   完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
+          <t>行政院 長 陳 建仁視察 草屯 淨水場 工程 台水 提供 〔 行政院 長 陳 建仁今 4 視察 「 草屯 淨水場 新建 工程 」 陳 建仁 提到 為 減緩 地層下陷 水利 署 推動 「 烏溪 鳥 嘴潭 人工湖 工程 計畫 」 以 地面水 取代 地下水 透過 台 水興建 之 草屯 淨水場 下游 自來 水管 線 每日 可供給 草屯 地區 4 萬噸潔淨 穩定 自來 水陳建仁 感謝 台水 讓 工程 提前 3 個 月 通水 草屯 淨水場 新建 工程 今年 3 月 27 日達 到 最大 設計 出水 功能 通過 每日 5 萬噸 供水 能力 測試 未來 完工 後 可 穩定 供水 台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度 珍珠 串計畫 更 能體 現出 台灣 人民 不分 地區 互助 互惠 團結 精神 經濟 部長 王美花 表示 110 年 百年 大旱 開始 全台 水利 建設 加深 加快 台水 與 水利 署 工作 量大增 承擔 很多 任務 與 責任 此外 台水司 接受 政府 挹注 較少 因此 特別 為 台水 爭取 80 億元 經費 讓 台水司 能 順利 執行 計畫 台水 董事 長 李嘉榮 指出 「 鳥 嘴潭 人工湖 工程 計畫 」 完成 後 可 供給 彰化 每日 21 萬噸 水量 草屯 每日 4 萬噸 水量 台水 共 投入 123.6 億經費 辦理 草屯 淨水場 鳥 嘴潭淨 水場 等 2 座淨 水場 並埋設 10 里 原水 導 水管 85 里 清水 送 水管 草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備 場區 綠化率 達 60% 友善 環境 並採用 減少 電力 動能 之 設計 以達淨 零 轉型 之目 標並 重建 七支 圳 圳 路 與 地 農民 共存 共榮 一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">因應 極端 氣候   水利 署 投入 123.6 億元展 開   鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫     包括 6 座 人工 蓄水池 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 能 同享 量 好質 優 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定   雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫   中 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投縣 自來 水 普及率 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投縣 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投縣 用水 問題  </t>
+          <t>因應 極端 氣候 水利 署 投入 123.6 億元展 開 「 鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫 」 包括 6 座 人工 蓄水池 草屯 鳥 嘴潭 2 座淨 水場 鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸 其中 彰化 7 萬噸 南投 2 萬噸 草屯 淨水場 今年 3 月 27 日 正式 完工 出水 總 供水量 提升 到 每日 14 萬噸 並持續 推動 鳥 嘴潭淨 水場 工程 預計 2025 年底 可達 日供 25 萬噸 目標 4 萬噸 供 草屯 21 萬噸 供 彰化 地區 使用 陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程 立委 馬 文君 游顥 等 均 到 場王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助 盼 讓 偏鄉 地區 鄉 親能 同享 量 好質 優水 資源 他 並建議 鳥 嘴潭 人工湖 周遭 可 執行 綠毯計 畫持續 綠 美化 取得 民眾 對 水庫 建設 喜愛陳建仁 說 烏溪 鳥 嘴潭 人工湖 計畫 政府 核定 「 雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫 」 中 重大 建設 之一 草屯 淨水場 為 其中 一環 3 月 已 達 最大 設計 出水 功能 通過 5 萬 CMD 立方 每日 能力 測試 比原 期程 提早 3 個 月 相信 未來 完工 後 定能 穩定 供 應質 優量 足 水資源 進 一步 帶動 地方 發展 游顥會 後 指出 南投縣 水源 長 期不斷 供給 外縣 市 居民 使用 但 南投縣 自來 水普率 水管 汰 舊換 新 都 需要 中央 支持 草屯 淨水廠 應 優滿足 南投縣 用水 需求 剩餘 供水量 再 調度 給外 縣市 才能 實際 解決 南投縣 用水 問題</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 產業 發展區   整體 需水量 不斷 增加   造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投縣 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投縣 民 配合 政府 政策   但 南投縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 能 喝 到 量 好質 優 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒   珍珠 串     讓 台灣 水資源 調度 更好   顯示 台灣 人民 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   會 持續 綠 美化   變成 南投 新 觀光 地標     立委 游顥 說   南投縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 立法院 繼續 爭取   希望 行政院 重視 南投 用水 問題  </t>
+          <t>烏溪 鳥 嘴潭 人工湖 中部 地區 最 重要 水利 計畫 總 蓄水量 1450 萬 立方 目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸 等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工 可達 到 最大 每日 25 萬噸 供水量 陳 建仁 經濟 部長 王美花 今天 視察 草屯 淨水場 自來 水司 董事 長 李嘉榮 簡報 中部 地區 供水 面臨 極端 氣候 響產業 發展區 整體 需水量 不斷 增加 造成 雲彰 地區 超 抽 地下水 地層下陷 鳥 嘴潭 人工湖 可 增加 供水 並 改善 地層下陷 問題 人工湖 已蓄 滿 5 個 湖區 C 湖區 預計 5 月底 蓄滿 台水 負責 下游 自來 水 供水 計畫 包含 草屯 鳥 嘴潭 兩座 淨水場 10 里 原水 導 水管 工程 已 完工 總長 85 里 送 水管 聯絡管 工程 已 完成 54 里 草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水 王 瑞德 說 南投縣 集集 攔河堰 湖山 水庫 鳥 嘴潭 人工湖 都 供應 下游 彰化 雲林 使用 南投縣 民 配合 政府 政策 但 南投縣 偏鄉 沒 自來 水且 自來 水延長 管線 成本 高 南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上 只能 開闢 簡易 自來 水響 鄉親 健康 希望 中央 能 重視 南投 自來 水管 線延管 工程 或 加大 簡易 自來 水補助 讓 南投 鄉親 能 喝 到 量 好質 優自來 水陳建仁 說北 從 翡翠 水庫 石門 水庫 一路下 來 這些 水庫 形成 一粒 粒 「 珍珠 串 」 讓 台灣 水資源 調度 更好 顯示 台灣 人民 慈悲 善良 願意 彼此 幫忙 互相 援助 鳥 嘴潭 人工湖 除了 供應 民用 水會 持續 綠 美化 變成 南投 新觀光 地標 立委 游顥 說 南投縣 水源 供應 彰化 雲林 地區 使用 但 行政院 對 南投 回饋 協助 不足 王 瑞德 副 縣長 當場 反映 自來 水普率 水管 汰 舊 換性 草屯 地區 東 八里 4800 戶水員供 應 不足 但陳院 長 沒 回應 他 會 立法院 繼續 爭取 希望 行政院 重視 南投 用水 問題</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 公寓   10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋   建商 本來 願意 賠償 2 百多 萬元 修繕   但給 了 錢 後   屋主 指控 建商 拿到 使用 執照 開始 反悔   還告 10 戶 屋主 不當 得利   其中 被告 還有 13 歲 少年   但 建商 說 大樓 地下室 開挖 已經 超過 三年   經過 土木 技師 公會 鑑定 沒有 損鄰   將訴諸 法律 拿 回不應 該給 賠償 金     寶特瓶 放在 地上   馬 上 滾 到 另 一邊   屋主 楊力 欽     這邊 是 整個 傾斜   因為 鑑定 報告 寫 說   它 高低 層 落差       屋主 指控   是 打 開後門 緊鄰 這棟 新蓋 大樓 害   屋主 楊力 欽     它 還是 漏水   止住 可是 好像 過幾個 月過 後   又 開始 水 跑 出來       新大樓 蓋 老舊 房子 中間   後 方 這一棟 舊型 公寓 總共 10 戶   施工 時 造成 鄰房 損壞   損壞 民宅 屋主 指控   建商 說 好 要給 總共 2 百多 萬 為 鄰 損修 復 費用   但是 建商 拿到 使用 執照後馬 上 反悔   還告 10 戶 住家 不當 得利     屋主 楊力 欽     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   透過 法律 去 看 說   這個 合約 書無效   這個 鑑定 無效   而是 使用 執照 之 後   告 我們 12 位 所有 權人   最小 13 歲 年 長 者 71 歲       因為 地下水 修繕   地 下陷 問題 得 補救   2 百多 萬 修繕 費先 撥給 其中 一戶   現在 10 戶 屋主 全 被告 不當 得利   氣炸開 記者 會     不過 建商 說 大樓 地下室 開挖 至今   已經 超過 3 年   經過 土木 技師 公會 鑑定 沒有 損鄰   堅持 要求 拿 回 2 百多 萬修繕 賠償 金   因為 蓋大樓 建商 附近 住戶 互槓   雙方 都 指控 對方 不公   還有 得 吵  </t>
+          <t>高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 寓 10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋 建商 本來 願意 賠償 2 百多 萬元 修繕 但給 了 錢 後 屋主 指控 建商 拿到 使用 執照 開始 反悔 還告 10 戶 屋主 不當 得利 其中 被告 還 13 歲 少年 但 建商 說 大樓 地下室 開挖 已經 超過 三年 經過 土木 技師會 鑑定 沒損 鄰將 訴諸 法律 拿 回 不 應該 給 賠償金 寶特瓶 放 地上 馬上 滾到 另 一邊 屋主 楊力 欽 「 這邊 整個 傾斜 因為 鑑定 報告 寫 說 它 高低層 落差 」 屋主 指控 打開 後 門緊 鄰 這棟 新蓋 大樓 害 屋主 楊力 欽 「 它還 漏水 止住 可 好像 過幾個 月過 後 又 開始 水 跑 出來 」 新大樓 蓋 老舊 房子 中間後方 這一棟 舊型 寓 總共 10 戶 施工 時 造成 鄰房 損壞 損壞 民宅 屋主 指控 建商 說 好 要給 總共 2 百多 萬為 鄰 損修 復 費用 但 建商 拿到 使用 執照 後 馬上 反悔 還告 10 戶 住家 不當 得利 屋主 楊力 欽 「 既然 不承 認話 為 什麼 當初 不 直接 訴諸 法律 透過 法律 去 看 說 這個 合約 書無效 這個 鑑定 無效 而 使用 執照 之後告 我們 12 位所權 人 最小 13 歲 年 長 71 歲 」 因為 地下水 修繕 地 下陷 問題 得 補救 2 百多 萬修繕 費撥給 其中 一戶現 10 戶 屋主 全 被告 不當 得利 氣炸 開會 不過 建商 說 大樓 地下室 開挖 至今 已經 超過 3 年 經過 土木 技師會 鑑定 沒 損鄰 堅持 要求 拿 回 2 百多 萬修繕 賠償金 因為 蓋大樓 建商 附近 住戶 互槓 雙方 都 指控 對方 不 還得 吵</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">住戶 拿 寶特瓶 平放   立即 滾去 較 低 地方   證明 地面 傾斜   牆上 有明 顯裂 縫   多次 修補 依然 出現     住戶 指控 自從 2019 年 11 月 開始   旁邊 大樓 興建 就 發現 他們 公寓 牆面 漏水   龜裂 還有 地層下陷   後 續 與 開遠 建設 協調   同意 透過 台中市 土木 技師 公會 鑑定     但 住戶 指控   公會 4 次 鑑定 確認 鄰損   建商 依法 賠償 修繕 費及 法定 4 成 加成 費用 224 萬   近日 卻 反 被 建商 提告 不當 得利     鄰損 住戶 代表 楊 質疑     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   由 法律 來 去 判說 這個 合意 書無效   這個 鑑定 無效   而是 取得 使用 執照 之 後   反告 我 這 12 位 房屋 所有 權人       住戶 代表 楊 說   此案 因為 建商 被 市府 列管   建商 解除 列管 拿到 建照 後 就 不 認帳   反告 他們 不當 得利   使得 鄰近 10 戶   12 名 房屋 所有 權人 都 被告   不能 接受 當初 協調 找 公正 單位 鑑定   建商 卻 不認   還找 來 不是 雙方 都 同意 單位 檢驗     民進 黨 高雄市 議員 鄭光峰 說 道     創下 台灣 建 商史 上 第一 個   跟 人家 鄰損 之後又告 人家       對此 建商 不 受訪   只 透過 文字 聲明 表示   建案 地下室 開挖 3 年 多   不會 因地質 問題 損害 鄰房   而且 經過 台灣 省 土木 技師 公會 鑑定 沒 鄰損 事情   鄰房 很多 是 屋齡 要 40 年 老 公寓   違法 增建 防火巷   卻 仍然 企圖 向 本 公司 要求 高額 賠償   本案 進入 司法   等待 判決   強調 損害 公司 名譽   會 依法 捍衛 權益  </t>
+          <t>住戶 拿 寶特瓶 平放 立即 滾去 較 低 地方 證明 地面 傾斜 牆 上明 顯裂 縫 多次 修補 依然 出現 住戶 指控 自從 2019 年 11 月 開始 旁邊 大樓 興建 就 發現 他們 寓 牆面 漏水 龜裂還 地層下陷 後 續 與 開遠 建設 協調 同意 透過 台中市 土木 技師會 鑑定 但 住戶 指控 會 4 次 鑑定確 認鄰 損建商 依法 賠償 修 繕費 法定 4 成 加成 費用 224 萬 近日 卻 反 被 建商 提告 不當 得利 鄰損 住戶 代表 楊質疑 「 既然 不承 認話 為 什麼 當初 不 直接 訴諸 法律 由 法律 來 去 判說 這個 合意 書無效 這個 鑑定 無效 而 取得 使用 執照 之 後 反告 我 這 12 位 房屋 所權 人 」 住戶 代表 楊說 此案 因為 建商 被 市府 列管 建商 解除 列管 拿到 建照 後 就 不 認帳 反告 他們 不當 得利 使得 鄰近 10 戶 12 名 房屋 所權 人 都 被告 不能 接受 當初 協調 找 正 單位 鑑定 建商 卻 不 認還 找 來 不 雙方 都 同意 單位 檢驗民 進黨 高雄市 議員 鄭光峰 說 道 「 創下 台灣 建 商史 上 第一 個 跟 人家 鄰損 之後又告 人家 」 對此 建商 不 受訪 只 透過 文字 聲明 表示 建案 地下室 開挖 3 年 多 不會 因地質 問題 損害 鄰房 而且 經過 台灣 省 土木 技師會 鑑定 沒 鄰損 事情 鄰房 很多 屋齡 要 40 年老 寓 違法 增建 防火巷 卻 仍然 企圖 向 本司 要求 高額 賠償 本案 進入 司法 等待 判決 強調 損害 司名 譽會 依法 捍衛 權益</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重     雲林縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服       雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應     許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外       水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
+          <t>根據 環境 部國 科會 報告 指出 若 全球 暖化 未來 無法效 控制 增溫 未來 海平面 上升 會 再 造成 海岸 溢淹 又 以 雲林 最 嚴重 雲林縣 水利 處長 許 宏博 提 「 以大數 據 來 看 幾 十年 可能 就 只 上升 1 到 2 分相 對 地層下陷 因素 這 可能 較小響 程度 不過 因應 整個 地層下陷 或 海洋 暖化 海平面 上升 這 雲林縣 必須 去 克服 」 雲縣 府 水利 處 表示 除暖化響 海岸 溢淹 面積 雲林縣 面對 最大 危機 地層下陷 1 年陸 地區 平均 5 至 6 分 下陷 沿海 地區 平均 2 至 3 分 下陷 現針 對 四湖 箔子 寮 漁港 提出 因應許 宏博 說明 「 較 低 地方 我 就 會 蓋 一個 類似 牆然後去 墊 高 讓 它們 潮位 來時 不會溢到 陸裡面 都 擋 防潮 牆 之外 」 水利 處 表示 若 海平面 上升 淹 水面 積 自然 加大 經盤點 雲林 四湖 箔子 寮 漁港 比較 危急 去年 9 月經 中央 地方 共同 會勘 後 將花 3500 萬元 加高 碼頭 港岸 以防 海水 再 入侵 整個 工程 預計 再 半年 可 完工</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 環境部   國科會 發布 全球 暖化 若 未來 無法 有效 控制 增溫   台灣 夏天 可能 長 達 7 個 月   海平面 上升 會 造成 海岸 溢淹 面積 增加   其中 以 雲林 溢淹 面積 增加 最顯 著   對 此雲縣 府 水利 處 表示   除了 暖化 影響   地層下陷 是 影響 主因   目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫   雲林縣 最大 箔子 寮 漁港   去   2023   年 8 月 發生 嚴重 海水倒灌   整座 漁港 幾乎 都 被淹 沒   甚至 危及 近鄰 村落   根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重   雲林縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服     雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應   許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外     水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
+          <t>根據 環境 部國 科會 發布 全球 暖化 若 未來 無法效 控制 增溫 台灣 夏天 可能 長 達 7 個 月 海平面 上升 會 造成 海岸 溢淹 面積 增加 其中 以 雲林 溢淹 面積 增加 最顯 著 對 此雲縣 府 水利 處 表示 除了 暖化響 地層下陷 響 主因 目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫 雲林縣 最大 箔子 寮 漁港 去 2023 年 8 月 發 嚴重 海水倒灌 整座 漁港 幾乎 都 被淹 沒 甚至 危近 鄰 村落 根據 環境 部國 科會 報告 指出 若 全球 暖化 未來 無法效 控制 增溫 未來 海平面 上升 會 再 造成 海岸 溢淹 又 以 雲林 最 嚴重 雲林縣 水利 處長 許 宏博 提 「 以大數 據 來 看 幾 十年 可能 就 只 上升 1 到 2 分相 對 地層下陷 因素 這 可能 較小響 程度 不過 因應 整個 地層下陷 或 海洋 暖化 海平面 上升 這 雲林縣 必須 去 克服 」 雲縣 府 水利 處 表示 除暖化響 海岸 溢淹 面積 雲林縣 面對 最大 危機 地層下陷 1 年陸 地區 平均 5 至 6 分 下陷 沿海 地區 平均 2 至 3 分 下陷 現針 對 四湖 箔子 寮 漁港 提出 因應許 宏博 說明 「 較 低 地方 我 就 會 蓋 一個 類似 牆然後去 墊 高 讓 它們 潮位 來時 不會溢到 陸裡面 都 擋 防潮 牆 之外 」 水利 處 表示 若 海平面 上升 淹 水面 積 自然 加大 經盤點 雲林 四湖 箔子 寮 漁港 比較 危急 去年 9 月經 中央 地方 共同 會勘 後 將花 3500 萬元 加高 碼頭 港岸 以防 海水 再 入侵 整個 工程 預計 再 半年 可 完工</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  </t>
+          <t>[   泰國以 觀光業 聞名 不少 觀光客 都 會 造訪 首都 曼谷 Bangkok 然而 全球 暖化 問題 加劇 導致 海平面 不斷 上升 泰國 氣候變遷 辦室 評估 曼谷 本世紀 末 恐 被 海 水淹 沒為 了 避免 曼谷 成為 「 海底 之 城 」 泰國 官方 為此 考慮 遷都 不過 目前 仍處 於 假 設階段 根據 新加坡 亞洲 新聞台 等 外 媒報 導泰國 首都 曼谷 過往 雨季 時 經常 飽受 洪水 問題 困擾 天災 一直 政府 頭痛 議題 隨著 曼谷 人口 已破千萬 加上 全球 暖化 趨勢 專家 示警 因為 海平面 不斷 上升 曼谷 恐 21 世紀 結束 前 遭海 水淹 沒根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇 Pavich   Kesavawong 警告 曼谷 可能 無法 適應 當前 全球 暖化 趨勢 「 全球 暖化 已經 超過 氏 1.5 度 如果 我們 繼續 保持 當前 趨勢 曼谷 大概 會 被淹 沒 」 他 透露 關於 首都 曼谷 面臨 氣候 危機 政府 正 研究 因應 措施 像 參考 歐洲 著名 低地國 荷蘭 藉由 興建 堤防 方式 來 防堵 海水倒灌 同時 當局將 「 遷都 」 納入 計畫 之中 這並 非泰國 首次 提出 遷都 前首相 帕拉 育位 時 曾 提出 同樣 建議 2019 年時 這位 前 總理 「 泰國 與 世界 相連大會 」 Connecting   Thailand   with   the   World   Conference 拋出 遷都 議題 藉此 因應 曼谷 海平面 上升 以 交通 壅塞 環境 汙染 人口 過度 稠密 問題 針對 遷都 議題 帕維奇 提到 這 部分 牽涉 問題 太過 複 雜 因此 仍 初期 假設 階段 除了 泰國 打算 遷都 目前 東南亞 計劃 遷都 國家 就 緬甸 當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 里奈比 多 Naypyidaw 此外 印尼 首都 雅加 達 Jakarta 因為 面臨 人口 過剩 環境 污染 於 交通 壅塞 地層下陷 等 危機 預計 今年 正式 「 遷都 」 至婆羅洲 島東 加里曼丹 省 East   Kalimantan 新 首都 名為 「 努山 塔拉 」 Nusantara 印尼 語中 「 群島 」 之意 不過 高達 350 億 美元 遷都 計畫備 受爭議</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>印尼 打算 遷移 首都   因為 目前 首都 雅加 達   問題 一籮 筐   除了 人口 過度 密集   引發   城市 汙染   之外   當地 還是   全球   地層下陷 最快   都市   當局 計畫   兩年 就要 新 首都   努山 塔拉   蓋好 機場   各項 新建 設   讓 不少台 廠 嗅到 商機   來 看到 鏡新聞 記者 從 印尼 帶來 第一手 觀察       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   reurl . cc kqyqML   鏡新聞 APP   Android 👉 https   reurl . cc Ay2y63   有話 鏡來講 YT 👉 https   reurl . cc A4DjQj   少年 新聞 週記 YT 👉 https   reurl . cc K4DeN9</t>
+          <t>印尼 打算 遷移 首都 因為 目前 首都 雅加達 問題 一籮 筐 除了 人口 過度 密集 引發 「 城市 汙染 」 之外 當地還 全球 「 地層下陷 最快 」 都市 當局 計畫 兩年 就要 新 首都 努山 塔拉 蓋好 機場 各項 新建 設讓 不少台 廠 嗅到 商機來 看到 鏡新聞 從 印尼 帶來 第一手 觀察   鏡新聞 已 上架 86 台若 無法 收看 請 洽詢 當地系 統台   鏡新聞 APP   iOS 👉 httpsreurl . cckqyqML   鏡新聞 APP   Android 👉 httpsreurl . ccAy2y63   話鏡 來講 YT 👉 httpsreurl . ccA4DjQj   少年 新聞週 YT 👉 httpsreurl . ccK4DeN9</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">科技 大亨 馬 斯克   Elon   Musk   今天   5 19   抵達 印尼 峇里島   將與 印尼 總統 佐科威   Joko   Widodo   一起 參加 星鏈   Starlink   網路 服務 啟用   印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   政府 希望 星鏈 能夠 提高 各島嶼 網路 普及 度   這是 印尼 一個 月 迎接 第 3 名 科技 企業 執行長   此前 蘋果   微軟 執行長 都 已來訪     綜合 路透社 與 美聯社 報導   太空 科技 公司 SpaceX 執行長 馬 斯克 今天 搭乘 私人 飛機 抵達 印尼 峇里島 機場   印尼 首席 投資部長 盧胡特   Luhut   Binsar   Pandjaitan   機場 迎接   預計 兩人 將會 討論 一些 重要 合作   包含 星鏈 服務 啟動   馬 斯克 還會 簽署 一項 協助 印尼 加強 衛生 與 教育 單位 聯絡 互通 合約     盧胡特 表示   馬 斯克 今天 稍晚 將和 印尼 總統 佐科威 一起 峇里島 首府 登巴薩   Denpasar   社區 衛生 中心 一起 啟動 星鏈   盧胡特 說   衛生 機構 啟動 這項 服務   呼應 星鏈   提供 平價 高速 網路   宗旨   尤其 是 網路 收訊 不佳 或過 於 偏遠 地區     印尼 是 個 群島 國家   約 1.7 萬座 島嶼   橫跨 3 個 時區   人口 超過 2.7 億   盧胡特 說   印尼 偏鄉 需要 星鏈 來 拓展 高速 網路   尤其 是 要 用 來 解決 衛生   教育 海事 單位 問題     印尼 通訊 部長 布迪   Budi   Arie   Setiadi   上週 表示   星鏈 已經 獲得 印尼 營運許 可   布迪 強調   星鏈 低 軌衛星 可以 讓 網路 擴及 目前 印尼 通訊 商無法 到 達 地區     據報   位 於 印尼 婆羅洲   Borneo   新 首都 努山 塔拉   Nusantara   本月 將先 試用 星鏈   8 月 正式 上線   印尼 正準備 遷都 努山 塔拉   因為 受 海平面 上升 與 地層下陷 影響   預計 目前 首都 雅加 達 大部分 地區將 2050 年 被淹 沒     印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   馬 來 西亞 去年 已核 發許 可證 給營 運星鏈 SpaceX 公司   菲律賓 一家 公司 則是 2022 年 與 SpaceX 簽約 合作     馬 斯克訪 印尼 前   蘋果 公司 執行長 庫克   Tim   Cook   4 月 17 與 印尼 總統佐科 威會面   並 表示 會將 印尼 產能 納入 考慮   兩周 後   微軟 執行長 納 德拉   Satya   Nadella   同月 30 日訪 印尼   承諾 未來 4 年 印尼 投資 17 億 美元   強化 印尼 新雲端 運算 與 人工智慧 基礎 設施     馬 斯克 此次 訪 峇里島   將參加 第十 屆 世界 水論壇   World   Water   Forum     研討 全球 水資源 衛生 挑戰  </t>
+          <t>科技 大亨 馬 斯克 Elon   Musk 今天 519 抵達 印尼 峇里島 將與 印尼 總統 佐科威 Joko   Widodo 一起 參加 星鏈 Starlink 網路 服務 啟用 印尼 將東 南亞 第三 個 使用 星鏈 服務國家 政府 希望 星鏈 能夠 提高 各島嶼 網路 普度 這 印尼 一個 月 迎接 第 3 名 科技 企業 執行長 此前 蘋果 微軟 執行長 都 已來訪 綜合 路透社 與 美聯社 報導 太空 科技司 SpaceX 執行長 馬 斯克 今天 搭乘 私人 飛機 抵達 印尼 峇里島 機場 印尼 首席 投資部長 盧胡特 Luhut   Binsar   Pandjaitan 機場 迎接 預計 兩人 將會 討論 一些 重要 合作 包含 星鏈 服務 啟動馬斯克 還會 簽署 一項 協助 印尼 加強衛 與 教育 單位 聯絡 互通 合約 盧胡特 表示 馬 斯克 今天 稍晚 將 印尼 總統 佐科威 一起 峇里島 首府 登巴薩 Denpasar 社區衛 中心 一起 啟動星 鏈盧 胡特 說 衛機構 啟動 這項 服務呼 應星鏈 「 提供 平價 高速 網路 」 宗旨 尤其 網路 收訊 不佳 或過 於 偏遠 地區 印尼 個 群島 國家 約 1.7 萬座 島嶼 橫跨 3 個 時區 人口 超過 2.7 億盧 胡特 說 印尼 偏鄉 需要 星鏈 來 拓展 高速 網路 尤其 要用 來解 決衛 教育 海事 單位 問題 印尼 通訊 部長 布迪 Budi   Arie   Setiadi 上週 表示 星鏈 已經 獲得 印尼 營運許 可布迪強 調星鏈 低 軌衛星 可以 讓 網路 擴 目前 印尼 通訊 商無法 到 達 地區 據 報位 於 印尼 婆羅洲 Borneo 新 首都 努山 塔拉 Nusantara 本月 將試 用 星鏈 8 月 正式 上線 印尼 正準備 遷都 努山 塔拉 因為 受 海平面 上升 與 地層下陷 響 預計 目前 首都 雅加 達 大部分 地區將 2050 年 被淹 沒 印尼 將東 南亞 第三 個 使用 星鏈 服務國家馬來 西亞 去年 已核 發許 可證 給營 運星鏈 SpaceX 司菲律賓 一家 司則 2022 年 與 SpaceX 簽約 合作 馬 斯克訪 印尼 前 蘋果司 執行長 庫克 Tim   Cook4 月 17 與 印尼 總統佐科 威會 面並 表示 會將 印尼 產能 納入 考慮 兩 周後微 軟 執行長 納 德拉 Satya   Nadella 同月 30 日訪 印尼 承諾 未來 4 年 印尼 投資 17 億 美元 強化 印尼 新雲端 運算 與 人工智慧 基礎 設施馬斯克 此次 訪 峇里島 將參加 第十 屆 世界 水論壇 World   Water   Forum 研討 全球 水資源衛 挑戰</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   花蓮市 名店   歪 歪歪 甜點     南京 街 店面 竟 被後方 建案   廣朋   建設 公司 以修繕 名義 直接 將廁 所 拆除   業者 忍無可忍 報警 處理   而廣朋 於 建設 新大樓 過程 當中 造成 鄰損 不 只 這一樁   一名 A 房屋 剛好位 基地 旁邊   房屋 早已 因 地層下陷 而 硬生生 斷成 兩截   而廣朋 不但 試圖將 相關 損害 歸咎 於 地震   且 只 買 了 一個 大 水桶 讓 住 戶接 漏水   讓 住戶 完全 無法 接受     A 帶著 本刊 記者 實際 走 進屋   儘 管 該 棟 房屋 為 老舊 3 層 透天   但 屋內 深度 相當 深   穿越 車庫 進入 客廳 後 可以 明顯 感覺 地層 已 下陷   腳下 磁磚 碎裂   屋主 已 鋪 上 軟 墊   避免 踩 上面 時 受傷     A 拿出 一顆 乒乓球 放在 地面 測試 屋內 地板 磁磚 水平   且 明顯 看見 本該 靜止 乒乓球 滾動   證明 地面 出現 傾斜   A 憤怒 表示     這些 損害 早 0403 大 地震 前 就 已經 發生   廣朋還 試圖 想要 將責任 全部 歸咎 地震 上       A 帶著 記者 穿越 客廳 進入 一樓後方 臥室   不但 明顯 感受 到 地面 傾斜   地上 更裂 出 一條 又 深 又 長 裂縫   一路 到 房屋 正後方   而後方 因 房屋 管線 受損 嚴重 已 無電力 照明   A 隨手 拿 起 一條 目測 至少 約 1 公尺 長 木棍   直接 插 進裂 開 縫 中   他 裂縫 中 攪動 木棍 表示     這裂 縫 寬度 至少 約 5 公分   而 這根 木棍 甚至 還沒 到底   跟 我 說 這叫 地震 造成       走上 2 樓   由 於 房屋 後 半段 傾斜   門框 早已 變形 無法 關上   管線 被 嚴重 破壞   不但 沒有 電力 照明   水還 從 四面八方 滴滴答答 滲出   A 說   這樣 到底 要 怎麼 住   而 廣朋所 事 就是   買 了 一個 大 水桶 要 我們 接 漏水       當地 主商里 里 長 廖大慶 5 月 22 日 帶 著 縣府 與 市公所 人員 前往 工地 會勘   廖大慶 比著 工地 一旁 柏油路 上 明顯 裂痕 與 民宅 地板 明顯 落差 表示     這 不是 地層下陷 是 什麼     廣朋 李姓 協理則 表示   柏油路 裂痕 已有 補過   但 主要 應是 3   40 噸 重機具 每天 這裡 進出 所導致   里長 吐 槽 表示     不要 跟 我 說 是 重機具   那為 什麼 只有 工地 這 一段 出現 裂痕 下陷   工地 前 後 柏油路 都 沒 裂開     場面 一度 相當 火爆     22 日 會勘 住 戶 對 建商 一片 罵聲 中 暫時 落幕   花蓮縣 議員 吳東 昇 居中 協調   廣朋 初步 承諾會 先將 裂開 下陷 馬 路 進行 修繕   以維護 公共安全   至於 與 住 戶 所 造成 鄰損 等 狀況   雙方遲 遲無法 達 成共識   因此 相關 損害 修 復 恐怕 還有 得 吵     廣朋總 公司 位 於 台北 市長 安東路   其 於 104 上 敘述 自稱 成立 20 年來 擁有 專業 建築 團隊   除 專注 北市 市中心 精華區 興建 精 緻 住宅   同時 將建築 領域 開發 至 花蓮市   台南 與 高雄   同時 更是 ViVi   PARK 停車 品牌 經營者     但 廣朋在 2017 年 時 與 台灣 知名 視障 慢跑 者     台灣 阿甘   之稱 張文彥 發生 租屋 糾紛   張文彥 向 廣朋租 店面 開設 視障 健康 按摩 養生會館   但 廣朋 卻 將停 車場 以金 店面 名義 承租 給張 文彥   並 要求 提前 解約   甚至 將 店面 大門 以鐵片 封死   搬 2 塊 巨石 擋住 大門   被 批 手段 惡劣   而前 台北市 議員 黃 向 羣 曾 被 周刊 踢 爆   其為 北捷 萬大線   捷七聯 開案   地主 拒絕 加入 聯合 開發 一事   以 優先 投資權   開發 獲利 超過 13 億元 吸引 地主 找廣朋 合作   以此 收取 6500 萬元 顧 問費   造成 地主 200 坪 土地 被 納入 聯開   市價 5 億 多元 土地 僅能 拿 回 1 億餘元     對此   本刊 兩度致 電向位 北市 廣朋總 公司 詢問   該 公司 接線 人員 表示 對 此事 不 了解   並說 公司 沒 有人 可 代表 對外 說明   就 將電話 掛斷   不再 回應  </t>
+          <t>[   花蓮市 名店 「 歪 歪歪 甜點 」 南京街 店面 竟 被後方 建案 「 廣朋 」 建設 司以 修繕 名義 直接 將廁 所 拆除 業忍 無 可忍 報警 處理 而 廣朋 於 建設 新大樓 過程 當中 造成 鄰損 不只 這一樁 一名 A 房屋 剛好 位 基地 旁邊 房屋 早已 因 地層下陷 而 硬斷 成 兩截 而 廣朋 不但 試圖將 相關 損害 歸咎 於 地震 且 只 買 了 一個 大 水桶 讓 住 戶接 漏水 讓 住戶 完全 無法 接受 A 帶著 本刊 實際 走 進 屋 儘 管 該 棟 房屋 為 老舊 3 層 透天 但屋 深度 相當 深 穿越 車庫 進入 客廳 後 可以 明顯 感覺 地層 已 下陷 腳下 磁磚 碎裂 屋主 已 鋪 上 軟 墊 避免 踩 上面 時 受傷 A 拿出 一顆 乒乓球 放 地面 測試 屋 地板 磁磚 水平 且 明顯 看見 本該 靜止 乒乓球 滾動 證明 地面 出現 傾斜 A 憤怒 表示 「 這些 損害 早 0403 大 地震 前 就 已經 發廣朋 還試 圖 想要 將責任 全部 歸咎 地震 上 」 A 帶著 穿越 客廳 進入 一樓後方 臥室 不但 明顯 感受 到 地面 傾斜 地上 更裂 出 一條 又 深 又 長 裂縫 一路 到 房屋 正後方 而後方 因 房屋 管線 受損 嚴重 已 無電力 照明 A 隨手 拿 起 一條 目測 至少 約 1 長 木棍 直接 插 進裂 開縫 中 他 裂縫 中 攪動 木棍 表示 「 這裂 縫 寬度 至少 約 5 分而 這根 木棍 甚至 還沒 到底 跟 我 說 這叫 地震 造成 」 走上 2 樓 由 於 房屋 後 半段 傾斜門 框 早已 變形 無法 關上 管線 被 嚴重 破壞 不但 沒電力 照明 水還 從 四面八方 滴滴答答 滲出 A 說 「 這樣 到底 要 怎麼 住 而 廣朋所事 就 買 了 一個 大 水桶 要 我們 接 漏水 」 當 地主 商里里長 廖大慶 5 月 22 日帶 著 縣府 與 市 所人員 前往 工地 會勘 廖大慶 比著 工地 一旁 柏油路 上明顯 裂痕 與 民宅 地板 明顯 落差 表示 「 這不 地層下陷 什麼 」 廣朋 李姓 協理則 表示 柏油路 裂痕 已補過 但 主要 應 340 噸重 機具 每天 這裡 進出 所導 致里長 吐 槽 表示 「 不要 跟 我 說 重機 具為 什麼 只 工地 這 一段 出現 裂痕 下陷 工地 前 後 柏油路 都 沒裂 開 」 場面 一度 相當 火爆 22 日 會勘 住戶 對 建商 一片 罵聲 中 暫時 落幕 花蓮縣 議員 吳東 昇 居中 協調 廣朋 初步 承諾會 將裂 開 下陷 馬 路 進行 修繕 以維護 共 安全 至於 與 住 戶 所 造成 鄰損 等 狀況 雙方遲 遲無法 達 成共識 因此 相關 損害 修 復 恐怕 還得 吵 廣朋總司 位 於 台北市 長安東路 其 於 104 上 敘述 自稱 成立 20 年 來 擁 專業 建築 團隊 除 專注 北市 市中心 精華區 興建 精 緻 住宅 同時 將建築 領域 開發 至 花蓮市 台南 與 高雄 同時 更 ViVi   PARK 停車 品牌 經營 但 廣朋 2017 年 時 與 台灣 知名 視障 慢跑 「 台灣 阿甘 」 之稱 張文彥 發 租屋 糾紛 張文彥 向 廣朋租 店面 開設 視障 健康 按摩 養會館 但 廣朋 卻 將停 車場 以金 店面 名義 承租 給張 文彥並 要求 提前 解約 甚至 將 店面 大門 以鐵片 封死 搬 2 塊 巨石 擋住 大門 被 批 手段 惡劣 而 前 台北市 議員 黃 向 羣 曾 被 周刊 踢 爆其為 北捷 萬大線 「 捷七聯 開案 」 地主 拒絕 加入 聯合 開發 一事 以優 投資權 開發 獲利 超過 13 億元 吸引 地主 找廣朋 合作 以此 收取 6500 萬元顧 問費 造成 地主 200 坪 土地 被 納入 聯開 市價 5 億 多元 土地 僅能 拿 回 1 億餘元 對 此 本刊 兩度致 電向位 北市 廣朋總司 詢問 該司 接線 人員 表示 對 此事 不 了解 並說司 沒人 可 代表 對外 說明 就 將電話 掛斷 不再 回應</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">江慶賢 指出   近一個 月 立信 街   信街   自強 街 附近 住戶   不斷 反映 水壓 不足   很多 里民因 為 抽 不到 水   馬 達 都 燒壞 了   他 向 自來 水 公司 反映   水 公司 一開始 堅持 水壓 供水 都 正常   最後才 說 水管 破裂   今天 要來 修理     今   5   日 早上 江慶賢還 沒 等到 水 公司 工程 人員   就 接到 里民通報   指立 中 六街 出現 天坑   他 跑 到 現場   見 到 一部 工程 車右後輪 將馬路 壓出 一個 洞   怪手 正在 協助 工程 車脫 困   幸好 沒人 傷亡   但馬路 破洞 裡的 水源 源不斷 湧出   地層下陷 情形 似乎 很 嚴重   他將 要求 自來 水 公司 全力 補救     自來 水 公司 回應 表示   一開始 以 為 只是 漏水   後 來 才 發現 立中 六街 下方 還有 一處 直徑 10 公分 自來 水管 線 破裂   當下 已 立即 派遣 工班 到場 處理   針對 住戶 抽水 馬 達 燒壞   將會 研議 是否 進行 相關 賠償  </t>
+          <t>江慶賢 指出 近一個 月 立信街 信街 自強街 附近 住戶 不斷 反映 水壓 不足 很多 里民因 為 抽 不到 水馬達 都 燒壞 了 他 向 自來 水司 反映 水司 一開始 堅持 水壓 供水 都 正常 最後才 說 水管 破裂 今天 要來 修理 今 5 日 早上 江慶賢還 沒 等到 水司 工程 人員 就 接到 里民通 報指 立中六街 出現 天坑 他 跑 到 現場 見 到 一部 工程 車右後輪 將馬路 壓出 一個 洞 怪手 正協助 工程 車脫 困 幸好 沒人 傷亡 但馬路 破洞 裡 水源 源不斷 湧出 地層下陷 情形 似乎 很 嚴重 他將 要求 自來 水司 全力 補救 自來 水司 回應 表示 一開始 以 為 只 漏水 後 來 才 發現 立中六街 下方 還一處 直徑 10 分自來 水管 線 破裂 當下 已 立即 派遣 工班到 場處 理針 對 住戶 抽水 馬 達 燒壞 將會 研議 進行 相關 賠償</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">台灣 西南 沿海 地區 為候 鳥 主要 度冬棲息 地   為 了 守護 於 此 休憩 黑面 琵鷺   水鳥 與 候鳥   台灣 環境 資訊 協會   簡稱 環資   嘉時 航運 股份 有限公司   簡稱 嘉時 航運   攜手 合作 生態 工作 假期   於 5 月 27 日至 嘉義 布袋 濕地   執行 棲地 植樹 活動   讓候 鳥 過境 休憩 時   樹林 保護下 安心 成長   更 期盼 長 期 努力 下   成為 全球 生物 多樣 性 後 盾     嘉義 布袋 擁有 廣闊 濕地 多樣 鳥類 棲息 地   以豐富 生態 資源 特色 環境 聞名   這裡 每年 冬季 都 會 迎來 一批 特別 客人   是 全球 關注 物種 — — 黑面 琵鷺   從 1989 年 全球 紀錄 288 隻   到 2024 年 共 6988 隻   數量 變化 一直 受到 國際 鳥類 保護 組織 密切 追 蹤     天氣剛 好 遇到 5 月 梅雨季   各地 受 鋒面 與 氣流 影響   很 幸運 受到 天公 伯伯 賞臉   讓 雲層 遮住 炙熱 太陽   陰涼 天氣 下 順利 進行     志工 雙手 從 平常 使用 電腦 與 滑鼠   換成 圓鍬 鏟子   互相 協助 挖出 半 公尺 深 與 寬 土穴   倒入 蚵 殼 抵擋 鹽氣   細心 覆土種 下 適合 濱 海生 長 木麻黃   黃 槿 大葉欖仁 樹苗   總共種 下 40 棵 樹   廣闊 環境 中 工作   志工 臉 因 挖掘 動作 變得 通紅   休補充 水分 時   抬頭望 就 能 看 見 波光粼粼 濕地 中   鳥類 生活 覓食 畫面   相信 大家 不僅 是 為 黑面 琵鷺 保護 出力   更是 為 全球 生物 多樣 性 維護 做出 貢獻     本次 環資 活動 總籌乙雯 說     相信 經過 今天 棲地 行動   我們 都 更 貼 近 腳下 這片 土地   了解 生態 保育 重要性       嘉義 擁有 著 美好 生態 棲地外   面臨 著 多重 環境 挑戰   工作 完成 後   志工 搭 上 遊覽車 移動 前往 白水 湖壽島   走訪 2020 年   消失 情人 節   電影 壯闊 海景 美麗夕陽 背 後   沒有 說 出 國土 消失   地層下陷   影響 生態 系統 健康 現況     嘉義 因優越 水質 地勢 條件   使養 蚵 產業 蓬勃 發展   外海 密密麻麻 竹棚   近岸 漂浮 白色 保麗龍   垂 吊式 養殖 道路 上 暫放 成山 蚵 殼   從 眼前 景色 就 能 了解 牡蠣 不同 養殖 方式   志工 走 隔 開陸 地 與 海 堤防 上   右手 邊是 海   左手 邊是 滯洪池   蔡 福昌 老師 說     現在 大家 腳下 堤防 近幾年 修建 加高   如果 不 這麼   陸 地上 坐路 掌潭村 就 會 淹 沒 危險     吹 著涼爽 海風   遠方 風力 發電機 運轉 著   退潮 時 沿著 海水 與 紅磚 被 海 水淹 沒 痕跡   水泥 路上 長 滿蘚類   可以 走向 外 海沙 島的 方向   感受 濱海 滄桑 與 失落     志工文 函用 望眼 鏡發現 高蹺 鴴   又名 長 腳 鷸 身影   一雙長 紅腿 淺水 地上 行走   欣賞 之餘 用 手機 連接 著望 遠鏡 鏡頭   拍下 它們 拍 翅 美姿     來 到 嘉義 不 只有 食 蚵   嘉時 航運 志工 不僅付 諸行動   守護 遠道 來 台 黑面 琵鷺 與候 鳥棲地   還相約 下次 再 到 布袋 濕地   樹下 乘涼   欣賞候 鳥 安心 棲息 美好 畫面   成為 生物 多樣 性守護者  </t>
+          <t>台灣 西南 沿海 地區 為候 鳥 主要 度冬棲息 地 為 了 守護 於 此 休憩 黑面 琵鷺 水鳥 與 候鳥 台灣 環境 資訊 協會 簡稱 環資嘉時 航運 股份 限司 簡稱 嘉時 航運 攜手 合作 態 工作 假期 於 5 月 27 日至 嘉義 布袋 濕地 執行 棲地 植樹 活動 讓 候鳥 過境 休憩 時 樹林 保護下 安心 成長 更 期盼 長 期 努力 下成 為 全球 物多樣 性後盾 嘉義 布袋 擁廣闊 濕地 多樣 鳥類 棲息 地以 豐富 態資源 特色 環境 聞名 這裡 每年 冬季 都 會 迎來 一批 特別 客人 全球 關注 物種 — — 黑面 琵鷺 從 1989 年 全球 紀錄 288 隻 到 2024 年 共 6988 隻 數量 變化 一直 受到 國際 鳥類 保護 組織 密切 追 蹤 天 氣 剛好 遇到 5 月 梅雨季 各地 受 鋒面 與 氣流響 很 幸運 受到 天 伯伯 賞臉 讓 雲層 遮住 炙 熱太陽 陰涼 天氣 下 順利進 行志工 雙手 從 平常 使用 電腦 與 滑鼠 換成 圓鍬 鏟子 互相 協助 挖出 半深 與 寬 土穴 倒入 蚵 殼 抵擋 鹽氣 細心 覆土種 下 適合濱 海長 木麻 黃 黃 槿 大葉欖仁樹苗 總共種 下 40 棵 樹廣闊 環境 中 工作 志工臉 因 挖掘 動作 變得 通紅休 補充 水分 時 抬頭望 就 能 看 見 波光粼粼 濕地 中 鳥類 活覓食 畫面 相信 大家 不僅 為 黑面 琵鷺 保護 出力 更為 全球 物多樣 性維護出 貢獻 本次 環資 活動 總籌乙雯 說 「 相信 經過 今天 棲地 行動 我們 都 更 貼 近 腳下 這片 土地 了解 態 保育 重要性 」 嘉義 擁著 美好 態棲地 外 面臨 著 多重 環境 挑戰 工作 完成 後 志工 搭 上 遊覽車 移動 前往 白水湖 壽島 走訪 2020 年 消失 情人 節電壯闊 海景 美麗夕陽 背 後 沒 說 出國土 消失 地層下陷 響態 系統 健康 現況 嘉義 因優越 水質 地勢 條件 使養 蚵 產業 蓬勃 發展 外海 密密麻麻 竹棚 近岸 漂浮 白色 保麗龍 垂 吊式 養殖 道路 上 暫放 成山 蚵 殼 從 眼前 景色 就 能 了解 牡蠣 不同 養殖 方式 志工 走 隔 開陸 地 與 海 堤防 上 右手 邊海 左手 邊滯 洪池 蔡 福昌 老師 說 「 現 大家 腳下 堤防 近幾年 修建 加高 如果 不 這麼 陸 地上 坐路 掌潭 村 就 會 淹 沒 危險 」 吹著涼 爽海風 遠方 風力 發電機 運轉 著 退潮 時 沿著 海水 與 紅磚 被 海 水淹 沒痕跡 水泥 路上 長 滿蘚類 可以 走向 外 海沙 島 方向 感受 濱海滄桑 與 失落 志工文 函用 望眼 鏡發現 高蹺 鴴 又名 長 腳 鷸身 一雙長 紅腿 淺水 地上 行走 欣賞 之餘用 手機 連接 著望 遠鏡 鏡頭 拍下 它們 拍 翅 美姿 來 到 嘉義 不只 食 蚵 嘉時 航運志 工不僅付 諸行 動守護 遠道 來 台 黑面 琵鷺 與候 鳥棲地 還相約 下次 再 到 布袋 濕地 樹下 乘涼 欣賞候 鳥 安心 棲息 美好 畫面 成為 物多樣 性守護</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">此外   住 戶質 疑公會 鑑定 專業   表示 重災戶 房子 傾斜 倒塌   不 就是 基泰 跟 技師 做出 來   安全 無虞證 明書     才 引起 這場 重大 公安   住戶 質疑現 鑑定   結構 安全     誰 能 保證 是 真的 安全     陳 怡君 提到   住戶 表示   對 於 下陷 地層   家中 磁磚 脫落   地 磚裂 掉   門窗 鐵門壞 掉   家中 漏水 水管 破裂   天花板 掉落 等   賠償 1.2 倍 相當 沒誠意   除了 財產 損失   多處 損鄰 造成 生活 不便   家中 隨時 磁磚 脫落 精神 折磨   還有 地震 來時 不安   這些 精神 賠償     陳 怡君 說   這是 損鄰戶 第一次 公部門 主導 下 所 召開 調解會議   基泰 應正視 損鄰戶 心聲   針對 賠償 金額   陳 怡 君主 張應 提高 為 1.5 倍   或主動 至 損鄰戶 家中 估價除 結構 之外 損失   增列 至 賠償 金額 中   才 是 該 賠償 氣度     對此   據   自由 時報   報導   台北市 建管處 表示   為 促進 基泰 與 受 損戶 協調 和解 效率   都 發局 主動 本月 6 日 於 大直 國小辦 理代為 協調 會議   針對 會議 中受 損戶 提出 修繕 賠償 金額 不足 等 訴求   已 請 基泰 建設 收集 受 損戶 所 提相 關意 見後並 妥為 處理   促進 建損 雙方 和解 進度  </t>
+          <t>此外 住戶質 疑會 鑑定 專業 表示 重災戶 房子 傾斜 倒塌 不 就 基泰 跟 技師 出來 「 安全 無虞證 明書 」 才 引起 這場 重大 安住 戶質 疑現 鑑定 「 結構 安全 」 誰 能 保證 真 安全 陳 怡君 提到 住戶 表示 對 於 下陷 地層 家中 磁磚 脫 落地 磚裂 掉門 窗鐵門 壞 掉 家中 漏水 水管 破裂 天花板 掉落 等 賠償 1.2 倍 相當 沒誠意 除了 財產損 失多處 損鄰 造成 活 不 家中 隨時 磁磚 脫落 精神 折磨 還 地震 來時 不安 這些 精神 賠償 陳 怡君 說 這損 鄰戶 第一次 部門 主導 下 所 召開調 解會議 基泰 應正視 損鄰戶 心聲針 對 賠償金額 陳 怡 君主 張應 提高 為 1.5 倍 或 主動 至 損鄰戶 家中 估價除 結構 之外 損失 增列 至 賠償金額 中才 該 賠償 氣度 對 此據 自由 時報 報導 台北市 建管處 表示 為 促進 基泰 與 受 損戶 協調解 效率 都 發局 主動 本月 6 日 於 大直 國小辦 理代為 協調 會 議針 對會議 中受 損戶 提出 修繕 賠償金額 不足 等 訴求 已 請 基泰 建設 收集 受 損戶 所 提相 關意 見後並 妥為 處理 促進 建損 雙方解 進度</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">原來 同一 個 新能源 市場   同時 這麼 多 幫人 市場 上 探索   開發     圖片 來源 ／ Pixabay  </t>
+          <t>原來 同一 個 新能源 市場 同時 這麼 多 幫人 市場 上 探索 開發 圖片 來源 Pixabay</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">記者 林意筑 ／ 台中 報導   台中港 西碼頭 附近   今   11   日 上午 一度 傳出 碼頭 破堤 消息   透過 現場 畫面 可見   一部 重型 機具 因 不明 原因 深陷 海砂 中   一旁 海水 幾乎 快 淹過   引發民眾 恐慌   不過 稍早 警方 緊急 澄清   由 於 該 起 工程 作業 本身 就 海平面 以下   因此 下 挖 管線 時   因 海水 壓力 導致 機具 下沉   並非 地層下陷 引起 海水倒灌     據悉   台中港 西碼頭 中油 區 近日 正在 進行 建造 冷凝 設備 工程 作業   但 今日 上午 一度 傳出   大型 機具 因 不明 原因 深陷 海砂 中   造成 恐慌     對此   台中港 務西 碼頭 中隊 長 賴逸丰 表示   由 於 該 起 工程 作業   挖 埋 管線   部分 本身 就 海平面 以下   而 下 挖 管線 時 因 海水 壓力 差而導致 機具 下沉   並非 地層下陷 引起 海水倒灌   預計 今日 下午 抽完 海水 後 即可 繼續 作業   現場 無人員 受傷   無 相關 設備 建物 損壞  </t>
+          <t>林意筑 台中 報導 台中港 西碼頭 附近 今 11 日 上午 一度 傳出 碼頭 破堤 消息 透過 現場 畫面 可見 一部 重型 機具 因 不明 原因 深陷 海砂 中 一旁 海水 幾乎 快 淹過 引 發民眾 恐慌 不過 稍早 警方 緊急 澄清 由 於 該 起 工程 作業 本身 就 海平面 以下 因此 下 挖 管線 時 因 海水 壓力 導致 機具 下沉 並非 地層下陷 引起 海水倒灌 據悉 台中港 西碼頭 中油 區 近日 正 進行 建造 冷凝 設備 工程 作業 但 今日 上午 一度 傳出 大型 機具 因 不明 原因 深陷 海砂 中 造成 恐慌 對此 台中港 務西 碼頭 中隊 長 賴逸丰 表示 由 於 該 起 工程 作業 「 挖 埋 管線 」 部分 本身 就 海平面 以下 而 下 挖 管線 時 因 海水 壓力 差而導致 機具 下沉 並非 地層下陷 引起 海水倒灌 預計 今日 下午 抽完 海水 後 即可 繼續 作業 現場 無人員 受傷 無 相關 設備 建物 損壞</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">近期 能源 公司 元長 鄉 瓦 磘 村 建 設 太 陽 光 電 場   卻 場址 設 村莊 中心   讓 當地 居民 人心惶惶   今 ( 11 ) 日 瓦 磘 反光 電 自救 會 前往 雲林縣 議會   向 縣長 張麗善 遞交陳情 書   盼光 電廠 商 另 尋他 地   不要 將光 電場 設置 於 瓦 磘 村 中   張麗善 除 親手 接下 陳 情書   表示 會 站 鄉親 立場   保護 大家 居住 環境   呼籲台 電應 考量 民眾 意見 本權責 妥處     張麗善 表示   地方 政府 跟 中央政府 都 各自 權責   公務人員 需要 配合 行政 程序   目前 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 土地   已經 被 中央 核定 為 合法 種電 範圍     張麗善 再次 強調   三不三要     不 希望 農地 一直 種電   破壞 農地 未來 發展 跟 價值   認為 光電業者 聚落 裡 種電   已影響 鄉親 生活 起居 跟 品質   能 感同身受 鄉親 不安 焦慮   會 透過 各種 協調 溝通   保障 地 鄉親 權益     建設 處長 李俊 興 表示   本案 屬於鄉 村區 乙種 建築 用地   業者 依法 向 縣府 提出 申請   公部門 亦 依法行政 核發 同意 文件   去年 9 月 接 獲民眾 陳 情 後   立即 協調 業者 應 與 當地 居民 持續 溝通   業者 表示同意 先行 暫停 施工  </t>
+          <t>近期 能源 司 元長鄉 瓦 磘 村 建 設 太 陽 光 電 場 卻 場 址 設 村 莊 中心 讓 當地 居民 人心惶惶 今 ( 11 ) 日 瓦 磘 反光 電 自救 會 前往 雲林縣 議會 向 縣長 張麗善 遞交陳情 書 盼 光電廠 商 另 尋他 地 不要 將光 電場 設置 於 瓦 磘 村 中 張 麗 善 除 親 手 接下 陳 情書 表示 會 站 鄉 親立場 保護 大家 居住 環境 呼籲台 電應 考量 民眾 意見 本權責 妥處 張麗善 表示 地方 政府 跟 中央政府 都 各自 權責務 人員 需要 配合 行政 程序 目前 法令 規定 若 建地 就 可以 百分之百 種電 雲林縣 農地 很多 地層下陷 易 淹水 不利 耕作 土地 已經 被 中央 核定 為 合法 種電 範圍 張麗善 再次 強調 「 三不三要 」 不 希望 農地 一直 種電 破壞 農地 未來 發展 跟 價值 認為 光電業 聚落 裡 種電 已響 鄉 親活 起居 跟品 質能 感同身受 鄉親 不安 焦慮 會 透過 各種 協調 溝通 保障 地鄉 親權益 建設 處長 李俊 興 表示 本案 屬於鄉 村區 乙種 建築 用地 業 依法 向 縣府 提出 申請 部門 亦 依法行政 核發 同意 文件 去年 9 月 接 獲民眾 陳 情 後 立即 協調業 應 與 當地 居民 持續 溝通業 表示同意 行暫 停 施工</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">陳 安邦 等 表示   種電 可以 村外   村內 緊鄰 民宅   不要 說 危害   打 開家門   窗戶 看到 就是 太陽 能板   叫 8   90 歲 老人 情 何以堪   尤其 庄內 種電 作為   請問 哪個 村 可以 接受   所以 村民 大團 結堅 決展 現反 對 到底 決心   任何 回饋 都 不用 說   打死 都 反 對 庄內 種電   任何 法律 問題 他 一個 人承擔   甚至 為 了 爭取 縣長 張麗善 村民 主持公道   特別 今天 前來 向 張縣 長 陳 情   唯一 要求 光場 業者 退出 瓦 磘 村     縣長 張麗善 接下 陳 情書 後 指出   地方 政府 跟 中央政府 都 各自 權責   公務人員 需要 配合 行政 程序   目前 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 土地   已經 被 中央 核定 為 合法 種電 範圍   為 了 保護 我們 農地   特別 提出 三不三要   就是 不 希望 農地 上面 一直 種電   破壞 農地 未來 發展 跟 價值   光電業者 聚落 裡面 種電   已經 影響 鄉親 生活 起居 跟 品質   大家 不安 焦慮 我們 都 能 感同身受   縣府 透過 各種 協調 溝通   希望 能 保障 地 鄉親 權益  </t>
+          <t>陳 安邦 等 表示 種電 可以 村外 村緊 鄰 民宅 不要 說 危害 打開 家門 窗戶 看到 就 太陽能 板 叫 890 歲 老人 情 何以堪 尤其 庄 種電 作為 請問 哪個 村 可以 接受 所以 村民 大團 結堅 決展 現反 對 到底 決心 任何 回饋 都 不用 說 打死 都 反對庄 種電 任何 法律 問題 他 一個 人承擔 甚至 為 了 爭取 縣長 張麗善 村民 主持 道特 別 今天 前來 向 張縣 長 陳 情 唯一 要求 光場業 退出 瓦 磘 村 縣 長 張 麗 善 接下 陳 情書 後 指出 地方 政府 跟 中央政府 都 各自 權責務 人員 需要 配合 行政 程序 目前 法令 規定 若 建地 就 可以 百分之百 種電 雲林縣 農地 很多 地層下陷 易 淹水 不利 耕作 土地 已經 被 中央 核定 為 合法 種電 範圍 為 了 保護 我們 農地 特別 提出 三不三要 就 不 希望 農地 上面 一直 種電 破壞 農地 未來 發展 跟 價值 光電業 聚落 裡面 種電 已經響 鄉 親活 起居 跟 品質 大家 不安 焦慮 我們 都 能 感同身受 縣府 透過 各種 協調 溝通 希望 能 保障 地鄉 親權益</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">張信 哲杜拜 站 演唱 會 原定 2 月 登場   後 來 撞 上 極端 氣候 出現 冰雹   淹水 災害   因而 延期 至 端午 假期 6 月 9 日舉行   他 笑 說     很 開心   差點 變成 不是 第一 個     透露 目前 已經 很多 歌手   陸續 安排 開唱 計畫   原本 很 擔心 阿拉伯 國家 演出 會 很多 限制   像是 有些 景點 不能 比 出 特定 手勢   演唱 會太過 喧鬧   後 來 才 發現 他們 對 外國人 很 禮遇   很 支持 娛樂 活動     第一次 得知 邀請 時   張信哲 心想     真的假 啦   有人 要 聽     過往 都 只有 杜拜 轉機 經驗   從 未 入境 過旅遊 他 說     他們 來 邀 請 時 就 說   以中 東來 說 這邊 是 華人 最 多 地方   30 萬人     杜拜位 處國際 航班 交通 樞紐   因此 有來 自 歐洲   俄羅斯 華人 歌迷   特地 飛來 欣賞 演唱 會   因為 天災 延期 開唱   歌迷 們 沒 太 多 抱怨 問題   把 票 留著 就 為 了 等到 正式 演出 這 一天 朝聖     首次 前進 沙漠 開唱   張信哲 歌喉 完全 沒有 受 影響     還好   場館 冷氣 很足   我 提前 4 天來   杜拜   調時 差     本來 就 沒 計畫 要 衝場 次 演出   1 週 1 場已 是 最大 限度     未來式   巡演 開唱 6 年   亞洲 站 預計 至 2024 年底 結束   前進 海外 開唱   他 最 想 攻 佔 場館 是 英國倫敦 皇家 阿爾伯特 音樂廳   Royal   Albert   Hall       張信 哲新 專輯 已經 籌備 中   下半年 會釋 出 更 多 新歌   台北 小 巨蛋   高雄 巨蛋 演唱 會   則要 排到 2025 年 才能 開唱     第一 個 要 搶 時間   現在 場館 太難 搶 了     記者 提議 大 巨蛋 開唱   張信哲 卻 謙虛回     大 巨蛋 周董   周杰倫   都 還排 不到   哪 還輪 到 我   等 別人 有空 給我用   我 再 用 就 好       歌神 張學友 因為 身體 不適   日前 取消 台北 站 演唱 會   張信哲 關注 此事     好 害怕   我 吃 增強 免疫力 的藥   醫生開     即將 前進 海拔 2000 多 公尺 青海 西寧站 開唱   張信哲 提到   前輩   薛之謙唱 到 吸氧 氣   私下 還嚇 他     一定 不要 亂動   不要 突然 爆衝    </t>
+          <t>張信 哲杜拜 站 演唱 會 原定 2 月 登場後來 撞 上 極端 氣候 出現 冰雹 淹水 災害 因而 延期 至 端午 假期 6 月 9 日舉行 他 笑 說 「 很 開心 差點 變成 不 第一 個 」 透露 目前 已經 很多 歌手 陸續 安排 開唱 計畫 原本 很 擔心 阿拉伯 國家 演出 會 很多 限制 像些 景點 不能 比 出 特定 手勢 演唱 會太過 喧鬧後來 才 發現 他們 對 外國人 很 禮遇 很 支持 娛樂 活動 第一次 得知 邀請 時張 信哲 心想 「 真假 啦 人 要 聽 」 過往 都 只 杜拜 轉機 經驗 從 未 入境 過旅遊 他 說 「 他們 來 邀 請 時 就 說 以 中 東來 說 這邊 華人 最多 地方 30 萬人 」 杜拜位 處 國際 航班 交通 樞紐 因此 來 自 歐洲 俄羅斯華人 歌迷 特地 飛來 欣賞 演唱 會 因為 天災 延期 開 唱歌 迷們 沒太多 抱怨 問題 把 票 留著 就 為 了 等到 正式 演出 這 一天 朝聖 首次 前進 沙漠 開唱張 信哲 歌喉 完全 沒 受響 「 還好 場館 冷氣 很 足 我 提前 4 天來 杜拜 調時 差 」 本來 就 沒計 畫要 衝場 次 演出 1 週 1 場已 最大 限度 未來式 巡演 開唱 6 年亞洲 站 預計 至 2024 年底 結束 前進 海外 開唱 他 最 想 攻 佔 場館 英國倫敦 皇家 阿爾伯特 音樂廳 Royal   Albert   Hall 張信 哲新 專輯 已經 籌備 中 下半年 會釋 出 更 多 新歌 台北 小 巨蛋 高雄 巨蛋 演唱 會則 要 排到 2025 年 才能 開唱 「 第一 個 要 搶 時間 現場館 太難 搶 了 」 提議 大 巨蛋 開唱張 信哲 卻 謙虛回 「 大 巨蛋 周董 周杰倫 都 還排 不到 哪 還輪 到 我 等 別人 空給 我 用 我 再 用 就 好 」 歌神 張學友 因為 身體 不適 日前 取消 台北 站 演唱 會 張信 哲關 注 此事 「 好 害怕 我 吃 增強 免疫力 藥醫開 」 即將 前進 海拔 2000 多 青海 西寧站 開唱張 信哲 提到 「 前輩 」 薛之謙唱 到 吸氧 氣 私下 還嚇 他 「 一定 不要 亂動 不要 突然 爆衝 」</t>
         </is>
       </c>
     </row>

--- a/repo/word_fragments.xlsx
+++ b/repo/word_fragments.xlsx
@@ -441,119 +441,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 和平東路 三段 一處 工地 旁 道路   凌晨 驚傳 地層下陷   連上頭 停放 轎車   跟 著下 墜   卡 1.5 公尺 深 大洞 裡   還壓 迫到 自來 水管 線   導致 破裂 流出 大灘 積水   居民 聽到 巨響   趕緊 報案 處理   透露 昨   4   天 下午 路面 就 出 現裂 縫   當時 建管處 會勘   把 原因 歸咎 於 地震   但 他們 無法 接受   質疑 是 工地 施工 導致   工地 圍牆 外 一大 塊 路面 下陷 坍塌   上頭 停放 轎車 跟 著 地層 向下 墜 受困   一旁 管線 流出 積水 逐漸 淹進 車頭   就 怕 轎車 泡水 拋錨   警方 請來 吊車 協助 車輛 脫困   但 一移 開 景象 更 驚人   道路 側邊 就 像 破 了 大洞   凹陷 1.5 公尺 坑洞   面積 30 平方公尺   4 日 下午 北市 和平東路 三段 這處 工地 外 道路 開始 出現 裂縫   建管處 與 工地 人員前 來 會勘   歸咎 於 3 日 地牛翻身   還貼 出 警示牌 提醒 民眾   沒 想到 5 日 凌晨 地層 整個 塌陷   不過 這 答案 附近 居民 無法 接受   有人 說 地震 前 就 已經 看到 裂縫   但剛 好 遇上 地震   相關 單位 就 把 責任 推給 地震   還有 住民 透露   這處 工程 打 地基 時   自己 家中 就 曾 感覺 到 震動   就 像 地震 一樣   質疑 根本 是 施工 問題 釀成 地層下陷   居民 滿腔 怒火 恐怕 是 建管處 修補 道路 外   下個 得 要面 對 難題  </t>
+          <t xml:space="preserve">台北市 和平東路 三段 一處 工地 旁 道路   凌晨 驚傳 地層下陷   連上頭 停放 的 轎車   也 跟 著下 墜   卡 在 1.5 公尺 深 的 大洞 裡   還壓 迫到 自來 水管 線   導致 破裂 流出 大灘 積水   居民 聽到 巨響   趕緊 報案 處理   也 透露 昨   4   天 下午 路面 就 出 現裂 縫   當時 建管處 會勘   把 原因 歸咎 於 地震   但 他們 無法 接受   質疑 是 工地 施工 導致   工地 圍牆 外 一大 塊 路面 下陷 坍塌   上頭 停放 的 轎車 也 跟 著 地層 向下 墜 受困   一旁 管線 流出 的 積水 也 逐漸 淹進 車頭   就 怕 轎車 泡水 拋錨   警方 請來 吊車 協助 車輛 脫困   但 一移 開 景象 更 驚人   道路 側邊 就 像 破 了 大洞   凹陷 1.5 公尺 坑洞   面積 也 有 30 平方公尺   4 日 下午 北市 和平東路 三段 這處 工地 外 的 道路 開始 出現 裂縫   建管處 與 工地 人員前 來 會勘   歸咎 於 3 日 地牛翻身   還貼 出 警示牌 提醒 民眾   沒 想到 5 日 凌晨 地層 整個 塌陷   不過 這 答案 附近 居民 無法 接受   有人 說 地震 前 就 已經 看到 裂縫   但剛 好 遇上 地震   相關 單位 就 把 責任 推給 地震   還有 住民 透露   這處 工程 在 打 地基 時   自己 在 家中 就 曾 感覺 到 震動   就 像 地震 一樣   質疑 根本 是 施工 問題 釀成 地層下陷   居民 的 滿腔 怒火 恐怕 是 建管處 在 修補 道路 外   下個 得 要面 對 的 難題  </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 推 再生能源 政策   近期 位 雲林 口湖 雲 147 線 道路 兩 側 椬 梧 農 場   長 期 地層下陷   土壤 鹽化   經 台糖 辦理 土地 使用 分區 變更   將設 置 太陽能 光電 設施   但當 地民眾 不滿 因為 開發 需要 大量 砍樹 種電   喊著 抗議 口號   反對 砍 樹 種電   位 雲林 口湖 鄉 雲 147 線 道路 兩側 是 台糖公司 椬 梧 農 場   但 這區 土地 因為 長 期 地層下陷   土壤 鹽化 不適 耕作   過去 是 配合 林務局 造林   但 近期 將 配合 中央 政策 推動 種電   讓 當地民眾 相當 不滿   反對 宜梧 變電所 自救 會 副 會長 李豐良 指出     旁邊 北堤 65 公頃 造林 區   南堤 65 公頃 造林 區   竟然 租給 私人 公司   配合 台糖 租給 私人 公司   私人 公司 才 跟 台糖 說 要 蓋 太陽能     雲縣 府 建設 處 處長 李俊 興回 應     他們 都 報給 農委會   因為 這是 申請 農業 用地   變更 做太陽能 光電廠   他們 都 經過 農業 單位   能源 單位 專業 審查   最後的 通過 才 今天 這案場 開發     當地 村民 表示   這次 規劃 開發 太陽光 電設 施場域   鄰 近 椬 梧 滯 洪 池   未來 若 周邊 設滿 太陽能 光電板 恐對 觀光 發展 影響   另外 針對 台電所 規劃 宜梧 變電所設 用地   過去 曾 被 傾倒 廢棄物 有所 疑慮   反對 宜梧 變電所 自救 會 副 會長 李豐良 表示     以前 被 盜 賣 土方   就 堆放 一些 廢棄物   怕 工業 廢水   我們 現在 是 憂慮   如果 是 蓋 變電所 後   是不是 以 後 口湖   水林   北港 大部分 都 會 用 地下水     台電輸供 電事業 部經理 黃 育新 回應     配合 縣 政府 環保局 來 辦理後續 調查 跟 釐 清   那環 保局 有擇定 開 挖 時間 我們 就 會 來 配合 辦理     台電 表示   宜梧 變電所 規劃 用地   都 是 依據 政府 採購 法及 相關 規定 取得   若當 地民眾 有所 疑慮   都 會 配合 環保 單位 調查   會會同 地方 民眾 參 與   希望 未來 變電所 成立 後   搭配 儲能 設備 提高 當地 用電 穩定度  </t>
+          <t xml:space="preserve">為 推 再生能源 政策   近期 位 在 雲林 口湖 雲 147 線 道路 兩 側 椬 梧 農 場   長 期 地層下陷   土壤 鹽化   經 台糖 辦理 土地 使用 分區 變更   將設 置 太陽能 光電 設施   但當 地民眾 不滿 因為 開發 需要 大量 砍樹 種電   喊著 抗議 口號   反對 砍 樹 種電   位 在 雲林 口湖 鄉 雲 147 線 道路 兩側 是 台糖公司 椬 梧 農 場   但 這區 土地 因為 長 期 地層下陷   土壤 鹽化 不適 耕作   過去 是 配合 林務局 造林   但 近期 將 配合 中央 政策 推動 種電   讓 當地民眾 相當 不滿   反對 宜梧 變電所 自救 會 副 會長 李豐良 指出   「 旁邊 有 北堤 有 65 公頃 造林 區   南堤 也 有 65 公頃 造林 區   竟然 租給 私人 公司   配合 台糖 租給 私人 公司   私人 公司 才 跟 台糖 說 要 蓋 太陽能   」 雲縣 府 建設 處 處長 李俊 興回 應   「 他們 都 有 報給 農委會   因為 這是 申請 農業 用地   變更 做太陽能 光電廠   他們 都 有 經過 農業 單位   能源 單位 專業 審查   最後的 通過 才 有 今天 這案場 開發   」 當地 村民 表示   這次 規劃 開發 太陽光 電設 施場域   鄰 近 椬 梧 滯 洪 池   未來 若 周邊 設滿 太陽能 光電板 恐對 觀光 發展 有 影響   另外 針對 台電所 規劃 宜梧 變電所設 用地   過去 曾 被 傾倒 廢棄物 也 有所 疑慮   反對 宜梧 變電所 自救 會 副 會長 李豐良 表示   「 以前 有 被 盜 賣 土方   就 堆放 一些 廢棄物   怕 有 工業 廢水   我們 現在 是 憂慮   如果 是 蓋 變電所 後   是不是 以 後 口湖   水林   北港 大部分 都 會 用 地下水 的   」 台電輸供 電事業 部經理 黃 育新 回應   「 配合 縣 政府 環保局 來 辦理後續 調查 跟 釐 清   那環 保局 有擇定 開 挖 時間 我們 就 會 來 配合 辦理   」 台電 表示   宜梧 變電所 規劃 用地   都 是 依據 政府 採購 法及 相關 規定 取得   若當 地民眾 有所 疑慮   都 會 配合 環保 單位 調查   也 會會同 地方 民眾 參 與   希望 未來 變電所 成立 後   搭配 儲能 設備 提高 當地 用電 穩定度  </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">地球 南北 兩極 這兩天 都 重要 科學 發現 發表 媒體 上   其中 北極 方面   科學家 發現 加拿大 北邊 海底 出現 地層下陷   最大 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 南極 大陸 東邊   3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 144 平方公里 冰架 崩解   相當 於 半個 台北市 大小   科學家 藉 著美國 太空 總署 NASA 衛星   拍 攝到 南極 大陸 東邊   格連澤 冰河     瀕臨 南 印度洋 冰架   2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 過去數 十年 來   冰架 崩解 現象   絕 大多 數出現 西邊 南極 半島   就是 與 南美洲 阿根廷 遙遙 相望 所在   而且 過去 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 冰雪 增厚   對 全球 海平面 衝擊 有限   從 2020 年 開始 南極 東邊 冰河 開始 縮小面積   但 是 以 每天 1 平方公里 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出     但 上星期 我們 發現 快速 氣候 現象   這也許 不足以 說明 事情 全貌   但 確對 冰架 造成 前 所 未 見 壓力     研究 人員 所 說 氣候 現象   是 指 發生 3 月 15 日 大氣 河流   這種 氣候 現 象是 指   高濃度 水蒸 氣沿 著 狹窄 區域 快速 前進   對 於 已經 消退 中 冰架 造成 致命 一擊   而大面積 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域   發現 大面積 地層下陷   最大 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 地下水 緩慢 流動   是 北極海 地層下陷 原因  </t>
+          <t xml:space="preserve">地球 南北 兩極 這兩天 都 有 重要 的 科學 發現 發表 在 媒體 上   其中 在 北極 方面   科學家 發現 在 加拿大 北邊 的 海底 出現 地層下陷   最大 的 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 在 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 的 南極 大陸 東邊   在 3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 有 144 平方公里 的 冰架 崩解   相當 於 半個 台北市 的 大小   科學家 藉 著美國 太空 總署 NASA 的 衛星   拍 攝到 南極 大陸 東邊 的 「 格連澤 冰河 」   瀕臨 南 印度洋 的 冰架   在 2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 在 過去數 十年 來   冰架 崩解 的 現象   絕 大多 數出現 在 西邊 的 南極 半島   也 就是 與 南美洲 阿根廷 遙遙 相望 的 所在   而且 過去 的 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 的 冰雪 增厚   對 全球 海平面 的 衝擊 有限   從 2020 年 開始 南極 東邊 的 冰河 開始 縮小面積   但 也 是 以 每天 1 平方公里 的 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 有 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 的 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出   「 但 上星期 我們 發現 快速 的 氣候 現象   這也許 不足以 說明 事情 的 全貌   但 的 確對 冰架 造成 前 所 未 見 的 壓力 」   研究 人員 所 說 的 氣候 現象   是 指 發生 在 3 月 15 日 的 大氣 河流   這種 氣候 現 象是 指   高濃度 的 水蒸 氣沿 著 狹窄 的 區域 快速 前進   對 於 已經 在 消退 中 的 冰架 造成 致命 一擊   而大面積 的 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 在 加拿大 北邊 的 北極 海域   發現 大面積 的 地層下陷   最大 的 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 的 地下水 緩慢 流動   也 是 北極海 地層下陷 的 原因  </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">地層 嚴重 下陷 問題 不是 只有 台灣 會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 33 座 城市   以 每年 超過 一 公分 速度 下沉   是 海平面 上升 速度 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 是   連美國 南部 大城 休士頓 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 當地 設立 太空中心   但 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 地 平面   根據   世界 經濟 論壇   最近 發布 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 城市   是 西半球 唯一一 個 下沉 速度 排入 前十名 城市   美國氣 候專 家史 特勞斯 表示     雖然 土地 現在 大小 堤防 保護   但   地層下陷   仍 超乎想像     專家 表示   休士頓 下沉 速度快   海平面 上升 迅速   再 加上 氣候變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 惡化 強度 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 下沉 危機 一度 非常 嚴重   全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示     非常 重要   雅加 達 曼谷 從 東京 上海 汲取 成功 經驗     科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 模擬 畫面   都 提醒 人類 要 相信 科學   保護 自己 家園 避免 消失 刻 不容 緩  </t>
+          <t xml:space="preserve">地層 嚴重 下陷 的 問題 不是 只有 台灣 會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 有 33 座 城市   以 每年 超過 一 公分 的 速度 下沉   是 海平面 上升 速度 的 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 的 是   連美國 南部 大城 休士頓 也 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 也 在 當地 設立 太空中心   但 你 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 在 地 平面   根據 「 世界 經濟 論壇 」 最近 發布 的 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 的 城市   也 是 西半球 唯一一 個 下沉 速度 排入 前十名 的 城市   美國氣 候專 家史 特勞斯 表示   「 雖然 土地 現在 有 大小 堤防 保護   但   地層下陷   仍 超乎想像   」 專家 表示   休士頓 下沉 速度快   海平面 也 上升 迅速   再 加上 氣候變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 的 惡化 強度 和 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 的 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 的 下沉 危機 也 一度 非常 嚴重   在 全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示   「 非常 重要 的   雅加 達 和 曼谷 從 東京 和 上海 汲取 成功 經驗   」 科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 的 模擬 畫面   在 在 都 提醒 人類 要 相信 科學   保護 自己 的 家園 避免 消失 刻 不容 緩  </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>水岸 第一排 住宅   開門   開窗 即 見 怡然 美景   住家 擁有 永久 棟 距   是 許多人 嚮 往 住居   正因 稀有性   房價 比 一般 房宅 略 高   不過   想 坐 擁 水岸 宅   購 屋前 需有 風險 意識   魔鬼 藏 細節裡   思考 後 再 出手   能 避免 踩 雷               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持</t>
+          <t>水岸 第一排 住宅   開門   開窗 即 見 怡然 美景   住家 擁有 永久 棟 距   是 許多人 嚮 往 的 住居   正因 稀有性   房價 比 一般 房宅 略 高   不過   想 坐 擁 水岸 宅   購 屋前 需有 風險 意識   魔鬼 藏 在 細節裡   思考 後 再 出手   能 避免 踩 雷               登入 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬上 註 冊         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬上 註 冊   ｜   立即 搶購         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     訂閱 支持</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>農委會 主委 陳 吉   右 3   與 立委 蘇治芬   右 2   等 人 會勘 雲林 口湖   台西 等 地 耕作 困難 地     記者 黃 淑莉攝     〔 記者黃淑莉 ／ 雲林 報導 〕 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人   到 雲林 口湖   台西 實地 勘查 多處 嚴重 地層下陷區   土地 數 10 年來 無法 耕作   養殖   陳 吉仲說   不 排除 以 專案   示範場域 方式   與 國家 綠能 政策 結合   附予 這類 土地 新價值   進而 創造 多贏     蘇治芬 指出   口湖   台西 等 沿海 地區 多 處位 處 嚴重 地層下陷區 土地   卻 具有 困難 耕作 地   養殖 專區   地層下陷區 等 多重 身分   現況 是數 10 年來 因難 耕作   地上 荒涼   地主 怨嘆 又 無奈     蘇治芬 說   若 沒 新 土地 政策 進場 協助   數 10 年後還 是 與 現況 一樣   接到 許多 農民陳情   今天 邀請 農委會 主委 現勘   盼能 盤點 政策 協助   才能 附予 土地 新價值     陳 吉仲 表示   會勘 後 會 與 相關 單位 討論 調整 相關 政策   不 影響 農漁業 生產 又 兼顧 農漁 民生 計   考慮 結合國家 綠電 發展   並以 專案 或示 範場域 方式 進行   進而 創造 農民   地方 發展   國家 重要 政策 能 發展 三贏     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
+          <t>農委會 主委 陳 吉   右 3   與 立委 蘇治芬   右 2   等 人 會勘 雲林 口湖   台西 等 地 耕作 困難 地     記者 黃 淑莉攝     〔 記者黃淑莉 ／ 雲林 報導 〕 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人   到 雲林 口湖   台西 實地 勘查 多處 嚴重 地層下陷區   土地 數 10 年來 無法 耕作   養殖   陳 吉仲說   不 排除 以 專案   示範場域 方式   與 國家 綠能 政策 結合   附予 這類 土地 新價值   進而 創造 多贏     蘇治芬 指出   口湖   台西 等 沿海 地區 有 多 處位 處 嚴重 地層下陷區 土地   卻 具有 困難 耕作 地   養殖 專區   地層下陷區 等 多重 身分   現況 是數 10 年來 因難 耕作   地上 荒涼   地主 怨嘆 又 無奈     蘇治芬 說   若 沒 有 新 的 土地 政策 進場 協助   數 10 年後還 是 與 現況 一樣   接到 許多 農民陳情   今天 邀請 農委會 主委 現勘   盼能 盤點 政策 協助   才能 附予 土地 新價值     陳 吉仲 表示   會勘 後 會 與 相關 單位 討論 調整 相關 政策   在 不 影響 農漁業 生產 又 兼顧 農漁 民生 計   考慮 結合國家 綠電 發展   並以 專案 或示 範場域 方式 進行   進而 創造 農民   地方 發展   國家 重要 政策 也 能 發展 的 三贏     一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 捷運 萬大線 工程 被民眾 直擊 疑似 施工 不慎   日前 出現 自來 水管 破裂   還導致 柏油路 面 凹陷   讓 車輛 經過 像是 開在 彈簧 床上   不 只 如此   工人 甚至 被 目擊 滿 是 乙炔 鋼瓶 旁 抽 菸   遭質疑 這樣 難道 不會 對 工安 造成危害   被 指控 缺失   捷運局 表示   已經 找 自來 水 公司 協助止 漏   路面 下陷 加鋪 恢 復 正常   至於 工人 則是 休息 區抽 菸   並無 不妥   捷運 萬大線 施工 現場 滴滴答答   水流 個 不停   這 不是 天空 下雨   而是 水管 破裂   讓 工人 施工 像是 水 濂 洞 一樣   大量 自來 水不斷 流出   更 扯 是 附近 住戶 說   已經流 了 一個 禮拜 還沒 改善   更 疑似 導致 附近 路面 凹陷   車輛 經過 凹陷 路面 彈了 好 大 一下   駕駛 嚇到 急 踩 煞車   北市 捷運 萬大線 工程   有民眾 向 議員 投訴   說 恐怕 工安 問題   還有 工人 氧氣 跟 乙炔 鋼瓶 附近 大膽 抽 菸   讓民眾 看 了 好 擔心   對此 萬華區 全 德里 長 王平 三 表示     這個 地方 捷運 做到 現在   漏水   地方 下陷 地方 很多   所以 他們 很煩   但 不 至於 說 很 害怕   只是 我們 必須 要 小心 點     民眾 擔憂 破裂 水管 會導致 地層下陷   影響 住家 安全   質疑 是 捷運 施工 不慎   挖破 管線   但是 捷運局 趕緊 出面 澄清   表示 已經 找 自來 水 公司 協助止 漏   路面 凹陷 部分 重新 鋪 好   至於 工人 抽 菸 地點 是 休息 區內   符合 法規   但 未來 將劃 設明顯 休息 區   避免 民眾 質疑 工安疑慮  </t>
+          <t xml:space="preserve">台北 捷運 萬大線 工程 被民眾 直擊 疑似 施工 不慎   日前 出現 自來 水管 破裂   還導致 柏油路 面 凹陷   讓 車輛 經過 像是 開在 彈簧 床上   不 只 如此   工人 甚至 被 目擊 在 滿 是 乙炔 鋼瓶 旁 抽 菸   遭質疑 這樣 難道 不會 對 工安 造成危害 嗎   被 指控 缺失   捷運局 表示   已經 找 自來 水 公司 協助止 漏   路面 下陷 也 加鋪 恢 復 正常   至於 工人 則是 在 休息 區抽 菸   並無 不妥   捷運 萬大線 施工 現場 滴滴答答   水流 個 不停   這 不是 天空 在 下雨   而是 水管 破裂   讓 工人 施工 像是 水 濂 洞 一樣   大量 自來 水不斷 流出   更 扯 的 是 有 附近 住戶 說   已經流 了 一個 禮拜 還沒 改善   更 疑似 導致 附近 路面 凹陷   車輛 經過 凹陷 路面 彈了 好 大 一下   駕駛 也 嚇到 急 踩 煞車   北市 的 捷運 萬大線 工程   有民眾 向 議員 投訴   說 恐怕 有 工安 問題   還有 工人 在 氧氣 跟 乙炔 鋼瓶 附近 大膽 抽 菸   讓民眾 看 了 好 擔心   對此 萬華區 全 德里 長 王平 三 表示   「 這個 地方 捷運 做到 現在   漏水   地方 下陷 的 地方 很多   所以 他們 也 很煩   但 不 至於 說 很 害怕   只是 我們 必須 要 小心 點 」   民眾 擔憂 破裂 的 水管 會導致 地層下陷   影響 住家 安全   也 質疑 是 捷運 施工 不慎   挖破 管線   但是 捷運局 趕緊 出面 澄清   表示 已經 找 自來 水 公司 協助止 漏   路面 凹陷 部分 也 重新 鋪 好   至於 工人 抽 菸 地點 是 在 休息 區內   符合 法規   但 未來 將劃 設明顯 休息 區   避免 民眾 質疑 有 工安疑慮  </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 檢測 雲林 地層下陷 數值   水利 署 去年 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   能線 上 即 時 取得 觀測 資料   對 於 下陷 數據 監測 與 分析 很大 助益   因應 雲林 地層下陷 影響   水利 署後續 規劃 將分別 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所 再 設置 地下水 觀測 站   監測 下陷 狀況 來 相關 防制   放下 感測器   測量 目前 所在地 地下水位   可以 再 透過 手機 即 時線 上 取得 觀測 資料   提供 針對 地層下陷 數據 分析 監     為 了 要 防範 地層下陷 持續 擴大   水利 署 去年 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   水利 署 副署 長 黃 宏 莆 說明     我們 這國小設 了 5 個 水位 觀測井   還有 一個 地層下陷 觀測井   可以 把 周邊 大 埤 主要 地下水 分層 水位   可以 即 時線 上 獲得 相關 資訊     立委 劉建國 指出     這對 雲林 來 說   不管 是 對 土地 面積   農地 使用 種種   還有 最 重要 是 說   我們 是 高鐵行經 主要 縣市   要 克服 很大 環境 挑戰 議題     雲林 是 全台 地層下陷 嚴 重地 區   下陷 面積 數據 時 好 時壞   對 居民 高鐵 乘客 安全 隱憂   除了 仁和 國小設 置   水利 署 將規劃 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所   再 設置 地下水 觀測 站 共 7 口井   大 埤 仁和 國小校 長 洪千惠 表示     水利 署 如果 什麼 政策 要 跟民眾 宣導   還有 一些 教育   還有 跟 小朋友 環境 教育 結合   都 可 把 它 連在 一起   變成 與 民眾 共有 這樣     校方 表示   校園 中設 地下水 觀測 站   能 讓 學童 透過 實際 觀測 環境 教育   對此 水利 署則 表示   會 配合 校方 再 相關 規劃   希望 設置 觀測井 所 得到 即 時 資訊   作為 地層下陷 相關 防制 參考  </t>
+          <t xml:space="preserve">為 檢測 雲林 地層下陷 數值   水利 署 去年 在 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   能線 上 即 時 取得 觀測 資料   對 於 下陷 數據 監測 與 分析 有 很大 助益   因應 雲林 地層下陷 影響   水利 署後續 規劃 將分別 在 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所 再 設置 地下水 觀測 站   監測 下陷 狀況 來 做 相關 防制   放下 感測器   測量 目前 所在地 的 地下水位   可以 再 透過 手機 即 時線 上 取得 觀測 資料   提供 針對 地層下陷 數據 做 分析 監     為 了 要 防範 地層下陷 持續 擴大   水利 署 去年 在 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   水利 署 副署 長 黃 宏 莆 說明   「 我們 在 這國小設 了 5 個 水位 觀測井   還有 一個 地層下陷 觀測井   可以 把 周邊 大 埤 主要 的 地下水 分層 水位   可以 即 時線 上 獲得 相關 資訊   」 立委 劉建國 指出   「 這對 雲林 來 說   不管 是 對 土地 面積   農地 使用 種種   還有 最 重要 的 是 說   我們 也 是 高鐵行經 主要 縣市   要 克服 的 很大 環境 挑戰 議題   」 雲林 是 全台 地層下陷 嚴 重地 區   下陷 面積 數據 時 好 時壞   對 居民 及 高鐵 乘客 安全 有 隱憂   除了 仁和 國小設 置   水利 署 也 將規劃 在 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所   再 設置 地下水 觀測 站 共 7 口井   大 埤 仁和 國小校 長 洪千惠 表示   「 水利 署 如果 什麼 政策 要 跟民眾 宣導   還有 一些 教育   還有 跟 小朋友 的 環境 教育 的 結合   都 可 把 它 連在 一起   變成 與 民眾 共有 這樣   」 校方 表示   校園 中設 地下水 觀測 站   也 能 讓 學童 透過 實際 觀測 做 環境 教育   對此 水利 署則 表示   會 配合 校方 再 做 相關 規劃   也 希望 設置 觀測井 所 得到 的 即 時 資訊   作為 地層下陷 相關 防制 參考  </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  </t>
+          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 的 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 的 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 的 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 的 湖山 水庫   源源 不斷 的 滲水來 補充 雲林 的 地下水 源   對 減緩 地層下陷 有 很大 的 助益     林內 鄉 公所 今天 在 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 及 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 在 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 及 鄰近 縣 市民 生   農業 及 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   在 林內 河段 是 河 寬 最窄 處   也 造就 了 林內 的 好 水質   就 可以 從事 很多 水環境 及 水資源 的 保護 措施   經調查 在 林內 三號 水門 附近 的 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 的 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 的 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 的 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 的 面積 已 達 20 公頃   源源 不絕 的 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 也 指出   去年 全國 百年 大旱   各地 都 沒 有 水 灌溉   別 的 縣市 就算 有 地下水 井   也 抽 不到 水   唯一 有水 的 就是 雲林   因為 有 地下水 補助   所以 農民 可以 抽 得到 地下水   他 也 強調   要 好好 保護林 內 的 水資源   因為 林內 的 水 如果 受到 污染   河川 局 也 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 抑制 濁水溪 揚塵   四河 局兩 年前 雲林 林內 段   多 設置 河槽 地下水 補注池   經過 兩年 地下水 補注經 監測   約 注入 1300 萬公噸 水源 入滲   今年 將再 增擴 20 公頃   當地 農民 就 說   去年 全國 百年 大旱   當地 農民持續 水源 灌溉   對此 第四 河川 局則 表示   地下水 補注池 效果 不錯   能 有效 舒緩 地層下陷 問題   雲林 林內 3 號水門 附近 濁水溪 河段   為 了 改善 揚塵   兩 年前 四河 局進行 疏濬 工程   並設 置 地下水 人工 補注池 蓄水   將 地面 河水 引進 補注 地下水   水源 最深 達到 地下 四百 公尺   希望 減緩 地層下陷   第四 河川 局 副 局長 張朝 恭 說     疏濬 部分   配合 把 引水 進來   來 一個 補注 地下水 功能     雲 科大 水土 中心 主任 溫志超 表示     這邊 8 公頃   上游 有個 28 公頃   兩個 合 併 約 35 公頃 去 操作   兩年 時間   基本上 總共 35 公頃 之下   1300 多萬公噸 水入滲 下去     雲 科大 水土 中心 表示   補注池 水源 由高處 流向 低處 補注   能 有效 減緩 地層下陷   能 使 地下水位 回升   像 去年 全國 百年 大 缺水   各地 都 沒水 可 灌溉   補注池 功效 就 明顯 可見   雲林 農民說     年尾時 沒 下雨 一定 都 會 缺水   缺水 時透過 這樣 補注   對 農民 一定 有所 幫助     雲林 農民 表示     要 用水 就 比 較 不用 擔心   就是 用排 排 得到     四河 局 表示   雲林 第一座 地下水 補注池   2020 年 完成 因為 效果 不錯   今年 將再 擴大將 蓄水池 面積 增加 20 公頃   希望 透過 地面水 補注 地下水   達到 減緩 地層下陷 情況   能 讓 農民有 足夠 水源 灌溉  </t>
+          <t xml:space="preserve">為 抑制 濁水溪 揚塵   四河 局兩 年前 在 雲林 林內 段   多 設置 河槽 地下水 補注池   經過 兩年 地下水 補注經 監測   約 注入 1300 萬公噸 水源 入滲   今年 將再 增擴 20 公頃   有 當地 農民 就 說   去年 全國 百年 大旱   當地 農民持續 有 水源 灌溉   對此 第四 河川 局則 表示   地下水 補注池 效果 不錯   能 有效 舒緩 地層下陷 問題   雲林 林內 3 號水門 附近 濁水溪 河段   為 了 改善 揚塵   兩 年前 四河 局進行 疏濬 工程   並設 置 地下水 人工 補注池 蓄水   將 地面 河水 引進 補注 地下水   水源 最深 達到 地下 四百 公尺   希望 減緩 地層下陷   第四 河川 局 副 局長 張朝 恭 說   「 在 疏濬 的 部分   配合 把 引水 進來   來 做 一個 補注 地下水 的 功能   」 雲 科大 水土 中心 主任 溫志超 表示   「 這邊 8 公頃   上游 有個 28 公頃   兩個 合 併 約 35 公頃 去 操作   那 兩年 的 時間   基本上 總共 35 公頃 之下   有 1300 多萬公噸 的 水入滲 下去   」 雲 科大 水土 中心 表示   補注池 的 水源 由高處 流向 低處 補注   能 有效 減緩 地層下陷   也 能 使 地下水位 回升   像 去年 全國 百年 大 缺水   各地 都 沒水 可 灌溉   補注池 的 功效 就 明顯 可見   雲林 農民說   「 年尾時 沒 下雨 一定 都 會 缺水   那 缺水 時透過 這樣 的 補注   對 農民 一定 有所 幫助   」 雲林 農民 表示   「 要 用水 就 比 較 不用 擔心   就是 用排 的 也 排 得到   」 四河 局 表示   雲林 第一座 地下水 補注池   在 2020 年 完成 因為 效果 不錯   今年 將再 擴大將 蓄水池 面積 增加 20 公頃   希望 透過 地面水 補注 地下水   達到 減緩 地層下陷 情況   也 能 讓 農民有 足夠 水源 灌溉  </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  </t>
+          <t xml:space="preserve">雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 內 虎尾   土庫   元長 和 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 在 去年 暫停 辦理   雲林 農民 表示   「 只要 不是 種 水稻 類   其實 它 的 吸 水量 會 真的 會差 很多   這是 實在 話   在 雲林 這邊 就是 水稻 的 需求   地下水 的 需求量 是 最 多 的   」 為 了 鼓勵 高鐵 沿線 的 農民能 在 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出   「 高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 的 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 在 一期 作去 推動 的 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元   」 雲林 農民 指出   「 成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過   」 當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 也 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 內 達 到 稻作 1700 公頃 轉出 的 目標  </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  </t>
+          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 內 農民種 植 低耗 水 作物 的 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 在 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 及 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 及 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 內 農地   獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 的 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  </t>
+          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 內 農民種 植 低耗 水 作物 的 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   在 農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 ○ 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 內 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 在 二 ○ 一 三年 至 二 ○ 二 ○ 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 及 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 的 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>資訊視 覺化 地層下陷                   書名     書上 設計展 2021       作者   尼 普利 編輯室 企劃     出版社   尼 普利 出版     出版 時間   2022 年 1 月 15 日           臺 灣 地層下陷   人們 對 於 這塊 土地 不當 利用   可說 是 現今 臺 灣 地層下陷 主要 肇因   像是 水資源 缺乏 所導致 超 抽 地下水   抑或 是 高鐵興 建所 造成 地面 荷重 大量 增加 等   都 加速 了 地層下陷 問題 發生   〈 B1 － 臺 灣 地層下陷 〉 專書以 複 合式 裝幀 結構 來 設計   將其分 為 兩 部分   分別 以線 裝及 摺 頁 書 方式 呈現   運用 資訊視 覺化 設計 為 主軸   介紹 臺 灣國土 下陷 四大 原因   九大 下陷 地區 說明   各個 地區 圖文細節   藉由 閱讀 理解 各 下陷 地區 之間 差異   引領民眾 快速 了解 現今 臺 灣 地層下陷 嚴重 程度       複 合式 裝幀 結構 設計     有別 於 過往 百科 全書 呆板 形式   本 專書 運用 複 合式 裝幀 結構 設計   利用 資訊視 覺化 手法   將 原本 龐雜 數據   輔以 凸顯 重點 視覺 編排   呈現 一幅 巨型 資訊 圖表   並 搭配 注目 性較 高 紅色   警惕 民眾 地層下陷 所 造成 危害   以及 對 居住 與 國土 安全 威脅                                           以 專書設 計為 主軸   書籍 以 複 合式 裝幀 設計   圖 ／ 尼 普利   提供                           封面 以 雷射 切割 紙材 方式 呈現 下陷 層次 造型   圖 ／ 尼 普利   提供                           重點 介紹 九大 下陷 地區 數據表現 與 相 關訊息   圖 ／ 尼 普利   提供           ● 編輯 觀點     地層下陷 問題   好像 溫水 煮 青蛙   水平 看似 一致   卻 可能 正在 下移 而 渾然 未覺   安全 此刻 懸崖邊   搖搖欲 墜   〈 B1 － 臺 灣 地層下陷 〉 透過 設計 手法   視覺化 呈現 臺 灣 地層下陷 現況   讓 人 意識 到 問題 存在   進而 思考 土地 規劃   臺 灣 四面 環海   地層下陷 問題 格外 隱憂   國土 一旦 保持 不佳   負載 過度   一不留神 就是 海水倒灌 等 不 可逆 嚴重後患   那些 存在 許無力 一次 解決   但 不放棄   盡己 所能   喚起 危機 意識   是 一種 改變 開始     設計 團隊     樹德 科技 大學   視覺 傳達 設計系     Designer ｜ 江蓉   楊皓鈞   黃 上溢   廖楷平   林靜芬   黃 麒 樺     Advisor ｜ 陳 月 英                             【 本 文摘 選自尼 普利 編輯室 出版   書上 設計展 2021   一書   授權 刊登 於 聯合 新聞網   琅琅 悅讀   頻道   未經 同意   請 勿 轉載   】 加入   琅琅 悅讀   Google   News   按下 追 蹤   精選 好文 不 漏接       五月 藝文 專題 活動 一覽     🎁 　 抽獎 ｜ 海明威   金城武 都 來過   法國 巴黎 左岸 莎士 比亞書店   📰 　 師大美術館   一拍 即影   300 件 拍 立得   見證 攝 影大師 黃 金 年代   📰 　 漫步 青島 老城 區   探訪 上 世紀 文藝書店   民宿 咖啡 館   📰 　 不一樣 山水 畫   M ＋ 博物 館   山鳴 水應   用 新視角 看藝術   📰 　 南美 館 雙館 共展   沃克   海怪   炮火 與 他們   以藝術 視角 回望 歷史   📰 　 吃 是 什麼 烤 鴨   北京 與 廣式 烤 鴨 之間 3 種差異   📌 　 梁朝 偉   劉德華 都 演過   盤點 金庸 武俠 劇中 經典 選角</t>
+          <t>資訊視 覺化 地層下陷                   書名     書上 設計展 2021       作者   尼 普利 編輯室 企劃     出版社   尼 普利 出版     出版 時間   2022 年 1 月 15 日           臺 灣 地層下陷   人們 對 於 這塊 土地 的 不當 利用   可說 是 現今 臺 灣 地層下陷 的 主要 肇因   像是 水資源 缺乏 所導致 超 抽 地下水   抑或 是 高鐵興 建所 造成 地面 荷重 大量 增加 等   都 加速 了 地層下陷 問題 的 發生   〈 B1 － 臺 灣 地層下陷 〉 專書以 複 合式 裝幀 結構 來 設計   將其分 為 兩 部分   分別 以線 裝及 摺 頁 書 的 方式 呈現   內容 運用 資訊視 覺化 設計 為 主軸   介紹 臺 灣國土 下陷 四大 原因   九大 下陷 地區 說明   及 各個 地區 的 圖文細節   藉由 閱讀 理解 各 下陷 地區 之間 的 差異   引領民眾 快速 了解 現今 臺 灣 地層下陷 的 嚴重 程度       複 合式 裝幀 結構 設計     有別 於 過往 百科 全書 的 呆板 形式   本 專書 運用 複 合式 裝幀 結構 設計   利用 資訊視 覺化 手法   將 原本 龐雜 的 數據   輔以 凸顯 重點 的 視覺 編排   呈現 一幅 巨型 的 資訊 圖表   並 搭配 注目 性較 高 的 紅色   警惕 民眾 地層下陷 所 造成 的 危害   以及 對 居住 與 國土 安全 的 威脅                                           以 專書設 計為 主軸   書籍 以 複 合式 裝幀 設計   圖 ／ 尼 普利   提供                           在 封面 以 雷射 切割 紙材 方式 呈現 下陷 層次 造型   圖 ／ 尼 普利   提供                           重點 介紹 九大 下陷 地區 的 數據表現 與 相 關訊息   圖 ／ 尼 普利   提供           ● 編輯 觀點     地層下陷 的 問題   好像 溫水 煮 青蛙   水平 看似 一致   卻 可能 正在 下移 而 渾然 未覺   安全 此刻 在 懸崖邊   搖搖欲 墜   〈 B1 － 臺 灣 地層下陷 〉 透過 設計 手法   視覺化 呈現 臺 灣 地層下陷 的 現況   讓 人 意識 到 問題 的 存在   進而 思考 土地 的 規劃   臺 灣 四面 環海   地層下陷 的 問題 格外 隱憂   國土 一旦 保持 不佳   負載 過度   一不留神 就是 海水倒灌 等 不 可逆 的 嚴重後患   那些 存在 的 也 許無力 一次 解決   但 不放棄   盡己 所能   喚起 危機 意識   也 是 一種 改變 的 開始     設計 團隊     樹德 科技 大學   視覺 傳達 設計系     Designer ｜ 江蓉   楊皓鈞   黃 上溢   廖楷平   林靜芬   黃 麒 樺     Advisor ｜ 陳 月 英                             【 本 文摘 選自尼 普利 編輯室 出版   書上 設計展 2021   一書 內容   授權 刊登 於 聯合 新聞網 「 琅琅 悅讀 」 頻道   未經 同意   請 勿 轉載   】 加入   琅琅 悅讀   Google   News   按下 追 蹤   精選 好文 不 漏接       五月 藝文 專題 及 活動 一覽     🎁 　 抽獎 ｜ 海明威   金城武 都 來過   法國 巴黎 左岸 的 莎士 比亞書店   📰 　 師大美術館 「 一拍 即影 」 300 件 拍 立得   見證 攝 影大師 的 黃 金 年代   📰 　 漫步 青島 老城 區   探訪 上 世紀 的 文藝書店   民宿 及 咖啡 館   📰 　 不一樣 的 山水 畫   M ＋ 博物 館 「 山鳴 水應 」 用 新視角 看藝術   📰 　 南美 館 雙館 共展 「 沃克   海怪   炮火 與 他們 」 以藝術 視角 回望 歷史   📰 　 你 吃 的 是 什麼 烤 鴨   北京 與 廣式 烤 鴨 之間 的 3 種差異   📌 　 梁朝 偉   劉德華 都 演過   盤點 金庸 武俠 劇中 的 經典 選角</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 中央社 〕 一項 新 研究 指出   南亞 東南亞 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 人 更 容易 受到 海平面 上升 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表   自然 永續     Nature   Sustainability   期刊 上 一項 研究   快速 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 需求     研究 指出     這 使得 經歷 當地 土地 快速 下沉 城市 所 面臨 沿海 災害 風險   比 那些 已 因氣候 導致 海平面 上升 城市 所 面臨 風險 更 大       越南 人口 最多 城市 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 緬甸 商業 中心 仰光 高峰 年間 皆 下沉 20 多公 釐     研究 稱     這些 快速 下沉 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 建築 結構   導致 土地 下沉       下沉 城市 本身 並非 氣候變遷 結果   但 研究 人員 說   他們 研究 能 更 深入 了解 下沉 現象 如何   加劇 氣候 所導致 平均 海平面 上升 影響       根據 聯合國   政府 間 氣候變遷 問題 小組     Intergovernmental   Panel   on   Climate   Change     IPCC   資料   到 2050 年   將有 十多 億人 生活 沿海 城市   面臨 海平面 上升 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  </t>
+          <t xml:space="preserve">〔 中央社 〕 一項 新 的 研究 指出   南亞 和 東南亞 的 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 的 人 更 容易 受到 海平面 上升 的 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表 在 「 自然 永續 」   Nature   Sustainability   期刊 上 的 一項 研究   快速 的 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 的 需求     研究 指出   「 這 使得 經歷 當地 土地 快速 下沉 的 城市 所 面臨 沿海 災害 的 風險   比 那些 已 因氣候 導致 海平面 上升 的 城市 所 面臨 的 風險 更 大   」   越南 人口 最多 的 城市 和 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   在 這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 的 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 和 緬甸 商業 中心 仰光 在 高峰 年間 皆 下沉 20 多公 釐     研究 稱   「 這些 快速 下沉 的 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 的 建築 結構   導致 土地 下沉   」   下沉 的 城市 本身 並非 氣候變遷 的 結果   但 研究 人員 說   他們 的 研究 能 更 深入 了解 下沉 現象 如何 「 加劇 氣候 所導致 平均 海平面 上升 的 影響 」     根據 聯合國 「 政府 間 氣候變遷 問題 小組 」   Intergovernmental   Panel   on   Climate   Change     IPCC   的 資料   到 2050 年   將有 十多 億人 生活 在 沿海 城市   面臨 海平面 上升 的 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  </t>
+          <t xml:space="preserve">〔 記者 吳昇儒 ／ 新北 報導 〕 受 「 尼莎 」 颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 也 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 的 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 的 改 道路 線 公告 在 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 的 管制 車流   柏油路 面上 出現 許多道 的 裂痕   除了 用 交通 錐 警示 阻擋   也 立起 告示牌   請行經 的 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 有 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 的 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 也 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 及 施工 單位   連夜 辛苦 的 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 也 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 有 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">汐止 工 建路 因連日 大雨 沖 刷   路面 下方 土石 流失   造成 路面 下陷   為維護 用路 安全   新北市 水利局 表示   已連夜 成立 前進 指揮 所   調度 人員 機具 進行 路面 搶修   目前 先採 低壓 灌漿 穩定 地盤   期能 於 最 短 時間 內修 復 路面   水利局 表示   汐止 工 建路 下方 設有 污水 特四幹線   收集 汐止 地區 污水   於 103 年間 曾 遭建商 基樁 打破   因特 四幹線 管徑 1.8 公尺 且位 於 道路 下方 15 公尺   並持續 通水 使用 中   需設 置 替代 管線後方能 進行 修 復   因此 當時 由 台北市 衛工處 先行 於 管線 上方 灌漿 補強   並進行 新 設繞 流管 建置 工程   水利局 提到   目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程   計畫 新設 管徑 1.2 公尺 繞 流管 導水 後   再 辦理 原特四幹線 管線 修 復   此次 修繕 工程 繞 流管 尚約 剩 7 公尺 才能 接通   預計 11 月 14 日 工程 完成   水利局 透露   此次 工 建路 下陷 位置 臨近 特四幹線 遭 打破 點   初步 研判 可能 與 此 相關   為 避免 持續 下陷   水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作   等到 特四幹線 繞 流管 工程 完工 後   將進 行原 特四幹線 檢修 工程  </t>
+          <t xml:space="preserve">汐止 工 建路 因連日 大雨 沖 刷   路面 下方 有 土石 流失   造成 路面 下陷   為維護 用路 安全   新北市 水利局 表示   已連夜 成立 前進 指揮 所   調度 人員 機具 進行 路面 搶修   目前 先採 低壓 灌漿 穩定 地盤   期能 於 最 短 時間 內修 復 路面   水利局 表示   汐止 工 建路 下方 設有 污水 特四幹線   收集 汐止 地區 污水   於 103 年間 曾 遭建商 基樁 打破   因特 四幹線 管徑 1.8 公尺 且位 於 道路 下方 15 公尺   並持續 通水 使用 中   需設 置 替代 管線後方能 進行 修 復   因此 當時 由 台北市 衛工處 先行 於 管線 上方 灌漿 補強   並進行 新 設繞 流管 建置 工程   水利局 提到   目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程   計畫 新設 管徑 1.2 公尺 繞 流管 導水 後   再 辦理 原特四幹線 管線 修 復   此次 修繕 工程 繞 流管 尚約 剩 7 公尺 才能 接通   預計 11 月 14 日 工程 完成   水利局 透露   此次 工 建路 下陷 位置 臨近 特四幹線 遭 打破 點   初步 研判 可能 與 此 相關   為 避免 持續 下陷   水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作   等到 特四幹線 繞 流管 工程 完工 後   將進 行原 特四幹線 檢修 工程  </t>
         </is>
       </c>
     </row>
@@ -567,1169 +567,1169 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">台灣 位處 菲律 賓海板 塊 歐亞板 塊 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出   台灣 真的 動     氣象局 全台 建置 超過 160 個   全球 導航衛 星系 統   測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 台灣 斷層 都   偷偷   地亂動   氣象局 表示     既然 手機 上 GPS 可以 監測 我們 每日 移動 路線 距離   那麼   同樣 概念 技術   是不是 能 監測 台灣 地表   看看 它 每天 移動 了 多少   當然 可以     氣象局 已 全 台灣 建置 超過 160 個   全球 導航衛 星系 統   測站   結合 各 單位 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 地表 位移   像是 車籠埔斷 層 錯動   為 台灣 地表 帶來 一道 劇烈   長 達 105 公里 傷痕   斷層 上盤 水平 位移 為 1 至 9 公尺 不 等   而 大甲溪 更 出現 地殼 抬高   落差 5 公尺 瀑布 景觀   氣象局 表示   除了 地震 期間   短短 數 十秒 出現   同震 滑移   之外   地震 前   間震期     地震 後   震後期     斷層 都   偷偷   地亂動   氣象局 說明   地殼 不 只 地震 時會動   平時 地殼   累積 能量   過程 中   就 會 地表 出現 非常 微量 變形   或者 是 小小的   不起眼 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 一舉 一動   希望 可以 找出 大 地震 發 生前 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 樣態   或是 分析 出 地震 發生 週期   計算 地震 災害 潛勢   評估 台灣 各地 斷層 活動 地震 機制  </t>
+          <t xml:space="preserve">台灣 位處 菲律 賓海板 塊 及 歐亞板 塊 的 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出 「 台灣 真的 在 動 」   氣象局 在 全台 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 的 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 的 台灣 斷層 都 有 「 偷偷 」 地亂動   氣象局 表示   「 既然 手機 上 的 GPS 可以 監測 我們 每日 的 移動 路線 和 距離   那麼   同樣 的 概念 和 技術   是不是 也 能 監測 台灣 的 地表   看看 它 每天 移動 了 多少 呢   當然 可以   」 氣象局 已 在 全 台灣 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站   結合 各 單位 的 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 的 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 的 地表 位移   像是 車籠埔斷 層 的 錯動   為 台灣 地表 帶來 一道 劇烈 的   長 達 105 公里 的 傷痕   斷層 上盤 的 水平 位移 為 1 至 9 公尺 不 等   而 在 大甲溪 更 出現 地殼 抬高   落差 5 公尺 的 瀑布 景觀   氣象局 表示   除了 地震 期間   在 短短 數 十秒 內 出現 的 「 同震 滑移 」 之外   地震 前   間震期     地震 後   震後期     斷層 也 都 有 「 偷偷 」 地亂動   氣象局 說明   地殼 不 只 在 地震 時會動   平時 地殼 在 「 累積 能量 」 的 過程 中   就 會 在 地表 出現 非常 微量 的 變形   或者 是 小小的   不起眼 的 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 的 一舉 一動   希望 可以 找出 大 地震 發 生前 的 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 的 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 的 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 的 樣態   或是 分析 出 地震 的 發生 週期   計算 地震 的 災害 潛勢   評估 台灣 各地 斷層 的 活動 和 地震 的 機制  </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹縣 竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險   希望 相關 單位 幫忙 出面 解決     被 指控 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 原因 不明 下陷   龜裂 問題   看起 來 災害 確實 持續 進行 中   但導致 持續 龜裂 擴大 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 天氣 放晴 後 協助 維修 處理     陳 講   鍾 姓 住戶 主要 是 拿 自家 建物 背 後 另 1 間 民宅 比 對   鍾 認為 2 宅   沒有 一直 線     所以 認定 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護     縣府 工務處 長江 良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 毀損 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 被 徵收 戶   3 樓半 住家 就是 蓋 約 3   40 坪 配回 地上   10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 其中   如果 房子 真的 不安   影響 非常 大     鍾 說   隔鄰 新建 工地 約 是 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 地面   竟 自己 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 牆面 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 已有 他 1 片 手指甲 寬   至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  </t>
+          <t xml:space="preserve">〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹縣 竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 在 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 和 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 的 透天 厝 會 不會 有 一夕 傾倒 的 危險   希望 相關 單位 幫忙 出面 解決     被 指控 的 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 有 原因 不明 的 下陷   龜裂 問題   看起 來 災害 也 確實 持續 進行 中   但導致 持續 龜裂 擴大 的 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 在 天氣 放晴 後 協助 維修 處理     陳 先生 講   鍾 姓 住戶 主要 是 拿 自家 建物 和 背 後 另 1 間 民宅 做 比 對   鍾 先生 認為 2 宅 「 沒有 一直 線 」   所以 認定 有 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 的 安全 維護     縣府 工務處 長江 良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 有 毀損 的 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 也 可 要求 工地 的 原設 計建築師 或 技師 到場 做 有 無 立即 性 危險 的 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 的 建物 做 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 的 被 徵收 戶   3 樓半 的 住家 就是 蓋 在 約 3   40 坪 的 配回 地上   10 年前 要蓋 這樣 的 透天 厝 少 說 也 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 在 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 也 有 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 在 其中   如果 房子 真的 不安   影響 非常 大     鍾 先生 說   隔鄰 的 新建 工地 約 是 在 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 的 地面   竟 在 自己 的 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 的 牆面 也 有 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 和 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 的 已有 他 的 1 片 手指甲 寬   至於 牆角 和 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  </t>
+          <t xml:space="preserve">〔 編譯 管淑平 ／ 綜合 報導 〕 印度 的 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 的 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   的 斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 也 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 在 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 有 60 多戶 搬 到 政府 的 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 的 近因 「 似乎 是 有 問題 的 排水 系統 導致 房子 底下 滲水   造成 下陷   」   斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 和 觀光客 也 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 也 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 的 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   也 有 50 多間 房子 出現 不斷 擴大 的 裂縫   該鎮 人口 5 萬人  </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  </t>
+          <t xml:space="preserve">印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 和 觀光 客造訪 的 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 也 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 在 安全 的 避難 地點   印度 北部 的 山城 地層下陷   房屋   樓梯 及 道路 都 嚴重 龜裂   建築物 的 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示   「 有 5 戶 人家 已經 搬走   其他 好 幾戶 也 計劃 遷移   另 做 打算   」 官員 表示   最近 幾個 星期 當地 通報 有 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 的 地點   「 在 找到 解決 方法 之前   我們 先 把 居民 安置 在 安全 無虞 的 飯店 賓館 跟 民宿   」 喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 的 門戶   也 常有 想要 征服 喜馬 拉雅山 的 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 的 影響   但 如果 不 做好 水土保持   這座 「 沉 沒 的 城鎮 」 可能 很快 就 會 走向 毀滅  </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  </t>
+          <t xml:space="preserve">插 在 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 在 田中 的 宮廟   事實 上 這座 宮廟 興建 在 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 的 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間 「 插 在 稻田 中 的 廟宇 」 出現 在 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 的 廟   仔細 一看   屋頂 上 的 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   有 大批 網友 直呼   「 真是 神跡 」   「 從田裡 冒 出廟 頂   是 獨特 的 裝置 藝術 」   更 有人 笑稱   「 這是 真正 的 土地公 廟   」 而前 來 朝 聖 的 遊客 蕭 先生 也 說   「 很 奇特 啊   田中 的 廟 」   其實   這間 廟 已有 將近 兩 百年 的 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 在 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說   「 大家 都 會 好奇   裡面 的 東西有 沒有 搬出 來   神明 有 沒 有 沉下去   都 會問 這些 問題   其實 神明 都 有 請 出來   」   百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">疑因   豐采 520   建案 導致 竹 北市 莊敬 六街 發生 道路 坍塌   一輛 特斯拉 還掉 進去   新竹縣 長 楊 文科 今天 表示   已 與 竹北 市長 鄭 朝方 協議   市公所 將 全力 配合 相關 作業   並 要求 建商以 透地雷達 設備   預防性 檢測 建案 四周 道路 土質 情形   預防 再次 坍塌   工務處 表示   目前 初判 造成 此次 坍塌   原因 是 建商開 挖 地下室 抽取 地下水   導致 土砂 層 部分 帶 走 地層下陷   為 防止 附近 道路 再次 發生 坍塌   已 要求 建商以 透地雷達 設備 詳實 檢測 建案 四周 勝利 二路   勝利 一路   莊敬 六街 自強 北路   確認 是否 仍有 土質 流失 造成 坑洞   由 於 該 路段 路權 為 竹北 市公所 權責   縣長 楊 文科 與 竹北 市長 鄭 朝方 達 成共識   市公所 將 全力 配合 周邊 道路 封鎖 透地雷達 監測 等   展開 全面 檢測   縣府 已 與 市公所 研議 相關 作業   確保 附近 住戶 安全 無虞   工務處 指出   縣府 已 要求 建商 於 維生 管線   自來 水   電力   瓦斯 等 檢測 維修 完成 後   會同 竹北 市公所 同意   以低 強度 混凝土 灌漿 補強   針對 承造 監造 人   縣府 希望 加重 懲罰 機制   將 蒐集 近幾次 相關 違 失事 證   移送 新竹縣 營造業 審議 委員會 建築師 懲戒 委員會 審議   另外   縣府 也將 此次 工安 事件 提列 為 建築 爭議 損鄰 事件   立案 列管   通知 起造   承造 監造 人 改善 鄰房 損害 情況   並 於 完成 安全 改善 修 復 後   檢具 相關 證明 文件 與 同意 書 報府 核備   後 續 建商 必須 與 受 損戶 達成 和解   縣府 才 會 核發 使用 執照   工務處 說   縣府 將持續 配合 新竹 地檢署 調查   後 續 該 工地 建商 如 欲 復工   縣府將 與 竹檢 取得 共識   要求 工地 完善 工地 安全   確定 鑑定 報告 結果 無 虞   舉辦 施工 說 明會   繳清 所有 罰 鍰   以 嚴格 標準 檢視 改善 結果 後   再 評估 是否 辦理 復工  </t>
+          <t xml:space="preserve">疑因 「 豐采 520 」 建案 導致 竹 北市 莊敬 六街 發生 道路 坍塌   一輛 特斯拉 還掉 進去   新竹縣 長 楊 文科 今天 表示   已 與 竹北 市長 鄭 朝方 協議   市公所 將 全力 配合 相關 作業   並 要求 建商以 透地雷達 設備   預防性 檢測 建案 四周 道路 土質 情形   預防 再次 坍塌   工務處 表示   目前 初判 造成 此次 坍塌   原因 是 建商開 挖 地下室 抽取 地下水   導致 土砂 層 部分 帶 走 地層下陷   為 防止 附近 道路 再次 發生 坍塌   已 要求 建商以 透地雷達 設備 詳實 檢測 建案 四周 的 勝利 二路   勝利 一路   莊敬 六街 及 自強 北路   確認 是否 仍有 土質 流失 造成 坑洞   由 於 該 路段 路權 為 竹北 市公所 權責   縣長 楊 文科 與 竹北 市長 鄭 朝方 達 成共識   市公所 將 全力 配合 周邊 道路 封鎖 及 透地雷達 監測 等   展開 全面 檢測   縣府 也 已 與 市公所 研議 相關 作業   確保 附近 住戶 安全 無虞   工務處 指出   縣府 也 已 要求 建商 於 維生 管線   及 自來 水   電力   瓦斯 等 檢測 維修 完成 後   會同 竹北 市公所 同意   以低 強度 混凝土 灌漿 補強   針對 承造 及 監造 人   縣府 也 希望 做 加重 懲罰 的 機制   將 蒐集 近幾次 的 相關 違 失事 證   移送 新竹縣 營造業 審議 委員會 及 建築師 懲戒 委員會 審議   另外   縣府 也將 此次 工安 事件 提列 為 建築 爭議 的 損鄰 事件   立案 列管   通知 起造   承造 及 監造 人 改善 鄰房 損害 情況   並 於 完成 安全 改善 修 復 後   檢具 相關 證明 文件 與 同意 書 報府 核備   後 續 建商 也 必須 與 受 損戶 達成 和解   縣府 才 會 核發 使用 執照   工務處 也 說   縣府 將持續 配合 新竹 地檢署 調查   後 續 該 工地 建商 如 欲 復工   縣府將 與 竹檢 取得 共識   要求 工地 完善 工地 安全   確定 鑑定 報告 結果 無 虞   舉辦 施工 說 明會   繳清 所有 罰 鍰   以 嚴格 標準 檢視 改善 結果 後   再 評估 是否 辦理 復工  </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝</t>
+          <t>台北市 也 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 也 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 及 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 有 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 的 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 有 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 有 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 有 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影</t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 的 工地   做 全面 的 清查   是不是 有 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 的 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 的 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 的 事件   整起 事件 會 做 完整 的 調查   並且 就 工地 全面 檢視   以及 營造商 的 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 在 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  </t>
+          <t xml:space="preserve">台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 在 第一 時間 做出 相關 的 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 也 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 的 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 的 真正 原因   並 儘 快 排除   避免 坍塌 的 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 的 事件   將針 對 工地 的 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 的 安全   避免 讓 地面 坍塌 的 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供</t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 也 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺 「 天坑 」   圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺 「 天坑 」   圖 ／ 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 坍塌 處 附近   約 10 人 安置 飯店   要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺   天坑     圖 ／ 北市 府 提供</t>
+          <t>北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 在 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 在 坍塌 處 附近   約 10 人 安置 飯店   她 也 要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺 「 天坑 」   圖 ／ 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供</t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 的 工地   做 全面 的 清查   是不是 有 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 的 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   也 都 在 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 的 安全   避免 讓 地面 坍塌 的 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 的 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 的 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 的 事件   整起 事件 會 做 完整 的 調查   並且 就 工地 全面 檢視   以及 營造商 的 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 的 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 的 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 的 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 的 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 在 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 在 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 在 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 及 36 名 消防 員   消防局 長 莫懷祖 也 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 也 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 做 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 在 評估 要 不要 做 預防性 疏散   因為 市民 安全 最 重要   在 現場 關心 約 半小時 後   蔣萬安 在 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 的 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡   「 現在 先 搶 救   原因 之後再 來 探討 」     台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   有 安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 內 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 也 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供</t>
+          <t>台北市 也 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 也 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t>北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 也 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 在 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   也 請里長 逐戶 安撫   現場 分為 撤離區 和 監測區   除了 天坑 之外   轉角 一戶 有 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 先生 住 在 當地 20 多年   他 提到 走路 經過 時   有 看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 先生 表示   他 姊姊 騎車 來 時   突然 聽到 「 砰 」 一聲 被 嚇到   那時 就 有 一個 小洞   自己 也 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  </t>
+          <t xml:space="preserve">台北市 信義區 崇德 街巷 弄 內 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 的 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 的 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 的 坑洞   道路 緊鄰 的 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 有 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 有 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 的 姊姊 大概 下午 2 時 50 分 的 時候 聽 到 「 砰 」 的 聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 在 這個 過程 中越 來 越 大   路上 的 腳踏車   摩托 車等 就 跟 著 掉下去   「 很 可怕   」   鄭 大哥 表示   他 住 在 這裡 3 年 多 了   旁邊 的 建案 大概 去年 開始 施工   剛開 挖 的 時候 路面 有 龜裂   建商 就 來 補好   之 後 雖然 在 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 也 沒 有 什麼 異狀     黃 先生 則說   他 住 這裡 20 多年 了   今天下午 在 外面 散步   走過 去 時 發現 有 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 有 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 的 特斯拉 轎車 直接 掉落  </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 施工   疑似 因為 工地 連續 壁施作   且 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 基本 填補 坑洞   受影響 住戶 透露   剛剛 一度 5 名住 戶 受困 屋子 裡   所幸 消防 員協助 救援   而 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  </t>
+          <t xml:space="preserve">【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 的 道路 「 地層下陷 」   消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 的 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險 「 懸空 」   警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 也 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 在 施工   疑似 因為 工地 連續 壁施作   且 有 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 先 基本 填補 坑洞   受影響 住戶 也 透露   剛剛 一度 有 5 名住 戶 受困 在 屋子 裡   所幸 消防 員協助 救援   而 有 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 在 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北 市長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  </t>
+          <t xml:space="preserve">台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 的 道路 「 地層下陷 」   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 的 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險 「 懸空 」   而 台北 市長 蔣萬安 稍早 也 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 也 做 了 緊急 疏散   也 強調   當這次 事件 的 緊急 處置 告一段落 之 後   會 做 台北市 相關 工地 的 全面 清查   了解 是否 有類 似 這次 地面 坍塌 的 原因   積極 做 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   也 聽 了 相關 單位 的 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 有 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   也 趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   也 做 了 緊急 疏散   蔣萬安 指出   也 跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 的 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 的 損害 降到 最低   第二   就 旁邊 的 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 做 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 也 包括 工地 實施者   營造 商過 去 的 相關 紀錄   第四   當這次 事件 的 緊急 處置 告一段落 之 後   要 做 台北市 相關 工地 的 全面 清查   了解 是否 有類 似 這次 地面 坍塌 的 原因   要積 極來 做 相關 處置   蔣萬安 表示   「 我們 現在 已經 非常 努力 在 做 緊急 應變   處置   第一 時間 也 盡快 的 疏散 了 住戶   我 想 市民 朋友 的 安全 是 最 重要 的   目前 還在 緊急 處置   我 想 必要 的 話 我們 還是 希望 做 預防性 疏散 」   而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 的 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 的 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 的 部分 用 混 泥土 灌足外   也 在 開 挖面 做 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 在 可控 的 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 有 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 的 狀態   估計 應該 都 要 到 凌晨  </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  </t>
+          <t xml:space="preserve">〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 的 2 部機車 及 一部 腳踏車 瞬間 掉 進 天坑 內   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 也 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 在 現場 協助 鄰 房民眾 疏散  </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>北市 信義區 今 下午 3 點 多出 現大 天坑   崇德 街 60 巷 民宅 前 路面 坍陷   傍晚 5 點多 坑洞 再 擴大   消防局 已緊 急 疏散 鄰近 住戶   信義區 公所 區長 陳 冠伶 表示   9 位有 安置 需求者   已協助 找 好 旅社 並 入住   每人 每日 可申 請 補助 1600 元   最多 7 天       區長 陳 冠伶 表示   人數 調查 一直 變動   目前 9 位有 安置 需求   依規定 發生 緊急 災害 可 申請 安置 補助   每人 一天 1600 元   最多 申請 7 天   已協助 找 好 旅社   住戶 均 已 入住 安置   該 坑 主要 範圍 為 18 號至 24 號   警戒 區 12 號至 24 號已 拉起 封鎖線   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝</t>
+          <t>北市 信義區 今 下午 3 點 多出 現大 天坑   崇德 街 60 巷 民宅 前 路面 坍陷   傍晚 5 點多 坑洞 再 擴大   消防局 已緊 急 疏散 鄰近 住戶   信義區 公所 區長 陳 冠伶 表示   9 位有 安置 需求者   已協助 找 好 旅社 並 入住   每人 每日 可申 請 補助 1600 元   最多 7 天       區長 陳 冠伶 表示   人數 調查 一直 在 變動   目前 9 位有 安置 需求   依規定 發生 緊急 災害 可 申請 安置 補助   每人 一天 1600 元   最多 申請 7 天   已協助 找 好 旅社   住戶 均 已 入住 安置   該 坑 主要 範圍 為 18 號至 24 號   警戒 區 12 號至 24 號已 拉起 封鎖線   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供</t>
+          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 的 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 在 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  </t>
+          <t xml:space="preserve">〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 的 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 的 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 在 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 內 的 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 在 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 的 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 有 無 孔洞 或 軟弱 土層   監測 建築物 有 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 有 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 內 水位 在 地下 5.5 公尺   大約 在 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 的 有七戶   需要 安置 的 住戶 一共 有 5 戶 10 人   目前 都 安置 在 信義區 的 旅館 內   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 的 部分   廠 商承諾 超出 的 部分 可 負擔  </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  </t>
+          <t xml:space="preserve">首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 的 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 的 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   在 晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 內 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 及 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 及 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反 「 建築法 」 部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 在 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 及 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  </t>
+          <t xml:space="preserve">台北市 信義區 崇德 街一處 新建 工地 旁 的 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 的 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 在 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 的 攤位   擔心會 再次 坍塌   周邊 住戶 說   「 昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   也 是 要 關心 一下 我 自己 的 攤位 啊   希望 說 沒 有 下 一次 啦   」 信義區 區長 陳 冠伶 表示   「 安置 了 5 戶   一共 是 10 位   那現 在 我們 把 他們 都 安置 在 我們 信義區 的 旅館裡   」 台北 市長 蔣萬安 上午 也 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及   「 接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 做 整體 評估   」 初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 也 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋   「 初步 判斷 是 工地 裡面 的 地下 連續 壁   大約 在 11 到 12 公尺 之間 有 破口   所以 它 的 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞   」 為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 有 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 有 安全 疑慮者將 下令 停工   改善  </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 大樓 建案   因為 地下 連續 壁 破洞   都 發局 初步 調查 後   對 承造 人 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 旅館   相關 費用 將由建 商來 負責   巷弄 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 遭殃   鐵門 幾乎 懸空   這樣 情況 就 發生 台北市 信義區   短時間   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出     昨天 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 住戶 一共 5 戶     市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 5 戶   一共 10 人   暫時 住 信義區 旅館   依照 規定   每人每天 可以 請領 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 是 回 不了 家 了   超出 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 是 搶災 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 大樓   地下 4 層   地上 17 層   負責 營造 華熊 營造 公司   興建過 包括 台北 101   世貿 中心 陶朱 隱園   都 是 赫赫有名 建築   如今 卻 發生 工安 意外   讓 工程 暫時 喊 卡   首要 之務得 設法 解決 安全 問題   還給 當地 居民 一個 安全 家  </t>
+          <t xml:space="preserve">北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 的 大樓 建案   因為 地下 連續 壁 有 破洞   都 發局 初步 調查 後   對 承造 人 和 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 的 旅館 內   相關 費用 將由建 商來 負責   巷弄 內 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 也 遭殃   鐵門 幾乎 懸空   這樣 的 情況 就 發生 在 台北市 信義區   短時間 內   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出   「 昨天 有 做 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 的 住戶 一共 有 5 戶 」   市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 的 有 5 戶   一共 10 人   暫時 住 在 信義區 的 旅館 內   依照 規定   每人每天 可以 請領 的 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 內 是 回 不了 家 了   超出 的 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 的 是 搶災 的 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 的 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 的 大樓   地下 4 層   地上 17 層   負責 營造 的 華熊 營造 公司   興建過 的 包括 台北 101   世貿 中心 和 陶朱 隱園   都 是 赫赫有名 的 建築   如今 卻 發生 工安 意外   也 讓 工程 暫時 喊 卡   首要 之務得 先 設法 解決 安全 問題   還給 當地 居民 一個 安全 的 家  </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 基隆 報導 〕 基隆市 七堵 區 10 日 發生 百一街 一處 建案 工地 旁電桿 下陷 2 公尺   由 於 5 月 13 日 台北市 信義區 出現 道路 塌陷   民眾 憂心 忡忡 天坑 基隆 重現   民進 黨籍 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全   基隆市 府 15 日 下午 5 點發布 新聞稿   市府 強調 已 要求 建案 停工   市府 將 全面 清查 基隆市 相關 工地 安全     曾怡芳 指出   10 日 晚間 五堵 國小 附近 一處 建案   突然 發生 建案 旁 電桿 下陷 2 公尺 意外   並 造成 附近 住戶 停電 5 小時   日前 台北市 信義區 發生 工地 旁 道路 塌陷 意外   引起 當地 居民 不安   擔心 天坑 基隆 重現     百一街 工地 旁電桿 下陷 事件 發生 後   基隆市 政府 都市 發展 處 12 日 赴 工地 現場 勘查   當天 結論 是 暫 不 要求 業者 停工   待 完成 固化 後   才 會 檢視 發生 電桿 塌陷 道路 龜裂 部分   但業者 表示   10 日 之所以 會 發生 電桿 塌陷   是 因為 電桿 上 變電箱 太重   土質 太 鬆 軟   才 導致 下陷 停電     曾怡芳 指出   事發 建案 旁 就是 五堵 國小   學童 人 數眾 多   且 鄰近 新台 五路 高架 橋   再 加上 附近 居民 表示   自該 建案 動工 以來   已導致 多處 柱位   地面 破損 龜裂   地面 高低 差達 7 公分   這樣 房子 根本 無法 住 人     曾怡芳 要求 基隆市 政府 重視 工安   不要 讓 4 月 27 日 新竹 天坑   5 月 13 日 北市 信義區 天坑 基隆 重現   並 要求 市府 以 最高 標準   來 審查 檢視此 建案     基隆市 政府 都 發處長 謝孝坤 表示   市府 15 日 已 經先 要求 百一街 工地 停工   後 續會 邀請 第三方 相關 技師 公會 詳細 檢視   釐 清電桿 下陷 原因   確保 安全 無虞後才 會 准許 復工   另外   市府 會 優先 清查 巡檢 全市 正在 開挖 地基 施作 連續 壁 工地   確 保民 眾 安全  </t>
+          <t xml:space="preserve">〔 記者 俞肇福 ／ 基隆 報導 〕 基隆市 七堵 區 10 日 發生 百一街 一處 建案 工地 旁電桿 下陷 2 公尺   由 於 5 月 13 日 台北市 信義區 也 出現 道路 塌陷   民眾 憂心 忡忡 天坑 在 基隆 重現   民進 黨籍 的 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全   基隆市 府 15 日 下午 5 點發布 新聞稿   市府 強調 已 要求 建案 停工   市府 將 全面 清查 基隆市 相關 工地 安全     曾怡芳 指出   10 日 晚間 五堵 國小 附近 的 一處 建案   突然 發生 建案 旁 的 電桿 下陷 2 公尺 的 意外   並 造成 附近 住戶 停電 5 小時   日前 台北市 信義區 也 發生 工地 旁 道路 塌陷 意外   引起 當地 居民 不安   擔心 天坑 在 基隆 重現     百一街 工地 旁電桿 下陷 事件 發生 後   基隆市 政府 都市 發展 處 12 日 赴 工地 現場 勘查   當天 結論 是 暫 不 要求 業者 停工   待 完成 固化 後   才 會 檢視 發生 電桿 塌陷 及 道路 龜裂 的 部分   但業者 表示   10 日 之所以 會 發生 電桿 塌陷   是 因為 電桿 上 的 變電箱 太重   土質 太 鬆 軟   才 導致 下陷 停電     曾怡芳 指出   事發 的 建案 旁 就是 五堵 國小   學童 人 數眾 多   且 鄰近 新台 五路 高架 橋   再 加上 附近 居民 也 表示   自該 建案 動工 以來   已導致 多處 柱位   地面 破損 龜裂   地面 高低 差達 7 公分   這樣 的 房子 根本 無法 住 人     曾怡芳 要求 基隆市 政府 重視 工安   不要 讓 4 月 27 日 的 新竹 天坑   5 月 13 日 的 北市 信義區 天坑 在 基隆 重現   並 要求 市府 以 最高 標準   來 審查 檢視此 建案     基隆市 政府 都 發處長 謝孝坤 表示   市府 15 日 已 經先 要求 百一街 的 工地 停工   後 續會 邀請 第三方 相關 技師 公會 詳細 檢視   釐 清電桿 下陷 原因   確保 安全 無虞後才 會 准許 復工   另外   市府 也 會 優先 清查 和 巡檢 全市 正在 開挖 地基 和 施作 連續 壁 的 工地   確 保民 眾 安全  </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 草原 都 因 地層下陷   出現 大大小小 坑洞   遭議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 建置 自行 車道 會勘 過程 中   發現 綠地 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區   都 會 中 綠洲                               市議員 張桂綿 近期 發現   公園 中 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現   無底 洞     遭議員 批評 宛如 成 了   地 雷公 園     圖 ／ 張桂綿 提供</t>
+          <t>桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 和 草原 都 因 地層下陷   出現 大大小小 的 坑洞   遭議員 批評 宛如 成 了 「 地 雷公 園 」   市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 及 建置 自行 車道 會勘 過程 中   發現 有 綠地 及 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區 「 都 會 中 的 綠洲 」                             市議員 張桂綿 近期 發現   公園 中 的 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 和 兒童 奔跑 的 大 草原 也 出現 大小不一 的 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失       「 這裡 宛如 地雷 區   」 張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 她 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除 「 地雷 」   還給 鄉親 安全 的 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 的 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現 「 無底 洞 」   遭議員 批評 宛如 成 了 「 地 雷公 園 」   圖 ／ 張桂綿 提供</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 草 原因 地層下陷   出現 大大小小 坑洞   議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   南 崁 住宅 密集 區營造   都 會 中 綠洲                               市議員 張桂綿 說   公園 步道 近期 嚴重 下陷   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成   無底 洞     推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  </t>
+          <t xml:space="preserve">桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 和 草 原因 地層下陷   出現 大大小小 的 坑洞   議員 批評 宛如 成 了 「 地 雷公 園 」   市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   在 南 崁 住宅 密集 區營造 「 都 會 中 的 綠洲 」                             市議員 張桂綿 說   公園 步道 近期 嚴重 下陷   包括 法式 滾球區 和 兒童 奔跑 的 大 草原 也 出現 大小不一 的 坑洞   甚至 掏空 成 「 無底 洞 」   推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失       「 這裡 宛如 地雷 區   」 張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   她 已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除 「 地雷 」   還給 鄉親 安全 的 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 的 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 速度   持續 下沉 中   而 部分 地區   下沉 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 海平面 上升 雙重 夾擊   讓 紐約市 岌岌可危     紐約 市將 30 年後沈入 海底       這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 速度 持續 下沉 中   紐約市 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 重量   聯合國 秘書長 古特 瑞斯 說     海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數     原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 情況 是   21 世紀 結束 時   紐約 海平面 比現 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  </t>
+          <t xml:space="preserve">根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 的 速度   持續 下沉 中   而 有 部分 地區   下沉 的 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 的 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 和 海平面 上升 的 雙重 夾擊   讓 紐約市 岌岌可危   「 紐約 市將 在 30 年後沈入 海底     」 這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 的 速度 持續 下沉 中   紐約市 有 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 的 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 的 重量   聯合國 秘書長 古特 瑞斯 說   「 海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數 」   原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 的 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 的 情況 是   21 世紀 結束 時   紐約 海平面 比現 在 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】</t>
+          <t>紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 的 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 的 居民 生存 備受 威脅     紐約 每年 均 在 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 在 內 的 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 的 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 的 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 的 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 內 的 建築物 也 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 和 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成 的   因為 上 一次 冰河 時期 最 寒冷 的 時候   巨大 的 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 的 地區則 開始 下陷     之前 有 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 的 力量 之外   研究 人員 也 認為還 可能 包括 其他人 為 因素   且 科學家 也 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 的 重量 造成     本次 研究 結果 刊登 在 Earth   s   Future 期刊   【 更 多 精采 內容   詳見 】</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    </t>
+          <t>一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 的 是   科學家 預期 由 於 人 為 引發 的 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說   「 我們 離 海水倒灌 還有 一段 很長 的 路 … 但 我們 在 紐約 市經 歷過 數次 嚴重 的 颶風 事件   像 颶風珊迪   Sandy   及 艾達   Ida   帶來 的 暴雨 使得 城市 淹水 成災   都市化 帶來 的 部分 影響 也 使得 水災 發生   」   這篇論 文發表 在 期刊 「 地球 的 未來 」   Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 的 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 的 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 的 質量   計算出 這些 建築物 的 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 的 波音 747   400 客機     研究 團隊 接著 利用 模擬 的 方式   計算出 這些 重量 對 地面 的 影響   並和 顯示 實際 地表 地質 情況 的 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 的 地區 每年 下陷 約 4.5 毫米 」     然而   並非 所有 地層下陷 都 是 建築物 造成 的   帕森斯 說   「 我們 可想 見 在 非常 鬆 軟 的 土壤 和 人工 填土 的 地面 上 建造 建築 和 地層下陷 的 關聯 … 在 其他 地方   我們則 看到 難以 解釋 的 地層下陷   它 有 很多 不同 的 成因   例如 上個 冰河 時期 後 發生 的 後 冰期 回落   或是 抽取 地下水   」   研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 在 紐約市     帕森斯 說   「 這是 一個 全球性 的 問題   我來 自羅德島 大學   University   of   Rhode   Island   的 合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 也 有 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題   」</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">經典 末日 電影   明天 過後     海水 源源 不絕 灌入 市區   整座 城市 轉眼 之間 沉 沒 大海   令人 難以 置信   這樣 災難 情節   未來 可能 紐約 真實 上演   人稱   大 蘋果   美國 紐約   高樓 林立   房子 一棟 比 一棟 蓋 得 更 高   更 奢華   光是 摩天 大樓 就 多 達 6000 棟   整座 城市 更 超過 100 萬棟 建築物   總 重量 高達 7700 億 公斤   約 1.4 億頭 大象   而 高樓 數量 還持續 增加 中   土地 承受 不了 建築物 重壓   加上 超 抽 地下水   使得 地層下陷   紐約 正 逐漸 下沉 中   雖然 從 數字來 看 沒什麼 大不了   換算 下來   每 10 年 才 下沉 2 公分   但 專家 警告   這對 沿海 地區 影響 不容 小覷   紐約 人口 最 密集 曼哈頓 跟 海岸 地區 首當 其衝   這個 世紀末   就是 西元 2100 年前   可能 陷入 汪洋 之中   成 了 名 副 其實   水 都     專家 擔心   地層下陷 跟 海平面 上升 雙重 夾擊 下   未來 如果 再 遇上 強烈 颶風   災情 可能 一年 比 一年 嚴重   氣候變遷 加劇   海平面 快速 上升   原因 都 跟 高碳 排放 脫 不了 關 係   減碳 成為 各國 首要 目標   紐約 當局 祭出 了 減碳 法令   限制 大樓 排放量   希望 改善 暖化 問題   減緩 海平面 上升   紐約 一半 以上 建築都將 受到 規範   有效 控制 碳 排放   有些 建商 採用 新技術   地下室 打造   碳 捕捉 室     把 二氧化碳 收集 起來   更好 利用   透過 儀器   把 天然 氣燃 燒產生 二氧化碳 轉換成 液態   阻止 它 進入 大氣層   還能 賣給 建商   力行 減碳免 於 受罰   還能 賺 錢   是 一舉 多 得   大樓 是 紐約 最大 碳 排放 來源   佔 了 城市 碳排 三分之二   把 造成 暖化 二氧化碳 封存 水泥   從 根本 減碳 做起   未來 也將 全面 電氣化   停止使用 天然 氣和 化石 燃料   減緩 暖化 速度   紐約 當局 防患未然   沿海 地區 設立 防波堤   環繞 整個 紐約   強化 海岸 防洪 能力   避免 強烈 颶風來 襲時   海水 灌入 市區   對 市區 造成 損害   建造 海牆 能 有效 防洪   但 可能 破壞 市容   干擾 海邊 活動   影響 沿海居民   美國陸 軍 工程兵 團也 擬定 一項 名為 3B 新計畫   把 防洪 設施 分散 各地   降低 對 當地 影響   能 達 到 最好 效果   希望 對 民生   環境 能 面面俱到   不 只 紐約 面臨 下沉 危機   全球 多國 沿海 城市   飽 受 海平面 上升 之苦   氣候變遷 威脅 越來 越大   各國 除了 要 加強 防洪 設施   要 經濟 開發 跟 環保 取得 平衡   加強 減碳 跟 發展 綠色 能源   才能 防止 大自然 反撲  </t>
+          <t xml:space="preserve">經典 末日 電影   明天 過後     海水 源源 不絕 灌入 市區   整座 城市 轉眼 之間 沉 沒 大海   令人 難以 置信   這樣 的 災難 情節   未來 可能 在 紐約 真實 上演   人稱 「 大 蘋果 」 的 美國 紐約   高樓 林立   房子 一棟 比 一棟 蓋 得 更 高   更 奢華   光是 摩天 大樓 就 多 達 6000 棟   整座 城市 更 有 超過 100 萬棟 建築物   總 重量 高達 7700 億 公斤   約 1.4 億頭 大象   而 高樓 數量 還持續 在 增加 中   土地 承受 不了 建築物 重壓   加上 超 抽 地下水   使得 地層下陷   紐約 正 逐漸 下沉 中   雖然 從 數字來 看 沒什麼 大不了   換算 下來   每 10 年 才 下沉 2 公分   但 專家 警告   這對 沿海 地區 的 影響 不容 小覷   紐約 人口 最 密集 的 曼哈頓 跟 海岸 地區 首當 其衝   這個 世紀末   也 就是 西元 2100 年前   可能 陷入 汪洋 之中   成 了 名 副 其實 的 「 水 都 」   專家 擔心   在 地層下陷 跟 海平面 上升 雙重 夾擊 下   未來 如果 再 遇上 強烈 颶風   災情 可能 一年 比 一年 嚴重   氣候變遷 加劇   海平面 快速 上升   原因 都 跟 高碳 排放 脫 不了 關 係   減碳 成為 各國 首要 目標   紐約 當局 祭出 了 減碳 法令   限制 大樓 的 排放量   希望 改善 暖化 問題   減緩 海平面 上升   紐約 一半 以上 的 建築都將 受到 規範   有效 控制 碳 排放   有些 建商 也 採用 新技術   在 地下室 打造 「 碳 捕捉 室 」   把 二氧化碳 收集 起來   做 更好 的 利用   透過 儀器   把 天然 氣燃 燒產生 的 二氧化碳 轉換成 液態   阻止 它 進入 大氣層   還能 賣給 建商   力行 減碳免 於 受罰   還能 賺 錢   是 一舉 多 得   大樓 是 紐約 最大 的 碳 排放 來源   佔 了 城市 碳排 的 三分之二   把 造成 暖化 的 二氧化碳 封存 在 水泥 內   從 根本 的 減碳 做起   未來 也將 全面 電氣化   停止使用 天然 氣和 化石 燃料   減緩 暖化 速度   紐約 當局 也 防患未然   在 沿海 地區 設立 防波堤   環繞 整個 紐約   強化 海岸 的 防洪 能力   避免 強烈 颶風來 襲時   海水 灌入 市區   對 市區 造成 損害   建造 海牆 能 有效 防洪   但 可能 破壞 市容   也 干擾 海邊 活動   影響 沿海居民   美國陸 軍 工程兵 團也 在 擬定 一項 名為 3B 的 新計畫   把 防洪 設施 分散 各地   降低 對 當地 的 影響   也 能 達 到 最好 的 效果   希望 對 民生   環境 能 面面俱到   不 只 紐約 面臨 下沉 危機   全球 多國 的 沿海 城市   也 飽 受 海平面 上升 之苦   氣候變遷 的 威脅 越來 越大   各國 除了 要 加強 防洪 設施   也 要 在 經濟 開發 跟 環保 取得 平衡   加強 減碳 跟 發展 綠色 能源   才能 防止 大自然 反撲  </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">美國 紐約 是 東部 最熱鬧 城市 之一   是 美國 人口 最多 城市   但 研究 顯示   這座 重要 城市 卻 每年 都 下沉 中   部分 地區 最 後 可能 還會 被淹 沒   電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   美國 紐約 摩天 大樓 林立   但 多 達 百萬棟 建築物實 太重 了   讓 整座 城市 地層 正在 下陷   再 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   長 久 下來 恐發生 海水倒灌 等 洪水 災害   美國 地質 調查 所 專家 帕森斯 表示     無可 避免   地面 下降   水面 上升   某些 時候   這兩層 面會 同時 發生   但 我 沒辦 法給 確切 時間點     帕森斯 說   超過 百萬座 建築物 分布 五個 行政 區上   加起 來 約 1.7 兆 磅 混凝土   金屬 玻璃 等 建材   相當 於 4700 座帝 國大廈 重量 壓在 地球 上   其中   部分 大樓 建築 布魯克林   皇后 區和曼 哈頓 市中心 土 質 鬆 散 地 區 上   下沉 速度 更 快   美國 地質 調查 所 專家 帕森斯 表示     中部 大陸 上升   東 海岸 每年 下沉 約 1 至 2 公 釐   這是 我們 看到 主要 警訊   再 加上 紐約市 不同 土壤 質地   還有 人工 填土 來 增加 土地 面積   但 它們 土壤 固結度 很 差   還是 可以 讓 地層下陷     帕森斯 還說   雖然 下沉 速度 很 緩慢   但 紐約 部分 地區 最 終將 被淹 沒   猶如 電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   至於 紐約 是否 會 變成 美國版 威尼斯   帕森斯 表示   確切 時間點 目前 尚 不 清楚   可能 還 需要 數 百年 時間   但 他 研究 不是 危言 聳 聽   只是 希望 透過 科學 數據   問題 擴大前   採取 行動  </t>
+          <t xml:space="preserve">美國 紐約 是 東部 最熱鬧 的 城市 之一   也 是 美國 人口 最多 的 城市   但 有 研究 顯示   這座 重要 的 城市 卻 每年 都 在 下沉 中   部分 地區 最 後 可能 還會 被淹 沒   電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   美國 紐約 摩天 大樓 林立   但 多 達 百萬棟 建築物實 在 太重 了   讓 整座 城市 地層 正在 下陷   再 加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   長 久 下來 恐發生 海水倒灌 等 洪水 災害   美國 地質 調查 所 專家 帕森斯 表示   「 無可 避免 的   地面 在 下降   水面 上升   在 某些 時候   這兩層 面會 同時 發生   但 我 沒辦 法給 你 確切 的 時間點   」 帕森斯 說   超過 百萬座 建築物 分布 在 五個 行政 區上   加起 來 約 有 1.7 兆 磅 的 混凝土   金屬 和 玻璃 等 建材   相當 於 4700 座帝 國大廈 的 重量 壓在 地球 上   其中   部分 大樓 建築 在 布魯克林   皇后 區和曼 哈頓 市中心 土 質 鬆 散 的 地 區 上   下沉 速度 更 快   美國 地質 調查 所 專家 帕森斯 表示   「 中部 大陸 上升   東 海岸 每年 下沉 約 1 至 2 公 釐   這是 我們 看到 的 主要 警訊   再 加上 紐約市 有 不同 土壤 質地   還有 人工 填土 來 增加 土地 面積   但 它們 的 土壤 固結度 很 差   還是 可以 讓 地層下陷   」 帕森斯 還說   雖然 下沉 的 速度 很 緩慢   但 紐約 部分 地區 最 終將 被淹 沒   猶如 電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   至於 紐約 是否 會 變成 美國版 的 威尼斯   帕森斯 表示   確切 的 時間點 目前 尚 不 清楚   可能 還 需要 數 百年 的 時間   但 他 的 研究 不是 危言 聳 聽   只是 希望 透過 科學 數據   在 問題 擴大前   先 採取 行動  </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 今天 塌陷   一輛 預拌 混凝土車 側翻   壓傷 一名 工人   被 送醫 急救   台中市 勞檢處 已 派 人 到場 調查   並 勒令停工   因 工地 沒 擋 土   地面 承載力 不足 等 缺失       台中市 消防局 今天 早上 9 點接 獲 報案   沙鹿 區錦華街 一處 工地 旁發生 緊急 創傷 救護   出動 沙鹿   龍井   梧棲   西屯 分隊 第四 大隊   各式 消防 車輛 10 輛   消防人 員 25 名   由大隊 長 蔡孟栩帶 隊 指揮 搶 救                             現場 是 路面 坍方   造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人   工地 營建廠 商已 協助 聯 繫 吊 車 到 場   地層下陷 造成 預拌 混 泥土 車車輛 翻覆   沙鹿 消防 分隊 到 場後先 以 消防 車絞盤   梧棲分隊 使用 車 吊臂 共同 固定 預拌 混 泥土 車   確保 傷者 安全 無虞   因 該車 重量 達 35 噸 以上   需 等待 業者 配合 大型 吊車 到 場方能 吊掛   先由救護 人員 接觸 患者 進行 緊 急救 護處 置       早上 9 點 34 分   業者 調派 吊車 至 現場 進行 車輛 吊掛   消防局 搶 救人 員協助 以油 壓破壞 器材   協助 傷者 脫困   10 點 4 分傷者 順利 脫困   送 梧棲童 綜合 醫院       傷者 到 醫院 時 意識 清楚   雙 下肢 背部 擦 挫傷   右 大腿 燙傷   應是 鋼版 高溫 造成   目前 仍 醫院 檢查 中   台中市 勞檢處 表示   工地 地面 承載力 不足   造成 地面 塌陷   車翻 傷心 意外   已 要求 停工   將開罰 3 到 30 萬元 不 等 罰 鍰   台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供</t>
+          <t>台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 今天 塌陷   一輛 預拌 混凝土車 側翻   壓傷 一名 工人   被 送醫 急救   台中市 勞檢處 已 派 人 到場 調查   並 勒令停工   因 工地 沒 做 擋 土   地面 承載力 不足 等 缺失       台中市 消防局 今天 早上 9 點接 獲 報案   沙鹿 區錦華街 一處 工地 旁發生 緊急 創傷 救護   出動 沙鹿   龍井   梧棲   西屯 分隊 及 第四 大隊   各式 消防 車輛 10 輛   消防人 員 25 名   由大隊 長 蔡孟栩帶 隊 指揮 搶 救                             現場 是 路面 坍方   造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人   工地 營建廠 商已 協助 聯 繫 吊 車 到 場   地層下陷 造成 預拌 混 泥土 車車輛 翻覆   沙鹿 消防 分隊 到 場後先 以 消防 車絞盤   梧棲分隊 使用 車 吊臂 共同 固定 預拌 混 泥土 車   確保 傷者 安全 無虞   因 該車 重量 達 35 噸 以上   需 等待 業者 配合 大型 吊車 到 場方能 吊掛   先由救護 人員 接觸 患者 進行 緊 急救 護處 置       早上 9 點 34 分   業者 調派 吊車 至 現場 進行 車輛 吊掛   消防局 搶 救人 員協助 以油 壓破壞 器材   協助 傷者 脫困   10 點 4 分傷者 順利 脫困   送 梧棲童 綜合 醫院       傷者 到 醫院 時 意識 清楚   雙 下肢 和 背部 擦 挫傷   右 大腿 燙傷   應是 鋼版 高溫 造成   目前 仍 在 醫院 檢查 中   台中市 勞檢處 表示   工地 的 地面 承載力 不足   造成 地面 塌陷   車翻 傷心 意外   已 要求 停工   將開罰 3 到 30 萬元 不 等 罰 鍰   台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">印尼 海域 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 寧靜 自然   還能 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出     紅樹林 是 很 獨特 生態 系統   一種 植物   有趣 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要     印尼 首都 雅加 達長 期受 極端 氣候 引發 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 一小部分   過去 一年 就 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示     我們 需要 生存 下去   但 很 難 找到 像樣 工作   當時 唯一 知道 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁     這片 海域 位 東南亞 從菲律 賓到 印尼   澳洲 之間 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 當地 巴迪島   努力 復 育 周邊 3 公頃 珊瑚礁   耐心 說 服漁民 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 海底 回春   熱帶 魚群 穿梭 新生 珊瑚礁 之間   環境 科學家 尤素夫 提及     印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 世界 遺產   一個 小小的 努力 都 可能 影響 世界     印尼 海域 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 18%   珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 海域   一步 一步 把 失去 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  </t>
+          <t xml:space="preserve">印尼 海域 的 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 的 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 有 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 的 寧靜 自然   還能 在 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出   「 紅樹林 是 很 獨特 的 生態 系統   一種 植物   有趣 的 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要 的 嗎   」 印尼 首都 雅加 達長 期受 極端 氣候 引發 的 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 的 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 的 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 的 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 的 一小部分   過去 一年 就 有 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 的 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示   「 我們 需要 生存 下去   但 很 難 找到 像樣 的 工作   當時 唯一 知道 的 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁   」 這片 海域 位 在 東南亞 從菲律 賓到 印尼   澳洲 之間 的 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 在 當地 巴迪島   努力 復 育 周邊 3 公頃 的 珊瑚礁   耐心 說 服漁民 做 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 的 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 的 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 的 海底 回春   熱帶 魚群 穿梭 在 新生 的 珊瑚礁 之間   環境 科學家 尤素夫 提及   「 印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 的 世界 遺產   一個 小小的 努力 都 可能 影響 世界   」 印尼 海域 的 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 的 18%   在 珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 有 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 的 海域   一步 一步 把 失去 的 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">台南市 人權律師 湯德章 故居 2020 年 由 文化界 發起 募款 籌得 2 千萬元 買 下   稍微 整修   但 目前 房舍 破爛   蟲蛀   傾斜   危險 之 虞   湯德章 紀念 協會 自籌 經費 獲 文化部   台南市 文化局 補助   將斥資 1260 萬元修 復   昨舉 行動土   預計 1 年 後 完工   希望 恢 復 老屋 原來 面貌       湯德章 紀念 協會 理事 長 黃 建龍 說   湯德章 故居 透過 群眾 集資 力量 順利 搶 救 買 下   並將 嚴重 蛀蝕 部分 清理   拆除 危牆   重新 拉配 水電   布設 簡要 展覽   前年 開放 參觀   但 這棟 90 餘年 老屋   歷經 多次 地震   後 段 建物 明顯 地層下陷 傾斜   嚴重 漏水   梁柱 遭蟲 蛀   木件 門窗 不見 等   為 讓 故居 永續 經營   決定 修 復 再生                             協會 去年 與 崑 山 科技 大學 合作   由 郭一勤 老師 帶 領團 隊展 開建築物 損毀 檢查 與 重新 測繪   提出 湯德章 故居 保存 再生 計畫   獲 文化部 私有 老建築 保存 再生 計畫 通過 補助   修 復工 程由 文化部 台南市 文化局 補助 882 萬餘元   其餘 由 協會 自籌   初估 超過 600 萬元       市長 黃 偉哲 說   保存 再生 計畫將 進行 設施 再 優化   會 陳 列許 多 湯德章 律師 遺物 呈現 228 事件 的歷 史事 蹟   讓 後 世子 孫永遠 都 能 記得     希望 這段 歷史 被 原諒   但 不能 被 忘記         文化局 表示   市府 努力 協助 爭取 再生 計畫 過程 中   全案 因具 高 公益性   是 去年 文化部 私有 老建築 保存 再生 計畫 中 最 受矚 目的 申請案   湯德章 故居 修 復工 程啟 動   象徵推 廣人權 教育 之 路 向前 邁進 一大步  </t>
+          <t xml:space="preserve">台南市 人權律師 湯德章 故居 2020 年 由 文化界 發起 募款 籌得 2 千萬元 買 下   稍微 整修   但 目前 房舍 破爛   蟲蛀   傾斜   有 危險 之 虞   湯德章 紀念 協會 自籌 經費 及 獲 文化部   台南市 文化局 補助   將斥資 1260 萬元修 復   昨舉 行動土   預計 1 年 後 完工   希望 恢 復 老屋 原來 面貌       湯德章 紀念 協會 理事 長 黃 建龍 說   湯德章 故居 透過 群眾 集資 的 力量 順利 搶 救 買 下   並將 嚴重 蛀蝕 部分 清理   拆除 危牆   重新 拉配 水電   布設 簡要 的 展覽   前年 開放 參觀   但 這棟 90 餘年 的 老屋   歷經 多次 地震   後 段 建物 明顯 地層下陷 傾斜   嚴重 漏水   梁柱 遭蟲 蛀   木件 門窗 不見 等   為 讓 故居 永續 經營   決定 修 復 再生                             協會 去年 與 崑 山 科技 大學 合作   由 郭一勤 老師 帶 領團 隊展 開建築物 的 損毀 檢查 與 重新 測繪   提出 湯德章 故居 保存 再生 計畫   獲 文化部 私有 老建築 保存 再生 計畫 通過 補助   修 復工 程由 文化部 及 台南市 文化局 補助 882 萬餘元   其餘 由 協會 自籌   初估 超過 600 萬元       市長 黃 偉哲 說   保存 再生 計畫將 進行 設施 的 再 優化   也 會 陳 列許 多 湯德章 律師 的 遺物 及 呈現 228 事件 的歷 史事 蹟   讓 後 世子 孫永遠 都 能 記得   「 希望 這段 歷史 被 原諒   但 不能 被 忘記   」     文化局 表示   市府 努力 協助 爭取 再生 計畫 的 過程 中   全案 因具 高 公益性   是 去年 文化部 私有 老建築 保存 再生 計畫 中 最 受矚 目的 申請案   湯德章 故居 修 復工 程啟 動   象徵推 廣人權 教育 之 路 向前 邁進 一大步  </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>近期 受滯 留 鋒面 及農 曆 大潮 影響   台灣 南部 午後出現 局部 強 降雨   嘉義 沿海 地層下陷 易 淹水   五河 局 預置 淹水 感測器 移動式 抽水機   監控積 淹水 情況   縣府 提前 協助 清除 河道 障礙物   確保 排水 通洪順暢   並呼籲 漁民 做好 防災 措施       縣府 漁業 處 指出   因 近期 可能 大量 降雨   整備 防汛 應變   督導 2 件 在建 中 大型 養殖區 排水工程   移除 河道 中機 具及 打通 阻礙物   雖會 影響 工期 增加 工程 不便   但 仍 以防 災為 最 優先 考量   避免 造成 附近 或 上游 淹水 災情                             漁業 處 呼籲   這 周天 氣極 不 穩定   低壓 帶 滯留 鋒面 影響   易有 短延 時強 降雨   海面 風浪 不佳   提醒 漁友 要 多加 留意 養殖 管理   並 做好 防災 工作   若有 災害 要 隨時 通報   以利 立即 搶救       第五 河川 局說   已 成立 應變 小組   全天候 線上 監控 水情   以便 及時 應 對   確保 各項 防洪措施 關鍵 時刻 發揮 作用   並積 極加強 防汛 整備   對 抽水站   破堤 施工   防汛 缺口 在建 工程 等 重點 項目 進行 檢查 監督       五河 局 提醒   民眾 應多關 注水 情資訊   清理 自家 陽台 洩 水管 附近 溝渠   並透過 防災 資訊 服務網   以及 行動 水情 APP 等 防災 工具   即時 掌握 相關訊息   有效 減少 災害 損失   近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 縣 沿海 地層下陷 恐 淹水   縣府 督導 在建 中 大型 養殖區 做好 排水工程   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   第五 河川 局出動 移動式 抽水機 待命   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷區 慎防 淹水   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷區 慎防 淹水   記者 黃 于 凡 ／ 翻攝</t>
+          <t>近期 受滯 留 鋒面 及農 曆 大潮 影響   台灣 南部 午後出現 局部 強 降雨   嘉義 沿海 地層下陷 易 淹水   五河 局 預置 淹水 感測器 及 移動式 抽水機   監控積 淹水 情況   縣府 也 提前 協助 清除 河道 障礙物   確保 排水 通洪順暢   並呼籲 漁民 做好 防災 措施       縣府 漁業 處 指出   因 近期 可能 有 大量 降雨   先 整備 防汛 應變   督導 2 件 在建 中 的 大型 養殖區 排水工程   移除 河道 中機 具及 打通 阻礙物   雖會 影響 工期 及 增加 工程 不便   但 仍 以防 災為 最 優先 考量   避免 造成 附近 或 上游 淹水 災情                             漁業 處 也 呼籲   這 周天 氣極 不 穩定   低壓 帶 及 滯留 鋒面 影響   易有 短延 時強 降雨   海面 風浪 也 不佳   提醒 漁友 要 多加 留意 養殖 管理   並 做好 防災 工作   若有 災害 要 隨時 通報   以利 立即 搶救       第五 河川 局說   已 成立 應變 小組   全天候 線上 監控 水情   以便 及時 應 對   確保 各項 防洪措施 在 關鍵 時刻 發揮 作用   並積 極加強 防汛 整備   對 抽水站   破堤 施工   防汛 缺口 及 在建 工程 等 重點 項目 進行 檢查 和 監督       五河 局 提醒   民眾 應多關 注水 情資訊   清理 自家 陽台 的 洩 水管 和 附近 的 溝渠   並透過 防災 資訊 服務網   以及 行動 水情 APP 等 防災 工具   即時 掌握 相關訊息   有效 減少 災害 損失   近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 縣 沿海 地層下陷 恐 淹水   縣府 督導 在建 中 大型 養殖區 做好 排水工程   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   第五 河川 局出動 移動式 抽水機 待命   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷區 慎防 淹水   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷區 慎防 淹水   記者 黃 于 凡 ／ 翻攝</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生         這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機       研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米         然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水         研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市       帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題           Take   action   加入   倡議 +    </t>
+          <t xml:space="preserve">一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 的 是   科學家 預期 由 於 人 為 引發 的 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說   「 我們 離 海水倒灌 還有 一段 很長 的 路 … 但 我們 在 紐約 市經 歷過 數次 嚴重 的 颶風 事件   像 颶風珊迪   Sandy   及 艾達   Ida   帶來 的 暴雨 使得 城市 淹水 成災   都市化 帶來 的 部分 影響 也 使得 水災 發生   」     這篇論 文發表 在 期刊 「 地球 的 未來 」   Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 的 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 的 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 的 質量   計算出 這些 建築物 的 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 的 波音 747   400 客機       研究 團隊 接著 利用 模擬 的 方式   計算出 這些 重量 對 地面 的 影響   並和 顯示 實際 地表 地質 情況 的 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 的 地區 每年 下陷 約 4.5 毫米 」       然而   並非 所有 地層下陷 都 是 建築物 造成 的   帕森斯 說   「 我們 可想 見 在 非常 鬆 軟 的 土壤 和 人工 填土 的 地面 上 建造 建築 和 地層下陷 的 關聯 … 在 其他 地方   我們則 看到 難以 解釋 的 地層下陷   它 有 很多 不同 的 成因   例如 上個 冰河 時期 後 發生 的 後 冰期 回落   或是 抽取 地下水   」     研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 在 紐約市       帕森斯 說   「 這是 一個 全球性 的 問題   我來 自羅德島 大學   University   of   Rhode   Island   的 合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 也 有 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題   」       Take   action   加入   倡議 +    </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影</t>
+          <t>雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 的 便 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 的 低 強度   高流動 建材 施工   預定 近期 內 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 的 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 在 下陷區 動工將 橫跨 高鐵 的 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行 「 減重 」   此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 的 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 的 高鐵 便 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 的 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 便 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 及 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   便 道 位 於 高鐵 的 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 的 兩側 便 道 共 修繕 約 630 公尺   採 「 低 強度   高流動 」 混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 便 道 承載 安全   在 路口 設 有限 重 10 噸 以下 的 車輛 通行   但 地方 反映   長 期來 仍 有 不少 大型 車為求 方便 直接 通行   才 使 便 道路 面受損   也 將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 內 雲 101   雲 98 道路 及 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 內 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 便 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 高鐵橋 下 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   道 位 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 地層下陷區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 行車 品質  </t>
+          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 的 高鐵橋 下 便 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 的 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   便 道 位 在 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 有 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 在 地層下陷區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 也 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 的 行車 品質  </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">高鐵 地層下陷區 雲林 土庫 段橋 下 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬 上 攔檢   位 高鐵 雲林 土庫 段橋 下 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示     大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞     土庫 鎮長 陳 特凱則 指出     柏油 鋪設 之 後   多年 來 它 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 情況   一而再 再而三 重 複     土庫鎮 公所 表示   高鐵橋 下 道 窄   本來 就 不 適合大車 通行   但 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林縣 府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林縣 府 工務 處長 汪令堯 說明     這 路段 經 地方 反映   主要 是 它 地質 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     加上 這邊 重車 行駛   造成 它 地面 下陷 蠻 嚴重   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC     工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   道 位 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   將請 警方 加強 取締   維護 好 行車 品質  </t>
+          <t xml:space="preserve">高鐵 地層下陷區 雲林 土庫 段橋 下 便 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 有 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬上 攔檢   位 在 高鐵 雲林 土庫 段橋 下 便 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 有 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示   「 大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞   」 土庫 鎮長 陳 特凱則 指出   「 柏油 鋪設 之 後   多年 來 它 的 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 的 情況   一而再 再而三 的 重 複   」 土庫鎮 公所 表示   高鐵橋 下 便 道 窄   本來 就 不 適合大車 通行   但 有 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林縣 府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林縣 府 工務 處長 汪令堯 說明   「 這 路段 經 地方 反映   主要 是 它 地質 也 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     那 加上 這邊 也 有 重車 行駛   造成 它 地面 下陷 蠻 嚴重 的   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC   」 工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   便 道 位 在 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   也 將請 警方 加強 取締   維護 好 的 行車 品質  </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映 長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 兩側 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   道 不能 任意 挖掘 施工   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  </t>
+          <t xml:space="preserve">雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 的 便 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 的 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 內 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 便 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   在 路口 設 有限 重 10 噸 以下 的 車輛 通行   但 地方 反映 長 期來 仍 有 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   也 將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 的 兩側 便 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   便 道 不能 任意 挖掘 施工   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 的 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透</t>
+          <t>路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 的 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 的 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為 「 地獄 之門 」       影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 的 地形   這種 高低 起伏 的 地表 在 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示   「 當地 人稱 之 為 塌陷   在 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大 」       科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 的 苔原 也 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 的 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是 「 危險訊號 」   「 今 後   隨著 氣溫 升高 和 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 的 永凍土 都 消失 為止 」       永凍土 融化 已威脅 到 俄國 北部 與 東 北部 的 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 的 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 也 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說   「   兩 年前   巨坑 邊緣   距離 這條 小路 大約 有 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了   」     科學家 不 確定 巴塔 蓋卡 坑洞 擴大 的 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 的 土地   有些 地方 深約 100 公尺   含有 「 大量 」 有機 碳   隨著永凍 土 融化   這些 有 機碳 將釋 放到 大氣 中   加劇 全球 暖化   「 隨著 氣溫 的 升高   我們 可以 預計   巨坑   將以 更 快 的 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化   」         路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 的 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 的 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為 「 地獄 之門 」   路透</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  </t>
+          <t xml:space="preserve">俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 的 永凍土 塌陷 坑   當地 人 把 它 稱作 「 冥界 之門 」   隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 有 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境 內 的 「 巴塔 蓋卡大融 洞 」   是 全世界 最大 的 永凍土 塌陷 坑   當地 人 把 它 稱作 「 冥界 之門 」   當地 居民 斯特 魯奇 科夫 表示   「 這是 在 1970 年代 形成 的   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大   」 當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 的 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出   「 這是 個 危險 的 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成 的   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 的 永凍土 都 消失   」 更 糟糕 的 是   隨著永凍 土 消失   封存 在 裡頭 的 有 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示   「 永凍 土內 的 碳 存量 是 大氣 中 的 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 的 甲烷 跟 二氧化碳 排放   加速 溫室 效應   」 科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 的 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 在 俄國 北部 與 東 北部 的 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">基隆 一處 屋齡 超過 40 年 公寓 住宅   後 方 排水 溝壁 破損   導致 流水 長 期 沖 刷   部分 住宅 地基 被 掏空   周圍 路面 出現 地層下陷 狀況   杜蘇芮 颱 風來襲   居民 擔心 大雨 不斷   後 果 不堪 設想   地基 掏空 發生 基隆 西定 路   一棟 公寓 住宅 住家 門口   破 了 一個 大 洞口   居民 行經 踩 空   才 驚覺 原來 民宅 外側 地基 被 掏空 了   進 一步 了解 才 發現   是 排水 溝壁 破損   長 期 沖 刷 造成   而且 長 期 土石 流失   讓 周圍 路面 出現 地層下陷 狀況   從 畫面 中 可以 看到   地層下陷 深度 大概 3 到 5 公分   可以 把手 機 放置 進去   居民 擔憂   地層下陷 將會 影響 住宅 結構 安全   尤其 杜蘇芮 颱 風期間   帶來 雨勢   恐怕 會帶 來 嚴重 影響   基隆市 議員施 偉政 提醒   地基 被 沖 刷   上面 載重 又 大 話   恐怕 房子 會 很大 問題   工務處 表示   會先 就 壁體 破損 坍方 處   施作 水溝 溝牆 再 回填   避免 淘空 範圍 擴大  </t>
+          <t xml:space="preserve">基隆 一處 屋齡 超過 40 年 的 公寓 住宅   後 方 的 排水 溝壁 破損   導致 流水 長 期 沖 刷   部分 住宅 地基 被 掏空   周圍 路面 也 出現 地層下陷 的 狀況   杜蘇芮 颱 風來襲   居民 擔心 大雨 不斷   後 果 不堪 設想   地基 掏空 發生 在 基隆 西定 路   一棟 公寓 住宅 住家 門口   破 了 一個 大 洞口   有 居民 行經 踩 空   才 驚覺 原來 民宅 外側 的 地基 被 掏空 了   進 一步 了解 才 發現   是 排水 溝壁 破損   長 期 沖 刷 造成   而且 長 期 土石 流失   也 讓 周圍 路面 出現 地層下陷 的 狀況   從 畫面 中 可以 看到   地層下陷 的 深度 大概 有 3 到 5 公分   可以 把手 機 放置 進去   居民 擔憂   地層下陷 將會 影響 住宅 的 結構 安全   尤其 杜蘇芮 颱 風期間   帶來 雨勢   恐怕 會帶 來 嚴重 的 影響   基隆市 議員施 偉政 也 提醒   地基 被 沖 刷   上面 載重 又 大 的 話   恐怕 房子 會 有 很大 的 問題   工務處 表示   會先 就 壁體 破損 坍方 處   施作 水溝 溝牆 再 回填   避免 淘空 範圍 擴大  </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉義市 35 座公園 是 國內 密度 最高   其中 20 座公園 廁所   曾 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請   優質 公廁 美質 環境 推動 計畫   經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  </t>
+          <t xml:space="preserve">嘉義市 35 座公園 是 國內 密度 最高   其中 20 座公園 有 廁所   曾 有 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 的 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 的 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請 「 優質 公廁 及 美質 環境 推動 計畫 」 經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 及 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 的 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 羅 欣貞 ／ 屏東 報導 〕 屏東縣 政府 2018 年 完工 並開始 操作 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫   近年 來 均 能 挹注 超過 5000 萬噸 水源 至 地下 含水 層   然而 由 於 南部 地區 近年 氣候 狀況 不如 預期   人工湖 於 今年 5 月僅 經過 1 個 月 餘 引水 操作   將大約 1000 萬噸 水 注入 含水 層   因應 颱 風 杜蘇芮 與後續 雨勢   從 7 月 27 日當晚 開始 啟動 今年 第二次 引水 作業   一直 持續 至今     屏縣 府 水利 處 表示   大 潮州 補注 湖不僅 是 目前 國內僅   是 東南亞 地區 最 大型 人工湖 補注 地下水 計畫   原理 為 於 洪水期 將林邊 溪 之 較 大 水源 導引 至 人工湖   而 此區 因 具備 入滲 效果 佳 地質 條件   即可 有效 補注 至 地下 含水 層   補注 之 效益 為 可 涵養 屏縣 使用率 較 高 地下水 資源   提高 部分 區域 地下水位   減緩 地層下陷 與 海水 入侵   防止 地下水 鹽化   此外   人工湖 具有 分洪   治洪 功能   而結 合水 銀行 抽補 概念   更是 能 提高 水資源 運用 效益     水利 處 指出   第 1 期 工程 經費 約 14.1 億元   無論 是 取輸水 效果   入滲 效率 與 補 注量 體均 極為 可觀   已具 顯著 成效   此項 目的 啟動 不僅 增加 屏南 地區 水資源 可運 用量   已 初步 達到   增源 減洪   重要 作用   後 續將 提出 第 2 期 人工湖 開闢 計畫   以達成 預估 完成 後 挹注 每年 1.5 億噸 地下水 補注量  </t>
+          <t xml:space="preserve">〔 記者 羅 欣貞 ／ 屏東 報導 〕 屏東縣 政府 2018 年 完工 並開始 操作 的 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫   近年 來 均 能 挹注 超過 5000 萬噸 的 水源 至 地下 含水 層   然而 由 於 南部 地區 近年 氣候 狀況 不如 預期   人工湖 於 今年 5 月僅 經過 1 個 月 餘 的 引水 操作   將大約 1000 萬噸 的 水 注入 含水 層   因應 颱 風 杜蘇芮 與後續 雨勢   從 7 月 27 日當晚 開始 啟動 今年 的 第二次 引水 作業   一直 持續 至今     屏縣 府 水利 處 表示   大 潮州 補注 湖不僅 是 目前 國內僅 有   也 是 東南亞 地區 最 大型 的 人工湖 補注 地下水 計畫   原理 為 於 洪水期 將林邊 溪 之 較 大 水源 導引 至 人工湖   而 此區 因 具備 入滲 效果 佳 的 地質 條件   即可 有效 補注 至 地下 含水 層   補注 之 效益 為 可 涵養 在 屏縣 使用率 較 高 的 地下水 資源   提高 部分 區域 的 地下水位   減緩 地層下陷 與 海水 入侵   防止 地下水 鹽化   此外   人工湖 也 具有 分洪   治洪 的 功能   而結 合水 銀行 抽補 概念   更是 能 提高 水資源 運用 效益     水利 處 指出   第 1 期 工程 經費 約 14.1 億元   無論 是 取輸水 效果   入滲 效率 與 補 注量 體均 極為 可觀   已具 顯著 成效   此項 目的 啟動 不僅 增加 屏南 地區 水資源 可運 用量   也 已 初步 達到 「 增源 減洪 」 的 重要 作用   後 續將 提出 第 2 期 人工湖 開闢 計畫   以達成 預估 完成 後 挹注 的 每年 1.5 億噸 的 地下水 補注量  </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  </t>
+          <t xml:space="preserve">宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 有 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 的 路段   長 年 發生 地層下陷 問題   住戶 房子 的 地基 也 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 的 側溝 還要 矮   根本 沒有 排水 功能   居民 指出   「 游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們   」 當地 地層下陷 的 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 在 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 的 情形   教育部 高級 中等教育 組 行政 及 資源 科長 黃 懷瑩 表示   「 我覺 得 地質 監測 這一塊   我們 可以 持續 做   讓 大家 安心 說   我們 是不是 持續 有 劇烈 的 沉降 或 傾斜 的 狀況   也 會 定期 跟 大家 報告 我們 監測 的 結果   」 校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 有 抽水   過去 抽 的 也 是 溢流 出 地面 的 水源   教育部 則說   過去 壓力 灌漿 是 有 延緩 地質 沉降 的 效果   立法 委員陳琬惠 表示   「 房子 跟 道路 就是 在 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已   」 水利 署 組長 簡昭群 說   「 技師 公會 去 依據 他 的 測量 結果   找出 造成 沉陷 的 具體 原因   」 陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 先 確定 當地 地層下陷 的 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">地層下陷   居住 環境 出現 疑慮   宜蘭 蘇澳鎮 民富 街   持續 嚴重 地層下陷   除了 騎樓 路面 出現 裂縫   家裡 牆壁 地磚 都 是 裂痕   讓民眾 膽戰心 驚   質疑 是 附近 蘇澳 海事 水產 職業 學校 游泳池   超 抽 地下水 造成   10 號會同 當地 立委   縣府 官員 進行 協商   希望 解決 問題   道路 傾斜 越來 越 嚴重   路面 持續 裂痕 產生   地層下陷 越陷越深   民眾 憂心 忡忡   因為 騎樓 道路 出 現明 顯裂 縫   家門口 緊鄰 水溝 都 脫離 了 3 公分   走 進家裡 更是 驚險   白色 地磚 出現 裂痕   銜接 處變 得 高低不平   整個 牆 壁上 是 超長 裂痕   怵 目驚心   這裡 是 宜蘭 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 水產 職業 學校 游泳池   當地 地層 持續 嚴重 下陷   遊 泳池 用 了 四年 就 塌陷   讓 居民 質疑   是 學校 不當 抽取 地下水 惹 得 禍   10 號這天會 同 立委   縣府 官員 共同 協商   不過 水利 署 官員 分析 指出   地層下陷 除了 跟 抽水 行為 有關   泳池 載重 有關 係   還要 再 進 一步 釐 清   居家 環境 不 安全   民眾 生活 都 膽戰心 驚   只 盼望 可以 盡快 改善 問題   還給 居民 安全 生活 環境  </t>
+          <t xml:space="preserve">地層下陷   居住 環境 出現 疑慮   宜蘭 蘇澳鎮 民富 街   持續 嚴重 地層下陷   除了 騎樓 和 路面 出現 裂縫   家裡 牆壁 和 地磚 也 都 是 裂痕   讓民眾 膽戰心 驚   質疑 是 附近 蘇澳 海事 水產 職業 學校 游泳池   超 抽 地下水 造成   也 在 10 號會同 當地 立委   縣府 官員 進行 協商   希望 解決 問題   道路 傾斜 越來 越 嚴重   路面 也 持續 有 裂痕 產生   地層下陷 越陷越深   民眾 憂心 忡忡   因為 騎樓 和 道路 也 出 現明 顯裂 縫   家門口 緊鄰 的 水溝 都 脫離 了 3 公分   走 進家裡 更是 驚險   白色 地磚 出現 裂痕   銜接 處變 得 高低不平   整個 牆 壁上 也 是 超長 裂痕   怵 目驚心   這裡 是 宜蘭 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 水產 職業 學校 的 游泳池   當地 地層 持續 嚴重 下陷   遊 泳池 用 了 四年 就 塌陷   讓 居民 質疑   是 學校 不當 抽取 地下水 惹 得 禍   10 號這天會 同 立委   縣府 官員 共同 協商   不過 水利 署 官員 分析 指出   地層下陷 除了 跟 抽水 行為 有關   也 和 泳池 載重 有關 係   還要 再 進 一步 釐 清   居家 環境 不 安全   民眾 生活 都 膽戰心 驚   只 盼望 可以 盡快 改善 問題   還給 居民 安全 的 生活 環境  </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>台北市 再現   天坑     南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌   長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   市府 指出   目前 無人 受傷   員警 已 畫設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因       市府 晚間 7 點 30 分開 設前 進 指揮 所   南港區 長 蔡明 儒到 達 現場   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業 中                             新建 工程 處開 挖 確認 塌陷 原因   是 水利 處 連接 涵管 有輕微 脫管 現象   目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮官   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞       水利 處 評估 工程 進度   實施 交通 維護   南港路 3 段 47 巷雙 向 封閉   預計 今晚 9 時修 復 機具 進入 開工   8 月 19 日 凌晨 0 時 灌漿 回填 作業   後 續 等到 混凝土 達到 一定 強度 之 後   路面 將會 辦理 復 舊   預計 於 明天 晚上 10 時許 恢 復 通車         市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞   圖 ／ 北市 府 提供   台北市 下午 4 點多 再現   天坑     市府 指出 目前 無人 受傷   員警 已 畫設 警戒 線   新工處 調派 重機 具開 挖   確認 坍塌 原因   圖 ／ 北市 府 提供</t>
+          <t>台北市 再現 「 天坑 」   南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌   長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   市府 指出   目前 無人 受傷   員警 已 畫設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因       市府 晚間 7 點 30 分開 設前 進 指揮 所   南港區 長 蔡明 儒到 達 現場   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業 中                             新建 工程 處開 挖 確認 塌陷 原因   是 水利 處 的 連接 涵管 有輕微 脫管 的 現象   目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮官   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 有 無 其他 路面 下 空洞       水利 處 評估 工程 進度   實施 交通 維護   南港路 3 段 47 巷雙 向 封閉   預計 今晚 9 時修 復 機具 進入 開工   8 月 19 日 凌晨 0 時 灌漿 回填 作業   後 續 等到 混凝土 達到 一定 強度 之 後   路面 將會 辦理 復 舊   預計 於 明天 晚上 10 時許 恢 復 通車         市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 有 無 其他 路面 下 空洞   圖 ／ 北市 府 提供   台北市 下午 4 點多 再現 「 天坑 」   市府 指出 目前 無人 受傷   員警 已 畫設 警戒 線   新工處 調派 重機 具開 挖   確認 坍塌 原因   圖 ／ 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 開放 機車 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 北市 府 提供 北市 天坑 搶修 完成   圖 北市 府 提供</t>
+          <t>北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 在 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   在 連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 先 開放 機車 及 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 / 北市 府 提供 北市 天坑 搶修 完成   圖 / 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  </t>
+          <t xml:space="preserve">〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 及 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 在 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 有 無 其他 路面 下 空洞  </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  </t>
+          <t xml:space="preserve">台北市 在 短短 3 個 月 內 出現 4 個 天坑   遭批 天龍國 變成 了 「 天坑 國 」   對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 先 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 的 側溝位 在 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 的 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 及 混凝土 澆置 後 也 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 的 東區 門戶 計畫 範圍   許多 建案 均 在 施工 中   南港路 47 巷 的 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 的 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 的 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 有 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 也 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供</t>
+          <t>北市 「 天坑 」 事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 在 工地 範圍 內   未影響 到民眾 安全 與 通車                             她 表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 有 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 有 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 有 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真 應該 好好 檢討 路面 品質       她 呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全   「 一次 又 一次   只會 讓 人民 對 政府 失去 信心   」       北市 「 天坑 」 事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   此為 今日 在 萬華區 某處 工地   圖 ／ 居民 提供</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供</t>
+          <t>繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 有 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地 內   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 有 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 在 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 有 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 在 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地 內   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   此為 今日 在 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  </t>
+          <t xml:space="preserve">4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 在 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 的 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是 「 甩鍋 」   認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 的 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非 「 甩鍋 」   氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 的 老舊 排水管 損裂 更 嚴重   民生 東路 的 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 的 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 的 塌陷 處   也 完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 有 許多 建案 施工   四 七巷 的 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 的 掏 涮 所致     李 四川 在 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 的 豪 大雨   高雄 的 積 淹水   北市 的 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 的 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 及 管線 老舊 對策   林延鳳 認為 李 四川 的 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質 的 「 人禍 」   不應 歸咎 於 天災   陳 怡君 也 說   極端 氣候 不能 成為 推卸 市政 的 理由 與 藉口   市府 應針 對 路面 做 總體檢   更換 或 整修 老舊 的 管線 箱涵   積極 研擬 因應 極端 氣候 及 公共 管線 老舊 的 對策  </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>新竹縣 竹 北市 天坑 再現   縣政 7 街 昨天 發生 道路 坍塌 形成 大 坑洞   今天上午 建商   住戶 代表   里長 與 技師 等到 現場 查看   討論 施作 透地雷達 範圍   鄰近 社區 住戶 說   這條 道 路旁 邊 就是 車道   且 鄰近 學校   九月 即將 開學   很多 學生 從 此 經過   盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況   安全 為 優先       斗崙里 長 張 琬 媃 表示   今天上午 邀請 土木 結構 技師 拱祥生 到 現場 勘查   盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況   後 將召開 說 明會   讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況                             鄰近 社區 住戶 說   建商 雖然 一周 兩次 監測且 未 超過 標準   然而 一旦 超過 就 來 不及 了   社區 希望 能 了解 整體 趨勢   盼建 商能 固定 給予 監測 數據   此外   地下 六樓 開 挖 深   導致 震動 頻率 高   社區 龜裂 狀況   這 部分 建商 允諾會 負責   未來 社區 會 提鄰損 要求   目前 該條 道路 是 社區 車道   鄰近 學校   開學後有 很多 學生 從 此 經過   希望 能 盡快 檢測 周邊 道路   以 安全 為 優先       拱祥生 表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   至於 後 方 涉及 到 肯德基 店家 與 私人 路段 要 再 確認   被動式 電磁波 檢測 能 偵測 淺   深層   將檢測 道路 範圍 下方 30 公尺 來 了解 地質   有否 潛藏 孔洞 或 疏 鬆 狀 況   以及 昨日 因自來 水 沖 蝕 後   回填 後 初步 結果   預計 最快 7 到 10 日 可 完成 檢測       媒體 追問 拱祥生   此案 與 豐采 520 天坑 事件   是否 都 因為 地下水 或 地理 環境易 地層下陷   拱祥生 回應   會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣   涉及 到 開 挖 工法   若 是 用 非止 水性 壁體   例如 這次 事件 用板 樁 橫板條   此工法 適用 於 林口 台地   桃園 台地 與 部分 竹北 工地   由 於 林口 台地   桃園 台地 屬於紅 土礫 石層   此地 質狀況 相對 不透水   若 使用 透水性 壁體   就 比 較 不怕   然而 遇強 下雨   自來 水管 線 潛 水分   搭配 降雨 形成 路徑   非止 水性 壁體 可能 就 會 帶 入土 沙   一下子 沖 入 基地       拱祥生 指出   這兩個 工地 都 共同 現象   主要 是 開 挖 工地 周遭   主動 破壞區 發生   就 像 開刀 本來 就 會 流血   因此 工地 開 挖 過程 中   正常 就 會導致 地表 沉陷   重點 是 透過 觀測 法來 了解 實際開 挖行 為   與 原來 工程 分析 行為 是否 相同   若 是 相同 就是 安全 範圍   若 是 異常   就 得 要 補強   新竹縣 竹 北市 縣政七 街道 路 塌陷 現場   工地 建商 坦承 疏失   記者 郭政芬 ／ 攝影 技師 拱祥生   右   表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   記者 郭政芬 ／ 攝影</t>
+          <t>新竹縣 竹 北市 天坑 再現   縣政 7 街 昨天 發生 道路 坍塌 形成 大 坑洞   今天上午 建商   住戶 代表   里長 與 技師 等到 現場 查看   討論 施作 透地雷達 的 範圍   鄰近 社區 住戶 說   這條 道 路旁 邊 就是 車道   且 鄰近 學校   九月 即將 開學   很多 學生 從 此 經過   盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況   安全 為 優先       斗崙里 長 張 琬 媃 表示   今天上午 邀請 土木 結構 技師 拱祥生 到 現場 勘查   盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況   後 將召開 說 明會   讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況                             鄰近 社區 住戶 說   建商 雖然 一周 兩次 監測且 未 超過 標準   然而 一旦 超過 就 來 不及 了   社區 希望 能 了解 整體 趨勢   盼建 商能 固定 給予 監測 數據   此外   地下 六樓 開 挖 深   導致 震動 頻率 高   社區 內 有 龜裂 狀況   這 部分 建商 允諾會 負責   未來 社區 也 會 提鄰損 要求   目前 該條 道路 是 社區 車道   鄰近 學校   開學後有 很多 學生 從 此 經過   希望 能 盡快 檢測 周邊 道路   以 安全 為 優先       拱祥生 表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   至於 後 方 涉及 到 肯德基 店家 與 私人 路段 要 再 確認   被動式 電磁波 檢測 能 偵測 淺   深層   將檢測 道路 範圍 下方 30 公尺 來 了解 地質   有否 潛藏 孔洞 或 疏 鬆 狀 況   以及 昨日 因自來 水 沖 蝕 後   回填 後 初步 的 結果   預計 最快 7 到 10 日 可 完成 檢測       媒體 也 追問 拱祥生   此案 與 豐采 520 的 天坑 事件   是否 都 因為 地下水 或 地理 環境易 地層下陷   拱祥生 回應   會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣   涉及 到 開 挖 工法   若 是 用 非止 水性 壁體   例如 這次 事件 用板 樁 和 橫板條   此工法 適用 於 林口 台地   桃園 台地 與 部分 竹北 工地   由 於 林口 台地   桃園 台地 屬於紅 土礫 石層   此地 質狀況 相對 不透水   若 使用 透水性 壁體   就 比 較 不怕   然而 遇強 下雨   自來 水管 線 有 潛 在 水分   搭配 降雨 形成 路徑   非止 水性 壁體 可能 就 會 帶 入土 沙   一下子 沖 入 基地       拱祥生 指出   這兩個 工地 都 有 共同 現象   主要 是 在 開 挖 工地 周遭   主動 破壞區 發生   就 像 開刀 本來 就 會 流血   因此 工地 在 開 挖 過程 中   正常 就 會導致 地表 沉陷   重點 是 透過 觀測 法來 了解 實際開 挖行 為   與 原來 工程 分析 的 行為 是否 相同   若 是 相同 就是 在 安全 範圍 內   若 是 有 異常   就 得 要 補強   新竹縣 竹 北市 縣政七 街道 路 塌陷 現場   工地 建商 坦承 疏失   記者 郭政芬 ／ 攝影 技師 拱祥生   右   表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   記者 郭政芬 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  </t>
+          <t xml:space="preserve">〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 也 質疑   建案 若 未 做 側溝   未來 仍 可能 有 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 做 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 在 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 有 做 側溝   若側 溝都 沒有   未來 仍 可能 有 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   她 也 發現   坑洞 日前 雖已 填補   但現 在 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 的 人 為 疏失     蔡岳樺 也 說   福音 里 內 有 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 有 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 有 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 也 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 在 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 的 是 舊 有 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 的 排水 系統 做 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 也 沒 有 規範   但 建管處 會 要求 將 排水 系統 做 完   改善 區域 排水     建管處 也 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 有 安全 疑慮 的 地方 阻隔  </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">針對 北市 連續 出現 天坑   台北 市長 蔣萬安 下午 公安 會報 中 指示   最近 幾次 地層下陷   會 進行 全面 檢視   請 工務局 邀集 相關 單位   包括 都 發   建管   針對 道路 塌陷 的後續 處理 做成 通案 性處 理機 制外   應 全面 檢視   會先 就 老舊 管線 一次 清查   下 一步 再針 對 其他 地方   避免 後 續 再 發生 地層下陷 情形       北市 建管處 下午 公安 會報 中針 對 今年 5 月 13 日 信義區 崇德 街 60   巷道 路 塌陷 案 進行 專題 報告   加強 管理 作為   針對 北市 建築 工地 正在 開挖 階段   計有 102 件   排定 由 三 大公 會 從 5 月 15 日 開始 逐案 現場 勘查   目前 已 全數檢 查完 畢   針對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善                             為 了 強化 管理 措施   加強 建築 工地 開挖 階段 安全 管理   自 6 月 分起 已委 託 三 大公 會 不定期 進行 現場 勘查   另 就 建築 工地 因違 反建築法 公共安全   公共交通 遭受 裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 相關裁 處訊息       另外   函告 工地 應主動 通報   若 工地 發生 公安 意外事件   應 於 第一 時間將 原因 緊急 應變 處理 情形 主動 通知 建管處   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處以 9 萬元 罰款   情節 嚴重 時並 勒令停工       副 市長 李 四川 提醒 建管處   最近 下午 雷陣雨   開挖 工地 要 加強 宣導 防範   蔣萬安 表示   信義區 案例   主要 因為 旁邊 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 加強 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   不管 是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處   地面 上 施工   如果 發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理  </t>
+          <t xml:space="preserve">針對 北市 連續 出現 天坑   台北 市長 蔣萬安 下午 在 公安 會報 中 指示   最近 幾次 地層下陷   會 進行 全面 檢視   請 工務局 邀集 相關 單位   包括 都 發   建管   針對 道路 塌陷 的後續 處理 做成 通案 性處 理機 制外   也 應 做 全面 檢視   會先 就 老舊 管線 做 一次 清查   下 一步 再針 對 其他 地方   避免 後 續 再 發生 地層下陷 情形       北市 建管處 下午 在 公安 會報 中針 對 今年 5 月 13 日 信義區 崇德 街 60   巷道 路 塌陷 案 進行 專題 報告   加強 管理 作為   針對 北市 建築 工地 正在 開挖 階段   計有 102 件   排定 由 三 大公 會 從 5 月 15 日 開始 逐案 現場 勘查   目前 已 全數檢 查完 畢   針對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善                             為 了 強化 管理 措施   加強 建築 工地 開挖 階段 安全 管理   自 6 月 分起 已委 託 三 大公 會 不定期 進行 現場 勘查   另 就 建築 工地 因違 反建築法 公共安全   公共交通 遭受 裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 相關裁 處訊息       另外   也 函告 工地 應主動 通報   若 工地 發生 公安 意外事件   應 於 第一 時間將 原因 及 緊急 應變 處理 情形 主動 通知 建管處   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處以 9 萬元 罰款   情節 嚴重 時並 勒令停工       副 市長 李 四川 也 提醒 建管處   最近 下午 雷陣雨   開挖 工地 要 加強 宣導 防範   蔣萬安 也 表示   信義區 的 案例   主要 因為 旁邊 有 有 建案 開 挖 造成 地層下陷   最近 有 許多 下午 的 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 加強 查核       蔣萬安 也 指示   針對 有些 地方 老舊 管線   不管 是 汙水 管等   主管 機關加 強督導   另環 保局 在 進行 清疏 時   或是 新工處   地面 上 施工   如果 有 發現 相關 管線 有 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理  </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  </t>
+          <t xml:space="preserve">北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 在 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   也 應 全面 檢視   先 清查 地下 的 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 在 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 的 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 有 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 的 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 及 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 和 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 有 許多 下午 的 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 及 查核       蔣萬安 指示   針對 有些 地方 的 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 在 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 有 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 的 隱憂  </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林 沿海 受 藍 月 大潮 加上 颱 風 大浪   近日 接連 發生 嚴重 海水倒灌   最大 萡 子 寮 港 到 昨天 仍 一片汪洋   淹水 膝   港口 被迫 封閉   行政院 長 陳 建仁 昨 前往 現場 勘災   地方 陳 情指   漁港 淹水 已嚴 重威脅 下崙 3 個村 安危   應急 工程 不能 再 拖   縣府 盼 中央 補能 加高 延伸 堤防   陳 建仁 允諾 相關 部會 與 縣府 合作   研議 解決 之道       縣府 水利 處長 許 宏博 簡報 指出   因地盤 下陷 嚴重   多年 來 幾次 加高 防波堤 年 年 抽沙 清淤   仍難 敵 天象 變化   港域 高程 約 1.9 公尺   但 這兩天 高達 2.56 公尺   加上 風浪助長 爆發 嚴重 海水倒灌   目前 除應 急 擋 水 措施   要 增高 延伸 防波堤   清理 港域 30 萬 立方米 淤沙   確保 港口 不受 漂沙 封堵   才能 因應 極端 氣候 海象 變化   整建 經費 預估 10 億元                             同為 養殖業者 口湖 鄉 代王 紫陽 說   這 生活 60 幾年 從 沒見 過淹 水淹 得 如此 嚴重   鄰近 300 多公頃 養殖區 朝不保夕   政府 不能 坐視 不管   李姓 養殖業 說   這次 海水倒灌 造成 部分 魚苗 流失       議員黃 文祥 指 說   萡 子 寮 港 已 無 法 因 應 現 海象 變化   尤其 漂沙帶 來 淤塞 海水倒灌   連 以前 航行 澎湖 輪 船 因 淤沙 停駛   口湖 代表 會 主席 王溪邊 指   更 扯 是 退潮 水位 變低 時   漁船 竟 要 用 推 進港   實在 可笑   治港刻 不容 緩       昨 陪同 會勘 雲林縣 長 張麗善 當面 遞交 雲林 漁港 治理 海堤 安全 防護 計畫   盼 請 行政院 協助   立委 蘇治芬 建議將 雲林 海岸 治理 一 併 納 入院 會 正在 檢討 國土 沙洲 案   以 擴大 治理 量 能       陳 建仁 說   這次 海水倒灌 對 地方 造成 損失   針對 地方 希望 能 加高 延伸 堤防   此須 經過 水工 模型 試驗   才能 確保不會 加劇 地層下陷 問題   行政院 會 聽取 地方 建議   與 縣府 共同 研議 解方       漁業署 表示   曾 與 立委 蘇治芬 多次 召開 海岸 治理 檢討   為 保漁港 漁業 永續   除應 急 工程 應要 進行 水工 研究 與 探測 再行 治理   才能 一勞永逸   由 於 該 漁港屬 地方 管理   中央 會予 協助 建置 長 遠 治理 方案  </t>
+          <t xml:space="preserve">雲林 沿海 受 藍 月 大潮 加上 颱 風 大浪   近日 接連 發生 嚴重 海水倒灌   最大 的 萡 子 寮 港 到 昨天 仍 一片汪洋   淹水 及 膝   港口 被迫 封閉   行政院 長 陳 建仁 昨 前往 現場 勘災   地方 陳 情指   漁港 淹水 已嚴 重威脅 下崙 3 個村 的 安危   應急 工程 不能 再 拖   縣府 也 盼 中央 補能 加高 及 延伸 堤防   陳 建仁 允諾 相關 部會 與 縣府 合作   研議 解決 之道       縣府 水利 處長 許 宏博 簡報 指出   因地盤 下陷 嚴重   多年 來 幾次 加高 防波堤 及 年 年 抽沙 清淤   仍難 敵 天象 變化   港域 高程 約 1.9 公尺   但 這兩天 高達 2.56 公尺   加上 風浪助長 爆發 嚴重 海水倒灌   目前 除應 急 擋 水 措施   要 增高 延伸 防波堤   及 清理 港域 30 萬 立方米 淤沙   確保 港口 不受 漂沙 封堵   才能 因應 極端 氣候 的 海象 變化   整建 經費 預估 10 億元                             同為 養殖業者 的 口湖 鄉 代王 紫陽 說   在 這 生活 60 幾年 從 沒見 過淹 水淹 得 如此 嚴重   鄰近 300 多公頃 養殖區 朝不保夕   政府 不能 坐視 不管   李姓 養殖業 也 說   這次 海水倒灌 造成 部分 魚苗 流失       議員黃 文祥 也 指 說   萡 子 寮 港 已 無 法 因 應 現 有 海象 變化   尤其 漂沙帶 來 的 淤塞 及 海水倒灌   連 以前 航行 澎湖 的 輪 船 也 因 淤沙 停駛   口湖 代表 會 主席 王溪邊 指   更 扯 的 是 退潮 水位 變低 時   漁船 竟 要 用 推 的 進港   實在 可笑   治港刻 不容 緩       昨 陪同 會勘 的 雲林縣 長 張麗善 當面 遞交 雲林 漁港 治理 及 海堤 安全 防護 計畫   盼 請 行政院 協助   立委 蘇治芬 也 建議將 雲林 海岸 治理 一 併 納 入院 會 正在 檢討 的 國土 沙洲 案   以 擴大 治理 量 能       陳 建仁 說   這次 海水倒灌 對 地方 造成 損失   針對 地方 希望 能 加高 及 延伸 堤防   此須 經過 水工 模型 試驗   才能 確保不會 加劇 地層下陷 問題   行政院 會 聽取 地方 建議   與 縣府 共同 研議 解方       漁業署 表示   曾 與 立委 蘇治芬 多次 召開 海岸 治理 檢討   為 保漁港 的 漁業 永續   除應 急 工程 應要 進行 水工 研究 與 探測 再行 治理   才能 一勞永逸   由 於 該 漁港屬 地方 管理   中央 會予 協助 建置 長 遠 治理 方案  </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>高雄 仁武 區 今晚 9 時 30 分許   有民眾 發現 出現 一個 大 天坑   地點 就 永新 五街 永仁 街 路口 旁電線桿 周邊   高雄市 議員黃 飛鳳 獲報 隨即 到場 關心   並 通知 相關 單位 到場 協處   目前 高 市府 水利局 已調 派 機具 場開 挖 釐 清 下陷 肇因       由 於   天坑 發生 位置 就 電線桿 周圍   為 避免 電線桿 倒塌 造成 停電 意外   台灣 電力 公司 鳳山 營業 處 派員 前往 現場   暫以 吊桿 支撐 固定 電線桿   至於   地層下陷 肇因   水利局 人員 正在 現場 以管 挖 機具 進行 開 挖 調查                             仁武 分局 表示   因 路面 出現 坍塌 情事   為 安全 著想 避免 影響 用路 人   警方 獲報 後 已 將該 路段 封閉   經 水利局 挖開 查看   發現 不明 水源 流入 導致 地基 塌陷   屬 水利局 權責   遂 先行 填補 搶修   目前 水利局 污水 二科科長 張進 二 正在 現場 監督   台灣 電力 公司 鳳山 營業 處 暫以 吊桿 支撐 電線桿   避免 意外 發生 造成 停電   記者 古和純 ／ 翻攝 高雄 仁武 區出現 地層下陷   圖 ／ 取自 高雄市 議員黃 飛鳳個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面   記者 古和純 ／ 翻攝</t>
+          <t>高雄 仁武 區 今晚 9 時 30 分許   有民眾 發現 出現 一個 大 天坑   地點 就 在 永新 五街 及 永仁 街 路口 旁電線桿 周邊   高雄市 議員黃 飛鳳 獲報 隨即 到場 關心   並 通知 相關 單位 到場 協處   目前 高 市府 水利局 已調 派 機具 在 場開 挖 釐 清 下陷 肇因       由 於   天坑 發生 位置 就 在 電線桿 周圍   為 避免 電線桿 倒塌 造成 停電 意外   台灣 電力 公司 鳳山 營業 處 派員 前往 現場   暫以 吊桿 支撐 固定 電線桿   至於   地層下陷 肇因   水利局 人員 正在 現場 以管 挖 機具 進行 開 挖 調查                             仁武 分局 表示   因 路面 出現 坍塌 情事   為 安全 著想 及 避免 影響 用路 人   警方 獲報 後 已 將該 路段 封閉   經 水利局 挖開 查看   發現 有 不明 水源 流入 導致 地基 塌陷   屬 水利局 權責   遂 先行 填補 搶修   目前 水利局 污水 二科科長 張進 二 正在 現場 監督   台灣 電力 公司 鳳山 營業 處 暫以 吊桿 支撐 電線桿   避免 意外 發生 造成 停電   記者 古和純 ／ 翻攝 高雄 仁武 區出現 地層下陷   圖 ／ 取自 高雄市 議員黃 飛鳳個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面   記者 古和純 ／ 翻攝</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 約 580 萬住 戶 沒 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣 位處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 房屋 倒塌 或 不堪 居住 之   全損   損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓   看房 要 排隊     一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房   房屋 稅 3 千變 3 萬 4     他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師   繳不出 頭期   全場 曝下場   穩死</t>
+          <t>嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 有 約 580 萬住 戶 沒 有 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣 位處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 的 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 有 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 的 房屋 倒塌 或 不堪 居住 之 「 全損 」 損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 的 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓 「 看房 要 排隊 」   一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房 「 房屋 稅 3 千變 3 萬 4 」   他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師 「 繳不出 頭期 」 全場 曝下場   穩死</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見   蹦   聲響   工地 先緊 急 疏散 工人   才 通知 住戶     說   附近 民眾 提到 此建案 動工 後   住家 就 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  </t>
+          <t xml:space="preserve">台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 在 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 內 有 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 的 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 先 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 的 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見 「 蹦 」 聲響   工地 先緊 急 疏散 工人   才 通知 住戶     她 說   附近 民眾 提到 此建案 動工 後   住家 就 有 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 也 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  </t>
+          <t xml:space="preserve">台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 有 違失   「 絕不寬貸   護短 」   同時 也 會 檢視 基泰 建設 在 台北市 的 建案   不合 規定 就 會 勒令停工   北市 府 也 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 的 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 的 開綠色 通道 至 台北市 聯合 醫院   後 續 也 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 也 有 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 的 申訴   及 建管處 判斷 過程 是否 有 違失 或 違法   才 導致 今天 的 狀況   「 絕不寬貸   也 絕不護 短 」   若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 的 危老 都 更 都 會 較 過往 開 挖 來 的 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 有 任何 違法 情事   或 發現 當時 處理 不當   表態 「 該換 就換   這沒有 疑問 」   強調 重新 檢視 後 「 有 需要 撤換 就 撤換 」   至於 基泰 建設 在 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 在 台北市 的 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   也 會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 的 一站式 聯合 服務 中心   也 成立 律師團 協助 住 戶後續 的 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 也 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 也 撂 狠話   「 建商 要負 全面 責任   否則 未來 在 台北市   很 抱歉   你 不 符合 相關 規定 或 標準 就 別 想 在 台北市 取得 任何 案子   」 而 下午 建管處 也 已經 發文稱 基泰 在 北市 的 7 個 工地 全面 停工  </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   透露 來 自 基泰 政治 獻金 是 一位 從 媒體界 轉從商 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬 上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金   想 請問 一下   這 是否是 綠營 想 再次 示範   綠能 不能   雙標   王鴻薇 指出   上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能 公司 政治 獻金 是 雙標   但 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 直播 就 會 知道   是 跟 大家 報告 現場 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 一貫 手法   王鴻薇 表示 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 里 長 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   今 早 建議 市政府   代位 求償     此外 得知 居民 準備 組成 自救 會   承諾 一定 會 全力 協助   最 重要 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 董事 長   總經理 真的 都 不 認識   但是 回頭 去 查 了 一下   是 一位 媒體 前輩去 做生意   確實 議員 選舉 以及 立委 補選時 政治 捐獻   而 由 於 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 要 查詢 是否 虧損   虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 選區   鄰近 以前 蔣萬安 選區   為 何會 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   立刻 跟 團隊 確認   確實 是 沒 接獲 選民 或 議員陳情   這 方面 他們 要 努力 空間還 很多   會勤 走 基層   聽 更 多 聲音   稱 很 遺憾   選民 這幾個 月 這樣 困擾   對民代來講   該 努力 就 應該 繼續 去 努力  </t>
+          <t xml:space="preserve">大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   也 使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 在 去年 選舉 前 和 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   也 透露 來 自 基泰 的 政治 獻金 是 一位 從 媒體界 轉從商 的 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 的 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 也 有 收 基泰 的 政治 獻金   她 想 請問 一下   這 是否是 綠營 想 再次 示範 「 綠能 你 不能 」 及 雙標   王鴻薇 也 指出   上次 她 質疑 綠能 產業 就 被民進 黨 挖出 也 收過 綠能 公司 的 政治 獻金 是 雙標   但 她 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 在 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 的 直播 就 會 知道   她 是 跟 大家 報告 現場 和 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 的 一貫 手法   王鴻薇 也 表示 她 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 的 里 長 也 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   她 今 早 也 建議 市政府 「 代位 求償 」   此外 得知 居民 準備 組成 自救 會   她 也 承諾 一定 會 全力 協助   最 重要 的 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 的 董事 長   總經理 她 真的 都 不 認識   但是 她 回頭 去 查 了 一下   是 有 一位 媒體 前輩去 做生意   確實 在 議員 選舉 以及 立委 補選時 有 做 政治 捐獻   而 由 於 有 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 也 要 查詢 是否 有 虧損   有 虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 在 她 的 選區   也 鄰近 以前 蔣萬安 的 選區   為 何會 在 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   她 也 立刻 跟 團隊 確認   確實 她 是 沒 有 接獲 選民 或 議員陳情   這 方面 他們 要 努力 的 空間還 很多   她 會勤 走 基層   聽 更 多 聲音   她 也 稱 很 遺憾   選民 這幾個 月 有 這樣 的 困擾   對民代來講   該 努力 的 就 應該 繼續 去 努力  </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>台北市 中山 區 大直 民宅 疑因 附近 建案   基泰 大直   施工 不慎   整棟 下陷   建商 基泰 建設 今天 認了   施工 不慎     表示 相關責 任絕 不 推卸   會 對 受 損戶 盡 最大 慰問   協助 安置   台北 市長 蔣萬安 上午 到 顯場 視察   指 預防性 撤離 可能 再 擴大       基泰 建設 表示   台北市 中山 區   基泰 大直   建案 於 9 月 7 日 晚間   因營 造廠 施工 不慎   造成 鄰房 損壞   深表 遺憾   為維護 公共安全   已 於 第一 時間 要求 停工   同時 進行 相關 措施       蔣萬安 表示   市府 第一 時間 就 進行 疏散   跨局 處 到場 預防性 撤離   撤離 人數 規模 大   共 197 戶   約 369 人   但 可能 再持續 擴大   道 明外 僑學校 操場   圍牆 裂開   教育局 緊急 確認 後   宣布 今日 預防性 停課 1 日   以策安全               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持</t>
+          <t>台北市 中山 區 大直 民宅 疑因 附近 建案 「 基泰 大直 」 施工 不慎   整棟 下陷   建商 基泰 建設 今天 認了 「 施工 不慎 」   表示 相關責 任絕 不 推卸   會 對 受 損戶 盡 最大 慰問   協助 安置   台北 市長 蔣萬安 上午 到 顯場 視察   指 預防性 撤離 可能 再 擴大       基泰 建設 表示   台北市 中山 區 「 基泰 大直 」 建案 於 9 月 7 日 晚間   因營 造廠 施工 不慎   造成 鄰房 損壞   深表 遺憾   為維護 公共安全   已 於 第一 時間 要求 停工   同時 進行 相關 措施       蔣萬安 表示   市府 第一 時間 就 進行 疏散   跨局 處 到場 做 預防性 撤離   撤離 人數 規模 大   共 197 戶   約 369 人   但 也 可能 再持續 擴大   道 明外 僑學校 操場   圍牆 裂開   教育局 緊急 確認 後   宣布 今日 預防性 停課 1 日   以策安全               登入 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬上 註 冊         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬上 註 冊   ｜   立即 搶購         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     訂閱 支持</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    </t>
+          <t>基泰 建設 的 新建 案 「 基泰 大直 」 因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 的 25 戶長 期 安置 計畫   也 公開 基泰 大直 的 連續 壁廠 商為 「 齊崴 營造 」   至於 本刊 揭監測 報告 早就 顯示 「 已 超出 警戒 值 」   王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 的 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 的 監測 報告 顯示   在 坍塌 前 44 天 的 監測 報告 結論 及 說 明一欄 中 已 明確 指出   「 部分 監測 儀器 已 超出 警戒 值 」   然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 的 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 的 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 的 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕   「 我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇   」 王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 的 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 在 附近   會持續 提供 安置 的 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   有 地下室 開挖 的 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 的 規定 會 做 一個 整體 的 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   有 工地 涉及 公安 跟 鄰損 的   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 她 今日 也 公布 「 基泰 大直 」 的 下 包連續 壁廠 商為 「 齊崴 營造 」   「 一個 都 不要 跑掉   也 讓 大家 可以 避開 雷區   」</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   證交所 召開 重訊 記者 會   董事 長 陳 世銘 道歉 後 宣布 請辭 負責 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者   不 確定 故意   釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 會勘 紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 回報 是否 行政 怠惰   瀆職 或 疏 於 監督     建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人     王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  </t>
+          <t xml:space="preserve">北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   在 證交所 召開 重訊 記者會   董事 長 陳 世銘 在 道歉 後 宣布 請辭 負責 便 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 在 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者 的 「 不 確定 故意 」 釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 的 會勘 紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 的 回報 是否 有 行政 怠惰   瀆職 或 疏 於 監督   「 建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人   」 王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 的 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  </t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  </t>
+          <t xml:space="preserve">台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 在 現場 且 站 在 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 的 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離開 記者會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 在 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 在 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 在 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任 「 這麼 大 的 事情   你們 負責人 沒 有 在 現場   只有 你 一個 主任 在 這   」 而 工地 主任 才 回應 「 我們 總經理 站 在 旁邊 那邊   」 李聲 稱 當下 自己 不 認識 馮   且 之 後 也 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 的 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 也 找 不到 馮   他 才 會 在 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 先 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   在 會 同 法制局 後 達 成後續 的 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 在 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 的 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   也 聽 到 消防局 回報 工地 一直 傳出 有 「 啪啪 啪 」 聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 也 詢問 單號 住戶 對面 有 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 的 也 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   便 立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨 「 啪啪 啪 」 間 隔 時間 越來 越短   他 就 要求 全部 站 在 旁邊 的 人 全部 快 疏散   李 表示   他 在 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 也 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 的 是 極端 氣候 的 影響   市區 很多 側溝 的 設計 是 無法 承受 近來 的 豪 大雨   若 「 用 工程 的 技術 去 追 」 不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 的 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 的 考驗  </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">先前 才 發生 竹北 天坑 事件   新竹市 和平路 20 巷今   21   天 下午 突然 出現 天坑   大約 一輛車 面積   根據 了解   天坑 旁有 一個 建案   目前 已經 挖 到 地下 三樓   新竹市 府 說明   今日 下午 13 時 35 分許   消防局 受理 和平路 出現 道路 地基 下陷 情形   消防局 派員到 場後發現 道路 明顯 傾斜   並伴 隨 瓦斯 異味   隨即 通報 都 發處   工務處   自來 水 公司   瓦斯 公司 等 單位 前來 搶 修及 勘查   市長 高虹安 隨後也親 自到 場關 心及 了解 狀況   聆 聽 周邊民眾 心聲   要求 廠商必 須 儘 速 完成 改善   並確 保 居民 居住 安全   市府 指出   現場 工地 依規 有施 打 預壘 樁 擋 水樁   工法 沒有 問題   疑似 是 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂   市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   如 民宅 開始 傾斜 情形   應 進行 預防性 撤離   另 已確 認自來 水破管 位置   並 完成 修 復 回填   將持續 觀察 是否 還有 造成 洩漏 情形   避免 地層 再次 下陷   市府 進 一步 指出   本案 因違 反建築法 第 63 條   都 發處 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各三萬元   並視後續 情況 再行 論處  </t>
+          <t xml:space="preserve">先前 才 發生 竹北 天坑 事件   新竹市 和平路 20 巷今   21   天 下午 突然 出現 天坑   大約 有 一輛車 的 面積   根據 了解   在 天坑 旁有 一個 建案   目前 已經 挖 到 地下 三樓   新竹市 府 說明   今日 下午 13 時 35 分許   消防局 受理 和平路 出現 道路 地基 下陷 情形   消防局 派員到 場後發現 道路 有 明顯 傾斜   並伴 隨 瓦斯 異味   隨即 通報 都 發處   工務處   自來 水 公司   瓦斯 公司 等 單位 前來 搶 修及 勘查   市長 高虹安 隨後也親 自到 場關 心及 了解 狀況   聆 聽 周邊民眾 心聲   要求 廠商必 須 儘 速 完成 改善   並確 保 居民 居住 安全   市府 指出   現場 工地 依規 有施 打 預壘 樁 及 擋 水樁   工法 沒有 問題   疑似 是 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂   市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 有 無 傾斜 情形   如 有 民宅 開始 傾斜 情形   應 進行 預防性 撤離   另 已確 認自來 水破管 位置   並 完成 修 復 回填   將持續 觀察 是否 還有 造成 洩漏 情形   避免 地層 再次 下陷   市府 進 一步 指出   本案 因違 反建築法 第 63 條   都 發處 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各三萬元   並視後續 情況 再行 論處  </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">新竹市 和平路 20 巷 昨 下午 驚見   天坑     市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 認為   未來須 全面 將 瓦斯 自來 水管 線 更新   同時須 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   後 續 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  </t>
+          <t xml:space="preserve">新竹市 和平路 20 巷 昨 下午 驚見 「 天坑 」   市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 也 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   也 希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 也 認為   未來須 全面 將 瓦斯 及 自來 水管 線 更新   同時須 在 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 及 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 有 無 傾斜 情形   後 續 也 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 內 有 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂 「 整夜 睡不著 」   民代質疑 工法 有 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 的 灌漿 作業   自來 水 公司 今天 也 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 也 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 的 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 有 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 的 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 的 住 戶 約 20 多戶   居民 無奈 「 不敢 休息 」   也 擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   也 希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 有 他 處 下陷   建物 傾斜計 監測 數值 也 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 的 老舊 自來 水塑膠 管線   市長 高虹安 下午 也 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 的 巷弄 道路 下陷   由 於 一旁 的 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 也 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   在 前天 發生 和平路 20 巷 「 天坑 」 事件 後   建商 取得 住戶 同意 在 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 的 警戒 值   由 於 和平路 20 巷 仍 有 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 的 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 也 流入 基地       由 於 和平路 20 巷內 約 有 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   也 盼 建商 同步 處理 好 地基       「 各項 資訊要 更 透明   讓 住 戶們 安心   」 楊姓 住戶 說   他 在 巷 內 住 了 20 年   其他 老住 戶 有 的 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   也 希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 也 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 也 自行 組成 應變 中心   應變 中心 代表 也 允諾   已經 協調 明天 自來 水 公司 進場 換管   在 加派 人力 前   後 分頭 施工 的 情形 下   能 在 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 的 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 的 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 也 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 也 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於 「 天坑 」 填平 後   今天 又 有 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 的 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 的 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 的 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 也 會 同 土木 技師 等 四大 專業 技師 公會 及 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 在 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 的 自動 傾斜 偵測 設備 的 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 做 準備       明天 開始 的 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 的 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 也 說   在 確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 的 衝擊 降到 最低       高虹安說   今天 在 現場 也 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 的 靠山   不僅會 要求 廠商 負起 責任   在 完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 的 其他 工程   新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 在 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 在 搶 修處理   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設 新建 案   基泰 大直   日前 因 施工 不慎   導致 台北市 中山 區 大直 街鄰 近 民宅 傾斜 倒塌   甚至 發生 建物 下陷 情形   北市 府上 月 26 日 進行 拆除 下陷 建物 作業   本月 1 日 進行 單號 受災屋 拆除 工作   不過 民代今   17 日   臉書 爆料   週邊 雙號 受災戶 惡夢還 沒有 結束   15 日竟 出現 房子 撕裂   碎石 掉落 聲   且門外 溝壁 破裂 下陷 情形   經 會勘 確認   下陷 累積 7 公分     台北市 議員陳怡 君今 稍早 臉書上 透露   大直 街 5 民宅 危樓 已經 拆除   但 對面 雙號棟 卻 上 週日   15 日     某住 戶 聽聞 房子 撕裂   碎石 掉落 聲   且門外 溝壁 破裂 下陷 情形   經現場 會勘 後 確認   累積 下陷 約 7 公分     陳 怡君 表示   雖結構 技師 現場 判定 無 立即 性 危險   該 狀況 為   地面 下 無 地基   對面 單號 拆 危樓   所導致 地下 土壤 遭擾動   因此 下陷   強調   雖 判定 暫無 立即 性 危險   建管處 多 設點 觀察   但 還是 讓 民眾 住 得 心驚膽 跳   陳 怡君 無奈   認為 基泰 建設 不 只是 造成 重災戶 無家 可 歸   讓 鄰房 住 得 不安 穩   雖然 市府 還在 統計 周遭 鄰房 是否 同意 公辦 都 更   但 不能 避免 是 公辦 都 更 前   民眾 仍 隨時 處 於 驚 恐狀態   下雨 地震 再次 施工 都 讓 鄰近 住戶 感到 恐慌   無法 安心 入住   陳 怡君 指出   因為 雙號 建物 下陷 狀況   溝壁 破損 不堪   而 基泰 旁邊 正在 施工 其他 建案 基地   令民眾 害怕 房子 不堪 一擊   再次 嚴重 損鄰   陳 怡君 提出 問題   損鄰 報告   房屋 安全 鑑定   以及 透地雷達 出來 前   鄰近 工地 施工   若 再次 造成 民房 受損   恐怕 更難 釐 清損 鄰責任  </t>
+          <t xml:space="preserve">基泰 建設 新建 案 「 基泰 大直 」 日前 因 施工 不慎   導致 台北市 中山 區 大直 街鄰 近 民宅 傾斜 倒塌   甚至 發生 建物 下陷 情形   北市 府上 月 26 日 進行 拆除 下陷 建物 作業   本月 1 日 進行 單號 受災屋 拆除 工作   不過 民代今   17 日   在 臉書 爆料   週邊 雙號 受災戶 的 惡夢還 沒有 結束   15 日竟 出現 房子 撕裂   碎石 掉落 聲   且門外 溝壁 有 破裂 下陷 情形   經 會勘 確認 「 下陷 累積 7 公分 」   台北市 議員陳怡 君今 稍早 在 臉書上 透露   大直 街 5 民宅 危樓 已經 拆除   但 對面 的 雙號棟 卻 在 上 週日   15 日     某住 戶 聽聞 房子 撕裂   碎石 掉落 聲   且門外 溝壁 有 破裂 下陷 的 情形   經現場 會勘 後 確認 「 累積 下陷 約 7 公分 」   陳 怡君 表示   雖結構 技師 現場 判定 無 立即 性 危險   該 狀況 為 「 地面 下 無 地基   對面 單號 拆 危樓 」 所導致 地下 土壤 遭擾動   因此 下陷   她 強調   雖 判定 暫無 立即 性 危險   建管處 也 多 設點 觀察   但 還是 讓 民眾 住 得 心驚膽 跳   陳 怡君 無奈   認為 基泰 建設 不 只是 造成 重災戶 無家 可 歸   也 讓 鄰房 住 得 不安 穩   雖然 市府 還在 統計 周遭 鄰房 是否 同意 公辦 都 更   但 不能 避免 的 是 在 公辦 都 更 前   民眾 仍 隨時 處 於 驚 恐狀態   下雨 地震 及 再次 施工 都 讓 鄰近 住戶 感到 恐慌   無法 安心 入住   陳 怡君 指出   因為 雙號 建物 有 下陷 狀況   溝壁 也 破損 不堪   而 基泰 旁邊 正在 施工 的 其他 建案 基地   也 令民眾 害怕 房子 不堪 一擊   再次 嚴重 損鄰   陳 怡君 提出 問題   在 損鄰 報告   房屋 安全 鑑定   以及 透地雷達 出來 前   鄰近 工地 施工   若 再次 造成 民房 受損   恐怕 更難 釐 清損 鄰責任  </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>捷運 萬大線 第一期 工程 預計 2025 年 完工   施工 路線 為 中   土城 交通要道   讓 原 交通 更塞   而 LG06 土建工程 圍籬 原定 今年 12 月 31 日 拆除   卻 將延長 3 年 才 要 拆除   恐將 影響 拉長   另有 議員 發現   萬大線 施工 造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂 等 鄰損   要求 新北 捷運局 加速 處理   新北 捷運局 表示   已 邀北捷局   里長 及民眾 現場 說明   目前 並無 地層下陷 問題       市議員陳錦錠 表示   新北 中和區 連城路 因捷 運萬大線 施工   造成 尖峰 時刻 壅塞   且 第一期 LG06 土建工程 圍籬 原定 年底 拆除   卻 延長 三年 後 才 要 拆除   再 加上 萬大線 施工   造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂   磁磚 破損 等 鄰損   新北 捷運局 應 盡快 提出 改善 方案   避免 鄰損 擴大   確 保民 眾 居住 安全                             對此   新北 捷運局 表示   萬大中 線 目前 計畫 進度 達 7 成   為紓解 施工 交通 瓶頸   台北 捷局 已 於 今年 8 月底 開放 施工 時封閉 連城路 北向 右轉 中正路 專用 車道   預計 明年初 陸續 展開 道路 回填 復 舊 作業   逐步 縮 減圍 籬範圍   緩解 壅塞 情形       至於 鄰損 部分   新北 捷運局 表示   9 月 28 日 邀北捷局   里長 及民眾 現場 說明   關於 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   現場 立刻 要求 廠商 當天 下午 進場 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 部分   北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理     後 續若涉 鄰損 鑑定   北捷局 已承諾將 依相關 規定 辦理   目前 並沒有 地層下陷 問題         新北 捷運局 長 李政安 表示   會 要求 北捷 局縮 短 工程   不能 任意 延長   新北 捷運 局局 另 指出   LG06 中 站   連城路 75 巷   為 捷運 出入口 B 暨 聯合開 發基礎 共構 工程   屬契約後續 變更 擴充 工作   因開 工時程 較 晚   且位 於 路側   並不影響 連城路 道路 回填 復 舊 期程   不會 造成 交通 壅塞 狀況   萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 新北 捷運局 9 月 28 日 邀北捷局   里長 及民眾 現場 說明   巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   已 要求 廠商 當天 下午 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 部分   北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   圖 ／ 新北 捷運局 提供 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 住家 出現 地面 出現 高低 落差   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 約 60 戶 民宅 出現 地面 出現 高低 落差   牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供</t>
+          <t>捷運 萬大線 第一期 工程 預計 2025 年 完工   施工 路線 為 中 和   土城 交通要道   讓 原 交通 更塞   而 LG06 土建工程 圍籬 原定 今年 12 月 31 日 拆除   卻 將延長 3 年 才 要 拆除   恐將 影響 拉長   另有 議員 發現   萬大線 施工 造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂 等 鄰損   要求 新北 捷運局 加速 處理   新北 捷運局 表示   已 邀北捷局   里長 及民眾 現場 說明   目前 並無 地層下陷 問題       市議員陳錦錠 表示   新北 中和區 連城路 因捷 運萬大線 施工   造成 尖峰 時刻 壅塞   且 第一期 LG06 土建工程 圍籬 原定 年底 拆除   卻 延長 三年 後 才 要 拆除   再 加上 萬大線 施工   造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂   磁磚 破損 等 鄰損   新北 捷運局 應 盡快 提出 改善 方案   避免 鄰損 擴大   確 保民 眾 居住 安全                             對此   新北 捷運局 表示   萬大中 和 線 目前 計畫 進度 達 7 成   為紓解 施工 交通 瓶頸   台北 捷局 已 於 今年 8 月底 開放 施工 時封閉 的 連城路 北向 右轉 中正路 專用 車道   預計 明年初 陸續 展開 道路 回填 復 舊 作業   逐步 縮 減圍 籬範圍   緩解 壅塞 情形       至於 鄰損 部分   新北 捷運局 表示   9 月 28 日 邀北捷局   里長 及民眾 現場 說明   關於 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   現場 立刻 要求 廠商 當天 下午 進場 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 的 部分   北捷 也 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   「 後 續若涉 鄰損 鑑定   北捷局 已承諾將 依相關 規定 辦理   目前 並沒有 地層下陷 的 問題 」       新北 捷運局 長 李政安 表示   會 要求 北捷 局縮 短 工程   不能 任意 延長   新北 捷運 局局 另 指出   LG06 中 和 站   連城路 75 巷   為 捷運 出入口 B 暨 聯合開 發基礎 共構 工程   屬契約後續 變更 擴充 工作   因開 工時程 較 晚   且位 於 路側   並不影響 連城路 道路 回填 復 舊 期程   也 不會 造成 交通 壅塞 狀況   萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 新北 捷運局 9 月 28 日 邀北捷局   里長 及民眾 現場 說明   巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   已 要求 廠商 當天 下午 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 的 部分   北捷 也 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   圖 ／ 新北 捷運局 提供 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 住家 出現 地面 出現 高低 落差   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 約 60 戶 民宅 出現 地面 出現 高低 落差   牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">捷運 萬大線 目前 整體 施工 進度 已近 七成   台北市 捷運局 表示   如火如荼 趲 趕中 中 站 地下 段 工程   均 依照 規定 施工 定期 監測   目前 沒有 地層下陷 問題   捷運局 將依 施工 情形 逐步 縮 減圍 籬範圍   以 緩解 交通 壅塞       負責 施工 台北市 捷運局 一工處 說明   日前 接獲 施工 路段 住戶 反映 牆面 龜裂   磁磚 破損 等 情形   已 於 今年 9 月 28 日 前往 會勘 並向 住戶 說明   一工處 說   已 了解 建物 狀況   將依 會勘 共識 積極 與 住戶 協調 處理   並將 責成 施工 廠 商 儘 可能 以敦親 睦 鄰協助 修繕   後 續 若 涉及 需鄰 損鑑定   將 按照 規定 辦理後續                             一工 處進 一步 指出   近年 因受 疫情 整體 營造 環境 不佳 影響   致使 中 站 需 延至 2024 年 6 月 開始 進行 道路 中間 段 回填 管線 復 舊   但 一工 處將 滾動式 檢討 工序   儘 可能 提早 完成 道路 復 舊 還路 於 民   以 減少 對民眾 周邊 交通 影響  </t>
+          <t xml:space="preserve">捷運 萬大線 目前 整體 施工 進度 已近 七成   台北市 捷運局 表示   如火如荼 趲 趕中 的 中 和 站 地下 段 工程   均 依照 規定 施工 及 定期 監測   目前 沒有 地層下陷 的 問題   捷運局 也 將依 施工 情形 逐步 縮 減圍 籬範圍   以 緩解 交通 壅塞       負責 施工 的 台北市 捷運局 一工處 說明   日前 接獲 施工 路段 住戶 反映 有 牆面 龜裂   磁磚 破損 等 情形   已 於 今年 9 月 28 日 前往 會勘 並向 住戶 說明   一工處 說   已 了解 建物 的 狀況   將依 會勘 共識 積極 與 住戶 協調 處理   並將 責成 施工 廠 商 儘 可能 以敦親 睦 鄰協助 修繕   後 續 若 涉及 需鄰 損鑑定   將 按照 規定 辦理後續                             一工 處進 一步 指出   近年 因受 疫情 及 整體 營造 環境 不佳 的 影響   致使 中 和 站 需 延至 2024 年 6 月 開始 進行 道路 中間 段 回填 及 管線 復 舊   但 一工 處將 滾動式 檢討 工序   儘 可能 提早 完成 道路 復 舊 還路 於 民   以 減少 對民眾 及 周邊 交通 的 影響  </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>記者 楊 金城 ／ 專題 報導   金門 酒廠 去年 起 台 契作 國產 高粱 三年 計畫   緣起   喝 高粱 救高鐵   往事   其中 學甲區 農會 與 金酒 合作 一期 作 推廣契作 高粱   去年 首年 栽種 四四 公頃   今年 八 一公頃   明年 目標 一千 公頃   成為 全台 最大 國產 高粱 產區     金酒 ︰ 種 多少 收 多少   台南市 學甲區 農會 總幹事 李曉軍說   金酒 台 契作 國產 高粱 計畫   一開始 即 希望 高鐵 沿線 縣市 推廣   節省 水源   減緩 地層下陷 問題   金酒 總經理 丁丞康 說   契作 高粱 收 購價 高出 進口 高粱 甚 多   但 為 了 扶植 國產 高粱 為 了 減少 碳排     契作 高粱 只要 品質夠   種 多少   收 多少       依農業部 農糧署 資料   今年 第二年 台南 學甲   鹽水   新營   後 壁   雲林 土庫   斗南   嘉義 義竹   桃園 新屋 苗栗縣 苑里   新竹縣 等 地契 作種 植 高粱   一期 作 二期 作合計 栽種 二 一 二七 公頃     學甲區 去年 四月 栽種 高粱 祈福 典禮   與 會 前 金門縣 長 楊鎮 浯 說   抗旱 高粱 一公頃 可節 水 一萬公噸   換算 一瓶 高粱酒 可節 水 三 ． 五公噸   雲嘉 推廣種 植 高粱   可 減緩 抽取 地下水     喝 高粱 可以 救高鐵     妙寓 推廣 高粱 有助 紓 緩 地層下陷 問題     減少 進口   提高 國產 自足 率   李曉軍回憶   陳 吉仲在 農委會主 委任 內帶 著 幾家 農會 直接 到 金門 洽談   才 開啟 金酒 台 契作 三年 計畫   除了 提高 國產 高粱 自足 率   減少 金酒 從 中國   南美洲 進口 高粱 依賴   提高 農民 收入   並 配合 農業 政策 推廣節 水 高粱     金酒 首年 以 契作 高粱 生產 超過 三萬瓶   一 穀 作契   金高 銷售 一空   明年 第三年 台 至少 契作 三 公頃 高粱   李曉軍說   金酒 合作 基層 農會 計畫 組團 再 到 金門 提前 洽談後續 契作 計畫   並 希望 爭取 契作 價格 一 公斤 廿一 元 再 提高     台 契作 釀酒 用 高粱 新品 種為   台南 七號       台南 八號   純 糯 高粱   是 農業部 台南 區農業 改良 場在 二 一 九年 育成   後經 二年 試種 金酒 試釀   因風味佳   出酒率 高   同時 具有 耐旱   耐淹   抗病 蟲害 等 優點   成為 政府 鼓勵 稻田 區域 轉作 選項     農糧署 補貼   提高 契作 誘因   因農民種 稻 收益 高於種 高粱   為 提高 農民參 與 契作 高粱 誘因   農糧署 提供 補貼 轉作 獎勵 每公頃 四 ． 五萬元 綠色 環境 給付   參與 小地主 大 專業農 每公頃 額外 獎勵 一萬元   並補助 購置 機具 設備 低利 貸款   雜糧區 學甲   鹽水因 一期 作 推廣 高粱   二期 作再種 硬質 玉米   對 農民 划算     而 為 配合 雲林縣 嚴重 地層下陷區   虎尾 鎮   土庫鎮   元長 鄉 北港 鎮   高鐵 沿線 地層下陷 防治 作業   行政院 並 核定 今年 一期 作起 推動   雲林 高鐵 沿線 特區 推動 農田 轉旱 作物 專案 措施     活化 農地 多元 使用 又 能 節水     〈 飲酒 過量   有礙 健康 〉</t>
+          <t>記者 楊 金城 ／ 專題 報導   金門 酒廠 去年 起 在 台 契作 國產 高粱 三年 計畫   緣起 「 喝 高粱 救高鐵 」 往事   其中 學甲區 農會 與 金酒 合作 在 一期 作 推廣契作 高粱   去年 首年 栽種 四四 ○ 公頃   今年 八 ○ 一公頃   明年 目標 一千 公頃   成為 全台 最大 國產 高粱 產區     金酒 ︰ 種 多少 收 多少   台南市 學甲區 農會 總幹事 李曉軍說   金酒 在 台 契作 國產 高粱 計畫   一開始 即 希望 在 高鐵 沿線 縣市 推廣   節省 水源   減緩 地層下陷 問題   金酒 總經理 丁丞康 說   契作 高粱 的 收 購價 高出 進口 高粱 甚 多   但 為 了 扶植 國產 高粱 也 為 了 減少 碳排   「 契作 高粱 只要 品質夠   種 多少   收 多少   」   依農業部 農糧署 資料   今年 第二年 在 台南 學甲   鹽水   新營   後 壁   雲林 土庫   斗南   嘉義 義竹   桃園 新屋 和 苗栗縣 苑里   新竹縣 等 地契 作種 植 高粱   一期 作 和 二期 作合計 栽種 二 一 二七 公頃     學甲區 去年 四月 栽種 高粱 的 祈福 典禮   與 會 的 前 金門縣 長 楊鎮 浯 說   抗旱 的 高粱 一公頃 可節 水 一萬公噸   換算 一瓶 高粱酒 可節 水 三 ． 五公噸   在 雲嘉 推廣種 植 高粱   可 減緩 抽取 地下水   「 喝 高粱 也 可以 救高鐵 」   妙寓 推廣 高粱 有助 紓 緩 地層下陷 問題     減少 進口   提高 國產 自足 率   李曉軍回憶   陳 吉仲在 農委會主 委任 內帶 著 幾家 農會 直接 到 金門 洽談   才 開啟 金酒 在 台 契作 三年 計畫   除了 提高 國產 高粱 自足 率   減少 金酒 從 中國   南美洲 進口 高粱 依賴   提高 農民 收入   並 配合 農業 政策 推廣節 水 的 高粱     金酒 首年 以 契作 高粱 生產 超過 三萬瓶 「 一 穀 作契 」 金高 銷售 一空   明年 第三年 在 台 至少 契作 三 ○ ○ ○ 公頃 高粱   李曉軍說   和 金酒 合作 的 基層 農會 計畫 組團 再 到 金門 提前 洽談後續 契作 計畫   並 希望 爭取 契作 價格 一 公斤 廿一 元 再 提高     在 台 契作 釀酒 用 高粱 新品 種為 「 台南 七號 」   「 台南 八號 」 純 糯 高粱   是 農業部 台南 區農業 改良 場在 二 ○ 一 九年 育成   後經 二年 試種 和 金酒 試釀   因風味佳   出酒率 高   同時 具有 耐旱   耐淹   抗病 蟲害 等 優點   成為 政府 鼓勵 稻田 區域 轉作 選項     農糧署 補貼   提高 契作 誘因   因農民種 稻 收益 高於種 高粱   為 提高 農民參 與 契作 高粱 誘因   農糧署 提供 補貼 轉作 獎勵 每公頃 四 ． 五萬元 綠色 環境 給付   參與 小地主 的 大 專業農 每公頃 額外 獎勵 一萬元   並補助 購置 機具 設備 及 低利 貸款   在 雜糧區 的 學甲   鹽水因 在 一期 作 推廣 高粱   二期 作再種 硬質 玉米   對 農民 划算     而 為 配合 雲林縣 嚴重 地層下陷區   虎尾 鎮   土庫鎮   元長 鄉 及 北港 鎮   高鐵 沿線 地層下陷 防治 作業   行政院 並 核定 今年 一期 作起 推動 「 雲林 高鐵 沿線 特區 推動 農田 轉旱 作物 專案 措施 」   活化 農地 多元 使用 又 能 節水     〈 飲酒 過量   有礙 健康 〉</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  </t>
+          <t xml:space="preserve">旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   也 是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 在 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 在 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 在 有 地下水 的 時候   不會 有 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 也 非常 快   不會 有 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 也 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 的 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   也 成為 高雄 地區 對 抗旱 象 的 關鍵 利器  </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">順著 高屏溪 右岸 來 到 高雄 大樹區 九曲堂 工作站   從 空中 俯瞰 一個 個 用圍 欄圍 起 方形 區塊   排列 整齊   錯落 其中   靠近 一看 才 發現 這是 一根 根 打入 地底下 水管   稱為 抗旱 水井   高雄市 政府 水利局 表示   所謂 抗旱 水井 是 抽取 深層 地下水   從 地表 往下 150 米 深   透過 抽水 設備   將深層 地下水 經由 抗旱 水井 取出   相較 於 海淡廠   再生 水 等等   取水 更為 快速   成本 更 低   供水量 更 大 地下水   成為 抗旱 期間 關鍵 水源   類 似的 抗旱 水井 已 高雄 陸續 開鑿 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井 卻 讓 當地 農民相 當憂心   是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間 淺層 地下水 農業 灌溉 井   含水 層 不同   且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產生 影響   水利局 局長 蔡長 展 指出   抗旱 水井 是備 援用 水   使用 時間 大約 每年 3 月 至 5 月   藉由 雨水 對 地下水 進行 補注   對 農業 灌溉 用水 不受 影響   根據 地下水位 監測 資料 顯示   112 年 1 月份 地下水位 高點 落 14 公尺   接著 隨著 枯水期 到 來   地下水位 5 月份 降到 了 大約 6 公尺   隨後迅 期到 來 開始 降雨   加上 高雄市 政府 與 水利 署 合作   推動 高屏溪 流域 河道 疏濬 補注 地下水 計畫   增加 地下水 量   使得 9 月份 地下水位 上升 到 16 公尺   足足 比 枯水期 高出 了 10 公尺   甚至 高 於 1 月份 水位   枯水期 嚴密 監控   視情況 抽用   豐水期 加強 地下水 補注   能夠 達 到 水資源 永續 發展 目標   經濟部 水利 署 副署 長 林元鵬 說明   高雄 地區 總 共有 11 口 觀測 水井   所有 水井 都 會 進行 管控   只要 是 有效 地去 管控 數據   地下水 高雄 地區 是 可以 當作 一個 安全 用水   嚴密監 控確 保不會 造成 地層下陷 影響 水源 保育 情況 之下   短期 備援 抗旱 水井 不僅成 了 抗旱 功臣   賦予 地下水 資源 更 多元 運用 可能  </t>
+          <t xml:space="preserve">順著 高屏溪 右岸 來 到 高雄 大樹區 的 九曲堂 工作站   從 空中 俯瞰 一個 個 用圍 欄圍 起 的 方形 區塊   排列 整齊   錯落 其中   靠近 一看 才 發現 這是 一根 根 打入 地底下 的 水管   稱為 抗旱 水井   高雄市 政府 水利局 表示   所謂 的 抗旱 水井 是 抽取 深層 地下水   從 地表 往下 150 米 深   透過 抽水 設備   將深層 地下水 經由 抗旱 水井 取出   相較 於 海淡廠   再生 水 等等   取水 更為 快速   成本 更 低   供水量 也 更 大 的 地下水   成為 抗旱 期間 的 關鍵 水源   類 似的 抗旱 水井 已 在 高雄 陸續 開鑿 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井 卻 讓 當地 農民相 當憂心   是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 的 深層 地下水   與 一般 深 20 到 40 公尺 間 淺層 地下水 的 農業 灌溉 井   含水 層 不同   且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產生 影響   水利局 局長 蔡長 展 指出   抗旱 水井 是備 援用 水   使用 時間 大約 在 每年 3 月 至 5 月   藉由 雨水 對 地下水 進行 補注   對 農業 灌溉 用水 不受 影響   根據 地下水位 監測 資料 顯示   112 年 1 月份 地下水位 高點 落 在 14 公尺   接著 隨著 枯水期 到 來   地下水位 在 5 月份 降到 了 大約 6 公尺   隨後迅 期到 來 開始 降雨   加上 高雄市 政府 與 水利 署 合作   推動 高屏溪 流域 河道 疏濬 補注 地下水 計畫   增加 地下水 量   使得 9 月份 地下水位 上升 到 16 公尺   足足 比 枯水期 高出 了 10 公尺   甚至 高 於 1 月份 水位   在 枯水期 嚴密 監控   視情況 抽用   在 豐水期 加強 地下水 補注   便 能夠 達 到 水資源 永續 發展 的 目標   經濟部 水利 署 副署 長 林元鵬 說明   高雄 地區 總 共有 11 口 的 觀測 水井   所有 水井 都 會 進行 管控   只要 是 有效 地去 管控 數據   地下水 在 高雄 地區 是 可以 當作 一個 安全 的 用水   在 嚴密監 控確 保不會 造成 地層下陷 及 影響 水源 保育 的 情況 之下   短期 備援 的 抗旱 水井 不僅成 了 抗旱 功臣   也 賦予 地下水 資源 更 多元 運用 的 可能  </t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">越南 正在 加強 監管 開採 砂石   雖然 這可 說 是 全世界 最常 被 使用 一項 資源   但 若 濫採   可能 導致 水土流失   地層下陷 房屋 倒塌 等 災難       日經 新聞 報導   越南政府 官網 12 日 公告   總理范 明政 已 指示 五個 部會 多個 地方 政府   仔細 審視營 建業 礦物 開採   尤其 是 砂石   這種 大宗 商品 已成 為 一項 全球性 生意   可和水 混合 後 製 成 水泥   或是 用來 填海造地   越南 已 限制 砂石 出口                             越南 湄公河 三角洲 等 地區   盜採 砂石 已成 為 一種 比 氣候變遷 還要 嚴重 威脅   據 非營利 環保 組織 世界 自然 基金 會   WWF   最近 指標性 報告   湄公河 三角洲 砂石 可能 會 2035 年前 被 開 採殆 盡       越南政府 日前 已特別點 出河 內市 三樁 砂石 開採 招標   大眾 意見 特別 令人 擔憂     並在 官網 公告 中 表示   該市 應該   立即 重新 審視 調查 評估 砂石 存量 整個 流程       絕對 不准 組織 個 人 利用 管理 漏洞 賺取 暴利         范 明政 指示 環境部 調查 該 行業 活動   罕見 跡象     並 指示 安全部   嚴加 處置 違法行 為    </t>
+          <t xml:space="preserve">越南 正在 加強 監管 開採 砂石   雖然 這可 說 是 全世界 最常 被 使用 的 一項 資源   但 若 濫採   可能 導致 水土流失   地層下陷 和 房屋 倒塌 等 災難       日經 新聞 報導   越南政府 官網 12 日 公告   總理范 明政 已 指示 五個 部會 和 多個 地方 政府   仔細 審視營 建業 的 礦物 開採   尤其 是 砂石   這種 大宗 商品 已成 為 一項 全球性 生意   可和水 混合 後 製 成 水泥   或是 用來 填海造地   越南 已 限制 砂石 的 出口                             在 越南 的 湄公河 三角洲 等 地區   盜採 砂石 已成 為 一種 比 氣候變遷 還要 嚴重 的 威脅   據 非營利 環保 組織 世界 自然 基金 會   WWF   最近 的 指標性 報告   湄公河 三角洲 的 砂石 可能 會 在 2035 年前 被 開 採殆 盡       越南政府 日前 已特別點 出河 內市 的 三樁 砂石 開採 招標 「 大眾 意見 特別 令人 擔憂 」   並在 官網 公告 中 表示   該市 應該 「 立即 重新 審視 調查 和 評估 砂石 存量 的 整個 流程 」   「 絕對 不准 組織 和 個 人 利用 管理 漏洞 賺取 暴利 」       范 明政 也 指示 環境部 調查 該 行業 活動 的 「 罕見 跡象 」   並 指示 安全部 「 嚴加 處置 違法行 為 」  </t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">義 大利 除了 比薩 斜塔 外   義 大利 北部 波隆 個 知名   波隆 雙塔     這兩座 塔 歷史 將近 一千年   而 其中 一座 較 低矮 塔   最近 幾年 被 發現 結構 愈來 愈 不 穩定   傾斜 角度 逐漸 變大   當局 已經 封鎖 附近 區域   並在網 路上 發起 募捐 活動   希望 各界 共同 來 拯救 這座 重要 歷史 建築 文化 資產   義 大利 波隆納 雙塔   右側 阿西 內利 塔高 97 公尺   左側 加里森 達 塔高 48 公尺   雙塔 波隆納 矗立 超過 900 年   如今 張貼 禁止 進入 告示   基座 被 圍起   且 其中 比較 低 加里森 達塔   被 專家 認定   很 可能 近期 倒塌   情況 相當 危急   波隆 市民 寶拉 表示     這座 塔 是 波隆 象 徵   如果 它 倒塌 了 真的 是 個 恥辱   因為 我們將 失去 這座 城市 最 重要 古 蹟 之一     14 世紀 發生 一次 地層下陷 後   加里森 達塔持續 傾斜   目前 斜度 已 超越 比薩 斜塔 0.1 度達 到 4 度   當局 曾 於 2020 年 執行 抗傾倒 計畫   但 問題 不但 沒 改善 甚至 還惡化   今年夏天 面臨 極端 高溫 加上 洪水 等 極端 天氣   讓 高塔 難以 承受   當局 展開 搶 救 加里森 達塔 大作 戰   在網 路上 發起 募款 活動   目標 是 籌到 一 億台幣 資金   希望 各界 一起 來 拯救 義 大利 重要 歷史 建築 文化 資產  </t>
+          <t xml:space="preserve">義 大利 除了 比薩 斜塔 外   在 義 大利 北部 的 波隆 那 也 有 個 知名 的 「 波隆 那 雙塔 」   這兩座 塔 的 歷史 將近 一千年   而 其中 一座 較 低矮 的 塔   最近 幾年 被 發現 結構 愈來 愈 不 穩定   傾斜 角度 也 逐漸 變大   當局 已經 封鎖 附近 區域   並在網 路上 發起 募捐 活動   希望 各界 共同 來 拯救 這座 重要 的 歷史 建築 和 文化 資產   義 大利 的 波隆納 雙塔   右側 的 阿西 內利 塔高 97 公尺   左側 的 加里森 達 塔高 48 公尺   雙塔 在 波隆納 矗立 超過 900 年   如今 張貼 禁止 進入 的 告示   基座 也 被 圍起   且 其中 比較 低 的 加里森 達塔   被 專家 認定   很 有 可能 在 近期 內 倒塌   情況 相當 危急   波隆 那 市民 寶拉 表示   「 這座 塔 是 波隆 那 的 象 徵   如果 它 倒塌 了 那 真的 是 個 恥辱   因為 我們將 失去 這座 城市 最 重要 的 古 蹟 之一   」 14 世紀 發生 一次 地層下陷 後   加里森 達塔持續 傾斜   目前 斜度 已 超越 比薩 斜塔 0.1 度達 到 4 度   當局 曾 於 2020 年 執行 抗傾倒 計畫   但 問題 不但 沒 改善 甚至 還惡化   今年夏天 面臨 極端 高溫 加上 洪水 等 極端 天氣   讓 高塔 難以 承受   當局 展開 搶 救 加里森 達塔 大作 戰   在網 路上 發起 募款 活動   目標 是 籌到 一 億台幣 的 資金   希望 各界 一起 來 拯救 義 大利 重要 的 歷史 建築 和 文化 資產  </t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 捷運 信義線 東延段 工程   疑似 造成 松山 家商 校舍 下陷 5 公分   引發 安全 疑慮   直擊 北市 福德街   住戶 反映   下陷 情況 相當 明顯   連房價 都 跌 了   對此 台北市 捷運局 表示   已 安排 台北市 結構 技師 公會 辦理 結構 安全 鑑定   同時 已針 對 周邊 建物 鄰房 損壞 部分   進行 立即 修繕 作業   台北 捷運 信義線 東延段 工程   2016 年 開工 至今   工程 目前 還在 進行 中   不過 近期 北市 議員接 獲民眾 陳 情   說 先前 開 挖 工程   釀成 鄰近 建物 塌陷   實際到 現場 一看   發現 原本 馬 路 是 平   但 塌陷 狀況 確實 越來 越 明顯   附近 住戶 說     對   本來 都 是 平   這邊 全部 都 下陷   我 就 住 二樓   那個 球 很 明顯 從 這樣 滑下去     說 到 地層下陷   附近 住戶 超級 有感   北市 福德街 一旁 騎樓   明顯 受到 捷運開 挖 工程 影響   下陷 相當 嚴重   連住 戶 都 直呼   這裡 房價 都 跌 了     里長 更 指出   福德街 51 巷到 89 巷是 影響 最明顯 地方   附近 住戶 擔心 說     補 了 沒用   看 就 這樣   結構 已經 不行 了   除非 重建     對此 台北市 土木 技師 公會 理事 長 莊均緯 表示     通常 捷運 施工 比較 容易 下陷 部分   就 是非 結構體   像是 水溝   人行道   瓷磚 部分   要 安全 檢測   看 是否 造成 結構 上 問題     而 松山 家商 校舍 被 發現 下陷 狀況   議員 指出   經過 一年 監測   確認 已經 下陷 約 5 公分   安全 疑慮 浮上 檯 面   捷運 工程局 承包商   趕緊 進行 結構 補強   施作 地質 鑽 探作業   要 確認 校舍 承受能力   台北市 政府 捷運局 第二 工程 處 主任 陳 建仁則 表示   110 年 9 年 接到 學校 通報   監測 作業 進行 修繕   今年 暑假 陸續 修繕 完成   這個 月 安全 鑑定   兩個 月 後 就 安全 報告   而 台北 捷運局 表示   施工期 間 因為 極端 地質 水文 條件 不利   釀成 地下 土層 沉陷   目前 已經 安排 結構 安全 鑑定   並進行 立即 修繕   捷運 施工 周邊 建物   都 有安裝 建物 監測 儀器   按時 觀測 監控   研判 施工 是否 再 造成 影響  </t>
+          <t xml:space="preserve">台北 捷運 信義線 東延段 工程   疑似 造成 松山 家商 校舍 下陷 5 公分   引發 安全 疑慮   直擊 北市 福德街   有 住戶 反映   下陷 情況 相當 明顯   連房價 都 跌 了   對此 台北市 捷運局 表示   已 安排 台北市 結構 技師 公會 辦理 結構 安全 鑑定   同時 也 已針 對 周邊 建物 及 鄰房 損壞 的 部分   進行 立即 修繕 作業   台北 捷運 信義線 東延段 工程   2016 年 開工 至今   工程 目前 還在 進行 中   不過 近期 有 北市 議員接 獲民眾 陳 情   說 先前 的 開 挖 工程   釀成 鄰近 的 建物 塌陷   實際到 現場 一看   發現 原本 馬 路 是 平 的   但 塌陷 的 狀況 確實 越來 越 明顯   附近 住戶 說   「 對 啊   本來 都 是 平 的   這邊 全部 都 下陷   我 就 住 在 二樓   那個 球 很 明顯 從 這樣 滑下去 」   說 到 地層下陷   附近 住戶 超級 有感   北市 福德街 一旁 騎樓   明顯 受到 捷運開 挖 工程 影響   下陷 相當 嚴重   連住 戶 都 直呼 「 這裡 房價 都 跌 了 」   里長 更 指出   福德街 51 巷到 89 巷是 影響 最明顯 的 地方   附近 住戶 擔心 的 說   「 補 了 也 沒用   你 看 就 這樣   結構 已經 不行 了   除非 重建 」   對此 台北市 土木 技師 公會 理事 長 莊均緯 表示   「 通常 捷運 施工 比較 容易 下陷 的 部分   就 是非 結構體   像是 水溝   人行道   有 瓷磚 的 部分   要 做 安全 檢測   看 是否 有 造成 結構 上 的 問題 」   而 在 松山 家商 校舍 也 被 發現 有 下陷 狀況   議員 指出   經過 一年 的 監測   確認 已經 下陷 約 5 公分   安全 疑慮 浮上 檯 面   捷運 工程局 及 承包商   趕緊 進行 結構 補強   施作 地質 鑽 探作業   要 確認 校舍 的 承受能力   台北市 政府 捷運局 第二 工程 處 主任 陳 建仁則 表示   110 年 9 年 有 接到 學校 通報   有 監測 作業 進行 修繕   今年 暑假 陸續 修繕 完成   這個 月 也 做 安全 鑑定   兩個 月 後 就 有 安全 報告   而 台北 捷運局 表示   施工期 間 因為 極端 地質 及 水文 條件 不利   釀成 地下 土層 沉陷   目前 已經 安排 結構 安全 鑑定   並進行 立即 修繕   在 捷運 施工 的 周邊 建物   都 有安裝 建物 監測 儀器   按時 觀測 監控   研判 施工 是否 再 造成 影響  </t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  </t>
+          <t xml:space="preserve">2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 的 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 的 集 水井 裡頭   有著 11 個 粗大 的 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 的 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 的 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 的 含水 層   以及 由細顆 粒 粘土 組成 的 阻水層   伏 流水 大約 落 在 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 在 的 救命 水   尤其 是 在 汛期 的 時候   它 非常 乾淨   外面 河川 裡面 的 濁度 甚至 於 飆到 10 萬個 NTU   那 根本 就 沒 有 辦法 做 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通 的   所以 伏 流水 就 可以 發揮 它 在 這段 時間 裡面 的 作用   所以 就 變成 所 說 的 救命 水   同樣 被 視為 救命 水源 的   還有 這 一根 根 打入 地底下 的 抗旱 水井   別 小看 這些 不起眼 的 水井   它們 可是 解決 高雄 缺水 危機 的 抗旱 英雄   類 似的 抗旱 水井   已經 在 3 年間 在 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 的 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 的 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 的 時間 大概 在 每年 的 3 月 到 5 月   到 了 下雨 的 時候   我們 就 沒 有 再 用   就是 藉由 下雨 的 時候   會 做 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 在 用 一些 農業 灌溉 用水   是 安全 的   神 祕 的 地下水 補注區   其實 就 隱身 在 高屏溪 的 河床 底下   從 空中 俯瞰   這些 不起眼 的 灰色 土石   全都 扮演 關鍵 角色   所謂 的 地下水 補注區   就是 利用 疏濬 的 砂石   在 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   也 使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   有 一些 礫石 跟 比 較 粗 的 沙子   所以 說 在 放釋 水 的 時候   它 比 較 不會產生 所謂 的 壓密 沉陷   因為 它 的 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 的 狀況   也 清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 的 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 也 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷 的   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 的 水 抽掉   它 抽走 得 很快   補充 也 非常 快   在 那個 地方 抽 地下水   是 不會 有 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 的 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">長江 三角洲 簡稱   長三角     是 中國大陸 經濟 發展 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 三角洲   然而     人無遠慮   必有 近憂     當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 此刻   當 全球 減碳 前景 仍 不樂觀 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長江 三角洲 未來 所 可能 受到 危害   將牽動 著 中國大陸 發展 前景 與 紅色供 應鏈 未來       廿世紀 前 五十年 全球 平均 海水面 升高 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國   政府 間 氣候變遷 小組   去年 報告 書 指出   隨著 不同 暖化 程度   本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 將是 各大 河流 出海口 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 舊 金山 參加 一個 研討 全球 變遷 學術 大會   十幾個 議題 組中 領略 到 密西西比河 三角洲 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 景象 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 中上游 建設 上 了 四萬座 大大小小 壩體   一九六五年 以降   河系 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   擾亂 了 原來 大自然 泥沙 輸送 布局   加上 近 五十年 下游 地區 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧     自然 解方     力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長江 三角洲 似乎 正 走上 密西西比河 老路   長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 社會 變遷   僅 上海 一地   人口 從 八 年代 六百 萬 增加 到 目前 三千 三百 萬   長江 原來 每年 輸送 五 億公噸 泥沙 到 河口   全球排名 第五   長江 三峽 大壩 二 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長江 三角洲 前緣 已 經開 始後退   以 上海 為 發展 中心 三角洲 雖 享受 著開發 豐美果實   承受 著 上游 帶來 一切 災害 危機 總   包括 三角洲 萎縮 以及 水質 汙染   大量 人口 增加 使 地下水 抽取 量大增   地層下陷   局部 地區 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 範圍 約 占 全區 百分之十四   而 長江 三角洲 則占 全區 百分之四十   未來 海水面 上升 風險 下   長三角 面臨 挑戰 顯然 更 為 嚴峻   更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  </t>
+          <t xml:space="preserve">長江 三角洲 簡稱 「 長三角 」   是 中國大陸 經濟 發展 的 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 的 三角洲   然而   「 人無遠慮   必有 近憂 」   當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 的 此刻   當 全球 減碳 前景 仍 不樂觀 的 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長江 三角洲 未來 所 可能 受到 的 危害   將牽動 著 中國大陸 的 發展 前景 與 紅色供 應鏈 的 未來       廿世紀 前 五十年 全球 平均 海水面 升高 的 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   也 就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國 「 政府 間 氣候變遷 小組 」 去年 的 報告 書 指出   隨著 不同 暖化 程度   在 本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 的 將是 各大 河流 出海口 的 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 在 舊 金山 參加 一個 研討 全球 變遷 的 學術 大會   在 十幾個 議題 組中 領略 到 密西西比河 三角洲 的 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 的 景象 在 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 的 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 的 中上游 建設 上 了 四萬座 大大小小 的 壩體   一九六五年 以降   河系 的 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 的 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   也 擾亂 了 原來 大自然 的 泥沙 輸送 布局   加上 近 五十年 下游 地區 及 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧   「 自然 解方 」   力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長江 三角洲 似乎 也 正 走上 密西西比河 的 老路   長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 的 社會 變遷   僅 上海 一地   人口 從 八 ○ 年代 的 六百 萬 增加 到 目前 的 三千 三百 萬   長江 原來 每年 輸送 五 億公噸 的 泥沙 到 河口   全球排名 第五   長江 三峽 大壩 二 ○ ○ 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長江 三角洲 的 前緣 已 經開 始後退   以 上海 為 發展 中心 的 三角洲 雖 享受 著開發 的 豐美果實   也 承受 著 上游 帶來 一切 災害 危機 的 總 和   包括 三角洲 萎縮 以及 水質 汙染   大量 的 人口 增加 也 使 地下水 抽取 量大增   地層下陷   局部 地區 的 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 的 範圍 約 占 全區 的 百分之十四   而 在 長江 三角洲 則占 全區 的 百分之四十   在 未來 海水面 上升 的 風險 下   長三角 面臨 的 挑戰 顯然 更 為 嚴峻   也 更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  </t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 溢 淹 問題 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 地養 殖區 穩定 水質 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 機構 團體 來   取經     居民 卻長 期苦 於 地層下陷 帶來 排水 問題 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 生活 環境 品質                             說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東縣 最大 養殖 漁業 生產區   塭 豐 二中 排旁 豐 海路 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖 魚塭 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 水環境       屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 溢 淹 問題 顛簸 起伏 路況 所苦   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供</t>
+          <t>屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 和 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 的 溢 淹 問題 及 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 和 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 在 地養 殖區 穩定 水質 及 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 的 機構 團體 來 「 取經 」   居民 卻長 期苦 於 地層下陷 帶來 的 排水 問題 及 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 和 生活 環境 品質                             她 說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東縣 最大 的 養殖 漁業 生產區   塭 豐 二中 排旁 的 豐 海路 也 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 也 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 及 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖 魚塭 的 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 的 水環境       屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 和 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 的 溢 淹 問題 及 顛簸 起伏 路況 所苦   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 根據 水利 署 監測 資料   全國 最大 米 鄉 — 大 埤 鄉 近 5 年 地層下陷 面積 深度 惡化 情況   分析 原因 極端 氣候 水情 不穩   地下水 用量 增   對此   縣府 爭取 農業部 農田 水利 署將 大 埤納入 擴大溉 灌 服務範圍   可 從 北港溪 引水 高灘 地 建置 蓄水池   再 新建 管路 供農田 灌溉 用   經費 約 3.3 億元     縣府 水利 處 指出   水利 署 2023 雲林 地層下陷 監測 結果 顯示   雲林 顯著 下陷 面積 247.7 平方公里   比 前年 2022 年略增 一些   顯著 下陷 重點 地區 土庫   元長 地下水位 仍有 持續 下陷 形     水利 處長 許 宏博 表示   整體 監測 結果 可 看出   雲林 沿海 地層下陷 趨緩   顯著 下陷 主要 虎尾   土庫   元長   北港   四湖   褒忠   水林   崙 背 大 埤   值得注意 是 大 埤 鄉 下陷 面積   深度 近 5 年 惡化 現象     許 宏博 指出   大 埤 是 全國 水稻 種植 面積 最 多 鄉鎮   但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作   無水 可 灌溉 一定 要 抽 地下水 使用   水稻 面積 不變   用水量 都 固定 情況 下   地層下陷 應 不致 惡化   主要 變數 就是 水情   尤其 這幾年 極端 氣候   2021 遇 百年 大旱   2023 去年 又 遇 200 年 大旱   這 2 次 地下水 抽得 多   去年 枯水期 地下水位 洩降 大 埤 達 15 公尺 最 嚴重     許 宏博 說   目前 大 埤 農民 灌溉 情況 3 種   第一 種是 引 地面水 即區 排   第二 種是 抽 地下水   由 幾個 農民 共同 一個 公井   再分 擔電費   第三 種是 抽 北港溪 水   為 減緩 大 埤 地層下陷 持續 惡化   縣府 早先 已建議 列為 優先 防治 地   針對 大 埤 取水 灌溉 進行 初步 規劃 及構 想   考量 北港溪 尚有 水權 可 申請   即 從 北港溪 引 地面水 到 高灘 地 蓄水池   供給 農田 灌溉 使用  </t>
+          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 根據 水利 署 監測 資料   全國 最大 米 鄉 — 大 埤 鄉 近 5 年 地層下陷 面積 及 深度 有 惡化 情況   分析 原因 極端 氣候 水情 不穩   地下水 用量 增   對此   縣府 爭取 農業部 農田 水利 署將 大 埤納入 擴大溉 灌 服務範圍   可 從 北港溪 引水 在 高灘 地 建置 蓄水池   再 新建 管路 供農田 灌溉 用   經費 約 3.3 億元     縣府 水利 處 指出   水利 署 2023 雲林 地層下陷 監測 結果 顯示   雲林 顯著 下陷 面積 247.7 平方公里   比 前年 2022 年略增 一些   顯著 下陷 重點 地區 土庫   元長 的 地下水位 仍有 持續 下陷 形     水利 處長 許 宏博 表示   整體 監測 結果 可 看出   雲林 沿海 地層下陷 有 趨緩   顯著 下陷 主要 在 虎尾   土庫   元長   北港   四湖   褒忠   水林   崙 背 及 大 埤   值得注意 是 大 埤 鄉 下陷 面積   深度 近 5 年 有 惡化 現象     許 宏博 指出   大 埤 是 全國 水稻 種植 面積 最 多 的 鄉鎮   但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 及 怡然 等 村   若 要 一年 兩作   無水 可 灌溉 一定 要 抽 地下水 使用   在 水稻 面積 不變   用水量 都 固定 情況 下   地層下陷 應 不致 惡化   主要 變數 就是 水情   尤其 這幾年 極端 氣候   2021 遇 百年 大旱   2023 去年 又 遇 200 年 大旱   這 2 次 地下水 抽得 多   去年 枯水期 地下水位 洩降 大 埤 達 15 公尺 最 嚴重     許 宏博 說   目前 大 埤 農民 灌溉 情況 有 3 種   第一 種是 引 地面水 即區 排   第二 種是 抽 地下水   由 幾個 農民 共同 一個 公井   再分 擔電費   第三 種是 抽 北港溪 水   為 減緩 大 埤 地層下陷 持續 惡化   縣府 早先 已建議 列為 優先 防治 地   也 針對 大 埤 取水 灌溉 進行 初步 規劃 及構 想   考量 北港溪 尚有 水權 可 申請   即 從 北港溪 引 地面水 到 高灘 地 的 蓄水池   供給 農田 灌溉 使用  </t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>經濟部 水利 署 監測 雲林縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林縣 長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   自來 水可到 達 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林縣 大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影</t>
+          <t>經濟部 水利 署 監測 雲林縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林縣 近年 地層下陷 顯著 的 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 及 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 有 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 及 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林縣 長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 及 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 的 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 及 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   在 自來 水可到 達 的 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林縣 大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 水利 署 監測 資料   雲林縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示     就是 都 沒 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋     雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示     非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 灌溉 水源     雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  </t>
+          <t xml:space="preserve">根據 水利 署 監測 資料   雲林縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 有 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   有 當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示   「 就是 都 沒 有 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層 的   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋   」 雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 和 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 的 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 及 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示   「 非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 的 灌溉 水源   」 雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  </t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">媒體 報導 雲林縣 大 埤 鄉 水情 不穩   地下水 用量 增加   地層下陷 惡化   農田 水利 署 今天 表示   雲林縣 府 提出 納入 擴大 灌溉 服務構 想   已 請 其 提擬 更具 體的 計畫   再 共同 推動 擴大 灌溉 服務     媒體 報導   水稻 產區 雲林縣 大 埤 鄉 近年 地層下陷 情況 惡化   可能 與 水情 不穩   抽取 地下水 用量 增加 有關   雲林縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍                           農水署 副署 長 陳 衍源 告訴 中央社 記者   雲林縣 政府 提出 構想   農水署 已 回覆   請 縣府 提出 更具 體的 計畫   收到 計畫後會 審查   然後跟 縣府 共同 推動 擴大 灌區 服務 計畫     針對 成立 3 年 3 個 月 來   已 擴大 5.6 萬公頃 農田 獲得 灌溉 用水   約 8 萬 多名 農民 受惠   農水署 並規劃 114 年 要 擴 增至 8.8 萬公頃   陳 衍源 說   要 等 縣府 提出 具體 計畫後會 審查   因此 能否 納入 114 年 8.8 萬公頃 目標   尚未 確定   但應 不 受此 影響   擴大 灌溉 服務計 畫會 持續 推動     另外   陳 衍源 說   如果 能 設計 引用 河川 水作 為 灌溉 使用   希望 能 替代 當地 抽用 地下水   對 減緩 地層下陷 有所 幫助  </t>
+          <t xml:space="preserve">媒體 報導 雲林縣 大 埤 鄉 水情 不穩   地下水 用量 增加   地層下陷 惡化   農田 水利 署 今天 表示   雲林縣 府 有 提出 納入 擴大 灌溉 服務構 想   已 請 其 提擬 更具 體的 計畫   再 共同 推動 擴大 灌溉 服務     媒體 報導   水稻 產區 雲林縣 大 埤 鄉 近年 地層下陷 情況 惡化   可能 與 水情 不穩   抽取 地下水 用量 增加 有關   雲林縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍                           農水署 副署 長 陳 衍源 告訴 中央社 記者   雲林縣 政府 有 提出 構想   農水署 也 已 回覆   請 縣府 提出 更具 體的 計畫   收到 計畫後會 審查   然後跟 縣府 共同 推動 擴大 灌區 服務 的 計畫     針對 成立 3 年 3 個 月 來   已 擴大 5.6 萬公頃 農田 獲得 灌溉 用水   約 8 萬 多名 農民 受惠   農水署 並規劃 114 年 要 擴 增至 8.8 萬公頃   陳 衍源 說   要 等 縣府 提出 具體 計畫後會 先 做 審查   因此 能否 納入 114 年 的 8.8 萬公頃 目標 內   尚未 確定   但應 不 受此 影響   擴大 灌溉 服務計 畫會 持續 推動     另外   陳 衍源 也 說   如果 能 設計 引用 河川 水作 為 灌溉 使用   希望 能 替代 當地 抽用 地下水   對 減緩 地層下陷 有所 幫助  </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 文資 價值 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為   惡鄰     產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 上限 規定   目前 既有 電力 設施 併 網 上限 下   限度 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             強調   從 未 要求 廠商 提供   不利 耕作 同意 書   或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       指出   屏東 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   等 2 大 策略 為 優先   限度 使用 相對 不 適合 耕種 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活   至於 非 專案 專區 鄉鎮   則優先 鼓勵 廠 商以   土地 複 合式 利用   方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 處置 自家 土地 財產   及業者 依法 申請 案件 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  </t>
+          <t xml:space="preserve">聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 有 文資 價值 的 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為 「 惡鄰 」   產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 有 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 有 上限 規定   目前 在 既有 的 電力 設施 併 網 上限 下   有 限度 的 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 有 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             她 強調   從 未 要求 廠商 提供 「 不利 耕作 同意 書 」 或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   在 未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 的 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       她 指出   屏東 綠能 推動 政策 以 「 專案 專區 計畫 」   「 土地 複 合式 利用 」 等 2 大 策略 為 優先   有 限度 使用 相對 不 適合 耕種 的 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 有 土地 鹽化 等 不利因素 無法 耕作 的 年 邁老農   則 可以 有 穩定 收入 過 退休 生活   至於 非 專案 專區 的 鄉鎮   則優先 鼓勵 廠 商以 「 土地 複 合式 利用 」 方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 有 處置 自家 土地 財產   及業者 依法 申請 案件 的 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 內 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  </t>
+          <t xml:space="preserve">〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 及 枋寮 4 個 沿海 鄉鎮   劃定 「 嚴重 地層下陷區 光電計畫 」 專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 有 3000 公頃 以上 的 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 在 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 有 縣府 在 尊重 地主 利用 土地 意願 及 權益 前提 及 既有 電力 設施 併 網 上限 條件 下   有 限度 的 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   在 部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 的 光電板 發電 效率 已較 八八 風災 後 的 「 養水 種電 」 到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 的 在 單位 發電量 更大下   所 需面積 的 比例 一定 更 小   至少 會 有 3000 公頃 以上 的 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 有 土地 鹽化 等 不利因素 無法 耕作 的 年 邁老農   則 可以 有 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 的 利用 土地 意願 及 權益   縣府 環保局 從 未 要求 廠商 提供 所謂 「 不利 耕作 同意 書 」 或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 及 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 有 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   在 未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 內 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以 「 專案 專區 計畫 」   「 土地 複 合式 利用 」 兩大 策略 為主   專案 為 有 限度 使用 相對 不 適合 耕種 的 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電 的 「 複 合 利用 」 方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 有 處置 自家 土地 財產   以及 業者 依法 申請 案件 的 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不   這是 屏東 沿海 地區 這幾年 興起 違 景致   是 全台 種電 縮影   地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 文資 價值 二戰 遺跡 都 不放過   不僅家園 變貌   迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 典範   二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出   養水 種電   計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 罵 聲不斷   二 一 八年 十月 起   屏縣 府 公告 實施   嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫     開放 下陷區 農地 可 變更 種電       二 二 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 二 一 八年 屏東縣 長 潘孟安任   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 光電   如今 變成 農民 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽   不利 耕作 聲明書     離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作         沿海 四鄉 鎮美麗 鄉間 景致 丕 變   綠地 逐漸 蒸發     屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 是 少數 地主   受影響 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能   五贏     前年 已達成 綠電供 應 全縣 民生 用電 階段 性 目標  </t>
+          <t xml:space="preserve">從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不 在   這是 屏東 沿海 地區 這幾年 興起 的 違 和 景致   也 是 全台 種電 縮影   在 地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 有 文資 價值 的 二戰 遺跡 都 不放過   不僅家園 變貌   也 迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 和 典範   二 ○ ○ 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   也 重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出 「 養水 種電 」 計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 及 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 ○ 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 的 罵 聲不斷   二 ○ 一 八年 十月 起   屏縣 府 公告 實施 「 嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫 」   開放 下陷區 農地 可 變更 種電       二 ○ 二 ○ 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 在 二 ○ 一 八年 屏東縣 長 潘孟安任 內   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 的 光電   如今 變成 農民 的 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 的 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽 「 不利 耕作 聲明書 」   離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作       「 沿海 四鄉 鎮美麗 的 鄉間 景致 丕 變   綠地 逐漸 蒸發   」 屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 的 是 少數 地主   受影響 的 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能 「 五贏 」   前年 已達成 綠電供 應 全縣 民生 用電 的 階段 性 目標  </t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 果農 只能 忍痛 看著 心血 被毀   斬斷 兒子 想 當青農 接班 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   不給 老 農一畝 田維生   青年 若當   漂鳥   回農村   肯定 變走 投無路   落翅仔         五十六 歲 鄭明偉 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 不少 國有 財產 署名 下 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 枋寮 寮 段種 芭樂   無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 靠 這片 三分 地 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種     我 不但 要 吃 土   連農保 都 沒 了         面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 枋寮   蓮霧 之 鄉   美名   四十八 歲 陳 呈祥 八八 風災後回 鄉 接手 父親 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改 種電   年 輕人 想 返 鄉務農   無 低 租金 農地 可種     蓮霧 故鄉   金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到     這 不是 迫遷 青農去 都市 討 生活   漂鳥 回農村   恐怕 走 投無路 變 落翅仔    </t>
+          <t>屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 的 果農 只能 忍痛 看著 心血 被毀   也 斬斷 兒子 想 當青農 接班 的 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   也 不給 老 農一畝 田維生   青年 若當 「 漂鳥 」 回農村   肯定 變走 投無路 的 「 落翅仔 」       五十六 歲 鄭明偉 在 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   有 兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 的 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 有 不少 國有 財產 署名 下 的 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 在 枋寮 內 寮 段種 芭樂   她 無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 在 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 也 靠 這片 三分 地 的 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種   「 我 不但 要 吃 土   連農保 都 沒 有 了   」     面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 和 枋寮 有 「 蓮霧 之 鄉 」 美名   四十八 歲 陳 呈祥 在 八八 風災後回 鄉 接手 父親 的 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 做 的 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   有 的 果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 和 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   在 地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改 種電   年 輕人 想 返 鄉務農   也 無 低 租金 的 農地 可種   「 蓮霧 故鄉 」 金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   她 忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到   「 這 不是 迫遷 青農去 都市 討 生活 嗎   漂鳥 回農村   恐怕 走 投無路 變 落翅仔 吧   」</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">光電亂象 已久   從 之前 良田 種電   砍樹 種電   近來 變本 加厲   光電板 不僅 征服 山頭   占 領有 文資 價值 遺跡   更 一步步 裂解 農漁村 產業 鏈   恐阻斷 青農返 鄉 之路   地面 型 光電 社會 衝擊 比 預期 更大且 深   講求 氣候 正義和   企業 Ｅ Ｓ Ｇ   環境 保護   社會責任   公司 治理     國際 主流 下   政府 企業須 警覺   若綠電來 自迫 遷   危害 生態 與 地產業   恐埋 隱憂       屏東縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷區 之名 畫為 光電 專區   本可 接軌 屏東縣 前縣 長 曹啟 鴻   養水 種電   政策   但 實際 推行 結果   鄉間 景觀 破碎   光電場 蛇 鼠 為 患   離農者 漸增 等 負面 效應 逐漸 浮現   加上 光電助 漲 農地 租金   無異將 返鄉 青年 拒 於 農漁村 之外   被 批評 與   養水 種電   初衷 漸行 漸遠                             屏東 只是 全 台 種電 爭議 縮影   更 多 生態   景觀 敏感 地   追 趕綠能 目標 下 可割 可棄   面對 爭議 與 衝擊   政策 把關 工具 遲未 發揮 效能   及早 阻止 種電 副作用   甚至 正向 引導 與 地 共生 共榮   實難辭 其咎   與 執政黨   愛鄉 土   理念 背道 而 馳       開發行 為 必須 堅守 環境 正義底 線   綠能 不 例外   猶記 得 台積 電在 被 徵收 用地 拆 遷戶 激烈 抗爭 下   突然 宣布 放棄 進 駐龍科 三期   不無環境 正義與 企業 Ｅ Ｓ Ｇ 考慮   民進 黨 種電 國策 若 如   失速 列車     無情 地衝 撞 純樸 農漁村   把 青農   老農 都 當成   農村 最軟 一塊     這種 綠電 還是 國際 認可   符合 Ｅ Ｓ Ｇ 綠電  </t>
+          <t xml:space="preserve">光電亂象 已久   從 之前 的 良田 種電   砍樹 種電   近來 變本 加厲   光電板 不僅 征服 山頭   占 領有 文資 價值 的 遺跡   更 一步步 裂解 農漁村 的 產業 鏈   恐阻斷 青農返 鄉 之路   地面 型 光電 的 社會 衝擊 比 預期 更大且 深   在 講求 氣候 正義和 「 企業 Ｅ Ｓ Ｇ   環境 保護   社會責任   公司 治理   」 的 國際 主流 下   政府 和 企業須 警覺   若綠電來 自迫 遷   危害 生態 與 在 地產業   恐埋 隱憂       屏東縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷區 之名 畫為 光電 專區   本可 接軌 屏東縣 前縣 長 曹啟 鴻 的 「 養水 種電 」 政策   但 實際 推行 結果   鄉間 景觀 破碎   光電場 蛇 鼠 為 患   離農者 漸增 等 負面 效應 逐漸 浮現   加上 光電助 漲 農地 租金   無異將 返鄉 青年 拒 於 農漁村 之外   也 被 批評 與 「 養水 種電 」 初衷 漸行 漸遠                             屏東 只是 全 台 種電 爭議 的 縮影   有 更 多 生態   景觀 敏感 地   在 追 趕綠能 目標 下 可割 可棄   面對 爭議 與 衝擊   政策 把關 工具 遲未 發揮 效能   及早 阻止 種電 的 副作用   甚至 正向 引導 與 在 地 共生 共榮   實難辭 其咎   也 與 執政黨 的 「 愛鄉 土 」 理念 背道 而 馳       開發行 為 必須 堅守 環境 正義底 線   綠能 也 不 例外   猶記 得 台積 電在 被 徵收 用地 的 拆 遷戶 激烈 抗爭 下   突然 宣布 放棄 進 駐龍科 三期   不無環境 正義與 企業 Ｅ Ｓ Ｇ 的 考慮   民進 黨 種電 國策 若 如 「 失速 列車 」   無情 地衝 撞 純樸 的 農漁村   把 青農   老農 都 當成 「 農村 最軟 的 一塊 」   這種 綠電 還是 國際 認可   符合 Ｅ Ｓ Ｇ 的 綠電 嗎  </t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  </t>
+          <t xml:space="preserve">〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 及 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 和 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 的 的 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 在 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 及 捕魚 的 重要 基地   更是 漁民 生命 財產 的 保障   也 是 海洋 漁業 發展 的 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助 的   縣府 就 必須 出手   架 高作業 平台   解決 高漲 的 潮水   既 保障 漁民 日常 工作 需求   也 能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 的 基礎 建設   除 加高 平台 也 協助 清淤   讓 漁民有 更好 的 作業 環境   黃 嫈 珺 也 說   東石 沿海 導航燈 有 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 也 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 的 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 內容 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  </t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影</t>
+          <t>嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 的 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 在 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 有 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                             「 大潮 來   沒 看到 路 怎麼 走   」 鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 及 平台 改善 工程   目前 已 辦理 設計 工作   預計 在 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 也 指出   漁民向 她 反應 鰲 鼓   副 瀨   網寮 及 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 的 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 有 需求 做 盤點   將一 併 向 中央 爭取 第二期 的 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 也 反應 鰲 鼓   副 瀨   網寮 及 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 及 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 今   23 日   又 工地 地層下陷   松山區 慶城街 與 興安街 交叉路口 晚間 9 時 01 分許   驚傳 新建 工地 地基 塌陷   路旁 整排 停放 汽車 因故 側翻 超過 45 度   現場 已劃 設 警戒 線   據 了解 台北 市長 蔣萬安正 趕往 現場   今晚 9 時 01 分許   慶城街 興安街 交叉路口 一處   所屬 璞 真建設 新建 工地   地基 下陷     下陷 範圍 評估 中   目前 無人 受傷   目前 影響 路旁 4 台 停放 車輛   現場 已劃 設 警戒 線   事發 後   已有 消防 車到場 指揮   詳細 發生 原因 仍待 釐 清   蔣萬安則 透過 臉書 表示 正 趕往 現場   呼籲 周遭 居民 經過 民眾 注意安全   最新 資訊 市府 會 即刻 通知  </t>
+          <t xml:space="preserve">台北市 今   23 日   又 工地 地層下陷   松山區 慶城街 與 興安街 交叉路口 晚間 9 時 01 分許   驚傳 新建 工地 地基 塌陷   路旁 整排 停放 的 汽車 因故 側翻 超過 45 度   現場 已劃 設 警戒 線   據 了解 台北 市長 蔣萬安正 趕往 現場   今晚 9 時 01 分許   慶城街 和 興安街 交叉路口 一處   所屬 璞 真建設 的 新建 工地 「 地基 下陷 」   下陷 範圍 評估 中   目前 無人 受傷   目前 影響 路旁 4 台 停放 的 車輛   現場 已劃 設 警戒 線   事發 後   已有 消防 車到場 指揮   詳細 發生 原因 仍待 釐 清   蔣萬安則 透過 臉書 表示 正 趕往 現場   呼籲 周遭 居民 和 經過 的 民眾 注意安全   有 最新 資訊 市府 會 即刻 通知  </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街 一處 工地 附近   今   23   晚傳出 地層下陷 狀況   停 路邊 停車格 車輛   車身 甚至 已經 傾斜   影響 4 台車輛 傾斜   現場 為 新建 工地 地基 下陷   下陷 範圍 評估 中   無人 受傷   已劃 設 警戒 線   台北 市長 蔣萬安 副 市長 李 四川 正 趕往 現場   台北 市長 蔣萬安 發文 表示     稍早 慶城街 興安街 交叉口 發生 工地 地基 下陷   我正 趕往 現場   請 周遭 居民 經過 民眾 注意安全   最新 資訊   市府 會 即刻 通知    </t>
+          <t>台北市 松山區 慶城街 一處 工地 附近   今   23   晚傳出 有 地層下陷 的 狀況   停 在 路邊 停車格 的 車輛   車身 甚至 已經 傾斜   影響 4 台車輛 傾斜   現場 為 新建 工地 地基 下陷   下陷 範圍 評估 中   無人 受傷   已劃 設 警戒 線   台北 市長 蔣萬安 和 副 市長 李 四川 正 趕往 現場   台北 市長 蔣萬安 發文 表示   「 稍早 在 慶城街 和 興安街 交叉口 發生 工地 地基 下陷   我正 趕往 現場   請 周遭 居民 和 經過 的 民眾 注意安全   有 最新 資訊   市府 會 即刻 通知   」</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街 與 興安街 交叉口 今   23   晚發生 工地 地基 下陷   台北 市長 蔣萬安 發出 通知   提醒 周遭 居民 經過 民眾 注意安全   蔣萬安及 台北市 副 市長 李 四川 目前 趕到 事故 現場   了解 事發 原因   蔣萬安受 訪時 指出   今晚 9 點 左右 接獲 通報   慶城街 與 興安街 交叉口 一處 新建 工地 發生 下陷   第一 時間 即 通知 相關 單位   現場 拉起 警戒 線   無人 傷亡   不過 造成 四輛 停放 車輛 傾斜   蔣萬安 指出   目前 新建 工地 還沒 進行 基礎 開 挖   即將 準備 施作 連續 壁 工程 還沒 開始   只是 導溝   初步 了解 是 因為 內部 支撐力 不夠   造成 導溝 外壁 下陷   目前 緊急 回填 導溝 中   台北市 結構 技師 公會 理事 長 徐茂卿 表示     因為 工地 局部 導溝 施作 不佳   造成 道路 坍陷   現在 最 重要 是   把 導溝 坑洞 補起 來   由 於 區域 不大   災害 擴大跡 象 不 至於 產生 很大 影響    </t>
+          <t>台北市 慶城街 與 興安街 交叉口 今   23   晚發生 工地 地基 下陷   台北 市長 蔣萬安 發出 通知   提醒 周遭 居民 和 經過 的 民眾 注意安全   蔣萬安及 台北市 副 市長 李 四川 目前 也 趕到 事故 現場   了解 事發 原因   蔣萬安受 訪時 指出   今晚 9 點 左右 接獲 通報   慶城街 與 興安街 交叉口 一處 新建 工地 發生 下陷   第一 時間 即 通知 相關 單位   現場 也 拉起 警戒 線   無人 傷亡   不過 造成 四輛 停放 車輛 傾斜   蔣萬安 指出   目前 新建 工地 還沒 進行 基礎 開 挖   即將 準備 施作 的 連續 壁 工程 也 還沒 開始   只是 在 做 導溝   初步 了解 是 因為 內部 支撐力 不夠   造成 導溝 外壁 下陷   目前 緊急 回填 導溝 中   台北市 結構 技師 公會 理事 長 徐茂卿 表示   「 因為 工地 局部 導溝 施作 不佳   造成 道路 坍陷   現在 最 重要 的 是   把 導溝 內 的 坑洞 補起 來   由 於 區域 不大   災害 擴大跡 象 不 至於 產生 很大 的 影響   」</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山區 慶城街 興安街 交叉路口 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 路邊 停車格 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前 市長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 問題     台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 發生 好 幾起 地層下陷 事件   柯文 哲今 早 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  </t>
+          <t xml:space="preserve">〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山區 慶城街 和 興安街 交叉路口 的 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 在 路邊 停車格 的 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前 市長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 有 的 問題     台北市 松山區 慶城街 和 興安街 交叉路口 的 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 也 發生 好 幾起 地層下陷 事件   柯文 哲今 早 在 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 有 的 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 做 的 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 路旁 4 台車 受到 波及   人行道 路面 凹陷   北市 府 緊急 成立 指揮 中心 處理   台北 市長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 檢測   目前 僅有 塌陷 處東側 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   都 沒 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 一 併 檢查 處理   此次 台北市 政府 昨晚 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 二度 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報   會 請 建管處 全面 清查     另外 此次 第一 時間 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 溝通 聯 繫  </t>
+          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 在 路旁 的 4 台車 受到 波及   人行道 路面 也 凹陷   北市 府 也 緊急 成立 指揮 中心 處理   台北 市長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 有 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 和 檢測   目前 僅有 塌陷 處東側 有 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   也 都 沒 有 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 也 一 併 檢查 處理   此次 台北市 政府 昨晚 在 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   也 開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 內 二度 有 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 做 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 也 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 有 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報 「 會 請 建管處 全面 清查 」   另外 此次 第一 時間 也 有 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   也 謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 有 溝通 聯 繫  </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街   興安街 交叉口 昨   23   天晚間 突發生 工地 地基 塌陷 問題   連帶 週邊 停 路旁 汽車   人行道 傾斜 下陷   北市 府 緊急 下令 回填   經過 連夜 灌漿   截至 今   24   早 7 點 左右   已經 灌漿 250 方   初估 中午 12 點可 完成   另外 針對業者 開罰 18 萬並 勒令停工   據 了解   新建 工地 尚未 開挖   只是 導溝   疑似 因內部 支撐力 不夠   造成 導溝 外壁 下陷   所幸 無人 傷亡   而 除了 導溝 回填 外   北市 府 表示 外側 坍塌 處   為 預防樹木 傾倒   且 灌漿 回填 後 樹木無法 存活   故將 4 棵 黑板 樹鋸斷   此外   北市 府 開罰 業者 18 萬   並 勒令停工   而 雖然 目前 沒有 漏水 情況   但 接下 來 自來 水處 將持續 監測   早上 會 進場 透地雷達 檢測   並確 認管線 排水 溝 是否 破壞 處理 方式   待 基地 內側 灌漿 完成 初 凝 後   即 進行 道路 回填   北市 府 透露   今早 沒 再 塌陷 情況   監測 資料 今天 比 對 完成 後 公布  </t>
+          <t xml:space="preserve">台北市 慶城街   興安街 交叉口 昨   23   天晚間 突發生 工地 地基 塌陷 問題   連帶 週邊 停 在 路旁 的 汽車   人行道 也 傾斜 下陷   北市 府 緊急 下令 回填   經過 連夜 灌漿   截至 今   24   早 7 點 左右   已經 灌漿 250 方   初估 中午 12 點可 完成   另外 也 針對業者 開罰 18 萬並 勒令停工   據 了解   新建 工地 尚未 開挖   只是 在 做 導溝   疑似 因內部 支撐力 不夠   造成 導溝 外壁 下陷   所幸 無人 傷亡   而 除了 導溝 回填 外   北市 府 表示 外側 坍塌 處   為 預防樹木 傾倒   且 灌漿 回填 後 樹木無法 存活   故將 4 棵 黑板 樹鋸斷   此外   北市 府 開罰 業者 18 萬   並 勒令停工   而 雖然 目前 沒有 漏水 情況   但 接下 來 自來 水處 將持續 監測   早上 也 會 進場 做 透地雷達 檢測   並確 認管線 及 排水 溝 是否 破壞 及 處理 方式   待 基地 內側 灌漿 完成 及 初 凝 後   即 進行 道路 回填   北市 府 透露   今早 沒 有 再 塌陷 情況   監測 資料 今天 比 對 完成 後 公布  </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街   興安街 一處 新建 工地   昨   23   天晚間 發生 地基 塌陷 意外   造成 停 路旁 四台 車 受到 波及   人行道 路面 呈現 V 字型 凹陷   面積 約 4 公尺 長   30 公尺 寬   深度 約 1.5 公尺   所幸 週邊 建築物 沒有 危險   相關 單位 連夜 現場 進行 回填 作業   不過 工地 遭罰 18 萬 勒令停工   事發 原因 尚待 調查   慶城街 新建 工地 地基 下陷   路面 坍塌   人行道   工程 圍籬 都 明顯 下陷   路旁 停車格 消失 一大半   當時 路邊 4 輛汽車 遭殃 歪斜   建商 連夜 回填 灌漿   避免 塌陷 擴大   據 了解   該 處興 建工 地原 是 要 蓋 豪宅 大樓   原先 工地 上 地下 三層 地下室 建物   疑似 拆除 建物 後   地下室 進行 導溝 作業 時候   內部導 溝支 撐力 不足 才 發生 坍塌 意外   所幸 工地 尚未 進行 大規模 開 挖   沒 再 釀 更 大 事故   此次 路面 坍塌 面積長 約 4 公尺   寬約 30 公尺   深度 1.5 公尺   目前 週邊 建築物 沒有 相關 安危   而 北市 建管處 勘查 後   昨天 深夜 確定 裁罰 18 萬   並 勒令 回填 穩定 後 停工   待 確保 工地 安全   業者   建商 提出 復工 審查   才 會 進行後續 作業   至於 事發 原因 仍待 調查  </t>
+          <t xml:space="preserve">台北市 松山區 慶城街   興安街 一處 新建 工地   昨   23   天晚間 發生 地基 塌陷 意外   造成 停 在 路旁 的 四台 車 受到 波及   人行道 路面 也 呈現 V 字型 凹陷   面積 約 4 公尺 長   30 公尺 寬   深度 約 1.5 公尺   所幸 週邊 建築物 沒有 危險   相關 單位 連夜 在 現場 進行 回填 作業   不過 工地 遭罰 18 萬 勒令停工   事發 原因 尚待 調查   慶城街 新建 工地 地基 下陷   路面 坍塌   人行道   工程 圍籬 都 明顯 下陷   路旁 停車格 也 消失 一大半   當時 路邊 4 輛汽車 也 遭殃 歪斜   建商 連夜 回填 灌漿   避免 塌陷 擴大   據 了解   該 處興 建工 地原 是 要 蓋 豪宅 大樓   原先 工地 上 有 地下 三層 地下室 的 建物   疑似 拆除 建物 後   地下室 在 進行 導溝 作業 的 時候   內部導 溝支 撐力 不足 才 發生 坍塌 意外   所幸 工地 尚未 進行 大規模 的 開 挖   沒 再 釀 更 大 事故   此次 路面 坍塌 面積長 約 4 公尺   寬約 30 公尺   深度 1.5 公尺   目前 週邊 建築物 沒有 相關 安危   而 北市 建管處 勘查 後   昨天 深夜 確定 裁罰 18 萬   並 勒令 回填 穩定 後 停工   待 確保 工地 安全   業者   建商 提出 復工 審查   才 會 進行後續 作業   至於 事發 原因 仍待 調查  </t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 松山區 慶城街 昨   23   天晚間 發生 地層下陷   身為 前 台北 市長   民眾 黨 主席 柯文 哲今 早 挑戰 一日 北高   被 問到 卸任 後 北市 兩度 發生 工地 地層下陷   他 表示 台北市 是 盆地   本來 就是 地層下陷 檢視區   認為 高 危險區 要 能夠 事先 知道   並做 必要措施   柯文 哲 今天 一大早 6 點多   從 台北 關渡 宮出 發挑戰 一日 北高   面對慶 城街 昨晚 發生 地層下陷   他 認為 台北市 本來 就是 地層下陷 檢視區   工務 局網 站上 可以 看到 好 幾個 區域   且 北市 本來 就是 盆地   所以 本來 就 這個 問題   至於 問題 出 誰 身上   柯文 哲認 為   本來 地質 就 應該 多 注意   北市 地路 已經 相當 完整   高 危險區 要 能夠 事先 知道   必要措施 防範  </t>
+          <t xml:space="preserve">台北 松山區 慶城街 昨   23   天晚間 發生 地層下陷   身為 前 台北 市長   民眾 黨 主席 柯文 哲今 早 挑戰 一日 北高   被 問到 卸任 後 北市 兩度 發生 工地 地層下陷   他 表示 台北市 是 盆地   本來 就是 地層下陷 檢視區   認為 高 危險區 要 能夠 事先 知道   並做 必要措施   柯文 哲 今天 一大早 6 點多   從 台北 關渡 宮出 發挑戰 一日 北高   面對慶 城街 昨晚 發生 地層下陷   他 認為 台北市 本來 就是 地層下陷 檢視區   工務 局網 站上 可以 看到 有 好 幾個 區域   且 北市 本來 就是 盆地   所以 本來 就 有 這個 問題   至於 問題 出 在 誰 身上   柯文 哲認 為   本來 地質 就 應該 多 注意   北市 做 的 地路 已經 相當 完整   高 危險區 要 能夠 事先 知道   做 必要措施 防範  </t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北 市長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  </t>
+          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 的 搶 救   工地 內 崩塌 範圍 已 完成 回填   今天下午 也 開始 灌漿 工地 外圍 的 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 的 地下 建築 結構 時   挖到 不連續 的 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 的 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 也 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言   「 好 意外   真的 很 意外   文華飯 店 當初 蓋 的 時候 這麼 近   也 沒 有 發生過 問題   」 精華 地段 的 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 的 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 在 前置 的 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 的 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 的 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出   「 破除 既有 的 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 的 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 的 側壁壓 變形 之 後   就 產生 這樣 的 崩塌 現象   」 台北 市長 蔣萬安週 六 上午 也 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮   「 在 西側   南側   北側 目前 比 對 的 監測 數值 是 正常   而且 也 都 沒 有 地面 塌陷 以及 鄰房 傾斜 的 狀況   」 建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街 一處 新建 工地 昨晚 發生 地層下陷 事故   對 於 台北市 接連 發生 地層下陷 事件   前 台北 市長   民眾 黨 主席 柯文 哲 今天 表示   台北市 本來 就是 地層下陷 潛勢區   台北市 政府 已經 把 地圖 得 很 完整   要 知道 高 危險區   並做 必要 措施       柯文 哲 表示   台北市 本來 就是 地層下陷 潛勢區   其實 只要 去 工務局 往 上查 一下   就 可以 看到 地層下陷 潛勢區 好 幾個   因為 這個 地方 本來 就是 盆地   所以 就 會 這個 問題   目前 台北市 地圖 已經 相當 完整   高 危險區 要 事先 知道   做出 必要 措施  </t>
+          <t xml:space="preserve">台北市 慶城街 一處 新建 工地 昨晚 發生 地層下陷 事故   對 於 台北市 接連 發生 地層下陷 事件   前 台北 市長   民眾 黨 主席 柯文 哲 今天 表示   台北市 本來 就是 地層下陷 潛勢區   台北市 政府 已經 把 地圖 做 得 很 完整   要 先 知道 高 危險區   並做 必要 的 措施       柯文 哲 表示   台北市 本來 就是 地層下陷 潛勢區   其實 只要 去 工務局 往 上查 一下   就 可以 看到 地層下陷 潛勢區 有 好 幾個   因為 這個 地方 本來 就是 盆地   所以 就 會 有 這個 問題   目前 台北市 做 的 地圖 已經 相當 完整   高 危險區 要 事先 知道   做出 必要 的 措施  </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街 工地 附近   週 五晚 間 坍塌 下陷   昨天 基地 回填 完成 後   今   25   天 上午 台北市 副 市長 李 四川 再度 到場 視察   評估 地基 沒有 再 下陷   宣布 慶城街 上午 十點 恢 復 通車   李 四川 表示   填平 地方 沒有 繼續 沉陷   路面 部分 希望 今晚 人少 時候   重新 把 瀝青 鋪 好   明天 週一 上班 就 能 恢 復 正常 了   由 於 這已 經是 蔣 市府 上任 以來   兩年 發生 第 7 起 塌陷 事件   李 四川 要求 持續 監測   建商 若想 復工   依法 必須 交出 復工 計畫   經過 政府 專業 技師 公會 審查   確認 安全 無虞 後 才能 繼續 動工  </t>
+          <t xml:space="preserve">台北市 慶城街 工地 附近   週 五晚 間 坍塌 下陷   昨天 基地 內 回填 完成 後   今   25   天 上午 台北市 副 市長 李 四川 再度 到場 視察   評估 地基 沒有 再 下陷   宣布 慶城街 上午 十點 恢 復 通車   李 四川 表示   填平 的 地方 沒有 繼續 沉陷   路面 部分 希望 今晚 人少 的 時候   重新 把 瀝青 鋪 好   明天 週一 上班 就 能 恢 復 正常 了   由 於 這已 經是 蔣 市府 上任 以來   兩年 內 發生 的 第 7 起 塌陷 事件   李 四川 也 要求 持續 監測   建商 若想 復工   依法 必須 交出 復工 計畫   經過 政府 和 專業 技師 公會 審查   確認 安全 無虞 後 才能 繼續 動工  </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 14 公分     台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  </t>
+          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 在 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮     「 泳道 南側 比北側 低 了 約 14 公分   」 台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 在 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 及 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  </t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 十四 公分     環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  </t>
+          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 在 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮     「 泳道 南側 比北側 低 了 約 十四 公分 」   環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 在 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 ○ 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 及 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 李容萍 ／ 桃園 報導 〕 桃園市 石門 水庫 水情 吃緊   截至 今   21 日   中午   蓄水量 7131 萬噸   蓄水 率 34.75 ％   經濟部 水利 署自 19 日起 調整 桃竹苗 地區 水情 燈號 為   水情 提醒   綠燈   提醒 各界 節約 用水   國立 中央 大學 研究 團隊 今 發表 於 新屋 綠色 隧道 海岸 線 TaiCOAST 臨海 工作站   發現 地下水 出流 現象 非常 強勁   每年 出 流量 達 1 億公噸   相當 半座 石門 水庫 容量   這項 成果 刊載 於 新一期   水文 學雜誌   Journal   of   Hydrology     Regional   Studies 頂尖 期刊   未來 可進 一步 研究 探討 如何 適度 使用 不會 造成 環境 危害     中央 大學應 用地 質 研究所 教授 倪春發 表示   海岸 帶 地下水 出流   Submarine   Groundwater   Discharge     SGD   為 地下水 直接 流進 海洋 自然 現象   普遍存在 於 世界各地   中央 大學 TaiCOAST 臨海 工作站 自 2021 年 開始 進行 新屋 海岸 帶 地下水 出 流量 調查   發現 即使 2021 年 大旱 期間   遭遇 台灣 56 年 來 最 嚴重 缺水 危機   出 流量 仍 相當 豐沛     研究 團隊 透過 鑽井   深入 地下 100 公尺   發現 打出 仍 是 淡水   透過 數學 模型 計算 流速 面積 累加   發現 新屋 地區 海岸 帶 地下水 出 流量 每天 可達 30 萬噸   1 年 高達 1 億噸   相當 半座 石門 水庫 容量   近年 來 調查 結果 更 發現   新屋 區往 北 海岸 出 流量 更 高潛勢   顯示 桃園 海岸 帶 整體 地下水 出 流量 更為 可觀     研究 團隊 指出   台灣 年 降雨量 約 2500 毫米   約 為 全球 平均 3 倍   但 因 台灣 地形 梯度 較大   60 ％ 流入 海洋   只有 5 ％ 含水 層   儘 管 台灣 降水量 高   但 水資源 有限   雖然 發現 地下水 出 流量 資源 豐沛   但 如何 汲水 開發   不致 造成 海水 入侵 地層下陷   涉及 政策   科學 工程 等 多重 挑戰   還需 兼顧 出海口 生態 平衡   才能 造福 國家 社會     此 研究 團隊 涵蓋 中央 大學 地球 科學學院 各系所 老師   包括 應 用地 質 研究所 教授 倪春發   副教授 王士榮   水文 與 海洋 科學 研究所 教授 李明旭   錢樺   副教授 黃 志 誠   以及 地球 科學學系 教授 顏宏元   陳 建志 等 人   各自 發揮 所長   追求 科學 卓越   期許 對 人類 社會 有所 貢獻  </t>
+          <t xml:space="preserve">〔 記者 李容萍 ／ 桃園 報導 〕 桃園市 石門 水庫 水情 吃緊   截至 今   21 日   中午   蓄水量 7131 萬噸   蓄水 率 34.75 ％   經濟部 水利 署自 19 日起 調整 桃竹苗 地區 水情 燈號 為 「 水情 提醒 」 的 綠燈   提醒 各界 節約 用水   國立 中央 大學 研究 團隊 今 發表 於 新屋 綠色 隧道 海岸 線 TaiCOAST 臨海 工作站   發現 地下水 出流 現象 非常 強勁   每年 出 流量 達 1 億公噸   相當 半座 石門 水庫 容量   這項 成果 刊載 於 新一期 「 水文 學雜誌 」 Journal   of   Hydrology     Regional   Studies 頂尖 期刊   未來 可進 一步 研究 探討 如何 適度 使用 不會 造成 環境 危害     中央 大學應 用地 質 研究所 教授 倪春發 表示   海岸 帶 地下水 出流   Submarine   Groundwater   Discharge     SGD   為 地下水 直接 流進 海洋 的 自然 現象   普遍存在 於 世界各地   中央 大學 TaiCOAST 臨海 工作站 自 2021 年 開始 進行 新屋 的 海岸 帶 地下水 出 流量 調查   發現 即使 在 2021 年 大旱 期間   遭遇 台灣 56 年 來 最 嚴重 的 缺水 危機   出 流量 仍 相當 豐沛     研究 團隊 透過 鑽井   深入 地下 100 公尺   發現 打出 的 仍 是 淡水   透過 數學 模型 計算 流速 和 面積 累加   發現 新屋 地區 的 海岸 帶 地下水 出 流量 每天 可達 30 萬噸   1 年 高達 1 億噸   相當 半座 石門 水庫 容量   近年 來 調查 結果 更 發現   新屋 區往 北 的 海岸 出 流量 有 更 高潛勢   顯示 桃園 海岸 帶 整體 地下水 出 流量 更為 可觀     研究 團隊 指出   台灣 年 降雨量 約 2500 毫米   約 為 全球 平均 的 3 倍   但 因 台灣 地形 梯度 較大   60 ％ 流入 海洋   只有 5 ％ 在 含水 層   儘 管 台灣 降水量 高   但 水資源 有限   雖然 發現 地下水 出 流量 資源 豐沛   但 如何 汲水 開發   不致 造成 海水 入侵 和 地層下陷   涉及 政策   科學 和 工程 等 多重 挑戰   還需 兼顧 出海口 生態 的 平衡   才能 造福 國家 社會     此 研究 團隊 涵蓋 中央 大學 地球 科學學院 各系所 老師   包括 應 用地 質 研究所 教授 倪春發   副教授 王士榮   水文 與 海洋 科學 研究所 教授 李明旭   錢樺   副教授 黃 志 誠   以及 地球 科學學系 教授 顏宏元   陳 建志 等 人   各自 發揮 所長   追求 科學 卓越   也 期許 對 人類 社會 有所 貢獻  </t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 中山 區 大直 街   基泰 大直   建案   去年 9 月 因開 挖 不慎   連續 壁斷 裂   導致 鄰房 下陷   25 戶無家 可虧   近百 戶 受損   建案 遭 勒令停工   基泰 建設 今 發布 聲明 表示   與 受 災戶 溝通下 建案 事故 賠償 已 達 市府 解除 列管 標準   但 因 都 更 程序 關 係   短期 內暫 不 復工   後 續 會 願 和解 受災 持續 調解       基泰 表示   由福益 營造 公司 承包   基泰 大直   建案 事故 發生 後   經與 市府 協調   建案 起造 人 基泰 公司 對外 宣示 負起 所有 責任   為 加速 後 續理 賠   基泰 公司 進 行人 事 改組   由 新任 高階 主管 與 團隊   全權 處理 中   目前 25 拆除 戶 重建 案 已 依 都 更 程序 進行   因 程序 關 係   短期 內暫 不 施工   無 外界 抹黑 基泰 急 於 大直 案 復工 情事                             基泰 說   包含 179 戶鄰 損受 災戶 與 道 明國際學 校理 賠   日前 已 與 多位 受災戶   學校 達成 和解   過程 中 雖 遭 部分 人士 抹黑   阻礙   但 公司 與 受 災戶 溝通   已達 到 巿 府 鄰損 賠償 解除 列管 標準   基 於 企業 責任   以公會 鑑定價 1.2 倍 賠償 基礎   爲 受 災戶 爭取 最大 幫助   且里長 舉辦 說 明會 到 賠償 金 發放   全程 透明       基泰 表示   市府 因該 案 事故 緊急 支出   各 單位 協助 下   已 完成 多項 給付   目前 只 剩少 數項 目待 細項 核 對 後   即可 全部 完成   對 於 不願 和解 受災戶   基泰 公司 予以 尊重   將以 提存 賠償 金 方式   與 部分 受災戶 進行 鄰損 調解 程序       基泰 感謝 市政府 大直 里里長   各級民代 救災 與 賠償 程序 中 協助   以 讓 受 災戶 盡快 恢 復 正常 生活   日後在 各方 督導下   基泰 公司 基 於 社會責任   必 致力 與 社會 各界 共創 美好 未來   另針 對少 數民代以 不 實言論 攻訐 企圖 阻撓 受災戶 和解 情事   基泰 公司 表示   將採 法律 途徑   以正視 聽  </t>
+          <t xml:space="preserve">北市 中山 區 大直 街 「 基泰 大直 」 建案   去年 9 月 因開 挖 不慎   連續 壁斷 裂   導致 鄰房 下陷   25 戶無家 可虧   近百 戶 受損   建案 也 遭 勒令停工   基泰 建設 今 發布 聲明 表示   在 與 受 災戶 溝通下 建案 事故 賠償 已 達 市府 解除 列管 標準   但 因 都 更 程序 關 係   短期 內暫 不 復工   後 續 也 會 和 願 和解 受災 持續 調解       基泰 表示   由福益 營造 公司 承包 的 「 基泰 大直 」 建案 事故 發生 後   經與 市府 協調   建案 起造 人 基泰 公司 對外 宣示 負起 所有 責任   為 加速 後 續理 賠   基泰 公司 進 行人 事 改組   由 新任 高階 主管 與 團隊   全權 處理 中   目前 25 拆除 戶 重建 案 已 依 都 更 程序 進行   因 程序 關 係   短期 內暫 不 施工   無 外界 抹黑 基泰 急 於 大直 案 復工 情事                             基泰 說   包含 179 戶鄰 損受 災戶 與 道 明國際學 校理 賠   日前 已 與 多位 受災戶   學校 達成 和解   過程 中 雖 遭 部分 人士 抹黑   阻礙   但 在 公司 與 受 災戶 溝通   已達 到 巿 府 鄰損 賠償 解除 列管 標準   基 於 企業 責任   以公會 鑑定價 的 1.2 倍 做 賠償 基礎   爲 受 災戶 爭取 最大 幫助   且里長 舉辦 說 明會 到 賠償金 的 發放   全程 透明       基泰 表示   市府 因該 案 事故 緊急 支出   在 各 單位 協助 下   已 完成 多項 給付   目前 只 剩少 數項 目待 細項 核 對 後   即可 全部 完成   對 於 不願 和解 受災戶   基泰 公司 予以 尊重   將以 提存 賠償金 的 方式   與 部分 受災戶 進行 鄰損 調解 程序       基泰 也 感謝 市政府 和 大直 里里長   各級民代 在 救災 與 賠償 程序 中 的 協助   以 讓 受 災戶 盡快 恢 復 正常 生活   日後在 各方 督導下   基泰 公司 基 於 社會責任   必 致力 與 社會 各界 共創 美好 未來   另針 對少 數民代以 不 實言論 攻訐 企圖 阻撓 受災戶 和解 情事   基泰 公司 表示   將採 法律 途徑   以正視 聽  </t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 地層下陷 現象   為確 保泡湯 安全   目前 已 封閉 修繕 中     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 有 地層下陷 的 現象   為確 保泡湯 安全   目前 已 封閉 修繕 中     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 地層下陷 現象   造成 浴池 受損   壁磚 脫落   未來將 進行 修繕 改善   確認 無 危險 之 虞   才 會 再行 開放 供民眾 使用     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 有 地層下陷 的 現象   造成 浴池 受損   壁磚 脫落   未來將 進行 修繕 改善   確認 無 危險 之 虞   才 會 再行 開放 供民眾 使用     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>新北市 萬里   加投 溫泉   公共 浴室   算是 古 蹟 了   它 是 日據 時期 就 蓋 好   而且 到現 很多 人   喜歡 來 這裡 泡湯   不過 上個 月 開始   這裡 出現 大大小小 問題   浴池 磁磚 掉落   水泥柱 裂痕   地面 嚴重 傾斜   因此 現在 浴池 已經 暫時 封閉 了   等到 廠 商都 修繕 完畢   確認 安全 都 沒 問題   才 會 再度 開放       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   reurl . cc kqyqML   鏡新聞 APP   Android 👉 https   reurl . cc Ay2y63   有話 鏡來講 YT 👉 https   reurl . cc A4DjQj   少年 新聞 週記 YT 👉 https   reurl . cc K4DeN9</t>
+          <t>新北市 萬里 的 「 加投 溫泉 」 公共 浴室   算是 古 蹟 了   它 是 日據 時期 就 蓋 好 的   而且 到現 在 也 有 很多 人   喜歡 來 這裡 泡湯   不過 上個 月 開始   這裡 出現 大大小小 問題   浴池 磁磚 掉落   水泥柱 有 裂痕   地面 也 嚴重 傾斜   因此 現在 浴池 已經 暫時 封閉 了   等到 廠 商都 修繕 完畢   確認 安全 都 沒 問題   才 會 再度 開放       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   / / reurl . cc / kqyqML   鏡新聞 APP   Android 👉 https   / / reurl . cc / Ay2y63   有話 鏡來講 YT 👉 https   / / reurl . cc / A4DjQj   少年 新聞 週記 YT 👉 https   / / reurl . cc / K4DeN9</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商 到場 會勘 後 發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   男女 湯室 地底下 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   建議 應該 邀請 土木 技師 一 併 會勘   包含 溫泉 主管 機關 經濟 發展局   水利局 邀請 來   對 於 周邊 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 改善 方法   公所 將再 請 新北市 土木 技師 公會 等 相關 專家 進行 專業 檢查 評估   期望 確保 安全 無虞 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  </t>
+          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 的 新北市 萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 也 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 有 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北市 議員 周雅玲 表示   她 接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商 到場 會勘 後 發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   在 男女 湯室 地底下 有 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 在 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   她 建議 應該 邀請 土木 技師 一 併 會勘   包含 溫泉 主管 機關 的 經濟 發展局   水利局 邀請 來   對 於 周邊 的 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 有 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 的 改善 方法   公所 將再 請 新北市 土木 技師 公會 等 相關 專家 進行 專業 的 檢查 評估   期望 在 確保 安全 無虞 的 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   她 呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  </t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">新北市 萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 地層下陷 現象   地質 檢測 人員 檢查   原來 湯室 地底 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北市 萬 里加 投溫泉 公共 浴室 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 泡 湯遊客 反應   燈管   溫度 顯示器 溫泉 管線 設備 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 現象   公所 從 4 號開始 封閉 浴室   趕緊 找 專業 技師 到場 檢查   男女 湯室 地底 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 溫泉 露頭 有關 係     大鵬里長 李建才     露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 東西   地底下 看不到   以 目前 整個 狀況 來講 話   下陷 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 感覺       溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   流入 浴池   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉     技師 建議 我們 要 專業 技師 公會   針對 結構物 下陷 狀況 去 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 部分 改善   還是 可能 要大動 作去 做後續 改建   這個 部分 後 續 可能 會 需要 比較 多 費用       公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 泡 湯空間  </t>
+          <t xml:space="preserve">新北市 萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 有 地層下陷 的 現象   地質 檢測 人員 檢查   原來 湯室 的 地底 有 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 也 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北市 萬 里加 投溫泉 公共 浴室 在 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 有 泡 湯遊客 反應   燈管   溫度 顯示器 和 溫泉 管線 設備 有 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 的 現象   公所 從 4 號開始 封閉 浴室   也 趕緊 找 專業 技師 到場 檢查   男女 湯室 內 的 地底 有 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 的 溫泉 露頭 有關 係     大鵬里長 李建才   「 露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 的 東西   在 地底下 也 看不到   以 目前 整個 狀況 來講 的 話   下陷 的 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 的 感覺   」   溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   在 流入 浴池 內   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉   「 技師 建議 我們 要 有 專業 的 技師 公會   針對 結構物 下陷 狀況 去 做 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 的 部分 做 改善   還是 可能 要大動 作去 做後續 的 改建   這個 部分 後 續 可能 會 需要 比較 多 的 費用   」   公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 的 泡 湯空間  </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>新北市 萬里區 公所 表示   有民眾 日前 反應加 投溫泉 公共 浴室 燈管   溫度 顯示器 不亮 等 問題   委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   圖為 建物 出現 裂縫     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>新北市 萬里區 公所 表示   有民眾 日前 反應加 投溫泉 公共 浴室 內 的 燈管   溫度 顯示器 不亮 等 問題   委 託 廠商 勘查 後 發現   疑似 有 地層下陷 的 現象   圖為 建物 出現 裂縫     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326</t>
+          <t>萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 內 的 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 有 地層下陷 的 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 的 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 在 安全 的 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 的 供給 及 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   在 男女 湯室 地下 發現 有 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">新北 萬里 加頭 溫泉 2 月份 被 遊客 發現   不僅 燈管   溫度 顯示氣 等等 設備 問題   更 地層下陷   因此 趕緊 請 公所 找人 檢修   目前 已經 緊急 封閉   確認 沒有 安全 疑慮   才 會 再度 開放     浴池 整塊 磁磚 脫落   地磚 不平   甚至 還 有些 地層下陷   看起 來 相當 老舊   這裡 是 新北 萬里 加頭 溫泉   從 日據 時代起   就 受到 不少 民眾 喜愛   許多人 泡 完湯   都 覺得 放 鬆 筋骨     不過 2 月份 卻 被 發現   不僅 燈管   溫度 顯示器   一些 溫泉 管線 設備 問題 外   還有 地層下陷 跡象   鐵鋁罐 放在 地上   都 會 不 自主   滾向 一邊   加上 後 方 就是 溫泉 露頭   要是 坍方 相當 危險   萬里區 長 黃 雱 勉     技師 建議 我們   要 專業 技師 公會 去   針對 結構物 下陷 狀況   去 監測   評估後續 是不是 可以 用   液壓 灌漿 部分 改善       地質 人員 透過 地雷 達 偵測 結果 發現   確實 男女 湯內 地底   大量 孔隙   造成 土壤 流失   目前 公所 已經   緊急 封閉 浴室   以民眾 安全 為 第一 考量   盡快 修建       封面 圖 ／ 東森新聞  </t>
+          <t xml:space="preserve">新北 萬里 的 加頭 溫泉 2 月份 被 遊客 發現   不僅 燈管   溫度 顯示氣 等等 設備 有 問題   更 有 地層下陷   因此 趕緊 請 公所 找人 檢修   目前 已經 緊急 封閉   確認 沒有 安全 疑慮   才 會 再度 開放     浴池 內 整塊 磁磚 脫落   地磚 也 不平   甚至 還 有些 地層下陷   看起 來 相當 老舊   這裡 是 新北 萬里 的 加頭 溫泉   從 日據 時代起   就 受到 不少 民眾 喜愛   許多人 泡 完湯   都 覺得 放 鬆 筋骨     不過 2 月份 卻 被 發現   不僅 燈管   溫度 顯示器   和 一些 溫泉 管線 設備 有 問題 外   還有 地層下陷 的 跡象   鐵鋁罐 放在 地上   都 會 不 自主 的   滾向 一邊   加上 後 方 就是 溫泉 露頭   要是 坍方 相當 危險   萬里區 長 黃 雱 勉   「 技師 建議 我們   要 有 專業 的 技師 公會 去   針對 結構物 下陷 狀況   去 做 監測   評估後續 是不是 可以 用   液壓 灌漿 的 部分 做 改善   」   地質 人員 透過 地雷 達 偵測 結果 發現   確實 男女 湯內 地底   有 大量 孔隙   造成 土壤 流失   目前 公所 已經   緊急 封閉 浴室   以民眾 安全 為 第一 考量   盡快 修建       封面 圖 ／ 東森新聞  </t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   男女 湯室 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 出動 透地雷達 探測   這次 發現 問題 較 嚴重   建議 邀請 土木 技師 參 與 會勘   經濟 發展局 水利局 應針 對 附近 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  </t>
+          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 的 新北市 萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 也 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北市 議員 周雅玲 表示   她 接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   在 男女 湯室 的 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 也 出動 透地雷達 探測   這次 發現 問題 較 嚴重   她 建議 邀請 土木 技師 參 與 會勘   經濟 發展局 和 水利局 應針 對 附近 的 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 有 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 在 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  </t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">即時 中心 ／ 綜合 報導   新北市 新店 區 安泰 路今   3 日   上午 8 時 21 分傳 7 棟 房屋 嚴重 下陷   多輛 汽車 傾斜   目前 已 疏散 12 人   區長 與 里 長 正在 現場 了解 情況         安泰 路由 於 路基 受損 變形   多輛 汽車 傾斜 相當 危急   目前 區長 與 里 長 正在 現場 了解 情況   指出 必須 把 房屋 下陷 狀況 穩 定下 來   車子 若 無 受損 話   就 會 立即 拖吊 離開 現場   找 專業 人員 評估 地層 掏空 狀況   並 等待 自來 水 公司 採樣 處理  </t>
+          <t xml:space="preserve">即時 中心 ／ 綜合 報導   新北市 新店 區 安泰 路今   3 日   上午 8 時 21 分傳 有 7 棟 房屋 嚴重 下陷   多輛 汽車 傾斜   目前 已 疏散 12 人   區長 與 里 長 正在 現場 了解 情況         安泰 路由 於 路基 受損 變形   多輛 汽車 傾斜 相當 危急   目前 區長 與 里 長 正在 現場 了解 情況   指出 必須 先 把 房屋 下陷 狀況 穩 定下 來   車子 若 無 受損 的 話   就 會 立即 拖吊 離開 現場   找 專業 人員 評估 地層 掏空 狀況   並 等待 自來 水 公司 採樣 處理  </t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">水利局 表示   今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 寶貴 時間   請 於 預定 複 查 日期 前 清除 水井 周圍 草叢   以 加速 複 查作業 進行  </t>
+          <t xml:space="preserve">水利局 表示   今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 寶貴 時間   請 於 預定 複 查 日期 前 清除 水井 周圍 草叢   以 加速 複 查作業 進行  </t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性</t>
+          <t>花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 的 原因   包含 地震 本身 震動 的 方向   建築物 結構 及 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   在 地震 發生 的 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 的 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 的 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 在 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   在 結構 上僅 靠 少數 樑 柱 支撐   因此 有 可能 會 在 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 有 土壤 液化 的 問題   有些 建築物 若 座落在 比 較 鬆 軟 的 沉 積 層 上   如河邊 在 長 久 沖 積下   有 部分 地底 縫隙 會 被 沙石 填滿   但 在 地震 後 卻 又 鬆 動   或是 局部 液化 的 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 也 有 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 有 騎 樓式 設計 的 房屋   在 大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 在 已 經有 許多 耐震 的 建築 技術   或許 政府 部門 在 未來 考量 建築 補強 上 可以 採用   增加 老建築 的 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因   「 只是 剛開始 」   ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了 嗎   地科 教授 分析 餘震 分布   有 花蓮 特性</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">今   3   日 強震 震撼 全 台   各地 災情 不斷   新北市 新店 區 安泰 路 一處 民宅 更 發生 地基 下陷 慘況   此外 台北市 方面 先前 則傳出 3 傷   2 名 工人 因 乙炔 鋼瓶 傾倒 爆破 導致燒 燙傷   還有 一人 手臂 撕裂 傷   綜合 媒體 報導   新北市 新店 區 安泰 路 60 巷 90 弄 頂 好 社區 民宅 今 地震 後 傳出 災情   從 現場 照片 來 看   不僅 民房 地基 下陷   花盆 傾倒   原先 停 路邊 車輛 更是 直接 下沉   場面 驚 悚   目前 粗估 坍塌 面積 約 1   000 平方公尺   所幸 住戶 12 人 已 全數 撤離   另外   稍早 台北 市長 蔣萬安 表示   北市 接獲 3 人 受傷 消息   其中 2 名 男性 工人 地震 期間 因 乙炔 鋼瓶 傾倒 爆破 導致 身上 68 ％ 燒燙傷   目前 已 被 送往 台大 醫院 治療   還有 一名 大同 區的民眾 地震 時因 玻璃 破裂 導致 左手 撕裂 傷   已 送往 馬 偕 醫院 治療   北市 教育局 則 透露 2 名學生 疏散 時腳踝 扭傷 與 遭 玻璃 輕微 割傷   截至 先前   北市 共接 獲 588 災情 案件   大多 為 停電   漏水   瓦斯 管線 破損   此外 還有 建築物 外牆 毀損   招牌 掉落 等   受困 電梯 人員 已 被 救出   後 續 北市 府 將落 實外 牆   招牌 懸掛 物防護 以及 高架   橋 樑 巡檢  </t>
+          <t xml:space="preserve">今   3   日 強震 震撼 全 台   各地 災情 不斷   新北市 新店 區 安泰 路 一處 民宅 更 發生 地基 下陷 慘況   此外 台北市 方面 先前 則傳出 3 傷   有 2 名 工人 因 乙炔 鋼瓶 傾倒 爆破 導致燒 燙傷   還有 一人 手臂 撕裂 傷   綜合 媒體 報導   新北市 新店 區 安泰 路 60 巷 90 弄 頂 好 社區 的 民宅 今 在 地震 後 傳出 災情   從 現場 照片 來 看   不僅 民房 地基 下陷   花盆 傾倒   原先 停 在 路邊 的 車輛 更是 直接 下沉   場面 驚 悚   目前 粗估 坍塌 面積 約 1   000 平方公尺   所幸 住戶 12 人 已 全數 撤離   另外   稍早 台北 市長 蔣萬安 也 表示   北市 接獲 3 人 受傷 消息   其中 有 2 名 男性 工人 在 地震 期間 因 乙炔 鋼瓶 傾倒 爆破 導致 身上 68 ％ 燒燙傷   目前 已 被 送往 台大 醫院 治療   還有 一名 大同 區的民眾 在 地震 時因 玻璃 破裂 導致 左手 撕裂 傷   已 送往 馬 偕 醫院 治療   北市 教育局 則 透露 有 2 名學生 疏散 時腳踝 扭傷 與 遭 玻璃 輕微 割傷   截至 先前   北市 共接 獲 588 災情 案件   大多 為 停電   漏水   瓦斯 管線 破損   此外 還有 建築物 外牆 毀損   招牌 掉落 等   也 有 受困 電梯 人員 已 被 救出   後 續 北市 府 將落 實外 牆   招牌 懸掛 物防護 以及 高架   橋 樑 巡檢  </t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 王涵 平 ／ 新營 報導 〕 南市 已 受理 超過 二五 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未 申報   為 避免 地下水 過度 使用 造成 地層下陷   四月 起 受理 申報 同時 辦理 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     水利局 表示   今年 四月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量     申報 時間 即日起 至 八月 二日 止   可 就近 就近 至 各區 公所 或 至 市府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 水利局 網站   水井 納管 申報   Web 平台 申報   可以 手機 下載   水井 納管 申報 查詢   APP 申報  </t>
+          <t xml:space="preserve">〔 記者 王涵 平 ／ 新營 報導 〕 南市 已 受理 超過 二五 ○ ○ ○ 件 既有 未登記 水井 納管 申報 案件   但 仍 有 部分 民眾 未 申報   為 避免 地下水 過度 使用 造成 地層下陷   四月 起 受理 申報 同時 辦理 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     水利局 表示   今年 四月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量     申報 時間 即日起 至 八月 二日 止   可 就近 就近 至 各區 公所 或 至 市府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 水利局 網站 「 水井 納管 申報 」 Web 平台 申報   也 可以 手機 下載 「 水井 納管 申報 及 查詢 」 APP 申報  </t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  </t>
+          <t xml:space="preserve">▲ 南市 水井 納管 申報 及 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 及 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 有 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 的 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 有 部分 民眾 未及 申報   為 保障 水井 用戶 權益 及 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 的 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 也 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 「 臺 南 市政府 水利局 」 網站 「 水井 納管 申報 」 Web 平台 申報   也 可手 機下載 「 水井 納管 申報 及 查詢 」 APP 申報   市府 也 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  </t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 盧賢秀 ／ 基隆 報導 〕 基隆 中正路 425 號至 447 號間   去年 發現 水溝 下陷 破洞 情形   市府 進場 改善   但 花蓮 地震 後   發現 騎樓 有裂 縫   地基 可能 掏空   房屋 疑似 傾斜   市議員 許睿慈 與 市府 相關 單位 勘查   要求 儘 速 鑑 定 地基 與 房屋 結構   讓 居民 可以 住 得 安心 且 安全     市府 表示   經技師 鑑定 房屋 結構 目前 安全   工務處 將加強 下水道 巡檢補強     市議員 許睿慈 指出   居民 去年 陳 情   舊漁會 大樓 附近 中正路 425 號前 道 路旁 水溝   發生 下陷   破洞 情形   經 會勘 後 工務處 已 進場 施作   但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況   令 附近 住戶 人心惶惶     許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會勘   許睿慈 表示   花蓮 地震 後   427 號至 447 號沿線 都 發生 了 地層 陷落   其中 4 戶 騎樓 有裂 縫   居民 地下室 出現 滲水 現象   擔憂 地質 結構 是否 安全   要求 市府 儘 速 完成 房屋 與 地質 安全 檢測     市府 工務處 表示   該 民宅 鄰近 海岸   可能 因 地震 造成 地下室 牆面 裂痕 滲加   工務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡檢   確認 中正路 425 號至 447 號沿線 是否 地基 掏空 問題     都 發處 表示   請 土木 技師 公會 技師 前往 勘查   初步 認為 沒有 傾斜 狀況   騎樓 裂 縫區 公所 近期 就 會 整修  </t>
+          <t xml:space="preserve">〔 記者 盧賢秀 ／ 基隆 報導 〕 基隆 中正路 425 號至 447 號間   去年 發現 水溝 有 下陷 破洞 情形   市府 進場 改善   但 花蓮 地震 後   發現 騎樓 有裂 縫   地基 可能 掏空   房屋 也 疑似 傾斜   市議員 許睿慈 與 市府 相關 單位 勘查   要求 儘 速 鑑 定 地基 與 房屋 結構   讓 居民 可以 住 得 安心 且 安全     市府 表示   經技師 鑑定 房屋 結構 目前 安全 的   工務處 將加強 下水道 巡檢補強     市議員 許睿慈 指出   居民 去年 陳 情   舊漁會 大樓 附近 的 中正路 425 號前 道 路旁 水溝   有 發生 下陷   破洞 的 情形   經 會勘 後 工務處 已 進場 施作   但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況   令 附近 住戶 人心惶惶     許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會勘   許睿慈 表示   花蓮 地震 後   427 號至 447 號沿線 都 發生 了 地層 陷落   其中 4 戶 騎樓 有裂 縫   居民 地下室 也 出現 滲水 現象   擔憂 地質 結構 是否 安全   要求 市府 儘 速 完成 房屋 與 地質 安全 檢測     市府 工務處 表示   該 民宅 鄰近 海岸   可能 因 地震 造成 地下室 牆面 裂痕 滲加   工務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡檢   確認 中正路 425 號至 447 號沿線 是否 有 地基 掏空 的 問題     都 發處 表示   有 請 土木 技師 公會 的 技師 前往 勘查   初步 認為 沒有 傾斜 狀況   騎樓 裂 縫區 公所 近期 就 會 整修  </t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">彰化縣 大城 鄉現 有納 骨塔 接近 飽   鄉 公所 規畫 第六 公墓 新建 第二 納 骨塔   頂庄 村民 群起 反對   已有 140 人連署 陳 情   村民 抱怨 縣府 裁撤 頂庄國 小   鄉 公所 村 內蓋 第二座 納 骨塔     吃 虧 都 是 我們     讓 頂 庄村 發展 雪上加霜   要求 重新 研議 興建 地點   鄉長 陳 玉照 說   納 骨塔 近 飽   將持續 溝通       大城 鄉有 8 座 公墓   頂庄村 山腳 村設 有納 骨塔   山腳村 已 飽   頂庄村 只 剩 不到 700 個 空位   鄉 公所 認為   興 建新 塔有 迫切性   日前 向 頂庄 村民 說明 新建 計畫   村民 痛批   一村 二塔   違反公 平原 則   當場 反對                             許姓 村民 表示   縣府 認為 頂 庄村 出生率 低   已 是 大城 鄉 人口 倒數 第 2   前年 裁撤 頂庄國 小   可見 頂 庄村 沒 新建 納 骨塔 需求   周邊 地層下陷 易 淹水   無論 地理 風水   都 不 適合 安放 往生 親人   新建 第二 納 骨塔 離 村落 僅 200 公尺   違反 縣府 規定 500 公尺 審查 原則   嚴 重影 響 村民 身心健康       鄉長 陳 玉照 指出   頂庄 第一 納 骨塔 建在 高灘 地   第二 納 骨塔 一樣   不開 挖 地下室   還 建造 7 層台 階 升高 塔座   沒 淹水 疑慮   第二 納 骨塔 距離 村落 人口稠密 區約 500 公尺   像 他家 距離 墓地 很近   不會 問題       頂庄 村長 許仁寶說   如非建 不可   應 提出 有力 說明   並訂定 回饋 辦法  </t>
+          <t xml:space="preserve">彰化縣 大城 鄉現 有納 骨塔 接近 飽 和   鄉 公所 規畫 在 第六 公墓 新建 第二 納 骨塔   頂庄 村民 群起 反對   已有 140 人連署 陳 情   村民 抱怨 縣府 裁撤 頂庄國 小   鄉 公所 在 村 內蓋 第二座 納 骨塔   「 吃 虧 都 是 我們 」   讓 頂 庄村 發展 雪上加霜   要求 重新 研議 興建 地點   鄉長 陳 玉照 說   納 骨塔 近 飽 和   將持續 溝通       大城 鄉有 8 座 公墓   頂庄村 和 山腳 村設 有納 骨塔   山腳村 的 已 飽 和   頂庄村 的 只 剩 不到 700 個 空位   鄉 公所 認為   興 建新 塔有 迫切性   日前 向 頂庄 村民 說明 新建 計畫   村民 痛批 「 一村 二塔 」 違反公 平原 則   當場 反對                             許姓 村民 表示   縣府 認為 頂 庄村 出生率 低   已 是 大城 鄉 人口 倒數 第 2   前年 裁撤 頂庄國 小   可見 頂 庄村 沒 新建 納 骨塔 的 需求   周邊 地層下陷 易 淹水   無論 地理 和 風水   都 不 適合 安放 往生 親人   新建 第二 納 骨塔 離 村落 僅 200 公尺   違反 縣府 規定 500 公尺 的 審查 原則   嚴 重影 響 村民 的 身心健康       鄉長 陳 玉照 指出   頂庄 第一 納 骨塔 建在 高灘 地   第二 納 骨塔 也 一樣   不開 挖 地下室   還 建造 7 層台 階 升高 塔座   沒 淹水 疑慮   第二 納 骨塔 距離 村落 人口稠密 區約 500 公尺   像 他家 距離 墓地 很近   不會 有 問題       頂庄 村長 許仁寶說   如非建 不可   應 提出 有力 的 說明   並訂定 回饋 辦法  </t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 地梁 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  </t>
+          <t xml:space="preserve">台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   在 大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 的 地梁 也 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 的 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 的 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  </t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 王捷 ／ 台南 報導 〕 台南市 北區 北華街 一處 工地 傳出 下陷   導致 工地 旁 住戶 外牆   地板 出現 龜裂   警方 今晚 六點 多 接獲 報案   並通報 相關 單位   由 於 台南 前陣子 工地 塌陷 意外   加上 這個 月 花蓮 強震 帶來 災害   警方 呼籲 目前 正在 交通管制   請民眾 不要 靠近     初步 調查 發現   該 工地 建設 公司 近期 開 挖 地下室 過程 中   地下水 湧出   北區 公所 與 工務局 北華里 活動 中心 成立 臨時 指揮 所   由 相關 人員 到場 會勘   認為 可能 是 地下水 湧出   地基 不 穩定   造成 附近 住家 出現 牆壁   地板 龜裂 主因     工務局 人員 除了 要求 建設 公司 立即 停止 工程施工   並要 建設 公司 調派 水泥 車   先將 湧出 地下水 源以 水泥 灌漿 封閉   防止 狀況 持續 惡化   目前 仍 進行 緊急 灌漿 作業 中     建設 公司 表示   一定 會 遵照 工務局 指示   並對 鄰近 住戶 損失 給予 妥善 賠償 與 補償   絕不會 卸責 推諉   工務局 將持續 監控 現場 狀況   待 地下水 源 控制 後   再視 實際 損害 情形     警方 為 了 維護 交通秩序   派員 到場 管制 交通   直到 灌漿 結束   並 希望 民眾 不要 擔心   如果 發生 類似 事件   施工 單位 應當 立即 停工   並 通知 主管 機關   否則將 嚴加 開罰 要求 賠償   受災戶 如有 任何 疑問   可多加 利用 1999 話務 專線 諮 詢  </t>
+          <t xml:space="preserve">〔 記者 王捷 ／ 台南 報導 〕 台南市 北區 北華街 的 一處 工地 傳出 下陷   導致 工地 旁 的 住戶 外牆   地板 出現 龜裂   警方 在 今晚 六點 多 接獲 報案   並通報 相關 單位   由 於 台南 前陣子 也 有 工地 塌陷 意外   加上 這個 月 花蓮 強震 帶來 的 災害   警方 呼籲 目前 正在 交通管制   請民眾 不要 靠近     初步 調查 發現   該 工地 的 建設 公司 近期 在 開 挖 地下室 的 過程 中   地下水 湧出   北區 公所 與 工務局 在 北華里 活動 中心 成立 臨時 指揮 所   由 相關 人員 到場 會勘   認為 可能 是 地下水 湧出   地基 不 穩定   造成 附近 的 住家 出現 牆壁   地板 龜裂 的 主因     工務局 人員 除了 要求 建設 公司 立即 停止 工程施工   並要 建設 公司 調派 水泥 車   先將 湧出 的 地下水 源以 水泥 灌漿 封閉   防止 狀況 持續 惡化   目前 仍 在 進行 緊急 的 灌漿 作業 中     建設 公司 表示   一定 會 遵照 工務局 指示   並對 鄰近 住戶 的 損失 給予 妥善 的 賠償 與 補償   絕不會 卸責 推諉   工務局 也 將持續 監控 現場 狀況   待 地下水 源 控制 後   再視 實際 損害 情形     警方 為 了 維護 交通秩序   派員 到場 管制 交通   直到 灌漿 結束   並 希望 民眾 不要 擔心   如果 發生 類似 事件   施工 單位 應當 立即 停工   並 通知 主管 機關   否則將 嚴加 開罰 及 要求 賠償   受災戶 如有 任何 疑問   也 可多加 利用 1999 話務 專線 諮 詢  </t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片</t>
+          <t>水利 署 在 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 生 態 環 境   土方 培厚則 為 河道 治理   經監 測確 有 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 的 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開 記者會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 的 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 的 生態   環境 調查   施工期 間 的 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 也 發現 仍 有 石虎 出 沒 活動   甚至 有 定居 個體   巴氏 銀 鮈 棲地 也 沒 有 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 的 生態 工法 理念 相近   也 有 專業 技師 分析   經比 對 去年 培厚前   後 的 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 在 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  </t>
+          <t xml:space="preserve">水利 署 在 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 生 態 環 境   土方 培厚 為 河道 治理   經監測 有 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 的 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 的 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 的 生態   環境 調查   施工期 間 的 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  </t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>中國 過度 抽取 地下水   導致 近 40% 主要 城市 土地 下陷     路透     陳 麗珠 ／ 核稿 編輯   〔 財經 頻道 ／ 綜合 報導 〕 中國 近一半 主要 城市 正 遭受   中度 至 重度   不 等 程度 沉降   海平面 上升 情況 下   恐有 數百萬人將 面臨 洪水 風險     路透   指出   中國 都市人口 約 9 億人   當中 約 2.7 億人 生活 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     中國 82 個 城市 中   約 45% 每年 下沉 超過 3 公 釐   16% 土地 平均 每年 下沉 更是 超過 10 公 釐   約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     據 了解   而 造成 中國 土地 逐年 下沉   最 主要 是 地下水位 下降 所致     路透 表示     土地 下陷   對 中國 每年 造成 超過 75 億元 人民 幣   約 新 台幣 337 億元   損失   研究 人員 預計   下個 世紀   中國將 約 近 四分之一 沿海 土地   恐低 於 海平面   數億人將 面臨 大 洪水 風險     最 嚴重 受災 城市 是 北方 天津   這 城市 約 1500 萬 人口   2023 年 一場   突發 地質 災害     導致 3000 名 居民 被 疏散   調查 人員將 這場 災害 歸咎 於   水資源 枯竭 地 熱井 建設       一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
+          <t>中國 過度 抽取 地下水   導致 近 40% 主要 城市 的 土地 下陷     路透     陳 麗珠 ／ 核稿 編輯   〔 財經 頻道 ／ 綜合 報導 〕 中國 有 近一半 的 主要 城市 正 遭受 「 中度 至 重度 」 不 等 程度 的 沉降   在 海平面 上升 的 情況 下   恐有 數百萬人將 面臨 洪水 風險     路透   指出   中國 都市人口 約 9 億人   當中 約 有 2.7 億人 生活 在 每年 下陷 逾 3 公 釐 的 地區   相當 於 都市人口 的 29%     在 中國 82 個 城市 中   約 有 45% 每年 下沉 超過 3 公 釐   16% 土地 平均 每年 下沉 更是 超過 10 公 釐   約 有 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   也 可能 造成 重大 威脅     據 了解   而 造成 中國 土地 逐年 下沉   最 主要 是 地下水位 下降 所致     路透 表示   「 土地 下陷 」 對 中國 每年 造成 超過 75 億元 人民 幣   約 新 台幣 337 億元   的 損失   研究 人員 預計   在 下個 世紀 內   中國將 有 約 近 四分之一 的 沿海 土地   恐低 於 海平面   數億人將 面臨 大 洪水 風險     最 嚴重 的 受災 城市 是 北方 的 天津   這 城市 約 有 1500 萬 人口   2023 年 一場 「 突發 地質 災害 」   導致 3000 名 居民 被 疏散   調查 人員將 這場 災害 歸咎 於   水資源 枯竭 和 地 熱井 的 建設       一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  </t>
+          <t xml:space="preserve">最新 一份 根據 衛星 雷達 觀測 的 研究 顯示   中國近 40% 主要 城市 的 土地 正發生 「 中度 至 重度 」 的 地層下陷   上 億 居民 面臨 洪水 的 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 / 19   發表 在 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 的 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 在 2015 至 2022 年 的 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 有 2.7 億 人口 生活 在 這些 每年 下陷 逾 3 公 釐 的 地區   相當 於 都市人口 的 29%     這 82 個 城市 中   更 有 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   也 可能 造成 重大 威脅     導致 中國 都市 地層下陷 的 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 的 重量 不斷 增加   在 時間 推移 下   沉積物 堆積   以及 不斷 增加 的 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 和 海平面 上升   最終 中國將 有 約 四分之一 的 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 的 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 的 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 的 堤防   「 即使 地層下陷 和 海平面 上升   這樣 龐大 的 沿海 堤防 也 能 在 很大 程度 上 降低 城市 被淹 沒 的 風險 」   就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 的 堤防     陶勝利稱   中國 政府 也 實施 嚴格 的 地下水 管制法 規   減緩 了 上海 周邊 的 地層下陷 速度     全球 多個 城市 都 在 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 的 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 有 海平面 上升 的 問題   大家 比較 關心 沿海 城市   「 但 大多 數 城市 下沉 的 速度   和 沿海 城市 其實 都 差不多   甚至 還更快 」     地層下陷 也 不僅 是 中國 才 有 的 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快 的   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 的 土地 有 下陷 風險   印尼 是 最 嚴重 的 國家 之一   首都 雅加 達 大部分 地區現 在 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 的 44 個 沿海 大城市 當中   有 30 個 在 亞洲  </t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">路透社 報導   根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示   中國將 近一半 主要 城市 正 遭受   中等 到 嚴重   程度 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 論文 作者 發現   中國 45% 都市 土地 正以 每年 超過 3 公 釐 速度 下陷   16% 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 原因 不僅 是 地下水位 下降   還有 建築 環境 龐大 重量     華南師 範大學 敖祖銳 領導 研究 團隊 表示   中國 都市人口 已經 超過 9 億   因此   即使 是 一小部分 土地 下陷   都 會 對 都市生活 構成 巨大 威脅       土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 下 一個 世紀   近 四分之一 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示     這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 問題   而 不僅僅 是 一 兩個 地方 問題     他 說     這也 是 世界 其他 地方 正在 發生 事情 縮影       人口 超過 1   500 萬 北部 城市 天津   被確 認為 受災 最 嚴重 城市 之一   去年 一場   突發性 地質 災害   導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 興建     中國 許多 老 煤 礦區 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 另 一份 研究 指出   全球 約 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 已 低 於 海平面     尼科 爾斯說   易受 影響 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 1970 年代 禁止 抽取 地下水     他 補充 說     減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 不 可能 阻止 所有 下陷   因此 要 討論 適應力 建造 海堤       根據 新加坡 2022 年 一項 研究   44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中   30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示     這是 一個 都市化 人口 增長 問題   人口密度 愈大   抽 水 就 愈 多   就 造成 更 多 下陷    </t>
+          <t>路透社 報導   根據 今天 ( 19 日 ) 發布 的 一份 全國衛星 資料 研究 顯示   中國將 近一半 的 主要 城市 正 遭受 「 中等 到 嚴重 」 程度 的 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 的 論文 作者 發現   中國 45% 的 都市 土地 正以 每年 超過 3 公 釐 的 速度 下陷   16% 的 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 的 原因 不僅 是 地下水位 下降   還有 建築 環境 的 龐大 重量     華南師 範大學 敖祖銳 領導 的 研究 團隊 表示   中國 的 都市人口 已經 超過 9 億   因此 「 即使 是 一小部分 的 土地 下陷   都 會 對 都市生活 構成 巨大 威脅 」     土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 在 下 一個 世紀   近 四分之一 的 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 的 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 的 尼科 爾斯 ( Robert   Nicholls ) 表示   「 這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 的 問題   而 不僅僅 是 一 兩個 地方 的 問題   」 他 說   「 這也 是 世界 其他 地方 正在 發生 的 事情 的 縮影   」   人口 超過 1   500 萬 的 北部 城市 天津   被確 認為 受災 最 嚴重 的 城市 之一   去年 一場 「 突發性 地質 災害 」 導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 的 興建     中國 許多 老 煤 礦區 也 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 的 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 的 另 一份 研究 指出   全球 約 有 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 的 國家 之一   首都 雅加 達 大部分 地區現 在 已 低 於 海平面     尼科 爾斯說   易受 影響 的 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 在 1970 年代 禁止 抽取 地下水     他 補充 說   「 減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 你 不 可能 阻止 所有 下陷   因此 要 討論 適應力 和 建造 海堤   」   根據 新加坡 2022 年 的 一項 研究   44 個 飽 受 這個 問題 困擾 的 主要 沿海 城市 中   有 30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示   「 這是 一個 都市化 和 人口 增長 的 問題   人口密度 愈大   抽 的 水 就 愈 多   也 就 造成 更 多 下陷   」</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  </t>
+          <t xml:space="preserve">中國 有將 近一半 的 主要 城市 正 面臨 「 中度 至 重度 」 地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 有 9 億   其中 約 有 2.7 億人 生活 在 每年 下陷 逾 3 公分 的 的 地區   相當 於 都市人口 的 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 有 約 四分之一 的 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 的 報告 在 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 的 地層下陷 情形   發現 約 有 45% 的 地區 每年 下沉 超過 3 公 釐   更 有 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 有 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 的 重量 不斷 增加   不斷 增加 的 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 和 海平面 上升   最終 中國會 有 約 四分之一 的 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 的 天津市 被 認為 是 「 最 嚴重 受災 城市 」   2023 年 6 月間   一場 「 突發 地質 災害 」 讓 3 幢 大樓 出現 裂痕   地下室 滲水   有 3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 的 鑽井 施工 觸動 深層 「 地質 空腔 」 所致     不僅 是 中國 有 此 問題   世界各地 皆 面臨 地層下陷 危機   在 今年 2 月 發表 的 另項 研究 指出   全球 約 630 萬 平方公里 的 土地 有 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   內容 提及 全世界 有著 嚴重 地層下陷 的 44 個 沿海 主要 城市 中   就 有 30 個位 於 亞洲  </t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">李欣潔 ／ 核稿 編輯   〔 即時 新聞 ／ 綜合 報導 〕 中國 各 大都市 面臨 地層下陷 環境 危機   北京 大學 城市 與 環境 學院 生態 研究 中心 研究 員 陶勝利 團隊   華南師 範大學 北斗 研究院 敖祖銳 團隊 等 人   共同 頂 尖 期刊   科學   發表論 文   指稱 2120 年 中國 沿海 城市 恐有 26 ％ 土地 會 低 於 海平面   北京 是 全中國 下沉 速度 最快 都市 之一     據   紐約 時報   報導   中國 16 ％ 大城市 每年 海拔高度 下降 超過 10 公 釐   近一半 城市 每年 海拔高度 下降 超過 3 公 釐   這些 數字 看 起來 不大   但 日積 月 累 之下 不能 忽視     這些 城市 地層下陷 一部分 是 由 於 建物 基礎 設施 重量 造成   超 抽 地下水   開採 石油 煤礦 是 原因 之一   上述 影響 到 環境 行為   可能 會 造成 土壤 岩石 擠 壓 坍塌     研究 人員 透過 雷達圖 像   測量 中國 82 個 主要 都市 2015 至 2022 年間 地表 升降 狀況   並和當 地 建物 重量   地下水位 進行 比 較   結果 發現 中國 沿海 城市 目前 約 6 ％ 土地 相對 海拔 低于 海平面   假如 2120 年 全球 平均 海平面 上升 0.87 公尺   則 可能 會 上升 到 26 ％     其中   北京 是 全中國 下陷 速度 最快 城市 之一   鄰近 天津 同樣 危機   天津 去年 數條 道路 突然 發 生地 裂狀況   導致 數千 居民 從 公寓 撤離   中國 都市 下陷 狀況 是 不均 勻   亦 即 不同 區域 以 不同 速度 下沉   使得 土地 上 建物 面臨 受損 風險     都市 土地 低 於 海平面 並不 代表 滅亡   荷蘭 大部分 地區 都 海平面 以下 並持續 下陷   但 荷蘭展 開 了 大量 蓄洪 工程 防止 洪災   中國 研究 人員 認為   降低 下陷 速度 關鍵 是 限制 地下水 抽取   上海 實施 地下水 管理 後 下沉 速度 比中國 其他 城市 更慢   日本 東京 大阪 多年 來 地下水 規劃 已 能夠 穩定 地表 沉降 狀況     不過   審查 該 篇 論文 英國東 英吉利 大學 氣候 科學家 土木工程 專家 尼科 爾斯   Robert   Nicholls   透露   地層下陷 是 中國 全國性 問題   很難 完全 阻止   中國 沿海 地區 必須 適應 海平面 上升   地表 下沉 狀況     同樣 參與 審查 論文 美國維吉尼亞 理工大 學 地球物理 學家 希爾扎 伊   Manoochehr   Shirzaei     曾 以類 似的 方法 研究 了 美國 沿海 都市 下沉   他 直指 地層下陷 幾乎 任何 地方 都 存在   卻 一直 遭到 忽視     希爾扎 伊說   目前 大多 數應 對 氣候 變化   指 海平面 上升   策略 都 是 不 準確   因為 這些 都 沒 考慮 到 地層下陷 狀況   這個 課題 從 未 像 海平面 上升 一樣 得到 廣泛 研究  </t>
+          <t xml:space="preserve">李欣潔 ／ 核稿 編輯   〔 即時 新聞 ／ 綜合 報導 〕 中國 各 大都市 面臨 地層下陷 的 環境 危機   北京 大學 城市 與 環境 學院 生態 研究 中心 研究 員 陶勝利 團隊   華南師 範大學 北斗 研究院 敖祖銳 團隊 等 人   共同 在 頂 尖 期刊   科學   發表論 文   指稱 2120 年 中國 沿海 城市 恐有 26 ％ 土地 會 低 於 海平面   北京 是 全中國 下沉 速度 最快 的 都市 之一     據   紐約 時報   報導   中國 16 ％ 的 大城市 每年 海拔高度 下降 超過 10 公 釐   近一半 城市 每年 海拔高度 下降 超過 3 公 釐   這些 數字 看 起來 不大   但 日積 月 累 之下 不能 忽視     這些 城市 的 地層下陷 有 一部分 是 由 於 建物 和 基礎 設施 的 重量 造成 的   超 抽 地下水   開採 石油 和 煤礦 也 是 原因 之一   上述 影響 到 環境 的 行為   可能 會 造成 土壤 和 岩石 的 擠 壓 和 坍塌     研究 人員 透過 雷達圖 像   測量 中國 82 個 主要 都市 2015 至 2022 年間 地表 升降 狀況   並和當 地 建物 重量   地下水位 進行 比 較   結果 發現 中國 沿海 城市 目前 約 有 6 ％ 土地 相對 海拔 低于 海平面   假如 2120 年 全球 平均 海平面 上升 0.87 公尺   則 可能 會 上升 到 26 ％     其中   北京 是 全中國 下陷 速度 最快 的 城市 之一   鄰近 的 天津 也 有 同樣 危機   天津 去年 數條 道路 突然 發 生地 裂狀況   導致 數千 居民 從 公寓 撤離   中國 都市 下陷 狀況 是 不均 勻 的   亦 即 不同 區域 以 不同 的 速度 下沉   使得 土地 上 的 建物 面臨 受損 風險     都市 土地 低 於 海平面 並不 代表 滅亡   荷蘭 大部分 地區 都 在 海平面 以下 並持續 下陷   但 荷蘭展 開 了 大量 的 蓄洪 工程 防止 洪災   中國 研究 人員 認為   降低 下陷 速度 的 關鍵 是 限制 地下水 抽取   上海 實施 地下水 管理 後 下沉 速度 比中國 其他 城市 更慢   日本 東京 和 大阪 多年 來 的 地下水 規劃 已 能夠 穩定 地表 沉降 狀況     不過   審查 該 篇 論文 的 英國東 英吉利 大學 氣候 科學家 和 土木工程 專家 尼科 爾斯   Robert   Nicholls   透露   地層下陷 是 中國 全國性 的 問題   很難 完全 阻止   中國 沿海 地區 必須 適應 海平面 上升   地表 下沉 的 狀況     同樣 參與 審查 論文 的 美國維吉尼亞 理工大 學 地球物理 學家 希爾扎 伊   Manoochehr   Shirzaei     曾 以類 似的 方法 研究 了 美國 沿海 都市 的 下沉   他 直指 地層下陷 幾乎 在 任何 地方 都 存在   卻 一直 遭到 忽視     希爾扎 伊說   目前 大多 數應 對 氣候 變化   指 海平面 上升   的 策略 都 是 不 準確 的   因為 這些 都 沒 有 考慮 到 地層下陷 狀況   這個 課題 從 未 像 海平面 上升 一樣 得到 廣泛 研究  </t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 顏宏駿 ／ 彰化 報導 〕 彰化縣 沒有 水庫   多年 以來 不 缺水   民生 用水   原因 係 倚賴 全縣 200 多口 地下水 井   但 已 造成 地層下陷 問題   惟鳥 嘴潭 人工湖 淨水廠 完工 後 將可 改變 現今 抽 地下水 窘境   目前 台一線 南 彰化 段 正 進行 大型 管路 埋設 工程   2026 年 完工 後   這條 管路 成為 彰化縣 給水大動脈   透過 管路 連結   達到 鳥 嘴潭 人工湖   湖山 水庫   鯉魚 潭 水庫 水源 靈活 調度 目的     台水 公司 指出   目前 鳥 嘴潭淨 水廠 工程 進行 中   埋管 工程 多線 展開   直徑 1.2 公尺 幹管 埋設 工程   為 避免 影響 交通   採 分段 施工   預計 2026 年 全部 完工   最後可達 到 北水南 送   南 水北 送   靈活 供水 目標     台水 公司 表示   目前 彰化縣 每日 用水量 約 為 40 萬公噸   地面水 部分   彰化市 與 美   花壇 部分 地區 每日 用水量 約 為 8 萬公噸   主要 靠 台中 支援   鯉魚 潭 水庫     南 彰化 北斗   二林 與 溪湖 一帶   則由 雲林   湖山 水庫   每日 支援 約 5 萬公噸   烏嘴潭淨 水廠 完工 送水 後   彰化縣 每年 可減 抽 6100 萬噸 地下水   解決 農民 枯水期 經常 抽 不到 地下水 窘境     台水 公司 說   未來 鳥 嘴潭淨 水廠 每天 可供 應 彰化 地區 21 萬噸 水量   加上 現有 每日 來 自 雲林 湖山 水庫 5 萬公噸   而 透過 台 一線 埋設 幹管   南   北 水路 相通   增加 水資源 調度 彈性   上游 採 一般 水庫 採高 水位 操作   依循   蓄豐濟 枯   邏輯   趁 豐水期 盡量 蓄滿   枯水期 才 水 可用   包含 中水 局轄區 鯉 魚潭   湖山 水庫   目前 處 於 枯水期 階段   卻 仍 持續 滿水 溢流   未來 能 應付 極端 氣候 或 突發 供水 危機     台水 公司 第十一 處長 曾 盛一說   水資源 運用 已 不 像 過去   單一 水庫 供水 區 固定   水利 署力 拚 打造 西部 廊道 供水管 網   強化 區域 調度 同時   鳥 嘴潭 雖 不是 直接 參與 管網   但 透過 減少 中部 水庫 支援 彰化 水量     其實 達 到 調度 功能    </t>
+          <t xml:space="preserve">[ 周刊 王 CTWANT ]   根據 美國 科學促 進會   AAAS   出版 的 期刊   科學     Science   於 18 日 發表 的 論文 顯示   中國 近一半 主要 城市 面臨 「 中度 至 重度 」 的 地層下陷 問題   45% 的 城市 每年 下陷 超過 3 毫米   16% 的 城市 每年 快速 下陷 逾 10 毫米   並 造成 每年 75 億元 人民 幣   約合 新 台幣 337 億元   的 經濟 損失   預計 未來 1 世紀 內   中國 沿海 城市 可能 有 1 / 10 的 居民 將 生活 在 海平面 以下     下陷 主因 則 包括 地下水位 下降   以及 建築 環境 對 地下 土壤 帶來 的 沉重 壓力 等   尤其 都市化 進程 更是 加速 了 地下水 資源 過度 開採   以及 大量 建築物 的 重壓   受影響 的 城市 包括 北京   天津   合肥 和 西安 等   由 於 中國 城市 人口 已 超過 9 億人   因此 「 即使 只有 一小部分 的 土地 下陷   都 有 可能 對 城市 生活 構成 重大 威脅 」   涉及 居民 安全   基礎 建設   交通 運作 及 生態 環境 等 多個 層面     研究 估算   地層下陷 已使 中國年 經濟 損失 超過 75 億元 人民 幣   凸顯 了 問題 的 嚴峻 與 急迫   例如 擁有 1500 萬 人口 的 天津   近幾年 都 是 水患 受災 嚴重 的 地區 之一   未來   隨著 全球 暖化 造成 的 海平面 上升   以及 地層下陷 持續   預計 下個 世紀   中國將 有 近 1 / 4 的 沿海 土地 低 於 海平面   洪水 風險 劇增     除 沿海 城市   中國舊 煤區 亦 因 過度 開 採出 現類 似狀況   地下 礦產開 採導致 土地 結構 變化   引發 地層下陷   地方 政府 常採 取向 礦井 注漿 加固 等 臨時 措施   但 無法 從 根源 解決 問題     英國東 英吉利 大學   University   of   East   Anglia   氣候變遷 研究 中心 主任 尼可斯 指出   地層下陷 不僅 是 中國 的 全國性 問題   也 是 全球 的 重大 危機   今年 2 月 的 研究 顯示   全世界 約 有 630 萬 平方公里 的 土地 有 下陷 風險   尤其 印尼 更是如此   其 首都 雅加 達   Jakarta   大部分 區域 目前 已低 於 海平面   加劇 洪水 風險 並嚴 重威脅 居民 生活 與 生態 環境  </t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   根據 美國 科學促 進會   AAAS   出版 期刊   科學     Science   於 18 日 發表 論文 顯示   中國 近一半 主要 城市 面臨   中度 至 重度   地層下陷 問題   45% 城市 每年 下陷 超過 3 毫米   16% 城市 每年 快速 下陷 逾 10 毫米   並 造成 每年 75 億元 人民 幣   約合 新 台幣 337 億元   經濟 損失   預計 未來 1 世紀   中國 沿海 城市 可能 1 10 居民 將 生活 海平面 以下     下陷 主因 則 包括 地下水位 下降   以及 建築 環境 對 地下 土壤 帶來 沉重 壓力 等   尤其 都市化 進程 更是 加速 了 地下水 資源 過度 開採   以及 大量 建築物 重壓   受影響 城市 包括 北京   天津   合肥 西安 等   由 於 中國 城市 人口 已 超過 9 億人   因此   即使 只有 一小部分 土地 下陷   都 可能 對 城市 生活 構成 重大 威脅     涉及 居民 安全   基礎 建設   交通 運作 生態 環境 等 多個 層面     研究 估算   地層下陷 已使 中國年 經濟 損失 超過 75 億元 人民 幣   凸顯 了 問題 嚴峻 與 急迫   例如 擁有 1500 萬 人口 天津   近幾年 都 是 水患 受災 嚴重 地區 之一   未來   隨著 全球 暖化 造成 海平面 上升   以及 地層下陷 持續   預計 下個 世紀   中國將 近 1 4 沿海 土地 低 於 海平面   洪水 風險 劇增     除 沿海 城市   中國舊 煤區 亦 因 過度 開 採出 現類 似狀況   地下 礦產開 採導致 土地 結構 變化   引發 地層下陷   地方 政府 常採 取向 礦井 注漿 加固 等 臨時 措施   但 無法 從 根源 解決 問題     英國東 英吉利 大學   University   of   East   Anglia   氣候變遷 研究 中心 主任 尼可斯 指出   地層下陷 不僅 是 中國 全國性 問題   是 全球 重大 危機   今年 2 月 研究 顯示   全世界 約 630 萬 平方公里 土地 下陷 風險   尤其 印尼 更是如此   其 首都 雅加 達   Jakarta   大部分 區域 目前 已低 於 海平面   加劇 洪水 風險 並嚴 重威脅 居民 生活 與 生態 環境  </t>
+          <t xml:space="preserve">〔 記者 顏宏駿 ／ 彰化 報導 〕 彰化縣 沒有 水庫   多年 以來 不 缺水   民生 用水   的 原因 係 倚賴 全縣 200 多口 地下水 井   但 已 造成 地層下陷 問題   惟鳥 嘴潭 人工湖 淨水廠 完工 後 將可 改變 現今 抽 地下水 的 窘境   目前 台一線 南 彰化 段 正 進行 大型 管路 埋設 工程   2026 年 完工 後   這條 管路 成為 彰化縣 的 給水大動脈   透過 管路 連結   達到 鳥 嘴潭 人工湖   湖山 水庫   鯉魚 潭 水庫 的 水源 靈活 調度 的 目的     台水 公司 指出   目前 鳥 嘴潭淨 水廠 工程 進行 中   埋管 工程 多線 展開   直徑 1.2 公尺 的 幹管 埋設 工程   為 避免 影響 交通   採 分段 施工   預計 2026 年 全部 完工   最後可達 到 北水南 送   南 水北 送   靈活 供水 目標     台水 公司 表示   目前 彰化縣 每日 用水量 約 為 40 萬公噸   地面水 部分   彰化市 與 和 美   花壇 部分 地區 每日 用水量 約 為 8 萬公噸   主要 靠 台中 支援   鯉魚 潭 水庫     南 彰化 的 北斗   二林 與 溪湖 一帶   則由 雲林   湖山 水庫   每日 支援 約 5 萬公噸   烏嘴潭淨 水廠 完工 送水 後   彰化縣 每年 可減 抽 6100 萬噸 的 地下水   解決 農民 枯水期 經常 抽 不到 地下水 窘境     台水 公司 說   未來 鳥 嘴潭淨 水廠 每天 可供 應 彰化 地區 21 萬噸 的 水量   加上 現有 每日 來 自 雲林 湖山 水庫 5 萬公噸   而 透過 台 一線 埋設 的 幹管   南   北 水路 相通   增加 水資源 調度 彈性   在 上游 採 一般 水庫 採高 水位 操作   依循 「 蓄豐濟 枯 」 邏輯   趁 豐水期 盡量 蓄滿   枯水期 才 有 水 可用   包含 中水 局轄區 內 鯉 魚潭   湖山 水庫   目前 處 於 枯水期 階段   卻 仍 持續 滿水 溢流   未來 也 能 應付 極端 氣候 或 突發 供水 危機     台水 公司 第十一 處長 曾 盛一說   水資源 運用 已 不 像 過去   單一 水庫 供水 區 固定   在 水利 署力 拚 打造 西部 廊道 供水管 網   強化 區域 調度 的 同時   鳥 嘴潭 雖 不是 直接 參與 管網   但 透過 減少 中部 水庫 支援 彰化 水量   「 其實 也 有 達 到 調度 功能 」  </t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   屏東縣 東港   林邊   佳冬   枋寮 等 4 鄉鎮   因 沿海 土地 嚴重 地層下陷   多數 土地 鹽化 又 易 淹水 不利 耕作   不利 耕作   造成 農業 欠收 或 土地 荒廢   力 暘 公司 優先 選擇 佳冬 鄉進 駐 種電   協助 地方 政府 推動 嚴重 地層下陷區 域 太陽光 電發 電業 政策   宣示 要 把 屏東 打造 為 綠能 王國     力 暘 以光 電技術 專業 著稱   整合 旗下 4 公司 建置 99MW   百萬瓦   太陽能 光電場   以 佳冬 鄉作 為 領先 模範 案例   從 2020 年 起   預計 3 年 累計 建置 完成 300MW 太陽能 光電場   將 打造 屏東縣 為 全台 第一 綠能 王國     時任 屏東縣 長 潘孟安 2020 年 6 月 出席 配合 廠商力 暘 太陽能 光電場 動土 典禮   盛 讚 力 暘 能 夠 以 民 間 企 業 力量   鍥而 不 捨 與 地主 溝通   取得 超過 1000 名 地主 認同   用心 令人 敬佩     雖然 得到 地方 政府 肯定   黃 志文 卻 坦言   挑戰 很大       因為 發展 太陽能 最大 挑戰   就是 取得 地主 信任   所以 力 暘 能源 積極 與 地主 溝通   以 每甲 土地 年租金 40 萬 承租   簽約 20 年   為 農民 地主 增加 經濟 收益   而 2 年 來 努力   超過 1000 位 地主   總計 250 多甲 土地 出租 給力 暘     他 說   此次 推動 99MW 太陽能 光電場   除攜手 策略 合作 夥伴 中租迪 投入 合作 地面 型 電場 外   獲 科技 大廠 士林 電機   友達 與 富士康 等 協力 廠商 共同 合作   預定 2021 年 6 月底 全數 完工   每年 將為 屏東 創造 約 1.35 億度 發電 總量   他 強調   力 暘 將以 佳冬 鄉作 為 領先 模範 案例   預計 3 年 累計 建置 完成 300MW 太陽能 光電場   將 打造 屏東縣 為 全台 第一 綠能 王國  </t>
+          <t xml:space="preserve">[ 周刊 王 CTWANT ]   屏東縣 的 東港   林邊   佳冬   枋寮 等 4 鄉鎮   因 沿海 土地 嚴重 地層下陷   多數 土地 鹽化 又 易 淹水 不利 耕作   不利 耕作   造成 農業 欠收 或 土地 荒廢   力 暘 公司 優先 選擇 佳冬 鄉進 駐 種電   協助 地方 政府 推動 嚴重 地層下陷區 域 太陽光 電發 電業 的 政策   宣示 要 把 屏東 打造 為 綠能 王國     力 暘 以光 電技術 專業 著稱   整合 旗下 4 公司 建置 99MW   百萬瓦   太陽能 光電場   以 佳冬 鄉作 為 領先 模範 案例   從 2020 年 起   預計 3 年 內 累計 建置 完成 300MW 的 太陽能 光電場   將 打造 屏東縣 為 全台 第一 的 綠能 王國     時任 屏東縣 長 潘孟安 2020 年 6 月 出席 配合 廠商力 暘 太陽能 光電場 動土 典禮   盛 讚 力 暘 能 夠 以 民 間 企 業 力量   鍥而 不 捨 與 地主 溝通   取得 超過 1000 名 地主 認同   用心 令人 敬佩     雖然 得到 地方 政府 肯定   黃 志文 卻 坦言 「 挑戰 很大   」   因為 發展 太陽能 的 最大 挑戰   就是 取得 地主 信任   所以 力 暘 能源 積極 與 地主 溝通   以 每甲 土地 年租金 40 萬 承租   簽約 20 年   為 農民 地主 增加 經濟 收益   而 2 年 來 的 努力   有 超過 1000 位 的 地主   總計 250 多甲 的 土地 出租 給力 暘     他 說   此次 推動 99MW 太陽能 光電場   除攜手 策略 合作 夥伴 中租迪 和 投入 合作 地面 型 電場 外   也 獲 科技 大廠 士林 電機   友達 與 富士康 等 協力 廠商 共同 合作   預定 2021 年 6 月底 全數 完工   每年 將為 屏東 創造 約 1.35 億度 發電 總量   他 強調   力 暘 將以 佳冬 鄉作 為 領先 模範 案例   預計 3 年 內 累計 建置 完成 300MW 的 太陽能 光電場   將 打造 屏東縣 為 全台 第一 的 綠能 王國  </t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 容許 範圍   結構 安全 無虞     高鐵路線 通過 彰化   雲林 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化縣 溪州 鄉   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 橋墩   反而 是 沉陷 改善 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429</t>
+          <t xml:space="preserve">  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 的 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 的 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 在 容許 範圍 內   結構 安全 無虞     高鐵路線 通過 彰化   雲林 及 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 內 的 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 的 下陷 量 從 2.6 公分   彰化縣 溪州 鄉   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 的 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 的 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 在 容許 範圍 內   連續 梁為 1 / 1500   簡支梁 1 / 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 有 逾容 許範圍 的 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 及 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 的 橋墩   反而 是 在 沉陷 改善 的 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 / 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 / 1000   雖 仍 在 容 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  </t>
+          <t xml:space="preserve">台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 內 的 墩 柱 差異 沉陷 量 呈 逐年 降低 的 趨勢     監測 報告 顯示   2023 年 的 高鐵 彰化   雲林 共 8 處 路段 的 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 的 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 的 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 在 容許 範圍 內   連續 梁為 1 / 1500   簡支梁 1 / 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 的 累積角 變量 有 逾容 許範圍 的 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 及 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 的 橋墩   反而 是 位 在 沉陷 改善 的 嘉義 路段   位 在 朴子溪 河 中   目前 簡支 梁累積 的 角 變量 達 1.96 / 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 / 1000   雖 仍 在 容 許值 範圍   但 已 從 2020 年 起 逐年 增加  </t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設位 台北市 大直 新建 案 去   2023   年 9 月 7 日 晚間 突然 發生 崩塌   導致 附近 5 樓 民宅 下陷 成 4 樓   台北 地檢署 偵查 終結   將 工地 邱姓 負責人   基泰 公司 工程部 人員 張姓 工地 主任   王姓 劉姓 建築師   姜姓 專案 人員 等 5 人   依涉 犯 違背 建築術 成規   偽造 文書 等 罪 起訴   檢方 查出   大直 基泰 建案 坍塌 後   所幸 住戶 時 撤離   無人 傷亡   檢方 發現 建案 商未 依圖 施工   應該 60 公分 厚 連續 壁   只施作 50 公分   此外   建商 為 了 趕工   改變 施工 順序   竟 調整 監測 異常數 據   導致 工安 意外   至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結  </t>
+          <t xml:space="preserve">基泰 建設位 在 台北市 大直 的 新建 案 在 去   2023   年 9 月 7 日 晚間 突然 發生 崩塌   導致 附近 5 樓 民宅 下陷 成 4 樓   台北 地檢署 偵查 終結   將 工地 邱姓 負責人   基泰 公司 工程部 人員 張姓 工地 主任   王姓 及 劉姓 建築師   姜姓 專案 人員 等 5 人   依涉 犯 違背 建築術 成規   偽造 文書 等 罪 起訴   檢方 查出   大直 基泰 建案 坍塌 後   所幸 住戶 及 時 撤離   無人 傷亡   檢方 發現 建案 商未 依圖 施工   應該 60 公分 厚 的 連續 壁   只施作 50 公分   此外   建商 為 了 趕工   改變 施工 順序   竟 調整 監測 異常數 據   導致 工安 意外   至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結  </t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 去年 高鐵 沿線 雲林 路段 不僅 持續 下陷 5.4 公分   且 累積 下陷 量 已 達 114.2 公分   全國 下陷 最 嚴重   雲林縣 政府 表示   沿途 現有 12 萬 6 千口 灌溉 水井   政府 只能 加以 管制 不能 禁止 其繼續 抽水   地下水 入不敷出   自然 持續 下陷     高鐵 公司 從 2003 年 起委 託 學術 單位   每年 針對 高鐵 沿線 結構 墩 柱 地層下陷 進行 監測   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   最大 累積 下陷 量 已 達 到 114.2 公分   地點 是 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   不過   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   高鐵 結構 安全 無虞     雲林縣 政府 水利 處處長 許 宏博 表示   雖然 相關 單位 持續 針對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 12 萬 6 千口   政府 不能 禁止 抽水   農民 灌溉 持續 抽水   地下水 補充 不及   當然會 持續 下陷     許 宏博 表示   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等 作物   還是 遇到 一些 瓶頸   由 於 雲林 農村 人力 嚴重 老化   許多 水田 都 是 代耕   老農 根本 無力 自行 耕種   但 旱田 卻 沒 代耕 行業   即使 水田 利潤 低   農民 無力 轉作  </t>
+          <t xml:space="preserve">〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 去年 高鐵 沿線 雲林 路段 不僅 持續 下陷 5.4 公分   且 累積 下陷 量 已 達 114.2 公分   全國 下陷 最 嚴重   雲林縣 政府 表示   沿途 現有 的 12 萬 6 千口 的 灌溉 水井   政府 只能 加以 管制 不能 禁止 其繼續 抽水   地下水 入不敷出   自然 持續 下陷     高鐵 公司 從 2003 年 起委 託 學術 單位   每年 針對 高鐵 沿線 結構 墩 柱 地層下陷 進行 監測   去年 高鐵 沿線 持續 下陷 的 路段 包 彰化 及 雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   最大 累積 下陷 量 已 達 到 114.2 公分   地點 是 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   不過   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 在 容許 範圍 內   高鐵 結構 安全 無虞     雲林縣 政府 水利 處處長 許 宏博 表示   雖然 相關 單位 持續 針對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 的 水井 擁有 合法 水權   數量 多 達 12 萬 6 千口   政府 不能 禁止 抽水   農民 灌溉 持續 抽水   地下水 補充 不及   當然會 持續 下陷     許 宏博 表示   縣府 也 積極 輔導 高鐵 沿線 種植 水稻 的 農民 轉作 大豆 及 玉米 等 作物   還是 遇到 一些 瓶頸   由 於 雲林 農村 人力 嚴重 老化   許多 水田 都 是 代耕   老農 根本 無力 自行 耕種   但 旱田 卻 沒 有 代耕 行業   即使 水田 的 利潤 低   農民 也 無力 轉作  </t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  </t>
+          <t xml:space="preserve">去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 的 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 的 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 及 嘉義 等 地層下陷區   高鐵 公司 從 二 ○ ○ 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 的 路段 包 彰化 及 雲林 共八處   最 值得 關注 的 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 及 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 在 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 在 容許 範圍 內   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 的 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 的 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 的 水田 轉作 旱田   一年 可望 省下 八千 噸 的 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 的 農民 轉作 大豆 及 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 的 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 有 代耕 業者   即使 水田 的 利潤 低   農民 也 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  </t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">去年 高鐵 沿線 持續 下陷   路段 包括 彰化   雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   雲林縣 土庫 台 78 線 與 高鐵 交界 處   累積 下陷 量 達 到 114.2 公分   是 全國 下陷 最 嚴重 地方     鐵道局 土木 建築組 副 組長 謝炎廷 回應     這 路段 經由 高鐵 公司 施作 橋梁 預防性 改善 措施   以及 公路局 移除 台 78 號的 高 路堤 荷載   改以 鋼橋 行駛 型式 取代 之 後   經過 我們 長 期 追 蹤   沉陷 量 已 趨 於 穩定       雲縣 府 水利 處 表示   雖然 相關 單位 有針 對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 合法 水井 高達 12 萬 6 千口   政府 不能 禁止 抽水 只能 管理   加上 輔導 農民轉 旱作 出現 難題     雲縣 府 水利 處 技正 林昆賢 指出     水稻田 原則 上 來講   幾乎 百分之百 是 都 可以 機械 耕作   所以 它 人力 上 是 最 沒 問題   我們 要轉 旱作 時候   因為 各種 旱作 目前 來講   機械 跟 機械 耕作 比例   都 跟 水田 比起 來 都 很大 落差       水利 處 表示   要 輔導 高鐵 沿線 農民轉 旱作   除了 碰上 人力不足 問題   還 存在 產銷 失衡 情況   因農民若 旱作 只能 透過 契作   沒有 保價 機制   多少 降低 農民 轉作 意願   這些 問題還 有待 中央 統籌 解決  </t>
+          <t xml:space="preserve">去年 高鐵 沿線 持續 下陷   路段 包括 彰化   雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   雲林縣 土庫 台 78 線 與 高鐵 交界 處   累積 下陷 量 達 到 114.2 公分   是 全國 下陷 最 嚴重 的 地方     鐵道局 土木 建築組 副 組長 謝炎廷 回應   「 這 路段 經由 高鐵 公司 施作 橋梁 預防性 的 改善 措施   以及 公路局 移除 台 78 號的 高 路堤 荷載   改以 鋼橋 行駛 型式 取代 之 後   經過 我們 長 期 追 蹤   沉陷 量 已 趨 於 穩定   」   雲縣 府 水利 處 表示   雖然 相關 單位 有針 對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 的 合法 水井 高達 12 萬 6 千口   政府 不能 禁止 抽水 只能 管理   加上 輔導 農民轉 旱作 也 出現 難題     雲縣 府 水利 處 技正 林昆賢 指出   「 水稻田 原則 上 來講   幾乎 百分之百 是 都 可以 機械 耕作   所以 它 在 人力 上 是 最 沒 有 問題 的   那 我們 要轉 旱作 的 時候   因為 各種 旱作 目前 來講   機械 跟 機械 耕作 的 比例   都 跟 水田 比起 來 都 有 很大 落差   」   水利 處 表示   要 輔導 高鐵 沿線 農民轉 旱作   除了 碰上 人力不足 問題   還 存在 產銷 失衡 情況   因農民若 旱作 只能 透過 契作   沒有 保價 機制   多少 降低 農民 轉作 意願   這些 問題還 有待 中央 統籌 解決  </t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察   草屯 淨水場 新建 工程     陳 建仁 提到   為 減緩 地層下陷   水利 署 推動   烏溪 鳥 嘴潭 人工湖 工程 計畫     以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 今年 3 月 27 日達 到 最大 設計 出水 功能   通過 每日 5 萬噸 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能體 現出 台灣 人民 不分 地區 互助 互惠 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 工作 量大增   承擔 很多 任務 與 責任   此外 台水 是 公司   接受 政府 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出     鳥 嘴潭 人工湖 工程 計畫   完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
+          <t>行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察 「 草屯 淨水場 新建 工程 」   陳 建仁 提到   為 減緩 地層下陷   水利 署 推動 「 烏溪 鳥 嘴潭 人工湖 工程 計畫 」   以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 及 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 的 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 在 今年 3 月 27 日達 到 最大 設計 的 出水 功能   通過 每日 5 萬噸 的 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能體 現出 台灣 人民 不分 地區 互助 互惠 的 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 的 工作 量大增   也 承擔 很多 的 任務 與 責任   此外 台水 是 公司   接受 政府 的 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出   「 鳥 嘴潭 人工湖 工程 計畫 」 完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 及 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   及 85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 在 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">因應 極端 氣候   水利 署 投入 123.6 億元展 開   鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫     包括 6 座 人工 蓄水池 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 能 同享 量 好質 優 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定   雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫   中 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投縣 自來 水 普及率 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投縣 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投縣 用水 問題  </t>
+          <t xml:space="preserve">因應 極端 氣候   水利 署 投入 123.6 億元展 開 「 鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫 」   包括 6 座 人工 蓄水池 及 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 也 能 同享 量 好質 優 的 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 的 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定 「 雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫 」 中 的 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 的 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   的 能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 的 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投縣 的 自來 水 普及率 及 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投縣 內 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投縣 用水 問題  </t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 產業 發展區   整體 需水量 不斷 增加   造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投縣 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投縣 民 配合 政府 政策   但 南投縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 能 喝 到 量 好質 優 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒   珍珠 串     讓 台灣 水資源 調度 更好   顯示 台灣 人民 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   會 持續 綠 美化   變成 南投 新 觀光 地標     立委 游顥 說   南投縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 立法院 繼續 爭取   希望 行政院 重視 南投 用水 問題  </t>
+          <t xml:space="preserve">烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 的 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 和 產業 發展區   整體 需水量 不斷 增加   也 造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 和 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投縣 有 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投縣 民 配合 政府 政策   但 南投縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 也 能 喝 到 量 好質 優 的 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒 「 珍珠 串 」   讓 台灣 水資源 調度 更好   也 顯示 台灣 人民 的 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   也 會 持續 綠 美化   變成 南投 新 的 觀光 地標     立委 游顥 說   南投縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 和 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 和 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 在 立法院 繼續 爭取   也 希望 行政院 重視 南投 用水 的 問題  </t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 公寓   10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋   建商 本來 願意 賠償 2 百多 萬元 修繕   但給 了 錢 後   屋主 指控 建商 拿到 使用 執照 開始 反悔   還告 10 戶 屋主 不當 得利   其中 被告 還有 13 歲 少年   但 建商 說 大樓 地下室 開挖 已經 超過 三年   經過 土木 技師 公會 鑑定 沒有 損鄰   將訴諸 法律 拿 回不應 該給 賠償 金     寶特瓶 放在 地上   馬 上 滾 到 另 一邊   屋主 楊力 欽     這邊 是 整個 傾斜   因為 鑑定 報告 寫 說   它 高低 層 落差       屋主 指控   是 打 開後門 緊鄰 這棟 新蓋 大樓 害   屋主 楊力 欽     它 還是 漏水   止住 可是 好像 過幾個 月過 後   又 開始 水 跑 出來       新大樓 蓋 老舊 房子 中間   後 方 這一棟 舊型 公寓 總共 10 戶   施工 時 造成 鄰房 損壞   損壞 民宅 屋主 指控   建商 說 好 要給 總共 2 百多 萬 為 鄰 損修 復 費用   但是 建商 拿到 使用 執照後馬 上 反悔   還告 10 戶 住家 不當 得利     屋主 楊力 欽     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   透過 法律 去 看 說   這個 合約 書無效   這個 鑑定 無效   而是 使用 執照 之 後   告 我們 12 位 所有 權人   最小 13 歲 年 長 者 71 歲       因為 地下水 修繕   地 下陷 問題 得 補救   2 百多 萬 修繕 費先 撥給 其中 一戶   現在 10 戶 屋主 全 被告 不當 得利   氣炸開 記者 會     不過 建商 說 大樓 地下室 開挖 至今   已經 超過 3 年   經過 土木 技師 公會 鑑定 沒有 損鄰   堅持 要求 拿 回 2 百多 萬修繕 賠償 金   因為 蓋大樓 建商 附近 住戶 互槓   雙方 都 指控 對方 不公   還有 得 吵  </t>
+          <t xml:space="preserve">高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 公寓   10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋   建商 本來 願意 賠償 2 百多 萬元 修繕   但給 了 錢 後   屋主 指控 建商 拿到 使用 執照 開始 反悔   還告 10 戶 屋主 不當 得利   其中 被告 的 還有 13 歲 的 少年   但 建商 說 大樓 地下室 開挖 已經 超過 三年   經過 土木 技師 公會 鑑定 沒有 損鄰   將 訴諸 法律 拿 回 不 應該 給的 賠償金     寶特瓶 放在 地上   馬上 滾到 另 一邊   屋主 楊力 欽   「 這邊 是 整個 傾斜 的   因為 有 鑑定 報告 有 寫 說   它 的 高低層 的 落差   」   屋主 指控   是 打開 後 門緊 鄰 的 這棟 新蓋 大樓 害 的   屋主 楊力 欽   「 它 還是 有 漏水   止住 可是 好像 過幾個 月過 後   又 開始 有 水 跑 出來   」   新大樓 蓋 在 老舊 房子 中間   後 方 的 這一棟 舊型 的 公寓 總共 10 戶   施工 時 造成 鄰房 損壞   損壞 的 民宅 屋主 指控   建商 說 好 要給 總共 2 百多 萬 做 為 鄰 損修 復 費用   但是 建商 拿到 使用 執照 後 馬上 反悔   還告 10 戶 住家 不當 得利     屋主 楊力 欽   「 既然 你 不承認 的 話   為 什麼 當初 你 不 直接 訴諸 法律   透過 法律 去 看 說   這個 合約 書無效   這個 鑑定 無效   而是 在 你 使用 執照 之 後   告 我們 12 位 所有 權人   最小 13 歲 年 長 者 71 歲   」   因為 有 地下水 修繕   和 地 下陷 問題 得 先 補救   2 百多 萬 的 修繕 費先 撥給 其中 一戶   現在 10 戶 屋主 全 被告 不當 得利   氣炸開 記者會     不過 建商 說 大樓 地下室 開挖 至今   已經 超過 3 年   經過 土木 技師 公會 鑑定 沒有 損鄰   堅持 要求 拿 回 2 百多 萬修繕 賠償金   因為 蓋大樓 建商 和 附近 住戶 互槓   雙方 都 指控 對方 不公   還有 得 吵  </t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">住戶 拿 寶特瓶 平放   立即 滾去 較 低 地方   證明 地面 傾斜   牆上 有明 顯裂 縫   多次 修補 依然 出現     住戶 指控 自從 2019 年 11 月 開始   旁邊 大樓 興建 就 發現 他們 公寓 牆面 漏水   龜裂 還有 地層下陷   後 續 與 開遠 建設 協調   同意 透過 台中市 土木 技師 公會 鑑定     但 住戶 指控   公會 4 次 鑑定 確認 鄰損   建商 依法 賠償 修繕 費及 法定 4 成 加成 費用 224 萬   近日 卻 反 被 建商 提告 不當 得利     鄰損 住戶 代表 楊 質疑     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   由 法律 來 去 判說 這個 合意 書無效   這個 鑑定 無效   而是 取得 使用 執照 之 後   反告 我 這 12 位 房屋 所有 權人       住戶 代表 楊 說   此案 因為 建商 被 市府 列管   建商 解除 列管 拿到 建照 後 就 不 認帳   反告 他們 不當 得利   使得 鄰近 10 戶   12 名 房屋 所有 權人 都 被告   不能 接受 當初 協調 找 公正 單位 鑑定   建商 卻 不認   還找 來 不是 雙方 都 同意 單位 檢驗     民進 黨 高雄市 議員 鄭光峰 說 道     創下 台灣 建 商史 上 第一 個   跟 人家 鄰損 之後又告 人家       對此 建商 不 受訪   只 透過 文字 聲明 表示   建案 地下室 開挖 3 年 多   不會 因地質 問題 損害 鄰房   而且 經過 台灣 省 土木 技師 公會 鑑定 沒 鄰損 事情   鄰房 很多 是 屋齡 要 40 年 老 公寓   違法 增建 防火巷   卻 仍然 企圖 向 本 公司 要求 高額 賠償   本案 進入 司法   等待 判決   強調 損害 公司 名譽   會 依法 捍衛 權益  </t>
+          <t xml:space="preserve">住戶 拿 寶特瓶 平放   立即 滾去 較 低 的 地方   證明 地面 傾斜   牆上 也 有明 顯裂 縫   多次 修補 依然 出現     住戶 指控 自從 2019 年 11 月 開始   旁邊 大樓 興建 就 發現 他們 的 公寓 牆面 漏水   龜裂 還有 地層下陷   後 續 與 開遠 建設 協調   同意 透過 台中市 土木 技師 公會 鑑定     但 住戶 指控   公會 4 次 鑑定 確認 鄰損   建商 也 依法 賠償 修繕 費及 法定 的 4 成 加成 費用 224 萬   近日 卻 反 被 建商 提告 不當 得利     鄰損 住戶 代表 楊 先生 質疑   「 既然 你 不承認 的 話   為 什麼 當初 你 不 直接 訴諸 法律   由 法律 來 去 判說 這個 合意 書無效   這個 鑑定 無效   而是 在 你 取得 使用 執照 之 後   你 反告 我 這 12 位 房屋 所有 權人   」   住戶 代表 楊 先生 說   此案 因為 建商 被 市府 列管   建商 解除 列管 拿到 建照 後 就 不 認帳   反告 他們 不當 得利   使得 鄰近 10 戶   12 名 房屋 所有 權人 都 被告   也 不能 接受 當初 協調 找 公正 單位 鑑定   建商 卻 不認   還找 來 不是 雙方 都 同意 的 單位 檢驗     民進 黨 高雄市 議員 鄭光峰 說 道   「 創下 台灣 建 商史 上 第一 個   有 跟 人家 鄰損 之後又告 人家 的   」   對此 建商 不 受訪   只 透過 文字 聲明 表示   建案 地下室 開挖 3 年 多   不會 因地質 的 問題 損害 鄰房   而且 經過 台灣 省 土木 技師 公會 鑑定 沒 鄰損 的 事情   鄰房 很多 是 屋齡 要 40 年 的 老 公寓   也 違法 增建 防火巷   卻 仍然 企圖 向 本 公司 要求 高額 賠償   本案 進入 司法   等待 判決   也 強調 有 損害 公司 名譽   會 依法 捍衛 權益  </t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重     雲林縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服       雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應     許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外       水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
+          <t xml:space="preserve">根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重     雲林縣 水利 處長 許 宏博 提及   「 以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 的 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服   」   雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 在 內陸 地區 有 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 也 提出 因應     許 宏博 說明   「 較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 內 陸裡面   都 擋 在 防潮 牆 之外   」   水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 環境部   國科會 發布 全球 暖化 若 未來 無法 有效 控制 增溫   台灣 夏天 可能 長 達 7 個 月   海平面 上升 會 造成 海岸 溢淹 面積 增加   其中 以 雲林 溢淹 面積 增加 最顯 著   對 此雲縣 府 水利 處 表示   除了 暖化 影響   地層下陷 是 影響 主因   目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫   雲林縣 最大 箔子 寮 漁港   去   2023   年 8 月 發生 嚴重 海水倒灌   整座 漁港 幾乎 都 被淹 沒   甚至 危及 近鄰 村落   根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重   雲林縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服     雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應   許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外     水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
+          <t xml:space="preserve">根據 環境部   國科會 發布 全球 暖化 若 未來 無法 有效 控制 增溫   台灣 夏天 可能 長 達 7 個 月   海平面 上升 會 造成 海岸 溢淹 面積 增加   其中 以 雲林 溢淹 面積 增加 最顯 著   對 此雲縣 府 水利 處 表示   除了 暖化 影響   地層下陷 也 是 影響 主因   目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫   雲林縣 最大 箔子 寮 漁港   去   2023   年 8 月 發生 嚴重 海水倒灌   整座 漁港 幾乎 都 被淹 沒   甚至 危及 近鄰 村落   根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重   雲林縣 水利 處長 許 宏博 提及   「 以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 的 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服   」 雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 在 內陸 地區 有 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 也 提出 因應   許 宏博 說明   「 較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 內 陸裡面   都 擋 在 防潮 牆 之外   」 水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  </t>
+          <t xml:space="preserve">[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 在 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為 「 海底 之 城 」   泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡 的   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 在 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 的 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   有 專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢   「 全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 的 趨勢   曼谷 大概 會 被淹 沒 」   他 也 透露   關於 首都 曼谷 面臨 的 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 的 低 地國 荷蘭   藉由 興建 堤防 的 方式 來 防堵 海水倒灌   同時 當局 也 有將 「 遷都 」 納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   也 曾 提出 同樣 的 建議   2019 年時   這位 前 總理 在 「 泰國 與 世界 相連大會 」   Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 和 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 也 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 在 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 有 計劃 遷都 的 國家 就 有 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 的 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   也 因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 及 地層下陷 等 危機   預計 在 今年 正式 「 遷都 」 至婆羅洲島 的 東 加里曼丹 省   East   Kalimantan     新 首都 名為 「 努山 塔拉 」   Nusantara     在 印尼 語中 有 「 群島 」 之意   不過 高達 350 億 美元 的 遷都 計畫 也 備受 爭議  </t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>印尼 打算 遷移 首都   因為 目前 首都 雅加 達   問題 一籮 筐   除了 人口 過度 密集   引發   城市 汙染   之外   當地 還是   全球   地層下陷 最快   都市   當局 計畫   兩年 就要 新 首都   努山 塔拉   蓋好 機場   各項 新建 設   讓 不少台 廠 嗅到 商機   來 看到 鏡新聞 記者 從 印尼 帶來 第一手 觀察       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   reurl . cc kqyqML   鏡新聞 APP   Android 👉 https   reurl . cc Ay2y63   有話 鏡來講 YT 👉 https   reurl . cc A4DjQj   少年 新聞 週記 YT 👉 https   reurl . cc K4DeN9</t>
+          <t>印尼 打算 遷移 首都   因為 目前 的 首都 雅加 達   問題 一籮 筐   除了 人口 過度 密集   引發 的 「 城市 汙染 」 之外   當地 還是   全球 「 地層下陷 最快 」 的 都市   當局 計畫   兩年 內 就要 在 新 首都   努山 塔拉   蓋好 機場   各項 新建 設   也 讓 不少台 廠 嗅到 商機   來 看到 鏡新聞 記者 從 印尼 帶來 的 第一手 觀察       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   / / reurl . cc / kqyqML   鏡新聞 APP   Android 👉 https   / / reurl . cc / Ay2y63   有話 鏡來講 YT 👉 https   / / reurl . cc / A4DjQj   少年 新聞 週記 YT 👉 https   / / reurl . cc / K4DeN9</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">科技 大亨 馬 斯克   Elon   Musk   今天   5 19   抵達 印尼 峇里島   將與 印尼 總統 佐科威   Joko   Widodo   一起 參加 星鏈   Starlink   網路 服務 啟用   印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   政府 希望 星鏈 能夠 提高 各島嶼 網路 普及 度   這是 印尼 一個 月 迎接 第 3 名 科技 企業 執行長   此前 蘋果   微軟 執行長 都 已來訪     綜合 路透社 與 美聯社 報導   太空 科技 公司 SpaceX 執行長 馬 斯克 今天 搭乘 私人 飛機 抵達 印尼 峇里島 機場   印尼 首席 投資部長 盧胡特   Luhut   Binsar   Pandjaitan   機場 迎接   預計 兩人 將會 討論 一些 重要 合作   包含 星鏈 服務 啟動   馬 斯克 還會 簽署 一項 協助 印尼 加強 衛生 與 教育 單位 聯絡 互通 合約     盧胡特 表示   馬 斯克 今天 稍晚 將和 印尼 總統 佐科威 一起 峇里島 首府 登巴薩   Denpasar   社區 衛生 中心 一起 啟動 星鏈   盧胡特 說   衛生 機構 啟動 這項 服務   呼應 星鏈   提供 平價 高速 網路   宗旨   尤其 是 網路 收訊 不佳 或過 於 偏遠 地區     印尼 是 個 群島 國家   約 1.7 萬座 島嶼   橫跨 3 個 時區   人口 超過 2.7 億   盧胡特 說   印尼 偏鄉 需要 星鏈 來 拓展 高速 網路   尤其 是 要 用 來 解決 衛生   教育 海事 單位 問題     印尼 通訊 部長 布迪   Budi   Arie   Setiadi   上週 表示   星鏈 已經 獲得 印尼 營運許 可   布迪 強調   星鏈 低 軌衛星 可以 讓 網路 擴及 目前 印尼 通訊 商無法 到 達 地區     據報   位 於 印尼 婆羅洲   Borneo   新 首都 努山 塔拉   Nusantara   本月 將先 試用 星鏈   8 月 正式 上線   印尼 正準備 遷都 努山 塔拉   因為 受 海平面 上升 與 地層下陷 影響   預計 目前 首都 雅加 達 大部分 地區將 2050 年 被淹 沒     印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   馬 來 西亞 去年 已核 發許 可證 給營 運星鏈 SpaceX 公司   菲律賓 一家 公司 則是 2022 年 與 SpaceX 簽約 合作     馬 斯克訪 印尼 前   蘋果 公司 執行長 庫克   Tim   Cook   4 月 17 與 印尼 總統佐科 威會面   並 表示 會將 印尼 產能 納入 考慮   兩周 後   微軟 執行長 納 德拉   Satya   Nadella   同月 30 日訪 印尼   承諾 未來 4 年 印尼 投資 17 億 美元   強化 印尼 新雲端 運算 與 人工智慧 基礎 設施     馬 斯克 此次 訪 峇里島   將參加 第十 屆 世界 水論壇   World   Water   Forum     研討 全球 水資源 衛生 挑戰  </t>
+          <t xml:space="preserve">科技 大亨 馬 斯克   Elon   Musk   今天   5 / 19   抵達 印尼 峇里島   將與 印尼 總統 佐科威   Joko   Widodo   一起 參加 星鏈   Starlink   網路 服務 的 啟用   印尼 將是 東南亞 第三 個 使用 星鏈 服務 的 國家   政府 希望 星鏈 能夠 提高 各島嶼 的 網路 普及 度   這是 印尼 一個 月 內 迎接 的 第 3 名 科技 企業 執行長   此前 蘋果   微軟 執行長 都 已來訪     綜合 路透社 與 美聯社 報導   太空 科技 公司 SpaceX 執行長 馬 斯克 今天 搭乘 私人 飛機 抵達 印尼 峇里島 機場   印尼 首席 投資部長 盧胡特   Luhut   Binsar   Pandjaitan   在 機場 迎接   預計 兩人 將會 討論 一些 重要 的 合作   包含 星鏈 服務 的 啟動   馬 斯克 還會 簽署 一項 協助 印尼 加強 衛生 與 教育 單位 聯絡 互通 的 合約     盧胡特 表示   馬 斯克 今天 稍晚 將和 印尼 總統 佐科威 一起 在 峇里島 首府 登巴薩   Denpasar   的 社區 衛生 中心 一起 啟動 星鏈   盧胡特 說   在 衛生 機構 啟動 這項 服務   呼應 星鏈 「 提供 平價 高速 網路 」 的 宗旨   尤其 是 在 網路 收訊 不佳 或過 於 偏遠 的 地區     印尼 是 個 群島 國家   有 約 1.7 萬座 島嶼   橫跨 3 個 時區   人口 超過 2.7 億   盧胡特 說   印尼 偏鄉 需要 星鏈 來 拓展 高速 網路   尤其 是 要 用 來 解決 衛生   教育 和 海事 單位 的 問題     印尼 通訊 部長 布迪   Budi   Arie   Setiadi   上週 表示   星鏈 已經 獲得 在 印尼 營運許 可   布迪 強調   星鏈 的 低 軌衛星 可以 讓 網路 擴及 目前 印尼 通訊 商無法 到 達 的 地區     據報   位 於 印尼 婆羅洲   Borneo   的 新 首都 努山 塔拉   Nusantara   本月 將先 試用 星鏈   8 月 正式 上線   印尼 正準備 遷都 努山 塔拉   因為 受 海平面 上升 與 地層下陷 影響   預計 目前 的 首都 雅加 達 大部分 地區將 在 2050 年 被淹 沒     印尼 將是 東南亞 第三 個 使用 星鏈 服務 的 國家   馬 來 西亞 去年 已核 發許 可證 給營 運星鏈 的 SpaceX 公司   菲律賓 一家 公司 則是 在 2022 年 與 SpaceX 簽約 合作     在 馬 斯克訪 印尼 前   蘋果 公司 執行長 庫克   Tim   Cook   4 月 17 也 與 印尼 總統佐科 威會面   並 表示 會將 印尼 的 產能 納入 考慮   兩周 後   微軟 執行長 納 德拉   Satya   Nadella   同月 30 日訪 印尼   承諾 未來 4 年 內 在 印尼 投資 17 億 美元   強化 印尼 的 新雲端 運算 與 人工智慧 基礎 設施     馬 斯克 此次 訪 峇里島   也 將參加 第十 屆 世界 水論壇   World   Water   Forum     研討 全球 水資源 和 衛生 挑戰  </t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   花蓮市 名店   歪 歪歪 甜點     南京 街 店面 竟 被後方 建案   廣朋   建設 公司 以修繕 名義 直接 將廁 所 拆除   業者 忍無可忍 報警 處理   而廣朋 於 建設 新大樓 過程 當中 造成 鄰損 不 只 這一樁   一名 A 房屋 剛好位 基地 旁邊   房屋 早已 因 地層下陷 而 硬生生 斷成 兩截   而廣朋 不但 試圖將 相關 損害 歸咎 於 地震   且 只 買 了 一個 大 水桶 讓 住 戶接 漏水   讓 住戶 完全 無法 接受     A 帶著 本刊 記者 實際 走 進屋   儘 管 該 棟 房屋 為 老舊 3 層 透天   但 屋內 深度 相當 深   穿越 車庫 進入 客廳 後 可以 明顯 感覺 地層 已 下陷   腳下 磁磚 碎裂   屋主 已 鋪 上 軟 墊   避免 踩 上面 時 受傷     A 拿出 一顆 乒乓球 放在 地面 測試 屋內 地板 磁磚 水平   且 明顯 看見 本該 靜止 乒乓球 滾動   證明 地面 出現 傾斜   A 憤怒 表示     這些 損害 早 0403 大 地震 前 就 已經 發生   廣朋還 試圖 想要 將責任 全部 歸咎 地震 上       A 帶著 記者 穿越 客廳 進入 一樓後方 臥室   不但 明顯 感受 到 地面 傾斜   地上 更裂 出 一條 又 深 又 長 裂縫   一路 到 房屋 正後方   而後方 因 房屋 管線 受損 嚴重 已 無電力 照明   A 隨手 拿 起 一條 目測 至少 約 1 公尺 長 木棍   直接 插 進裂 開 縫 中   他 裂縫 中 攪動 木棍 表示     這裂 縫 寬度 至少 約 5 公分   而 這根 木棍 甚至 還沒 到底   跟 我 說 這叫 地震 造成       走上 2 樓   由 於 房屋 後 半段 傾斜   門框 早已 變形 無法 關上   管線 被 嚴重 破壞   不但 沒有 電力 照明   水還 從 四面八方 滴滴答答 滲出   A 說   這樣 到底 要 怎麼 住   而 廣朋所 事 就是   買 了 一個 大 水桶 要 我們 接 漏水       當地 主商里 里 長 廖大慶 5 月 22 日 帶 著 縣府 與 市公所 人員 前往 工地 會勘   廖大慶 比著 工地 一旁 柏油路 上 明顯 裂痕 與 民宅 地板 明顯 落差 表示     這 不是 地層下陷 是 什麼     廣朋 李姓 協理則 表示   柏油路 裂痕 已有 補過   但 主要 應是 3   40 噸 重機具 每天 這裡 進出 所導致   里長 吐 槽 表示     不要 跟 我 說 是 重機具   那為 什麼 只有 工地 這 一段 出現 裂痕 下陷   工地 前 後 柏油路 都 沒 裂開     場面 一度 相當 火爆     22 日 會勘 住 戶 對 建商 一片 罵聲 中 暫時 落幕   花蓮縣 議員 吳東 昇 居中 協調   廣朋 初步 承諾會 先將 裂開 下陷 馬 路 進行 修繕   以維護 公共安全   至於 與 住 戶 所 造成 鄰損 等 狀況   雙方遲 遲無法 達 成共識   因此 相關 損害 修 復 恐怕 還有 得 吵     廣朋總 公司 位 於 台北 市長 安東路   其 於 104 上 敘述 自稱 成立 20 年來 擁有 專業 建築 團隊   除 專注 北市 市中心 精華區 興建 精 緻 住宅   同時 將建築 領域 開發 至 花蓮市   台南 與 高雄   同時 更是 ViVi   PARK 停車 品牌 經營者     但 廣朋在 2017 年 時 與 台灣 知名 視障 慢跑 者     台灣 阿甘   之稱 張文彥 發生 租屋 糾紛   張文彥 向 廣朋租 店面 開設 視障 健康 按摩 養生會館   但 廣朋 卻 將停 車場 以金 店面 名義 承租 給張 文彥   並 要求 提前 解約   甚至 將 店面 大門 以鐵片 封死   搬 2 塊 巨石 擋住 大門   被 批 手段 惡劣   而前 台北市 議員 黃 向 羣 曾 被 周刊 踢 爆   其為 北捷 萬大線   捷七聯 開案   地主 拒絕 加入 聯合 開發 一事   以 優先 投資權   開發 獲利 超過 13 億元 吸引 地主 找廣朋 合作   以此 收取 6500 萬元 顧 問費   造成 地主 200 坪 土地 被 納入 聯開   市價 5 億 多元 土地 僅能 拿 回 1 億餘元     對此   本刊 兩度致 電向位 北市 廣朋總 公司 詢問   該 公司 接線 人員 表示 對 此事 不 了解   並說 公司 沒 有人 可 代表 對外 說明   就 將電話 掛斷   不再 回應  </t>
+          <t xml:space="preserve">[ 周刊 王 CTWANT ]   花蓮市 名店 「 歪歪 歪 甜點 」   在 南京 街 的 店面 竟 被後方 建案 的 「 廣朋 」 建設 公司 以修繕 名義 直接 將廁 所 拆除   業者 忍無可忍 報警 處理   而廣朋 於 建設 新大樓 過程 當中 造成 的 鄰損 不 只 這一樁   一名 A 先生 的 房屋 剛好位 在 基地 的 旁邊   房屋 早已 因 地層下陷 而 硬生生 斷成 兩截   而廣朋 不但 試圖將 相關 損害 歸咎 於 地震   且 只 買 了 一個 大 水桶 讓 住 戶接 漏水   讓 住戶 完全 無法 接受     A 先生 帶著 本刊 記者 實際 走 進屋 內   儘 管 該 棟 房屋 為 老舊 3 層 透天   但 屋內 深度 相當 深   穿越 車庫 進入 客廳 後 可以 明顯 感覺 地層 已 下陷   腳下 的 磁磚 碎裂   屋主 已 鋪 上 軟 墊   避免 踩 在 上面 時 受傷     A 先生 也 拿出 一顆 乒乓球 放在 地面 測試 屋內 地板 磁磚 水平   且 明顯 看見 本該 靜止 的 乒乓球 在 滾動   證明 地面 出現 傾斜   A 先生 憤怒 的 表示   「 這些 損害 早 在 0403 大 地震 前 就 已經 發生   廣朋還 試圖 想要 將責任 全部 歸咎 在 地震 上 」     A 先生 帶著 記者 穿越 客廳 進入 一樓後方 的 臥室 內   不但 明顯 感受 到 地面 傾斜   地上 更裂 出 一條 又 深 又 長 的 裂縫   一路 到 房屋 的 正後方   而後方 也 因 房屋 管線 受損 嚴重 已 無電力 照明   A 先生 隨手 拿 起 一條 目測 至少 約 有 1 公尺 長 的 木棍   直接 插 進裂 開 的 縫 中   他 在 裂縫 中 攪動 木棍 表示   「 這裂 縫 寬度 至少 約 5 公分   而 這根 木棍 甚至 還沒 到底   你 跟 我 說 這叫 地震 造成 的   」   走上 2 樓   由 於 房屋 後 半段 傾斜   門框 早已 變形 無法 關上   管線 也 被 嚴重 破壞   不但 沒有 電力 照明   水還 從 四面八方 滴滴答答 的 滲出   A 先生 說 「 這樣 到底 要 怎麼 住   而 廣朋所 做 的 事 就是   買 了 一個 大 水桶 要 我們 接 漏水   」   當地 的 主商里 里 長 廖大慶 5 月 22 日 也 帶 著 縣府 與 市公所 人員 前往 工地 會勘   廖大慶 比著 工地 一旁 柏油路 上 的 明顯 裂痕 與 民宅 地板 的 明顯 落差 表示   「 這 不是 地層下陷 是 什麼   」 廣朋 的 李姓 協理則 表示   柏油路 的 裂痕 已有 補過   但 主要 應是 3   40 噸 的 重機具 每天 在 這裡 進出 所導致   里長 吐 槽 表示   「 不要 跟 我 說 是 重機具   那為 什麼 只有 工地 這 一段 出現 裂痕 下陷   工地 的 前 後 柏油路 都 沒 有 裂開   」 場面 一度 相當 火爆     22 日 的 會勘 也 在 住 戶 對 建商 的 一片 罵聲 中 暫時 落幕   花蓮縣 議員 吳東 昇 也 居中 協調   廣朋 初步 承諾會 先將 裂開 和 下陷 的 馬 路 進行 修繕   以維護 公共安全   至於 與 住 戶 所 造成 的 鄰損 等 狀況   雙方遲 遲無法 達 成共識   因此 相關 損害 修 復 恐怕 還有 得 吵     廣朋總 公司 位 於 台北 市長 安東路   其 於 104 上 的 敘述 自稱 成立 20 年來 擁有 專業 建築 團隊   除 專注 在 北市 市中心 精華區 興建 精 緻 住宅   同時 也 將建築 領域 開發 至 花蓮市   台南 與 高雄   同時 更是 ViVi   PARK 停車 品牌 的 經營者     但 廣朋在 2017 年 時 與 台灣 知名 視障 慢跑 者   有 「 台灣 阿甘 」 之稱 的 張文彥 發生 租屋 糾紛   張文彥 向 廣朋租 店面 開設 視障 健康 按摩 養生會館   但 廣朋 卻 將停 車場 以金 店面 名義 承租 給張 文彥   並 要求 提前 解約   甚至 將 店面 大門 以鐵片 封死   搬 2 塊 巨石 擋住 大門   被 批 手段 惡劣   而前 台北市 議員 黃 向 羣 也 曾 被 周刊 踢 爆   其為 北捷 萬大線 「 捷七聯 開案 」 地主 拒絕 加入 聯合 開發 一事   以 優先 投資權   開發 獲利 超過 13 億元 吸引 地主 找廣朋 合作   以此 收取 6500 萬元 的 顧 問費   造成 地主 200 坪 土地 被 納入 聯開   市價 5 億 多元 的 土地 僅能 拿 回 1 億餘元     對此   本刊 兩度致 電向位 在 北市 的 廣朋總 公司 詢問   該 公司 接線 人員 表示 對 此事 不 了解   並說 公司 內 沒 有人 可 代表 對外 說明   就 將電話 掛斷   不再 回應  </t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">江慶賢 指出   近一個 月 立信 街   信街   自強 街 附近 住戶   不斷 反映 水壓 不足   很多 里民因 為 抽 不到 水   馬 達 都 燒壞 了   他 向 自來 水 公司 反映   水 公司 一開始 堅持 水壓 供水 都 正常   最後才 說 水管 破裂   今天 要來 修理     今   5   日 早上 江慶賢還 沒 等到 水 公司 工程 人員   就 接到 里民通報   指立 中 六街 出現 天坑   他 跑 到 現場   見 到 一部 工程 車右後輪 將馬路 壓出 一個 洞   怪手 正在 協助 工程 車脫 困   幸好 沒人 傷亡   但馬路 破洞 裡的 水源 源不斷 湧出   地層下陷 情形 似乎 很 嚴重   他將 要求 自來 水 公司 全力 補救     自來 水 公司 回應 表示   一開始 以 為 只是 漏水   後 來 才 發現 立中 六街 下方 還有 一處 直徑 10 公分 自來 水管 線 破裂   當下 已 立即 派遣 工班 到場 處理   針對 住戶 抽水 馬 達 燒壞   將會 研議 是否 進行 相關 賠償  </t>
+          <t xml:space="preserve">江慶賢 指出   近一個 月 立信 街   和 信街   自強 街 附近 的 住戶   不斷 反映 水壓 不足   很多 里民因 為 抽 不到 水   馬 達 都 燒壞 了   他 向 自來 水 公司 反映   水 公司 一開始 堅持 水壓 和 供水 都 正常   最後才 說 水管 破裂   今天 要來 修理     今   5   日 早上 江慶賢還 沒 等到 水 公司 工程 人員   就 先 接到 里民通報   指立 中 六街 出現 天坑   他 跑 到 現場   見 到 一部 工程 車右後輪 將馬路 壓出 一個 洞   怪手 正在 協助 工程 車脫 困   幸好 沒人 傷亡   但馬路 破洞 裡的 水源 源不斷 湧出   地層下陷 情形 似乎 很 嚴重   他將 要求 自來 水 公司 全力 補救     自來 水 公司 回應 表示   一開始 以 為 只是 漏水   後 來 才 發現 立中 六街 下方 還有 一處 直徑 10 公分 的 自來 水管 線 破裂   當下 已 立即 派遣 工班 到場 處理   針對 住戶 抽水 馬 達 燒壞   將會 研議 是否 進行 相關 賠償  </t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">台灣 西南 沿海 地區 為候 鳥 主要 度冬棲息 地   為 了 守護 於 此 休憩 黑面 琵鷺   水鳥 與 候鳥   台灣 環境 資訊 協會   簡稱 環資   嘉時 航運 股份 有限公司   簡稱 嘉時 航運   攜手 合作 生態 工作 假期   於 5 月 27 日至 嘉義 布袋 濕地   執行 棲地 植樹 活動   讓候 鳥 過境 休憩 時   樹林 保護下 安心 成長   更 期盼 長 期 努力 下   成為 全球 生物 多樣 性 後 盾     嘉義 布袋 擁有 廣闊 濕地 多樣 鳥類 棲息 地   以豐富 生態 資源 特色 環境 聞名   這裡 每年 冬季 都 會 迎來 一批 特別 客人   是 全球 關注 物種 — — 黑面 琵鷺   從 1989 年 全球 紀錄 288 隻   到 2024 年 共 6988 隻   數量 變化 一直 受到 國際 鳥類 保護 組織 密切 追 蹤     天氣剛 好 遇到 5 月 梅雨季   各地 受 鋒面 與 氣流 影響   很 幸運 受到 天公 伯伯 賞臉   讓 雲層 遮住 炙熱 太陽   陰涼 天氣 下 順利 進行     志工 雙手 從 平常 使用 電腦 與 滑鼠   換成 圓鍬 鏟子   互相 協助 挖出 半 公尺 深 與 寬 土穴   倒入 蚵 殼 抵擋 鹽氣   細心 覆土種 下 適合 濱 海生 長 木麻黃   黃 槿 大葉欖仁 樹苗   總共種 下 40 棵 樹   廣闊 環境 中 工作   志工 臉 因 挖掘 動作 變得 通紅   休補充 水分 時   抬頭望 就 能 看 見 波光粼粼 濕地 中   鳥類 生活 覓食 畫面   相信 大家 不僅 是 為 黑面 琵鷺 保護 出力   更是 為 全球 生物 多樣 性 維護 做出 貢獻     本次 環資 活動 總籌乙雯 說     相信 經過 今天 棲地 行動   我們 都 更 貼 近 腳下 這片 土地   了解 生態 保育 重要性       嘉義 擁有 著 美好 生態 棲地外   面臨 著 多重 環境 挑戰   工作 完成 後   志工 搭 上 遊覽車 移動 前往 白水 湖壽島   走訪 2020 年   消失 情人 節   電影 壯闊 海景 美麗夕陽 背 後   沒有 說 出 國土 消失   地層下陷   影響 生態 系統 健康 現況     嘉義 因優越 水質 地勢 條件   使養 蚵 產業 蓬勃 發展   外海 密密麻麻 竹棚   近岸 漂浮 白色 保麗龍   垂 吊式 養殖 道路 上 暫放 成山 蚵 殼   從 眼前 景色 就 能 了解 牡蠣 不同 養殖 方式   志工 走 隔 開陸 地 與 海 堤防 上   右手 邊是 海   左手 邊是 滯洪池   蔡 福昌 老師 說     現在 大家 腳下 堤防 近幾年 修建 加高   如果 不 這麼   陸 地上 坐路 掌潭村 就 會 淹 沒 危險     吹 著涼爽 海風   遠方 風力 發電機 運轉 著   退潮 時 沿著 海水 與 紅磚 被 海 水淹 沒 痕跡   水泥 路上 長 滿蘚類   可以 走向 外 海沙 島的 方向   感受 濱海 滄桑 與 失落     志工文 函用 望眼 鏡發現 高蹺 鴴   又名 長 腳 鷸 身影   一雙長 紅腿 淺水 地上 行走   欣賞 之餘 用 手機 連接 著望 遠鏡 鏡頭   拍下 它們 拍 翅 美姿     來 到 嘉義 不 只有 食 蚵   嘉時 航運 志工 不僅付 諸行動   守護 遠道 來 台 黑面 琵鷺 與候 鳥棲地   還相約 下次 再 到 布袋 濕地   樹下 乘涼   欣賞候 鳥 安心 棲息 美好 畫面   成為 生物 多樣 性守護者  </t>
+          <t xml:space="preserve">台灣 西南 沿海 地區 為候 鳥 主要 度冬棲息 地   為 了 守護 於 此 休憩 的 黑面 琵鷺   水鳥 與 候鳥   台灣 環境 資訊 協會   簡稱 環資   和 嘉時 航運 股份 有限公司   簡稱 嘉時 航運   攜手 合作 生態 工作 假期   於 5 月 27 日至 嘉義 布袋 濕地   執行 棲地 植樹 活動   讓候 鳥 過境 休憩 時   在 樹林 的 保護下 安心 成長   更 期盼 在 長 期 的 努力 下   成為 全球 生物 多樣 性 的 後 盾     嘉義 布袋 擁有 廣闊 的 濕地 和 多樣 的 鳥類 棲息 地   以豐富 的 生態 資源 和 特色 環境 聞名   這裡 每年 冬季 都 會 迎來 一批 特別 的 客人   也 是 全球 關注 物種 — — 黑面 琵鷺   從 1989 年 全球 紀錄 288 隻   到 2024 年 共 6988 隻   數量 變化 一直 受到 國際 鳥類 保護 組織 的 密切 追 蹤     天氣剛 好 遇到 5 月 梅雨季   各地 受 鋒面 與 氣流 影響   很 幸運 的 受到 天公 伯伯 賞臉   讓 雲層 遮住 炙熱 的 太陽   在 陰涼 的 天氣 下 順利 進行     志工 的 雙手 從 平常 使用 的 電腦 與 滑鼠   換成 圓鍬 和 鏟子   互相 協助 挖出 半 公尺 深 與 寬 的 土穴   倒入 蚵 殼 抵擋 鹽氣   細心 覆土種 下 適合 在 濱 海生 長 的 木麻黃   黃 槿 和 大葉欖仁 的 樹苗   總共種 下 40 棵 樹   在 廣闊 的 環境 中 工作   志工 的 臉 因 挖掘 的 動作 變得 通紅   休補充 水分 時   抬頭望 就 能 看 見 波光粼粼 的 濕地 中   鳥類 生活 覓食 的 畫面   相信 大家 不僅 是 在 為 黑面 琵鷺 的 保護 出力   更是 為 全球 生物 多樣 性 的 維護 做出 貢獻     本次 環資 活動 總籌乙雯 說   「 相信 經過 今天 的 棲地 行動   我們 都 更 貼 近 腳下 這片 土地   了解 生態 保育 的 重要性   」   嘉義 擁有 著 美好 的 生態 棲地外   也 面臨 著 多重 的 環境 挑戰   工作 完成 後   志工 搭 上 遊覽車 移動 前往 白水 湖壽島   走訪 2020 年   消失 的 情人 節   電影 壯闊 海景 和 美麗夕陽 背 後   沒有 說 出 的 國土 消失   地層下陷   影響 生態 系統 健康 的 現況     嘉義 因優越 的 水質 地勢 條件   使養 蚵 產業 蓬勃 發展   外海 密密麻麻 的 竹棚   近岸 漂浮 的 白色 保麗龍   垂 吊式 養殖 和 道路 上 暫放 成山 的 蚵 殼   從 眼前 的 景色 就 能 了解 牡蠣 不同 的 養殖 方式   志工 走 在 隔 開陸 地 與 海 的 堤防 上   右手 邊是 海   左手 邊是 滯洪池   蔡 福昌 老師 說   「 現在 大家 腳下 的 堤防 近幾年 修建 加高   如果 不 這麼 做   陸 地上 坐路 的 掌潭村 就 會 有 淹 沒 的 危險 」   吹 著涼爽 的 海風   遠方 風力 發電機 運轉 著   退潮 時 沿著 海水 與 紅磚 被 海 水淹 沒 的 痕跡   水泥 路上 長 滿蘚類   可以 走向 外 海沙 島的 方向   感受 濱海 的 滄桑 與 失落     志工文 函用 望眼 鏡發現 高蹺 鴴   又名 長 腳 鷸 的 身影   一雙長 紅腿 在 淺水 地上 行走   欣賞 之餘 也 用 手機 連接 著望 遠鏡 的 鏡頭   拍下 它們 拍 翅 的 美姿     來 到 嘉義 不 只有 食 蚵   嘉時 航運 的 志工 不僅付 諸行動   守護 遠道 來 台 的 黑面 琵鷺 與候 鳥棲地   還相約 下次 再 到 布袋 濕地   樹下 乘涼   欣賞候 鳥 在 安心 棲息 的 美好 畫面   成為 生物 多樣 性守護者  </t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">此外   住 戶質 疑公會 鑑定 專業   表示 重災戶 房子 傾斜 倒塌   不 就是 基泰 跟 技師 做出 來   安全 無虞證 明書     才 引起 這場 重大 公安   住戶 質疑現 鑑定   結構 安全     誰 能 保證 是 真的 安全     陳 怡君 提到   住戶 表示   對 於 下陷 地層   家中 磁磚 脫落   地 磚裂 掉   門窗 鐵門壞 掉   家中 漏水 水管 破裂   天花板 掉落 等   賠償 1.2 倍 相當 沒誠意   除了 財產 損失   多處 損鄰 造成 生活 不便   家中 隨時 磁磚 脫落 精神 折磨   還有 地震 來時 不安   這些 精神 賠償     陳 怡君 說   這是 損鄰戶 第一次 公部門 主導 下 所 召開 調解會議   基泰 應正視 損鄰戶 心聲   針對 賠償 金額   陳 怡 君主 張應 提高 為 1.5 倍   或主動 至 損鄰戶 家中 估價除 結構 之外 損失   增列 至 賠償 金額 中   才 是 該 賠償 氣度     對此   據   自由 時報   報導   台北市 建管處 表示   為 促進 基泰 與 受 損戶 協調 和解 效率   都 發局 主動 本月 6 日 於 大直 國小辦 理代為 協調 會議   針對 會議 中受 損戶 提出 修繕 賠償 金額 不足 等 訴求   已 請 基泰 建設 收集 受 損戶 所 提相 關意 見後並 妥為 處理   促進 建損 雙方 和解 進度  </t>
+          <t xml:space="preserve">此外   也 有 住 戶質 疑公會 鑑定 的 專業   表示 重災戶 房子 傾斜 倒塌   不 就是 基泰 跟 技師 做出 來 的 「 安全 無虞證 明書 」   才 引起 這場 重大 公安 嗎   住戶 也 質疑現 在 鑑定 的 「 結構 安全 」   誰 能 保證 是 真的 安全     陳 怡君 也 提到   有 住戶 表示   對 於 下陷 的 地層   家中 磁磚 脫落   地 磚裂 掉   門窗 鐵門壞 掉   家中 漏水 水管 破裂   天花板 掉落 等   賠償 1.2 倍 相當 沒誠意   除了 財產 損失   多處 損鄰 也 造成 生活 不便   家中 隨時 有 磁磚 脫落 的 精神 折磨   還有 地震 來時 的 不安   這些 精神 賠償 呢     陳 怡君 說   這是 損鄰戶 第一次 在 公部門 的 主導 下 所 召開 的 調解會議   基泰 應正視 損鄰戶 的 心聲   針對 賠償金額   陳 怡 君主 張應 提高 為 1.5 倍   或主動 至 損鄰戶 家中 估價除 結構 之外 的 損失   增列 至 賠償金額 中   才 是 該 有 的 賠償 氣度     對此   據   自由 時報   報導   台北市 建管處 表示   為 促進 基泰 與 受 損戶 協調 和解 效率   都 發局 主動 在 本月 6 日 於 大直 國小辦 理代為 協調 會議   針對 會議 中受 損戶 提出 修繕 及 賠償金額 不足 等 訴求   已 請 基泰 建設 收集 受 損戶 所 提相 關意 見後並 妥為 處理   促進 建損 雙方 和解 進度  </t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">原來 同一 個 新能源 市場   同時 這麼 多 幫人 市場 上 探索   開發     圖片 來源 ／ Pixabay  </t>
+          <t xml:space="preserve">原來 同一 個 新能源 市場   同時 有 這麼 多 幫人 在 市場 上 探索   開發     圖片 來源 ／ Pixabay  </t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">記者 林意筑 ／ 台中 報導   台中港 西碼頭 附近   今   11   日 上午 一度 傳出 碼頭 破堤 消息   透過 現場 畫面 可見   一部 重型 機具 因 不明 原因 深陷 海砂 中   一旁 海水 幾乎 快 淹過   引發民眾 恐慌   不過 稍早 警方 緊急 澄清   由 於 該 起 工程 作業 本身 就 海平面 以下   因此 下 挖 管線 時   因 海水 壓力 導致 機具 下沉   並非 地層下陷 引起 海水倒灌     據悉   台中港 西碼頭 中油 區 近日 正在 進行 建造 冷凝 設備 工程 作業   但 今日 上午 一度 傳出   大型 機具 因 不明 原因 深陷 海砂 中   造成 恐慌     對此   台中港 務西 碼頭 中隊 長 賴逸丰 表示   由 於 該 起 工程 作業   挖 埋 管線   部分 本身 就 海平面 以下   而 下 挖 管線 時 因 海水 壓力 差而導致 機具 下沉   並非 地層下陷 引起 海水倒灌   預計 今日 下午 抽完 海水 後 即可 繼續 作業   現場 無人員 受傷   無 相關 設備 建物 損壞  </t>
+          <t xml:space="preserve">記者 林意筑 ／ 台中 報導   台中港 西碼頭 附近   今   11   日 上午 一度 傳出 碼頭 破堤 消息   透過 現場 畫面 可見   一部 重型 機具 因 不明 原因 深陷 在 海砂 中   一旁 的 海水 幾乎 快 淹過   引發民眾 恐慌   不過 稍早 警方 緊急 澄清   由 於 該 起 工程 作業 本身 就 在 海平面 以下   因此 下 挖 管線 時   因 海水 的 壓力 導致 機具 下沉   並非 地層下陷 引起 海水倒灌     據悉   在 台中港 西碼頭 中油 區 近日 正在 進行 建造 冷凝 設備 的 工程 作業   但 今日 上午 一度 傳出   有 大型 機具 因 不明 原因 深陷 在 海砂 中   造成 恐慌     對此   台中港 務西 碼頭 中隊 長 賴逸丰 表示   由 於 該 起 工程 作業 的 「 挖 埋 管線 」 部分 本身 就 在 海平面 以下   而 下 挖 管線 時 因 海水 的 壓力 差而導致 機具 下沉   並非 地層下陷 引起 海水倒灌   預計 今日 下午 抽完 海水 後 即可 繼續 作業   現場 也 無人員 受傷   也 無 相關 設備 及 建物 損壞  </t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">近期 能源 公司 元長 鄉 瓦 磘 村 建 設 太 陽 光 電 場   卻 場址 設 村莊 中心   讓 當地 居民 人心惶惶   今 ( 11 ) 日 瓦 磘 反光 電 自救 會 前往 雲林縣 議會   向 縣長 張麗善 遞交陳情 書   盼光 電廠 商 另 尋他 地   不要 將光 電場 設置 於 瓦 磘 村 中   張麗善 除 親手 接下 陳 情書   表示 會 站 鄉親 立場   保護 大家 居住 環境   呼籲台 電應 考量 民眾 意見 本權責 妥處     張麗善 表示   地方 政府 跟 中央政府 都 各自 權責   公務人員 需要 配合 行政 程序   目前 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 土地   已經 被 中央 核定 為 合法 種電 範圍     張麗善 再次 強調   三不三要     不 希望 農地 一直 種電   破壞 農地 未來 發展 跟 價值   認為 光電業者 聚落 裡 種電   已影響 鄉親 生活 起居 跟 品質   能 感同身受 鄉親 不安 焦慮   會 透過 各種 協調 溝通   保障 地 鄉親 權益     建設 處長 李俊 興 表示   本案 屬於鄉 村區 乙種 建築 用地   業者 依法 向 縣府 提出 申請   公部門 亦 依法行政 核發 同意 文件   去年 9 月 接 獲民眾 陳 情 後   立即 協調 業者 應 與 當地 居民 持續 溝通   業者 表示同意 先行 暫停 施工  </t>
+          <t xml:space="preserve">近期 有 能源 公司 在 元長 鄉 瓦 磘 村 建 設 太 陽 光 電 場   卻 場址 設 在 村莊 中心   讓 當地 居民 人心惶惶   今 ( 11 ) 日 瓦 磘 反光 電 自救 會 前往 雲林縣 議會   向 縣長 張麗善 遞交陳情 書   盼光 電廠 商 另 尋他 地   不要 將光 電場 設置 於 瓦 磘 村 中   張麗善 除 親手 接下 陳 情書   也 表示 會 站 在 鄉親 的 立場   保護 大家 的 居住 環境   也 呼籲台 電應 考量 民眾 意見 本權責 妥處     張麗善 表示   地方 政府 跟 中央政府 都 有 各自 的 權責   公務人員 有 需要 配合 的 行政 程序   目前 的 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 的 土地   已經 被 中央 核定 為 合法 種電 的 範圍     張麗善 再次 強調 「 三不三要 」   不 希望 在 農地 一直 種電   破壞 農地 未來 的 發展 跟 價值   她 認為 光電業者 在 聚落 裡 種電   已影響 鄉親 的 生活 起居 跟 品質   能 感同身受 鄉親 的 不安 和 焦慮   會 透過 各種 協調 溝通   保障 在 地 鄉親 的 權益     建設 處長 李俊 興 表示   本案 屬於鄉 村區 乙種 建築 用地   業者 依法 向 縣府 提出 申請   公部門 亦 依法行政 核發 同意 文件   去年 9 月 接 獲民眾 陳 情 後   立即 協調 業者 應 與 當地 居民 持續 溝通   業者 也 表示同意 先行 暫停 施工  </t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">陳 安邦 等 表示   種電 可以 村外   村內 緊鄰 民宅   不要 說 危害   打 開家門   窗戶 看到 就是 太陽 能板   叫 8   90 歲 老人 情 何以堪   尤其 庄內 種電 作為   請問 哪個 村 可以 接受   所以 村民 大團 結堅 決展 現反 對 到底 決心   任何 回饋 都 不用 說   打死 都 反 對 庄內 種電   任何 法律 問題 他 一個 人承擔   甚至 為 了 爭取 縣長 張麗善 村民 主持公道   特別 今天 前來 向 張縣 長 陳 情   唯一 要求 光場 業者 退出 瓦 磘 村     縣長 張麗善 接下 陳 情書 後 指出   地方 政府 跟 中央政府 都 各自 權責   公務人員 需要 配合 行政 程序   目前 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 土地   已經 被 中央 核定 為 合法 種電 範圍   為 了 保護 我們 農地   特別 提出 三不三要   就是 不 希望 農地 上面 一直 種電   破壞 農地 未來 發展 跟 價值   光電業者 聚落 裡面 種電   已經 影響 鄉親 生活 起居 跟 品質   大家 不安 焦慮 我們 都 能 感同身受   縣府 透過 各種 協調 溝通   希望 能 保障 地 鄉親 權益  </t>
+          <t xml:space="preserve">陳 安邦 等 表示   種電 可以 在 村外   在 村內 緊鄰 民宅   不要 說 危害   打開 家門   窗戶 看到 就是 太陽 能板   叫 8   90 歲 老人 情 何以堪   尤其 在 庄內 種電 的 作為   請問 哪個 村 可以 接受   所以 村民 大團 結堅 決展 現反 對 到底 決心   任何 回饋 都 不用 說   打死 都 反 對 在 庄內 種電   有 任何 法律 問題 他 一個 人承擔   甚至 為 了 爭取 縣長 張麗善 村民 主持公道   特別 在 今天 前來 向 張縣 長 陳 情   唯一 要求 光場 業者 退出 瓦 磘 村     縣長 張麗善 接下 陳 情書 後 指出   地方 政府 跟 中央政府 都 有 各自 的 權責   公務人員 有 需要 配合 的 行政 程序   目前 的 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 的 土地   已經 被 中央 核定 為 合法 種電 的 範圍   為 了 保護 我們 的 農地   特別 提出 三不三要   就是 不 希望 在 農地 上面 一直 種電   破壞 農地 未來 的 發展 跟 價值   光電業者 在 聚落 裡面 種電   已經 影響 鄉親 的 生活 起居 跟 品質   大家 的 不安 和 焦慮 我們 都 能 感同身受   縣府 也 透過 各種 協調 溝通   希望 能 保障 在 地 鄉親 的 權益  </t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">張信 哲杜拜 站 演唱 會 原定 2 月 登場   後 來 撞 上 極端 氣候 出現 冰雹   淹水 災害   因而 延期 至 端午 假期 6 月 9 日舉行   他 笑 說     很 開心   差點 變成 不是 第一 個     透露 目前 已經 很多 歌手   陸續 安排 開唱 計畫   原本 很 擔心 阿拉伯 國家 演出 會 很多 限制   像是 有些 景點 不能 比 出 特定 手勢   演唱 會太過 喧鬧   後 來 才 發現 他們 對 外國人 很 禮遇   很 支持 娛樂 活動     第一次 得知 邀請 時   張信哲 心想     真的假 啦   有人 要 聽     過往 都 只有 杜拜 轉機 經驗   從 未 入境 過旅遊 他 說     他們 來 邀 請 時 就 說   以中 東來 說 這邊 是 華人 最 多 地方   30 萬人     杜拜位 處國際 航班 交通 樞紐   因此 有來 自 歐洲   俄羅斯 華人 歌迷   特地 飛來 欣賞 演唱 會   因為 天災 延期 開唱   歌迷 們 沒 太 多 抱怨 問題   把 票 留著 就 為 了 等到 正式 演出 這 一天 朝聖     首次 前進 沙漠 開唱   張信哲 歌喉 完全 沒有 受 影響     還好   場館 冷氣 很足   我 提前 4 天來   杜拜   調時 差     本來 就 沒 計畫 要 衝場 次 演出   1 週 1 場已 是 最大 限度     未來式   巡演 開唱 6 年   亞洲 站 預計 至 2024 年底 結束   前進 海外 開唱   他 最 想 攻 佔 場館 是 英國倫敦 皇家 阿爾伯特 音樂廳   Royal   Albert   Hall       張信 哲新 專輯 已經 籌備 中   下半年 會釋 出 更 多 新歌   台北 小 巨蛋   高雄 巨蛋 演唱 會   則要 排到 2025 年 才能 開唱     第一 個 要 搶 時間   現在 場館 太難 搶 了     記者 提議 大 巨蛋 開唱   張信哲 卻 謙虛回     大 巨蛋 周董   周杰倫   都 還排 不到   哪 還輪 到 我   等 別人 有空 給我用   我 再 用 就 好       歌神 張學友 因為 身體 不適   日前 取消 台北 站 演唱 會   張信哲 關注 此事     好 害怕   我 吃 增強 免疫力 的藥   醫生開     即將 前進 海拔 2000 多 公尺 青海 西寧站 開唱   張信哲 提到   前輩   薛之謙唱 到 吸氧 氣   私下 還嚇 他     一定 不要 亂動   不要 突然 爆衝    </t>
+          <t>張信 哲杜拜 站 演唱 會 原定 2 月 登場   後 來 撞 上 極端 氣候 出現 冰雹   淹水 災害   因而 延期 至 端午 假期 6 月 9 日舉行   他 笑 說   「 很 開心 啊   差點 變成 不是 第一 個   」 透露 目前 已經 有 很多 歌手   也 陸續 安排 開唱 計畫   原本 很 擔心 在 阿拉伯 國家 演出 會 有 很多 限制   像是 有些 景點 不能 比 出 特定 手勢   演唱 會太過 喧鬧   後 來 才 發現 他們 對 外國人 很 禮遇   也 很 支持 娛樂 活動     第一次 得知 邀請 時   張信哲 心想   「 真的假 的 啦   有人 要 聽 嗎   」 過往 都 只有 在 杜拜 轉機 的 經驗   從 未 入境 過旅遊 的 他 說   「 他們 來 邀 請 時 就 說   以中 東來 說 這邊 是 華人 最 多 的 地方   30 萬人   」 杜拜位 處國際 航班 交通 樞紐   因此 有來 自 歐洲   俄羅斯 的 華人 歌迷   特地 飛來 欣賞 演唱 會   因為 天災 延期 開唱   歌迷 們 沒 有 太 多 抱怨 的 問題   把 票 留著 就 為 了 等到 正式 演出 這 一天 朝聖     首次 前進 沙漠 開唱   張信哲 的 歌喉 完全 沒有 受 影響   「 還好   場館 冷氣 很足   我 提前 4 天來   杜拜   調時 差   」 本來 就 沒 有 計畫 要 衝場 次 演出   1 週 1 場已 是 最大 限度     未來式   巡演 開唱 6 年   亞洲 站 預計 至 2024 年底 結束   前進 海外 開唱   他 最 想 攻 佔 的 場館 是 英國倫敦 皇家 阿爾伯特 音樂廳   Royal   Albert   Hall       張信 哲新 專輯 已經 在 籌備 中   下半年 會釋 出 更 多 新歌   台北 小 巨蛋   高雄 巨蛋 演唱 會   則要 排到 2025 年 才能 開唱   「 第一 個 要 搶 時間   現在 場館 太難 搶 了   」 記者 提議 大 巨蛋 開唱   張信哲 卻 謙虛回   「 大 巨蛋 周董   周杰倫   都 還排 不到   哪 還輪 的 到 我   等 別人 有空 給我用   我 再 用 就 好   」   歌神 張學友 因為 身體 不適   日前 取消 台北 站 演唱 會   張信哲 也 有 關注 此事   「 好 害怕   我 有 在 吃 增強 免疫力 的藥   醫生開 的   」 即將 前進 海拔 2000 多 公尺 青海 西寧站 開唱   張信哲 提到 「 前輩 」 薛之謙唱 到 吸氧 氣   私下 還嚇 他   「 你 一定 不要 亂動   不要 突然 爆衝   」</t>
         </is>
       </c>
     </row>

--- a/repo/word_fragments.xlsx
+++ b/repo/word_fragments.xlsx
@@ -441,1295 +441,1295 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 和平東路 三段 一處 工地 旁 道路   凌晨 驚傳 地層下陷   連上頭 停放 的 轎車   也 跟 著下 墜   卡 在 1.5 公尺 深 的 大洞 裡   還壓 迫到 自來 水管 線   導致 破裂 流出 大灘 積水   居民 聽到 巨響   趕緊 報案 處理   也 透露 昨   4   天 下午 路面 就 出 現裂 縫   當時 建管處 會勘   把 原因 歸咎 於 地震   但 他們 無法 接受   質疑 是 工地 施工 導致   工地 圍牆 外 一大 塊 路面 下陷 坍塌   上頭 停放 的 轎車 也 跟 著 地層 向下 墜 受困   一旁 管線 流出 的 積水 也 逐漸 淹進 車頭   就 怕 轎車 泡水 拋錨   警方 請來 吊車 協助 車輛 脫困   但 一移 開 景象 更 驚人   道路 側邊 就 像 破 了 大洞   凹陷 1.5 公尺 坑洞   面積 也 有 30 平方公尺   4 日 下午 北市 和平東路 三段 這處 工地 外 的 道路 開始 出現 裂縫   建管處 與 工地 人員前 來 會勘   歸咎 於 3 日 地牛翻身   還貼 出 警示牌 提醒 民眾   沒 想到 5 日 凌晨 地層 整個 塌陷   不過 這 答案 附近 居民 無法 接受   有人 說 地震 前 就 已經 看到 裂縫   但剛 好 遇上 地震   相關 單位 就 把 責任 推給 地震   還有 住民 透露   這處 工程 在 打 地基 時   自己 在 家中 就 曾 感覺 到 震動   就 像 地震 一樣   質疑 根本 是 施工 問題 釀成 地層下陷   居民 的 滿腔 怒火 恐怕 是 建管處 在 修補 道路 外   下個 得 要面 對 的 難題  </t>
+          <t>台北市 平東路 三段 一處 工地 旁 道路 凌晨 驚傳 地層下陷 連 上頭 停放 轎車 跟著 下墜 卡 1.5 深 大洞 裡還 壓迫 到 自來 水管 線導致 破裂 流出 大灘 積水 居民 聽到 巨響 趕緊 報案 處理 透露 昨 4 天 下午 路面 就 出 現裂 縫 當時 建管處 會勘 把 原因 歸咎 於 地震 但 他們 無法 接受 質疑 工地 施工 導致 工地 圍牆 外 一大 塊 路面 下陷 坍塌 上頭 停放 轎車 跟著 地層 向下 墜 受困 一旁 管線 流出 積水 逐漸 淹進 車頭 就 怕 轎車 泡水 拋錨 警方 請來 吊車 協助 車輛 脫困 但 一 移開 景象 更 驚人 道路 側邊 就 像 破 了 大洞 凹陷 1.5 坑洞 面積 30 平方 4 日 下午 北市 平東路 三段 這處 工地 外 道路 開始 出現 裂縫 建管處 與 工地人員 前來 會勘 歸咎 於 3 日 地牛翻身 還貼 出 警示牌 提醒 民眾 沒 想到 5 日 凌晨 地層 整個 塌陷 不過 這 答案 附近 居民 無法 接受 人 說 地震 前 就 已經 看到 裂縫 但 剛好 遇上 地震 相關 單位 就 把 責任 推給 地震 還 住民 透露 這處 工程 打 地基 時 自己 家中 就 曾 感覺 到 震動 就 像 地震 一樣 質疑 根本 施工 問題 釀成 地層下陷 居民 滿腔 怒火 恐怕 建管處 修補 道路 外下個 得 要 面對 難題</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 推 再生能源 政策   近期 位 在 雲林 口湖 雲 147 線 道路 兩 側 椬 梧 農 場   長 期 地層下陷   土壤 鹽化   經 台糖 辦理 土地 使用 分區 變更   將設 置 太陽能 光電 設施   但當 地民眾 不滿 因為 開發 需要 大量 砍樹 種電   喊著 抗議 口號   反對 砍 樹 種電   位 在 雲林 口湖 鄉 雲 147 線 道路 兩側 是 台糖公司 椬 梧 農 場   但 這區 土地 因為 長 期 地層下陷   土壤 鹽化 不適 耕作   過去 是 配合 林務局 造林   但 近期 將 配合 中央 政策 推動 種電   讓 當地民眾 相當 不滿   反對 宜梧 變電所 自救 會 副 會長 李豐良 指出   「 旁邊 有 北堤 有 65 公頃 造林 區   南堤 也 有 65 公頃 造林 區   竟然 租給 私人 公司   配合 台糖 租給 私人 公司   私人 公司 才 跟 台糖 說 要 蓋 太陽能   」 雲縣 府 建設 處 處長 李俊 興回 應   「 他們 都 有 報給 農委會   因為 這是 申請 農業 用地   變更 做太陽能 光電廠   他們 都 有 經過 農業 單位   能源 單位 專業 審查   最後的 通過 才 有 今天 這案場 開發   」 當地 村民 表示   這次 規劃 開發 太陽光 電設 施場域   鄰 近 椬 梧 滯 洪 池   未來 若 周邊 設滿 太陽能 光電板 恐對 觀光 發展 有 影響   另外 針對 台電所 規劃 宜梧 變電所設 用地   過去 曾 被 傾倒 廢棄物 也 有所 疑慮   反對 宜梧 變電所 自救 會 副 會長 李豐良 表示   「 以前 有 被 盜 賣 土方   就 堆放 一些 廢棄物   怕 有 工業 廢水   我們 現在 是 憂慮   如果 是 蓋 變電所 後   是不是 以 後 口湖   水林   北港 大部分 都 會 用 地下水 的   」 台電輸供 電事業 部經理 黃 育新 回應   「 配合 縣 政府 環保局 來 辦理後續 調查 跟 釐 清   那環 保局 有擇定 開 挖 時間 我們 就 會 來 配合 辦理   」 台電 表示   宜梧 變電所 規劃 用地   都 是 依據 政府 採購 法及 相關 規定 取得   若當 地民眾 有所 疑慮   都 會 配合 環保 單位 調查   也 會會同 地方 民眾 參 與   希望 未來 變電所 成立 後   搭配 儲能 設備 提高 當地 用電 穩定度  </t>
+          <t>為 推 再 能源 政策 近期 位 雲林 口湖 雲 147 線 道路 兩 側 椬 梧 農場 長 期 地層下陷 土壤 鹽化經 台糖 辦理 土地 使用 分區 變更 將設 置 太陽能 光電 設施 但 當地民眾 不滿 因為 開發 需要 大量 砍樹 種電 喊著 抗議 口號 反 對 砍 樹 種電 位 雲林 口湖鄉 雲 147 線 道路 兩側 台糖 司 椬 梧 農場 但 這區 土地 因為 長 期 地層下陷 土壤 鹽化 不適 耕作 過去 配合 林務局 造林 但 近期 將 配合 中央 政策 推動 種電 讓 當地民眾 相當 不滿 反對 宜梧 變電所 自救 會 副 會長 李豐良 指出 「 旁邊 北堤 65 頃 造林 區南堤 65 頃 造林 區 竟然 租給 私人 司 配合 台糖 租給 私人 司 私人 司才 跟 台糖 說 要 蓋 太陽能 」 雲縣 府 建設 處 處長 李俊 興回 應 「 他們 都 報給 農委會 因為 這申 請 農業 用地 變更 太陽能 光電廠 他們 都 經過 農業 單位 能源 單位 專業 審查 最後通過 才 今天 這案場 開發 」 當地 村民 表示 這次 規劃 開發 太陽光 電設 施場域 鄰 近 椬 梧 滯 洪 池 未 來 若 周 邊 設 滿 太 陽 能 光 電 板 恐 對 觀 光 發 展 響 另外 針對 台電所 規劃 宜梧 變電所設 用地 過去 曾 被 傾倒 廢棄物 所疑慮 反對 宜梧 變電所 自救 會 副 會長 李豐良 表示 「 以前 被 盜 賣 土方 就 堆放 一些 廢棄 物怕 工業 廢水 我們 現憂慮 如果 蓋變 電所 後 不 以後口 湖水 林 北港 大部分 都 會 用 地下水 」 台電輸供 電事業 部經理 黃 育新 回應 「 配合 縣 政府 環保局 來 辦理後續 調查 跟 釐 清環 保局 擇定 開 挖 時間 我們 就 會 來 配合 辦理 」 台電 表示 宜梧 變電所 規劃 用地 都 依據 政府 採購 法相 關規定 取得 若當 地民眾 所疑慮 都 會 配合 環保 單位 調查 會會同 地方 民眾 參 與 希望 未來 變電所 成立 後 搭配 儲能 設備 提高 當地 用電 穩定度</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">地球 南北 兩極 這兩天 都 有 重要 的 科學 發現 發表 在 媒體 上   其中 在 北極 方面   科學家 發現 在 加拿大 北邊 的 海底 出現 地層下陷   最大 的 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 在 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 的 南極 大陸 東邊   在 3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 有 144 平方公里 的 冰架 崩解   相當 於 半個 台北市 的 大小   科學家 藉 著美國 太空 總署 NASA 的 衛星   拍 攝到 南極 大陸 東邊 的 「 格連澤 冰河 」   瀕臨 南 印度洋 的 冰架   在 2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 在 過去數 十年 來   冰架 崩解 的 現象   絕 大多 數出現 在 西邊 的 南極 半島   也 就是 與 南美洲 阿根廷 遙遙 相望 的 所在   而且 過去 的 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 的 冰雪 增厚   對 全球 海平面 的 衝擊 有限   從 2020 年 開始 南極 東邊 的 冰河 開始 縮小面積   但 也 是 以 每天 1 平方公里 的 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 有 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 的 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出   「 但 上星期 我們 發現 快速 的 氣候 現象   這也許 不足以 說明 事情 的 全貌   但 的 確對 冰架 造成 前 所 未 見 的 壓力 」   研究 人員 所 說 的 氣候 現象   是 指 發生 在 3 月 15 日 的 大氣 河流   這種 氣候 現 象是 指   高濃度 的 水蒸 氣沿 著 狹窄 的 區域 快速 前進   對 於 已經 在 消退 中 的 冰架 造成 致命 一擊   而大面積 的 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 在 加拿大 北邊 的 北極 海域   發現 大面積 的 地層下陷   最大 的 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 的 地下水 緩慢 流動   也 是 北極海 地層下陷 的 原因  </t>
+          <t>地球 南北 兩極 這兩天 都 重要 科學 發現 發表媒體 上 其中 北極 方面 科學家 發現 加拿大 北邊 海底 出現 地層下陷 最大 坑洞 長 200 寬 74 深度 達 24 而南極 方面 向 來 被 認為 氣溫 較 低 冰層 較 穩 定南 極大陸 東邊 3 月初 到 3 月 中發 冰河 快速 消退 導致 面積 144 平方里 冰架 崩解 相當 於 半個 台北市 大小 科學家 藉 著美國 太空 總署 NASA 衛星 拍 到 南極 大陸 東邊 「 格連澤 冰河 」 瀕臨 南 印度洋 冰架 2 月底 還狀況 良好 但 3 月初 到 3 月 中 卻 開始 快速 消退 崩解 令科學家 相當 憂心 南極過 去數 十年 來 冰架 崩解 現象絕 大多 數出 現西邊 南極 半島 就 與 南美洲 阿根廷 遙遙 相望 所 而且 過去 冰架 崩解 面積 與 規模 相 對 較 小同 時當 南半球 冬季 來 臨南極 冰雪 增厚 對 全球 海平面 衝擊限 從 2020 年 開始 南極 東邊 冰河 開始 縮小面積 但 以 每天 1 平方里 速度 減少 被 認為 自然 現象 直到 3 月初 情況 開始 了 改變 美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示 過去 發算 相當 緩慢 變化 原因 包括 海洋 暖化 與 冰 河流 動凱瑟琳 沃克 指出 「 但 上星期 我們 發現 快速 氣候 現象 這許 不足以 說明 事情 全貌 但確 對 冰架 造成 前 所 未見 壓力 」 研究 人員 所 說 氣候 現象 指發 3 月 15 日大氣 河流 這種 氣候 現象 指高 濃度 水蒸 氣沿 著 狹窄 區域 快速 前進 對 於 已經 消退 中 冰架 造成 致命 一擊 而 大面積 冰架 崩解 進而 消失 科學家 擔心 未來 海平面 將明顯 上升 另外 美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域 發現 大面積 地層下陷 最大 坑洞 長 約 220 寬 74 深度 達 24 研究 團隊 懷疑 除了 氣候 暖化 溫度 上升 地下水 緩慢 流動 北極海 地層下陷 原因</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">地層 嚴重 下陷 的 問題 不是 只有 台灣 會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 有 33 座 城市   以 每年 超過 一 公分 的 速度 下沉   是 海平面 上升 速度 的 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 的 是   連美國 南部 大城 休士頓 也 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 也 在 當地 設立 太空中心   但 你 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 在 地 平面   根據 「 世界 經濟 論壇 」 最近 發布 的 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 的 城市   也 是 西半球 唯一一 個 下沉 速度 排入 前十名 的 城市   美國氣 候專 家史 特勞斯 表示   「 雖然 土地 現在 有 大小 堤防 保護   但   地層下陷   仍 超乎想像   」 專家 表示   休士頓 下沉 速度快   海平面 也 上升 迅速   再 加上 氣候變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 的 惡化 強度 和 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 的 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 的 下沉 危機 也 一度 非常 嚴重   在 全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示   「 非常 重要 的   雅加 達 和 曼谷 從 東京 和 上海 汲取 成功 經驗   」 科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 的 模擬 畫面   在 在 都 提醒 人類 要 相信 科學   保護 自己 的 家園 避免 消失 刻 不容 緩  </t>
+          <t>地層 嚴重 下陷 問題 不只 台灣 會 發國外 一份 專業 調查 報告 顯示 全球 至少 33 座 城市 以 每年 超過 一分 速度 下沉 海平面 上升 速度 五倍 尤其 中國 天津 最嚴 重印 尼雅 加達 一樣 危險 令人 驚訝 連美國 南部 大城 休士 頓拉警報 專家 甚至 悲觀 預測 到 了 2100 年 休士頓 就 可能 從 地表 消失 休士頓 美國 德州 第一 大城 工商 業發達 美國 太空 總署 當地 設立 太空中心 但 能 想像 專家 已經 預測 80 年後大約 2100 年 休士 頓會 因為 地層 嚴重 下沉 整座 城市 消失 地 平面 根據 「 世界 經濟 論壇 」 最近 發布 報告 休士頓 平均 每年 以 1.95 分 速度 下沉 全球 下沉 速度 第 10 快 城市 西半球 唯一一 個 下沉 速度 排入 前十名 城市 美國氣 候專 家史 特勞斯 表示 「 雖然 土地 現 大小 堤防 保護 但 地層下陷 仍 超乎想像 」 專家 表示 休士頓 下沉 速度快 海平面 上升 迅速 再 加上 氣候變遷 因素 用科學 模型 推估 已經 無法 準確 預測 洪水 侵襲 惡化 強度 速度 呼籲 當局 必 須 儘 快 因 應 專 家 還 列 舉 全球 下沉 速度 最快 城市 中國 天津市 每年 以 5.22 分 速度 下沉 非常 驚人 印尼 雅加 達 下沉 危機 一度 非常 嚴重 全球 名列前茅 幸好 當局 嚴格 限制 抽取 地下水 地層下陷 從 每年 28 分 大幅 減少 到 3 分 印尼 學 表示 「 非常 重要 雅加 達 曼谷 從 東京 上海 汲取 成功 經驗 」 科學家 不斷 佈 全球 各 大城市 面臨 地層下陷 土地 沉沒模擬 畫面 都 提醒 人類 要 相信 科學 保護 自己 家園 避免 消失 刻不緩</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>水岸 第一排 住宅   開門   開窗 即 見 怡然 美景   住家 擁有 永久 棟 距   是 許多人 嚮 往 的 住居   正因 稀有性   房價 比 一般 房宅 略 高   不過   想 坐 擁 水岸 宅   購 屋前 需有 風險 意識   魔鬼 藏 在 細節裡   思考 後 再 出手   能 避免 踩 雷               登入 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬上 註 冊         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬上 註 冊   ｜   立即 搶購         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     訂閱 支持</t>
+          <t>水岸 第一排 住宅 開門 開窗 即 見 怡然 美景 住家 擁 永久 棟 距 許多人 嚮 往 住 居正因 稀性 房價 比 一般 房宅 略 高不過 想 坐 擁 水岸 宅購 屋前 需風險 意識 魔鬼 藏細 節裡 思考 後 再 出手 能 避免 踩 雷   登入 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 登入 讀 還不會員   馬上 註 冊 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 登入 讀 還不會員   馬上 註 冊   ｜   立即 搶購 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 支持</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>農委會 主委 陳 吉   右 3   與 立委 蘇治芬   右 2   等 人 會勘 雲林 口湖   台西 等 地 耕作 困難 地     記者 黃 淑莉攝     〔 記者黃淑莉 ／ 雲林 報導 〕 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人   到 雲林 口湖   台西 實地 勘查 多處 嚴重 地層下陷區   土地 數 10 年來 無法 耕作   養殖   陳 吉仲說   不 排除 以 專案   示範場域 方式   與 國家 綠能 政策 結合   附予 這類 土地 新價值   進而 創造 多贏     蘇治芬 指出   口湖   台西 等 沿海 地區 有 多 處位 處 嚴重 地層下陷區 土地   卻 具有 困難 耕作 地   養殖 專區   地層下陷區 等 多重 身分   現況 是數 10 年來 因難 耕作   地上 荒涼   地主 怨嘆 又 無奈     蘇治芬 說   若 沒 有 新 的 土地 政策 進場 協助   數 10 年後還 是 與 現況 一樣   接到 許多 農民陳情   今天 邀請 農委會 主委 現勘   盼能 盤點 政策 協助   才能 附予 土地 新價值     陳 吉仲 表示   會勘 後 會 與 相關 單位 討論 調整 相關 政策   在 不 影響 農漁業 生產 又 兼顧 農漁 民生 計   考慮 結合國家 綠電 發展   並以 專案 或示 範場域 方式 進行   進而 創造 農民   地方 發展   國家 重要 政策 也 能 發展 的 三贏     一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
+          <t>農委會 主委 陳 吉右 3 與 立委 蘇治芬 右 2 等 人 會勘 雲林 口湖 台西 等 地 耕作 困難 地黃淑莉 〔 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人 到 雲林 口湖 台西 實地 勘查 多處 嚴重 地層下陷區 土地 數 10 年來 無法 耕作 養殖 陳 吉仲說 不 排除 以 專案 示範場域 方式 與 國家 綠能 政策 結合 附予 這類 土地 新價值 進而 創造 多贏 蘇治芬 指出 口湖 台西 等 沿海 地區 多 處位 處 嚴重 地層下陷區 土地 卻 具困難 耕作 地養殖 專區 地層下陷區 等 多重 身分 現況數 10 年來 因難 耕作 地上 荒涼 地主 怨嘆 又 無奈 蘇治芬 說 若 沒 新 土地 政策 進場 協助數 10 年後還 與 現況 一樣 接到 許多 農民陳情 今天 邀請 農委會 主委 現勘 盼 能 盤點 政策 協助 才能 附予 土地 新價值 陳 吉仲 表示 會勘 後 會 與 相關 單位 討論 調整 相關 政策 不響 農漁業產 又 兼顧 農漁民計 考慮 結合國家 綠電 發展 並以 專案 或示 範場域 方式 進行 進而 創造 農民 地方 發展 國家 重要 政策 能 發展 三贏 一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 捷運 萬大線 工程 被民眾 直擊 疑似 施工 不慎   日前 出現 自來 水管 破裂   還導致 柏油路 面 凹陷   讓 車輛 經過 像是 開在 彈簧 床上   不 只 如此   工人 甚至 被 目擊 在 滿 是 乙炔 鋼瓶 旁 抽 菸   遭質疑 這樣 難道 不會 對 工安 造成危害 嗎   被 指控 缺失   捷運局 表示   已經 找 自來 水 公司 協助止 漏   路面 下陷 也 加鋪 恢 復 正常   至於 工人 則是 在 休息 區抽 菸   並無 不妥   捷運 萬大線 施工 現場 滴滴答答   水流 個 不停   這 不是 天空 在 下雨   而是 水管 破裂   讓 工人 施工 像是 水 濂 洞 一樣   大量 自來 水不斷 流出   更 扯 的 是 有 附近 住戶 說   已經流 了 一個 禮拜 還沒 改善   更 疑似 導致 附近 路面 凹陷   車輛 經過 凹陷 路面 彈了 好 大 一下   駕駛 也 嚇到 急 踩 煞車   北市 的 捷運 萬大線 工程   有民眾 向 議員 投訴   說 恐怕 有 工安 問題   還有 工人 在 氧氣 跟 乙炔 鋼瓶 附近 大膽 抽 菸   讓民眾 看 了 好 擔心   對此 萬華區 全 德里 長 王平 三 表示   「 這個 地方 捷運 做到 現在   漏水   地方 下陷 的 地方 很多   所以 他們 也 很煩   但 不 至於 說 很 害怕   只是 我們 必須 要 小心 點 」   民眾 擔憂 破裂 的 水管 會導致 地層下陷   影響 住家 安全   也 質疑 是 捷運 施工 不慎   挖破 管線   但是 捷運局 趕緊 出面 澄清   表示 已經 找 自來 水 公司 協助止 漏   路面 凹陷 部分 也 重新 鋪 好   至於 工人 抽 菸 地點 是 在 休息 區內   符合 法規   但 未來 將劃 設明顯 休息 區   避免 民眾 質疑 有 工安疑慮  </t>
+          <t>台北 捷運 萬大線 工程 被民眾 直擊 疑似 施工 不慎 日前 出現 自來 水管 破裂 還導致 柏油路 面 凹陷 讓 車輛 經過 像 開彈 簧 床上 不只 如此 工人 甚至 被 目擊滿 乙炔 鋼瓶 旁 抽 菸 遭質疑 這樣 難道 不會 對 工安 造成危害 被 指控 缺失 捷運局 表示 已經 找 自來 水司 協助止 漏 路面 下陷 加鋪 恢 復 正常 至於 工人 則 休息 區抽 菸 並無 不妥 捷運 萬大線 施工 現場 滴滴答答 水流 個 不停 這不 天空 下雨 而 水管 破裂 讓 工人 施工 像 水 濂 洞 一樣 大量 自來 水不斷 流出 更 扯 附近 住戶 說 已 經流 了 一個 禮拜 還沒 改善 更 疑似 導致 附近 路面 凹陷 車輛 經過 凹陷 路面 彈了 好 大 一下 駕駛嚇 到 急 踩 煞車 北市 捷運 萬大線 工程 民眾 向 議員 投訴 說 恐怕 工安問 題還 工人 氧氣 跟 乙炔 鋼瓶 附近 大膽 抽 菸 讓 民眾 看 了 好 擔心 對 此 萬華區 全 德里 長 王平 三 表示 「 這個 地方 捷運到 現 漏水 地方 下陷 地方 很多 所以 他們 很煩 但 不 至於 說 很 害怕 只 我們 必須 要 小心 點 」 民眾 擔憂 破裂 水管 會導致 地層下陷 響 住家 安全 質疑 捷運 施工 不慎 挖破 管線 但 捷運局 趕緊 出面 澄清 表示 已經 找 自來 水司 協助止 漏 路面 凹陷 部分 重新 鋪 好 至於 工人 抽 菸 地點 休息 區 符合 法規 但 未來 將劃 設明顯 休息 區 避免 民眾 質疑 工安疑慮</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 檢測 雲林 地層下陷 數值   水利 署 去年 在 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   能線 上 即 時 取得 觀測 資料   對 於 下陷 數據 監測 與 分析 有 很大 助益   因應 雲林 地層下陷 影響   水利 署後續 規劃 將分別 在 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所 再 設置 地下水 觀測 站   監測 下陷 狀況 來 做 相關 防制   放下 感測器   測量 目前 所在地 的 地下水位   可以 再 透過 手機 即 時線 上 取得 觀測 資料   提供 針對 地層下陷 數據 做 分析 監     為 了 要 防範 地層下陷 持續 擴大   水利 署 去年 在 雲林 大 埤 鄉 仁和 國小設 置 地下水 觀測 站   水利 署 副署 長 黃 宏 莆 說明   「 我們 在 這國小設 了 5 個 水位 觀測井   還有 一個 地層下陷 觀測井   可以 把 周邊 大 埤 主要 的 地下水 分層 水位   可以 即 時線 上 獲得 相關 資訊   」 立委 劉建國 指出   「 這對 雲林 來 說   不管 是 對 土地 面積   農地 使用 種種   還有 最 重要 的 是 說   我們 也 是 高鐵行經 主要 縣市   要 克服 的 很大 環境 挑戰 議題   」 雲林 是 全台 地層下陷 嚴 重地 區   下陷 面積 數據 時 好 時壞   對 居民 及 高鐵 乘客 安全 有 隱憂   除了 仁和 國小設 置   水利 署 也 將規劃 在 元長 國小   口湖 金湖國 小 以及 台 西海 園水試 所   再 設置 地下水 觀測 站 共 7 口井   大 埤 仁和 國小校 長 洪千惠 表示   「 水利 署 如果 什麼 政策 要 跟民眾 宣導   還有 一些 教育   還有 跟 小朋友 的 環境 教育 的 結合   都 可 把 它 連在 一起   變成 與 民眾 共有 這樣   」 校方 表示   校園 中設 地下水 觀測 站   也 能 讓 學童 透過 實際 觀測 做 環境 教育   對此 水利 署則 表示   會 配合 校方 再 做 相關 規劃   也 希望 設置 觀測井 所 得到 的 即 時 資訊   作為 地層下陷 相關 防制 參考  </t>
+          <t>為 檢測 雲林 地層下陷 數值 水利 署 去年 雲林 大埤鄉 仁國 小 設置 地下水 觀測 站 能線 上 即 時 取得 觀測 資料 對 於 下陷 數據 監測 與 分析 很大 助益 因應 雲林 地層下陷 響 水利 署後續 規劃 將分別 元長 國小 口湖 金湖 國小以 台 西海 園水試 所 再 設置 地下水 觀測 站 監測 下陷 狀況 來 相關 防制 放下 感測器 測量 目前 所地 地下水位 可以 再 透過 手機 即 時線 上 取得 觀測 資料 提供 針對 地層下陷 數據 分析 監為 了 要 防範 地層下陷 持續 擴大 水利 署 去年 雲林 大埤鄉 仁國 小 設置 地下水 觀測 站 水利 署 副署 長 黃 宏 莆 說明 「 我們 這國小設 了 5 個 水位 觀測井 還一個 地層下陷 觀測井 可以 把 周邊 大埤 主要 地下水 分層 水位 可以 即 時線 上 獲得 相關 資訊 」 立委 劉 建國 指出 「 這對 雲林 來 說 不管 對 土地 面積 農地 使用 種種還 最 重要 說 我們 高鐵行經 主要 縣市 要 克服 很大 環境 挑戰 議題 」 雲林 全 台 地層下陷 嚴 重地 區 下陷 面積 數據 時 好 時壞 對 居民 高鐵 乘客 安全 隱憂 除了 仁國 小 設置 水利 署將 規劃 元長 國小 口湖 金湖 國小以 台 西海 園水試 所 再 設置 地下水 觀測 站 共 7 口井 大埤 仁國小校 長 洪千惠 表示 「 水利 署 如果 什麼 政策 要 跟民眾 宣導還 一些 教育 還跟 小朋友 環境 教育 結合 都 可 把 它連 一起 變成 與 民眾 共 這樣 」 校方 表示 校園 中設 地下水 觀測 站 能 讓 學童 透過 實際 觀測 環境 教育 對此 水利 署則 表示 會 配合 校方 再 相關 規劃 希望 設置 觀測井 所 得到 即時 資訊作 為 地層下陷 相關 防制 參考</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 的 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 的 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 的 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 的 湖山 水庫   源源 不斷 的 滲水來 補充 雲林 的 地下水 源   對 減緩 地層下陷 有 很大 的 助益     林內 鄉 公所 今天 在 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 及 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 在 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 及 鄰近 縣 市民 生   農業 及 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   在 林內 河段 是 河 寬 最窄 處   也 造就 了 林內 的 好 水質   就 可以 從事 很多 水環境 及 水資源 的 保護 措施   經調查 在 林內 三號 水門 附近 的 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 的 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 的 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 的 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 的 面積 已 達 20 公頃   源源 不絕 的 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 也 指出   去年 全國 百年 大旱   各地 都 沒 有 水 灌溉   別 的 縣市 就算 有 地下水 井   也 抽 不到 水   唯一 有水 的 就是 雲林   因為 有 地下水 補助   所以 農民 可以 抽 得到 地下水   他 也 強調   要 好好 保護林 內 的 水資源   因為 林內 的 水 如果 受到 污染   河川 局 也 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  </t>
+          <t>〔 困擾 雲林 多年 地層下陷 解了 第四 河川 局濁 水溪林段 河槽 河床 設置 地下水 補注池 成效 卓越 今年 補注池 蓄水 面積 已 增加 至 20 頃等 於 添增 一座 隱形 湖山 水庫 源源 不斷 滲水來 補充 雲林 地下水 源 對 減緩 地層下陷 很大 助益 林鄉 所 今天 林鄉 觸口 堤防 國道 3 號 高速路 橋下 舉辦 河川 淨堤 活動 由 鄉長 張維崢 第四 河川 局長 李友 平帶 領所員 工環 保志 工淵 明國 中師 地 居民 約 200 人沿 觸口 堤防 道路 進行 清掃 清理 河堤 外 垃圾 用行 動守護 環境 張維崢 表示 林鄉位 於 濁 水溪 沖 積扇 水源 頭之頂 點得天 獨厚 天然 地理 環境 與 豐富 自然 態緊 鄰濁 水溪 河畔 水源 供 雲林縣 鄰近 縣 市民 農業 工業 用水 為 重要 水源地 李友平 表示 台灣 早年 因超 抽 地下水 導致 地層下陷 濁水溪長 186.7 里林 河段 河寬 最窄 處 造就 了 林好 水質 就 可以 從事 很多 水環境 水資源 保護 措施 經調 查林三號 水門 附近 河段 濁水溪 唯一 能 從 事 地下水 補助 河段 經由 設置 蓄水池 留住 地面水 挖掘 入 滲補 注池 以 河水 補注 地下水 可補充 最深 達 地下 400 地下水 源 再 流往 海岸 地區 能 減輕 地下水 洩降 舒緩 地層下陷 問題 李友平 表示 第一座 地下水 補助池 於 2020 年 完成 效果 非常 好 今年 擴大 辦理 蓄水池 面積 已 達 20 頃 源源 不絕 地面水 持續 往 地下 滲入 可效 減緩 地層下陷 挹注 地下水 資源 李友平 指出 去年 全國 百年 大旱 各地 都 沒水 灌溉 別縣 市 就算 地下水 井 抽 不到 水 唯一 水 就 雲林 因為 地下水 補助 所以 農民 可以 抽 得到 地下水 他強 調要 好好 保護林 水資源 因為 林水 如果 受到 污染 河川 局 不敢 讓 水 滲到 地下 因 為 髒 水下 滲就會 變成 地下水 深層 污染</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 抑制 濁水溪 揚塵   四河 局兩 年前 在 雲林 林內 段   多 設置 河槽 地下水 補注池   經過 兩年 地下水 補注經 監測   約 注入 1300 萬公噸 水源 入滲   今年 將再 增擴 20 公頃   有 當地 農民 就 說   去年 全國 百年 大旱   當地 農民持續 有 水源 灌溉   對此 第四 河川 局則 表示   地下水 補注池 效果 不錯   能 有效 舒緩 地層下陷 問題   雲林 林內 3 號水門 附近 濁水溪 河段   為 了 改善 揚塵   兩 年前 四河 局進行 疏濬 工程   並設 置 地下水 人工 補注池 蓄水   將 地面 河水 引進 補注 地下水   水源 最深 達到 地下 四百 公尺   希望 減緩 地層下陷   第四 河川 局 副 局長 張朝 恭 說   「 在 疏濬 的 部分   配合 把 引水 進來   來 做 一個 補注 地下水 的 功能   」 雲 科大 水土 中心 主任 溫志超 表示   「 這邊 8 公頃   上游 有個 28 公頃   兩個 合 併 約 35 公頃 去 操作   那 兩年 的 時間   基本上 總共 35 公頃 之下   有 1300 多萬公噸 的 水入滲 下去   」 雲 科大 水土 中心 表示   補注池 的 水源 由高處 流向 低處 補注   能 有效 減緩 地層下陷   也 能 使 地下水位 回升   像 去年 全國 百年 大 缺水   各地 都 沒水 可 灌溉   補注池 的 功效 就 明顯 可見   雲林 農民說   「 年尾時 沒 下雨 一定 都 會 缺水   那 缺水 時透過 這樣 的 補注   對 農民 一定 有所 幫助   」 雲林 農民 表示   「 要 用水 就 比 較 不用 擔心   就是 用排 的 也 排 得到   」 四河 局 表示   雲林 第一座 地下水 補注池   在 2020 年 完成 因為 效果 不錯   今年 將再 擴大將 蓄水池 面積 增加 20 公頃   希望 透過 地面水 補注 地下水   達到 減緩 地層下陷 情況   也 能 讓 農民有 足夠 水源 灌溉  </t>
+          <t>為 抑制 濁水溪 揚塵 四河 局兩 年前 雲林 林段 多 設置 河槽 地下水 補注池 經過 兩年 地下水 補注經 監測 約 注入 1300 萬噸 水源 入滲 今年 將再 增擴 20 頃當 地 農民 就 說 去年 全國 百年 大旱 當地 農民持續 水源 灌溉 對此 第四 河川 局則 表示 地下水 補注池 效果 不錯 能效 舒緩 地層下陷 問題 雲林 林 3 號水門 附近 濁水溪 河段 為 了 改善 揚塵 兩 年前 四河 局進行 疏濬 工程 並設 置 地下水 人工 補注池 蓄水 將 地面 河水 引進 補注 地下水 水源 最深 達到 地下 四百 希望 減緩 地層下陷 第四 河川 局 副 局長 張朝 恭 說 「 疏濬 部分 配合 把 引水 進來 來 一個 補注 地下水 功能 」 雲 科大 水土 中心 主任 溫志超 表示 「 這邊 8 頃 上游 個 28 頃兩個 合 併 約 35 頃去 操作 兩年 時間 基本上 總共 35 頃 之下 1300 多萬噸 水入滲 下去 」 雲 科大 水土 中心 表示 補注池 水源 由高處 流向 低處 補注 能效 減緩 地層下陷 能 使 地下水位 回升 像 去年 全國 百年 大 缺水 各地 都 沒水 可 灌溉 補注池 功效 就 明顯 可見 雲林 農民說 「 年尾時 沒 下雨 一定 都 會 缺水 缺水 時透過 這樣 補注 對 農民 一定 所幫助 」 雲林 農民 表示 「 要 用水 就 比 較 不用 擔心 就 用 排排 得到 」 四河 局 表示 雲林 第一座 地下水 補注池 2020 年 完成 因為 效果 不錯 今年 將再 擴大將 蓄水池 面積 增加 20 頃 希望 透過 地面水 補注 地下水 達到 減緩 地層下陷 情況 能 讓 農民足夠 水源 灌溉</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 內 虎尾   土庫   元長 和 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 在 去年 暫停 辦理   雲林 農民 表示   「 只要 不是 種 水稻 類   其實 它 的 吸 水量 會 真的 會差 很多   這是 實在 話   在 雲林 這邊 就是 水稻 的 需求   地下水 的 需求量 是 最 多 的   」 為 了 鼓勵 高鐵 沿線 的 農民能 在 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出   「 高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 的 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 在 一期 作去 推動 的 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元   」 雲林 農民 指出   「 成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過   」 當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 也 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 內 達 到 稻作 1700 公頃 轉出 的 目標  </t>
+          <t>雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重 恐響 高鐵行車 安全 農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作 但 卻 從 去年 暫停 獎助 雲 縣府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水 持續 向 中央 爭取 獲得 核定 復 辦 將明 2023 年 起 恢 復 實施 節水 獎勵 措施 雲林 高鐵 沿線 地區 地層下陷 嚴重 區域 其中 雲林 土庫 段 一年 下陷 6.5 分 最嚴 重恐 危高鐵 安全 農委會 2013 年針 對雲縣 虎尾 土庫 元長 北港 高鐵 沿線 左右 1.5 里 提出 節水 獎勵 鼓勵 稻農 轉作 但 卻 去年 暫停 辦理 雲林 農民 表示 「 只要 不種 水稻 類其實 它 吸 水量 會真會 差 很多 這實話 雲林 這邊 就 水稻 需求 地下水 需求量 最 多 」 為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物 雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定 除了 領取 綠色 獎勵 金外 還能 領轉 作金 3 萬元 或 產環境 維護金 4 萬 2 至 5 萬 2 不 等 雲林縣 農業 處 副 處長 蔡耿宇 指出 「 高鐵 沿線 周邊 1.5 里 它 針對 綠肥 部分 原本 大概 每頃 補助 4 萬 5 這次會 加碼 如果 一期 作去 推動話 可以 加碼 4 萬 2000 元 所以 一頃 可以 領到 8 萬 7000 元 」 雲林 農民 指出 「 成本 還 包括 肥料 噴灑 農藥 至少 都 要 花 2 萬元 成本 超過 」 當地 農民 表示 面對 近期 人工 肥料 成本 提高 若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願 而 農業 處 說 縣 高鐵 沿線 四鄉鎮 農地 大約 4 千頃 希望 能 透過 推動 農地 轉旱 作物 獎勵 3 年 達 到 稻作 1700 頃轉出 目標</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 內 農民種 植 低耗 水 作物 的 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 在 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 及 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 及 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 內 農地   獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 的 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  </t>
+          <t>〔 為 防治 地層下陷 行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 里 半範圍 農民種 植 低耗 水 作物 節水 獎勵 即種 植轉作 作物 每頃 給予 3 萬元種 綠肥 4 萬 2000 元種 景觀 作物 5 萬 2000 元鑑 雲林 高鐵 沿線 地層下陷 嚴重 避免 響到 高鐵行車 安全 中央 相關 部會 雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作 其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物 減少 地下水 抽取 量 縣府 農業 處 指出 農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 里 範圍 節水 獎勵 給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 產獎 勵效 減少 地下水 抽取 地層下陷 明顯 減緩 農業 處 表示 獎勵 措施 至 2020 年 截止 去年 今年 沒辦理 統計 發現 高鐵 沿線 第一期 作種 稻面積 又 恢 復 為 避免 地層下陷 再 惡化 縣府 向 中央 爭取 持續 辦理節 水獎 勵經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵 農業 處 說 這次 行政院 核定 針對 雲林 虎尾 土庫 元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 里 農地 獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 節水 獎勵 額度 歡迎 符合 申辦 資格 農民 踴躍 配合 相關 資訊 可 洽詢 縣府 農業 處</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 內 農民種 植 低耗 水 作物 的 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   在 農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 ○ 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 內 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 在 二 ○ 一 三年 至 二 ○ 二 ○ 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 及 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 的 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  </t>
+          <t>〔 防治 高鐵 沿線 地層下陷 行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一里 半範圍 農民種 植 低耗 水 作物 節水 獎勵 即種 植轉作 作物 每頃 給予 三萬元種 綠肥 四萬 二千元 種景觀 作物 五萬 二千元 雲林 高鐵 沿線 地層下陷 嚴重 避免 響到 高鐵行車 安全 中央 相關 部會 雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作 農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱 大豆 等 低耗 水 作物 減少 地下水 抽取 量 縣府 農業 處 表示 為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵 針對 雲林 高鐵 沿線 三里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業產 獎勵 農業 處 指出 獎勵 計畫 二 一 三年 至 二 二年 期間 地下水 抽取 減少 地層下陷 明顯 減緩 獎勵 計畫 截止 後 統計 發現 高鐵 沿線 第一期 作種 稻面積 又 恢 復 為 避免 地層下陷 再 惡化 縣府 向 中央 爭取 持續 辦理節 水獎 勵經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵 農業 處 說 這次 行政院 核定 針對 雲林 虎尾 土庫 元長 北港 等 四鄉 鎮高鐵 沿線 左右 一里 半 農地 獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 節水 獎勵 額度 歡迎 符合 申辦 資格 農民 踴躍 配合</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>資訊視 覺化 地層下陷                   書名     書上 設計展 2021       作者   尼 普利 編輯室 企劃     出版社   尼 普利 出版     出版 時間   2022 年 1 月 15 日           臺 灣 地層下陷   人們 對 於 這塊 土地 的 不當 利用   可說 是 現今 臺 灣 地層下陷 的 主要 肇因   像是 水資源 缺乏 所導致 超 抽 地下水   抑或 是 高鐵興 建所 造成 地面 荷重 大量 增加 等   都 加速 了 地層下陷 問題 的 發生   〈 B1 － 臺 灣 地層下陷 〉 專書以 複 合式 裝幀 結構 來 設計   將其分 為 兩 部分   分別 以線 裝及 摺 頁 書 的 方式 呈現   內容 運用 資訊視 覺化 設計 為 主軸   介紹 臺 灣國土 下陷 四大 原因   九大 下陷 地區 說明   及 各個 地區 的 圖文細節   藉由 閱讀 理解 各 下陷 地區 之間 的 差異   引領民眾 快速 了解 現今 臺 灣 地層下陷 的 嚴重 程度       複 合式 裝幀 結構 設計     有別 於 過往 百科 全書 的 呆板 形式   本 專書 運用 複 合式 裝幀 結構 設計   利用 資訊視 覺化 手法   將 原本 龐雜 的 數據   輔以 凸顯 重點 的 視覺 編排   呈現 一幅 巨型 的 資訊 圖表   並 搭配 注目 性較 高 的 紅色   警惕 民眾 地層下陷 所 造成 的 危害   以及 對 居住 與 國土 安全 的 威脅                                           以 專書設 計為 主軸   書籍 以 複 合式 裝幀 設計   圖 ／ 尼 普利   提供                           在 封面 以 雷射 切割 紙材 方式 呈現 下陷 層次 造型   圖 ／ 尼 普利   提供                           重點 介紹 九大 下陷 地區 的 數據表現 與 相 關訊息   圖 ／ 尼 普利   提供           ● 編輯 觀點     地層下陷 的 問題   好像 溫水 煮 青蛙   水平 看似 一致   卻 可能 正在 下移 而 渾然 未覺   安全 此刻 在 懸崖邊   搖搖欲 墜   〈 B1 － 臺 灣 地層下陷 〉 透過 設計 手法   視覺化 呈現 臺 灣 地層下陷 的 現況   讓 人 意識 到 問題 的 存在   進而 思考 土地 的 規劃   臺 灣 四面 環海   地層下陷 的 問題 格外 隱憂   國土 一旦 保持 不佳   負載 過度   一不留神 就是 海水倒灌 等 不 可逆 的 嚴重後患   那些 存在 的 也 許無力 一次 解決   但 不放棄   盡己 所能   喚起 危機 意識   也 是 一種 改變 的 開始     設計 團隊     樹德 科技 大學   視覺 傳達 設計系     Designer ｜ 江蓉   楊皓鈞   黃 上溢   廖楷平   林靜芬   黃 麒 樺     Advisor ｜ 陳 月 英                             【 本 文摘 選自尼 普利 編輯室 出版   書上 設計展 2021   一書 內容   授權 刊登 於 聯合 新聞網 「 琅琅 悅讀 」 頻道   未經 同意   請 勿 轉載   】 加入   琅琅 悅讀   Google   News   按下 追 蹤   精選 好文 不 漏接       五月 藝文 專題 及 活動 一覽     🎁 　 抽獎 ｜ 海明威   金城武 都 來過   法國 巴黎 左岸 的 莎士 比亞書店   📰 　 師大美術館 「 一拍 即影 」 300 件 拍 立得   見證 攝 影大師 的 黃 金 年代   📰 　 漫步 青島 老城 區   探訪 上 世紀 的 文藝書店   民宿 及 咖啡 館   📰 　 不一樣 的 山水 畫   M ＋ 博物 館 「 山鳴 水應 」 用 新視角 看藝術   📰 　 南美 館 雙館 共展 「 沃克   海怪   炮火 與 他們 」 以藝術 視角 回望 歷史   📰 　 你 吃 的 是 什麼 烤 鴨   北京 與 廣式 烤 鴨 之間 的 3 種差異   📌 　 梁朝 偉   劉德華 都 演過   盤點 金庸 武俠 劇中 的 經典 選角</t>
+          <t>資訊視 覺化 地層下陷   書名 書 上 設計展 2021   作尼 普利 編輯室 企劃   出版社 尼 普利 出版   出版 時間 2022 年 1 月 15 日     臺 灣 地層下陷 人們 對 於 這塊 土地 不當 利用 可說 現今 臺 灣 地層下陷 主要 肇因 像 水資源 缺乏 所導致 超 抽 地下水 抑或 高鐵興 建所 造成 地面 荷重 大量 增加 等 都 加速 了 地層下陷 問題 發 〈 B1 － 臺 灣 地層下陷 〉 專書以 複 合式 裝幀 結構 來 設計將 其分 為 兩 部分 分別 以線裝 摺 頁 書 方式 呈現 運用 資訊視 覺化 設計 為 主軸介紹 臺 灣國土 下陷 四大 原因 九大 下陷 地區 說明 各個 地區 圖文細節 藉由 讀 理解 各 下陷 地區 之間 差異 引 領民眾 快速 了解 現今 臺 灣 地層下陷 嚴重 程度     複 合式 裝幀 結構 設計     別 於 過往 百科 全書 呆板 形式 本 專書 運用 複 合式 裝幀 結構 設計 利用 資訊視 覺化 手法 將 原本 龐雜 數據 輔以 凸顯 重點 視覺 編排 呈現 一幅 巨型 資訊 圖表並 搭配 注目 性較 高紅色 警惕 民眾 地層下陷 所 造成危害 以 對 居住 與 國土 安全 威脅   以 專書設 計為 主軸書籍 以 複 合式 裝幀 設計 圖尼 普利   提供   封面 以 雷射 切割 紙材 方式 呈現 下陷 層次 造型 圖尼 普利   提供   重點 介紹 九大 下陷 地區 數據表現 與 相 關訊息 圖尼 普利   提供   ● 編輯 觀點     地層下陷 問題 好像 溫水 煮 青蛙 水平 看似 一致 卻 可能 正 下移 而 渾然 未覺 安全 此刻 懸崖邊 搖搖欲 墜 〈 B1 － 臺 灣 地層下陷 〉 透過 設計 手法 視覺化 呈現 臺 灣 地層下陷 現況 讓 人 意識 到 問題 存進 而 思考 土地 規劃 臺 灣 四面 環海 地層下陷 問題 格外 隱憂國土 一旦 保持 不佳 負載 過度 一不留神 就 海水倒灌 等 不 可逆 嚴重 後 患些 存許 無力 一次 解決 但 不放棄 盡己 所能 喚起 危機 意識 一種 改變 開始   設計 團隊     樹德 科技 大學   視覺 傳達 設計系     Designer ｜ 江蓉 楊皓鈞 黃 上溢 廖楷 平林靜芬 黃 麒 樺     Advisor ｜ 陳 月 英       【 本 文摘 選自尼 普利 編輯室 出版 書上 設計展 2021 一書 授權 刊登 於 聯合 新聞網 「 琅琅 悅讀 」 頻道 未經 同意 請 勿 轉載 】 加入   琅琅 悅讀   Google   News   按下 追 蹤 精 選 好 文 不 漏接 五月 藝文 專題 活動 一覽 🎁 　 抽獎 ｜ 海明威 金城武 都 來 過法國 巴黎 左岸 莎士 比亞書店 📰 　 師 大美 術館 「 一拍 即 」 300 件 拍 立得   見 證大師 黃 金 年代 📰 　 漫步 青島 老城 區探 訪上 世紀 文藝書店 民宿 咖啡 館 📰 　 不一樣 山水 畫 M ＋ 博物 館 「 山鳴 水應 」 用 新視角 看藝術 📰 　 南美 館 雙館 共展 「 沃克 海怪 炮火 與 他們 」 以藝術 視角 回望 歷史 📰 　 吃 什麼 烤 鴨 北京 與 廣式 烤 鴨 之間 3 種差異 📌 　 梁朝 偉劉德華 都 演過 盤點 金庸 武俠 劇中 經典 選角</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 中央社 〕 一項 新 的 研究 指出   南亞 和 東南亞 的 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 的 人 更 容易 受到 海平面 上升 的 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表 在 「 自然 永續 」   Nature   Sustainability   期刊 上 的 一項 研究   快速 的 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 的 需求     研究 指出   「 這 使得 經歷 當地 土地 快速 下沉 的 城市 所 面臨 沿海 災害 的 風險   比 那些 已 因氣候 導致 海平面 上升 的 城市 所 面臨 的 風險 更 大   」   越南 人口 最多 的 城市 和 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   在 這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 的 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 和 緬甸 商業 中心 仰光 在 高峰 年間 皆 下沉 20 多公 釐     研究 稱   「 這些 快速 下沉 的 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 的 建築 結構   導致 土地 下沉   」   下沉 的 城市 本身 並非 氣候變遷 的 結果   但 研究 人員 說   他們 的 研究 能 更 深入 了解 下沉 現象 如何 「 加劇 氣候 所導致 平均 海平面 上升 的 影響 」     根據 聯合國 「 政府 間 氣候變遷 問題 小組 」   Intergovernmental   Panel   on   Climate   Change     IPCC   的 資料   到 2050 年   將有 十多 億人 生活 在 沿海 城市   面臨 海平面 上升 的 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  </t>
+          <t>〔 一項 新 研究 指出 南亞 東南亞 沿海 大城市 下沉 速度 要 比 世界 其他 地方 更快 使數 以千萬計 人 更易 受到 海平面 上升 響 法新社 報導 根據 新加坡 南洋 理工大 學 Nanyang   Technological   University 上週 發表 「 自然 永續 」 Nature   Sustainability 期刊 上 一項 研究 快速 城市化 使 這些 城市 大量 抽取 地下水 以 因應 不斷 成長 人口 需求 研究 指出 「 這 使得 經歷 當地 土地 快速 下沉 城市 所 面臨 沿海 災害 風險 比些 已 因氣候 導致 海平面 上升 城市 所 面臨 風險 更 大 」 越南 人口 最 多 城市 主要 商業 中心 胡志明市 Ho   Chi   Minh   City 每年 平均 下沉 16.2 釐 這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅 排名 第二 孟加拉 南部 港口城市 吉大港 Chittagong 吉大港 與 印度 西部 城市 阿默達 巴德 Ahmedabad 印尼 首都 雅加達 緬甸 商業 中心 仰光 高峰 年間 皆 下沉 20 多 釐 研究 稱 「 這些 快速 下沉 沿海 城市 許多正 快速 擴張 成為 巨型 城市 megacity 這些 地方 … 抽取 地下水 以 承受 密集 建築 結構 導致 土地 下沉 」 下沉 城市 本身 並非 氣候變遷 結果 但 研究 人員 說 他們 研究 能 更 深入 了解 下沉 現象 如何 「 加劇 氣候 所導致 平均 海平面 上升 響 」 根據 聯合國 「 政府 間 氣候變遷 問題 小組 」 Intergovernmental   Panel   on   Climate   Change   IPCC 資 料到 2050 年將 十多 億人活 沿海 城市 面臨 海平面 上升 風險 IPCC 稱 就算 溫室 氣體 排放量 大幅 減少 到 本世紀 末 全球 海平面 仍 可能 上升 至多 60 分</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 吳昇儒 ／ 新北 報導 〕 受 「 尼莎 」 颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 也 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 的 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 的 改 道路 線 公告 在 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 的 管制 車流   柏油路 面上 出現 許多道 的 裂痕   除了 用 交通 錐 警示 阻擋   也 立起 告示牌   請行經 的 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 有 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 的 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 也 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 及 施工 單位   連夜 辛苦 的 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 也 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 有 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  </t>
+          <t>〔 受 「 尼莎 」 颱風 共伴效應 響 新北市 汐止 地區 降下 豪 大雨 不只 發 土石流 就連 工建路 出現 地層下陷 情形 工務人員 初步 搶修 後 工建路 一度 恢 復 通行 但 昨日 夜間 卻 發現 地基 仍須 補強 必須 再次 施工 警方 獲報 後 立刻 派員 前往 進行 交通管制 全線 封閉 該 路段 為 加快 搶救 速度 警方 還 徒手 協助 搬運 30 多輛 機車 讓 工程 能 順利 進行 汐止區 工建路 地層下陷 後 經工務 人員 搶 救 暫時將 凹陷 地基 填補 起來 未料 這兩天 又 因受 豪雨 響 再 此 下陷 汐止 警 分局 接獲 通報 後 即刻 拉起 封鎖線 並連夜 將規劃 好 改 道路 線告 各 臉書 地方 集團 供民眾 參考 深夜 中員 警手 拿 指揮棒 持續 管制 車流 柏油路 面上 出現 許多道 裂痕 除了 用 交通 錐 警示 阻擋 立起 告示牌 請行 經車輛 改道 行駛 經過 徹夜 管制 後 施工 單位 評估 現場 完畢 於 今早 6 點準備 開工 卻 發現 許多 機車 車主未 依 通知 移置 車輛 造成 施工 路段 周圍 停滿 機車 負責 交通管制 社后 派出所 2 名員警 見 狀 趕緊 上前 幫忙 短短 10 幾分鐘 就 徒手 移 了 340 台機車 讓 搶 救 工程 得以 順利 進行 新北 市長 侯友宜 上午 特別 到 工建路 了解 現場 狀況 並感謝 汐止 警 分局 區所 施工 單位 連夜 辛苦 進行 管制 勘查 並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢 全力 協助民眾 解決 問題 民進 黨籍 市議員 張錦豪 請 助理 前往 工建路 現場 向 周邊 住戶 詢問 需要 協助 之 處並 與 施工 單位 保持 聯 繫 希望 能 早日 恢 復 正常 通行</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">汐止 工 建路 因連日 大雨 沖 刷   路面 下方 有 土石 流失   造成 路面 下陷   為維護 用路 安全   新北市 水利局 表示   已連夜 成立 前進 指揮 所   調度 人員 機具 進行 路面 搶修   目前 先採 低壓 灌漿 穩定 地盤   期能 於 最 短 時間 內修 復 路面   水利局 表示   汐止 工 建路 下方 設有 污水 特四幹線   收集 汐止 地區 污水   於 103 年間 曾 遭建商 基樁 打破   因特 四幹線 管徑 1.8 公尺 且位 於 道路 下方 15 公尺   並持續 通水 使用 中   需設 置 替代 管線後方能 進行 修 復   因此 當時 由 台北市 衛工處 先行 於 管線 上方 灌漿 補強   並進行 新 設繞 流管 建置 工程   水利局 提到   目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程   計畫 新設 管徑 1.2 公尺 繞 流管 導水 後   再 辦理 原特四幹線 管線 修 復   此次 修繕 工程 繞 流管 尚約 剩 7 公尺 才能 接通   預計 11 月 14 日 工程 完成   水利局 透露   此次 工 建路 下陷 位置 臨近 特四幹線 遭 打破 點   初步 研判 可能 與 此 相關   為 避免 持續 下陷   水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作   等到 特四幹線 繞 流管 工程 完工 後   將進 行原 特四幹線 檢修 工程  </t>
+          <t>汐止 工建路 因連日 大雨 沖 刷 路面 下方 土石流 失 造成 路面 下陷 為維護 用路 安全 新北市 水利局 表示 已連夜 成立 前進 指揮 所 調度 人員 機具 進行 路面 搶修 目前 採低 壓 灌漿 穩定 地盤期 能 於 最 短 時間 修 復 路面 水利局 表示 汐止 工建路 下方 設 污水 特四幹線 收集 汐止 地區 污水 於 103 年間 曾 遭建商 基樁 打破 因特 四幹線 管徑 1.8 且位 於 道路 下方 15 並持續 通水 使用 中需 設置 替代 管線後方能 進行 修 復 因此 當時 由 台北市 衛工 處行 於 管線 上方 灌漿 補強 並進行 新 設繞 流管 建置 工程 水利局 提到 目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程 計畫 新設 管徑 1.2 繞 流管 導水後再 辦理 原特四幹線 管線 修 復 此次 修繕 工程 繞 流管 尚約 剩 7 才能 接通 預計 11 月 14 日 工程 完成 水利局 透露 此次 工建路 下陷 位置 臨近 特四幹線 遭 打破 點 初步 研判 可能 與 此 相關 為 避免 持續 下陷 水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作 等到 特四幹線 繞 流管 工程 完工 後 將進 行原 特四幹線 檢修 工程</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">汐止 驚見 地層下陷   新北市 汐止 區工建 路上 不明 原因 出現 地層下陷   而 上個 禮拜 就 發生過   區 公所 趕緊 進行 挖 填   沒 想到 這幾天 又 再度 下陷   為 避免 發生 危險   昨   22   天晚 間 9 點開始 該 路段 全線 封閉   並在 今   23   天 早上 進行 大規模 檢測   以及 進行 搶修 工程   確保 附近 住戶 安全  </t>
+          <t>汐止 驚見 地層下陷 新北市 汐止區 工建路 上 不明 原因 出現 地層下陷 而 上個 禮拜 就 發過區 所 趕緊 進行 挖 填 沒 想到 這幾天 又 再度 下陷 為 避免 發危險 昨 22 天晚 間 9 點開始 該 路段 全線 封閉 並今 23 天 早上 進行 大規模 檢測 以 進行 搶修 工程 確保 附近 住戶 安全</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">台灣 位處 菲律 賓海板 塊 及 歐亞板 塊 的 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出 「 台灣 真的 在 動 」   氣象局 在 全台 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 的 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 的 台灣 斷層 都 有 「 偷偷 」 地亂動   氣象局 表示   「 既然 手機 上 的 GPS 可以 監測 我們 每日 的 移動 路線 和 距離   那麼   同樣 的 概念 和 技術   是不是 也 能 監測 台灣 的 地表   看看 它 每天 移動 了 多少 呢   當然 可以   」 氣象局 已 在 全 台灣 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站   結合 各 單位 的 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 的 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 的 地表 位移   像是 車籠埔斷 層 的 錯動   為 台灣 地表 帶來 一道 劇烈 的   長 達 105 公里 的 傷痕   斷層 上盤 的 水平 位移 為 1 至 9 公尺 不 等   而 在 大甲溪 更 出現 地殼 抬高   落差 5 公尺 的 瀑布 景觀   氣象局 表示   除了 地震 期間   在 短短 數 十秒 內 出現 的 「 同震 滑移 」 之外   地震 前   間震期     地震 後   震後期     斷層 也 都 有 「 偷偷 」 地亂動   氣象局 說明   地殼 不 只 在 地震 時會動   平時 地殼 在 「 累積 能量 」 的 過程 中   就 會 在 地表 出現 非常 微量 的 變形   或者 是 小小的   不起眼 的 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 的 一舉 一動   希望 可以 找出 大 地震 發 生前 的 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 的 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 的 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 的 樣態   或是 分析 出 地震 的 發生 週期   計算 地震 的 災害 潛勢   評估 台灣 各地 斷層 的 活動 和 地震 的 機制  </t>
+          <t>台灣 位處 菲律 賓海板 塊 歐亞板 塊 交界 處 因此 時常 因為 板塊 運動 而 引發 地震 台東 昨 31 日 下午 四點 多 就 發規模 5.0 地震 中央 氣象 局長 鄭明典 指出 「 台灣 真動 」 氣象局 全台 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站 藉由 監測 大地 變形 地球 科學家 可以 監視 斷層 火山 活動 以 地層下陷 或 滑動 一舉 一動 而 從 地表 來 看 除了 地震 期間 地震 前 後 台灣 斷層 都 「 偷偷 」 地亂動 氣象局 表示 「 既然 手機 上 GPS 可以 監測 我們 每日 移動 路線 距 離麼 同樣 概念 技術 不能 監測 台灣 地表 看看 它 每天 移動 了 多少 當然 可以 」 氣象局 已全 台灣 建置 超過 160 個 「 全球 導航衛 星系 統 」 測站 結合 各 單位 建置 成果 台灣 已 超過 450 個 連續 觀測 站 進行 大地 測量 建立 台灣 大地 變形 資料 庫氣 象局 指出 從 地表 來 看 大型 地震 會 造成 明顯 地表 位移 像車 籠埔斷 層 錯動 為 台灣 地表 帶來 一道 劇烈 長 達 105 里 傷痕 斷層 上盤 水平 位移 為 1 至 9 不 等 而 大甲溪 更 出現 地殼 抬高 落差 5 瀑布 景觀 氣象局 表示 除了 地震 期間 短短 數 十秒 出現 「 同震 滑移 」 之外 地震 前間 震期 地震 後 震後期 斷層 都 「 偷偷 」 地亂動 氣象局 說明 地殼 不只 地震 時會動 平時 地殼 「 累積 能量 」 過程 中 就 會 地表 出現 非常 微量 變形 或 小小 不起眼 地震 地球 科學家 就 透過 這個 原理 長 期連續 監測 台灣 地表 一舉 一動 希望 可以 找出 大 地震 發前 徵兆氣 象局 表示 雖然 目前 尚未 發 展出 成熟 地震 預測 技術 藉由 地震 前 中後所 蒐集 地表 微小 變形 資料 可以 讓 地球 科學家 更 了解 地殼 運動 樣態 或 分析 出 地震 發週期 計算 地震 災害 潛勢 評估 台灣 各地 斷層 活動 地震 機制</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹縣 竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 在 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 和 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 的 透天 厝 會 不會 有 一夕 傾倒 的 危險   希望 相關 單位 幫忙 出面 解決     被 指控 的 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 有 原因 不明 的 下陷   龜裂 問題   看起 來 災害 也 確實 持續 進行 中   但導致 持續 龜裂 擴大 的 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 在 天氣 放晴 後 協助 維修 處理     陳 先生 講   鍾 姓 住戶 主要 是 拿 自家 建物 和 背 後 另 1 間 民宅 做 比 對   鍾 先生 認為 2 宅 「 沒有 一直 線 」   所以 認定 有 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 的 安全 維護     縣府 工務處 長江 良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 有 毀損 的 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 也 可 要求 工地 的 原設 計建築師 或 技師 到場 做 有 無 立即 性 危險 的 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 的 建物 做 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 的 被 徵收 戶   3 樓半 的 住家 就是 蓋 在 約 3   40 坪 的 配回 地上   10 年前 要蓋 這樣 的 透天 厝 少 說 也 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 在 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 也 有 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 在 其中   如果 房子 真的 不安   影響 非常 大     鍾 先生 說   隔鄰 的 新建 工地 約 是 在 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 的 地面   竟 在 自己 的 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 的 牆面 也 有 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 和 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 的 已有 他 的 1 片 手指甲 寬   至於 牆角 和 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  </t>
+          <t>〔 新竹縣 竹北市 房市 熱絡 集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出 然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地 疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷 牆面 牆角 龜裂 等 屋主 向 北興 里長 田慶 順陳情 擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險 希望 相關 單位 幫忙 出面 解決 被 指控 工地 陳 姓 現場 負責人 說 經實 勘 發現 該 民宅 應該 之前 就 原因 不明 下陷 龜裂 問題 看 起來 災害 確實 持續 進行 中 但 導致 持續 龜裂 擴大 原因 待 鑑定 釐 清 但 基 於 敦親 睦 鄰 他 允諾會 天氣 放晴 後 協助 維修 處理 陳 講鍾姓 住戶 主要 拿 自家 建物 背 後 另 1 間 民宅 比 對 鍾 認為 2 宅 「 沒 一直 線 」 所以 認定 傾斜 但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞 不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護 縣府 工務處 長江 良淵 說 鄉親 若 發現 自宅 可能 因 他人 施工 導致毀 損疑慮 時 可以 向 該 處建 管科 陳 情由 他們 立案 追 蹤 同 時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷 因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定 就 供 一旦 發鄰 損爭 議時 比 對 參考 北興 里長 田慶順 說 鍾 姓 住戶 縣治 3 期 被 徵收 戶 3 樓半 住家 就 蓋 約 340 坪 配回 地上 10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬現 當地 房價 被 建商 炒作 到 每坪 80 萬以現 新建 工程款 每坪 約 15 萬元 等 換算 鍾 宅少 說 45000 萬由 於 鍾 家 1 家 56 口人 就 住 其中 如果 房子 真 不安 響 非常 大 鍾 說 隔 鄰 新建 工地 約 2 個 多月 前開 挖 地下室 不久 後 他 就察覺 自宅 車庫 原本 平整 地面 竟 自己 車位 處 開始 出現 下陷 一旁 區隔 鄰宅用 牆面 了 龜裂 狀況 牆角 跟 地面 磁磚裂 開且 前述 下陷 裂縫 都 不斷 加大 田慶 順聞言 實際 測量 發現 鍾 宅 車位 下陷 處 最高 已 他 1 片 手指甲 寬 至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子 確實 讓 人 擔憂</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 編譯 管淑平 ／ 綜合 報導 〕 印度 的 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 的 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   的 斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 也 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 在 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 有 60 多戶 搬 到 政府 的 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 的 近因 「 似乎 是 有 問題 的 排水 系統 導致 房子 底下 滲水   造成 下陷   」   斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 和 觀光客 也 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 也 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 的 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   也 有 50 多間 房子 出現 不斷 擴大 的 裂縫   該鎮 人口 5 萬人  </t>
+          <t>〔 印度 斯希馬 特鎮 Joshimath 位 於 喜馬 拉雅山 區因 地層 持續 下陷 已 接連 600 間 房屋 出現 明顯裂 縫 6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌 當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所 美聯社 7 日 報導位 於 印度 北阿 坎德 省 Uttarakhand 傑 莫利 縣 Chamoli 斯希馬 特鎮 居民 說 之前 就 注意 到 房子 出現 裂痕 尤其 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地後當 地 媒體 播出 畫面 顯示 該 鎮多處 道路 出現 裂 縫響 車輛 往來 6 日 晚間 當地 一座 神廟 崩塌 所幸 附近 居民 已 前一天 撤離 沒 造成 人員 傷亡 地方 首長 庫拉納 Himanshu   Khurana 說 已經 60 多戶 搬 到 政府 臨時 避難 所 撤離 人數 可能 會達 到 600 戶北 阿 坎德 省災難 管理 官員辛赫 Ranjit   Singh 說出 現裂 縫 近因 「 似乎 問題 排水 系統 導致 房子 底下 滲水 造成 下陷 」 斯希馬特 人口 約 2 萬 5000 人 印度教 錫克 教徒 朝聖 必經 之 地 大批 朝聖觀 光客 促使 該鎮 多年 來大興 土木 鋪路 造房 不斷 擴張 部份 專家 認為 地層下陷 與 此關 係 現當 地 政府 已經 暫停 所建築 工程 另外 根據 印度 媒體 報導 巴德 林納斯鎮 Badrinath 相距 80 里 同縣 另 一鎮 卡納 普拉 耶格 Karnaprayag50 多間 房子 出現 不斷 擴大裂 縫 該鎮 人口 5 萬人</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 和 觀光 客造訪 的 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 也 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 在 安全 的 避難 地點   印度 北部 的 山城 地層下陷   房屋   樓梯 及 道路 都 嚴重 龜裂   建築物 的 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示   「 有 5 戶 人家 已經 搬走   其他 好 幾戶 也 計劃 遷移   另 做 打算   」 官員 表示   最近 幾個 星期 當地 通報 有 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 的 地點   「 在 找到 解決 方法 之前   我們 先 把 居民 安置 在 安全 無虞 的 飯店 賓館 跟 民宿   」 喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 的 門戶   也 常有 想要 征服 喜馬 拉雅山 的 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 的 影響   但 如果 不 做好 水土保持   這座 「 沉 沒 的 城鎮 」 可能 很快 就 會 走向 毀滅  </t>
+          <t>印度 北部 喜馬 拉雅山 區一個 經常 朝聖觀 光客 造訪 城鎮 這兩天 突然 發 地層下陷 超過 600 棟 房屋 出現 裂縫 寺 廟 紛紛 倒塌 當地 政府 緊急 撤離 將近 200 位民眾 安置 安全 避難 地點 印度 北部 山城 地層下陷 房屋 樓梯 道路 都 嚴重 龜裂 建築物 牆壁 還不斷 滲出 泥水 隨時 可能 發 崩塌 景象 怵 目驚心 當地 居民 表示 「 5 戶 人家 已經 搬走 其他 好 幾戶 計劃 遷移 另 打算 」 官員 表示 最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫 因此 已經將 至少 193 名 居民 安置 到 安全 地點 「 找到 解決 方法 之前 我們 把 居民 安置 安全 無虞飯 店賓館 跟 民宿 」 喬西馬斯 Joshimath 海拔 將近 2000 人口 約 2 萬 5000 人朝 聖客 前往 山上 印度教 跟錫克 教寺 廟門 戶常 想要 征服 喜馬 拉雅山 登山 客造訪 喬西馬斯 所傑 莫利 縣 Chamoli2021 年 2 月 曾經 爆發 洪水 造成 200 多人 喪還 沖 走 兩座 水力 發電站 災情 相當 慘重 科學家 目前 還 研究 氣候變遷 對 喜馬 拉雅山 響 但 如果 不好 水土保持 這座 「 沉沒城鎮 」 可能 很快 就 會 走向 毀滅</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">插 在 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 在 田中 的 宮廟   事實 上 這座 宮廟 興建 在 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 的 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間 「 插 在 稻田 中 的 廟宇 」 出現 在 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 的 廟   仔細 一看   屋頂 上 的 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   有 大批 網友 直呼   「 真是 神跡 」   「 從田裡 冒 出廟 頂   是 獨特 的 裝置 藝術 」   更 有人 笑稱   「 這是 真正 的 土地公 廟   」 而前 來 朝 聖 的 遊客 蕭 先生 也 說   「 很 奇特 啊   田中 的 廟 」   其實   這間 廟 已有 將近 兩 百年 的 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 在 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說   「 大家 都 會 好奇   裡面 的 東西有 沒有 搬出 來   神明 有 沒 有 沉下去   都 會問 這些 問題   其實 神明 都 有 請 出來   」   百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  </t>
+          <t>插 稻田 裡廟 宇 嘉義 縣 六腳鄉 出現 了 只 露出 屋簷 底下 全 被淹 沒 田中 宮廟 事實 上 這座 宮廟 興建 清道光 年間 已 將近 兩 百年 歷史 由 於 民國 48 年 一場 水患 廟方將 神像 遷 走後舊 廟 就此 荒廢 下沉 如今 才 會 變成 隱身 稻田 裡獨特 打卡 景點 這間 「 插 稻田 中廟 宇 」 出現 嘉義 縣 六腳鄉 一片 綠 油油 稻田 放眼望去 田中 間 竟 出現 只 剩下 屋簷 露出 廟 仔細 一看 屋頂 上 雕刻 嚴重 斑駁 奇特 景象 吸引 民眾 朝 聖 搶 拍 大批 網友 直呼 「 真神 跡 」 「 從田裡 冒 出廟 頂 獨特裝置 藝術 」 更人 笑 稱 「 這 真正 土地 廟 」 而前 來 朝 聖遊客 蕭說 「 很 奇特 田中 廟 」 其實 這間 廟 已 將近 兩 百年 歷史 它 前 大庄 五福 宮舊 廟 興建 於 清代 道光 年間 不 過民國 48 年 碰上 水災 受損 村民 另 建新 廟 而 這間 舊廟 隨著 地層下陷 漸漸 下沉 五福 宮前 總幹事 姚水順 說 「 大家 都 會 好奇 裡面 東西 沒 搬出 來 神明 沒 沉下去 都 會問 這些 問題 其實 神明 都 請 出來 」   百年 舊廟 搬 遷 未 拆 隱身 稻田 裡 意外 成為 當地 打卡 熱點</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">疑因 「 豐采 520 」 建案 導致 竹 北市 莊敬 六街 發生 道路 坍塌   一輛 特斯拉 還掉 進去   新竹縣 長 楊 文科 今天 表示   已 與 竹北 市長 鄭 朝方 協議   市公所 將 全力 配合 相關 作業   並 要求 建商以 透地雷達 設備   預防性 檢測 建案 四周 道路 土質 情形   預防 再次 坍塌   工務處 表示   目前 初判 造成 此次 坍塌   原因 是 建商開 挖 地下室 抽取 地下水   導致 土砂 層 部分 帶 走 地層下陷   為 防止 附近 道路 再次 發生 坍塌   已 要求 建商以 透地雷達 設備 詳實 檢測 建案 四周 的 勝利 二路   勝利 一路   莊敬 六街 及 自強 北路   確認 是否 仍有 土質 流失 造成 坑洞   由 於 該 路段 路權 為 竹北 市公所 權責   縣長 楊 文科 與 竹北 市長 鄭 朝方 達 成共識   市公所 將 全力 配合 周邊 道路 封鎖 及 透地雷達 監測 等   展開 全面 檢測   縣府 也 已 與 市公所 研議 相關 作業   確保 附近 住戶 安全 無虞   工務處 指出   縣府 也 已 要求 建商 於 維生 管線   及 自來 水   電力   瓦斯 等 檢測 維修 完成 後   會同 竹北 市公所 同意   以低 強度 混凝土 灌漿 補強   針對 承造 及 監造 人   縣府 也 希望 做 加重 懲罰 的 機制   將 蒐集 近幾次 的 相關 違 失事 證   移送 新竹縣 營造業 審議 委員會 及 建築師 懲戒 委員會 審議   另外   縣府 也將 此次 工安 事件 提列 為 建築 爭議 的 損鄰 事件   立案 列管   通知 起造   承造 及 監造 人 改善 鄰房 損害 情況   並 於 完成 安全 改善 修 復 後   檢具 相關 證明 文件 與 同意 書 報府 核備   後 續 建商 也 必須 與 受 損戶 達成 和解   縣府 才 會 核發 使用 執照   工務處 也 說   縣府 將持續 配合 新竹 地檢署 調查   後 續 該 工地 建商 如 欲 復工   縣府將 與 竹檢 取得 共識   要求 工地 完善 工地 安全   確定 鑑定 報告 結果 無 虞   舉辦 施工 說 明會   繳清 所有 罰 鍰   以 嚴格 標準 檢視 改善 結果 後   再 評估 是否 辦理 復工  </t>
+          <t>疑因 「 豐采 520 」 建案 導致 竹北市 莊敬六街 發 道路 坍塌 一輛 特斯拉 還掉 進去 新竹縣 長 楊 文科 今天 表示 已 與 竹北 市長 鄭 朝方 協議市 所將 全力 配合 相關 作業並 要求 建商以 透地雷達 設備 預防性 檢測 建案 四周 道路 土質 情形 預防 再次 坍塌 工務處 表示 目前 初判 造成 此次 坍塌 原因 建商開 挖 地下室 抽取 地下水 導致 土砂 層 部分 帶 走 地層下陷 為 防止 附近 道路 再次 發 坍塌 已 要求 建商以 透地雷達 設備 詳實 檢測 建案 四周 勝利二路 勝利一路 莊敬六街 自強北路 確認 仍 土質 流失 造成 坑洞 由 於 該 路段 路權 為 竹北市 所權 責縣 長 楊 文科 與 竹北 市長 鄭 朝方 達成 共識市 所將 全力 配合 周邊 道路 封鎖 透地雷達 監測 等 展開 全面 檢測 縣府 已 與 市 所 研議 相關 作業 確保 附近 住戶 安全 無虞 工務處 指出 縣府 已 要求 建商 於 維管線 自來 水電力 瓦斯 等 檢測 維修 完成 後 會 同 竹北市 所 同意 以低 強度 混凝土 灌漿 補 強針 對 承造 監造 人 縣府 希望 加重 懲罰 機制將 蒐集 近幾次 相關 違 失事 證 移送 新竹縣 營造業 審議 委員會 建築師 懲戒 委員會 審議 另外 縣府將 此次 工安 事件 提列 為 建築 爭議 損鄰 事件 立案 列管 通知 起造 承造 監造 人 改善 鄰房 損害 情況並 於 完成 安全 改善 修 復 後 檢具 相關 證明 文件 與 同意 書 報府 核備後續 建商 必須 與 受 損戶 達 成解 縣府 才 會 核發 使用 執照 工務處 說 縣府 將持續 配合 新竹 地檢署 調查後續 該 工地 建商 如 欲 復工 縣府將 與 竹檢 取得 共識 要求 工地 完善 工地 安全 確定 鑑定 報告 結果 無虞舉 辦 施工 說 明會 繳清 所罰 鍰 以 嚴格 標準 檢視 改善 結果 後 再 評估 辦理 復工</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>台北市 也 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 也 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 及 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 有 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 的 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 / 翻攝</t>
+          <t>台北市 出現 天坑 今天下午 15 時許 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 坑洞 長 15 寬 3 深度 2 到 3 目視 可 看到 機車 自行 車 陷落 坑中 同時 坑洞 波 一旁 民宅 地基 目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人 並劃 設緊 戒線並 通知 市府 相關 單位 到場 處理 天坑 位 於 新建 工地 民宅 中間 巷弄 道路 塌陷 時 發出 聲響 驚動 住戶 但 因為 坑洞 擋家門 前 第一 時間 無法 脫困 消防局 緊急 到場 以 爬梯 方式 救援 住戶 出來 消防局 救出 2 名 女子 疏散 1 男 1 女人 員 已 全數 疏散 完畢 另外 1 名 85 歲 老婦 因長 期行動 不 雖無外 傷意識 清醒 但家屬 要求 預防性 送 醫由 消防局 送北醫 由 於 天坑 危 安全 響 周遭 至少 五戶 民宅 部分 住戶 無法 回家 估計 10 餘人 受響 將由 台北市 府 處理 安置 問題 台北市 信義區 出現 天坑 目前 市府 新工處 建管處 勞檢處 等 相關 單位 都 已 派 人 到場 現場 設置 指揮 所 初步 懷疑 與 民宅 對面 新建 工地 工程 關現 以 灌漿 方式 緊急 處置 至於 天坑 出現 原因 將 交由 市府 建管 新工 等 單位 調查 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 有 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 有 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 有 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道 蹋陷 緊急 灌漿 回填 住戶 驚慌 撤離   消防局 於 15 時 13 分獲報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 寬 3 深度 23 ) 幸無人 受 傷警 消緊 急 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 目前 評估 約 10 餘位 住戶 需要 安置 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 施工 單位 緊急 灌漿 回填 防止 塌陷 區域 擴大   林俊良警 消緊 急 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 目前 評估 約 10 餘位 住戶 需要 安置 林俊良 消防局 於 15 時 13 分獲報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 警消 緊急 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 林俊良 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 住戶 心餘悸 驚慌 撤離 到 一旁 安全 區域 林俊良 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 警方 疏導 住戶 驚慌 撤離 目前 評估 約 10 餘位 住戶 需要 安置 林俊良 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 施工 單位 緊急 灌漿 回填 防止 塌陷 區域 擴大   林俊良</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 的 工地   做 全面 的 清查   是不是 有 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 的 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 的 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 的 事件   整起 事件 會 做 完整 的 調查   並且 就 工地 全面 檢視   以及 營造商 的 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 在 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影</t>
+          <t>台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 晚上 到場 關心並 指出 整個 狀況 控制 住 以後會針 對 台北市 工地 全面 清查 不 這次 事件 類似 情況 再 積極 處理 蔣 萬安 表示 工地 部分 市府 馬上 勒令停工 找出 這次 地面 坍塌 原因 盡快 排除 避免 坍塌 面積 持續 擴大 這次 地層下陷 事件 整起 事件 會 完整 調查 並且 就 工地 全面 檢視 以營 造商 相關 紀錄 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 周邊 拉起 警戒 線 提醒 民眾 注意安全 民眾 警方 協助 下回 住 處拿東 西林 伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 周邊民眾 聚集 關心 林伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 晚間 坑洞 正持續 灌漿 阻止 繼續 塌陷 林伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北市 議員 許淑華前 右到 場關 心民眾 林伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 左二 台北市 議員 徐巧 芯 右二到 場關 心林伯東</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 在 第一 時間 做出 相關 的 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 也 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 的 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 的 真正 原因   並 儘 快 排除   避免 坍塌 的 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 的 事件   將針 對 工地 的 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 的 安全   避免 讓 地面 坍塌 的 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  </t>
+          <t>台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 中到 場關 心林伯東 台北市 信義區 崇德街 今 13 日 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 且 二度 坍塌 台北 市長 蔣 萬安 晚上 到場 關心並 作出 四點 指示 蔣 萬安 表示 市府 已 第一 時間 出 相關 緊急 疏散 處置 並向 同仁 作出 四點 指示 第一 安全 至上 相關 緊急 應變 處置 必 須 儘 速 地 完成 包括 疏散 安置 等 已 媒合 旅宿業 進行 安置 住民 入住 可依規定 申請 補助 我們 會 盡力將 損害 降到 最低 第二 釐 清 坍塌 原因 儘 快 排除 目前 了解 可能 連續 壁 滲水 問題 市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因 並 儘 快 排除 避免 坍塌 面積 持續 擴大 第三 事件 整體 調查 就 這次 地面 坍塌 事件 將針 對 工地 負責營 造商 就 過去 相關 建造 紀錄 整體 調查 第四 全市 工地 全面 清查 崇德街 案緊 急 處置 後 將針 對 台北市 興建 工程 工地 作 全面 清查 避免 相關 事件 重演 蔣 萬安 強調 目前 已責成 相關局 處務必 盡速 完成 相關 緊急應 變作 為確 保住 民 市民 安全 避免 讓 地面 坍塌 損壞 再 持續 擴大將 損害 降到 最低 全力 捍衛 市民 命財產 安全 根據 建管處 資料 顯示 該 起 工程 工地 起造 人 東禧 建設 承造 人華熊 營造 監造 人 向度 聯 合建 築師 事務 所 目前 則已針 對 承造 人 監造 人 各 開罰 新 台幣 九萬元</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 也 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺 「 天坑 」   圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺 「 天坑 」   圖 ／ 北市 府 提供</t>
+          <t>台北市 信義區 崇德街 下午 出現 地層下陷 北市 府 表示 消防局 於 15 時 13 分通報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 長 15 寬 3 深度 2 至 3 無人 受傷 市府 表示 目前 處置 作為 已 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 信義區 區長 已 趕 抵 現場 坐鎮 指揮 目前 評估 約 10 餘位 住戶 需要 安置 北市 信義區 出現 長 15 深 3 「 天坑 」 圖 北市 府 提供 北市 信義區 出現 長 15 深 3 「 天坑 」 圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 在 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 在 坍塌 處 附近   約 10 人 安置 飯店   她 也 要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺 「 天坑 」   圖 ／ 北市 府 提供</t>
+          <t>北市 信義區 崇德街 60 巷 路面 今天下午 出現 大 天坑 坑洞 長 15 寬 3 深度 2 到 3 機車 單車 陷落 坑中 消防局 已 疏散 鄰近 住戶 10 多人 台北市 建管處 表示 路面 坍陷 處以 混凝土 處置 目前 已 勒令停工 將依建築法 開罰 營造廠 監造 人 各 9 萬元 台北市 建管處 表示 事發地 旁為 一處 新建 住宅 大樓 工地 疑似 施作 連續 壁 滲水導致 道路 塌陷 目前 以 混凝土 處置 工地 現場 緊急 處理 中將 依建築法 第 89 條開罰 承造 人營 造廠 監造 人 建築師 各 9 萬元 目前 已 勒令停工 未來 把 一切 安全 問題 妥善 完成 後 才 會 復工 消防局 已協助 將住 戶 全部 撤離 完 畢人員均 安全 信義區 所正 處理 安置 問題 北市 議員 許淑華 表示 該處 昨晚 就 灌水 疑似 連續 壁施作 釀禍事 發地 鄰近 住戶 共 30 戶 12 戶住 坍塌 處 附近 約 10 人 安置 飯店 要求 市府 妥善 協助 住戶 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 北市 信義區 出現 長 15 深 3 「 天坑 」 圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 的 工地   做 全面 的 清查   是不是 有 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 的 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   也 都 在 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 的 安全   避免 讓 地面 坍塌 的 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 的 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 的 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 的 事件   整起 事件 會 做 完整 的 調查   並且 就 工地 全面 檢視   以及 營造商 的 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 的 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 的 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 的 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 的 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 在 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 在 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 在 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 及 36 名 消防 員   消防局 長 莫懷祖 也 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 也 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 做 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 在 評估 要 不要 做 預防性 疏散   因為 市民 安全 最 重要   在 現場 關心 約 半小時 後   蔣萬安 在 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 的 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡   「 現在 先 搶 救   原因 之後再 來 探討 」     台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   有 安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 內 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 也 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供</t>
+          <t>台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 中到 場關 心林伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 晚間 前往 現場 蔣 萬安 指出 整個 狀況 控制 住 以後會針 對 台北市 工地 全面 清查 不 這次 事件 類似 情況 再 積極 處理 蔣 萬安 說 第一 時間 消防局 長 就 趕到 現場 共 啟用 13 輛 消防 車 2 輛救護車 36 位 消防 同仁 趕到 現場 第一 緊急 應變 處置 包括 疏散 安置 或 其他 必要 作為 相關 局處 都 發局 建管處 警察局 區所水處 瓦斯 司 等等 都 現場 必須 要 盡速 完成 相關 緊急應 變作 為 來確 保人 員 安全 避免 讓 地面 坍塌 損壞 再 持續 擴大 把 整個 損害 降到 最低 蔣 萬安 指出 工地 部分 市府 馬上 勒令停工 找出 這次 地面 坍塌 原因 盡快 排除 避免 坍塌 面積 持續 擴大 這次 地層下陷 事件 整起 事件 會 完整 調查 並且 就 工地 全面 檢視 以營 造商 相關 紀錄 【 中央社 台北 13 日電 】 北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 深 3 坑洞 市府 已 開罰 營造廠 建築師 各 9 萬元 市長 蔣 萬安 則 下令 後 續 要 清查 所 工地 避免 類似 情況 再度 發 台北市 信義區 崇德街 巷弄 今天下午 約 3 時 突然 出現 一個 長 15 寬 3 深度 3 坑洞 下午 5 時 22 分 又 再度 塌陷 道路 緊鄰 新建 工地 當時 正施 作連續 壁 工程 市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶 台北市 工務局 長 黃 一平 都發局長 王玉芬 皆 下午 4 時許 到場 了解 狀況 副 市長 李 四川 則晚 間 6 時 抵達 現場 市長 蔣 萬安 約 晚間 6 時 30 分現 身 蔣 萬安 聽取 報告 後 接受 媒體 聯訪 表示 消防局 下午 3 時許 獲報 地層下陷 後 共 出動 13 輛 消防 車 2 輛救護車 36 名 消防 員 消防局 長 莫懷祖 到場 坐鎮 蔣 萬安 說 第一件 事 趕快 緊急 應變 處置確 保人 員 都 安全 並 排除 事發 原因 避免 坍塌 再度 擴大建築 工地 已 被 勒令停工 他 指出 接下 來會 就 這次 事件 完整 調查 全面 檢視 建築 工地 營造 商紀錄 等 狀況 控制 住後會 清查 台北市 所 工地 尤其 新建 工程 工地 避免 類似 情況 再度 發 至於 需要 多久 處理 時間 蔣 萬安 說 目前 正積極 努力 中同 時評 估要 不要 預防性 疏散 因為 市民 安全 最 重要 現場 關心 約 半小時 後 蔣 萬安 晚間 6 時 50 分離開 台北市 結構 技師會 理事 長 徐茂卿 指出 因為 巷弄 旁邊 建案 地下 層連續 壁 破洞 導致 道路 塌陷 所以 緊急 撤離 周遭 住 戶後建築 工地 灌水 道路 灌漿 讓 兩邊 土壓 平衡 「 現搶 救 原因 之後再 來 探討 」 台北市 建管處 表示 此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷 將依建築法 第 89 條開罰 承造 人營 造廠 監造 人 建築師 各新 台幣 9 萬元 信義區 所 表示 安置 需求 每人每天 可申 請 新 台幣 1600 元 補助 最多 7 天 台北市 信義區 崇德街 巷弄 道路 13 日驚傳 塌陷 警消 獲報 到場 疏散 鄰近 住戶 目前 無人 傷亡 但 現場 坍塌 似 擴大 趨勢 傍晚 5 時許 現場 再度 塌陷 一旁 工地 藍色 帳棚 等 遭波 傾倒 中央社 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 圖 消防局 提供</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>台北市 也 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 也 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   記者 廖炳棋 / 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 的 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供</t>
+          <t>台北市 出現 天坑 今天下午 15 時許 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 坑洞 長 15 寬 3 深度 2 到 3 目視 可 看到 機車 自行 車 陷落 坑中 同時 坑洞 波 一旁 民宅 地基 目前 台北市 消防局 已經 疏散 鄰近 住戶 並劃 設緊 戒線並 通知 府 相關 單位 到場 處理 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 緊急 救援 住戶 圖讀 提供</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 也 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 在 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   也 請里長 逐戶 安撫   現場 分為 撤離區 和 監測區   除了 天坑 之外   轉角 一戶 有 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 先生 住 在 當地 20 多年   他 提到 走路 經過 時   有 看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 先生 表示   他 姊姊 騎車 來 時   突然 聽到 「 砰 」 一聲 被 嚇到   那時 就 有 一個 小洞   自己 也 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t>北市 信義區 崇德街 60 巷鄰近 一處 新建 工地 今天下午 3 點多 路面 突然 下陷 出現 一個 大 天坑 台北市 副 市長 李 四川 都發局長 王玉芬 傍晚 抵達 了解 現況 王說 明處理 進度 住戶 方面 已 撤離 16 戶 工程 則 坑洞 灌漿 建案 基地 灌水 都發局長 王玉芬 到場 表示 馬 路上 坑洞 約 10 幾長 3 寬 深度 判斷 達 到 3 以 灌漿 方式 處理 建築 基地 開挖 地下室 部分 用 消防 水車 拉水線 灌水 使外 壓力 可以 平衡 已拉 兩條 水線 再 請 消防局 再拉一條 加快 灌水 速度 王玉芬 說 明住 戶 部分 已經 撤離 16 戶 10 人 需要 安置 且 安置 妥當 某 一家 旅館 所 住宿 日常 開銷 都 會 由 營造 單位 負責 其餘住 戶 由 台北市 結構 技師會 判斷 沒 危險 因 居民 擔心 請里長 逐戶 安撫 現場 分為 撤離區 監測區 除了 天坑 之外 轉角 一戶 地下室 技師 下去 看 目前 還沒 任何 響會 持續 監測 黃 住 當地 20 多年 他 提到 走路 經過 時 看到 裂一個 小洞 下午 2 點多 就 一直 下陷 從 22 號坍 下去 住戶 鄭 表示 他 姊姊 騎車 來 時 突然 聽到 「 砰 」 一聲 被 嚇到 時 就 一個 小洞 自己 走 出去 看前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了 沒 多久 警察 到場 就 要求 不要 過去 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 施工 單位 緊急 灌漿 回填 防止 塌陷 區域 擴大   林俊良</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街巷 弄 內 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 的 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 的 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 的 坑洞   道路 緊鄰 的 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 有 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 有 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 的 姊姊 大概 下午 2 時 50 分 的 時候 聽 到 「 砰 」 的 聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 在 這個 過程 中越 來 越 大   路上 的 腳踏車   摩托 車等 就 跟 著 掉下去   「 很 可怕   」   鄭 大哥 表示   他 住 在 這裡 3 年 多 了   旁邊 的 建案 大概 去年 開始 施工   剛開 挖 的 時候 路面 有 龜裂   建商 就 來 補好   之 後 雖然 在 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 也 沒 有 什麼 異狀     黃 先生 則說   他 住 這裡 20 多年 了   今天下午 在 外面 散步   走過 去 時 發現 有 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 有 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 的 特斯拉 轎車 直接 掉落  </t>
+          <t>台北市 信義區 崇德街 巷弄 13 日 下午 發 路面 塌陷 事故 現場 緊鄰 一旁 建案 工地 中央社 台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 深 3 坑洞 市府 表示 正持續 向 坑洞 灌漿 建案 基地 灌水 共 撤離 周遭 16 戶住 戶 其餘住 戶判斷 沒 危險 台北市 信義區 崇德街 巷弄 今天下午 出現 一個 長 15 寬 3 深度 3 坑洞 道路 緊鄰 建築 基地 當時 正施 作連續 壁 工程 目前 已 停工 並 疏散 鄰近 住戶 副 市長 李 四川 工務局 長 黃 一平 都發局長 王玉芬 皆 到場 了解 狀況 王玉芬 向 中央社 表示 坑洞 正持續 灌漿 建築 基地 則用 消防 車 灌水 讓 外 壓力 平衡 阻止 繼續 塌陷 何時 才能 確認 沒進 一步 危害 則要 持續 觀察 至於 住戶 部分 王玉芬 說 已經 撤離 16 戶 其中 10 人 需要 安置 這些 開銷 都 會 由 開發 單位 負責 其餘住 戶 雖 由 台北市 結構 技師會 判斷 沒 危險 考量 住戶 仍會 擔心 已 請里長 逐戶 安撫 談到 事發 過程 附近 居民 仍然 餘悸 猶存 鄭 大哥 說 他 姊姊 大概 下午 2 時 50 分時候 聽 到 「 砰 」 聲音並 看到 門口 出現 一個 小洞 就 喊 他 出去 看洞 這個 過程 中越 來 越 大 路上 腳踏車 摩托 車等 就 跟著 掉下去 「 很 可怕 」 鄭 大哥 表示 他 住 這裡 3 年 多 了 旁邊 建案 大概 去年 開始 施工 剛開 挖 時候 路面 龜裂 建商 就 來 補好 之 後 雖然 施工 時 住家 總會 感到 地震 無法 睡 午覺 但 沒什麼 異狀黃則 說 他 住 這裡 20 多年 了 今天下午 外面 散步 走過 去 時 發現 一個 小洞 這個 洞後來 持續 陷 下去 但 他 沒 聽 到 什麼 聲音 新竹縣 竹北 莊敬六街 一處 建案 周邊 日前 才 發 路基 坍塌 導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 的 道路 「 地層下陷 」   消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 的 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 的 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險 「 懸空 」   警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 也 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 在 施工   疑似 因為 工地 連續 壁施作   且 有 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 先 基本 填補 坑洞   受影響 住戶 也 透露   剛剛 一度 有 5 名住 戶 受困 在 屋子 裡   所幸 消防 員協助 救援   而 有 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 在 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  </t>
+          <t>【 1727 ｜ 更新 天坑 初步 原因 】 信義區 崇德街 今 13 天 下午 3 點 13 分傳出 一處 新建 案 工地 旁 道路 「 地層下陷 」 消防局 獲報 緊急 疏散 鄰近 住戶 無人 受傷 根據 消防局 獲報 消息 信義區 崇德街 60 巷 22 號前 新建 工地 旁 出現 道路 地層下陷 馬 路上 出現 一個 長 15 寬 3 深度 約 4 天坑 摩托 車腳 踏車 都 掉入 坑洞 一旁 住戶 家門口 更 危險 「 懸空 」 警消 人員 疏散 鄰近 住戶 所幸 無人 受傷 目前 劃設 警戒 線 建管處 新工處 道 管 中心 瓦斯 司 北水 處派員 趕 赴 現場 處理 信義區 區長 已 趕 抵 現場 坐鎮 指揮 目前 評估 約 10 餘位 住戶 需要 安置 這個 天坑 幾乎 占據 整條 巷弄 北市 建管處 初步 了解 由 於 住 戶 旁 就 工地 施工 疑似 因為 工地 連續 壁施 作且 出現 滲水 狀況 才 釀成 天坑 出現 稍早 水泥 車緊 急 進行 灌漿 作業 主要 基本 填補 坑洞 受響 住戶 透露 剛剛 一度 5 名住 戶 受困 屋子 裡 所幸 消防 員協助 救援 而三戶 門口 前端 地基 被 掏空 住戶 非常 擔心 房屋 可能 會 倒塌 地基 到底 穩不穩 固住 裡面 到底 安 不 安全 今天 晚上 到底 要 住 哪裡 等 問題 不 過關 於後續 賠償 等 都 還要 進 一步 釐 清</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 的 道路 「 地層下陷 」   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 的 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險 「 懸空 」   而 台北 市長 蔣萬安 稍早 也 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 也 做 了 緊急 疏散   也 強調   當這次 事件 的 緊急 處置 告一段落 之 後   會 做 台北市 相關 工地 的 全面 清查   了解 是否 有類 似 這次 地面 坍塌 的 原因   積極 做 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   也 聽 了 相關 單位 的 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 有 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   也 趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   也 做 了 緊急 疏散   蔣萬安 指出   也 跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 的 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 的 損害 降到 最低   第二   就 旁邊 的 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 做 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 也 包括 工地 實施者   營造 商過 去 的 相關 紀錄   第四   當這次 事件 的 緊急 處置 告一段落 之 後   要 做 台北市 相關 工地 的 全面 清查   了解 是否 有類 似 這次 地面 坍塌 的 原因   要積 極來 做 相關 處置   蔣萬安 表示   「 我們 現在 已經 非常 努力 在 做 緊急 應變   處置   第一 時間 也 盡快 的 疏散 了 住戶   我 想 市民 朋友 的 安全 是 最 重要 的   目前 還在 緊急 處置   我 想 必要 的 話 我們 還是 希望 做 預防性 疏散 」   而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 的 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 的 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 的 部分 用 混 泥土 灌足外   也 在 開 挖面 做 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 在 可控 的 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 有 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 的 狀態   估計 應該 都 要 到 凌晨  </t>
+          <t>台北市 信義區 崇德街 今 13 日 下午 3 點 13 分傳出 一處 新建 案 工地 旁 道路 「 地層下陷 」 馬 路上 出現 一個 長 15 寬 3 深度 約 4 天坑 摩托 車腳 踏車 都 掉入 坑洞 一旁 住戶 家門口 更 危險 「 懸空 」 而 台北 市長 蔣 萬安 稍早 前往 現場 勘查 受訪 時 表示 第一 時間 就 即刻 派員前 來 相關 單位 了 緊急 疏散 強調當 這次 事件 緊急 處置 告一段落 之後會 台北市 相關 工地 全面 清查 了解 類似 這次 地面 坍塌 原因 積極 相關 處置 目前 對廠 商建築師 各 開罰 9 萬元 工地 勒令停工 蔣 萬安 表示 初步 了解 聽 了 相關 單位 說明 我們 下午 3 點 13 分 消防局 接收 到 地方 反應 這邊 地層下陷 第一 時間 就 即刻 派員前 來 趕快 連絡 了 警察局 新工處 建管處 區所 自來 水處 瓦斯 司台 電等 相關 單位 了 緊急 疏散 蔣 萬安 指出 跟 指揮官 相關 單位 來 說明 第一 人員 安全 最 重要 所以 相關 緊急 應變 處置 必須 盡速 完成 包括 疏散 安置 等等 將這次 地面 坍塌 可能 造成 損害 降到 最低 第二 就 旁邊 工地 目前 了解 可能 連續 壁 滲水 問題 已經 趕快 了 處理 盡速 找出 坍塌 原因 然後盡 快 排除 避免 坍塌 面積 持續 擴大 第三 會 就 這次 地面 坍塌 事件 進行 調查 當然 包括 工地 實施 營造 商過 去 相關 紀錄 第四 當這次 事件 緊急 處置 告一段落 之後要 台北市 相關 工地 全面 清查 了解 類似 這次 地面 坍塌 原因 要積 極來 相關 處置 蔣 萬安 表示 「 我們 現 已經 非常 努力 緊急 應變 處置 第一 時間 盡快 疏散 了 住 戶 我 想 市民 朋友 安全 最 重要 目前 還緊 急 處置 我 想 必要 話 我們還 希望 預防性 疏散 」 而 台北市 土木 技師會 理事 長 莊均緯 指出 還要 再 把 崩塌 孔洞 填補 完成 現還 灌水 當中 水頭 差會 慢慢 達到 平衡 而 因 地質 條件屬 於 沙 跟 水 因此 擔心 擋 土 設施 破洞 只要 衝破 連續 壁洞 勢必 擋 土 牆後面 會 崩塌 目前 要 把 崩塌 部分 用 混 泥土 灌足 外開 挖面 水平衡 只要 水 與 地下水位 一 平衡 土沙 部分 就 會靜止 就 不會 往開 挖面 流動 防止 二次 下陷 目前 搶救 可控 範圍 莊均緯 表示 通常 會發 這狀況 地面 本來 就 下陷 只 下陷 又 再 造成 第二 崩塌 灌漿 部分 還從 最 底下 往上 灌表層 部分 基本上 還 些 鬆 動 需要 等 水位 平衡 後 才能 達到 搶災 最終 停止 狀態 估計 應該 都 要 到 凌晨</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 的 2 部機車 及 一部 腳踏車 瞬間 掉 進 天坑 內   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 也 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 有 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 在 現場 協助 鄰 房民眾 疏散  </t>
+          <t>〔 台北市 信義區 出現 天坑 台北市 消防局 下午 3 時 13 分接 獲通報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 長 15 寬 3 深度 2 至 3 附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑 幸無人 受傷 台北市 政府 表示 目前 已 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 信義區 長 已 趕 抵 現場 坐鎮 指揮 目前 評估 約 10 餘位 住戶 需要 安置 台北市 建築 管理 處 表示 該案 因連續 壁施作 已 派員至 現場 了解 處理 中 目前 了解 連續 壁 滲水 工地 正 止水 當中 消防局 現場 協助 鄰 房民眾 疏散</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>北市 信義區 今 下午 3 點 多出 現大 天坑   崇德 街 60 巷 民宅 前 路面 坍陷   傍晚 5 點多 坑洞 再 擴大   消防局 已緊 急 疏散 鄰近 住戶   信義區 公所 區長 陳 冠伶 表示   9 位有 安置 需求者   已協助 找 好 旅社 並 入住   每人 每日 可申 請 補助 1600 元   最多 7 天       區長 陳 冠伶 表示   人數 調查 一直 在 變動   目前 9 位有 安置 需求   依規定 發生 緊急 災害 可 申請 安置 補助   每人 一天 1600 元   最多 申請 7 天   已協助 找 好 旅社   住戶 均 已 入住 安置   該 坑 主要 範圍 為 18 號至 24 號   警戒 區 12 號至 24 號已 拉起 封鎖線   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝</t>
+          <t>北市 信義區 今 下午 3 點 多出 現大 天坑 崇德街 60 巷 民宅 前 路面 坍陷 傍晚 5 點多 坑洞 再 擴大 消防局 已緊 急 疏散 鄰近 住戶 信義區 所區長 陳 冠伶 表示 9 位 安置 需求 已協助 找 好 旅社 並 入住 每人 每日 可申 請 補助 1600 元 最 多 7 天區長 陳 冠伶 表示 人數 調查 一直 變動 目前 9 位 安置 需求 依規定 發緊 急 災害 可 申請 安置 補助 每人 一天 1600 元 最 多 申請 7 天已 協助 找 好 旅社 住戶 均 已 入住 安置 該 坑 主要 範圍 為 18 號至 24 號 警戒 區 12 號至 24 號已 拉起 封鎖線 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 的 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 在 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供</t>
+          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷 崇德街 60 巷 路面 今天下午 3 點 13 分出 現長 15 寬 3 約 2 至 3 深大 天坑 台北市 建管處 表示 該案 因連續 壁施作 已 派員至 現場 了解 處理 中 目前 了解 連續 壁 滲水 工地 正 止水 當中 消防局 現場 協助 鄰 房民眾 疏散 台北市 建管處 表示 該案 因連續 壁施作 已 派員至 現場 了解 處理 中 工地 正 止水 當中 圖讀 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷 崇德街 60 巷 路面 出現 大 天坑 圖讀 提供</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 的 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 的 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 在 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 內 的 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 在 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 的 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 有 無 孔洞 或 軟弱 土層   監測 建築物 有 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 有 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 內 水位 在 地下 5.5 公尺   大約 在 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 的 有七戶   需要 安置 的 住戶 一共 有 5 戶 10 人   目前 都 安置 在 信義區 的 旅館 內   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 的 部分   廠 商承諾 超出 的 部分 可 負擔  </t>
+          <t>〔 台北市 信義區 崇德街 60 巷華熊 營造 建案 工地 旁 巷道 昨 13 日 下午 發 地層下陷 出現 長 15 寬 3 深 3 巨大 坑洞 昨晚 灌漿 填補 坑洞 與 建案 基地 坑洞 初步 填平 完成 但 目前 為將 土水壓 平衡 仍 基地 持續 灌水 台北市 都發局長 王玉芬 今 14 日 上午 說明 灌水 作業 預計 今 下午 完成 至於 住戶 回家 需達 3 條件 估計 作業 需 1 至 2 週王玉芬 今 上午 抵達 現場 說明 進度並 表示 造成 道路 塌陷 初步 判斷 工地 地下 連續 壁 約 1112 處 破洞 造成 水 與 砂往 工地 流產 破洞 原因 疑似 為 連續 壁 施工 時 包土 狀況 目前 已 坑洞 進行 灌漿 回填 基地 則採 填砂 灌水 以 平衡 水壓 至於 安置 外住 戶 王玉芬 指出 住戶 回到 家 需 3 個 條件 包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層 監測 建築物 無 傾斜 由 專業 技術 人員 進入 屋檢查 無 毀損 或 裂縫 預計 時間 需 1 至 2 週 希望 可盡 早 完成 讓 住戶 回到 家園 安置 費用則 由 廠商 全部 負擔 針對 現場 作業 進度 王玉芬 說 目前 基地 水位 地下 5.5 大約 下午 會 灌到 地下 3 雖然 昨晚 已 初步 判斷 狀況 趨 於 穩定 但 北市 府 要求 持續 灌水 至 地下 3 處 預計 灌水 作業 今 下午 可 完成 台北市 信義區 長 陳 冠伶今 受訪 表示 調查 結果 撤出 七戶 需要 安置 住戶 一共 5 戶 10 人 目前 都 安置 信義區 旅館 按照 規定 發緊 急 災害 補助 可 申請 安置 補助 每人 一天 1600 元 最 多 可 申請 七天 超過 部分 廠 商承諾 超出 部分 可 負擔</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 的 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 的 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   在 晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 內 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 及 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 及 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反 「 建築法 」 部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 在 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 及 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  </t>
+          <t>首次 上稿   0004 更新 時間   0609 〔 台北市 信義區 崇德街 60 巷一處 華熊 營造 建案 工地 旁 巷道 13 日 下午 3 點多發 地層下陷 出現 長 15 寬 3 深 3 巨大 坑洞 台北市 政府 與 建 商展 開搶救 灌漿 填補 坑洞 與 建案 基地 晚間 11 點 坑洞 初步 填平 完成 北市 府 啟動 預防性 疏散 疏散 安置 11 名住 戶到 旅館 住宿 台北市 建管處 指出 崇德街 60 巷華熊 營造 建築 工地 旁發 道路 坍陷 建管處 收到 訊息 立刻 派員 現場 了解 工地 正 進行 地下室 開挖 因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷 立即 指揮 承造 人 進行 緊急 處置 要求 基地 外 道路 下陷 處 進行 灌漿 回填 基地 採填砂 灌水 以 平衡 水壓 至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成 趨 於 穩定 基地 仍 監督持續 進行 填砂 灌漿 台北市 建管處 長 虞 積學 表示 經 建管處 緊急 聯 繫 台北市 土木 技師會莊 理事 長 結構 技師會 徐 理事 長 均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍 目前 採預 防性 疏散 措施 疏散 1224 號計 5 戶 需 安置 11 名住 戶 均 已 安排 至 旅館 住宿 虞積 學強 調該 建案 違反 「 建築法 」 部分 現場 已 立即 勒令停工 並處 以 18 萬元罰 鍰 建管處 將持續 現場 指揮 搶 救 現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測 提高 觀測 頻率 直到 確認 安全 無虞該 工地 目前 已 勒令停工 後 續須 確認 週邊 地質 鄰房 安全 無虞並 檢具 改善 計畫 經相 關會 審 查核 可 後 始得 復工</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街一處 新建 工地 旁 的 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 的 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 在 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 的 攤位   擔心會 再次 坍塌   周邊 住戶 說   「 昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   也 是 要 關心 一下 我 自己 的 攤位 啊   希望 說 沒 有 下 一次 啦   」 信義區 區長 陳 冠伶 表示   「 安置 了 5 戶   一共 是 10 位   那現 在 我們 把 他們 都 安置 在 我們 信義區 的 旅館裡   」 台北 市長 蔣萬安 上午 也 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及   「 接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 做 整體 評估   」 初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 也 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋   「 初步 判斷 是 工地 裡面 的 地下 連續 壁   大約 在 11 到 12 公尺 之間 有 破口   所以 它 的 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞   」 為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 有 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 有 安全 疑慮者將 下令 停工   改善  </t>
+          <t>台北市 信義區 崇德街 一處 新建 工地 旁 道路 13 日發 地層下陷 晚間 緊急 灌漿 搶 救 晚間 11 時 坑洞 初步 填平 完成 附近 住戶 一 早就 跑 來 關心 自己 攤位 擔心會 再次 坍塌 北市 都發局長 王玉芬 視察 表示 初步 判斷 道路 塌陷 原因 因 工地 地下 連續 壁 約 11 至 12 處 破口 水 與 砂往 地下室 流 造成 坑洞 未來 一周 將會 同三大技 師會 全面 檢查 地下室 開挖 工地 避免 類似 意外 再度 發 台北市 信義區 崇德街 一處 新建 工地 旁 巷道 13 日 下午 突然 發 地層下陷 坑洞 長 約 15 寬 3 深度 3 北市 勒令 工地 停工 附近 住戶 一 早就 跑 來 關心 自己 攤位 擔心會 再次 坍塌 周邊 住戶 說 「 昨晚 1112 點還 沒 睡覺 早上 56 點又趕 快 跑 出來 看要 關心 一下 我 自己 攤位 希望 說 沒下 一次 啦 」 信義區 區長 陳 冠伶 表示 「 安置 了 5 戶 一共 10 位現 我們 把 他們 都 安置 我們 信義區 旅館裡 」 台北 市長 蔣 萬安 上午 前往 旅館 探視 安置 戶致 贈慰 問金以 康乃馨 報告 工程 搶修 進度 蔣 萬安 提 「 接下 來 我們 還要 持續 監測 第二 個 我們 會 請 土木 技師來 整體 評估 」 初步 了解 因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷 現場 隨即 進行 緊急 處置 基地 外 道路 下陷 處 進行 灌漿 回填 基地 採填砂 灌水 以 平衡 水壓 北市 府 都發局長 王玉芬 解釋 「 初步 判斷 工地 裡面 地下 連續 壁大約 11 到 12 之間 破口 所以 它 水 跟 砂會 往 地下室 裡面 流才 造成 這個 坑洞 」 為 了 避免 類似 工地 意外 再度 發蔣 萬安 指出 已責成 相關局 處針 對 北市 工地 全面 清查 目前 建築 工地 正開 挖階段 102 件 將由三大 專業會 逐案 現場 勘查 於 一 週檢 查完 畢屆 時 安全 疑慮將 下令 停工 改善</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 的 大樓 建案   因為 地下 連續 壁 有 破洞   都 發局 初步 調查 後   對 承造 人 和 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 的 旅館 內   相關 費用 將由建 商來 負責   巷弄 內 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 也 遭殃   鐵門 幾乎 懸空   這樣 的 情況 就 發生 在 台北市 信義區   短時間 內   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出   「 昨天 有 做 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 的 住戶 一共 有 5 戶 」   市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 的 有 5 戶   一共 10 人   暫時 住 在 信義區 的 旅館 內   依照 規定   每人每天 可以 請領 的 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 內 是 回 不了 家 了   超出 的 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 的 是 搶災 的 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 的 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 的 大樓   地下 4 層   地上 17 層   負責 營造 的 華熊 營造 公司   興建過 的 包括 台北 101   世貿 中心 和 陶朱 隱園   都 是 赫赫有名 的 建築   如今 卻 發生 工安 意外   也 讓 工程 暫時 喊 卡   首要 之務得 先 設法 解決 安全 問題   還給 當地 居民 一個 安全 的 家  </t>
+          <t>北市 信義區 驚見 天坑 市政府 表示 坍塌 原因 指向 旁邊 大樓 建案 因為 地下 連續 壁 破洞 都 發局 初步 調查 後 對 承造 人 監造 人 各 開出 9 萬元罰 單 等 釐 清責任 歸屬 再 進 一步 開罰 至於 附近 住戶 目前 共 10 人 接受 安置 暫住 信義區 旅館 相關 費用 將由建 商來 負責 巷弄 路面 塌陷 好大 一塊 深度 達到 3 一旁 民宅 門口 遭殃 鐵門 幾乎 懸空 這樣 情況 就 發 台北市 信義區 短時間 房子 不能 住 了 住 戶們 該何 去 何 從 台北市 信義區 長 陳 冠伶 指出 「 昨天 疏散 撤離 範圍 從 12 號到 24 號調查 結果 發現 需要 安置 住戶 一共 5 戶 」 市府 緊急 介入 安置 一共 撤離 7 戶 需要 安置 5 戶 一共 10 人 暫時 住 信義區 旅館 依照 規定 每人每天 可以 請領 補助 金 1600 元 可以 請領 7 天 但 看 這情況 住 戶們 一週 回 不了 家 了 超出 費用 將由建商 全額 買單 另外 台北市 都 發局 局長 王玉芬 表示 第一 時間 已經 勒令停工 現進行 搶災 部分 同時會 對 承造 人 跟 監造 人處 各 9 萬元罰 鍰 根據 初判 建商要 負責 因為 一旁 建案 施工 地下 連續 壁 破洞 釀災 原本 要蓋 大樓 地下 4 層 地上 17 層 負責營 造華 熊營 造司 興建過 包括 台北 101 世貿 中心 陶朱 隱園 都 赫赫 名建築 如今 卻 發工安 意外 讓 工程 暫時 喊 卡 首要 之務得 設法 解決 安全 問題 還給 當地 居民 一個 安全 家</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 基隆 報導 〕 基隆市 七堵 區 10 日 發生 百一街 一處 建案 工地 旁電桿 下陷 2 公尺   由 於 5 月 13 日 台北市 信義區 也 出現 道路 塌陷   民眾 憂心 忡忡 天坑 在 基隆 重現   民進 黨籍 的 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全   基隆市 府 15 日 下午 5 點發布 新聞稿   市府 強調 已 要求 建案 停工   市府 將 全面 清查 基隆市 相關 工地 安全     曾怡芳 指出   10 日 晚間 五堵 國小 附近 的 一處 建案   突然 發生 建案 旁 的 電桿 下陷 2 公尺 的 意外   並 造成 附近 住戶 停電 5 小時   日前 台北市 信義區 也 發生 工地 旁 道路 塌陷 意外   引起 當地 居民 不安   擔心 天坑 在 基隆 重現     百一街 工地 旁電桿 下陷 事件 發生 後   基隆市 政府 都市 發展 處 12 日 赴 工地 現場 勘查   當天 結論 是 暫 不 要求 業者 停工   待 完成 固化 後   才 會 檢視 發生 電桿 塌陷 及 道路 龜裂 的 部分   但業者 表示   10 日 之所以 會 發生 電桿 塌陷   是 因為 電桿 上 的 變電箱 太重   土質 太 鬆 軟   才 導致 下陷 停電     曾怡芳 指出   事發 的 建案 旁 就是 五堵 國小   學童 人 數眾 多   且 鄰近 新台 五路 高架 橋   再 加上 附近 居民 也 表示   自該 建案 動工 以來   已導致 多處 柱位   地面 破損 龜裂   地面 高低 差達 7 公分   這樣 的 房子 根本 無法 住 人     曾怡芳 要求 基隆市 政府 重視 工安   不要 讓 4 月 27 日 的 新竹 天坑   5 月 13 日 的 北市 信義區 天坑 在 基隆 重現   並 要求 市府 以 最高 標準   來 審查 檢視此 建案     基隆市 政府 都 發處長 謝孝坤 表示   市府 15 日 已 經先 要求 百一街 的 工地 停工   後 續會 邀請 第三方 相關 技師 公會 詳細 檢視   釐 清電桿 下陷 原因   確保 安全 無虞後才 會 准許 復工   另外   市府 也 會 優先 清查 和 巡檢 全市 正在 開挖 地基 和 施作 連續 壁 的 工地   確 保民 眾 安全  </t>
+          <t>〔 基隆市 七堵區 10 日發 百一街 一處 建案 工地 旁電桿 下陷 2 由 於 5 月 13 日 台北市 信義區 出現 道路 塌陷 民眾 憂心 忡忡 天坑 基隆 重現 民進 黨籍 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全 基隆市 府 15 日 下午 5 點發布 新聞稿 市府 強調 已 要求 建案 停工 市府 將 全面 清查 基隆市 相關 工地 安全 曾怡芳 指出 10 日 晚間 五堵 國小 附近 一處 建案 突然 發建案 旁電桿 下陷 2 意外 並 造成 附近 住戶 停電 5 小時 日前 台北市 信義區 發 工地 旁 道路 塌陷 意外 引起 當地 居民 不安 擔心 天坑 基隆 重現 百一街 工地 旁電桿 下陷 事件 發 後 基隆市 政府 都市 發展 處 12 日 赴 工地 現場 勘查 當天 結論 暫 不 要求 業 停工 待 完成 固化 後 才 會 檢視 發電桿 塌陷 道路 龜裂 部分 但業 表示 10 日 之所以 會 發電桿 塌陷 因為 電桿 上 變電箱 太重 土質 太 鬆 軟 才 導 致 下陷 停電 曾怡芳 指出 事發 建案 旁 就 五堵 國小學 童人 數眾 多且 鄰近 新台五路 高架 橋再 加上 附近 居民 表示 自該 建案 動工 以來 已導致 多處 柱位 地面 破損 龜裂 地面 高低 差達 7 分 這樣 房子 根本 無法 住 人 曾怡芳 要求 基隆市 政府 重視 工安 不要 讓 4 月 27 日 新竹 天坑 5 月 13 日 北市 信義區 天坑 基隆 重現並 要求 市府 以 最高 標準 來 審查 檢視此 建案 基隆市 政府 都 發處長 謝孝坤 表示 市府 15 日 已經 要求 百一街 工地 停工 後 續會 邀請 第三方 相關 技師會 詳細 檢視 釐 清電桿 下陷 原因 確保 安全 無虞後才 會 准許 復工 另外 市府 會優 清查 巡檢 全市 正開 挖 地基 施作 連續 壁 工地 確 保民 眾 安全</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 和 草原 都 因 地層下陷   出現 大大小小 的 坑洞   遭議員 批評 宛如 成 了 「 地 雷公 園 」   市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 及 建置 自行 車道 會勘 過程 中   發現 有 綠地 及 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區 「 都 會 中 的 綠洲 」                             市議員 張桂綿 近期 發現   公園 中 的 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 和 兒童 奔跑 的 大 草原 也 出現 大小不一 的 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失       「 這裡 宛如 地雷 區   」 張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 她 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除 「 地雷 」   還給 鄉親 安全 的 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 的 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現 「 無底 洞 」   遭議員 批評 宛如 成 了 「 地 雷公 園 」   圖 ／ 張桂綿 提供</t>
+          <t>桃園市 蘆竹區 南興 水岸 遊憩 園耗資 1 億元 2019 年 竣工 不到 4 年 近期 卻 被 發現 步道 草原 都 因 地層下陷 出現 大大小小 坑洞 遭議員 批評 宛如 成 了 「 地雷 園 」 市府 工務局 表示 地層下陷 原因 可能 水路 沖 刷 造成 後 續會 再 前往 會勘 確認 南興 水岸 遊憩 園 2019 年 完工 當時 市府 進行 南 崁 溪 整治 建置 自行 車道 會勘 過程 中 發現 綠地水 利用 地未 被 徵收 經與 地方 討論 後 市府 決定 徵收 開闢 為 水景 園引 進共融式 設計 設置 樹屋 人文 廣場 森林 小徑 遊戲 沙坑 自行 車道 等 成為 南 崁 住宅 密集 區 「 都 會 中綠洲 」 市議員 張桂綿 近期 發現 園中 步道 嚴重 下陷 凹 了 一塊 包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞 甚至 掏空 成 了 無底 洞 主因 就 鄰近 河川 水流 滲透導致 地層下陷 嚴重 土壤 幾乎 全都 流失 「 這裡 宛如 地雷 區 」 張桂綿 直言 如果 民眾 或 兒童 沒 注意 一不小心 可能 會 踩 空受 傷前 已向區 所 反映 但 至今 仍無解 方呼籲 市府 務 單位 多 幫忙 盡速 拆除 「 地雷 」 還給 鄉親 安全 遊憩 環境 工務局 長 汪宙 表示 初步 判斷 可能 施工 時 夯土 不夠 扎實 附近 水流 滲透 加上 行人 重量 造成 壓力 才 導致 夯土 流失 地層下陷 市府 後 續會 協同 各 單位 前往 會勘 了解 發 原因 並盡速 改善 施工 缺失 桃園 蘆竹區 南興 水岸 遊憩 園 竣工 不到 4 年 步道 卻 嚴重 凹陷 恐響 市民 安全 圖 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 園耗資 1 億元 卻 出現 「 無底 洞 」 遭議員 批評 宛如 成 了 「 地雷 園 」 圖 張桂綿 提供</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 和 草 原因 地層下陷   出現 大大小小 的 坑洞   議員 批評 宛如 成 了 「 地 雷公 園 」   市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   在 南 崁 住宅 密集 區營造 「 都 會 中 的 綠洲 」                             市議員 張桂綿 說   公園 步道 近期 嚴重 下陷   包括 法式 滾球區 和 兒童 奔跑 的 大 草原 也 出現 大小不一 的 坑洞   甚至 掏空 成 「 無底 洞 」   推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失       「 這裡 宛如 地雷 區   」 張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   她 已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除 「 地雷 」   還給 鄉親 安全 的 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 的 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  </t>
+          <t>桃園市 蘆竹區 南興 水岸 遊憩 園耗資 1 億元 打造 完工 迄今 不到 4 年 近期 被 發現 步道 草 原因 地層下陷 出現 大大小小 坑洞 議員 批評 宛如 成 了 「 地雷 園 」 市府 工務局 表示 地層下陷 原因 可能 夯土 不夠 扎實 水路 沖 刷 造成 將 安排 會勘 改善 南興 水岸 遊憩 園 2019 年 竣工 市府 特別 引進 共融式 設計 設置 樹屋 人文 廣場 森林 小徑 遊戲 沙坑 自行 車道 等 南 崁 住宅 密集 區營造 「 都 會 中綠洲 」 市議員 張桂綿 說園 步道 近期 嚴重 下陷 包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞 甚至 掏空 成 「 無底 洞 」 推測 鄰近 河川 水流 滲透導致 地層下陷 嚴重 土壤 幾乎 全都 流失 「 這裡 宛如 地雷 區 」 張桂綿 直言 如果 民眾 或 兒童 沒 注意 一不小心 可能 踩 空 受傷 已向區 所 反映 但 仍 無 解方 呼籲 市府 工務 單位 正視 盡速 拆除 「 地雷 」 還給 鄉親 安全 遊憩 環境 工務局 長 汪宙 說 初判 可能 施工 時 夯土 不夠 扎實 附近 水流 滲透 加上 行人 重量 造成 壓力 導致 夯土 流失 地層下陷 市府 後 續會 協同 各 單位 現勘 了解 發 原因 並盡速 改善 施工 缺失</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 的 速度   持續 下沉 中   而 有 部分 地區   下沉 的 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 的 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 和 海平面 上升 的 雙重 夾擊   讓 紐約市 岌岌可危   「 紐約 市將 在 30 年後沈入 海底     」 這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 的 速度 持續 下沉 中   紐約市 有 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 的 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 的 重量   聯合國 秘書長 古特 瑞斯 說   「 海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數 」   原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 的 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 的 情況 是   21 世紀 結束 時   紐約 海平面 比現 在 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  </t>
+          <t>根據 研究 指出 美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 分 速度 持續 下沉 中 而 部分 地區 下沉 速度 甚至 比 平均值 高出 兩倍 分析 主要 原因 因為 大量 建築物 尤其 一棟棟 摩天 大樓 讓 地表 超重 再 加上 海平面 不斷 上升 地層下陷 海平面 上升 雙重 夾擊 讓 紐約市 岌岌可危 「 紐約 市將 30 年後沈入 海底 」 這 可能 不 危言 聳 聽 因為 研究 指出 紐約市 正以 每年 0.1 到 0.2 分 速度 持續 下沉 中紐 約 市 840 萬人 不但 人口 高度 密集 更 一座 水泥 叢林帝 國大廈 等 數不清 摩天 大樓 壓得 紐約 喘 不 過氣 紐約市 建築 總 重量 大約 7620 億斤 相當 於 1.4 億頭 大象 重量 聯合國 秘書長 古特 瑞斯 說 「 海平面 上升 不僅僅 只 威脅 而已 它 更 威脅 乘數 」 原來 從 1950 年 以來 紐約市 沿岸 海平面 已經 上升 22 分大 蘋果 海平面 上升 速度 全球 平均值 兩倍 預 估到 2050 年 紐約市 海平面 將 上升 30 到 45 分 這中間 值 最高 甚至 估計 到 76 分 最壞 情況 21 世紀 結束 時紐 約 海平面 比現 上升 約 180 分 自由 女神像 早已 滅頂 建築物 導致 地層下陷 海平面 快速 上升 不用 太久 紐約市 恐怕 將成 為 歷史 名詞</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 的 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 的 居民 生存 備受 威脅     紐約 每年 均 在 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 在 內 的 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 的 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 的 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 的 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 內 的 建築物 也 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 和 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成 的   因為 上 一次 冰河 時期 最 寒冷 的 時候   巨大 的 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 的 地區則 開始 下陷     之前 有 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 的 力量 之外   研究 人員 也 認為還 可能 包括 其他人 為 因素   且 科學家 也 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 的 重量 造成     本次 研究 結果 刊登 在 Earth   s   Future 期刊   【 更 多 精采 內容   詳見 】</t>
+          <t>紐約市 正 下陷 美國 地質 專家 研究 發現 由 於 紐約市 摩天 大樓 眾多 加上 地質 變動 部分 紐約市 地層 已 下陷 至少 2 分未來 若 再 加上 海平面 上升 恐讓 沿海 地區 居民 存備 受 威脅 紐約 每年 均 下沉 據 獨立報 報導 紐約市 人口 約 800 萬美國 地質 調查局 研究 人員 指出 包括 布魯克林 皇后 區與 下曼頓 部分 紐約市 因為 地層下陷 每年 下沉 1 到 2 分該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億斤 重量 等 因素 除此之外 研究 更 指出 紐約 市還 面臨 洪水 危害 風險 海平面 上升 亦 威脅 稍早 研究 曾 指出 全球 暖化 帶來 海平面 快速 上升 2050 年前 全球 海平面 將 上升 200 到 600 分 研究 人員還 指出 紐約市 每年 下陷 約 1 到 2 分 部分 地區 下沉 速度 更 快 原因 除了 近期 不斷 興建 摩天 大樓 外還 包括 抽取 地下水 土壤 壓實 與 地震 等 因素 都市 建築物 面臨 其他 風險 例如 地層 暴露 鹽水 後 可能 導致 鋼筋 混凝土 受到 侵蝕 因此 減少壽命 下 沈 自然 造成 據 Live   Science 報導 研究 指出 紐約市 下 沈 部分 原因 可能 自然 形成 因為 上 一次 冰河 時期 最 寒冷 時候 巨大 冰層 曾 覆蓋 大部分 地球 造成 冰層 下方 地面 下陷 進而 讓 陸地 邊緣 升起 等到 冰層 融化 後 被 抬升 地區則 開始 下陷 之前 研究 就 指出 到 2100 年 美國 東岸 可能 會 下陷 48 至 150 分 除了 大自然 力量 之外 研究 人員 認為還 可能 包括 其他人 為 因素 且 科學家 發現 當地 某些 地區 下沉 速度 更 快 原因 可能 建築物 重量 造成 本次 研究 結果 刊登 Earths   Future 期刊 【 更 多 精采 詳見 】</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 的 是   科學家 預期 由 於 人 為 引發 的 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說   「 我們 離 海水倒灌 還有 一段 很長 的 路 … 但 我們 在 紐約 市經 歷過 數次 嚴重 的 颶風 事件   像 颶風珊迪   Sandy   及 艾達   Ida   帶來 的 暴雨 使得 城市 淹水 成災   都市化 帶來 的 部分 影響 也 使得 水災 發生   」   這篇論 文發表 在 期刊 「 地球 的 未來 」   Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 的 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 的 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 的 質量   計算出 這些 建築物 的 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 的 波音 747   400 客機     研究 團隊 接著 利用 模擬 的 方式   計算出 這些 重量 對 地面 的 影響   並和 顯示 實際 地表 地質 情況 的 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 的 地區 每年 下陷 約 4.5 毫米 」     然而   並非 所有 地層下陷 都 是 建築物 造成 的   帕森斯 說   「 我們 可想 見 在 非常 鬆 軟 的 土壤 和 人工 填土 的 地面 上 建造 建築 和 地層下陷 的 關聯 … 在 其他 地方   我們則 看到 難以 解釋 的 地層下陷   它 有 很多 不同 的 成因   例如 上個 冰河 時期 後 發生 的 後 冰期 回落   或是 抽取 地下水   」   研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 在 紐約市     帕森斯 說   「 這是 一個 全球性 的 問題   我來 自羅德島 大學   University   of   Rhode   Island   的 合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 也 有 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題   」</t>
+          <t>一項 最新 研究 發現 美國 紐約 市長 期 承受 大量 建築物 重量 之下 地層 正 下陷 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上 恐為 紐約市 招致 洪災 等 危機 美國線 電視 新聞網 CNN 報導據 推估 紐約市 2050 年 海平面 將 上升 8 至 30 英寸 20.32 至 76.2 分 更 重要 科學家 預期 由 於 人 為 引發 氣候 危機類 似東 北風暴 noreaster 颶風 這類 極端 降雨 事件 將更頻 繁地 出現 美國 地質 調查 所 US   Geological   Survey 專家 帕森斯 Tom   Parsons 說 「 我們 離 海水倒灌 還 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件 像 颶風珊迪 Sandy 艾達 Ida 帶來 暴雨 使得 城市 淹水 成災 都市化 帶來 部分 響 使得 水災發 」 這篇論 文發表 期刊 「 地球 未來 」 EarthsFuture 上旨 展示 沿海 河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險 以應 採取 相關 措施 來 降低 潛危險 衝擊 研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量 計算出 這些 建築物 重量 約 為 7620 億斤 相當 於 約 190 萬架 滿載 波音 747400 客機 研究 團隊 接著 利用 模擬 方式 計算出 這些 重量 對 地面 響並 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較 帕森斯 說 這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米 部分 下陷 較嚴 重地 區 每年 下陷 約 4.5 毫米 」 然而 並非 所 地層下陷 都 建築物 造成 帕森斯 說 「 我們 可想 見 非常 鬆 軟 土壤 人工 填 土地 面上 建造 建築 地層下陷 關聯 … 其他 地方 我們則 看到 難以 解釋 地層下陷 它 很多 不同 成因 例如 上個 冰河 時期後發 後 冰期 回落 或 抽取 地下水 」 研究 表明 地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅 而且 這種 情況 不只 發紐 約 市 帕森斯 說 「 這一個 全球性 問題 我 來 自羅德島 大學 University   of   Rhode   Island 合著 研究 了 世界各地 共 99 座 城市 不只 沿海 城市 陸 城市 其中 絕 大多 數都存 地層下陷 問題 」</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">經典 末日 電影   明天 過後     海水 源源 不絕 灌入 市區   整座 城市 轉眼 之間 沉 沒 大海   令人 難以 置信   這樣 的 災難 情節   未來 可能 在 紐約 真實 上演   人稱 「 大 蘋果 」 的 美國 紐約   高樓 林立   房子 一棟 比 一棟 蓋 得 更 高   更 奢華   光是 摩天 大樓 就 多 達 6000 棟   整座 城市 更 有 超過 100 萬棟 建築物   總 重量 高達 7700 億 公斤   約 1.4 億頭 大象   而 高樓 數量 還持續 在 增加 中   土地 承受 不了 建築物 重壓   加上 超 抽 地下水   使得 地層下陷   紐約 正 逐漸 下沉 中   雖然 從 數字來 看 沒什麼 大不了   換算 下來   每 10 年 才 下沉 2 公分   但 專家 警告   這對 沿海 地區 的 影響 不容 小覷   紐約 人口 最 密集 的 曼哈頓 跟 海岸 地區 首當 其衝   這個 世紀末   也 就是 西元 2100 年前   可能 陷入 汪洋 之中   成 了 名 副 其實 的 「 水 都 」   專家 擔心   在 地層下陷 跟 海平面 上升 雙重 夾擊 下   未來 如果 再 遇上 強烈 颶風   災情 可能 一年 比 一年 嚴重   氣候變遷 加劇   海平面 快速 上升   原因 都 跟 高碳 排放 脫 不了 關 係   減碳 成為 各國 首要 目標   紐約 當局 祭出 了 減碳 法令   限制 大樓 的 排放量   希望 改善 暖化 問題   減緩 海平面 上升   紐約 一半 以上 的 建築都將 受到 規範   有效 控制 碳 排放   有些 建商 也 採用 新技術   在 地下室 打造 「 碳 捕捉 室 」   把 二氧化碳 收集 起來   做 更好 的 利用   透過 儀器   把 天然 氣燃 燒產生 的 二氧化碳 轉換成 液態   阻止 它 進入 大氣層   還能 賣給 建商   力行 減碳免 於 受罰   還能 賺 錢   是 一舉 多 得   大樓 是 紐約 最大 的 碳 排放 來源   佔 了 城市 碳排 的 三分之二   把 造成 暖化 的 二氧化碳 封存 在 水泥 內   從 根本 的 減碳 做起   未來 也將 全面 電氣化   停止使用 天然 氣和 化石 燃料   減緩 暖化 速度   紐約 當局 也 防患未然   在 沿海 地區 設立 防波堤   環繞 整個 紐約   強化 海岸 的 防洪 能力   避免 強烈 颶風來 襲時   海水 灌入 市區   對 市區 造成 損害   建造 海牆 能 有效 防洪   但 可能 破壞 市容   也 干擾 海邊 活動   影響 沿海居民   美國陸 軍 工程兵 團也 在 擬定 一項 名為 3B 的 新計畫   把 防洪 設施 分散 各地   降低 對 當地 的 影響   也 能 達 到 最好 的 效果   希望 對 民生   環境 能 面面俱到   不 只 紐約 面臨 下沉 危機   全球 多國 的 沿海 城市   也 飽 受 海平面 上升 之苦   氣候變遷 的 威脅 越來 越大   各國 除了 要 加強 防洪 設施   也 要 在 經濟 開發 跟 環保 取得 平衡   加強 減碳 跟 發展 綠色 能源   才能 防止 大自然 反撲  </t>
+          <t>經典 末日 電 明天 過後 海水 源源 不絕 灌入 市區 整座 城市 轉眼 之間 沉 沒 大海 令人 難以 置信 這樣 災難 情節 未來 可能 紐約 真實 上演 人稱 「 大 蘋果 」 美國 紐約 高樓 林立 房子 一棟 比 一棟 蓋 得 更 高 更 奢華光 摩天 大樓 就 多 達 6000 棟 整座 城市 更 超過 100 萬棟 建築物 總 重量 高達 7700 億斤 約 1.4 億頭 大象 而 高樓 數量 還持續 增加 中 土地 承受 不了 建築物 重壓 加上 超 抽 地下水 使得 地層下陷 紐約 正 逐漸 下沉 中 雖然 從 數字來 看 沒什麼 大不了 換算下 來 每 10 年 才 下沉 2 分 但 專家 警告 這對 沿海 地區響 不小 覷 紐約 人口 最 密集 曼頓 跟 海岸 地區 首當 其衝 這個 世紀 末 就 西元 2100 年前 可能 陷入 汪洋 之中 成 了 名 副 其實 「 水 都 」 專家 擔心 地層下陷 跟 海平面 上升 雙重 夾擊 下 未來 如果 再 遇上 強烈 颶風 災情 可能 一年 比 一年 嚴重 氣候變遷 加劇 海平面 快速 上升 原因 都 跟 高碳 排放 脫 不了 關 係 減碳 成為 各國 首要 目標 紐約 當局 祭出 了 減碳 法令 限制 大樓 排放量 希望 改善 暖化 問題 減緩 海平面 上升 紐約 一半 以上 建築都將 受到 規範效 控制 碳 排放 些 建商 採用 新技術 地下室 打造 「 碳 捕捉 室 」 把 二氧化碳 收集 起來 更好 利用 透過 儀器 把 天然 氣燃 燒產 二氧化碳 轉換成 液態 阻止 它 進入 大氣層 還能 賣給 建商 力行 減碳免 於 受罰 還能 賺 錢 一舉 多 得 大樓 紐約 最大 碳 排放 來源 佔 了 城市 碳排 三分之二 把 造成 暖化 二氧化碳 封存 水泥 從 根本 減碳 起 未來將 全面 電氣化 停止使用 天然 氣 化石 燃料 減緩 暖化 速度 紐約 當局 防患未然 沿海 地區 設立 防波堤 環繞 整個 紐約 強化 海岸 防洪 能力 避免 強烈 颶風來 襲時 海水 灌入 市區 對 市區 造成 損害 建造 海牆 能效 防洪 但 可能 破壞 市 干擾 海邊 活動響 沿海居民 美國陸 軍 工程兵 團擬定 一項 名為 3B 新計畫 把 防洪 設施 分散 各地 降低 對當 地響 能 達 到 最好 效果 希望 對民環境 能 面面俱到 不只 紐約 面臨 下沉 危機 全球 多國 沿海 城市 飽受 海平面 上升 之苦 氣候變遷 威脅 越來 越大 各國 除了 要 加強 防洪 設施 要 經濟 開發 跟 環保 取得 平衡 加強 減碳 跟 發展 綠色 能源 才能 防止 大自然 反撲</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">美國 紐約 是 東部 最熱鬧 的 城市 之一   也 是 美國 人口 最多 的 城市   但 有 研究 顯示   這座 重要 的 城市 卻 每年 都 在 下沉 中   部分 地區 最 後 可能 還會 被淹 沒   電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   美國 紐約 摩天 大樓 林立   但 多 達 百萬棟 建築物實 在 太重 了   讓 整座 城市 地層 正在 下陷   再 加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   長 久 下來 恐發生 海水倒灌 等 洪水 災害   美國 地質 調查 所 專家 帕森斯 表示   「 無可 避免 的   地面 在 下降   水面 上升   在 某些 時候   這兩層 面會 同時 發生   但 我 沒辦 法給 你 確切 的 時間點   」 帕森斯 說   超過 百萬座 建築物 分布 在 五個 行政 區上   加起 來 約 有 1.7 兆 磅 的 混凝土   金屬 和 玻璃 等 建材   相當 於 4700 座帝 國大廈 的 重量 壓在 地球 上   其中   部分 大樓 建築 在 布魯克林   皇后 區和曼 哈頓 市中心 土 質 鬆 散 的 地 區 上   下沉 速度 更 快   美國 地質 調查 所 專家 帕森斯 表示   「 中部 大陸 上升   東 海岸 每年 下沉 約 1 至 2 公 釐   這是 我們 看到 的 主要 警訊   再 加上 紐約市 有 不同 土壤 質地   還有 人工 填土 來 增加 土地 面積   但 它們 的 土壤 固結度 很 差   還是 可以 讓 地層下陷   」 帕森斯 還說   雖然 下沉 的 速度 很 緩慢   但 紐約 部分 地區 最 終將 被淹 沒   猶如 電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   至於 紐約 是否 會 變成 美國版 的 威尼斯   帕森斯 表示   確切 的 時間點 目前 尚 不 清楚   可能 還 需要 數 百年 的 時間   但 他 的 研究 不是 危言 聳 聽   只是 希望 透過 科學 數據   在 問題 擴大前   先 採取 行動  </t>
+          <t>美國 紐約 東部 最熱鬧 城市 之一 美國 人口 最 多 城市 但 研究 顯示 這座 重要 城市 卻 每年 都 下沉 中 部分 地區 最 後 可能 還會 被淹 沒電 明天 過後 海水倒灌 場景 未來 恐怕 真會 發美國 紐約 摩天 大樓 林立 但 多 達 百萬棟 建築物實 太重 了 讓 整座 城市 地層 正 下陷 再 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上 長 久 下來 恐發 海水倒灌 等 洪水 災害 美國 地質 調查 所 專家 帕森斯 表示 「 無可 避免 地面 下降 水面 上升 某些 時候 這兩層 面會同 時發 但 我 沒辦 法給 確切 時間點 」 帕森斯 說 超過 百萬座 建築物 分布 五個 行政 區上 加起 來 約 1.7 兆 磅 混凝土 金屬 玻璃 等 建材 相當 於 4700 座帝 國大廈 重量 壓 地球 上 其中 部分 大樓 建築布 魯克林 皇后 區曼頓 市中心 土 質 鬆 散 地 區 上 下沉 速度 更快 美國 地質 調查 所 專家 帕森斯 表示 「 中部 大陸 上升 東 海岸 每年 下沉 約 1 至 2 釐 這我們 看到 主要 警訊 再 加上 紐約市 不同 土壤 質地還 人工 填土 來 增加 土地 面積 但 它們 土壤 固結度 很 差還 可以 讓 地層下陷 」 帕森斯 還說 雖然 下沉 速度 很 緩慢 但 紐約 部分 地區 最 終將 被淹 沒猶如電 明天 過後 海水倒灌 場景 未來 恐怕 真會發 至於 紐約會 變成 美國版 威尼斯 帕森斯 表示 確切 時間點 目前 尚 不 清楚 可能 還 需要 數 百年 時間 但 他 研究 不 危言 聳 聽 只 希望 透過 科學 數據 問題 擴大前 採取 行動</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 今天 塌陷   一輛 預拌 混凝土車 側翻   壓傷 一名 工人   被 送醫 急救   台中市 勞檢處 已 派 人 到場 調查   並 勒令停工   因 工地 沒 做 擋 土   地面 承載力 不足 等 缺失       台中市 消防局 今天 早上 9 點接 獲 報案   沙鹿 區錦華街 一處 工地 旁發生 緊急 創傷 救護   出動 沙鹿   龍井   梧棲   西屯 分隊 及 第四 大隊   各式 消防 車輛 10 輛   消防人 員 25 名   由大隊 長 蔡孟栩帶 隊 指揮 搶 救                             現場 是 路面 坍方   造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人   工地 營建廠 商已 協助 聯 繫 吊 車 到 場   地層下陷 造成 預拌 混 泥土 車車輛 翻覆   沙鹿 消防 分隊 到 場後先 以 消防 車絞盤   梧棲分隊 使用 車 吊臂 共同 固定 預拌 混 泥土 車   確保 傷者 安全 無虞   因 該車 重量 達 35 噸 以上   需 等待 業者 配合 大型 吊車 到 場方能 吊掛   先由救護 人員 接觸 患者 進行 緊 急救 護處 置       早上 9 點 34 分   業者 調派 吊車 至 現場 進行 車輛 吊掛   消防局 搶 救人 員協助 以油 壓破壞 器材   協助 傷者 脫困   10 點 4 分傷者 順利 脫困   送 梧棲童 綜合 醫院       傷者 到 醫院 時 意識 清楚   雙 下肢 和 背部 擦 挫傷   右 大腿 燙傷   應是 鋼版 高溫 造成   目前 仍 在 醫院 檢查 中   台中市 勞檢處 表示   工地 的 地面 承載力 不足   造成 地面 塌陷   車翻 傷心 意外   已 要求 停工   將開罰 3 到 30 萬元 不 等 罰 鍰   台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供</t>
+          <t>台中市 沙鹿區 一處 工地 旁 路面 坍方 今天 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 圖 台中市 消防局 提供 台中市 沙鹿區 一處 工地 旁 路面 今天 塌陷 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 被 送醫 急救 台中市 勞檢處 已 派 人 到場 調查並 勒令停工 因 工地 沒擋 土地 面承載力 不足 等 缺失 台中市 消防局 今天 早上 9 點接 獲 報案 沙鹿區 錦華街 一處 工地 旁發 緊急 創傷 救護 出動 沙鹿 龍井 梧棲 西屯 分隊 第四 大隊 各式 消防 車輛 10 輛 消防人 員 25 名由大隊 長 蔡孟栩帶 隊 指揮 搶 救 現場 路面 坍方 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 工地 營建廠 商已 協助 聯 繫 吊 車 到 場 地層下陷 造成 預拌 混 泥土 車車輛 翻覆 沙鹿 消防 分隊 到 場後以 消防 車絞盤 梧棲 分隊 使用 車 吊臂 共同 固定 預拌 混 泥土 車確 保傷 安全 無虞因 該車 重量 達 35 噸 以上 需 等待 業 配合 大型 吊車 到 場方能 吊掛 由 救護 人員 接觸 患進 行緊 急救 護處 置 早上 9 點 34 分業 調派 吊車 至 現場 進行 車輛 吊掛 消防局 搶 救人 員協助 以油 壓破壞 器材 協助傷 脫困 10 點 4 分傷 順利脫 困送 梧棲 童 綜合 醫院 傷到 醫院 時 意識 清楚 雙 下肢 背部 擦 挫傷 右 大腿 燙 傷應 鋼版 高溫 造成 目前 仍 醫院 檢查 中 台中市 勞檢處 表示 工地 地面 承載力 不足 造成 地面 塌陷 車翻 傷心 意外 已 要求 停工 將開罰 3 到 30 萬元 不 等 罰 鍰 台中市 沙鹿區 一處 工地 旁 路面 坍方 今天 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 圖 台中市 消防局 提供 台中市 沙鹿區 一處 工地 旁 路面 坍方 今天 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 圖 台中市 消防局 提供 台中市 沙鹿區 一處 工地 旁 路面 坍方 今天 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 圖 台中市 消防局 提供 台中市 沙鹿區 一處 工地 旁 路面 坍方 今天 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 圖 台中市 消防局 提供 台中市 沙鹿區 一處 工地 旁 路面 坍方 今天 造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人 圖 台中市 消防局 提供</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">印尼 海域 的 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 的 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 有 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 的 寧靜 自然   還能 在 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出   「 紅樹林 是 很 獨特 的 生態 系統   一種 植物   有趣 的 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要 的 嗎   」 印尼 首都 雅加 達長 期受 極端 氣候 引發 的 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 的 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 的 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 的 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 的 一小部分   過去 一年 就 有 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 的 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示   「 我們 需要 生存 下去   但 很 難 找到 像樣 的 工作   當時 唯一 知道 的 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁   」 這片 海域 位 在 東南亞 從菲律 賓到 印尼   澳洲 之間 的 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 在 當地 巴迪島   努力 復 育 周邊 3 公頃 的 珊瑚礁   耐心 說 服漁民 做 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 的 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 的 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 的 海底 回春   熱帶 魚群 穿梭 在 新生 的 珊瑚礁 之間   環境 科學家 尤素夫 提及   「 印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 的 世界 遺產   一個 小小的 努力 都 可能 影響 世界   」 印尼 海域 的 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 的 18%   在 珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 有 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 的 海域   一步 一步 把 失去 的 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  </t>
+          <t>印尼 海域 珊瑚礁 面積 超過 5 萬 平方里 占 全世界 18% 但過 去 飽 受 非法 炸魚 破壞 一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變成 了 保護 珊瑚礁 尖兵 另外 印尼 首都 雅加 達 地層下陷 嚴重 當局 開發紅 樹林 態觀光 讓 遊客 種樹救 環境 寓教 於 樂 印尼 首都 雅加 達 北部 海岸 一片 紅 樹林 自然 保護區遊 客划 著 小艇 來 這裡 享受 遠離塵 囂寧靜 自然 還能 環保 人士 引導 下親 手種 植紅 樹林 樹苗為 保護 首都 環境 盡 一份 心 力保 護區 遊客 娜塔莉 亞 指出 「 紅 樹林 很 獨特態 系統 一種 植物 趣紅 樹林 可 吸收 危險 金屬還 可以 改善 空氣 品質 這 不正 我們 人類 所 需要 」 印尼 首都 雅加 達長 期受 極端 氣候 引發 洪水 暴風雨 衝擊 加上 超 抽 地下水 地層下陷 快速 平均 一年 15 分 已經 面臨 遷都 危機紅 樹林 能夠 抵擋 潮汐 上升 保護 土地 天然屏障 印尼 當局 去 2022 年 啟動 了 一項 恢 復 60 萬 頃紅 樹林 計畫 但紅 樹林 必須 成長 5 到 10 年才夠 強壯能 抵禦 海浪 潮汐 而 周邊還 很多 建商虎視 眈眈 想把紅 樹林 開發 成沙 灘遊樂區 保育 計畫 困難 重重 卻 必須 堅持 到底 而 這片 98 頃保護區 只 印尼 全國 沿岸 410 萬 頃紅 樹林 一小部分 過去 一年 就 70 萬頃 被 砍伐 另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組 成斯珀 蒙德 群島 海域 20 年前 因為 非法 捕魚 猖獗 海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般 碎片 只 剩 2% 倖 存前 偷 獵達林 表示 「 我們 需要 存 下去 但 很 難 找到 像樣 工作 當時 唯一 知道 工作 盜獵 所以 我們 開始 炸 珊瑚礁 」 這片 海域 位東 南亞 從菲律 賓到 印尼 澳洲 之間 珊瑚 大 三角 區域 物種 豐富 多樣 海底 態搖籃 破壞 至此 非常 可惜 科學家 尤素夫 教授 過去 20 年來 當地 巴迪島 努力 復 育 周邊 3 頃 珊瑚礁 耐心 說 服漁民 保育 從 珊瑚 產卵 受精 繁殖 開始 起 把 蜘蛛 型 框架 結構 放入 海底 上面 綁 著 珊瑚 碎片 讓 它們 長 過去 炸魚 毒魚 盜 獵變 成態 守護長 期紀錄 並且 細 心照 顧 已經 慢慢 看到 荒蕪 海底 回春 熱帶 魚群 穿梭 新 珊瑚礁 之間 環境 科學家 尤素夫 提 「 印尼 菲律賓 與 印度 太平洋 這片 珊瑚 大 三角 必須 得到 保護 才能 為 後 代子 孫 保留 這片 海中 世界 遺產 一個 小小 努力 都 可能 響 世界 」 印尼 海域 珊瑚礁 面積 5 萬 875 平方里 占 世界 珊瑚礁 總面積 18% 珊瑚 大 三角 區域 佔 比 更 高達 65% 尤素夫 教授 了 成功 經驗現 把 保育 觸角 擴展 到 鄰近 兩個 島嶼 將近 5 頃 海域 一步 一步 把 失去 珊瑚礁 補 救回 來 但 這還 一條 漫漫 長 路</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">台南市 人權律師 湯德章 故居 2020 年 由 文化界 發起 募款 籌得 2 千萬元 買 下   稍微 整修   但 目前 房舍 破爛   蟲蛀   傾斜   有 危險 之 虞   湯德章 紀念 協會 自籌 經費 及 獲 文化部   台南市 文化局 補助   將斥資 1260 萬元修 復   昨舉 行動土   預計 1 年 後 完工   希望 恢 復 老屋 原來 面貌       湯德章 紀念 協會 理事 長 黃 建龍 說   湯德章 故居 透過 群眾 集資 的 力量 順利 搶 救 買 下   並將 嚴重 蛀蝕 部分 清理   拆除 危牆   重新 拉配 水電   布設 簡要 的 展覽   前年 開放 參觀   但 這棟 90 餘年 的 老屋   歷經 多次 地震   後 段 建物 明顯 地層下陷 傾斜   嚴重 漏水   梁柱 遭蟲 蛀   木件 門窗 不見 等   為 讓 故居 永續 經營   決定 修 復 再生                             協會 去年 與 崑 山 科技 大學 合作   由 郭一勤 老師 帶 領團 隊展 開建築物 的 損毀 檢查 與 重新 測繪   提出 湯德章 故居 保存 再生 計畫   獲 文化部 私有 老建築 保存 再生 計畫 通過 補助   修 復工 程由 文化部 及 台南市 文化局 補助 882 萬餘元   其餘 由 協會 自籌   初估 超過 600 萬元       市長 黃 偉哲 說   保存 再生 計畫將 進行 設施 的 再 優化   也 會 陳 列許 多 湯德章 律師 的 遺物 及 呈現 228 事件 的歷 史事 蹟   讓 後 世子 孫永遠 都 能 記得   「 希望 這段 歷史 被 原諒   但 不能 被 忘記   」     文化局 表示   市府 努力 協助 爭取 再生 計畫 的 過程 中   全案 因具 高 公益性   是 去年 文化部 私有 老建築 保存 再生 計畫 中 最 受矚 目的 申請案   湯德章 故居 修 復工 程啟 動   象徵推 廣人權 教育 之 路 向前 邁進 一大步  </t>
+          <t>台南市 人權律師 湯德章 故居 2020 年 由 文化界 發起 募款 籌得 2 千萬元 買 下 稍微 整修 但 目前 房舍 破爛蟲 蛀 傾斜 危險 之 虞 湯德章 紀念 協會 自籌 經費 獲 文化部 台南市 文化局 補助 將斥資 1260 萬元修 復 昨舉 行動土 預計 1 年 後 完工 希望 恢 復 老屋 原來 面貌 湯德章 紀念 協會 理事 長 黃 建龍 說 湯德章 故居 透過 群眾 集資 力量 順利 搶 救 買 下 並將 嚴重 蛀蝕 部分 清理 拆除 危牆 重新 拉配 水電布設 簡要 展覽 前年 開放 參觀 但 這棟 90 餘年 老屋 歷經 多次 地震 後 段 建物 明顯 地層下陷 傾斜 嚴重 漏水 梁柱 遭蟲 蛀 木件 門窗 不見 等 為 讓 故居 永續 經營 決定 修 復 再 協會 去年 與 崑 山 科技 大學 合作 由 郭一勤 老師 帶 領團 隊展 開建築物 損毀 檢查 與 重新 測繪 提出 湯德章 故居 保存 再計畫 獲 文化部 私老 建築 保存 再計畫 通過 補助 修 復工 程由 文化部 台南市 文化局 補助 882 萬餘元 其餘 由 協會 自籌 初估 超過 600 萬元 市長 黃 偉哲 說 保存 再計 畫將 進行 設施 再 優化會 陳 列許 多 湯德章 律師 遺物 呈現 228 事件 歷 史事 蹟 讓 後 世子 孫永遠 都 能 得 「 希望 這段 歷史 被 原諒 但 不能 被 忘 」 文化局 表示 市府 努力 協助 爭取 再計畫 過程 中 全案 因具 高 益性 去年 文化部 私老 建築 保存 再計畫 中 最受 矚目 申請案 湯德章 故居 修 復工 程啟 動象 徵推廣人權 教育 之 路 向前 邁進 一大步</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>近期 受滯 留 鋒面 及農 曆 大潮 影響   台灣 南部 午後出現 局部 強 降雨   嘉義 沿海 地層下陷 易 淹水   五河 局 預置 淹水 感測器 及 移動式 抽水機   監控積 淹水 情況   縣府 也 提前 協助 清除 河道 障礙物   確保 排水 通洪順暢   並呼籲 漁民 做好 防災 措施       縣府 漁業 處 指出   因 近期 可能 有 大量 降雨   先 整備 防汛 應變   督導 2 件 在建 中 的 大型 養殖區 排水工程   移除 河道 中機 具及 打通 阻礙物   雖會 影響 工期 及 增加 工程 不便   但 仍 以防 災為 最 優先 考量   避免 造成 附近 或 上游 淹水 災情                             漁業 處 也 呼籲   這 周天 氣極 不 穩定   低壓 帶 及 滯留 鋒面 影響   易有 短延 時強 降雨   海面 風浪 也 不佳   提醒 漁友 要 多加 留意 養殖 管理   並 做好 防災 工作   若有 災害 要 隨時 通報   以利 立即 搶救       第五 河川 局說   已 成立 應變 小組   全天候 線上 監控 水情   以便 及時 應 對   確保 各項 防洪措施 在 關鍵 時刻 發揮 作用   並積 極加強 防汛 整備   對 抽水站   破堤 施工   防汛 缺口 及 在建 工程 等 重點 項目 進行 檢查 和 監督       五河 局 提醒   民眾 應多關 注水 情資訊   清理 自家 陽台 的 洩 水管 和 附近 的 溝渠   並透過 防災 資訊 服務網   以及 行動 水情 APP 等 防災 工具   即時 掌握 相關訊息   有效 減少 災害 損失   近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 縣 沿海 地層下陷 恐 淹水   縣府 督導 在建 中 大型 養殖區 做好 排水工程   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   第五 河川 局出動 移動式 抽水機 待命   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷區 慎防 淹水   記者 黃 于 凡 ／ 翻攝 近期 受 鋒面 影響 恐有 瞬間強 降雨   嘉義 沿海 地層下陷區 慎防 淹水   記者 黃 于 凡 ／ 翻攝</t>
+          <t>近期 受滯 留 鋒面 農 曆 大潮 響 台灣 南部 午後出現 局部 強 降雨 嘉義 沿海 地層下陷 易 淹水 五河 局 預置 淹水 感測器 移動式 抽水機 監控積 淹水 情況 縣府 提前 協助 清除 河道 障礙物 確保 排水 通洪順暢 並呼籲 漁民好 防災 措施 縣府 漁業 處 指出 因 近期 可能 大量 降雨 整備 防汛 應變督導 2 件 建中 大型 養殖區 排水工程 移除 河道 中機具 打通 阻礙物 雖會響 工期 增加 工程 不但 仍 以防 災為 最優 考量 避免 造成 附近 或 上游 淹水 災情 漁業 處 呼籲 這 周天 氣極 不 穩定 低 壓帶 滯留 鋒面 響易 短延 時強 降雨 海面 風浪 不佳 提醒 漁友 要 多加 留意 養殖 管理 並好 防災 工作 若災害 要 隨時 通報 以利 立即 搶救 第五 河川 局說 已 成立 應變 小組 全天候 線上 監控 水情 以時 應 對 確保 各項 防洪措施 關鍵 時刻 發揮 作用 並積 極加強 防汛 整備 對 抽水站 破堤 施工 防汛 缺口 建 工程 等 重點 項目 進行 檢查 監督 五河 局 提醒 民眾 應多關 注水 情資訊 清理 自家 陽台 洩 水管 附近 溝渠 並透過 防災 資訊 服務網 以行動 水情 APP 等 防災 工具 即時 掌握 相關訊息效 減少 災害 損失 近期 受 鋒面 響恐 瞬間強 降雨 嘉義 縣 沿海 地層下陷 恐 淹水 縣府 督導 建中 大型 養殖區 好 排水工程 黃 于 凡 翻 近期 受 鋒面 響恐 瞬間強 降雨 第五 河川 局出動 移動式 抽水機 待命 黃 于 凡 翻 近期 受 鋒面 響恐 瞬間強 降雨 嘉義 沿海 地層下陷區 慎防 淹水 黃 于 凡 翻 近期 受 鋒面 響恐 瞬間強 降雨 嘉義 沿海 地層下陷區 慎防 淹水 黃 于 凡 翻</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 的 是   科學家 預期 由 於 人 為 引發 的 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說   「 我們 離 海水倒灌 還有 一段 很長 的 路 … 但 我們 在 紐約 市經 歷過 數次 嚴重 的 颶風 事件   像 颶風珊迪   Sandy   及 艾達   Ida   帶來 的 暴雨 使得 城市 淹水 成災   都市化 帶來 的 部分 影響 也 使得 水災 發生   」     這篇論 文發表 在 期刊 「 地球 的 未來 」   Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 的 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 的 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 的 質量   計算出 這些 建築物 的 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 的 波音 747   400 客機       研究 團隊 接著 利用 模擬 的 方式   計算出 這些 重量 對 地面 的 影響   並和 顯示 實際 地表 地質 情況 的 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 的 地區 每年 下陷 約 4.5 毫米 」       然而   並非 所有 地層下陷 都 是 建築物 造成 的   帕森斯 說   「 我們 可想 見 在 非常 鬆 軟 的 土壤 和 人工 填土 的 地面 上 建造 建築 和 地層下陷 的 關聯 … 在 其他 地方   我們則 看到 難以 解釋 的 地層下陷   它 有 很多 不同 的 成因   例如 上個 冰河 時期 後 發生 的 後 冰期 回落   或是 抽取 地下水   」     研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 在 紐約市       帕森斯 說   「 這是 一個 全球性 的 問題   我來 自羅德島 大學   University   of   Rhode   Island   的 合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 也 有 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題   」       Take   action   加入   倡議 +    </t>
+          <t>一項 最新 研究 發現 美國 紐約 市長 期 承受 大量 建築物 重量 之下 地層 正 下陷 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上 恐為 紐約市 招致 洪災 等 危機   圖 Unsplash 一項 最新 研究 發現 美國 紐約 市長 期 承受 大量 建築物 重量 之下 地層 正 下陷 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上 恐為 紐約市 招致 洪災 等 危機 美國線 電視 新聞網 CNN 報導據 推估 紐約市 2050 年 海平面 將 上升 8 至 30 英寸 20.32 至 76.2 分 更 重要 科學家 預期 由 於 人 為 引發 氣候 危機類 似東 北風暴 noreaster 颶風 這類 極端 降雨 事件 將更頻 繁地 出現 美國 地質 調查 所 US   Geological   Survey 專家 帕森斯 Tom   Parsons 說 「 我們 離 海水倒灌 還 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件 像 颶風珊迪 Sandy 艾達 Ida 帶來 暴雨 使得 城市 淹水 成災 都市化 帶來 部分 響 使得 水災發 」 這篇論 文發表 期刊 「 地球 未來 」 EarthsFuture 上旨 展示 沿海 河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險 以應 採取 相關 措施 來 降低 潛危險 衝擊 研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量 計算出 這些 建築物 重量 約 為 7620 億斤 相當 於 約 190 萬架 滿載 波音 747400 客機 研究 團隊 接著 利用 模擬 方式 計算出 這些 重量 對 地面 響並 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較 帕森斯 說 這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米 部分 下陷 較嚴 重地 區 每年 下陷 約 4.5 毫米 」 然而 並非 所 地層下陷 都 建築物 造成 帕森斯 說 「 我們 可想 見 非常 鬆 軟 土壤 人工 填 土地 面上 建造 建築 地層下陷 關聯 … 其他 地方 我們則 看到 難以 解釋 地層下陷 它 很多 不同 成因 例如 上個 冰河 時期後發 後 冰期 回落 或 抽取 地下水 」 研究 表明 地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅 而且 這種 情況 不只 發紐 約 市 帕森斯 說 「 這一個 全球性 問題 我 來 自羅德島 大學 University   of   Rhode   Island 合著 研究 了 世界各地 共 99 座 城市 不只 沿海 城市 陸 城市 其中 絕 大多 數都存 地層下陷 問題 」 Take   action 加入 倡議 +</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 的 便 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 的 低 強度   高流動 建材 施工   預定 近期 內 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 的 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 在 下陷區 動工將 橫跨 高鐵 的 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行 「 減重 」   此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 的 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 的 高鐵 便 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 的 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 便 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 及 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   便 道 位 於 高鐵 的 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 的 兩側 便 道 共 修繕 約 630 公尺   採 「 低 強度   高流動 」 混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 便 道 承載 安全   在 路口 設 有限 重 10 噸 以下 的 車輛 通行   但 地方 反映   長 期來 仍 有 不少 大型 車為求 方便 直接 通行   才 使 便 道路 面受損   也 將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 內 雲 101   雲 98 道路 及 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 內 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 便 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影</t>
+          <t>雲林縣 土庫鎮 高鐵 沿線 列屬 地層下陷 管制 區高鐵 下方 雲 158 甲 通往 雲 97 線道 雖 只 短短 約 500 但車 流大 路面 受損 累累 雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准 將以 不響 高鐵 地基 安全 低 強度 高流動 建材 施工 預定 近期 封路 動工 10 月 完工 高鐵 雲林縣 土庫 段 受 地層下陷 響過 去 以 每年 約 6.5 分 沈陷 量 下陷 為維護 高鐵 安全 多年 前 曾 下陷區 動工將 橫跨 高鐵台 78 線 快速道路 原為 土方 高架 改以 輕質 建材 重新 施工 進行 「 減重 」 此外 高鐵 沿線禁 抽 地下水 推廣 旱作 廣闢 黃 金 廊道 才 使 高鐵 雲林 段 沈陷 獲得 紓 緩位 於 土庫 高鐵 下方 連接 雲 158 甲 雲 97 線路 高鐵道 雖僅 短短 約 500 卻 管制 區 唯一 高鐵 通道 土庫鎮 長 陳 特凱 說 高鐵道 開通 多年 車流 大 卻 未曾 修繕 路面 凹陷 破損 累累 響行車 安全 居民 陳 情 希望 改善 雲林縣 長 張麗善 今天 會 同工 務處 縣議員 王鈺齊 張維心 等 人現 勘 張麗善 說 道 位 於 高鐵 管制 區 不能 任意 挖掘 施工 因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕 預定 今年 9 月 動工 10 月 完工 提供 平整 安全 道路 屆 時將 封路 約 50 天請 車輛 繞 道 工務 處長 汪令堯 指出 高鐵下 道路 屬 鐵路 禁限建範 圍須 依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理 未來 將以 390 萬元 對 高鐵下 寬 4.7 兩側 道 共 修繕 約 630 採 「 低 強度 高流動 」 混凝土 施工 法 打造 路基 更加 穩固 縣府 表示 為維護 高鐵道 承載 安全 路口 設限重 10 噸 以下 車輛 通行 但 地方 反映 長 期來 仍 不少 大型 車為 求方 直接 通行 才 使 道路 面受 損將會 請 警方 加強 取締 隨後縣 長 張麗善 一行 人 再 轉往 土庫 崙 雲 101 雲 98 道路 西螺鎮 九隆 里 農路 等 會勘 改善 工程 雲林縣 長 張麗善 一行 人 再 轉往 土庫 崙 等 地 會勘 多條 道路 工程 蔡維斌 高鐵 雲林 土庫 段位 於 地層下陷 管制 區高鐵下 唯一 道破 損 累累 經縣 府 向 高鐵局 專案 申請 後 近期 將 封路 動工 修路 蔡維斌</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 的 高鐵橋 下 便 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 的 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   便 道 位 在 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 有 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 在 地層下陷區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 也 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 的 行車 品質  </t>
+          <t>〔 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里位 於 土庫 國中 附近 高鐵 橋下 道路 面龜裂 坑坑洞洞 路況 極差 但 因 工程 涉 鐵路 禁限建範 圍須 依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理 日前 終獲 高鐵局 同意 預計以 50 個 日 曆 天 完成 改善 土庫鎮 鎮長 陳 特凱 表示 石廟 里 高鐵 橋下 道路 經長 年 使用 平時車 流量 極大 加上 重車 違規 行駛 造成 路面 凹陷 破損 不堪 導致 居民 行車 時易 引發 交通事故 嚴重響 行車 安全 所以 向 縣府 反映 希望 能 儘 速 改善 高鐵 土庫 段 高鐵 沿線 地層下陷 最 嚴重 地方 每年 平均 下陷 6.5 分工 務處長 汪令堯 表示 道位 高鐵 正下方 涉 鐵路 禁限建   範圍 須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理 故 改為 專案 發包 方式 辦 理由 於 該 路段 交通量 極大 雖然限 10 噸 以下 車輛 行駛 但還 很多 重車 違規 加上 道路 路基 鬆 軟 所以 路況 極差 汪令堯 指出 由 於 道路 位 地層下陷區 加上 原 就 農地 土 質 鬆 軟 光 重 鋪 路面 一下 大雨 重車 再 輾壓 道路 很快 就 會 再度 損壞 所以 需地質 改良 但 高鐵局 不 同意 用 給配 改善 路基 所以 工務處 改用 低 強度 水泥 替代 終獲 同意 汪令堯 表示 道路 改善 工程 總 預算 390 萬元 預期 改善 道路 長 度 兩側 約 630 寬 4.7 預計 9 月 中旬 發包 工期 為 50 日 曆 天 改善 後 可 提 昇 居民 活品 質維護 用路 人行 車安 另 他 會 建議 警察局 多派 員取 締重車 違規 行駛 才能 確保 道路 改善 後 以維持 好 行車 品質</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">高鐵 地層下陷區 雲林 土庫 段橋 下 便 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 有 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬上 攔檢   位 在 高鐵 雲林 土庫 段橋 下 便 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 有 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示   「 大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞   」 土庫 鎮長 陳 特凱則 指出   「 柏油 鋪設 之 後   多年 來 它 的 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 的 情況   一而再 再而三 的 重 複   」 土庫鎮 公所 表示   高鐵橋 下 便 道 窄   本來 就 不 適合大車 通行   但 有 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林縣 府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林縣 府 工務 處長 汪令堯 說明   「 這 路段 經 地方 反映   主要 是 它 地質 也 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     那 加上 這邊 也 有 重車 行駛   造成 它 地面 下陷 蠻 嚴重 的   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC   」 工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   便 道 位 在 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   也 將請 警方 加強 取締   維護 好 的 行車 品質  </t>
+          <t>高鐵 地層下陷區 雲林 土庫 段 橋下 道 每次 進行 路面 改善 後 使用 不到 3 年 就 會 出現 路面 龜裂 充滿 坑坑洞洞 響行車 安全 當地屬 禁限建區 日前 獲高鐵局 同意 將進行 改善 不過 該 路段 不時 大型 車輛 未 依規定 超重 行駛導致 路面 加速 毀損 將請 警方 加強 取締 警方 一 看到 大車 馬上 攔檢位 高鐵 雲林 土庫 段 橋下 道 為 避免 路面 持續 下陷 管制 限重 10 噸 以下 車輛 通行 但 因為 這裡車 流量 大鄰 近 交流 道還 大型 車常未 依規定 行駛導致 路面 龜裂 充滿 坑坑洞洞 響行車 安全 土庫 民眾 表示 「 大車 如果 行駛 輾壓 這樣 路 比 較易壞 」 土庫鎮 長 陳 特凱則 指出 「 柏油 鋪設 之 後 多年 來 它 使用 期限 都 差不多 3 年 左右 就 受到 破壞 這樣 情況 一而再再 而 三重 複 」 土庫鎮 所 表示 高鐵 橋下 道 窄 本來 就 不 適合大車 通行 但 駕駛 貪圖方 違規 行駛 讓 路面 破損 不堪 易 引發 交通事故 日前 雲林縣 府 爭取 已獲 高鐵局 同意 將以 50 個 工作 天 改善 雲林縣 府 工務 處長 汪令堯 說明 「 這 路段 經 地方 反映 主要 它 地質 不好 原來 大概 都 農 田土 直接 就 回填 鋪 AC 瀝青 混凝土 加上 這邊 重車 行駛 造成 它 地面 下陷 蠻 嚴重 我們 會 整個 基底 改良 30 分再 來 鋪 設 5 分 AC 」 工務處 表示 高鐵 土庫 段 高鐵 沿線 地層下陷 最 嚴重 路段 每年 平均 下陷 6.5 分道位 高鐵 高架 橋 正下方 涉 鐵路 禁限 建範圍 這次 以 低 強度 水泥 替代 獲高鐵局 同意 預計 年底 能 改善 完畢將 請 警方 加強 取 締維護 好 行車 品質</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 的 便 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 的 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 內 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 便 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   在 路口 設 有限 重 10 噸 以下 的 車輛 通行   但 地方 反映 長 期來 仍 有 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   也 將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 的 兩側 便 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   便 道 不能 任意 挖掘 施工   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 的 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  </t>
+          <t>雲林縣 土庫鎮 高鐵 沿線 列屬 地層下陷區 軌道 下方 雲 158 甲線 通往 雲 97 線道 雖 只 短短 約 500 但車 流大 路面 受損 累累 縣府 以 專案 向 高鐵局 申請 修繕 獲准 將以 不響 高鐵 地基 安全 低 強度 高流動 建材 施工 縣長 張麗善 昨天 會勘 後 表示 近期 封路 動工 10 月 完工 土庫鎮 長 陳 特凱 說 高鐵道 開通 多年 車流 大 卻 未曾 修繕 路面 凹陷 破損 累累 響行車 安全 居民 陳 情 希望 改善 縣府 表示 路口 設限重 10 噸 以下 車輛 通行 但 地方 反映 長 期來 仍 不少 大型 車為 求方 直接 通行 才 使 路面 受 損將 請 警方 加強 取締 昨縣 府 會 同議員現 勘工務 處長 汪令堯 說 高鐵軌 道下 寬度 4.7 兩側 道 將修繕 共約 630 採低 強度 高流動 混凝土 施工 法 打造 路基 更加 穩固 預算約 390 萬元 張麗善 指出 高鐵下 道路 屬 鐵路 禁限 建範圍 道 不能 任意 挖掘 施工 須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理 因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕 預定 今年 9 月動 工屆 時將 封路 約 50 天請 車輛 繞 道 高鐵 土庫 段過 去 以 每年 約 6.5 分 沉陷 量 下陷 後 來 沿線禁 抽 地下水 推廣 旱作 廣闢 黃 金 廊道 才 較 為 減緩</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 的 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 的 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為 「 地獄 之門 」       影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 的 地形   這種 高低 起伏 的 地表 在 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示   「 當地 人稱 之 為 塌陷   在 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大 」       科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 的 苔原 也 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 的 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是 「 危險訊號 」   「 今 後   隨著 氣溫 升高 和 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 的 永凍土 都 消失 為止 」       永凍土 融化 已威脅 到 俄國 北部 與 東 北部 的 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 的 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 也 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說   「   兩 年前   巨坑 邊緣   距離 這條 小路 大約 有 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了   」     科學家 不 確定 巴塔 蓋卡 坑洞 擴大 的 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 的 土地   有些 地方 深約 100 公尺   含有 「 大量 」 有機 碳   隨著永凍 土 融化   這些 有 機碳 將釋 放到 大氣 中   加劇 全球 暖化   「 隨著 氣溫 的 升高   我們 可以 預計   巨坑   將以 更 快 的 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化   」         路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 的 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 的 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為 「 地獄 之門 」   路透</t>
+          <t>路透 報導 一段 無人 機片 揭露 巴塔 蓋卡 坑洞 Batagaika   crater 近況 這道 長 1 里 塌陷 區域 位 於 俄羅斯遠 東地區 世上 最大 永凍土 巨坑 俄羅斯薩共國 當地 人稱 之 為 「 地獄 之門 」 片中 兩名 探險 爬過 巨坑 底部 凹凸不平 地形 這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成 因 地下 永凍土 融化 導致 地層下陷 當地 居民 兼 探險 家史 特魯奇 科夫 Erel   Struchkov 表示 「 當地 人稱 之 為 塌陷 1970 年代 形成 最初 條溝壑然 後 晴天 高溫 下 解凍 開始 擴大 」 科學家 說 俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍 占 俄國國 土面 積達 65% 苔原 因此 融化 釋出 溫室 氣體位 於 亞庫 次克梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 Nikita   Tananayev 表示 雖然 這 可能 吸引 遊客 但 坑洞 擴大 「 危險訊號 」 「 今後隨著 氣溫 升高 人為 壓力 增加 我們將 看到 越來 越 多 這種 巨型 塌陷 形成 直到 所永凍 土 都 消失 為止 」 永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮 導致 道路 坍塌 房屋 崩裂 管線 中斷 最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重 薩共國 當地 人 注意 到 巨坑 迅速 擴大史 特魯奇 科夫 說 「 兩 年前 巨坑 邊緣 距離 這條 小路 大約 20 到 30 現它 顯然 離 我們 更 近 了 」 科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度 但塔納 納耶夫 說 巨坑 下面 土地 些 地方 深約 100 含 「 大量 」 機碳 隨著永凍 土 融化 這些 機碳 將釋 放到 大氣 中加 劇 全球 暖化 「 隨著 氣溫 升高 我們 可以 預計 巨坑 將以 更 快 速度 擴大 這將 導致 未來 幾年 氣候 更加 暖化 」 路透 報導 一段 無人 機片 揭露 巴塔 蓋卡 坑洞 近況 這道 長 1 里 塌陷 區域 位 於 俄羅斯遠 東地區 世上 最大 永凍土 巨坑 俄羅斯薩共國 當地 人稱 之 為 「 地獄 之門 」 路透</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 的 永凍土 塌陷 坑   當地 人 把 它 稱作 「 冥界 之門 」   隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 有 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境 內 的 「 巴塔 蓋卡大融 洞 」   是 全世界 最大 的 永凍土 塌陷 坑   當地 人 把 它 稱作 「 冥界 之門 」   當地 居民 斯特 魯奇 科夫 表示   「 這是 在 1970 年代 形成 的   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大   」 當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 的 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出   「 這是 個 危險 的 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成 的   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 的 永凍土 都 消失   」 更 糟糕 的 是   隨著永凍 土 消失   封存 在 裡頭 的 有 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示   「 永凍 土內 的 碳 存量 是 大氣 中 的 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 的 甲烷 跟 二氧化碳 排放   加速 溫室 效應   」 科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 的 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 在 俄國 北部 與 東 北部 的 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  </t>
+          <t>俄羅斯遠 東薩共國 一個 全球 最大 永凍土 塌陷 坑當 地人 把 它 稱作 「 冥界 之門 」 隨著 全球 暖化 加劇 這個 巨型 天坑 正持續 擴大科 學家 警告 永凍土 融化 會 把 更 多機 碳釋 放到 大氣 中 讓 溫室 效應 跟 全球 暖化 加劇 俄羅斯遠 東薩共國境 「 巴塔 蓋卡大融 洞 」 全世界 最大 永凍土 塌陷 坑當 地人 把 它 稱作 「 冥界 之門 」 當地 居民 斯特 魯奇 科夫 表示 「 這 1970 年代 形成 最初 條溝壑然 後 晴天 高溫 下 解凍 開始 擴大 」 當地 1960 年代 開始 砍伐森林 造成 地下 永凍土 融化 進而導致 地層下陷 氣候 暖化 更 加速 永凍土 流失 讓 融洞 越來 越大梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出 「 這個 危險跡 象 因為 這高氣 溫氣候 暖化 跟 人 為 活動 壓力 造成 我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成 直到 所永凍 土 都 消失 」 更 糟糕 隨著永凍 土 消失 封存 裡頭 機碳會 被釋 放到 大氣 中加 劇 全球 暖化 塔納納 耶夫 表示 「 永凍 土碳 存量 大氣 中 兩倍 它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 取導致 更 高 甲烷 跟 二氧化碳 排放 加速 溫室 效應 」 科學家 說 俄國國土 六成 五 都 苔原 當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上 永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮 造成 道路 坍塌 房屋 崩裂 並阻礙 管線 運作 對民眾 活構 成威脅</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">基隆 一處 屋齡 超過 40 年 的 公寓 住宅   後 方 的 排水 溝壁 破損   導致 流水 長 期 沖 刷   部分 住宅 地基 被 掏空   周圍 路面 也 出現 地層下陷 的 狀況   杜蘇芮 颱 風來襲   居民 擔心 大雨 不斷   後 果 不堪 設想   地基 掏空 發生 在 基隆 西定 路   一棟 公寓 住宅 住家 門口   破 了 一個 大 洞口   有 居民 行經 踩 空   才 驚覺 原來 民宅 外側 的 地基 被 掏空 了   進 一步 了解 才 發現   是 排水 溝壁 破損   長 期 沖 刷 造成   而且 長 期 土石 流失   也 讓 周圍 路面 出現 地層下陷 的 狀況   從 畫面 中 可以 看到   地層下陷 的 深度 大概 有 3 到 5 公分   可以 把手 機 放置 進去   居民 擔憂   地層下陷 將會 影響 住宅 的 結構 安全   尤其 杜蘇芮 颱 風期間   帶來 雨勢   恐怕 會帶 來 嚴重 的 影響   基隆市 議員施 偉政 也 提醒   地基 被 沖 刷   上面 載重 又 大 的 話   恐怕 房子 會 有 很大 的 問題   工務處 表示   會先 就 壁體 破損 坍方 處   施作 水溝 溝牆 再 回填   避免 淘空 範圍 擴大  </t>
+          <t>基隆 一處 屋齡 超過 40 年 寓 住宅 後 方 排水 溝壁 破 損導致 流水 長 期 沖 刷 部分 住宅 地基 被 掏空 周圍 路面 出現 地層下陷 狀況 杜蘇芮 颱風 來襲 居民 擔心 大雨 不斷後果 不堪 設想 地基 掏空 發 基隆 西定路 一棟 寓 住宅 住家 門口 破 了 一個 大 洞口 居民 行經 踩 空才 驚覺 原來 民宅 外側 地基 被 掏空 了 進 一步 了解 才 發現 排水 溝壁 破 損長 期 沖 刷 造成 而且 長 期 土石流 失讓 周圍 路面 出現 地層下陷 狀況 從 畫面 中 可以 看到 地層下陷 深度 大概 3 到 5 分 可以 把手 機 放置 進去 居民 擔憂 地層下陷 將會響 住宅 結構 安全 尤其 杜蘇芮 颱風 期間 帶來 雨勢 恐怕 會帶 來 嚴重響 基隆市 議員施 偉政 提醒 地基 被 沖 刷 上面 載重 又 大話 恐怕 房子 會 很大 問題 工務處 表示 會 就 壁體 破損 坍方 處施 作水溝 溝牆 再 回填 避免 淘空 範圍 擴大</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉義市 35 座公園 是 國內 密度 最高   其中 20 座公園 有 廁所   曾 有 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 的 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 的 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請 「 優質 公廁 及 美質 環境 推動 計畫 」 經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 及 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 的 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  </t>
+          <t>嘉義市 35 座園國 密度 最高 其中 20 座園 廁所 曾 議員 勘察 指出 不少 照明 不足 設備 損壞 沒 修衛不佳 等 問題 市府 指出 爭取 經費 改善 逐步 翻新 今年 至今 完成 3 處 以往 漏積水 嚴重 番仔溝 園廁 所 改建 後 光潔 明亮 具設 計感 未來 每年 持續 將老 舊園 廁 改善 更新 番仔溝 園廁 已 10 多年 市府 接 獲陳情 反映 多次派 員維修 但 管線 設備 老舊 再 加上 地震 地層下陷 等 造成 漏積 水 尤其 男廁 問題 嚴重 去年 獲環 保署 補助 566 萬元 與 南 興園 228 紀念園 共 3 處廁 所 於 今年 4 月底 改善 完工 5 月底 同步 開放 番仔溝 園廁 更新 男女 廁無障礙 廁所 包括 廁具 隔間 燈光 造型 壁地磚 等 設備 尤無障礙 廁所升級 加入 親子 廁所 功能 設備 兒 童馬桶 尿布 台較 低 洗手台 功能 上 更 完善 市府 建設 處 表示 2019 年 起 向 環保署 申請 「 優質 廁美質 環境 推動 計畫 」 經費 補助 整修 文化 友忠 劉厝 中正 北社尾 宣信園 廁廁 設施 損毀 潮 濕 髒 臭 等 情形 都 修繕 清理 今年 還會針 對 嘉義 園裡 廁陸續 整修 工程 採半半 施工 施工期 間民眾 還能 使用 其他 廁</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 羅 欣貞 ／ 屏東 報導 〕 屏東縣 政府 2018 年 完工 並開始 操作 的 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫   近年 來 均 能 挹注 超過 5000 萬噸 的 水源 至 地下 含水 層   然而 由 於 南部 地區 近年 氣候 狀況 不如 預期   人工湖 於 今年 5 月僅 經過 1 個 月 餘 的 引水 操作   將大約 1000 萬噸 的 水 注入 含水 層   因應 颱 風 杜蘇芮 與後續 雨勢   從 7 月 27 日當晚 開始 啟動 今年 的 第二次 引水 作業   一直 持續 至今     屏縣 府 水利 處 表示   大 潮州 補注 湖不僅 是 目前 國內僅 有   也 是 東南亞 地區 最 大型 的 人工湖 補注 地下水 計畫   原理 為 於 洪水期 將林邊 溪 之 較 大 水源 導引 至 人工湖   而 此區 因 具備 入滲 效果 佳 的 地質 條件   即可 有效 補注 至 地下 含水 層   補注 之 效益 為 可 涵養 在 屏縣 使用率 較 高 的 地下水 資源   提高 部分 區域 的 地下水位   減緩 地層下陷 與 海水 入侵   防止 地下水 鹽化   此外   人工湖 也 具有 分洪   治洪 的 功能   而結 合水 銀行 抽補 概念   更是 能 提高 水資源 運用 效益     水利 處 指出   第 1 期 工程 經費 約 14.1 億元   無論 是 取輸水 效果   入滲 效率 與 補 注量 體均 極為 可觀   已具 顯著 成效   此項 目的 啟動 不僅 增加 屏南 地區 水資源 可運 用量   也 已 初步 達到 「 增源 減洪 」 的 重要 作用   後 續將 提出 第 2 期 人工湖 開闢 計畫   以達成 預估 完成 後 挹注 的 每年 1.5 億噸 的 地下水 補注量  </t>
+          <t>〔 屏東縣 政府 2018 年 完工 並開始 操作 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫 近年 來 均 能 挹注 超過 5000 萬噸 水源 至 地下 含水 層 然而 由 於 南部 地區 近年 氣候 狀況 不如 預期 人工湖 於 今年 5 月僅 經過 1 個 月 餘 引水 操作 將大約 1000 萬噸 水 注入 含水 層 因應 颱風 杜蘇芮 與後續 雨勢 從 7 月 27 日當晚 開始 啟動 今年 第二次 引水 作業 一直 持續 至今 屏縣 府 水利 處 表示 大 潮州 補注 湖不僅 目前 國僅 東南亞 地區 最 大型 人工湖 補注 地下水 計畫 原理 為 於 洪水期 將 林邊 溪 之 較 大 水源 導引 至 人工湖 而 此區 因 具備 入滲 效果 佳地質 條件 即可 效補 注至 地下 含水 層補注 之 效益 為 可 涵養 屏縣 使用率 較 高 地下水 資源 提高 部分 區域 地下水位 減緩 地層下陷 與 海水 入侵 防止 地下水 鹽化 此外 人工湖 具 分洪 治洪 功能 而結 合水 銀行 抽補 概念 更能 提高 水資源 運用 效益 水利 處 指出 第 1 期 工程 經費 約 14.1 億元 無論 取輸水 效果 入滲 效率 與 補 注量 體均 極為 可觀 已 具顯 著 成效 此 項目 啟動 不僅 增加 屏南 地區 水資源 可運 用量 已 初步 達到 「 增源 減洪 」 重要 作用 後 續將 提出 第 2 期 人工湖 開闢 計畫 以達成 預估 完成 後 挹注 每年 1.5 億噸 地下水 補注量</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 有 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 的 路段   長 年 發生 地層下陷 問題   住戶 房子 的 地基 也 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 的 側溝 還要 矮   根本 沒有 排水 功能   居民 指出   「 游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們   」 當地 地層下陷 的 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 在 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 的 情形   教育部 高級 中等教育 組 行政 及 資源 科長 黃 懷瑩 表示   「 我覺 得 地質 監測 這一塊   我們 可以 持續 做   讓 大家 安心 說   我們 是不是 持續 有 劇烈 的 沉降 或 傾斜 的 狀況   也 會 定期 跟 大家 報告 我們 監測 的 結果   」 校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 有 抽水   過去 抽 的 也 是 溢流 出 地面 的 水源   教育部 則說   過去 壓力 灌漿 是 有 延緩 地質 沉降 的 效果   立法 委員陳琬惠 表示   「 房子 跟 道路 就是 在 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已   」 水利 署 組長 簡昭群 說   「 技師 公會 去 依據 他 的 測量 結果   找出 造成 沉陷 的 具體 原因   」 陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 先 確定 當地 地層下陷 的 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  </t>
+          <t>宜蘭縣 蘇澳鎮 民富街 部分 路段 緊臨 蘇澳 海事 游泳池 居民 質疑 疑似 校方 長 期為 泳池 抽 地下水 導致當 地底 層 下陷 連 住家 地基 都 被 掏空 嚴重響 居住 安全 校方 認超 抽 地下水 立委 陳 琬惠會 同 教育部 水利 署 官員到 當地 與 居民 研商 解決 辦法 宜蘭 蘇澳鎮 民富街 部分 與 蘇澳 海事 緊鄰 路段 長 年 發 地層下陷 問題 住戶 房子 地基 被 掏空 地面 牆面 出 現裂 縫 從 住家 滾一個 鐵罐 到 道路 對 面相 當順暢 可以 見 到 坡度 相當大且 道路 表面 比旁邊 側溝 還要 矮 根本 沒 排水 功能 居民 指出 「 游泳池 建好 以 後 大概 用 了 4 年 多 就 塌 掉 了 響 到 我們 」 當地 地層下陷 情況 從 2017 年 蘇澳 海事 游泳池 塌陷 後 就 開始 發 多年 來無法 完全 改善 即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿 道路 仍持續 塌陷 居民 質疑 當年 蘇澳 海事 為 了 游泳池 超 抽 地下水 才 導致 地層下陷 情形 教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示 「 我覺 得 地質 監測 這一塊 我們 可以 持續 讓 大家 安心 說 我們 不持續 劇烈 沉降 或 傾斜 狀況 會 定期 跟 大家 報告 我們 監測 結果 」 校方 認超 抽 地下水 表示 當年 泳池 塌陷 後 就 沒 抽水 過去 抽 溢流 出 地面 水源 教育部 則說 過去 壓力 灌漿 延緩 地質 沉降 效果 立法 委員陳琬惠 表示 「 房子 跟 道路 就 脫離 當中 所以 我 希望 我們 今天 要 找到 一個 方法 不只 檢測 而已 」 水利 署 組長 簡昭群 說 「 技師會 去 依據 他 測量 結果 找出 造成 沉陷 具體 原因 」 陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會 研商 解決 辦法 水利 署 說 要 確定 當地 地層下陷 真正 原因 抽水 行為 還土質 問題 才能 根治 問題</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">地層下陷   居住 環境 出現 疑慮   宜蘭 蘇澳鎮 民富 街   持續 嚴重 地層下陷   除了 騎樓 和 路面 出現 裂縫   家裡 牆壁 和 地磚 也 都 是 裂痕   讓民眾 膽戰心 驚   質疑 是 附近 蘇澳 海事 水產 職業 學校 游泳池   超 抽 地下水 造成   也 在 10 號會同 當地 立委   縣府 官員 進行 協商   希望 解決 問題   道路 傾斜 越來 越 嚴重   路面 也 持續 有 裂痕 產生   地層下陷 越陷越深   民眾 憂心 忡忡   因為 騎樓 和 道路 也 出 現明 顯裂 縫   家門口 緊鄰 的 水溝 都 脫離 了 3 公分   走 進家裡 更是 驚險   白色 地磚 出現 裂痕   銜接 處變 得 高低不平   整個 牆 壁上 也 是 超長 裂痕   怵 目驚心   這裡 是 宜蘭 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 水產 職業 學校 的 游泳池   當地 地層 持續 嚴重 下陷   遊 泳池 用 了 四年 就 塌陷   讓 居民 質疑   是 學校 不當 抽取 地下水 惹 得 禍   10 號這天會 同 立委   縣府 官員 共同 協商   不過 水利 署 官員 分析 指出   地層下陷 除了 跟 抽水 行為 有關   也 和 泳池 載重 有關 係   還要 再 進 一步 釐 清   居家 環境 不 安全   民眾 生活 都 膽戰心 驚   只 盼望 可以 盡快 改善 問題   還給 居民 安全 的 生活 環境  </t>
+          <t>地層下陷 居住 環境 出現 疑慮 宜蘭 蘇澳鎮 民富街 持續 嚴重 地層下陷 除了 騎樓 路面 出現 裂 縫家裡 牆壁 地磚 都 裂痕 讓民眾 膽戰心 驚質疑 附近 蘇澳 海事 水產 職業 學校 游泳池 超 抽 地下水 造成 10 號會同 當地 立委 縣府 官員 進行 協商 希望 解決 問題 道路 傾斜 越來 越 嚴重 路面 持續 裂痕 產 地層下陷 越陷越深 民眾 憂心 忡忡 因為 騎樓 道路 出現 明顯裂 縫家門口 緊鄰 水溝 都 脫離 了 3 分走 進家裡 更 驚險 白色 地磚 出現 裂痕 銜接 處變 得 高低不平 整個 牆 壁上 超長 裂痕 怵 目驚心 這裡 宜蘭 蘇澳鎮 民富街 部分 路段 緊臨 蘇澳 海事 水產 職業 學校 游泳池 當地 地層 持續 嚴重 下陷 遊 泳池 用 了 四年 就 塌陷 讓 居民 質疑 學校 不當 抽取 地下水 惹 得 禍 10 號這天會 同 立委 縣府 官員 共同 協商 不過 水利 署 官員 分析 指出 地層下陷 除了 跟 抽水 行為關 泳池 載 重關 係 還要 再 進 一步 釐 清 居家 環境 不安 全民 眾活 都 膽戰心 驚 只 盼望 可以 盡快 改善 問題 還給 居民 安全 活環境</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>台北市 再現 「 天坑 」   南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌   長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   市府 指出   目前 無人 受傷   員警 已 畫設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因       市府 晚間 7 點 30 分開 設前 進 指揮 所   南港區 長 蔡明 儒到 達 現場   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業 中                             新建 工程 處開 挖 確認 塌陷 原因   是 水利 處 的 連接 涵管 有輕微 脫管 的 現象   目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮官   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 有 無 其他 路面 下 空洞       水利 處 評估 工程 進度   實施 交通 維護   南港路 3 段 47 巷雙 向 封閉   預計 今晚 9 時修 復 機具 進入 開工   8 月 19 日 凌晨 0 時 灌漿 回填 作業   後 續 等到 混凝土 達到 一定 強度 之 後   路面 將會 辦理 復 舊   預計 於 明天 晚上 10 時許 恢 復 通車         市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 有 無 其他 路面 下 空洞   圖 ／ 北市 府 提供   台北市 下午 4 點多 再現 「 天坑 」   市府 指出 目前 無人 受傷   員警 已 畫設 警戒 線   新工處 調派 重機 具開 挖   確認 坍塌 原因   圖 ／ 北市 府 提供</t>
+          <t>台北市 再現 「 天坑 」 南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌 長 約 2 寬約 2 深度 約 2 市府 指出 目前 無人受 傷員警 已 畫設 警戒 線 副 市長 李 四川 指示 區所新 工處 調派 重機 具開 挖 確認 坍塌 原因 市府 晚間 7 點 30 分開設 前進 指揮 所 南港區 長 蔡明 儒到 達 現場 由 水利 處派員 擔任 現場 指揮官 進行 擴大開 挖 作業 中 新建 工程 處開 挖 確認 塌陷 原因 水利 處連接 涵管 輕微 脫管 現象 目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮 官後續 將由 水利 處修 復 脫 管處 含 路面 修 復 並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞 水利 處 評估 工程 進度 實施 交通 維護 南港路 3 段 47 巷雙 向 封閉 預計 今晚 9 時修 復 機具 進入 開工 8 月 19 日 凌晨 0 時 灌漿 回填 作業後續 等到 混凝土 達到 一定 強度 之 後 路面 將會 辦理 復 舊 預計 於 明天 晚上 10 時許 恢 復 通車 市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管後續 將由 水利 處修 復 脫 管處 含 路面 修 復 並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞 圖 北市 府 提供 台北市 下午 4 點多 再現 「 天坑 」 市府 指出 目前 無人受 傷員警 已 畫設 警戒 線新 工處 調派 重機 具開 挖 確認 坍塌 原因 圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 在 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   在 連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 先 開放 機車 及 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 / 北市 府 提供 北市 天坑 搶修 完成   圖 / 北市 府 提供</t>
+          <t>北市 南港路 3 段 47 巷 昆陽街 60 巷 交界 昨晚 出現 道路 局部 塌陷 連夜 搶 修下 預 中午 12 點 全面 通行 昨晚 天坑 地點 一處 機車 停等區 地層下陷 長 約 2 寬約 2 深度 約 2 由 水利 處派員 擔任 現場 指揮官 進行 擴大開 挖 作業 水利 處 指出 連夜 搶 修下 已 接續 完成 連 接管 脱管 處鋼 鈑 包覆 灌漿 回填 路 面臨 鋪 作業 19 日 8 時將 開放 機車 小型 轎車 通行 預 12 點 全面 通行 北市 天坑 搶修 完成 圖 北市 府 提供 北市 天坑 搶修 完成 圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 及 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 在 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 有 無 其他 路面 下 空洞  </t>
+          <t>〔 台北市 南港區 昨天 晚間 發 道路 塌陷 經查 塌陷 原因 雨水 連 接管 脫管 造成 南港路 3 段 47 巷雙 向 封閉 施工 原 預計 今 19 晚 10 時 恢 復 通車 水利 處連夜 搶 修下 已 接續 完成 連 接管 脱管 處鋼 鈑 包覆 灌漿 回填 路 面臨 鋪 作業 提前 於 早上 8 點開放 機車 小型 轎車 通行 預 中午 12 點 全面 通行 南港 警方 昨天 晚間 近 6 點 42 分接 獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷 下陷 面積長 約 2 寬約 2 深度 約 2 幸無人 受 傷員 警劃 設 警戒 線 副 市長 李 四川 指示 區所新 工處 調派 重機 具開 挖 確認 坍塌 原因 經設 置 前進 指揮 所 水利 處 擴大開 挖 作業 確認 雨水 連 接管 脫管 造成 連夜 搶 修後已 經修 復 完成 並 回填 路面 今天 早上 已經 提前 恢 復 通車後續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 在 短短 3 個 月 內 出現 4 個 天坑   遭批 天龍國 變成 了 「 天坑 國 」   對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 先 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 的 側溝位 在 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 的 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 及 混凝土 澆置 後 也 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 的 東區 門戶 計畫 範圍   許多 建案 均 在 施工 中   南港路 47 巷 的 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 的 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 的 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 有 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 也 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  </t>
+          <t>台北市 短短 3 個 月 出現 4 個 天坑 遭批 天龍國 變成 了 「 天坑 國 」 對此 工務局 今 20 日強 調 今年 發四案 道路 坑洞 情形 均 非 道路 受 輾壓 破 損導致 工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案 以 避免 類似 情形 發 北市 民東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞 新工處 接獲 通報 立即 調派 開 挖機 進場 確認 為 路旁 側溝 破損 造成 道路 掏空 新工處 進行 路面 回填 後 續 由 水利 處修 復 溝體 水利 處下 工科 科長 邱佑銘 表示 經現場 勘查 破 損側 溝位 排水 下游 處 可能 因 水流 長 期 沖 刷 或 施作 年代 久遠 溝底 出現 局部 破損 情形 水利 處並 已督商 今日 進場 辦理 搶 修作業 因案址 位處 8 以下 單行 道 因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行 當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護 欄圍 設並 可回 復 道路 通行 為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間 溝底 牆身 頂版會 分次 施工 預計 2 天可將 側溝 搶修 完成 工務局 說明 北市 近期 出現 4 個 道路 坑洞 事件 歸納為 3 種 原因 造成 5 月 19 日 信義區 崇德街 因建案 工地 開挖 地下 基礎 連續 壁 滲水 造成 地下水 湧入 基地 周邊 道路 沙土 被 帶 走 而 出現 坑洞 7 月 10 日 大同區 南京西路 坑洞 因該 處 地層 軟弱 長 期受 潮汐 響 地下水位 升降 使 污水 管線 下方 土壤 承載力 不佳導致 污水 管接 頭 鬆 脫 錯 位 土砂 沿管線 破 損處 流失 所致 後 衛工處 以視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常 近 兩日發 兩 案件 均 與 水利 管渠 破 損關 南港區 南港路 出現 坑洞 市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍 許多 建案 均 施工 中 南港路 47 巷道 路 狹小 因此 水利 處無法 深埋 排水 箱涵 接側 溝連 接管 研判 與 重車 來 往頻 繁間 接關 係 使得 連 接管 間 出現 縫隙 地下水 帶 走 土沙而發 地層下陷 至於 昨夜 民東路 二段 159 巷口 坑洞 則因 道路 側溝 溝體 老舊 破損 而 造成 近期 下雨 排水 淘涮 因應 幾次 道路 塌陷 坑洞 問題 事件 北市 府 已 擬定 防範 措施 新工處 將加強 定期 道路 巡查 如發現 路面 曾 出現 塌陷 修補 狀況 會 再 使用 透地雷達 確認 道路 無 孔洞 若 土壤 流失 透過 預判 可行 強 化道路 衛工 處則 啟動機 巡視 各個 大型 管道 水利 處將針 對 管路 箱涵 等 進行 巡視 機制 多管 齊下 避免 類似 坑洞 情形 再發</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>北市 「 天坑 」 事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 在 工地 範圍 內   未影響 到民眾 安全 與 通車                             她 表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 有 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 有 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 有 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真 應該 好好 檢討 路面 品質       她 呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全   「 一次 又 一次   只會 讓 人民 對 政府 失去 信心   」       北市 「 天坑 」 事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   此為 今日 在 萬華區 某處 工地   圖 ／ 居民 提供</t>
+          <t>北市 「 天坑 」 事件 接連 3 天發 今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞 民進 黨 北市 議員 洪婉臻 晚間 表示 短短 時間 發多起 塌陷 意外 道路 品質 堪憂 根本 不堪 大雨 考驗 每下 一次 大雨 前進 指揮 所 就 出動然 後 各局 處分別 擔責 任批 市府 宜 行事 罔 顧共 安全 洪婉臻 說 昆明街 320 巷 92 號 今天下午 4 點 42 分出 現 天坑 事件 該 事件 因建案 開 挖 造成 長 3 寬 2 深度 1.5 地層下陷 約 一輛 汽車 車身 所幸 塌陷 部分 位 工地 範圍 未響 到民眾 安全 與 通車 表示 據 建管處 施工 科回報 查明 連續 壁 並無滲 水破損 情形 與 之前 南京西路 發 塌陷 原因 不同 比較 可能 因為 連日豪 大雨 造成 土 質 鬆 動 才 發 整 體 事件 因 基地 退縮 建築線 3.64 米開 挖 故 坍陷 處裡開 挖面 仍 2 至 3 米 距離 坍陷 原因 還 查明 洪婉臻 指出 繼 之前 大同區 南京西路 後 今天 已 北市 第 3 次發 路面 塌陷 事件 短短 時間 發多起 塌陷 意外 北市 道路 品質 堪憂 根本 不堪 大雨 考驗 直言 北市 府 真 應該 好好 檢討 路面 品質 呼籲 市府 對 於 道路 品質 不要 宜 行事 屢次 臨時 抱 佛腳 每下 一次 大雨 前進 指揮 所 就 出動然 後 各局 處分別 擔責任 上次 衛工處 這次 建管處 簡直 罔 顧共 安全 「 一次 又 一次 只會 讓 人民 對 政府 失去 信心 」 北市 「 天坑 」 事件 接連 3 天發 今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞 圖洪婉臻 辦室 提供 北市 短短 3 個 月 出現 第 5 個 「 天坑 」 此為 今日 萬華區 某處 工地 圖 居民 提供</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 有 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地 內   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 有 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 在 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 有 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 在 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地 內   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 的 第 5 個 「 天坑 」   此為 今日 在 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供</t>
+          <t>繼 前天 南港區 昨日 中山區 北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞 這 北市 短短 3 個 月 出現 第 5 個 「 天坑 」 台北市 工務局 表示 該處 為 新建 工地 疑 基地 外舊 水溝 加上 地基 較 鬆 軟 遇上 大雨 沖 刷 導致 土石流 失 下陷 這處 天坑 約長 3 寬 2 深度 1.5 無人 受傷 已 畫設 警戒 線 淘空 點位 建築 基地 建商 已 接手 灌漿 處 理完 畢 萬華區 天坑 位 於 昆明街 320 巷 92 號 新建 工地 旁 今天下午 16 時 42 分 左右 疑似 因 基地 外舊 水溝 加上 地基 鬆 軟 遇 大雨 沖 刷 導致 土石流 失 下陷 北市 府 表示 這起 萬華 地層下陷 長 寬 約 一輛 汽車 車身 還好 塌陷 時 無 造成 人員 受傷 目前 北市 府 已 畫設 警戒 線 消防局 已 現場 成立 前進 指揮 所 警戒 守視 新 工處 表示 本案 經 工地 主任 說明 因 基地 外舊 水溝 加上 地基 較 鬆 軟 遇上 大雨 沖 刷 疑似 導致 土石流 失 下陷 建商 已 緊急 調用 水泥 車搶修 晚間 19 時 完成 灌漿 回填 作業 目前 初步 評估 並無 擴大 危害 之虞 北市 近期 五度 出現 路面 坑道 分別 為 5 月 13 日 信義區 崇德街 7 月 10 日 大同區 南京西路 8 月 18 日 南港區 南港路 8 月 19 日 中山區 民東路 以 今天 萬華區 昆明街 北市 萬華 某處 工地 今天 出現 路面 坑洞 圖 居民 提供 工務局 表示 掏空 點位 建築 基地 建商 已 接手 灌漿 處 理完 畢圖 居民 提供 北市 短短 3 個 月 出現 第 5 個 「 天坑 」 此為 今日 萬華區 某處 工地 圖 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞 圖 居民 提供</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 在 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 的 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是 「 甩鍋 」   認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 的 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非 「 甩鍋 」   氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 的 老舊 排水管 損裂 更 嚴重   民生 東路 的 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 的 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 的 塌陷 處   也 完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 有 許多 建案 施工   四 七巷 的 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 的 掏 涮 所致     李 四川 在 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 的 豪 大雨   高雄 的 積 淹水   北市 的 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 的 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 及 管線 老舊 對策   林延鳳 認為 李 四川 的 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質 的 「 人禍 」   不應 歸咎 於 天災   陳 怡君 也 說   極端 氣候 不能 成為 推卸 市政 的 理由 與 藉口   市府 應針 對 路面 做 總體檢   更換 或 整修 老舊 的 管線 箱涵   積極 研擬 因應 極端 氣候 及 公共 管線 老舊 的 對策  </t>
+          <t>4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線關   市府 已 要求 總體檢 〔 台北市 昨晚 萬華區 昆明路 一處 建案 工地 旁 又 發 地層下陷 近四個 月 來 第五次 市區 道路 塌陷 昨晚 塌陷 原因 仍 不明 不 排除 豪 大雨 所致 台北市 政府 工務局 說 前 四次 塌陷 都 不 車輛 輾壓 破損 而 與 地下 管線關 已 擬定 防範 措施 台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 關呼籲 重視民眾 看不到 基礎 建設民 進黨議 員林 延鳳陳怡 君質疑 「 甩鍋 」 認為 市府 應積極 研擬 極端 氣候 下 管線 老舊 問題 對策 萬華 昆明路 建案 工地 旁   又 發 地層下陷 李 四川 回應 議員質疑 說 絕非 「 甩鍋 」 氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵導 致些 本來 就 破裂 老舊 排水管 損裂 更 嚴重 民東路 管線 就 超過 廿年 而 上次 南京西路 塌陷 後 他 已 要求 衛工處 總體 檢老舊 管線 箱涵 若 需要 維修 或 更 換會 立即 處理 萬華 昨晚 塌陷地 點建案 工地 旁 下陷 面積 約 長 三 寬 兩 深度 一 ． 五晚 間 已經 完成 回填 十九日 民東路 塌陷 處 完成 回填 水利 處 勘查 側溝 破 損導致 地層 被 掏空 將進 行側 溝修 復 豪 大雨 沖 刷   導致 破裂 排水管 損害 更嚴 重工 務局 說明 這幾起 道路 塌陷 都 不 車輛 輾壓 造成 五月 十三日 崇德街 因建案 開 挖 地下 基礎 連續 壁 滲水 造成 地下水 湧入 基地 帶 走 周邊 道路 沙土 而 出現 坑洞 七月 十日 南京西路 軟弱 地層 長 期受 潮汐 響 地下水位 土壤 承載力 不佳導致 污水 管接 頭 鬆 脫 錯 位 土 沙 沿 管 線 破 損 處 流失 而 南港路 許多 建案 施工 四 七巷 道路 狹小 排水 箱涵 接側 溝連 接管 無法 深埋 疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙 地下水 帶 走 土沙 而 地層下陷 民東路 道路 側溝 溝體 老舊 破損 加上 近期 下雨 排水 掏涮 所致 李 四川 臉書感 而 發說 近來 國外 天災 不斷 包含 國 南投 豪 大雨 高雄 積 淹水 北市 路面 塌陷 等 都 與 極端 氣候 溫室 效應關 希望 每 一位 位 都 能 對 百姓 看不到 基礎 建設 工程 多用 一點 心議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策 林延鳳 認為 李 四川 說法 甩 鍋卸責失 專業 直指 四起 道路 塌陷 都 疏 於 督管 工程 品質 「 人禍 」 不應 歸咎 於 天災 陳 怡君 說 極端 氣候 不能 成為 推卸 市政 理由 與 藉口 市府 應針 對 路面 總體 檢更換 或 整修 老舊 管線 箱涵 積極 研擬 因應 極端 氣候 共管 線 老舊 對策</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>新竹縣 竹 北市 天坑 再現   縣政 7 街 昨天 發生 道路 坍塌 形成 大 坑洞   今天上午 建商   住戶 代表   里長 與 技師 等到 現場 查看   討論 施作 透地雷達 的 範圍   鄰近 社區 住戶 說   這條 道 路旁 邊 就是 車道   且 鄰近 學校   九月 即將 開學   很多 學生 從 此 經過   盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況   安全 為 優先       斗崙里 長 張 琬 媃 表示   今天上午 邀請 土木 結構 技師 拱祥生 到 現場 勘查   盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況   後 將召開 說 明會   讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況                             鄰近 社區 住戶 說   建商 雖然 一周 兩次 監測且 未 超過 標準   然而 一旦 超過 就 來 不及 了   社區 希望 能 了解 整體 趨勢   盼建 商能 固定 給予 監測 數據   此外   地下 六樓 開 挖 深   導致 震動 頻率 高   社區 內 有 龜裂 狀況   這 部分 建商 允諾會 負責   未來 社區 也 會 提鄰損 要求   目前 該條 道路 是 社區 車道   鄰近 學校   開學後有 很多 學生 從 此 經過   希望 能 盡快 檢測 周邊 道路   以 安全 為 優先       拱祥生 表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   至於 後 方 涉及 到 肯德基 店家 與 私人 路段 要 再 確認   被動式 電磁波 檢測 能 偵測 淺   深層   將檢測 道路 範圍 下方 30 公尺 來 了解 地質   有否 潛藏 孔洞 或 疏 鬆 狀 況   以及 昨日 因自來 水 沖 蝕 後   回填 後 初步 的 結果   預計 最快 7 到 10 日 可 完成 檢測       媒體 也 追問 拱祥生   此案 與 豐采 520 的 天坑 事件   是否 都 因為 地下水 或 地理 環境易 地層下陷   拱祥生 回應   會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣   涉及 到 開 挖 工法   若 是 用 非止 水性 壁體   例如 這次 事件 用板 樁 和 橫板條   此工法 適用 於 林口 台地   桃園 台地 與 部分 竹北 工地   由 於 林口 台地   桃園 台地 屬於紅 土礫 石層   此地 質狀況 相對 不透水   若 使用 透水性 壁體   就 比 較 不怕   然而 遇強 下雨   自來 水管 線 有 潛 在 水分   搭配 降雨 形成 路徑   非止 水性 壁體 可能 就 會 帶 入土 沙   一下子 沖 入 基地       拱祥生 指出   這兩個 工地 都 有 共同 現象   主要 是 在 開 挖 工地 周遭   主動 破壞區 發生   就 像 開刀 本來 就 會 流血   因此 工地 在 開 挖 過程 中   正常 就 會導致 地表 沉陷   重點 是 透過 觀測 法來 了解 實際開 挖行 為   與 原來 工程 分析 的 行為 是否 相同   若 是 相同 就是 在 安全 範圍 內   若 是 有 異常   就 得 要 補強   新竹縣 竹 北市 縣政七 街道 路 塌陷 現場   工地 建商 坦承 疏失   記者 郭政芬 ／ 攝影 技師 拱祥生   右   表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   記者 郭政芬 ／ 攝影</t>
+          <t>新竹縣 竹北市 天坑 再現 縣政 7 街 昨天 發 道路 坍塌 形成 大 坑洞 今天上午 建 商住 戶 代表 里長 與 技師 等到 現場 查看 討論 施作 透地雷達 範圍 鄰近 社區 住戶 說 這條 道 路旁 邊就車 道 且 鄰近 學校 九月 即將 開學 很多 學從 此 經過 盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況 安全 為 優斗崙里 長 張 琬 媃 表示 今天上午 邀請 土木 結構 技師 拱祥到 現場 勘查 盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況 後 將召開 說 明會 讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況 鄰近 社區 住戶 說 建商 雖然 一周 兩次 監測且 未 超過 標準 然而 一旦 超過 就 來 不了 社區 希望 能 了解 整體 趨勢 盼 建商能 固定 給予 監測 數據 此外 地下 六樓 開 挖 深導致 震動 頻率 高 社區 龜裂 狀況 這 部分 建商 允諾會 負責 未來 社區會 提鄰損 要求 目前 該條 道路 社區 車道 鄰近 學校 開學 後 很多 學從 此 經過 希望 能 盡快 檢測 周邊 道路 以 安全 為 優拱祥 表示 會 採用 被 動式 電磁波 檢測 以 光明六路 縣政七街 為主 至於 後 方涉 到 肯德基 店家 與 私人 路段 要 再 確認 被 動式 電磁波 檢測 能 偵測 淺 深層 將檢測 道路 範圍 下方 30 來 了解 地質 潛藏 孔洞 或 疏 鬆 狀 況 以 昨日 因自來 水 沖 蝕 後 回填 後 初步 結果 預計 最快 7 到 10 日 可 完成 檢測 媒體 追問 拱祥 此案 與 豐采 520 天坑 事件 都 因為 地下水 或 地理 環境易 地層下陷 拱祥 回應會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣 涉到 開 挖 工法 若用 非止 水性 壁體 例如 這次 事件 用板 樁 橫板 條此 工法 適用 於 林口 台地 桃園 台地 與 部分 竹北 工地 由 於 林口 台地 桃園 台地 屬於紅 土礫 石層 此地 質狀況 相對 不透水 若 使用 透水性 壁體 就 比 較 不怕 然而 遇強 下雨 自來 水管 線潛 水分 搭配 降雨 形成 路徑 非止 水性 壁體 可能 就 會 帶 入土 沙 一下子 沖 入 基地 拱祥 指出 這兩個 工地 都 共同 現象 主要 開挖 工地 周遭 主動 破壞 區發 就 像 開刀 本來 就 會 流血 因此 工地 開挖 過程 中 正常 就 會導致 地表 沉陷 重點 透過 觀測 法來 了解 實際開 挖行 為 與 原來 工程 分析 行為 相同 若 相同 就 安全 範圍 若 異常 就 得 要 補強 新竹縣 竹北市 縣政七街 道路 塌陷 現場 工地 建商 坦承 疏失 郭政芬 技師 拱祥右 表示 會 採用 被 動式 電磁波 檢測 以 光明六路 縣政七街 為主 郭政芬</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 也 質疑   建案 若 未 做 側溝   未來 仍 可能 有 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 做 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 在 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 有 做 側溝   若側 溝都 沒有   未來 仍 可能 有 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   她 也 發現   坑洞 日前 雖已 填補   但現 在 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 的 人 為 疏失     蔡岳樺 也 說   福音 里 內 有 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 有 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 有 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 也 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 在 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 的 是 舊 有 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 的 排水 系統 做 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 也 沒 有 規範   但 建管處 會 要求 將 排水 系統 做 完   改善 區域 排水     建管處 也 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 有 安全 疑慮 的 地方 阻隔  </t>
+          <t>〔 台北市 近來 天坑 事件 頻傳 萬華區 一處 建案 工地 旁 道路 日前 發 地層下陷 坑洞 面積 約 一輛 汽車 車身 所幸 無人 受傷 不 過當 地里 長 蔡岳樺 表示 工地 已 二度 出包 天坑 修補 後 又 出現 積水 北市 議員 應曉薇 質疑 建案 若 未側 溝未來 仍 可能 天坑 事件 台北市 建管處 表示 會 要求 將 排水 系統 完 已 將個 案列 為 重點 稽查 個案 應曉薇 今天 與 多位 萬華 里長 前往 萬華 工地 會勘 應曉薇 質疑 建案 側溝 若 側溝 都 沒 未來 仍 可能 天坑 若 再 大雨 台北市 衛工處 又 要 幫忙 清砂 發現 坑洞 日前 雖已 填補 但現 又 出現 積水 對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 關則 稱 這就 沒 側溝 造成 人為 疏失 蔡岳樺 說 福音 里 3 個 工程 每次 都 這個 建案 出事 他 對 於 都市 更新 樂觀 其成 但 不 希望 響民眾 安全 他 呼籲 建商 出事 要 負責 不要 什麼 就 推給 別人 蔡 表示 天坑 意外 當天 建案 負責人 推 託 說 下雨 地基 掏空 又 說 沒 危險 沒什麼 讓 他 相當 憤怒 難道 要 出事 才 算 問題 呼籲 建商要 把 事情 好 萬華區 全 德里 里長 趙 素美 認為 這個 問題 應該 可以 提前 處理 不能 發 事情 才 處理里 長 都 為 里 民保護 身家 財產建商 與 里 長 應該 互相 尊重 建管處 表示 此 都 更案 採用 舊 法令 本案 涉私 土地 法令 上不會 要求 現 就 按照 使用 執照 竣工 時 排水 系統 完 但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷 現行 法令 對 於 打通 道路 區域 排水 沒規範 但 建管處 會 要求 將 排水 系統 完 改善 區域 排水 建管處 說 已將 此案 列為 重點 稽查 個案 未來會 加強 稽查 目前 坑洞 已 填好 初步 安全 無虞 並將 安全 疑慮 地方 阻隔</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">針對 北市 連續 出現 天坑   台北 市長 蔣萬安 下午 在 公安 會報 中 指示   最近 幾次 地層下陷   會 進行 全面 檢視   請 工務局 邀集 相關 單位   包括 都 發   建管   針對 道路 塌陷 的後續 處理 做成 通案 性處 理機 制外   也 應 做 全面 檢視   會先 就 老舊 管線 做 一次 清查   下 一步 再針 對 其他 地方   避免 後 續 再 發生 地層下陷 情形       北市 建管處 下午 在 公安 會報 中針 對 今年 5 月 13 日 信義區 崇德 街 60   巷道 路 塌陷 案 進行 專題 報告   加強 管理 作為   針對 北市 建築 工地 正在 開挖 階段   計有 102 件   排定 由 三 大公 會 從 5 月 15 日 開始 逐案 現場 勘查   目前 已 全數檢 查完 畢   針對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善                             為 了 強化 管理 措施   加強 建築 工地 開挖 階段 安全 管理   自 6 月 分起 已委 託 三 大公 會 不定期 進行 現場 勘查   另 就 建築 工地 因違 反建築法 公共安全   公共交通 遭受 裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 相關裁 處訊息       另外   也 函告 工地 應主動 通報   若 工地 發生 公安 意外事件   應 於 第一 時間將 原因 及 緊急 應變 處理 情形 主動 通知 建管處   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處以 9 萬元 罰款   情節 嚴重 時並 勒令停工       副 市長 李 四川 也 提醒 建管處   最近 下午 雷陣雨   開挖 工地 要 加強 宣導 防範   蔣萬安 也 表示   信義區 的 案例   主要 因為 旁邊 有 有 建案 開 挖 造成 地層下陷   最近 有 許多 下午 的 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 加強 查核       蔣萬安 也 指示   針對 有些 地方 老舊 管線   不管 是 汙水 管等   主管 機關加 強督導   另環 保局 在 進行 清疏 時   或是 新工處   地面 上 施工   如果 有 發現 相關 管線 有 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理  </t>
+          <t>針對 北市 連續 出現 天坑 台北 市長 蔣 萬安 下午 安會 報中 指示 最近 幾次 地層下陷 會 進行 全面 檢視 請 工務局 邀集 相關 單位 包括 都 發 建管 針對 道路 塌陷 後 續 處理成 通案性 處理 機制 外應 全面 檢視會 就 老舊 管線 一次 清查 下 一步 再針 對 其他 地方 避免 後 續 再 發 地層下陷 情形 北市 建管處 下午 安會報 中針 對 今年 5 月 13 日 信義區 崇德街 60   巷道 路 塌陷 案 進行 專題 報告 加強 管理 作為 針對 北市 建築 工地 正開 挖階段計 102 件 排定 由三大會 從 5 月 15 日 開始 逐案 現場 勘查 目前 已 全數檢 查完 畢針 對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善 為 了 強化 管理 措施 加強 建築 工地 開挖 階段 安全 管理 自 6 月 分起 已委 託 三大會 不定期 進行 現場 勘查 另 就 建築 工地 因違 反建築 法共 安全 共 交通 遭受 裁罰 或 勒令停工 案件 同步 於 建管處 網站 揭露 相關裁 處訊息 另外 函告 工地 應主動 通報 若 工地 發安 意外事件 應 於 第一 時間將 原因 緊急 應變 處理 情形 主動 通知 建管處 未通 報將 依建築 法相 關規定 加重 裁罰 最高 處以 9 萬元 罰款 情節 嚴重 時並 勒令停工 副 市長 李 四川 提醒 建管處 最近 下午 雷陣雨開 挖 工地 要 加強 宣導 防範 蔣 萬安 表示 信義區 案例 主要 因為 旁邊 建案 開 挖 造成 地層下陷 最近 許多 下午 暴雨 可能 造成 地層下陷 請 建管處 加強 工地 管理 加強 查核 蔣 萬安 指示 針對些 地方 老舊 管線 不管 汙水 管等 主管 機關加 強督導 另 環保局 進行 清疏 時 或 新 工處   地面 上 施工 如果 發現 相關 管 線 鬆 脫 或 破裂 情形 要 即 時 通報 相關 單位 處理</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 在 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   也 應 全面 檢視   先 清查 地下 的 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 在 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 的 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 有 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 的 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 及 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 和 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 有 許多 下午 的 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 及 查核       蔣萬安 指示   針對 有些 地方 的 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 在 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 有 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 的 隱憂  </t>
+          <t>北市 近日 連續 出現 天坑 市長 蔣 萬安 昨天下午 安會 報中 指示 工務局 邀集 都 發 建管 等 相關 單位 針對 道路 塌陷 制定 通案性 處理 機制 外應 全面 檢視 清查 地下 老舊 管線 下 一步 再針 對 其他 地方 避免 再發 地層下陷 情形 北市 建管處 昨天下午 安會 報針 對 今年 5 月 13 日 信義區 崇德街 60 巷道 路 塌陷 案 進行 專題 報告 北市 開挖 中建 築 工地 計 102 件 已委 託 台北市 土木 技師會 台北市 建築 師會 台北市 結構 工程 工業 技師會 從 5 月 15 日起 逐案 現勘 包括 觀測 項目 設置 按 計畫 觀測 以 施工 計畫 例如 抽水 計畫 等 已 全數檢 查完 畢針 對 檢查 項目 不 符合 建築 工地 要求 停工 釐 清 改善 為 加強 建築 工地 開挖 階段 安全 管理 6 月 起委 託 三大會 不定期 現勘並 就 建築 工地 因違 反建築 法共 安全 共 交通 受裁罰 或 勒令停工 案件 同步 於 建管處 網站 揭露 裁處訊息 建管處 表示 已 函告 工地 若 發安 意外 應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形 未通 報將 依建築 法相 關規定 加重 裁罰 最高 處 9 萬元 罰款 情節 嚴重 時 還會 勒令停工 最近 常發午 後 雷雨 市長 蔣 萬安 副 市長 李 四川 都 強調 要 注意 李 四川 提醒 建管處 開挖 中 工地 要 加強 宣導 防範 蔣 萬安 說 信義區 案例 主因 為 建案 開 挖 造成 地層下陷 最近 許多 下午 暴雨 可能 造成 地層下陷 請 建管處 加強 工地 管理 查核 蔣 萬安 指示 針對些 地方 老舊 管線 像 汙水 管等 主管 機關加 強督導 另 環保局 進行 清疏 時 或 新 工處 地面 上 施工 發現 相關 管 線 鬆 脫 或 破裂 情形 要 即 時 通報 相關 單位 處理 建管處 指出 地下 管線 一旦 老舊 可能 鬆 脫 造成 漏水 淘空 地基 導致 地層下陷 隱憂</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林 沿海 受 藍 月 大潮 加上 颱 風 大浪   近日 接連 發生 嚴重 海水倒灌   最大 的 萡 子 寮 港 到 昨天 仍 一片汪洋   淹水 及 膝   港口 被迫 封閉   行政院 長 陳 建仁 昨 前往 現場 勘災   地方 陳 情指   漁港 淹水 已嚴 重威脅 下崙 3 個村 的 安危   應急 工程 不能 再 拖   縣府 也 盼 中央 補能 加高 及 延伸 堤防   陳 建仁 允諾 相關 部會 與 縣府 合作   研議 解決 之道       縣府 水利 處長 許 宏博 簡報 指出   因地盤 下陷 嚴重   多年 來 幾次 加高 防波堤 及 年 年 抽沙 清淤   仍難 敵 天象 變化   港域 高程 約 1.9 公尺   但 這兩天 高達 2.56 公尺   加上 風浪助長 爆發 嚴重 海水倒灌   目前 除應 急 擋 水 措施   要 增高 延伸 防波堤   及 清理 港域 30 萬 立方米 淤沙   確保 港口 不受 漂沙 封堵   才能 因應 極端 氣候 的 海象 變化   整建 經費 預估 10 億元                             同為 養殖業者 的 口湖 鄉 代王 紫陽 說   在 這 生活 60 幾年 從 沒見 過淹 水淹 得 如此 嚴重   鄰近 300 多公頃 養殖區 朝不保夕   政府 不能 坐視 不管   李姓 養殖業 也 說   這次 海水倒灌 造成 部分 魚苗 流失       議員黃 文祥 也 指 說   萡 子 寮 港 已 無 法 因 應 現 有 海象 變化   尤其 漂沙帶 來 的 淤塞 及 海水倒灌   連 以前 航行 澎湖 的 輪 船 也 因 淤沙 停駛   口湖 代表 會 主席 王溪邊 指   更 扯 的 是 退潮 水位 變低 時   漁船 竟 要 用 推 的 進港   實在 可笑   治港刻 不容 緩       昨 陪同 會勘 的 雲林縣 長 張麗善 當面 遞交 雲林 漁港 治理 及 海堤 安全 防護 計畫   盼 請 行政院 協助   立委 蘇治芬 也 建議將 雲林 海岸 治理 一 併 納 入院 會 正在 檢討 的 國土 沙洲 案   以 擴大 治理 量 能       陳 建仁 說   這次 海水倒灌 對 地方 造成 損失   針對 地方 希望 能 加高 及 延伸 堤防   此須 經過 水工 模型 試驗   才能 確保不會 加劇 地層下陷 問題   行政院 會 聽取 地方 建議   與 縣府 共同 研議 解方       漁業署 表示   曾 與 立委 蘇治芬 多次 召開 海岸 治理 檢討   為 保漁港 的 漁業 永續   除應 急 工程 應要 進行 水工 研究 與 探測 再行 治理   才能 一勞永逸   由 於 該 漁港屬 地方 管理   中央 會予 協助 建置 長 遠 治理 方案  </t>
+          <t>雲林 沿海 受 藍 月 大潮 加上 颱風 大浪 近日 接連發 嚴重 海水倒灌 最大 萡子寮 港到 昨天 仍 一片汪洋 淹水 膝 港口 被迫 封閉 行政院 長 陳 建仁 昨 前往 現場 勘災 地方 陳 情指 漁港 淹水 已嚴 重威脅 下崙 3 個村 安危 應急 工程 不能 再 拖 縣府 盼 中央 補能 加高 延伸 堤防 陳 建仁 允諾 相關 部會 與 縣府 合作 研議 解決 之道 縣府 水利 處長 許 宏博 簡報 指出 因地盤 下陷 嚴重 多年 來 幾次 加高 防波堤 年 年 抽沙 清淤 仍難 敵 天象 變化 港域 高程 約 1.9 但 這兩天 高達 2.56 加上 風浪助長 爆發 嚴重 海水倒灌 目前 除應 急 擋 水 措施 要 增高 延伸 防波堤 清理 港域 30 萬 立方米 淤沙 確保 港口 不受 漂沙 封堵 才能 因應 極端 氣候 海象 變化 整建 經費 預估 10 億元 同為 養殖業 口湖鄉 代王 紫陽 說 這活 60 幾年 從 沒見 過淹 水淹 得 如此 嚴重 鄰近 300 多頃 養殖區 朝不保夕 政府 不能 坐視 不管 李姓 養殖業 說 這次 海水倒灌 造成 部分 魚苗 流失 議員黃 文祥 指說 萡子寮 港 已 無法 因應現 海象 變化 尤其 漂沙帶 來 淤塞 海水倒灌 連 以前 航行 澎湖 輪船 因 淤沙 停駛 口湖 代表 會 主席 王 溪邊 指 更 扯 退潮 水位 變低 時漁船 竟 要 用 推進 港實 可笑 治港刻 不緩 昨 陪同 會勘 雲林縣 長 張麗善 當面 遞交 雲林 漁港 治理 海堤 安全 防護 計畫 盼 請 行政院 協助 立委 蘇治芬 建議將 雲林 海岸 治理 一 併 納 入院 會正 檢討國土 沙洲 案以 擴大 治理 量 能 陳 建仁 說 這次 海水倒灌 對 地方 造成 損失針 對 地方 希望 能 加高 延伸 堤防 此須 經過 水工 模型 試驗 才能 確保不會 加劇 地層下陷 問題 行政院 會 聽取 地方 建議 與 縣府 共同 研議 解方 漁業署 表示 曾 與 立委 蘇治芬 多次 召開 海岸 治理 檢討為 保 漁港 漁業 永續 除 應急 工程 應要 進行 水工 研究 與 探測 再行 治理 才能 一勞永逸 由 於 該 漁港 屬 地方 管理 中央 會予 協助 建置 長 遠 治理 方案</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>高雄 仁武 區 今晚 9 時 30 分許   有民眾 發現 出現 一個 大 天坑   地點 就 在 永新 五街 及 永仁 街 路口 旁電線桿 周邊   高雄市 議員黃 飛鳳 獲報 隨即 到場 關心   並 通知 相關 單位 到場 協處   目前 高 市府 水利局 已調 派 機具 在 場開 挖 釐 清 下陷 肇因       由 於   天坑 發生 位置 就 在 電線桿 周圍   為 避免 電線桿 倒塌 造成 停電 意外   台灣 電力 公司 鳳山 營業 處 派員 前往 現場   暫以 吊桿 支撐 固定 電線桿   至於   地層下陷 肇因   水利局 人員 正在 現場 以管 挖 機具 進行 開 挖 調查                             仁武 分局 表示   因 路面 出現 坍塌 情事   為 安全 著想 及 避免 影響 用路 人   警方 獲報 後 已 將該 路段 封閉   經 水利局 挖開 查看   發現 有 不明 水源 流入 導致 地基 塌陷   屬 水利局 權責   遂 先行 填補 搶修   目前 水利局 污水 二科科長 張進 二 正在 現場 監督   台灣 電力 公司 鳳山 營業 處 暫以 吊桿 支撐 電線桿   避免 意外 發生 造成 停電   記者 古和純 ／ 翻攝 高雄 仁武 區出現 地層下陷   圖 ／ 取自 高雄市 議員黃 飛鳳個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面   記者 古和純 ／ 翻攝</t>
+          <t>高雄 仁武區 今晚 9 時 30 分 許民眾 發現 出現 一個 大 天坑 地點 就 永新五街 永仁街 路口 旁電線桿 周邊 高雄市 議員 黃 飛鳳 獲報 隨即 到 場關 心並 通知 相關 單位 到場 協處 目前 高 市府 水利局 已調 派機 具場 開 挖 釐 清 下陷 肇因 由 於 天坑 發 位置 就 電線桿 周圍 為 避免 電線桿 倒塌 造成 停電 意外 台灣 電力司 鳳山 營業 處 派員 前往 現場 暫以 吊桿 支撐 固定 電線桿 至於 地層下陷 肇因 水利局 人員正 現場 以管 挖 機具 進行 開 挖 調查 仁武 分局 表示 因 路面 出現 坍塌 情事 為 安全 著想 避免 響用 路 人 警方 獲報 後 已 將該 路段 封閉經 水利局 挖開 查看 發現 不明 水源 流入 導致 地基 塌陷 屬 水利局 權責 遂行 填補 搶修 目前 水利局 污水 二科科長 張 進二正 現場 監督 台灣 電力司 鳳山 營業 處 暫以 吊桿 支撐 電線桿 避免 意外 發 造成 停電古純 翻 高雄 仁武區 出現 地層下陷 圖 取自 高雄市 議員 黃 飛鳳 個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面 古純 翻</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 有 約 580 萬住 戶 沒 有 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣 位處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 的 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 有 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 的 房屋 倒塌 或 不堪 居住 之 「 全損 」 損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 的 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓 「 看房 要 排隊 」   一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房 「 房屋 稅 3 千變 3 萬 4 」   他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師 「 繳不出 頭期 」 全場 曝下場   穩死</t>
+          <t>嘉義 縣 新港鄉 5 日 下午 5 時 30 分發 芮氏 規模 5.5 極淺層 地震 深度 8.5 里 今 6 日 下午 高雄 又 發芮氏 規模 4.3 地震 地震 頻傳 讓 民眾 人心惶惶 而據 統計 我國 住宅 地震 基本 保險 截至 7 月底 止 投保 率約 37.53% 相當 於 約 580 萬住 戶 沒 地震 保險 住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險 以 減輕 地震 災情 造成 之 財物 損失 台灣 位處環 太平洋 地震 帶 地震 發頻 繁為 使民眾 迅速 獲得 基本 地震 險 保障 住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險 以 減輕 地震 災情 造成 之 財物 損失 住宅 地震 保險 基金 表示 我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止以 全國戶數 922 萬戶計 投保 率約 37.53% 顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識 惟 仍 許多 屋主 尚未 投保 建議 應 即 早 投保 以 獲得 基本保障 住宅 地震 保險 基金 提醒 住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動 地震 引起 之火災 爆炸 山崩 地層下陷 滑動 開裂 決口 海嘯 海潮 高漲 洪水 等 危險 事故 造成 已 投保 住宅 地震 基本 保險 房屋 倒塌 或 不堪 居住 之 「 全損 」 損失 時 即可 取得 保險 金額理 賠臨 時 住宿 費用 目前 保險 金額 最高 為 150 萬元 臨時 住宿 費用 為 20 萬元 保險 期間 為 一年期 每年 保費 1350 元 相當 於 每日 只 需 3.7 元 即可 獲得 基本 地震 險 保障 🏠 udn 房地 產推薦 新聞   ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查   ▪   老 又 臭 沒人要 他 目睹 台北 老寓 「 看房 要 排隊 」 一堆 人 搶   ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物 不用 開冷氣   ▪   換同坪數 新房 「 房屋 稅 3 千變 3 萬 4 」   他 哀號 貴到 快 哭 出來   ▪   借錢 買 房台 積輪班 工程 師 「 繳不出 頭期 」 全場 曝下場 穩死</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 在 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 內 有 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 的 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 先 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 的 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見 「 蹦 」 聲響   工地 先緊 急 疏散 工人   才 通知 住戶     她 說   附近 民眾 提到 此建案 動工 後   住家 就 有 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 也 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  </t>
+          <t>台北市 中山區 大直 街巷 弄 今晚 多棟 大樓 傾斜 警方 初步 了解 大樓 附近 建案 施工 開挖 地下 連續 壁 最後一層 工程 時疑 因土質 問題 導致 地基 不穩 造成 民宅 傾斜 台北市 警消 晚間 8 時 34 分獲報 大直 街巷 弄 民宅 傾斜 出現 磁磚 牆壁 龜 裂警 消派員 到場 發現 建案 工地 旁 5 至 6 棟大樓 受響 立即 拉 警戒 線並 疏散 25 戶無人 受傷 目前 住戶 疏散 到 實踐 大學 警方 初步 了解 新建 工地 工程 人員開 挖 地下 連續 壁 最後一層 時疑 因土質 問題 導致 地基 不 穩定 造成 旁邊 民宅 傾斜且 地基 變形 出現 可能 倒塌 狀況 消防 車已 持續 針對 建案 基地 灌水 協助 穩定 地質民 進黨 台北市 議員陳怡君 第一 時間 赴 事故 現場 勘災後發布 新聞 資料 表示 附近 民眾 提晚 間 曾 聽 見 「 蹦 」 聲響 工地 緊急 疏散 工人 才 通知 住戶 說 附近 民眾 提到 此建案 動工 後 住家 就 龜裂 狀況 已 多次 向 建商 反映 但 都 無 處理 市府 主管 機關 無作 為 才 釀成 此 狀況 要求 市府 清查 受災戶 狀況並 立刻 協助 安置 台北市 信義區 崇德街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水導致 道路 地層下陷 危旁邊 民宅</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 有 違失   「 絕不寬貸   護短 」   同時 也 會 檢視 基泰 建設 在 台北市 的 建案   不合 規定 就 會 勒令停工   北市 府 也 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 的 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 的 開綠色 通道 至 台北市 聯合 醫院   後 續 也 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 也 有 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 的 申訴   及 建管處 判斷 過程 是否 有 違失 或 違法   才 導致 今天 的 狀況   「 絕不寬貸   也 絕不護 短 」   若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 的 危老 都 更 都 會 較 過往 開 挖 來 的 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 有 任何 違法 情事   或 發現 當時 處理 不當   表態 「 該換 就換   這沒有 疑問 」   強調 重新 檢視 後 「 有 需要 撤換 就 撤換 」   至於 基泰 建設 在 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 在 台北市 的 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   也 會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 的 一站式 聯合 服務 中心   也 成立 律師團 協助 住 戶後續 的 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 也 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 也 撂 狠話   「 建商 要負 全面 責任   否則 未來 在 台北市   很 抱歉   你 不 符合 相關 規定 或 標準 就 別 想 在 台北市 取得 任何 案子   」 而 下午 建管處 也 已經 發文稱 基泰 在 北市 的 7 個 工地 全面 停工  </t>
+          <t>台北市 中山 大直街 94 巷 周邊 民宅 嚴重 塌陷 市長 蔣 萬安 強調 會 徹底 調查 建管處 處理 過程 違失 「 絕不寬 貸護 短 」 同時會 檢視 基泰 建設 台北市 建案 不合 規定 就 會 勒令停工 北市 府 成立 律師團 協助 住 戶後續 追償 蔣 萬安 今 8 日 接受 資深 媒體 人 黃 光芹 主持 節目 專訪 坦言 建管處 45 月 收到 住戶 書面 申訴 牆壁 龜裂 獲 報後派員 了解 當時 認為 與 基泰 建設 開 挖 無 直接 相關 而 當時 仍施 作連續 壁 直至 7 月 24 日才 開 挖 至於 大直 災民 安置 問題 蔣 萬安 表示 會 找 時間 了解 住戶 需求 昨 7 日 就 成立 群組 包含 民政局 社會 局衛局 等 局處 需要 領藥 開綠色 通道 至 台北市 聯合 醫院後續 會 協助 住戶 追究 責任 求償 至於 市議員陳怡 君質 疑住 戶僅 被 安置 1 天蔣 萬安 認 目前 安置 到 11 日 即刻 請觀 傳局 了解 協調 旅宿業 以 降低 大家 搬動 當然 住戶 不想 住麼 長 只要 確認 安全 無虞 就 會 讓 住戶 回去 蔣 萬安 強調將 重新 檢視 調查 事情 原委 包含 住戶 起初 提出 申訴 建管處 判斷 過程 違失 或 違法 才 導致 今天 狀況 「 絕不寬 貸絕 不護 短 」 若 發現 機制 SOP 出 了 問題 就 會 修正 蔣 萬安 提 台北 30 年 以上 老舊 建物 超過 7 成危 老 都 更案 經常 緊臨 老房子 現危 老 都 更 都 會 較 過往 開 挖 來 深 基泰 大直 就 開 挖 到 地下 3 層 故會 要求 建管處 增加 查核 頻率 尤其 地下 深開 挖 部分 要 確保 施工 安全 黃 光芹 詢問 可能 要求 任何 局處 首長 下台 或 撤 職來 負責 蔣 萬安 回應 只要 徹底 調查 發現 任何 違法 情事 或 發現 當時 處理 不 當表態 「 該換 就換 這沒疑問 」 強調 重新 檢視 後 「 需要 撤換 就 撤換 」 至於 基泰 建設 台北 尚 4 個 建案 會 要求 全面 停工 蔣 萬安 回應會 全面 檢視 基泰 建設 台北市 所建案 包含 今日 已 派員去 基泰 建設 勞檢會 檢視 相關 施工 合乎 規定 若 未 依規 就 會 依法 勒令停工 蔣 萬安 稱 北市 府 已 成立 跨局 處 一站式 聯合 服務 中心 成立 律師團 協助 住 戶後續 求償 他 下午 再度 前往 視察時 重申 要 重檢視 北市 建物 而 北市 府 會 向 建商 與 施工 廠商 追究 到底 蔣 萬安 撂 狠話 「 建商 要負 全面 責任則 未來 台北市 很 抱歉 不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子 」 而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   也 使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 在 去年 選舉 前 和 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   也 透露 來 自 基泰 的 政治 獻金 是 一位 從 媒體界 轉從商 的 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 的 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 也 有 收 基泰 的 政治 獻金   她 想 請問 一下   這 是否是 綠營 想 再次 示範 「 綠能 你 不能 」 及 雙標   王鴻薇 也 指出   上次 她 質疑 綠能 產業 就 被民進 黨 挖出 也 收過 綠能 公司 的 政治 獻金 是 雙標   但 她 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 在 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 的 直播 就 會 知道   她 是 跟 大家 報告 現場 和 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 的 一貫 手法   王鴻薇 也 表示 她 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 的 里 長 也 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   她 今 早 也 建議 市政府 「 代位 求償 」   此外 得知 居民 準備 組成 自救 會   她 也 承諾 一定 會 全力 協助   最 重要 的 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 的 董事 長   總經理 她 真的 都 不 認識   但是 她 回頭 去 查 了 一下   是 有 一位 媒體 前輩去 做生意   確實 在 議員 選舉 以及 立委 補選時 有 做 政治 捐獻   而 由 於 有 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 也 要 查詢 是否 有 虧損   有 虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 在 她 的 選區   也 鄰近 以前 蔣萬安 的 選區   為 何會 在 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   她 也 立刻 跟 團隊 確認   確實 她 是 沒 有 接獲 選民 或 議員陳情   這 方面 他們 要 努力 的 空間還 很多   她 會勤 走 基層   聽 更 多 聲音   她 也 稱 很 遺憾   選民 這幾個 月 有 這樣 的 困擾   對民代來講   該 努力 的 就 應該 繼續 去 努力  </t>
+          <t>大直 民宅 傾斜案 引發 全台關 注疑 因 附近 基泰 建設 開 挖 工地 導致 地層下陷 使得 197 戶 367 名住 戶 緊急 疏散 而今 8 國民 黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金 對 此 王鴻薇 下午 受訪 強調 並非 收受 政治 獻金 就 不能 監督 透露 來 自 基泰 政治 獻金 一位 從 媒體界 轉從 商前 輩 捐 贈針 對 被 指 收取 基泰 建設 政治 獻金 部分 王鴻薇 今 受訪 表示 這件 事情 民進 黨 以 為 自己 撿 到 槍 但 迴 力 鏢 馬上 就 回到 自己 身上 民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金想 請問 一下 這綠營 想 再次 示範 「 綠能 不能 」 雙標 王鴻薇 指出 上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能司 政治 獻金 雙標 但 認為 不收 政治 獻金 就 不能 監督 至於 昨被 質疑 現場 笑嘻嘻 王鴻薇則 解釋 看 全部 直播 就 會 知道 跟 大家 報告 現場 安置 狀況 但 被 截圖 文章 認為 這綠營 側翼 一貫 手法 王鴻薇 表示 要 特別 提 2 件 事 第一 基泰 建設 全部 北市 工地 都 該 停工 不然 其他 地區 里 長 很 擔心 第二 為 了 慎防 基泰 脫產今 早建議 市政府 「 代位 求償 」 此外 得知 居民 準備 組成 自救 會承諾 一定 會 全力 協助 最 重要 補償 一定 要 落實 而 不 基泰 口頭 上 說 說 而已 再 被問 政治 獻金 部分 王鴻薇則 透露 基泰 董事 長 總經理 真 都 不 認識 但 回頭 去 查 了 一下 一位 媒體 前輩去 意確 實議員 選舉 以 立委 補選時 政治 捐獻 而 由 於 捐 錢個 人要 提供 個 人 身分 證字 號司 要 提供 司 地址 等司 部分 要 查詢 虧損 虧損 就要 退款 不然 會 被 沒收 等等 而 這兩筆 政治 獻金 就 來 自媒體 前輩以 基泰 建設 為 名 捐獻 至於 外界 質疑 王鴻薇 監督 了 許多 全國 各地 之建設 但 這次 大直 民宅 不僅 選區 鄰近 以前 蔣 萬安 選區 為 何會 當選 這 8 個 月 以來 都 沒人 溝通 王鴻薇 表示 昨天 發 事情 後 立刻 跟 團隊 確認 確實 沒接 獲選民 或 議員陳情 這 方面 他們 要 努力 空間還 很多 會勤 走 基層 聽 更 多聲 音稱 很 遺憾 選民 這幾個 月 這樣 困擾 對民代來 講該 努力 就 應該 繼續 去 努力</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>台北市 中山 區 大直 民宅 疑因 附近 建案 「 基泰 大直 」 施工 不慎   整棟 下陷   建商 基泰 建設 今天 認了 「 施工 不慎 」   表示 相關責 任絕 不 推卸   會 對 受 損戶 盡 最大 慰問   協助 安置   台北 市長 蔣萬安 上午 到 顯場 視察   指 預防性 撤離 可能 再 擴大       基泰 建設 表示   台北市 中山 區 「 基泰 大直 」 建案 於 9 月 7 日 晚間   因營 造廠 施工 不慎   造成 鄰房 損壞   深表 遺憾   為維護 公共安全   已 於 第一 時間 要求 停工   同時 進行 相關 措施       蔣萬安 表示   市府 第一 時間 就 進行 疏散   跨局 處 到場 做 預防性 撤離   撤離 人數 規模 大   共 197 戶   約 369 人   但 也 可能 再持續 擴大   道 明外 僑學校 操場   圍牆 裂開   教育局 緊急 確認 後   宣布 今日 預防性 停課 1 日   以策安全               登入 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬上 註 冊         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬上 註 冊   ｜   立即 搶購         訂閱 看 完整 精彩 內容   5 / 26 前成 為 年 訂戶 就 有 機會 抽 最新   Macbook   Air     訂閱 支持</t>
+          <t>台北市 中山區 大直 民宅 疑因 附近 建案 「 基泰 大直 」 施工 不慎 整棟 下陷 建商 基泰 建設 今天 認了 「 施工 不慎 」 表示 相關責 任絕 不 推卸 會 對 受 損戶 盡 最大 慰問 協助 安置 台北 市長 蔣 萬安 上午 到 顯場 視察指 預防性 撤離 可能 再 擴大 基泰 建設 表示 台北市 中山區 「 基泰 大直 」 建案 於 9 月 7 日 晚間 因營 造廠 施工 不慎 造成 鄰房 損壞 深表 遺憾 為 維護 共 安全 已 於 第一 時間 要求 停工 同時 進行 相關 措施 蔣 萬安 表示 市府 第一 時間 就 進行 疏散 跨局 處 到場 預防性 撤離 撤離 人數 規模 大共 197 戶約 369 人 但 可能 再持續 擴 大道 明外 僑學校 操場 圍牆 裂開 教育局 緊急 確認 後 宣布 今日 預防性 停課 1 日 以策安全   登入 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 登入 讀 還不會員   馬上 註 冊 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 登入 讀 還不會員   馬上 註 冊   ｜   立即 搶購 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 支持</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>基泰 建設 的 新建 案 「 基泰 大直 」 因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 的 25 戶長 期 安置 計畫   也 公開 基泰 大直 的 連續 壁廠 商為 「 齊崴 營造 」   至於 本刊 揭監測 報告 早就 顯示 「 已 超出 警戒 值 」   王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 的 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 的 監測 報告 顯示   在 坍塌 前 44 天 的 監測 報告 結論 及 說 明一欄 中 已 明確 指出   「 部分 監測 儀器 已 超出 警戒 值 」   然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 的 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 的 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 的 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕   「 我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇   」 王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 的 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 在 附近   會持續 提供 安置 的 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   有 地下室 開挖 的 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 的 規定 會 做 一個 整體 的 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   有 工地 涉及 公安 跟 鄰損 的   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 她 今日 也 公布 「 基泰 大直 」 的 下 包連續 壁廠 商為 「 齊崴 營造 」   「 一個 都 不要 跑掉   也 讓 大家 可以 避開 雷區   」</t>
+          <t>基泰 建設 新建 案 「 基泰 大直 」 因 施工 不慎 釀嚴 重安 意外 台北市 都發局長 王玉芬 今日 受訪 說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫 開 基泰 大直 連續 壁廠 商為 「 齊崴 營造 」 至於 本刊 揭監測 報告 早就 顯示 「 已 超出 警戒 值 」 王則 稱 沒 看過 這份 監測報 告後續 會 要求 建商 提供 本刊 今 11 日 獨家 揭露 基泰 建設委 託 儀大 工程 顧問司 提供 北市 都 發局 7 月 26 日 監測 報告 顯示 坍塌 前 44 天監測 報告 結論 說明 一欄 中 已 明確 指出 「 部分 監測 儀器 已 超出 警戒 值 」 然而 基泰 建設 卻 未 積極 處理 9 月 照常 大規 模開 挖 最終 釀成 這起 嚴峻安 事故 對此 王玉芬 回應 昨 10 日才 收到 建商 提供 89 月 監測 報告 7 月 尚未 收到 已 要求 建商 提供 完整 監測 資料 並請 專業 技師會 判讀 如 發現 任何 違失會 將技師 建築師 等 相關 人員 移送 懲戒 媒體 追 問判讀 需要 多少 時間 王玉芬 回應 由 於 資料 應該 很多 但會用 最快 時間 得出 結論 除 25 戶重 災戶 外 其他 居民 可 返家 住 但 居民 因 安全 疑慮僅 38 戶 返回 王玉芬 稱 近期 會 召開 說 明會 由 技師會 對 所 疑慮 住戶 說 明檢測 結果 以 解除 住戶 疑慮 而 這次 共 撤離 236 戶民眾 除 25 戶 以外 撤離戶 每戶 家中 裂縫 需要 補強 會 由 技師 逐步 去 勘檢逐戶 錄去 修繕 「 我們 沒所謂 強迫 住戶 入住 南港 社宅 這都 讓 住戶 可以 自己 選擇 」 王玉芬 指出 北市 府將 於 週三 13 日召 說 明會 說 明長 期 安置 3 個 方案 包含 南港 國宅備 妥 25 戶 家具 冷氣 冰箱 等 若想 住 附近 會持續 提供 安置 旅館 最後民眾 可 自由 選擇 居住地 1 坪 補貼 1600 元 租金 此外 王玉芬 指出 今日 已 啟動 4 大技師會 對 184 處開 挖 工地 進行 嚴格 檢查 第二 波針 對 地下室 開挖 導溝 連續 壁 工程 檢查 另 對 所 工地 加強 加強 頻率 檢查 預計 每月 1 次 地下室 開挖 會 增加 檢查 頻率 而 鄰損 規則 SOP 結構 外 審規定 會 一個 整體 檢視 即刻 啟動修 法王 玉芬 強調 未來 只要 建設 司營 造廠 或 分包 廠商 相關 技師 工地 涉安 跟 鄰 損嚴 重時 就 會 全部 開資訊 包括 下 包廠 商而 今日 布 「 基泰 大直 」 下 包連續 壁廠 商為 「 齊崴 營造 」 「 一個 都 不要 跑掉 讓 大家 可以 避開 雷區 」</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   在 證交所 召開 重訊 記者會   董事 長 陳 世銘 在 道歉 後 宣布 請辭 負責 便 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 在 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者 的 「 不 確定 故意 」 釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 的 會勘 紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 的 回報 是否 有 行政 怠惰   瀆職 或 疏 於 監督   「 建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人   」 王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 的 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  </t>
+          <t>北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案 基泰 建設 昨 10 日證 交所 召開 重訊會 董事 長 陳 世銘 道歉 後 宣布 請辭 負責離 去 北市 議員 王世堅 指出 從 監測 資料 判斷 基泰 大直 連續 壁施 作後保養 期間 就 已 出現 監測 數據 異常 基泰 仍選擇 繼續 開 挖業 「 不 確定 故意 」 釀成 大禍 今 11 日 上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂 王世堅 說 基泰 大直 這類 建案 依規定 進行 深開 挖 工程 前建商 必須 安裝 監測 系統 並錄 每日 施工 導致 各種 建物 馬 路 位移 等 情況 依照 議員陳怡君 會勘 紀錄 附近 居民 檢舉 已 8 個 月 市府 卻 一再 回應 安全 無虞 從 監測 資料 就 可 推斷 市府 回報 行政 怠惰 瀆職 或 疏 於 監督 「 建商 老 闆 起造 人出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人 」 王世堅 說 基泰 董事 長 陳 世銘 昨天 請辭 擺明 就 只 想 用 民事 賠償 解決 不想 負 刑事 責任 他 今天 將赴 北檢加告 殺 人 未遂 就 希望 檢方 要 儘 快 蒐 證 確 保 事件 發時 起造 人應 負起 完全 責任 不能 出 了 事 就 落 跑</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 在 現場 且 站 在 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 的 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離開 記者會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 在 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 在 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 在 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任 「 這麼 大 的 事情   你們 負責人 沒 有 在 現場   只有 你 一個 主任 在 這   」 而 工地 主任 才 回應 「 我們 總經理 站 在 旁邊 那邊   」 李聲 稱 當下 自己 不 認識 馮   且 之 後 也 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 的 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 也 找 不到 馮   他 才 會 在 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 先 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   在 會 同 法制局 後 達 成後續 的 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 在 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 的 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   也 聽 到 消防局 回報 工地 一直 傳出 有 「 啪啪 啪 」 聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 也 詢問 單號 住戶 對面 有 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 的 也 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   便 立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨 「 啪啪 啪 」 間 隔 時間 越來 越短   他 就 要求 全部 站 在 旁邊 的 人 全部 快 疏散   李 表示   他 在 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 也 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 的 是 極端 氣候 的 影響   市區 很多 側溝 的 設計 是 無法 承受 近來 的 豪 大雨   若 「 用 工程 的 技術 去 追 」 不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 的 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 的 考驗  </t>
+          <t>台北市 中山區 大直 民宅 塌陷 案 基泰 建設 總經理 馮勉 委屈 地稱 事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊 對 此 李 四川 今 受訪 還原 真相 馮當 晚確 現場 但 當晚 後 就 沒見 到 馮到 現場 關心還 一度 失聯 找 不到 人談 相關後續 事宜 李 四川 今 11 日 接受 媒體 人王 淺秋廣播 專訪 千秋 萬事談 基泰 建設 董事 長 陳 世銘 昨 10 日快 閃離 開會 一事 直言 碰到 問題 只能 面對 不能逃避 至於 基泰 總經理 馮勉聲 稱 一直 現場 李 四川 則還 原事 發當天 7 日 晚間 抵達 現場 後 一直 處理 救災 灌水 任務 最後因 灌水 速度 不 搶 救 他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去 李 四川 當時 就 疑惑 詢問 工地 主任 「 這麼 大 事情 們 負責人 沒 現場 只 一個 主任 這 」 而 工地 主任 才 回應 「 我們 總經理 站 旁 邊邊 」 李聲 稱 當下 自己 不 認識 馮且 之 後 沒見 到 馮 直至 9 日救災 告一段落 需談 安置 時尋找 基泰 建設 祕 書要 馮來 談 一談 結果 馮 卻 沒接 電話連 祕 書 找 不到 馮他 才 會 媒體 前 嚴厲 譴責 基泰 李 四川 回憶 說 道 直至 10 日 上午 才 聯 繫 到 馮 勉 雙 方 約 好 9 時 30 分到 台北市 政府 開會會 同 法制局 後 達 成後續 3 點承諾王 淺秋詢 問發 事故 當晚 工地 主任 介紹 馮勉 後 馮無過 來 稍微 討論 一下 發什麼 事 還馮 就 旁邊 像 個 路 人 一樣 圍觀 李 四川 回應 馮勉 過來 打招呼 說 自己 總經理 但 沒談 任何 相關 事宜 李 四川 提當天 搶 救 緊急 過程 當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散 聽到 消防局 回報 工地 一直 傳出 「 啪啪 啪 」 聲音察覺 不妥 後 就 要求 立即 消防局 疏散 住民 同時 詢問 單號 住戶 對面 無 房子 間 隔 獲得 對 面還 一排 雙號 住戶 因此 當下 就 下令 對面 要 依法 全部 撤離 並請區 所 找到 實踐 大學行 安置 李 四川 當天 到 現場 約 22 時當時 單號棟 已 稍微 傾斜 但 未 沉下去 立即 要求 消防局 衛工處 水處 全部 灌水 看能 不能 讓 基地 平衡 不過 隨 「 啪啪 啪 」 間 隔 時間 越來 越短 他 就 要求 全部 站 旁邊 人 全部 快 疏散 李 表示 他 現場 約 40 分鐘後因 灌水 無法 讓 基地 平衡 眼睜睜 看著 房子 沉陷 垮掉 就 等同 連續 壁 全部 斷掉 緊急 改為 灌漿 處理 李 四川 提 退休 後 又 重新 回到 北市 府 工作 很多 市政 幾乎 都 不 陌不過 比較 麻煩 極端 氣候 響 市區 很多 側溝 設計 無法 承受 近來 豪 大雨 若 「 用 工程 技術 去 追 」 不斷 投入 資源 改善 怎樣 都 無法 追上 老天 給挑 戰舉 例豪 大雨 對 一些 老舊 低窪 社區 市府 要 想 辦法 減災 這他 回到 北市 府 任職 最大 考驗</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">先前 才 發生 竹北 天坑 事件   新竹市 和平路 20 巷今   21   天 下午 突然 出現 天坑   大約 有 一輛車 的 面積   根據 了解   在 天坑 旁有 一個 建案   目前 已經 挖 到 地下 三樓   新竹市 府 說明   今日 下午 13 時 35 分許   消防局 受理 和平路 出現 道路 地基 下陷 情形   消防局 派員到 場後發現 道路 有 明顯 傾斜   並伴 隨 瓦斯 異味   隨即 通報 都 發處   工務處   自來 水 公司   瓦斯 公司 等 單位 前來 搶 修及 勘查   市長 高虹安 隨後也親 自到 場關 心及 了解 狀況   聆 聽 周邊民眾 心聲   要求 廠商必 須 儘 速 完成 改善   並確 保 居民 居住 安全   市府 指出   現場 工地 依規 有施 打 預壘 樁 及 擋 水樁   工法 沒有 問題   疑似 是 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂   市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 有 無 傾斜 情形   如 有 民宅 開始 傾斜 情形   應 進行 預防性 撤離   另 已確 認自來 水破管 位置   並 完成 修 復 回填   將持續 觀察 是否 還有 造成 洩漏 情形   避免 地層 再次 下陷   市府 進 一步 指出   本案 因違 反建築法 第 63 條   都 發處 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各三萬元   並視後續 情況 再行 論處  </t>
+          <t>前才 發 竹北 天坑 事件 新竹市 平路 20 巷今 21 天 下午 突然 出現 天坑 大約 一輛 車面積 根據 了解 天坑 旁一個 建案 目前 已經 挖 到 地下 三樓 新竹市 府 說明 今日 下午 13 時 35 分許 消防局 受理 平路 出現 道路 地基 下陷 情形 消防局 派員到 場後發現 道路 明顯 傾斜 並伴 隨 瓦斯 異味 隨即 通報 都 發處 工務處 自來 水司 瓦斯 司等 單位 前來 搶修 勘查 市長 高虹安 隨後親 自到場 關心 了解 狀況 聆 聽 周邊民眾 心聲 要求 廠商必 須 儘 速 完成 改善 並確 保 居民 居住 安全 市府 指出 現場 工地 依規施 打 預壘 樁 擋 水樁 工法 沒 問題 疑似 基地 側開 挖 後 造成 基地 外側 道路 部 土壤 位移 連帶 造成 自來 水管 線 破裂 沖 刷 土壤 泥沙 後 再 造成 地層下陷 瓦斯 管線 破裂 市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無傾斜 情形 如 民宅 開始 傾斜 情形 應 進行 預防性 撤離 另 已確 認自來 水破管 位置 並 完成 修 復 回填 將持續 觀察還 造成 洩漏 情形 避免 地層 再次 下陷 市府 進 一步 指出 本案 因違 反建築法 第 63 條都 發處 依建築法 89 條 勒令停工 並針 對 起造 人 承造 人 監造 人 進行 裁罰 各三萬元 並視後續 情況 再行 論處</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">新竹市 和平路 20 巷 昨 下午 驚見 「 天坑 」   市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 也 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   也 希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 也 認為   未來須 全面 將 瓦斯 及 自來 水管 線 更新   同時須 在 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 及 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 有 無 傾斜 情形   後 續 也 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  </t>
+          <t>新竹市 平路 20 巷 昨 下午 驚見 「 天坑 」 市府 獲報 到 場確 認平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線 瓦斯 管線 洩漏 導致 地層下陷 多名 民代 要求 強化 安全 檢測 市長 高虹安 昨 要求 建商務必 盡速 完成 改善 市府 並 勒令 承造 人 立即 停工 依法 裁處 改善 完成 無虞 才能 復工 市府 表示 昨 下午 13 時 35 分多 消防局 受理 平路 出現 道路 地基 下陷 還伴 隨 瓦斯 異味 相關 單位 都 獲報 搶 修 由 於 近期 接連發 竹北 天坑 基泰 大直 工地 事故 平 路 附近 居民 人心惶惶 時代 力量 立委 邱顯智 市議 員林 彥甫 說 要求 建商確 保相關 支撐 才能 復工 希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次 國民 黨市 議員黃 美慧 認為 未來須 全面 將 瓦斯 自來 水管 線 更新 同時須 工地 周邊 建築安裝 警示 裝置 確保 居民 安全 市府 指出 該 建案 工地 下 挖 到 地下 3 樓 依規施 打 預壘 樁 擋 水樁 但 疑似 為 基地 側開 挖 後 造成 基地 外側 道路 部 土壤 位移 連帶 造成 自來 水管 線 破裂 沖 刷 土壤 泥沙 後 再 造成 地層下陷 瓦斯 管線 破裂 市府 指出 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無傾斜 情形 後 續 將持續 觀察 自來 水管 還 造成 洩漏 由 於 施工 造成 地層下陷 都 發處將 依建築法 89 條 勒令停工 並針 對 起造 人 承造 人 監造 人 進行 裁罰 各 3 萬元 並視後續 情況 再行 論處</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 內 有 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂 「 整夜 睡不著 」   民代質疑 工法 有 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 的 灌漿 作業   自來 水 公司 今天 也 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 也 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 的 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 有 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 的 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 的 住 戶 約 20 多戶   居民 無奈 「 不敢 休息 」   也 擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   也 希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」   今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 凹陷 面積 約 1 見方 雖然 緊急 灌漿 回填 但 今天 又 發現 巷 另 處 凹陷 下沉 由 於 一旁 不到 3 緊鄰 20 多戶 住戶 引發 住戶 擔憂 「 整夜 睡不著 」 民代質疑 工法 問題 未來 恐繼續 塌陷 市府 都 發處 指出 昨天 已 勒令 建案 停工 裁罰並 要求 廠商 進行 加固 支撐 灌漿 作業 自來 水司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線之後將 觀察 管線 狀況 再 重鋪 路面 現場 將加裝 傾斜儀 24 小時 檢測 預警 以確 保住 戶 安全 為 最大 前提 據 了解 該 建案 基地 正下 挖 到 地下 3 層頻 繁重 車進 出前 就 人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫 昨天 則開始 出現 道路 地層下陷 還伴 隨 瓦斯 異味 讓 周邊 住戶 相當 害怕 就 怕 上演 基泰 大直 工地 事件 竹 市府 指出 地層下陷 疑似 為 建案 基地 側開 挖 後 造成 基地 外側 道路 部 土壤 位移 連帶 造成 自來 水管 線 破裂 沖 刷 土壤 泥沙 後 再 造成 地層下陷 瓦斯 管線 破裂 市議員陳慶齡 熟悉 建築 營造 工程 他 說 該 建案工 地位 於 沙地 正下 挖 地下室 懷疑 打 基樁 過程 不夠 密實 導致 基地 旁 道路 沙土 不斷 流失 流進 地下室 才 會 造成 道路 沈陷 如果 沒 妥善 處理 未來 還會發 道路 沈陷 可能 平路 20 巷住 戶 約 20 多戶 居民 無奈 「 不敢 休息 」 擔心 瓦斯 味 很 重萬一 爆炸 怎麼 辦 平常 只 兩 老住 這 而已 半夜 已經 沒法 入睡 眼看 住家 旁建案 工地 才 剛蓋 未來 至少 還要 辛苦 兩 三年 希望 好 偵測事 預防則 出事 就 麻煩 了 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 今天 還另處 塌陷 張裕珍 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 雖然 已經 回填 但 仍 可見 到 住家 前方 裂縫 張裕珍 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 雖然 已經 回填 但 仍 可見 到 住家 前方 裂縫 張裕珍 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 今天 還另處 塌陷 張裕珍</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 有 他 處 下陷   建物 傾斜計 監測 數值 也 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 的 老舊 自來 水塑膠 管線   市長 高虹安 下午 也 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 的 巷弄 道路 下陷   由 於 一旁 的 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 也 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   在 前天 發生 和平路 20 巷 「 天坑 」 事件 後   建商 取得 住戶 同意 在 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 的 警戒 值   由 於 和平路 20 巷 仍 有 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 的 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 也 流入 基地       由 於 和平路 20 巷內 約 有 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   也 盼 建商 同步 處理 好 地基       「 各項 資訊要 更 透明   讓 住 戶們 安心   」 楊姓 住戶 說   他 在 巷 內 住 了 20 年   其他 老住 戶 有 的 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   也 希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 也 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 也 自行 組成 應變 中心   應變 中心 代表 也 允諾   已經 協調 明天 自來 水 公司 進場 換管   在 加派 人力 前   後 分頭 施工 的 情形 下   能 在 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 的 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 的 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 也 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 也 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 的 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 還自來 水洩漏 瓦斯 異味 飄散 情形 引起 住戶 疑慮 雖然 天坑 處緊 急 回填 但 仍 持續 他 處 下陷 建物 傾斜計 監測 數值 逼近 警戒 值自來 水司將 於 明天 起汰換 上百 老舊 自來 水塑膠 管線 市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形 新竹市 平路 該 建案 工地 規畫 地上 14 層 地下 3 層 建物 正下 挖 地下 3 層未料 前天 竟釀 緊鄰 巷弄 道路 下陷 由 於 一旁 住家 距離 建案 基地 只 3 將近 40 戶住 戶 相當 擔憂 市府 今天下午 請來 4 大技師會 到場 了解 確認 工地 與 道路 下陷 情形 據 了解 前天 發平路 20 巷 「 天坑 」 事件 後 建商 取得 住戶 同意 20 巷前 中後段 設置 建物 傾斜計 監測 傾斜 情形 今天 最新 測得 最大值 每秒 387 已經 接近 每秒 413 警戒 值 由 於 平路 20 巷 仍 道路 下陷 漏水 情形 今天 緊急 加裝 關水閥 處理 建案 營造 商工 務經理 黃 姓 經理 說 建案 地質 為 砂質 帶 土下 挖 施工 採鑽掘 方式 進行 強度 類似 連續 壁 工法 但蔽 體開 挖 壓力 造成 基地 外側 道路 部 土壤 位移 加上 巷老舊 自來 水管 線 破裂 漏水 導致 土壤 泥沙 流失 進而 造成 地層下陷 水 流入 基地 由 於 平路 20 巷約 340 戶 民宅 民富 里里長 沈朝旺 說 住 戶 都 擔心 房子 會 塌陷 不要 等到 真正 傾斜 就 來 不了 希望 相關 單位 告監測 數據並 加快 自來 水 與 瓦斯 管線汰換 自來 水司 明天 將進場 開 挖汰換 鑄鐵管 盼 建商 同步 處理 好 地基 「 各項 資訊要 更 透明 讓 住 戶們 安心 」 楊姓 住戶 說 他 巷 住 了 20 年 其他 老住 戶 更 住 了 40 多年 大家 都 擔心 道路 下陷 擴大 希望 檢測 資訊 更加 透明 因為 他們 肉眼 看不到 傾斜 程度 很 需要 科技 儀器 來 幫忙 監測 數據 要 開 讓 住 戶 都 了解 由 於 建案 工地 旁不斷 道路 下陷 建案 自行 組成 應變 中心 應變 中心 代表 允諾 已 經協調 明天 自來 水司 進場 換管 加派 人力 前後分頭 施工 情形 下能 7 天汰管 完成 預計 10 月初 再換 瓦斯 管線 若 傾斜計 監測 到 了 警戒 值將 安置 住戶 入住 旅館 新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 市府 今天 邀集 技師會 進入 工地 會勘 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 造成 緊鄰 平路 20 巷道 路 下陷 明天 將進 場汰換 老舊 自來 水管 線 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 造成 緊鄰 平路 20 巷道 路 下陷 市府 今天 設置 前進 指揮 所 市長 高虹安 下午 到場 了解 應變 情形 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 市府 今天 邀集 技師會 進入 工地 會勘 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 造成 緊鄰 平路 20 巷道 路 下陷 市府 今天 設置 前進 指揮 所 市長 高虹安 下午 到場 了解 應變 情形 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 市府 今天 邀集 技師會 進入 工地 會勘 張裕珍</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於 「 天坑 」 填平 後   今天 又 有 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 的 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 的 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 的 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 也 會 同 土木 技師 等 四大 專業 技師 公會 及 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 在 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 的 自動 傾斜 偵測 設備 的 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 做 準備       明天 開始 的 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 的 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 也 說   在 確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 的 衝擊 降到 最低       高虹安說   今天 在 現場 也 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 的 靠山   不僅會 要求 廠商 負起 責任   在 完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 的 其他 工程   新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 在 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設 「 筑光 」 建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 在 搶 修處理   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 平 路竹 慶建設 「 筑光 」 建案 工地 下 挖 地下室 未料 前天 發 基地 旁 道路 下方 自來 水管 線 瓦斯 管線 洩漏 連帶 造成 平路 20 巷 地層下陷 由 於 「 天坑 」 填平 後 今天 又 他 處 塌陷 竹 市府 下午 成立 前進 指揮 所 市長 高虹安 提出 8 點 指示 包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時回 報確 保當 地 安全 平路 該 建案 工地 規畫 地上 14 層 地下 3 層 建物 正下 挖 地下 3 層 前天 竟釀 緊鄰 巷弄 道路 下陷 後 被 市府 勒令停工 不過 因為 一旁 住家 距離 建案 基地 只 3 將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂 市府 今天下午 請來 4 大技師會 到場 會勘 高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所並 要求 廠商 與 消防局 警察局 都 發處 民政 處產發 處區 所 立即 派員進 駐 下午 4 點半高虹 安會同 土木 技師 等 四大 專業 技師會 民富 里 沈朝 旺里長 聽取 簡報並 了解 居民 訴求 高虹安 今晚 臉書 發文 說 明針 對 此案 已下 達 8 項 指示 包含 責成 消防局 工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 司 明天 立即 進場 全面 開 挖汰 換成 最新 管線 因無法 同 時汰換 兩種 管線將 依序 後 汰 換自來 水 與 瓦斯 管線 由 於 傾斜計 監測 數值 逼近 警戒 值高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報 要求 消防局 會同 民政 處 社會處 研擬 若事態 進 一步 擴大時 緊急 撤離 與 安置 措施 並預 準備 明天 開始 於 管線汰換 與 相關 改善 工程 期間 要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用 要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛 竹光 國民 運動 中心 免費 開放 居民 盥洗 使用 高虹安說 確認 改善 完成 前 要求 災害 應變 前進 指揮 所 全天候 開設 隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題 於 管線汰換 與 相關 改善 工程 期間 要求 警察局 好 周邊 交通管制 確保 對 當地 交通 衝擊 降到 最低 高虹安說 今天 現場 與 當地 居民 溝通 與 聆 聽 心聲並 一一 錄 要求 廠商 與 局處 盡 全力 處理 強調 市府 團隊 一定 各位 最大 靠山 不僅會 要求 廠商 負起 責任 完成 改善 並經 確認 安全 無虞 之前 不得 進行 除了 安全工程 以外 其他 工程 新竹市 平 路竹 慶建設 「 筑光 」 建案 工地 旁平路 20 巷 地層下陷 連日來 都 搶 修處理 張裕珍 新竹 市長 高虹安 今天下午 到 平路 20 巷 了解 居民 心聲 圖竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況 圖竹 市府 提供 新竹市 平 路竹 慶建設 「 筑光 」 建案 工地 旁平路 20 巷 地層下陷 連日來 都 搶 修處理 張裕珍</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設 新建 案 「 基泰 大直 」 日前 因 施工 不慎   導致 台北市 中山 區 大直 街鄰 近 民宅 傾斜 倒塌   甚至 發生 建物 下陷 情形   北市 府上 月 26 日 進行 拆除 下陷 建物 作業   本月 1 日 進行 單號 受災屋 拆除 工作   不過 民代今   17 日   在 臉書 爆料   週邊 雙號 受災戶 的 惡夢還 沒有 結束   15 日竟 出現 房子 撕裂   碎石 掉落 聲   且門外 溝壁 有 破裂 下陷 情形   經 會勘 確認 「 下陷 累積 7 公分 」   台北市 議員陳怡 君今 稍早 在 臉書上 透露   大直 街 5 民宅 危樓 已經 拆除   但 對面 的 雙號棟 卻 在 上 週日   15 日     某住 戶 聽聞 房子 撕裂   碎石 掉落 聲   且門外 溝壁 有 破裂 下陷 的 情形   經現場 會勘 後 確認 「 累積 下陷 約 7 公分 」   陳 怡君 表示   雖結構 技師 現場 判定 無 立即 性 危險   該 狀況 為 「 地面 下 無 地基   對面 單號 拆 危樓 」 所導致 地下 土壤 遭擾動   因此 下陷   她 強調   雖 判定 暫無 立即 性 危險   建管處 也 多 設點 觀察   但 還是 讓 民眾 住 得 心驚膽 跳   陳 怡君 無奈   認為 基泰 建設 不 只是 造成 重災戶 無家 可 歸   也 讓 鄰房 住 得 不安 穩   雖然 市府 還在 統計 周遭 鄰房 是否 同意 公辦 都 更   但 不能 避免 的 是 在 公辦 都 更 前   民眾 仍 隨時 處 於 驚 恐狀態   下雨 地震 及 再次 施工 都 讓 鄰近 住戶 感到 恐慌   無法 安心 入住   陳 怡君 指出   因為 雙號 建物 有 下陷 狀況   溝壁 也 破損 不堪   而 基泰 旁邊 正在 施工 的 其他 建案 基地   也 令民眾 害怕 房子 不堪 一擊   再次 嚴重 損鄰   陳 怡君 提出 問題   在 損鄰 報告   房屋 安全 鑑定   以及 透地雷達 出來 前   鄰近 工地 施工   若 再次 造成 民房 受損   恐怕 更難 釐 清損 鄰責任  </t>
+          <t>基泰 建設 新建 案 「 基泰 大直 」 日前 因 施工 不慎 導致 台北市 中山區 大直街 鄰近 民宅 傾斜 倒塌 甚至 發 建物 下陷 情形 北市 府上 月 26 日 進行 拆除 下陷 建物 作業 本月 1 日 進行 單號 受災屋 拆除 工作 不過 民代今 17 日 臉書 爆料 週邊 雙號 受災戶 惡夢還 沒 結束 15 日竟 出現 房子 撕裂 碎石 掉落 聲且 門外 溝壁 破裂 下陷 情形 經 會勘 確認 「 下陷 累積 7 分 」 台北市 議員陳怡 君今 稍早 臉書上 透露 大直街 5 民宅 危樓 已經 拆除 但 對面 雙號棟 卻 上 週日 15 日 某 住戶 聽聞 房子 撕裂 碎石 掉落 聲且 門外 溝壁 破裂 下陷 情形 經現場 會勘 後 確認 「 累積 下陷 約 7 分 」 陳 怡君 表示 雖結構 技師 現場 判定 無 立即 性 危險 該 狀況 為 「 地面 下 無 地基 對面 單號 拆 危樓 」 所導致 地下 土壤 遭擾動 因此 下陷 強調 雖 判定 暫無 立即 性 危險 建管處 多 設點 觀察 但 還讓 民眾 住 得 心驚膽 跳陳怡 君無奈 認為 基泰 建設 不只 造成 重災戶 無家 可 歸 讓 鄰房 住 得 不安 穩 雖然 市府 還統計 周遭 鄰房 同意 辦 都 更 但 不能 避免 辦 都 更 前民眾 仍 隨時 處 於 驚 恐狀態 下雨 地震 再次 施工 都 讓 鄰近 住戶 感到 恐慌 無法 安心 入住 陳 怡君 指出 因為 雙號 建物 下陷 狀況 溝壁 破損 不堪 而 基泰 旁邊 正 施工 其他 建案 基地 令民眾 害怕 房子 不堪 一擊 再次 嚴重 損鄰 陳 怡君 提出 問題 損鄰 報告 房屋 安全 鑑定 以 透地雷達 出來 前 鄰近 工地 施工 若 再次 造成 民房 受損 恐怕 更難 釐 清損 鄰責任</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>捷運 萬大線 第一期 工程 預計 2025 年 完工   施工 路線 為 中 和   土城 交通要道   讓 原 交通 更塞   而 LG06 土建工程 圍籬 原定 今年 12 月 31 日 拆除   卻 將延長 3 年 才 要 拆除   恐將 影響 拉長   另有 議員 發現   萬大線 施工 造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂 等 鄰損   要求 新北 捷運局 加速 處理   新北 捷運局 表示   已 邀北捷局   里長 及民眾 現場 說明   目前 並無 地層下陷 問題       市議員陳錦錠 表示   新北 中和區 連城路 因捷 運萬大線 施工   造成 尖峰 時刻 壅塞   且 第一期 LG06 土建工程 圍籬 原定 年底 拆除   卻 延長 三年 後 才 要 拆除   再 加上 萬大線 施工   造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂   磁磚 破損 等 鄰損   新北 捷運局 應 盡快 提出 改善 方案   避免 鄰損 擴大   確 保民 眾 居住 安全                             對此   新北 捷運局 表示   萬大中 和 線 目前 計畫 進度 達 7 成   為紓解 施工 交通 瓶頸   台北 捷局 已 於 今年 8 月底 開放 施工 時封閉 的 連城路 北向 右轉 中正路 專用 車道   預計 明年初 陸續 展開 道路 回填 復 舊 作業   逐步 縮 減圍 籬範圍   緩解 壅塞 情形       至於 鄰損 部分   新北 捷運局 表示   9 月 28 日 邀北捷局   里長 及民眾 現場 說明   關於 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   現場 立刻 要求 廠商 當天 下午 進場 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 的 部分   北捷 也 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   「 後 續若涉 鄰損 鑑定   北捷局 已承諾將 依相關 規定 辦理   目前 並沒有 地層下陷 的 問題 」       新北 捷運局 長 李政安 表示   會 要求 北捷 局縮 短 工程   不能 任意 延長   新北 捷運 局局 另 指出   LG06 中 和 站   連城路 75 巷   為 捷運 出入口 B 暨 聯合開 發基礎 共構 工程   屬契約後續 變更 擴充 工作   因開 工時程 較 晚   且位 於 路側   並不影響 連城路 道路 回填 復 舊 期程   也 不會 造成 交通 壅塞 狀況   萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 新北 捷運局 9 月 28 日 邀北捷局   里長 及民眾 現場 說明   巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   已 要求 廠商 當天 下午 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 的 部分   北捷 也 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   圖 ／ 新北 捷運局 提供 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 住家 出現 地面 出現 高低 落差   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 約 60 戶 民宅 出現 地面 出現 高低 落差   牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供</t>
+          <t>捷運 萬大線 第一期 工程 預計 2025 年 完工 施工 路線 為 中 土城 交通要道 讓 原 交通 更塞 而 LG06 土建工程 圍籬 原定 今年 12 月 31 日 拆除 卻 將延長 3 年 才 要 拆除 恐將 響拉長 另 議員 發現 萬大線 施工 造成 約 60 戶 民宅 出現 地層下陷 牆面 龜裂 等 鄰損 要求 新北 捷運局 加速 處理 新北 捷運局 表示 已 邀北捷 局里 長 民眾 現場 說明 目前 並無 地層下陷 問題 市議員陳錦錠 表示 新北 中區 連城路 因捷 運萬大線 施工 造成 尖峰 時刻 壅塞 且 第一期 LG06 土建工程 圍籬 原定 年底 拆除 卻 延長 三年 後 才 要 拆除 再 加上 萬大線 施工 造成 約 60 戶 民宅 出現 地層下陷 牆面 龜裂 磁磚 破損 等 鄰損 新北 捷運局 應 盡快 提出 改善 方案 避免 鄰損 擴大確 保民 眾 居住 安全 對此 新北 捷運局 表示 萬大中線 目前 計畫 進度 達 7 成為 紓 解 施工 交通 瓶頸 台北 捷局 已 於 今年 8 月底 開放 施工 時封閉 連城路 北向 右轉 中正路 專用 車道 預計 明年初 陸續 展開 道路 回填 復 舊 作業 逐步 縮 減圍 籬範圍 緩解 壅塞 情形 至於 鄰損 部分 新北 捷運局 表示 9 月 28 日 邀北捷 局里 長 民眾 現場 說 明關 於 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良 現場 立刻 要求 廠商 當天 下午 進場 處理 另 住戶 反應門 窗磁磚 不易 正常 使用 部分 北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理 「 後 續若涉 鄰損 鑑定 北捷局 已承諾將 依相關 規定 辦理 目前 並沒 地層下陷 問題 」 新北 捷運局 長 李政安 表示 會 要求 北捷 局縮 短 工程 不能 任意 延長 新北 捷運 局局 另 指出 LG06 中站 連城路 75 巷為 捷運 出入口 B 暨 聯合開 發基礎 共構 工程 屬契約後續 變更 擴充 工作 因開 工時程 較 晚且 位 於 路側 並不響 連城路 道路 回填 復 舊 期程 不會 造成 交通 壅塞 狀況 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂 磁磚 破損 等 鄰 損圖 陳 錦錠 服務處 提供 新北 捷運局 9 月 28 日 邀北捷 局里 長 民眾 現場 說明 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良 已 要求 廠商 當天 下午 處理 另 住戶 反應門 窗磁磚 不易 正常 使用 部分 北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理圖 新北 捷運局 提供 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂 磁磚 破損 等 鄰 損圖 陳 錦錠 服務處 提供 民眾 反映 萬大線 施工 造成 住家 出現 地面 出現 高低 落差 圖陳錦錠 服務處 提供 民眾 反映 萬大線 施工 造成 約 60 戶 民宅 出現 地面 出現 高低 落差 牆面 龜裂 磁磚 破損 等 鄰 損圖 陳 錦錠 服務處 提供</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">捷運 萬大線 目前 整體 施工 進度 已近 七成   台北市 捷運局 表示   如火如荼 趲 趕中 的 中 和 站 地下 段 工程   均 依照 規定 施工 及 定期 監測   目前 沒有 地層下陷 的 問題   捷運局 也 將依 施工 情形 逐步 縮 減圍 籬範圍   以 緩解 交通 壅塞       負責 施工 的 台北市 捷運局 一工處 說明   日前 接獲 施工 路段 住戶 反映 有 牆面 龜裂   磁磚 破損 等 情形   已 於 今年 9 月 28 日 前往 會勘 並向 住戶 說明   一工處 說   已 了解 建物 的 狀況   將依 會勘 共識 積極 與 住戶 協調 處理   並將 責成 施工 廠 商 儘 可能 以敦親 睦 鄰協助 修繕   後 續 若 涉及 需鄰 損鑑定   將 按照 規定 辦理後續                             一工 處進 一步 指出   近年 因受 疫情 及 整體 營造 環境 不佳 的 影響   致使 中 和 站 需 延至 2024 年 6 月 開始 進行 道路 中間 段 回填 及 管線 復 舊   但 一工 處將 滾動式 檢討 工序   儘 可能 提早 完成 道路 復 舊 還路 於 民   以 減少 對民眾 及 周邊 交通 的 影響  </t>
+          <t>捷運 萬大線 目前 整體 施工 進度 已近 七成 台北市 捷運局 表示 如火如荼 趲 趕中 中站 地下 段 工程 均 依照 規定 施工 定期 監測 目前 沒 地層下陷 問題 捷運局 將依 施工 情形 逐步 縮 減圍 籬範圍 以 緩解 交通 壅塞 負責 施工 台北市 捷運局 一工處 說 明日 前接 獲 施工 路段 住戶 反映 牆面 龜裂 磁磚 破損 等 情形 已 於 今年 9 月 28 日 前往 會勘 並向 住戶 說明 一工處 說 已 了解 建物 狀況 將依 會勘 共識 積極 與 住戶 協調 處理 並將 責成 施工 廠 商 儘 可能 以敦親 睦 鄰協助 修 繕後續 若涉 需鄰 損鑑 定將 按照 規定 辦理後續 一工 處進 一步 指出 近年 因受 疫情 整體 營造 環境 不佳響 致使 中站 需 延至 2024 年 6 月 開始 進行 道路 中間 段 回填 管線 復 舊 但 一工 處將 滾動式 檢討 工序 儘 可能 提早 完成 道路 復 舊 還路 於 民以 減少 對民眾 周邊 交通 響</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>記者 楊 金城 ／ 專題 報導   金門 酒廠 去年 起 在 台 契作 國產 高粱 三年 計畫   緣起 「 喝 高粱 救高鐵 」 往事   其中 學甲區 農會 與 金酒 合作 在 一期 作 推廣契作 高粱   去年 首年 栽種 四四 ○ 公頃   今年 八 ○ 一公頃   明年 目標 一千 公頃   成為 全台 最大 國產 高粱 產區     金酒 ︰ 種 多少 收 多少   台南市 學甲區 農會 總幹事 李曉軍說   金酒 在 台 契作 國產 高粱 計畫   一開始 即 希望 在 高鐵 沿線 縣市 推廣   節省 水源   減緩 地層下陷 問題   金酒 總經理 丁丞康 說   契作 高粱 的 收 購價 高出 進口 高粱 甚 多   但 為 了 扶植 國產 高粱 也 為 了 減少 碳排   「 契作 高粱 只要 品質夠   種 多少   收 多少   」   依農業部 農糧署 資料   今年 第二年 在 台南 學甲   鹽水   新營   後 壁   雲林 土庫   斗南   嘉義 義竹   桃園 新屋 和 苗栗縣 苑里   新竹縣 等 地契 作種 植 高粱   一期 作 和 二期 作合計 栽種 二 一 二七 公頃     學甲區 去年 四月 栽種 高粱 的 祈福 典禮   與 會 的 前 金門縣 長 楊鎮 浯 說   抗旱 的 高粱 一公頃 可節 水 一萬公噸   換算 一瓶 高粱酒 可節 水 三 ． 五公噸   在 雲嘉 推廣種 植 高粱   可 減緩 抽取 地下水   「 喝 高粱 也 可以 救高鐵 」   妙寓 推廣 高粱 有助 紓 緩 地層下陷 問題     減少 進口   提高 國產 自足 率   李曉軍回憶   陳 吉仲在 農委會主 委任 內帶 著 幾家 農會 直接 到 金門 洽談   才 開啟 金酒 在 台 契作 三年 計畫   除了 提高 國產 高粱 自足 率   減少 金酒 從 中國   南美洲 進口 高粱 依賴   提高 農民 收入   並 配合 農業 政策 推廣節 水 的 高粱     金酒 首年 以 契作 高粱 生產 超過 三萬瓶 「 一 穀 作契 」 金高 銷售 一空   明年 第三年 在 台 至少 契作 三 ○ ○ ○ 公頃 高粱   李曉軍說   和 金酒 合作 的 基層 農會 計畫 組團 再 到 金門 提前 洽談後續 契作 計畫   並 希望 爭取 契作 價格 一 公斤 廿一 元 再 提高     在 台 契作 釀酒 用 高粱 新品 種為 「 台南 七號 」   「 台南 八號 」 純 糯 高粱   是 農業部 台南 區農業 改良 場在 二 ○ 一 九年 育成   後經 二年 試種 和 金酒 試釀   因風味佳   出酒率 高   同時 具有 耐旱   耐淹   抗病 蟲害 等 優點   成為 政府 鼓勵 稻田 區域 轉作 選項     農糧署 補貼   提高 契作 誘因   因農民種 稻 收益 高於種 高粱   為 提高 農民參 與 契作 高粱 誘因   農糧署 提供 補貼 轉作 獎勵 每公頃 四 ． 五萬元 綠色 環境 給付   參與 小地主 的 大 專業農 每公頃 額外 獎勵 一萬元   並補助 購置 機具 設備 及 低利 貸款   在 雜糧區 的 學甲   鹽水因 在 一期 作 推廣 高粱   二期 作再種 硬質 玉米   對 農民 划算     而 為 配合 雲林縣 嚴重 地層下陷區   虎尾 鎮   土庫鎮   元長 鄉 及 北港 鎮   高鐵 沿線 地層下陷 防治 作業   行政院 並 核定 今年 一期 作起 推動 「 雲林 高鐵 沿線 特區 推動 農田 轉旱 作物 專案 措施 」   活化 農地 多元 使用 又 能 節水     〈 飲酒 過量   有礙 健康 〉</t>
+          <t>楊 金城 專題 報導 金門 酒廠 去年 起台 契作 國產 高粱 三年 計畫 緣起 「 喝 高粱 救高鐵 」 往事 其中 學甲區 農會 與 金酒 合作 一期 作 推廣契作 高粱 去年 首年 栽種 四四 頃 今年 八一 頃 明年 目標 一千 頃成 為 全台 最大 國產 高粱 產區 金酒 ︰ 種 多少 收 多少 台南市 學甲區 農會 總幹事 李曉軍說 金酒 台 契作 國產 高粱 計畫 一開始 即 希望 高鐵 沿線 縣市 推廣節 省 水源 減緩 地層下陷 問題 金酒 總經理 丁丞康 說 契作 高粱 收購價 高出 進口 高粱 甚多 但 為 了 扶植 國產 高粱 為 了 減少 碳排 「 契作 高粱 只要 品質 夠種 多少 收 多少 」 依農業部 農糧署 資料 今年 第二年 台南 學甲 鹽水 新營 後壁 雲林 土庫 斗南 嘉義 義竹 桃園 新屋 苗栗縣 苑里 新竹縣 等 地契 作種 植 高粱 一期 作 二期 作合計 栽種 二 一 二七 頃 學甲區 去年 四月 栽種 高粱 祈福 典禮 與 會 前 金門縣 長 楊鎮 浯 說 抗旱 高粱 一頃 可節 水 一萬噸 換算 一瓶 高粱酒 可節 水 三 ． 五噸 雲嘉 推廣種 植 高粱 可 減緩 抽取 地下水 「 喝 高粱 可以 救高鐵 」 妙寓 推廣 高粱 助紓緩 地層下陷 問題 減少 進口   提高 國產 自足 率 李曉軍回憶 陳 吉仲農委會主 委任 帶著 幾家 農會 直接 到 金門 洽談 才 開啟 金酒 台 契作 三年 計畫 除了 提高 國產 高粱 自足 率 減少 金酒 從 中國 南美洲 進口 高粱 依賴 提高 農民 收入 並 配合 農業 政策 推廣節 水 高粱 金酒 首年 以 契作 高粱 產超過 三萬瓶 「 一 穀 作契 」 金高 銷售 一 空明 年 第三年 台 至少 契作 三頃 高粱 李曉軍說 金酒 合作 基層 農會 計畫 組團 再 到 金門 提前 洽談後續 契作計 畫並 希望 爭取 契作 價格 一斤 廿一 元 再 提高 台契作 釀酒 用 高粱 新品 種為 「 台南 七號 」 「 台南 八號 」 純 糯 高粱 農業 部台 南區 農業 改良場 二一 九年 育成 後經 二年 試種 金酒 試釀 因風味佳出 酒率 高同 時具 耐旱 耐淹 抗病 蟲害 等 優點 成為 政府 鼓勵 稻田 區域 轉作 選項 農糧署 補貼   提高 契作 誘因 因 農民種 稻 收益 高於種 高粱 為 提高 農民參 與 契作 高粱 誘因 農糧署 提供 補貼 轉作 獎勵 每頃 四 ． 五萬元 綠色 環境 給付 參 與 小地主 大 專業農 每頃 額外 獎勵 一萬元 並補助 購置 機具 設備 低利 貸款 雜糧區 學甲 鹽水 因 一期 作 推廣 高粱 二期 作再種 硬質 玉米 對 農民 划算 而 為 配合 雲林縣 嚴重 地層下陷區 虎尾鎮 土庫鎮 元長鄉 北港鎮 高鐵 沿線 地層下陷 防治 作業 行政院 並 核定 今年 一期 作起 推動 「 雲林 高鐵 沿線 特區 推動 農田 轉旱 作物 專案 措施 」 活化 農地 多元 使用 又 能 節水 〈 飲酒 過量礙 健康 〉</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   也 是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 在 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 在 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 在 有 地下水 的 時候   不會 有 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 也 非常 快   不會 有 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 也 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 的 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   也 成為 高雄 地區 對 抗旱 象 的 關鍵 利器  </t>
+          <t>旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪 大 高雄 地區 民用 水主動脈 枯水期 間 地下水 主要 供水 區域 如何 永續 地下水 資源 當前 重要 課題 經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游 設置 地下水 補注區 112 年 已 設置 約 11 處 總計 460 頃評 估 一年 補注 將近 1400 萬噸 補 注量 地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤 讓 水流 受阻 流速 變慢 增加 滯水範圍 讓 更 多水 滲入 地下 當 抽取 完 地下水 後 透過 自然 入 滲補注 就 能 讓 地下水位 快速 回 復 平常 水位 以上 使 地下水 源 得以 永續 1960 年代 起 台灣 引進 地下水 鑿井技術 台灣 西 半部 沿海 養殖 漁業 盛行 大量 地超 抽 地下水 使得 地層下陷 海水倒灌 土壤 鹽化 等 問題 層出 不窮關 高雄 運用 地下水 資源會 造成 地層下陷 水利 署透 過長 期監 控出 釋疑 經濟部 水利 署 水文 技術 組科長 吳 明哲 表示 高屏溪 沿岸 屏東 平原 地下水 區 主要 以砂礫 石層 為 主礫石 跟 礫 石之間 顆粒 地下水 時候 不會 壓密行 為 地下水 一旦 下降 因顆 粒 與 顆粒 支撐 不會產 壓密 沉陷 另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗 模擬 高雄 地區 砂礫 石層 抽水 情況 證明 砂礫 石層 比較 不會 出現 地層下陷 民眾 不必 過度 擔心 經濟部 水利 署 南區 水資源局 副 局長 何達夫 說明 軟礫 石層 跟 粘土 層 不 一樣 粘土 層 抽水 後 會 下陷 但 軟礫 石層 一個 石頭 接著 一個 石頭 把 石頭間 水 抽掉 抽走 得 很快 補充 非常 快不會 地層下陷 問題 專家 強調 只要 不過度 超 抽 加上 嚴密 監測 就 不必 擔心 地層下陷 學呼籲 豐水期 應多加 利用 地下水 不僅 能夠 避免 水資源 浪費 還能夠 防洪 減災 高屏溪 擁豐沛 地下水 資源 從 鑿 井 取水 到 地下水 補注 不僅 讓 水資源 得以 永續 成為 高雄 地區 對 抗旱 象 關鍵 利器</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">順著 高屏溪 右岸 來 到 高雄 大樹區 的 九曲堂 工作站   從 空中 俯瞰 一個 個 用圍 欄圍 起 的 方形 區塊   排列 整齊   錯落 其中   靠近 一看 才 發現 這是 一根 根 打入 地底下 的 水管   稱為 抗旱 水井   高雄市 政府 水利局 表示   所謂 的 抗旱 水井 是 抽取 深層 地下水   從 地表 往下 150 米 深   透過 抽水 設備   將深層 地下水 經由 抗旱 水井 取出   相較 於 海淡廠   再生 水 等等   取水 更為 快速   成本 更 低   供水量 也 更 大 的 地下水   成為 抗旱 期間 的 關鍵 水源   類 似的 抗旱 水井 已 在 高雄 陸續 開鑿 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井 卻 讓 當地 農民相 當憂心   是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 的 深層 地下水   與 一般 深 20 到 40 公尺 間 淺層 地下水 的 農業 灌溉 井   含水 層 不同   且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產生 影響   水利局 局長 蔡長 展 指出   抗旱 水井 是備 援用 水   使用 時間 大約 在 每年 3 月 至 5 月   藉由 雨水 對 地下水 進行 補注   對 農業 灌溉 用水 不受 影響   根據 地下水位 監測 資料 顯示   112 年 1 月份 地下水位 高點 落 在 14 公尺   接著 隨著 枯水期 到 來   地下水位 在 5 月份 降到 了 大約 6 公尺   隨後迅 期到 來 開始 降雨   加上 高雄市 政府 與 水利 署 合作   推動 高屏溪 流域 河道 疏濬 補注 地下水 計畫   增加 地下水 量   使得 9 月份 地下水位 上升 到 16 公尺   足足 比 枯水期 高出 了 10 公尺   甚至 高 於 1 月份 水位   在 枯水期 嚴密 監控   視情況 抽用   在 豐水期 加強 地下水 補注   便 能夠 達 到 水資源 永續 發展 的 目標   經濟部 水利 署 副署 長 林元鵬 說明   高雄 地區 總 共有 11 口 的 觀測 水井   所有 水井 都 會 進行 管控   只要 是 有效 地去 管控 數據   地下水 在 高雄 地區 是 可以 當作 一個 安全 的 用水   在 嚴密監 控確 保不會 造成 地層下陷 及 影響 水源 保育 的 情況 之下   短期 備援 的 抗旱 水井 不僅成 了 抗旱 功臣   也 賦予 地下水 資源 更 多元 運用 的 可能  </t>
+          <t>順著 高屏溪 右岸 來 到 高雄 大樹區 九曲堂 工作站 從 空中 俯瞰 一個 個 用圍 欄圍 起 方形 區塊 排列 整齊 錯落 其中 靠近 一看 才 發現 這 一根 根 打入 地底下 水管 稱為 抗旱 水井 高雄市 政府 水利局 表示 所謂 抗旱 水井 抽取 深層 地下水 從 地表 往下 150 米 深透 過 抽水 設備 將深層 地下水 經由 抗旱 水井 取出 相較 於 海淡廠 再 水 等等 取水 更為 快速 成本 更 低 供水量 更大 地下水 成為 抗旱 期間 關鍵 水源 類似 抗旱 水井 已 高雄 陸續 開鑿 110 座 每日 供水量 將近 35 萬噸 雖然 穩定 水情 但 大規模 鑿 井 卻 讓 當地 農民相 當憂 心會 剝奪 農業 用水 對此 專家 解釋 抗旱 水井 取用 深度 達 100 到 150 深層 地下水 與 一般 深 20 到 40 間 淺層 地下水 農業 灌溉 井 含水 層 不同 且 兩間 還阻 水層 相互 阻隔 因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產響 水利局 局長 蔡長 展 指出 抗旱 水井 備 援用 水 使用 時間 大約 每年 3 月 至 5 月 藉由 雨水 對 地下水 進行 補注 對 農業 灌溉 用水 不 受響 根據 地下水位 監測 資料 顯示 112 年 1 月份 地下水位 高點 落 14 接著 隨著 枯水期 到 來 地下水位 5 月份 降到 了 大約 6 隨後迅 期到 來 開始 降雨 加上 高雄市 政府 與 水利 署 合作 推動 高屏溪 流域 河道 疏濬 補注 地下水 計畫 增加 地下水 量 使得 9 月份 地下水位 上升 到 16 足足 比 枯水期 高出 了 10 甚至 高 於 1 月份 水位 枯水期 嚴密監 控視 情況 抽用 豐水期 加強 地下水 補注 能夠 達 到 水資源 永續 發展 目標 經濟部 水利 署 副署 長 林元鵬 說明 高雄 地區 總共 11 口觀測 水井 所 水井 都 會 進行 管控 只要 效地 去 管控 數據 地下水 高雄 地區 可以 當作 一個 安全 用水 嚴密監 控確 保不會 造成 地層下陷 響 水源 保育 情況 之下 短期 備援 抗旱 水井 不僅成 了 抗旱 功臣 賦予 地下水 資源 更 多元 運用 可能</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">越南 正在 加強 監管 開採 砂石   雖然 這可 說 是 全世界 最常 被 使用 的 一項 資源   但 若 濫採   可能 導致 水土流失   地層下陷 和 房屋 倒塌 等 災難       日經 新聞 報導   越南政府 官網 12 日 公告   總理范 明政 已 指示 五個 部會 和 多個 地方 政府   仔細 審視營 建業 的 礦物 開採   尤其 是 砂石   這種 大宗 商品 已成 為 一項 全球性 生意   可和水 混合 後 製 成 水泥   或是 用來 填海造地   越南 已 限制 砂石 的 出口                             在 越南 的 湄公河 三角洲 等 地區   盜採 砂石 已成 為 一種 比 氣候變遷 還要 嚴重 的 威脅   據 非營利 環保 組織 世界 自然 基金 會   WWF   最近 的 指標性 報告   湄公河 三角洲 的 砂石 可能 會 在 2035 年前 被 開 採殆 盡       越南政府 日前 已特別點 出河 內市 的 三樁 砂石 開採 招標 「 大眾 意見 特別 令人 擔憂 」   並在 官網 公告 中 表示   該市 應該 「 立即 重新 審視 調查 和 評估 砂石 存量 的 整個 流程 」   「 絕對 不准 組織 和 個 人 利用 管理 漏洞 賺取 暴利 」       范 明政 也 指示 環境部 調查 該 行業 活動 的 「 罕見 跡象 」   並 指示 安全部 「 嚴加 處置 違法行 為 」  </t>
+          <t>越南 正加強 監管 開採 砂石 雖然 這可說 全世界 最常 被 使用 一項 資源 但 若 濫採 可能 導致 水土流失 地層下陷 房屋 倒塌 等 災難 日 經新聞 報導 越南政府 官網 12 日告 總理范 明政 已 指示 五個 部會 多個 地方 政府 仔細 審視營 建業 礦物 開採 尤其 砂石 這種 大宗 商品 已成 為 一項 全球性 意可水 混合 後 製 成 水泥 或用 來 填海造地 越南 已 限制 砂石 出口 越南 湄河 三角洲 等 地區 盜採 砂石 已成 為 一種 比 氣候變遷 還要 嚴重 威脅 據 非營利 環保 組織 世界 自然 基金 會 WWF 最近 指標性 報告 湄河 三角洲 砂石 可能 會 2035 年前 被 開 採殆 盡 越南政府 日前 已特別 點出 河市 三樁 砂石 開採 招標 「 大眾 意見 特別 令人 擔憂 」 並官 網告 中 表示 該市 應該 「 立即 重新 審視 調查 評估 砂石 存量 整個 流程 」 「 絕對 不准 組織個 人 利用 管理 漏洞 賺取 暴利 」 范 明政 指示 環境部 調查 該 行業 活動 「 罕見 跡象 」 並 指示 安全部 「 嚴加 處置 違法行 為 」</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">義 大利 除了 比薩 斜塔 外   在 義 大利 北部 的 波隆 那 也 有 個 知名 的 「 波隆 那 雙塔 」   這兩座 塔 的 歷史 將近 一千年   而 其中 一座 較 低矮 的 塔   最近 幾年 被 發現 結構 愈來 愈 不 穩定   傾斜 角度 也 逐漸 變大   當局 已經 封鎖 附近 區域   並在網 路上 發起 募捐 活動   希望 各界 共同 來 拯救 這座 重要 的 歷史 建築 和 文化 資產   義 大利 的 波隆納 雙塔   右側 的 阿西 內利 塔高 97 公尺   左側 的 加里森 達 塔高 48 公尺   雙塔 在 波隆納 矗立 超過 900 年   如今 張貼 禁止 進入 的 告示   基座 也 被 圍起   且 其中 比較 低 的 加里森 達塔   被 專家 認定   很 有 可能 在 近期 內 倒塌   情況 相當 危急   波隆 那 市民 寶拉 表示   「 這座 塔 是 波隆 那 的 象 徵   如果 它 倒塌 了 那 真的 是 個 恥辱   因為 我們將 失去 這座 城市 最 重要 的 古 蹟 之一   」 14 世紀 發生 一次 地層下陷 後   加里森 達塔持續 傾斜   目前 斜度 已 超越 比薩 斜塔 0.1 度達 到 4 度   當局 曾 於 2020 年 執行 抗傾倒 計畫   但 問題 不但 沒 改善 甚至 還惡化   今年夏天 面臨 極端 高溫 加上 洪水 等 極端 天氣   讓 高塔 難以 承受   當局 展開 搶 救 加里森 達塔 大作 戰   在網 路上 發起 募款 活動   目標 是 籌到 一 億台幣 的 資金   希望 各界 一起 來 拯救 義 大利 重要 的 歷史 建築 和 文化 資產  </t>
+          <t>義 大利 除了 比薩 斜塔 外義 大利 北部 波隆個 知名 「 波隆 雙塔 」 這兩座 塔 歷史 將近 一千年 而 其中 一座 較 低矮 塔 最近 幾年 被 發現 結構 愈來 愈 不 穩定 傾斜 角度 逐漸 變大 當局 已經 封鎖 附近 區域 並網 路上 發起 募捐 活動 希望 各界 共同 來 拯救 這座 重要 歷史 建築 文化 資產義 大利 波隆納 雙塔右側 阿 西利 塔高 97 左側 加里森 達 塔高 48 雙塔波 隆納 矗立 超過 900 年 如今 張貼 禁止 進入 告示 基座 被圍 起且 其中 比較 低 加里森 達塔 被 專家 認定 很 可能 近期 倒塌 情況 相當 危急 波隆 市民 寶拉 表示 「 這座 塔波 隆象 徵 如果 它 倒塌 了 真個 恥辱 因為 我們將 失去 這座 城市 最 重要 古 蹟 之一 」 14 世紀發 一次 地層下陷 後 加里森 達塔持續 傾斜 目前 斜度 已 超越 比薩 斜塔 0.1 度達 到 4 度 當局 曾 於 2020 年 執行 抗傾倒 計畫 但 問題 不但 沒 改善 甚至 還惡化 今年夏天 面臨 極端 高溫 加上 洪水 等 極端 天氣 讓 高塔 難以 承受 當局 展開 搶 救 加里森 達塔 大作 戰網 路上 發起 募款 活動 目標 籌到 一 億台幣 資金 希望 各界 一起 來 拯救 義 大利 重要 歷史 建築 文化 資產</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 捷運 信義線 東延段 工程   疑似 造成 松山 家商 校舍 下陷 5 公分   引發 安全 疑慮   直擊 北市 福德街   有 住戶 反映   下陷 情況 相當 明顯   連房價 都 跌 了   對此 台北市 捷運局 表示   已 安排 台北市 結構 技師 公會 辦理 結構 安全 鑑定   同時 也 已針 對 周邊 建物 及 鄰房 損壞 的 部分   進行 立即 修繕 作業   台北 捷運 信義線 東延段 工程   2016 年 開工 至今   工程 目前 還在 進行 中   不過 近期 有 北市 議員接 獲民眾 陳 情   說 先前 的 開 挖 工程   釀成 鄰近 的 建物 塌陷   實際到 現場 一看   發現 原本 馬 路 是 平 的   但 塌陷 的 狀況 確實 越來 越 明顯   附近 住戶 說   「 對 啊   本來 都 是 平 的   這邊 全部 都 下陷   我 就 住 在 二樓   那個 球 很 明顯 從 這樣 滑下去 」   說 到 地層下陷   附近 住戶 超級 有感   北市 福德街 一旁 騎樓   明顯 受到 捷運開 挖 工程 影響   下陷 相當 嚴重   連住 戶 都 直呼 「 這裡 房價 都 跌 了 」   里長 更 指出   福德街 51 巷到 89 巷是 影響 最明顯 的 地方   附近 住戶 擔心 的 說   「 補 了 也 沒用   你 看 就 這樣   結構 已經 不行 了   除非 重建 」   對此 台北市 土木 技師 公會 理事 長 莊均緯 表示   「 通常 捷運 施工 比較 容易 下陷 的 部分   就 是非 結構體   像是 水溝   人行道   有 瓷磚 的 部分   要 做 安全 檢測   看 是否 有 造成 結構 上 的 問題 」   而 在 松山 家商 校舍 也 被 發現 有 下陷 狀況   議員 指出   經過 一年 的 監測   確認 已經 下陷 約 5 公分   安全 疑慮 浮上 檯 面   捷運 工程局 及 承包商   趕緊 進行 結構 補強   施作 地質 鑽 探作業   要 確認 校舍 的 承受能力   台北市 政府 捷運局 第二 工程 處 主任 陳 建仁則 表示   110 年 9 年 有 接到 學校 通報   有 監測 作業 進行 修繕   今年 暑假 陸續 修繕 完成   這個 月 也 做 安全 鑑定   兩個 月 後 就 有 安全 報告   而 台北 捷運局 表示   施工期 間 因為 極端 地質 及 水文 條件 不利   釀成 地下 土層 沉陷   目前 已經 安排 結構 安全 鑑定   並進行 立即 修繕   在 捷運 施工 的 周邊 建物   都 有安裝 建物 監測 儀器   按時 觀測 監控   研判 施工 是否 再 造成 影響  </t>
+          <t>台北 捷運 信義 線東 延段 工程 疑似 造成 松山 家商 校舍 下陷 5 分引發 安全 疑慮 直擊 北市 福德街 住戶 反映 下陷 情況 相當明 顯連 房價 都 跌 了 對 此 台北市 捷運局 表示 已 安排 台北市 結構 技師會 辦理 結構 安全 鑑定 同時 已針 對 周邊 建物 鄰房 損壞 部分 進行 立即 修繕 作業 台北 捷運 信義 線東 延段 工程 2016 年 開工 至今 工程 目前 還進行 中不過 近期 北市 議員接 獲民眾 陳 情說 前開 挖 工程 釀成 鄰近 建物 塌陷 實際到 現場 一看 發現 原本 馬 路平 但 塌陷 狀況 確實 越來 越 明顯 附近 住戶 說 「 對本來 都 平 這邊 全部 都 下陷 我 就 住 二樓 個 球 很 明顯 從 這樣 滑下去 」 說 到 地層下陷 附近 住戶 超級 感 北市 福德街 一旁 騎樓 明顯 受到 捷運開 挖 工程 響 下陷 相當 嚴重 連住 戶 都 直呼 「 這裡 房價 都 跌 了 」 里長 更 指出 福德街 51 巷到 89 巷響 最明顯 地方 附近 住戶 擔心 說 「 補 了 沒用 看 就 這樣 結構 已經 不行 了 除非 重建 」 對此 台北市 土木 技師會 理事 長 莊均緯 表示 「 通常 捷運 施工 比較 易 下陷 部分 就 非 結構 體像 水溝 人行道 瓷磚 部分 要 安全 檢測 看 造成 結構 上 問題 」 而 松山 家商 校舍 被 發現 下陷 狀況 議員 指出 經過 一年 監測 確認 已經 下陷 約 5 分 安全 疑慮 浮上 檯 面捷運 工程局 承包商 趕緊 進行 結構 補強 施作 地質 鑽 探作業 要 確認 校舍 承受能力 台北市 政府 捷運局 第二 工程 處 主任 陳 建仁則 表示 110 年 9 年 接到 學校 通報 監測 作業 進行 修繕 今年 暑假 陸續 修繕 完成 這個 月 安全 鑑定 兩個 月 後 就 安全 報告 而 台北 捷運局 表示 施工期 間 因為 極端 地質 水文 條件 不利 釀成 地下 土層 沉陷 目前 已經 安排 結構 安全 鑑定 並進行 立即 修繕 捷運 施工 周邊 建物 都 安裝 建物 監測 儀器 按時 觀測 監控 研判 施工 再 造成 響</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 的 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 的 集 水井 裡頭   有著 11 個 粗大 的 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 的 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 的 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 的 含水 層   以及 由細顆 粒 粘土 組成 的 阻水層   伏 流水 大約 落 在 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 在 的 救命 水   尤其 是 在 汛期 的 時候   它 非常 乾淨   外面 河川 裡面 的 濁度 甚至 於 飆到 10 萬個 NTU   那 根本 就 沒 有 辦法 做 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通 的   所以 伏 流水 就 可以 發揮 它 在 這段 時間 裡面 的 作用   所以 就 變成 所 說 的 救命 水   同樣 被 視為 救命 水源 的   還有 這 一根 根 打入 地底下 的 抗旱 水井   別 小看 這些 不起眼 的 水井   它們 可是 解決 高雄 缺水 危機 的 抗旱 英雄   類 似的 抗旱 水井   已經 在 3 年間 在 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 的 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 的 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 的 時間 大概 在 每年 的 3 月 到 5 月   到 了 下雨 的 時候   我們 就 沒 有 再 用   就是 藉由 下雨 的 時候   會 做 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 在 用 一些 農業 灌溉 用水   是 安全 的   神 祕 的 地下水 補注區   其實 就 隱身 在 高屏溪 的 河床 底下   從 空中 俯瞰   這些 不起眼 的 灰色 土石   全都 扮演 關鍵 角色   所謂 的 地下水 補注區   就是 利用 疏濬 的 砂石   在 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   也 使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   有 一些 礫石 跟 比 較 粗 的 沙子   所以 說 在 放釋 水 的 時候   它 比 較 不會產生 所謂 的 壓密 沉陷   因為 它 的 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 的 狀況   也 清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 的 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 也 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷 的   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 的 水 抽掉   它 抽走 得 很快   補充 也 非常 快   在 那個 地方 抽 地下水   是 不會 有 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 的 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  </t>
+          <t>2023 年 9 月 海葵 颱風 登陸前 南部 地區 一度 超過 600 天 沒 下雨 高雄 爆發 旱象 雖然 高雄 地表 缺水 但 地面 下 卻 蘊藏 豐富 水源 根據 統計 高雄 高達 8 成到 9 成備 援用 水 都 能 取自 地下水 伏 流水 但 大規模 鑿 井會 剝奪 農業 用水 甚至 造成 地層下陷 時序 來 到 年底 全 台 各地 開始 進入 枯水期 加上 氣候變遷 南北 降雨 不均 不少 人憂 心南 台灣 今年 會 再度 面臨 缺水 危機 幸好 高雄 地區 地表 之下 蘊藏 了 神 祕 巨大 水庫 靠 著伏 流水 資源度過 缺水 危機 高雄 大泉 伏 流水 取水 站徑 15 深 19 集 水井 裡頭 著 11 個 粗大 管線 負責 抽水 將伏 流水 運到 淨水廠 供 民用 水所謂 伏 流水 就 流動 或 儲存 河床 底下 砂礫 石層 當中 水源 透過 自然 過濾 或 滲透 流入 地面 之下 包括 了 由 粗顆 粒 土壤 組成 含水 層以 由 細顆 粒 粘土 組成 阻水層 伏 流水 大約 落 地面 下 15 到 20 反觀 如果 滲透到 了 20 到 40 深稱 為 淺層 地下水 如果 繼續 滲透到 了 50 以下 到 150 處則 稱 為 深層 地下水 屏東 科技 大學 名譽 教授 丁澈士 表示 伏 流水 變成現 救命 水 尤其 汛期 時候 它 非常 乾淨 外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU 根本 就 沒 辦法 後 製 沉 沙 沉 澱 處 理 但 伏 流水 因為 河水 跟 井水 相通 所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用 所以 就 變成 所 說 救命 水同樣 被 視為 救命 水源 還 這 一根 根 打入 地底下 抗旱 水井 別 小看 這些 不起眼 水井 它們 可解決 高雄 缺水 危機 抗旱 英雄 類似 抗旱 水井 已經 3 年間 高雄 陸續 開鑿 了 110 座 每日 供水量 將近 35 萬噸 雖然 穩定 水情 但 大規模 鑿 井 卻 讓 當地 農民相 當憂 心會 剝奪 農業 用水 對此 專家 解釋 抗旱 水井 取用 深度 達 100 到 150 深層 地下水 與 一般 深 20 到 40 間 淺層 地下水 農業 灌溉 井 含水 層 不同 而且 兩間 還阻 水層 相互 阻隔 因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產響 高雄市 水利局 長 蔡長 展 表示 抗旱 水井 其實 一個備 援用 水它 使用 時間 大概 每年 3 月 到 5 月 到 了 下雨 時候 我們 就 沒 再 用 就 藉由 下雨 時候 會 地下水 補注 所以 對 整個 地下水位 來講 跟 市民 用 一些 農業 灌溉 用水 安全 神 祕 地下水 補注區 其實 就 隱身 高屏溪 河床 底下 從 空中 俯瞰 這些 不起眼 灰色 土石 全都 扮演 關鍵 角色 所謂 地下水 補注區 就 利用 疏濬 砂石 河床 蓋 微型 土堤 讓 水流 受阻 流速 變慢 增加 滯水範圍 讓 更 多水 滲入 地下 藉此 增加 地下水 量 使得 地下水 源 得以 永續 大量 運用 地下水 資源 不免 讓 人 憂心 抽取 地下水 會 造成 地層下陷 水利 專 家丁 澈士 教授 解釋 因為 這 一些 土壤 裡面 一些 礫石 跟 比 較 粗 沙子 所以 說放釋 水時候 它 比 較 不會產 所謂 壓密 沉陷 因為 它 骨架 會 互相 地支 撐 實驗 還原 了 高雄 地層 下 狀況 清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形 因此 民眾 不必 過度 擔心 南區 水資源 分署 副 分署 長 何達夫 表示 軟礫 石層 跟 粘土 層 不 一樣 粘土 層 抽 了 水之後它 會 下陷 但 軟礫 石層 一個 石頭 接著 一個 石頭 把 石頭間 水 抽掉 它 抽走 得 很快 補充 非常 快個 地方 抽 地下水 不會 地層下陷 問題 極端 氣候 肆虐 全球 缺水 危機 恐將 一再 重演 無論 伏 流水 還 地下水 都 抗旱 時期 救命 水源 唯 善加利用 才能 讓 危機 成為 轉機</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">長江 三角洲 簡稱 「 長三角 」   是 中國大陸 經濟 發展 的 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 的 三角洲   然而   「 人無遠慮   必有 近憂 」   當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 的 此刻   當 全球 減碳 前景 仍 不樂觀 的 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長江 三角洲 未來 所 可能 受到 的 危害   將牽動 著 中國大陸 的 發展 前景 與 紅色供 應鏈 的 未來       廿世紀 前 五十年 全球 平均 海水面 升高 的 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   也 就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國 「 政府 間 氣候變遷 小組 」 去年 的 報告 書 指出   隨著 不同 暖化 程度   在 本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 的 將是 各大 河流 出海口 的 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 在 舊 金山 參加 一個 研討 全球 變遷 的 學術 大會   在 十幾個 議題 組中 領略 到 密西西比河 三角洲 的 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 的 景象 在 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 的 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 的 中上游 建設 上 了 四萬座 大大小小 的 壩體   一九六五年 以降   河系 的 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 的 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   也 擾亂 了 原來 大自然 的 泥沙 輸送 布局   加上 近 五十年 下游 地區 及 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧   「 自然 解方 」   力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長江 三角洲 似乎 也 正 走上 密西西比河 的 老路   長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 的 社會 變遷   僅 上海 一地   人口 從 八 ○ 年代 的 六百 萬 增加 到 目前 的 三千 三百 萬   長江 原來 每年 輸送 五 億公噸 的 泥沙 到 河口   全球排名 第五   長江 三峽 大壩 二 ○ ○ 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長江 三角洲 的 前緣 已 經開 始後退   以 上海 為 發展 中心 的 三角洲 雖 享受 著開發 的 豐美果實   也 承受 著 上游 帶來 一切 災害 危機 的 總 和   包括 三角洲 萎縮 以及 水質 汙染   大量 的 人口 增加 也 使 地下水 抽取 量大增   地層下陷   局部 地區 的 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 的 範圍 約 占 全區 的 百分之十四   而 在 長江 三角洲 則占 全區 的 百分之四十   在 未來 海水面 上升 的 風險 下   長三角 面臨 的 挑戰 顯然 更 為 嚴峻   也 更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  </t>
+          <t>長江 三角洲 簡稱 「 長三角 」 中國大陸 經濟 發展 前緣 地區 人口 超過 三千 萬年 產毛額 兩千 兩百億 美元 全球 最 富裕 三角洲 然而 「 人無遠慮 必近 憂 」 當聯合國 氣候 變化 綱要 約 締約 方大會 COP28 閉幕 不久 此刻 當 全球 減碳 前景 仍 不樂觀 當下 我們 要 想想 全球 暖化 北極 冰融 海水面 上升 加劇 趨勢 中 長江 三角洲 未來 所 可能 受到 危害 將牽動 著 中國大陸 發展 前景 與 紅色供 應鏈 未來 廿世紀 前 五十年 全球 平均 海水面 升高 速率 為 每年 一點 五 毫米 近 卅年 來 該 速率 已經 加倍 達到 每年 三點 四 毫米 就 說 卅 多年 來 全球 海水面 升高 了 十一分 聯合國 「 政府 間 氣候變遷 小組 」 去年 報告 書 指出 隨著 不同 暖化 程度 本世紀 前 海水面 將 升高 一到 二點 五 不 等 衝擊 最嚴 重將 各大 河流 出海口 三角洲 — 洪水 淹 沒 土地 侵蝕 鹽水 入侵 態 崩解 近日 筆舊 金山 參加 一個 研討 全球 變遷 學術 大會 十幾個 議題 組中 領略 到 密西西比河 三角洲 海陸 變化 從 航空 照片 到 衛星 遙測 桑田 變滄海 景象 眼前 一幕幕 展開述 說 著數 十年 來 淤積 與 滅頂 故事 十九 世紀 這個 大河 系 每年 輸送 四 億噸 泥沙 入海 廿世紀 中期 之後以 水利 為名 密西西比河 中上游 建設 上 了 四萬座 大大小小 壩體 一九六五年 以降 河系 輸 沙量 已經 減半 不止 只 剩下 每年 一億 三千 萬噸 上游 蓋壩 為 了 蓄水 與 發電頭 痛醫頭 下游 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕 人們 又 開始 腳痛 醫腳 建造 了 許多 堤防 防範 海水 入侵 總長 三 萬里 擾亂 了 原來 大自然 泥沙 輸送 布局 加上 近 五十年 下游 地區 墨西哥 灣 石油 與 天然 氣開發 地層下陷 河道 漂移 人們 總以 為 人定 勝天救 東牆 補西牆 整個 地區 亂成 一鍋 粥 現 又 奢言 利用 人工智慧 「 自然 解方 」 力挽狂 瀾 於 既 倒 扶大廈 之將 傾 只怕 痴人 說夢為 時 已 晚 長江 三角洲 似乎 正 走上 密西西比河 老路 長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 社會變 遷僅 上海 一地 人口 從 八 年代 六百 萬 增加 到 目前 三千 三百 萬 長江 原來 每年 輸送 五 億噸 泥沙 到 河口 全球排名 第五 長江 三峽 大壩 二三年 啟用 之 後 目前 輸 沙量 大約 每年 一億噸 長江 三角洲 前緣 已 經開 始後退 以 上海 為 發展 中心 三角洲 雖 享受 著開 發豐 美果實 承受 著 上游 帶來 一切 災害 危機 總 包括 三角洲 萎縮 以水質 汙染 大量 人口 增加 使 地下水 抽取 量大增 地層下陷 局部 地區 下陷 量 曾一度 高達 每年 十七分 使得 淹水 危機 更 甚 雪上加霜 近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助 才 暫時 阻延 了 一些 頹勢 密西西比 三角洲 海拔 低 於 二米 範圍 約 占 全區 百分之十四 而 長江 三角洲 則占 全區 百分之四十 未來 海水面 上升 風險 下 長三角 面臨 挑戰 顯然 更 為 嚴峻 更 為 棘手 作為 逢甲 大學 創能 學院 教授</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 和 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 的 溢 淹 問題 及 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 和 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 在 地養 殖區 穩定 水質 及 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 的 機構 團體 來 「 取經 」   居民 卻長 期苦 於 地層下陷 帶來 的 排水 問題 及 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 和 生活 環境 品質                             她 說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東縣 最大 的 養殖 漁業 生產區   塭 豐 二中 排旁 的 豐 海路 也 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 也 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 及 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖 魚塭 的 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 的 水環境       屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 和 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 的 溢 淹 問題 及 顛簸 起伏 路況 所苦   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供</t>
+          <t>屏東縣 沿海 佳冬鄉 塭 豐養殖 漁業 產區 養殖 面積 漁產量 居 全縣 之冠當 地漁民 卻 一直 飽受 地層下陷 帶來 溢淹 問題 道路 顛簸 路況 所苦 縣府 向 中央 爭取 8861 萬元 經費 投入 治水 道路 改善 工程 縣長 周春米 今天 主持 動工 儀式將 改善 排水 護岸 總長 854.8 道路 面 平均 抬升 1.3 定 明年 10 月 完工 周春米 說 佳冬鄉 塭 豐養殖 漁業 產區 擁全台 首座 大型 海水 供水 設施供 地養 殖區 穩定 水質 足夠 水量 以達 養殖 環境 永續 經營 目成 為 全台 指標性 建設 吸引 各地 機構 團體 來 「 取經 」 居民 卻長 期苦 於 地層下陷 帶來 排水 問題 既路況 顛簸 起伏 縣府 向 中央 爭取 經費 改善 可 降低 區域 淹水 風險 提升 當地 產活 環境 品質 說 佳冬鄉 塭 豐養殖 漁業 產區 面積 470 頃 屏東縣 最大 養殖 漁業 產區 塭 豐 二中 排旁 豐海路 塭 豐產區 東西 向 重要 主要 聯絡 道路 改善 工程 不僅針 對 塭 豐 二中 排進行 改善 對 豐海路 路面 裂化 高程 不足 等 問題 一 併 改善 完工 後 可 改善 路面 破損 道路 淹水 等 問題 讓 風災來 臨時 漁民 安全 通行 道路 進出 養殖區 強化 養殖 漁業產 環境 安全 縣府 海洋 漁業 事務 管理所 表示 工程 護岸 採用 預力 混凝土 板樁 具 施工 快速 振動 噪音 低 材料 品質 穩定 等 優點 減少 施工 時 對 養殖 魚塭 響 防汛 道路 高度 平均 抬升 1.3 路面 鋪設 厚度 為 10 分讓 道路 平順銜 接 防止 溢淹 情形 營造 優質 自然 安全 水環境 屏東縣 沿海 佳冬鄉 塭 豐養殖 漁業 產區 養殖 面積 漁產量 居 全縣 之冠 居民 卻 一直 為 地層下陷 帶來 溢淹 問題 顛簸 起伏 路況 所苦圖 屏東縣 政府 提供 屏東縣 沿海 佳冬鄉 塭 豐養殖 漁業 產區 縣府 爭取 8861 萬元 經費 治水 縣長 周春米 今天 主持 動工 儀式定 明年 10 月 完工 圖 屏東縣 政府 提供 屏東縣 沿海 佳冬鄉 塭 豐養殖 漁業 產區 縣府 爭取 8861 萬元 經費 治水 縣長 周春米 今天 主持 動工 儀式定 明年 10 月 完工 圖 屏東縣 政府 提供</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 根據 水利 署 監測 資料   全國 最大 米 鄉 — 大 埤 鄉 近 5 年 地層下陷 面積 及 深度 有 惡化 情況   分析 原因 極端 氣候 水情 不穩   地下水 用量 增   對此   縣府 爭取 農業部 農田 水利 署將 大 埤納入 擴大溉 灌 服務範圍   可 從 北港溪 引水 在 高灘 地 建置 蓄水池   再 新建 管路 供農田 灌溉 用   經費 約 3.3 億元     縣府 水利 處 指出   水利 署 2023 雲林 地層下陷 監測 結果 顯示   雲林 顯著 下陷 面積 247.7 平方公里   比 前年 2022 年略增 一些   顯著 下陷 重點 地區 土庫   元長 的 地下水位 仍有 持續 下陷 形     水利 處長 許 宏博 表示   整體 監測 結果 可 看出   雲林 沿海 地層下陷 有 趨緩   顯著 下陷 主要 在 虎尾   土庫   元長   北港   四湖   褒忠   水林   崙 背 及 大 埤   值得注意 是 大 埤 鄉 下陷 面積   深度 近 5 年 有 惡化 現象     許 宏博 指出   大 埤 是 全國 水稻 種植 面積 最 多 的 鄉鎮   但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 及 怡然 等 村   若 要 一年 兩作   無水 可 灌溉 一定 要 抽 地下水 使用   在 水稻 面積 不變   用水量 都 固定 情況 下   地層下陷 應 不致 惡化   主要 變數 就是 水情   尤其 這幾年 極端 氣候   2021 遇 百年 大旱   2023 去年 又 遇 200 年 大旱   這 2 次 地下水 抽得 多   去年 枯水期 地下水位 洩降 大 埤 達 15 公尺 最 嚴重     許 宏博 說   目前 大 埤 農民 灌溉 情況 有 3 種   第一 種是 引 地面水 即區 排   第二 種是 抽 地下水   由 幾個 農民 共同 一個 公井   再分 擔電費   第三 種是 抽 北港溪 水   為 減緩 大 埤 地層下陷 持續 惡化   縣府 早先 已建議 列為 優先 防治 地   也 針對 大 埤 取水 灌溉 進行 初步 規劃 及構 想   考量 北港溪 尚有 水權 可 申請   即 從 北港溪 引 地面水 到 高灘 地 的 蓄水池   供給 農田 灌溉 使用  </t>
+          <t>〔 根據 水利 署 監測 資料 全國 最大 米 鄉 — 大埤鄉 近 5 年 地層下陷 面積 深度 惡化 情況 分析 原因 極端 氣候 水情 不穩 地下水 用量 增對 此 縣府 爭取 農業部 農田 水利 署將 大埤 納入 擴大溉 灌 服務範圍 可 從 北港溪 引水 高灘 地 建置 蓄水池 再 新建 管路 供農田 灌溉 用 經費 約 3.3 億元 縣府 水利 處 指出 水利 署 2023 雲林 地層下陷 監測 結果 顯示 雲林 顯著 下陷 面積 247.7 平方里 比 前年 2022 年略增 一些 顯著 下陷 重點 地區 土庫 元長 地下水位 仍持續 下陷 形 水利 處長 許 宏博 表示 整體 監測 結果 可 看出 雲林 沿海 地層下陷 趨緩 顯著 下陷 主要 虎尾 土庫 元長 北港 四湖 褒忠 水林 崙背 大埤 值得注意 大埤鄉 下陷 面積 深度 近 5 年 惡化 現象許 宏博 指出 大埤 全國 水稻 種植 面積 最多 鄉鎮 但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外 包括 北鎮 西鎮 怡然 等 村若要 一年 兩作 無水 可 灌溉 一定 要 抽 地下水 使用 水稻 面積 不變 用水量 都 固定 情況 下 地層下陷 應 不致 惡化 主要 變數 就 水情 尤其 這幾年 極端 氣候 2021 遇 百年 大旱 2023 去年 又 遇 200 年 大旱 這 2 次 地下水 抽得 多 去年 枯水期 地下水位 洩降 大埤 達 15 最嚴 重許 宏博 說 目前 大埤 農民 灌溉 情況 3 種 第一 種引 地面水 即區 排 第二 種抽 地下水 由 幾個 農民 共同 一個 井 再 分擔 電費 第三 種抽 北港溪 水為 減緩 大埤 地層下陷 持續 惡化 縣府 早已 建議 列為 優 防治 地針 對 大埤 取水 灌溉 進行 初步 規劃構 想 考量 北港溪 尚水權 可 申請 即 從 北港溪 引 地面水 到 高灘 地 蓄水池 供給 農田 灌溉 使用</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>經濟部 水利 署 監測 雲林縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林縣 近年 地層下陷 顯著 的 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 及 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 有 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 及 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林縣 長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 及 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 的 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 及 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   在 自來 水可到 達 的 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林縣 大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影</t>
+          <t>經濟部 水利 署 監測 雲林縣 地層下陷 去年 雲林 顯著 下陷 面積 247.7 平方里 較 前年 略 增全 台面 積 最大 稻作 鄉鎮 大埤鄉 因 部分 地區 非 灌區 僅能 抽取 地下水 近年 下陷 面積 逐漸 擴大縣 府 提出 大埤鄉 非灌區 灌溉 水源 改善 工程 提報 中央 爭取 專案 經費 並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍 根據 水利 署 監測 資料 顯示 雲林縣 去年 顯著 下陷 面積 為 247.7 平方里 較 前年 239.5 里 增加 年 下陷 速度 約 7 分 土庫 元長 水位 仍持續 下降 趨勢 枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 其中 又 以 大埤 監測 站 洩降 15 最嚴 重為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮 縣府 水利 處長 許 宏博 表示 過去 雲林縣 地層下陷 以高鐵 沿線 虎尾 土庫 元長 北港 較 為 嚴重 但 近年 大埤鄉 地層下陷 惡化 趨勢 主因 為 大埤鄉 為 全台 稻作 面積 最 大鄉 鎮種 植面積 逾 5 千頃 但 部分 地區 非 灌區 需仰賴 地表水 或 抽取 地下水 灌溉 導致 近 5 年 地層下陷 面積 深度 都 惡化 為 改善 地層下陷 縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫擬 北港溪 高灘 地 設置 調蓄 池臨 時性 滯水 設施 透過 貯蓄 北港溪 水源 新建 給 水管路 供給 非 灌區 農田 使用 經費 約 3.32 億元將 向 中央 提報 並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍 雲林縣 長 張麗善 說 極端 氣候 越來 越 嚴峻 地面水 資源 無法 支持 產業 所 需農田 水利 署 如 未能 綜合 考量 水資源 供 應量 農民因 耕作 計所 需勢 必尋求 抽取 地下水 因應 導致 地層下陷 問題 對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅許 宏博 表示 針對 高鐵 沿線 虎尾 土庫 元長 北港 四鄉鎮 地區 縣府 將持續 加強 查察 水井 用水 情形 並檢討 與 研議 增設 調蓄 設施 增供 地表水 以 限制 溉 地下水 抽取 自來 水可到 達 水井 將 逐年 核減 水權 以 減少 地下水 抽取 造成 地層下陷 雲林縣 大埤鄉 為 全 台面 積 最大 稻作 鄉鎮 因 部分 地區 非 灌區 僅能 抽取 地下水 近年 地層下陷 面積 逐漸 擴大陳雅玲</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 水利 署 監測 資料   雲林縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 有 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   有 當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示   「 就是 都 沒 有 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層 的   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋   」 雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 和 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 的 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 及 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示   「 非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 的 灌溉 水源   」 雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  </t>
+          <t>根據 水利 署 監測 資料 雲林縣 水稻 最大 種植 地區 大埤鄉 近 5 年 地層下陷 面積 與 深度 惡化 現象 為 了 避免 極端 氣候 造成 水情 吃緊 地層下陷 持續 雲 縣府 建議 引 北港溪 水源 新建 給 水管路 供應 灌溉 經費 約 3.3 億餘元並 提報 中央 等待 核准 辦理 中 2 期稻 收割 後 農民忙 著 整地 雲林 大埤鄉 雲林 種植 水稻 面積 最大 地區 但 卻 時常 面臨 灌溉 水源 不足 問題 當地 農民 就 說 為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水 才能 夠來 因應 雲林 大埤鄉 農民 表示 「 就 都 沒水 如果 人 耕田 廣一點 就 用 大 井水 比較 深層 我 這個 都 小 井水 就 很 難 去 灌溉 時要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋 」 雲縣 府 表示 根據 水利 署 監測 資料 大埤鄉 下陷 面積 深度 持續 擴大 主要 就 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外 包括 北鎮 西鎮 怡然 等 村若要 一年 兩作 無水 可 灌溉 一定 要 抽取 地下水 使用 雲縣 府 水利 處處長 許 宏博 表示 「 非灌區 地方 去 想 辦法 怎麼 用 地面 水源 來 補充 我們 研究 以 大埤 附近 北港溪 去 引 北港溪 水源 作為 1 期 稻作 灌溉 水源 」 雲縣 府 水利 處 表示 為 改善 大埤鄉 地層下陷 惡化 問題 縣府 完成 大埤 非灌區 灌溉 水源 改善 工程 前期 規劃 希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等 供給 農田 灌溉 使用 但 概估 工程 經費 約 3.3 億 目前 已經報 請 中央 等待 核定 中</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">媒體 報導 雲林縣 大 埤 鄉 水情 不穩   地下水 用量 增加   地層下陷 惡化   農田 水利 署 今天 表示   雲林縣 府 有 提出 納入 擴大 灌溉 服務構 想   已 請 其 提擬 更具 體的 計畫   再 共同 推動 擴大 灌溉 服務     媒體 報導   水稻 產區 雲林縣 大 埤 鄉 近年 地層下陷 情況 惡化   可能 與 水情 不穩   抽取 地下水 用量 增加 有關   雲林縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍                           農水署 副署 長 陳 衍源 告訴 中央社 記者   雲林縣 政府 有 提出 構想   農水署 也 已 回覆   請 縣府 提出 更具 體的 計畫   收到 計畫後會 審查   然後跟 縣府 共同 推動 擴大 灌區 服務 的 計畫     針對 成立 3 年 3 個 月 來   已 擴大 5.6 萬公頃 農田 獲得 灌溉 用水   約 8 萬 多名 農民 受惠   農水署 並規劃 114 年 要 擴 增至 8.8 萬公頃   陳 衍源 說   要 等 縣府 提出 具體 計畫後會 先 做 審查   因此 能否 納入 114 年 的 8.8 萬公頃 目標 內   尚未 確定   但應 不 受此 影響   擴大 灌溉 服務計 畫會 持續 推動     另外   陳 衍源 也 說   如果 能 設計 引用 河川 水作 為 灌溉 使用   希望 能 替代 當地 抽用 地下水   對 減緩 地層下陷 有所 幫助  </t>
+          <t>媒體 報導 雲林縣 大埤鄉 水情 不穩 地下水 用量 增加 地層下陷 惡化 農田 水利 署 今天 表示 雲林縣 府 提出 納入 擴大 灌溉 服務構 想 已 請 其 提擬 更具 體計畫 再 共同 推動 擴大 灌溉 服務 媒體 報導 水稻 產區 雲林縣 大埤鄉 近年 地層下陷 情況 惡化 可能 與 水情 不穩 抽取 地下水 用量 增加 關 雲林縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍 農水署 副署 長 陳 衍源 告訴 中央社 雲林縣 政府 提出 構想 農水署 已 回覆 請 縣府 提出 更具 體計畫 收到 計畫後會 審查然 後 跟 縣府 共同 推動 擴大 灌區 服務計 畫針 對 成立 3 年 3 個 月 來 已 擴大 5.6 萬頃 農田 獲得 灌溉 用水 約 8 萬 多名 農民 受惠 農水署 並規劃 114 年 要 擴 增至 8.8 萬頃 陳 衍源 說 要 等 縣府 提出 具體 計畫後會 審查 因此 能納入 114 年 8.8 萬頃 目標 尚未 確定 但 應不受 此響 擴大 灌溉 服務計 畫會 持續 推動 另外 陳 衍源 說 如果 能 設計 引用 河川 水作 為 灌溉 使用 希望 能 替代 當地 抽用 地下水 對 減緩 地層下陷 所幫助</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 有 文資 價值 的 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為 「 惡鄰 」   產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 有 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 有 上限 規定   目前 在 既有 的 電力 設施 併 網 上限 下   有 限度 的 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 有 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             她 強調   從 未 要求 廠商 提供 「 不利 耕作 同意 書 」 或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   在 未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 的 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       她 指出   屏東 綠能 推動 政策 以 「 專案 專區 計畫 」   「 土地 複 合式 利用 」 等 2 大 策略 為 優先   有 限度 使用 相對 不 適合 耕種 的 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 有 土地 鹽化 等 不利因素 無法 耕作 的 年 邁老農   則 可以 有 穩定 收入 過 退休 生活   至於 非 專案 專區 的 鄉鎮   則優先 鼓勵 廠 商以 「 土地 複 合式 利用 」 方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 有 處置 自家 土地 財產   及業者 依法 申請 案件 的 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 內 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  </t>
+          <t>聯合 報陽光 行動 專題 報導光 電進 駐 屏東 種電 範圍 遍 農地 山區 到 文資 價值 二戰 遺跡 造成 家園 地景 地貌 變遷 衝擊 老 農計變 相迫 遷青農 更 被 地方 形為 「 惡鄰 」 產蛇鼠 與 害蟲 提升 鄰田 管理 困難度 還潛藏 糧食 危機   縣府 環保局 長 顏幸苑 表示 光電不會 無限 擴張 目前 種電 專區 仍 約 3 千頃 可 耕作 並專案 輔導業 除草 一定 會 兼顧 農業 永續 發展 顏幸苑 表示 台電饋 線 上限 規定 目前 既電力 設施 併 網 上限 下 限度 推動 光電 專區 不會 無 限制 使用 農地 種電 而 東港鎮 林邊 佳冬 枋寮鄉 等 4 鄉鎮 專案 截至 去年底 共 併 網約 3 百 兆瓦 光電 該區 農地 總面 積約 3800 頃 至少 還約 3 千頃 面積 可 農作 使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成 強調 從 未 要求 廠商 提供 「 不利 耕作 同意 書 」 或 其他 不 平等 條約 相關 文件 針對 部分 地區 爭議 案件 未 取得 居民 同意 之前 皆 已 要求 業 停止 施工 另太陽能 案場 並無 食物 來源 應 非屬 引來 老鼠 主因 目前 已 要求 專案 輔導業 定期 進行 除草 維護 周遭 環境 整潔 指出 屏東 綠能 推動 政策 以 「 專案 專區 計畫 」 「 土地 複 合式 利用 」 等 2 大 策略 為 優 限度 使用 相對 不 適合 耕種 土地 發展 綠能 提供 給 地主 農民階段 性 活化 土地 新選擇 對 於 無力 管理 田間 工作 又 土地 鹽化 等 不利因素 無法 耕作 年 邁老 農則 可以 穩定 收入 過 退休 活 至於 非 專案 專區 鄉鎮則 優鼓勵 廠 商以 「 土地 複 合式 利用 」 方式 利用 既 設施 結合 太陽光 電設 施效 利用 共空間 屏 縣府 綠能 辦室 表示 尊重 私 地主 處置 自家 土地 財產業 依法 申請 案件 權利 相關 審查 過程將 審慎 關注 山坡地 耕作 農地 歷史 遺跡態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等議 題並 要求 廠商 提出 因應 作為 以 避免 衍爭 議性 問題 兼顧 開發 合理性 維護 本縣 農民 耕作 權益利 能源 表示 屏東 枋寮 案場 合法 開發 於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後 隨即 保留 並主動展 開一連串 文資 保護作 為 並無二戰 槍堡 被 挖除 等 情事</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 及 枋寮 4 個 沿海 鄉鎮   劃定 「 嚴重 地層下陷區 光電計畫 」 專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 有 3000 公頃 以上 的 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 在 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 有 縣府 在 尊重 地主 利用 土地 意願 及 權益 前提 及 既有 電力 設施 併 網 上限 條件 下   有 限度 的 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   在 部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 的 光電板 發電 效率 已較 八八 風災 後 的 「 養水 種電 」 到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 的 在 單位 發電量 更大下   所 需面積 的 比例 一定 更 小   至少 會 有 3000 公頃 以上 的 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 有 土地 鹽化 等 不利因素 無法 耕作 的 年 邁老農   則 可以 有 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 的 利用 土地 意願 及 權益   縣府 環保局 從 未 要求 廠商 提供 所謂 「 不利 耕作 同意 書 」 或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 及 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 有 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   在 未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 內 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以 「 專案 專區 計畫 」   「 土地 複 合式 利用 」 兩大 策略 為主   專案 為 有 限度 使用 相對 不 適合 耕種 的 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電 的 「 複 合 利用 」 方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 有 處置 自家 土地 財產   以及 業者 依法 申請 案件 的 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  </t>
+          <t>〔 屏東縣 政府 於 東港 林邊 佳冬 枋寮 4 個 沿海 鄉鎮 劃定 「 嚴重 地層下陷區 光電計畫 」 專區 為 確保 農民 耕作 權不過 近來坊 間質 疑聲 浪漸 漲 環保局 強調 該區 計畫 發電量 為 800MW 百萬瓦 不會 無 限制 擴張 因此 至少 會 仍 3000 頃 以上 農地 可供 農作 地面 型 光電場 成為 選戰 攻防 議題 屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案 成野黨 攻 詰 對象 近期 坊 間 又 再 傳出 農民因 種電 失去 農保老 農退場 又 留不住 青農蛇鼠 窩 藏 副作用 等 爭議 屏 縣府 環保局 指出 這 4 鄉鎮過 去 因超 抽 地下水 曾列 為 嚴重 地層下陷區 現 仍屬 第 12 級 地下水 管制 區且 海水 上溯 下許 多 土地 都 已 出現 鹽化 不少 已 不利 耕地 多年 因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既電力 設施 併 網 上限 條件 下 限度 推動 光電 專區 預計 發電量 為 800MW 環保局 指出 部分 農地 轉作 太陽光 電後減 少 農民 抽取 林邊 溪 下游 地下水 需求 並 搭配 上游 設置 大 潮州 人工湖 補注 地下水 減緩 地層下陷 達到 國土 復 育產業 永續 發展 目而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後 「 養水 種電 」 到 近 2 倍 單 一片 就 可 發電達 400w 以 目前 併 網約 300MW 太陽光 電裝 置量 使用 農地 比例 約 250 頃 左右 未來 達 到 目標 單位 發電量 更大下 所 需面積 比例 一定 更 小 至少 會 3000 頃 以上 農地 可供 農作 使用 另外 對 於 無力 管理 田間 工作 又 土地 鹽化 等 不利因素 無法 耕作 年 邁老 農則 可以 穩定 收入 過 退休 活 至於 農保 問題 環保局 重申 農地 若意願 出租 供 人 種電 一定 要 進行 變更 地目 但 這 完全 基 於 地主 利用 土地 意願 權益 縣府 環保局 從 未 要求 廠商 提供 所謂 「 不利 耕作 同意 書 」 或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件 前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡告 於 縣府 綠辦 官網 讓 地主 了解 相關 權利 與 義務 只要 民眾 對 合約疑 問均 可 撥 打 專線 電話詢 問綠能 專案 推動 辦室 針對 部分 地區 爭議 案件 未 取得 居民 同意 之前 縣府 已 要求 業 停止 施工 蛇鼠 患 問題 縣府 環保局 長 顏幸 苑則 認為 作物 收成 期間 食物 充沛 易 引鼠 鳥禽 覓 食 但 太陽能 案場 並無食源 應 非屬 引鼠 主因 縣府 要求 專案 輔導業 維護 周遭 環境 整潔 至於 選址 不當 縣府 重申 屏東縣 綠能 推動 政策 以 「 專案 專區 計畫 」 「 土地 複 合式 利用 」 兩大 策略 為主 專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能 專案 專區 外 鄉鎮 優鼓勵 結合 既 設施 與 光電 「 複 合 利用 」 方式 屏東縣 環保局 表示 民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視 縣府 尊重 私 地主 處置 自家 土地 財產 以業 依法 申請 案件 權利惟 審查 過程將 審慎 關注 山坡地 耕作 農地 歷史 遺跡態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等議 題並 要求 廠商 提出 因應 作為 以 避免 衍爭 議性 問題 兼顧 開發 合理性 維護 本縣 農民 耕作 權益</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不 在   這是 屏東 沿海 地區 這幾年 興起 的 違 和 景致   也 是 全台 種電 縮影   在 地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 有 文資 價值 的 二戰 遺跡 都 不放過   不僅家園 變貌   也 迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 和 典範   二 ○ ○ 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   也 重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出 「 養水 種電 」 計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 及 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 ○ 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 的 罵 聲不斷   二 ○ 一 八年 十月 起   屏縣 府 公告 實施 「 嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫 」   開放 下陷區 農地 可 變更 種電       二 ○ 二 ○ 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 在 二 ○ 一 八年 屏東縣 長 潘孟安任 內   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 的 光電   如今 變成 農民 的 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 的 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽 「 不利 耕作 聲明書 」   離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作       「 沿海 四鄉 鎮美麗 的 鄉間 景致 丕 變   綠地 逐漸 蒸發   」 屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 的 是 少數 地主   受影響 的 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能 「 五贏 」   前年 已達成 綠電供 應 全縣 民生 用電 的 階段 性 目標  </t>
+          <t>從國道 三號 林邊 交流 道下 來光 電場 廣告 映入 眼簾 從 大馬路 旁到 鄉間 農田光 電板 無 所 不 這 屏東 沿海 地區 這幾年 興起 違 景致 全 台 種電 縮地 青農批 政府 業聯手 種電 種到 失心 瘋 從 農地 山區 到 文資 價值 二戰 遺跡 都 不放過 不僅家園 變貌 迫使 老農離 農變 相迫 遷青農 屏東 農地 種光 電原 全台 濫觴 典範二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量 造成 中南部 嚴 重水 災重 創 屏東 南部 沿海 鄉鎮 不少 魚塭 果園 被 沖 毀時任 屏東縣 長 曹啟 鴻 提出 「 養水 種電 」 計畫 縣府 媒合 魚塭 農地 租給 光電業 地主 負責 管理 地主 按 月 收 地租 管理 費綠電賣 給台 電能 涵養 地下水 減緩 下陷 一舉 數得 屏東 種電   侵蝕 農地   製 表 都 會 地方 中心 農業部 前身 農委會 二 一 三年 修法 允許 不適 耕作 農地 種電 大開 種電 之門 但 農地 非農用 罵 聲不斷 二 一 八年 十月 起屏 縣府 告實施 「 嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫 」 開放 下陷區 農地 可 變更 種電 二 二年 七月 農委會 加嚴 農地 變更 種電 門檻 二 到卅頃 農地 變更 要 由 中央 審查 兩頃 以下 原則 不 同意 變更 種電 但 早二一 八年 屏東縣 長 潘孟安任 報請 行政院 同意 把 東港 林邊 佳冬 枋寮 四鄉 鎮畫 為 嚴重 地層下陷區 作光電 專區 成為 特例 四年 多來 屏東 種電 發展 快速 原本 立意 良善 光電 如今 變成 農民 陰霾 枋寮 女青農 張靜玉 說 為 衝高 綠電 占 比 種電 已種 到 失心 瘋不該 種電 地方 都 被 光電板 占領 很多 農民 被 業遊 說簽 「 不利 耕作 聲明書 」 離農 坐收 光電場 租金 但 這些 農地 都種 著蓮霧 水稻 芭樂何 來 不利 耕作 「 沿海 四鄉 鎮美麗 鄉間 景致 丕 變綠地 逐漸 蒸發 」 屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說 綠地 果園 被 一塊 塊 光電板 取代 像 貼 狗皮 膏藥般 醜陋 不但 壓縮 農業 空間 光電板 遮陽 廿年 農地 將 失去 地力 衝擊 農產業 服務鏈 受益 少數 地主 受響 多數 農民 整體 農業將 衰退 屆 時 想 回頭 搶 救 就 難 了 屏東縣 府 綠能 辦室 表示 沿海 四鄉 鎮持續 下陷 列 第一二 級 地下水 管制 區縣 府 把 四 鄉鎮 部分 農地 轉作光 電場 搭配 上游 補注 地下水 減緩 地層下陷 創造 地主 業 政府 全民 與 綠能 「 五贏 」 前年 已達成 綠電供 應 全縣 民用 電階段 性 目標</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 的 果農 只能 忍痛 看著 心血 被毀   也 斬斷 兒子 想 當青農 接班 的 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   也 不給 老 農一畝 田維生   青年 若當 「 漂鳥 」 回農村   肯定 變走 投無路 的 「 落翅仔 」       五十六 歲 鄭明偉 在 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   有 兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 的 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 有 不少 國有 財產 署名 下 的 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 在 枋寮 內 寮 段種 芭樂   她 無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 在 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 也 靠 這片 三分 地 的 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種   「 我 不但 要 吃 土   連農保 都 沒 有 了   」     面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 和 枋寮 有 「 蓮霧 之 鄉 」 美名   四十八 歲 陳 呈祥 在 八八 風災後回 鄉 接手 父親 的 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 做 的 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   有 的 果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 和 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   在 地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改 種電   年 輕人 想 返 鄉務農   也 無 低 租金 的 農地 可種   「 蓮霧 故鄉 」 金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   她 忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到   「 這 不是 迫遷 青農去 都市 討 生活 嗎   漂鳥 回農村   恐怕 走 投無路 變 落翅仔 吧   」</t>
+          <t>屏東 光電場 熱區 之一 正 上演 光電板 與 農民 搶 地爭 奪戰光 電業 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電 租地 種蓮霧 果農 只能 忍痛 看著 心血 被毀 斬斷 兒子 想 當青農 接班 願望 青農 自嘲 說 政府 寧可 把 地租 給業 種電 不給 老 農一畝 田維 青年 若當 「 漂鳥 」 回農村 肯定 變走 投無路 「 落翅仔 」 五十六 歲 鄭明偉 林邊 佳冬鄉 租下 三座 蓮霧園 他 說 兩座 花 了 十多年 整理 收成 正漸 入 佳境 地主 竟 收回 種電 他 只能 忍痛 放棄 由 於 種蓮霧 要 手把手 長 期培養 技術 正念 農校 兒子 雖心 接手 但 他 勸 兒子 算了 最好 另謀 出路 農民控 國產署   為 賺 更 多 租金 屏東 沿海 不少 國財產 署名 下新 地被 農 民用 於 種田 六十三 歲 楊寶秀 枋寮 寮 段種 芭樂 無奈 說種 芭樂近 四十年 繳 用地 補償 金給 國產署 一直 相安 無事 近年 數度 送件 申請 合法 承租 都 被 拒 絕後來 光電業 芭樂園 貼 告示 已 承租 種電 要 農民早 搬 離國產 署則 回覆 因 地層下陷 不利 耕作 要 轉作光 電場 六十多 歲 呂姓 老農靠 這片 三分 地蓮霧 園維 他 說 國產署 明知 老農靠 種蓮霧 養家寧 可租給 光電業 賺 更 多 如果 沒地 可種 「 我 不但 要 吃 土連 農保 都 沒 了 」 面對 農民 控訴 國產署 南區 分署 屏東 辦室 指出 光電業 依法 種電 並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物 占用 繳 使用 補償 金 但 他們 本 就 沒 合法 使用 權 林邊 佳冬 枋寮 「 蓮霧 之 鄉 」 美名 四十八 歲 陳 呈祥 八八 風災後回 鄉 接手 父親 蓮霧園 他 感嘆 近年 光電大舉 入侵 正 侵蝕 果農 維 繫 傳 統 產 業 所 努力 他 說 蓮霧 老農因 子女 無意 接手 只好 租地 給光 電商 果園 地主 刻意 抬高 租金 逼退 承租 農一塊 塊 果園 被 光電場 取代 包圍 整體 產量 正持續 下降 衝擊 採收 包裝 運銷 等 產業 鏈 未來 工人 更難 找 材料 更貴務 農條件 就 更 差 農地 租金 上漲   加速 產業 衰退 陳 呈祥 說蓮霧 產業 衰退 人口老化 缺工 等關 雖 不能 全歸責 光電 但 確實 造成 農地 租金 上漲 問題 間 接 加速 產業 衰退 政府 對 這些 衝突視 若 無睹 苦果 只 由 農民吞 枋寮 農會 總幹事 鄭晏昕 林邊 農會 總幹事 黃 金順 都 慨嘆 原盼 農電能 共 如今 衝突 嚴 重地 驕傲 半世 紀蓮霧 產業 正 因光電 面臨 式微 危機 黃 金順 說 光電場 租金 一分 地四萬元 承租 農民頂 多出 得起 一萬元 相差 四倍 到 處 都 聽 到 地 主要 改 種電 年 輕人 想 返 鄉務 農無低 租金 農地 可種 「 蓮霧 故鄉 」 金字招牌 正 褪色 台大 農經 碩士 張靜玉 枋寮 蓮霧 農 眼看 鄰近 農民 被 光電 搶 地 忿忿不平 直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫 要 青年 返鄉務 農現 連地 都 租 不到 「 這不迫 遷青 農去 都市 討活 漂鳥 回農村 恐怕 走 投無路 變 落翅仔 」</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">光電亂象 已久   從 之前 的 良田 種電   砍樹 種電   近來 變本 加厲   光電板 不僅 征服 山頭   占 領有 文資 價值 的 遺跡   更 一步步 裂解 農漁村 的 產業 鏈   恐阻斷 青農返 鄉 之路   地面 型 光電 的 社會 衝擊 比 預期 更大且 深   在 講求 氣候 正義和 「 企業 Ｅ Ｓ Ｇ   環境 保護   社會責任   公司 治理   」 的 國際 主流 下   政府 和 企業須 警覺   若綠電來 自迫 遷   危害 生態 與 在 地產業   恐埋 隱憂       屏東縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷區 之名 畫為 光電 專區   本可 接軌 屏東縣 前縣 長 曹啟 鴻 的 「 養水 種電 」 政策   但 實際 推行 結果   鄉間 景觀 破碎   光電場 蛇 鼠 為 患   離農者 漸增 等 負面 效應 逐漸 浮現   加上 光電助 漲 農地 租金   無異將 返鄉 青年 拒 於 農漁村 之外   也 被 批評 與 「 養水 種電 」 初衷 漸行 漸遠                             屏東 只是 全 台 種電 爭議 的 縮影   有 更 多 生態   景觀 敏感 地   在 追 趕綠能 目標 下 可割 可棄   面對 爭議 與 衝擊   政策 把關 工具 遲未 發揮 效能   及早 阻止 種電 的 副作用   甚至 正向 引導 與 在 地 共生 共榮   實難辭 其咎   也 與 執政黨 的 「 愛鄉 土 」 理念 背道 而 馳       開發行 為 必須 堅守 環境 正義底 線   綠能 也 不 例外   猶記 得 台積 電在 被 徵收 用地 的 拆 遷戶 激烈 抗爭 下   突然 宣布 放棄 進 駐龍科 三期   不無環境 正義與 企業 Ｅ Ｓ Ｇ 的 考慮   民進 黨 種電 國策 若 如 「 失速 列車 」   無情 地衝 撞 純樸 的 農漁村   把 青農   老農 都 當成 「 農村 最軟 的 一塊 」   這種 綠電 還是 國際 認可   符合 Ｅ Ｓ Ｇ 的 綠電 嗎  </t>
+          <t>光電亂象 已久 從 之前 良田 種電 砍樹 種電 近來 變本加 厲光 電板 不僅 征服 山頭 占 領文資 價值 遺跡 更 一步步 裂解 農漁村 產業 鏈恐 阻斷 青農返 鄉 之路 地面 型 光電 社會 衝擊 比 預期 更大且 深 講求 氣候 正義 「 企業 Ｅ Ｓ Ｇ 環境 保護 社會責 任司 治理 」 國際 主流 下 政府 企業須 警覺 若 綠電來 自迫 遷 危害 態 與 地產業 恐埋 隱憂 屏東縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷區 之名 畫為 光電 專區 本 可 接軌 屏東縣 前縣 長 曹啟 鴻 「 養水 種電 」 政策 但 實際 推行 結果 鄉間 景觀 破碎 光電場 蛇 鼠 為 患離 農漸 增等 負面 效應 逐漸 浮現 加上 光電助 漲 農地 租金 無異將 返鄉 青年 拒 於 農漁村 之外 被 批評 與 「 養水 種電 」 初衷 漸行 漸遠 屏東 只 全台 種電 爭議 縮 更 多態 景觀 敏感 地 追 趕綠能 目標 下 可割 可棄 面對 爭議 與 衝擊 政策 把關 工具 遲未 發揮 效能 早 阻止 種電 副作用 甚至 正向 引導 與 地共共榮 實難辭 其咎 與 執政黨 「 愛鄉 土 」 理念 背道 而 馳開 發行 為 必須 堅守 環境 正義底 線 綠能 不 例外 猶得 台積電 被 徵收 用地 拆遷戶 激烈 抗爭 下 突然 宣布 放棄 進 駐龍科 三期 不無環境 正義與 企業 Ｅ Ｓ Ｇ 考慮 民進 黨 種電 國策 若 如 「 失速 列車 」 無情 地衝 撞 純樸 農漁村 把 青農老 農都 當成 「 農村 最軟 一塊 」 這種 綠電還 國際 認可 符合 Ｅ Ｓ Ｇ 綠電</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 及 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 和 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 的 的 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 在 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 及 捕魚 的 重要 基地   更是 漁民 生命 財產 的 保障   也 是 海洋 漁業 發展 的 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助 的   縣府 就 必須 出手   架 高作業 平台   解決 高漲 的 潮水   既 保障 漁民 日常 工作 需求   也 能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 的 基礎 建設   除 加高 平台 也 協助 清淤   讓 漁民有 更好 的 作業 環境   黃 嫈 珺 也 說   東石 沿海 導航燈 有 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 也 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 的 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 內容 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  </t>
+          <t>〔 嘉義 縣 東石鄉 鰲鼓 副瀨網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足 每逢 大潮 海水 經常 漫溢 危船 隻 漁民作業 安全 嘉義 縣 政府 斥資 1510 萬元 規劃 改善 今天 縣長 翁章 梁 前往 副 瀨 漁港 現勘 時 表示 3 座 漁港 加高 工程 預計 今年 6 月 發包動工 10 月底 完工 讓 碼頭 高度 可 提升 至暴 潮位 以上 解決 漁民 多年 來 面臨 作業 困難 困境 翁章 梁 立委 蔡易餘 東石鄉 長 林俊雄 嘉義 區漁會 總幹事 林佳瑩縣 議員 姜梅紅 李國勝 黃 嫈 珺 等 今天 到 副 瀨 漁港 現勘 翁章 梁說 為 保障 漁民 需求 因此 以 縣府 經費 1510 萬元 進行 加高 工程 規劃 完善 基礎 建設 農業 處漁業 科長 張 建成 說 鰲鼓 副 瀨 漁港 碼頭網 寮 漁港 南側 作業 平台 因 地層下陷 高度 明顯 不足 每逢 大潮 海水 漫溢 到 碼頭響 安危 由 於 鰲鼓 副 瀨 漁港 為 中央 列冊 低 利用 度 漁港 網寮 漁港 南側 作業 平台 則位 漁港 範圍 外無法 爭取 中央 經費 翁章 梁說 漁港 出海 養殖 牡蠣 捕魚 重要 基地 更 漁 民命 財產 保障 海洋 漁業 發展 最 基本 建設 但 小 漁港 年久失修 加上 地層下陷 漁民作業 困難 漲潮 時海 水淹 沒 港口 中央 無法 補助 縣府 就 必須 出手 架 高作業 平台 解決 高漲 潮水 既 保障 漁民 日常 工作 需求 能 化解 安全 問題 副 瀨村長 林泰平 說 因 副 瀨 漁港 很 淺數 十年 來 出入 困難 感謝 翁 縣長 關心 漁港 基礎 建設 除 加高 平台 協助 清淤 讓 漁民 更好 作業 環境 黃 嫈 珺 說 東石 沿海 導航燈 多處 損壞 漁民 只能 摸黑 出海 靠 經驗 航行 建議 縣府 要 修繕 導航燈 張 建成 回應將 再 請 嘉義 區漁會 盤點 損壞導 航燈 再 向 中央 爭取 經費 改善 農業 處 表示 鰲鼓 副瀨網 寮 漁港 加高 工程 改善 包括 碼頭面 作業區 加高 以 其他 附屬 設施 銜接 鰲鼓 工程 預算 經費 288 萬元 副 瀨 工程 經費 912 萬元網 寮 工程 預算 經費 310 萬元</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 的 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 在 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 有 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                             「 大潮 來   沒 看到 路 怎麼 走   」 鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 及 平台 改善 工程   目前 已 辦理 設計 工作   預計 在 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 也 指出   漁民向 她 反應 鰲 鼓   副 瀨   網寮 及 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 的 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 有 需求 做 盤點   將一 併 向 中央 爭取 第二期 的 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 也 反應 鰲 鼓   副 瀨   網寮 及 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 及 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影</t>
+          <t>嘉義 縣 東石鄉 鰲鼓 副瀨網 寮 等 3 漁港 碼頭 作業 平台 因 地層下陷 問題 逢 農 曆 大潮 時 就 會發 海水 溢漫 淹過 碼頭 平台 長 期 危漁民作業 安全 為解 決此 問題 今天 縣長 翁章 梁抵 副 瀨 漁港 現勘 聽 簡報將 採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元來 改善 漁港 環境 預計 今年 6 月 動工 10 月 完工 縣長 翁章 梁 表示 鰲鼓 副瀨等 二個 漁港 中央 列冊 低 利用 度 漁港 另網 寮 漁港 南側 作業 平台 則位 漁港 範圍 外 因此 無法 爭取 中央 經費 挹注 改善 他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足 危漁民作業 安全 即 指示 農業 處 規畫 改善 「 大潮 來 沒 看到 路 怎麼 走 」 鰲鼓 蚵 農何 金聰 說 大潮 時 整個 平台 都 淹滿水 碼頭 完全 消失 漁民 不得已 都 要 冒險 拿 著長 竹竿 撐 著 地面 去 探路 走下 碼頭 上船 隻 長 期 都 很 危險 漁業 科長 張 建成 表示 3 處 增高 碼頭 平台 改善 工程 目前 已 辦理 設計 工作 預計 今年 6 月 完成 發包動工 10 月底 前 完工 讓 各 碼頭 高度 可 提升 到暴 潮位 以上 讓 漁民 安全 作業 環境 縣議員 黃 嫈 珺 場 指出 漁民向 反應 鰲鼓 副瀨網 寮 白水湖 導航燈 壞 掉 導致 漁民 都 摸黑 出海 靠 得 全經驗值 相當 危險 盼 增經費 盡快 設置 完成 對此 科長 張 建成 回應 前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善 議員 反應 4 處 漁港 他 已 跟 東石 漁會 總幹事 討論 並進行 其他 漁港 需求 盤點 將一 併 向 中央 爭取 第二期 改善 經費嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲鼓 副瀨網 寮 白水湖 導航燈 壞 掉 導致 漁民 摸黑 出海 靠 得 全經驗值 相當 危險 盼 增經費 盡快 改善 呂慧瑜 嘉縣 長 翁章 梁今 現勘 東石鄉 副 瀨 漁港 包括 鰲鼓 網寮 等 3 漁港 碼頭 作業 平台 縣府 自掏腰包 1510 萬元 增高 改善 漁港 環境 預計 今年 6 月 動工 10 月 完工 呂慧瑜 嘉縣 東石鄉 鰲鼓 副瀨網 寮 等 3 漁港 碼頭 作業 平台 逢農 曆 大潮 時 就 會發 海水 溢漫 淹過 碼頭 平台 長 期 危漁民作業 安全 問題 呂慧瑜 嘉縣 東石鄉 鰲鼓 副瀨網 寮 等 3 漁港 碼頭 作業 平台 縣府 自掏腰包 1510 萬元 增高 改善 漁港 環境 預計 今年 6 月 動工 10 月 完工 呂慧瑜</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 今   23 日   又 工地 地層下陷   松山區 慶城街 與 興安街 交叉路口 晚間 9 時 01 分許   驚傳 新建 工地 地基 塌陷   路旁 整排 停放 的 汽車 因故 側翻 超過 45 度   現場 已劃 設 警戒 線   據 了解 台北 市長 蔣萬安正 趕往 現場   今晚 9 時 01 分許   慶城街 和 興安街 交叉路口 一處   所屬 璞 真建設 的 新建 工地 「 地基 下陷 」   下陷 範圍 評估 中   目前 無人 受傷   目前 影響 路旁 4 台 停放 的 車輛   現場 已劃 設 警戒 線   事發 後   已有 消防 車到場 指揮   詳細 發生 原因 仍待 釐 清   蔣萬安則 透過 臉書 表示 正 趕往 現場   呼籲 周遭 居民 和 經過 的 民眾 注意安全   有 最新 資訊 市府 會 即刻 通知  </t>
+          <t>台北市 今 23 日 又 工地 地層下陷 松山區 慶城街 與 興安街 交叉路口 晚間 9 時 01 分許 驚傳 新建 工地 地基 塌陷 路旁 整排 停放 汽車 因故 側翻 超過 45 度 現場 已劃 設 警戒 線據 了解 台北 市長 蔣 萬安 正 趕往 現場 今晚 9 時 01 分許 慶城街 興安街 交叉路口 一處 所屬 璞 真建設 新建 工地 「 地基 下陷 」 下陷 範圍 評估 中 目前 無人 受傷 目前 響 路旁 4 台 停放 車輛 現場 已劃 設 警戒 線事 發後已 消防 車到場 指揮 詳細發 原因 仍待 釐 清 蔣 萬安 則透過 臉書 表示 正 趕往 現場 呼籲 周遭 居民 經過 民眾 注意安全 最新 資訊 市府 會 即刻 通知</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>台北市 松山區 慶城街 一處 工地 附近   今   23   晚傳出 有 地層下陷 的 狀況   停 在 路邊 停車格 的 車輛   車身 甚至 已經 傾斜   影響 4 台車輛 傾斜   現場 為 新建 工地 地基 下陷   下陷 範圍 評估 中   無人 受傷   已劃 設 警戒 線   台北 市長 蔣萬安 和 副 市長 李 四川 正 趕往 現場   台北 市長 蔣萬安 發文 表示   「 稍早 在 慶城街 和 興安街 交叉口 發生 工地 地基 下陷   我正 趕往 現場   請 周遭 居民 和 經過 的 民眾 注意安全   有 最新 資訊   市府 會 即刻 通知   」</t>
+          <t>台北市 松山區 慶城街 一處 工地 附近 今 23 晚傳出 地層下陷 狀況 停路邊 停車格 車輛 車身 甚至 已經 傾斜響 4 台車輛 傾斜 現場 為 新建 工地 地基 下陷 下陷 範圍 評估 中無人 受傷 已劃 設 警戒 線 台北 市長 蔣 萬安 副 市長 李 四川 正 趕往 現場 台北 市長 蔣 萬安 發文 表示 「 稍早 慶城街 興安街 交叉口 發 工地 地基 下陷 我正 趕往 現場 請 周遭 居民 經過 民眾 注意安全 最新 資訊 市府 會 即刻 通知 」</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>台北市 慶城街 與 興安街 交叉口 今   23   晚發生 工地 地基 下陷   台北 市長 蔣萬安 發出 通知   提醒 周遭 居民 和 經過 的 民眾 注意安全   蔣萬安及 台北市 副 市長 李 四川 目前 也 趕到 事故 現場   了解 事發 原因   蔣萬安受 訪時 指出   今晚 9 點 左右 接獲 通報   慶城街 與 興安街 交叉口 一處 新建 工地 發生 下陷   第一 時間 即 通知 相關 單位   現場 也 拉起 警戒 線   無人 傷亡   不過 造成 四輛 停放 車輛 傾斜   蔣萬安 指出   目前 新建 工地 還沒 進行 基礎 開 挖   即將 準備 施作 的 連續 壁 工程 也 還沒 開始   只是 在 做 導溝   初步 了解 是 因為 內部 支撐力 不夠   造成 導溝 外壁 下陷   目前 緊急 回填 導溝 中   台北市 結構 技師 公會 理事 長 徐茂卿 表示   「 因為 工地 局部 導溝 施作 不佳   造成 道路 坍陷   現在 最 重要 的 是   把 導溝 內 的 坑洞 補起 來   由 於 區域 不大   災害 擴大跡 象 不 至於 產生 很大 的 影響   」</t>
+          <t>台北市 慶城街 與 興安街 交叉口 今 23 晚發 工地 地基 下陷 台北 市長 蔣 萬安 發出 通知 提醒 周遭 居民 經過 民眾 注意安全 蔣 萬安 台北市 副 市長 李 四川 目前 趕到 事故 現場 了解 事發 原因 蔣 萬安 受訪 時 指出 今晚 9 點 左右 接獲 通報 慶城街 與 興安街 交叉口 一處 新建 工地 發 下陷 第一 時間 即 通知 相關 單位 現場 拉起 警戒 線無人 傷亡 不過 造成 四輛 停放 車輛 傾斜 蔣 萬安 指出 目前 新建 工地 還沒 進行 基礎 開 挖 即將 準備 施作 連續 壁 工程 還沒 開始 只導溝 初步 了解 因為 部支 撐力 不夠 造成 導溝 外壁 下陷 目前 緊急 回填 導溝 中 台北市 結構 技師會 理事 長 徐茂卿 表示 「 因為 工地 局部 導溝 施作 不佳 造成 道路 坍陷 現 最 重要 把 導溝 坑洞 補起 來 由 於 區域 不大災害 擴大跡 象 不 至於 產 很大 響 」</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山區 慶城街 和 興安街 交叉路口 的 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 在 路邊 停車格 的 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前 市長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 有 的 問題     台北市 松山區 慶城街 和 興安街 交叉路口 的 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 也 發生 好 幾起 地層下陷 事件   柯文 哲今 早 在 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 有 的 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 做 的 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  </t>
+          <t>〔 台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 23 日發 地基 塌陷 工地 旁 4 輛停 路邊 停車格 轎車 車身 隨著 地基 塌陷 呈 70 度 傾斜 幸好 無人 傷亡 對 此 台北市 前 市長 柯文 哲今 早 24 日 受訪 表示 台北市 地層下陷 警示 區這本 來 就 問題 台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 發 地基 塌陷 而 柯文 哲 卸任 後 發好 幾起 地層下陷 事件 柯文 哲今 早 關渡 宮前 受訪 表示 台北市 本來 就 地層下陷 警示 區其 實去 工務局 網站 看 就 知道 地層下陷 警示 區好 幾個 台北盆地 這本來 就 問題 媒體 詢問 地層下陷 建商 問題 或 地質 需進 一步 檢查 柯文 哲回應 他們 地圖 已經 相當 完整 高 危險區 要 能夠 事 知道</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 在 路旁 的 4 台車 受到 波及   人行道 路面 也 凹陷   北市 府 也 緊急 成立 指揮 中心 處理   台北 市長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 有 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 和 檢測   目前 僅有 塌陷 處東側 有 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   也 都 沒 有 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 也 一 併 檢查 處理   此次 台北市 政府 昨晚 在 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   也 開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 內 二度 有 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 做 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 也 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 有 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報 「 會 請 建管處 全面 清查 」   另外 此次 第一 時間 也 有 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   也 謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 有 溝通 聯 繫  </t>
+          <t>台北市 松山區 慶城街 一處 新建 工地 昨 23 天晚 間 發 地基 塌陷 意外 停 路旁 4 台車 受到 波 人行道 路面 凹陷 北市 府 緊急 成立 指揮 中心 處理 台北 市長 蔣 萬安 今早 二度 到 現場 視察 現況 被問 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報 市府 無因 應 對 此 他 表示 會 請 建管處 全面 清查 台北 慶城街 塌陷 案 截至 上午 11 點已 回填 360 立方 回填 高度 已近 安全 目標值 3 約 12 點 左右 就 會 完成 作業 而 比 對 相關 數據 檢測 目前 僅 塌陷 處東側 超過 15 分 裂痕 西 南北 側比 對 監測 數值 正常 都 沒 地面 塌陷 鄰房 傾斜 狀況 管線 路樹 等 一 併 檢查 處理 此次 台北市 政府 昨晚 慶城街 工地 塌陷 事 發後緊 急 成立 指揮 中心 開罰 18 萬並 勒令 停業 要求 工作 灌漿 回填 確保 安全 這蔣 萬安 任 二度 建案 塌陷 發 此次 處理 速度 較 上次 更快 蔣 萬安 強調 每 一次 事件 發都會 一次 檢視 只要 機制 完善 每個 人員落 實運作 其實 反應 就 會 快速 確實 確保 各項 安全 讓 一切 恢 復 正常 不過 外界 質疑 相比 日前 雙北惡 臭案 市府 被質 疑動作 慢半拍 蔣 萬安 回應 往後相關 機制 調整 完善 確 保人 員透過 機制 系統 運作 其實 各項 反應 就 能 即刻 因應後續 處理 就 會 到位 至於 許淑華 透露 年前 就 接獲 異常通 報且 未來 可以 跟 外審 單位 大地 工程 結構 技師 等 一起 監工 對 此 蔣 萬安 表示 異常 通報 「 會 請 建管處 全面 清查 」 另外 此次 第一 時間 邀請 四大 工會 技師 結構 大地 建築師 工會 參與謝 謝里長 到 現場 協助 各項 監測 這 部份 第一 時間 都 溝通 聯 繫</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街   興安街 交叉口 昨   23   天晚間 突發生 工地 地基 塌陷 問題   連帶 週邊 停 在 路旁 的 汽車   人行道 也 傾斜 下陷   北市 府 緊急 下令 回填   經過 連夜 灌漿   截至 今   24   早 7 點 左右   已經 灌漿 250 方   初估 中午 12 點可 完成   另外 也 針對業者 開罰 18 萬並 勒令停工   據 了解   新建 工地 尚未 開挖   只是 在 做 導溝   疑似 因內部 支撐力 不夠   造成 導溝 外壁 下陷   所幸 無人 傷亡   而 除了 導溝 回填 外   北市 府 表示 外側 坍塌 處   為 預防樹木 傾倒   且 灌漿 回填 後 樹木無法 存活   故將 4 棵 黑板 樹鋸斷   此外   北市 府 開罰 業者 18 萬   並 勒令停工   而 雖然 目前 沒有 漏水 情況   但 接下 來 自來 水處 將持續 監測   早上 也 會 進場 做 透地雷達 檢測   並確 認管線 及 排水 溝 是否 破壞 及 處理 方式   待 基地 內側 灌漿 完成 及 初 凝 後   即 進行 道路 回填   北市 府 透露   今早 沒 有 再 塌陷 情況   監測 資料 今天 比 對 完成 後 公布  </t>
+          <t>台北市 慶城街 興安街 交叉口 昨 23 天晚間 突發 工地 地基 塌陷 問題 連帶 週邊 停 路旁 汽車 人行道 傾斜 下陷 北市 府 緊急 下令 回填 經過 連夜 灌漿 截至 今 24 早 7 點 左右 已經 灌漿 250 方初估 中午 12 點可 完成 另外 針對業 開罰 18 萬並 勒令停工 據 了解 新建 工地 尚未 開挖 只導溝 疑似 因部 支撐力 不夠 造成 導溝 外壁 下陷 所幸 無人 傷亡 而 除了 導溝 回填 外 北市 府 表示 外側 坍塌 處為 預防樹木 傾倒且 灌漿 回填 後 樹木無法 存活 故將 4 棵 黑板 樹鋸斷 此外 北市 府 開罰業 18 萬並 勒令停工 而 雖然 目前 沒 漏水 情況 但 接下 來 自來 水處 將持續 監測 早上 會 進場 透地雷達 檢測 並確 認管線 排水 溝破壞 處理 方式 待 基地 側灌漿 完成 初凝後即 進行 道路 回填 北市 府 透露 今早 沒 再 塌陷 情況 監測 資料 今天 比 對 完成 後 布</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街   興安街 一處 新建 工地   昨   23   天晚間 發生 地基 塌陷 意外   造成 停 在 路旁 的 四台 車 受到 波及   人行道 路面 也 呈現 V 字型 凹陷   面積 約 4 公尺 長   30 公尺 寬   深度 約 1.5 公尺   所幸 週邊 建築物 沒有 危險   相關 單位 連夜 在 現場 進行 回填 作業   不過 工地 遭罰 18 萬 勒令停工   事發 原因 尚待 調查   慶城街 新建 工地 地基 下陷   路面 坍塌   人行道   工程 圍籬 都 明顯 下陷   路旁 停車格 也 消失 一大半   當時 路邊 4 輛汽車 也 遭殃 歪斜   建商 連夜 回填 灌漿   避免 塌陷 擴大   據 了解   該 處興 建工 地原 是 要 蓋 豪宅 大樓   原先 工地 上 有 地下 三層 地下室 的 建物   疑似 拆除 建物 後   地下室 在 進行 導溝 作業 的 時候   內部導 溝支 撐力 不足 才 發生 坍塌 意外   所幸 工地 尚未 進行 大規模 的 開 挖   沒 再 釀 更 大 事故   此次 路面 坍塌 面積長 約 4 公尺   寬約 30 公尺   深度 1.5 公尺   目前 週邊 建築物 沒有 相關 安危   而 北市 建管處 勘查 後   昨天 深夜 確定 裁罰 18 萬   並 勒令 回填 穩定 後 停工   待 確保 工地 安全   業者   建商 提出 復工 審查   才 會 進行後續 作業   至於 事發 原因 仍待 調查  </t>
+          <t>台北市 松山區 慶城街 興安街 一處 新建 工地 昨 23 天晚 間 發 地基 塌陷 意外 造成 停 路旁 四台 車 受到 波 人行道 路面 呈現 V 字型 凹陷 面積 約 4 長 30 寬 深度 約 1.5 所幸 週邊 建築物 沒 危險 相關 單位 連夜 現場 進行 回填 作業 不過 工地 遭罰 18 萬 勒令停工 事發 原因 尚待 調查 慶城街 新建 工地 地基 下陷 路面 坍塌 人行道 工程 圍籬 都 明顯 下陷 路旁 停車格 消失 一大半 當時 路邊 4 輛汽車 遭殃 歪斜 建商 連夜 回填 灌漿 避免 塌陷 擴大據 了解 該 處興 建工 地原 要 蓋 豪宅 大樓 原 工地 上 地下 三層 地下室 建物 疑似 拆除 建物 後 地下室 進行 導溝 作業 時候 部導溝 支撐力 不足 才 發 坍塌 意外 所幸 工地 尚未 進行 大規 模開 挖 沒 再 釀 更 大 事故 此次 路面 坍塌 面積長 約 4 寬約 30 深度 1.5 目前 週邊 建築物 沒 相關 安危 而 北市 建管處 勘查 後 昨天 深夜 確定 裁罰 18 萬並 勒令 回填 穩定 後 停工 待 確保 工地 安全 業建商 提出 復工 審查 才 會 進行後續 作業 至於 事發 原因 仍待 調查</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 松山區 慶城街 昨   23   天晚間 發生 地層下陷   身為 前 台北 市長   民眾 黨 主席 柯文 哲今 早 挑戰 一日 北高   被 問到 卸任 後 北市 兩度 發生 工地 地層下陷   他 表示 台北市 是 盆地   本來 就是 地層下陷 檢視區   認為 高 危險區 要 能夠 事先 知道   並做 必要措施   柯文 哲 今天 一大早 6 點多   從 台北 關渡 宮出 發挑戰 一日 北高   面對慶 城街 昨晚 發生 地層下陷   他 認為 台北市 本來 就是 地層下陷 檢視區   工務 局網 站上 可以 看到 有 好 幾個 區域   且 北市 本來 就是 盆地   所以 本來 就 有 這個 問題   至於 問題 出 在 誰 身上   柯文 哲認 為   本來 地質 就 應該 多 注意   北市 做 的 地路 已經 相當 完整   高 危險區 要 能夠 事先 知道   做 必要措施 防範  </t>
+          <t>台北 松山區 慶城街 昨 23 天晚 間 發 地層下陷 身為 前 台北 市長 民眾 黨 主席 柯文 哲今 早 挑戰 一日 北高 被 問到 卸任 後 北市 兩度 發 工地 地層下陷 他 表示 台北市 盆地 本來 就 地層下陷 檢視區 認為 高 危險區 要 能夠 事 知道 並 必要措施 柯文 哲 今天 一大早 6 點多 從 台北 關渡 宮出 發挑戰 一日 北高 面對 慶城街 昨晚 發 地層下陷 他 認為 台北市 本來 就 地層下陷 檢視區 工務 局網 站上 可以 看到 好 幾個 區域 且 北市 本來 就 盆地 所以 本來 就 這個 問題 至於 問題 出 誰 身上 柯文 哲認 為 本來 地質 就 應該 多 注意 北市 地路 已經 相當 完整 高 危險區 要 能夠 事 知道 必要措施 防範</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 的 搶 救   工地 內 崩塌 範圍 已 完成 回填   今天下午 也 開始 灌漿 工地 外圍 的 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 的 地下 建築 結構 時   挖到 不連續 的 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 的 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 也 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言   「 好 意外   真的 很 意外   文華飯 店 當初 蓋 的 時候 這麼 近   也 沒 有 發生過 問題   」 精華 地段 的 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 的 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 在 前置 的 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 的 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 的 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出   「 破除 既有 的 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 的 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 的 側壁壓 變形 之 後   就 產生 這樣 的 崩塌 現象   」 台北 市長 蔣萬安週 六 上午 也 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮   「 在 西側   南側   北側 目前 比 對 的 監測 數值 是 正常   而且 也 都 沒 有 地面 塌陷 以及 鄰房 傾斜 的 狀況   」 建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  </t>
+          <t>台北市 松山區 慶城街 一處 新建 工地 旁 昨天 晚間 發 路面 塌陷 意外 經過 將近 20 小時 搶 救 工地 崩塌 範圍 已 完成 回填 今天下午 開始 灌漿 工地 外圍 塌陷 路面 初步 研判 疑似 新建 工程 拆除 建地 既 地下 建築 結構 時 挖 到 不連續 弱面 才 導致 導溝 崩塌 台北市 松山區 慶城街 新建 工地 23 日 晚間 發地層 坍陷 意外 經過 約 18 小時 緊急 搶 救 工地 外圍 崩塌 範圍終 於 展開 回填 作業 從 制高點 俯瞰 更 清楚 混 泥土 車來 回 進出 灌漿 沒 停過 因為 這一崩 不僅 人行道 嚴重 下陷 路邊 車格 消失 一大半 當時還 4 輛汽車 差點 被 吞噬 附近 住戶 直言 「 好 意外 真 很 意外 文華飯 店當 初蓋 時候 這麼 近 沒 發過 問題 」 精華 地段 豪宅 新建 案出 現大 坍塌 讓 附近 居民 全都 嚇壞 畢竟 這長 約 4 寬約 30 深度 達到 1.5 坍陷 範圍實 不小 而且 建案 甚至 才 正 準備 施作 連續 壁 基礎 地基 都 還沒大規 模開 挖 竟然 就 前置 導溝 作業發 意外 初步 研判 坍塌 原因 跟 建地 原存 地下室 結構 脫 不了 關 係 原來 這回 要 建立 深導溝 越過 既 結構 時 卻 不慎 碰到 既存 不連續 面才會 釀禍 台北市 土木 技師會 理事 長 莊均緯 指出 「 破除 既連續 壁 跟 外牆 個 地方 個 不連續 面原 地下室 這個 部分 外牆 它 推擠 進來 變位 就 把 原來 深導 溝側 壁壓 變形 之後就產 這樣 崩塌 現象 」 台北 市長 蔣 萬安 週六 上午 二度 到 現場 勘查 向 居民 保證 周邊 住宅 暫無 安全 疑慮 「 西側 南側 北側 目前 比對 監測 數值 正常 而且 都 沒 地面 塌陷 以鄰房 傾斜 狀況 」 建管處 則緊 急 開罰 18 萬並 勒令停工 後 續 就 待 道路 回填 並由 透地雷達 確認 周邊 無 安全 疑慮 就 可 恢 復 通車 還給 居民 安全 環境</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街 一處 新建 工地 昨晚 發生 地層下陷 事故   對 於 台北市 接連 發生 地層下陷 事件   前 台北 市長   民眾 黨 主席 柯文 哲 今天 表示   台北市 本來 就是 地層下陷 潛勢區   台北市 政府 已經 把 地圖 做 得 很 完整   要 先 知道 高 危險區   並做 必要 的 措施       柯文 哲 表示   台北市 本來 就是 地層下陷 潛勢區   其實 只要 去 工務局 往 上查 一下   就 可以 看到 地層下陷 潛勢區 有 好 幾個   因為 這個 地方 本來 就是 盆地   所以 就 會 有 這個 問題   目前 台北市 做 的 地圖 已經 相當 完整   高 危險區 要 事先 知道   做出 必要 的 措施  </t>
+          <t>台北市 慶城街 一處 新建 工地 昨晚 發 地層下陷 事故 對 於 台北市 接連發 地層下陷 事件 前 台北 市長 民眾 黨 主席 柯文 哲 今天 表示 台北市 本來 就 地層下陷 潛勢區 台北市 政府 已經 把 地圖 得 很 完整 要 知道 高 危險 區並 必要措施 柯文 哲 表示 台北市 本來 就 地層下陷 潛勢區 其實 只要 去 工務局 往 上查 一下 就 可以 看到 地層下陷 潛勢區 好 幾個 因為 這個 地方 本來 就 盆地 所以 就會 這個 問題 目前 台北市 地圖 已經 相當 完整 高 危險區 要 事 知道 出 必要措施</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街 工地 附近   週 五晚 間 坍塌 下陷   昨天 基地 內 回填 完成 後   今   25   天 上午 台北市 副 市長 李 四川 再度 到場 視察   評估 地基 沒有 再 下陷   宣布 慶城街 上午 十點 恢 復 通車   李 四川 表示   填平 的 地方 沒有 繼續 沉陷   路面 部分 希望 今晚 人少 的 時候   重新 把 瀝青 鋪 好   明天 週一 上班 就 能 恢 復 正常 了   由 於 這已 經是 蔣 市府 上任 以來   兩年 內 發生 的 第 7 起 塌陷 事件   李 四川 也 要求 持續 監測   建商 若想 復工   依法 必須 交出 復工 計畫   經過 政府 和 專業 技師 公會 審查   確認 安全 無虞 後 才能 繼續 動工  </t>
+          <t>台北市 慶城街 工地 附近 週 五晚 間 坍塌 下陷 昨天 基地 回填 完成 後 今 25 天 上午 台北市 副 市長 李 四川 再度 到場 視察 評估 地基 沒 再 下陷 宣布 慶城街 上午 十點 恢 復 通車 李 四川 表示 填平 地方 沒繼續 沉陷 路面 部分 希望 今晚 人少 時候 重新 把 瀝青 鋪 好 明天 週一 上班 就 能 恢 復 正常 了 由 於 這已 經蔣 市府 上任 以來 兩年 發第 7 起 塌陷 事件 李 四川 要求 持續 監測 建商 若想 復工 依法 必須 交出 復工 計畫 經過 政府 專業 技師會 審查 確認 安全 無虞 後 才能 繼續 動工</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 在 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮     「 泳道 南側 比北側 低 了 約 14 公分   」 台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 在 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 及 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  </t>
+          <t>〔 台中市 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁 由 於 地下水 井積沙 淤泥 嚴重 去年 起 停止 對外 開放 地方 民眾 認為 未 於 本月 如期 開館 營運 通報 台中市 議員 曾威 查出 泳池 前後地層 落差 約 14 分疑 地層下陷 疑慮 環保局 強調 立即 通報 土木 技師 會勘 釐 清 下陷 疑慮 「 泳道 南側 比北側 低 了 約 14 分 」 台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量 查出 50 泳道 平面 傾斜 約 14 分南側 地勢 明顯 較 低 疑似 地層下陷 緊急 通報 台中市 土木 技師會 複 驗 曾威 說 泳池 蓋 慶光路 焚化 爐旁 運用 焚化 爐 回饋 金設 置 當初 建造 因空 污響 社區 回饋 鄉 親營運 十年 來 陸續 發 池底 積沙頂 棚 消防 設備 被 消防局 要求 改善 等 問題 且 沒水 狀況 下 泳池 兩端 落差 14 分 疑似 後 方 地層下陷 相當 危險 烏日 溫水 游泳池 於 2016 年 起營 運設 10 道 50 泳道 兒童池 spa 池 烤箱 蒸氣室 今年 起 由 台中市 體育局 移交 給環 保局 列管 會勘 團隊 查出 泳池 北側 地勢 最高 處 水面 距 泳池 頂約 20 分南側 地勢 最低 處僅 約 6 分結 構明 顯出 問題 土木 技師 初 勘 認定 複 雜 程度 估價 再 進行後續 評估 結構 補強 作業 環保局 副 局長 陳 政良 說 預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節 至於 地層下陷 疑慮將 15 日請 廠商 鑑定 評估 盡 全力 讓 泳池 盡快 恢 復 營運</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 在 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮     「 泳道 南側 比北側 低 了 約 十四 公分 」   環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 在 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 ○ 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 及 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  </t>
+          <t>〔 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁 由 於 地下水 井積沙 淤泥 嚴重 去年 起 停止 對外 開放 地方 民眾 認為 未 於 本月 如期 開館 營運通 報市 議員 曾威 查出 泳池 前後地層 落差 約 十四分 疑 地層下陷 疑慮 環保局 強調 立即 通報 土木 技師 會勘 釐 清 下陷 疑慮 「 泳道 南側 比北側 低 了 約 十四分 」 環保局 技士 本週 前往 烏日 溫水 游泳池 測量 查出 五十 泳道 平面 傾斜 約 十四分 南側 地勢 明顯 較 低 疑似 地層下陷 緊急 通報 台中市 土木 技師會 複 驗 曾威 說 泳池 蓋 慶光路 焚化 爐旁 運用 焚化 爐 回饋 金設 置 當初 建造 因空 污響 社區 回饋 鄉 親營運 十年 來 陸續 發 池底 積沙頂 棚 消防 設備 被 消防局 要求 改善 等 問題 且 沒水 狀況 下 泳池 兩端 落差 十四分 疑似 後 方 地層下陷 相當 危險 烏日 溫水 游泳池 於 二一六年 起營 運設 十道 五十 長 泳道 兒童池 spa 池 烤箱 蒸氣室 今年 起 由 體育局 移交 給環 保局 列管 會勘 團隊 查出 泳池 北側 地勢 最高 處 水面 距 泳池 頂約 廿分 南側 地勢 最低 處 水面 距 泳池 頂僅 約 六分 結構 明顯 出 問題 土木 技師 初 勘 認定 複 雜 程度 估價 再 進行後續 評估 結構 補強 作業 環保局 副 局長 陳 政良 說 預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節 至於 地層下陷 疑慮將 於 十五日 請廠 商鑑定 評估 讓 泳池 儘 快 恢 復 營 運</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 李容萍 ／ 桃園 報導 〕 桃園市 石門 水庫 水情 吃緊   截至 今   21 日   中午   蓄水量 7131 萬噸   蓄水 率 34.75 ％   經濟部 水利 署自 19 日起 調整 桃竹苗 地區 水情 燈號 為 「 水情 提醒 」 的 綠燈   提醒 各界 節約 用水   國立 中央 大學 研究 團隊 今 發表 於 新屋 綠色 隧道 海岸 線 TaiCOAST 臨海 工作站   發現 地下水 出流 現象 非常 強勁   每年 出 流量 達 1 億公噸   相當 半座 石門 水庫 容量   這項 成果 刊載 於 新一期 「 水文 學雜誌 」 Journal   of   Hydrology     Regional   Studies 頂尖 期刊   未來 可進 一步 研究 探討 如何 適度 使用 不會 造成 環境 危害     中央 大學應 用地 質 研究所 教授 倪春發 表示   海岸 帶 地下水 出流   Submarine   Groundwater   Discharge     SGD   為 地下水 直接 流進 海洋 的 自然 現象   普遍存在 於 世界各地   中央 大學 TaiCOAST 臨海 工作站 自 2021 年 開始 進行 新屋 的 海岸 帶 地下水 出 流量 調查   發現 即使 在 2021 年 大旱 期間   遭遇 台灣 56 年 來 最 嚴重 的 缺水 危機   出 流量 仍 相當 豐沛     研究 團隊 透過 鑽井   深入 地下 100 公尺   發現 打出 的 仍 是 淡水   透過 數學 模型 計算 流速 和 面積 累加   發現 新屋 地區 的 海岸 帶 地下水 出 流量 每天 可達 30 萬噸   1 年 高達 1 億噸   相當 半座 石門 水庫 容量   近年 來 調查 結果 更 發現   新屋 區往 北 的 海岸 出 流量 有 更 高潛勢   顯示 桃園 海岸 帶 整體 地下水 出 流量 更為 可觀     研究 團隊 指出   台灣 年 降雨量 約 2500 毫米   約 為 全球 平均 的 3 倍   但 因 台灣 地形 梯度 較大   60 ％ 流入 海洋   只有 5 ％ 在 含水 層   儘 管 台灣 降水量 高   但 水資源 有限   雖然 發現 地下水 出 流量 資源 豐沛   但 如何 汲水 開發   不致 造成 海水 入侵 和 地層下陷   涉及 政策   科學 和 工程 等 多重 挑戰   還需 兼顧 出海口 生態 的 平衡   才能 造福 國家 社會     此 研究 團隊 涵蓋 中央 大學 地球 科學學院 各系所 老師   包括 應 用地 質 研究所 教授 倪春發   副教授 王士榮   水文 與 海洋 科學 研究所 教授 李明旭   錢樺   副教授 黃 志 誠   以及 地球 科學學系 教授 顏宏元   陳 建志 等 人   各自 發揮 所長   追求 科學 卓越   也 期許 對 人類 社會 有所 貢獻  </t>
+          <t>〔 桃園市 石門 水庫 水情 吃緊 截至 今 21 日 中午 蓄水量 7131 萬噸 蓄水 率 34.75 ％ 經濟部 水利 署自 19 日起 調整 桃竹苗 地區 水情 燈號 為 「 水情 提醒 」 綠燈 提醒 各界 節約 用水 國立 中央 大學 研究 團隊 今 發表 於 新屋 綠色 隧道 海岸 線 TaiCOAST 臨海 工作站 發現 地下水 出流 現象 非常 強勁 每年 出 流量 達 1 億噸 相當 半座 石門 水庫 量 這項 成果 刊載 於 新一期 「 水文 學雜誌 」 Journal   of   Hydrology   Regional   Studies 頂尖 期刊 未來 可進 一步 研究 探討 如何 適度 使用 不會 造成 環境 危害 中央 大學應 用地 質 研究所 教授 倪春發 表示 海岸 帶 地下水 出流 Submarine   Groundwater   Discharge   SGD 為 地下水 直接 流進 海洋 自然 現象 普遍 存 於 世界各地 中央 大學 TaiCOAST 臨海 工作站 自 2021 年 開始 進行 新屋 海岸 帶 地下水 出 流量 調查 發現 即使 2021 年 大旱 期間 遭遇 台灣 56 年 來 最 嚴重 缺水 危機出 流量 仍 相當 豐沛 研究 團隊 透過 鑽井 深入 地下 100 發現 打出 仍 淡水 透過 數學 模型 計算 流速 面積 累加 發現 新屋 地區 海岸 帶 地下水 出 流量 每天 可達 30 萬噸 1 年 高達 1 億噸 相當 半座 石門 水庫 量 近年 來 調查 結果 更 發現 新屋區 往 北海岸 出 流量 更高 潛勢 顯示 桃園 海岸 帶 整體 地下水 出 流量 更為 可觀 研究 團隊 指出 台灣 年 降雨量 約 2500 毫米 約 為 全球 平均 3 倍 但 因 台灣 地形 梯度 較大 60 ％ 流入 海洋 只 5 ％ 含水 層 儘 管 台灣 降水量 高 但 水資源限 雖然 發現 地下水 出 流量 資源 豐沛 但 如何 汲水 開發 不致 造成 海水 入侵 地層下陷 涉 政策 科學 工程 等 多重 挑戰 還需 兼顧 出海口 態 平衡 才能 造福 國家 社會此 研究 團隊 涵蓋 中央 大學 地球 科學學院 各系所 老師 包括 應 用地 質 研究所 教授 倪春發 副教授 王士榮 水文 與 海洋 科學 研究所 教授 李明旭 錢 樺 副教授 黃 志誠以 地球 科學學系 教授 顏宏元 陳 建志 等 人 各自 發揮 所長 追求 科學 卓越 期許 對 人類 社會 所 貢獻</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 中山 區 大直 街 「 基泰 大直 」 建案   去年 9 月 因開 挖 不慎   連續 壁斷 裂   導致 鄰房 下陷   25 戶無家 可虧   近百 戶 受損   建案 也 遭 勒令停工   基泰 建設 今 發布 聲明 表示   在 與 受 災戶 溝通下 建案 事故 賠償 已 達 市府 解除 列管 標準   但 因 都 更 程序 關 係   短期 內暫 不 復工   後 續 也 會 和 願 和解 受災 持續 調解       基泰 表示   由福益 營造 公司 承包 的 「 基泰 大直 」 建案 事故 發生 後   經與 市府 協調   建案 起造 人 基泰 公司 對外 宣示 負起 所有 責任   為 加速 後 續理 賠   基泰 公司 進 行人 事 改組   由 新任 高階 主管 與 團隊   全權 處理 中   目前 25 拆除 戶 重建 案 已 依 都 更 程序 進行   因 程序 關 係   短期 內暫 不 施工   無 外界 抹黑 基泰 急 於 大直 案 復工 情事                             基泰 說   包含 179 戶鄰 損受 災戶 與 道 明國際學 校理 賠   日前 已 與 多位 受災戶   學校 達成 和解   過程 中 雖 遭 部分 人士 抹黑   阻礙   但 在 公司 與 受 災戶 溝通   已達 到 巿 府 鄰損 賠償 解除 列管 標準   基 於 企業 責任   以公會 鑑定價 的 1.2 倍 做 賠償 基礎   爲 受 災戶 爭取 最大 幫助   且里長 舉辦 說 明會 到 賠償金 的 發放   全程 透明       基泰 表示   市府 因該 案 事故 緊急 支出   在 各 單位 協助 下   已 完成 多項 給付   目前 只 剩少 數項 目待 細項 核 對 後   即可 全部 完成   對 於 不願 和解 受災戶   基泰 公司 予以 尊重   將以 提存 賠償金 的 方式   與 部分 受災戶 進行 鄰損 調解 程序       基泰 也 感謝 市政府 和 大直 里里長   各級民代 在 救災 與 賠償 程序 中 的 協助   以 讓 受 災戶 盡快 恢 復 正常 生活   日後在 各方 督導下   基泰 公司 基 於 社會責任   必 致力 與 社會 各界 共創 美好 未來   另針 對少 數民代以 不 實言論 攻訐 企圖 阻撓 受災戶 和解 情事   基泰 公司 表示   將採 法律 途徑   以正視 聽  </t>
+          <t>北市 中山區 大直街 「 基泰 大直 」 建案 去年 9 月 因開 挖 不慎 連續 壁斷 裂導致 鄰房 下陷 25 戶無家 可虧 近百 戶受 損建案 遭 勒令停工 基泰 建設 今 發布 聲明 表示 與 受 災戶 溝通下 建案 事故 賠償 已 達 市府 解除 列管 標準 但 因 都 更 程序 關 係 短期 暫 不 復工 後 續會願 解受 災持續 調解 基泰 表示 由福益 營造司 承包 「 基泰 大直 」 建案 事故 發後經 與 市府 協調 建案 起造 人 基泰 司對外 宣示 負起 所責任 為 加速 後 續理 賠 基泰 司進 行人 事 改組 由 新任 高階 主管 與 團隊 全權 處理 中 目前 25 拆除 戶 重建 案 已 依 都 更 程序 進行 因 程序 關 係 短期 暫 不 施工 無 外界 抹黑 基泰 急 於 大直 案 復工 情事 基泰 說 包含 179 戶鄰 損受 災戶 與 道 明 國際 學校理 賠 日前 已 與 多位 受災戶 學校 達 成解 過程 中 雖 遭 部分 人士 抹黑 阻礙 但司 與 受 災戶 溝通 已 達 到 巿 府 鄰損 賠償 解除 列管 標準 基 於 企業 責任 以會 鑑定價 1.2 倍 賠償 基礎 爲 受 災戶 爭取 最大 幫助且 里 長 舉辦 說 明會 到 賠償金 發放 全程 透明 基泰 表示 市府 因該 案 事故 緊急 支出 各 單位 協助 下 已 完成 多項 給付 目前 只 剩少 數項 目待 細項 核 對 後 即可 全部 完成 對 於 不願 解受 災戶 基泰 司 予以 尊重 將以 提存 賠償金 方式 與 部分 受災戶 進行 鄰損 調解 程序 基泰 感謝 市政府 大直 里里長 各級民代 救災 與 賠償 程序 中協助 以 讓 受 災戶 盡快 恢 復 正常 活日 後 各方 督導下 基泰 司基 於 社會責 任必 致力 與 社會 各界 共創 美好 未來 另針 對少 數民代以 不 實言論 攻訐 企圖 阻撓 受 災戶解 情事 基泰 司 表示 將採 法律 途徑 以 正視 聽</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 有 地層下陷 的 現象   為確 保泡湯 安全   目前 已 封閉 修繕 中     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>新北市 萬里區 加投 溫泉 共 浴室 疑似 地層下陷 現象 為 確保 泡湯 安全 目前 已 封閉 修繕 中 所 提供 中央社 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 有 地層下陷 的 現象   造成 浴池 受損   壁磚 脫落   未來將 進行 修繕 改善   確認 無 危險 之 虞   才 會 再行 開放 供民眾 使用     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>新北市 萬里區 加投 溫泉 共 浴室 疑似 地層下陷 現象 造成 浴池 受 損壁 磚脫 落 未來將 進行 修繕 改善 確認 無 危險 之 虞 才 會 再行 開放 供民眾 使用 所 提供 中央社 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>新北市 萬里 的 「 加投 溫泉 」 公共 浴室   算是 古 蹟 了   它 是 日據 時期 就 蓋 好 的   而且 到現 在 也 有 很多 人   喜歡 來 這裡 泡湯   不過 上個 月 開始   這裡 出現 大大小小 問題   浴池 磁磚 掉落   水泥柱 有 裂痕   地面 也 嚴重 傾斜   因此 現在 浴池 已經 暫時 封閉 了   等到 廠 商都 修繕 完畢   確認 安全 都 沒 問題   才 會 再度 開放       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   / / reurl . cc / kqyqML   鏡新聞 APP   Android 👉 https   / / reurl . cc / Ay2y63   有話 鏡來講 YT 👉 https   / / reurl . cc / A4DjQj   少年 新聞 週記 YT 👉 https   / / reurl . cc / K4DeN9</t>
+          <t>新北市 萬里 「 加投 溫泉 」 共 浴室 算古 蹟 了 它 日據 時期 就 蓋 好 而且 到現 很多 人喜 歡來 這裡 泡 湯不過 上個 月 開始 這裡 出現 大大小小 問題 浴池 磁磚 掉落 水泥柱 裂痕 地面 嚴重 傾斜 因此 現 浴池 已經 暫時 封閉 了 等到 廠 商都 修繕 完畢 確認 安全 都 沒 問題 才 會 再度 開放   鏡新聞 已 上架 86 台若 無法 收看 請 洽詢 當地系 統台   鏡新聞 APP   iOS 👉 httpsreurl . cckqyqML   鏡新聞 APP   Android 👉 httpsreurl . ccAy2y63   話鏡 來講 YT 👉 httpsreurl . ccA4DjQj   少年 新聞週 YT 👉 httpsreurl . ccK4DeN9</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 的 新北市 萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 也 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 有 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北市 議員 周雅玲 表示   她 接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商 到場 會勘 後 發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   在 男女 湯室 地底下 有 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 在 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   她 建議 應該 邀請 土木 技師 一 併 會勘   包含 溫泉 主管 機關 的 經濟 發展局   水利局 邀請 來   對 於 周邊 的 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 有 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 的 改善 方法   公所 將再 請 新北市 土木 技師 公會 等 相關 專家 進行 專業 的 檢查 評估   期望 在 確保 安全 無虞 的 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   她 呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  </t>
+          <t>〔 日治 時代 建造 新北市 萬里區 加投 溫泉 共 浴室 因 係 屬免 費泡湯 不但 金山 萬里 當地民眾 喜愛就連 基隆 人 搭車 專程 前來 免費 泡 湯因 日前 發現 疑似 地層下陷 萬里區 所 立即 封閉 浴室 並邀 請 專業 技師 與 工程 廠商 勘查 將於 完成 改善 並確 認無 危險 才 會 再行 開放 新北市 議員 周雅玲 表示 接獲 當地民眾 反映 加投 溫泉 共 浴室 屋頂 漏水 排水 不良 牆裂 縫 等 事宜 廠商 到場 會勘 後 發現 懷疑 地層下陷 為確 保民 眾泡湯 安全 自 3 月 4 日起 封閉 浴室 經技師 以 透地雷達 探測 後 男女 湯室 地底下 土壤 流失 現象 所 再度 發起現 勘商 討後續 改善 辦法 周雅玲 指出 萬里加投 溫泉 共 浴室 10 多年 前 曾 經修繕 當時 就 曾經 出動 透地雷達 探測 這次 透地雷達 探測 與 當年 比較 發現 問題 較 為 嚴 重建 議 應該 邀請 土木 技師 一 併 會勘 包含 溫泉 主管 機關 經濟 發展局 水利局 邀請 來 對 於 周邊 溫泉 開發應 予以 總量 管制 以免 加投 溫泉 共 浴室 慘遭 池魚 之殃 萬里區 區長 黃 雱 勉 表示 加投 溫泉 共 浴室 經專業 技師 檢視 發現 下陷 致建築物 傾斜 情形 為 瞭解 確切 原因 找出 效 改善 方法 所將 再 請 新北市 土木 技師會 等 相關 專家 進行 專業 檢查 評估 期望 確保 安全 無虞 前提 下 儘 早 恢 復 提供 民眾 泡 湯空間 呼籲加 投 溫泉 共 浴室 封閉 期間 民眾 切勿 擅 闖 翻越 圍籬 進入 使用 以維護 自身 安全</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">新北市 萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 有 地層下陷 的 現象   地質 檢測 人員 檢查   原來 湯室 的 地底 有 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 也 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北市 萬 里加 投溫泉 公共 浴室 在 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 有 泡 湯遊客 反應   燈管   溫度 顯示器 和 溫泉 管線 設備 有 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 的 現象   公所 從 4 號開始 封閉 浴室   也 趕緊 找 專業 技師 到場 檢查   男女 湯室 內 的 地底 有 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 的 溫泉 露頭 有關 係     大鵬里長 李建才   「 露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 的 東西   在 地底下 也 看不到   以 目前 整個 狀況 來講 的 話   下陷 的 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 的 感覺   」   溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   在 流入 浴池 內   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉   「 技師 建議 我們 要 有 專業 的 技師 公會   針對 結構物 下陷 狀況 去 做 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 的 部分 做 改善   還是 可能 要大動 作去 做後續 的 改建   這個 部分 後 續 可能 會 需要 比較 多 的 費用   」   公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 的 泡 湯空間  </t>
+          <t>新北市 萬里加投 溫泉 共 浴室 歷史 悠久 吸引 許多人 前來 泡 湯不過 今年 2 月民眾 反應 溫泉 設備 出 問題 沒 想到 廠商 進場 維修 後 發現 浴池 磁磚 掉落 水泥柱 充滿 裂痕 地面 嚴重 傾斜 等 狀況 更 仔細 勘查 下 竟然 地層下陷 現象 地質 檢測 人員 檢查 原來 湯室 地底 大量 孔隙 造成 土壤 流失 目前 封閉 整修 鋁罐 放 地上 一路 滾 不停 不只 地面 嚴重 傾斜 浴池 還一 大片 磁磚 脫落 水泥柱 充滿 裂痕 原來 這處 溫泉 發 地層下陷 新北市 萬里加投 溫泉 共 浴室 日治時 代興建 歷史 相當 悠久 水質 相當 不錯 吸引 許多人 前來 泡 湯不過 今年 2 月 開始 就 泡 湯遊客 反應 燈管 溫度 顯示器 溫泉 管線 設備 問題 區所派 人 前往 了解 狀況 由 廠商 進場 維修 發現 不只 設備 故障 還磁磚 脫 落地 磚不 平等 狀況 仔細 勘查 下 發現 地層下陷 現象 所 從 4 號開始 封閉 浴室 趕緊 找 專業 技師 到場 檢查 男女 湯室 地底 大量 孔隙 造成 土壤 流失 懷疑 可能 跟 一旁 溫泉 露頭關 係 大鵬里長 李建才 「 露頭 我 不敢 說絕 對 沒關 係 因為 這個 相通 東西 地底下 看不到 以 目前 整個 狀況 來 講話 下陷 狀況 速度 應該 不 很 急速 這 很多年 類似點 掏空 感覺 」 溫泉 從 溫泉 露頭 自然 湧出 抽到 蓄水池 後 流入 浴池 可能 連帶響 地基 被 掏空 萬里區 長 黃 雱 勉 「 技師 建議 我們 要 專業 技師會針 對 結構物 下陷 狀況 去 監測 再 去 評 估後續 不 可以 用液 壓 灌漿 部分 改善 還 可能 要 大動作 去後續 改建 這個 部分 後 續 可能 會 需要 比較 多費用 」 所強 調 儘 快 修建 完成 提供 民眾 安全 舒適 泡 湯空間</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>新北市 萬里區 公所 表示   有民眾 日前 反應加 投溫泉 公共 浴室 內 的 燈管   溫度 顯示器 不亮 等 問題   委 託 廠商 勘查 後 發現   疑似 有 地層下陷 的 現象   圖為 建物 出現 裂縫     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>新北市 萬里區 所 表示 民眾 日前 反應加 投 溫泉 共 浴室 燈管 溫度 顯示器 不亮 等 問題 委 託 廠商 勘查 後 發現 疑似 地層下陷 現象 圖為 建物 出現 裂縫 所 提供 中央社 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 內 的 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 有 地層下陷 的 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 的 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 在 安全 的 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 的 供給 及 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   在 男女 湯室 地下 發現 有 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326</t>
+          <t>萬里區 所以 訊息 說明 萬里區 加投 溫泉 共 浴室 於 日據 時代 建造 歷史 悠久 屬 於 海底 溫泉 為 當地 居民 從小到 大泡 湯空間區 所 表示 因 2 月底 民眾 反應 浴室 燈管 溫度 顯示器 不亮 等 問題 於 委 託 廠商 勘查 後 發現 疑似 地層下陷 現象 為 確保 泡湯 安全 已 封閉 浴室 區長 黃 雱 勉 表示 為 瞭解 確切 原因 找出 效 改善 方法 將邀 請 專業 技師 進行 檢查 評估 以商 討後續 改善 辦法 期望 安全 前提 下 儘 早 恢 復 提供 民眾 泡 湯空間 提醒 民眾 封閉 期間 勿 擅自 進入 使用 以維護 自身 安全 萬里區 所 主任 秘書 許明富 向 中央社 表示 當地過 去 地層下陷 並 完成 改善 多年 未響 溫泉 供給 溫度 加投 溫泉 共 浴室 經找 技師 以 透地雷達 探測 後 男女 湯室 地下 發現 土壤 流失 現象 未來將 進行 修繕 改善 並確 認無 危險 之 虞 才 會 再行 開放 供民眾 使用 編輯 林恕暉 1130326</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">新北 萬里 的 加頭 溫泉 2 月份 被 遊客 發現   不僅 燈管   溫度 顯示氣 等等 設備 有 問題   更 有 地層下陷   因此 趕緊 請 公所 找人 檢修   目前 已經 緊急 封閉   確認 沒有 安全 疑慮   才 會 再度 開放     浴池 內 整塊 磁磚 脫落   地磚 也 不平   甚至 還 有些 地層下陷   看起 來 相當 老舊   這裡 是 新北 萬里 的 加頭 溫泉   從 日據 時代起   就 受到 不少 民眾 喜愛   許多人 泡 完湯   都 覺得 放 鬆 筋骨     不過 2 月份 卻 被 發現   不僅 燈管   溫度 顯示器   和 一些 溫泉 管線 設備 有 問題 外   還有 地層下陷 的 跡象   鐵鋁罐 放在 地上   都 會 不 自主 的   滾向 一邊   加上 後 方 就是 溫泉 露頭   要是 坍方 相當 危險   萬里區 長 黃 雱 勉   「 技師 建議 我們   要 有 專業 的 技師 公會 去   針對 結構物 下陷 狀況   去 做 監測   評估後續 是不是 可以 用   液壓 灌漿 的 部分 做 改善   」   地質 人員 透過 地雷 達 偵測 結果 發現   確實 男女 湯內 地底   有 大量 孔隙   造成 土壤 流失   目前 公所 已經   緊急 封閉 浴室   以民眾 安全 為 第一 考量   盡快 修建       封面 圖 ／ 東森新聞  </t>
+          <t>新北 萬里 加頭 溫泉 2 月份 被 遊客 發現 不僅 燈管 溫度 顯示氣 等等 設備 問題 更 地層下陷 因此 趕緊 請 所 找 人 檢修 目前 已經 緊急 封閉 確認 沒 安全 疑慮 才 會 再度 開放 浴池 整塊 磁磚 脫 落地 磚 不平 甚至 還些 地層下陷 看起 來 相當 老舊 這裡 新北 萬里 加頭 溫泉 從 日據 時代起 就 受到 不少 民眾 喜愛許 多 人 泡 完湯 都 覺得 放 鬆 筋骨 不過 2 月份 卻 被 發現 不僅 燈管 溫度 顯示器 一些 溫泉 管線 設備 問題 外還 地層下陷 跡象 鐵鋁 罐放 地上 都 會 不 自主 滾向 一邊 加上 後 方 就 溫泉 露頭 要 坍方 相當 危險 萬里區 長 黃 雱 勉 「 技師 建議 我們 要 專業 技師會 去 針對 結構物 下陷 狀況 去 監測評 估後續 不 可以 用液 壓 灌漿 部分 改善 」 地質 人員 透過 地雷 達 偵測 結果 發現 確實 男女 湯 地底 大量 孔隙 造成 土壤 流失 目前 所 已 經緊 急 封閉 浴室 以民眾 安全 為 第一 考量 盡快 修建 封面 圖東 森新聞</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 的 新北市 萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 也 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北市 議員 周雅玲 表示   她 接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   在 男女 湯室 的 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 也 出動 透地雷達 探測   這次 發現 問題 較 嚴重   她 建議 邀請 土木 技師 參 與 會勘   經濟 發展局 和 水利局 應針 對 附近 的 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 有 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 在 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  </t>
+          <t>〔 日治 時代 建造 新北市 萬里區 加投 溫泉 共 浴室 提供 大眾 免費 泡 湯不僅 受到 當地民眾 喜愛就連 基隆 人 慕名 前來 日前 發現 疑似 地層下陷 萬里區 所 立即 封閉 浴室 並邀 請 專業 技師 與 工程 廠商 勘查 將於 完成 改善 並確 認沒 危險 才 會 重新 開放 新北市 議員 周雅玲 表示 接獲 當地民眾 反映 加投 溫泉 共 浴室 屋頂 漏水 排水 不良 牆面 出現 裂縫 廠商 會勘 後 懷疑 地層下陷 為確 保民 眾 安全 三月 四日 起封閉 浴室 經技師 以 透地雷達 探測 男女 湯室 地底下 發現 土壤 流失 現象 周雅玲 指出 萬里加投 溫泉 共 浴室 十多年 前 曾 經修繕 當時 出動 透地雷達 探測 這次 發現 問題 較 嚴 重建 議邀 請 土木 技師 參 與 會勘 經濟 發展局 水利局 應針 對 附近 溫泉 業開發 予以 總量 管制 以利 共 浴室 永續 發展 萬里區 長 黃 雱 勉 表示 加投 溫泉 共 浴室 經專業 技師 檢視 發現 下陷 致建築物 傾斜 情形 所將 再 請 土木 技師會 等 專家 進行 檢查 評估 期望 確保 安全 前提 下 儘 早 恢 復 民 眾 泡 湯 空 間</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">即時 中心 ／ 綜合 報導   新北市 新店 區 安泰 路今   3 日   上午 8 時 21 分傳 有 7 棟 房屋 嚴重 下陷   多輛 汽車 傾斜   目前 已 疏散 12 人   區長 與 里 長 正在 現場 了解 情況         安泰 路由 於 路基 受損 變形   多輛 汽車 傾斜 相當 危急   目前 區長 與 里 長 正在 現場 了解 情況   指出 必須 先 把 房屋 下陷 狀況 穩 定下 來   車子 若 無 受損 的 話   就 會 立即 拖吊 離開 現場   找 專業 人員 評估 地層 掏空 狀況   並 等待 自來 水 公司 採樣 處理  </t>
+          <t>即時 中心 綜合 報導 新北市 新店區 安泰路 今 3 日 上午 8 時 21 分傳 7 棟 房屋 嚴重 下陷 多輛 汽車 傾斜 目前 已 疏散 12 人區長 與 里 長 正 現場 了解 情況   安泰路 由 於 路基 受 損變 形多輛 汽車 傾斜 相當 危急 目前 區長 與 里 長 正 現場 了解 情況 指出 必須 把 房屋 下陷 狀況 穩 定下 來 車子 若 無受 損話 就 會 立即 拖吊 離開 現場 找 專業 人員 評估 地層 掏空 狀況並 等待 自來 水司 採樣 處理</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">水利局 表示   今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 寶貴 時間   請 於 預定 複 查 日期 前 清除 水井 周圍 草叢   以 加速 複 查作業 進行  </t>
+          <t>水利局 表示 今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業 規劃 以 北門區 學甲區 鹽水區 安定區 地下水 一級 管制 區分區 方式 依序 進行 並由 專人 電話 通知 約定 複 查時間 若 申請 人 無法親 自到場 辦理 請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書 現場 除了 確認 基本 資料 調查 水井 狀況 坐標 地段 號井 深井 徑 出水管 徑 抽水機 位置 型式 馬 力 電表電號 用水 標與 範圍 農用 水井 另 進行 水電比 檢測 透過 用 電量 測定 抽 水量 為節 省民眾 寶貴 時間 請 於 預定 複 查 日期 前 清除 水井 周圍 草叢 以 加速 複 查作業 進行</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 的 原因   包含 地震 本身 震動 的 方向   建築物 結構 及 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   在 地震 發生 的 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 的 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 的 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 在 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   在 結構 上僅 靠 少數 樑 柱 支撐   因此 有 可能 會 在 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 有 土壤 液化 的 問題   有些 建築物 若 座落在 比 較 鬆 軟 的 沉 積 層 上   如河邊 在 長 久 沖 積下   有 部分 地底 縫隙 會 被 沙石 填滿   但 在 地震 後 卻 又 鬆 動   或是 局部 液化 的 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 也 有 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 有 騎 樓式 設計 的 房屋   在 大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 在 已 經有 許多 耐震 的 建築 技術   或許 政府 部門 在 未來 考量 建築 補強 上 可以 採用   增加 老建築 的 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因   「 只是 剛開始 」   ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了 嗎   地科 教授 分析 餘震 分布   有 花蓮 特性</t>
+          <t>花蓮 近海 今天上午 發規模 7.2 強震 花蓮市 區大樓 嚴重 傾斜學 解釋 地震 造成 房屋 傾斜 原因 包含 地震 本身 震動 方向 建築物 結構 與 土壤 液化 關根據 中央 氣象署 資訊 今天上午 7 時 58 分發 芮氏 規模 7.2 地震 地震 深度 15.5 里 震央 位 於 花蓮縣 政府 南南 東方 25.0 里位 於 台灣 東部 海域 最大 震度 花蓮縣 6 強 各地 陸續 傳出 災情 如 花蓮市 區 2 大樓 嚴重 傾斜 等 中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 地震 發當下 可能 些 民眾會 發現 某些 牆面 東西易 倒 某些 不會 就 代表 該起 地震 震動 方向 然而 這 部分 與 地震 震源 斷層 位置 傳遞 能量 大小 等 相關並 不好 預測 另外 黃 信樺 指出 建築 結構 工程 問題 比方 許多大樓 1 樓 可能 規畫 為 騎樓 甚至 些 成 挑 高大 廳 結構 上僅 靠 少數 樑 柱 支撐 因此 可能 會大 地震 發時 造成 不 穩況 黃 信樺 說 第 3 點就 可能 土壤 液化 問題 些 建築物 若 座落 比 較 鬆 軟 沉 積 層 上 如 河 邊 長 久 沖 積 下 部分 地底 縫隙 會 被 沙石 填滿 但 地震 後 卻 又 鬆 動 或 局部 液化 情況 造成 地層下陷 黃 信樺 提到 雖然 台北市 可能 很多 老式 騎樓 但 一來 震央 位置 離 台北 較 遠二來 老式 騎樓 通常 較 矮 不易 與 地震 發 共振 反之 若高樓 層 又 騎 樓式 設計 房屋 大 地震 來 臨時 就 會 相 對 危險 黃 信樺 表示 其實現 已經 許多 耐震 建築 技術 或許 政府 部門 未來 考量 建築 補強 上 可以 採用 增加 老建築 安全性 ▶ ▶ ▶ 花蓮 大 地震 延伸 讀   ▪ 一夜 83 震氣 象署 曝餘震 暴增 原因   「 只剛 開始 」   ▪ 花蓮 強震 整理 包釀 18 死   重大 災情 災後理 賠 專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言 點不尋常   ▪ 大 地震 要來 了 地科 教授 分析 餘震 分布 花蓮 特性</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">今   3   日 強震 震撼 全 台   各地 災情 不斷   新北市 新店 區 安泰 路 一處 民宅 更 發生 地基 下陷 慘況   此外 台北市 方面 先前 則傳出 3 傷   有 2 名 工人 因 乙炔 鋼瓶 傾倒 爆破 導致燒 燙傷   還有 一人 手臂 撕裂 傷   綜合 媒體 報導   新北市 新店 區 安泰 路 60 巷 90 弄 頂 好 社區 的 民宅 今 在 地震 後 傳出 災情   從 現場 照片 來 看   不僅 民房 地基 下陷   花盆 傾倒   原先 停 在 路邊 的 車輛 更是 直接 下沉   場面 驚 悚   目前 粗估 坍塌 面積 約 1   000 平方公尺   所幸 住戶 12 人 已 全數 撤離   另外   稍早 台北 市長 蔣萬安 也 表示   北市 接獲 3 人 受傷 消息   其中 有 2 名 男性 工人 在 地震 期間 因 乙炔 鋼瓶 傾倒 爆破 導致 身上 68 ％ 燒燙傷   目前 已 被 送往 台大 醫院 治療   還有 一名 大同 區的民眾 在 地震 時因 玻璃 破裂 導致 左手 撕裂 傷   已 送往 馬 偕 醫院 治療   北市 教育局 則 透露 有 2 名學生 疏散 時腳踝 扭傷 與 遭 玻璃 輕微 割傷   截至 先前   北市 共接 獲 588 災情 案件   大多 為 停電   漏水   瓦斯 管線 破損   此外 還有 建築物 外牆 毀損   招牌 掉落 等   也 有 受困 電梯 人員 已 被 救出   後 續 北市 府 將落 實外 牆   招牌 懸掛 物防護 以及 高架   橋 樑 巡檢  </t>
+          <t>今 3 日 強震 震撼 全 台 各地 災情 不斷 新北市 新店區 安泰路 一處 民宅 更發 地基 下陷 慘況 此外 台北市 方面 前則 傳出 3 傷 2 名 工人 因 乙炔 鋼瓶 傾倒 爆破 導致燒 燙傷 還一人 手臂 撕裂 傷綜合 媒體 報導 新北市 新店區 安泰路 60 巷 90 弄 頂 好 社區 民宅 今 地震 後 傳出 災情 從 現場 照片 來 看 不僅 民房 地基 下陷 花盆 傾倒 原停 路邊 車輛 更 直接 下沉 場面 驚 悚 目前 粗估 坍塌 面積 約 1000 平方 所幸 住戶 12 人 已 全數 撤離 另外 稍早 台北 市長 蔣 萬安 表示 北市 接獲 3 人 受傷 消息 其中 2 名 男性 工人 地震 期間 因 乙炔 鋼瓶 傾倒 爆破 導致 身上 68 ％ 燒燙傷 目前 已 被 送往 台大 醫院 治療 還 一名 大同區 民眾 地震 時因 玻璃 破裂 導致 左手 撕裂 傷已 送往 馬 偕 醫院 治療 北市 教育局 則 透露 2 名學 疏散 時腳踝 扭傷 與 遭 玻璃 輕微 割傷 截至 前 北市 共接 獲 588 災情 案件 大多 為 停電 漏水 瓦斯 管線 破損 此外 還建築物 外牆 毀損 招牌 掉落 等 受困 電梯 人員 已 被 救出 後 續 北市 府 將落 實外 牆 招牌 懸掛 物防護 以 高架 橋 樑 巡檢</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 王涵 平 ／ 新營 報導 〕 南市 已 受理 超過 二五 ○ ○ ○ 件 既有 未登記 水井 納管 申報 案件   但 仍 有 部分 民眾 未 申報   為 避免 地下水 過度 使用 造成 地層下陷   四月 起 受理 申報 同時 辦理 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     水利局 表示   今年 四月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量     申報 時間 即日起 至 八月 二日 止   可 就近 就近 至 各區 公所 或 至 市府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 水利局 網站 「 水井 納管 申報 」 Web 平台 申報   也 可以 手機 下載 「 水井 納管 申報 及 查詢 」 APP 申報  </t>
+          <t>〔 南市 已 受理 超過 二 五件 既 未 登 水井 納管 申報 案件 但 仍 部分 民眾 未 申報 為 避免 地下水 過度 使用 造成 地層下陷 四月 起 受理 申報 同時 辦理 複 查作業針 對轄納管 水井 辦理 複 查 暨 貼標 籤 作業 透過 現場 訪談 測量 等 方式 建立 水井 基本 資料 以利 後 續 地下水 管理 水利局 表示 今年 四月 起 辦理 地下水 井現 地 複 查作業 規劃 以 北門區 學甲區 鹽水區 安定區 地下水 一級 管制 區分區 方式 依序 進行 並由 專人 電話 通知 約定 複 查時間 若 申請 人 無法親 自到場 辦理 請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書 現場 除了 確認 基本 資料 調查 水井 狀況 坐標 地段 號井 深井 徑 出水管 徑 抽水機 位置 型式 馬 力 電表電號 用水 標與 範圍 農用 水井 另 進行 水電比 檢測 透過 用 電量 測定 抽 水量 申報 時間 即日起 至 八月 二日 止 可 就近 就近 至 各區 所 或 至 市府 民治 行政 中心 服務台 永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱 或 透過 水利局 網站 「 水井 納管 申報 」 Web 平台 申報 可以 手機 下載 「 水井 納管 申報 查詢 」 APP 申報</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲ 南市 水井 納管 申報 及 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 及 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 有 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 的 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 有 部分 民眾 未及 申報   為 保障 水井 用戶 權益 及 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 的 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 也 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 「 臺 南 市政府 水利局 」 網站 「 水井 納管 申報 」 Web 平台 申報   也 可手 機下載 「 水井 納管 申報 及 查詢 」 APP 申報   市府 也 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  </t>
+          <t>▲ 南市 水井 納管 申報 複 查作業 同時 啟動針 對轄納管 水井 辦理 複 查 暨 貼標 籤 作業 合理 使用 水資源 防治 地層下陷 李 嘉祥 為 保育 地下水 資源 加強 地下水 管理 避免 地下水 過度 使用 造成 地層下陷 響 市民 人身 財產 安全 臺 南 市政府 水利局 積極 推動 水井 管理 政策 自 112 年 起 辦理 水井 納管 作業 受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登 既 水井 納管 後 可 避免 遭檢舉 而 封井且 取得 合法 水權 機會 並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業針 對轄納管 水井 辦理 複 查 暨 貼標 籤 作業 透過 現場 訪談 測量 等 方式 建立 水井 基本 資料 以利 後 續 地下水 管理 市長 黃 偉哲 表示 水井 納管 除 可 保育 地下水 資源 對 於 使用 水井 民眾 而言 接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障 另為 減輕 農民負 擔經 水井 納管 農業 用 水井 免收 各項 水權 登規費 倘未 登 水井 逾期 未申 報且 經查 獲將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處 分籲 請 鄉親 踴躍申報 讓 珍貴 地下水 資源 合理 使用 並同 時維護 自身 用水 權益 水利局 長 邱忠川 說 根據 水利局 統計 截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既 未 登 水井 納管 申報 案件 但 仍 部分 民眾 未 申報 為 保障 水井 用戶 權益 落實 地下水 保育 市府 特別 再 開放 受理 申報 納管 申報 時間 於 4 月 1 日起 至 8 月 2 日 截止 時間 限籲 請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請 以維護 自身 權益 邱忠川 指出 4 月 起 將展 開 地下水 井現 地 複 查將 以 北門區 學甲區 鹽水區 安定區 地下水 一級 管制 區分區 方式 依序 進行 並由 專人 電話 通知 約定 複 查時間 若 申請 人無法 到場 請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書 現場 除 確認 基本 資料 調查 水井 狀況 坐標 地段 號井 深井 徑 出水管 徑 抽水機 位置 型式 馬 力 電表電號 用水 標與 範圍 農用 水井 另 進行 水電比 檢測 透過 用 電量 測定 抽 水量 為節 省民眾 時間 與 請 所 人 於 預定 複 查 日期 前 清除 水井 周圍 草叢 以 加速 複 查作業 進行 邱忠川 呼籲 水井 所人 可 就近 至 各區 所 或 至 臺 南 市政府 民治 行政 中心 服務台 永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱 或 透過 「 臺 南 市政府 水利局 」 網站 「 水井 納管 申報 」 Web 平台 申報 可手 機下載 「 水井 納管 申報 查詢 」 APP 申報 市府 設置 水井 納管 專線 066321212 主動 輔導解 決民眾 申報 問題</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 盧賢秀 ／ 基隆 報導 〕 基隆 中正路 425 號至 447 號間   去年 發現 水溝 有 下陷 破洞 情形   市府 進場 改善   但 花蓮 地震 後   發現 騎樓 有裂 縫   地基 可能 掏空   房屋 也 疑似 傾斜   市議員 許睿慈 與 市府 相關 單位 勘查   要求 儘 速 鑑 定 地基 與 房屋 結構   讓 居民 可以 住 得 安心 且 安全     市府 表示   經技師 鑑定 房屋 結構 目前 安全 的   工務處 將加強 下水道 巡檢補強     市議員 許睿慈 指出   居民 去年 陳 情   舊漁會 大樓 附近 的 中正路 425 號前 道 路旁 水溝   有 發生 下陷   破洞 的 情形   經 會勘 後 工務處 已 進場 施作   但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況   令 附近 住戶 人心惶惶     許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會勘   許睿慈 表示   花蓮 地震 後   427 號至 447 號沿線 都 發生 了 地層 陷落   其中 4 戶 騎樓 有裂 縫   居民 地下室 也 出現 滲水 現象   擔憂 地質 結構 是否 安全   要求 市府 儘 速 完成 房屋 與 地質 安全 檢測     市府 工務處 表示   該 民宅 鄰近 海岸   可能 因 地震 造成 地下室 牆面 裂痕 滲加   工務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡檢   確認 中正路 425 號至 447 號沿線 是否 有 地基 掏空 的 問題     都 發處 表示   有 請 土木 技師 公會 的 技師 前往 勘查   初步 認為 沒有 傾斜 狀況   騎樓 裂 縫區 公所 近期 就 會 整修  </t>
+          <t>〔 基隆 中正路 425 號至 447 號間 去年 發現 水溝 下陷 破洞 情形 市府 進場 改善 但 花蓮 地震 後 發現 騎樓 裂縫 地基 可能 掏空 房屋 疑似 傾斜市 議員許 睿 慈 與 市府 相關 單位 勘查 要求 儘 速 鑑 定 地基 與 房屋 結構 讓 居民 可以 住 得 安心 且 安全   市府 表示 經技師 鑑定 房屋 結構 目前 安全 工務處 將加強 下水道 巡檢補 強市 議員許 睿 慈 指出 居民 去年 陳 情舊 漁會 大樓 附近 中正路 425 號前 道 路旁 水溝發 下陷 破洞 情形 經 會勘 後 工務處 已 進場 施作 但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況 令 附近 住戶 人心惶惶 許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會勘 許睿慈 表示 花蓮 地震 後 427 號至 447 號沿線 都 發 了 地層 陷落 其中 4 戶 騎樓 裂縫 居民 地下室 出現 滲水 現象 擔憂 地質 結構 安全 要求 市府 儘 速 完成 房屋 與 地質 安全 檢測 市府 工務處 表示 該 民宅 鄰近 海岸 可能 因 地震 造成 地下室 牆面 裂痕 滲 加工 務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡 檢確 認 中正路 425 號至 447 號沿線 地基 掏空 問題 都 發處 表示 請 土木 技師會 技師 前往 勘查 初步 認為 沒 傾斜 狀況 騎樓 裂 縫區 所 近期 就 會 整修</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">彰化縣 大城 鄉現 有納 骨塔 接近 飽 和   鄉 公所 規畫 在 第六 公墓 新建 第二 納 骨塔   頂庄 村民 群起 反對   已有 140 人連署 陳 情   村民 抱怨 縣府 裁撤 頂庄國 小   鄉 公所 在 村 內蓋 第二座 納 骨塔   「 吃 虧 都 是 我們 」   讓 頂 庄村 發展 雪上加霜   要求 重新 研議 興建 地點   鄉長 陳 玉照 說   納 骨塔 近 飽 和   將持續 溝通       大城 鄉有 8 座 公墓   頂庄村 和 山腳 村設 有納 骨塔   山腳村 的 已 飽 和   頂庄村 的 只 剩 不到 700 個 空位   鄉 公所 認為   興 建新 塔有 迫切性   日前 向 頂庄 村民 說明 新建 計畫   村民 痛批 「 一村 二塔 」 違反公 平原 則   當場 反對                             許姓 村民 表示   縣府 認為 頂 庄村 出生率 低   已 是 大城 鄉 人口 倒數 第 2   前年 裁撤 頂庄國 小   可見 頂 庄村 沒 新建 納 骨塔 的 需求   周邊 地層下陷 易 淹水   無論 地理 和 風水   都 不 適合 安放 往生 親人   新建 第二 納 骨塔 離 村落 僅 200 公尺   違反 縣府 規定 500 公尺 的 審查 原則   嚴 重影 響 村民 的 身心健康       鄉長 陳 玉照 指出   頂庄 第一 納 骨塔 建在 高灘 地   第二 納 骨塔 也 一樣   不開 挖 地下室   還 建造 7 層台 階 升高 塔座   沒 淹水 疑慮   第二 納 骨塔 距離 村落 人口稠密 區約 500 公尺   像 他家 距離 墓地 很近   不會 有 問題       頂庄 村長 許仁寶說   如非建 不可   應 提出 有力 的 說明   並訂定 回饋 辦法  </t>
+          <t>彰化縣 大城鄉 現納 骨塔 接近 飽鄉 所 規畫 第六 墓 新建 第二 納 骨塔 頂庄 村民 群起 反對 已 140 人連署 陳 情 村民 抱怨 縣府 裁撤 頂庄 國小鄉 所村 蓋 第二座 納 骨塔 「 吃 虧 都 我們 」 讓 頂庄 村發展 雪上加霜 要求 重新 研議 興建 地點 鄉長 陳 玉照 說納 骨塔 近飽將 持續 溝通 大城鄉 8 座 墓 頂庄 村 山腳 村 設納 骨塔 山腳 村 已 飽 頂庄 村 只 剩 不到 700 個 空位 鄉 所 認為 興 建新 塔 迫切性 日前 向 頂庄 村民 說明 新建 計畫 村民 痛批 「 一村 二塔 」 違反 平原 則當場 反對 許姓 村民 表示 縣府 認為 頂庄 村出 率 低 已 大城鄉 人口 倒數 第 2 前年 裁撤 頂庄 國 小可 見 頂庄 村 沒 新建 納 骨塔 需求 周邊 地層下陷 易 淹水 無論 地理 風水 都 不 適合 安放 往親 人 新建 第二 納 骨塔 離 村落 僅 200 違反 縣府 規定 500 審查 原則 嚴重響 村民 身心健康 鄉長 陳 玉照 指出 頂庄 第一 納 骨塔 建高灘 地 第二 納 骨塔 一樣 不開 挖 地下室 還 建造 7 層台 階 升高 塔座 沒 淹水 疑慮 第二 納 骨塔 距離 村落 人口稠密 區約 500 像 他家 距離 墓地 很近 不會 問題 頂庄 村長 許仁寶說 如 非建 不可 應 提出 力說明 並定 回饋 辦法</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   在 大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 的 地梁 也 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 的 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 的 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  </t>
+          <t>台中市 西屯區 大墩 20 街 大聖街 口正 進行 自來 水管 線 工程 議員 表示 6 日 晚間 地層下陷 懷疑 地震 造成 鄰近 大樓 集 水井 破裂 水流 淘空 地基 塌陷 約 50 分還 露出 地梁 中市 建設局 表示 該處 側溝 老舊 破損 滲漏 導致 側溝 淘空 已 填補集 水井 溝底並 拆除 損毀 溝底 今將 重新 灌漿 穩固 都 發局 表示 未響 結構 無 安全 疑慮 民進 黨議 員林 祈烽 表示 花蓮 強震 後 各地 災情 多何 南里長 曹豐洋陳情 大墩二十街 大聖街 口 路面 坍塌 崩塌 處離 鄰近 大樓 很 近疑 因 地震 造成 大樓 集 水井 破漏 水流 淘空 地基 才 塌陷 該 社區 地梁 露出 深度 至少 坍塌 50 分建 設局 表示 現場 勘查 發現 側溝 老舊 破損 上游 建設 工地 施工 長 時間 抽 地下水 排放 側溝 淘空 損壞 下陷 目前 已 完成 集 水井 溝底 填補 拆除 損壞 溝體並 重新 灌漿 周六 前 改善 完成 台中市 都 發局 表示 坍塌 側溝 旁建築 為 地下 2 層 地上 7 層 鋼筋 混凝土 建築 淘空 範圍 臨 大聖街 人行道 推測 為 早期 邊溝 斷裂 滲水 造成 騎樓 下方 土壤 淘空 樓板 下陷 深度 50 分長 1 目前 已 封鎖 騎 樓將 混凝土 回填 未響 建築 結構 沒 安全 疑慮 都發局長 李正偉 表示 花蓮 強震 後 收到 13 件 民眾 通報 住家 出現 裂痕 經 第三方 正 單位 檢測 均 非 結構 性破壞 無 立即 危險 都 發局 提供 多項 補助 方案 供民眾 申請</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 王捷 ／ 台南 報導 〕 台南市 北區 北華街 的 一處 工地 傳出 下陷   導致 工地 旁 的 住戶 外牆   地板 出現 龜裂   警方 在 今晚 六點 多 接獲 報案   並通報 相關 單位   由 於 台南 前陣子 也 有 工地 塌陷 意外   加上 這個 月 花蓮 強震 帶來 的 災害   警方 呼籲 目前 正在 交通管制   請民眾 不要 靠近     初步 調查 發現   該 工地 的 建設 公司 近期 在 開 挖 地下室 的 過程 中   地下水 湧出   北區 公所 與 工務局 在 北華里 活動 中心 成立 臨時 指揮 所   由 相關 人員 到場 會勘   認為 可能 是 地下水 湧出   地基 不 穩定   造成 附近 的 住家 出現 牆壁   地板 龜裂 的 主因     工務局 人員 除了 要求 建設 公司 立即 停止 工程施工   並要 建設 公司 調派 水泥 車   先將 湧出 的 地下水 源以 水泥 灌漿 封閉   防止 狀況 持續 惡化   目前 仍 在 進行 緊急 的 灌漿 作業 中     建設 公司 表示   一定 會 遵照 工務局 指示   並對 鄰近 住戶 的 損失 給予 妥善 的 賠償 與 補償   絕不會 卸責 推諉   工務局 也 將持續 監控 現場 狀況   待 地下水 源 控制 後   再視 實際 損害 情形     警方 為 了 維護 交通秩序   派員 到場 管制 交通   直到 灌漿 結束   並 希望 民眾 不要 擔心   如果 發生 類似 事件   施工 單位 應當 立即 停工   並 通知 主管 機關   否則將 嚴加 開罰 及 要求 賠償   受災戶 如有 任何 疑問   也 可多加 利用 1999 話務 專線 諮 詢  </t>
+          <t>〔 台南市 北區 北華街 一處 工地 傳出 下陷 導致 工地 旁住 戶 外牆 地板 出現 龜裂 警方 今晚 六點 多 接獲 報案 並通報 相關 單位 由 於 台南 前陣子 工地 塌陷 意外 加上 這個 月 花蓮 強震 帶來 災害 警方 呼籲 目前 正 交通管制 請民眾 不要 靠近 初步 調查 發現 該 工地 建設司 近期 開挖 地下室 過程 中 地下水 湧出 北區 所 與 工務局 北華里 活動 中心 成立 臨時 指揮 所 由 相關 人員 到場 會勘 認為 可能 地下水 湧出 地基 不 穩定 造成 附近 住家 出現 牆壁 地板 龜裂 主因 工務局 人員 除了 要求 建設司 立即 停止 工程施工 並要 建設司 調派 水泥 車將 湧出 地下水 源以 水泥 灌漿 封閉 防止 狀況 持續 惡化 目前 仍 進行 緊急 灌漿 作業 中建 設司 表示 一定 會 遵照 工務局 指示 並對 鄰近 住戶 損失 給予 妥善 賠償 與 補償 絕不會 卸責 推諉 工務局 將持續 監控 現場 狀況 待 地下水 源 控制 後 再視 實際 損害 情形 警方 為 了 維護 交通秩序 派員 到場 管制 交通 直到 灌漿 結束並 希望 民眾 不要 擔心 如果 發類 似 事件 施工 單位 應當 立即 停工 並 通知 主管 機關則將 嚴加 開罰 要求 賠償 受災戶 如 任何 疑問 可多加 利用 1999 話務 專線 諮 詢</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>水利 署 在 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 生 態 環 境   土方 培厚則 為 河道 治理   經監 測確 有 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 的 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開 記者會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 的 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 的 生態   環境 調查   施工期 間 的 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 也 發現 仍 有 石虎 出 沒 活動   甚至 有 定居 個體   巴氏 銀 鮈 棲地 也 沒 有 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 的 生態 工法 理念 相近   也 有 專業 技師 分析   經比 對 去年 培厚前   後 的 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 在 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片</t>
+          <t>水利 署 南投 草屯 打造 鳥 嘴潭 人工湖 遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床 破壞 環境態 向 環境部 提起 行政 訴訟 5 月 1 日將 開庭 近期 重申 要求 移除 違法 土石 水利 署中 水分 署 表示 均依 環境 評估 相關 規定 辦理 並持續 追 蹤 態 環 境 土方 培厚則 為 河道 治理 經監 測確 保護堤 腳 提升 河防 安全 功效 為 改善 沿海 地區 地下水 超 抽 造成 地層下陷 水利 署 打造 草屯 鳥 嘴潭 人工湖 引取 烏 溪水 源蓄存 於 6 座 湖區 總 蓄水量 約 1450 萬噸 可供 應 每日 25 萬噸 約 百萬人 用水 目前 已近 完工 並行 供水 草屯 每日 1 萬噸 彰化 6 萬噸 民用 水 但 鳥 嘴潭 人工湖 工程 啟動 後 多次遭 台灣 石虎 保育 協會 台灣 態學會 台灣 淺山學社 台灣 水資源 保育 聯盟 等 環團 指控 開發破 壞態 環境 造成 保育 類動物 石虎 巴氏 銀 鮈 棲地 消失 更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床 台灣 石虎 保育 協會 近期 發文 表示 該會 與 其他 環團 自 2022 年 7 月 起 透過 現勘 開會 開會議 行文 等 持續 向 部門 反應 鳥 嘴潭 工程 破壞態 但 至今 爭議 未解 去年 7 月委 託 律師 向 環境部 提起 行政 訴訟 並將 於 5 月 1   日 首度 開庭 台灣 石虎 保育 協會 強調 環境部 應善 盡到 監督 環評 之責 對 開發 單位 水利 署 中區 水資源 分署 開罰 並命 該 分署 移除 違法 堆置 於 烏溪 土石方 若 未 依 限期 移除 環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程 或 由 環境 部 逕 命 其 停止 開發行 為 對 此 水利 署中 水分 署 表示 鳥 嘴潭 工程 不論 施工 前態 環境 調查 施工期 間態 監測 檢核 機制 強化 保育 措施 或 土石 處理 依環評 規定 辦理後續 監測 發現 仍 石虎 出 沒 活動 甚至 定居 個體 巴氏 銀 鮈 棲地 沒明 顯響 鳥 嘴潭 土方 則協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理 與 既 混凝土 坡 面上 覆土態 工法 理念 相近 專業 技師 分析 經比 對 去年 培厚前 後 颱 洪空 拍 地形 變化 顯示 確保護 堤 腳 提升 河防 安全 功效 環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床 為 此 提 行政 訴訟 5 月 1 日將 開庭圖 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發破 壞態 環境 並質疑 違反環 評將 廢土 傾倒 於 烏溪 為 此 提 行政 訴訟 5 月 1 日將 開庭圖 聯合 報系 資料 照片</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">水利 署 在 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 生 態 環 境   土方 培厚 為 河道 治理   經監測 有 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 的 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 的 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 的 生態   環境 調查   施工期 間 的 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  </t>
+          <t>水利 署 南投 草屯 打造 鳥 嘴潭 人工湖 環團 質疑 傾倒 工程 廢土 至 烏溪 河床 破壞 環境態 向 環境部 提起 行政 訴訟 5 月 1 日將 開庭 要求 移除 違法 土石 水利 署中 水分 署 表示 依環評 規定 辦理 並持續 追 蹤 態 環 境 土方 培厚 為 河道 治理 經監測 保護堤 腳 可 提升 河防 安全 水利 署 打造 鳥 嘴潭 人工湖 供水 給彰 投 改善 沿海 地下水 超 抽 地層下陷 問題 引取 烏 溪水 源蓄存 6 座 湖區 總 蓄水量 1450 萬噸 每日 可 供水 25 萬噸 約 百萬人 用水 目前 已近 完工 已日供 草屯 1 萬噸 彰化 6 萬噸 民用 水鳥 嘴潭 人工湖 工程 啟動 後 多次遭 台灣 石虎 保育 協會 台灣 態學會 台灣 淺山學社 台灣 水資源 保育 聯盟 等 環團 指控 破壞態 環境 造成 保育 類 石虎 巴氏 銀 鮈 棲地 消失 質疑 違反 環評 程序 將廢土 傾倒 於 烏溪 河床 台灣 石虎 協會 發文 與 其他 環團 從 2022 年 7 月 起 多次 舉辦現 勘會 行文 等 反映 該 工程 破壞態 至今 爭議 未解 去年 7 月 已委 託 律師 向 環境部 提起 行政 訴訟 5 月 1 日 首度 開庭 協會 強調 環境 部應 開罰 中 水分 署 移除 違法 堆置 烏溪 土石方 若 未 限期 移除 應 要求 停止 鳥 嘴潭 工程 水利 署中 水分 署 表示 施工 前態 環境 調查 施工期 間態 監測 檢核 機制 保育 措施 或 土石 處理 都 依環評 規定 辦理</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>中國 過度 抽取 地下水   導致 近 40% 主要 城市 的 土地 下陷     路透     陳 麗珠 ／ 核稿 編輯   〔 財經 頻道 ／ 綜合 報導 〕 中國 有 近一半 的 主要 城市 正 遭受 「 中度 至 重度 」 不 等 程度 的 沉降   在 海平面 上升 的 情況 下   恐有 數百萬人將 面臨 洪水 風險     路透   指出   中國 都市人口 約 9 億人   當中 約 有 2.7 億人 生活 在 每年 下陷 逾 3 公 釐 的 地區   相當 於 都市人口 的 29%     在 中國 82 個 城市 中   約 有 45% 每年 下沉 超過 3 公 釐   16% 土地 平均 每年 下沉 更是 超過 10 公 釐   約 有 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   也 可能 造成 重大 威脅     據 了解   而 造成 中國 土地 逐年 下沉   最 主要 是 地下水位 下降 所致     路透 表示   「 土地 下陷 」 對 中國 每年 造成 超過 75 億元 人民 幣   約 新 台幣 337 億元   的 損失   研究 人員 預計   在 下個 世紀 內   中國將 有 約 近 四分之一 的 沿海 土地   恐低 於 海平面   數億人將 面臨 大 洪水 風險     最 嚴重 的 受災 城市 是 北方 的 天津   這 城市 約 有 1500 萬 人口   2023 年 一場 「 突發 地質 災害 」   導致 3000 名 居民 被 疏散   調查 人員將 這場 災害 歸咎 於   水資源 枯竭 和 地 熱井 的 建設       一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
+          <t>中國 過度 抽取 地下水 導致 近 40% 主要 城市 土地 下陷 路透 陳 麗珠 核稿 編輯 〔 中國 近一半 主要 城市 正 遭受 「 中度 至 重度 」 不 等 程度 沉降 海平面 上升 情況 下 恐數 百萬人將 面臨 洪水 風險 路透 指出 中國 都市人口 約 9 億人 當中 約 2.7 億人活 每年 下陷 逾 3 釐 地區 相當 於 都市人口 29% 中國 82 個 城市 中約 45% 每年 下沉 超過 3 釐 16% 土地 平均 每年 下沉 更 超過 10 釐 約 6700 萬 居民 活 於 此 研究 小組 指出 由 於 中國 城市 人口 多 即使 一小部分 地層下陷 可能 造成 重大 威脅 據 了解 而 造成 中國 土地 逐年 下沉 最 主要 地下水位 下降 所致 路透 表示 「 土地 下陷 」 對 中國 每年 造成 超過 75 億元 人民 幣約 新 台幣 337 億元 損失 研究 人員 預計 下個 世紀 中國將 約 近 四分之一 沿海 土地 恐低 於 海平面 數億人將 面臨 大 洪水 風險 最 嚴重 受災 城市 北方 天津 這 城市 約 1500 萬 人口 2023 年 一場 「 突發 地質 災害 」 導致 3000 名 居民 被 疏散 調查 人員將 這場 災害 歸咎 於 水資源 枯竭 地熱井 建設 一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">最新 一份 根據 衛星 雷達 觀測 的 研究 顯示   中國近 40% 主要 城市 的 土地 正發生 「 中度 至 重度 」 的 地層下陷   上 億 居民 面臨 洪水 的 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 / 19   發表 在 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 的 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 在 2015 至 2022 年 的 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 有 2.7 億 人口 生活 在 這些 每年 下陷 逾 3 公 釐 的 地區   相當 於 都市人口 的 29%     這 82 個 城市 中   更 有 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   也 可能 造成 重大 威脅     導致 中國 都市 地層下陷 的 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 的 重量 不斷 增加   在 時間 推移 下   沉積物 堆積   以及 不斷 增加 的 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 和 海平面 上升   最終 中國將 有 約 四分之一 的 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 的 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 的 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 的 堤防   「 即使 地層下陷 和 海平面 上升   這樣 龐大 的 沿海 堤防 也 能 在 很大 程度 上 降低 城市 被淹 沒 的 風險 」   就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 的 堤防     陶勝利稱   中國 政府 也 實施 嚴格 的 地下水 管制法 規   減緩 了 上海 周邊 的 地層下陷 速度     全球 多個 城市 都 在 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 的 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 有 海平面 上升 的 問題   大家 比較 關心 沿海 城市   「 但 大多 數 城市 下沉 的 速度   和 沿海 城市 其實 都 差不多   甚至 還更快 」     地層下陷 也 不僅 是 中國 才 有 的 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快 的   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 的 土地 有 下陷 風險   印尼 是 最 嚴重 的 國家 之一   首都 雅加 達 大部分 地區現 在 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 的 44 個 沿海 大城市 當中   有 30 個 在 亞洲  </t>
+          <t>最新 一份 根據 衛星 雷達 觀測 研究 顯示 中國近 40% 主要 城市 土地 正發 「 中度 至 重度 」 地層下陷 上 億 居民 面臨 洪水 風險 加上 海平面 上升 上海 廣州 天津 都 面臨 災害 風險 綜合 路透社 與 美國線 電視 新聞網 CNN 報導 這篇 研究 今天 419 發表 期刊 科學 Science 上 由 中國 華南 師範大學 教授 敖祖銳領 軍 研究 小組 透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況 發現 40% 城市 土地 每年 平均 下沉 超過 3 釐 中國 都市人口 約 9 億約 2.7 億 人口 活 這些 每年 下陷 逾 3 釐 地區 相當 於 都市人口 29% 這 82 個 城市 中 更 16% 土地 平均 每年 下沉 超過 10 釐 6700 萬 居民 活 於 此 研究 小組 指出 由 於 中國 城市 人口 多 即使 一小部分 地層下陷 可能 造成 重大 威脅 導致 中國 都市 地層下陷 主因 過度 抽用 地下水 另 一大 因素 城市 土地 上 重量 不斷 增加 時間 推移 下沉 積物 堆積 以 不斷 增加 沉重 建物 將 土壤 越壓 越緊 實導致 土地 下沉 研究 顯示 由 於 地層下陷 海平面 上升 最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面 天津 上海 廣州 周邊 都 面臨 這樣 風險 中國 一些 地區 已經 建立 保護 措施 這份 研究 並未 探討 這些 措施 效果 報告 合著 北京 大學 城市 與 環境 學院 教授 陶勝利 說 上海 就 建造 了 數高 堤防 「 即使 地層下陷 海平面 上升 這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒風險 」 就 他 所知 沒 其他 國家 打造 過規模 這麼 大 堤防 陶勝利稱 中國 政府 實施 嚴格 地下水 管制法 規減 緩 了 上海 周邊 地層下陷 速度 全球 多個 城市 都 下陷 維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨 Leonard   Ohenhen 最近 一份 針對 美國 地層下陷 狀況 報告 指出 大部分 城市 都 會發 土地 下沉 但 因為 沿海 地區 海平面 上升 問題 大家 比較 關心 沿海 城市 「 但 大多 數 城市 下沉 速度 沿海 城市 其實 都 差不多 甚至 還更快 」 地層下陷 不僅 中國 才 問題 CNN 指出 美國 紐約市 等 數十個 沿海 城市 正 下沉 墨西哥 首都 墨西哥城 土地 每年 最 多 下沉 50 分 可能 全球 沉 最快 荷蘭 已 25% 土地 低 於 海平面 今年 2 月 另 一項 研究 指出 全球 約 630 萬 平方里 土地 下陷 風險 印尼 最嚴 重國家 之一 首都 雅加 達 大部分 地區現 都 已 低 於 海平面 新加坡 2022 年 一項 研究 提到 全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中 30 個亞洲</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>路透社 報導   根據 今天 ( 19 日 ) 發布 的 一份 全國衛星 資料 研究 顯示   中國將 近一半 的 主要 城市 正 遭受 「 中等 到 嚴重 」 程度 的 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 的 論文 作者 發現   中國 45% 的 都市 土地 正以 每年 超過 3 公 釐 的 速度 下陷   16% 的 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 的 原因 不僅 是 地下水位 下降   還有 建築 環境 的 龐大 重量     華南師 範大學 敖祖銳 領導 的 研究 團隊 表示   中國 的 都市人口 已經 超過 9 億   因此 「 即使 是 一小部分 的 土地 下陷   都 會 對 都市生活 構成 巨大 威脅 」     土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 在 下 一個 世紀   近 四分之一 的 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 的 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 的 尼科 爾斯 ( Robert   Nicholls ) 表示   「 這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 的 問題   而 不僅僅 是 一 兩個 地方 的 問題   」 他 說   「 這也 是 世界 其他 地方 正在 發生 的 事情 的 縮影   」   人口 超過 1   500 萬 的 北部 城市 天津   被確 認為 受災 最 嚴重 的 城市 之一   去年 一場 「 突發性 地質 災害 」 導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 的 興建     中國 許多 老 煤 礦區 也 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 的 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 的 另 一份 研究 指出   全球 約 有 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 的 國家 之一   首都 雅加 達 大部分 地區現 在 已 低 於 海平面     尼科 爾斯說   易受 影響 的 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 在 1970 年代 禁止 抽取 地下水     他 補充 說   「 減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 你 不 可能 阻止 所有 下陷   因此 要 討論 適應力 和 建造 海堤   」   根據 新加坡 2022 年 的 一項 研究   44 個 飽 受 這個 問題 困擾 的 主要 沿海 城市 中   有 30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示   「 這是 一個 都市化 和 人口 增長 的 問題   人口密度 愈大   抽 的 水 就 愈 多   也 就 造成 更 多 下陷   」</t>
+          <t>路透社 報導 根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示 中國將 近一半 主要 城市 正 遭受 「 中等 到 嚴重 」 程度 地層下陷 數百萬人將 面臨 洪災 風險 尤其 海平面 正 上升 這篇 發表 於 科學 ( Science ) 期刊 論文作 發現 中國 45% 都市 土地 正以 每年 超過 3 釐 速度 下陷 16% 都市 土地 下陷 速度 每年 超過 10 釐 造成 原因 不僅 地下水位 下降 還建築 環境 龐大 重量 華南 師範大學 敖祖銳 領導 研究 團隊 表示 中國 都市人口 已經 超過 9 億 因此 「 即使 一小部分 土地 下陷 都 會 對 都市 活構 成 巨大 威脅 」 土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 ) 而下 一個 世紀近 四分之一 沿海 陸地 可能 將低 於 海平面 使數 億人 面臨 更大 洪水 風險 東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示 「 這讓 我們 真正 認識 到 對 中國來 說 這一個 全國性 問題 而 不僅僅 一 兩個 地方 問題 」 他 說 「 這 世界 其他 地方 正發 事情 縮 」 人口 超過 1500 萬 北部 城市 天津 被確 認為 受災 最 嚴重 城市 之一 去年 一場 「 突發性 地質 災害 」 導致 3 千名 居民 撤離 調查 人員將 原因 歸咎 於 水資源 枯竭 以地 熱井興 建中 國許 多 老 煤 礦區 因為 過度 開採 而 受到 響當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥 以 強化 土地 這個 問題 並不 只限 於 中國 今年 2 月 發表 另 一份 研究 指出 全球 約 630 萬 平方里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中 印尼 受響 最嚴 重國家 之一 首都 雅加 達 大部分 地區現 已 低 於 海平面 尼科 爾斯 說易 受響 城市 可以 從 東京 汲取 教訓 東京 曾經 下陷 約 5 ( 16 英 ) 後 來 1970 年代 禁止 抽取 地下水 他 補充 說 「 減緩 土地 下陷 問題 應該 被 非常 認真 看待 但 不 可能 阻止 所 下陷 因此 要 討論 適應力 建造 海堤 」 根據 新加坡 2022 年 一項 研究 44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中 30 個位 於 亞洲羅德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示 「 這一個 都市化 人口 增長 問題 人口密度 愈大 抽水 就 愈 多 就 造成 更 多 下陷 」</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">中國 有將 近一半 的 主要 城市 正 面臨 「 中度 至 重度 」 地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 有 9 億   其中 約 有 2.7 億人 生活 在 每年 下陷 逾 3 公分 的 的 地區   相當 於 都市人口 的 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 有 約 四分之一 的 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 的 報告 在 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 的 地層下陷 情形   發現 約 有 45% 的 地區 每年 下沉 超過 3 公 釐   更 有 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 有 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 的 重量 不斷 增加   不斷 增加 的 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 和 海平面 上升   最終 中國會 有 約 四分之一 的 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 的 天津市 被 認為 是 「 最 嚴重 受災 城市 」   2023 年 6 月間   一場 「 突發 地質 災害 」 讓 3 幢 大樓 出現 裂痕   地下室 滲水   有 3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 的 鑽井 施工 觸動 深層 「 地質 空腔 」 所致     不僅 是 中國 有 此 問題   世界各地 皆 面臨 地層下陷 危機   在 今年 2 月 發表 的 另項 研究 指出   全球 約 630 萬 平方公里 的 土地 有 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   內容 提及 全世界 有著 嚴重 地層下陷 的 44 個 沿海 主要 城市 中   就 有 30 個位 於 亞洲  </t>
+          <t>中國將 近一半 主要 城市 正 面臨 「 中度 至 重度 」 地層下陷 威脅 根據 最新 研究 顯示 中國 都市人口 約 9 億 其中 約 2.7 億人活 每年 下陷 逾 3 分地區 相當 於 都市人口 29% 加上 海平面 上升 情形 日漸 加劇 最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面 上 億 居民 將 面臨 洪水 危機 綜合外 媒報導 這篇關 中國 土地 現況 報告 期刊 科學 Science 上 發表 研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形 發現 約 45% 地區 每年 下沉 超過 3 釐 更 16% 土地 平均 每年 下沉 超過 10 釐 且 約 6700 萬 居民 活 於 此 研究 小組 指出 由 於 中國 城市 人口 眾多 即使 地層下陷 只 占 一小部分 威脅 仍 不 忽視 根據 了解 造成 中國 土地 逐年 下沉 主因 過度 抽用 地下水 另 一 因素 為 城市 土地 上 重量 不斷 增加 不斷 增加 沉重 建物 將 土壤 越壓 越緊 實且 研究 人員 預計 由 於 地層下陷 海平面 上升 最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面 包含 天津 上海 廣州 等 都市 數億人將 面臨 洪水 威脅 人口 超過 1500 萬 天津市 被 認為 「 最 嚴重 受災 城市 」 2023 年 6 月間 一場 「 突發 地質 災害 」 讓 3 幢 大樓 出現 裂痕 地下室 滲水 3000 名 居民 被 緊急 疏散 事 發後調 查人員將 災害 肇因 歸咎 於 地下水 資源 枯竭 以地 熱井 鑽井 施工 觸動 深層 「 地質 空腔 」 所致 不僅 中國此 問題 世界各地 皆 面臨 地層下陷 危機 今年 2 月 發表 另項 研究 指出 全球 約 630 萬 平方里 土地 下陷 風險 尤為 印尼 情況 最為 告急 首都 雅加 達 大部分 地區現 已 低 於 海平面 另據 新加坡 2022 年 一項 研究 提 全世界 著 嚴重 地層下陷 44 個 沿海 主要 城市 中 就 30 個位 於 亞洲</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">李欣潔 ／ 核稿 編輯   〔 即時 新聞 ／ 綜合 報導 〕 中國 各 大都市 面臨 地層下陷 的 環境 危機   北京 大學 城市 與 環境 學院 生態 研究 中心 研究 員 陶勝利 團隊   華南師 範大學 北斗 研究院 敖祖銳 團隊 等 人   共同 在 頂 尖 期刊   科學   發表論 文   指稱 2120 年 中國 沿海 城市 恐有 26 ％ 土地 會 低 於 海平面   北京 是 全中國 下沉 速度 最快 的 都市 之一     據   紐約 時報   報導   中國 16 ％ 的 大城市 每年 海拔高度 下降 超過 10 公 釐   近一半 城市 每年 海拔高度 下降 超過 3 公 釐   這些 數字 看 起來 不大   但 日積 月 累 之下 不能 忽視     這些 城市 的 地層下陷 有 一部分 是 由 於 建物 和 基礎 設施 的 重量 造成 的   超 抽 地下水   開採 石油 和 煤礦 也 是 原因 之一   上述 影響 到 環境 的 行為   可能 會 造成 土壤 和 岩石 的 擠 壓 和 坍塌     研究 人員 透過 雷達圖 像   測量 中國 82 個 主要 都市 2015 至 2022 年間 地表 升降 狀況   並和當 地 建物 重量   地下水位 進行 比 較   結果 發現 中國 沿海 城市 目前 約 有 6 ％ 土地 相對 海拔 低于 海平面   假如 2120 年 全球 平均 海平面 上升 0.87 公尺   則 可能 會 上升 到 26 ％     其中   北京 是 全中國 下陷 速度 最快 的 城市 之一   鄰近 的 天津 也 有 同樣 危機   天津 去年 數條 道路 突然 發 生地 裂狀況   導致 數千 居民 從 公寓 撤離   中國 都市 下陷 狀況 是 不均 勻 的   亦 即 不同 區域 以 不同 的 速度 下沉   使得 土地 上 的 建物 面臨 受損 風險     都市 土地 低 於 海平面 並不 代表 滅亡   荷蘭 大部分 地區 都 在 海平面 以下 並持續 下陷   但 荷蘭展 開 了 大量 的 蓄洪 工程 防止 洪災   中國 研究 人員 認為   降低 下陷 速度 的 關鍵 是 限制 地下水 抽取   上海 實施 地下水 管理 後 下沉 速度 比中國 其他 城市 更慢   日本 東京 和 大阪 多年 來 的 地下水 規劃 已 能夠 穩定 地表 沉降 狀況     不過   審查 該 篇 論文 的 英國東 英吉利 大學 氣候 科學家 和 土木工程 專家 尼科 爾斯   Robert   Nicholls   透露   地層下陷 是 中國 全國性 的 問題   很難 完全 阻止   中國 沿海 地區 必須 適應 海平面 上升   地表 下沉 的 狀況     同樣 參與 審查 論文 的 美國維吉尼亞 理工大 學 地球物理 學家 希爾扎 伊   Manoochehr   Shirzaei     曾 以類 似的 方法 研究 了 美國 沿海 都市 的 下沉   他 直指 地層下陷 幾乎 在 任何 地方 都 存在   卻 一直 遭到 忽視     希爾扎 伊說   目前 大多 數應 對 氣候 變化   指 海平面 上升   的 策略 都 是 不 準確 的   因為 這些 都 沒 有 考慮 到 地層下陷 狀況   這個 課題 從 未 像 海平面 上升 一樣 得到 廣泛 研究  </t>
+          <t>李欣潔 核稿 編輯 〔 中國 各 大都市 面臨 地層下陷 環境 危機 北京 大學 城市 與 環境 學院態 研究 中心 研究 員 陶勝利 團隊 華南 師範大學 北斗 研究院 敖祖銳 團隊 等 人 共同 頂尖 期刊 科學 發表論 文指稱 2120 年 中國 沿海 城市 恐 26 ％ 土地 會 低 於 海平面 北京 全中國 下沉 速度 最快 都市 之一 據 紐約 時報 報導 中國 16 ％ 大城市 每年 海拔高度 下降 超過 10 釐 近一半 城市 每年 海拔高度 下降 超過 3 釐 這些 數字 看 起來 不大 但 日積 月 累 之下 不能 忽視 這些 城市 地層下陷 一部分 由 於 建物 基礎 設施 重量 造成 超 抽 地下水 開採 石油 煤礦 原因 之一 上述 響到 環境 行為 可能 會 造成 土壤 岩石 擠壓 坍塌 研究 人員 透過 雷達圖 像 測量 中國 82 個 主要 都市 2015 至 2022 年間 地表 升降 狀況 並當 地 建物 重量 地下水位 進行 比較 結果 發現 中國 沿海 城市 目前 約 6 ％ 土地 相對 海拔 低于 海平面 假如 2120 年 全球 平均 海平面 上升 0.87 則 可能 會 上升 到 26 ％ 其中 北京 全中國 下陷 速度 最快 城市 之一 鄰近 天津 同樣 危機 天津 去年 數條 道路 突然 發地裂 狀況 導致 數千 居民 從寓 撤離 中國 都市 下陷 狀況 不均 勻 亦 即 不同 區域 以 不同 速度 下沉 使得 土地 上 建物 面臨 受損 風險 都市 土地 低 於 海平面 並不 代表 滅亡 荷蘭 大部分 地區 都 海平面 以下 並持續 下陷 但 荷蘭展 開 了 大量 蓄洪 工程 防止 洪災 中國 研究 人員 認為 降低 下陷 速度 關鍵 限制 地下水 抽取 上海 實施 地下水 管理 後 下沉 速度 比中國 其他 城市 更慢 日本 東京 大阪 多年 來 地下水 規劃 已 能夠 穩定 地表 沉降 狀況 不過 審查 該篇論 文英國東 英吉利 大學 氣候 科學家 土木工程 專家 尼科 爾斯 Robert   Nicholls 透露 地層下陷 中國 全國性 問題 很 難 完全 阻止 中國 沿海 地區 必須 適應 海平面 上升 地表 下沉 狀況 同樣 參與 審查論 文美國 維吉尼亞 理工大 學 地球物理 學家 希爾扎 伊 Manoochehr   Shirzaei 曾 以類 似 方法 研究 了 美國 沿海 都市 下沉 他 直指 地層下陷 幾乎 任何 地方 都 存 卻 一直 遭到 忽視 希爾扎 伊說 目前 大多 數應 對 氣候 變化 指 海平面 上升 策略 都 不 準確 因為 這些 都 沒 考慮 到 地層下陷 狀況 這個 課題 從 未 像 海平面 上升 一樣 得到 廣泛 研究</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   根據 美國 科學促 進會   AAAS   出版 的 期刊   科學     Science   於 18 日 發表 的 論文 顯示   中國 近一半 主要 城市 面臨 「 中度 至 重度 」 的 地層下陷 問題   45% 的 城市 每年 下陷 超過 3 毫米   16% 的 城市 每年 快速 下陷 逾 10 毫米   並 造成 每年 75 億元 人民 幣   約合 新 台幣 337 億元   的 經濟 損失   預計 未來 1 世紀 內   中國 沿海 城市 可能 有 1 / 10 的 居民 將 生活 在 海平面 以下     下陷 主因 則 包括 地下水位 下降   以及 建築 環境 對 地下 土壤 帶來 的 沉重 壓力 等   尤其 都市化 進程 更是 加速 了 地下水 資源 過度 開採   以及 大量 建築物 的 重壓   受影響 的 城市 包括 北京   天津   合肥 和 西安 等   由 於 中國 城市 人口 已 超過 9 億人   因此 「 即使 只有 一小部分 的 土地 下陷   都 有 可能 對 城市 生活 構成 重大 威脅 」   涉及 居民 安全   基礎 建設   交通 運作 及 生態 環境 等 多個 層面     研究 估算   地層下陷 已使 中國年 經濟 損失 超過 75 億元 人民 幣   凸顯 了 問題 的 嚴峻 與 急迫   例如 擁有 1500 萬 人口 的 天津   近幾年 都 是 水患 受災 嚴重 的 地區 之一   未來   隨著 全球 暖化 造成 的 海平面 上升   以及 地層下陷 持續   預計 下個 世紀   中國將 有 近 1 / 4 的 沿海 土地 低 於 海平面   洪水 風險 劇增     除 沿海 城市   中國舊 煤區 亦 因 過度 開 採出 現類 似狀況   地下 礦產開 採導致 土地 結構 變化   引發 地層下陷   地方 政府 常採 取向 礦井 注漿 加固 等 臨時 措施   但 無法 從 根源 解決 問題     英國東 英吉利 大學   University   of   East   Anglia   氣候變遷 研究 中心 主任 尼可斯 指出   地層下陷 不僅 是 中國 的 全國性 問題   也 是 全球 的 重大 危機   今年 2 月 的 研究 顯示   全世界 約 有 630 萬 平方公里 的 土地 有 下陷 風險   尤其 印尼 更是如此   其 首都 雅加 達   Jakarta   大部分 區域 目前 已低 於 海平面   加劇 洪水 風險 並嚴 重威脅 居民 生活 與 生態 環境  </t>
+          <t>[   根據 美國 科學促 進會 AAAS 出版 期刊 科學 Science 於 18 日 發表論 文顯示 中國 近一半 主要 城市 面臨 「 中度 至 重度 」 地層下陷 問題 45% 城市 每年 下陷 超過 3 毫米 16% 城市 每年 快速 下陷 逾 10 毫米 並 造成 每年 75 億元 人民 幣約 合新 台幣 337 億元 經濟 損失 預計 未來 1 世紀 中國 沿海 城市 可能 110 居民 將活 海平面 以下 下陷 主因 則 包括 地下水位 下降 以建築 環境 對 地下 土壤 帶來 沉重 壓力 等 尤其 都市化 進程 更 加速 了 地下水 資源 過度 開 採以 大量 建築物 重壓 受響 城市 包括 北京 天津 合肥 西安 等 由 於 中國 城市 人口 已 超過 9 億人 因此 「 即使 只 一小部分 土地 下陷 都 可能 對 城市 活構 成 重大 威脅 」 涉 居民 安全 基礎 建設 交通 運作態 環境 等 多個 層面 研究 估算 地層下陷 已使 中國年 經濟 損失 超過 75 億元 人民 幣凸顯 了 問題 嚴峻 與 急迫 例如 擁 1500 萬 人口 天津 近幾年 都 水患 受災嚴 重地 區 之一 未來 隨著 全球 暖化 造成 海平面 上升 以 地層下陷 持續 預計 下個 世紀 中國 將近 14 沿海 土地 低 於 海平面 洪水 風險劇 增除 沿海 城市 中國舊 煤區 亦 因 過度 開 採出 現類 似狀況 地下 礦產開 採導致 土地 結構 變化 引發 地層下陷 地方 政府 常採 取向 礦井 注漿 加固 等 臨時 措施 但 無法 從 根源 解決 問題 英國東 英吉利 大學 University   of   East   Anglia 氣候變遷 研究 中心 主任 尼可斯 指出 地層下陷 不僅 中國 全國性 問題 全球 重大 危機 今年 2 月 研究 顯示 全世界 約 630 萬 平方里 土地 下陷 風險 尤其 印尼 更 如此 其 首都 雅加 達 Jakarta 大部分 區域 目前 已低 於 海平面 加劇 洪水 風險 並嚴 重威脅 居民 活與態 環境</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 顏宏駿 ／ 彰化 報導 〕 彰化縣 沒有 水庫   多年 以來 不 缺水   民生 用水   的 原因 係 倚賴 全縣 200 多口 地下水 井   但 已 造成 地層下陷 問題   惟鳥 嘴潭 人工湖 淨水廠 完工 後 將可 改變 現今 抽 地下水 的 窘境   目前 台一線 南 彰化 段 正 進行 大型 管路 埋設 工程   2026 年 完工 後   這條 管路 成為 彰化縣 的 給水大動脈   透過 管路 連結   達到 鳥 嘴潭 人工湖   湖山 水庫   鯉魚 潭 水庫 的 水源 靈活 調度 的 目的     台水 公司 指出   目前 鳥 嘴潭淨 水廠 工程 進行 中   埋管 工程 多線 展開   直徑 1.2 公尺 的 幹管 埋設 工程   為 避免 影響 交通   採 分段 施工   預計 2026 年 全部 完工   最後可達 到 北水南 送   南 水北 送   靈活 供水 目標     台水 公司 表示   目前 彰化縣 每日 用水量 約 為 40 萬公噸   地面水 部分   彰化市 與 和 美   花壇 部分 地區 每日 用水量 約 為 8 萬公噸   主要 靠 台中 支援   鯉魚 潭 水庫     南 彰化 的 北斗   二林 與 溪湖 一帶   則由 雲林   湖山 水庫   每日 支援 約 5 萬公噸   烏嘴潭淨 水廠 完工 送水 後   彰化縣 每年 可減 抽 6100 萬噸 的 地下水   解決 農民 枯水期 經常 抽 不到 地下水 窘境     台水 公司 說   未來 鳥 嘴潭淨 水廠 每天 可供 應 彰化 地區 21 萬噸 的 水量   加上 現有 每日 來 自 雲林 湖山 水庫 5 萬公噸   而 透過 台 一線 埋設 的 幹管   南   北 水路 相通   增加 水資源 調度 彈性   在 上游 採 一般 水庫 採高 水位 操作   依循 「 蓄豐濟 枯 」 邏輯   趁 豐水期 盡量 蓄滿   枯水期 才 有 水 可用   包含 中水 局轄區 內 鯉 魚潭   湖山 水庫   目前 處 於 枯水期 階段   卻 仍 持續 滿水 溢流   未來 也 能 應付 極端 氣候 或 突發 供水 危機     台水 公司 第十一 處長 曾 盛一說   水資源 運用 已 不 像 過去   單一 水庫 供水 區 固定   在 水利 署力 拚 打造 西部 廊道 供水管 網   強化 區域 調度 的 同時   鳥 嘴潭 雖 不是 直接 參與 管網   但 透過 減少 中部 水庫 支援 彰化 水量   「 其實 也 有 達 到 調度 功能 」  </t>
+          <t>〔 彰化縣 沒 水庫 多年 以來 不 缺水 民用 水 原因 係 倚賴 全縣 200 多口 地下水 井 但 已 造成 地層下陷 問題 惟鳥 嘴潭 人工湖 淨水廠 完工 後 將可 改變 現今 抽 地下水 窘境 目前 台一線 南 彰化 段 正 進行 大型 管路 埋設 工程 2026 年 完工 後 這條 管路 成為 彰化縣 給水大動脈 透過 管路 連結 達 到 鳥 嘴潭 人工湖 湖山 水庫 鯉魚 潭 水庫 水源 靈活 調度 目台 水司 指出 目前 鳥 嘴潭淨 水廠 工程 進行 中 埋管 工程 多線 展開 直徑 1.2 幹管 埋設 工程 為 避免 響 交通 採 分段 施工 預計 2026 年 全部 完工 最後可達 到 北水 南送 南 水北 送靈活 供水 目標 台水司 表示 目前 彰化縣 每日 用水量 約 為 40 萬噸 地面水 部分 彰化市 與 美 花壇 部分 地區 每日 用水量 約 為 8 萬噸 主要 靠 台中 支援 鯉魚 潭 水庫 南 彰化 北斗 二林 與 溪湖 一帶則 由 雲林 湖山 水庫 每日 支援 約 5 萬噸 烏嘴潭淨 水廠 完工 送水 後 彰化縣 每年 可減 抽 6100 萬噸 地下水 解決 農民 枯水期 經常 抽 不到 地下水 窘境 台水司 說 未來 鳥 嘴潭淨 水廠 每天 可供 應 彰化 地區 21 萬噸 水量 加上 現 每日 來 自 雲林 湖山 水庫 5 萬噸 而 透過 台 一線 埋設 幹管 南北 水路 相通 增加 水資源 調度 彈性 上游 採 一般 水庫 採高 水位 操作 依循 「 蓄豐濟 枯 」 邏輯 趁 豐水期 盡量 蓄滿 枯水期 才 水 可用 包含 中水 局轄區 鯉 魚潭 湖山 水庫 目前 處 於 枯水期 階段 卻 仍 持續 滿水 溢流 未來 能 應付 極端 氣候 或 突發 供水 危機 台水司 第十一 處長 曾 盛一說 水資源 運用 已 不 像 過去 單一 水庫 供水 區 固定 水利 署力 拚 打造 西部 廊道 供水管 網強 化區域 調度 同時 鳥 嘴潭 雖 不 直接 參與 管網 但 透過 減少 中部 水庫 支援 彰化 水量 「 其實 達 到 調度 功能 」</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   屏東縣 的 東港   林邊   佳冬   枋寮 等 4 鄉鎮   因 沿海 土地 嚴重 地層下陷   多數 土地 鹽化 又 易 淹水 不利 耕作   不利 耕作   造成 農業 欠收 或 土地 荒廢   力 暘 公司 優先 選擇 佳冬 鄉進 駐 種電   協助 地方 政府 推動 嚴重 地層下陷區 域 太陽光 電發 電業 的 政策   宣示 要 把 屏東 打造 為 綠能 王國     力 暘 以光 電技術 專業 著稱   整合 旗下 4 公司 建置 99MW   百萬瓦   太陽能 光電場   以 佳冬 鄉作 為 領先 模範 案例   從 2020 年 起   預計 3 年 內 累計 建置 完成 300MW 的 太陽能 光電場   將 打造 屏東縣 為 全台 第一 的 綠能 王國     時任 屏東縣 長 潘孟安 2020 年 6 月 出席 配合 廠商力 暘 太陽能 光電場 動土 典禮   盛 讚 力 暘 能 夠 以 民 間 企 業 力量   鍥而 不 捨 與 地主 溝通   取得 超過 1000 名 地主 認同   用心 令人 敬佩     雖然 得到 地方 政府 肯定   黃 志文 卻 坦言 「 挑戰 很大   」   因為 發展 太陽能 的 最大 挑戰   就是 取得 地主 信任   所以 力 暘 能源 積極 與 地主 溝通   以 每甲 土地 年租金 40 萬 承租   簽約 20 年   為 農民 地主 增加 經濟 收益   而 2 年 來 的 努力   有 超過 1000 位 的 地主   總計 250 多甲 的 土地 出租 給力 暘     他 說   此次 推動 99MW 太陽能 光電場   除攜手 策略 合作 夥伴 中租迪 和 投入 合作 地面 型 電場 外   也 獲 科技 大廠 士林 電機   友達 與 富士康 等 協力 廠商 共同 合作   預定 2021 年 6 月底 全數 完工   每年 將為 屏東 創造 約 1.35 億度 發電 總量   他 強調   力 暘 將以 佳冬 鄉作 為 領先 模範 案例   預計 3 年 內 累計 建置 完成 300MW 的 太陽能 光電場   將 打造 屏東縣 為 全台 第一 的 綠能 王國  </t>
+          <t>[   屏東縣 東港 林邊 佳冬 枋寮 等 4 鄉鎮 因 沿海 土地 嚴重 地層下陷 多數 土地 鹽化 又 易 淹水 不利 耕作 不利 耕作 造成 農業 欠收 或 土地 荒廢力 暘 司 優選擇 佳冬鄉 進駐 種電 協助 地方 政府 推動 嚴重 地層下陷區 域 太陽光 電發 電業 政策 宣示 要 把 屏東 打造 為 綠能 王國力 暘 以光 電技術 專業 著稱 整合 旗下 4 司 建置 99MW 百萬瓦 太陽能 光電場 以 佳冬鄉 作為 領模範 案例 從 2020 年 起 預計 3 年 累計 建置 完成 300MW 太陽能 光電場將 打造 屏東縣 為 全台 第一 綠能 王國 時任 屏東縣 長 潘孟安 2020 年 6 月 出席 配合 廠商力 暘 太陽能 光電場 動土 典禮 盛 讚 力 暘 能 夠 以 民 間 企 業 力量 鍥而 不 捨 與 地主 溝通 取得 超過 1000 名 地主 認同 用心 令人 敬佩 雖然 得到 地方 政府 肯定 黃 志文 卻 坦言 「 挑戰 很大 」 因為 發展 太陽能 最大 挑戰 就 取得 地主 信任 所以 力 暘 能源 積極 與 地主 溝通以 每甲 土地 年租金 40 萬 承租 簽約 20 年 為 農民 地主 增加 經濟 收益 而 2 年來 努力 超過 1000 位 地主 總計 250 多甲 土地 出租 給力 暘 他 說 此次 推動 99MW 太陽能 光電場 除 攜手 策略 合作 夥伴 中租迪 投入 合作 地面 型 電場 外獲 科技 大廠 士林 電機友 達 與 富士康 等 協力 廠商 共同 合作 預定 2021 年 6 月底 全數 完工 每年 將為 屏東 創造 約 1.35 億度 發電 總量 他強 調力 暘 將以 佳冬鄉 作為 領模範 案例 預計 3 年 累計 建置 完成 300MW 太陽能 光電場將 打造 屏東縣 為 全台 第一 綠能 王國</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 的 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 的 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 在 容許 範圍 內   結構 安全 無虞     高鐵路線 通過 彰化   雲林 及 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 內 的 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 的 下陷 量 從 2.6 公分   彰化縣 溪州 鄉   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 的 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 的 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 在 容許 範圍 內   連續 梁為 1 / 1500   簡支梁 1 / 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 有 逾容 許範圍 的 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 及 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 的 橋墩   反而 是 在 沉陷 改善 的 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 / 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 / 1000   雖 仍 在 容 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429</t>
+          <t>中央社 汪淑芬 台北 29 日電 根據 鐵道 局新布 台灣 高鐵路 段 下陷 監測 報告 彰化 雲林 下陷 持續 累積 下陷 量 最大 雲林 114.2 分鐵道 局 表示 高鐵墩 柱角 變量 都 許範圍 結構 安全 無虞 高鐵路 線通過 彰化 雲林 嘉義 主要 地層下陷區 台灣 高鐵司 從民國 92 年 至今 委 託 學術 單位 持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測並 提報 交通部 鐵道局 日前 布 112 年 監測 報告 根據 最新 報告 高鐵路 線 最大 累積 下陷 量 已 達 到 114.2 分其位 於 雲林縣 土庫鎮 台 78 線 與 高鐵 交界 處墩 柱 但 自 103 年 進行 改善 工程 後 目標 範圍 墩柱 差異 沉陷 量 呈 逐年 降低 趨勢 監測 報告 顯示 112 年 高鐵 彰化 雲林 共 8 處 路段 下陷 量 從 2.6 分 彰化縣 溪州鄉 到 5.4 分 雲林縣 土庫鎮 與 元長鄉 交界 都 比 111 年 增加 嘉義 不但 未 再 下陷 還連續 2 年 回脹 但 112 年 回脹量 比 111 年少 鐵道局 指出 較 值得 關注 高鐵 下陷 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段 高鐵 雲林 車站 區高鐵 跨 雲 158 縣道 高鐵 跨台 78 號 快速道路 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 都 仍 許範圍 連續 梁為 11500 簡支梁 11000 高鐵 結構 安全 無虞鐵道 局 指出 高鐵 零星 數處 累積角 變量 逾 許範圍 橋墩 結構 型式 皆 為 簡支梁 台灣 高鐵 已納入 定期 軌道 巡檢 土建 設施 維護 計畫 持續 密切 關注 並依角 變量 變化 速率 按風險 等級 高低 採取 相應 加密 監測 頻率 並已備 妥 軌道 調整 預防性 結構 補強 方案 根據 監測 報告 目前 高鐵累 積角 變量 超過 標準 值橋 墩 反而 沉陷 改善 嘉義 路段 位 於 朴子溪 河 中 目前 簡支 梁累 積角 變量 達 1.961000 而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.3951000 雖 仍 許值 範圍 但 已 從 109 年 起 逐年 增加 編輯 張雅淨 1130429</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 內 的 墩 柱 差異 沉陷 量 呈 逐年 降低 的 趨勢     監測 報告 顯示   2023 年 的 高鐵 彰化   雲林 共 8 處 路段 的 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 的 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 的 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 在 容許 範圍 內   連續 梁為 1 / 1500   簡支梁 1 / 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 的 累積角 變量 有 逾容 許範圍 的 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 及 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 的 橋墩   反而 是 位 在 沉陷 改善 的 嘉義 路段   位 在 朴子溪 河 中   目前 簡支 梁累積 的 角 變量 達 1.96 / 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 / 1000   雖 仍 在 容 許值 範圍   但 已 從 2020 年 起 逐年 增加  </t>
+          <t>台灣 高鐵司 從民國 92 年 至今 委 託 學術 單位 持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測並 提報 交通部 鐵道局 日前 布 2023 年 監測 報告 根據 最新 報告 高鐵 彰化 雲林 路段 下陷 持續 高鐵路 線 最大 累積 下陷 量 已 達 到 114.2 分位 於 雲林縣 土庫鎮 台 78 線 與 高鐵 交界 處墩 柱 但 自 103 年 進行 改善 工程 後 目標 範圍 墩柱 差異 沉陷 量 呈 逐年 降低 趨勢 監測 報告 顯示 2023 年 高鐵 彰化 雲林 共 8 處 路段 下陷 量 從 2.6 分 彰化 溪洲 到 5.4 分 雲林縣 土庫鎮 與 元長鄉 交界 都 比 2022 年 增加 嘉義 不但 未 再 下陷 還連續 2 年 回脹 但 2023 年 回脹量 比 2022 年少 鐵道局 說 較 值得 關注 高鐵 下陷 路段 包括 彰化 溪州 高鐵 與 中山 高跨 交高鐵 雲林 車站 區高鐵 跨 雲 158 縣道 高鐵 跨台 78 號 快速道路 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 皆 許範圍 連續 梁為 11500 簡支梁 11000 高鐵 結構 安全 無虞鐵道 局說 高鐵 零星 數處 累積角 變量 逾 許範圍 橋墩 結構 型式 皆 為 簡支梁 台灣 高鐵 已納入 定期 軌道 巡檢 土建 設施 維護 計畫 持續 密切 關注 並依角 變量 變化 速率 按風險 等級 高低 採取 相應 加密 監測 頻率 並已備 妥 軌道 調整 預防性 結構 補強 方案 根據 監測 報告 目前 高鐵累 積角 變量 過標 準值 橋墩 反而 位 沉陷 改善 嘉義 路段 位 朴子溪 河 中 目前 簡支 梁累 積角 變量 達 1.961000 而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.3951000 雖 仍 許值 範圍 但 已 從 2020 年 起 逐年 增加</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設位 在 台北市 大直 的 新建 案 在 去   2023   年 9 月 7 日 晚間 突然 發生 崩塌   導致 附近 5 樓 民宅 下陷 成 4 樓   台北 地檢署 偵查 終結   將 工地 邱姓 負責人   基泰 公司 工程部 人員 張姓 工地 主任   王姓 及 劉姓 建築師   姜姓 專案 人員 等 5 人   依涉 犯 違背 建築術 成規   偽造 文書 等 罪 起訴   檢方 查出   大直 基泰 建案 坍塌 後   所幸 住戶 及 時 撤離   無人 傷亡   檢方 發現 建案 商未 依圖 施工   應該 60 公分 厚 的 連續 壁   只施作 50 公分   此外   建商 為 了 趕工   改變 施工 順序   竟 調整 監測 異常數 據   導致 工安 意外   至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結  </t>
+          <t>基泰 建設位 台北市 大直 新建 案去 2023 年 9 月 7 日 晚間 突然 發 崩塌 導致 附近 5 樓 民宅 下陷 成 4 樓 台北 地檢署 偵查 終結將 工地 邱姓 負責人 基泰 司 工程部 人員 張姓 工地 主任 王姓 劉姓 建築師 姜姓 專案 人員 等 5 人依涉 犯 違背 建築術 成規 偽造 文書 等 罪 起訴 檢方 查出 大直 基泰 建案 坍塌 後 所幸 住戶 時 撤離 無人 傷亡 檢方 發現 建案 商未 依圖 施工 應該 60 分厚 連續 壁 只 施作 50 分 此外 建商 為 了 趕工 改變 施工 順序 竟 調整 監測 異常 數據 導致 工安 意外 至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 去年 高鐵 沿線 雲林 路段 不僅 持續 下陷 5.4 公分   且 累積 下陷 量 已 達 114.2 公分   全國 下陷 最 嚴重   雲林縣 政府 表示   沿途 現有 的 12 萬 6 千口 的 灌溉 水井   政府 只能 加以 管制 不能 禁止 其繼續 抽水   地下水 入不敷出   自然 持續 下陷     高鐵 公司 從 2003 年 起委 託 學術 單位   每年 針對 高鐵 沿線 結構 墩 柱 地層下陷 進行 監測   去年 高鐵 沿線 持續 下陷 的 路段 包 彰化 及 雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   最大 累積 下陷 量 已 達 到 114.2 公分   地點 是 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   不過   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 在 容許 範圍 內   高鐵 結構 安全 無虞     雲林縣 政府 水利 處處長 許 宏博 表示   雖然 相關 單位 持續 針對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 的 水井 擁有 合法 水權   數量 多 達 12 萬 6 千口   政府 不能 禁止 抽水   農民 灌溉 持續 抽水   地下水 補充 不及   當然會 持續 下陷     許 宏博 表示   縣府 也 積極 輔導 高鐵 沿線 種植 水稻 的 農民 轉作 大豆 及 玉米 等 作物   還是 遇到 一些 瓶頸   由 於 雲林 農村 人力 嚴重 老化   許多 水田 都 是 代耕   老農 根本 無力 自行 耕種   但 旱田 卻 沒 有 代耕 行業   即使 水田 的 利潤 低   農民 也 無力 轉作  </t>
+          <t>〔 鐵道 局布 去年 高鐵 沿線 雲林 路段 不僅 持續 下陷 5.4 分且 累積 下陷 量 已 達 114.2 分全國 下陷 最 嚴重 雲林縣 政府 表示 沿途 現 12 萬 6 千口 灌溉 水井 政府 只能 加以 管制 不能 禁止 其繼續 抽水 地下水 入不敷出 自然 持續 下陷 高鐵司 從 2003 年 起委 託 學術 單位 每年 針對 高鐵 沿線 結構 墩 柱 地層下陷 進行 監測 去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共 8 處 下陷 量 從 2.6 分到 5.4 分 最大 累積 下陷 量 已 達 到 114.2 分地點 雲林縣 土庫鎮 台 78 線 與 高鐵 交界 處墩 柱 不過 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 都 仍 許範圍 高鐵 結構 安全 無虞 雲林縣 政府 水利 處處長 許 宏博 表示 雖然 相關 單位 持續 針對 地層下陷 進行 防治 但 雲林 高鐵 沿線 既 水井 擁 合法 水權 數量 多 達 12 萬 6 千口 政府 不能 禁止 抽水 農民 灌溉 持續 抽水 地下水 補充 不 當然會 持續 下陷 許 宏博 表示 縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等 作物 還 遇到 一些 瓶頸 由 於 雲林 農村 人力 嚴重 老化 許多 水田 都 代耕 老農 根本 無力 自行 耕種 但 旱田 卻 沒 代耕 行業 即使 水田 利潤 低 農民無力 轉作</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 的 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 的 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 及 嘉義 等 地層下陷區   高鐵 公司 從 二 ○ ○ 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 的 路段 包 彰化 及 雲林 共八處   最 值得 關注 的 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 及 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 在 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 在 容許 範圍 內   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 的 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 的 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 的 水田 轉作 旱田   一年 可望 省下 八千 噸 的 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 的 農民 轉作 大豆 及 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 的 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 有 代耕 業者   即使 水田 的 利潤 低   農民 也 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  </t>
+          <t>去年 再增 5.4 分   累計達 114.2 分   防治 卻 遇 瓶頸 〔 鐵道 局布 台灣 高鐵路 段 下陷 監測 報告 去年 雲林 路段 不僅 持續 下陷 五 ． 四分 且 累積 下陷 量 已 達 一一 四 ． 二分 全國 最高 雲林縣 政府 水利 處處長 許 宏博 表示 針對 高鐵 沿線 地層下陷 問題 中央 成立 跨部會 平台 進行 監控 整治 但 沿途 現 十二 萬 六千 口 灌溉 水井 政府 只能 管制 限制 其繼續 深挖 無權 禁止 使用 地下水 入不敷出 地層 自然 持續 下陷 地層下陷 遭遇 瓶頸 仍待 解決 12.6 萬口 灌溉 水井   無法 禁用 台灣 高鐵行經 彰化 雲林 嘉義 等 地層下陷區 高鐵司 從 二三年 起委 託 學術 單位 監測 最新 監測 報告 指出 去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處 最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段 高鐵 雲林 車站 區高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點 下陷 量 從 二 ． 六分 到 五 ． 四分 不等且 比 前年 增加 但 嘉義 卻 未 再 下陷 甚至 已連續 兩年 地層還 上升 與 土庫 台 78 線 交界 處   下陷 最多 監測 報告 指出 高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二分 地點 雲林縣 土庫鎮 台 七八 線 與 高鐵 交界 處 進行 改善 工程 後 墩 柱 差異 沉陷 量 逐年 降低 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 都 許範圍 高鐵 結構 安全 無虞許 宏博 表示 地層下陷 防治 工作 遭遇 瓶頸 雲林 高鐵 沿線 既 水井 擁 合法 水權 數量 多 達 十二 萬 六千 口 政府 不能 禁止 農民 抽水 何況 這更關 係 到 大約 十二 萬 六千 戶 農民計 農民持續 抽水 地層 自然 持續 下陷 輔導 水田 轉作 旱田   推動 不易 許 宏博 表示 一頃 水田 轉作 旱田 一年 可望 省下 八千 噸 灌溉水 縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等 但 雲林 農村 人力 嚴重 老化 種植 水田 老農無力 自行 耕種 多 數委 託 代耕 但 旱田 卻 沒 代耕 業 即使 水田 利潤 低 農民無力 轉作類 似 瓶頸 仍待 中央 統籌 解決</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">去年 高鐵 沿線 持續 下陷   路段 包括 彰化   雲林 共 8 處   下陷 量 從 2.6 公分 到 5.4 公分   雲林縣 土庫 台 78 線 與 高鐵 交界 處   累積 下陷 量 達 到 114.2 公分   是 全國 下陷 最 嚴重 的 地方     鐵道局 土木 建築組 副 組長 謝炎廷 回應   「 這 路段 經由 高鐵 公司 施作 橋梁 預防性 的 改善 措施   以及 公路局 移除 台 78 號的 高 路堤 荷載   改以 鋼橋 行駛 型式 取代 之 後   經過 我們 長 期 追 蹤   沉陷 量 已 趨 於 穩定   」   雲縣 府 水利 處 表示   雖然 相關 單位 有針 對 地層下陷 進行 防治   但 雲林 高鐵 沿線 既有 的 合法 水井 高達 12 萬 6 千口   政府 不能 禁止 抽水 只能 管理   加上 輔導 農民轉 旱作 也 出現 難題     雲縣 府 水利 處 技正 林昆賢 指出   「 水稻田 原則 上 來講   幾乎 百分之百 是 都 可以 機械 耕作   所以 它 在 人力 上 是 最 沒 有 問題 的   那 我們 要轉 旱作 的 時候   因為 各種 旱作 目前 來講   機械 跟 機械 耕作 的 比例   都 跟 水田 比起 來 都 有 很大 落差   」   水利 處 表示   要 輔導 高鐵 沿線 農民轉 旱作   除了 碰上 人力不足 問題   還 存在 產銷 失衡 情況   因農民若 旱作 只能 透過 契作   沒有 保價 機制   多少 降低 農民 轉作 意願   這些 問題還 有待 中央 統籌 解決  </t>
+          <t>去年 高鐵 沿線 持續 下陷 路段 包括 彰化 雲林 共 8 處 下陷 量 從 2.6 分到 5.4 分 雲林縣 土庫 台 78 線 與 高鐵 交界 處累積 下陷 量 達 到 114.2 分全國 下陷 最 嚴重 地方 鐵道局 土木 建築組 副 組長 謝炎廷 回應 「 這 路段 經由 高鐵司 施作 橋梁 預防性 改善 措施 以 路局 移除 台 78 號高 路堤 荷載 改以 鋼橋 行駛 型式 取代 之後經過 我們 長 期 追 蹤 沉陷 量 已 趨 於 穩定 」 雲縣 府 水利 處 表示 雖然 相關 單位 針對 地層下陷 進行 防治 但 雲林 高鐵 沿線 既 合法 水井 高達 12 萬 6 千口 政府 不能 禁止 抽水 只能 管理 加上 輔導 農民 轉旱 作出 現難題 雲 縣府 水利 處 技正 林昆賢 指出 「 水稻田 原則 上 來 講幾乎 百分之百 都 可以 機械 耕作 所以 它 人力 上 最 沒 問題 我們 要轉 旱作 時候 因為 各種 旱作 目前 來 講機械 跟 機械 耕作 比例 都 跟 水田 比起 來 都 很大 落差 」 水利 處 表示 要 輔導 高鐵 沿線 農民轉 旱作 除了 碰上 人力不足 問題 還存 產銷 失衡 情況 因 農民若 旱作 只能 透過 契作 沒保價 機制 多少 降低 農民 轉作 意願 這些 問題 還待 中央 統籌 解決</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察 「 草屯 淨水場 新建 工程 」   陳 建仁 提到   為 減緩 地層下陷   水利 署 推動 「 烏溪 鳥 嘴潭 人工湖 工程 計畫 」   以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 及 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 的 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 在 今年 3 月 27 日達 到 最大 設計 的 出水 功能   通過 每日 5 萬噸 的 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能體 現出 台灣 人民 不分 地區 互助 互惠 的 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 的 工作 量大增   也 承擔 很多 的 任務 與 責任   此外 台水 是 公司   接受 政府 的 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出   「 鳥 嘴潭 人工湖 工程 計畫 」 完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 及 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   及 85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 在 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道</t>
+          <t>行政院 長 陳 建仁視察 草屯 淨水場 工程 台水 提供 〔 行政院 長 陳 建仁今 4 視察 「 草屯 淨水場 新建 工程 」 陳 建仁 提到 為 減緩 地層下陷 水利 署 推動 「 烏溪 鳥 嘴潭 人工湖 工程 計畫 」 以 地面水 取代 地下水 透過 台 水興建 之 草屯 淨水場 下游 自來 水管 線 每日 可供給 草屯 地區 4 萬噸潔淨 穩定 自來 水陳建仁 感謝 台水 讓 工程 提前 3 個 月 通水 草屯 淨水場 新建 工程 今年 3 月 27 日達 到 最大 設計 出水 功能 通過 每日 5 萬噸 供水 能力 測試 未來 完工 後 可 穩定 供水 台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度 珍珠 串計畫 更 能體 現出 台灣 人民 不分 地區 互助 互惠 團結 精神 經濟 部長 王美花 表示 110 年 百年 大旱 開始 全台 水利 建設 加深 加快 台水 與 水利 署 工作 量大增 承擔 很多 任務 與 責任 此外 台水司 接受 政府 挹注 較少 因此 特別 為 台水 爭取 80 億元 經費 讓 台水司 能 順利 執行 計畫 台水 董事 長 李嘉榮 指出 「 鳥 嘴潭 人工湖 工程 計畫 」 完成 後 可 供給 彰化 每日 21 萬噸 水量 草屯 每日 4 萬噸 水量 台水 共 投入 123.6 億經費 辦理 草屯 淨水場 鳥 嘴潭淨 水場 等 2 座淨 水場 並埋設 10 里 原水 導 水管 85 里 清水 送 水管 草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備 場區 綠化率 達 60% 友善 環境 並採用 減少 電力 動能 之 設計 以達淨 零 轉型 之目 標並 重建 七支 圳 圳 路 與 地 農民 共存 共榮 一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">因應 極端 氣候   水利 署 投入 123.6 億元展 開 「 鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫 」   包括 6 座 人工 蓄水池 及 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 也 能 同享 量 好質 優 的 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 的 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定 「 雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫 」 中 的 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 的 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   的 能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 的 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投縣 的 自來 水 普及率 及 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投縣 內 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投縣 用水 問題  </t>
+          <t>因應 極端 氣候 水利 署 投入 123.6 億元展 開 「 鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫 」 包括 6 座 人工 蓄水池 草屯 鳥 嘴潭 2 座淨 水場 鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸 其中 彰化 7 萬噸 南投 2 萬噸 草屯 淨水場 今年 3 月 27 日 正式 完工 出水 總 供水量 提升 到 每日 14 萬噸 並持續 推動 鳥 嘴潭淨 水場 工程 預計 2025 年底 可達 日供 25 萬噸 目標 4 萬噸 供 草屯 21 萬噸 供 彰化 地區 使用 陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程 立委 馬 文君 游顥 等 均 到 場王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助 盼 讓 偏鄉 地區 鄉 親能 同享 量 好質 優水 資源 他 並建議 鳥 嘴潭 人工湖 周遭 可 執行 綠毯計 畫持續 綠 美化 取得 民眾 對 水庫 建設 喜愛陳建仁 說 烏溪 鳥 嘴潭 人工湖 計畫 政府 核定 「 雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫 」 中 重大 建設 之一 草屯 淨水場 為 其中 一環 3 月 已 達 最大 設計 出水 功能 通過 5 萬 CMD 立方 每日 能力 測試 比原 期程 提早 3 個 月 相信 未來 完工 後 定能 穩定 供 應質 優量 足 水資源 進 一步 帶動 地方 發展 游顥會 後 指出 南投縣 水源 長 期不斷 供給 外縣 市 居民 使用 但 南投縣 自來 水普率 水管 汰 舊換 新 都 需要 中央 支持 草屯 淨水廠 應 優滿足 南投縣 用水 需求 剩餘 供水量 再 調度 給外 縣市 才能 實際 解決 南投縣 用水 問題</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 的 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 和 產業 發展區   整體 需水量 不斷 增加   也 造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 和 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投縣 有 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投縣 民 配合 政府 政策   但 南投縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 也 能 喝 到 量 好質 優 的 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒 「 珍珠 串 」   讓 台灣 水資源 調度 更好   也 顯示 台灣 人民 的 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   也 會 持續 綠 美化   變成 南投 新 的 觀光 地標     立委 游顥 說   南投縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 和 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 和 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 在 立法院 繼續 爭取   也 希望 行政院 重視 南投 用水 的 問題  </t>
+          <t>烏溪 鳥 嘴潭 人工湖 中部 地區 最 重要 水利 計畫 總 蓄水量 1450 萬 立方 目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸 等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工 可達 到 最大 每日 25 萬噸 供水量 陳 建仁 經濟 部長 王美花 今天 視察 草屯 淨水場 自來 水司 董事 長 李嘉榮 簡報 中部 地區 供水 面臨 極端 氣候 響產業 發展區 整體 需水量 不斷 增加 造成 雲彰 地區 超 抽 地下水 地層下陷 鳥 嘴潭 人工湖 可 增加 供水 並 改善 地層下陷 問題 人工湖 已蓄 滿 5 個 湖區 C 湖區 預計 5 月底 蓄滿 台水 負責 下游 自來 水 供水 計畫 包含 草屯 鳥 嘴潭 兩座 淨水場 10 里 原水 導 水管 工程 已 完工 總長 85 里 送 水管 聯絡管 工程 已 完成 54 里 草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水 王 瑞德 說 南投縣 集集 攔河堰 湖山 水庫 鳥 嘴潭 人工湖 都 供應 下游 彰化 雲林 使用 南投縣 民 配合 政府 政策 但 南投縣 偏鄉 沒 自來 水且 自來 水延長 管線 成本 高 南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上 只能 開闢 簡易 自來 水響 鄉親 健康 希望 中央 能 重視 南投 自來 水管 線延管 工程 或 加大 簡易 自來 水補助 讓 南投 鄉親 能 喝 到 量 好質 優自來 水陳建仁 說北 從 翡翠 水庫 石門 水庫 一路下 來 這些 水庫 形成 一粒 粒 「 珍珠 串 」 讓 台灣 水資源 調度 更好 顯示 台灣 人民 慈悲 善良 願意 彼此 幫忙 互相 援助 鳥 嘴潭 人工湖 除了 供應 民用 水會 持續 綠 美化 變成 南投 新觀光 地標 立委 游顥 說 南投縣 水源 供應 彰化 雲林 地區 使用 但 行政院 對 南投 回饋 協助 不足 王 瑞德 副 縣長 當場 反映 自來 水普率 水管 汰 舊 換性 草屯 地區 東 八里 4800 戶水員供 應 不足 但陳院 長 沒 回應 他 會 立法院 繼續 爭取 希望 行政院 重視 南投 用水 問題</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 公寓   10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋   建商 本來 願意 賠償 2 百多 萬元 修繕   但給 了 錢 後   屋主 指控 建商 拿到 使用 執照 開始 反悔   還告 10 戶 屋主 不當 得利   其中 被告 的 還有 13 歲 的 少年   但 建商 說 大樓 地下室 開挖 已經 超過 三年   經過 土木 技師 公會 鑑定 沒有 損鄰   將 訴諸 法律 拿 回 不 應該 給的 賠償金     寶特瓶 放在 地上   馬上 滾到 另 一邊   屋主 楊力 欽   「 這邊 是 整個 傾斜 的   因為 有 鑑定 報告 有 寫 說   它 的 高低層 的 落差   」   屋主 指控   是 打開 後 門緊 鄰 的 這棟 新蓋 大樓 害 的   屋主 楊力 欽   「 它 還是 有 漏水   止住 可是 好像 過幾個 月過 後   又 開始 有 水 跑 出來   」   新大樓 蓋 在 老舊 房子 中間   後 方 的 這一棟 舊型 的 公寓 總共 10 戶   施工 時 造成 鄰房 損壞   損壞 的 民宅 屋主 指控   建商 說 好 要給 總共 2 百多 萬 做 為 鄰 損修 復 費用   但是 建商 拿到 使用 執照 後 馬上 反悔   還告 10 戶 住家 不當 得利     屋主 楊力 欽   「 既然 你 不承認 的 話   為 什麼 當初 你 不 直接 訴諸 法律   透過 法律 去 看 說   這個 合約 書無效   這個 鑑定 無效   而是 在 你 使用 執照 之 後   告 我們 12 位 所有 權人   最小 13 歲 年 長 者 71 歲   」   因為 有 地下水 修繕   和 地 下陷 問題 得 先 補救   2 百多 萬 的 修繕 費先 撥給 其中 一戶   現在 10 戶 屋主 全 被告 不當 得利   氣炸開 記者會     不過 建商 說 大樓 地下室 開挖 至今   已經 超過 3 年   經過 土木 技師 公會 鑑定 沒有 損鄰   堅持 要求 拿 回 2 百多 萬修繕 賠償金   因為 蓋大樓 建商 和 附近 住戶 互槓   雙方 都 指控 對方 不公   還有 得 吵  </t>
+          <t>高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 寓 10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋 建商 本來 願意 賠償 2 百多 萬元 修繕 但給 了 錢 後 屋主 指控 建商 拿到 使用 執照 開始 反悔 還告 10 戶 屋主 不當 得利 其中 被告 還 13 歲 少年 但 建商 說 大樓 地下室 開挖 已經 超過 三年 經過 土木 技師會 鑑定 沒損 鄰將 訴諸 法律 拿 回 不 應該 給 賠償金 寶特瓶 放 地上 馬上 滾到 另 一邊 屋主 楊力 欽 「 這邊 整個 傾斜 因為 鑑定 報告 寫 說 它 高低層 落差 」 屋主 指控 打開 後 門緊 鄰 這棟 新蓋 大樓 害 屋主 楊力 欽 「 它還 漏水 止住 可 好像 過幾個 月過 後 又 開始 水 跑 出來 」 新大樓 蓋 老舊 房子 中間後方 這一棟 舊型 寓 總共 10 戶 施工 時 造成 鄰房 損壞 損壞 民宅 屋主 指控 建商 說 好 要給 總共 2 百多 萬為 鄰 損修 復 費用 但 建商 拿到 使用 執照 後 馬上 反悔 還告 10 戶 住家 不當 得利 屋主 楊力 欽 「 既然 不承 認話 為 什麼 當初 不 直接 訴諸 法律 透過 法律 去 看 說 這個 合約 書無效 這個 鑑定 無效 而 使用 執照 之後告 我們 12 位所權 人 最小 13 歲 年 長 71 歲 」 因為 地下水 修繕 地 下陷 問題 得 補救 2 百多 萬修繕 費撥給 其中 一戶現 10 戶 屋主 全 被告 不當 得利 氣炸 開會 不過 建商 說 大樓 地下室 開挖 至今 已經 超過 3 年 經過 土木 技師會 鑑定 沒 損鄰 堅持 要求 拿 回 2 百多 萬修繕 賠償金 因為 蓋大樓 建商 附近 住戶 互槓 雙方 都 指控 對方 不 還得 吵</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">住戶 拿 寶特瓶 平放   立即 滾去 較 低 的 地方   證明 地面 傾斜   牆上 也 有明 顯裂 縫   多次 修補 依然 出現     住戶 指控 自從 2019 年 11 月 開始   旁邊 大樓 興建 就 發現 他們 的 公寓 牆面 漏水   龜裂 還有 地層下陷   後 續 與 開遠 建設 協調   同意 透過 台中市 土木 技師 公會 鑑定     但 住戶 指控   公會 4 次 鑑定 確認 鄰損   建商 也 依法 賠償 修繕 費及 法定 的 4 成 加成 費用 224 萬   近日 卻 反 被 建商 提告 不當 得利     鄰損 住戶 代表 楊 先生 質疑   「 既然 你 不承認 的 話   為 什麼 當初 你 不 直接 訴諸 法律   由 法律 來 去 判說 這個 合意 書無效   這個 鑑定 無效   而是 在 你 取得 使用 執照 之 後   你 反告 我 這 12 位 房屋 所有 權人   」   住戶 代表 楊 先生 說   此案 因為 建商 被 市府 列管   建商 解除 列管 拿到 建照 後 就 不 認帳   反告 他們 不當 得利   使得 鄰近 10 戶   12 名 房屋 所有 權人 都 被告   也 不能 接受 當初 協調 找 公正 單位 鑑定   建商 卻 不認   還找 來 不是 雙方 都 同意 的 單位 檢驗     民進 黨 高雄市 議員 鄭光峰 說 道   「 創下 台灣 建 商史 上 第一 個   有 跟 人家 鄰損 之後又告 人家 的   」   對此 建商 不 受訪   只 透過 文字 聲明 表示   建案 地下室 開挖 3 年 多   不會 因地質 的 問題 損害 鄰房   而且 經過 台灣 省 土木 技師 公會 鑑定 沒 鄰損 的 事情   鄰房 很多 是 屋齡 要 40 年 的 老 公寓   也 違法 增建 防火巷   卻 仍然 企圖 向 本 公司 要求 高額 賠償   本案 進入 司法   等待 判決   也 強調 有 損害 公司 名譽   會 依法 捍衛 權益  </t>
+          <t>住戶 拿 寶特瓶 平放 立即 滾去 較 低 地方 證明 地面 傾斜 牆 上明 顯裂 縫 多次 修補 依然 出現 住戶 指控 自從 2019 年 11 月 開始 旁邊 大樓 興建 就 發現 他們 寓 牆面 漏水 龜裂還 地層下陷 後 續 與 開遠 建設 協調 同意 透過 台中市 土木 技師會 鑑定 但 住戶 指控 會 4 次 鑑定確 認鄰 損建商 依法 賠償 修 繕費 法定 4 成 加成 費用 224 萬 近日 卻 反 被 建商 提告 不當 得利 鄰損 住戶 代表 楊質疑 「 既然 不承 認話 為 什麼 當初 不 直接 訴諸 法律 由 法律 來 去 判說 這個 合意 書無效 這個 鑑定 無效 而 取得 使用 執照 之 後 反告 我 這 12 位 房屋 所權 人 」 住戶 代表 楊說 此案 因為 建商 被 市府 列管 建商 解除 列管 拿到 建照 後 就 不 認帳 反告 他們 不當 得利 使得 鄰近 10 戶 12 名 房屋 所權 人 都 被告 不能 接受 當初 協調 找 正 單位 鑑定 建商 卻 不 認還 找 來 不 雙方 都 同意 單位 檢驗民 進黨 高雄市 議員 鄭光峰 說 道 「 創下 台灣 建 商史 上 第一 個 跟 人家 鄰損 之後又告 人家 」 對此 建商 不 受訪 只 透過 文字 聲明 表示 建案 地下室 開挖 3 年 多 不會 因地質 問題 損害 鄰房 而且 經過 台灣 省 土木 技師會 鑑定 沒 鄰損 事情 鄰房 很多 屋齡 要 40 年老 寓 違法 增建 防火巷 卻 仍然 企圖 向 本司 要求 高額 賠償 本案 進入 司法 等待 判決 強調 損害 司名 譽會 依法 捍衛 權益</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重     雲林縣 水利 處長 許 宏博 提及   「 以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 的 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服   」   雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 在 內陸 地區 有 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 也 提出 因應     許 宏博 說明   「 較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 內 陸裡面   都 擋 在 防潮 牆 之外   」   水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
+          <t>根據 環境 部國 科會 報告 指出 若 全球 暖化 未來 無法效 控制 增溫 未來 海平面 上升 會 再 造成 海岸 溢淹 又 以 雲林 最 嚴重 雲林縣 水利 處長 許 宏博 提 「 以大數 據 來 看 幾 十年 可能 就 只 上升 1 到 2 分相 對 地層下陷 因素 這 可能 較小響 程度 不過 因應 整個 地層下陷 或 海洋 暖化 海平面 上升 這 雲林縣 必須 去 克服 」 雲縣 府 水利 處 表示 除暖化響 海岸 溢淹 面積 雲林縣 面對 最大 危機 地層下陷 1 年陸 地區 平均 5 至 6 分 下陷 沿海 地區 平均 2 至 3 分 下陷 現針 對 四湖 箔子 寮 漁港 提出 因應許 宏博 說明 「 較 低 地方 我 就 會 蓋 一個 類似 牆然後去 墊 高 讓 它們 潮位 來時 不會溢到 陸裡面 都 擋 防潮 牆 之外 」 水利 處 表示 若 海平面 上升 淹 水面 積 自然 加大 經盤點 雲林 四湖 箔子 寮 漁港 比較 危急 去年 9 月經 中央 地方 共同 會勘 後 將花 3500 萬元 加高 碼頭 港岸 以防 海水 再 入侵 整個 工程 預計 再 半年 可 完工</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 環境部   國科會 發布 全球 暖化 若 未來 無法 有效 控制 增溫   台灣 夏天 可能 長 達 7 個 月   海平面 上升 會 造成 海岸 溢淹 面積 增加   其中 以 雲林 溢淹 面積 增加 最顯 著   對 此雲縣 府 水利 處 表示   除了 暖化 影響   地層下陷 也 是 影響 主因   目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫   雲林縣 最大 箔子 寮 漁港   去   2023   年 8 月 發生 嚴重 海水倒灌   整座 漁港 幾乎 都 被淹 沒   甚至 危及 近鄰 村落   根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重   雲林縣 水利 處長 許 宏博 提及   「 以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 的 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服   」 雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 在 內陸 地區 有 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 也 提出 因應   許 宏博 說明   「 較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 內 陸裡面   都 擋 在 防潮 牆 之外   」 水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  </t>
+          <t>根據 環境 部國 科會 發布 全球 暖化 若 未來 無法效 控制 增溫 台灣 夏天 可能 長 達 7 個 月 海平面 上升 會 造成 海岸 溢淹 面積 增加 其中 以 雲林 溢淹 面積 增加 最顯 著 對 此雲縣 府 水利 處 表示 除了 暖化響 地層下陷 響 主因 目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫 雲林縣 最大 箔子 寮 漁港 去 2023 年 8 月 發 嚴重 海水倒灌 整座 漁港 幾乎 都 被淹 沒 甚至 危近 鄰 村落 根據 環境 部國 科會 報告 指出 若 全球 暖化 未來 無法效 控制 增溫 未來 海平面 上升 會 再 造成 海岸 溢淹 又 以 雲林 最 嚴重 雲林縣 水利 處長 許 宏博 提 「 以大數 據 來 看 幾 十年 可能 就 只 上升 1 到 2 分相 對 地層下陷 因素 這 可能 較小響 程度 不過 因應 整個 地層下陷 或 海洋 暖化 海平面 上升 這 雲林縣 必須 去 克服 」 雲縣 府 水利 處 表示 除暖化響 海岸 溢淹 面積 雲林縣 面對 最大 危機 地層下陷 1 年陸 地區 平均 5 至 6 分 下陷 沿海 地區 平均 2 至 3 分 下陷 現針 對 四湖 箔子 寮 漁港 提出 因應許 宏博 說明 「 較 低 地方 我 就 會 蓋 一個 類似 牆然後去 墊 高 讓 它們 潮位 來時 不會溢到 陸裡面 都 擋 防潮 牆 之外 」 水利 處 表示 若 海平面 上升 淹 水面 積 自然 加大 經盤點 雲林 四湖 箔子 寮 漁港 比較 危急 去年 9 月經 中央 地方 共同 會勘 後 將花 3500 萬元 加高 碼頭 港岸 以防 海水 再 入侵 整個 工程 預計 再 半年 可 完工</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 在 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為 「 海底 之 城 」   泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡 的   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 在 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 的 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   有 專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢   「 全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 的 趨勢   曼谷 大概 會 被淹 沒 」   他 也 透露   關於 首都 曼谷 面臨 的 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 的 低 地國 荷蘭   藉由 興建 堤防 的 方式 來 防堵 海水倒灌   同時 當局 也 有將 「 遷都 」 納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   也 曾 提出 同樣 的 建議   2019 年時   這位 前 總理 在 「 泰國 與 世界 相連大會 」   Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 和 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 也 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 在 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 有 計劃 遷都 的 國家 就 有 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 的 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   也 因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 及 地層下陷 等 危機   預計 在 今年 正式 「 遷都 」 至婆羅洲島 的 東 加里曼丹 省   East   Kalimantan     新 首都 名為 「 努山 塔拉 」   Nusantara     在 印尼 語中 有 「 群島 」 之意   不過 高達 350 億 美元 的 遷都 計畫 也 備受 爭議  </t>
+          <t>[   泰國以 觀光業 聞名 不少 觀光客 都 會 造訪 首都 曼谷 Bangkok 然而 全球 暖化 問題 加劇 導致 海平面 不斷 上升 泰國 氣候變遷 辦室 評估 曼谷 本世紀 末 恐 被 海 水淹 沒為 了 避免 曼谷 成為 「 海底 之 城 」 泰國 官方 為此 考慮 遷都 不過 目前 仍處 於 假 設階段 根據 新加坡 亞洲 新聞台 等 外 媒報 導泰國 首都 曼谷 過往 雨季 時 經常 飽受 洪水 問題 困擾 天災 一直 政府 頭痛 議題 隨著 曼谷 人口 已破千萬 加上 全球 暖化 趨勢 專家 示警 因為 海平面 不斷 上升 曼谷 恐 21 世紀 結束 前 遭海 水淹 沒根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇 Pavich   Kesavawong 警告 曼谷 可能 無法 適應 當前 全球 暖化 趨勢 「 全球 暖化 已經 超過 氏 1.5 度 如果 我們 繼續 保持 當前 趨勢 曼谷 大概 會 被淹 沒 」 他 透露 關於 首都 曼谷 面臨 氣候 危機 政府 正 研究 因應 措施 像 參考 歐洲 著名 低地國 荷蘭 藉由 興建 堤防 方式 來 防堵 海水倒灌 同時 當局將 「 遷都 」 納入 計畫 之中 這並 非泰國 首次 提出 遷都 前首相 帕拉 育位 時 曾 提出 同樣 建議 2019 年時 這位 前 總理 「 泰國 與 世界 相連大會 」 Connecting   Thailand   with   the   World   Conference 拋出 遷都 議題 藉此 因應 曼谷 海平面 上升 以 交通 壅塞 環境 汙染 人口 過度 稠密 問題 針對 遷都 議題 帕維奇 提到 這 部分 牽涉 問題 太過 複 雜 因此 仍 初期 假設 階段 除了 泰國 打算 遷都 目前 東南亞 計劃 遷都 國家 就 緬甸 當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 里奈比 多 Naypyidaw 此外 印尼 首都 雅加 達 Jakarta 因為 面臨 人口 過剩 環境 污染 於 交通 壅塞 地層下陷 等 危機 預計 今年 正式 「 遷都 」 至婆羅洲 島東 加里曼丹 省 East   Kalimantan 新 首都 名為 「 努山 塔拉 」 Nusantara 印尼 語中 「 群島 」 之意 不過 高達 350 億 美元 遷都 計畫備 受爭議</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>印尼 打算 遷移 首都   因為 目前 的 首都 雅加 達   問題 一籮 筐   除了 人口 過度 密集   引發 的 「 城市 汙染 」 之外   當地 還是   全球 「 地層下陷 最快 」 的 都市   當局 計畫   兩年 內 就要 在 新 首都   努山 塔拉   蓋好 機場   各項 新建 設   也 讓 不少台 廠 嗅到 商機   來 看到 鏡新聞 記者 從 印尼 帶來 的 第一手 觀察       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   / / reurl . cc / kqyqML   鏡新聞 APP   Android 👉 https   / / reurl . cc / Ay2y63   有話 鏡來講 YT 👉 https   / / reurl . cc / A4DjQj   少年 新聞 週記 YT 👉 https   / / reurl . cc / K4DeN9</t>
+          <t>印尼 打算 遷移 首都 因為 目前 首都 雅加達 問題 一籮 筐 除了 人口 過度 密集 引發 「 城市 汙染 」 之外 當地還 全球 「 地層下陷 最快 」 都市 當局 計畫 兩年 就要 新 首都 努山 塔拉 蓋好 機場 各項 新建 設讓 不少台 廠 嗅到 商機來 看到 鏡新聞 從 印尼 帶來 第一手 觀察   鏡新聞 已 上架 86 台若 無法 收看 請 洽詢 當地系 統台   鏡新聞 APP   iOS 👉 httpsreurl . cckqyqML   鏡新聞 APP   Android 👉 httpsreurl . ccAy2y63   話鏡 來講 YT 👉 httpsreurl . ccA4DjQj   少年 新聞週 YT 👉 httpsreurl . ccK4DeN9</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">科技 大亨 馬 斯克   Elon   Musk   今天   5 / 19   抵達 印尼 峇里島   將與 印尼 總統 佐科威   Joko   Widodo   一起 參加 星鏈   Starlink   網路 服務 的 啟用   印尼 將是 東南亞 第三 個 使用 星鏈 服務 的 國家   政府 希望 星鏈 能夠 提高 各島嶼 的 網路 普及 度   這是 印尼 一個 月 內 迎接 的 第 3 名 科技 企業 執行長   此前 蘋果   微軟 執行長 都 已來訪     綜合 路透社 與 美聯社 報導   太空 科技 公司 SpaceX 執行長 馬 斯克 今天 搭乘 私人 飛機 抵達 印尼 峇里島 機場   印尼 首席 投資部長 盧胡特   Luhut   Binsar   Pandjaitan   在 機場 迎接   預計 兩人 將會 討論 一些 重要 的 合作   包含 星鏈 服務 的 啟動   馬 斯克 還會 簽署 一項 協助 印尼 加強 衛生 與 教育 單位 聯絡 互通 的 合約     盧胡特 表示   馬 斯克 今天 稍晚 將和 印尼 總統 佐科威 一起 在 峇里島 首府 登巴薩   Denpasar   的 社區 衛生 中心 一起 啟動 星鏈   盧胡特 說   在 衛生 機構 啟動 這項 服務   呼應 星鏈 「 提供 平價 高速 網路 」 的 宗旨   尤其 是 在 網路 收訊 不佳 或過 於 偏遠 的 地區     印尼 是 個 群島 國家   有 約 1.7 萬座 島嶼   橫跨 3 個 時區   人口 超過 2.7 億   盧胡特 說   印尼 偏鄉 需要 星鏈 來 拓展 高速 網路   尤其 是 要 用 來 解決 衛生   教育 和 海事 單位 的 問題     印尼 通訊 部長 布迪   Budi   Arie   Setiadi   上週 表示   星鏈 已經 獲得 在 印尼 營運許 可   布迪 強調   星鏈 的 低 軌衛星 可以 讓 網路 擴及 目前 印尼 通訊 商無法 到 達 的 地區     據報   位 於 印尼 婆羅洲   Borneo   的 新 首都 努山 塔拉   Nusantara   本月 將先 試用 星鏈   8 月 正式 上線   印尼 正準備 遷都 努山 塔拉   因為 受 海平面 上升 與 地層下陷 影響   預計 目前 的 首都 雅加 達 大部分 地區將 在 2050 年 被淹 沒     印尼 將是 東南亞 第三 個 使用 星鏈 服務 的 國家   馬 來 西亞 去年 已核 發許 可證 給營 運星鏈 的 SpaceX 公司   菲律賓 一家 公司 則是 在 2022 年 與 SpaceX 簽約 合作     在 馬 斯克訪 印尼 前   蘋果 公司 執行長 庫克   Tim   Cook   4 月 17 也 與 印尼 總統佐科 威會面   並 表示 會將 印尼 的 產能 納入 考慮   兩周 後   微軟 執行長 納 德拉   Satya   Nadella   同月 30 日訪 印尼   承諾 未來 4 年 內 在 印尼 投資 17 億 美元   強化 印尼 的 新雲端 運算 與 人工智慧 基礎 設施     馬 斯克 此次 訪 峇里島   也 將參加 第十 屆 世界 水論壇   World   Water   Forum     研討 全球 水資源 和 衛生 挑戰  </t>
+          <t>科技 大亨 馬 斯克 Elon   Musk 今天 519 抵達 印尼 峇里島 將與 印尼 總統 佐科威 Joko   Widodo 一起 參加 星鏈 Starlink 網路 服務 啟用 印尼 將東 南亞 第三 個 使用 星鏈 服務國家 政府 希望 星鏈 能夠 提高 各島嶼 網路 普度 這 印尼 一個 月 迎接 第 3 名 科技 企業 執行長 此前 蘋果 微軟 執行長 都 已來訪 綜合 路透社 與 美聯社 報導 太空 科技司 SpaceX 執行長 馬 斯克 今天 搭乘 私人 飛機 抵達 印尼 峇里島 機場 印尼 首席 投資部長 盧胡特 Luhut   Binsar   Pandjaitan 機場 迎接 預計 兩人 將會 討論 一些 重要 合作 包含 星鏈 服務 啟動馬斯克 還會 簽署 一項 協助 印尼 加強衛 與 教育 單位 聯絡 互通 合約 盧胡特 表示 馬 斯克 今天 稍晚 將 印尼 總統 佐科威 一起 峇里島 首府 登巴薩 Denpasar 社區衛 中心 一起 啟動星 鏈盧 胡特 說 衛機構 啟動 這項 服務呼 應星鏈 「 提供 平價 高速 網路 」 宗旨 尤其 網路 收訊 不佳 或過 於 偏遠 地區 印尼 個 群島 國家 約 1.7 萬座 島嶼 橫跨 3 個 時區 人口 超過 2.7 億盧 胡特 說 印尼 偏鄉 需要 星鏈 來 拓展 高速 網路 尤其 要用 來解 決衛 教育 海事 單位 問題 印尼 通訊 部長 布迪 Budi   Arie   Setiadi 上週 表示 星鏈 已經 獲得 印尼 營運許 可布迪強 調星鏈 低 軌衛星 可以 讓 網路 擴 目前 印尼 通訊 商無法 到 達 地區 據 報位 於 印尼 婆羅洲 Borneo 新 首都 努山 塔拉 Nusantara 本月 將試 用 星鏈 8 月 正式 上線 印尼 正準備 遷都 努山 塔拉 因為 受 海平面 上升 與 地層下陷 響 預計 目前 首都 雅加 達 大部分 地區將 2050 年 被淹 沒 印尼 將東 南亞 第三 個 使用 星鏈 服務國家馬來 西亞 去年 已核 發許 可證 給營 運星鏈 SpaceX 司菲律賓 一家 司則 2022 年 與 SpaceX 簽約 合作 馬 斯克訪 印尼 前 蘋果司 執行長 庫克 Tim   Cook4 月 17 與 印尼 總統佐科 威會 面並 表示 會將 印尼 產能 納入 考慮 兩 周後微 軟 執行長 納 德拉 Satya   Nadella 同月 30 日訪 印尼 承諾 未來 4 年 印尼 投資 17 億 美元 強化 印尼 新雲端 運算 與 人工智慧 基礎 設施馬斯克 此次 訪 峇里島 將參加 第十 屆 世界 水論壇 World   Water   Forum 研討 全球 水資源衛 挑戰</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ 周刊 王 CTWANT ]   花蓮市 名店 「 歪歪 歪 甜點 」   在 南京 街 的 店面 竟 被後方 建案 的 「 廣朋 」 建設 公司 以修繕 名義 直接 將廁 所 拆除   業者 忍無可忍 報警 處理   而廣朋 於 建設 新大樓 過程 當中 造成 的 鄰損 不 只 這一樁   一名 A 先生 的 房屋 剛好位 在 基地 的 旁邊   房屋 早已 因 地層下陷 而 硬生生 斷成 兩截   而廣朋 不但 試圖將 相關 損害 歸咎 於 地震   且 只 買 了 一個 大 水桶 讓 住 戶接 漏水   讓 住戶 完全 無法 接受     A 先生 帶著 本刊 記者 實際 走 進屋 內   儘 管 該 棟 房屋 為 老舊 3 層 透天   但 屋內 深度 相當 深   穿越 車庫 進入 客廳 後 可以 明顯 感覺 地層 已 下陷   腳下 的 磁磚 碎裂   屋主 已 鋪 上 軟 墊   避免 踩 在 上面 時 受傷     A 先生 也 拿出 一顆 乒乓球 放在 地面 測試 屋內 地板 磁磚 水平   且 明顯 看見 本該 靜止 的 乒乓球 在 滾動   證明 地面 出現 傾斜   A 先生 憤怒 的 表示   「 這些 損害 早 在 0403 大 地震 前 就 已經 發生   廣朋還 試圖 想要 將責任 全部 歸咎 在 地震 上 」     A 先生 帶著 記者 穿越 客廳 進入 一樓後方 的 臥室 內   不但 明顯 感受 到 地面 傾斜   地上 更裂 出 一條 又 深 又 長 的 裂縫   一路 到 房屋 的 正後方   而後方 也 因 房屋 管線 受損 嚴重 已 無電力 照明   A 先生 隨手 拿 起 一條 目測 至少 約 有 1 公尺 長 的 木棍   直接 插 進裂 開 的 縫 中   他 在 裂縫 中 攪動 木棍 表示   「 這裂 縫 寬度 至少 約 5 公分   而 這根 木棍 甚至 還沒 到底   你 跟 我 說 這叫 地震 造成 的   」   走上 2 樓   由 於 房屋 後 半段 傾斜   門框 早已 變形 無法 關上   管線 也 被 嚴重 破壞   不但 沒有 電力 照明   水還 從 四面八方 滴滴答答 的 滲出   A 先生 說 「 這樣 到底 要 怎麼 住   而 廣朋所 做 的 事 就是   買 了 一個 大 水桶 要 我們 接 漏水   」   當地 的 主商里 里 長 廖大慶 5 月 22 日 也 帶 著 縣府 與 市公所 人員 前往 工地 會勘   廖大慶 比著 工地 一旁 柏油路 上 的 明顯 裂痕 與 民宅 地板 的 明顯 落差 表示   「 這 不是 地層下陷 是 什麼   」 廣朋 的 李姓 協理則 表示   柏油路 的 裂痕 已有 補過   但 主要 應是 3   40 噸 的 重機具 每天 在 這裡 進出 所導致   里長 吐 槽 表示   「 不要 跟 我 說 是 重機具   那為 什麼 只有 工地 這 一段 出現 裂痕 下陷   工地 的 前 後 柏油路 都 沒 有 裂開   」 場面 一度 相當 火爆     22 日 的 會勘 也 在 住 戶 對 建商 的 一片 罵聲 中 暫時 落幕   花蓮縣 議員 吳東 昇 也 居中 協調   廣朋 初步 承諾會 先將 裂開 和 下陷 的 馬 路 進行 修繕   以維護 公共安全   至於 與 住 戶 所 造成 的 鄰損 等 狀況   雙方遲 遲無法 達 成共識   因此 相關 損害 修 復 恐怕 還有 得 吵     廣朋總 公司 位 於 台北 市長 安東路   其 於 104 上 的 敘述 自稱 成立 20 年來 擁有 專業 建築 團隊   除 專注 在 北市 市中心 精華區 興建 精 緻 住宅   同時 也 將建築 領域 開發 至 花蓮市   台南 與 高雄   同時 更是 ViVi   PARK 停車 品牌 的 經營者     但 廣朋在 2017 年 時 與 台灣 知名 視障 慢跑 者   有 「 台灣 阿甘 」 之稱 的 張文彥 發生 租屋 糾紛   張文彥 向 廣朋租 店面 開設 視障 健康 按摩 養生會館   但 廣朋 卻 將停 車場 以金 店面 名義 承租 給張 文彥   並 要求 提前 解約   甚至 將 店面 大門 以鐵片 封死   搬 2 塊 巨石 擋住 大門   被 批 手段 惡劣   而前 台北市 議員 黃 向 羣 也 曾 被 周刊 踢 爆   其為 北捷 萬大線 「 捷七聯 開案 」 地主 拒絕 加入 聯合 開發 一事   以 優先 投資權   開發 獲利 超過 13 億元 吸引 地主 找廣朋 合作   以此 收取 6500 萬元 的 顧 問費   造成 地主 200 坪 土地 被 納入 聯開   市價 5 億 多元 的 土地 僅能 拿 回 1 億餘元     對此   本刊 兩度致 電向位 在 北市 的 廣朋總 公司 詢問   該 公司 接線 人員 表示 對 此事 不 了解   並說 公司 內 沒 有人 可 代表 對外 說明   就 將電話 掛斷   不再 回應  </t>
+          <t>[   花蓮市 名店 「 歪 歪歪 甜點 」 南京街 店面 竟 被後方 建案 「 廣朋 」 建設 司以 修繕 名義 直接 將廁 所 拆除 業忍 無 可忍 報警 處理 而 廣朋 於 建設 新大樓 過程 當中 造成 鄰損 不只 這一樁 一名 A 房屋 剛好 位 基地 旁邊 房屋 早已 因 地層下陷 而 硬斷 成 兩截 而 廣朋 不但 試圖將 相關 損害 歸咎 於 地震 且 只 買 了 一個 大 水桶 讓 住 戶接 漏水 讓 住戶 完全 無法 接受 A 帶著 本刊 實際 走 進 屋 儘 管 該 棟 房屋 為 老舊 3 層 透天 但屋 深度 相當 深 穿越 車庫 進入 客廳 後 可以 明顯 感覺 地層 已 下陷 腳下 磁磚 碎裂 屋主 已 鋪 上 軟 墊 避免 踩 上面 時 受傷 A 拿出 一顆 乒乓球 放 地面 測試 屋 地板 磁磚 水平 且 明顯 看見 本該 靜止 乒乓球 滾動 證明 地面 出現 傾斜 A 憤怒 表示 「 這些 損害 早 0403 大 地震 前 就 已經 發廣朋 還試 圖 想要 將責任 全部 歸咎 地震 上 」 A 帶著 穿越 客廳 進入 一樓後方 臥室 不但 明顯 感受 到 地面 傾斜 地上 更裂 出 一條 又 深 又 長 裂縫 一路 到 房屋 正後方 而後方 因 房屋 管線 受損 嚴重 已 無電力 照明 A 隨手 拿 起 一條 目測 至少 約 1 長 木棍 直接 插 進裂 開縫 中 他 裂縫 中 攪動 木棍 表示 「 這裂 縫 寬度 至少 約 5 分而 這根 木棍 甚至 還沒 到底 跟 我 說 這叫 地震 造成 」 走上 2 樓 由 於 房屋 後 半段 傾斜門 框 早已 變形 無法 關上 管線 被 嚴重 破壞 不但 沒電力 照明 水還 從 四面八方 滴滴答答 滲出 A 說 「 這樣 到底 要 怎麼 住 而 廣朋所事 就 買 了 一個 大 水桶 要 我們 接 漏水 」 當 地主 商里里長 廖大慶 5 月 22 日帶 著 縣府 與 市 所人員 前往 工地 會勘 廖大慶 比著 工地 一旁 柏油路 上明顯 裂痕 與 民宅 地板 明顯 落差 表示 「 這不 地層下陷 什麼 」 廣朋 李姓 協理則 表示 柏油路 裂痕 已補過 但 主要 應 340 噸重 機具 每天 這裡 進出 所導 致里長 吐 槽 表示 「 不要 跟 我 說 重機 具為 什麼 只 工地 這 一段 出現 裂痕 下陷 工地 前 後 柏油路 都 沒裂 開 」 場面 一度 相當 火爆 22 日 會勘 住戶 對 建商 一片 罵聲 中 暫時 落幕 花蓮縣 議員 吳東 昇 居中 協調 廣朋 初步 承諾會 將裂 開 下陷 馬 路 進行 修繕 以維護 共 安全 至於 與 住 戶 所 造成 鄰損 等 狀況 雙方遲 遲無法 達 成共識 因此 相關 損害 修 復 恐怕 還得 吵 廣朋總司 位 於 台北市 長安東路 其 於 104 上 敘述 自稱 成立 20 年 來 擁 專業 建築 團隊 除 專注 北市 市中心 精華區 興建 精 緻 住宅 同時 將建築 領域 開發 至 花蓮市 台南 與 高雄 同時 更 ViVi   PARK 停車 品牌 經營 但 廣朋 2017 年 時 與 台灣 知名 視障 慢跑 「 台灣 阿甘 」 之稱 張文彥 發 租屋 糾紛 張文彥 向 廣朋租 店面 開設 視障 健康 按摩 養會館 但 廣朋 卻 將停 車場 以金 店面 名義 承租 給張 文彥並 要求 提前 解約 甚至 將 店面 大門 以鐵片 封死 搬 2 塊 巨石 擋住 大門 被 批 手段 惡劣 而 前 台北市 議員 黃 向 羣 曾 被 周刊 踢 爆其為 北捷 萬大線 「 捷七聯 開案 」 地主 拒絕 加入 聯合 開發 一事 以優 投資權 開發 獲利 超過 13 億元 吸引 地主 找廣朋 合作 以此 收取 6500 萬元顧 問費 造成 地主 200 坪 土地 被 納入 聯開 市價 5 億 多元 土地 僅能 拿 回 1 億餘元 對 此 本刊 兩度致 電向位 北市 廣朋總司 詢問 該司 接線 人員 表示 對 此事 不 了解 並說司 沒人 可 代表 對外 說明 就 將電話 掛斷 不再 回應</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">江慶賢 指出   近一個 月 立信 街   和 信街   自強 街 附近 的 住戶   不斷 反映 水壓 不足   很多 里民因 為 抽 不到 水   馬 達 都 燒壞 了   他 向 自來 水 公司 反映   水 公司 一開始 堅持 水壓 和 供水 都 正常   最後才 說 水管 破裂   今天 要來 修理     今   5   日 早上 江慶賢還 沒 等到 水 公司 工程 人員   就 先 接到 里民通報   指立 中 六街 出現 天坑   他 跑 到 現場   見 到 一部 工程 車右後輪 將馬路 壓出 一個 洞   怪手 正在 協助 工程 車脫 困   幸好 沒人 傷亡   但馬路 破洞 裡的 水源 源不斷 湧出   地層下陷 情形 似乎 很 嚴重   他將 要求 自來 水 公司 全力 補救     自來 水 公司 回應 表示   一開始 以 為 只是 漏水   後 來 才 發現 立中 六街 下方 還有 一處 直徑 10 公分 的 自來 水管 線 破裂   當下 已 立即 派遣 工班 到場 處理   針對 住戶 抽水 馬 達 燒壞   將會 研議 是否 進行 相關 賠償  </t>
+          <t>江慶賢 指出 近一個 月 立信街 信街 自強街 附近 住戶 不斷 反映 水壓 不足 很多 里民因 為 抽 不到 水馬達 都 燒壞 了 他 向 自來 水司 反映 水司 一開始 堅持 水壓 供水 都 正常 最後才 說 水管 破裂 今天 要來 修理 今 5 日 早上 江慶賢還 沒 等到 水司 工程 人員 就 接到 里民通 報指 立中六街 出現 天坑 他 跑 到 現場 見 到 一部 工程 車右後輪 將馬路 壓出 一個 洞 怪手 正協助 工程 車脫 困 幸好 沒人 傷亡 但馬路 破洞 裡 水源 源不斷 湧出 地層下陷 情形 似乎 很 嚴重 他將 要求 自來 水司 全力 補救 自來 水司 回應 表示 一開始 以 為 只 漏水 後 來 才 發現 立中六街 下方 還一處 直徑 10 分自來 水管 線 破裂 當下 已 立即 派遣 工班到 場處 理針 對 住戶 抽水 馬 達 燒壞 將會 研議 進行 相關 賠償</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">台灣 西南 沿海 地區 為候 鳥 主要 度冬棲息 地   為 了 守護 於 此 休憩 的 黑面 琵鷺   水鳥 與 候鳥   台灣 環境 資訊 協會   簡稱 環資   和 嘉時 航運 股份 有限公司   簡稱 嘉時 航運   攜手 合作 生態 工作 假期   於 5 月 27 日至 嘉義 布袋 濕地   執行 棲地 植樹 活動   讓候 鳥 過境 休憩 時   在 樹林 的 保護下 安心 成長   更 期盼 在 長 期 的 努力 下   成為 全球 生物 多樣 性 的 後 盾     嘉義 布袋 擁有 廣闊 的 濕地 和 多樣 的 鳥類 棲息 地   以豐富 的 生態 資源 和 特色 環境 聞名   這裡 每年 冬季 都 會 迎來 一批 特別 的 客人   也 是 全球 關注 物種 — — 黑面 琵鷺   從 1989 年 全球 紀錄 288 隻   到 2024 年 共 6988 隻   數量 變化 一直 受到 國際 鳥類 保護 組織 的 密切 追 蹤     天氣剛 好 遇到 5 月 梅雨季   各地 受 鋒面 與 氣流 影響   很 幸運 的 受到 天公 伯伯 賞臉   讓 雲層 遮住 炙熱 的 太陽   在 陰涼 的 天氣 下 順利 進行     志工 的 雙手 從 平常 使用 的 電腦 與 滑鼠   換成 圓鍬 和 鏟子   互相 協助 挖出 半 公尺 深 與 寬 的 土穴   倒入 蚵 殼 抵擋 鹽氣   細心 覆土種 下 適合 在 濱 海生 長 的 木麻黃   黃 槿 和 大葉欖仁 的 樹苗   總共種 下 40 棵 樹   在 廣闊 的 環境 中 工作   志工 的 臉 因 挖掘 的 動作 變得 通紅   休補充 水分 時   抬頭望 就 能 看 見 波光粼粼 的 濕地 中   鳥類 生活 覓食 的 畫面   相信 大家 不僅 是 在 為 黑面 琵鷺 的 保護 出力   更是 為 全球 生物 多樣 性 的 維護 做出 貢獻     本次 環資 活動 總籌乙雯 說   「 相信 經過 今天 的 棲地 行動   我們 都 更 貼 近 腳下 這片 土地   了解 生態 保育 的 重要性   」   嘉義 擁有 著 美好 的 生態 棲地外   也 面臨 著 多重 的 環境 挑戰   工作 完成 後   志工 搭 上 遊覽車 移動 前往 白水 湖壽島   走訪 2020 年   消失 的 情人 節   電影 壯闊 海景 和 美麗夕陽 背 後   沒有 說 出 的 國土 消失   地層下陷   影響 生態 系統 健康 的 現況     嘉義 因優越 的 水質 地勢 條件   使養 蚵 產業 蓬勃 發展   外海 密密麻麻 的 竹棚   近岸 漂浮 的 白色 保麗龍   垂 吊式 養殖 和 道路 上 暫放 成山 的 蚵 殼   從 眼前 的 景色 就 能 了解 牡蠣 不同 的 養殖 方式   志工 走 在 隔 開陸 地 與 海 的 堤防 上   右手 邊是 海   左手 邊是 滯洪池   蔡 福昌 老師 說   「 現在 大家 腳下 的 堤防 近幾年 修建 加高   如果 不 這麼 做   陸 地上 坐路 的 掌潭村 就 會 有 淹 沒 的 危險 」   吹 著涼爽 的 海風   遠方 風力 發電機 運轉 著   退潮 時 沿著 海水 與 紅磚 被 海 水淹 沒 的 痕跡   水泥 路上 長 滿蘚類   可以 走向 外 海沙 島的 方向   感受 濱海 的 滄桑 與 失落     志工文 函用 望眼 鏡發現 高蹺 鴴   又名 長 腳 鷸 的 身影   一雙長 紅腿 在 淺水 地上 行走   欣賞 之餘 也 用 手機 連接 著望 遠鏡 的 鏡頭   拍下 它們 拍 翅 的 美姿     來 到 嘉義 不 只有 食 蚵   嘉時 航運 的 志工 不僅付 諸行動   守護 遠道 來 台 的 黑面 琵鷺 與候 鳥棲地   還相約 下次 再 到 布袋 濕地   樹下 乘涼   欣賞候 鳥 在 安心 棲息 的 美好 畫面   成為 生物 多樣 性守護者  </t>
+          <t>台灣 西南 沿海 地區 為候 鳥 主要 度冬棲息 地 為 了 守護 於 此 休憩 黑面 琵鷺 水鳥 與 候鳥 台灣 環境 資訊 協會 簡稱 環資嘉時 航運 股份 限司 簡稱 嘉時 航運 攜手 合作 態 工作 假期 於 5 月 27 日至 嘉義 布袋 濕地 執行 棲地 植樹 活動 讓 候鳥 過境 休憩 時 樹林 保護下 安心 成長 更 期盼 長 期 努力 下成 為 全球 物多樣 性後盾 嘉義 布袋 擁廣闊 濕地 多樣 鳥類 棲息 地以 豐富 態資源 特色 環境 聞名 這裡 每年 冬季 都 會 迎來 一批 特別 客人 全球 關注 物種 — — 黑面 琵鷺 從 1989 年 全球 紀錄 288 隻 到 2024 年 共 6988 隻 數量 變化 一直 受到 國際 鳥類 保護 組織 密切 追 蹤 天 氣 剛好 遇到 5 月 梅雨季 各地 受 鋒面 與 氣流響 很 幸運 受到 天 伯伯 賞臉 讓 雲層 遮住 炙 熱太陽 陰涼 天氣 下 順利進 行志工 雙手 從 平常 使用 電腦 與 滑鼠 換成 圓鍬 鏟子 互相 協助 挖出 半深 與 寬 土穴 倒入 蚵 殼 抵擋 鹽氣 細心 覆土種 下 適合濱 海長 木麻 黃 黃 槿 大葉欖仁樹苗 總共種 下 40 棵 樹廣闊 環境 中 工作 志工臉 因 挖掘 動作 變得 通紅休 補充 水分 時 抬頭望 就 能 看 見 波光粼粼 濕地 中 鳥類 活覓食 畫面 相信 大家 不僅 為 黑面 琵鷺 保護 出力 更為 全球 物多樣 性維護出 貢獻 本次 環資 活動 總籌乙雯 說 「 相信 經過 今天 棲地 行動 我們 都 更 貼 近 腳下 這片 土地 了解 態 保育 重要性 」 嘉義 擁著 美好 態棲地 外 面臨 著 多重 環境 挑戰 工作 完成 後 志工 搭 上 遊覽車 移動 前往 白水湖 壽島 走訪 2020 年 消失 情人 節電壯闊 海景 美麗夕陽 背 後 沒 說 出國土 消失 地層下陷 響態 系統 健康 現況 嘉義 因優越 水質 地勢 條件 使養 蚵 產業 蓬勃 發展 外海 密密麻麻 竹棚 近岸 漂浮 白色 保麗龍 垂 吊式 養殖 道路 上 暫放 成山 蚵 殼 從 眼前 景色 就 能 了解 牡蠣 不同 養殖 方式 志工 走 隔 開陸 地 與 海 堤防 上 右手 邊海 左手 邊滯 洪池 蔡 福昌 老師 說 「 現 大家 腳下 堤防 近幾年 修建 加高 如果 不 這麼 陸 地上 坐路 掌潭 村 就 會 淹 沒 危險 」 吹著涼 爽海風 遠方 風力 發電機 運轉 著 退潮 時 沿著 海水 與 紅磚 被 海 水淹 沒痕跡 水泥 路上 長 滿蘚類 可以 走向 外 海沙 島 方向 感受 濱海滄桑 與 失落 志工文 函用 望眼 鏡發現 高蹺 鴴 又名 長 腳 鷸身 一雙長 紅腿 淺水 地上 行走 欣賞 之餘用 手機 連接 著望 遠鏡 鏡頭 拍下 它們 拍 翅 美姿 來 到 嘉義 不只 食 蚵 嘉時 航運志 工不僅付 諸行 動守護 遠道 來 台 黑面 琵鷺 與候 鳥棲地 還相約 下次 再 到 布袋 濕地 樹下 乘涼 欣賞候 鳥 安心 棲息 美好 畫面 成為 物多樣 性守護</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">此外   也 有 住 戶質 疑公會 鑑定 的 專業   表示 重災戶 房子 傾斜 倒塌   不 就是 基泰 跟 技師 做出 來 的 「 安全 無虞證 明書 」   才 引起 這場 重大 公安 嗎   住戶 也 質疑現 在 鑑定 的 「 結構 安全 」   誰 能 保證 是 真的 安全     陳 怡君 也 提到   有 住戶 表示   對 於 下陷 的 地層   家中 磁磚 脫落   地 磚裂 掉   門窗 鐵門壞 掉   家中 漏水 水管 破裂   天花板 掉落 等   賠償 1.2 倍 相當 沒誠意   除了 財產 損失   多處 損鄰 也 造成 生活 不便   家中 隨時 有 磁磚 脫落 的 精神 折磨   還有 地震 來時 的 不安   這些 精神 賠償 呢     陳 怡君 說   這是 損鄰戶 第一次 在 公部門 的 主導 下 所 召開 的 調解會議   基泰 應正視 損鄰戶 的 心聲   針對 賠償金額   陳 怡 君主 張應 提高 為 1.5 倍   或主動 至 損鄰戶 家中 估價除 結構 之外 的 損失   增列 至 賠償金額 中   才 是 該 有 的 賠償 氣度     對此   據   自由 時報   報導   台北市 建管處 表示   為 促進 基泰 與 受 損戶 協調 和解 效率   都 發局 主動 在 本月 6 日 於 大直 國小辦 理代為 協調 會議   針對 會議 中受 損戶 提出 修繕 及 賠償金額 不足 等 訴求   已 請 基泰 建設 收集 受 損戶 所 提相 關意 見後並 妥為 處理   促進 建損 雙方 和解 進度  </t>
+          <t>此外 住戶質 疑會 鑑定 專業 表示 重災戶 房子 傾斜 倒塌 不 就 基泰 跟 技師 出來 「 安全 無虞證 明書 」 才 引起 這場 重大 安住 戶質 疑現 鑑定 「 結構 安全 」 誰 能 保證 真 安全 陳 怡君 提到 住戶 表示 對 於 下陷 地層 家中 磁磚 脫 落地 磚裂 掉門 窗鐵門 壞 掉 家中 漏水 水管 破裂 天花板 掉落 等 賠償 1.2 倍 相當 沒誠意 除了 財產損 失多處 損鄰 造成 活 不 家中 隨時 磁磚 脫落 精神 折磨 還 地震 來時 不安 這些 精神 賠償 陳 怡君 說 這損 鄰戶 第一次 部門 主導 下 所 召開調 解會議 基泰 應正視 損鄰戶 心聲針 對 賠償金額 陳 怡 君主 張應 提高 為 1.5 倍 或 主動 至 損鄰戶 家中 估價除 結構 之外 損失 增列 至 賠償金額 中才 該 賠償 氣度 對 此據 自由 時報 報導 台北市 建管處 表示 為 促進 基泰 與 受 損戶 協調解 效率 都 發局 主動 本月 6 日 於 大直 國小辦 理代為 協調 會 議針 對會議 中受 損戶 提出 修繕 賠償金額 不足 等 訴求 已 請 基泰 建設 收集 受 損戶 所 提相 關意 見後並 妥為 處理 促進 建損 雙方解 進度</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">原來 同一 個 新能源 市場   同時 有 這麼 多 幫人 在 市場 上 探索   開發     圖片 來源 ／ Pixabay  </t>
+          <t>原來 同一 個 新能源 市場 同時 這麼 多 幫人 市場 上 探索 開發 圖片 來源 Pixabay</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">記者 林意筑 ／ 台中 報導   台中港 西碼頭 附近   今   11   日 上午 一度 傳出 碼頭 破堤 消息   透過 現場 畫面 可見   一部 重型 機具 因 不明 原因 深陷 在 海砂 中   一旁 的 海水 幾乎 快 淹過   引發民眾 恐慌   不過 稍早 警方 緊急 澄清   由 於 該 起 工程 作業 本身 就 在 海平面 以下   因此 下 挖 管線 時   因 海水 的 壓力 導致 機具 下沉   並非 地層下陷 引起 海水倒灌     據悉   在 台中港 西碼頭 中油 區 近日 正在 進行 建造 冷凝 設備 的 工程 作業   但 今日 上午 一度 傳出   有 大型 機具 因 不明 原因 深陷 在 海砂 中   造成 恐慌     對此   台中港 務西 碼頭 中隊 長 賴逸丰 表示   由 於 該 起 工程 作業 的 「 挖 埋 管線 」 部分 本身 就 在 海平面 以下   而 下 挖 管線 時 因 海水 的 壓力 差而導致 機具 下沉   並非 地層下陷 引起 海水倒灌   預計 今日 下午 抽完 海水 後 即可 繼續 作業   現場 也 無人員 受傷   也 無 相關 設備 及 建物 損壞  </t>
+          <t>林意筑 台中 報導 台中港 西碼頭 附近 今 11 日 上午 一度 傳出 碼頭 破堤 消息 透過 現場 畫面 可見 一部 重型 機具 因 不明 原因 深陷 海砂 中 一旁 海水 幾乎 快 淹過 引 發民眾 恐慌 不過 稍早 警方 緊急 澄清 由 於 該 起 工程 作業 本身 就 海平面 以下 因此 下 挖 管線 時 因 海水 壓力 導致 機具 下沉 並非 地層下陷 引起 海水倒灌 據悉 台中港 西碼頭 中油 區 近日 正 進行 建造 冷凝 設備 工程 作業 但 今日 上午 一度 傳出 大型 機具 因 不明 原因 深陷 海砂 中 造成 恐慌 對此 台中港 務西 碼頭 中隊 長 賴逸丰 表示 由 於 該 起 工程 作業 「 挖 埋 管線 」 部分 本身 就 海平面 以下 而 下 挖 管線 時 因 海水 壓力 差而導致 機具 下沉 並非 地層下陷 引起 海水倒灌 預計 今日 下午 抽完 海水 後 即可 繼續 作業 現場 無人員 受傷 無 相關 設備 建物 損壞</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">近期 有 能源 公司 在 元長 鄉 瓦 磘 村 建 設 太 陽 光 電 場   卻 場址 設 在 村莊 中心   讓 當地 居民 人心惶惶   今 ( 11 ) 日 瓦 磘 反光 電 自救 會 前往 雲林縣 議會   向 縣長 張麗善 遞交陳情 書   盼光 電廠 商 另 尋他 地   不要 將光 電場 設置 於 瓦 磘 村 中   張麗善 除 親手 接下 陳 情書   也 表示 會 站 在 鄉親 的 立場   保護 大家 的 居住 環境   也 呼籲台 電應 考量 民眾 意見 本權責 妥處     張麗善 表示   地方 政府 跟 中央政府 都 有 各自 的 權責   公務人員 有 需要 配合 的 行政 程序   目前 的 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 的 土地   已經 被 中央 核定 為 合法 種電 的 範圍     張麗善 再次 強調 「 三不三要 」   不 希望 在 農地 一直 種電   破壞 農地 未來 的 發展 跟 價值   她 認為 光電業者 在 聚落 裡 種電   已影響 鄉親 的 生活 起居 跟 品質   能 感同身受 鄉親 的 不安 和 焦慮   會 透過 各種 協調 溝通   保障 在 地 鄉親 的 權益     建設 處長 李俊 興 表示   本案 屬於鄉 村區 乙種 建築 用地   業者 依法 向 縣府 提出 申請   公部門 亦 依法行政 核發 同意 文件   去年 9 月 接 獲民眾 陳 情 後   立即 協調 業者 應 與 當地 居民 持續 溝通   業者 也 表示同意 先行 暫停 施工  </t>
+          <t>近期 能源 司 元長鄉 瓦 磘 村 建 設 太 陽 光 電 場 卻 場 址 設 村 莊 中心 讓 當地 居民 人心惶惶 今 ( 11 ) 日 瓦 磘 反光 電 自救 會 前往 雲林縣 議會 向 縣長 張麗善 遞交陳情 書 盼 光電廠 商 另 尋他 地 不要 將光 電場 設置 於 瓦 磘 村 中 張 麗 善 除 親 手 接下 陳 情書 表示 會 站 鄉 親立場 保護 大家 居住 環境 呼籲台 電應 考量 民眾 意見 本權責 妥處 張麗善 表示 地方 政府 跟 中央政府 都 各自 權責務 人員 需要 配合 行政 程序 目前 法令 規定 若 建地 就 可以 百分之百 種電 雲林縣 農地 很多 地層下陷 易 淹水 不利 耕作 土地 已經 被 中央 核定 為 合法 種電 範圍 張麗善 再次 強調 「 三不三要 」 不 希望 農地 一直 種電 破壞 農地 未來 發展 跟 價值 認為 光電業 聚落 裡 種電 已響 鄉 親活 起居 跟品 質能 感同身受 鄉親 不安 焦慮 會 透過 各種 協調 溝通 保障 地鄉 親權益 建設 處長 李俊 興 表示 本案 屬於鄉 村區 乙種 建築 用地 業 依法 向 縣府 提出 申請 部門 亦 依法行政 核發 同意 文件 去年 9 月 接 獲民眾 陳 情 後 立即 協調業 應 與 當地 居民 持續 溝通業 表示同意 行暫 停 施工</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">陳 安邦 等 表示   種電 可以 在 村外   在 村內 緊鄰 民宅   不要 說 危害   打開 家門   窗戶 看到 就是 太陽 能板   叫 8   90 歲 老人 情 何以堪   尤其 在 庄內 種電 的 作為   請問 哪個 村 可以 接受   所以 村民 大團 結堅 決展 現反 對 到底 決心   任何 回饋 都 不用 說   打死 都 反 對 在 庄內 種電   有 任何 法律 問題 他 一個 人承擔   甚至 為 了 爭取 縣長 張麗善 村民 主持公道   特別 在 今天 前來 向 張縣 長 陳 情   唯一 要求 光場 業者 退出 瓦 磘 村     縣長 張麗善 接下 陳 情書 後 指出   地方 政府 跟 中央政府 都 有 各自 的 權責   公務人員 有 需要 配合 的 行政 程序   目前 的 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 的 土地   已經 被 中央 核定 為 合法 種電 的 範圍   為 了 保護 我們 的 農地   特別 提出 三不三要   就是 不 希望 在 農地 上面 一直 種電   破壞 農地 未來 的 發展 跟 價值   光電業者 在 聚落 裡面 種電   已經 影響 鄉親 的 生活 起居 跟 品質   大家 的 不安 和 焦慮 我們 都 能 感同身受   縣府 也 透過 各種 協調 溝通   希望 能 保障 在 地 鄉親 的 權益  </t>
+          <t>陳 安邦 等 表示 種電 可以 村外 村緊 鄰 民宅 不要 說 危害 打開 家門 窗戶 看到 就 太陽能 板 叫 890 歲 老人 情 何以堪 尤其 庄 種電 作為 請問 哪個 村 可以 接受 所以 村民 大團 結堅 決展 現反 對 到底 決心 任何 回饋 都 不用 說 打死 都 反對庄 種電 任何 法律 問題 他 一個 人承擔 甚至 為 了 爭取 縣長 張麗善 村民 主持 道特 別 今天 前來 向 張縣 長 陳 情 唯一 要求 光場業 退出 瓦 磘 村 縣 長 張 麗 善 接下 陳 情書 後 指出 地方 政府 跟 中央政府 都 各自 權責務 人員 需要 配合 行政 程序 目前 法令 規定 若 建地 就 可以 百分之百 種電 雲林縣 農地 很多 地層下陷 易 淹水 不利 耕作 土地 已經 被 中央 核定 為 合法 種電 範圍 為 了 保護 我們 農地 特別 提出 三不三要 就 不 希望 農地 上面 一直 種電 破壞 農地 未來 發展 跟 價值 光電業 聚落 裡面 種電 已經響 鄉 親活 起居 跟 品質 大家 不安 焦慮 我們 都 能 感同身受 縣府 透過 各種 協調 溝通 希望 能 保障 地鄉 親權益</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>張信 哲杜拜 站 演唱 會 原定 2 月 登場   後 來 撞 上 極端 氣候 出現 冰雹   淹水 災害   因而 延期 至 端午 假期 6 月 9 日舉行   他 笑 說   「 很 開心 啊   差點 變成 不是 第一 個   」 透露 目前 已經 有 很多 歌手   也 陸續 安排 開唱 計畫   原本 很 擔心 在 阿拉伯 國家 演出 會 有 很多 限制   像是 有些 景點 不能 比 出 特定 手勢   演唱 會太過 喧鬧   後 來 才 發現 他們 對 外國人 很 禮遇   也 很 支持 娛樂 活動     第一次 得知 邀請 時   張信哲 心想   「 真的假 的 啦   有人 要 聽 嗎   」 過往 都 只有 在 杜拜 轉機 的 經驗   從 未 入境 過旅遊 的 他 說   「 他們 來 邀 請 時 就 說   以中 東來 說 這邊 是 華人 最 多 的 地方   30 萬人   」 杜拜位 處國際 航班 交通 樞紐   因此 有來 自 歐洲   俄羅斯 的 華人 歌迷   特地 飛來 欣賞 演唱 會   因為 天災 延期 開唱   歌迷 們 沒 有 太 多 抱怨 的 問題   把 票 留著 就 為 了 等到 正式 演出 這 一天 朝聖     首次 前進 沙漠 開唱   張信哲 的 歌喉 完全 沒有 受 影響   「 還好   場館 冷氣 很足   我 提前 4 天來   杜拜   調時 差   」 本來 就 沒 有 計畫 要 衝場 次 演出   1 週 1 場已 是 最大 限度     未來式   巡演 開唱 6 年   亞洲 站 預計 至 2024 年底 結束   前進 海外 開唱   他 最 想 攻 佔 的 場館 是 英國倫敦 皇家 阿爾伯特 音樂廳   Royal   Albert   Hall       張信 哲新 專輯 已經 在 籌備 中   下半年 會釋 出 更 多 新歌   台北 小 巨蛋   高雄 巨蛋 演唱 會   則要 排到 2025 年 才能 開唱   「 第一 個 要 搶 時間   現在 場館 太難 搶 了   」 記者 提議 大 巨蛋 開唱   張信哲 卻 謙虛回   「 大 巨蛋 周董   周杰倫   都 還排 不到   哪 還輪 的 到 我   等 別人 有空 給我用   我 再 用 就 好   」   歌神 張學友 因為 身體 不適   日前 取消 台北 站 演唱 會   張信哲 也 有 關注 此事   「 好 害怕   我 有 在 吃 增強 免疫力 的藥   醫生開 的   」 即將 前進 海拔 2000 多 公尺 青海 西寧站 開唱   張信哲 提到 「 前輩 」 薛之謙唱 到 吸氧 氣   私下 還嚇 他   「 你 一定 不要 亂動   不要 突然 爆衝   」</t>
+          <t>張信 哲杜拜 站 演唱 會 原定 2 月 登場後來 撞 上 極端 氣候 出現 冰雹 淹水 災害 因而 延期 至 端午 假期 6 月 9 日舉行 他 笑 說 「 很 開心 差點 變成 不 第一 個 」 透露 目前 已經 很多 歌手 陸續 安排 開唱 計畫 原本 很 擔心 阿拉伯 國家 演出 會 很多 限制 像些 景點 不能 比 出 特定 手勢 演唱 會太過 喧鬧後來 才 發現 他們 對 外國人 很 禮遇 很 支持 娛樂 活動 第一次 得知 邀請 時張 信哲 心想 「 真假 啦 人 要 聽 」 過往 都 只 杜拜 轉機 經驗 從 未 入境 過旅遊 他 說 「 他們 來 邀 請 時 就 說 以 中 東來 說 這邊 華人 最多 地方 30 萬人 」 杜拜位 處 國際 航班 交通 樞紐 因此 來 自 歐洲 俄羅斯華人 歌迷 特地 飛來 欣賞 演唱 會 因為 天災 延期 開 唱歌 迷們 沒太多 抱怨 問題 把 票 留著 就 為 了 等到 正式 演出 這 一天 朝聖 首次 前進 沙漠 開唱張 信哲 歌喉 完全 沒 受響 「 還好 場館 冷氣 很 足 我 提前 4 天來 杜拜 調時 差 」 本來 就 沒計 畫要 衝場 次 演出 1 週 1 場已 最大 限度 未來式 巡演 開唱 6 年亞洲 站 預計 至 2024 年底 結束 前進 海外 開唱 他 最 想 攻 佔 場館 英國倫敦 皇家 阿爾伯特 音樂廳 Royal   Albert   Hall 張信 哲新 專輯 已經 籌備 中 下半年 會釋 出 更 多 新歌 台北 小 巨蛋 高雄 巨蛋 演唱 會則 要 排到 2025 年 才能 開唱 「 第一 個 要 搶 時間 現場館 太難 搶 了 」 提議 大 巨蛋 開唱張 信哲 卻 謙虛回 「 大 巨蛋 周董 周杰倫 都 還排 不到 哪 還輪 到 我 等 別人 空給 我 用 我 再 用 就 好 」 歌神 張學友 因為 身體 不適 日前 取消 台北 站 演唱 會 張信 哲關 注 此事 「 好 害怕 我 吃 增強 免疫力 藥醫開 」 即將 前進 海拔 2000 多 青海 西寧站 開唱張 信哲 提到 「 前輩 」 薛之謙唱 到 吸氧 氣 私下 還嚇 他 「 一定 不要 亂動 不要 突然 爆衝 」</t>
         </is>
       </c>
     </row>
